--- a/korean_crawling/articles/pressian.xlsx
+++ b/korean_crawling/articles/pressian.xlsx
@@ -16,2290 +16,2290 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="762">
   <si>
-    <t>urls</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>contents</t>
+    <t>url</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/143342</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/276024</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/230420</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/224650</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/206766</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/270900</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/255746</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/244027</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/181229</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020081911370042893</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/215266</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/206656</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/188433</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/133087</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020042215593269775</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/212469</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/199204</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/189208</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/267063</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/138654</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/133926</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/205509</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/201144</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/149324</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/261175</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/275246</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/220969</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020090312292453013</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/279150</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/194173</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/284258</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/233837</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/157807</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/207399</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/137307</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/256605</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020070114241116709</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/171822</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/207347</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/211151</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/215509</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/129523</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/242994</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/128794</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/215599</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/217408</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/167072</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/235668</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/207943</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/255444</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/246685</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/170698</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/138084</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/205223</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/214897</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/154538</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/155542</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/128741</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/128228</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020052607222659806</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/212194</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/263746</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/214218</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/139529</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/218021</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020050410235287070</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/255088</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/128468</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/133811</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/244515</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020073117493311264</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/226082</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/222678</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/233500</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/231388</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/190280</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020061017141119131</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/272908</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/220247</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/226309</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/128843</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/179293</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/165300</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/188574</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/249450</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/141267</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/137121</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/239209</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/129915</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/262674</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/200527</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/224240</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/215467</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/254647</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020071717025260035</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/227837</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/132159</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/138464</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/260644</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/136482</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/124005</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/153325</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/212192</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/164610</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/221267</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/192608</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/167131</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/226578</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/224834</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/212182</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/160449</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/210306</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/156444</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/206730</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/209008</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/219887</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020101413423478265</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/225154</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/222752</t>
   </si>
   <si>
     <t>https://www.pressian.com/pages/articles/215545</t>
   </si>
   <si>
+    <t>https://www.pressian.com/pages/articles/225444</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/133173</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/215705</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/215486</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/206412</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/127632</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/140410</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/241940</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/196151</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/212478</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/127837</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/160717</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/269230</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/186330</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/152988</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/212588</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/248743</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/221042</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/125910</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/248020</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/232857</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/220296</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/249124</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/235754</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/278000</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/212918</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/234364</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/230978</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/224778</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/186931</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/231803</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/181103</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/212435</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/226057</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/167162</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/134107</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/123765</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/265535</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/205976</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/270975</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/243637</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/131670</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/251605</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/242541</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/220898</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/163332</t>
+  </si>
+  <si>
     <t>https://www.pressian.com/pages/articles/194461</t>
   </si>
   <si>
-    <t>https://www.pressian.com/pages/articles/278000</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/188574</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/212478</t>
+    <t>https://www.pressian.com/pages/articles/213964</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/181329</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/212508</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/258355</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/213424</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/189008</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020101211190142490</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/217155</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/221781</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/275384</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/194601</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/161847</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/229593</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/199700</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/217569</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/234288</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/222670</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/138611</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/131422</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/254137</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/226126</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020072211232106837</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/260269</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/278931</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/206805</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/140643</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/252297</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/210872</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/226900</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/220809</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/247040</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/136345</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/207704</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/210231</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/276999</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/182341</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/152330</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/270786</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/156214</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020101417195464489</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/241163</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/279294</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/272928</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/206190</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/190439</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020051814131712264</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/173299</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/204653</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/228772</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/170678</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/275390</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/133802</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/225325</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/162327</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/193206</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/218080</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/218441</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020072411424053691</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/206148</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/272915</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/273961</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/270124</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/219131</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/207585</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/208803</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/226780</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/241657</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/204958</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/198987</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/240451</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/214363</t>
   </si>
   <si>
     <t>https://www.pressian.com/pages/articles/192617</t>
   </si>
   <si>
-    <t>https://www.pressian.com/pages/articles/167131</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020050410235287070</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/137121</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020061017141119131</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/152330</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020052607222659806</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/133926</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/243637</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/242541</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/276999</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/211151</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/252297</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/221781</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/206148</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/234364</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/260269</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/138611</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/222678</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/128741</t>
+    <t>https://www.pressian.com/pages/articles/230539</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/167088</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020081915301660979</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/209720</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/158882</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020070717183585906</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/216695</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/274447</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/252027</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/253985</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/206577</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/2020092609412016666</t>
+  </si>
+  <si>
+    <t>https://www.pressian.com/pages/articles/232734</t>
   </si>
   <si>
     <t>https://www.pressian.com/pages/articles/217665</t>
   </si>
   <si>
-    <t>https://www.pressian.com/pages/articles/127632</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/212435</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/270124</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/222670</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/221267</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/156214</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/235668</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/224240</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/182341</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/220969</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/129523</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/186330</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/278931</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020101413423478265</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/270975</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/167162</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/233500</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/220898</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/127837</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/241163</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/161847</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/265535</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/253985</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/272915</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/140643</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/173299</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/225154</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/212469</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/248743</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/275390</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/206656</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/244027</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/124005</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020090312292453013</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/255444</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/200527</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/212508</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/233837</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020071717025260035</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/249450</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/226309</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/272908</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/160449</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/232857</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/199700</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/275384</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/165300</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/269230</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/255746</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/207704</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/251605</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/212182</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/215705</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/274447</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/209008</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/208803</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/181229</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/220296</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/196151</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/205976</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/214897</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/199204</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/273961</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/252027</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/125910</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/260644</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/240451</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/219131</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/167088</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/230978</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/248020</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/234288</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/226126</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/128794</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/194601</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/229593</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/186931</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/207347</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/215486</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020042215593269775</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/232734</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/167072</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/136345</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/276024</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/249124</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020072211232106837</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/133087</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/220809</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/217408</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/123765</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/160717</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/226900</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/247040</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/210872</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/189008</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020073117493311264</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020081915301660979</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/206412</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/279294</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/226082</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/272928</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/170678</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/138084</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/230420</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/215599</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/241940</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/244515</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/157807</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/136482</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020092609412016666</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/212588</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/133173</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/153325</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/207399</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/170698</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/133811</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/215266</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/263746</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/217155</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/213964</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/171822</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/189208</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/155542</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/218080</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/133802</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020070717183585906</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020081911370042893</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/216695</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/284258</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020101211190142490</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/231803</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/218021</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/128843</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/207943</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/206730</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/231388</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/213424</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/239209</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/154538</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/256605</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/139529</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/246685</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/212194</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/254137</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/242994</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/224834</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/210306</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/140410</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/210231</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/221042</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020101417195464489</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/131670</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/219887</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/132159</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/188433</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/152988</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/215467</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020072411424053691</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/134107</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020051814131712264</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/230539</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/198987</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/214363</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/138654</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/226578</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/261175</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/190280</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/254647</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/275246</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/228772</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/220247</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/190439</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/206805</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/138464</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/128468</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/206577</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/267063</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/235754</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/270900</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/225325</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/206766</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/226057</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/212192</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/181103</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/128228</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/204653</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/201144</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/224778</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/207585</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/162327</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/131422</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/262674</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/194173</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/181329</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/158882</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/206190</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/225444</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/224650</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/143342</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/2020070114241116709</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/129915</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/222752</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/255088</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/215509</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/205223</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/193206</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/137307</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/270786</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/141267</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/258355</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/164610</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/218441</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/156444</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/226780</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/241657</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/192608</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/217569</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/179293</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/205509</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/163332</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/209720</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/214218</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/212918</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/149324</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/279150</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/204958</t>
-  </si>
-  <si>
-    <t>https://www.pressian.com/pages/articles/227837</t>
+    <t>민심 폭발 초읽기... 대규모 집회·시국선언 연이어</t>
+  </si>
+  <si>
+    <t>세종시 "지역화폐 발행...유망 신산업 추진"</t>
+  </si>
+  <si>
+    <t>경북도, 포항에서 바이오 오픈 이노베이션 센터(BOIC) 기공식</t>
+  </si>
+  <si>
+    <t>이철우 도지사, 지멘스헬시니어스와 MOU체결</t>
+  </si>
+  <si>
+    <t>KAIST, 3D 스케칭 기술 에어 스캐폴딩(air scaffolding) 개발</t>
+  </si>
+  <si>
+    <t>원희룡 지사 스타트업 기업 외롭지 않게 할것</t>
+  </si>
+  <si>
+    <t>창원경제 "규모축소·고용위기"</t>
+  </si>
+  <si>
+    <t>황교안 외연 확장용 '경제대전환위' 위원도 막말 논란</t>
+  </si>
+  <si>
+    <t>대한민국의 60일을 빛낸 2018 평창 동계올림픽 성화</t>
+  </si>
+  <si>
+    <t>태백시, 장석복 카이스트 교수 명예시민증 수여</t>
+  </si>
+  <si>
+    <t>소형 과학로켓 ‘우리새-2호’ 28일 발사</t>
+  </si>
+  <si>
+    <t>KAIST 국제 인공지능기술 워크숍 및 AI축구대회 개최.</t>
+  </si>
+  <si>
+    <t>“카이스트 일부 교수도 성희롱·성추행”…대학원 총학 설문</t>
+  </si>
+  <si>
+    <t>새누리 '친박', 더민주 '카이스트', 국민의당 '호남'</t>
+  </si>
+  <si>
+    <t>허태정 대전시장 세계 지방정부 지도자들과 감염병 공동대응 협력</t>
+  </si>
+  <si>
+    <t>KAIST 이해신 교수 과학기술인상 10월 수상자 선정</t>
+  </si>
+  <si>
+    <t>국토부 “미래기술 미리 체험해 보세요”</t>
+  </si>
+  <si>
+    <t>금감원장 사퇴 부메랑, 김정태 3연임 저지?</t>
+  </si>
+  <si>
+    <t>제주도 제주그린빅뱅포럼 개최</t>
+  </si>
+  <si>
+    <t>부산, 서울대 연고대 KAIST 등 참가 최대 진로진학박람회 열려</t>
+  </si>
+  <si>
+    <t>알파고의 승리, '내 일자리'는 무사할까?</t>
+  </si>
+  <si>
+    <t>난치성 유전질환 섬모병증 치료제  개발 청신호</t>
+  </si>
+  <si>
+    <t>부산시, 치과의료분야 전문 인재양성원 설립</t>
+  </si>
+  <si>
+    <t>경상대, 대입전형 표준화 발전방안 심포지엄 개최</t>
+  </si>
+  <si>
+    <t>태백산소드림도서관, ‘과학자들의 작은 도시 강연회’ 개최</t>
+  </si>
+  <si>
+    <t>사천·남해·하동선거구 한국당 최상화 예비후보 공약 발표</t>
+  </si>
+  <si>
+    <t>복합면역 관문억제제 특정 환자에게만 효능</t>
+  </si>
+  <si>
+    <t>김상협 제11대 제주연구원장 취임</t>
+  </si>
+  <si>
+    <t>경상대 제11대 총장임용후보자 선거 결과 발표</t>
+  </si>
+  <si>
+    <t>KTL-SaTReC 우주기술 산업화 맞손</t>
+  </si>
+  <si>
+    <t>창원시, 강소특구 ‘기술이전사업화사업’ 공고</t>
+  </si>
+  <si>
+    <t>대통령 휴가지 대전 장태산에 환경오염 발전소 건설?</t>
+  </si>
+  <si>
+    <t>과학자들, '환경윤리'를 입에 올리다</t>
+  </si>
+  <si>
+    <t>KAIST, 세계 최초 인공지능 분야 국제대회 개최</t>
+  </si>
+  <si>
+    <t>당신의 비밀, 페이스북은 알고 국정원은 모른다</t>
+  </si>
+  <si>
+    <t>지식인 664명 기후위기 선언..."한국, 기후악당 불명예"</t>
+  </si>
+  <si>
+    <t>aT, 고객과 함께 ‘전사적 혁신토론회’ 개최</t>
+  </si>
+  <si>
+    <t>태백시, 국내 최고 명품 ‘웰니스 항노화 도시’ 시동</t>
+  </si>
+  <si>
+    <t>文대통령·여야5당 회동 앞, 정치학자 등 68명 긴급성명</t>
+  </si>
+  <si>
+    <t>간질 발작을 일으키는 소아 뇌종양 치료법 제시</t>
+  </si>
+  <si>
+    <t>&lt;최종&gt; 전북대 총장 임용 후보자 1순위에 김동원 교수 선출</t>
+  </si>
+  <si>
+    <t>'콧노래, 휴식 금지'…공공기관 비정규직 사용법!</t>
+  </si>
+  <si>
+    <t>수소기반 연료전지 상용화 핵심 실용촉매 개발</t>
+  </si>
+  <si>
+    <t>다음카카오 신임 단독대표 30대 임지훈 씨</t>
+  </si>
+  <si>
+    <t>김동원 전북대 총장임용 내정자, "전북인재를 세계적 인재로 키워내겠다"</t>
+  </si>
+  <si>
+    <t>뇌파 생성-변조 담당하는 핵심 신경회로 규명</t>
+  </si>
+  <si>
+    <t>주미대사에 조윤제…주중대사 노영민, 주일대사 이수훈</t>
+  </si>
+  <si>
+    <t>전북과 새만금의 '운명'을 바꾸자</t>
+  </si>
+  <si>
+    <t>최고 효율의 유기발광다이오드(OLED) 구현</t>
+  </si>
+  <si>
+    <t>한전-전남도-나주시 ‘그린수소 사업’ 추진</t>
+  </si>
+  <si>
+    <t>전주대, 중소벤처리더스 최고경영자과정 제2기 수료식 개최</t>
+  </si>
+  <si>
+    <t>홍준표도 국정원에 공격당했다</t>
+  </si>
+  <si>
+    <t>"직업 정치인 때문에 '이상한 나라'가 되고 있다"</t>
+  </si>
+  <si>
+    <t>플라즈마에서 전자가 가열되는 구조와 제어 원리 규명</t>
+  </si>
+  <si>
+    <t>'제2회 전주 세계슬로포럼·슬로어워드' 개막</t>
+  </si>
+  <si>
+    <t>강원랜드, 제19기 정기주주총회 개최</t>
+  </si>
+  <si>
+    <t>진주시 공무원, 제2회 공무원 빅데이터 분석 공모전 대상 수상</t>
+  </si>
+  <si>
+    <t>"'교회 오빠'는 소수…기독교인들이 더 연애 못해"</t>
+  </si>
+  <si>
+    <t>개성공단이 北 '달러박스'? 우리 이득이 더 많다!</t>
+  </si>
+  <si>
+    <t>JDC, AI×글로벌 아카데미 27일 시작</t>
+  </si>
+  <si>
+    <t>GIST 출신 박성준 박사, '피부 부착형 심전도 측정 장치' 개발</t>
+  </si>
+  <si>
+    <t>1조 자산가 대통령 직속 4차산업혁명위원장의 궤변</t>
+  </si>
+  <si>
+    <t>달걀 속 살충제 성분 전처리 없이 검출 가능</t>
+  </si>
+  <si>
+    <t>전경련 CEO하계포럼, “4차 산업혁명 선제적 대응 필요”</t>
+  </si>
+  <si>
+    <t>KAIST 이상엽 교수, 세계경제포럼 생명공학위 공동의장에 재선임</t>
+  </si>
+  <si>
+    <t>文대통령, 靑 과기보좌관에 박수경 카이스트 교수 발탁</t>
+  </si>
+  <si>
+    <t>마산大, 이군현 전 KAIST 교수 초청 특강</t>
+  </si>
+  <si>
+    <t>&lt;마리텔&gt;에 왜 과학자는 없나요?</t>
+  </si>
+  <si>
+    <t>나도 모르는 페친의 비밀, 네트워크는 안다</t>
+  </si>
+  <si>
+    <t>내년도 충북 지역현안 6조 원대…국회지원 절실</t>
+  </si>
+  <si>
+    <t>영월장학회, 2학기 복학 장학생 선발</t>
+  </si>
+  <si>
+    <t>항공우주협회,  '항공 산업 육성 세미나' 가져</t>
+  </si>
+  <si>
+    <t>장성군, 중국 ‘중경우전대학과 MOU’ 체결</t>
+  </si>
+  <si>
+    <t>옷감을 직접 기판으로 사용하는 디스플레이 모듈 개발</t>
+  </si>
+  <si>
+    <t>'https 논란'에 시민들 분노하는 진짜 이유 모르나</t>
+  </si>
+  <si>
+    <t>“떨리는 마음으로 출항 날만 손꼽아 기다려요”</t>
+  </si>
+  <si>
+    <t>한림대 2021 QS 세계대학평가 국내 18위, 역대 최고 성적</t>
+  </si>
+  <si>
+    <t>원희룡 도지사, 미국 실리콘밸리와 CES 2020 행사 참석</t>
+  </si>
+  <si>
+    <t>학자 189명 긴급 성명, '더불어한국당' 야합 강력 비판</t>
+  </si>
+  <si>
+    <t>차세대 뇌 기반 인공지능 시스템 설계 방향 제시</t>
+  </si>
+  <si>
+    <t>도시의 미래, 걷기에 달렸다</t>
+  </si>
+  <si>
+    <t>전북대, 세계 최초 AI 월드컵서 우승컵 '키스'</t>
+  </si>
+  <si>
+    <t>북핵있으니 우리도 핵무장?</t>
+  </si>
+  <si>
+    <t>황호진 전북교육감 예비후보,  출판기념회 '후끈'</t>
+  </si>
+  <si>
+    <t>LX, 국토교통부 추최 '2019스마트국토엑스포' 주관</t>
+  </si>
+  <si>
+    <t>최초의 생명은 불지옥에서 탄생했다!</t>
+  </si>
+  <si>
+    <t>청년, 하루 살고 하루 자기도 버겁다</t>
+  </si>
+  <si>
+    <t>허태정 대전시장 중소벤처부 대전 잔류 요청</t>
+  </si>
+  <si>
+    <t>"'노유진의 정치카페' 진짜 배후는 박근혜"</t>
+  </si>
+  <si>
+    <t>POSTECH, '세계혁신대학' 아시아 1위</t>
+  </si>
+  <si>
+    <t>삼성전자, 남의 기술 공짜로 쓰다 미국에서 철퇴</t>
+  </si>
+  <si>
+    <t>노스웨스턴대 자랑스러운 동문상에 신성철 KAIST총장</t>
+  </si>
+  <si>
+    <t>강정민 원안위원장 사퇴…여야 "무책임하다" 질타</t>
+  </si>
+  <si>
+    <t>상병헌 세종시의원 “대학 유치로 자족기능 확보해야”</t>
+  </si>
+  <si>
+    <t>순천대-13개 기관 ‘수소가스터빈 연소기 개발’ 업무협약</t>
+  </si>
+  <si>
+    <t>공포기억 악해지도록 뇌 조절하는 효소 발견</t>
+  </si>
+  <si>
+    <t>김영란법 '좋은 뉴스' vs. 삼성 합병 '나쁜 뉴스'</t>
+  </si>
+  <si>
+    <t>가습기 살균제 발명가, 어디서 뭐하나?</t>
+  </si>
+  <si>
+    <t>'조국 딸 vs 나경원 아들'…그들만의 진흙탕 싸움</t>
+  </si>
+  <si>
+    <t>이재용 테마주, 넌 '대박', 난 '쪽박'?</t>
+  </si>
+  <si>
+    <t>취업·학점 움켜쥐고 괴물이 된 교수들</t>
+  </si>
+  <si>
+    <t>문재인 "법인세 인상? 기업 죽으면 어떡하나"</t>
+  </si>
+  <si>
+    <t>독성가스 사용않는 새 촉매법 개발</t>
+  </si>
+  <si>
+    <t>정창덕 송호대 제11대 총장 선임</t>
+  </si>
+  <si>
+    <t>KAIST이사회 신성철 총장 직무정지 요청 거부</t>
+  </si>
+  <si>
+    <t>“하이원 선상학교에서 창의인재로 성장합니다”</t>
+  </si>
+  <si>
+    <t>최대웅 박사, 美 루이지애나주립대 조교수 임용</t>
+  </si>
+  <si>
+    <t>KAIST, 우수한 수명 속도 갖는 리튬-황 이차전지 구현</t>
+  </si>
+  <si>
+    <t>KAIST 자랑스런 동문상 수상자에 서길수 영남대 총장 등 4명</t>
+  </si>
+  <si>
+    <t>조선대 고지성·강주성학생, '2018 캔위성 경연대회' 우수상</t>
+  </si>
+  <si>
+    <t>경상대학교, 선도연구센터(ERC) 선정</t>
+  </si>
+  <si>
+    <t>인공신경망 이용 워터마크 기술 개발</t>
+  </si>
+  <si>
+    <t>경남과학교육원, 제50회 과학의 날 기념식 개최</t>
+  </si>
+  <si>
+    <t>사감위 제5대 강원순 위원장 위촉</t>
+  </si>
+  <si>
+    <t>KAIST와-국립중앙과학관  스마트 과학관 전시연구단 출범</t>
+  </si>
+  <si>
+    <t>신성철 KAIST 총장 “양심에 부끄러운 일 하지 않았다"</t>
+  </si>
+  <si>
+    <t>연금개혁을 위한 '골든타임' 얼마 남지 않았다</t>
+  </si>
+  <si>
+    <t>스위스 다보스포럼 KAIST 신성철 총장 이상엽 교수 초청</t>
+  </si>
+  <si>
+    <t>'정치자금법 위반' 한국당 이군현 의원직 상실</t>
   </si>
   <si>
     <t>열악한 인터넷 환경에서도 고화질 영상 감상 할 수 있다</t>
   </si>
   <si>
+    <t>대전시의회 제241회 임시회 개회</t>
+  </si>
+  <si>
+    <t>이한구 "유승민, 상식적으로 퇴출 대상 아니다"</t>
+  </si>
+  <si>
+    <t>KAIST, 극 미세피치용 이방성 전도필름 개발</t>
+  </si>
+  <si>
+    <t>전북대병원 연구중심병원 육성 심포지엄 개최</t>
+  </si>
+  <si>
+    <t>KAIST 초세대 협업연구실 4곳으로 늘어</t>
+  </si>
+  <si>
+    <t>성추행 의혹 KAIST 교수, 서울대병원 연구원으로?</t>
+  </si>
+  <si>
+    <t>카이스트 명교수의 의학 강의를 직접 듣자!</t>
+  </si>
+  <si>
+    <t>'세종 더휴 예미지' 24일 견본주택 개관</t>
+  </si>
+  <si>
+    <t>대전상의, 205차 대전경제포럼 개최</t>
+  </si>
+  <si>
+    <t>대전시립교향악단 시민 맞춤형 콘서트</t>
+  </si>
+  <si>
+    <t>초읽기 들어간 '이재용 시대', 4대 검증 포인트</t>
+  </si>
+  <si>
+    <t>이상경 경상대 총장, 취임 1주년 특별 기자 간담회 실시</t>
+  </si>
+  <si>
+    <t>권혁 도로공사 신임 전북본부장 취임</t>
+  </si>
+  <si>
+    <t>순천시의회 주윤식 부의장, 한전공대 순천유치위원회 발족 추진 촉구</t>
+  </si>
+  <si>
+    <t>박근혜 명예박사학위 취소될까…동문들 "철회해야"</t>
+  </si>
+  <si>
+    <t>KAIST, 개방형 창업지원 프로그램 운영</t>
+  </si>
+  <si>
+    <t>탈원전 정부에서도 원자력계가 느긋한 이유</t>
+  </si>
+  <si>
+    <t>거울 등 사물을 터치스크린으로 활용해 영상을 본다</t>
+  </si>
+  <si>
+    <t>2016~17년, '붕괴·새 시작'의 기점 될까?</t>
+  </si>
+  <si>
+    <t>한국당 '日 경제보복' 대책회의선 "WTO 승소 가능성 없어"</t>
+  </si>
+  <si>
+    <t>포스코, CEO 직속 ‘기업시민위원회’출범…기업시민 활동 자문, 사회적 가치창출 성과평가</t>
+  </si>
+  <si>
+    <t>신용현 국회의원 "카이스트 총장이 소명할 기회조차 갖지 못한 것은 문제"</t>
+  </si>
+  <si>
+    <t>진주 경남과기대 오현철 교수, 천연가스 소재 개발</t>
+  </si>
+  <si>
+    <t>윤종일 교수의 비판에 답한다</t>
+  </si>
+  <si>
+    <t>새만금개발청, 시진핑 中국가주석 새만금 방문 추진</t>
+  </si>
+  <si>
+    <t>KAIST MBA 동문들, 스타트업   기업 창업</t>
+  </si>
+  <si>
+    <t>대한민국 대표 수출 중심도시 광양 "관심 집중"</t>
+  </si>
+  <si>
+    <t>대전 스카이로드에서 ‘1919 대한독립만세’ 행사 개최</t>
+  </si>
+  <si>
+    <t>한국당 오디션…'친박' 권영세·홍지만 탈락, '劉계' 조해진·류성걸 생존</t>
+  </si>
+  <si>
+    <t>“폐광지역 청소년의 꿈을 싣고 세계를 누빈다”</t>
+  </si>
+  <si>
+    <t>'박근혜에 맞선' 진영, '재벌 저격수' 박영선 입각</t>
+  </si>
+  <si>
+    <t>文대통령, 원안위원장에 '탈핵 학자' 강정민 임명</t>
+  </si>
+  <si>
+    <t>KAIST 양자컴퓨팅 특화 연구센터 개소</t>
+  </si>
+  <si>
+    <t>전북대학교 김동원 교수, 25일께 총장 임명장 받을 듯</t>
+  </si>
+  <si>
+    <t>박기영 낙마한 과기혁신본부장에 임대식 카이스트 교수</t>
+  </si>
+  <si>
+    <t>그와 내가 알파고를 응원한 까닭은…</t>
+  </si>
+  <si>
+    <t>KAIST 체온 충전 기술, '세상을 바꿀 기술 1위' 선정</t>
+  </si>
+  <si>
+    <t>BNK금융, 지역 스타트업 지원 위한 '투자펀드' 운용</t>
+  </si>
+  <si>
+    <t>교모세포종  암 부위 아닌 뇌실하영역서 발생</t>
+  </si>
+  <si>
+    <t>포항시, 의과대학 설립 타당성 조사 연구용역 중간보고회 개최</t>
+  </si>
+  <si>
+    <t>해외조달시장 진출위한 전문인력 양성한다</t>
+  </si>
+  <si>
+    <t>유승민, 기자들이 뽑은 '신사 의원' 대상 수상</t>
+  </si>
+  <si>
+    <t>태백시, 서울대 입학사정관 초청 입시설명회 개최</t>
+  </si>
+  <si>
+    <t>'룩스 에테르나’, 2019 광주국제전자예술심포지엄 열린다</t>
+  </si>
+  <si>
+    <t>"국내 10대 기업 임원 비중 울산대 출신 높아"</t>
+  </si>
+  <si>
+    <t>한림대, 설립 50주년 미만 대학평가 ‘국내 6위’</t>
+  </si>
+  <si>
     <t>(6.13지방선거) 박성효 한국당 예비후보, 대전 도시철도 2호선 구상 발표</t>
   </si>
   <si>
-    <t>새만금개발청, 시진핑 中국가주석 새만금 방문 추진</t>
-  </si>
-  <si>
-    <t>황호진 전북교육감 예비후보,  출판기념회 '후끈'</t>
-  </si>
-  <si>
-    <t>대전시립교향악단 시민 맞춤형 콘서트</t>
+    <t>흑연계 그래핀 이용 신개념 탄소섬유 개발</t>
+  </si>
+  <si>
+    <t>장제원 '사회적 경제=사회주의' 의도적 왜곡?</t>
+  </si>
+  <si>
+    <t>화자(話者) 인식용 유연 압전 음성센서 개발</t>
+  </si>
+  <si>
+    <t>한수원, 산학연 통합 사업화 유망기술 설명회 개최</t>
+  </si>
+  <si>
+    <t>2차원 나노소재 분산용액 대량생산 기술 개발</t>
+  </si>
+  <si>
+    <t>&lt;단독&gt;카이스트, ‘성희롱·성추행’ 해결 의지 ‘글쎄’</t>
+  </si>
+  <si>
+    <t>동해 발한도서관, ‘10월의 하늘’ 강연회 개최</t>
+  </si>
+  <si>
+    <t>포항제철소, 최초 우주비행 이소연 박사 초청 강연</t>
+  </si>
+  <si>
+    <t>전주대, 전북중소벤처리더스포럼  최고경영자과정 제1기 수료식 성료</t>
+  </si>
+  <si>
+    <t>영월장학회, 장학생 선발 확대</t>
+  </si>
+  <si>
+    <t>‘제21기 통일교육위원 대전협의회’ 출범</t>
+  </si>
+  <si>
+    <t>국민의당, 사과 하루만에 '특검 역공', 과연 통할까?</t>
+  </si>
+  <si>
+    <t>KAIST 34번째 입학식 개최</t>
+  </si>
+  <si>
+    <t>한림대, 글로벌평가 역대 최고 성적</t>
+  </si>
+  <si>
+    <t>항암제-마약중독 치료제 물질 합성 원천기술 확보</t>
+  </si>
+  <si>
+    <t>자녀 '황제유학' 논란에 조동호 후보자 "잘못된 지원…송구"</t>
+  </si>
+  <si>
+    <t>GIST 학생들, 창업지원 오디션 프로그램 '최우수‧우수상' 수상</t>
+  </si>
+  <si>
+    <t>왜 박근혜는 '청년 창업'에 집착하는가?</t>
+  </si>
+  <si>
+    <t>"저는 커피도, 섹스도 로봇과 해요!"</t>
+  </si>
+  <si>
+    <t>조달청 해외 진출 유망 기업 연결 채용 상담회 개최</t>
+  </si>
+  <si>
+    <t>KAIST 김성용 교수, 한국인 최초  ‘OceanObs’19’ 운영위원 선출</t>
+  </si>
+  <si>
+    <t>행복도시 공동캠퍼스 입주 본격 추진된다</t>
+  </si>
+  <si>
+    <t>경북도, 반도체 인프라 구축 지원 사업 국비 24억원 확보</t>
+  </si>
+  <si>
+    <t>박재봉 한림대 교수 논문 리독스 바이올로지 게재</t>
+  </si>
+  <si>
+    <t>고흥군, '2018 캔위성 체험·경연대회' 성황리 개최</t>
+  </si>
+  <si>
+    <t>[단독] 가습기 살균제 발명가 "진실은 이렇다"</t>
+  </si>
+  <si>
+    <t>청주 오송에 ‘R&amp;BD 융합형 연구병원’ 들어선다</t>
+  </si>
+  <si>
+    <t>피부에 잘 부착되는 경피형 전자소자 개발</t>
+  </si>
+  <si>
+    <t>[인터뷰]장윤일 아르곤연구소 석학연구원 "세계는지금 원자력 에너지 르네상스"</t>
+  </si>
+  <si>
+    <t>신용현 국회의원 "카이스트 총장 직무정지요청 철회해야"</t>
+  </si>
+  <si>
+    <t>한동대 김영길 초대 총장 별세</t>
+  </si>
+  <si>
+    <t>인공지능 시대, '소비 보장 제도'가 필요하다</t>
+  </si>
+  <si>
+    <t>"미래의 언어는 '표준'이다"</t>
+  </si>
+  <si>
+    <t>KAIST-포스텍 학생대제전 개최</t>
+  </si>
+  <si>
+    <t>경남대 한성현 교수, 2020 혁신 리더 교육계 부문 대상 수상</t>
+  </si>
+  <si>
+    <t>경남대, '2017 교육혁신포럼' 개최...3개 세션으로 나눠 진행</t>
+  </si>
+  <si>
+    <t>강원랜드, ‘카지노 게임기구 제조·판매업’ 추진</t>
+  </si>
+  <si>
+    <t>신한금융그룹, 대전 스타트업 생태계에 1000억 원 투자</t>
+  </si>
+  <si>
+    <t>文·安 "어르신 기초연금 30만 원" 다른 점은?</t>
+  </si>
+  <si>
+    <t>콘진원 ‘2020 콘텐츠인사이트’ 온라인 개최</t>
+  </si>
+  <si>
+    <t>전남 미래 전략산업 자문 ‘신 성장추진위원회’ 출범</t>
+  </si>
+  <si>
+    <t>민평당, '국공립대학교 무상등록금' 실시 총선 2호 공약으로</t>
+  </si>
+  <si>
+    <t>[전문] 김승수 전북 전주시장 신년 기자회견</t>
+  </si>
+  <si>
+    <t>김정숙 여사, 대전비엔날레 바이오 전시회 관람</t>
+  </si>
+  <si>
+    <t>나주시, 초·중·고 학생별 맞춤형 진로프로그램 운영</t>
+  </si>
+  <si>
+    <t>JDC, 제주혁신성장센터 네트워킹 데이 개최</t>
+  </si>
+  <si>
+    <t>광양시, 도서관서 만나는 특별한 과학 강연 ‘10월의 하늘’ 운영</t>
+  </si>
+  <si>
+    <t>자동차 배기가스 100% 정화 촉매 개발</t>
+  </si>
+  <si>
+    <t>울산과학기술원, 교수가 없는 대학?</t>
+  </si>
+  <si>
+    <t>4차산업혁명위원장에 게임 벤처인 장병규 위촉</t>
+  </si>
+  <si>
+    <t>안철수 "나라가 무너지고 있다"</t>
+  </si>
+  <si>
+    <t>이세돌-알파고 '반상 대결' 과학계도 예측 엇갈려</t>
+  </si>
+  <si>
+    <t>탤런트 이민우 KAIST 홍보대사 위촉</t>
+  </si>
+  <si>
+    <t>"이유미 단독 범행" 결론…검찰 수사에 국민의당 명운</t>
+  </si>
+  <si>
+    <t>K-water, ‘물산업 중소기업 지원’ 팔 걷어</t>
+  </si>
+  <si>
+    <t>곤충눈 모사한 초박형 디지털카메라 개발</t>
+  </si>
+  <si>
+    <t>KAIST, 소형 X-선 근접 암치료장비 개발</t>
+  </si>
+  <si>
+    <t>제주연구원장 후보 김상협 센터장 추천</t>
+  </si>
+  <si>
+    <t>대전 로봇융합 페스티벌 열려</t>
+  </si>
+  <si>
+    <t>[새해 프레시안과 만난 사이] 전주답게 세계로 뛸 김승수 전주시장</t>
+  </si>
+  <si>
+    <t>JDC, 한국은행 제주본부와 업무협약 체결</t>
+  </si>
+  <si>
+    <t>재난조사는 '최소한' 다섯 가지 목적이 있다</t>
+  </si>
+  <si>
+    <t>암 줄기세포 제작 원천 기술 개발</t>
+  </si>
+  <si>
+    <t>KAIST, 원격 내시경 로봇으로  돼지담낭 수술 성공</t>
+  </si>
+  <si>
+    <t>인간의 열적 쾌적감 예측 지표 발굴</t>
+  </si>
+  <si>
+    <t>전북대 제18대 김동원 총장, 28일부터 임기 시작</t>
+  </si>
+  <si>
+    <t>전주대 박상업 교수, 한국물리학회 ‘계원물리학상’ 수상</t>
+  </si>
+  <si>
+    <t>재료·생명화학공학 세계적 석학들 KAIST에 모인다</t>
+  </si>
+  <si>
+    <t>자율주행차가 가능하면 자율살인총도 가능하다</t>
+  </si>
+  <si>
+    <t>서병수 "文정부 이념 편향적 정책이 '경제침체' 원인"</t>
+  </si>
+  <si>
+    <t>고흥군, ‘10월에 만나는 특별한 과학행사’ 개최</t>
   </si>
   <si>
     <t>"김성태도 피감기관 통해 보좌관 대동 해외 출장"</t>
   </si>
   <si>
-    <t>최대웅 박사, 美 루이지애나주립대 조교수 임용</t>
-  </si>
-  <si>
-    <t>文대통령, 靑 과기보좌관에 박수경 카이스트 교수 발탁</t>
-  </si>
-  <si>
-    <t>청년, 하루 살고 하루 자기도 버겁다</t>
-  </si>
-  <si>
-    <t>한림대 2021 QS 세계대학평가 국내 18위, 역대 최고 성적</t>
-  </si>
-  <si>
-    <t>강원랜드, ‘카지노 게임기구 제조·판매업’ 추진</t>
-  </si>
-  <si>
-    <t>JDC, AI×글로벌 아카데미 27일 시작</t>
-  </si>
-  <si>
-    <t>알파고의 승리, '내 일자리'는 무사할까?</t>
-  </si>
-  <si>
-    <t>해외조달시장 진출위한 전문인력 양성한다</t>
-  </si>
-  <si>
-    <t>'룩스 에테르나’, 2019 광주국제전자예술심포지엄 열린다</t>
-  </si>
-  <si>
-    <t>경남대 한성현 교수, 2020 혁신 리더 교육계 부문 대상 수상</t>
-  </si>
-  <si>
-    <t>간질 발작을 일으키는 소아 뇌종양 치료법 제시</t>
-  </si>
-  <si>
-    <t>청주 오송에 ‘R&amp;BD 융합형 연구병원’ 들어선다</t>
-  </si>
-  <si>
-    <t>전주대, 전북중소벤처리더스포럼  최고경영자과정 제1기 수료식 성료</t>
-  </si>
-  <si>
-    <t>대전 로봇융합 페스티벌 열려</t>
-  </si>
-  <si>
-    <t>대한민국 대표 수출 중심도시 광양 "관심 집중"</t>
-  </si>
-  <si>
-    <t>경북도, 반도체 인프라 구축 지원 사업 국비 24억원 확보</t>
-  </si>
-  <si>
-    <t>왜 박근혜는 '청년 창업'에 집착하는가?</t>
-  </si>
-  <si>
-    <t>장성군, 중국 ‘중경우전대학과 MOU’ 체결</t>
-  </si>
-  <si>
-    <t>"'교회 오빠'는 소수…기독교인들이 더 연애 못해"</t>
+    <t>KAIST 석현정-최경아 교수 "청백색 빛 아침잠 깨우고 생체리듬 유지"</t>
+  </si>
+  <si>
+    <t>'독재 옹호' 박성진, 靑 "창조과학과는 차원이 다른 문제"</t>
+  </si>
+  <si>
+    <t>경북교육청, 영재교육담당 교원· 전문직원 연수</t>
+  </si>
+  <si>
+    <t>글로벌 기술사업화-전북기업의 나가야 할 방향 '머리맞대'</t>
+  </si>
+  <si>
+    <t>강원대, 2017 라이덴 랭킹 자연과학·공학 국내 4위</t>
+  </si>
+  <si>
+    <t>창원대학교 기능성 나노구조재료연구실 ‘국가연구실’ 선정</t>
+  </si>
+  <si>
+    <t>차세대 디스플레이용 투명한 고분자 물질 구현</t>
+  </si>
+  <si>
+    <t>KAIST 부설 과학영재학교 '모범 답안지' 학원가 유출 논란</t>
+  </si>
+  <si>
+    <t>"유성온천, 마이스산업과 컨벤션션산업으로 재도약시키겠다"</t>
+  </si>
+  <si>
+    <t>도심 속 썸머 홀릭 '클래식 페스티벌' 즐겨볼까</t>
+  </si>
+  <si>
+    <t>나노바이오센서·칩 기술상용화 지원센터 개소</t>
+  </si>
+  <si>
+    <t>‘스텔라데이지호 2차 심해수색 추진’ 공청회</t>
+  </si>
+  <si>
+    <t>송언석 의원, 미세먼지 대책 마련 에너지·건강·외교 토론회 개최</t>
   </si>
   <si>
     <t>삼척시, ‘관점을 바꿔 삼척을 새롭게 디자인하라’</t>
   </si>
   <si>
-    <t>성추행 의혹 KAIST 교수, 서울대병원 연구원으로?</t>
-  </si>
-  <si>
-    <t>KAIST 양자컴퓨팅 특화 연구센터 개소</t>
-  </si>
-  <si>
-    <t>재난조사는 '최소한' 다섯 가지 목적이 있다</t>
-  </si>
-  <si>
-    <t>GIST 학생들, 창업지원 오디션 프로그램 '최우수‧우수상' 수상</t>
-  </si>
-  <si>
-    <t>KAIST이사회 신성철 총장 직무정지 요청 거부</t>
-  </si>
-  <si>
-    <t>文·安 "어르신 기초연금 30만 원" 다른 점은?</t>
-  </si>
-  <si>
-    <t>전북과 새만금의 '운명'을 바꾸자</t>
-  </si>
-  <si>
-    <t>노스웨스턴대 자랑스러운 동문상에 신성철 KAIST총장</t>
-  </si>
-  <si>
-    <t>경남대, '2017 교육혁신포럼' 개최...3개 세션으로 나눠 진행</t>
-  </si>
-  <si>
-    <t>복합면역 관문억제제 특정 환자에게만 효능</t>
-  </si>
-  <si>
-    <t>'콧노래, 휴식 금지'…공공기관 비정규직 사용법!</t>
-  </si>
-  <si>
-    <t>순천시의회 주윤식 부의장, 한전공대 순천유치위원회 발족 추진 촉구</t>
-  </si>
-  <si>
-    <t>박재봉 한림대 교수 논문 리독스 바이올로지 게재</t>
-  </si>
-  <si>
-    <t>연금개혁을 위한 '골든타임' 얼마 남지 않았다</t>
-  </si>
-  <si>
-    <t>포항시, 의과대학 설립 타당성 조사 연구용역 중간보고회 개최</t>
-  </si>
-  <si>
-    <t>박기영 낙마한 과기혁신본부장에 임대식 카이스트 교수</t>
-  </si>
-  <si>
-    <t>옷감을 직접 기판으로 사용하는 디스플레이 모듈 개발</t>
-  </si>
-  <si>
-    <t>"국내 10대 기업 임원 비중 울산대 출신 높아"</t>
-  </si>
-  <si>
-    <t>초읽기 들어간 '이재용 시대', 4대 검증 포인트</t>
-  </si>
-  <si>
-    <t>전남 미래 전략산업 자문 ‘신 성장추진위원회’ 출범</t>
-  </si>
-  <si>
-    <t>국민의당, 사과 하루만에 '특검 역공', 과연 통할까?</t>
-  </si>
-  <si>
-    <t>BNK금융, 지역 스타트업 지원 위한 '투자펀드' 운용</t>
-  </si>
-  <si>
-    <t>도심 속 썸머 홀릭 '클래식 페스티벌' 즐겨볼까</t>
-  </si>
-  <si>
-    <t>[새해 프레시안과 만난 사이] 전주답게 세계로 뛸 김승수 전주시장</t>
-  </si>
-  <si>
-    <t>[단독] 가습기 살균제 발명가 "진실은 이렇다"</t>
-  </si>
-  <si>
-    <t>광양시, 도서관서 만나는 특별한 과학 강연 ‘10월의 하늘’ 운영</t>
-  </si>
-  <si>
-    <t>스위스 다보스포럼 KAIST 신성철 총장 이상엽 교수 초청</t>
-  </si>
-  <si>
-    <t>KAIST 이해신 교수 과학기술인상 10월 수상자 선정</t>
-  </si>
-  <si>
-    <t>탈원전 정부에서도 원자력계가 느긋한 이유</t>
-  </si>
-  <si>
-    <t>안철수 "나라가 무너지고 있다"</t>
-  </si>
-  <si>
-    <t>KAIST 국제 인공지능기술 워크숍 및 AI축구대회 개최.</t>
-  </si>
-  <si>
-    <t>황교안 외연 확장용 '경제대전환위' 위원도 막말 논란</t>
-  </si>
-  <si>
-    <t>취업·학점 움켜쥐고 괴물이 된 교수들</t>
-  </si>
-  <si>
-    <t>김상협 제11대 제주연구원장 취임</t>
-  </si>
-  <si>
-    <t>한전-전남도-나주시 ‘그린수소 사업’ 추진</t>
-  </si>
-  <si>
-    <t>삼성전자, 남의 기술 공짜로 쓰다 미국에서 철퇴</t>
-  </si>
-  <si>
-    <t>화자(話者) 인식용 유연 압전 음성센서 개발</t>
-  </si>
-  <si>
-    <t>대통령 휴가지 대전 장태산에 환경오염 발전소 건설?</t>
-  </si>
-  <si>
-    <t>순천대-13개 기관 ‘수소가스터빈 연소기 개발’ 업무협약</t>
-  </si>
-  <si>
-    <t>LX, 국토교통부 추최 '2019스마트국토엑스포' 주관</t>
-  </si>
-  <si>
-    <t>차세대 뇌 기반 인공지능 시스템 설계 방향 제시</t>
-  </si>
-  <si>
-    <t>원희룡 도지사, 미국 실리콘밸리와 CES 2020 행사 참석</t>
-  </si>
-  <si>
-    <t>경상대학교, 선도연구센터(ERC) 선정</t>
-  </si>
-  <si>
-    <t>포스코, CEO 직속 ‘기업시민위원회’출범…기업시민 활동 자문, 사회적 가치창출 성과평가</t>
-  </si>
-  <si>
-    <t>한림대, 글로벌평가 역대 최고 성적</t>
-  </si>
-  <si>
-    <t>영월장학회, 장학생 선발 확대</t>
-  </si>
-  <si>
-    <t>북핵있으니 우리도 핵무장?</t>
-  </si>
-  <si>
-    <t>권혁 도로공사 신임 전북본부장 취임</t>
-  </si>
-  <si>
-    <t>창원경제 "규모축소·고용위기"</t>
-  </si>
-  <si>
-    <t>"미래의 언어는 '표준'이다"</t>
-  </si>
-  <si>
-    <t>태백시, 서울대 입학사정관 초청 입시설명회 개최</t>
-  </si>
-  <si>
-    <t>조선대 고지성·강주성학생, '2018 캔위성 경연대회' 우수상</t>
-  </si>
-  <si>
-    <t>KAIST, 극 미세피치용 이방성 전도필름 개발</t>
-  </si>
-  <si>
-    <t>KAIST 부설 과학영재학교 '모범 답안지' 학원가 유출 논란</t>
-  </si>
-  <si>
-    <t>KAIST와-국립중앙과학관  스마트 과학관 전시연구단 출범</t>
-  </si>
-  <si>
-    <t>인간의 열적 쾌적감 예측 지표 발굴</t>
-  </si>
-  <si>
-    <t>대한민국의 60일을 빛낸 2018 평창 동계올림픽 성화</t>
-  </si>
-  <si>
-    <t>신용현 국회의원 "카이스트 총장이 소명할 기회조차 갖지 못한 것은 문제"</t>
-  </si>
-  <si>
-    <t>대전상의, 205차 대전경제포럼 개최</t>
-  </si>
-  <si>
-    <t>교모세포종  암 부위 아닌 뇌실하영역서 발생</t>
-  </si>
-  <si>
-    <t>'제2회 전주 세계슬로포럼·슬로어워드' 개막</t>
-  </si>
-  <si>
-    <t>국토부 “미래기술 미리 체험해 보세요”</t>
-  </si>
-  <si>
-    <t>JDC, 한국은행 제주본부와 업무협약 체결</t>
-  </si>
-  <si>
-    <t>"유성온천, 마이스산업과 컨벤션션산업으로 재도약시키겠다"</t>
-  </si>
-  <si>
-    <t>2016~17년, '붕괴·새 시작'의 기점 될까?</t>
-  </si>
-  <si>
-    <t>'조국 딸 vs 나경원 아들'…그들만의 진흙탕 싸움</t>
-  </si>
-  <si>
-    <t>서병수 "文정부 이념 편향적 정책이 '경제침체' 원인"</t>
-  </si>
-  <si>
-    <t>암 줄기세포 제작 원천 기술 개발</t>
-  </si>
-  <si>
-    <t>'독재 옹호' 박성진, 靑 "창조과학과는 차원이 다른 문제"</t>
-  </si>
-  <si>
-    <t>대전 스카이로드에서 ‘1919 대한독립만세’ 행사 개최</t>
-  </si>
-  <si>
-    <t>한국당 '日 경제보복' 대책회의선 "WTO 승소 가능성 없어"</t>
-  </si>
-  <si>
-    <t>자녀 '황제유학' 논란에 조동호 후보자 "잘못된 지원…송구"</t>
-  </si>
-  <si>
-    <t>KAIST 김성용 교수, 한국인 최초  ‘OceanObs’19’ 운영위원 선출</t>
-  </si>
-  <si>
-    <t>다음카카오 신임 단독대표 30대 임지훈 씨</t>
-  </si>
-  <si>
-    <t>‘제21기 통일교육위원 대전협의회’ 출범</t>
-  </si>
-  <si>
-    <t>KAIST 34번째 입학식 개최</t>
-  </si>
-  <si>
-    <t>“폐광지역 청소년의 꿈을 싣고 세계를 누빈다”</t>
-  </si>
-  <si>
-    <t>文대통령·여야5당 회동 앞, 정치학자 등 68명 긴급성명</t>
-  </si>
-  <si>
-    <t>전북대병원 연구중심병원 육성 심포지엄 개최</t>
-  </si>
-  <si>
-    <t>허태정 대전시장 세계 지방정부 지도자들과 감염병 공동대응 협력</t>
-  </si>
-  <si>
-    <t>송언석 의원, 미세먼지 대책 마련 에너지·건강·외교 토론회 개최</t>
-  </si>
-  <si>
-    <t>주미대사에 조윤제…주중대사 노영민, 주일대사 이수훈</t>
-  </si>
-  <si>
-    <t>인공지능 시대, '소비 보장 제도'가 필요하다</t>
-  </si>
-  <si>
-    <t>세종시 "지역화폐 발행...유망 신산업 추진"</t>
-  </si>
-  <si>
-    <t>진주 경남과기대 오현철 교수, 천연가스 소재 개발</t>
-  </si>
-  <si>
-    <t>행복도시 공동캠퍼스 입주 본격 추진된다</t>
-  </si>
-  <si>
-    <t>새누리 '친박', 더민주 '카이스트', 국민의당 '호남'</t>
-  </si>
-  <si>
-    <t>신용현 국회의원 "카이스트 총장 직무정지요청 철회해야"</t>
-  </si>
-  <si>
-    <t>뇌파 생성-변조 담당하는 핵심 신경회로 규명</t>
-  </si>
-  <si>
-    <t>KAIST 체온 충전 기술, '세상을 바꿀 기술 1위' 선정</t>
-  </si>
-  <si>
-    <t>이상경 경상대 총장, 취임 1주년 특별 기자 간담회 실시</t>
-  </si>
-  <si>
-    <t>[인터뷰]장윤일 아르곤연구소 석학연구원 "세계는지금 원자력 에너지 르네상스"</t>
-  </si>
-  <si>
-    <t>한동대 김영길 초대 총장 별세</t>
-  </si>
-  <si>
-    <t>피부에 잘 부착되는 경피형 전자소자 개발</t>
-  </si>
-  <si>
-    <t>&lt;단독&gt;카이스트, ‘성희롱·성추행’ 해결 의지 ‘글쎄’</t>
-  </si>
-  <si>
-    <t>영월장학회, 2학기 복학 장학생 선발</t>
-  </si>
-  <si>
-    <t>경북교육청, 영재교육담당 교원· 전문직원 연수</t>
-  </si>
-  <si>
-    <t>KAIST 초세대 협업연구실 4곳으로 늘어</t>
-  </si>
-  <si>
-    <t>민평당, '국공립대학교 무상등록금' 실시 총선 2호 공약으로</t>
-  </si>
-  <si>
-    <t>항공우주협회,  '항공 산업 육성 세미나' 가져</t>
-  </si>
-  <si>
-    <t>[전문] 김승수 전북 전주시장 신년 기자회견</t>
-  </si>
-  <si>
-    <t>4차산업혁명위원장에 게임 벤처인 장병규 위촉</t>
-  </si>
-  <si>
-    <t>"직업 정치인 때문에 '이상한 나라'가 되고 있다"</t>
-  </si>
-  <si>
-    <t>경북도, 포항에서 바이오 오픈 이노베이션 센터(BOIC) 기공식</t>
-  </si>
-  <si>
-    <t>김동원 전북대 총장임용 내정자, "전북인재를 세계적 인재로 키워내겠다"</t>
-  </si>
-  <si>
-    <t>'세종 더휴 예미지' 24일 견본주택 개관</t>
-  </si>
-  <si>
-    <t>내년도 충북 지역현안 6조 원대…국회지원 절실</t>
-  </si>
-  <si>
-    <t>과학자들, '환경윤리'를 입에 올리다</t>
-  </si>
-  <si>
-    <t>이재용 테마주, 넌 '대박', 난 '쪽박'?</t>
-  </si>
-  <si>
-    <t>‘스텔라데이지호 2차 심해수색 추진’ 공청회</t>
-  </si>
-  <si>
-    <t>KAIST, 개방형 창업지원 프로그램 운영</t>
-  </si>
-  <si>
-    <t>이한구 "유승민, 상식적으로 퇴출 대상 아니다"</t>
-  </si>
-  <si>
-    <t>문재인 "법인세 인상? 기업 죽으면 어떡하나"</t>
-  </si>
-  <si>
-    <t>KAIST, 세계 최초 인공지능 분야 국제대회 개최</t>
-  </si>
-  <si>
-    <t>홍준표도 국정원에 공격당했다</t>
-  </si>
-  <si>
-    <t>나도 모르는 페친의 비밀, 네트워크는 안다</t>
-  </si>
-  <si>
-    <t>소형 과학로켓 ‘우리새-2호’ 28일 발사</t>
-  </si>
-  <si>
-    <t>1조 자산가 대통령 직속 4차산업혁명위원장의 궤변</t>
-  </si>
-  <si>
-    <t>포항제철소, 최초 우주비행 이소연 박사 초청 강연</t>
-  </si>
-  <si>
-    <t>흑연계 그래핀 이용 신개념 탄소섬유 개발</t>
-  </si>
-  <si>
-    <t>태백시, 국내 최고 명품 ‘웰니스 항노화 도시’ 시동</t>
-  </si>
-  <si>
-    <t>금감원장 사퇴 부메랑, 김정태 3연임 저지?</t>
-  </si>
-  <si>
-    <t>진주시 공무원, 제2회 공무원 빅데이터 분석 공모전 대상 수상</t>
-  </si>
-  <si>
-    <t>곤충눈 모사한 초박형 디지털카메라 개발</t>
-  </si>
-  <si>
-    <t>이세돌-알파고 '반상 대결' 과학계도 예측 엇갈려</t>
-  </si>
-  <si>
-    <t>창원대학교 기능성 나노구조재료연구실 ‘국가연구실’ 선정</t>
-  </si>
-  <si>
-    <t>태백시, 장석복 카이스트 교수 명예시민증 수여</t>
-  </si>
-  <si>
-    <t>차세대 디스플레이용 투명한 고분자 물질 구현</t>
-  </si>
-  <si>
-    <t>창원시, 강소특구 ‘기술이전사업화사업’ 공고</t>
-  </si>
-  <si>
-    <t>동해 발한도서관, ‘10월의 하늘’ 강연회 개최</t>
-  </si>
-  <si>
-    <t>'박근혜에 맞선' 진영, '재벌 저격수' 박영선 입각</t>
-  </si>
-  <si>
-    <t>KAIST 이상엽 교수, 세계경제포럼 생명공학위 공동의장에 재선임</t>
-  </si>
-  <si>
-    <t>도시의 미래, 걷기에 달렸다</t>
-  </si>
-  <si>
-    <t>최고 효율의 유기발광다이오드(OLED) 구현</t>
-  </si>
-  <si>
-    <t>사감위 제5대 강원순 위원장 위촉</t>
-  </si>
-  <si>
-    <t>'https 논란'에 시민들 분노하는 진짜 이유 모르나</t>
-  </si>
-  <si>
-    <t>2차원 나노소재 분산용액 대량생산 기술 개발</t>
-  </si>
-  <si>
-    <t>허태정 대전시장 중소벤처부 대전 잔류 요청</t>
-  </si>
-  <si>
-    <t>강원랜드, 제19기 정기주주총회 개최</t>
-  </si>
-  <si>
-    <t>지식인 664명 기후위기 선언..."한국, 기후악당 불명예"</t>
-  </si>
-  <si>
-    <t>전경련 CEO하계포럼, “4차 산업혁명 선제적 대응 필요”</t>
-  </si>
-  <si>
-    <t>전주대, 중소벤처리더스 최고경영자과정 제2기 수료식 개최</t>
-  </si>
-  <si>
-    <t>GIST 출신 박성준 박사, '피부 부착형 심전도 측정 장치' 개발</t>
-  </si>
-  <si>
-    <t>조달청 해외 진출 유망 기업 연결 채용 상담회 개최</t>
-  </si>
-  <si>
-    <t>수소기반 연료전지 상용화 핵심 실용촉매 개발</t>
-  </si>
-  <si>
-    <t>KAIST 자랑스런 동문상 수상자에 서길수 영남대 총장 등 4명</t>
-  </si>
-  <si>
-    <t>인공신경망 이용 워터마크 기술 개발</t>
-  </si>
-  <si>
-    <t>카이스트 명교수의 의학 강의를 직접 듣자!</t>
-  </si>
-  <si>
-    <t>KAIST-포스텍 학생대제전 개최</t>
-  </si>
-  <si>
-    <t>거울 등 사물을 터치스크린으로 활용해 영상을 본다</t>
-  </si>
-  <si>
-    <t>콘진원 ‘2020 콘텐츠인사이트’ 온라인 개최</t>
-  </si>
-  <si>
-    <t>유승민, 기자들이 뽑은 '신사 의원' 대상 수상</t>
-  </si>
-  <si>
-    <t>신성철 KAIST 총장 “양심에 부끄러운 일 하지 않았다"</t>
-  </si>
-  <si>
-    <t>김영란법 '좋은 뉴스' vs. 삼성 합병 '나쁜 뉴스'</t>
-  </si>
-  <si>
-    <t>“카이스트 일부 교수도 성희롱·성추행”…대학원 총학 설문</t>
-  </si>
-  <si>
-    <t>박근혜 명예박사학위 취소될까…동문들 "철회해야"</t>
-  </si>
-  <si>
-    <t>강정민 원안위원장 사퇴…여야 "무책임하다" 질타</t>
-  </si>
-  <si>
-    <t>제주연구원장 후보 김상협 센터장 추천</t>
-  </si>
-  <si>
-    <t>그와 내가 알파고를 응원한 까닭은…</t>
-  </si>
-  <si>
-    <t>JDC, 제주혁신성장센터 네트워킹 데이 개최</t>
-  </si>
-  <si>
-    <t>KAIST 석현정-최경아 교수 "청백색 빛 아침잠 깨우고 생체리듬 유지"</t>
-  </si>
-  <si>
-    <t>자율주행차가 가능하면 자율살인총도 가능하다</t>
-  </si>
-  <si>
-    <t>고흥군, ‘10월에 만나는 특별한 과학행사’ 개최</t>
-  </si>
-  <si>
-    <t>부산, 서울대 연고대 KAIST 등 참가 최대 진로진학박람회 열려</t>
-  </si>
-  <si>
-    <t>KAIST, 우수한 수명 속도 갖는 리튬-황 이차전지 구현</t>
-  </si>
-  <si>
-    <t>태백산소드림도서관, ‘과학자들의 작은 도시 강연회’ 개최</t>
-  </si>
-  <si>
-    <t>“떨리는 마음으로 출항 날만 손꼽아 기다려요”</t>
-  </si>
-  <si>
-    <t>상병헌 세종시의원 “대학 유치로 자족기능 확보해야”</t>
-  </si>
-  <si>
-    <t>사천·남해·하동선거구 한국당 최상화 예비후보 공약 발표</t>
-  </si>
-  <si>
-    <t>울산과학기술원, 교수가 없는 대학?</t>
-  </si>
-  <si>
-    <t>학자 189명 긴급 성명, '더불어한국당' 야합 강력 비판</t>
-  </si>
-  <si>
-    <t>나주시, 초·중·고 학생별 맞춤형 진로프로그램 운영</t>
-  </si>
-  <si>
-    <t>고흥군, '2018 캔위성 체험·경연대회' 성황리 개최</t>
-  </si>
-  <si>
-    <t>가습기 살균제 발명가, 어디서 뭐하나?</t>
-  </si>
-  <si>
-    <t>&lt;마리텔&gt;에 왜 과학자는 없나요?</t>
-  </si>
-  <si>
-    <t>나노바이오센서·칩 기술상용화 지원센터 개소</t>
-  </si>
-  <si>
-    <t>제주도 제주그린빅뱅포럼 개최</t>
-  </si>
-  <si>
-    <t>윤종일 교수의 비판에 답한다</t>
-  </si>
-  <si>
-    <t>원희룡 지사 스타트업 기업 외롭지 않게 할것</t>
-  </si>
-  <si>
-    <t>탤런트 이민우 KAIST 홍보대사 위촉</t>
-  </si>
-  <si>
-    <t>KAIST, 3D 스케칭 기술 에어 스캐폴딩(air scaffolding) 개발</t>
-  </si>
-  <si>
-    <t>전북대학교 김동원 교수, 25일께 총장 임명장 받을 듯</t>
-  </si>
-  <si>
-    <t>독성가스 사용않는 새 촉매법 개발</t>
-  </si>
-  <si>
-    <t>文대통령, 원안위원장에 '탈핵 학자' 강정민 임명</t>
-  </si>
-  <si>
-    <t>개성공단이 北 '달러박스'? 우리 이득이 더 많다!</t>
-  </si>
-  <si>
-    <t>자동차 배기가스 100% 정화 촉매 개발</t>
-  </si>
-  <si>
-    <t>부산시, 치과의료분야 전문 인재양성원 설립</t>
-  </si>
-  <si>
-    <t>한국당 오디션…'친박' 권영세·홍지만 탈락, '劉계' 조해진·류성걸 생존</t>
-  </si>
-  <si>
-    <t>KAIST, 원격 내시경 로봇으로  돼지담낭 수술 성공</t>
-  </si>
-  <si>
-    <t>"이유미 단독 범행" 결론…검찰 수사에 국민의당 명운</t>
-  </si>
-  <si>
-    <t>"저는 커피도, 섹스도 로봇과 해요!"</t>
-  </si>
-  <si>
-    <t>POSTECH, '세계혁신대학' 아시아 1위</t>
-  </si>
-  <si>
-    <t>KTL-SaTReC 우주기술 산업화 맞손</t>
-  </si>
-  <si>
-    <t>장제원 '사회적 경제=사회주의' 의도적 왜곡?</t>
-  </si>
-  <si>
-    <t>강원대, 2017 라이덴 랭킹 자연과학·공학 국내 4위</t>
-  </si>
-  <si>
-    <t>김정숙 여사, 대전비엔날레 바이오 전시회 관람</t>
-  </si>
-  <si>
-    <t>대전시의회 제241회 임시회 개회</t>
-  </si>
-  <si>
-    <t>이철우 도지사, 지멘스헬시니어스와 MOU체결</t>
-  </si>
-  <si>
-    <t>민심 폭발 초읽기... 대규모 집회·시국선언 연이어</t>
-  </si>
-  <si>
-    <t>aT, 고객과 함께 ‘전사적 혁신토론회’ 개최</t>
-  </si>
-  <si>
-    <t>"'노유진의 정치카페' 진짜 배후는 박근혜"</t>
-  </si>
-  <si>
-    <t>'정치자금법 위반' 한국당 이군현 의원직 상실</t>
-  </si>
-  <si>
-    <t>마산大, 이군현 전 KAIST 교수 초청 특강</t>
-  </si>
-  <si>
-    <t>&lt;최종&gt; 전북대 총장 임용 후보자 1순위에 김동원 교수 선출</t>
-  </si>
-  <si>
-    <t>플라즈마에서 전자가 가열되는 구조와 제어 원리 규명</t>
-  </si>
-  <si>
-    <t>K-water, ‘물산업 중소기업 지원’ 팔 걷어</t>
-  </si>
-  <si>
-    <t>당신의 비밀, 페이스북은 알고 국정원은 모른다</t>
-  </si>
-  <si>
-    <t>신한금융그룹, 대전 스타트업 생태계에 1000억 원 투자</t>
-  </si>
-  <si>
-    <t>최초의 생명은 불지옥에서 탄생했다!</t>
-  </si>
-  <si>
-    <t>한수원, 산학연 통합 사업화 유망기술 설명회 개최</t>
-  </si>
-  <si>
-    <t>정창덕 송호대 제11대 총장 선임</t>
-  </si>
-  <si>
-    <t>KAIST, 소형 X-선 근접 암치료장비 개발</t>
-  </si>
-  <si>
-    <t>경남과학교육원, 제50회 과학의 날 기념식 개최</t>
-  </si>
-  <si>
-    <t>전북대 제18대 김동원 총장, 28일부터 임기 시작</t>
-  </si>
-  <si>
-    <t>전주대 박상업 교수, 한국물리학회 ‘계원물리학상’ 수상</t>
-  </si>
-  <si>
-    <t>“하이원 선상학교에서 창의인재로 성장합니다”</t>
-  </si>
-  <si>
-    <t>항암제-마약중독 치료제 물질 합성 원천기술 확보</t>
-  </si>
-  <si>
-    <t>전북대, 세계 최초 AI 월드컵서 우승컵 '키스'</t>
-  </si>
-  <si>
-    <t>난치성 유전질환 섬모병증 치료제  개발 청신호</t>
-  </si>
-  <si>
-    <t>한림대, 설립 50주년 미만 대학평가 ‘국내 6위’</t>
-  </si>
-  <si>
-    <t>글로벌 기술사업화-전북기업의 나가야 할 방향 '머리맞대'</t>
-  </si>
-  <si>
-    <t>달걀 속 살충제 성분 전처리 없이 검출 가능</t>
-  </si>
-  <si>
-    <t>KAIST MBA 동문들, 스타트업   기업 창업</t>
-  </si>
-  <si>
-    <t>경상대, 대입전형 표준화 발전방안 심포지엄 개최</t>
-  </si>
-  <si>
-    <t>경상대 제11대 총장임용후보자 선거 결과 발표</t>
-  </si>
-  <si>
-    <t>재료·생명화학공학 세계적 석학들 KAIST에 모인다</t>
-  </si>
-  <si>
-    <t>공포기억 악해지도록 뇌 조절하는 효소 발견</t>
+    <t xml:space="preserve">      대학가를 중심으로 '최순실 게이트'를 비판하는 시국선언이 연이어 개최되는 가운데, 주말을 맞아 박근혜 정부를 비판하는 대규모 시위가 열릴 예정이다. 각계의 시국선언과 기자회견도 잇따른다. 28일 민중총궐기 투쟁본부는 서울 정동 민주노총 사무실에서 '민중총궐기 투쟁 선포' 기자회견을 열고, 앞으로 활동 목표와 일정 등을 밝힌다. 투쟁본부는 이미 28일 서울 종로구 영풍문고 앞에서 '2016 서울 민중대회'를 열기로 했다. 최순실 게이트 보도 후 첫 주말인 오는 29일(토)에는 서울 청계광장에서 대규모 촛불집회를 열 예정이다. 이번 사태가 워낙 여론의 관심을 모으는 터라, 촛불집회 참석 인원은 투쟁본부 예상인 2000명을 훌쩍 넘어설 가능성도 엿보인다. 당초 투쟁본부는 다음달 12일 민중총궐기 대회만을 예정해 둔 상태였다. 이 행사는 세월호 사태와 백남기 농민 사망 사건에 관한 정부 책임을 묻는 자리가 될 가능성이 컸다. 하지만 최순실 게이트의 폭발력이 워낙 커, 앞으로 투쟁본부의 방침은 박근혜 대통령을 직접 겨냥하는 것으로 바뀔 가능성이 크다. 지난 26일부터 연이어 열리는 대학가의 시국선언 역시 계속될 전망이다. 이날(28일) 오후 12시 연세대 총학생회는 신촌캠퍼스 학생회관 앞에서 시국선언문을 발표했다. 연세대 총학은 "대통령은 국민으로부터 부여받은 권력을 독단으로 개인에게 부여했"다며 "초유의 국기문란·국정농단 사태로 대한민국의 민주주의는 붕괴했고 현 정권은 정당성을 잃었다"고 지적했다. 연세대 총학은 ▲ 철저한 진상 규명 ▲ 법에 따른 처벌 ▲ 이번 사태의 과정과 결과 공개를 박근혜 정부에 요구했다. 홍익대 총학생회는 이날 오후 1시 정문 앞에서 시국선언문을 낭독했다. 홍익대 총학은 "최순실의 국정 논단, 국기문란에 대해 대통령이 책임지고 사죄할 것과 밝혀지지 않은 의혹을 특검을 수용해 명확히 할 것"을 촉구했다. 홍익대 총학은 특히 최순실의 딸인 정유라 씨의 입학 특례 의혹과 관련해 "미래를 위해 성실하게 노력해온 대학생에게 심한 허탈함을 안겨주었다"며 박근혜 대통령에게 "진정성 있는 사과와 함께 본인이 관련된 사실을 털어놓음으로써 국민 앞에 책임지는 모습을 보여야 한다"고 촉구했다. 충남대 총학생회는 "헌법 위에 세운 대한민국 정부를 수렴청정한 최순실 사태에 국민은 통탄을 금치 못한다"며 "대한민국 국민이자 청년으로서 우리나라의 권력이 최순실로부터 나오는 이 시국을 더 이상 좌시하질 않을 것"이라고 발표했다.동국대 총학생회와 서울대 총학생회, 서울대 로스쿨 학생회, 서울교대 총학생회, 한국외대 학생들도 이날 박근혜 정권을 강경하게 비판하는 시국선언을 발표했다. 대학가 시국선언은 지난 26일 이화여대, 경희대, 부산대 등을 시작으로 연달아 진행 중이다. 27일에는 상명대, 성균관대, 숙명여대, 제주대, 조선대, 카이스트, 한남대, 한양대 등에서 시국선언이 열렸다. 대학가 시국선언 현황을 알리는 '전국 대학생 시국선언 지도'도 등장했다. 대학 단체인 '청년하다'는 28일 단체 페이스북 페이지에 각 대학 시국선언 현황을 구글 지도로 보여주는 시국선언 지도를 만들어 공개했다. (☞시국선언 지도 페이스북 주소 바로 가기)   ▲ 숙명여대 학생들이 지난 27일 서울 용산구 숙명여대에서 최순실 게이트와 관련한 시국선언을 하고 있다. ⓒ연합뉴스   대학가에서 시작된 시국선언은 국내외 여러 단체로 옮겨가고 있다. 그간 억눌렸던 민심이 최순실 게이트를 기점으로 폭발하는 양상이다. '박근혜 대통령의 하야를 촉구하는 50개국 재외동포 일동'은 이날 시국선언문을 인터넷에 공개해 박근혜 대통령의 하야를 촉구했다. 이들은 "대통령이라는 사람이 개인의 꼭두각시 놀음에 빠졌다는 사실이 만천하에 공개됐다"며 "해외에서 창피해서 낯을 들 수 없다"고 한탄했다. 이어 이번 사태를 "국민을 우롱하고 기만한 것은 물론 국가를 혼돈의 구렁텅이로 빠트린 중대 범죄이자 국가의 수치"로 규정하고 "박근혜 대통령을 포함해 이번 국정농단 사건에 관계된 모든 공직자는 자리에서 물러나 법과 국민의 엄중한 심판을 받아야만 한다"고 강조했다.특히 최순실 씨가 잠적한 곳으로 알려진 독일의 한인 사회에서는 현지에서 박근혜 대통령 탄핵을 요구하는 집회 개최가 논의 중인 것으로 알려졌다. 하지만 이날 &lt;경남도민일보&gt;에 따르면, 최순실은 이미 벨기에로 도피한 것으로 추정된다. 대학 교수를 중심으로 하는 지식인 119 선언은 28일 광화문광장 세종대왕 동상 앞에서 박근혜 대통령이 하야하고, 거국중립내각을 수립할 것을 요구하는 시국선언문을 발표했다. 이들은 "4.19 거리에 선 지식인들이 학생들의 피에 보답하기 위해 외쳤듯 탄핵이 아니라 하야"를 요구한다며 "오늘 당장 대통령이 모든 통치행위에서 손을 떼고 자숙할 것을 엄중하게 요구한다"고 밝혔다. 이번 선언에는 유종일 한국개발연구원(KDI) 국제정책대학원 교수와 최영찬 서울대 교수, 양성호 건국대 명예교수, 김용진 서강대 교수, 고기영 한신대 교수, 박창근 가톨릭관동대 교수, 김원재 인천대 교수, 박동천 전북대 교수, 정세은 충남대 교수, 선대인 선대인경제연구소장, 서해성 작가 등이 참석했다. 오는 31일에는 언론인들이 시국선언에 가세한다. 지난 27일 언론단체 대표자들은 비상시국 간담회를 열어 '언론단체 비상시국대책회의'를 결성, 오는 31일 오전 11시 광화문 광장에서 기자회견을 연다. 이번 회의에는 전국언론노동조합과 한국기자협회, 한국PD연합회, 방송기술인연합회 등 현업 언론단체와 동아투위, 80년해직언론인협의회 등 원로 언론인 단체, 민주언론시민연합과 언론개혁시민연대 등 언론시민단체가 참여한다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲박형민 세종시 경제산업국장은 30일 시청 정음실에서 열린 정례브리핑을 통해 올해 주요 업무계획을 밝히고 있다. ⓒ프레시안(김수미)       세종시가 올해 자율차·빅데이터 등 미래 신산업 거점도시 조성을 위한 다양한 시책을 추진한다.  박형민 세종시 경제산업국장은 30일 시청 정음실에서 열린 정례브리핑을 통해 “올해는 지역화폐 발행 등을 통해 지역상권의 활력을 제고하고 자율차와 함께 바이오, 데이터 등 지역유망 신산업을 적극 발굴 육성하겠다”고 밝혔다.  이어 “스마트 국가산단을 조성해 소상공인과 기업이 보다 발전할 수 있는 다양한 시책을 추진하겠다”고 말했다.  그러면서 “미래 신성장 산업 육성 발굴을 위해 자율차 규제특구, 국책연구개발(R&amp;D;)사업 등을 활용해 자율차 실증을 확대하고 관련 인프라를 확충함으로써 자율차를 최초로 상용화하는 도시로 만들겠다”고 강조했다.  또 “지난해 9월 유치한 네이버 클라우드 데이터 센터의 원활한 설립을 지원하고 데이터센터와 관련한 기업과 빅데이터 및 AI 산업의 유치활동도 적극 추진할 계획”이라고 덧붙였다.  아울러 “다음달 한국과학기술원(KAIST) 내 바이오합성연구단을 산학연클러스터로 이전 개소하고 하반기에는 바이오메디컬활성소재센터 등을 통해 연구장비 구축과 기술이전 및 산학협력 등을 지원해 바이오분야 신산업 육성 기반을 만들어 가겠다”고 밝혔다.  또한 지역 특성을 반영한 일자리 사업을 추진해 고용률 67.5%를 목표로 시민이 체감하는 양질의 일자리를 창출한다는 방침이다.  더불어 “세종시 인적자원개발위원회와 한국산업인력공단 세종지사를 설립해 고용서비스 유관 기관을 확대하고 안정적인 고용정책 추진기반을 조성할 계획”이라고 설명했다.  이와 함께 “우수 스타트업과 중소기업 및 사회복지기관 등을 대상으로 지역주도형 일자리사업을 계속 추진하고 이전공공기관 채용 합동설명회를 개최해 지역 청년과 대학생의 취업 확대를 위해 노력하겠다”고 말했다.  박 국장은 ‘세종시가 좋은 일자리 창출을 위해 시민들의 전공분야 파악 등 준비를 어떻게 하고 있는지’에 대해 “올해 세종시가 대전세종인적자원위원회서 분리돼 독자적으로 세종 특성에 맞는 자료 수집이 가능해 졌다”며 “고용창출에 맞는 일자리와 지원계획을 수립해 지원해 나갈 계획”이라고 밝혔다.  이어 ‘산업단지 입지 조성을 위해 박차를 가한다고 했는데 공간이 어디인지’에 대해 “현재 3개 산업단지가 준비 중”이라며 “벤처밸리는 보상이 진행 중이고 한 곳은 전동면 신중리, 다른 곳은 전의면에 위치한 전동산단이 현재 보상이 진해중이다. 전의면 신방리 일원은 개발계획 고시를 하고 내년 보상에 들어갈 계획”이라고 설명했다.  이와함께 ‘상가공실률에 대한 향후 계획’에 대해 “공급측면서 이미 공급이 진행돼 이를 줄일 수는 없고 공급을 최대 자제하는 방법으로 행복청과 협의할 것”이라고 말한 뒤 “소상공인 자생력강화와 지역화폐 발행 등을 추진할 것”이라고 말했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ▲기공식 모습 ⓒ포항시      국내외 기업체 및 연구기관이 입주하고 신약개발을 협력할 수 있는 산학연 신약개발 연구지원 시설이 경북 포항에 설립된다.  경북도는 포항시, 포스텍(POSTECH), 제넥신과 공동으로 26일 포스텍 생명공학연구센터에서 산학연 신약개발 혁신 연구플랫폼인 ‘바이오 오픈 이노베이션 센터(BOIC)’기공식을 개최했다.   행사에는 전우헌 경북도 경제부지사, 이강덕 포항시장, 김도연 포스텍 총장, 성영철 제넥신 회장, 포스코 관계자, 바이오 기업체 대표 등 200여명이 참석했다.  BOIC는 산학연 신약개발 지원과 기업체․연구소 유치 및 바이오 벤처기업 인큐베이팅 등 지역 신약산업 생태계 조성을 위해 포항시, 포스텍, 제넥신이 공동으로 투자해 구축하는 신약산업 전초기지이다.  특히 제넥신은 포스텍에서 벤처기업으로 출발해 국내 굴지의 제약사로 성장한 바이오 벤처기업의 대표적인 성공모델이다.    ▲세포막단백질연구소 추진단 현판식 ⓒ포항시   BOIC는 포스텍 생명공학연구센터 부지 내 면적 7,926㎡(지상 3층, 지하 1층) 규모로 올해 12월에 준공될 예정이다.   센터에는 제넥신 등 국내외 바이오기업 및 아리조나주립대 등 연구기관 입주와 더불어 신약 후보물질 시험생산과 상품화를 지원할 수 있는 신약개발 파일롯 플랜트 구축, 세포막단백질연구소 사업 추진단 등이 설치돼 운영된다.  그동안 경북도는 포항시, 포스텍, 제넥신과 함께 BOIC 건립을 위한 공동투자협약 체결, 국내외 신약개발 기업체와 연구기관 유치 등 포항지역 신약산업의 생태계 조성을 위해 다양한 활동을 전개해 왔다.   BOIC 건립은 지방정부 차원에서 신약산업 발전을 위해 선도적으로 투자한 사업이다. 기업과 연구기관이 공동으로 연구그룹을 구축하고 신약개발에 협력해 국내외 기업유입과 벤처창업은 물론 바이오 전문인력 양성을 통한 일자리 창출 등이 자연스럽게 연결될 것으로 기대하고 있다.    ▲가속기 기반 신약개발 클러스터 조감도ⓒ경북도   한편 이날 기공식 행사에 앞서 가속기 기반 신약개발 핵심사업인 ‘세포막단백질연구소 설립 사업추진단’ 출범식도 가졌다.   출범식에서 경상북도, 포항시, 포스텍, 포스코는 세포막단백질연구소 설립․운영을 지원하기 위해 업무협약을 체결했다. 또한 이지오 카이스트 교수를 사업추진단장으로 임명하고 세포막단백질연구소 현판 제막식도 가졌다. 이지오 교수는 2020을 빛낼 대한민국 100인에 선정되는 등 국내 세포막단백질 분야 권위자이다.  경상북도는 철강, 자동차 등 지역 주력산업의 위기를 극복하고 다변화할 수 있는 미래성장 동력산업을 육성하기 위해 가속기 기반 신약개발 프로젝트를 전략적으로 추진해 왔으며 프로젝트의 핵심사업인 세포막단백질연구 설립에 집중해 왔다.  세포막단백질연구소는 그 동안 질병 원인의 60%이상을 차지하지만 구조분석이 어려웠던 세포막단백질을 4세대 방사광가속기를 활용해 전문적으로 구조를 규명하고 신약후보물질을 도출하는 연구소로, 1,500조원 글로벌 신약시장에서 우리나라 신약산업이 주도권을 확보할 수 있는 획기적인 전기를 마련할 것으로 기대된다.   전우헌 경북도 경제부지사는 “4세대 방사광가속기, BOIC, 세포막단백질연구소 등 세계적으로 경쟁력 있는 연구시설와 특화된 전문연구소가 지역에 위치하는 만큼 국내외 바이오기업과 연구소를 지속적으로 유치해 지역 신약산업 육성과 일자리를 창출하는데 최선을 다 하겠다” 고 말했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ⓒ경북도      세계 최대 규모의 가전․전자박람회인 ‘CES(Consumer Electronics Show) 2019’ 참관 차 미국을 방문 중인 이철우 경상북도지사가 실리콘밸리로 이동해 글로벌 의료기기 기업인 지멘스 헬시니어스(Siemens Healthneers), 반도체 장비기업 램 리서치(Lam Research), 소프트웨어 전문 기업 GE Digital사 임원을 면담하는 등 투자유치활동을 이어갔다.  경북도와 지멘스헬스니어스는 10일(현지시간) 오전 미국 실리콘밸리에 소재한 지멘스 헬시니어스의 초음파 진단기 사업본부에서 경북도내 투자확대를 위한 MOU를 체결했다.   이철우 도지사는 이날 초음파 사업본부의 톰슨(Mr. Bob Thompson) 대표, 펑크(Mr. Sebastian Funk) 재무담당 임원을 면담하고 초음파 진단기기분야에서 상호협력을 통한 투자 및 연구, 개발을 진행하는 양해각서에 서명하고 포항에서 트랜스듀서, 카테타를 생산중인 지멘스 헬시니어스의 지속적인 발전을 위해 적극 지원하기로 했다.  지멘스 헬시니어스는 전 세계의 의료 서비스 제공자들이 정밀 의료를 확대하고 진료 방식을 전환하며, 환자 경험을 향상하고 의료 서비스를 디지털화하는 방향으로 가치를 향상 시킬 수 있도록 지원하고 있다.  의료 기술의 선두주자인 지멘스 헬시니어스는 진단과 치료 이미징, 진단검사 의학분야와 분자진단 분야의 핵심 제품 및 서비스 포트폴리오를 끊임없이 혁신해 나가고 있으며, 디지털 의료서비스와 엔터프라이즈 서비스도 적극적으로 개발해 나가고 있다. 지멘스 헬시니어스는 2018년 9월 30일부로 마감된 2018년도 회계연도에 134억 유로화의 매출과 23억 유로화의 순이익을 기록했으며, 전 세계에 약 5만여 명의 직원을 두고 있다.  지멘스헬시니어스 초음파기기 사업부는 포항 및 분당에 연구소를 두고 포항, 경주, 성남에 생산 사업장을 운영하고 있으며 국내 유수의 의료기관과 POSTECH, KAIST 등 국내 대학과 협력해 최신 기술을 연구 개발하고 있다.   포항테크노파크에서는 트랜스듀서, 카테타(허벅지절제후 정맥을 통해 심장까지 볼 수 있는 삽입형 튜브) 등 초음파 진단 장비를 생산하고 있다.  이 자리에서 이철우 경상북도지사는 지멘스 헬시니어스의 경북도 투자에 감사의 뜻을 전달하고 “헬스케어분야의 글로벌 시장을 선도하고 있는 지멘스 헬시니어스가 개발 중인 의료기기야말로 경북도가 역점을 두고 발전시켜야 할 산업”이라고 강조하고 아낌없는 지원을 약속했다.     ⓒ경북도   이 지사는 이어 글로벌 반도체 장비기업인 Lam Research사 본사를 방문해 메이클(Mr. Scott Meikle) 글로벌 고객운영 부회장을 면담하는 자리에서 구미를 중심으로 한 경북도의 반도체 장비산업 생태계와 제조기업 현황을 소개하고 램 리서치와 경북소재 기업과의 비즈니스 협력 및 반도체장비 공동개발 방안을 설명하고 향후 경북도에 투자해 줄 것을 적극 요청했다.   세계 3대 반도체 장비기업인 램 리서치는 1980년 실리콘밸리에서 창업해 1989년 한국법인을 설립한 이래 지속적인 발전을 거듭해 오고 있으며, 한국에서의 매출이 글로벌 매출액의 약 30%를 차지하고 있고 전 세계 16개국에서 약 1만 2천명이 근무하고 있다.  또한, 이철우 도지사는 항공, 헬스케어, 광업, 오일, 가스, 발전 분야의 글로벌 기업인 GE(General Electric)의 자회사이며 소프트웨어 개발 및 관련서비스를 기반으로 ‘제조업의 디지털 트랜스포메이션’을 지원하는 기업인 GE Digital 본사를 방문했다.  GE Digital은 디지털 트윈(Digital Twin)을 선구적으로 도입한 기업으로 디지털 공장 가동에 필요한 소프트웨어 플랫폼인 ‘프레딕스(Predix)’를 글로벌 시장에서 판매하고 있다.  이철우 도지사는 GE Digital의 캐린 어셔(Caryn Usher) 센터 운영 총괄과의 면담에서 발전소, 병원, 자동차부품, 물류 등의 산업분야에서 발생하는 대규모 데이터를 수집하고 분석해, 기업들이 현실에서 최적화된 현장을 만들 수 있도록 하는 시스템 구축에 대해 의견을 교환하고 이들 시스템을 경북 도내 제조 및 의료 현장에 적용할 수 있는지에 대해 논의했다. 이철우 경상북도지사는 “지멘스 헬시니어스 등 글로벌 기업과의 면담을 통하여 4차 산업혁명을 선도하고 있는 이들 기업들의 경북도내 투자유치 가능성을 모색하고 도내 기업, 대학, 연구기관들이 이들 기업과 협업할 수 있는 여건을 조성하는 계기를 마련했다”고 밝혔다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           에어 스캐폴딩(air scaffolding) 시연 ⓒ KAIST        KAIST 산업디자인학과 배석형 교수 연구팀이 디자인 과정에서 발생하는 반복적인 작업을 획기적으로 단축시킬 수 있는 3D 스케칭 기술 에어 스캐폴딩(air scaffolding)을 개발했다.  이 기술은 지난 4월 캐나다 몬트리올에서 열린 ‘미 컴퓨터협회 인간-컴퓨터 상호작용 학회(ACM CHI 2018)’에서 전체 2500여 편의 논문 중 상위 1퍼센트에게만 주어지는 최우수 논문상을 수상했다. 현재 평면 그림을 입체 형상으로 변환하는 경우 입체 형상을 카메라로 찍거나 그림으로 표현하면 깊이 정보의 손실이 발생했고 반대로 평면 그림이나 사진으로부터 입체 형상을 만들 때는 존재하지 않는 정보가 추가적으로 필요한 것으로 알려졌다. 특히 직접 그린 부정확한 그림에서 의도에 부합하는 입체 형상을 유추하는 것은 매우 어려웠다.  3D 스케칭 기술은 이러한 어려움을 극복하기 위해 활발히 연구된 기술로 가상의 3차원 공간 안에 스케치한 그림을 돌려보거나 앞뒤로 이동하며 평면 그림에서 얻을 수 없던 입체 형상 정보를 채울 수 있게 됐다. 이에 따라 복잡한 3D 캐드 모델링 소프트웨어를 사용하지 않아도 펜과 종이를 사용하듯 입체 형상을 곧바로 그릴 수 있었다.  그러나 가상현실 기술의 대중화와 더불어 주목받고 있는 기존의 공중 3D 스케칭 기술은 전체 스케칭 과정을 공중에서의 부정확한 손 움직임에 의존하기 때문에 정교한 결과물을 생성하지 못하고 장시간 사용 시 피로를 유발한다는 단점이 있었다.  배 교수 연구팀은 기존 기술의 단점을 보완해 2016년 ‘스케칭위드핸즈(SketchingWithHands)’라는 3D 스케칭 기술을 개발한 바 있다.  공중의 손 자세 정보와 태블릿 상 펜 드로잉 기법을 결합한 것으로, 적외선 손 추적 센서로 손 모양을 캡처한 뒤 그 손 정보를 3D 캔버스 안에 넣어 정보를 토대로 스케치를 할 수 있는 기술이다.  연구팀은 2018년 이 기술을 발전시켜 ‘에어 스캐폴딩(air scaffolding)’을 개발했다.  이전 버전이 손 정보 기반 기술이기 때문에 손으로 쥐는 제품에 국한됐다면 에어 스캐폴딩 기술은 손의 움직임 정보까지 함께 활용함으로써 한 손에 쥐기 힘든 더 큰 규모의 제품에도 적용할 수 있다.        손 추적 센서가 측정한 손 관절의 3D 이동 경로 ⓒ KAIST  예를 들어 디자이너가 인라인 스케이트 제품을 디자인하는 경우, 상상 속의 스케이트를 쓰다듬듯이 공중에서 손을 움직여 대략적 크기와 비율을 나타내면 적외선 손 추적 센서가 측정한 손 관절의 3D 이동 경로로부터 입체 그물망 형태의 밑그림(scaffolding)이 실시간으로 추출할 수 있게 돼 정확한 크기와 비율의 인라인 스케이트의 입체적 형상 디자인을 완성할 수 있다.  이 프로그램을 통해 대략적인 정보는 손으로 신속하게 입력한 뒤 세밀한 부분은 태블릿에 펜으로 채워 넣음으로써 상호 보완적인 디자인 작업이 가능해진다. 컴퓨터 소프트웨어를 아이디어 개발 과정에서부터 사용함으로써 종이에 그린 아이디어를 모델링 소프트웨어에서 다시 만들어내는 번거로운 과정을 없앤 것이다.  연구팀의 기술은 디자인 실무에 3D 스케칭의 적용 가능성을 높였을 뿐 아니라, 모두가 일상에서 손쉽게 입체적으로 아이디어를 표현하고 공유할 수 있는 기반을 제공했다. 더 나아가 3D 프린팅 등 스마트 생산 기술과 연계돼 빠르고 유연한 제조 혁신에 기여할 수 있을 것으로 기대된다. 배석형 교수는 “진보한 컴퓨터 기술을 활용해 다양한 분야의 창의적인 활동을 돕기 위한 시도들이 이뤄지고 있다”며 “앞으로도 디자이너에 대한 깊은 이해를 바탕으로 첨단 기술을 적용해 디자인 프로세스 혁신에 주도적 역할을 해 나갈 것”이라고 말했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      원희룡 제주도지사가 도내 스타트업 기업들이 모인 자리에서 지원 노력에도 불구하고 제도적‧법률적 한계가 있다며 정치권과 행정이 더 많은 논의를 벌여 기업인들이 외롭지 않도록 해나가겠다고 약속했다.원희룡 지사는 19일 오후 열린 제주스타트업 커넥트 2019의 일환으로 개최된 토크 콘서트, 앞으로 10년, 제주는 무엇을 해야 하나에서 이같이 밝혔다.   원희룡 제주도지사가 19일 도내 스타트업 기업들과 토크 콘서트를 진행했다. ⓒ제주특별자치도   제주스타트업 커넥트 2019는 도내 유수 스타트업 기업들과 제주더큰내일센터, 스타트업협회 등 7개 지원단체가 모여 다가올 10년을 논의하기 위해 마련됐다.토크콘서트는 원희룡 도지사와 제주테크노파크 태성길 원장, 제주더큰내일센터 김종현 센터장, 제주창조경제혁신센터 전정환 센터장, 제주스타트업협회 남성준 회장, 코리아스타트업포럼 최성진 대표가 참여했다.원희룡 지사는 “올해 도정의 미래산업 육성정책 중 가장 잘한 일이 공약사항이었던 청년인재육성기관 더큰내일센터출범”이라며 “선발된 인재들이 취업・창업 등 이곳에서 실제 2년 동안 어떤 결실을 거둘지 관심 있게 지켜보고 있다”고 말했다.이어 “이미 카이스트 창업 스쿨, 제주투자를 희망하는 수도권 및 일본・중국 기업들이 큰 관심을 가지고 있다”며 “기업들과 실질적인 협의를 통해 교육과정이 끝나기 전에 인재들과 연결되고 맞물려 돌아가서 성과를 낼 수 있길 바란다”고 밝혔다.원희룡 지사는 “도내 스타트업 기업들 지원을 위해 노력하고 있지만 국가의 제도적 법률적으로 제한으로 한계가 있어 안타깝고 미안하게 생각한다”며 “여야를 통틀어 개방적이고 혁신적인 분들과 더 많은 논의를 통해 정치권과 행정에서 열심히 하는 기업인들이 외롭지 않도록 해나가겠다”고 약속했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      정부의 ‘탈원전’ 에너지 정책이 원전 관련 대기업과 280여개 협력업체가 밀집한 경남 창원지역 경제에 미치는 영향은 어떨까.  직접적 이해관계가 얽힌 두산중공업을 비롯해 지역 경제계와 자치단체, 전문연구기관 등의 전반적인 의견은 부정적인 것으로 나타났다.  이 같은 의견은 창원시 산하 전문연구기관인 창원시정연구원(원장 전수식)과 창원상공회의소(회장 한철수)가 3일 창원컨벤션센터에서 개최한 ‘정부 에너지 정책 변화와 지역 경제’ 세미나에서 제기됐다.        ▲경남 창원시 창원컨벤션센터에서 3일 '정부 에너지 정책 변화와 지역 경제' 세미나가 열리고 있다. ⓒ프레시안(석동재)    창원시정연구원의 곽소희 연구위원은 주제 발표에서 정부의 에너지 전환 정책으로 원전 관련 기업의 매출이 줄어들고, 대기업의 경영실적 악화는 협력업체 매출 감소라는 연쇄충격으로 작용할 수 있다고 예측했다.   고용도 줄어 좋은 일자리와 신규채용이 감소할 수밖에 없고, 복리후생비가 줄어 회식이나 행사가 줄어들면 소비가 감소해 지역상권이 타격을 입는 것은 당연하다는 설명이다. 게다가 경영악화로 설비투자가 감소하고, 속도도 빨라질 수밖에 없다는 것이다.  결국, 조선업 위기를 겪고 있는 창원지역 경제가 탈원전 정책 탓에 ‘고용위기’라는 또 다른 위기에 봉착할 수 있다고 제시했다.  곽 연구위원은 “경남 창원지역 원전 관련 대기업과 협력업체뿐만 아니라 지역상권, 고용, 투자 등 경제 전반에 부정적인 영향을 미치고 창원 경제 규모를 축소시킬 우려가 있다”고 지적했다.  또 “정부의 에너지 정책 변화에 대응하고, 창원 경제에 부정적 영향을 최소화하기 위한 대책 마련 및 피해 최소화를 위한 국비 확보가 필요하다”고 제언했다.  전국금속노동조합 두산중공업지회도 이날 “정부의 에너지정책 전환에 따라 신규 원자력발전소 건설계획 중단 등으로 두산중공업 및 발전설비 제조 산업이 위기에 직면했다”며 “이는 고용된 노동자들의 고용불안으로 이어졌으며, 두산중공업을 중심으로 형성된 발전설비 제조업이 밀집한 창원지역은 심각한 경제위기로 내몰고 있다”고 밝혔다.  이에 앞서 정부의 에너지 정책 변화와 원자력 산업에 대해 주제 발표를 한 정용훈 카이스트 교수는 “원자력 발전 투자는 계속 운전 및 신규건설 투자 모두 경제성을 가지고 있다”며 “신규원전 건설이 중단될 경우 핵심기술은 사라질 수밖에 없다”고 피력했다.  이날 열린 ‘정부 에너지 정책 변화와 지역 경제’ 세미나에서는 △정부의 에너지 정책의 변화 △정부의 에너지 정책 변화의 영향을 받은 원자력 산업 △정부에너지 정책 변화와 창원 경제 △정부 에너지 정책 변화에 대한 창원 지역의 목소리 등 다양한 주제에 대한 발표와 논의가 진행됐다.  허성무 창원시장은 “주력 제조업의 장기침체와 일본의 수출규제 등으로 창원경제는 먹구름이 껴 있다”며 “정부의 탈원전 정책 역시 창원경제 침체의 원인 중 하나”라고 목소리를 높였다.  허 시장은 “창원지역에서 폐업하는 공장 수는 탈원전 정책 전이던 2016년 28개에서 올해 5월에는 50여개로 늘어났다”며 “창원국가산단의 공장 가동률도 90%에서 78%로 크게 낮아졌다”고 덧붙였다.  그는 창원 경제가 직면한 위기를 이겨내기 위한 돌파구로 수소산업을 지목했다. 허 시장은 “정부의 에너지 전환 촉진 로드맵 발표에 맞춰 수소연료전지 발전 사업을 추진하고 있다”며 “정부 에너지 정책 변화가 지역경제에 미치는 영향을 잘 분석하고 지혜로운 대처를 해나갈 것”이라고 밝혔다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      자유한국당이 연일 '막말' 논란으로 몸살을 앓으면서 황교안 당 대표가 "엄정하게 책임을 묻겠다"는 경고까지 했지만, 이번에는 황 대표가 야심차게 내놓은 당 특별기구 '2020경제대전환위원회'의 외부 위원 일부가 SNS에 막말성 표현을 했다는 논란이 7일 불거졌다.   경제대전환위는 한국당 황교안 대표가 내년 총선을 앞두고 경제정책을 중심으로 대안을 모색하고 중도층을 우군화시키기 위해 출범시킨 기구다. 지난 4일 황 대표는 위원회 출범식에 참석해 "앞으로 여러분이 만들어 주는 비전과 정책이 내년 총선과 2020년 대선까지 우리 당을 이끌 견인차가 될 것"이라고 의미를 강조하기도 했다.   그런데 이 위원회에 외부 전문가 위원으로 참여한 이병태 카이스트 교수와 조동근 명지대 교수 등 일부 인사들이 과거 SNS에 올린 글을 보니, 문재인 정부와 더불어민주당 인사들, 나아가 세월호 추모 분위기에 대해서도 수위를 넘은 비난을 한 것이 확인됐다.   이 교수는 지난 5월 10일 문재인 대통령의 취임 2주년 특별대담 기사를 '페이스북'에 공유하며 "치매인가? 정신분열증인가?"라고 문 대통령의 최저임금 관련 발언을 비판했다. 같은 달 31일에는 헝가리 유람선 사고를 언급하면서 "추모는 이렇게 정치권력과 무관하게 조용하게 치르는 내면적 행위라야" 한다고 주장하고 "세월호 추모가 더 이상 추모가 아니라 타락한 정치권력 놀음인 이유"라고 비난했다.   이 교수는 또 경제대전환위 출범 이틀 전인 이달 2일에는 "5.18에 관해 발언을 했다고 징계하는 한국당"이라며 "자유주의 보수적 가치를 내거는 정당이 표현의 자유를 허용하지 못하면 이미 대한민국은 조지 오엘의 &lt;동물농장&gt; 수준"이라고 5.18 막말 의원에 대한 한국당의 징계를 비판하기도 했다. 정부의 복지 수당 지급 확대를 비판하면서 "국민 1000만 명을 보조금 무상 수당에 의존하도록 만들었다. 기업에게 무한 복지를 확대하고, 역시 사회적 기생충화하고 있다"는 표현을 하기도 했다.   이 교수는 경제대전환위 출범 이후인 지난 5일과 6일에도 청와대의 보훈가족 오찬 배포자료 논란과 관련해 "유족에겐 고문이고 정신적 학대다. 이 미친 짓거리들을 하는 청와대가 제 정신이냐"라고 비난하는 글을 올리거나, 문 대통령이 주체사상 추종자라며 하야를 촉구한 한국기독교총연합회(한기총) 성명서를 공유하면서 "와우. 가장 과감하고 선명한 성명서가 나왔다"고 감탄하는 글을 올렸다.   조동근 교수 또한 올해 3~5월 페이스북에 올린 글에서 김상조 공정거래위원장에 대해 "사춘기 때 생각을 60이 돼도 바꾸지 않는다면 정신지체"라고 비난했고, 박영선 중소기업벤처부 장관에 대해 "박영선은 내가 가장 극혐하는 여자다. 내 기준에 의하면 저 여자는 인간도 아니다", "그녀는 천재가 아닌 천치다", "이번에 쓰레기 일부를 확실히 치웠다"고 공격했다.   바른미래당 손학규 대표를 향해 "그러니 찌질이란 말을 듣지", "정치인은 재활용되는 쓰레기보다도 못하네요"라고 비난한 글도 있었고, 지난달 한 방송 출연 후에는 "방송국에서 수다덩어리 '꼴 좌파'와 입씨름을 했다. 기분 엿같다"는 감상을 올리기도 했다. 지난 6일에도 "현충일의 경건함을 깬 '극혐' 김제동의 강연 취소"라며 "정말 엿같은 기분"이라고 하기도 했다.   다만 전현직 국회의원 등 유권자들에 대한 정치적 책임을 지는 정치인들의 막말과, 학자인 이들이 SNS에 일부 문제성 표현물을 올린 문제를 동일선상에 놓고 봐야 하느냐는 지적도 있다. 이 교수는 자신의 과거 SNS 발언이 6일 한 언론에 의해 처음 보도되자 다시 SNS에 글을 올려 "언론의 본분이 권력 비판인가, 권력 편에서 시민 표현의 자유에 재갈 물리기인가?"라며 "이 나라의 진짜 문제는 막말이 아니라 비겁한 침묵이다. 막말보다 천만 배 중요한 것은 표현의 자유"라며 항변성 입장을 밝히기도 했다.   그러나 한국당이 최근 주요 당직자들과 전현직 의원들의 막말 논란으로 연일 여론의 비판을 받고 있는 가운데, '황교안 플랜'의 핵심 구상으로 준비된 경제대전환위 참여 인사들로까지 논란이 확대된다면 적잖은 타격이 예상된다. 경제대전환위가 어떤 성과물을 내더라도 '막말' 이미지가 덧칠될 우려가 있기 때문이다. 지난 5일 당의 막말 논란과 관련해 "더 이상의 잘못은 용납할 수가 없다. 국민 마음에 상처를 주고 신뢰를 떨어뜨리는 언행이 나온다면 엄정하게 책임을 물을 것"이라고 경고한 황 대표가 어떤 입장을 밝힐지도 관심거리다.   지난 4일 당 특별기구 외부 위원으로 위촉된 이들 교수들이 지난 5~6일에도 "미친 짓거리", "(한기총이) 과감하고 선명", "극혐", "엿같은 기분" 등의 표현물을 게시한 것은 황 대표의 '경고' 시점 이후이기 때문이다.   정치권에서는 대번에 비판이 나왔다. 바른미래당은 이날 오전 최도자 수석대변인 명의로 '막말 정국에 막말 위원으로 시작하는 한국당 경제대전환위원회, 막말 근절 의지 있나?'라는 제목의 논평을 내고 "경제대전환위에 참여한 인사들의 면면을 보면 '막말을 근절하겠다'는 한국당의 공언이 무색하다"고 꼬집었다.  최 수석대변인은 "황 대표는 (경제대전환)위원회 출범식에서 '비판을 넘어 대안 중심으로 논의 방향을 잡아줄 것'을 주문했으나, 정치적 편향성을 넘어 진영 간 증오와 혐오를 부추기는 인사들이 내놓는 경제 대안을 국민 전부가 공감하고 수용할 수 있을까?"라고 지적하면서 "자칫 경제를 정치적 이해에 따라 접근하지는 않을지 걱정스럽다. '막말 정국'에 '막말 위원'으로 시작하는 한국당 위원회에 우려를 금할 수 없다"고 했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      그리스에서 뜨거운 불꽃을 피운 2018 평창 동계올림픽 성화가 1988년 서울 올림픽 이후 30년 만에 대한민국에 도착해 전국을 돌며 대회 성공 개최의 열기를 불어넣고 있다.  '모두를 빛나게 하는 불꽃(Let Everyone Shine)'이란 슬로건을 지닌 평창 성화는 지난 10월 24일 그리스 올림피아의 헤라 신전에서 채화돼 올림픽 개막을 100일 앞둔 지난달 1일 인천공항에 도착했다.  제주-부산-울산-경남-전라도-충청도 일정을 마친 성화의 불꽃은 지난 29일 대구에 입성했다. 101일간의 여정 중 절반 이상을 마무리한 평창의 불꽃은 31일 대구에서 진행되는 제야의 종 타종 행사와 함께 더 밝게 타오를 예정이다.     ⓒ조직위    ◆대한민국서 60일을 빛낸 2018 평창 동계올림픽 성화  그리스에서 안전램프에 담겨 전세기를 통해 들어온 평창 성화는 지난 11월 1일 인천공항에 도착했다. 도종환 문화체육관광부 장관과 김연아 홍보대사가 나란히 안전램프를 들고 전세기에서 내렸고, 이낙연 국무총리와 최문순 강원도지사, 유승민 국제올림픽위원회(IOC) 선수위원 등이 성화를 맞이했다.  평창 성화는 인천공항에 도착 후 곧바로 7500명 주자가 참여해 2018킬로미터를 달리는 101일간의 대장정에 나섰다. 7500이라는 숫자는 남북한 인구를 뜻하고, 2018킬로미터는 평창 동계올림픽의 개막 연도를 의미한다.  인천을 떠나 제주도로 옮겨진 성화는 내륙 봉송의 첫 관문인 부산을 시작으로 지금까지 울산, 창원, 목포, 광주, 대전, 천안, 구미 등을 거치며 1118킬로미터를 달려왔다.  순천에서는 400명이 한복을 곱게 차려입고 봉화언덕을 오르내리며, 화합과 통합의 의미를 담은 대규모 강강술래 성화봉송 퍼포먼스를 펼치며 장관을 연출했다.  31일 대구에서 타오르고 있는 성화는 2018년 새해 첫날 포항 호미곶에서 해돋이를 시작으로 경주, 수원, 인천, 서울, 파주 등의 봉송로를 이동해 2월 9일 올림픽 개막 당일 평창에 도착한다.  ◆ 모두를 빛나게 하는 불꽃, 2018 평창 동계올림픽 성화  봉송 첫날 1번 주자의 영광은 만 11세의 나이로 피겨 종합선수권대회에서 역대 최연소 우승 기록을 경신한 유영 선수가 맡았다.   이후 유재석, 박명수, 수지 등 유명 연예인을 비롯해 차두리, 추신수, 박찬호, 김태균, 김소희 등 전·현직 운동선수들도 2018 평창 동계올림픽 성공개최를 기원하며 성화 봉송에 참여했다.  유명인들만 참여한 것은 아니다. 제주를 대표하는 해녀를 비롯해 교사, 대학생, 소방관 등 다양한 직업을 가진 이들은 물론 장애인, 다문화가정 등 대한민국을 구성하고 있는 시민들이 대거 함께했다.  이 밖에도 88 서울 올림픽 성화봉송 주자의 자녀들이 2018 평창 동계올림픽 성화봉송 주자로 참여한 사연, 곧 태어날 아이에게 자랑스러운 모습을 보여주고 싶은 예비아빠 등 다양한 사연을 가진 이들이 ‘평창의 불꽃’을 옮기는데 동참했다.  현재까지 봉송에 참여한 주자는 4300여명이다. 성화봉송단은 ‘모두를 빛나게 하는 불꽃(Let Everyone Shine)’이란 성화봉송 슬로건을 실현하고, 대한민국 국민 모두와 성화가 가진 희망과 열정의 메시지를 공유하기 위해 전국 방방곡곡을 달리고 있다.   그 대표적인 예로는 ‘찾아가는 성화 봉송’ 프로그램을 꼽을 수 있다. 성화봉송단은 휴식일을 활용, 총 13곳을 방문해 다양한 이들에게 올림픽의 정신을 나누고 성화 봉송을 체험할 수 있는 기회를 제공하고 있다.  지금까지 성화봉송단은 의령 사랑의집(여성지적장애인 보호 시설)을 시작으로 합천 희망지역아동센터(저소득 결손가정 교육시설), 순창군 노인복지센터(노인돌보미 바우처), 보령시 상이군경회(참전용사), 옥천군 다문화가족지원센터(다문화가정) 등을 찾아 평창의 불꽃을 나눴다. ◆다사다난한 봉송 여정...돌발상황 뚫고 달리는 2018 평창 동계올림픽 성화  전 세계인의 관심 속에 대한민국 전역을 밝히고 있는 성화봉송 일정이 순탄한 것만은 아니다. 조직위는 지진과 조류인플루엔자(AI)를 비롯한 다양한 돌발상황에 직면했지만 효율적으로 대처, 봉송을 이어나가고 있다.  포항에서 발생한 유례없는 지진으로 인해 수능이 연기됨에 따라 성화봉송 일정을 변경했다. 성화 봉송 행사 진행시 발생하는 환호 등 소음과 교통통제 등이 수험생들에게 부정적인 영향을 미칠 수 있기 때문이었다.   전북 고창군에서 AI가 발생하자 조직위는 전남 순천 생태습지를 성화 봉송 경로에서 긴급히 제외하고 운행하는 모든 차량에 대해 방역을 실시했다.  지난 22일에는 충북 제천에서 봉송을 진행할 계획이었지만, 전날 화재가 발생함에 따라 제천 일정을 전면 취소하고 추모의 시간을 가졌다. 23일 단양에서는 봉송 재개 전 화재 희생자를 추모하고 이런 사고가 재발하지 않기를 바라는 마음에서 경건한 묵념의 시간을 갖기도 했다.  ◆봉송의 역사를 새로 쓰고 있는 2018 평창 동계올림픽 성화  이번 성화 봉송에는 기차, 비행기, 배, 자전거 등 일반적인 교통수단 이외에도 다양한 방식의 이동 수단도 등장했다. 부산에서는 요트, 여수에선 해상케이블카를 이용한 봉송이 진행됐다. 통영 거북선, 부여 황포돛배도 등장해 역사적 의의를 더했고, 곡성에서는 증기기관차를 활용한 이색 봉송도 펼쳐졌다.    ⓒ조직위     구축함을 이용한 해상 성화 봉송이 진행되기도 했다. 봉송은 진해에서 성화의 불꽃으로 수놓았다.   대전에서는 로봇이 주자로 나섰다. 한국과학기술원(KAIST)의 재난구조로봇 ‘휴보’가 성화주자로 참여해 대한민국의 정보통신기술(ICT)을 전 세계에 선보였다.  성화봉송단은 각 지역이 간직한 고유의 문화, 아름다운 자연환경과 역사적 유물, 기술 등을 바탕으로 이색적인 봉송을 진행하고 있다. 이는 세계에 대한민국의 숨은 모습을 소개할 수 있는 기회로 작용하고 있다.  이희범 조직위원장은 “평창 동계올림픽 성화봉송이 어느덧 절반을 지나면서 대회에 대한 국민들의 관심과 열기도 높아지고 있다”며 “2월 9일, 평창 동계올림픽 개회식에서 점화되는 순간까지 다양한 소재로 봉송을 진행해 국민들은 물론 세계인들이 함께하는 축제가 될 수 있도록 최선을 다 하겠다”고 말했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      강원 태백시는 지난 18일 대전 유성구에서 장석복 카이스트 교수와 서형선 전 ㈜KT&amp;G; 정선태백지점장에게 명예시민증을 수여했다고 19일 밝혔다. 이들은 지난해 12월 명예시민증 수여 대상자로 결정됐으나 그동안 코로나19 확산으로 수여하지 못했다.     ▲류태호(왼쪽 세 번째) 태백시장이 지난 18일 대전 유성구에서 장석복 카이스트 교수와 서형선 전 KT&amp;G; 정선태백지점장에게 명예시민증을 수여하고 있다. ⓒ태백시  장석복 카이스트 화학과 교수는 학창 시절을 태백에서 보낸 태백 출신으로 1979년 황지고등학교를 졸업했다. 현재 해당 과학분야에서 국제적 최정상급 연구자로 태백시의 자긍심을 높이고 있고 지역 학생을 위한 다양한 활동으로 시정 발전에 기여하고 있다.  장 교수는 “명예시민이 된 것을 자랑스럽게 생각한다”며 “태백지역의 어린이들에게 꿈과 희망을 주는 역할을 하고 싶다”고 강조했다.  서형선 전 ㈜KT&amp;G; 정선태백지점장은 2011년 3월부터 2019년 3월까지 KT&amp;G; 정선태백지점장으로 재임하면서 지역 소외계층을 위한 사회공헌 활동에 앞장섰다.  또한, 태백지역 기관·단체장들의 모임인 태수회 회원으로 활동하면서 시정 발전 및 지역 현안 해결에 노력하기도 했다.  시 관계자는 “명예시민증 제도는 각종 현안사항에 대한 자문과 지원에 필요한 인적 인프라를 구축하기 위한 것으로 지역 내 전출 기관장 등 각종 분야에서 시정 발전에 기여한 공로가 있는 인사까지 확대해 수여하고 있다”고 말했다.  한편, 태백시는 8월 현재까지 22명을 명예시민으로 선정했으며 이날 수여자까지 총 21명에게 명예시민증을 수여했다.  아직까지 수여하지 못한 명예시민은 제20대 국회 국방위원회 위원으로서 의정활동을 통해 태백시와 강원지역의 균형발전에 기여하고 있는 최재성 국회의원으로 일정 조율 후 수여 예정이다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲소형 과학로켓 ‘우리새-2호’ ⓒKAIST        KAIST 항공우주공학과 권세진 교수 연구팀이 KAIST 인공위성연구소와 공동으로 개발한 소형 과학로켓 ‘우리새-2호’를 28일 새만금 간척지에서 발사한다.  이번 시험 발사는 작년 공역 사용 승인을 얻지 못해 취소된 발사시험의 후속 발사로 새만금 간척지 (북위 35도 42분 06초, 동경 126도 33분 36초에서 반경 0.6NM)에서 오전 10시부터 12시 사이에 진행할 예정이다.  연구팀은 연구용 과학로켓 발사장을 확보하기 위해 새만금개발청으로부터 부지 사용허가와 국토교통부 항공교통본부 및 한미공군으로부터 공역 사용 승인을 받아 발사가 가능해졌다.  우리새-2호는 길이 2.2m, 직경 0.2m, 무게 20kg으로 고농도 과산화수소를 산화제로 사용하는 하이브리드 로켓을 추진기관으로 사용해, 발사 시 엔진이 10초간 작동 후 20여 초 간 관성 비행을 해 최대 고도 3km에 도달한 뒤 낙하산을 이용해 지상에서 회수토록 설계됐다.  연구팀은 과학로켓의 하이브리드 엔진, 비행컴퓨터, 낙하산 사출장치 등 핵심 부품과 비행중인 로켓과 교신하는 지상국을 자체 개발했다.  로켓의 비행 데이터는 모두 지상 통제국으로 전송되는 동시에 로켓 내부의 비행컴퓨터 메모리에 저장되며, 비행중 이상이 발생하면 조기에 엔진을 차단하고 낙하산을 사출하도록 설계됐다.  우리새-2호의 엔진에는 고성능 추진체 밸브가 장착돼 로켓이 작동하는 동안 전력 공급 없이 연소실로 추진제 공급이 가능하고, 경량화를 위해 추진제 탱크는 국산 탄소섬유 탱크를 채택했다.  과학 로켓은 고도 30km 이상에서 준궤도로 운용되며 로켓 추진기관 기술, 대기권 재진입 기술, 무중력 실험, 우주과학 및 미세먼지 측정과 같은 대기과학 장비들을 탑재할 수 있다.        ▲ 권세진 교수 ⓒKAIST    권세진 교수는 “11월 4일과 12월 6일에도 관계기관으로부터 발사장과 공역 사용 승인을 받았기 때문에 성능 개량한 로켓을 계속 발사할 계획”이라며 “이번 개발 경험을 토대로 초소형 위성(Cube Satellite)을 저비용으로 지구 궤도에 진입시킬 수 있는 로켓을 계획 중”이라고 말했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  KAIST가 오는 20일부터 22일까지 대전 본원 학술문화관에서 KAIST 국제 인공지능(AI) 기술 워크숍과 제1회 국제 인공지능 축구대회를 개최한다.  이번 워크숍에서는 세계적으로 저명한 AI 전문가를 초빙해 기조연설과 단기 집중강좌, 패널 토론 등을 통해 AI의 기술적 이해와 알고리즘 개발 방법, 미래의 AI 기술 전망 등을 다룰 예정이다.  스위스의 로봇 시뮬레이터 제작 업체인 사이버보틱스(Cyberbotics)의 대표 올리버 미첼(Olivier Michel)은 ‘AI 시뮬레이션 벤치마크와 경기 운영 툴’을 주제로 기조연설에 나선다.  미국 퍼듀대학 컴퓨터정보기술학과의 에릭 맷슨(Eric T. Matson) 교수는 ‘AI 기술을 적용한 자율주행차량 운행의 위험 요소 해결 방안’에 대하여 강연한다.  단기 집중강좌로는 KAIST 전기및전자공학부 정세영 교수의 ‘심화 강화학습에 대하여’와 KAIST 전산학부 황성주 교수의 ‘딥러닝을 통한 실시간 스포츠 해설의 생성 방법’이 개설됐다.  또 KAIST 전기및전자공학과 정세영 교수의 ‘샘플의 효율적 심화 강화학습’과 KAIST 바이오및뇌공학과 이상완 교수의 ‘뇌에 영감화된 AI; 로봇 뇌의 공학구조에 대하여’가 플래그쉽 강좌로 열린다.  KAIST 전기및전자공학부 유창동 교수가 진행하는 패널 토론에서는 ‘인공지능과 함께하는 엔터테인먼트’를 주제로 미국, 스위스, 대만, 터키, 한국 등 AI 분야의 대표적 전문가들이 패널리스트로 참가해 인공지능을 활용한 엔터테인먼트 산업의 현황과 전망에 대하여 토론할 예정이다.  KAIST는 20일부터 22일까지 ‘AI 월드컵 2018’을 개최한다.  세계 최초로 열리는 제1회 국제 인공지능 축구대회로 ▲AI 축구 ▲AI 경기해설 ▲AI 기자 등 총 3개 종목으로 구별하여 진행된다.  토너먼트 형식으로 치러지는 AI 축구는 미국, 캐나다, 대만, 프랑스, 이란, 인도 등 해외팀과 KAIST, 서울대, AI 산업체 연구원 등 국내팀이 참여해 승부를 펼친다. 본선 경기부터 치러지며 8월 22일(수)에 개최될 준결승, 결승전은 일반인 및 청소년에게도 공개할 예정이다.  AI 축구 최종 우승팀에게는 상금으로 미화 1만불, 준우승팀과 3위팀에게는 각각 5,000불과 2,000불이 지급된다.  KAIST 공과대학 김종환 학장은 “미래 산업을 선도하는 AI 기술은 과거 알파고와 이세돌의 대국 같은 인간 대 기계의 대결을 넘어섰다”며 “이번 AI 기술 워크숍 및 AI 월드컵을 통해 창의적이면서 실험적이고 도전적인 방식으로 학습된 정밀한 알고리즘 기술을 소개할 것”이라고 밝혔다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      카이스트 홈페이지      사회 전반으로 미투(#Metoo) 운동이 확산하는 가운데 카이스트(KAIST) 여성 대학원생들이 일부 교수 및 동료에 의해 ‘성희롱·성추행’을 당했다는 주장이 제기 돼 적잖은 파장이 예상된다.  이는 카이스트 대학원 총학생회가 최근 홈페이지에 공개한 ‘2017 연구환경실태조사’의 설문 항목 중 ‘학내 인권침해’에 대한 응답에서 밝혀졌다.  특히, 2016년 조사에 비해 피해여성이 더 증가한 것으로 밝혀져 이공계 국가주역들을 배출하는 주요 기관이 ‘미투 사각지대’에 놓인 상황에서 대책마련이 시급하다는 지적이다.  8일 카이스트 대학원 총학에 따르면, 이번 설문은 구글 문서도구 양식을 이용해 인터넷으로 진행됐으며 지난해 12월21일부터 올해 1월10일까지 응답자 1913명(총 5755명 중 33.24%)을 대상으로 결과가 작성됐다. 전체 응답자 중 여성은 429명이었다.  이들 여성 중 학내에서의 ‘성희롱·성추행’ 경험자는 58명(13.5%)으로 확인됐다. 이는 지난해 파악된 54명보다 4명이 증가한 수치다.  이 뿐 아니라, 다른 여성 대학원생이 ‘성희롱·성추행’을 당하는 것을 목격한 여성이 59명(13.75%)으로 조사돼 드러나지 않은 피해자가 더 있을 것으로 보인다.   2016년의 경우도 2017년과 같은 숫자인 59명의 여성이 다른 여성 대학원생의 ‘성희롱·성추행’ 피해를 목격했다고 답해 여성 대학원생에 대한 학교 내 추행이 줄지 않는 것으로 파악됐다.  특히 해당 여성 대학원생들에게 피해를 입힌 주체의 다수가 일부 교수, 연구실 동료 등인 것으로 나타났으며, 피해여성 중 일부는 중복으로 피해를 입은 것으로 답했다.  2017년의 경우, 피해자들이 답한 가해 주체(중복)를 살펴보면, 16%가 지도교수, 18%가 지도교수 외 다른 교수, 49%가 연구실 동료, 18%가 연구실 외 다른 학생 등이다. 피해자들에 대한 가해 주체 중 교수가 34%에 달했다.  이는 2016년 설문에서 드러난 일부 교수들의 가해율 보다 크게 증가한 것으로, 당시 조사에서는 지도교수를 포함한 다른 교수에 의한 가해율이 18% 정도였다.  이들의 가해로 해당 여성 대학원생들은 우울증을 겪거나, 술·담배 등에 의존해야 했으며, 연구수행에 지장을 받은 것으로 드러났다. 호흡 곤란 등 신체상 일시적 장애를 겪기도 했다.  피해 여성 대학원생들은 ‘성희롱·성추행’ 피해를 극복하기 위해 대부분 가족, 친구, 지인 등에게 토로하거나 묵인하며 대응하지 못한 것으로 파악됐다. 일부의 경우, 당사자와 개인적인 해결을 시도하거나, 교내·외 상담·민원기관에 상담을 신청한 것으로 확인됐다.  대학생 자녀를 둔 한 학부모(대전시 유성구)는 “학생들의 경우, 지도교수가 자신의 학위취득에 결정적인 권한을 쥐고 있어 ‘미투’를 선언하기는 쉽지 않을 것”이라며 “절대적으로 약자인 학생들을 위해서는 대학 자체 뿐 아니라, 상위 관계기관, 정부 등이 나서서 대책을 마련해야 한다”며 분통을 터뜨렸다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      새누리당과 더불어민주당, 국민의당 세 정당이 4일 각 당의 20대 총선 공천 과정을 관리·진행할 공천관리위원회 위원장 등 일부 인사를 확정하고 발표했다. 새누리당 공천관리위원장은 친박계가 추천해 온 이한구 의원으로 확정됐다. 부위원장 겸 간사에는 비박계의 지지를 받는 황진하 사무총장이 임명됐으며 그 외 당내 위원으로는 홍문표 제1 사무부총장과 박종희 제2 사무부총장, 총선 불출마를 선언한 김회선 클린공천지원단장이 선정됐다. 새누리당 공관위원은 총 12~13명으로 구성될 것으로 알려졌다. 아직 발표되지 않은 나머지 위원들은 모두 당 외부에 있는 비정치권 인사가 인선된다. 4선의 이한구 의원은 16대를 제외하곤 17·18·19대 총선에서 대구 수성갑을 지역구로 당선된 대표적인 TK(대구·경북) 의원이자 친박계 의원이다. 내년 총선은 불출마를 선언한 이 의원은 '상향식 공천' 사수에 매달리고 있는 김무성 대표와는 달리 일종의 하향식 공천인 '전략 공천'에 비교적 호의적인 입장으로 알려져 있다. 친박계로선 이런 이 의원이 공관위원장에 임명됨으로써, 계파 입장을 공관위 논의 테이블에 반영할 든든한 통로를 확보한 셈이 됐다. 이 의원은 최근 한 언론 인터뷰에서도 "국민에게 신망을 받지 못한 의원이 많이 당선되는 공천 시스템은 곤란하다"면서 "당헌·당규에 따르면서 방법을 검토하겠다"고 밝혀 '물갈이' 의지를 밝힌 바 있다. 이에 따라 '전략 공천 제로' 원칙이 깨질 것을 우려하는 김 대표는, 나머지 외부 인사 인선 작업을 통해 공관위가 자신의 계획대로 공천 실무를 관리하는 데에만 그치도록 할 마지막 노력을 기울일 것으로 보인다. 김 대표는 지난 1일 최고위원회의에서는 정치적 소수자(여성·청년·장애인) 대표 및 여론조사 전문가, 그리고 최고위원 추천 인사를 일부 포함하는 11~13명 규모의 공관위 구성 방안을 제시했다. 당시 친박계는 여론조사 전문가 포함 등이 불필요하다면서, 최고위원이 1명씩 외부 인사를 추천해야 한다고 맞섰다. 현재 9명으로 구성된 새누리당 최고위원회의는 원유철·서청원·이인제·이정현·김태호·김을동 위원 등 6인이 친박 또는 신박계로 분류돼, 친박계 우위 구조가 유지되고 있다. 따라서 최고위원마다 1명씩 외부 인사를 추천해 공관위를 구성할 경우, 친박계 의사 반영 통로가 더 많아지게 된다. '우선 추천'과 같은 유사 전략 공천 제도를 확대 시행할 가능성이 커지는 것이다. 한편, 이날 박종희 제2 사무부총장이 공관위원에 포함된 것에 대해, 그와 경기 수원갑 공천을 놓고 싸우고 있는 새누리당 김상민 의원(비례대표) 의원은 "박 부총장은 지금 당장 사퇴해야 한다"는 내용의 긴급 기자회견을 열었다. 그는 "정치 선배인 박 부총장은 상대 당도 안 하는 방법으로 저를 음해했다"면서 박 부총장을 "오늘 공직선거법 위반 혐의로 검찰에 고소할 것"이라고 했다.이에 대해 박 부총장 측은 &lt;프레시안&gt;과 한 통화에서 "무엇을 음해했다는 건지 모르겠다"며 "당의 공관위 인선 발표가 난 당일에 이런 기자회견을 하는 것이 적절한 것인지 또한 모르겠다"고 반응했다. 더민주는 전 카이스트 총장, 국민의당은 호남 출신 전 감사원장제1야당이자 원내 2당인 더불어민주당은 홍창선 전 한국과학기술원(KAIST·카이스트) 총장을 공천관리위원장으로 임명했다고 밝혔다. 김성수 더민주 대변인은 이날 김종인 비대위원장이 "개혁적이며 올곧고, 학계에서 두루 덕망을 쌓은 분이고, 17대 국회의원을 지내 정치 현실을 잘 이해하고 있다는 점을 높이 평가했다"고 임명 배경을 밝혔다고 전했다. 홍 전 총장은 72세(1944년생)로 김종인 비대위원장보다 4살 아래다. 그는 연세대 기계공학과를 졸업하고 동 대학원 석사를 거쳐 미 펜실바니아주립대에서 박사 학위를 받은 과학자 출신으로, 2004년 17대 총선에서 열린우리당 비례대표 의원으로 당선돼 원내 활동을 한 경험도 있다. 홍 전 총장은 과거 열린우리당 의원 시절 정동영계로 분류되기도 했으나, 당시 열린우리당 내 중도 성향 의원들의 모임인 '안정적 개혁을 위한 국회의원 모임'(안개모) 멤버로 활동하는 등 중도 성향의 면모를 보여 왔다. 김종인 비대위 체제 출범 이후로 강조되고 있는 '중도화' 노선의 반영이라는 풀이가 나온다. 지난 2일 창당해 원내 3당(17석)이 된 국민의당도 이날 전윤철 전 감사원장에게 공직 후보자가 될 자격을 심사할 권한을 맡겼다고 밝혔다. 안철수 국민의당 상임대표는 이날 오후 기자회견에서 "전 전 원장에게 당 윤리위원장 및 공직후보자자격심사위원장 자리를 부탁드렸고, 전 전 원장이 흔쾌히 수락했다"며 "전 전 원장은 곧고 원칙을 중시하는 분이며, 감사원장으로 강력한 추진력과 리더십을 유감 없이 발휘했다"고 인선 배경을 설명했다. 전 전 원장은 "정치판을 새로운 차원에서 재편성하는 대담한 작업을 하고 있는 안철수·천정배 공동대표의 용기를 더 뒷받침해 드리는 게 좋겠다고 생각했다"고 입당 및 위원장직 수락 소감을 밝혔다. 특히 전 전 원장은 지난해 11월 '천정배 신당'으로 불린 국민회의 신당추진위원회 위원으로 참여했던 인물이다. 천정배 공동대표는 '뉴 DJ'론을 주장하며 호남 현역 의원들에 대한 '물갈이'를 주장했었고, 지난달 28일 &lt;프레시안&gt; '정치통' 인터뷰에서도 '전략공천 등을 활용한 물갈이가 필요하다'는 입장을 유지하고 있다고 밝혔다. (☞관련 기사 : 천정배 "수도권 야권연대, 안철수와 생각 다르다") 때문에 전 전 원장이 공직 후보자 자격 심사를 맡은 것이 호남 의원들에 대한 물갈이를 위한 사전 작업이 아니겠냐는 평이 나오기도 했다. 안 대표는 기자들에게 이같은 질문을 받고 "공천 과정과 관련해서는 자격 기준을 만들 것"이라며 "그 모든 과정을 투명하고 공정하게 밝힐 것이고, 원칙에 따라 일을 진행한다면 큰 무리는 없을 것"이라고 답했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ▲   허태정 대전시장이 KAIST 주최 코로나19 극복을 위한 온라인 국제 포럼서 기념사를 하고있다 ⓒ 대전시   허태정 대전시장이 2년 후 대전에서 열리는 세계 지방정부 연합총회를 세계 지방정부들과 감염병 공동대응을 위한 협력방안 모색의 기회로 삼겠다는 뜻을 밝혔다. 대한민국의 코로나 19 대처가 세계적인 모범사례로 평가받는 만큼 2년 후 열릴 세계 지방정부 연합총회 주최 도시로서 자국의 모범적인 방역체계를 기반으로 전 세계 지방정부 간 감염병 대응 협력체계를 이끌어 내겠다는 의지로 풀이된다. 허시장은 22일 “2년 후 대전에서 열리는 세계 지방정부 연합총회(UCLG)에서 전 세계 지방정부 지도자들과 감염병 공동 대응을 위한 협력방안을 모색하겠다”라고 말했다. 또한 이날 오전 한국 과학기술원(KAIST)이 온라인으로 주최한 글로벌전략연구소-국제포럼 2020(GSI-IF2020)에서 축사를 통해 “전 세계가 겪고 있는 코로나 19를 극복하고 포스트 코로나 19를 위한 소중하고 의미 있는 글로벌 협력방안을 이끌어내는 계기가 될 것”이라며 이 같이 말했다. 이날 축사에 나선 정세균 국무총리도 우리 정부의 투명성과 개방성, 민주적 절차의 기본 원칙에 기반한 방역대책 성공 사례를 소개해 세계 각국 전문가들의 관심을 모았다  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 찔러도 피 안나는 주사바늘의 제조과정 및 표면 특성 ⓒ한국연구재단       과학기술정보통신부와 한국연구재단은 이달의 과학기술인상 10월 수상자로 무출혈 주사바늘을 개발한 KAIST 화학과 이해신 교수를 선정했다.  연구재단은 이해신 교수가 세계 최초로 무출혈 주사바늘을 개발해 에이즈, 에볼라, 간염 바이러스 등 환자의 혈액이 매개되는 의료진의 2차 감염 문제를 근본적으로 방지하는 데 기여한 공로가 높이 평가되었다고 선정 배경을 설명했다.  주사기는 세계 의료기 시장의 30%를 차지하는 기본적인 의료도구다. 혈관, 피하, 근육 등의 경로로 질병 예방 및 치료용 약물을 주입하거나 혈액채취, 생검 등 대부분 의료현장에서 사용된다.  처치 후에는 환부를 압박해 지혈해야 하는데 혈우병, 당뇨, 암 등 지혈 기능성이 약한 환자와 아스피린 같은 항혈전제제 장기복용자 등은 정상적으로 지혈이 이뤄지지 않는 경우도 많다.  이 교수가 개발한 무출혈 주사바늘은 표면을 지혈 기능성 재료로 코팅하는 방식이다.        ▲ 찔러도 피 안나는 주사바늘의 지혈 메커니즘은 혈액응고인자와 무관하여 혈우병 동물 모델에서도 효과적인 지혈 기능성을 나타냈다. ⓒ한국연구재단    비교적 간단한 개념이지만 관건은 주사바늘을 코팅하는 재료가 피부와 혈관조직을 뚫고 체내로 주입될 때 작용하는 마찰력을 견딜 수 있도록 표면에 단단히 고정되어 있어야 한다.  또한 주사 후에는 혈관 내벽이나 피부에 붙어 주사 부위를 막아야 하며 인체에도 무해해야 한다. 이 교수는 파도가 치는 해안가 바위에도 단단히 붙어 있는 홍합 발끝의 섬유다발인 족사 구조에 카테콜아민 성분에서 해답을 찾았다.  이 교수는 갑각류의 단단한 껍질에서 추출되는 키토산 골격에 카테콜을 함유한 키토산-카테콜 신소재를 이용해 주사 과정의 마찰력을 견디고 혈액과 즉각적 접착막을 형성하는 무출혈 주사바늘 코팅용 생체 접착제를 개발했다.  홍합모사 생체접착제를 주사바늘에 마이크론 두께로 코팅하면 건조 과정에서 얇은 박막이 형성된다.  이 박막은 혈액과 닿으면 빠르게 하이드로젤 형태의 연성 소재로 바뀌면서 혈장단백질과 결합하여 주사바늘 구멍을 막는 실런트(sealant) 역할을 하게 된다.  무출혈 주사바늘에 사용한 지혈물질은 단독으로 지혈제로 사용할 수 있으며, 2015년 지혈제를 국내에서 상용화한 데 이어 2016년 미국 FDA의 허가를 획득했다. 또한 관련 연구내용은 2017년 국제학술지 네이처 머터리얼스(Nature Materials)에 게재됐다.        ▲ 이해신 교수 ⓒ한국연구재단    이해신 교수는 “홍합의 접착 메커니즘을 모사한 키토산-카테콜은 생리식염수에서도 높은 용해도를 보이고 점막이나 조직에 대한 접착력도 우수해 주사바늘을 코팅하기에 매우 적합한 소재”라며 “이를 단백질과 결합해 혈관주사를 놓으면 타겟팅이 어려운 심장에 약물을 선택적으로 전달할 수 있어 심장 난치병 치료에도 유용할 것으로 기대한다”고 밝혔다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           자율주행차 등 국토교통 분야의 최신 연구성과와 신기술을 한자리에서 볼 수 있고, 국토교통 지식포럼 등 풍성한 부대행사가 함께하는 ‘2018 국토교통 기술대전’이 서울 코엑스(COEX) 3층 D홀에서 오는 7일부터 8일까지 열린다.  국토교통부(장관 김현미)가 주최하고 국토교통과학기술진흥원이 주관해 올해로 아홉 번째를 맞는 이번 행사는 169개 기관의 전시를 비롯해 산․학․연․관이 참여하는 국토교통 과학기술 분야 국내 최대 규모의 행사로 기대를 모으고 있다.  이번 전시는 ‘꿈을 이루는 기술, 함께 누리는 미래’를 주제로 크게 7개 전시관으로 구성된다.  혁신성장관에는 자율주행차, 신교통인프라 등 4차 산업혁명 시대의 새로운 성장동력 기술이, 국민복지기술관에는 장수명 주택, 차세대 여객 휴대수하물 보안검색기술, 초정밀 위치확인 보정 시스템 등 우리의 생활환경을 바꿔 줄 다양한 기술이 전시된다.  세계화기술관에는 드론 활용 교량 진단 등 세계시장을 목표로 하는 선도 기술이, 미래기술관에는 자동화물운송, 도시 열섬현상 관리 등 미래 환경 변화에 대응하기 위한 유망기술이 전시된다.  또 창업환경 조성을 위해 중소기업에 전시공간을 무료로 제공하는 기술인증관․기술사업화관을 운영하고, 구인․구직자 연결을 통해 일자리가 창출될 수 있도록 채용상담관도 운영할 계획이다.  깊이 있는 설명이 필요한 경우, 전문 해설사가 동행하며 전시를 체험해볼 수 있도록 도와주는 안내(도슨트) 프로그램도 이용할 수 있다.  판교에서 시험운행 예정인 자율주행버스(차세대융합기술연구원), 최초로 국산부품을 장착해 임시운행허가를 받은 자율주행차(만도) 등 현재 국내에서 개발 중인 차량 7대도 전시돼 평소 접하기 어려웠던 자율주행차를 직접 만나볼 수 있다.  이와 함께, 취업박람회, 지식포럼 등 다양한 부대행사도 함께 진행된다.  먼저, 국토교통 취업 박람회인 ‘굿 잡 페어(Good-Job Fair)’를 개최한다. 한국도로공사, 한국철도공사, 한국항공우주연구원, 포스코 등 국토교통 분야 30여 개 공공․민간 R&amp;D; 기관이 참여하는 이 행사에서는 인사담당자의 채용 상담과 각종 취업정보 등이 제공돼 청년 구직자들의 많은 관심을 받을 것으로 예상된다.   또 ‘국토교통 지식포럼’을 통해 미국 항공우주국(NASA) 신재원 국장, 경희사이버대학교 정지훈 교수, 카이스트 바이오 뇌공학과 정재승 교수와 함께 4차 산업혁명이 가져올 새로운 미래를 그려볼 수 있는 자리도 마련했다.  국토교통 빅데이터의 적극적 활용방안 모색을 위해 무박 2일(27시간) 동안 21개팀(86명)이 치열한 두뇌싸움을 벌이는 ‘국토교통 빅데이터 해커톤’ 행사도 함께 진행된다.  이밖에, 지난 5개월 동안 실시한 국토교통기술 대국민 아이디어 공모전을 통해 선정된 총 13건의 우수 아이디어에 대한 시상식과 함께, 자율주행차, 스마트 모빌리티, 스마트 건설 등 17개 분야의 정책․학술 토론회도 동시에 진행될 예정이다.   국토부 관계자는 “이번 행사가 국토교통 과학기술이 국민들께 한걸음 더 다가갈 수 있는 계기가 되길 바라며, 자율주행차․드론 등 혁신성장 동력에 대한 국민의 체감도를 높이고 기업의 연구개발 성과가 사업화로 이어지도록 적극 지원하겠다”라고 밝혔다.  2018 국토교통기술대전의 주요 일정, 세부 프로그램, 체험행사 사전등록 정보 등은 공식 누리집(www.techfair.kr)을 통해 확인할 수 있다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      금융감독원이 하나금융지주와 하나은행의 2013년 채용비리 의혹과 관련해 지난 13일부터 특별검사에 착수했다. 개별 금융사를 상대로 부원장보를 단장으로 20명이나 되는 검사단을 구성하는 것은 이례적이다. 일단 검사 기간은 4월 2일까지이지만, 금감원은 필요한 경우 기간을 연장할 방침이다.  최종구 금융위원장은 지난 13일 국회 정무위원회 전체회의에 출석해 "인력과 기간에 제한을 두지 않겠다"며 사실상 무기한 검사를 공언했다. 특검단에는 IT 전문인력까지 포함돼 주전산 시스템과 클라우드 서버 등을 샅샅이 훑겠다는 의지를 보였다.  최 위원장은 하나금융과 하나은행에 대한 특별검사에 대해 "채용비리를 발본색원해 감독기관의 권위를 세우는 계기가 되도록 하겠다"고 말하기도 했다.  금융당국이 특정 금융사를 상대로 사실상 무기한 특별검사에 나선 배경에는 최근 하나금융지주 사장 재직 시절 채용비리에 연루된 의혹으로 전격 사퇴한 최흥식 전 금감원장이 있다.      ▲ 김정태 하나금융지주 회장(왼쪽)과 하나금융 사장이었던 최흥식 전 금감원장. 2013년 채용비리 의혹으로 최 전 원장은 취임 6개월 만에 사퇴했다. ⓒ연합뉴스   "금융사 회장에게 금감원장이 당했다" 금감원 창립 이래 수장이 없는 공백 사태가 처음으로 벌어졌고, 취임 6개월 밖에 안 된 금감원장이 사퇴한 배경에는 하나금융 김정태 회장의 3연임을 저지하려는 최흥식 전 금감원장에 대한 반격이라는 시각이 금감원 내에서 적지 않다. 최 원장이 하나금융 사장 재직 시 친구 아들을 추천했다는 2013년 자료가 유출됐는데, 하나은행 측이 이 자료를 흘렸다고 의심하는 것이다.  금감원의 상위기구인 금융감독위원회 최종구 위원장조차 이런 시각을 감추지 않았다. 최 위원장은 이날 국회 정무위 회의에서 "알려진 제보가 하나은행 내부가 아니면 확인하기 어려운 내용으로 경영진들도 제보 사실을 사전에 알고 있었다고 봐야 하지 않겠느냐"고 언급했다. 금감원 노동조합도 15일 최흥식 전 금감원장이 하나금융지주 사장 시절의 채용청탁 의혹으로 물러난 데 대해 "임명 시점에 예고된 참사였다"고 지적했다.  노조는 이날 성명서에서 "하나금융 임원 출신을 금감원장으로 임명한 결정은 감독기구 독립성에 대한 몰이해를 보여주는 것이며, 청와대가 강조하는 적폐청산에도 부합하지 않는다는 점을 들어 (최 전 원장의) 임명을 반대한 바 있다"며 이같이 말했다.  노조는 "최종구 금융위원장 발언처럼 최 전 원장의 낙마를 초래한 채용 특혜 의혹은 하나금융 내부에서 흘러나왔다고 해석하는 게 합리적"이라며 김정태 하나금융 회장을 겨냥했다.  노조는 "누군가 최 원장의 약점을 이용해 상투를 쥐고 흔드는 사태가 초래됐다"며 "새로운 원장은 '주인이 불명확한 지배구조를 이용해 대리인이 사익을 추구하려는 금융회사'에 경종을울릴 수 있어야 한다"고 주장했다.  '주인이 불명확한 지배구조'는 지배적 대주주가 없는 하나금융을, '사익을 추구하려는 대리인'은 3연임 확정을 앞둔 김 회장을 가리킨 것으로 해석된다.  노조는 "새 원장은 금융산업정책을 관장하는 금융위의 규제 완화 압력도 견뎌낼 수 있는 인물이어야 한다"며 "금융산업 지원보다는 리스크 관리에 충실할 수 있는 인물이어야 한다"고 강조했다. 급기야 금융당국은 김정태 회장의 '셀프 3연임'에도 다시 한 번 제동을 걸고 나섰다. 15일 금융감독원이 지난 1월부터 국내 9개 금융지주사의 지배구조를 점검한 결과 발표에 따르면, 은행 등 거대 금융회사를 계열사로 거느린 금융지주회사의 지배구조가 여전히 후진적이어서 금융지주 회장들의 '셀프 연임'이 이뤄질 수밖에 없는 구조적 문제가 드러났다.   지주 회장이 사외이사들을 선임하는 방식이어서 사외이사가 경영진에 끌려다니는 '거수기'로 전락해 회장 연임안이 이사회를 통과하기 쉽게 되어 있다는 것이다.  이사회와 사외이사가 무력화된 탓에 금융지주 회장들은 '셀프 연임'에 사실상 걸림돌이 없는 실정이라고 금감원은 지적했다. 글로벌 금융회사는 오랜 기간 검증을 거쳐 차기 CEO를 뽑는 반면, 국내 금융지주사들은 평균적으로 회장 임기 만료 40일 전 차기 CEO 선출을 시작하는 것도 문제점으로 꼽혔다.  금융당국은 이날 사외이사와 감사 후보추천위원회에 CEO의 참여를 금지하는 등 금융회사 지배구조 개선방안을 발표했다. 금융위는 이런 제도 개선을 위해 금융회사지배구조법 및 시행령, 감독규정 개정을 추진해 금융회사지배구조법 개정안은 상반기 중 국회에 제출하고 시행령 및 감독규정 개정안은 3분기 중 개정을 완료할 계획이다. 금융당국의 서슬 퍼런 압박 속에 오는 23일 예정된 하나금융지주 주주총회에서 김정태 회장의 '3연임 안'이 통과될지도 금융권에서 비상한 관심을 모으고 있다. 지난 2012년 하나금융그룹의 수장이 된 김정태 회장은 2015년 연임에 성공한 바 있다.   하지만 하나금융 노동조합 측의 반대가 거세고, 최흥식 금감원장의 사퇴까지 이어진 금융당국과의 갈등이 막판 변수로 작용할 수 있다는 분석이 나오고 있다.   게다가 국내 민간 의결권 자문사인 서스틴베스트는 김 회장의 3연임 반대를 권고한 상태다. 서스틴베스트는 김 회장의 3연임 반대 이유로 KEB하나은행에 대한 인사 개입 의혹과 김 회장 아들과 금융지주 계열사 간 부당거래 의혹, 박근혜 정부 '창조경제 1호' 기업인 아이카이스트에 대한 부실대출 의혹 등을 제시하면서 "사회적 신뢰가 저하됐고 기업 및 주주가치에 중대한 훼손을 입혔다"고 지적했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      탄소 없는 섬(이하 CFI)실현을 위한 제주그린빅뱅포럼(공동위원장 : 김상협 KAIST교수, 김수종 국제녹색섬포럼 이사장)이 2일 제주도청 백록홀에서 개최됐다.이번 ‘2019 제3차 제주그린빅뱅포럼’은 제주그린빅뱅포럼 위원 등 20명이 참가한 가운데 CFI 기본조례안, CFI 추진을 위한 조직 강화 방안, CFI 주민참여 거버넌스 구축 등에 구체적인 실행 방안 등에 대해 이날 오후 4시부터 6시까지 이에 대한 심도있는 논의가 이뤄졌다.   탄소 없는 섬 실현을 위한 제주그린빅뱅포럼이 23일 제주도청 백록홀에서 개최됐다. ⓒ제주특별자치도   이에 앞서 지난 8월 27일 열린회의에서 ▲ 포럼 주기적 개최 ▲ CFI 도민참여형 거번넌스 구축 ▲ CFI 위상 확보를 위해 조직․재정 확보 ▲ CFI 기본조례 설계 및 입법 조치 필요성 등을 논의했고 이번 제3차 포럼을 위해서 지난 15일 제주그린빅뱅포럼추진 워킹그룹 회의를 개최해 포럼 논의 주제를 확정한 바 있다.원지사는“부서간 협력을 통해 도의회, 도민사회, 언론이 참여하고 공감할 수 있도록 해야 한다”며 “CFI 실행력 기반 구축 방안과 그에 따른 이슈로 제기한 사항 등을 부서간 협력하여 강화해 나가겠다”고 말했다.이어 “미래 세대를 위한 논의들을 통해 제주와 대한민국을 연결시키는 구체적인 기획을 논의해 달라”며 “실행계획이 마련되면 제주도는 지원을 아끼지 않겠다”고 말했다.한편 제주도 저탄소 정책과 관계자는 다음달 26일경 4차 포럼를 개최할 예정이라며 여기에서 확정된 사업안에 대해 내년도 사업계획에 반영할 예정이라고 밝혔다.관계자는 외부로 부터의 전기송전 시설을 제외하면 제주도의 에너지 자립도가 30% 정도에 그치고 있어 이에 대한 도민들의 인식이 무엇보다 필요한 시기라며 신재생에너지인 풍력, 태양광 시설과 ESS등 에너지관련 기반시설 구축이 우선되야 한다고 말했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      부산에서 처음으로 초·중·고교 학생들을 위한 대규모 진로진학박람회가 열린다.5일 부산시교육청에 따르면 오는 9~10일 부산 벡스코에서 '2016 부산진로진학박람회'가 개최된다. 이번 진로진학박람회는 미래의 직업정보를 탐색·체험할 수 있는 '진로관'과, 2017 수시모집에 대비한 실질적인 대입 정보 안내와 맞춤형 진학 상담을 하는 '진학관'으로 나뉘어 진행된다.진로관은 부산지역 지방자치단체, 공공기관, 공기업, 구(군)진로교육지원센터, 진로체험협력기관 등 48개 기관이 참여해 진로교육지원센터관, 미래직업정보관, 직업체험관, 진로교육관 등 총 4개의 주제관에서 다양한 진로체험 프로그램으로 운영된다.특히 진로체험기관의 체험·전시 관련 프로그램은 중학교 자유학기제의 진로체험활동을 이해하고 준비하는 데 도움을 주고자 마련했다. 또 진료교육관에서는 고교생뿐만 아니라 초·중학생도 참여해 진로교육동아리 우수학교 10곳의 진로 교육자료와 우수 실천사례를 안내받을 수 있도록 했다.진학관에서는 서울대, 고려대, 연세대, KAIST, 부산대 등 전국 55개 대학이 참여한 가운데 대학정보관, 대면상담관, 학과체험관, 입시설명회관, 모의면접관, 학생부종합관, 자기소개서관, 진로진학특강관 등 총 8개 주제관에서 다양한 진학정보를 제공한다. 또한 진학상담 교사들을 대상으로 학생부종합전형 관련 프로그램도 운영된다. 서울대·연세대·성균관대·부산대 입학사정관들이 교사를 상대로 학생부종합전형 비중 증가에 따른 입시 대응전략을 안내할 예정이다.이 외에도 진학 관련 개별상담이 이뤄지는 대학정보관, 대면상담관, 모의 면접관 등의 프로그램에 참가하는 학생들은 학교생활기록부, 학력평가성적표, 자기소개서 작성본 등을 가져오면 실질적이고 도움되는 조언을 얻을 수 있다.김혁규 부산시교육청 중등교육과장은 "진로진학박람회에 대한 학생, 학부모, 시민들의 기대감이 커지고 있다"며 "이번 박람회를 통해 우리 학생들의 진로 탐색, 설계 능력 향상과 진학에 있어 효과적인 대입대비 여건을 조성하는 계기가 되길 바란다"고 말했다.한편 개막 행사는 오는 9일 오전 9시 50분 현악 6중주단 교문학생오케스트라의 공연으로 시작하며, 이 자리에는 김석준 부산시교육감, 서병수 부산시장, 백종헌 부산시의회 의장 등 주요 인사들이 참석할 예정이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      바둑을 흔히 '수담(手談)'이라고 한다. 손으로 하는 대화라는 뜻이다. 바둑판에는 361(19*19)개의 점이 있다. 여기에 돌을 놓는 경우의 수는 천문학적이다. 워낙 다양한 가능성이 있는 탓에, 사람의 개성이 잘 드러난다. 성격이 급한지 느긋한지, 대범한지 소심한지, 바둑 몇 번 둬보면 알 수 있다. 마치 속 깊은 대화를 나눈 것처럼 말이다.  알파고는 계산기가 아니다 이처럼 인간적인 게임에서 기계가 인간을 이겼다. 9일 오후 1시에 시작된 '구글 딥마인드 챌린지 매치' 5번기 제1국에서 인공지능 소프트웨어 알파고가 이세돌 9단을 꺾었다. 알파고가 단지 수 계산에만 능해서 거둔 승리였다면, 그리 놀랍지 않다. 하지만 이날 대국 해설자는 "양쪽의 이름을 가리고 본다면, 누가 이세돌인지 알 수 없을 것"이라고 말했다. 알파고가 마치 사람처럼 바둑을 뒀다는 게다. 사람처럼 실수도 했다. 리듬도 탔다. 기세가 잔뜩 오르기도 했고, 숨을 고르기도 했다. 이날 대국 관련 정보가 없는 사람이 봤다면, 재기 발랄한 신예 기사(棋士)가 나타났다고 평했으리라.   이날 대국에서 인상적인 장면은 이세돌의 7번째 수였다. 바둑 논리로 설명할 수 없는, '변칙수'였다. 이세돌은 이렇게 생각했던 모양이다. '알파고는 논리에 따라 움직이므로, 이성으로 이해할 수 없는 수를 두면 판이 흔들린다.'  하지만 틀렸다. 알파고는 이런 변칙 앞에서도 당황하지 않았다. 해설자들이 알파고를 '괄목상대'한 것도 그때부터다. 알파고는 단순한 계산기가 아니다. 그 이상이다. 해설자들이 이날 대국을 중계하며 사용한 표현이 재미있다. "알파고가 치명적인 실수를 했다.", "알파고가 당황했다.", "알파고가 '멘붕'에 빠졌다.", "알파고가 정신 차렸다."    ▲ 이세돌 9단. ⓒ연합뉴스   욕망하는 인간, 컴퓨터가 넘을 수 없는 경계 실수하고 당황하며, '멘붕'에 빠졌다가 정신을 차리는 컴퓨터. 이쯤 되면 '신인류'의 탄생에 가깝다. 물론, 과장된 표현이다.   컴퓨터가 아무리 '인간적인' 바둑을 둬도, 넘을 수 없는 경계가 있다. 컴퓨터에겐 욕망이 없다. 바둑을 못 두던 녀석이 어느 날 나를 뛰어넘는 실력을 보이면, 사람은 질투를 느낀다. 수학 문제는 나보다 훨씬 잘 푸는 녀석이 유독 바둑은 나를 못 이기면, 쾌감을 느낀다. 전체 승률이 망가지더라도, 저 녀석만은 꺾고 싶다는 생각이 들 때가 있다. 모두 욕망을 가진 인간이기에 겪는 일이다.   컴퓨터와 인간 사이의 경계는 아직 분명하다. 컴퓨터에게 욕망을 심어서 이익을 얻는 경우를 상상하기 어려우므로, 이런 경계는 앞으로도 유지될 게다. 지식 서열로 위계 정하는 사회, 컴퓨터가 도쿄대학 합격하면? 대중의 관심은, 욕망을 모르는 신인류가 언제까지 우리에게 봉사할지에 쏠려 있다. 우리는 지식과 지능의 서열로 사회적 위계를 정하는데 익숙하다. 각종 시험에서 좋은 점수를 받은 사람이 높은 자리에 오르는 걸 공정하다고 본다.   그런데 머리 쓰는 일에서 컴퓨터가 사람을 앞질렀다. 그것도 단순 계산 또는 정보 저장이 아닌, '손으로 하는 대화'에서다. 사실, 시험도 이젠 컴퓨터가 더 잘 친다. 일본에선 인공지능 소프트웨어가 매년 대학입시 모의고사를 친다. 사람과 똑같은 조건으로, 즉 인터넷 접속을 차단하고 시험을 봐도 도쿄대학교 합격권 점수를 받는다. 인공지능 소프트웨어에게 인터넷 접속을 허용하고 시험을 치게 한 적도 있다. 당시 일본 누리꾼들의 반응이 재미있었다. '그건 불공정하다.' 어차피 상대는 컴퓨터일 뿐인데, '공정성'을 따져서 어쩌겠다는 건가.   아마도 불안 심리 때문이었을 게다. '컴퓨터가 내 일자리를 빼앗는 건 아닐까.' '나를 가르치고 지휘하며 통제하는 자리에 컴퓨터가 들어서는 건 아닐까.'   알파고가 이세돌을 꺾은 9일 오후 내내, 숱한 직장인들이 이런 불안감을 토로했다. 시험 잘 쳐서 좋은 직장에 들어갔고, 머리 잘 써서 진급했다. 그런데 컴퓨터가 머리 쓰는 일로 인간을 이긴다면, 좋은 직장과 윗자리는 컴퓨터에게 양보해야 하는 것 아닌가. 그러면 당장 자식 학원비가 밀린다. 이를 어쩌나.  '범용 인공지능'은 멀었다 김진형 카이스트 명예교수가 최근 한 세미나에서 한 이야기가 흥미롭다. 인공지능 분야의 원로 학자인 그는 "알파고는 바둑만 둘 줄 알지만, 이세돌은 퀴즈도 푼다"고 말했다.   '범용 인공지능'은 아직 나오지 않았다는 뜻이다. 지금껏 나온 인공지능 소프트웨어는 특정 목적을 위해서만 쓰인다. 하지만 우리가 하는 일 가운데 상당 부분은 '범용 지능'에 의지한다. 바둑 두고, 퀴즈 푸는 능력을 두루 활용한다. 종합적인 판단 능력이 필요한 일, 윗사람의 업무는 더욱 그렇다. 알파고가 이세돌을 이겼다. 하지만 대국 시간 등 세부 규칙은 미묘하게 알파고에게 유리했다. 규칙을 누구에게 유리하게 정할지, 그에 따른 책임은 어떻게 질지 등은 앞으로도 오랫동안 인간의 몫이다. 판단하고 결정하며 책임지는 일자리는 안전할 게다.  기계와 공생하는 시대 변수는 또 있다. 에릭 브린욜프슨 미국 매사추세츠공과대학교(MIT) 슬론경영대학원 교수, 같은 대학에서 가르치는 앤드루 맥아피 교수 등은 인공지능과 일자리의 관계에 대해 오랫동안 연구했다. 이들에 따르면, 로봇과 인공지능이 일자리를 줄이는 게 사실이다. 이는 구조적인 문제라서 전통적인 거시경제학 처방으로는 해결할 수 없다. 그러나 기계가 사람의 역할을 온전히 대체하는 건 아니다. 그들은 체스 게임을 예로 든다. 바둑보다 앞서 인공지능 소프트웨어가 정복한 영역이다. 인공지능 소프트웨어가 세계 체스 챔피언을 꺾은 게 지난 1997년이다. 이후 체스 산업이 확 시들었다. 이세돌이 알파고에게 최종 패배한다면, 바둑 산업도 같은 운명을 맞게 되리라는 예상이 나온다.   그런데 여기서 작은 반전이 있었다. 에릭 브린욜프슨 교수와 앤드루 맥아피 교수가 진짜 주목하는 건 이 대목이다. 분명히 사람은 이제 체스 시합에서 컴퓨터를 이기지 못한다. 하지만 사람과 컴퓨터가 협력하면, 달라진다. 최고 수준 소프트웨어를 꺾는 사례가 나온다. 체스 인기가 전보다 덜한 건 사실이다. 그러나 새로운 방식으로 체스를 즐기는 이들이 생겨났다. 사람과 컴퓨터가 팀을 이뤄서 시합을 치르는 것이다.   이는 다른 일자리에도 적용될 수 있다. 인공지능이 사람의 일을 완전히 대체할 수는 없다. 사람과 기계는 앞으로 긴밀한 공생 관계를 유지하게 될 게다. 지금까지는 인맥과 수완이 좋은, 즉 다른 사람과의 협력을 잘 이끌어내는 이들이 주로 성공했다. 앞으로는 새로운 조건이 붙는다. 기계와 잘 협력하는 이들이 살아남는다. 그래도 일자리는 줄어든다 요컨대 앞으로도 계속 일자리를 유지하고 싶다면, 다음 조건 가운데 하나는 갖춰야 한다. 첫 번째는 '종합적인 판단 능력'이 필수적인 일을 하는 것이다. 아직 '범용 인공지능'은 나오지 않았기 때문이다. 두 번째는 기계와 공생하는 법을 터득하는 것이다. 이제껏 기계가 도입되지 않았던 분야에서 기계를 활용한다면, 살아남을 가능성이 크다. 제3의 대안도 있다. 궂은 일을 하는 것이다. 지금 등장한 인공지능 기술은 관련 데이터가 충분히 쌓여 있어야만 힘을 발휘한다. 따라서 문서로 남기기 힘든 지식(암묵지)에 의지하는 일은 앞으로도 오랫동안 사람의 몫이 된다. 간병인, 배관공 등이 그렇다. '모라벡의 역설'이 적용되는 경우다. 사람에게 쉬운 일이 로봇에겐 어렵고, 사람에게 어려운 건 로봇에게 쉽다는 뜻이다. 예컨대 자연스런 걷기 동작을 구현하는 건 로봇공학자에게 대단히 어려운 과제다.  그래도 문제는 남는다. 크게 두 가지다. 어찌 됐건 '좋은 일자리'의 절대치는 줄어든다. 그게 첫 번째다. '종합적인 판단 능력'이 필요한 일은 주로 윗사람의 몫이다. 피라미드 조직의 아랫부분에 있는 다수는 어쩔 건가. 또 모든 노동자가 기계와 공생하는 법을 터득하기는 어렵다. 먼저 적응한 소수는 살아남겠지만 나머지 다수는 불안하다. '궂은 일'을 하는 경우 역시 마찬가지다. 기계로 대체할 수 없다고 해서 꼭 '좋은 일자리'인 것은 아니다. 오히려 기존의 '좋은 일자리'가 줄어들면서, 억지로 '궂은 일'에 내몰린 이들이 늘어날 수 있다. 그렇게 되면, '궂은 일' 하는 여건은 지금보다 더 나빠질 수 있다.숙련으로 향하는 사다리가 치워졌다 두 번째는 세대 문제다. 앞서 '종합적인 판단 능력'을 갖춘 사람은 살아남으리라고 했다. 그러나 처음부터 이런 능력을 갖춘 사람은 없다. 예컨대 제조 업체 사장은 대개 현장 엔지니어 출신이다. 신입사원 시절에는 단순하고 반복적인 일을 했다. 그러다 차츰 업무 범위를 넓혀가서 결국 사장이 됐다. 그 과정에서 긴 시간이 걸리고, 숱한 시행착오를 거친다. 그렇게 탄생한 사장의 업무는 기계가 대신할 수 없다.  그런데 인공지능의 발달과 자동화의 진행은, 과거 신입사원이 하던 업무를 빼앗아간다. 이는 지엽적인 일부터 시작해서 차츰 업무 범위를 넓혀갈 기회가 사라진다는 뜻이다. 이미 '종합적인 판단 능력'을 갖춘 사람에겐 계속 기회가 열리지만, 그 단계에 도달하지 못한 젊은 세대에겐 사다리가 사라진다는 뜻이 된다.   인공지능 발달로 줄어들 일자리 가운데 하나로 회계사가 꼽힌다. 회계사가 아예 사라진다는 걸까. 그건 아니다. 숙련된 회계사가 기계의 도움을 받아 지금보다 더 많은 일을 한다는 뜻이다. 그렇다면, 전체 회계사 일자리는 줄어든다. 문제는 지금 숙련된 회계사 역시 과거에는 실수를 연발하는 초보자였다는 점이다. 그런데 초보 일자리가 줄어들면, 젊은 회계사는 영원히 미숙련 상태로 남아야 한다.   이런 논리는 모든 업종에 적용된다. 로봇 기자가 기사를 쓴다. 그래도 사람 편집자 혹은 기자가 기사를 검토하고 손질해야 한다. 그 일자리는 숙련도 높은 선배의 몫이다. 선배 기자는 이미 다양한 시행 착오를 경험했다. 반면 젊은 기자가 업무 경험 속에서 숙련도를 높일 기회는 확 줄어든다. 이는 세대 갈등의 한 원인이 될 수 있다.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           김준 교수와 김용준 박사과정 ⓒKAIST       KAIST 의과학대학원 김준 교수와 연세대 생명공학과 권호정 교수가 공동 연구를 통해 난치성 유전질환인 섬모병증의 치료제 후보를 개발해 섬모병증 치료제 개발을 위한 기반이 될 것으로 기대된다.  섬모는 세포의 운동성, 감각 수용 등에 관여하는 세포소기관이다. 인체의 대부분의 세포에 일시적 혹은 영구적으로 존재하는 비운동성 섬모는 세포간 신호전달에서 중요한 역할을 담당한다.  비운동성 섬모의 형성에 필수적인 유전자의 돌연변이는 주버트 증후군, 콩팥황페증 등을 포함하는 섬모병증(ciliopathy)을 유발한다.  섬모병증 돌연변이는 망막의 광수용체 세포의 구조물인 연결섬모의 이상을 초래할 수 있기 때문에 망막퇴행도 섬모병증 환자에서 흔히 나타나는 증상의 하나이다.  희귀유전질환인 섬모병증에 대한 치료제는 아직 개발된 바가 없다.  연구팀은 문제 해결을 위해 섬모병증 원인의 하나인 CEP290 유전자 돌연변이를 유전자 편집기법으로 모사한 세포를 구축한 뒤 화합물 라이브러리 스크리닝 기법을 통해 섬모병증에서 나타나는 섬모형성 부진 현상을 극복할 수 있는 천연 저분자 화합물을 발굴했다.  발굴된 후보물질은 CEP290 유전자를 유전자 편집으로 제거한 세포주에서 나타나는 섬모형성 부진을 현저하게 개선했다.  또한 CEP290 돌연변이를 지닌 생쥐에서 나타나는 망막퇴행을 유의미하게 지연시키는 효과를 보였다.  발굴된 화합물은 CEP290 단백질과 복합체를 이뤄 섬모형성과 기능에 관여하는 단백질(NPHP5)에 작용하는 것으로 밝혀졌다.  CEP290 단백질이 유전자 돌연변이로 인해 만들어지지 않는 경우 NPHP5 단백질도 정상적으로 작용하지 못하는데 이 화합물은 NPHP5의 기능을 정상화시켜 복합체가 담당하던 기능의 일부를 회복함을 확인했다.  연구팀은 발굴한 화합물을 섬모병증 증상을 갖는 동물 모델에 주입했고 망막 퇴행 현상을 지연시키는 효과를 입증했다.  1저자인 김용준 박사과정은 “이번 연구는 기능손실 유전자 돌연변이로 인해 발생하는 유전질환도 저분자 화합물 약물로 치료가 가능함을 규명했다는 의미를 갖는다”고 말했다.  이번 연구는 의, 과학 분야 국제 학술지 ‘저널 오브 클리니컬 인베스티게이션(Journal of Clinical Investigation)’ 7월 23일자 온라인 판에 게재됐다.(논문명 Eupatilin rescues ciliary transition zone defects to ameliorate ciliopathy-related phenotypes) 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      치과의료 분야의 취업과 실무능력 향상을 위한 전문양성원이 부산에 들어선다.  부산시는 오는 26일 해운대구 우동 센텀산업단지(디오)에 디지털치의학 전문인력 양성을 위한 '부산디지털치의학 인재양성원'이 개원한다고 밝혔다.   부산시와 치과의료기기업체는 지난해 7월 산학협력 간담회를 개최해 디지털치의학 인재양성사업을 추진하기로 합의하고 올해 3월 재단법인 부산디지털치의학 인재양성원을 설립했다.  부산디지털치의학 인재양성원은 부산대, 동의대, 부산가톨릭대와 부산시 치과의사회, 치과위생사회, 치과기공사회 및 의료기기업체가 참여하는 운영위원회(위원11명, 위원장 한상욱 부산시치과의사회 부회장)를 구성하고 강사진 선발, 교육프로그램 개발 및 디지털장비 선정 등 디지털치의학을 보급하기 위한 사업을 진행해 왔다.  인재양성원에서는 4차산업혁명의 영향으로 급속히 변화하는 디지털환경에 대처하기 위해 3D 구강스캐너, CAD-CAM 소프트웨어, 임플란트 임상 등의 과정을 개설하고 치과의사, 치과기공사, 치과위생사 등 실무인력과 대학생을 대상으로 하는 디지털 교육을 시행한다.  ㈜디오, 오스템 임플란트, ㈜디디에스 등 치과관련 국내 대표기업이 참여해 디지털기기 보급사업을 확대하고 디지털 교육효과를 더욱 높일 예정이다.  부산시는 인재양성원 개원을 통해 디지털 치과진료 수준 향상 및 의료기기 산업 경쟁력 강화에 큰 효과가 있을 것으로 기대하고 있으며 올해 5월 전국 최초로 치의학산업 육성 및 지원 조례를 제정해 치의학산업 육성을 통한 지역경제 활성화 및 청년 일자리 창출에 박차를 가하고 있다.   또한 부산시는 한국과학기술원(KAIST)과 손잡고 이르면 하반기에 '부산-KAIST 치의학기술연구센터'를 설립하고 KAIST의 우수한 연구 인력과 부산시의 풍부한 치의학산업 관련 인프라를 바탕으로 치의학산업 기술의 발전과 기업 성장 동력을 지원할 계획이다.   두 기관은 이를 위해 지난 4월 부산테크노파크 관계자와 카이스트 교수, 관련 전문가 등으로 ICT융합 치의학기술연구 플랫폼 구축을 위한 기획위원회를 구성해 세부실행계획을 세우고 있으며 이를 토대로 현재 추진 중인 디지털치의학 상용화 기술지원사업 및 해외마케팅 지원사업 등을 더욱 내실화하고 관련 사업을 적극 추진할 예정이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      국립 경상대학교는 오는 25일 오후 2시부터 6시까지 BNIT R&amp;D;센터 2층 대회의실에서 ‘대입전형 표준화 및 발전방안 심포지엄’을 개최한다고 밝혔다.  경상대 입학본부는 2019학년도 대학입학전형 기본계획 수립을 위해 수도권 및 영호남 권역 주요 대학 간 정보공유 기회의 장을 마련하기 위해 이번 심포지엄을 개최한다고 말했다. 또한 향후 입학전형 계획의 안내를 통해 고교교사의 진학지도 및 상담 역량을 높일 것으로 기대한다고 밝혔다.  이번 행사에는 전국의 진로진학 담당 핵심교사 150여 명과 경상대를 비롯해 서울대·카이스트·한국교원대·경북대 등 11개 대학의 입학전문가 15명이 패널로 참가한다.     ▲ 경상대학교 전경. ⓒ경상대    이날 행사는 경상대 김대군 입학본부장의 개회사를 시작으로 ‘2017학년도 학생부종합전형 운영 사례와 2019학년도 대입전형 방향’을 주제로 수도권에서는 숭실대·카이스트·서울시립대·한국교원대·서울대 순서로 발표 및 질의응답이 진행되고, 영남권역에서는 경상대·경북대·부산대·부경대·동아대·진주교대 순으로 발표 및 토의가 진행된다.   경상대 입학본부는 수도권 및 영남권역 대학 간 정보 공유로 2019학년도 대학입학전형 기본계획 수립을 위한 구체적 토대를 마련하는 시간이 될 것이라고 기대했다.   또한 이 자리를 통해 대학입학전형의 전형요소 표준화를 위해 한걸음 다가감으로써 입시를 대비하는 수험생과 학부모들의 혼란을 방지하고 사교육 컨설팅비 감소에 기여코자 한다고 말했다.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      강원 태백시는 오는 26일 오후 2시 태백산소드림도서관 다목적실에서 청소년 대상 ‘과학자들의 작은 도시 강연회’를 개최한다고 밝혔다.   이번 강연회는 10월의 하늘 준비위원회와 한국도서관협회가 공동 주최하는 ‘10월의 하늘 프로젝트’ 공모사업 선정에 따라 추진된다.   10년 전 카이스트 정재승 교수의 제안으로 시작된 ‘10월의 하늘’은 전국 중소도시 도서관에서 해당 지역 청소년들을 대상으로 개최되는 도서관 과학 강연 행사이며 기획에서 준비, 당일 강연 및 행사 진행에 이르는 전 과정이 재능기부로 진행된다.     ▲태백산소드림도서관. ⓒ태백시     초등학교 5학년 이상 학생들과 중·고등학생 등 40명을 대상으로 진행되는 이번 강연회에는 과학자인 카이스트 김진은 씨가 강연자로 나서 뇌의 신비와 젊은 과학도들의 이야기를 들려줄 예정이다.   산소드림도서관 관계자는 “이번 강연회가 과학이 어렵고 재미없는 것이라 생각하는 청소년들에게 과학의 즐거움을 발견하는 계기가 되기를 바란다”고 말했다.   한편, 올해로 10주년을 맞는 ‘10월의 하늘’ 행사는 오는 26일 오후 2시 전국 100개 도서관에서 일제히 개최된다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      제21대 국회의원 선거에 출마한 前 청와대 춘추관장 최상화 예비후보(자유한국당) 는 22일 보도자료를 통해 대표 공약을 발표했다.  최 예비후보는 출마 전부터 사천읍에 있는 지역발전연구소를 운영하면서 지역민심을 훑어가며 지역 경제 활성화 위해 고심해왔다고 밝혔다.  또한 국회와 정부, 남동발전에 있으면서 지자체 관계자들과 현안사업에 대한 고민에 대한 결과로 케이블카 유치, 체육시설 유치, 버스터미널 이전사업, 남일대 해수욕장 정비사업, 재래시장 개선사업, 수해지역 숙원사업, 의료시설 등이 성과라고 말했다.  최 예비후보는 사천·남해·하동은 인근도시의 장점과 인프라를 잘 활용하고 산과 강, 섬과 바다가 어우러진 천혜의 자연환경을 가지고 있고 고속도로, 항만, 공항을 갖춘 육해공 사통팔달의 교통요지라고 강조했다. 그는 이를 토대로한 지역 경제 발전 방안을 마련했다.        먼저 사천·남해·하동 통합 공약으로는 산업 부분 ▲하동·남해·사천 지역 언론이 출자 참여하고 투자은행이 출자하는 공중파 방송국 설립 ▲신호 없는 거리 조성(지하도로 및 회전로타리 등) ▲도심내 고압선 철탑 지중화 사업 각 시군구 관내 하천, 저수지 등 복개화 및 친환경 조성 사업 ▲사천·남해 진양호(남강댐)하류 피해 상습지역 보상 및 대책 특별법 제정 ▲경남, 전남 해상경계 중간 수역 획정 추진을 내걸었다.  관광 부분은 사천강, 섬진강 관광휴양단지 건설 투자 유치 ▲금오산 ~ 비토산 ~ 각산 구간 해상 케이블카 18킬로미터 투자유치 ▲사천, 남해, 하동을 순환하는 친환경 관광 시티버스 운영 ▲하동·남해·사천에 해양 휴양 관광도시지역에 크루즈 선박 부두 및 요트 마리나 건설 투자 유치 ▲사천강, 섬진강 관광휴양단지 건설 투자 유치 ▲목공예 종합 전수관 등을 공약했다.농업, 축업, 어업 부분에서는 ▲전통시장 개선사업 일환으로 쉼터,주차장 및 편의시설 확충 및 청년창업 연계를 통한 전통 시장 활성화 방안 마련 ▲태양에너지 복합 스마트 팜 빌딩형 농장, 어장, 축사 기술 자본 유치 ▲첨단기술과 자본을 가진 기업과 지역 농·어·축산민과 전략적 제휴 추진, 첨단기술기업 자본과 기술 투자 하고 농,어,축산민이 생산한 상품을 수매해 단일 브랜드로 판매 ▲농촌 고령자를 위한 농지위탁 경영제도 도입을 약속했다.  복지 부분은 ▲사천시, 하동군, 남해군 각 시군에 2000실 내외 규모, 메디컬 국제병원호텔 설립 ▲메디컬 국제호텔병원에 지역 주민 의료비 30%할인 지원 협약 ▲메디컬 국제호텔병원에 지역 최저 계층 주민 무료치료지원 협약 ▲시, 군유지를 활용한 영구임대주택 3000 세대 공급 ▲농어촌 낙후지역 주민을 위한 찾아가는 의료 서비스 셔틀 버스 도입 ▲시, 군 소유 산지를 활용한 시, 군민 무료 수목장 조성 ▲1~2인 가구 임대주택, 신혼부부 행복주택, 노인복지타운 등 대상별 편의증진을 위한 주거 공급 확대 및 사회인프라 확충 ▲퇴직자, 귀촌인 등 전원주택 마을 조성 ▲대규모 종합 도서관 건립(우주항공도서관, 보물섬도서관, 섬진강도서관) ▲해양 치유 복합단지 조성사업을 내세웠다.  사천시 공약으로 먼저 산업 부분은 ▲자기부상 열차 클러스트 산업도시 건설(투자비 약 8조 3천억/고용창출 일 1만명/년 365만명 계획도시인구 약 30만 ▲항공우주 부품·소재산업 연구센터 유치 ▲삼천포항(제주도 항로 개통, 크루즈 항구)인근 접경지역 활성화 방안 마련 ▲중국국제노선 및 국내노선 확충을 통한 사천공항 활성화 방안 마련 ▲늑도-신도-두응도-마도-저도 연결교 건설 ▲사천 케이블카 연계 사업 리조트, 유스호스텔 유치 ▲사천 서부권 테크노파크유치 ▲구룡저수지 등 관내저수지 둘레길 및 공원 사업 추진 ▲사천강(사주리~정동)주변 환경 및 관개 개선 사업 추진 ▲항공MRO산단 등 주변지역 가구세대 이주 지원 ▲제2사천대교(항공산업대교) 추진 ▲곤양~곤명간 국지도58호선 도로개량 사업 추진 ▲삼천포 터미널 이전 및 현대화 추진이다.  관광산업 부분은 ▲사천만(남일대-실안-광포만-남양-용현-선진-사남-정동-사천읍-서포권-곤양-곤명)을 잇는 사천12선비길(역사·문화 체험 해안둘레길, 자전거 종주길) 조성 ▲남일대 일원 세계조각대회 유치를 통한 세계조각공원 조성 ▲사천종합역사박물관 설립 ▲해양 생물 체험관 조성 ▲항일독립운동 기념비 추가 설립 ▲무지갯빛 생태탐방로 추진(실안~대방~늑도)을 공약했다.  복지,교육 부분은 ▲KAIST에 위탁 운영하는 영재 유치원, 초등학교, 고등학교 유치 ▲KAIST에 위탁 운영 하는 풍력, 자기부상열차, 항공우주, 기계공학 특성화 대학교 유치▶ 항공 특성화 고등학교를 설립해 교육인프라를 구축 ▲사천읍 관내 지역응급센터 구축하겠다. 하동 공약으로 산업 부분은 ▲갈사만 풍력크러스트 산업도시 건설 투자유치 (투자비 약 12조 5천억/고용창출 일 1.5만명/년 500만명 계획도시인구 약 25만명) ▲갈사만 대송산업단지, 두우레저단지 산업 역할 강화 마련 ▲갈사산단 원유, LNG 허브터미널 조기화 추진 ▲국도2호선 하동구간 4차선화 추진 ▲경전선 진주-광양 구간 전철화 사업 조기화 추진▲ 섬진강 환경친화적 복개화 사업 추진 ▲산업활성화를 위한 국도, 지방도 신설 및 확장공사 추진(하동IC -&gt; 산청, 단성 IC 연결 산업도로 개설, 하동 악양 동-서 연결 생활도로 개설) ▲하동 내 주요구간 택시 승강장 설치를 약속했다.  농어업 부분은 ▲하동 다인박물관 건립 추진 ▲수출형 농업상품에 대한 지원 및 대책 마련하고 관광산업 부분은 ▲청학동 관광지 정비사업 추진 ▲최치원 기념관 유치사업 추진 ▲알프스하동 프로젝트 일환 친환경 산악궤도 열차 조기화 추진 ▲이병주 문학제 및 토지 문학제 규모 확대로 세계문학제로서의 면모 확립 ▲섬진강 재첩축제, 섬진강 뱃길 복원 및 수상레저 기반 조성을 위한 안정적 지원 방안 확립 ▲하동읍 너뱅이들 경전선 직선구간 제방 관광 명소화 ▲전통문화 체험형 최참판댁 조성사업 지원 ▲남해바다, 섬진강, 지리산구간 철인 3종 경기 국제대회 유치와 교육복지 부분은 ▲하동 국제학교 유치하겠다고 했다.  남해 공약으로는 먼저 산업 부분은 ▲남해읍 도시재생 뉴딜사업 활성화 방안 마련 ▲해경 관할구역 지역별 추진 ▲IGCC 신재생에너지산단 조기 착공 추진 ▲서상지구 전원주택지 개발 ▲남해 전통시장內 수산관광 시장 리모델링 ▲상주, 미조, 독일마을 관광특구 지정 ▲화방사 주변, 고려대장경 및 이순신 순국 관련사업 개발 ▲국도 3호선 조기착공 추진 ▲국도 19호선 이동~미조 추진 ▲남해∼여수 한려해저터널 조기 착공 추진과 농어업 및 복지 부분은 ▲지역 폐교를 활용한 지역 주민 평생 교육 시스템 구축 ▲수출형 농업상품에 대한 지원 및 대책 마련을 내걸었다.  관광 부분은 ▲해양 휴양형 레포트 단지 및 신(新)해양 레저 기반 마련 ▲5개 지구 어촌 뉴딜300 활성화 방안 마련 ▲남해 금산~상주 케이블카 설치사업 추진 ▲남해군 외식문화 단지 조성 ▲남해 고사리 산업기반 시설 확충 ▲고려대장경 판각지 복원 및 성역화 산업 추진 ▲금산 보리암 불교문화축전 활성화 방안 마련 ▲금산 선원전 정자각 건립 추진 ▲‘김만중 프로젝트’ 추진 ▲남해군 문화예술회관 건립 ▲미조 다이어트 보물섬 조성 ▲상주 농촌테마공원 조성하겠다고 밝혔다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ PD-1 발현에 따른 각 세포군의 특징적인 유전자 발현 양상 ⓒKAIST       KAIST 의과학대학원 박수형 교수와 서울아산병원 황신, 송기원 교수 공동연구팀이 간암 환자의 탈진된 종양 침투 면역세포 구성의 차이에 따른 간암 환자군을 구분하는 데 성공했다.  이번 연구는 서울아산병원 임상 연구팀과 KAIST 의과학대학원이 동물 모델이 아닌 임상을 통해 새 면역 항암 치료법을 위한 협업을 진행한 것으로 중개 연구(translational research)의 우수 모델로 평가된다.  암이 발생하면 인체는 암세포를 제거하기 위해 면역세포인 T세포를 활성화하는데, 종양은 T세포의 기능을 억제하기 위한 환경을 구성한다.  암세포는 생존을 위해 면역세포로부터 몸을 숨기는데, 면역 관문 억제제는 암세포가 숨는 데 도움을 주는 PD-1, PD-L1의 작용을 차단함으로써 면역세포가 정상적으로 암세포를 공격할 수 있게 되는 것이다.  그러나 면역 관문 억제제는 약 2~30%의 환자에게만 효능이 있고 70% 이상의 환자에게는 효과가 없어 면역항암제의 치료 효능을 높이기 위한 연구가 계속되고 있다.         ▲서울아산병원 황신 교수 ⓒKAIST    연구팀은 간암 환자의 탈진한 T세포 중에서 PD-1 단백질을 많이 발현하는 T세포가 그렇지 않은 T세포에 비해 면역세포의 기능이 더 많이 저하돼 있고, PD-1 이외의 다양한 면역 관문 수용체를 동시에 발현하는 것을 발견했다.  특히 간암 환자 중에서 약 절반 정도의 환자만이 PD-1을 많이 발현하는 탈진 T세포를 갖고 있으며, 이러한 환자들이 복합 면역 관문 억제제에 의해 T세포의 기능이 효과적으로 회복됨을 확인했다.        ▲박수형 교수 ⓒKAIST    박수형 교수는 “이번에 새롭게 제시된 환자군은 현재 적용 중인 면역 관문 억제제 치료의 반응을 예측할 수 있는 바이오 마커로서 유용하게 활용될 수 있다”며 “복합 면역 관문 억제제가 특정 환자에게만 효능이 있음을 제시해 맞춤 의학의 근거가 될 수 있다는 임상적 의의를 갖는다”라고 말했다.   보건복지부 첨단의료기술개발 사업의 지원을 받아 김형돈 박사과정이 1저자로 참여한 이번 연구는 국제 학술지 ‘소화기학(Gastroenterology)’ 12월4일 자에 게재됐다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      제11대 제주연구원장에 김상협(58) 카이스트 초빙교수가 임명됐다. 김상협 신임 제주연구원장은 지난 1일 원희룡 지사로부터 임명장을 받고 업무를 시작했다.    ▲제11대 제주연구원장에 김상협(58) 카이스트 초빙교수가 임명됐다.ⓒ제주연구원   김 원장의 임기는 이날부터 2023년 8월 31일까지 3년이다. 김 원장은 사내통신망을 통해 진행된 취임사에서 “제주는 대한민국의 테스트베드라는 통념을 넘어 대한민국의 미래를 좌우하는 헤드쿼터로 자림매김하는 과정에 있다”고 말했다. 이어 “제주의 역사와 정체성을 바탕으로 도민과 함께 미래를 만들어나가는 도민의 씽크탱크로 제주연구원이 발전해나갈 수 있도록 최선을 다하겠다”고 덧붙였다. 한편 제주연구원은 이날 코로나19로 인해 대면 취임식을 생략하고 사내통신망을 통해 취임사를 배포한 뒤 부서장 간담회를 개최하는 것으로 마무리했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      국립 경상대학교(GNU) 총장임용추천위원회는 19일 실시된 제11대 총장임용후보자 선거에서 권순기 교수가 1순위 총장임용후보자로 선출됐다고 발표했다.  직선제로 실시된 이번 선거에는 권순기 교수(공과대학 나노·신소재공학부)와 권진회 교수(공과대학 기계항공정보융합공학부)가 출마해 양자 대결 구도로 전개됐다.   19일 오전 10시부터 오후 1시까지 실시된 온라인 투표 결과, 기호 2번 권순기 교수가 50.85%의 득표율로 1순위 총장임용후보자로 선출되었다. 경상대학교 총추위는 이날 오후 박물관 1층 대강당에서 1순위 후보자로 선출된 권순기 교수에게 당선증과 꽃다발을 증정했다.     ▲제11대 총장임용후보자 선거에서 권순기 교수가 1순위 총장임용후보자로 선출됐다.ⓒ경상대    권 교수는 “다시 한번 저를 선택해 주신 경상대학교 가족 여러분께 깊이 감사드리며 오직 대학발전으로 보답하겠다.”라고 말하고 “여러분의 선택을 무거운 책임감으로 받아들이겠다”라고 말했다.   또한 “저와 훌륭한 경쟁을 펼쳐주신 권진회 교수님께 위로와 감사의 말씀을 드린다”면서 “품위 있게 경쟁해주신 권 교수님의 인품에 존경과 감사를 드리며 교수님이 제시한 비전과 정책을 4년간의 대학 운영에 반드시 참고하겠다”라고 강조했다.이어 “지역에 인재가 머물게 하고 그 인재를 보고 기업이 찾아오게 하는 선순환 구조를 만들기 위해서는 거점 국립대의 획기적인 발전이 필요하다. 총장으로 취임하면 국립대 연합체제 구축을 실현하기 위해 적극 나설 것이다"고 밝혔다.그러면서 "전국에 서울대 수준의 대학이 골고루 있어서 지역을 살리고 세계와 경쟁하는 명문대학 연합체제를 만들겠다. 원칙있는 통합, 시너지가 확실한 통합을 위해 끊임없이 소통하고 재정을 확보하겠다”라고 강조했다.  권 교수는 한국과학기술원(KAIST)에서 박사학위를 받았으며, 경상대학교 제9대 총장, 산업통상자원부 소재부품전략위원회 위원장, 경상대-삼성디스플레이 OLED연구센터장 등을 역임했다. 주요 선거 공약으로는 ▲우수 인재를 양성하는 글로컬대학(G) ▲지역 혁신 플랫폼을 견인하는 거점대학(N) ▲원칙과 소통이 살아 있는 통합대학(U) ▲정부 정책 변화를 주도하는 선도대학 등을 제시했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      국내 유일 공공 종합시험인증기관인 한국산업기술시험원(이하 KTL, 원장 정동희)과 국내 최초로 인공위성을 개발한 KAIST 인공위성연구소(이하 SaTReC, 소장 권세진)은 지난 24일 KAIST에서 우주분야 시험기술 연구 및 실증을 위한 업무협약을 체결했다고 밝혔다. 이번 협약으로 양 기관은, 국가 우주R&amp;D;사업으로 개발된 우주제품의 정확한 검증을 위한 ▲우주분야 시험평가 업무협력 ▲기술 및 인력교류를 통한 상호역량 증진 ▲ 우주분야 시험기술 해외협력 기반조성을 위한 상호협력 ▲우주분야 국가사업 공동 추진 및 연구과제 발굴 등을 추진한다. 과학기술정보통신부의 우주개발 프로그램에 따른 부품시험자원 확보를 위하여 지난 13일 ‘우주부품시험센터’착공을 시작으로 선진국 수준의 우주부품 전용시험시설을 구축중인 KTL과, 1992년 국내 최초 인공위성 우리별 1호를 개발한 우주전문연구기관으로 위성 표준화·모듈화 기술을 적용한 ‘차세대 소형위성 1호’ 개발사업의 주관연구기관인 SaTReC의 협약을 통하여 앞으로 국내 우주분야 관련기업들은 우주R&amp;D;제품 성능검증을 위한 시험기술 서비스를 더욱 원활히 제공받을 수 있게 된다.         ⓒ한국산업기술시험원    KTL 정동희 원장은 "SaTReC과의 협약을 통하여 민간 주도 우주산업 생태계 조성의 국가정책에 적극 부응할 것″이며 "국내 우주부품 중소․벤처기업의 기술개발과 국산화를 적극 지원하여 국가 우주산업 경쟁력 강화에 기여할 것″이라고 밝혔다. SaTReC 권세진 소장은 "KTL이 추진하는 ‘우주부품시험센터’ 구축과 활용 극대화를 위해 정보공유, 인력교류 및 공동연구 등의 상호협력에 적극 협력할 것″이며, "우주부품 시험평가서비스 활성화와 국내 산학연의 우주개발 혁신에 기여할 것″이라고 밝혔다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      창원시는 20일 공공연구기관의 기술을 이전받아 사업화를 추진하는 지역내 기업을 대상으로 신제품과 신사업 진출을 위한 R&amp;BD;(제품화․양산화)를 지원하는 창원강소특구 ‘기술이전사업화사업’이 공고됐다고 밝혔다.  기술이전사업화사업은 공공연구기관의 기술사업화 기업을 지원하는 사업으로 특구(연구개발특구 5개소, 강소특구 6개소) 내 공공연구기관*의 기술을 이전받아 사업화를 추진하는 창원시 기업이면 누구나 신청이 가능하다.     ⓒ 창원시   창원 강소특구 내에 입주한 기업은 특구 외에 위치한 공공연구기관의 기술을 이전받아 사업화를 추진하는 경우까지 신청이 가능하다. 기업별 지원 금액은 연간 최대 2억원 이내이며 총 사업비는 30억원이다.  연구개발특구진흥재단 사업관리시스템으로 신청서 등 구비서류를 오는 31일 오후 3시까지 제출해야 한다. 사업공고에 대한 자세한 사항은 과학기술정보통신부, 창원시, 한국전기연구원 홈페이지를 참조하면 된다.  창원 강소특구의 기술핵심기관인 한국전기연구원의 강소특구총괄실에서는 창원시의 기업들이 많은 혜택을 받을 수 있도록 지원신청 준비, 자격요건, 구비서류에 대한 전반적인 상담을 지원하고 있다.  한편 특구 내 공공연구기관은 한국전기연구원(창원), 경상대(진주), 인제대(김해), 충북대(청주), 포스텍, RIST(포항), 한양대 에리카(안산), KAIST, ADD, 기계연, ETRI(대전), GIST, 전남대, 한국광기술원(광주), DGIST, 경북대(대구), 부산대, 생기원 동남본부(부산), 전북대, 식품연, KIST 전북분원(전북) 등이다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲   대전시의회 김인식 의원 ⓒ대전시의회    대전시의회 김인식 의원이 22일 주민들을 현혹시키고, 아무런 공론화 없이 추진되는 평촌산업단지 LNG발전소 유치를 반드시 철회하라고 촉구했다.  김인식 의원은 이날 대전시의회 임시회 본회의에서 “지난 14일 기성동 평촌산업단지 기업유치 설명회를 개최한다면서, 실제로는 LNG발전소 유치 계획을 설명했다”며 “참석한 21명의 주민들은 기업유치 설명회인 줄 알고 참석했지만, 다른 지역에서 반대한다는 LNG발전소 유치발표인 것을 알고 당혹감을 넘어 분노하고 있는 상황”이라고 지적했다.  또 “더욱 황당한 것은 설명회 이후 단 5일 만인 지난 19일 속전속결로 비밀작전을 수행하듯 대전시가 한국서부발전과 투자양해각서를 자랑스럽게 체결하였다는 점”이라며 허태정 대전시장에게 “이게 말이 된다고 생각하느냐?”고 추궁했다.  아울러 “평상시 시민을 위한 공론화 행정을 주장하면서도 정보제공과 찬반 의사도 물어보지 않고, 21명의 주민을 갑자기 불러서, 일방적으로, 속전속결로 밀어 붙이는 이유가 무엇이나?”며 “급하게 밀어 붙여야 할 시급한 정치적 이유가 있는 것은 아닌지 주민들은 의심하고 있고, 이런 밀실 행정에 충격을 받은 기성동 주민들은 발전소 반대 프랑카드를 수 십여개 내걸고 개탄과 분노를 표출하는 상황을 알고는 있느냐”고 물었다.  특히 “다른 산업단지에는 기업 몇 개만 유치하더라도 연일 언론에 크게 홍보했던 과정을 생각해보면, 적어도 수개월동안 대전시장과 유력인사들이 협의와 사전 동의가 있었을 텐데 그동안 쉬쉬하고 있었던 이유는 무엇이냐?”면서 “주민들의 반대가 무서워서 주민들도 21명만 알리라고 한 거냐”고 따졌다.  김 의원은 "대기업을 유치할 수 있다는 무책임한 말을 책임질 수 있는 지, 대기업 유치 근거는 무엇이냐"고 추궁했다.  또 “평촌공단 면적의 절반가량을 LNG발전소 부지로 내어준다면 앞으로 평촌공단은 첨단기업을 위한 공단이 아닌 발전소 관련기업 공단일 뿐”이라며 “본 의원이 대통령 부부도 방문한바 있는 장태산에 대한 관광단지 개발을 지속적으로 요구해왔지만 답변이 없었던 이유가 LNG발전소 부지로 만들기 위한 것이었냐”며, "청정지역 기성동 주민들에게 환경오염이 걱정되는 발전소는 상상할 수 없는 충격"이라고 비판했다.  김 의원은 “KAIST 교수도 LNG발전소 건립으로 2015년 신차기준, 배기가스를 뿜는 자동차 10만대가 대전시에 늘어나는 것이라며 지구온난화나 미세먼지 측면에서 환경문제로 이어진다고 지적했다”면서 “이런 환경적인 문제로 음성군을 비롯한 전국 여러 지역에서 LNG발전소 건립에 반대하고 있다”고 제시했다.  또 대전시는 LNG를 청정연료로 포장해 주민들을 현혹시키고, 주민의 건강과 안전을 위협하는 이런 환경적인 문제에 대해 아무런 설명도 없이 청정연료라는 말로 포장하고 있다“며 ”대전시는 환경오염 여부에 대한 과학적인 자료를 제시하고 설명해야 할 의무가 있다“고 강조했다.  아울러 ”지역 주민에게 일자리 만들어 준다지만 옳지 않다“면서 ”타시도 사례를 보면 발전소 운영 및 지원인력은 100명 이내 대부분 외지에서 출퇴근하는 전문 엔지니어들로, 주민들에게 제공되는 일자리는 청소나 단기 용역과 같은 허드레 일만 돌아가고 있다“고 반박했다.  김인식 의원은 ”공론화 절차도 거치지 않고, 기업유치라는 말로 지역주민들을 현혹시키면서 환경과 주민안전을 위협하는 발전소를 일방적으로 유치하려는 대전시 계획에 전적으로 반대하며, 앞으로 기성동 주민을 비롯한 서구 구민 모두와 함께 이번 LNG발전소 유치계획 철회에 앞장 서 나가겠다“고 밝혔다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      환경보호, 자연보호를 위해서는 과학기술을 이용해 환경과 자연을 개선하려고만 달려들 것이 아니라, 인간의 자연에 대한 태도나 마음가짐, 그리고 삶의 양식을 바꾸어야 한다.(필자 주)    자살률 1위를 비롯해, 노인빈곤율 1위, 산재사망률 1위, 임시직노동자 비율, 노동시간, 복지비 지출, 출산율, 미세먼지농도 등 대한민국의 실상을 드러내 보여주는 여러 표징들을 보면 우리 사회는 정치, 경제, 사회, 교육, 복지, 국방, 외교, 환경 등등 여러 측면에서 기형화되어 있다는 생각이 들 때가 한두 번이 아니다.   그래서 여러 가지로 고민해야 할 일이 많지만 이런 문제들을 다 고민하기에는 능력이 부족하기도 하고, 또 이 모든 문제에 관심이 가는 것도 아니기에 애초 환경문제, 그것도 환경윤리 문제에 집중해 '민미연 칼럼'을 쓰기로 했다. 그렇다 보니, 요즘 들어 인터넷에서 '환경윤리'라는 말을 적잖이 검색하게 되었다. 게다가 올 초 데자르댕(Joseph R. DesJardins)의 &lt;환경윤리&gt; 책을 번역하기도 한지라, 더 자주 검색하게 된다. 그렇지만 전부터 지겹도록 보아오던 몇몇 도서 소개나 별별 시답지 않은 이야깃거리정도가 검색되기 일쑤다.   그런데 며칠 전 반가운 문구를 발견했다. '뉴스'란의 여러 기사에 '환경윤리'라는 말이 '4차 산업혁명'이라는 말과 함께 무더기로 등장한 것이다. 미래창조과학부 미래준비위원회가 지난 4월 18일 '10년 후 대한민국, 4차 산업혁명 시대의 생산과 소비'라는 미래 전략보고서를 발간해 4차 산업혁명에 대응하기 위한 생산과 소비의 혁신 대응 전략을 제시했다는 내용이다. 그리고 지속가능한 순환경제 시스템 전환을 위해서는 '환경윤리 확립'이 핵심이라는 이야기다. 이것이 그토록 반가운 이유는 그동안 환경문제가 중요성에도 불구하고 여러 가지로 뒷전으로 밀리고 있다는 생각이 머릿속에 늘 강하게 자리 잡고 있었기 때문이다.   아닌 게 아니라, 실제로 이러한 생각을 강력하게 지지해주는 사례가 있다. 실천윤리학의 거장으로 일컬어지는 피터 싱어(Peter Singer)는 &lt;세계화의 윤리(One World: The Ethics of Globalization)&gt;라는 그의 책 1장 첫머리를 "9.11테러 당시 비행기가 세계무역센터를 들이받은" 얘기와 "연료를 많이 잡아먹는 SUV(sports utility vehicle) 차량이 달리면서 이산화탄소를 내뿜는" 얘기로 시작한다.   싱어에 따르면, 9.11테러가 일어나자 그 즉시 많은 사람들(3130명)의 죽음을 가져왔고 잊기 어려운 충격을 남겼으며 그 장면이 전 세계로 생생하게 전달되었다는 것이다. 반면 SUV 차량은 기후변화를 일으키기는 하지만, 그 변화는 전자와 같이 눈에 띄는 것도 아니고 과학적인 장치나 기구들을 활용해야만 겨우 탐지될 수 있다는 것이다. 그럼에도 SUV차량을 가진 사람들이 부지불식간에 야기하는 보다 미묘한 변화는 9.11테러(3130명)보다도 훨씬 더 많은 사람(수백만 명)을 죽게 하리라는 것이 분명하다는 것이다.   잘사는 사람들이 자동차를 더 큰 것으로 바꿀 때 그들은 기후변화가 일어나게 하는데 한몫을 하는 것은 분명하다. 그래서 곡식을 여물지 못하게 만들고, 해수면을 상승시키며, 열대성 질병이 퍼지게 하는 등등의 폐해를 가져다줄 것이다. 게다가 과학자들은 온실가스 배출이 지속될 경우 수백만 명의 생명을 잃게 되리라는 증거를 속속 내놓고 있다. 그럼에도 온실가스를 가장 많이 배출하는 나라인 미국의 당시 지도자였던 조지 W. 부시는 다음과 같은 말을 지껄인다고 싱어는 지적한다.   "미국 경제에 해를 끼치는 일은 어떤 것도 하지 않겠다. 왜냐하면 최우선적인 것은 미국국민이기 때문이다."   부시의 이 말은 경제를 위해서라면 SUV차량의 대량 판매로 인한 온실가스 문제가 대수냐는 이야기로 들린다. 이렇듯 환경문제는 그 중요성과 심각성에도 불구하고 경제나 테러 등과 같은 직접적 문제들보다 등한시되어 온 것이 사실이다.      ⓒ지식공감   환경에 대한 인식이 대체로 이런 상황에서 그동안 환경위기의 주원인 중 하나로 지목되었던 이른바 '과학기술'을 선도하는 미래창조과학부(장관 최양희) 산하 미래준비위원회(위원장 이광형)에서 '환경윤리 확립'이라는 이런 목소리를 냈다는 것은 고무적인 일이 아닐 수 없다. '10년 후 대한민국, 4차 산업혁명 시대의 생산과 소비'라는 미래 전략보고서는 4차 산업혁명에 의한 변화를 우리 생활에 큰 비중을 차지하고 쉽게 접할 수 있는 '생산과 소비'라는 키워드로 풀어내고 있다.   위원회는 보고서에 제시된 이런 전략 방향은 차기 과학기술기본계획 등에 반영하여 정책으로 연계할 계획이고, 이 보고서는 정부부처, 공공기관 외에도 국민 누구나 미래준비에 활용할 수 있도록 제공할 예정이라고 밝혔다. 그래서 이 보고서는 현재 누구나 미래부, KISTEP, KAIST 미래전략대학원 홈페이지에서 무료로 다운로드해 볼 수 있다.  이 보고서에서 미래준비위원회는 먼저 사물인터넷(IoT), 빅데이터, 인공지능(AI) 등의 지능정보기술이 초고속의 초연결 플랫폼을 스마트하게 생성함에 따라, 생산과 소비의 전 과정도 실시간으로 똑똑하고 긴밀하게 연결되는 시대가 열리고 있다고 진단한다. 즉 앞으로 생산과 소비가 결합하여, 생산자는 소비자의 요구를 실시간으로 기획, R&amp;D;, 제조 등에 반영하여 재고 없이 스마트하게 생산하고, 소비자는 원하는 제품과 서비스를 적기에 제공받을 수 있게 될 것이라고 내다 봤다.   그리고 위원회는 4차 산업혁명으로 인한 이러한 생산과 소비의 혁명적 변화를 우리 경제의 위기이자 기회로 보고, 이에 대한 변화 트렌드와 우리 산업의 현주소를 진단하였다. 그리고 이러한 변화에 대응하기 위한 국가, 기업, 사회 등을 포함하는 폭넓은 관점에서 전략 방향을 제시한다. 먼저 기업은 기획·R&amp;D;·제조·마케팅을 데이터 중심으로 신속하고 유기적으로 연계·혁신하고, 플랫폼 생태계를 선도하기 위해 주도적으로 플랫폼을 구축하고 활용할 필요가 있다는 것이다. 그리고 정부, 산학연 등 혁신 주체들은 혁신 역량을 높이기 위해, 4차 산업혁명의 핵심기술을 확보하고 개방형 혁신을 확대하는 한편, 창의적 미래인재 양성을 위해 노력해야 한다는 것이다.   또한 정부는 사회적 합의를 통해 개인정보 보호, 공정경쟁, 지식재산권 등의 제도를 정비하고, 미래가치 원천이 될 데이터와 제조 혁신의 기반인 스마트공장 인프라를 강화할 필요가 있다는 것이다. 그리고 마지막으로 미래의 생산과 소비를 풍요롭게 만들기 위해 사회는 경쟁이 아닌 신뢰와 상호협력의 문화를 조성하고, 지속가능한 순환경제 시스템으로 전환하기 위해 '환경 윤리를 확립'하는 것이 필요하다는 것이다.   말하자면 생산과 소비는 사회 내에서 이루어지고 문화의 한 부분을 차지하면서 생산과 소비는 사회·문화를 변화시키고, 사회·문화는 다시 생산과 소비를 변화시키는 상호작용을 이루기 때문에 미래에 생산과 소비를 발전시켜 가면서도 이로 인한 혜택을 많은 사람들이 누릴 수 있도록 하는 문화와 윤리를 사회에 확립할 필요가 있다는 것이다.   이와 관련해서 특히 보고서는 우리나라는 사회적으로 신뢰가 낮은 수준이며 경쟁 위주의 문화가 만연돼 있다는 점을 지적한다. 그리고 경제협력개발기구(OECD)가 신뢰 수준을 포함하여 측정한 사회자본(social capital) 조사에서 우리나라는 32개국 중 29위로 매우 취약하게 나타났다는 점, 그리고 학교 교육에서부터 경쟁에 길들어 서로를 경쟁자로 보는 시각이 만연해 있다는 점을 지적하며 경쟁이 아닌 신뢰와 상호협력의 문화 조성을 강조한다.  그리고 보고서는 또 한 가지 지속가능한 생산과 소비를 뒷받침하는 윤리를 확립하는 것이 필요한데, 그중에서도 기후변화와 자원 고갈의 위협을 극복할 수 있는 환경윤리의 확립이 매우 시급하다는 점을 이야기한다. 이에 따라 환경 친화적 생산과 소비가 이루어지는 순환경제 시스템 도입의 필요성이 강력하게 제시된다는 것이다. 그리고 순환경제 시스템의 도입은 사회에 환경 친화적 윤리의식이 확립되어 국가와 기업에 적극적으로 요구할 때 탄력을 받을 수 있다는 점을 보고서는 강조하고 있다.   이러한 과학자들의 목소리는 반갑고 쌍수를 들어 환경할 일이다. 그러나 아쉬운 점은 다른 주제와 달리 환경윤리를 언급하는 부분은 비교적 환경윤리 확립을 강조하는 선언적 주장에 그치고 그와 관련한 구체적인 방안에 대한 언급이 없다는 것이다. 이는 수십 명의 필진 중에 눈을 씻고 봐도 윤리나 철학을 포함한 인문학 영역의 학자가 눈에 띄지 않는 점으로 보아 어쩌면 당연한 것으로 보인다. 그렇다면 이제 소비주의·물질주의로 인한 환경위기 등 다중적 위기의 시대에 인류 전체의 지속가능한 미래를 위한 대안적 삶의 방식 중 하나인 '단순한 삶' 혹은 '자발적인 소박함(voluntary simplicity)의 삶'의 방식 등에 대해서도 정부 차원에서 관심을 가지고 여러 가지 측면에서 구체적으로 연구해볼 일이다.  어쨌든 과학기술자들이 혹은 정책전문가들이 환경문제의 해결을 위해 과학기술에만 의존해 먼저 환경을 개조하려 달려드는 것이 아니라, 환경윤리라는 말을 입에 올리고 그것의 확립을 통해 인간의 태도나 마음가짐을 변화시키며 이를 토대로 다시 자연환경과 삶의 방식을 바꾸어나가고자 하는 시각의 변화 조짐은 중요한 의미를 지니는 것으로 생각된다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">              AI World Cup 2018 국제대회 포스터     세계 최초의 인공지능 분야 국제대회인 AI World Cup 2018 국제대회가 20~22일 KAIST 학술문화관에서 개최된다.  이번 대회에는 인공지능 분야에서 최고의 기술력을 자랑하는 구글·미국 MIT대와 노스웨스턴대, KAIST, 서울대 등 국내·외 대학 및 연구기관들이 참가한다.  KAIST는 지난 4월 1일부터 참가팀을 모집한 결과 우리나라를 포함해 미국, 브라질, 이란, 중국, 대만, 프랑스, 인도 등 총 12개국에서 모두 29개 팀이 출전을 신청했다.  대회는 AI 축구(23개 팀), AI 경기해설(4개 팀), AI 기자(2개 팀) 등 총 3개 종목으로 나눠 진행되며 각 종목별로 우승팀을 가린다.  AI 축구는 Q-Learning(인공지능의 강화학습 방법) 등의 기술로 축구 전술을 학습한 5개의 인공지능 선수가 전·후반 각 5분간 사람의 조작 없이 상대 팀 골대에 골을 넣어 득점하는 방식으로 진행된다.  예선전은 대회 서버에서 자동으로 매칭(Matching)된 상대와 대결하는 롤링 업데이트(Rolling Update)형 토너먼트 방식으로 치러진다.  최종 우승팀에게는 미화 1만 달러, 준우승 팀과 3위 팀에게는 각각 5000 달러와 2000 달러의 상금이 수여된다. KAIST는 22일 열리는 4강전 및 결승전을 일반인 및 청소년에게도 공개할 예정이다.  AI 경기해설 종목은 AI 축구의 경기영상을 인공지능이 분석하고 설명하는 분야로 우승팀에게는 미화 5000 달러의 상금이 수여된다.  AI 기자 종목은 AI 축구 경기내용과 AI 해설을 바탕으로 인공지능이 기자대신 기사를 작성하는 분야다.  사실에 근거한 충실한 내용을 가장 충실하게 담아낸 팀을 선별해 우승팀에게 미화 5000 달러의 상금을 수여한다.  이번 대회기간 중에는‘국제 인공지능(AI) 기술 워크숍’이 동시에 개최된다.  스위스의 로봇 시뮬레이터 제작사인 사이버보틱스(Cyberbotics)사의 올리버 미첼(Olivier Michel) 대표와 미국 퍼듀대 컴퓨터정보기술학과 에릭 맷슨(Eric T. Matson) 교수 등 세계적으로 저명한 AI 전문가를 초빙해 AI의 기술적인 이해와 알고리즘 개발방법, 미래기술 전망 등 다루는 강연 및 패널 토론 등이 진행된다.  대회조직위원장인 KAIST 김종환 공과대학장은 “이번 대회는 KAIST가 AI기술을 선도하는 리더로서 AI 월드컵 소스코드를 공개해 누구나 쉽게 AI 기술을 습득하고 경험할 수 있는 기회를 제공한다는 점에서 큰 의미가 있다”면서 “AI 월드컵을 통해 인공지능 알고리즘의 개발과 활용영역을 넓혀나가는 것뿐만 아니라 새로운 비즈니스 모델을 창출하는데 기여하는 게 이 대회를 개최하는 목적”이라고 말했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      우리는 초연결 사회에 살고 있습니다.우리는 인터넷을 통해서 스마트폰으로 또 페이스북, 카카오톡 등의 플랫폼으로 모두가 모두와 연결되어 있습니다. 이런 초연결 사회에서 우리의 개인 정보 역시 곳곳으로 새 나가고 있습니다. 구글, 페이스북, 카카오 또 유통 업체, 금융 업체 등은 우리의 모든 정보를 데이터로 수집합니다. 이 정보를 기반으로 기업이 빅 데이터 마케팅을 한다는 건 이제 상식이 되었죠.찜찜하지 않으세요? 돈벌이를 최고의 목적으로 삼는 사기업이 어쩌면 은밀한 정보까지 '나'를 속속들이 알고 있다는 사실이요. 만약 이 회사의 데이터 센터가 나쁜 목적을 가진 집단에게 뚫리면 어떻게 될까요? 갑자기 국가 기관이 이 회사가 보유한 나의 개인 정보를 마음대로 열람한다면 어떻게 될까요?&lt;프레시안&gt;과 &lt;시사통&gt;이 함께 만드는 '독서통'은 31일 보안 전문가가 쓴 섬뜩한 책 &lt;당신은 데이터의 주인이 아니다&gt;(브루스 슈나이어 지음, 이현주 옮김, 반비 펴냄)를 다뤘습니다. 빅 데이터 전문가인 이효석 박사(&lt;뉴스페퍼민트&gt; 대표)와 함께 정보화 시대, 우리의 정보를 누가 통제하는지에 관해 이야기했습니다.   ▲ 이효석 박사(&lt;뉴스페퍼민트&gt; 대표). ⓒ프레시안(이대희)   내 정보, 누군가 지켜본다김종배 : 오늘 소개할 책을 소개해 주세요.강양구 : 지난 독서통에서 &lt;리틀 브라더&gt;(코리 닥터로우 지음, 최세진 옮김, 아작 펴냄)와 &lt;댓글부대&gt;(장강명 지음, 은행나무 펴냄)를 소개한 적이 있지요? 오늘 소개한 책도 이 책들의 연장선상에 있습니다. 브루스 슈나이어의 &lt;당신은 데이터의 주인이 아니다&gt;를 오늘 함께 읽어보겠습니다.(☞관련 기사 : "국정원 뒷문은 테러리스트도 좋아합니다", '일베' 하고, '술집' 나가는 20대, 돈만 주면 OK?)김종배 : 저자 소개도 잠깐 해주시죠?강양구 : 글쓴이 브루스 슈나이어가 경력이 독특합니다. 보안 업계에서는 세계 최고의 보안 전문가로 꼽힙니다. &lt;이코노미스트&gt;가 "보안 구루"로 칭하기도 했습니다. 2013년에 에드워드 스노든이 미국 국가안보국(NSA) 기밀문서를 폭로했잖아요? 그 때 스노든이 폭로한 문서를 분석해서 &lt;가디언&gt;의 특종 보도에 도움을 준 전문가도 바로 슈나이어입니다.김종배 : 오늘 이 자리에는 저자를 대신해 특별한 전문가도 한 분 모셨죠?강양구 : 굉장히 다재다능한 분입니다. 2012년에 창간한 매체 &lt;뉴스페퍼민트&gt;가 있어요. 좋은 외신 기사를 골라 발췌 번역해 매일 소개하는 매체입니다. 이 매체를 직접 만들고, 현재도 대표로 재직 중인 이효석 박사를 이 자리에 모셨습니다. 이 박사는 &lt;뉴스페퍼민트&gt; 운영과 병행해서 스타트업에서 빅 데이터 전문가로도 활동하고 있습니다.한국과학기술원(KAIST)에서 물리학 박사 학위를 받고 나서, 이동 통신 기술인 LTE(Long Term Evolution) 표준화에 참여하기도 했습니다.김종배 : 어서 오십시오.이효석 : 안녕하세요. 반갑습니다.강양구 : 미국에 계신다고 들었는데요?이효석 : 작년(2015년) 8월에 한국에 들어왔습니다. 미국 하버드 대학교에서 8년간 연구원으로 일했습니다. 사물 인터넷(IoT) 등 데이터 과학을 본격적으로 연구했어요. 지금은 의료 관련 스타트업에서 빅 데이터를 연구하고 있습니다. 이렇게 재미있는 자리에 불러주셔서 고맙습니다.김종배 : 요즘 들어서 개인 정보 이슈가 자주 논란이 됩니다. 툭하면 금융 기관이나 신용 카드 회사에서 고객 정보가 유출되는 사고가 있습니다. 또 국가정보원이나 경찰 같은 국가 권력이 시민의 사생활을 감시하는 일도 여러 차례 이슈가 되었고요. 그런데 여기서 이해할 수 없는 부분이 있어요.똑같은 개인 정보 이슈인데, 어떤 뉴스는 사회적으로 큰 파장을 일으킵니다. 많은 시민이 분노하죠. 예를 들어, 국가 권력의 사생활 감시가 그렇죠. 반면에 어떤 뉴스는 그 심각성에 비해서 파장이 적을 뿐만 아니라, 시민 역시 둔감한 것 같습니다. 수시로 일어나는 개인 정보 유출 사건이 그렇습니다. 이 차이는 도대체 어디서 비롯된 걸까요?이효석 : 개인 정보 유출 사건이 실제로 자기 삶에 어떤 영향을 미칠지 모를 경우에 사람들은 무덤덤하기 마련입니다. 특히 처지에 따라서 개인 정보의 가치를 다르게 평가하는 것 같습니다. 기업은 수백만 명의 정보를 가지고 있으니 그것이 지닌 엄청난 상업적 가치를 알죠. 하지만 개인 한 사람 한 사람은 자신의 정보가 얼마나 큰 가치를 지녔는지 알기가 쉽지 않아요.더구나 개인 입장에서는 '내 정보를 기업에 내줌으로써 약간의 손해를 보지만, 그보다 훨씬 큰 이득을 얻는다'고 생각할 수도 있습니다. 구글 이용자는 따로 비용을 지불하지 않고 이메일을 사용하고, 어디서나 접근 가능한 저장 공간(구글 드라이브)을 사용할 수 있습니다. 페이스북 이용자도 비용 지불 없이 친구의 소식을 쉽게 접할 수 있죠.반면 개인 정보 이슈가 정치적인 문제로 떠오르는 경우가 있습니다. 앞에서 지적했듯이, 이 경우에는 파장이 큽니다. 그 이유를 딱 한 가지로 잘라서 설명하기는 쉽지 않죠. 일단 생각해 볼 수 있는 것은 정치적 이해관계에 따라서 정부-여당을 비판하는 수단으로 개인 정보 이슈에 접근하는 사람이 있겠죠.김종배 : 카카오의 검찰-경찰 감시 논란이 한창이었을 때 '사이버 망명'이 큰 호응을 얻은 건 어떻게 봐야 하나요? 정치적 이해관계에 따른 것이라고 하기엔 100만 명은 많은 숫자죠.이효석 : 저도 텔레그램 망명자 가운데 하나입니다. (웃음) 숨길 게 없이 떳떳하면 왜 개인 정보에 그렇게 신경을 쓰느냐고 묻는 분들이 있습니다. 이에 대해서는 예전 독서통에서 개인 정보 이슈를 다룰 때 정확하게 답한 것 같아요. 화장실에서 볼 일 보는 걸 남에게 공개하고 싶은 사람은 아무도 없죠. 하지만 그게 숨겨야 할 부끄러운 일도 아닙니다.사이버 망명에 동참한 시민도 마찬가지 심정 아닐까요? 특별히 숨길 게 있어서가 아닙니다. 나와 친구가 나눈 사적인 대화가 감시당할 수 있다는 사실을 참을 수 없다고 느낀 거죠.김종배 : 비단 카카오톡뿐만 아니라, 우리가 일상적으로 스마트폰이나 컴퓨터로 인터넷을 쓰면서 행한 온갖 활동이 다 기록으로 남아서 어딘가에 저장되고 있다면서요?강양구 : 아마 &lt;당신은 데이터의 주인이 아니다&gt;를 읽는다면, 많은 독자가 깜짝 놀라리라고 생각합니다. 우리가 일상적으로 사용하는 구글, 페이스북, 인스타그램 등을 통해서 내 개인 정보가 얼마나 많이 기업으로 넘어가고 있는지 실감하실 수 있을 거예요. 명백한 증거가 오스트리아 한 페이스북 이용자의 사례입니다.2011년 이 이용자는 페이스북을 상대로 그들이 가진 자신에 관한 모든 데이터를 돌려달라고 요구했어요. 사실 이용자의 당연한 권리죠. 그런데 페이스북이 이를 거부했습니다. 결국, 2년에 걸친 법정 공방 끝에 페이스북은 1200쪽의 PDF 파일이 든 CD를 이 이용자에게 보냈습니다.그의 친구 목록, 뉴스피드에 올라온 기사, 그가 클릭한 적 있는 모든 사진과 페이지, 심지어 그가 본 모든 광고 데이터까지 저장되어 있었습니다. 페이스북이 이 방대한 자료를 그냥 갖고 있었을 리 없죠. 분명히 돈벌이 수단으로 어딘가에 활용했겠죠. 예를 들어, 가장 손쉬운 활용 방법은 친구 추천입니다.우리는 페이스북의 친구 추천 기능에 환호하죠. 그런데 사실 페이스북이 나의 개인 정보를 (동의도 없이) 자신의 가입자 수를 늘리는 데 활용하는 겁니다. 또 페이스북을 이용하다 보면, 자신에게 맞춤한 광고가 뜨는 경우가 있습니다. 여행을 준비 중인데 숙박 예약 사이트의 광고가 뜨죠. 역시 페이스북이 나의 개인 정보를 활용해서 내놓은 표적 광고입니다.이효석 : 책에서 저자는 과거에는 모든 이메일을 각각 분류하고 저장했는데, 2006년을 기점으로 일단 모두 저장하고 필요할 때마다 검색하는 방식으로 바꾸었다고 고백합니다. 사실 저도 비슷한 시기에 그런 변화를 겪었어요. 왜냐하면 매일매일 처리해야 하는 이메일의 양이 너무 많아져서 어쩔 수 없었기 때문이죠.페이스북, 구글, 아마존 같은 기업도 마찬가지입니다. 수집한 개인 정보를 무조건 다 저장한 다음, 나중에 필요할 때 꺼내 쓰는 게 비용이 적게 드는 시대가 된 거죠. 그러니 이런 기업은 가능한 한 모든 정보를 무조건 저장합니다. 기업은 기본적으로 '고객의 개인 정보는 내 것'이라고 생각합니다.이런 상황에서 인터넷 공간에서 개인의 '잊혀질 권리'를 행사하기가 현실적으로 어려울 수밖에 없어요. 유럽은 개인 편이지만, 미국은 기업 편을 드는 추세입니다.모든 걸 다 아는 전능김종배 : 책을 읽어 보면 '데이터' 개념과 '메타 데이터' 개념을 분리합니다. 일단 두 개념을 설명해주시죠.이효석 : 전화 통화로 설명하죠. A와 B가 언제 얼마나 오랫동안 통화했는지를 기록한 정보가 메타 데이터입니다. 그리고 실제로 그 통화 내용을 누군가가 도청했다면, 그것은 데이터죠. 강양구 : 이 책을 읽고서 부끄러웠어요. 에드워드 스노든이 NSA의 기밀문서를 폭로했을 때, NSA는 이렇게 반론을 폈어요. 우리는 미국 시민의 모든 데이터를 수집한 게 아니라 메타 데이터만 수집했을 뿐이라고요. 그러니까, 테러리스트와 통화한 적이 없는 대다수 보통 사람은 메타 데이터를 수집한 사실에 걱정할 필요가 없다는 거였죠.반론을 들으면서 저도 솔깃했습니다. 그런데 이 책을 읽고 나서야 메타 데이터가 치명적인 개인 정보라는 사실을 깨달았어요. 이효석 : 맞습니다. 한 사람의 메타 데이터만으로도 그 사람의 행적, 친소 관계, 특정 인물과의 연결고리를 추적할 수 있습니다.강양구 : 스탠포드 대학교 연구 팀이 수개월간 자원자 500명의 전화 메타 데이터를 확보해서, 그 메타 데이터로부터 자원자의 개인별 특징을 추론했어요. 그 결과는 정말로 섬뜩했습니다.참가자 C는 대형 병원의 심장병 전문의와 오랫동안 이야기를 나눴고, 약국에서 걸려온 전화를 받았습니다. 또 심부정맥 모니터링 장비 회사의 고객 센터와 간단히 통화했습니다. 아시겠죠? C는 심장마비가 온 적이 있습니다. 참가자 D는 3주 동안 집수리 용품 매장과 자물쇠 수리인, 수경 재배 식물 판매업자, 마약 복용 물품을 판매하는 가게에 전화를 걸었죠.D는 뭘 하는 사람이었을까요? 집에서 마리화나를 재배하는 사람이었습니다. 참가자 E는 어느 날 이른 아침에 언니와 오랫동안 통화했어요. 이틀 뒤에 그녀는 동네의 가족계획을 위한 사무소에 연달아 전화를 걸었고, 2주 뒤에 다시 짧게 통화했습니다. 짐작이 가시죠. 맞아요. E는 낙태했어요.그러니까 구체적인 통화 내용(데이터)을 모르더라도, 메타 데이터만으로도 한 사람의 신상을 충분히 재구성할 수 있는 거죠.김종배 : 특히 의료 데이터가 유출된다면 개인에게 정말 치명적일 겁니다. 당장 지난해(2015년) 국민건강보험공단이 무려 110만 건의 개인 정보를 검찰과 경찰에 넘겼다는 뉴스가 떠오릅니다. 이런 식으로 개인의 동의 없이 마구 의료 정보가 넘어가도 되는 겁니까?이효석 : 의료 데이터는 특별합니다. 보통 의약업체가 신약 하나를 개발하는 데 보통 수조 원의 돈을 들여서 여러 차례에 걸쳐 임상시험을 한 후 시중에 내놓죠. 만약 의료 데이터를 활용할 수 있다면 이런 비용을 크게 절약할 수 있습니다. 그러니까 의료 데이터는 공적 활용을 위해서 필요한 대목이 있습니다. 미국에는 '히파(HIPPA, Health Insurance Portability and Accountability Act)'라는 개인병원기록보호법이 있습니다. 개인 식별이 가능한 정보와 그렇지 않은 의료 정보를 철저히 구별해서, 후자만 공공을 위해 활용하도록 강제하는 법입니다. 이런 법이 있을 정도로 개인의 사회생활에 큰 지장을 줄 수 있는 의료 개인 정보는 조심해서 다뤄야 합니다.김종배 : 물론 빅 데이터를 여러 가지로 활용한다면 순기능을 얻을 수 있다고 봅니다. 하지만 선을 넘는 게 문제인데요. 기업이나 국가는 항상 선을 넘으려 하죠.이효석 : 이 책이 아주 중요하게 다루는 주제입니다. 특히 저자는 '대량 감시'를 일관되게 반대하죠. 특정 인물이 위협 요소가 있다면 법 집행 기관에 영장을 발부받은 후 그 사람을 감시해야 합니다. 무차별적으로 모든 사람을 감시해 개인 정보를 수집하고, 그 빅 데이터를 토대로 감시하는 건 효과도 없고 여러 가지 부작용만 낳죠.김종배 : 책을 읽고 나서 가장 심각한 문제라고 여겼던 부분이 바로 NSA 같은 정부 기관이 민간 업체가 보유한 이용자 개인 정보를 언제라도 들여다볼 수 있다는 사실이었어요. 저자는 "징발됐다"라고 표현하더군요. 아주 적절한 표현이라고 봅니다. 국가와 기업의 감시가 결합할 때, 끔찍한 재앙이 일어날 수 있죠.강양구 : 한국도 마찬가지입니다. 앞서 우리가 정치와 관련한 개인 정보 유출에는 민감하고, 기업 관련 개인 정보 유출에는 둔감하다는 얘기를 했어요. 그런데 사실은 우리가 둔감한 부분, 그러니까 기업에 민감한 데이터가 많이 모여 있습니다. 그리고 국가 권력이 그걸 활용하려고 마음만 먹는다면 정부와 기업 간의 긴밀한 협력으로 언제든지 가능하죠.결국, 우리의 정보가 평소에는 기업의 돈벌이 수단으로 활용되고 결정적인 순간에는 국가 권력의 대국민 감시에 징발될 가능성이 있어요. 무섭지 않습니까?   ▲ 에드워드 스노든 전 미 중앙정보국(CIA) 직원은 NSA의 무차별 개인 정보 수집 활동을 폭로했다. ⓒNBC   언제나 활짝 열린 우리 집 뒷마당?김종배 : 이 대목에서 우리가 놓쳐서는 안 되는 개념이 '백 도어(back door)'입니다. 이 개념이 무엇인지부터 설명해주세요.이효석 : 시스템 보안을 무력화해서 시스템 내부로 들어갈 수 있는 방법을 통칭합니다. 사실 보안이 완벽한 시스템을 만드는 것은 불가능합니다. 어떤 시스템이든 허점이 있을 수밖에 없어요. 그래서 백 도어를 발견할 때마다 기업은 이를 고치려고 노력하죠. 그런데 이런 경우가 있습니다.예를 들어, NSA가 특정 기업 시스템의 백 도어를 발견했어요. 정상적인 상황이라면 그 기업에 즉시 알려서 백 도어를 막으라고 조언하는 게 정부의 역할이죠. 그런데 NSA는 그렇게 조언하기는커녕 그 백 도어의 존재 자체를 비밀로 붙입니다. 왜냐하면, 자기들이 필요할 때 그 백 도어를 이용하기 위해서죠.NSA만 백 도어의 존재를 알고 있으란 법은 없죠. 테러리스트 같은 나쁜 의도를 가진 집단도 백 도어의 존재를 알아챌 수 있습니다. 그들이 백 도어를 활용할 수 있죠.김종배 : 백 도어가 열려 있다면, 수사 기관은 영장을 받은 후 특정 개인을 조사해야한다는 법적 상식이 무력화될 수 있잖아요? 필요하다면 언제든 뒷문으로 들어가 개인 정보를 볼 수 있으니까요. 책에 소개된 이메일 회사 라바비트(Lavavit)가 폐업을 결정한 사례를 보면서 정말 국가와 기업이 결합한 개인 정보 침해의 심각성을 느꼈습니다.강양구 : 라바비트는 웬만한 대기업 이메일 서비스보다 보안성이 더 뛰어난 이메일 서비스 제공 업체였습니다. 에드워드 스노든이 바로 이용자 중 한 명이었죠. 스노든이 2013년 홍콩으로 도망친 후, 정부가 모든 라바비트 이용자 정보를 보호하는 암호화 마스터키를 넘기고, 이들이 정부에 감시당할 수 있음을 알리지 마라는 요청을 라바비트 측에 했죠.백 도어를 요구한 겁니다. 라바비트는 정부와 맞서 법정 소송까지 갔습니다만, 소송에서 지고 나서 결국 문을 닫는 결정을 내렸습니다.김종배 : 고객 정보 보호를 위해 이런 결정을 내릴 수 있는 사업가가 몇 명이나 되겠습니까?이효석 : 일전에 애플이 총격 사건 용의자의 아이폰 보안을 해제해 달라는 미국 정부의 요구를 거절한 일이 있습니다. 그러니까 미국 정부가 애플한테 아이폰의 백 도어를 알려 달라, 혹은 백 도어를 만들어라, 이렇게 요구한 거죠. 뒤이어 애플은 미국 정부가 (프라이버시를 침해하려는) 전례 없는 요구를 기업에 한다는 장문의 메시지를 고객에게 보내 화제가 되었죠.보통 정부와 기업이 싸울 때 사람들은 정부 편을 들기 마련입니다. 그런데 이 사건에서 대부분의 시민은 애플 편을 들었습니다. 다수의 시민도 백 도어의 문제점을 알아챈 겁니다.강양구 : 애플의 의도가 이용자의 개인 정보를 보호하겠다는 순수한 건 아니었겠죠. 소비자로 하여금 '애플은 안전하다'고 인식하게끔 정부와의 충돌을 마케팅 수단으로 활용한 거죠.김종배 : 여태까지 우리가 많은 이야기를 했는데요. 기업의 개인 정보 수집이 낳는 문제점을 어느 정도 실감하셨을 거예요.강양구 : 요즘 여러분이 자신의 일상을 기록한 사진을 인스타그램 같은 곳에 올립니다. 그런데 인스타그램 사진이 끔찍한 결과를 낳을 수도 있어요. 그런 사진이 특정 시점에 특정 공간에 있었다는 식별 정보로 활용될 수 있거든요. 예를 들어, 반정부 시위 때 찍은 사진이 인스타그램에 올라간다고 생각해 보세요.이효석 : 그러고 보니, 제가 미국에 있을 때 티베트 독립을 지지하는 집회에 참여한 적 있습니다. 혹시 당시 제가 찍힌 사진이 있다면, 중국을 방문할 때 문제가 될 수 있겠죠. (웃음)   ▲ 소셜 미디어는 네트워크를 타고 만인을 감시한다. 우리의 소중한 개인 정보 데이터는 바로 나를 감시하는 도구다. ⓒpixabay.com   내 프라이버시는 어디까지 희생해야 하나김종배 : 오늘 우리는 당장의 편리를 위해서 개인 정보 침해를 용납할 때, 어떤 치명적인 결과를 낳을 수 있는지를 살펴보았습니다. 그런데 제 생각은 여기서 멈춘 상태예요. 대안에 관해 할 말이 없습니다. 우리가 스마트폰을 안 쓰고, 이메일을 안 쓰긴 어려우니까요.강양구 : 가장 답답한 부분입니다. 개인 정보 보호에 관한 이야기가 많이 나옵니다만, 변화를 체감할 수 없어요. 그 이유는 많은 사람이 막연한 불안함에 대처하고자 구체적으로 무엇을 할지 알지 못한다는 데 있습니다. 그 와중에 기업은 기업대로, 국가 권력은 권력대로 개인 정보를 수집하고 감시할 능력을 키우고 있고요.김종배 : 앞서 거론된 라바비트는 아주 양심적인 업체입니다. 분명 극히 예외적 사례라고 생각됩니다. 실제로 기업이 고객의 개인 정보를 보호하기 위해 얼마나 고민하고 있습니까?이효석 : 기업 입장에서는 법이 아주 중요합니다. 저자는 "모든 기업이 이익을 극대화하기 위해 노력하지만, 시민이나 정부가 방향을 잘 정하면 그 범위 안에서 노력한다"고 언급하죠. 기업이 얼마나 고객의 정보를 보호해야하는지에 관한 법적 가이드라인이 마련된다면, 기업은 결국 그 테두리 안에서 움직이는 경향이 있다는 겁니다.강양구 : 그런 점에서, 저자가 제안한 '정보 보호 수탁자' 개념도 대안이 될 수 있지 않을까요?이효석 : 맞습니다. 의사, 변호사, 회계사는 고객의 이익을 반드시 우선시해야 하는 의무를 가지고 있습니다. 정보 보호 수탁자는 고객의 정보를 오직 고객의 이익을 위해서만 사용한다는 개념이죠. 구글이나 페이스북은 고객의 개인 정보를 많이 갖고 있지만, 고객의 이익이 아니라 자신의 이익을 위해서 사용합니다.하지만 신생 IT 업체가 고객 정보를 오직 고객의 이익을 위해서만 활용하겠다고 약속한다면, 즉 정보 보호 수탁자로서의 의무를 최우선에 놓고서 기업을 경영하겠다고 한다면, 많은 고객이 그런 업체의 서비스를 신뢰하고 선택하지 않을까요? 또 정부도 정보 보호 수탁자로서의 의무를 선언한 기업에 세제 혜택, 법적 혜택을 주는 인센티브를 고려할 수도 있겠죠.김종배 : 정보 보호 수탁자 개념처럼 기업이 고객의 개인 정보를 중요하게 취급할 수 있도록 하려면 법이 제정되어야 합니다. 결국 모든 문제는 정치로 수렴되는군요. 국회가 어떤 법을 만드느냐에 따라서 기업의 운신의 폭이 조정이 될 테니까요. 그런 점에서 테러 방지법의 경우는 정부-기업이 결합한 감시의 가능성만 더 키웠죠.내 정보를 지키는 방법은?강양구 : 개인이 취할 수 있는 대응에는 뭐가 있을까요?이효석 : 저자가 몇 가지를 언급했습니다.우선 감시를 차단하는 프로그램을 사용하는 방법이 있습니다. 프라이버시 강화 기술(privacy enhancing technologies, PET)이라고 하는데요. 라이트빔(lightbeam), 프라이버시 배저(privacy badger), 디스커넥트(disconnect), 고스터리(ghostery), 플래시블럭(flash block) 등의 플러그인이 대표적입니다.또 인터넷 익스플로러 대신 암호화된 웹브라우저 토르(tor)를 사용하는 것도 좋은 방법입니다.강양구 : 저도 토르를 사용하고 있습니다. 익스플로러나 크롬에 비해서 약간 느리지만, 일상적인 웹 서핑에는 전혀 문제가 없습니다.재미있는 사례가 하나 생각납니다. 2013년 하버드 대학교 폭탄 위협 사건 때 범인이 추적을 피하고자 토르를 사용했어요. 그런데 그가 기숙사에서 토르를 사용한 유일한 사람이었기 때문에 걸렸다는 말이 있습니다. 자신의 흔적을 감추기 위해서 토르를 사용했는데, 정작 그런 사용 패턴 때문에 자신이 더 부각되는 역설은 어떻게 생각하십니까?이효석 : 좀 더 많은 사람이 토르처럼 보안이 강화된 프로그램을 사용한다면 그런 일이 생기지 않겠죠.김종배 : 특히 기자와 같이 정보를 취급하는 일을 한다면 토르 같은 보안이 강한 브라우저를 사용할 필요가 있습니다. 예를 들어, 내가 지금 터뜨리면 어마어마한 파장을 일으킬 권력형 비리를 추적 취재 중이라고 합시다. 일반 브라우저를 사용하는 도중 누군가 내 검색 과정을 다 지켜본다면 얼마나 어처구니없는 상황입니까? 그나저나 다른 건 또 없습니까?강양구 : 이 책의 저자가 추천한 방법이 있습니다. 가끔은 스마트폰을 집에 두고 다녀라. 마트에서 자기 회원 카드로 상품을 사지 말고 친구 카드로 구매하라. 신용 카드 대신 현금을 사용하라. (웃음)이효석 : 농담 같지만 전혀 의미 없는 실천은 아니에요. 사실 가끔 한 번씩만 스마트폰을 집에 두고 다녀도 감시 시스템을 교란할 수 있기 때문에 추적이 어려운 사람이 될 수 있습니다. 신용 카드 사용을 줄이는 것도 마찬가지고요. 작은 교란 행위로도 정부, 기업의 감시로부터 자신을 지킬 수도 있습니다.강양구 : 또 있습니다. 페이스북에서 가끔은 자신과 전혀 무관한 사람을 검색하라. 시스템을 교란하는 장난을 쳐 보라는 거죠. 한 번 해보세요. 페이스북에서 자신과 전혀 상관없는 특정인을 몇 번 검색하면, 친한 사람 혹은 당신이 알 수 있는 인물로 등록이 되거든요. 페이스북의 친구 추천 시스템을 교란하는 거죠.김종배 : 저자는 프라이버시권을 내 정보를 컨트롤할 수 있는 권리라고 정의하더군요. 내 정보의 통제권을 내가 갖는 것. 다른 한편으로 보자면, 지금의 감시 사회에서는 내 정보 통제권을 내가 갖기도 어렵다는 겁니다. 오늘 우리가 나눈 이야기를 한 마디로 정리하자면 이 얘기가 아닌가 싶습니다.나는 나를 숨길 권리를 갖고 있다강양구 : 이 대목에서 저자는 아주 중요한 화두를 하나 던집니다. 우리가 부모님에게 보여드리는 내 모습이 다르고, 친구에게 보여주는 내 모습도 다르죠. 심지어 사랑하는 사람에게 보여주고 싶은 내 모습도 따로 있습니다. 그런데 내가 보여주길 원하지 않는 내 모습을 예상치 못한 상황에서 예상치 못한 상대에게 어쩔 수 없이 보여주게 된다면 어떨까요?정말로 빅 데이터 사회에서는 나의 정체성을 내가 결정하기가 어렵습니다.이효석 : 통제력을 갖는다는 것 자체가 굉장히 어렵죠. 페이스북 대표인 마크 저커버그가 "모든 사람의 정체성은 하나"라고 말한 적 있습니다. 하지만 이 얘기는 저자의 지적대로 순진하죠. 내가 연인과 나누는 얘기, 파티에서 친구들과 나누는 얘기, 직장에서 하는 얘기는 전부 다르거든요.   ▲ &lt;당신은 데이터의 주인이 아니다&gt;(브루스 슈나이어 지음, 이현주 옮김, 반비 펴냄). ⓒ반비   그런데 이런 사실을 무시하고 나의 모든 정보가 노출된 환경에서 내가 스스로를 통제하기란 결코 쉽지 않습니다. 맨체스터 유나이티드의 감독이었던 알렉스 퍼거슨 경이 남긴 유명한 말씀도 있지 않습니까? "트위터는 인생 낭비"라고요. (웃음) 당장 힐러리 클린턴처럼 노회한 정치인도 공적, 사적인 구별을 잘 하지 못해 정치적 곤경에 처하지 않았습니까?강양구 : 이 책에서 브루스 슈나이어가 제기한 여러 문제가 사회적 합의를 거쳐 잘 해결되리라고 생각하십니까? 아니면 디스토피아적 소설에 나오는 것처럼 감시 사회로 넘어갈 것 같습니까? 이효석 : 저는 물론 전자를 희망합니다. 전자처럼 되기 위해 사회적 노력이 필요할 테고요. 하지만 아직은 ‘이렇게 될 것’이라고 답하긴 어려운 상황 같습니다.김종배 : 오늘 이효석 박사를 모시고 브루스 슈나이어의 &lt;당신은 데이터의 주인이 아니다&gt;에 관해 이야기 나눴습니다. 개인 정보 보안이 왜 중요한지, 모두가 연결되는 사회에서 개인 정보가 얼마나 쉽게 뚫리고, 얼마나 무서운 방향으로 이용당할 수 있는지 알아보는 시간이었습니다. 나와 주신 이효석 대표께 감사 말씀 드립니다. 이효석 : 즐거운 시간이었습니다. 감사합니다.앞으로 서강대학교 철학과 박사 과정에 재학 중인 이솔 씨가 독서통에서 소개된 책을 이해하는 데 필요한 핵심 개념을 설명합니다. 브루스 슈나이어의 &lt;당신은 데이터의 주인이 아니다&gt;와 관련해 이솔 씨가 설명하는 핵심 개념은 '파놉티콘(Panopticon)'과 '시놉티콘(Synopticon)'입니다.파놉티콘파놉티콘은 1791년 제러미 벤담(Jeremy Bentham)이 처음으로 고안한 개념입니다. '모두'를 뜻하는 '판(pan)'과 '본다'는 뜻의 '옵티콘(opticon)'이 합성된 말로, '모두를 다 본다'는 뜻입니다.벤담이 고안한 이 파놉티콘은 원래 죄수를 감시할 목적으로 설계된 특별한 형태의 감옥을 가리키는 표현이었습니다. 이 감옥은 죄수의 입장에서 감시자의 시선을 파악할 수 없도록, 그래서 끊임없이 감시되는 상태를 만들어내도록 설계되었습니다. 결과적으로 파놉티콘은 죄수들로 하여금 규율과 감시를 내면화해 스스로를 감시하게 하는 효과를 낳습니다.시놉티콘소수가 다수를 감시하는 파놉티콘이 근대 사회의 감시 원리였다면, 노르웨이 범죄학자 토마스 매티슨(Thomas Mathiesen)은 정보 기술의 발전에 의해 파놉티콘의 일방적 감시가 바뀌어 가고 있다고 지적합니다. 정보 기술의 발전으로 언론과 통신이 발달하면서 기존 소수의 감시자와 다수의 피감시자 간의 경계가 사라지고 모두가 함께(syn) 서로를 감시하는 상황이 조성되었다는 것이죠. 매티슨은 이를 시놉티콘(Synopticon)이라 명명했습니다.파놉티콘이 소수가 다수를 감시하는 체제를 의미했다면, 이제 다수가 소수의 권력자를 감시하는 체제로 변화했다는 점에서 시놉티콘은 역파놉티콘(Reverse panopticon)이라고도 불립니다. 역파놉티콘이란 파놉티콘의 반대되는 개념으로 감시받던 피감시자들이 역으로 감시자들을 감시하는 상황을 의미합니다.이렇듯 시놉티콘이 역파놉티콘을 의미한다는 점에서, 시놉티콘에는 디지털 시대로의 발전을 통해 이제는 권력에 대한 견제, 곧 감시가 시민으로부터 이루어지는 역감시가 이루어지게 되었다는 낙관적인 전망이 함축되어 있습니다. 즉, 과거처럼 소수만이 권력과 언론을 독점하고 다수의 일반 시민을 통제하는 체제가 아니라, 일반 시민 역시 자신을 감시하는 권력자를 감시하고 통제한다는 점에서 수평적인 권력 관계가 형성되리라는 기대감이 깔려 있죠.하지만 이러한 낙관론에 대한 비판의 목소리도 적지 않습니다. 이에 대해서는 크게 두 종류의 비판이 제기됩니다.첫째, 우리 사회가 모든 곳에서 서로를 감시하고 감시당하는 국면으로 접어들게 되면서, 파놉티콘에 갇힌 죄수가 자신이 감시당하는지 아닌지 몰랐던 것처럼 정보 파놉티콘의 네트워크에 노출된 사람은 자신의 행동이 다른 이에 의해 열람될지 확신할 수 없기 때문에, 자신의 행동을 늘 의식적으로 통제하게 되었다는 겁니다. 파놉티콘 모형에서 중앙 감시탑의 역할이 정보화 사회 네트워크의 그물망으로 분산됨에 따라서 오히려 더 극단적으로 광범위하고 내밀한 감시가 이루어진다는 거죠.둘째, 시놉티콘에 관한 낙관주의가 현존하는 권력의 비대칭성을 간과하고 있다는 사실도 지적됩니다. 정보화 사회로 진입하면서 소수의 감시자와 다수의 피감시자 간의 경계가 사라지고 모두가 함께(syn) 서로를 감시하는 상황이 조성되었다고 하더라도, 여전히 데이터를 수집하고 소유하는 주체가 우리는 아니라는 거죠.이러한 문제를 거론하는 입장에서는 특히 (오늘 독서통에서 중요하게 살펴봤듯이) 감시 시스템이 국가를 넘어 시장의 영역에 도입되고 있다는 점을 지적합니다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      지식인 664명이 정부에 기후위기 적극 대응을 촉구하는 선언문을 발표했다. 정부가 현 상황이 '기후위기'임을 대내외에 선포하고 이에 적극 대응할 특별기구를 설치해야 한다고 이들은 밝혔다. 9일 원로 지식인과 연구자 등 664명이 발표한 '기후위기 선포를 촉구하는 지식인·연구자 선언문'에는 우희종 서울대 교수, 이정모 서울시립과학관 관장, 하종강 성공회대 교수, 박하순 민주노총 정책연구원, 조천호 전 국립기상과학원장 등 관련 분야 지식인과 손호철 전 서강대 교수, 조한혜정 연세대 명예교수, 강내희 지식순환협동조합 대안대학 학장 등 원로 지식인들이 참여했다. 이들은 세계적으로 이어지는 기후행동의 현 상황을 거론하며 "일상에서 기후변화의 위험을 체험할 수 있을 만큼 지구의 기후가 급변하고 있다"고 진단했다. 이어 "우리는 기후변화가 아닌 기후위기의 시대를 살고 있다"며 "기후위기는 부정할 수 없는 사실이자 외면할 수 없는 현실"이라고 강조했다. 이들은 기후위기가 초래한 "가뭄과 사막화, 토지 이용방식의 변화는 식량 생산의 감소를 야기할 것"이며 그로 인한 "식량 가격 상승은 가난한 지역과 계층에 식량 위기를 촉발할 수 있다"고 우려했다. 또 기후위기는 "물 공급과 사용에 지대한 영향을 미칠 것"이라고도 덧붙였다. 현 상황을 인류의 생존을 위협하는 총체적 위기로 규정했다. 이들은 이같은 위기로 인해 "올해 들어 영국, 아일랜드, 캐나다, 프랑스 등이 앞장서 기후위기 또는 기후비상사태를 선포"했고 "미국과 유럽의 주요 선거에서 기후변화가 주요 쟁점으로 부상하면서 그린 뉴딜과 같은 전향적 정책들이 제안되고 있다"고 평가했다. 그러나 한국은 "한참 뒤처져 있다"고 진단한 이들은 "문재인 정부가 탈핵·에너지전환으로 에너지 정책의 방향을 돌린 것은 환영할만한 일이지만, 기후위기 현실에 비춰보면 전환의 속도는 느리고 포괄 범위도 제한적"이라고 개탄했다. 한국은 문재인 정부 들어 2017년 43.1%이던 석탄발전 비중을 2030년 36.1%로 낮추고, 미세먼지 배출은 2030년까지 62%로, 온실가스는 배출전망치(BAU) 대비 26%를 감축키로 했다. 전문가들은 이에 대해 "문재인 정부의 탈핵·에너지전환 추진력이 약하다는 비판이 제기되고 있고, (특히) 온실가스 감축 정책은 전환의 의지 자체를 의심할 수준"이라며 "한국은 이산화탄소 배출량 세계 7위, 기후악당국가의 불명예를 안고 있다"고 비판했다. 이어 "기후변화 대책의 사각지대가 곳곳에 존재할 뿐만 아니라, 통합적인 기후위기 대응방안은 보이지 않는다"며 "어느 때보다 기후위기에 대한 정확한 인식, 기후변화 및 에너지전환 정책에 대한 통렬한 성찰이 필요한 상황"이라고 강조했다. 이들은 "기후위기 대응은 새로운 기술적 해결책을 도입하거나 새로운 성장동력을 찾는 정책으로 국한할 수 없으며, 핵발전의 유혹에 흔들려서는 더더욱 안 된다"며 "지속가능한 사회로의 전환을 위해 필요한 변화를 사회적으로 폭넓게 논의해야 한다"고 주장했다. 이어 "그 시점이 늦어질수록 우리가 배출할 수 있는 탄소 예산은 더 빠르게 줄어들고, 기후위기의 파국을 막을 수 있는 1.5~2℃ 상승 억제는 요원해질 것"이라며 "우리에게 주어진 시간은 몇 년 남지 않았다"고 경고했다. 이들은 오는 21일 전 지구적 기후 파업 일환으로 국내에서도 오후 3시 대학로에서 열릴 기후위기 비상행동을 적극 지지한다고 밝혔다. 이들은 이어 정부를 향해 구체적으로 △기후위기 비상선언을 실시하고 온실가스 배출 제로 계획을 수립하고 △기후정의 원칙에 입각해 기후변화 대응 정책을 포괄적으로 재검토하며 △신속한 탈핵·에너지전환을 추진할 수 있도록 국가 특별기구를 설치하고 관련 법과 제도를 정비할 것을 주문했다. 다음은 선언문 전문. 기후위기 선포를 촉구하는 지식인·연구자 선언지구의 미래를 위한 저항이 확산되고 있다. 지난 3월과 5월, 전세계 수백개의 도시에서 청소년들이 앞장 선 '기후를 위한 학교 파업'(School Strike for Climate)에 수십만명의 시민들이 동참했다. 화석연료 사용의 신속한 중단을 요구하며 점거 시위를 펼치는 멸종저항(Extinction Rebellion)과 토지의 종말(Ende Gelaende) 운동을 지지하는 목소리도 전세계로 퍼져가고 있다. 기후 위기에 대한 전면적인 대응을 촉구하는 시민사회의 요구는 '기후행동 정상회의'(Climate Action Summit)가 열리는 기간에 맞춰 펼쳐질 전지구적인 기후 파업에서 다시 한번 분출될 것이다.기후행동이 세계 각지에서 지지를 받는 까닭은 무엇보다 일상에서 기후변화의 위험을 체험할 수 있을 만큼 지구의 기후가 급변하고 있기 때문이다. 우리는 기후변화가 아닌 기후위기의 시대를 살고 있다. 그동안 경험할 수 없었던 폭염이 더 자주, 더 오랫동안, 더 많은 곳을 강타하고 있다. 예기치 못한 폭우, 폭설, 가뭄, 홍수, 한파 소식 또한 더 이상 낯설지 않다. 급변하는 기후로 인해 수십년 내 전세계의 주요 도시가 인간의 생존이 어려운 곳으로 변할 수 있다는 암울한 경고까지 나오고 있다. 기후위기는 부정할 수 없는 사실이자 외면할 수 없는 현실이다.나아가 기후위기가 다차원적인 위기를 촉발할 수 있다는 사실을 직시해야한다. 단적으로 기후변화로 인한 가뭄과 사막화, 토지 이용방식의 변화는 식량 생산의 감소를 야기할 수 있다. 그리고 식량 생산 감소로 인한 식량 가격의 상승은 가난한 지역과 계층의 식량위기를 촉발할 수 있다. 또한 기후위기와 식량위기는 물 공급과 사용에 지대한 영향을 미친다. 이처럼 기후위기는 에너지위기이자 식량위기, 나아가 물위기를 포함하는 총체적인 위기의 징후라는 사실을 직시해야 기후위기에 제대로 대응할 수 있다.다행히 최근 들어 기후위기에 적극적으로 대응하는 국가가 늘고 있다. 2019년 들어 영국, 아일랜드, 캐나다, 프랑스 등이 앞장서 기후위기 또는 기후비상사태를 선포했다. 지방정부로 내려오면, 세계 각지에서 수백 곳 이상의 지방정부가 기후위기 비상 선언에 동참하고 있다. 또한 미국과 유럽의 주요 선거에서 기후변화가 주요 쟁점으로 부상하면서, 그린 뉴딜(green new deal)과 같은 전향적인 정책들이 제안되고 있다. 국가적 차원에서 자원과 역량을 동원해서 2030-2050년 탄소 배출 제로, 신속한 재생가능에너지로의 전환, 2030-40년 내연기관 차량의 판매 중단과 같은 장기적인 전환 계획을 수립·실행하는 것이 시대적 과제로 부상하고 있다.하지만 안타깝게도 한국은 한참 뒤쳐져있다. 문재인 정부가 탈핵·에너지전환으로 에너지정책의 방향을 돌린 것은 환영할만한 일이지만, 기후위기의 현실에 비춰보면 전환의 속도는 느리고 포괄 범위도 제한적이다. 한국은 이산화탄소 배출량 세계 7위, 기후악당국가의 불명예를 안고 있으나 석탄화력발전에 대한 투자는 여전히 많고 폐쇄 계획은 더디다. 도전적인 '탄소 배출 제로' 목표가 필요한 상황이지만, 한국은 아직 국제적으로 매우 불충분한 것으로 평가받는 BAU 대비 2030년 온실가스 감축 목표에 머물러 있다. 문재인 정부의 탈핵·에너지전환의 추진력이 약하다는 비판이 제기되고 있지만, 온실가스 감축 정책은 전환의 의지 자체를 의심할 수준이다. 기후변화 대책의 사각지대가 곳곳에 존재할 뿐만 아니라 통합적인 기후위기 대응방안은 잘 보이지 않는다. 그 어느 때보다 기후위기에 대한 정확한 인식, 기후변화 및 에너지전환 정책에 대한 통렬한 성찰이 필요한 상황이다.기후위기 비상 선언과 장기적인 온실가스 배출 제로 계획의 조속한 수립은 기후위기를 헤쳐가기 위한 최소한의 조치다. 한 걸음 더 나아가려면, 기후위기 대응이 불평등을 심화시키거나 위험을 새로운 형태로 전가시키는 것을 막을 수 있도록 '기후정의'와 '정의로운 전환'을 기후위기 대응의 원칙으로 확립해야한다. 누구도 기후위기로부터 자유로울 수 없지만, 기후위기의 책임과 피해가 동등한 것은 아니다. 기후재난의 피해는 역설적으로 기후위기의 책임이 가장 적은, 가난한 지역과 취약한 계층에 집중되어 이들의 삶의 권리 자체를 위협하고 있다. 국내적으로 보면, 대기업의 온실가스 배출의 책임은 점점 더 느는 데 반해 폭염과 같은 기후재난은 야외 노동자나 주거 빈곤층과 같은 취약 계층에 집중되고 있다. 따라서 기후위기 대응 정책은 국제적 차원과 국내적 차원을 모두 고려해서 기후변화의 책임과 피해 간의 불일치를 교정하는 역할을 해야한다. 나아가 전환 과정에서 발생하는 피해나 비용이 특정 지역과 집단에게 전가되지 않도록 사회적인 지원책을 마련할 필요가 있다.기후정의의 문제는 기후위기가 복합적인 사회위기의 산물이라는 사실을 다시 한번 상기시킨다. 따라서 기후위기는 에너지원의 변화를 넘어서 에너지 다소비적인 산업구조의 변화, 사회적 불평등의 해소, 고용 및 복지 체계의 변화, 사회경제적 풀뿌리 민주주의 강화 등 사회 구조의 변화를 동반할 때 해결의 실마리를 찾을 수 있다. 다시 말해 기후위기 대응은 재생에너지로의 전환을 위한 대규모 투자, 녹색 일자리의 창출을 넘어서서 산업구조의 개편, 발전모델의 전환으로 나아가야한다. 기후위기 대응은 새로운 기술적 해결책을 도입하거나 새로운 성장동력을 찾는 정책으로 국한될 수 없으며 핵발전의 유혹에 흔들려서는 더더욱 안된다. 전지구적으로 '기후변화가 아닌 시스템 변화'(system change, not climate change)를 요구하는 목소리가 높아지고 있는 이유를 곱씹으며 지속가능한 사회로의 전환을 위해 필요한 변화를 사회적으로 폭넓게 논의해야한다. 그 시점이 늦어질수록 우리가 배출할 수 있는 탄소 예산(carbon budget)은 더 빠르게 줄어들고 기후위기의 파국을 막을 수 있는 1.5-2℃ 상승 억제는 요원해질 것이다. 우리에게 주어진 시간은 이제 몇 년이 채 남지 않았다.9월 21일, 전지구적 기후 파업의 일환으로 국내에서도 기후위기 비상행동이 전국 곳곳에서 개최된다. 우리는 기후 파업을 적극적으로 지지하며 기후행동 정상회의를 계기로 한국 정부가 기후위기 대응에 적극적으로 나설 것을 촉구한다. 기후위기를 해결하기 위해서는 기업과 개인을 아우르는 변화가 필요하지만, 정부가 변화를 이끄는 마중물 역할을 할 수 있다. 우리는 한국 정부가 국제적인 책임을 다하며 국내적으로 정의롭고 신속한 전환을 이끌기를 기대하면서, 전환의 출발점으로 다음의 세가지 사항을 요구한다.○ 정부는 기후위기 비상선언을 실시하고 온실가스 배출 제로 계획을 조속히 수립하라.○ 기후정의의 원칙에 입각하여 기후변화 대응 정책을 포괄적으로 재검토·강화하라.○ 신속한 탈핵·에너지전환을 추진할 수 있도록 국가 특별기구를 설치하고 관련 법·제도를 정비하라.2019. 9. 9.기후위기 비상 선포를 촉구하는 지식인·연구자 일동(가나다순)강길호(영남대학교), 강남식(농어촌청소년육성재단), 강남훈(한신대학교), 강내희(지순협대안대학), 강명구(서울대학교), 강명숙(배재대학교), 강미량(KAIST), 강복미((사)기후변화에너지대안센터), 강소연(서울대학교), 강수돌(고려대학교), 강순이(강원대학교), 강신준(동아대학교), 강영아(부산대학교), 강영택(부산대학교), 강왕구(한국항공우주연구원), 강운선(대구대학교), 강윤재(동국대학교), 강재구 (건양대학교), 강정숙(성균관대학교), 강지윤(연세대학교), 강천희(회사원), 강태경(고려대학교), 강학도((사)거제지심포럼), 강혜경(서강대학교), 강희경 (충북대학교), 경혜영(인천대학교), 고영주(한국화학연구원), 고원용(ESC), 고인환(워싱턴대학교), 고재현(한림대학교), 고재흥(경희대학교), 고철환(서울대학교), 구도완(환경사회연구소), 구모룡(한국해양대학교), 구본규(센텀고), 구재이(한국납세자권리연구소), 권승문(에너지기후정책연구소), 권오범(경상대학교), 권용은(안산대학교), 권혁범(대전대학교), 권현지(서울대학교), 권홍진(지구과학야외학습연구회), 금영범(현대모비스), 기현균(건국대병원), 김관욱(서울대학교), 김광호(한국철학사상연구회), 김귀옥(한성대학교), 김기택(경희대학교), 김기흥(POSTECH), 김나희(대한모유수유한의학회), 김남수(국토환경연구원), 김남영(서울대학교), 김누리(중앙대학교), 김대희(순천대학교), 김덕진(충남대학교), 김도균(한국환경정책평가연구원), 김동광(고려대학교), 김동규(민주시민교육원 나락한알), 김동진(KAIST), 김래영(ESC), 김레베카(성공회대학교), 김명수(서울과학기술대학교), 김명심(경희대학교), 김명하(안산대학교), 김명환(서울대학교), 김문정(동아대학교), 김민성(성공회대학교), 김민수(시민참여연구센터), 김민우(서울대학교), 김민정(성공회대학교), 김민정(강원대학교), 김민주(녹색교육센터), 김민호(제주대학교), 김민환(한신대학교), 김범준(성균관대학교), 김병두(코넬대학교), 김병수(성공회대학교), 김보현((협)아카이빙네트워크연구원), 김상민(문화사회연구소), 김상현(한양대학교), 김상화(부산국제어린이청소년영화제), 김선교(한국과학기술기획평가원), 김성균(서울대학교), 김성수(한국에너지기술평가원), 김성우(시민), 김성윤(문화사회연구소), 김세균(서울대학교), 김소영(한국예술종합학교), 김수상(대구경북작가회의), 김수용(대구대학교), 김신영(기독교환경교육센터), 김신재(서울미디어시티비엔날레), 김아람(역사문제연구소), 김어진(분노의 강사들), 김엘리(서강대학교), 김연민(울산대학교), 김영(재일조선인운동사연구회), 김영(인하대학교), 김영(부산대학교). 김영균(청주대학교), 김영민(경북대학교), 김영우(Duke University), 김왕배(연세대학교), 김용찬(순천대학교), 김용태(성균관대학교), 김용현(아주대헉교). 김운하(소설가), 김원석(성공회대학교), 김유수(RIKEN), 김유진(약국), 김윤성(녹색에너지전략연구소), 김윤영(한양대학교), 김은성(경희대학교), 김은영(경북대학교), 김은정(평택대학교), 김은주(이화여자대학교), 김은진(원광대학교), 김은형(태양의학교), 김은혜(부산대학교), 김의동(연구공동체 건강과대안), 김이삭(이화여자대학교), 김인선(부산대학교), 김일규(강원대학교), 김자경(제주대학교), 김장민(정치경제학연구소 프닉스), 김재원(경상대학교), 김재윤(세한대학교), 김정호(노동자 소모임), 김정환(성공회대학교), 김종미(영국 코벤트리 대학교), 김종미(가톨릭대학교), 김종빈(이화여자대학교), 김종철(녹색평론), 김주아(아주대학교), 김주연(연구공동체 건강과대안), 김주일(청주대학교), 김주철(무소속), 김준(동국대학교), 김준태(막스플랑크연구소), 김준혁(연세대학교), 김지연(고려대학교), 김지윤(기후변화청년단체 GEYK), 김지혜(서울대학교), 김지환(서울대학교), 김직수(사회공공연구원), 김진(화가), 김진균(한교조), 김진석(서울여자대학교), 김진숙(충북대학교), 김진해(경희대학교), 김진호(안동대학교), 김진화(상상교육포럼), 김찬휘(정치경제연구소 대안), 김창환(한국그린캠퍼스협의회), 김키미(환경서적전문 달빛서림), 김태우(경희대학교), 김태원(천주교 청주교구), 김택수(숲과나눔), 김평호(단국대학교), 김학재(서울대학교), 김한규(김앤장 법률사무소), 김현경(서울대학교), 김현구(서울시립대학교), 김현우(대우조선해양), 김현정(한국가톨릭심리상담학회), 김혜지(서울대학교), 김호(서울대학교), 김호연(한양대학교), 김화순(한신대학교), 김환석(국민대학교), 김환희(인간무늬연마소), 김희갑(해양환경공단), 김희경(한국환경교육학회), 김희원(KAIST), 김희철(작가), 나경채(정의당), 나희량(부경대학교), 남궁혜진(서울대학교), 남윤주(뉴욕주립 버팔로 대학), 남중섭(대구대학교), 노고운(한국외국어대학교), 노봉남(전남대학교), 노영기(조선대학교), 노진철(경북대학교), 도영경(서울대학교), 레마(서울대학교), 류건우(계명대학교), 류기석(연세대학교) 류주현(서울연구원), 류진춘(경북대학교), 류창욱(가천대학교), 류현(목포과학대학교), 류호찬(서울대학교), 문기덕(브란덴부르크공대), 문보경(인천연구원), 문수복(KAIST), 문윤형(서울불교대학원대학), 문현아(연구공동체 건강과대안), 문현종(Ch2ch), 문희수(서울대학교), 민경배(경희사이버대학교), 민경희(충북대학교), 민병기(충남대학교), 박강수(뉴스톱), 박거용(대학교육연구소), 박건(인하대학교), 박경내(성공회대학교), 박권일(서강대학교), 박기수(성균관대학교), 박길수(한국종교학회), 박덕희(Inpria Corp.), 박문수(한국뉴욕주립대학교),박민규(서울대학교), 박민선(숲과나눔), 박배균(서울대학교), 박범순(KAIST), 박병상(인천도시생태환경연구소), 박병섭(상지대학교), 박병철(개인), 박상덕(환경전공), 박상은(충북대학교), 박상필(부산연구원), 박선아(서울대학교), 박설호(한신대학교), 박성훈(순천대학교), 박세진(한국동물복지연구소), 박순성(동국대학교), 박순열(도시재생연구소), 박영균(건국대학교), 박용진(세종대학교), 박으뜸(충남대학교 ), 박이은실(아주작은페미니즘학교 탱자), 박재용(ESC), 박정연(에너지기후정책연구소), 박정연(성공회대학교), 박정희(전주기전대학교), 박종권(탈핵경남시민행동), 박종무(가톨릭대학교), 박종문(서울대학교), 박종식(부산대학교), 박주형(고려대학교), 박준규(한양대학교 ERICA), 박지산(녹색당), 박진서(한국과학기술정보연구원), 박진영(서울대학교), 박진희(동국대학교), 박찬종(서울과학기술대학교), 박찬종(국제배출권거래협회), 박철웅(목원대학교), 박철현(국민대학교), 박충환(경북대학교), 박태진(한림법학연구소), 박태현(강원대학교), 박하순(민주노총 정책연구원), 박현선(서강대학교), 박형국(고려대학교), 박형규(시민참여제도연구회), 박형욱(Nanyang Technological University), 박형준(글로벌정치경제연구소), 박혜경(인하대학교), 박희제(경희대학교), 반수연(King’s college london), 방금성(가톨릭대학교), 배수호(성균관대학교), 배은경(서울대학교), 백도명(서울대학교), 백선화(인간무늬연마소), 백성희(서울대학교 환경교육협동과정), 백승곤(AIE창의력학교), 백승종(한국기술교육대학교), 백승주(전남대학교), 백승한(가톨릭관동대학교), 백승흠(청주대학교), 백연재(호주국립대학교), 백영경(제주대학교), 백주련(평택대학교), 변동명(전남대학교), 변서현(POSTECH), 변홍철(도서출판 한티재), 변희영(서울대학교), 사토시(서울대학교), 서관모(충북대학교), 서나루(김상봉철학연구회 너도나라), 서동욱(고려대학교), 서동진(계원예술대학교), 서문규(청주대학교), 서보경(연세대학교), 서선영(연세대학교), 서안(한국상담심리학회), 서영표(제주대학교), 서형주(에코네트워크), 선재원(평택대학교), 성상민(서울과학기술대학교), 소윤미(서울대학교), 소재은(극지연구소), 손광락(경북대학교), 손문상(손목서가), 손정혁(희망제작소), 손준식(중앙대학교), 손혁상(경희대학교), 손호철(서강대학교), 손화철(한동대학교), 송광한(원광대학교), 송민령(KAIST), 송상용(한림대학교), 송성수(부산대학교), 송연옥(아오야마 가꾸인 대학), 송원규(농업농민정책연구소 녀름), 송위진(과학기술정책연구원), 송인재(성공회대학교), 송인한(연세대학교), 신경아(한림대학교), 신경준(환경교사모임), 신동애(일본 기타큐슈대학), 신동준(국민대학교), 신동화(숭실대학교), 신승철(생태적지혜연구소), 신승환(가톨릭대학교), 신익수(숭실대학교), 신지영(한국환경정책평가연구원), 신현방(런던정경대), 신현옥(한양대학교), 신현철(순천향대학교), 신희주(가톨릭대학교), 심광현(한국예술종합학교), 심상완(창원대학교), 안병진(경희대학교), 안보옥(가톨릭대학교), 안새롬(서울대학교), 안승택(경북대학교), 안자코 유카(리츠메이칸대학), 안현진(서울대학교), 안형준(과학기술정책연구원), 안효상(정치경제연구소 대안), 양승훈(경남대학교), 양재봉(한국교통장애인협회), 양진호(인문학교육연구소), 양창아(부산대학교), 양혜림(충남대학교), 엄윤설(ESC), 엄은희(한국공간환경학회), 엄지연(서울대학교), 여인혁(YMCA), 여화수(KAIST), 염민호(전남대학교), 오상현(경기도시장군수협의회), 오수길(고려사이버대학교), 오온욱(University of Colorado Denver), 오지은(희망제작소), 오지은(서울대학교), 오창호(한신대학교), 우석균(연구공동체 건강과대안), 우석영(환경철학회), 우희종(서울대학교), 원희연(부산대학교), 위대현(이화여자대학교), 위선희(KAIST), 유권종(중앙대학교), 유미라(인간무늬연마소), 유민석(서울시립대학교), 유병제(대구대학교), 유영초(풀빛문화연대), 유인식(IBK기업은행), 유자인(Georgia State University), 유정애(성균관대학교), 유정희(동국대학교), 유철수(경상대학교), 유택주(무소속), 유학수(선문대학교), 유한짐(구름집), 유현미(서울대학교), 육주원(경북대학교), 윤경원(서울대학교), 윤성복((사)한국사회갈등해소센터), 윤순진(서울대학교), 윤신영(동아사이언스), 윤아연(국립과천과학관), 윤여창(서울대학교), 윤지선(가톨릭대학교), 윤태웅(고려대학교), 은우근(광주대학교), 이강수(POSTECH), 이강옥(영남대학교), 이건민(정치경제연구소 대안), 이경자(정의당), 이관형(경기연구원), 이광석(서울과학기술대학교), 이광오(공공연구노조), 이권우(경희대학교), 이기연(ESC), 이나미(한서대학교), 이나영(중앙대학교), 이남섭(한일장신대학교), 이다은(이화여자대학교), 이다현(충남대학교), 이대한(노스웨스턴대학교), 이대흠(시인)이도흠(한양대학교), 이동진(경북대학교), 이명원(경희대학교), 이명주(명지대학교), 이명현(과학책방 갈다), 이무성(광주대학교), 이무열(서울예술대학교), 이문재(경희대학교), 이미정(예술가), 이병도(연구공동체 건강과대안), 이병천(강원대학교), 이상룡(부산대학교), 이상용(녹색당), 이상윤(연구공동체 건강과대안), 이상재(대전충남인권연대), 이상직(서울대학교), 이상헌(한신대학교),이상호(EBMUD), 이석기(University of Miami), 이성민(서울시), 이성우(한국생명공학연구원), 이성호(한국태양광발전학회), 이성훈(한국식품연구원), 이성훈(경희대학교), 이소영(전남대학교), 이소영(IGES), 이소주(사회적기업 ㈜보노보씨), 이소훈(경북대학교), 이승미(한양대학교 ERICA), 이승준(광운대학교), 이승지(LH토지주택연구원), 이시재(가톨릭대학교), 이안나(한국해양대학교), 이영주(부산대학교), 이영준(경희대학교), 이영희(가톨릭대학교), 이원영(수원대학교), 이원표(사회적경제연구원), 이유진(녹색전환연구소), 이은심(녹색번역의집시인), 이장규(서울대학교), 이재영(공주대학교), 이재정(제주그래피), 이재현(환경정치연구회), 이정규(노원우주학교), 이정림(대전시민사회연구소), 이정모(서울시립과학관), 이정미(한국세계자연기금), 이정배(현장아카데미), 이정아(한국고용정보원), 이정윤(한국보건사회연구원), 이정필(에너지기후정책연구소), 이종민(과학기술연합대학원대학교), 이주연(예술꼬뮤니티아터), 이주희(이화여자대학교), 이주희(호주국립대학교), 이준형(한양대학교), 이지용(건국대학교), 이지원(대림대학교), 이지은(수원시기후변화체험교육관), 이지현(IMBA Austria), 이진한(전국사무금융서비스노조), 이찬우(충남대학교), 이찬희(성균관대학교), 이창희(고려대학교), 이채민(충남여성정책개발원), 이충국(한국기후변화연구원), 이태주(한성대학교), 이한나(한국보건사회연구원), 이해진(충북대학교), 이향규(한양대학교), 이현정(국토환경연구원), 이혜영(기후변화체험교육관), 이훈상(연세대학교), 인태정(부산대학교), 임금희(이화여자대학교), 임성진(전주대학교), 임순광(비판사회학회), 임운택(계명대학교), 임장근(KIOST울릉도·독도해양연구기지), 임정선(서울사이버대학교), 임종진(경북대학교), 임지연(홍익대학교), 임춘성(목포대학교), 임태훈(대구경북과학기술원), 임현진(서울대학교), 임효현(한국교원대학교), 장동열(중앙대학교), 장미소(울산의대), 장미정(모두를위한환경교육연구소), 장미현(역사문제연구소), 장석준(글로벌정치경제연구소), 장성익(환경과생명연구소), 장세훈(동아대학교), 장영배(전국공공연구노동조합), 장영식(부산녹색당), 장유식(참여연대), 장임원(중앙대학교), 장진성(정산인터내셔널), 장화선(광주전남녹색연합), 장회익(경희대학교), 장희진(서울대학교), 전방욱(서울생명윤리포럼), 전병옥(성균관대학교), 전성원(계간황해문화), 전승희(Boston College), 전연희(더불어숲도서관), 전의찬(세종대학교), 전종윤(서울대학교), 전준하(KAIST), 전지용(조선대학교), 전진권(명지대학교), 전치형(KAIST), 정건화(한신대학교), 정경윤(성공회대학교), 정경훈(아주대학교), 정규성(서울대학교), 정규식(원광대학교), 정기석(경남과학기술대), 정기영(ESC), 정기철(과학기술정책연구원), 정미숙(서울대학교), 정미희(기후변화체험교육관), 정병호(한양대학교), 정보라(연세대학교), 정상용(숲과나눔), 정선기(충남대학교), 정성훈(연구공동체 건강과대안), 정수빈(서울대학교), 정연보(성공회대학교), 정영신(가톨릭대학교), 정용숙(중앙대학교), 정원선(자유연구자), 정인경(고려대학교), 정재원(경희대학교), 정준영(한국방송통신대학교), 정지욱(영화평론가), 정진규(솔라인베스트먼트), 정천채(한국환경산업기술원), 정태석(전북대학교), 정헌목(한국학중앙연구원), 정현용(DMZ생태연구소), 정현철(한양대학교), 정희정(세종대학교), 조공장(한국환경정책평가연구원), 조명아(충남대학교), 조문영(연세대학교), 조미성(모두를위한환경교육연구소), 조병준(참치과), 조성협(한국농어촌공사), 조성화(수원시기후변화체험교육관), 조세종(소셜경영연구소), 조수미(명지대학교), 조승래(청주대학교), 조승연(서울대학교), 조승현(한국방송통신대학교), 조영지(농업농민정책연구소 녀름), 조영호(안양대학교), 조윤석(십년후연구소), 조은영(대진초등학교), 조일동(한국문화인류학회), 조주은(녹색전환연구소), 조천호(ESC), 조태식(경북대학교), 조한혜정(연세대학교), 조혁진(한국노동연구원), 조현승(평택대학교), 조현철(서강대학교), 조효제(성공회대학교), 주기화(경희대학교), 주윤정(서울대학교), 지수걸(공주대학교), 지주형(경남대학교), 진보성(한국철학사상연구회), 진상현(경북대학교), 진주(농업농민정책연구소 녀름), 차유미(전북대학교), 채명주(한경대학교), 채민석(연구공동체 건강과대안), 채성준(대안정치경제학회), 채수환(홍익대학교), 채장수(경북대학교), 채정은(Newcastle University), 채형복(경북대학교), 천정환(성균관대학교), 천호성(전주교육대학교), 최갑수(연구자의집), 최경묵(고려대학교), 최경봉(원광대학교), 최규진(인하대학교), 최만원(조선대학교), 최무영(서울대학교), 최미경(아오리필름), 최민영(농업농민정책연구소 녀름), 최배근(건국대학교), 최보근(원진), 최선경(수원시기후변화체험교육관), 최수환(한국공학한림원), 최승연(목포대학교), 최연택(국가수리과학연구소), 최열(환경재단), 최원(단국대학교), 최원석(부산대학교), 최원형(불교생태콘텐츠연구소), 최유진(경남대학교), 최윤(고려대학교), 최윤주(중앙대학교), 최은희(수원시기후변화체험교육관), 최인철(경북대학교), 최일학(무소속), 최종두(한국산업기술시험원), 최종민(서울대학교), 최진우(환경생태연구재단), 최태룡(경상대학교), 최한성(대덕대학교), 최혁규(문화사회연구소), 최현(제주대학교), 최형섭(서울과학기술대학교), 최형식(스웨덴농업과학대학교(SLU)), 최혜랑(과학책 읽는 보통사람들), 최홍엽(조선대학교), 추정림(부산대학교), 하대청(광주과학기술원), 하상선((주)에코아이), 하종강(성공회대학교), 하태규(정치경제학연구소 프닉스), 한광희(국민대학교), 한길석(한국외국어대학교), 한문순(알트루사 여성상담소), 한상규(비판사회학회), 한상운(한국환경정책평가연구원), 한상진(울산대학교), 한영섭(내지갑연구소), 한웅구(수원시기후변화체험교육관), 한재각(에너지기후정책연구소), 한종택(한국직업능력개발원), 한주희(부산대학교), 한진이(서울대학교), 허문길(그린위생산업), 허상수(지속가능한사회연구소), 허석열(충북대학교), 현명주(서울대학교), 홍기웅((사)전국태양광발전협회), 홍기협(한국환경공단), 홍덕구(동국대학교), 홍덕화(충북대학교), 홍문숙(서울대학교), 홍선기(목포대학교), 홍성두(서울교육대학교), 홍성욱(회사원), 홍성욱(서울대학교), 홍성학(충북보건과학대학교), 홍용희(한국농어촌공사), 홍종혜(무소속), 홍지순(서강대학교), 홍지영(경희대학교), 홍찬숙(서울대학교), 황규관(한국작가회의), 황대권((사)생명평화마을), 황민수(한국전기공사협회), 황세운(경상대학교), 황연수(충북대학교), 황연수(동아대학교), 황지선(예술집단C), 황철민(세종대학교), 황호덕(성균관대학교), 황희선(서울대학교) (총 664명)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      한국농수산식품유통공사(aT, 사장 이병호)는 지난 30일에 ‘포스트 코로나 시대를 준비하고, 농정 틀 전환 실행을 위한 변화와 도전’을 주제로 한 혁신토론회를 온라인 화상회의로 개최했다.  공사 사업관련 고객, 농업인단체, 정부 관계자 및 aT 임직원 등 약 200여 명이 일사불란한 화상회의를 통해 뉴노멀 시대에 발맞춰 비대면 서비스와 무인화 등 4차 산업혁명의 혁신기술을 공사주요사업에 적용하는 방안과 농정 틀 전환에 따른 공사의 역할과 기능강화에 대해 심도있게 논의했다.    ▲aT 혁신토론회 화상회의에서 발언 중인 이병호 사장 ⓒaT    이번 토론회는 KAIST 이경상 교수의 ‘새로운 미래의 준비’란 특강을 시작으로, 수급·유통·수출·식품 분야의 aT 핵심과제 발표와 aT에 대한 고객대표 발언, 6개 분과토론과 종합토론 순으로 진행되었다.  특히 ▲농산물 온라인경매 등 언택트 유통채널 확대 ▲포스트 코로나 시대 K-Food 수출확대 전략 ▲국제 위기상황에 대응한 안정적인 식량공급체계 구축 ▲푸드플랜, 공공급식 등을 통한 안전·안심 먹거리 제공 등 aT가 중점적으로 수행해 나가고 있는 사업에 대한 토론자들의 활발한 토론이 이어졌다.  aT는 이번 혁신토론회에서 논의된 내용을 보다 세밀하게 검토 한 후 관련부서와의 의견조율을 거쳐 향후 중장기 경영목표와 미래혁신과제, 제도개선 등에 적극 반영해 나갈 계획이다.   aT 이병호 사장은 “온라인 화상회의 방식으로 개최한 이번 토론회는 다가오는 뉴노멀 시대의 변화를 보여주는 작은 사례로, 앞으로 뉴노멀 시대 우리 사회는 더욱 크고 다양한 변화를 경험할 것이다. 지속가능한 농업의 가치를 지키고 공공기관으로써의 사회적 책무를 다하기 위해 aT의 미래방향성과 조직 내 변화와 혁신을 지속해 나가겠다”고 말했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   강원 태백시는 최근 시청 소회의실에서 웰니스 항노화산업 육성 자문위원회 위촉식을 갖고 웰니스 항노화산업 발전을 위한 본격적인 시동에 들어갔다.  지난달 28일 열린 위촉식에는 한국과학기술원(KAIST) 생명과학기술대학장 김정회 교수가 위원장에, 부위원장에는 상지대학교 김인호 교수가 선출되었다.   위촉식 이후에는 기본계획 용역사인 강원연구원과 강원엔지니어링으로부터 용역 중간보고를 받는 시간을 가졌다.    ▲태백시 항노화산업 육성 자문위원 위촉식. ⓒ태백시     이번 자문위원회는 도시, 건축, 지역개발, 식품, 마케팅 및 약학과 생약, 관광 등 모두 11개 분야에 16명의 박사와 석사, 기술사 등 21명의 전문가 그룹으로 다양하게 구성되었다.   이들 자문위원은 앞으로 태백시의 웰니스 항노화산업과 6차산업에 대한 각종 자문활동과 함께 발전방안 등을 제시하게 된다.  시 관계자는 “1년간 자문위원회 활동 후에는 지원위원회로 재편해 웰니스 항노화산업의 기반을 닦아나갈 계획”이라고 밝혔다.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      문재인 대통령과 여야 5당 원내대표가 1년 3개월 만에 만난다. 행정부 수장과 입법부 제정파의 수장이 만나는 자리에서 논의될 수 있는 사안은 많다. 정치학자, 연구자, 전문가 68명이 '민심 그대로 선거제도의 도입을 촉구하는 교수․연구자' 명의로 긴급 성명을 내 문 대통령과 여야 5당 원내대표 회동(16일)을 하루 앞둔 15일 선거제도 개혁안 합의 도출을 촉구했다. 과소 대표, 과대 대표돼 각종 부작용을 낳고 있는 현행 소선거구제를 '민심 그대로' 선거 결과를 낼 수 있는 제도로 바꾸는 게 정치 개혁의 첫 번째 작업이라는 문제 의식에서다. 선거제도 개혁의 당위성은 여야 5당 공히 인정하는 부분이다. 그러나 제도 개혁의 합의점을 도출하는 노력은 지지부진했다. 이들은 "1년 3개월 전 시민사회와 학계의 대다수 인사들은 '선거제도가 먼저'라는 문재인 대통령의 입장을 충분히 이해하고 그 뜻에 전적으로 동의하였다. 사실 지금의 국회가 민의를 제대로 대변하고 있다고 보기는 어렵다"고 지적했다. 이어 이들은 "의회중심제로 가고자한다면, 국회가 먼저 우리 사회 구성원들의 선호와 이익, 갈등과 대립 양상을 있는 그대로 반영할 수 있는 대의 기구로 바로 서야 한다. 그러기 위해선 주요 사회경제 집단의 정치적 대표성을 두루 보장해줄 수 있는 선거제도의 도입이 필요하다"며 "결국 선거제도의 개혁으로 국회가 진정한 민의 대표 기구로 거듭나야 그 국회를 중심으로 하는 권력구조가 제대로 작동할 수 있다. 선거제도의 개혁이 분권형 권력구조의 개편보다 앞서 이루어져야 하는 까닭"이라고 했다. 이들은 "애석하게도, 수많은 시민들이 존경해마지않던 노회찬 의원은 먼저 하늘나라로 갔지만, 선거제도를 개혁하여 힘 있고 실력 있는 약자 대표 정당을 여럿 띄우고 싶어 했던, 그리하여 누구나 더불어 잘 사는 세상을 만들고 싶어 했던 그의 그 아름다운 뜻은 정의당만이 아니라 민주평화당과 바른미래당 등에 의해서도 올곧게 이어져가고 있는 형국"이라고 지적했다. 이들은 "하루라도 빨리 정당 득표율과 의석 배분율 간의 비례성이 보장되는 '민심 그대로 선거제도'가 도입돼야 한다. 그래서 노동자, 소상공인, 청년 등의 사회경제적 약자를 대표하는 유력 정당들이 입법부와 행정부에 상시적으로 포진해 있도록 해야 한다"고 지적했다. 이들은 "지금이 선거제도 개혁의 최적기이다. 문재인 대통령과 5당 원내대표 간의 8월 16일 회동에서는 지난 1년 사이에 일어난 변화의 의미를 잘 파악하여 부디 그에 부합하는 건설적인 합의가 이루어지길 바라마지 않는다"고 문 대통령과 여야 5당에 촉구했다. 서명자 명단 (68명 : 2018년 8월 15일 정오 현재)강남훈 한신대 교수강원택 서울대 교수김규완 고려대 교수김누리 중앙대 교수김명환 서울대 교수김미곤 한국보건사회연구원 선임연구위원김신동 한림대 교수 김연태 고려대 교수김영순 서울과기대 교수김용일 한국해양대 교수김용진 서강대 교수 김윤상 경북대 교수 김윤태 고려대 교수김진방 인하대 교수 김형철 성공회대 연구교수김호균 명지대 교수남기업 토지+자유연구소 소장박명림 연세대 교수박배균 서울대 교수박순성 동국대 교수 박재현 인제대 교수 박지웅 영남대 교수박창근 가톨릭관동대 교수선대인 선대인경제연구소장 선학태 전남대 명예교수송원근 경남과기대 교수 송태수 고용노동연구원 교수신동면 경희대 교수신호창 서강대 교수 안용흔 대구가톨릭대 교수안효상 기본소득네트워크 상임이사양준호 인천대 교수엄민희 텍사스대 교수우석훈 성공회대 외래교수유용태 서울대 교수유종성 가천대 교수윤용만 인천대 교수윤홍식 인하대 교수이대근 경향신문 논설고문이병천 강원대 명예교수이병한 원광대 교수이병훈 중앙대 교수이상이 제주대 교수이삼성 한림대 교수이정우 경북대 명예교수이종훈 명지대 교수이준호 서울대 교수이태경 헨리조지포럼 사무처장 이호근 전북대 교수임강택 통일연구원 선임연구위원전강수 대구가톨릭대 교수전성인 홍익대 교수전현수 경북대 교수 정동훈 광운대 교수 정상호 서원대 교수 정용욱 서울대 교수정원호 한국노동사회연구소 연구위원 정인환 협성대 교수조돈문 가톨릭대 교수조세영 동서대 교수조애리 카이스트 교수최배근 건국대 교수최상명 우석대 교수최영찬 서울대 교수최태욱 한림국제대학원대 교수홍경준 성균관대 교수 홍승권 가톨릭관동대 교수홍윤기 동국대 교수다음은 성명서 전문대통령과 여야 5당 원내대표의 8월 16일 회동에 즈음하여 선거제도 개혁 촉구 교수․연구자 긴급 선언2018년 8월 16일 문재인 대통령과 여야 5당 원내대표가 청와대에서 오찬 회동을 하기로 한 것은 심각한 기능저하에 빠져있는 우리나라의 민주주의를 살리기 위해 대통령과 의회 지도자들이 모처럼 머리를 맞대는 것으로 크게 환영할만한 일이다. 대통령과 여야 원내대표의 만남은 대선 직후인 2017년 5월 19일 이후 1년 3개월 만이다. 첫 번째 만남에서 대통령은 국회가 진정한 민의 대변 기구로 거듭날 수 있도록 선거제도가 개혁된다면 분권형 대통령제가 아니라 의원내각제로의 개헌도 가능하리라고 말한 바 있다. 국회가 비례성 높은 선거제도를 도입한다면 대통령인 자신도 지금의 대통령중심제를 의회중심제로 전환하는 것에 찬성하겠다는 뜻을 분명하게 밝힌 것이다. 사실 비례성이 보장되는 선거제도의 도입은 문재인 대통령의 지론이기도 하다. 2012년 대선 정국에서 당시 문재인 후보는 권역별 비례대표제로의 개혁을 공약으로 내세웠다. 그리고 그가 새정치민주연합의 당 대표였던 2015년 8월에는 ‘권역별 소선거구-비례대표 연동제’의 도입을 공식 당론으로 채택했다. 그 권역별 연동제의 도입은 2017년 대선 때도 그의 공약이었다.1년 3개월 전 시민사회와 학계의 대다수 인사들은 ‘선거제도가 먼저’라는 문재인 대통령의 입장을 충분히 이해하고 그 뜻에 전적으로 동의하였다. 사실 지금의 국회가 민의를 제대로 대변하고 있다고 보기는 어렵다. 비정규직 노동자, 소상공인, 청년 등의 사회경제적 약자들은 하루하루를 살아내기가 어려워 불안과 공포 속에 허덕이고 있는데, 막상 국회 안엔 그들을 대표하는 정당과 정치인이 별로 없기 때문이다. 지역 기반 정당들, 이를테면 ‘영남당’과 ‘호남당’은 있을지언정, 유력한 ‘비정규직 노동자당’이나 ‘소상공인당’은 존재하지 않는 게 사실이지 않는가. 의회중심제로 가고자한다면, 국회가 먼저 우리 사회 구성원들의 선호와 이익, 갈등과 대립 양상을 있는 그대로 반영할 수 있는 대의 기구로 바로 서야 한다. 그러기 위해선 주요 사회경제 집단의 정치적 대표성을 두루 보장해줄 수 있는 선거제도의 도입이 필요하다. 결국, 선거제도의 개혁으로 국회가 진정한 민의 대표 기구로 거듭나야 그 국회를 중심으로 하는 권력구조가 제대로 작동할 수 있다는 것이다. 선거제도의 개혁이 분권형 권력구조의 개편보다 앞서 이루어져야 하는 까닭이다.다행히도, 지난 1년 3개월 사이 정치사회엔 유의미한 변화가 있었다. 무엇보다, 자유한국당이 상당히 변했다. 6.13 지방선거 이전처럼 선거제도 개혁에는 무조건 반대하고 오직 권력구조 개헌만을 고집하는 분들이 줄고 있다. 약자를 위한 포용의 정치를 작동하지 않으면 사회해체의 위기가 닥쳐오리라는 걸 걱정하는 분들이 늘고 있다. 개중에는 심지어 비례성의 원칙이 지켜지는 선거제도가 자유한국당의 미래에도 유리하다고 주장하는 분들도 더러 있다. 김병준 비대위원장은 과거 노무현 정부에서 일할 때 어느 누구보다도 가장 열성적으로 선거제도 개혁을 주창했던 분이기도 하다. 선거제도 개혁을 완수해내겠다는 민주평화당의 의지와 각오는 정의당을 압도할 만큼 뜨거워졌다. 바른미래당도 선거제도 개혁에 관한 열정에 있어 민주평화당이나 정의당과 크게 다르지 않다. 이 세 정당은 개혁입법연대의 성공은 선거제도 개혁에 대한 민주당의 태도에 달려 있다고 주장할 정도이다. 애석하게도, 수많은 시민들이 존경해마지않던 노회찬 의원은 먼저 하늘나라로 갔지만, 선거제도를 개혁하여 힘 있고 실력 있는 약자 대표 정당을 여럿 띄우고 싶어 했던, 그리하여 누구나 더불어 잘 사는 세상을 만들고 싶어 했던 그의 그 아름다운 뜻은 정의당만이 아니라 민주평화당과 바른미래당 등에 의해서도 올곧게 이어져가고 있는 형국이다. 하루라도 빨리 정당 득표율과 의석 배분율 간의 비례성이 보장되는 ‘민심 그대로 선거제도’가 도입돼야 한다. 그래서 노동자, 소상공인, 청년 등의 사회경제적 약자를 대표하는 유력 정당들이 입법부와 행정부에 상시적으로 포진해 있도록 해야 한다. 그래야 양극화 심화, 비정규직 노동자와 영세 자영업자의 급증, 청년의 불안과 좌절 등과 같은 우리나라의 심대한 사회경제 문제들이 근본적으로 해결될 수 있다. 지금이 선거제도 개혁의 최적기이다. 문재인 대통령과 5당 원내대표 간의 8월 16일 회동에서는 지난 1년 사이에 일어난 변화의 의미를 잘 파악하여 부디 그에 부합하는 건설적인 합의가 이루어지길 바라마지 않는다. 짧게는 작금의 여소야대 난국을 헤쳐 나갈 연대와 협력의 정치를 위해, 길게는 경제민주화와 복지국가의 건설 그리고 지속가능한 성장을 가능케 할 합의제 민주주의의 발전을 위해, 대통령과 의회 지도자들이 선거제도 개혁에 관한 기본 틀과 방향 그리고 일정 등에 대승적으로 합의해주길 간절한 마음으로 촉구하는 바이다. 2018년 8월 15일'민심 그대로 선거제도'의 도입을 촉구하는 교수․연구자 일동  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ▲태아 뇌 발달 과정 중 신경 줄기 세포에 BRAF V600E 돌연변이가 발생하여 뇌전증 동반 소아 뇌종양을 유발하는 기전 ⓒ한국연구재단     KAIST 의과학대학원 이정호 교수 연구팀이 난치성 뇌전증(간질 발작)을 일으키는 소아 뇌종양의 근본 원인과 뇌전증 발생의 원리를 규명해 새로운 치료법을 제시했다.  이번 연구 결과를 통해 수술 치료에 어려움이 있는 소아 뇌종양 기반의 난치성 뇌전증 치료에 큰 기여를 할 수 있을 것으로 기대된다.  연구팀은 소아 뇌종양 환지 뇌 조직 및 동물 모델의 분자 유전학적 분석을 통해 태아의 뇌 발달과정 중 신경 줄기 세포에 ‘비라프 (BRAF V600E)’라는 돌연변이가 발생하면서 난치성 뇌전증이 동반된 소아 뇌종양이 발생하는 것을 규명했다.  연구팀은 뇌전증이 동반된 소아 뇌종양 중 하나인 신경절 교세포종 환자의 종양 조직을 분자 유전학적으로 분석한 결과 비라프 유전변이가 태아 뇌 발달 과정 중 발생함을 확인했다.  이 변이를 동물 모델에서 구현해 신경절 교세포종의 병리 양상을 재현하고 발작을 관찰해 소아 뇌종양 기반의 뇌전증 치료용 동물 모델을 최초로 확립했다.  이를 이용해 면역 염색 분석과 전사체 분석을 실시했다. 소아 뇌종양에서 발생하는 난치성 뇌전증이 신경세포에 존재하는 비라프 변이로 인해 발생하고, 교세포에 존재하는 변이는 종양 덩어리를 형성하는데 중요한 역할을 하는 것을 확인했다.  특히 현재 임상에서 항암제로 사용되고 있는 비라프의 저해제를 동물 모델에 주입해 난치성 뇌전증 치료 효과를 확인했다.        ▲ 고현용 연구원 ⓒ한국연구재단   고현용 연구원은 “소아 뇌종양 환자의 경 줄기 세포에서 발생한 특정 돌연변이가 난치성 뇌전증 발생에 핵심적 역할을 한다는 것을 국내 연구진이 최초로 발견해냈다는 것에 큰 의미가 있다”며 “소아 뇌종양으로 인해 발생한 난치성 뇌전증의 근본 원인을 규명해 과적 치료의 가능성을 처음으로 보여준 것이다”고 말했다.  연구팀은 KAIST 교원창업기업을 통해 소아 뇌종양 기반의 난치성 뇌전증 치료약 개발에 나설 예정이다.  이번 연구 결과는 국제 학술지 ‘네이처 메디슨(Nature Medicine)’ 9월 17일자 온라인 판에 게재됐다. (논문명: 비라프 체성 돌연변이가 소아뇌종양의 본질적 뇌전증 발생에 기여함; BRAF somatic mutation contributes to intrinsic epileptogenicity in pediatric brain tumors)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      김동원 전북대 총장 임용 1순위 후보자가 선출된 후 지지해준 교직원과 학생들에게 답례하고 있다. /프레시안(=이태영 기자)      전북대학교 제18대 총장 임용 후보자 1순위에 김동원(59) 교수가 선출됐다.   전북대 총장선거관리위원회는 29일 총장임용선거 3차까지 가는 투표에서 56.84%를 얻어 41.10%를 득표한 이남호 후보를 이기고 1순위 임용후보자에 선출됐다고 밝혔다.   1순위 임용내정자로 오른 김동원 후보는 “믿고 선택해줘 진심으로 감사하다”며 “대학 내 적폐청산을 수행하고 분권형 단임제 정착시키겠다”고 소감을 말했다.  김동원 후보는 선거기간 동안 ‘분권, 공감, 융합’을 기치로 ‘분권형 단임제’와 ‘대학내 적폐청산’을 주장해왔다.   김 후보는 공약을 통해 “국립대학에서 총장 연임제가 지속되는 경우 각종 폐단이 반복될 가능성이 높다”면서 “총장 연임제를 종식시키고 4년간 대학운영에 전념하도록 단임제를 총장 선출규정으로 개정 하겠다”고 강조했다.   특히 “효과적인 분권을 위해 학칙이나 규정의 제(개)정을 통해 권한을 분산시키고, 견제와 균형을 바탕으로 대학운영체제를 구축 하겠다”는 의지를 보였다.    김동원 전북대 총장 임용 1순위 후보가 6명의 출마후보자들과 함께 손을 들어 전북대 발전을 함께 할 것을 다짐하고 있다. /프레시안(=이태영 기자)    또한 “본부 보직자와 부속기관장 등의 추천 임명제 실시 등 일반교수들의 대학행정 참여 기회를 넓히겠다”며 “단과대학의 자율성 강화를 위해 학장 선출방식도 단과대 구성원이 선출하고, 총장이 추인하는 형태로 과감히 바꾸겠다”고 밝혔다. 김동원 전북대 총장 임용 1순위 후보는 서울대학교와 카이스트를 졸업한 뒤, 일본 훗카이도 대학에서 공학박사 학위를 받았다. 전북대학교 교수 임용 후 산학협력단장, 공과대학 학장을 역임했으며, 현재 공과교육혁신거점센터장과 공과대학 산업정보시스템공학과 교수로 재직 중이다.  주요 연구분야는 CAD/CAM/PLM, 지능생산시스템, 반도체 생산 및 일정계획, 기술경영 및 연구관리 등이다.  한편 선거결과에 따라 앞으로 전북대 총장임용후보자추천위원회는 대학 연구 윤리 검증 절차를 거친 후 김동원 교수와 이남호 교수를 각각 1순위와 2순위 후보자로 교육부에 추천하게 된다.  교육부는 추천된 후보자에 대한 교육공무원 인사위원회 심의를 거쳐, 대통령에게 임명을 제청하고 국무회의 심의를 거쳐 대통령이 후보자를 총장에 임명한다.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "시위 및 중상모략 주동 등 선동행위 금지." (경찰청 인천지방경찰청 종합시설관리 과업지시서)"갑에 배치할 미화원의 자격은 사상이 건전하고 품행이 단정해야" (관세청 경남양산세관 도급계약서)"작업도중 잡담, 콧노래 등의 고성을 삼가야 하며 사무실 의자 및 소파 등에 앉아서 쉬지 못하도록 한다." (문화재청 국립문화재연구소 청소용역 과업지시서)"당 원의 주요보직자 등의 출퇴근 시에는 (경비 용역 노동자는) 환영과 전송의 예절을 갖춘다." (한국과학기술연구원(KAIST) 부설 한국과학영재학교 경비 과업 지시서)새정치민주연합 을지로위원회가 196개 정부·공공 기관의 간접고용 비정규직 용역 계약서를 전수조사해 7일 발표한 내용 중 일부다. 지난해 중앙대에서 발견돼 사회적 논란이 됐던 '콧노래, 소파 휴식 금지' 과업 지시서가 공공 기관에서도 다시 발견됐다. (☞ 관련 기사 : 중앙대, '콧노래·잡담 금지'…"불법 투성이 계약서") 또 쟁의권 등의 노동 3권을 사실상 원천 봉쇄하거나 계약서상 '갑'에게 '환영과 전송의 예절'을 갖추게끔 하는 전근대적 계약 내용까지 발견된다. 을지로위는 이날 오후 국회에서 기자회견을 열고 이 같은 부당한 용역 계약서의 사례들을 제시하며 "이번 국정감사에서 전 상임위에 걸쳐 정부·공공기관의 '용역근로자 근로조건 보호지침' 준수 여부를 확인하겠다"고 밝혔다. 정부가 '지침' 내놔도 공공기관들은 '나몰라라'?'용역근로자 근로조건 보호지침'은 청소·경비 등 용역 노동자들의 노동 조건이 사회 문제가 되자 2012년 이후 정부가 발표하고 있는 산하 기관 대상 지침이다.올해 1월에도 기획재정부, 행정자치부, 고용노동부가 합동으로 새 지침을 발표하기도 했으며, 금주 중에 고용노동부 또한 지침 준수여부를 조사한 결과를 발표할 계획이다. 지침은 용역 계약서 있어서는 안 될 노동 3권 제약 규정이나, 과도한 복무 규정을 예시와 함께 구체적으로 제시하고 있다. 또 용역 노동자에게 정부가 제시하는 '시중 노임 단가'를 지급하도록 하고 있다. 용역업체가 바뀌더라도 '특별한 사정이 없는 한 (용역 노동자들의) 고용을 승계'할 것 또한 지침으로 제시하고 있으며, 논란이 된 '콧노래·휴식 금지' 복무 규정은 '불법 파견 소지'가 있으므로 용역계약서에 담기 바람직하지 않다고 지적돼 있기도 하다. 시중 노임단가 적용 기관 고작 6%그럼에도 을지로위가 196개 기관의 용역 계약서를 검토한 결과, 정부의 이 같은 지침을 따르지 않고 있는 기관들이 상당한 것으로 확인됐다. 을지로위원회는 시중 노임단가를 적용하는 기관은 고작 6%(11개)밖에 되지 않는다고 밝혔다. 시중 노임단가는 중소기업 중앙회에서 발표하는 '중소제조업 직종별 임금조사 보고서'의 단순노무종사원 노임을 기본급으로 적용하여 산정된다. 올해 시중노임단가는 6만4150원으로 정부 계산에 따르면 시급은 8019원이다. '불법 파견' 논란을 부를 수 있는 원청 업체(용역 계약서상 '갑')의 용역 노동자에 대한 인사 개입과 고용불안 야기 가능 조항이 용역 계약서에 없어, 용역 노동자가 보호되고 있는 기관은 19%(38개) 수준이라고 을지로위는 분석했다. 81%에 이르는 공공 기관이 실제 사용자가 아닌 원청 업체에 의한 해고, 징계, 인사이동 등을 가능하게 하는 조항을 용역 계약서에 갖추고 있다는 얘기다. 일례로 대전지방경찰청 용역계약서 과업지시서에는 "종업원 중 부적격자가 있을 경우 교체 통보 시 을은 이를 수용하여야 하며 부적격 사요는 비공개에 이의제기는 금지"와 같은 내용이 포함돼 있다. 노동자 파업·태업이 음주 도박과 같은 행위?을지로위는 또 노동 3권 보호 기관은 43%에 불과하다고도 밝혔다. 나머지 기관들은 용역 노동자의 시위 등의 쟁의 행위를 용역 계약서를 통해 사실상 원천 차단함으로써 비정규직 노동자들의 노동 3권을 침해하고 있다는 지적이다. 을지로위는 부당 조항 예시로 '중상모략'을 금지한 인천지방경찰청의 과업지시서와 함께 "미화원은 파업 또는 태업, 음주 도박 등을 하는 행위를 해서는 아니된다"는 국토교통부 산하 한국시설안전공단의 과업 지시서도 제시했다. 근로기준법, 노조법 등으로 보장되는 파업권을 무시하고, 파업을 음주나 도박 행위와 동급으로 놓고 있는 과업 지시서다. 고용승계 지침 있는 기관 66%…野 "전 기관 지침 준수토록 하겠다"'고용승계' 지침을 따르고 있는 곳은 66%(129개)라고 을지로위는 밝혔다. 다른 기관들은 "수탁업체는 특별한 사정이 없는 한 기존 근로자를 계속 고용하여야 한다"와 같은 고용 승계 조항이나 문구를 용역 계약서에 포함하고 있지 않다는 지적이다. 을지로위의 우원식 위원장은 이날 기자회견에서 "작년 국회 환경노동위원회 국정감사에서 이 같은 문제를 지적해서 고용노동부 산하 기관이 (용역 계약을) 고친 결과 (해당 기관의) 평균 임금이 25만 원가량 올랐다"면서 "이번 국감을 통해 전 기관이 지침을 철저히 이행하도록 하겠다"고 밝혔다. (☞ 관련 기사 : "노동부 '부처 아님'? 전교조 불법 지적하기 앞서…")그러면서 "정부의 가짜 노동 개혁과는 달리, 공공기관 간접고용 비정규직 문제와 갑·을 관계 불공정 거래 문제를 해소하는 국정감사장을 만들겠다"고도 했다. 한편, '환영과 전송의 예절을 갖춘다'는 조항이 있는 한국과학영재학교는 즉시 문제가 된 조항을 삭제하겠다고 밝혔다.이 학교 관계자는 이날 &lt;프레시안&gt;과 한 통화에서 "2013년 시설 관리를 용역화하며 다른 곳의 용역 계약서를 참고로 삼다 보니 문제가 된 조항이 들어오게 된 것 같다"면서 "이런 조항을 파악하지 못한 것은 저희 잘못이다. 즉시 해당 조항을 삭제하겠다"고 밝혔다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      GIST(지스트, 총장 김기선) Ertl 탄소비움연구센터 이재영 교수(지구‧환경공학부)와 한국과학기술원(KAIST) 화학과 김형준 교수 공동연구팀이 값싼 비귀금속 기반의 고효율 연료전지 실용촉매 개발에 성공했다.   이번 연구성과는 수소경제 구현을 위한 고성능 연료전지 개발에 있어 새로운 가능성을 제시한 것으로 평가되고 있다.  공기극 산소환원반응은 느린 반응 속도와 함께 높은 과전압이 요구돼 연료전지 효율 향상에 걸림돌이 돼왔다.   현재는 백금이 가장 적합한 촉매로서 평가받고 있으나 고가이면서 제한된 자원으로 수소전기차 가격경쟁력을 떨어트렸다.     ▲GIST지구환경공학부 이재영 교수 ⓒGIST   이때문에 가격 경쟁력이 높은 비귀금속 기반의 우수한 성능과 내구성을 보유한 촉매 제조 관련 연구가 주목받고 있다.  비귀금속 촉매 개발에서 가장 중요한 점은 산소환원반응 성능을 결정하는 변수를 찾고 이에 기반한 최적의 촉매를 설계하는 것이다.   또한 변수를 찾아내기 위해서는 전기화학적 실험과 최신계산이론에 근거한 뒷받침이 필요하다.  연구팀은 전기방사법을 통해 다양한 비귀금속(니켈, 코발트, 철, 은) 이 담지된 탄소나노섬유 촉매를 제조한 뒤, 이를 활용해 수용액 상에서 산소의 환원반응 성능을 비교했으며, 밀도범함수 이론에 기반해 제조된 촉매의 구조 및 일함수 등을 계산, 촉매 성능과 상관관계를 갖는 변수 발견을 시도했다.  그 결과 철기반의 탄노나노섬유가 최적의 일함수를 가지고, 산소환원반응에 대한 가장 높은 성능을 나타냈음을 확인했다.  또한, 연료전지의 수명을 증대시키기 위해 촉매의 내구성도 중요한 요인이다.    ▲KAIST 화학과 김형준 교수 ⓒGIST   공동연구팀은 철기반의 탄소나노섬유의 내구성을 극대화시키기 위해서 10%의 코발트를 포함시켜 우수한 가속내구성 평가결과를 확인했다.  GIST 이재영 교수 및 KAIST 김형준 교수는 “이번 연구는 활성이 있는 것으로 보고되고 있는 철기반 비귀금속 촉매의 내구성 문제를 실험과 계산으로 해결한 것이다. 알카라인 수소기반연료전지의 상용화를 앞당길 수 있을 것으로 기대된다”고 연구의 의의를 설명했다.   GIST 이재영 교수와 KAIST 김형준 교수가 주도하고 KAIST 하윤후 박사과정생(공동 1저자)과 GIST 강신우 석사과정생(공동 1저자)이 주도적으로 참여한 이번 연구는 한국연구재단이 지원하는 기후변화대응사업의 지원으로 수행됐으며, 물리화학 분야 세계적 학술지인 Journal of Physical Chemistry Letters 지난 22일자 온라인 판에 게재됐다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      다음카카오는 신임 단독 대표로 임지훈(35) 현 케이큐브벤처스 대표를 내정했다고 10일 밝혔다.  다음카카오는 모바일 시대에 속도감있게 변화와 혁신을 주도하기 위해 공동 대표 체제에서 단독 대표 체제로 돌입한다고 밝혔다. 합병 이후 본격적으로 시너지를 내기 위한 전략적 결정이다. 임지훈 내정자는 "모바일 시대 주역인 다음카카오의 항해를 맡게 돼 기분좋은 긴장감과 무거운 책임감을 동시에 느낀다"며 "다음카카오를 대한민국 모바일 기업에서 나아가 글로벌 경쟁력을 갖춘 모바일 리딩 기업으로 이끌도록 최선을 다하겠다"고 포부를 밝혔다.     ▲ 임지훈 다음카카오 신임 대표 내정자. ⓒ다음카카오   임 내정자는 KAIST 산업공학과를 졸업하고, NHN 기획실, 보스턴 컨설팅 그룹 컨설턴트를 거쳐 소프트뱅크벤처스 수석심사역을 지낸 뒤 2012년부터 케이큐브벤처스 대표이사를 맡아 왔다.  임 내정자는 케이큐브벤처스를 설립한지 3년만에 국내 대표 스타트업 전문 투자사로 키워내며 모바일 시장에서 한 획을 그은 젊은 기업가다. '핀콘', '레드사하라', '프로그램스', '두나무' 등 50여개의 스타트업에 투자했고, 그 중에서 1000억원의 가치를 가진 기업들을 포함해 수십배 이상 가치가 오른 기업들을 다수 배출하며 탁월한 성과를 인정받아 왔다.  이번 신임 대표 선정은 최세훈, 이석우 공동대표의 적극 제안과 추천으로 이뤄졌다.  최세훈 공동대표는 "다음카카오의 출발을 맡아 진정한 모바일 시대로 진입하는 행복한 경험이었다"며 "앞으로 시작될 진정한 모바일 시대를 이끌어갈 적임자라고 판단해 추천했다. 다음카카오는 모바일 혁신의 아이콘이 될 것"이라고 말했다.  이석우 공동대표는 "임 내정자는 다음카카오의 또 다른 시작을 위한 최고의 인재"라며 "다음카카오의 더 빠른 성장을 기대해달라"로 주문했다. 최세훈, 이석우 공동대표는 임지훈 신임 대표 내정자가 대표직을 수행하도록 적극 지원할 예정이다.  임지훈 내정자는 다음 달 23일 임시 주주총회와 이사회를 거쳐 공식 대표로 선임될 예정이다.프레시안=제주의소리 교류 기사  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      김동원 전북대 총장임용후보 내정자는 30일 전북대 진수당에서 기자회견을 갖고 당선 소감을 밝혔다. ⓒ 프레시안(=이태영 기자)      "하드웨어 보다는 소프트파워에 충실하고, 투명하고 공정한 대학운영을 염원하는 구성원들의 선택이었다고 생각합니다. 내실있는 지역거점대학으로 지속성장 시키기 위해 분골쇄신 하겠습니다"   김동원 전북대 총장임용후보 내정자는 30일 전북대 진수당에서 기자회견을 갖고 당선 소감을 밝혔다.   김 내정자는 “전국에 300여개 월드클래스기업 있다. 우리 지역에도 최소 10여개 가 있어야 한다. 그러나 단 한 곳도 없다”고 전제하고 “대학의 역할은 지역 인재 키우는 것이다”며 “이제 막 졸업장을 딴 성인 신입생이 아니라 20~30대에 크게 성장할 수 있도록 돕겠다”고 약속했다.   특히 “20~30대 CEO가 나오는 줄기세포 같은 대학을 만들겠다”고 다짐했다.   김 내정자는 취업률에 대해서도 강한 의지를 밝혔다.   그는 “학생들의 질적인 성장이 많이 필요하다. 특히 취업률이 많이 떨어졌다. 학생들을 강의실에서 교육시켜 찍어내는 교육과정을 탈피해야 한다”며 “각자 재능과 능력에 맞춘 교육 과정이 필요하다”고 말했다.   그러면서 “학생들은 많은 생각을 하고 넓게 봐야 한다. 전북대학교는 해외 교환학생이 수도권에 비해 열악하다”며 “많은 학생들을 해외에 보내서 강한 인재로 키우겠다”고 말했다.   전북대학교 발전을 위한 교수 채용 문제에 대해서도 의견을 밝혔다.   그는 “교수채용 자체가 잘못된 것 아니다. 정당성 투명성 이게 문제다 과정 속에서 잘못됐다”며 “교수는 누가 전문가인지 안다. 그런 분들 지원했음에도 다른 교수가 들어오면 자괴감이 들 수 밖에 없다. 대학발전은 동료애로 성장한다. 한 사람 한 사람이 동등한 평등권을 가져야 한다. 불평등이 적은 사회 그게 혁신사회다”고 잘라 말했다.   김 내정자는 또 후보자간 갈등과 반목에 대해 “박근혜 정부 거치면서 직선제를 빼앗겼다는 자괴감이 구성원들 사이에서 퍼졌다. 자긍심이 떨어졌다. 그런 가운데 직선제가 치러졌다. 선거규칙이 미흡할 수밖에 없었다. 그 과정에서 가처분 신청, 고소 고발이 이어졌다”며 “구성원들의 갈등 반목이 있으면 연구실과 강의실에서 알찬 교육을 할수 없다는 것을 모두가 잘 알고 있다. 이남호 전 총장도 고소고발을 취하하겠다는 의사를 밝혔다. 빨리 공부하는 대학으로 만들겠다”고 말했다.   한편 김동원 내정자는 1982년 서울대학교 산업공학과를 졸업했으며, 이후 카이스트 석사를 거쳐 호카이도대학교에서 생산공학 박사학위를 받았다.   지난 2011년, 전북대학교 공과대학장이었던 시절에 정부지원사업 없이 대학 자체예산으로 전북 내 고등학생을 대상으로 창의기술아카데미 캠프를 운영해왔다.   이를 성과로 한국산업기술진흥원의 공모사업에 응시해 전북대 청소년 창의기술인재센터 설립과 운영여건을 마련, 전북 청소년들의 이공계 인재 육성에 기여했다는 평가다.   1988년 4월부터 현재까지 전북대학교 교수로 재직했으며, 공과대학장과 산학협력단장을 지냈다.   이외에 현재 전북대 공학교육혁신거점센터장, 전북대 청소년창의기술인재센터장, 교육부 인정기관심의위원장 등의 역할을 맡고 있다.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 조광현 교수(왼쪽)과 연구진 ⓒKAIST        KAIST 바이오및뇌공학과 조광현 교수 연구팀이 뇌파의 생성 및 변조를 담당하는 핵심 신경회로를 규명해, 향후 뇌질환 환자에게서 발생하는 비정상적 뇌파활동을 신경세포 네트워크 수준에서 규명하는 데 활용될 것으로 보인다.  뇌의 다양한 기능은 신경세포인 뉴런 사이의 복잡한 상호작용을 통해 이뤄지며, 뇌파의 비정상적인 생성 및 변조 현상은 다양한 뇌질환과 밀접한 관계를 갖는 것으로 알려져 있다.  그러나 뇌파의 생성 및 변조는 수많은 뉴런 사이의 복잡한 상호작용을 통해 발생하는 예측할 수 없는 창발적 특성(emergent property)을 갖기 때문에 기존의 신경 생물학 실험을 통해 그 원리를 규명하기에는 한계성을 띠었다.  조 교수 연구팀은 시스템생물학 기반의 연구방법을 통해 뇌파의 생성 및 변조 원리를 분석했는데, 여러 뇌 영역 중 특히 감각 피질(sensory cortex)에 주목, 대규모 컴퓨터 시뮬레이션 분석을 통해 흥분성 뉴런과 억제성 뉴런으로 구성된 양성피드백과 음성피드백의 중첩된 구조(interlinked positive and negative feedback)가 뇌파의 생성 및 주파수 변조 현상의 핵심회로임을 최초로 규명했다.  특히 연구팀은 기존의 전기생리학 실험을 통해 측정된 뉴런 간 시냅스의 특정 연결강도가 신경회로의 뇌파 생성 및 변조 기능을 극대화시킬 수 있는 최적의 조합임을 밝혀냈다.  이번에 개발한 수학모형을 활용하면 전통적 생물학 실험을 통해 파악이 어려웠던 뉴런들 간의 다양한 상호작용을 이해하고 신경회로의 복잡한 설계원리를 파악할 수 있을 것으로 기대된다.  또한 여러 뇌질환 환자의 뇌에서 관측되는 비정상적인 뇌파 활동을 신경네트워크 차원에서 분석하고 규명할 수 있을 것으로 예상된다.        ▲뇌파의 생성 및 변조를 담당하는 핵심 신경회로 ⓒKAIST    두뇌 신경회로의 작동원리에 대한 이해를 높인다면 컴퓨터 과학자들이 이를 이용해 새로운 인공지능 기술을 개발할 수 있다.  자폐증이나 집중력 조절장애 등과 관련된 신경회로 규명, 두뇌 치료 기술 개발 등의 원천 의료기술 개발에도 혁신으로 이어질 수 있다.  조 교수는 “지금껏 뇌파의 생성 및 변조를 담당하는 핵심 신경회로가 밝혀진 바가 없었다”며 “이번 연구에서는 최근 커넥토믹스 (connectomcis) 연구를 통해 점차 밝혀지고 있는 뉴런간의 복잡한 연결성에 숨겨진 설계원리를 시스템생물학 연구를 통해 찾아냄으로써 뇌의 동작원리를 파악할 수 있는 새로운 가능성을 제시했다”고 말했다.  이번 연구 결과는 국제 학술지 ‘셀 리포트(Cell Reports)’ 11월6일자 온라인 판에 게재됐다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      문재인 대통령은 30일 주미, 주일, 주중대사에 조윤제 카이스트 금융전문대학원 초빙교수, 노영민 더불어민주당 전 의원, 이수훈 경남대 정치외교학과 교수를 각각 내정했다. 이로써 취임 100일을 훌쩍 넘겨 주요 4강 중 러시아를 뺀 3개국 대사를 확정했다. 조윤제 신임 주미대사 내정자는 지난 대선 때 문 대통령의 싱크탱크 '정책공간 국민성장' 소장으로 기여했으며, 새 정부 출범 초부터 경제 및 외교 분야에서 두루 중책 기용이 거론됐던 인물. 지난 5월 말에는 문 대통령의 특사로 임명돼 유럽연합 및 독일을 방문했었다. 경제학자 출신으로 노무현 정부 시절 대통령 경제보좌관을 지낸 조 대사는 주 영국 대사를 역임하기도 했다. 하지만 비(非) 외교관 출신인데다 북한 문제와 북미관계를 직접 다뤄본 경험이 없어 적지 않은 약점으로 작용할 것으로 보인다.박수현 청와대 대변인은 "조 내정자는 주미대사라는 중책을 맡아 한미 FTA, 북핵 등 굵직한 외교 현안을 해결하는 가교 역할을 훌륭히 수행함으로써 한미동맹 강화와 국익 증진에 기여할 것"이라고 했다.노영민 주중대사 내정자는 일찌감치 주중대사 자리가 확실시됐던 인물. 그는 2012년 대선 때 문재인 후보 비서실장을 지냈으며, 이번 대선에서는 경선 캠프와 본선 선대위에서 조직본부장을 맡아온 문 대통령의 측근으로 꼽히고 있다.박 대변인은 "사드와 경제 재재 등 복잡한 외교 현안을 원만하게 해결하고 25주년을 맞는 한중관계를 보다 공고히 할 것으로 기대한다"고 밝혔다.이수훈 주일대사 내정자는 노무현 정부 시절 대통령자문 동북아시대위원회 위원장을 지냈다. 지난 2012년 대선 때부터 문재인 캠프 산하 남북경제연합위원회 위원을 맡는 등 문 대통령과 인연이 깊다. 새 정부 출범 뒤엔 국정기획자문위원회 외교안보분과 위원장을 맡았다.박 대변인은 "복잡하게 얽힌 과거사와 역사 문제를 매듭짓고 한일 관계의 미래지향적 발전에 기여할 것으로 기대한다"고 밝혔다.청와대는 이날 해당 국가에 내정자들에 대한 아그레망(주재국 승인)을 요청했으며, 최종 승인을 얻기까지는 일주일 가량 소요될 것으로 예상하고 있다.4강 대사 가운데 이번 인사 발표에서 빠진 주러대사에는 김홍균 외교부 한반도평화교섭본부장, 오영식 민주당 전 의원, 장호진 전 국무총리실 외교보좌관 등이 하마평에 오르고 있다. 한편 로이터통신은 이날 신임 주한 미국대사에 빅터 차 조지타운대교수가 내정됐으며 도널드 트럼프 대통령이 조만간 이 같은 사실을 발표할 것이라고 보도했다. 그는 2004년 미국 백악관 국가안보회의(NSC) 아시아담당 국장을 지냈으며, 현재 미국 싱크탱크인 전략국제문제연구소(CSIS) 한국 석좌로 활동하고 있다. 북한과 중국에 대한 강경한 압박 정책을 주장하는 '매파'로 분류되는 인물이어서 우리 정부의 기조와 엇박자가 예상된다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      천만평에 이르는 땅에 태양광 발전을 한다면, 생산되는 거대한 전력을 활용해 &lt;새만금 재생에너지 테크노시티&gt;라는 옥동자를 낳아야 하지 않은가? 국내외의 재생 에너지 관련 기업들을 유치할 수 있는 실현 가능하고 전략적이며 구체적인 방략은 무엇인가? 국제금융자본을 유치할 수 있는 체계적이고 전략적인 접근법은 어떠해야 하는가? 새만금을 아시아 테마관광,레저산업의 메카로 만들 수는 없는가? 문명사적 전환의 시각으로 새만금을 바라 볼 때, 과연 어떠한 장벽들을 하나하나 무너뜨려야 할 것인가?  그렇다면 지금의 신항만 정책은 미래를 담보하고 있는가?    사단법인(준)새만금새전북21과 전북일보가 손잡고 5일 오후 8시30분부터 6일 새벽 2시까지, 전북 군산 라마다군산호텔 대회의실에서 '제1차 새만금 밤샘토론'을 개최했다. ⓒ유상근 기자   전북과 새만금의 ‘운명’을 바꾸기 위한 전문가들의 ‘담대한’ 정책제안 발제와, 현장의 기업인들의 기탄없는 토론이 펼쳐졌다.  사단법인(준)새만금새전북21과 전북일보가 손잡고 5일 오후 8시30분부터 6일 새벽 2시까지, 전북 군산 라마다군산호텔 대회의실에서 '제1차 새만금 밤샘토론'을 개최했다.  이두엽 공동대표(전주대 객원교수)의 사회로 진행된 밤샘토론에서 정석훈 전 전북개발공사 사장은 새만금사업의 지난날을 돌아보면서 ‘새만금, 무엇이 장벽이고, 어떤 길이 살 길인가’를 주제로 총론적 발제를 담당했다.  정 전 사장은 "새만금개발사업은 농어촌공사에서 시행하는 새만금지구 산업단지 개발사업"이라고 소개하며 "복합형으로 개발 진행하고 있으나 수요가 없다. 산업용(제조업) 수요 부진하나 현 개발사업은 산업단지 위주다. 어느 부문에서 수요 촉진이 가능한지 연구해야 한다"고 주장했다.   오창환 전북대 지구환경공학과 교수(새만금 재생에너지 민관협력위원회 공동위원장)은 지난 30여년 새만금 사업의 지체로 인해 발생된 피해를 분석하고 환경복원의 시급한 과제를 거론하면서, 후세를 위한 상생(相生)의 전략을 제시했다.  오 교수는 "2007년에 새만금 사업이 농업용지 100%에서 농업용지 70%와 산업관광용지 30%로 수정됐고, 2008년에 다시 농업용지 30%, 산업 및 관광 용지 70%로 수정. 이러한 과정에서 내부 계발 예산이 1조3000억에서 22조로 늘어나며 새만금호 수질이 계속 나빠져 5, 6급수 상태"라며 "부분 해수 유통으로 새만금 사업 이익을 극대화해야 한다"고 강조했다.  오 교수는 "해수유통 없이는 새만금 호수가 썩고 모든 투자는 물거품이 될 가능성이 매우 높다"며 "현 새만금 호수의 14.5%만이 농업에 필요하기 때문에 해수유통을 해도 농업용수 공급에 문제 없다"라고 주장했다.  또 "27년동안 10조 투자에 내부 공사진도 12%, 5개의 공장 입주, 15조의 어업 손실을 발생시킨 현 새만금 사업은 이미 실패한 사업"이라며 "어업 생산량 74% 감소와 생태관광지로서의 가치 하락에 의해 앞으로 매년 1조 이상의 경제적 피해를 입을 것"이라는 우려도 했다.  오 교수는 또 "미세먼지를 발생시킬 원인이 타 지역에 비해 상대적으로 적은 전북지역의 미세먼지 농도가 매우 높은 원인이 밝혀지지 않고 있다"라며 매립을 위해 지표로 옮겨진 호수퇴적물을 미세먼지의 원인으로 추정하기도 했다.  이재영 전북 RE-100 대표이사(전 성공회대 교수)는 국내의 제생에너지 관련 기업들과 마이크로소프트, 알리바바 등 RE-100에 참여한 기업들을 새만금사업에 참여시키기 위해서 정부가 무엇을 할 것인가를 주제로 발표했다.  이 대표이사는 "구글과 아마존, 애플을 비롯해 완성차 업체인 GM과 BMW 등 세계 유수의 기업들을 비롯해 157개 기업이 RE100(Renewable Energy 100%:재생에너지 100% 달성)에 참여하고 있다"라며 전북이 앞장서서 RE100 선언을 하고 새만금을 RE100 특구로 지정해야 한다고 강조했다.  이 대표이사는 "적극적인 기업 유치활동을 통해 국내 RE100인증이 필요한 기업들을 새만금으로 끌어 들인다면 우리나라 기업의 대내외 이미지 재고와 경쟁력, 그리고 문재인정부가 추진하고 있는 3020재생에너지 정책에 큰 힘을 줄 것이 분명하다"고 말했다.   수상태양광 전문가인 양기해 SEGI엔지니어링 회장은 "최근 새만금 내부 개발이 가시화되는 시점에서 그 시금석이 되는 수상태양광 발전시설단지와 수변도시개발은 매우 중요한 의미를 갖는 시금석"이라고 강조하며 ▲태풍에도 안전한 구조 ▲수질정화기능 ▲디자인이 가미된 명품 수상태양광발전시설 등 수상태양광 발전시설이 구비해야 될 3가지 인자를 제시했다. 양 회장은 또 "유니버시아드 대회를 할 때 유럽대표단은 새만금을 보여주겠다고 하니 생태를 파괴한 새만금은 가지 않겠다고 보이콧 했다는 일화가 있다"라며 "종 다양성이 확보되는 세계유일의 생태 생명도시로 태어나야 한다"는 의견도 제시했다.  한상근 KAIST교수는 2040년의 시점에서 새만금의 미래를 내다보는 문명사적 전망을 제시하고, 방송컨텐츠 전문가이기도 한 ㈜호미로의 박인택 대표는 ‘새만금이기에 가능한’ 다양한 비즈니스 모델을 제안했다.   테마파크 전문가인 홍승광씨는 ‘Asia Fantasy 테마파크’를 중심으로 새만금의 ‘문화관광전략’을 펼쳐 보였으며, 국제금융전문가인 김석범 TLBU FOUNDATION 이사는 다양한 글로벌 비즈니스 경험을 바탕으로 ‘국제자본과 세계적 기업의 새만금 유치’를 위한 전략적 접근법을 구체화했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             외부 산란층과 결합된 OLED 구조 모식도 및 나노입자 기반 산란층 제작 예와 이를 적용한 OLED 동작 사진 ⓒKAIST     KAIST 전기및전자공학부 유승협 교수 연구팀이 무기 LED에 상응하는 높은 효율의 유기발광다이오드(OLED)를 구현하는 데 성공했다.  OLED는 수많은 모바일 기기와 고품질 TV 등의 디스플레이 기술에 광원으로 활용되고 있는 소자로 두께가 얇고 유연 소자 제작이 가능하다는 장점을 갖고 있다.  그러나 고효율 OLED의 연구 결과들은 OLED가 갖는 면광원(面光源)의 장점을 해치는 반구형 렌즈가 쓰이거나 소자 내부에 빛을 추출하는 나노 구조가 도입돼 안정적인 동작을 방해하는 등의 문제로 상용화에 한계가 있었다.  연구팀은 산란 현상을 수학적으로 기술하는 이론을 OLED 발광 특성 예측 모델과 최초로 결합해 여러 구조를 가지는 수많은 소자들의 특성을 짧은 시간에 예측했고, 이를 기반으로 최대 효율을 갖는 최적 구조를 이론적으로 예측하는 데 성공했다.  연구진은 이론적으로 예측된 최적의 광 산란 필름을 실험적으로 구현하고 이를 고효율 유기 발광소재를 이용한 소자 구조에 접목해 56%의 외부 양자 효율 및 221lm/W의 전력 효율을 이끌어내는데 성공했다.  이는 큰 렌즈나 내부 광 추출구조 없이 구현된 OLED 단위 소자 효율로는 최고의 결과이다.  유승협 교수는 “다양한 OLED 광 추출 효율 향상 기술이 개발됐지만 실용화 가능성은 높지 않은 경우가 많았다. 이번 연구는 상용화 가능성에서 가장 의미가 큰 기술을 활용하면서 고효율 LED의 효율에 상응하는 OLED 구현 방법을 체계적으로 제시했다는데 의의가 있다”며 “낮은 전력소모가 특히 중요한 조명용 광원이나 웨어러블 기기의 센서용 광원에 OLED가 활용되는 데 기여할 것이다”고 말했다.  서울대 재료공학부 김장주 교수, 경상대 화학과 김윤희 교수 연구팀과의 협력을 통해 이뤄진 이번 연구는 ‘네이처 커뮤니케이션즈(Nature Communications)’ 8월 10일자 온라인 판에 게재됐다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      한국전력(대표이사 사장 김종갑)은 2일(월) 한전 본사에서 한전, 전라남도, 나주시 간 ‘그린수소 사업 협력 MOU’를 체결했다.  지난 5월 정부는 탄소 배출 없는 그린수소 생산을 위해 한전을 사업자로 선정해 재생에너지 잉여전력을 활용한 수전해(P2G) 기술을 통해 그린수소를 만들어 저장하는 사업을 정부과제로 선정해 추진하기로 했다.     ▲2일(월) 한전 본사에서 한전, 전라남도, 나주시 간 ‘그린수소 사업 협력 MOU’를 체결했다. ⓒ한국전력    이날 MOU에서 한전은 그린수소 기술개발 및 사업추진을 주관하고, 전라남도와 나주시는 수소 생산에 필요한 태양광 설비 지원 및 인허가 등 행정지원을 하기로 했다.  그린수소 사업은 정부의 ‘재생에너지 3020 계획’에 따라 계속 증가하는 재생에너지를 활용해 수소를 생산함으로써 재생에너지 잉여전력 문제를 해결하고 이로써 전력계통 안정성 유지에도 기여할 것으로 예상한다.  또한, 이날 한전은 한국동서발전, 한국과학기술원(KAIST) 및 한양대 등 17개 기업·기관과도 ‘그린수소 기술개발 협력 MOU’를 체결다. 한전은 수전해·메탄화·운영기술 개발 및 실증을 총괄하고 참여기업·기관은 수전해 수소 생산·저장·메탄화 및 운영시스템 개발을 위해 협력하기로 했다. ※ MOU 참여기관 : 한국전력, 한국동서발전, 한국중부발전, 한국과학기술원 (KAIST), 한국과학기술연구원(KIST), 한국에너지기술연구원, 고등기술연구원, 포항산업과학연구원, 한양대, 동국대, 두산중공업, 한국선급, 대성에너지, 엘 켐텍, 수소에너젠, 지필로스, 에이치앤파워, 아크로랩스   이 날 MOU 체결식에서 김종갑 한전 사장은 “한전은 전라남도, 나주시, 참여기관과 지속적으로 협력해 정부 에너지전환 정책에 부응하고 중소기업과 지역사회 발전을 위해 더욱 노력할 것이다”고 전했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ⓒ전주대      전북 전주대 LINC+사업단과 (사)벤처기업협회 전북지회가 공동주관하는 전북중소벤처리더스포럼 아카데미 최고경영자과정 제2기 수료식이 지난 26일, 전주대 리사이틀홀에서 열렸다.  지난 3월 입학한 50명의 기관 및 중소벤처기업 대표는 15주 동안 매주 화요일, 4차 산업혁명 시대를 선도하기 위한 역량강화교육 및 명사특강, 창조 경영교육, 디지털마케팅 교육 등 다양한 교육이 이뤄졌다.특히 노규성 한국생산성본부 회장, 이경상 카이스트 교수, 조풍연 한국ICT.SW 총연합회 회장 등 국내 최고 전문가가 강연자로 나서 급변하는 4차 산업혁명 시장의 시장 트렌드에 대한 명사특강이 이어지며 참석자들로부터 큰 호응을 얻었다.  한편 이날 수료식에서 원우회에서 4차 산업혁명 시대를 선도할 미래 인재 육성과 전주대 발전을 위해 발전기금 300만원을 전달했다.정춘호 원우회장은 "중소 벤처기업의 발전을 위한 전주대의 노력에 감사하며, 4차 산업혁명 시대를 선도할 우수 인재양성에 더욱 힘써 달라"고 말했다.  전주대 이호인 총장은 “지역경제발전의 한 축을 담당하고 있는 벤처기업과 상생하며, 지속적으로 4차 산업혁명 시대를 이끌어가는 지역대학이 되도록 더욱 노력 하겠다”고 말했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      이명박 정부 시절 국가정보원이 정치인‧교수에 대해 여야를 가리지 않고 전방위적으로 온라인 심리전을 단행한 사실이 국정원 개혁위 조사를 통해 확인됐다. 조금이라도 정권에 비판적인 입장을 보이면 여야를 가리지 않고 공격 대상으로 삼은 셈이다.  국정원 개혁위가 25일 위원회 산하 적폐청산TF로부터 받은 '정치인‧교수 등 MB 정부 비판 세력 제압 활동' 보고 내용에서 거론되는 인물은 20명이 넘는다. 고(故) 노무현 대통령을 비롯해 당시 송영길 인천시장, 박지원 의원, 조국 서울대 교수 등 야권 인사는 물론이고 홍준표‧원희룡 한나라당 의원 등 여권 지도자들도 눈에 띈다.  적폐청산 TF가 분석한 기간은 2009년 노 전 대통령 서거 이후 2012년까지로, 원세훈 전 국정원장 재임 시기다. 개혁위는 "원 전 원장은 취임 이후 심리전단의 조직‧인원을 확대, 정치‧MB정부 비판세력에 대해 문화‧연예계는 물론이고 정치인‧교수 등 사회 각계인사에 대하여 전방위적으로 비판활동을 전개했다"고 밝혔다. 여타 활동과 마찬가지로, 심리전단팀의 비판 활동 무대는 '아고라' 등 포털사이트 게시판, 트위터 등 SNS였다.   당시 국정원의 비판 활동 대상에 오른 야권 주요 인사는 △노무현, △송영길, △박지원, △곽노현, △조국, △이상돈, △천정배, △손학규, △정동영, △최문순, △김진애, △유시민, △장하준 등이다.  국정원은 2011년 2월 당시 송영길 인천시장 "인천시를 대북 평화 전진 기지로 조성하겠다"는 발언을 '종북 행위'로 규정하고, '인천시장 종북행각 규탄 전략 심리전 계획'을 작성, 실행했다. 인천시 홈페이지, 인터넷 카페 등에 비판글을 올려 비판 여론을 조성하는 식이다.  박지원 의원은 김황식 당시 총리 후보자에 대한 비난, 이명박 전 대통령의 러시아 방문에 대한 폄훼 발언 등이 빌미가 됐다. 국정원 직원들은 '박지원 망동 강력 규탄 사이버 심리전 전개'라는 이름으로 보고하고 박 전 의원에 대한 비판 활동을 수행했다.  곽노현 서울시 교육감에 대해선 금품 매수 의혹과 관련, 다음 '아고라', 트위터, 전교조 홈페이지 등을 통해 '양 가면 쓴 이중인격자'라는 비난과 함께 구속 및 사퇴 촉구 서명 활동을 했다. &lt;조선일보&gt;, &lt;동아일보&gt; 등 일간지에 규탄 광고가 실리기도 했다.  조국 교수에 대해선 'KAIST 경쟁체제 비판', '4대강 사업장 폐콘크리트 매립 주장' 등을 이유로 '정치 교수'라고 심리전을 전개했다. 트위터에는 "서울대 조국 교수는 교수라는 양의 탈을 쓰고 체제변혁을 노력하는 대한민국의 늑대다. 93년 남한사회주의노동자동맹 산하 남한사회주의과학원 사건에 연루돼 국보법 위반으로 실형을 선고받은 적이 있다. 천안함, 연평도 北 도발을 옹호하는 대한민국의 적"이라는 비난글을 올렸다.홍준표에 "사돈 남보듯 집안 흉", 원희룡에 "회색분자"  국정원의 총구는 야권으로만 향하지 않았다. △홍준표, △정두언, △안상수, △원희룡, △권영세 등 이 전 대통령에 비판적인 태도를 보인 여권 정치인들을 대상으로 '회색 분자' 등 원색적인 비난을 쏟아내는 압박 활동을 했다.  가장 대표적인 인사가 홍준표 당시 한나라당 최고위원이다. 트위터에 "홍준표 의원은 저격수 명성에 어울리지 않게 자꾸 총부리를 아군에 겨누고 있다. 그러다 아군이 전멸하면 홀로 정치하려는가? 적군 앞에선 단합할땐 해야지, 사돈 남보듯 집안 흉을 봐서 뜨려는 구시대적 행태는 사라져야 한다"는 비난 글이 올라왔다.  이 글은 지금도 트위터 검색을 통해 쉽게 확인할 수 있다. '아늑한 정원'이라는 닉네임의 계정 이용자가 2011년 1월 13일 올린 이 게시글은 이날 개혁위가 발표한 홍 전 의원에 대한 비방 내용과 토씨 하나 다르지 않다.   ▲2011년 1월 13일 트위터에 올라온 홍준표 의원 비방글. 이 내용은 25일 국정원 개혁위가 발표한 국정원 비판 활동 내용과 일치한다.     원희룡 전 의원에 대해선 "회색분자이자 카멜레온의 원희룡 의원은 애국 인사들에게 언제든 뒤에서 칼을 꽂을 수 있는 사람같다", 안상수 당시 한나라당 대표에 대해선 웬 견제! 보온병 등으로 꺼져가는 본인 정치생명 연장을 위해 돌출발언 한 거 같은데 여당내 본인 위치를 생각해서 신중 발언해야지 한마디로 중용해선 안 될 인물"이라고 했다.  국정원 직원이 직접 &lt;미디어워치&gt; 광고 수주 나서기도  당시 국정원은 비판 활동을 위해 트위터 등 SNS을 활용하는 한편, &lt;미디어워치&gt; 등 보수 언론에 '보도 협조'를 구한 것으로 확인됐다. 진중권 교수에 대한 비판, 한명숙 전 총리에 대한 비난 기사가 대표적인 보도 협조의 결과물이다.  국정원은 이같은 보도 협조를 위해 &lt;미디어워치&gt; 지원에 적극 나섰다. 개혁위는 "2009년 2월 &lt;미디어워치(대표 변희재)&gt; 창간 시부터 국정 지지여론 조성을 위한 지원 필요성을 인식하고 창간 재원 마련 관련 조언을 해주거나, 여권 측면 지원이 필요하다는 내용을 지휘부와 청와대에 보고했다"고 밝혔다.  또 &lt;미디어워치&gt; 재원 마련을 위해 경제 및 기관 담당 수집관에게 전경련, 삼성 등 26개 민간기업 및 한전 등 10개 공공기관에 &lt;미디어워치&gt; 광고 지원을 요청토록 지시했고 그 결과, &lt;미디어워치&gt;는 2009.4월~2013.2월간 4억여 원 가량의 기업 광고비를 수주한 것으로 밝혀졌다.  개혁위는 정치인‧교수 대상 심리전에 대한 청와대 개입 여부에 대해선 "직접적인 비방 지시 사실은 확인되고 있지 않다"고 했다. 반면 원 전 원장에 대해선 "'전부서장 회의'와 '일일 모닝브리핑'에서 야권 및 특정 정치인과 선거 관련 대응활동을 수시 지시하였고, 이에 담당부서는 '외곽팀' 등을 활용한 현안대응 심리전을 전개했다"며 정치관여 및 업무상 횡령‧배임 등의 혐의로 원 전 원장 등을 검찰에 수사의뢰할 것을 권고했다고 밝혔다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      프레시안 협동조합 6월 가입자 중 유일한 20대. 단박에 '이 주의 조합원' 대상으로 정했다. 변.규.홍. 습관적으로 이름 석 자를 검색했다. 헐! 구글신은 그의 트위터와 페이스북, 사진, 관련 기사까지 한 번에 제공했다.   '정치하는 프로그래머'이자, 녹색당 청년조직 '청년녹색당' 전국위원. 카이스트(KAIST)에서 공부했음. 관심사는 IT와 전산, 대학과 청년 문제 등. 기록을 중요하게 생각하며 민주주의 시스템에 대해 고민하고 있음. 현재 병역특례 업체에서 군 복무 중.   범상치 않았다. 시대와 호흡하는 인물이던가, 문제적 인물이던가 둘 중 하나였다. 궁금했다. 지난 20일, 변규홍 조합원을 만났다.    ▲ 6월 언론 협동조합 프레시안의 신규 조합원이 된 변규홍 씨. ⓒ프레시안(이명선)   "'카이스트 악령'과 함께한 학창 시절"  변 조합원은 지금은 학교를 떠났지만, '서남표식 개혁'이 이뤄지던 시절 카이스트를 다녔다. 자신을 "서남표 1세대"라고 말한 그는 당시를 "'카이스트 악령'과 함께한 학창 시절"이라고 표현했다.   서남표 매사추세츠공과대학 명예교수는 2006년 7월부터 2013년 2월까지 카이스트 총장으로 재직했다. 그는 총장 취임 후 징벌적 등록금제(차등 수업료제)와 100% 영어 강의 등을 시행하며 학생들을 경쟁 교육으로 내몰았다. 그 결과 2011년 한해에만 4명의 학생이 자살, 사회적 문제로 대두됐다.(☞ 관련 기사 : '서남표식 개혁'? 알고보면 '카이스트판 MB식 전횡')  "서남표 체제에서 가장 끔찍했던 것은 '무한비하향(無限非下向)' 경쟁이었다. 기준에 미달한 경우, 실패를 만회할 수 없었다. 재수강하거나, 학기를 연장할 방법도 없이 밑바닥까지 떨어뜨려 재기불능 상태를 만들었다. '더는 기회가 없다'는 압박감이 비극을 일으켰다고 생각한다. 이후 학교 문화도, 학생 간 정치도 무너졌다."  후배와 친구의 자살을 목도한 변 조합원은 이듬해 학교 문화가 달라졌다는 사실을 피부로 느꼈다고 했다. "실패를 위로해 주며 다시 일어날 수 있다고 용기를 주던" 선후배와 동기가 사라진 것. 그는 "무너져 가는 것을 무너지지 않게 하는 것"이 자신의 일이라는 생각으로, 학교 중앙선거관리위원회 위원장과 동아리연합회 회장 등 학생회 일에 집중했다.   "흔히 말하는 '운동권 학생'은 아니었지만, 학교의 일방적 행태에 제동을 걸 수 있는 학생회가 필요하다고 생각했다. 또한 학생회는 최소한의 민주성을 가지고 운영되어야 하며, 크든 작든 회의 내용은 반드시 기록되고 공개되어야 한다고 생각했다."   하지만 구성원 모두가 변 조합원의 생각에 동의한 것은 아니었다. 특히 회의 속기록 공개에 대해 "'대의 민주주의'를 내세워 밀실회의를 정당화"하는 등 이견이 많았다.   "기록은 중요하다. 컴퓨터가 수행한 모든 활동 내역은 자동적으로 기록된다. 또 각종 프로그램을 이용해 변경/삭제/생성된 것을 감시한다. '민주주의'라는 시스템도 마찬가지다. 시스템이 제대로 작동하려면, 기록을 통한 재확인과 유지보완이 가능해야 한다."    ▲ 카이스트 학생과 서남표 총장의 간담회가 진행된 2011년 4월 한 학생이 총장의 사과와 개혁 폐기를 요구하는 피켓을 들고 있다. ⓒ연합뉴스   '정치하는 프로그래머'를 꿈꾼다 변 조합원은 학생회 활동을 하며 "정치는 남에게 맡기는 게 아니라 내가 필요한 것을 직접 협상과 합의를 통해 얻는다는 점을 배웠"다.(중앙대 교지 &lt;중앙문화&gt; 70호 '진보 3당원을 만나다' 중) 이진법을 사용하는 컴퓨터처럼 "내가"와 "직접"이라는 두 단어가 무한 연산을 했을 터. 무엇보다 녹색당 강령이 그린라이트(green light)가 됐다.   "대표자를 뽑아서 일을 맡기는 대의민주주의는 한계에 부딪혔습니다. 모든 의사결정 과정이 투명하게 공개되고 시민들이 참여하는 직접·참여 민주주의가 필요합니다."(녹색당 강령 '직접·참여·풀뿌리민주주의' 중)  그는 친구 진달래 씨(전 서울대 동아리연합회 회장, 6.4지방선거 인천시의원 녹색당 비례대표 출마)를 따라 강남 가듯 당원이 됐다. 변 조합원은 당시만 해도 "원자력 발전소 덕에 전기를 싼값에 쓰고 있다"고 생각할 만큼 녹색당과 거리가 있었다. 그러나 지금은 20대 청년이 안전교육도 받지 못한 채 피폭됐다는 뉴스에, 원자력안전위원회 속기록을 직접 찾아볼 정도로 '탈(脫) 원전주의자'가 됐다.(☞ 관련 기사 : 20대 직원 입사 한달 만에 피폭…업체는 숨기기 급급)   "사고 업체는 국정감사에서도 몇 차례 지적을 받은 곳이다. 원자력안전위원회 속기록에 업체의 문제점이 고스란히 적혀 있다. 나름대로 투명한 나라다. 하지만, 이를 대중에게 알리고 문제의식을 공유하는 정당이 없다. 녹색당을 통해 이런 사실을 알리고 싶다."  그는 2년째 청년녹색당 전국위원으로 활동하며, 녹색당에서 다양한 시스템을 만들고 있다. 당은 이번 4.13 총선에서 변 조합원이 제안한 '1인2표 누적투표제'를 적용해 비례대표 후보 다섯 명(황윤, 이계삼, 김주온, 구자상, 신지예 등)을 선정했다. 그러나 안타깝게도, 정당 득표율 미달로 국회 입성에 실패했다.   "민주주의라는 시스템에서 '정치'는 모든 사람이 해야 하는 것이라고 생각한다. 내가 신뢰하는 후보를 고르고, 그 사람을 국회에 들어가게 하는 것도 정치다. 직업이 정치가 아닌 사람도 정치를 할 수 있다는 것을, 많은 사람과 공유하고 싶다."    훅, 질문을 던져봤다. 직접 정치할 생각은 없느냐고. 변 조합원도 에두르지 않았다.   "국회의원을 한 번은 해보고 싶다. 직업을 '정치'로 삼는다면, 최대한 짧게 할 생각이다. 새누리당 김무성 의원의 경우, 정치가 직업인 사람이지만 정치와 동떨어져 보인다. 한국 사회에서 정치란, 밥하고 빨래하는 일상과 같이 가야 한다고 생각한다. 삶이 보편적이지 않은 사람들이 보편적인 삶을 사는 사람의 삶을 바꾸겠다고 정치를 하니, 점점 '이상한 나라'가 되어 가고 있다."     ▲ 팝아트 작가 이하 씨가 전두환 전 대통령, 박근혜 대통령, 이명박 전 대통령을 풍자했다. ⓒ이하   "조합원 교육 프로그램이 있었으면 좋겠다"  변 조합원에게 &lt;프레시안&gt;과의 인연을 물었다. 그는 대뜸 지난 4월 9일 &lt;프레시안&gt;에 실린 이계삼 밀양송전탑반대대책위 사무국장과 문화학자 엄기호 박사의 대담을 언급하며, 자신이 속기했다고 말했다. 변 조합원이 속기한 내용을, 하승우 풀뿌리자치연구소 이음 운영위원이 최종 정리한 것으로 보인다.(☞ 관련 기사 : "왜 녹색당 찍냐고?" "확 뒤집어야 사니까!")   "4.13 총선 전, 녹색당의 교육 정책을 알리고자 한 대담이었다. 기사가 발행된 뒤, &lt;프레시안&gt;에 일정 부분 기여했다는 생각에 뿌듯했다. 그러던 중 언론 협동조합 프레시안에 조합원으로 가입하면, 광고 없는 기사를 볼 수 있다는 얘기가 생각났다. 마침 보너스를 받은 게 있어, 주저 없이 가입했다. 물론, &lt;프레시안&gt; 기사는 녹색당 당원이 되기 전부터 보고 있었다."    이어 그는 "프레시안 조합원으로 해야 하는 일이 있다"며 구내식당과 편의점 등 무너지고 있는 대학생활협동조합을 지적했다.   "전국 대학가에 '아침밥 1000원' 바람이 불고 있다. 학생들의 경제적 부담을 줄여주겠다는 취지는 좋지만, 매끼 밥을 만드는 노동자의 처우는 어떨까. 서울대는 밥값을 1000원으로 낮추면서 생기는 손실은 학교 측이 후생복지기금 등을 출연해 메울 계획이라고 밝혔지만, 투명하게 운영되고 있는지 의문이다. 값싸고 질 좋은 서비스라는 허울에 소외된 구성원은 없는지 살펴야 한다. 협동과 상생을 통한 최상의 복지가 무엇인지 같이 얘기해야 한다."    민주주의와 협동에 대한 고민만큼 변 조합원이 &lt;프레시안&gt;에 바라는 점도 만만치 않을 것 같았다. 그는 "프레시안은 다양한 민주주의 시스템을 실험할 수 있는 그릇(플랫폼)이라는 기대가 있다"며 "협동조합을 제대로 이해할 수 있는 조합원 교육 프로그램이 마련됐으면 좋겠다"고 말했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      최원호 박상후 교수       KAIST 원자력및양자공학과 최원호 교수 연구팀이 약하게 이온화된 플라즈마(weakly ionized plasma)에서 전자가 가열되는 구조와 제어 원리를 규명하는데 성공했다. 이 연구에서는 대기압과 그보다 낮은 압력에서 발생한 플라즈마에서 자유 전자가 에너지를 얻는 기본 원리를 밝히고, 플라즈마의 반응성 및 활용성 개선에 기반이 되는 전자 가열의 제어 방법에 대한 근본 원리를 제공했다.  대기압 조건에서는 자유 전자와 중성기체의 충돌이 빈번하기 때문에 이온화된 플라즈마 내 자유 전자의 밀도와 온도를 측정하는 데에는 한계가 있어 자유 전자의 가열 구조 및 원리를 실험적으로 규명할 수 없었다.   또한 전자 가열의 제어 방법 및 주요 요인에 대한 정보가 부족해 플라즈마의 반응성과 활용성 개선이 제한적이었다.  연구팀은 이를 해결하고자 전자-중성입자 제동복사(electron-neutral bremsstrahlung)를 기반으로 하는 전자 진단 기술을 이용해 플라즈마 내 자유 전자의 밀도, 온도를 정확히 진단하고 이를 2차원으로 영상화하는 기술을 개발했고, 본 실험에서 대기압 플라즈마에서 수 나노초(10억분의 1초) 단위로 자유 전자의 온도(에너지)를 측정하여, 전자가 에너지를 얻는 가열 과정의 시공간적 분포 및 근본 원리를 밝히는 데 성공했다.  0.25~1기압 압력구간에서의 전자 온도의 시공간적 분포의 변화를 실험으로는 최초로 확인한 사례로 대기압과 대기압보다 낮은 압력에서 전자가 에너지를 얻는 가열의 기본 메커니즘을 규명했다. 이 연구는 자유 전자와 중성입자의 충돌이 매우 빈번한 조건에서 발생하는 플라즈마에서의 전자 가열 원리를 학문적으로 이해하는 데 유용한 기반이 되고, 이를 통해 경제적, 산업적 활용 가능한 대기압 플라즈마 발생원을 개발하고 다양하게 활용하는데 큰 역할을 할 것으로 기대된다.    단일 및 이중 주파수로 구동하는 플라즈마에서 측정된 514.5 nm 파장의 제동복사 및 전자 온도의 시공간적 변화. 이중 주파수를 통한 전자 가열이 선택적으로 억제(suppression)되는 것을 확인할 수 있다.     물질의 세 가지 상태인 고체, 액체, 기체와 더불어 ‘물질의 네 번째 상태’라 불리는 플라즈마는 표준 온도 및 압력(25 ℃, 1 기압)의 상태에서는 자연적으로 존재하지 않으나 인위적으로 기체에 에너지를 가하면 플라즈마 상태가 된다.  최 교수는 “이 연구 결과는 자유 전자와 중성입자의 충돌이 매우 빈번한 조건에서 발생하는 플라즈마에서의 전자 가열 원리를 학문적으로 이해하는 데 유용할 것”이라며 “이를 통해 경제적, 산업적 활용 가능한 대기압 플라즈마 발생원을 개발하고 다양하게 활용하는데 큰 역할을 하길 기대한다”고 말했다. 박상후 연구교수가 1저자로 참여한 이번 연구는 국제 학술지 ‘사이언티픽 리포트(Scientific Reports)’ 5월14일자와 7월5일자 온라인 판에 Electron information in single- and dual-frequency capacitive discharges at atmospheric pressure, 단일 및 이중 주파수 대기압 플라즈마의 전자 정보 / Electron heating in rf capacitive discharges at atmospheric-to-subatmospheric pressures, 대기압과 대기압보다 낮은 압력에서 라디오 주파수 플라즈마 내의 전자 가열이라는 제목으로 연달아 게재됐다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ⓒ전주시      전북 전주 국립무형유산원 일원에서 '제2회 전주 세계슬로포럼·슬로어워드'가 개최됐다.전주시와 한국슬로시티본부는 24일과 25일 이틀간 ‘세계가 묻고 전주가 답하다’라는 슬로건과 ‘슬로니스와 삶의 질’을 대주제로 포럼을 진행한다. 포럼에서는 7개국 12명의 슬로전문가들의 발제와 토론 및 어워드 사례발표가 이어지고, 슬로시티 홍보체험관 등 다채로운 프로그램도 운영된다.특히, 세계 최초로 슬로운동 성과를 격려하기 위한 국제규모의 시상제도인 슬로어워드도 시상한다.전주시는 24일 전주전통문화연수원 풍락헌에서 김승수 전주시장과 손대현 한국슬로시티본부 이사장, 독일의 베스트셀러 작가이자 언론인인 프란츠 알트 박사, 덴마크 바우네호이 애프터스콜레의 울리크 구스 이버슨 교장 등 슬로시티 석학들이 참석한 가운데 ‘제2회 전주 세계슬로포럼&amp;슬로어워드’ 관련 기자간담회를 개최하고, 발제주제의 의미와 배경 등을 설명했다. 전주 국제슬로포럼&amp;슬로어워드는 전 세계 슬로시티들과 네트워크를 형성하기 위해 전주시가 마련한 국제행사로 국제슬로시티연맹(사무총장 올리베티)이 공인하는 국제슬로시티 회원도시 유일의 국제포럼&amp;어워드 행사이다. 첫날 개막식에서는 슬로 운동의 해외 전문가와 국내외 슬로시티 지자체, 슬로시티 주민협의회, 슬로시티 全州(전주)학교 오손도손 교육 수료자, 일반시민 등이 참석한 가운데 김승수 전주시장의 대회선언과 조르지오 올리베트 국제슬로시티연맹 사무총장(이탈리아)의 축사, 후루하시 미치요 코노하나 패밀리 국제 수석(일본)의 특별게스트 스피치에 이어 발제와 토론이 진행됐다. 특히, 발제를 맡은 프란츠 알츠 박사와 울리크 구스 이버슨 교장은 슬로시티넵 철학을 실천해 온 각 분야별 세계 최고 전문가들로, 이번 포럼에서 각각 ‘태양에너지 혁명과 녹색경제-느림·작음·간소함’과 ‘우리 아이들의 인격 함양과 함께의 가치’에를 주제로 태양에너지 혁명과 녹색 경제, 우리 아이들의 행복한 교육에 대해 생각하고 공유하는 자리를 마련했다. 또한, 김영걸 카이스트 정보미디어대학원 교수를 좌장으로 가우티 요하네손 국제슬로시티 아이슬란드 듀피보그르 시장과 이효중 전북대학교 화학과 교수(한국태양광발전학회 소속), 핀란드 슬로라이프의 저자인 미쉘 램블린 교수, 한국의 대안학교인 꿈틀리 인생학교의 정승관 교장이 참여하는 토론도 펼쳐졌다. 포럼 이틀째인 25일에는 슬로정신의 구현과 발전에 기여해온 이탈리아 슬로시티 오르비에토의 주세페 저머니 시장과 프랑스 슬로시티 미항드의 피에르 보운드란 시장, 함정희 함씨네토종콩 식품 대표, 노박래 서천군수에 대한 전주 슬로어워드 국제·국내 부문 시상식과 사례발표가 진행될 예정이다. 이와 함께, 이번 전주 세계슬로포럼에서는 국내 15개 슬로시티 시·군이 모두 참여한 가운데 한국슬로시티의 우수사례를 공유·평가하는 자리도 마련된다.올해 처음 도입된 ‘한국슬로시티 주민활동 경진대회’는 사전에 접수받은 국내 6개 슬로시티 회원 도시를 대상으로 주민활동 사례 발표와 현장 평가를 거쳐 주민 참여율과 지역자원 활용도, 슬로시티 정신과의 부합도 등을 평가 후 최우수·우수·장려상을 시상하는 방식으로 운영된다. 이밖에, 전주를 처음 찾은 해외 연사들이 슬로시티 전주의 매력을 느낄 수 있도록 전주한옥마을에서 아마추어 가야금 연주가들의 릴레이 공연을 감상할 수 있는 ‘제1회 슬로시티 가야금 페스티벌’이 진행되고, 25일 개막하는 전주비빔밥 축제와 연계한 달팽이 스탬프 투어와 씨앗엽서쓰기 체험, 15개 한국슬로시티 홍보관 등 전주만의 슬로시티 문화를 체험할 수 있는 행사 등도 넉넉히 준비됐다. 시는 이번 행사를 통해 슬로시티와 슬로운동에 대한 시민들의 인식을 바꾸고, 슬로시티의 주민으로서 ‘느림의 가치’를 생활에서 어떻게 발견할 것인지 알아가는 소중한 기회를 제공함으로써 시민들이 행복한 지속가능한 슬로시티로 나아갈 수 있을 것으로 기대하고 있다. 울리크 구스 이버슨 덴마크 바흐네호이 애프터스콜레 교장은 “덴마크 사람들이 세계에서 가장 행복한 국민이 될 수 있었던 이유가 애프터 스콜레 등 덴마크의 행복 교육 시스템을 통한 오랜 전통의 인격 함양과 많은 관련이 있다”고 설명했다. 독일의 프란츠 알트 박사는 “태양에너지 혁명과 함께 녹색 경제, 생태경제로 가기 위해 슬로시티의 철학인 보다 느리고, 작게, 그리고 간소해져야 된다”고 말했다. 손대현 한국슬로시티연맹 이사장은 “발제를 맡게 된 두 분은 슬로시티 철학을 몸소 실천해온 각 분야별 세계 최고 전문가들로, 전주 세계슬로포럼을 위해 귀한 시간을 허락해주셨다”면서 “슬로운동의 가치와 이를 실현하기 위해 힘써온 전 세계 슬로시티와 활동가들의 철학을 만날 수 있는 이번 포럼에 국내 슬로시티 지자체와 많은 시민들의 관심과 참여를 부탁드린다”고 밝혔다. 김승수 전주시장은 “전주시는 슬로시티 가치 실현과 사람·생태·문화의 시정 핵심 가치 실현을 위해 슬로시티를 상징하는 ‘공동체를 이끌어가는 달팽이’처럼 느리지만 당당한 걸음을 걸어왔다”면서 “이번 전주 세계슬로포럼&amp;슬로어워드를 통해 아름다운 전통의 가치와 조화로운 공동체의 삶을 계승해온 전주의 모습을 널리 알리겠다”고 강조했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      강원랜드는 30일 오전 11시 강원랜드호텔 대연회장에서 제19기 정기주주총회를 개최하고 2016년 재무제표 승인, 정관 일부 변경, 이사 선임, 그리고 감사위원회 위원 선임 등의 안건을 원안, 의결했다.  강원랜드는 2016년 매출액 1조6965억 원, 당기순이익 4545억 원 등의 내용이 포함된 제19기 재무제표 및 연결재무제표를 승인하고, 현금배당금도 주당 990원으로 확정했다.   또한 식음영업 경쟁력 강화와 신규 사업 추진을 위해 정관에 ‘주류 제조업 및 판매업’과‘카지노 게임기구 제조업 및 판매업’을 추가해 정관 일부를 변경했다.    ⓒ강원랜드     이사 선임과 관련해서는 신주호 정선군 부군수를 비상임이사에 선임하고, 최돈용 보령메디앙스(주) 경영기획실장과 한인구 KAIST 경영대학 교수를 사외이사에 선임했다.  감사위원은 이번에 새롭게 선임된 최돈용, 한인구 사외이사와 김상일 현 강원랜드 사외이사가 맡는다.  강원랜드 함승희 대표는 “올해는 경영환경의 불확실성 확대로 그 어느 때보다 철저한 준비가 필요하다”며 “준법·책임경영을 통해 경영 리스크를 안정적으로 관리하고 ‘모범적 공기업’위상을 정립하는데 매진할 것”이라고 밝혔다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      경남 진주시는 정부통합전산센터에서 개최한 제2회 공무원 빅데이터 분석 공모전에 진주시 공무원이 참가해 대상을 수상했다고 10일 밝혔다.  '혜안과 함께라면 나도 빅데이터분석가'라는 주제로 열린 이번 공모전은 전국 공무원들을 대상으로 개최됐으며 진주시팀 등 7팀이 본선에 진출했다.  지난 5일 대전 카이스트에서 열린 최종 발표대회에 참가한 진주시팀은 김봉진(매립장사업소), 박성현(토지정보과), 전희수(징수과)씨로 ‘녹색성장을 위한 자전거 통합정보망 제공’이라는 주제 아래 중앙정부 및 지자체에서 국민 건강증진을 위해 자전거 활성화 정책을 내 놓고 있으나 국민의 관심이 줄어들고 있는 점을 빅데이터로 분석한 결과, 전국단위의 자전거 정보 통합 정보망을 구축 운영해 자전거 이용자 및 잠재적 수요자의 요구를 충족시킬 필요가 있다는 발표로 현장에서 행정자치부장관상인 대상과 상금을 받았다.   ▲제2회 공무원 빅데이터 분석공모전 수상자. ⓒ진주시    한편, 이번 대회의 심사방법은 전문가심사 50%, 방청객 투표 50%였으며, 심사기준은 주제 적합성, 분석 적절성, 활용가능성, PPT 내용 충실도 와 발표태도, 참여자 호응도를 종합적으로 채점해 결정했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      기독교인들이 들으면 언짢을 이야기지만, 연애 대상으로 '교회 다니는 남자(여자) 만나지 말라'는 말, 한 번쯤은 다들 들어봤을 것이다. 일요일마다 교회를 가야 하니 만날 시간도 부족하고, 연인에게도 교회 출석을 권유하는데 거절하면 관계가 어색해질까 염려도 되고, 특히나 연애·결혼 등에 대한 가치관 차이가 크다는 등의 이유다.   독실한 기독교인인 송유창(33) 조합원도 이런 이야기를 물론 들어 봤다고 했다. 그가 창업한 IT 스타트업 기업 '큐티네트웍스'가 소셜데이팅 애플리케이션 '크리스천 데이트'를 개발한 이유 가운데 하나도 이런 것이었다. 송 조합원의 개인적 경험과 관심사에서 시작한 일이지만, 이 서비스는 회사의 주력 사업이 됐다. '개발자'인 큐티네트웍스와는 별도로, 크리스천 데이트 관련 오프라인 행사 등을 위해 비영리법인도 만들어졌다. 비영리법인 '크리스천 데이트'는 후원금과 기부금으로 운영된다.   '크리스천 데이트' 서비스는 어떤 면에서 논쟁적이다. 다른 결혼정보회사나 만남 주선 서비스처럼, 돈 낸다고 다 가입이 되지도 않는다. 오히려 회원가입 신청을 하면 회사가 심사를 한다. 진짜 기독교인이 맞는지, 미혼이 맞는지, 신앙 생활을 얼마나 열심히 하는지 등이다. 가입비나 소개비는 받지 않고, 소개받은 이성이 마음에 들 경우 메시지를 보낼 때에만 '커피 한 잔 값'을 받는단다.   왜 기독교인들만을 대상으로 했을까? 기독교인들이 '연애 약자'라는 게 송 조합원의 설명이다. 일각에서 '교회 오빠' 등의 사례를 들어 '기독교인들은 연애 부자 아니냐'고 하는 데 대해 송 조합원은 고개를 젓는다.   "'교회 오빠'는 소수…30대 남성 기독교인, 연애경험은 일반인 절반"  "소위 '교회 오빠'는 소수에게만 해당되는 얘기죠. 외모가 뛰어나거나 하면 당연히 인기가 많겠지만 그건 정말 소수고, 오히려 그런 몇 명에게 많은 이성이 '해바라기' 하는 문화가 있다 보니 더 연애들을 못 해요. 또 얼마 전까지만 해도, 같은 교회 안에서의 만남을 막는 분위기도 있었어요. 대학교 같은 학과 안에서 이른바 '씨씨(CC·캠퍼스 커플)'로 연애하다 깨지면 전체 분위기가 소원해지는 것 같은 그런 일 때문에 '가족 같은 교회 공동체를 위해 이 안에서 연애하는 것은 자제해 달라'는 게 목사님 방침인 교회가 많았어요.  그러다 보니 남녀가 그룹으로는 어울리는데 1대1로 만날 기회가 없어, 나이 서른이 다 돼도 오히려 미숙하죠. 실제로 회원들에게 설문을 해 보니 '듀오' 등 다른 소개 업체와 비교해 봤을 때 같은 결혼 적령기 남성인데도 평균 연애 경험이 훨씬 적더라고요. 30대 초반 남성은 보통 3.5회가 평균인데, 크리스천 데이트 회원들 평균은 1.8회였어요."  기사 첫머리에 소개한 통설도 있고 보면, 그럴 법하다는 생각도 들었다. 송 조합원은 또 "기독교인들은 연애를 하면 결혼까지 직결지어서 생각하는 경우가 많아, 이성을 만나면 결혼해야 한다는 강박 때문에 연애를 하기 어려운 부분도 있다"고 지적하기도 했다. 같은 기독교인들끼리 만날 기회도 의외로 적다는 게 그의 설명이다.   "한국 기독교에는 개별 교회 중심 문화가 강해서, 만약 같은 교회 안에서 짝을 찾지 못하면 다른 교회 다니는 사람을 만날 기회도 사실은 없어요. 그래서 '다른 교회 사람'을 찾아 주는, 믿을 수 있는 통로를 만들면 좋겠다고 생각하게 됐죠."  단 그는 "처음부터 종교성을 띠고 기독교인들만을 위한 프로그램을 하자는 것은 아니었는데, 대학원(카이스트) 창업 프로그램 지원을 받아 모인 팀이 우연히 전원 기독교인이었다"며 "(팀원들이) 더 잘 이해할 수 있는 특정 대상에 집중하기로 결정했다"는 설명도 곁들였다.  "소개팅 100번 하고 170번 해준 경험…이제 나누고파"  그는 지난 3월에는 &lt;연애나이를 알면 결혼이 보인다&gt;(S 펴냄)라는 책도 냈다. 크리스천 데이트 회원들과 상담을 하면서 발굴한 사례 위주로 엮은 책이었다. 이른바 '모태솔로'부터, '썸'은 잘 타지만 연애는 길게 못 하는 사람 등 다양한 경우를 담았다고 그는 소개했다. 연애와 결혼은 왜 그의 화두가 됐을까?  "'3포 세대'라는 말도 있지만, 2030 청년 시기의 중요한 미션(과업) 중 하나가 평생을 함께할 짝을 찾는 연애잖아요. 더 좋은 연애를 하게 돕는 프로그램을 만들어 보자는 취지로 크리스천 데이트도 만든 겁니다. 저도 '연애 유년기'에만 7년이나 머물렀던 경험도 있어서, 제 경험도 녹아들어 있어요. 제가 스스로 20대 때 아무 어려움 없이 연애를 해 왔다면 할 수 없는 얘기겠지만, 연애 때문에 엄청나게 힘들었던 경험을 했습니다. 20대 때 소개팅을 100번 정도 한 것 같아요. (책 발간은) 이제는 결혼한 입장에서 어려움을 겪는 사람들에게 제 경험을 나눠주고 상담해 주고 싶었어요"  100번. 참고로 그가 이 일을 시작하기 전, 친구들에게 개인적으로 주선해 준 소개팅도 180회 전후가 된다고 한다. 그는 "물론 그 때는 그걸 업(業)으로 할 생각은 없었는데 그런 경험이 쌓인 것도 도움이 됐다"고 웃으며 말했다. 책을 내기 전후로 강연도 하고 다니게 된 그에게, 혼자인 '프레시안' 조합원들을 위해 '기독교인이 아닌 사람들에게도 연애 관련 조언 좀 해 달라'고 부탁을 했다.   "무엇보다 연애에 대한 두려움을 버렸으면 좋겠어요. 다들 완벽한 연애를 하려 하는데, 연애는 어려운 게 당연한 거고, 아무리 잘 하고 있어도 만나는 사람과 결혼할 확률보다 헤어질 확률이 높은 것도 당연해요. 오히려 '앞으로 어떻게 될지 모른다'는 두려움과 아쉬움이 쌓여 건강한 연애로 가지 않을까 하고, 집착은 내려놔야 한다고 말해주고 싶어요. 연애를 완벽하게 해서 결혼으로 꼭 가야 한다고 생각하기보다, '공부'한다는 관점, 배움과 성장의 관점으로 연애를 대한다면 좋은 연애를 할 수 있지 않을까요?"    ▲ 송유창 IT회사 '큐티네트웍스' 대표 겸 비영리법인 '크리스천데이트' 대표. '크리스천 데이트'는 큐티네트웍스가 내놓은 스마트폰 애플리케이션이기도 하다.   "'아, 이 기사 잘 썼다'하고 보니 &lt;프레시안&gt; 기사더라"  조합원 가입 이유를 물었다. 그는 "솔직히 &lt;프레시안&gt;을 챙겨 보는 것은 아니"라면서 "&lt;프레시안&gt;이라는 '브랜드'를 처음 알게 된 것이 아니고, 소위 보수나 진보로 대변되는 관점들 속에서 '아, 이 기사는 객관적으로 잘 썼다'고 생각한 기사가 있어서 보다 보면 &lt;프레시안&gt; 기사였다"고 좋았던 '첫인상'에 대해 말했다.   그는 "SNS 같은 것을 보면, 어떤 사회적 이슈에 대해 언론사들이 각자의 관점을 얘기하는데 진보는 너무 진보적이고 보수는 너무 보수적인 (고정된) 관점을 취한다"며 "&lt;프레시안&gt;도 진보를 표방하지만 더 객관적으로 보도하려고 노력하고 있다는 점이 느껴진다"고 평가했다.   조합원으로서 언론협동조합 프레시안에 바라는 점을 묻자 그는 "사회의 많은 사람들 목소리를 대변하는 것이 되지 못하고 있는 시대인데, 사람들의 목소리를 객관적으로 대변하는 언론이 돼 달라"며 "지금까지 잘해온 것처럼 해 달라"고 응원했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2015년은 6.15공동선언 발표 15주년이 되는 해입니다. 2000년의 한반도는 남과 북 사이에 화해와 교류협력, 평화의 기운이 넘쳐났으며 통일논의가 활발했습니다. 그러나 이명박·박근혜 정권 이후 남북 당국과 민간 교류는 대부분 단절됐고 남북관계 개선의 기미는 보이지 않고 있습니다.   분단 70년, 광복 70년, 6.15공동선언 발표 15주년을 맞이하는 올해 다시금 남북관계 발전과 평화, 나아가 통일을 모색하기 위해 '평화통일시민행동'에서 '평화통일시민강좌'를 마련했습니다. 언론 협동조합 &lt;프레시안&gt;은 모두 6회에 걸쳐 진행되는 이번 강연의 주요 내용을 소개합니다.   마지막 순서로 지난 11일 경기도 파주에 위치한 임진각 내 경기평화센터에서 '개성공단의 미래'를 주제로 김진향 전 개성공단관리위원회 기업지원부장 (현 카이스트 미래전략대학원 연구교수)의 강연이 열렸습니다.   김 교수는 개성공단이 북한에 돈을 '퍼주는'사업이 결코 아니라고 목소리를 높였습니다. 그는 "1년에 북측에 들어가는 금액이 임금과 세금을 합쳐 900억 원 정도입니다. 우리 기업들은 공단에서 이 정도의 비용을 지불하고 최소 15배, 30배 남는 장사를 합니다. 이것이 정말 퍼주기입니까"라고 반문했습니다.   그는 개성공단이 작은 평화와 통일을 만들어가는 공간이라고 강조했습니다. 김 교수는 "(남북이) 추구하는 가치, 진선미의 기준, 말투, 사고방식을 배워갑니다. 상대방을 알면 이해하게 됩니다. 그리고 알아가는 과정이 상호존중의 과정입니다. 개성에서 작은 통일이 이루어지고 축적돼 갑니다"라면서 "이런 과정이 통일과 평화를 이루어 가는 것이라고 생각합니다"라고 밝혔습니다. 다음은 이날 강연의 주요 내용입니다.&lt;평화통일시민강좌&gt; ① 남북 정상회담, 6.15와 8.15에 달렸다 (정창현 국민대학교 겸임교수)② 미일 vs. 중러, 고래 틈에 낀 한국 생존법은? (남문희 &lt;시사인&gt; 한반도 전문기자)③ "이승만 살인미수는 안 죽여도, '통일'만 말하면…" (한홍구 성공회대학교 교수)④ "러닝머신 같은 남북관계, 안 뛰면 넘어져" (김연철 인제대학교 교수)⑤ "박근혜 대북정책, 쓰나미 오는데 조개 줍는 격" (정세현 전 통일부 장관)  개성공단을 보면 통일이 보인다  통일은 화해협력, 남북연합, 완전통일의 3단계가 있습니다. 남북이 서로를 존중하며 이루어 나가는 통일은 돈도 별로 들지 않습니다. 하지만 흡수통일은 다릅니다. 그런데 문제는 흡수통일로 인해 '통일비용'이 들 것이라는 전망은 기만이고 허구입니다. 실제 흡수통일은 일어나지 않을뿐만 아니라 가능하지도, 가능해서도 안되는 것이기 때문입니다.   흡수통일의 가정이 성립되려면 북한이 무너질 수 있어야 합니다. 일단 무너진다고 칩시다. 북측이 붕괴한다고 하면 북측 주민 2480만 명 중 10%만 남한에 내려와도 248만 명입니다. 이 사람들을 우리가 받아야 하는데, 대한민국 경제가 248만 명을 책임질 수 있습니까?  다시 전제를 생각해 봅시다. 북한 정권이 무너질 것이라고 믿는 것은 '이데올로기', 즉 이념입니다. 왜 6.15 남북공동선언과 10.4 남북정상선언이 이행되던 시절에는 북한 붕괴에 대해 언급이 없다가 이명박 정부 들어서 다시 북한 붕괴론이 나오겠습니까? 그 사이에 무슨 큰일이 일어난 것인가요? 우리의 정권교체에 따라서 북한 정권은 붕괴할 수도 있고 아닐 수도 있나요?    ▲ 김진향 전 개성공단관리위원회 기업지원부장 (현 카이스트 미래전략대학원 연구교수) ⓒ평화통일시민행동    평화의 오랜 제도와 과정이 결국 통일입니다. 평화는 너무나 간단합니다. 상호존중하면 됩니다. 남과 북의 역사적인 4대 합의가 있습니다. 1972년 7.4 남북공동성명, 1991년 남북기본합의서, 2000년 6.15 공동선언과 2007년 10.4 선언입니다. 이 합의들을 관통하는 하나의 정신은 '상호존중'입니다. "서로가 서로의 체제를 강요하지 않는다, 너희는 그렇게 살아라, 우리는 이렇게 살겠다, 다만 욕하지 말자, 싸우지 말자, 적대하지 말자" 입니다. 어렵습니까? 우리 사회 속에서 불교와 기독교와 가톨릭 모든 종교들이 공존할 수 있는 것처럼 남과 북이 공존할 수 있습니다.  적대가 적대를 낳고 대립이 대립을 낳습니다. 호혜와 평화가 호혜와 평화를 낳습니다. 상호존중의 과정이 없는 통일 대박은 재앙입니다. 6.15공동선언 2항은 '남과 북은 나라의 통일을 위한 남측의 연합제안과 북측의 낮은 단계의 연방제안이 서로 공통성이 있다고 인정하고 앞으로 이 방향에서 통일을 지향'하기로 한 남북의 합의 사안을 담았습니다. 북한은 남과 북의 낮은 단계의 연방을 최종적으로 하고 완전통일은 후대에 맡기자고 했습니다. 국가 지침으로 삼았습니다. 학자의 입장에서, 많은 협상을 했던 실무자의 입장에서 생각을 해보면 맞습니다.   북한이 적화야욕으로 호시탐탐 남측을 노리고 군사적 충돌을 계속 일으킨다구요? 그들과 매일 같이 협상하고 토론하는 학자의 입장에서 그것이 아니었다는 것을 체험적으로 확인하게 되었습니다. 미안한 감정이 들었습니다. '내가 이들을 적대했구나, 분단체제 70년간 우리는 아무것도 모르고 맹목적으로 비난하고 맹목적으로 적대 했구나'라는 마음이 들었습니다.   MB "개성공단에서 새로운 것은 아무것도 하지 마라"  개성공단에 들어간 기업들은 돈을 참 많이 법니다. 현재 개성공단 부지가 100만 평입니다. 2000년에 합의하고 2003년에 첫 삽을 떴습니다. 합의대로라면 2012년 기점으로 2000만 평 부지에 2000개 기업이 있는 50만 명의 대도시, 연 500억 달러의 생산량이 예상됐습니다. 또 해주, 남포를 비롯해 6~7개 도시에 개성공단 같은 시스템이 돌아가고 있어야 했습니다. 만약 이것이 현실화됐다면 남북 간 실질적인 경제공동체가 만들어지고 경제 분야에서의 상호 공존성이 엄청나게 높았을 것입니다.   그런데 현재 2000만 평 중에 100만 평 정도만 개발돼있고 이마저도 공장이 들어선 지역은 38.7%에 불과합니다. 나머지 대지는 방치되고 있습니다.   언제부터일까요? 이명박 정부가 들어선 2008년 2월부터 입니다. 5.24조치 때문에 중단된 것이 아니라 정부 정책적으로 이미 2008년 2월부터 추가 신규투자를 다 막았습니다. 제가 당시에 개성공단관리위원회 기업지원부장으로 있었는데요, 대북협상 과정에서 지침이 내려옵니다. 기업들은 눈앞에 돈이 보이니 공장을 더 짓게 해달라고 요구하는데 허가를 안해줍니다.   이명박 정부 시절 용역을 줬습니다. 개성공단이 문 닫았을 경우 발생할 수 있는 정치, 사회, 경제적 측면의 파장에 대해서 연구를 했습니다. 결론은 '감당할 수 없다'였습니다. 그래서 어떠한 새로운 시도도 하지 않고 기존에 하던 것만 유지하는 상황이 됐습니다. 지금의 개성공단 상황은 매우 비정상적으로 돌아가고 있습니다.   현재 개성공단은 124개 기업이 들어가 있고 800명의 남측 노동자와 5만 3000명의 북측 노동자가 함께 일하고 있습니다. 1년에 북측에 들어가는 전체 금액이 임금과 세금을 합쳐 900억 원 정도입니다. 1억 달러가 안 됩니다. 개성공단 가지고 퍼주기, '달러박스' 라고 이야기 하는데 우리는 최소한 15배, 30배 남는 장사를 합니다. 이런 것은 왜 보도 안 합니까? 정말 퍼주기이고 달러박스입니까? 국민들은 제대로 알아야 합니다.   남북관계는 평화, 안보, 생존의 영역이기 때문에 제대로 이야기해야 합니다. 북한은 찌질하지 않다, 만만치 않다고 이야기해야 국민들이 제대로 판달 할 거 아닙니까. 그 제대로 된 판단을 다 가려버리면 누가 감당할 겁니까? 특히나 군사적 문제는 중요합니다. 감당이 안 됩니다. 총체적 무지입니다. 북한에 대해 잘 모르는 '북맹'이 너무 많습니다. 정부 당국자들조차 잘 모릅니다. 그들은 북한이 예측할 수 없다고 합니다. 모르기 때문에 예측할 수 없는 것입니다. 알면 보입니다.   매일 매일 작은 통일이 이루어지는 개성공단  개성공단의 남측 주재원이 많을 때는 2500명이었지만, 지금은 800명 정도입니다. 어떻게 그들이 매일 매일 상호 오해와 갈등을 넘어 하나가 되어 가는지 설명하겠습니다.   현재 북측 근로자들은 연장, 야근, 특근 전부 해서 월평균 15만 원을 받습니다. 최초 2003년에는 50불, 우리 돈으로 5만 원에서 시작해서 연장, 야근, 특근 다하면 6만 원이었습니다. 5% 상한선이 있어서 10년 후에는 많이 쳐서 15만 원 받습니다.    개성공단 내 북측 노동자들 ⓒ개성 공동취재단    그런데 북·중 국경 지역의 중국 공단에서 일하는 북측근로자는 300~400불, 우리 돈으로 약 35~45만 원 받습니다. 우리에게 중동 특수가 있는 것처럼 북한도 중국에 인력을 많이 내보냅니다. 많이 받는 사람은 1000달러, 약 115만 원 까지도 받습니다.   그럼 이때 떠오르는 의문, 북한은 왜 남한과 함께 개성공단을 만들었을까요? 우리는 경제주의적인 관점에서 돈을 벌려고 개성공단을 합니다. 평화에 복무하고 호혜적인 경제프로젝트, 평화프로젝트라는 것은 부차적인 이유입니다. 하지만 북측은 첫 번째도 두 번째도 세 번째도 평화라고 이야기합니다. 개성공단 땅의 일개 보병사단, 포병사단을 송악선 북쪽으로 올리면서까지 개성공단을 했기 때문입니다. 입장을 바꿔서 생각해 봅시다. 우리가 고양에 있는 1사단을 삼각산 쪽으로 보내고 남북공단을 만들 수 있습니까? 말이 안됩니다.   초기 임금 산정 과정 당시 저는 청와대에서 그 협상을 진두지휘했습니다. 북측은 300달러, 우리는 200달러를 제시했습니다. 그런데 김정일 국방위원장으로부터 50달러에서 시작하자는 통지가 왔습니다. 그들이 정말 돈이 필요했으면 이랬을까요? 이 모든 사실들은 그들에게는 돈이 중요한 것이 아니라 평화가 중요함을 이야기 합니다.   북측 근로자에게 왜 일하느냐고 물어봅니다. 우리의 기준에서 보면 직장에서 일을 한다는 것은 임금을 받고 가족의 생계를 책임지는 것입니다. 북측은 임금의 개념이 없고 생활비라는 개념이 있습니다. 북측에서는 노동을 우리의 기준인 임금으로 보지 않습니다. 사회주의 경제 질서에서는 노동의 개념을 돈으로 환산하지 않습니다. 다를 뿐입니다. 기업에서 일해서 생활비를 받아가는 것이 아닙니다. 국가가 주는 것입니다. 왜? 국가가 자기를 파견시켰기 때문입니다. 고용과 피고용의 개념이 없습니다. 사장이 나를 고용한 것이 아니라 나는 국가적 조치에 의해서 당이 나에게 준 '분공'이라 생각합니다. 우리에게는 생소한 개념입니다.   개성공단에 들어갔을 때 처음 겪는 갈등이 이런 것입니다. 남측의 사장이 일을 시키면 북측의 근로자들은 고용과 피고용의 개념이 없기 때문에 황당하게 쳐다봅니다. 우리에겐 사장님의 말이 맞죠. 전 세계 상식입니다. 내가 고용을 했고 내가 임금을 주지 않습니까. 하지만 그 사람들은 국가적 조치에 의해서 온 것일 뿐입니다. 우리와 다릅니다.   이런 과정을 통해 서로 배우게 됩니다. 이 배움이 모든 오해를 풀게 합니다. 그것이 통일의 과정입니다. 사소하게 고용과 피고용의 개념을 이야기했지만 서로가 추구하는 가치, 진선미의 기준, 말투, 사고방식을 배워갑니다. 상대방을 알면 이해하게 됩니다. 그리고 알아가는 과정이 상호존중의 과정입니다. 개성에서 작은 통일이 이루어지고 축적돼 갑니다. 개성에서 우리 기업들이 정착되어 가는 과정을 보면 이것이야말로 서로 알아가면서 통일과 평화를 이루어 가는 것이라는 생각이 듭니다.   ▲ 개성공단 전경 ⓒ개성 공동취재단    그런데 개성공단에 투자하는 사장님들이 왜 2013년에 6개월 동안 잠정중단 됐음에도 불구하고 단 한 개 기업도 빠져나가지 않았을까요? 왜 전국을 돌면서, 도보 행진 하면서 개성공단 정상화를 이야기했을까요? 투자하는 사장님들이 저한테 이렇게 이야기합니다.   "김박사, 개성에서 돈 못 벌면 기업도 아니야"  공단 가동이 중단됐던 6개월 동안 사장님들은 동남아 지역을 돌면서 혹시 개성공단을 대신할 곳이 있을지 찾아봤습니다. 다 돌아보고 나서 한결같이 이야기합니다. 전 세계 어디에도 개성공단 만한 경쟁력을 가진 곳이 없다고. 개성공단이 안되면 이미 그들은 그 어디에서도 사업을 할 수 없다는 것을 압니다. 그것이 남과 북의 경협입니다. 상호존중만 하면 대박입니다. 상상할 수 없는 대박입니다.   그런데 지금의 남북관계를 보면 참 마음이 아픕니다. 기존에 계획했던 경협마저 제대로 하지 못하는 현 상황은 민족사의 관점에서 봤을 때 후대들에게, 미래 세대들에게 죄짓는 것입니다. 지난해 러시아가 10년간 250억 달러를 투자해서 북측 철도 3700km를 현대화하는 양해각서(MOU)를 체결했습니다. 그 사업은 2007년 10.4선언 당시 부속합의에서 우리가 하기로 되어 있던 사업이었습니다. 러시아는 지하자원을 가져오고 그 후속으로 러시아가 발전소를 짓기로 했습니다. 이 모든 것이 원래 우리가 하려고 했던 것들입니다.  남북이 함께할 수 있는 철도, 도로, 항만 등 엄청난 사회간접자본(SOC)사업들이 있습니다. 중동 특수의 수백 배, 수천 배가 북측에 있습니다. 왜 대한민국 기업들이 5.24조치 해제하고 북한에 올려달라고 하겠습니까. 남과 북이 완벽하게 윈-윈할 수 있기 때문입니다. 우리는 제2의 한강의 기적을 만들고 북측은 대동강의 기적을 만들 수 있기 때문입니다.   개성공단의 부침과 정상화  2008년 2월 국방부 장관은 '북한은 주적이다'라고 선언했습니다. 10.4선언의 잉크도 채 마르지 않았을 때입니다. 김하중 통일부 장관이 2008년 3월 "북핵 문제 해결 없이 개성공단의 확대는 불가하다, 개성공단의 중단까지 염두에 두고 있다"라고 밝혔습니다.   그때부터 저는 죽어났습니다. 개성공단에서 대북협상을 하고 있었는데요. 북측 파트너가 매일 통지문 가지고 저한테 흔들어댑니다. 어떻게 할 거냐고. 10.4선언, 부속합의들, 기숙사 건설, 탁아소 건설, 철도, 도로 연결 다 하기로 했는데 우리가 다 거부했기 때문입니다. 어떻게 할 거냐고 재촉하는 북측 관계자에게 저는 기다려 보라고만 이야기했습니다. 심지어는 차라리 저를 추방시켜 달라고 이야기도 했습니다.  "김진향 선생 어디 있어. 어떻게 할 거야" "제발 날 좀 두 달만 쉬게 보내줘. 내가 빚쟁이도 아니고. 나 이거 접수 못 해. 접수하지 말라 했어"  2009년과 2010년, 남북 당국 간 개성공단 실무회담을 6번 했습니다. 그런데 10시간 동안 있으면서 10분 남북 연락관 접촉하고 9시간 50분 동안 만나지도 않았습니다. 개성공단은 '미운오리새끼'이고 '꿔다놓은 보릿자루'였습니다. "내버려둬라, 새로운 것은 아무것도 하지 마라"가 지침이었습니다. 저는 그때 우리 스스로 할 수 있는 것이 없다고 생각했습니다. 그래서 2011년까지 그 상황을 보고 나오게 됐습니다.    ▲ 파주 도라산 전망대에서 개성공단에 대해 설명하고 있는 김진향 교수 ⓒ평화통일시민행동    개성공업지구는 조선민주주의인민공화국의 법에 따라 관리·운영되는 국제적인 공업지역입니다. 남북이 정상적인 관계였을 때에는 북측의 주권법에 따라 운영되는 주권 지역이었지만 남측과 충분히 협의했습니다. 하지만 남북관계가 적대적으로 되는 순간 그렇게 안 됩니다. 공단 안에서 적대 행위가 발생합니다.   심지어 스파이 행위가 발생한 적이 있습니다. 한 남측 직원이 북측 여직원을 데리고 나오려고 작업했다가 적발된 겁니다. 북측은 당시 이 직원을 116일 동안 억류했다가 풀어줬습니다. 이후 국정원이 기무사와 조사를 진행 했는데 실제로 그 직원은 북측 여직원을 빼 오려고 시도했다고 합니다. 이런 일이 발생하다 보니 북측은 남측 인원 2500명 중에 최소 생산 인원만 남겨두고 공단에서 나가라고 했습니다. 그래서 남측 체류 인원이 800명으로 줄어들었습니다.   왜 남북의 공단이 적대와 대립의 상징이 됐을까요? 처음에 공단을 만들 때와는 상황이 많이 바뀌었습니다. 북측은 변화된 조건에 맞게 개성공단의 법과 제도를 바꾸겠다고 계속 요구했습니다. 하지만 남측은 계속 이를 무시했습니다. 북측은 계속 던집니다. 남측은 계속 회피하고 북측은 일방적으로 발표합니다. 남측은 일방적으로 발표했으니 인정할 수 없다고 합니다. 이것이 변해버린 개성공단이었습니다.   언론이 보도합니까? 안 합니다. 아무도 몰라요. 공단은 그렇게 비정상화 되었습니다. 지난 12월 임금 관련해서 북측은 북측 최고인민회의 상임위 정령으로 법을 바꿨습니다. 남북이 같이 운영하던 개성공단이 법적, 제도적으로 북측의 공단이 돼버렸습니다. 북측이 남측의 기업들과 사업을 하는 모양이 돼버린 겁니다.   미래가 불안정하면 공단의 생산도 불안정해집니다. 남북 당국 간 관계에서 불신과 대립이 심해지면 안에서 일하는 남북근로자들 관계 역시 참 서먹해집니다. 말을 안하려고 합니다. 서로 눈치 봅니다. 예전에는 같은 사무실에서 같이 떠들고 이야기하고 술도 마셨는데 그 모든 것이 2008년 2월 이후로 끊겼습니다. 우리도 그들도 그저 물건을 찍어내고만 있습니다. 이것은 정상이 아닙니다. 공단의 진정한 '정상화'가 시급히 필요합니다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      제주국제자유도시개발센터(이사장 문대림, JDC)의 ‘2020 JDC AI×글로벌 아카데미’ 첫 강좌가 개최된다. 오는 27일 오후 2시부터 KCTV 제주방송 차세대 디스플레이 스튜디오에서 열리는 첫 강좌에는 AI 전문가인 이경상 카이스트 교수가 ‘빅데이터‧클라우드 시장 전망과 기회’라는 주제로 강연 한다.    ▲제주국제자유도시개발센터는 27일 ‘2020 JDC AI×글로벌 아카데미’ 첫 강좌를 개최한다.ⓒ제주국제자유도시개발센터   이번 강연에 초청된 이경상 교수는 IBM LASC AI 연구원, 세상을 바꾸는 테크놀로지 포럼 설립, 한국생산성본부 모바일 생산성 추진단장으로 활동해 왔다. JDC는 올해부터 'JDC AI×글로벌 아카데미'로 명칭을 바꾸고 테마를 4차 산업혁명으로 변화하는 세계적인 추세에 따라 AI 집중 강좌를 신설할 예정이다. 27일 첫 강좌를 시작으로 오는 12월까지 AI 주제 8강좌 및 인문‧교양 5강좌를 제주시에서 진행하고 부동산 가치 분석 등 8강좌를 서귀포시에서 진행해 총 21강좌가 개최될 예정이다. 관심 있는 도민이면 누구나 참가 가능하며 아카데미 참가 신청 등 관련 문의는 KCTV 제주방송으로 연락하면 된다. 김경훈 JDC 사회가치추진실장은 “제주도민이 4차 산업혁명으로 급변하는 미래사회에 대비하고 준비할 수 있도록 제주대표 강좌로 발전시켜 나가는데 최선을 다할 것” 이라고 밝혔다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      GIST(지스트, 총장 문승현) 졸업생이 제1저자로 참여한 연구결과가 과학 분야 세계 최고 권위지인 Nature에 게재되었다.   GIST 신소재공학부 생체전자재료 연구실(Bio-Electronics Materials Laboratory, 지도교수 윤명한)에서 2016년에 박사학위를 받은 박성준 박사* 공동 연구팀은 초박형 유기 태양 전지를 유기 전기 화학 트랜지스터와 한 평면에 결합하고, 피부에 붙여 넣기 형식의 초박형 센서를 개발하여 ‘피부 부착형 심전도 측정 장치’를 제작하는데 성공했다.   피부에 붙일 수 있는 센서가 배터리 교환 등의 전원 문제에서 해방되어 장시간 안정적으로 생체 정보를 모니터링하고 유지할 수 있다면 건강관리를 지속적으로 실시 할 수 있는 무선 인터넷(IoT) 사회의 실질적 실현이 가능할 것으로 기대된다.     ▲ 광주과기원 신소재공학부 졸업생 박성준 박사 ⓒGIST    신축성 있는 얇은 유기 태양 전지는 저전압으로 구동 가능한 마이크로 센서와 연결하여 장시간 안정적으로 구동 가능하다.   최근 피부와 옷감에 밀착시켜 열적 안정성 및 물리적 변화에 강한 내구성을 갖는 유기태양 전지가 보고되면서 차세대 센서용 전원으로 주목을 받고 있다.  박성준 박사는 이화학연구소 및 동경대학교 연구팀과 공동연구를 통해 나노 스케일의 규칙적인 선상의 요철 패턴인 ‘나노 요철 구조’ 를 초박형 유기 기판 위에 형성하는데 성공하였다.   주기적인 나노 격자 구조가 빛의 굴절률을 조정하여 태양 전지 표면에서의 빛의 반사를 감소시키고 동시에 박막 내부에서의 광산란 증강과 금속 전극의 표면 플라즈몬 공명 효과를 일으킴으로써 효율적으로 입사광을 에너지 생성에 이용할 수 있게 되었다.   그 결과, 제작한 태양 전지의 에너지 변환 효율(태양 에너지를 전기로 변환하는 효율)은 현재까지 보고된 플렉서블 유기 태양 전지의 세계 최고 효율 10.5%를 달성함과 동시에 광 입사각 의존성도 크게 감소됐다.  박성준 박사는 “본 연구를 통해 전력 소비 및 인체에 미치는 영향을 걱정하지 않고 지속적으로 생체 정보를 취득하기 위한 요소 기술을 실현했다며, 취득한 생체 정보를 처리하는 회로 및 무선 전송 시스템과 통합함으로써 추후 차세대 자립 기반 센서 시스템의 기반 기술을 제공할 수 있을 것으로 기대한다”고 말했다.   이번 연구는 GIST 신소재공학부 생체전자재료 연구실(Bio-Electronics Materials Laboratory, 지도교수 윤명한)에서 박사학위를 받은 박성준 박사(現 삼성종합기술원, Staff Researcher), 허수원 박사(現 Postdoctoral Researcher, 이화학연구소), 이원령 박사(現 Postdoctoral Researcher, KAIST)가 제1공동저자로 연구를 주도하고 켄지로 후쿠다(Research Scientist, 이화학연구소), 케이슈케 타지마(Team leader, 이화학연구소) 타카오 소메야 교수(동경대)가 공동 교신저자 참여하였으며, 세계적 귄위의 과학저널인 네이처(Nature, 논문명: Self-powered ultra-flexible electronics via nano-grating-patterned organic photovoltaics)지에 2018년 9월 27일자 게재되었다.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "나는 20대 때 2년 동안 주 100시간씩 일했다. 누가 시켜서 한 게 아니다. 내 인생을 위해서 한 거다. 스타트업에는 그런 사람들이 꽤 있다. 이런 스타트업에 주 52시간을 적용하는 것은 그야말로 국가가 나서서 개인의 권리를 뺏는 거다."(11월 1일 자 &lt;중앙일보&gt; "내일 당장 망할지 모르는데 벤처가 어떻게 52시간 지키나" 중) 문재인 대통령 직속 4차산업혁명위원회 위원장 장병규가 언론과의 인터뷰에서 한 말이다. 주 100시간 휴일 없이 일한다고 치면 하루 14시간이 넘는다. 2년 내내 하루도 빠지지 않고 주 100시간, 일 14시간 일했다는 주장이다. 이게 사실이면 대단한 사람이 아닐 수 없는데, 지금은 남들 밑에서 하루 몇 시간 일하는지 궁금하다.   1조 원대 자산가 장병규  장병규가 누구인지 인터넷을 찾아보니, 1973년 대구 태생으로 KAIST 전산학과를 나와 게임개발사와 벤처투자사를 거쳐 스타트업을 한 "성공한 1세대 벤처기업인"으로 "소탈하고 수평적 리더십의 소유자"라는 설명이 나온다.   &lt;조선일보&gt;에는 장병규가 "포브스 선정 2019 한국 부자 순위 47위"라는 기사가 나온다. "자산 8억9000만 달러(1조 513억 원)"란 설명도 달렸다.   장병규는 "4차산업혁명 시대의 인재는 왜 다른가"라는 &lt;중앙일보&gt;의 질문에 "생산 수단을 본인이 갖고 있다는 게 큰 차이다. 자동차 공장 근로자는 컨베이어 벨트를 소유하고 있지 않다. 하지만 4차혁명에서는 생산 수단이 중요한 게 아니라 머리에 들어 있는 지식과 역량, 경험, 스킬이 중요하다"고 물정 모르는 소리를 늘어놓는다.   1조 원 넘는 자산과 "생산 수단"을 가진 장병규는 잘 모르겠지만, 자동차 공장 근로자나 장병규 회사의 프로그램 개발 직원이나 "생산 수단"을 소유하지 못한 일개 노동자에 불과하다.   자본가와 노동자의 가장 큰 차이점은 "(자기) 머리에 들어있는 지식과 역량, 경험, 스킬"을 사용한 결과물의 전유 여부다. 자본가는 그 결과물을 자신이 가져갈 수 있지만, 노동자는 그 결과물을 가져갈 수 없다.   장병규 회사의 직원이 아무리 뛰어난 지식과 역량, 경험, 스킬을 가지고 있더라도 그 결과물의 분배는 회사가 결정하며, 결과적으로 가장 큰 이익을 얻는 이는 소유주 장병규가 될 것은 명약관화하다. 이런 과정이 없었다면 장병규가 한국 부자 순위 47위에 오르는 기적은 일어날 수 없었을 것이다.     ▲ 장병규 대통령 직속 4차산업혁명위원장. ⓒ연합뉴스    병역특례자의 '야전침대' 타령  노동자들을 쥐어짜는 장시간 착취 체제에 기대어 부를 축적한 때문일까. 장병규는 &lt;중앙일보&gt;에 본심을 틀어놓는다. "우리를 외국과 자꾸 비교하는 것도 적절하지 않다. 한국은 자원도 없고 대외 개방성이 굉장히 높다"면서 "총 52시간을 맞추는 법안 자체가 현실과 맞지 않는다"고 내심을 드러낸다.   "중국은 200~300명이 야전침대 놓고 주 2교대 24시간 개발해 모바일 게임을 만들어낸다. 한국에서 이렇게 하면 불법이다. 이러니 경쟁이 안 된다. 그만큼 한국은 일자리가 없어진 거다. 과연 누구를 위한 52시간제 정책인지 생각해 볼 필요가 있다."   19세 산업혁명 당시 잉글랜드나 20세기 초 일제시대의 방직 공장을 연상시키는 노동 착취 체제를 장병규는 "혁신 생태계"라 미화한다. 병역특례 덕분에 일반 병사들은 꿈도 꾸지 못하는 수준의 '금수저' 군 복무를 한 그가 "야전침대" 운운하는 것도 우습기 짝이 없다.   "인간의 얼굴을 한 기술과 투자"  유엔 산하기관인 국제노동기구(ILO)는 올해 발간한 '일의 미래 글로벌 위원회 보고서(Report of the Global Commission on the Future of Work)&gt;'에서 전례 없는 변혁의 시대를 맞아 "인간의 얼굴을 한 투자"를 강조한다.   보고서는 "노동자의 기본권, 적정한 생활 임금 보장, 일하는 시간의 제한, 안전하고 건강한 일터 환경, 전 생애에 걸친 사회보장, 숙련 향상을 위한 평생 교육, 좋은 일자리"를 증진할 수 있도록 "기술 변화를 관리할 것(managing technological change)"을 권고한다.   보고서는 인공지능, 자동화, 로봇의 확산이 (장병규 같은) 소수 엘리트의 수중으로 부가 집중되는 현상을 합리화하는 수단으로 전락해서는 안 된다고 지적하면서, 기술 혁신이 일하는 사람들의 삶의 질을 개선하고, 그들의 선택권을 넓히며, 남녀 격차를 줄이고, 글로벌 불평등이 초래한 문제들을 치유하는 데 기여해야 한다고 강조했다.   19세기에 이미 '10시간' 노동법 제정  1840년대 잉글랜드에서는 '10시간 운동(the 10-Hour Movement)'이 폭발했다. 일하는 시간을 하루 10시간으로 제한해야 한다는 운동으로 1850년대에는 미국으로 퍼졌다. 그 결과 19세기 중반 영국에서는 하루 10시간 법이 만들어지고 미국의 가장 산업화된 북동부 주에서는 11시간제가 도입되었다.   ILO는 정확히 100년 전인 1919년 11월 미국 워싱턴에서 창립 총회를 열고 최초의 국제 노동법인 제1호 협약을 채택했다. 협약은 하루 8시간 주 48시간을 못 박았다.   대한민국 정부는 한국전쟁이 한창이던 1952년 임시 수도 부산에서 근로기준법 제정을 위한 논의를 시작했다. 당시에도 장병규의 궤변처럼 일하고 싶어 하는 노동자들은 시간 제한 없이 일하도록 자유를 주어야 한다는 터무니 없는 주장을 늘어놓는 국회의원들이 있었다.   이런 후안무치한 주장에 대해 영등포갑 출신의 조광섭 의원(1901~1970)은 "노무자들은 시간의 제한을 요구하지 않는다는 것, 즉 얼마든지 24시간 한잠 자지 않더라도 그냥 계속 일할 것을 원하는 것같이 말씀하는 데 그것은 대단한 오해"라고 지적하면서 "일하는 분들한테 시간의 제한이 없다고 본다면 이것은 근로기준법을 만드는 자체에 생각할 여지가 있는 문제"라고 비판하였다.   주 40시간 협약까지 비준한 대한민국 정부  갑론을박을 거쳐 한국전쟁이 휴전으로 막을 내린 1953년 제정된 근로기준법은 하루 8시간 주 48시간을 선언했지만, 이 법 조항은 유명무실했다. 1970년 11월 스물두 살의 전태일은 근로기준법을 준수하라며 제 몸을 불살랐다.   1987년 노동자 대투쟁으로 법 개정이 이뤄져 노태우 정권에서 주 48시간은 주 44시간이 되고, 2004년 노무현 정권에서 주 40시간이 되었다. 2011년 이명박 정권은 주 40시간을 명시한 ILO협약 47호까지 비준했다.   하지만, 대한민국에서 노동자를 위한 '법의 지배(the rule of law)'는 존재한 적이 없다. 근로기준법을 깔아뭉갠 관료들의 행정해석으로 문재인 정권이 들어선 지 3년이 다 된 오늘까지도 노동자를 주 68시간 착취해도 합법인 상황이 이어지고 있다.   그 주된 이유는 대한민국을 지배하는 엘리트들이 헌법과 법령을 무시한 현행의 주 68시간 착취 체제를 주 52시간으로 개선하는 것을 반대하기 때문이다. 그들 중 상당수가 정부 정책에 입김을 불어넣을 수 있는 위치에 있다. 대통령 직속 4차산업혁명위원장을 맡고 있는 장병규 같은 이들이 대표적이다.   현행법에서도 주 100시간 착취는 합법이다   사실 주 52시간이 전면 시행되더라도 주 68시간 넘게 노동자를 착취할 수 있는 방법이 있다. 회사를 5인 미만 사업장으로 쪼개는 것이다. 대한민국 노동자의 30%가 넘는 570만 명이 5인 미만 사업장에서 일한다. 이런 데서는 장병규가 꿈꾸는 주 100시간 일을 시켜도 괜찮다. 근로기준법 적용을 면제받기 때문이다.   지금의 기술력과 자금으로 업종을 전환해 육상운송업, 수상운송업, 항공운송업, 기타 운송 관련 서비스업, 보건업에 투자하는 방법도 있다. 이들 업종은 회사 규모에 상관없이 '특례업종'으로 지정된 덕분에 노동시간 관련 법의 적용을 받지 않는다.   장병규의 1조 원은 깨끗할까  글을 마치며 의문이 하나 든다. 주 100시간 일한 것은 20대의 2년뿐이었다는 장병규의 1조 원 재산은 어떻게 만들어졌을까. 조국 일가 털 듯 턴다면 드러날 그의 합법적 재산은 얼마나 될까.   독자들에게도 질문을 하나 던진다. 국제노동기구(ILO)가 100년 전에 제정한 사상 첫 국제 노동법으로 하루 8시간 주 48시간을 명시한 1호 협약을 대한민국 정부는 과연 비준하고 있을까?   100년 전인 1919년은 민족 해방을 향한 3.1운동의 열기를 안고 대한민국 임시정부가 출범한 해다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲스몰지 논문 관련 그림 ⓒKAIST       달걀 속 살충제 성분인 피프로닐 술폰(Fipronil sulfone)을 시료 전처리 없이 검출할 수 있게 됐다.  KAIST 생명화학공학과 김신현 교수 연구팀과 재료연구소 김동호 박사 공동 연구팀이 생체 시료에 들어있는 미량의 분자를 직접 검출할 수 있는 센서를 개발해 다양한 종류의 살충제 성분을 검출하는데 성공했다.  특히 국내 및 유럽에서 문제가 됐던 달걀 속 살충제 성분인 피프로닐 술폰(Fipronil sulfone)을 시료 전처리 없이 검출할 수 있음을 증명했다.  연구팀의 센서는 전하를 띠는 하이드로젤 미세입자 내부에 금 나노입자 응집체를 캡슐화한 형태로 생체 시료 내에 존재하는 분자를 직접 분석해야 하는 광범위한 분야에 적용 가능할 것으로 기대된다.  분자가 레이저에 노출되면 ‘분자 지문’이라고 불리는 고유의 라만(Raman) 신호를 보인다. 하지만 일반적으로 라만 신호의 세기는 매우 낮아 실질적인 분자 감지에 사용이 어렵다.  연구팀은 금속 나노구조의 표면에서 발생하는 표면 플라즈몬 공명 현상이 강한 세기의 기장을 형성하는 점을 이용해 라만신호를 현저히 증가시켰다. 이를 표면증강라만산란 현상이라고 한다.  이 표면증강라만산란 현상에 의해 금속 나노구조 표면에 존재하는 분자의 라만신호는 크게 증가시킬 수 있지만 이를 일반적인 생체 시료에 직접 적용하는 것은 어렵다.  생체 시료에 존재하는 다양한 크기의 단백질들이 금속 표면에 비가역적으로 흡착해 실제 분석이 필요한 분자의 접근을 막기 때문이다.  일반적으로 사용되는 생체 시료 분석법은 대형 장비를 이용한 시료 전처리 과정이 필수지만 이로 인해 시료의 신속한 현장 분석이 어려워 시간과 비용을 증가시킨다.  연구팀은 시료의 정제 과정 없이 분자를 직접 검출하기 위해 하이드로젤에 주목했다.  하이드로젤은 친수성(親水性) 나노 그물 구조를 이루고 있어 단백질처럼 크기가 큰 분자는 배제하고 작은 크기의 분자만을 내부로 확산시킨다.  또한 하이드로젤이 전하를 띠는 경우 반대 전하를 띠고 있는 분자를 선택적으로 흡착시켜 농축할 수 있다.  연구팀은 이러한 원리를 센서 구현에 적용시키기 위해 미세유체기술을 이용했다.  이를 통해 금 나노입자 응집체를 형성하는 동시에 전하를 띠는 하이드로젤 미세입자 안에 캡슐화 하는데 성공했다.  하이드로젤 미세 입자는 생체 시료에 도입돼 단백질로부터 금 나노입자 응집체를 보호하고, 동시에 반대 전하를 띠는 표적 분자를 응집체 표면에 선택적으로 농축시킨다. 이를 통해 표적 분자의 라만 신호는 단백질의 방해 없이 증대되며 시료의 전처리 과정 없이 빠르고 정확한 분자 검출이 가능해진다.        ▲김신현 교수와 김동호 박사과정 ⓒKAIST    김신현 교수는 “새롭게 개발한 라만 센서는 식품 내 살충제 성분 검출 뿐 아니라 혈액과 소변, 땀 등 인체 속 시료에 들어있는 약물, 마약 성분 등 다양한 바이오마커의 직접 검출에도 사용 가능하다”고 말했다.  김동호 박사는 “시료 전처리가 필요없기 때문에 현장에서 시료의 직접 분석이 가능해 시간과 비용의 혁신적 절감이 가능해질 것이다”고 말했다.  이번 연구는 나노분야의 국제 학술지 ‘스몰(Small)’ 10월4일자에 SERS-Active Charged Microgels for Size- and Charge-Selective Molecular Analysis of Complex Biological Samples.(생체 시료의 분자 크기 및 전하 선택적 분석을 위한 표면증강라만산란용 마이크로젤)이라는 제목의 내부표지 논문으로 게재됐다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ‘새로운 변화와 기회, 신(新)나는 대한민국’을 주제로 열린 전경련 CEO하계포럼이 27일 강원도 평창 알펜시아 리조트에서 3박4일 일정으로 개막했다.  허창수 전경련 회장은 이날 개회사에서 “한국경제는 1970년대 중화학공업과 1990년대 IT·벤처 신화를 통해 눈부신 성장을 이뤄왔다”며 “하지만 최근 산업구조의 변화와 글로벌 경제의 불확실성으로 성장 잠재력이 하락했다”고 말했다.   ▲27일 허창수 전국경제인연합회 회장이 강원도 평창 알펜시아리조트에서 열린 ‘2016 전경련 CEO 하계포럼’에서 개회사를 하고 있다. ⓒ전경련     이어 “산업화에서 우리는 추격자였으나 정보화 혁명에서는 선도자가 된 경험이 있다”며 “4차 산업혁명에도 발 빠르게 대응한다면 재도약을 이룰 수 있을 것”이라고 강조했다.  또 “올해는 한국이 선진국 클럽이라는 OECD(경제협력개발기구)에 가입한지 20주년이 되는 해”라며 “이제는 우리 경제가 걸어온 길을 다시금 돌아보아야 할 때이고 아울러 다가올 미래에 대한 깊이 있는 고민도 필요한 시기”라고 지적했다. 그러면서 “2018년 동계올림픽이 개최되는 이곳 평창에서 불확실한 미래에 대한 준비와 현실성 있는 전략을 공유했으면 한다”고 말했다.  아울러 “이번 평창에서 개최되는 동계올림픽이 우리나라 발전의 새로운 도약의 기회가 되기를 염원한다”고 덧붙였다.  하계포럼 환영만찬에서는 최문순 강원도지사가 축사를, 강신호 동아쏘시오홀딩스 회장, 박희영 전경련 총동문회 회장이 건배사를 했다.  이번 포럼에는 유일호 경제부총리와 글로벌 기업 CEO 등이 연사로 참여해 4차 산업혁명에 대비하는 다양한 전략을 소개한다.  주요 연사는 일본 화낙의 이나바 요시하루 사장, GE코리아 강성욱 총괄대표, 한국화웨이 켈빈 딩 대표, 미국 UCLA 데니스 홍 교수, 카이스트 오준호 교수 등이다.    ▲27일 허창수 전국경제인연합회 회장이 강원도 평창 알펜시아리조트에서 열린 ‘2016 전경련 CEO 하계포럼’에서 개회사를 하고 있다. ⓒ전경련     현대기아차 연구개발본부장인 권문식 부회장과 셀트리온 서정진 회장, SK텔레콤 박명순 미래기술원장 등도 연사로 나선다.  유일호 부총리는 포럼 마지막 날인 30일 ‘대한민국, 위기인가 또 다른 도약의 기회인가’라는 주제로 강연한다.  전경련은 올해로 하계포럼 30회째를 맞아 그간 전경련과 하계포럼에 기여한 참석자 26명에게 30주년 감사패를 전달하는 시간도 가졌다.  전경련 CEO 하계포럼은 기업인간 최신 경영정보를 교환하는 전략 공유의 장이다. 이번 포럼에는 기업인 등 600여명이 참석했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲   KAIST 생명화학공학과 이상엽 특훈교수 ⓒKAIST    KAIST 생명화학공학과 이상엽 특훈교수가 세계경제포럼 글로벌미래위원회(Global Future Council) 중 생명공학(biotech) 위원회의 제2대 공동의장으로 재선임됐다.  이상엽 교수는 2016년부터 2년간 크리스퍼(CRISPR) 기술로 잘 알려진 MIT-하버드 브로드연구소의 펭 장(Feng Zhang) 교수와 함께 생명공학위원회 초대 공동의장을 역임했다.  올해 재구성된 글로벌미래위원회는 총 38개로 구성되고 그중 28개의 글로벌 및 지역 의제 위원회들과 10개의 4차산업혁명 위원회가 있다.  4차산업혁명 위원회 중 하나인 생명공학위원회 의장을 다시 맡게 된 이 교수는 미국 올라리스 테라퓨틱스(Olaris Therapeutics)사의 CEO인 엘리자베스 오데이(Elizabeth O’Day)를 포함한 14명의 위원과 함께 생명공학분야 주요 의제를 다룰 예정이다.  이상엽 교수는 “4차 산업혁명 시대의 핵심 떠오르는 기술들이 융합돼 급격히 발전하고 있는 헬스케어 분야에서 세계가 함께 고민하고 추진할 다양한 정책들을 도출하도록 노력하겠다”고 말했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      문재인 대통령이 신임 과학기술보좌관으로 박수경 한국과학기술원(KAIST) 교수를 임명했다. 차관급 청와대 인사 가운데 최연소다. 문 대통령은 4일 박 신임 보좌관을 임명했다고 강민석 청와대 대변인이 춘추관 브리핑을 통해 밝혔다. 박 보좌관은 한국기계연구원 선임연구원과 국가과학기술자문회의 위원을 거쳐 한국과학기술원 기계공학과 교수로 재직 중이다. 1973년생으로, 현재 청와대 수석‧보좌관회의 참석자 가운데 가장 젊다. 강 대변인은 "여성 최초 한국과학기술원 기계공학과 교수인 박 보좌관은 생체시스템의 역학적 특성을 연구하는 생체역학 분야에서 왕성한 연구 활동을 이어왔을 뿐만 아니라 국가과학기술자문회의 위원을 역임하는 등 정책 참여 경험도 겸비한 것으로 평가를 받고 있다"며 임명 배경을 밝혔다. 이어 "현장과 긴밀히 호흡하면서 과학기술·ICT 혁신을 가속화하는 데 기여할 것으로 기대한다"고 밝혔다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      마산대학교는 29일 미래관 1층에서 이군현 전 KAIST 교수 초청 특강을 가졌다.  이번 특강은 2019학년도 혁신지원사업 역량기반 교육과정의 일환으로 열렸다.    ⓒ마산대학교    이날 이군현 강사는 ‘제4차 산업혁명시대(미래교육의 방향)’ 이란 주제의 특강을 펼쳤다.  이 강사는 “제4차 산업혁명시대는 IT 와 전자기술 등 디지털 혁명에 기반하여 물리적 · 디지털 공간과 생물공학 공간의 경계가 희석되는 기술융합의 시대를 의미한다"라고 전제했다.  그러면서 "이 시대의 교육 방향은 창의성, 유연성, 소통능력, 협업능력, 도전정신, 인성을 키우는 쪽으로 나아갈 것”이라고 내다봤다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      바야흐로 '입말'의 시대입니다. 신문, 잡지, 책에 대한 관심은 줄어든 반면 다양한 채널을 통해서 접하는 강연, 인터뷰, 대담, 좌담 등이 사람의 교양을 채워주는 새로운 수단으로 각광을 받고 있습니다. 자연스럽게 이런 입말을 '글'로 옮겨서 매체에 싣거나 아예 책으로 펴내는 일도 다반사고요.  시사 문제나 문학, 역사, 철학 등에서 시작한 이런 움직임에 최근 과학이 동참했습니다. 아직은 소수긴 하지만, 이제 텔레비전에서 과학자의 강연이나 대화를 직접 듣는 일이 낯설지 않습니다. 자랑을 하자면, &lt;프레시안&gt;도 이런 움직임에 일찌감치 동참했습니다. 2011년 11월 4일부터 2014년 2월 6일까지 총 열다섯 번에 걸쳐서 진행된 '과학 수다'를 기억하시죠?  이 연재는 진행되는 내내 적지 않은 반향을 불러일으켰습니다. 많은 독자는 친절함과 유쾌함을 내세우며 과학자들이 과학계의 가장 뜨거운 쟁점을 놓고서 수다 떠는 모습에 뜨거운 관심을 보였죠. 바로 이 과학 수다가 &lt;과학 수다&gt;(사이언스북스 펴냄) 2권으로 다시 정리되어 나왔습니다. (☞관련 기사 : "아뿔싸! 이런 경이로운 수다를 놓칠 뻔했다")  &lt;과학 콘서트&gt;(어크로스 펴냄), &lt;뇌과학자는 영화에서 인간을 본다&gt;(어크로스 펴냄) 등의 베스트셀러 저자 정재승 박사(KAIST 교수)가 과학 수다의 세 호스트 천문학자 이명현 박사, 물리학자 김상욱 박사(부산대학교 교수), 강양구 기자를 만났습니다. 이 자리에서 과학 수다를 중심으로 입말로 과학을 향유하는 과학 문화의 새로운 흐름을 점검해 보았습니다.  과학자들의 수다에는 어떤 특별한 게 있을까요? 양자 역학이나 상대성 이론으로 수다를 떠는 게 가능할까요? 강연이나 대화를 그대로 지면에 옮겨서 전달하는 방식이 최선일까요? &lt;마이 리틀 텔레비전&gt;에 과학자가 나와서 수다를 떠는 모습은 상상이 가나요? 과학자라면 누구나 자기 역량의 일부를 대중과의 소통에 할당해야 할까요?  과학 문화의 현주소를 진단하는 유쾌한 수다로 여러분을 초대합니다. 이 수다는 7월 14일 오전 강남구 신사동의 한 카페에서 한 시간가량 진행되었습니다. 진행은 정재승 박사가, 정리는 강양구 기자가 맡았습니다.   ⓒ프레시안(손문상)    왜 과학 수다인가?  정재승 : 먼저 &lt;과학 수다&gt; 출간을 축하합니다. 이 책 덕분에 참 만나기 힘든 분들과 이렇게 '수다'를 떨 수 있어서 기쁩니다. 이 자리에서는 &lt;과학 수다&gt; 얘기를 하면서 입말 형태로 과학을 이야기하는 최근의 흐름이 어떤 의미를 갖는지 짚어보고자 합니다. 그 과정에서 자연스럽게 지금 과학 문화의 현주소도 점검할 수 있을 것 같고요.  먼저 &lt;과학 수다&gt; 얘기를 해보죠. 이게 책으로 묶이기 전에 &lt;프레시안&gt;과 아시아태평양이론물리센터(APCTP)가 펴내는 &lt;크로스로드&gt;에 연재가 됐었죠?  김상욱 : 사실 저는 기획 단계에서 '과학 수다'에 참여하지는 않았어요. 그래서 처음에는 걱정을 했던 것도 사실입니다. 수다라는 단어가 주는 느낌이 편안함이잖아요? 그런데 과연 이 수다에 참여하는 이들 사이에 오간 과학 이야기가 독자에게도 편안하게 다가갈까, 이런 걱정을 했었죠. 그러니까 수다에 참여하는 과학자 우리끼리만 재미있지 않을까, 이런 식으로요.  정재승 : 보통 과학자의 수다는 우리끼리만 재밌잖아요. (웃음)  김상욱 : 그러니까요. 그런데 일단 고정 멤버 가운데 기자가 한 명 있다 보니, 보통 사람의 시각에서 던질 법한 적절한 질문도 해줬고요. 여기에 저나 이명현 선생님 같은 과학자들이 함께 수다를 떨다 보니, (보통 사람이 아닌) 과학자가 할 수 있는 질문과 그에 대한 해당 과학자의 답변이 어우러져서 생각보다 결과가 잘 나온 것 같습니다.  그리고 무엇보다 중요한 건 과학 수다가 진행되는 내내 제가 굉장히 재미있었어요. 다음 과학 수다가 기다려질 정도로요. (웃음)     ▲ 정재승 KAIST 교수. ⓒ프레시안(손문상)   정재승 : 저자들이 즐기면서 이 책을 쓸 수 있었네요.  김상욱 : 그럼요! 얼마나 재미있었는지 우리끼리 만날 때마다 틈만 나면 '시즌 2'는 언제 시작하느냐고 얘기합니다. 손님으로 초대받은 과학자도 즐겁고 편안한 자리였다고 입을 모아서 얘기하는 걸 보면 우리만 재미있었던 것도 아닌 것 같아요. 그러니 수다에 참여한 이들은 모두 편안하고, 행복하고, 즐거운 시간을 보낸 셈이죠. 이제 독자만 좋아하면 되는데…. (웃음)  정재승 : 애초 과학 수다를 기획한 이명현 선생님은 어땠나요?  이명현 : 과학 수다도 역시 수다니까, 결국은 사람들이 모여서 얘기를 나누는 거잖아요. 그런데 바로 그런 대화를 나누는 행위 자체가 상당히 좋았던 것 같아요. 물론 이전에도 과학자가 강연을 하는 일은 많이 있었죠. 하지만 그렇게 강연을 할 때는 연사나 청중이나 모두 부담을 갖잖아요.  그런데 일단 이 수다는 여러 가지 면에서 자유로우니까, 말하는 사람이나 듣는 사람이나 훨씬 더 편안한 분위기에서 대화를 나눌 수 있었어요. 특히 이런 형식 덕분에 대중 강연 같은 자리에서 좀처럼 만나기 힘든 과학자들의 목소리를 들을 수 있었던 게 굉장히 좋았습니다. 그러니까 과학 수다가 대중과 과학자가 소통하는 또 다른 채널이 된 셈이죠.  또 다른 하나는 친절함입니다. 가끔씩 과학 강연을 다니다 보면, '초등학생도 이해할 수 있도록' 쉽게 얘기해 달라는 부탁을 받곤 합니다. 그런데 이런 부탁은 굉장히 폭력적이죠. 예를 들어, 어떤 학자가 평생에 걸쳐서 고민하고 또 그 성과를 모은 책을 단 몇 자로 정리해서 요약해 달라는 건 얼마나 폭력적이에요?  그런 면에서도 수다라는 형식이 돋보였어요. 굉장히 편안한 분위기에서, 충분한 시간을 가지고 과학자가 자기 얘기를 '친절하게' 설명할 수 있도록 유도했거든요. 때로는 집요하다 싶을 정도로 끊임없이 이런저런 각도에서 질문도 던졌던 것 같아요. 이번 기회에 그런 질문에 싫은 기색 없이 답변해 준 과학자 여러분께 다시 한 번 감사의 말씀을 전하고 싶습니다.  강양구 : 저도 슬쩍 끼어도 될까요? 제가 과학 수다를 진행하면서 가장 큰 소득이라고 여기는 건 국내 과학자에 대한 편견을 깬 것이에요. 우선 학문의 성취 면에서 우리나라 과학자들이 더 이상 세계 과학계의 변방이 아니라 스스로 의제를 만들고자 노력하는 수준에 올라섰다는 걸 확인했습니다.  더구나 그분들은 과학과 사회의 관계나 과학 문화에 대한 고민의 깊이에서도 내로라하는 외국 석학과 비교해도 절대 뒤지지 않더군요. 그런데 과학에 관심이 있는 시민, 학생, 독자 등은 여전히 외국 과학자가 쓴 책이나 강연 같은 데만 기웃대거든요. 저도 반성을 많이 했습니다. 앞으로 국내 과학자의 목소리를 시민에게 알리는 데 좀 더 신경을 써야겠다고.  개인적으로 좀 더 욕심을 부리자면, 국내 과학자의 목소리를 외국에 알릴 수 있는 방법도 좀 더 적극적으로 고민해보고 싶습니다. 이젠 문학 작품뿐만 아니라 우리나라 과학자의 글이나 말도 외국으로 소개해야 한다는 생각이 들어요. 이제 책으로 나온 &lt;과학 수다&gt;가 그 첫걸음이라는 생각이 들고요. 이 책을 번역해서 외국에 소개하는 것까지…. (웃음)  정재승 : 듣고 보니, 전반적으로 저자들은 만족도가 높네요.  이명현 : 그렇습니다. 스스로 만족도가 높은 기획과 저서였어요.   ▲ 김상욱 부산대학교 교수. ⓒ프레시안(손문상)    '말'과 '글'은 다르다  정재승 : 그럼, 여기서 딴죽을 좀 걸어보죠. (웃음) 이 책이 제목대로 수다의 정신에는 충실했습니까? '수다'의 사전적인 의미가 "쓸데없이 말수가 많음. 혹은 그런 말"(국립국어원 &lt;표준국어대사전&gt;)이잖아요. 그러니까, 우리가 수다라고 이름 붙인 어떤 대화는 애초 의도했던 방향과는 다른 쪽으로 튀기도 하고, 그러다 정말 잡담이 되기도 하잖아요.  그러니 수다라고 하는 형식과 특정한 과학 분야의 지식을 대중에게 알려야겠다는 목적이 과연 어울릴 수 있을지 의문이 듭니다. 오히려 뚜렷한 목적의식 없이 여러 화제를 놓고서 대화가 오가며, 생각을 공유하는 게 진정한 의미의 수다죠. 때로는 이런 수다를 엿 듣는 사람이 즐거움과 깨달음을 얻을 수도 있고요. 과학 수다가 과연 그랬나요?  이명현 : 일단 여러 차례 과학 수다를 진행하면서 비공개를 원칙으로 했어요. 청중을 모시고 수다를 떨기 시작하면, 시간 같은 정해진 형식이 있어야 하고, 할 수 있는 말에 제약도 있고. 결정적으로 청중의 반응을 의식하다 보면 대화의 밀도가 떨어질 거라는 걱정이 들더군요. &lt;과학 수다&gt;에 실리지는 않았습니다만, 카오스 이론을 가지고 한 수다가 실제로 그랬고요.  그런데 오히려 이렇게 비공개로 했기 때문에 방금 지적한 그런 수다의 정신은 살릴 수 있었습니다. 함께 나눌 주제 정도는 공유하고, 각자가 나름대로 자료 조사도 하긴 했습니다만, 결과적으로 현장에서는 말 그대로 수다를 떨었거든요. 다만 그 수다를 독자에게 전할 때는 약간의 타협이 필요했습니다. 여기서부터는 강 기자가. (웃음)  강양구 : 정말로 수다였죠. 이 과학 수다가 되게 특별했던 게 뭐냐면 짧게는 3시간, 길게는 5시간 정도씩 어떤 한 주제를 가지고 얘기를 하면서 과학자의 여러 고민을 들을 수 있었던 거예요. 거기에는 해당 주제와 관련된 자신이 진행하는 연구에 대한 소개는 물론이고, 현장에서 느끼는 우리나라 과학기술 정책에 대한 불만 같은 것도 있었죠.  과학자가 강의실에서 학생과 소통할 때의 어려움, 대중과 소통해야 할 때 느끼는 당혹감, 더 나아가 자기가 생각하는 과학 문화의 모습 같은 내용도 포함돼 있었고요. 물론 때로는 다른 선배, 후배, 동료 과학자에 대한 뒷담화도 있었고요. 심지어 최근에 읽은 책 얘기까지요. 이런 수다를 통해서 그 과학자를 깊이 이해하는 소중한 기회를 가졌던 셈이죠.  수다라는 형식이 아니었으면 이런 경험을 어떻게 할 수 있었겠어요? 그런데 막상 이 수다를 정리해서 독자한테 소개할 때는 그걸 그대로 실을 수는 없었습니다. 그래서 어쩔 수 없이 눈물을 머금고 '편집'이라는 과정을 거칠 수밖에 없었는데요. 이 편집 과정에서도 최대한 그날 수다를 꿰뚫는 핵심을 전달하고자 노력했습니다. 어느 정도는 성공했다고 자부합니다. (웃음)  정재승 : 계속 딴죽을 걸어보면, 수다라는 게 같이 참여하는 사람들은 재미있는데 정작 한 발짝 떨어져서 엿보는 사람 입장에서도 재미있으리라는 보장은 없거든요. 더구나 편집의 과정까지 한 번 거친 다음에 '기사' 형식으로 나가는 것이면 더욱더 그렇죠. 일단 &lt;프레시안&gt;과 &lt;크로스로드&gt;에 연재될 때의 반응은 어땠나요?  강양구 : 인터넷 공간에서 유통되는 콘텐츠에 대한 독자 반응을 체크하는 지표가 있어요. 하나는 얼마나 많이 봤나? 과학 콘텐츠였는데도 상당히 많이 봤어요. 다른 하나는 얼마나 사회 연결망 서비스(SNS)를 통해서 확산되었느냐? SNS에서도 화제가 된 콘텐츠가 많이 있죠. 예를 들어, 1권에 실린 근지구 천체 편('슈퍼 영웅보다 힘센 과학 이야기')이 그랬죠.  기왕 얘기가 나왔으니 여기서 꼭 강조하고 싶은 얘기가 있어요. '말'과 '글'은 굉장히 다르다는 사실을 어쩔 수 없이 인정해야 한다는 겁니다. 요즘 많은 출판사들이 강연이나 대화를 그대로 녹취해서 최소한의 검토만 거친 다음에 책으로 묶어서 내곤 합니다. 개인적으로 이런 모습이 걱정스럽습니다.  왜냐하면, 말로 이뤄지는 강연이나 대화는 그 현장의 맥락에 기반을 둔 고유한 소통입니다. 이걸 그대로 녹취만 해서 책으로 묶는 방식은 저자 입장에서 보면 맥락이 거세된 불만족스러운 콘텐츠일 가능성이 큽니다. 당연히 독자 입장에서도 최상의 콘텐츠가 아닐 가능성이 크죠. 그러니 이런 게으른 방식은 정말로 출판사에서 자제해줬으면 좋겠어요.  여기 책으로 나온 &lt;과학 수다&gt;도 겉보기는 그렇게 만든 것 같죠? 그런데 그런 식과는 100% 달랐습니다. 애초 현장의 수다는 글을 위한 재료였을 뿐이에요. 전문 속기사가 만든 완벽한 녹취록을 수차례 검토하면서, 마치 감독이 수많은 촬영 장면을 가지고 영화를 만들 듯이 대화를 재구성했어요. 그 과정에서 추가 자료 검토, 추가 인터뷰도 진행했죠.  결정적으로 현장의 분위기를 살리려고 노력하면서 모든 대화를 다시 제가 '글'로 썼습니다. 그렇게 나온 초고를 여기 있는 두 분 선생님과 손님으로 모신 과학자들과 같이 검토하면서 다시 한 번 오류를 잡고, 필요하면 가감도 했죠. 그러니까 아예 처음부터 해당 과학자에게 원고를 의뢰하는 것보다 시간도 자원도 훨씬 많이 드는 힘든 작업이었습니다.  아무튼 이런 노력이 통했는지 다행히 연재할 때도 반응이 좋았어요. 그래서 이걸 그냥 두지 말고 좀 더 지속성이 있는 책으로 만들어서 많은 독자를 만나도록 하자는 기획으로 이어질 수 있었죠. 반응이 신통치 않았으면 사이언스북스 같은 출판사에서 관심이나 뒀겠습니까? 그런데 이건 너무 '기-승-전-&lt;과학 수다&gt; 예찬'으로 가는 것 아닌가요? (웃음)   ▲ 이명현 박사. ⓒ프레시안(손문상)    양자 역학으로 수다 떠는 게 가능한가?  정재승 : 굉장히 훈훈한 자화자찬 분위기가 계속 이어지고 있는데요. 분위기 좀 바꿔 보죠. (웃음) 김상욱 교수님께 묻겠습니다. 물리학자가 양자역학을 수식 없이 말로만 상대방에게 설명해서 이해를 시키고, 심지어 그걸 즐기는 수준의 수다를 할 수 있나요? 그게 가능하긴 합니까?  김상욱 : 힘듭니다. 아주 힘든 일이죠.  정재승 : 그럼, 이제 이런 질문을 해볼 수 있겠네요. 수다로 과학을 이야기하는데 어떤 한계는 없었나요?  김상욱 : 당연히 한계가 있지요. 그런데 어떤 형태로 전달하든 과학자가 알고 있는 그 상태를 상대방에게 그대로 전달하는 건 불가능합니다. 그런 점에서 그건 수다의 한계라기보다는 과학을 소재로 소통할 때의 근원적인 문제라고 할 수 있죠. 과학자들이 수식을 선호하는 것도 바로 그런 문제 때문이라는 생각도 들고요.  그런 한계를 염두에 두고서 이번 과학 수다의 또 다른 의미를 한 번 짚어보고 싶습니다. 이번에 참여한 과학자와 수다를 떨면서 한 가지 흥미로운 사실을 발견했어요. 그러니까 초대를 받은 과학자가 기자나 대중이 아니라 다른 과학자와 대화를 나눈다는 게 상당히 다른 분위기를 낳았던 것 같아요.  사실 물리학자끼리 얘기를 하면서 자신의 연구 성과를 과장해서 말하긴 어렵잖아요? 이번 과학 수다에서도 그랬습니다. 비록 같은 분야는 아니지만, 대화를 나누는 상대가 과학자라는 이유만으로도 과학자들이 가공하지 않은 좀 더 솔직한 이야기들을 털어놓았던 것 같아요. 그리고 이런 이야기가 그 과학자의 연구나 고민을 좀 더 깊이 이해하는데 도움이 됐고요.  정재승 : 예를 들자면?  김상욱 : 그러니까 언론을 통해서 '장밋빛 미래'만 조명될 가능성이 큰 연구가 있습니다. 그런데 이번 수다를 통해서 과학자가 그 실상을 얘기한 적도 있었습니다. 해당 과학자의 처지를 염두에 두고 기사나 책으로 다 공개 못한 부분도 있었던 것으로 알고 있습니다만…. 이렇게 수다에 과학자가 참여한다는 것만으로도 이야기의 질이 굉장히 높았다고 생각합니다.  정재승 : 이명현 선생님은 어떻습니까? 수다라는 형식 때문에 얘기가 더 진지하게 흘러가는 데 제동이 걸리거나, 혹은 벽 같은 걸 느낀 적은 없나요?  이명현 : 검열은 어차피 강양구 기자가 하니까. (웃음) 앞에서도 잠깐 얘기가 나왔지만, 사실 이 부분이 굉장히 중요한 장치였던 것 같습니다. 현장에서 손님으로 초대받은 과학자나 우리나 정말 아무런 제약 없이 얘기를 했거든요. 때로는 현장에 일반인이 있었으면 도저히 이해하지 못할 얘기도 오갔던 것도 같고요. 어떤 때는 거의 강의를 듣는 시간이 되기도 했어요.  김상욱 : &lt;과학 수다&gt; 2권에 실린 투명 망토 편('해리 포터도 몰랐던 투명 망토의 비밀')이 그랬죠. 박규환 교수님이 거의 강의를 하셨죠.  강양구 : 그런데 강의를 들으면서도 너무나 즐거웠었죠. (웃음)  이명현 : 그랬죠. 그러니까 강 기자가 일종의 안전판이 되었던 것 같아요. 어차피 강 기자가 다시 정리를 할 거니까, 막상 현장에서는 정말로 자유롭게 여러 가지 얘기를 할 수 있었던 겁니다. 김상욱 교수도 방금 언급했습니다만, 과학자만이 던질 수 있는 질문과 그에 대한 답변이 오간 것도 그런 자유로운 분위기 덕분이기도 했고요.  예를 들어, 저는 생명과학자는 아니지만 우주를 연구하는 과학자로서 생명 현상에 대해서 질문이나 의견을 가질 수 있지요. 아무래도 그런 질문이나 의견은 과학을 전공하지 않은 일반인에게는 나오기가 어려운 것이겠죠. 그런 질문과 답변이 어우러지면서 과학 수다가 내용 면에서 좀 더 달라질 수 있었던 것이죠.  물론 개인적으로 고민이 되는 부분이 없진 않았어요. 예를 들어, 과학 이론을 설명하다 보면 수학을 빌려서 논리 전개를 할 수밖에 없는 대목이 있습니다. 그런데 수식을 가능한 한 피하려다 보니, 이런 대목은 비유를 하는 식으로 넘어가거든요. 이번 과학 수다도 최소한 독자를 만나는 단계로 정리를 할 때는 그런 장치를 넣을 수밖에 없었고요.  그건 어떤 과학자에게는 굉장히 답답한 일일 것 같아요. 그래서 &lt;이종필의 아주 특별한 상대성 이론 강의&gt;(동아시아 펴냄) 같은 책도 나왔겠죠. 이 책은 사실 상대성 이론을 강의하기 위한 교과서거든요. 그러니 &lt;과학 수다&gt;는 그것만으로 충분한 과학 책이라기보다는, 좀 더 전문적인 과학 지식을 쌓고자 하는 독자에게 징검다리 역할을 하는 책일 수도 있겠습니다.     ▲ 강양구 기자. ⓒ프레시안(손문상)   강양구 : 이 대목에서는 저도 얘기를 좀 덧붙일게요. 이종필 박사는 과학 수다의 여러 편에 단골손님으로 등장하셨던 과학자인데요. 이 박사 같은 과학자로서는 일반인에게 상대성 이론을 수학을 동원해서라도 좀 더 정확하게 전달하고 싶은 욕심이 있을 수 있다고 생각합니다. &lt;이종필의 아주 특별한 상대성 이론 강의&gt;는 그 결과물이고요.  이명현 : 굉장히 계몽적인 욕심이죠. (웃음)  강양구 : 그런데 저는 이런 의문이 들어요. 정말로 보통 사람에게 상대성 이론의 장방정식을 풀 정도의 과학 지식이 필요할까요? 저는 그럴 필요가 없다고 생각합니다. 오히려 지금 대중에게 필요한 것은 현대 과학 트렌드가 어떤 방향으로 진행 중에 있는지 조망하고, 또 그런 과학이 사회와 어떤 관계를 맺고 있는지 세심하게 따질 수 있는 능력이죠.  이 정도로 과학-기술-사회 간의 주의를 환기하는 정도만 되어도 저는 과학 교양으로서 충분하다고 생각합니다. 그리고 단순히 과학 지식만 많이 아는 사람보다는 이렇게 과학과 그것과 관계를 맺는 여러 가지 것들을 종합적으로 볼 수 있는 사람이 늘어날수록 합리적인 사고에 바탕을 둔 과학 문화도 확산될 수 있다고 생각하고요.  그러니까 &lt;과학 수다&gt;처럼 넓고 얕게 보는 (사실 내용만 보면 꼭 그렇지도 않습니다만) 책이야말로 과학 문화가 넓고 깊어지는 데 도움이 된다고 생각합니다. 이것 참, 또 기-승-전-과학 수다 예찬이 되었네요. (웃음) 하지만 &lt;과학 수다&gt;를 진짜로 읽어보면, 이게 무슨 얘기인지 독자들이 알 거라고 확신합니다.  정재승 : 상대성 이론과 같은 과학 이론을 수식으로 제대로 한 번 공부하고 싶어 하는 독자도 분명히 있을 테니까, 그런 독자를 위해서는 이종필 박사의 책도 그 자체로 소중한 작업이죠. 다양성의 측면에서는 &lt;과학 수다&gt; 같은 책도 또 &lt;이종필의 아주 특별한 상대성 이론 강의&gt; 같은 책도 많이 나올수록 좋겠죠.  강양구 : 당연하죠. &lt;이종필의 아주 특별한 상대성 이론 강의&gt;는 이종필 박사가 오래전부터 절치부심 준비하던 책인데, 다행히 독자의 반응도 좋은 것 같아서 기쁩니다.  정재승 : 다음 얘기로 넘어가기 전에 이 얘기만 좀 더해 보죠. 처음에 제가 막연히 과학 수다와 같은 콘셉트를 생각할 때, 전제 조건 가운데 하나는 참여하는 이들 사이의 동등성이었거든요. 수다는 아무래도 눈높이가 같은 사람들끼리 해야 즐겁잖아요. 그래야 그런 수다에서 끊임없이 새로운 시각도 나오고, 과학자만의 유머 같은 독특한 문화 코드도 드러나고.  그런데 이번의 과학 수다는 지금 주목받는 주제를 하나 정하고, 그 분야의 전문가를 초대해서 진행하는 식이었습니다. 아무래도 주로 말하는 사람이 따로 있고, 듣는 사람이 있는 식이어서 수다의 힘이 100% 발휘되기는 어려웠을 것도 같습니다. 만약에 시즌 2를 하게 되면 이런 점도 좀 보완되면 좋겠어요.  강양구 : 똑같은 과학자라고 하더라도 특정 분야를 놓고서는 전문성에 차이가 날 수밖에 없으니, 그런 점을 어떻게 보완할지도 고민해야 할 부분이죠. &lt;과학 수다&gt; 1권에 실린 핵에너지 편('핵발전소 없는 여름을 꿈꾼다')이 대안적인 모습이었죠. 그 때 수다를 떨었던 윤태웅 교수, 이종필 박사, 이명현 선생님 모두 좁은 의미의 핵 발전 전문가는 아니었습니다.  그러니까 그 수다는 핵에너지나 핵발전소를 놓고서 과학자 셋이 모여서 수다를 떨 수 있는 한 본보기를 독자에게 보여줬던 것 같습니다. 과학자는 아니지만 그 분야를 오랫동안 취재했던 기자로서 저도 몇 마디 보탰고요. 앞으로 시즌 2에서는 그런 종류의 기획을 많이 해보면 좋겠다고 생각합니다.  이명현 : 그런데 사실 수다라는 것도 다양한 형식이 있을 수 있잖아요. 아까도 잠시 언급했지만, 투명 망토 편의 경우에는 박규환 교수가 거의 강의를 했어요. 얼핏 보면 오랜만에 광학 수업을 듣는 분위기였습니다. 그런데 그렇다고 현장의 분위기가 수다스럽지 않았느냐, 전혀 그렇지 않았거든요.  질문과 답변 그리고 주제와 어찌 보면 동 떨어진 얘기까지 겹치면서 정말로 수다스럽고 즐거운 분위기였어요. 그러니까, 해보기 전에 수다의 꼴을 미리 정해 놓는 것도 큰 의미는 없어 보여요. 셋 이상이 일단 모이면, 또 마음을 조금만 열면 다양한 형식의 즐거운 수다가 가능하다는 것도 과학 수다를 진행하면서 새삼 깨달은 점입니다.   ⓒ프레시안(손문상)    &lt;마이 리틀 텔레비전&gt;에 과학자가 나온다면…  정재승 : 세 분이 굉장히 즐기면서 과학 수다를 진행해 왔고, 또 수다에 초대 받은 동료 과학자에게도 긍정적인 반응을 이끌었던 것 같습니다. 일단 &lt;과학 수다&gt;로 묶여진 내용도 굉장히 알차고요. 앞으로 이런 과학 수다라는 형태가 여기저기서 벌어지면서 과학을 소통하는 중요한 방식으로, 하나의 장르로 자리 잡을 수 있을까요?  김상욱 : 지금은 일단 실험 단계인 것 같습니다.  정재승 : 미디어 환경이 바뀌고 또 사람들이 과학을 받아들이는 문화가 변하면서 일단은 입말로 일반인이 과학을 즐길 수 있는 다양한 시도가 앞으로도 계속될 것 같습니다. 예전에는 사람들이 국내 과학자가 아닌 외국 과학자의 번역서를 통해서 과학을 받아들였다가, 국내 과학자가 쓴 우리 말 맛이 나는 책을 읽기 시작했죠. 이제는 과학자의 강연을 직접 찾아 듣고요.  과학 수다도 이런 변화의 연장선상에 있는 것으로 봐야하지 않을까요?  이명현 : 개인적인 욕심 같아선 조금 더 나갔으면 좋겠어요. 오프라인 강연도 그렇고, 온라인의 팟캐스트도 그렇고 어느 정도는 일방적이잖아요? 사실 과학 수다가 그걸 보완하고자 마련된 시도이긴 하지만. 더 욕심을 부리자면, SNS 등을 통해서 실시간으로 사람들과 소통하면서 과학 문화를 같이 향유하는 것도 가능하지 않을까요?  정재승 : 조금 있으면 &lt;마이 리틀 텔레비전&gt; 같은 프로그램에 이명현 선생님이 나오셔서 우리는 말풍선을 달고 그러겠군요. (웃음)  이명현 : 그것도 재밌겠고요. (웃음) 사실 제가 원하는 모습은 과학 문화를 향유하는 작은 공간이 좀 더 많아졌으면 하는 거예요. 그러니까 과학자와 보통 시민이 일상적으로 만나서 서로 궁금한 것도 물어보고, 때로는 과학 외의 주제를 놓고도 자유롭게 의견을 나누는 그런 자리 말이죠.  아, 영국에는 이런 행사가 있어요. 술집 테이블 이곳저곳에 과학자가 한 명씩 앉아 있습니다. 저쪽에는 양자역학을 전공한 과학자, 이쪽에는 뇌과학자…. 그럼 시민들이 들어와서 맥주 한 잔씩 들고 자기가 대화를 나누고 싶은 과학자를 찾아다니는 거예요. 그렇게 얘기하다 자리를 옮기기도 하고요. 근처 학교에서도 학생, 시민을 위한 이런 만남의 자리가 따로 마련되고요.  정재승 : 그러니까, 과학을 문화로 즐기는 형식 자체가 다양해지고, 또 일상 안으로 들어오면 좋겠다는 얘기죠? 꼭 지식 공유만 목적으로 하는 자리가 아니라요. 전적으로 공감합니다. 그런데 과학 수다를 비롯해서 이런 시도가 좀 더 활성화되려면 과학자 여럿이 이런 시도에 동참하는 분위기가 과학계에 확산되어야 합니다.     ⓒ프레시안(손문상)   김상욱 : 글쎄요. 저로서는 이런 과학 수다 같은 경험이 아주 즐겁습니다. 그런데 과학자 가운데는 이런 경험이 새롭고 때로는 즐겁기도 하지만, 우선순위에서 밀리는 경우가 많을 것 같아요. 몇 가지 이유가 있겠죠. 모두가 그런 건 아니지만, 상당수 과학자는 기본적으로 하고 싶은 것만 하는 성향이 있습니다.  또 어떤 과학자는 동료나 대중과 소통하는 것이 싫어서라기보다는, 자기 연구보다 덜 재밌기 때문에 선뜻 나서지 않기도 할 거예요. 그러니까 많은 과학자는 이렇게 생각한단 말이에요. '이렇게 재미있는 연구를 놔두고 왜 저런 데 시간을 허비하나!' 과학자의 이런 특성을 염두에 두면 모든 과학자가 소통에 적극적으로 나서길 바라는 건 너무 비현실적인 바람 같아요.  더구나 과학자 가운데는 말하기나 글쓰기 같은 소통에 필요한 능력이 부족한 사람도 있거든요. 모든 과학자가 다 말도 잘하고, 글도 잘 쓸 수는 없으니까요. 그러니까 소통 능력이 있어도 굳이 그런 데 마음이 동하지 않는 과학자도 있고, 또 그런 소통 능력 자체가 부족한 과학자도 있다는 현실을 인정해야 할 것 같습니다.  그런 현실을 고려하면, 그런 과학자를 한두 번쯤 다른 과학자나 대중과 연결시킬 수 있는 커뮤니케이터가 훨씬 더 중요할지 몰라요.  정재승 : 미국 같은 경우에는 과학자들이 시민의 세금으로 연구를 하니까 자신의 역량 가운데 한 5% 정도는 시민과 소통하는 데에 할애해야 한다는 원칙이 있습니다. 김상욱 교수님은 그런 원칙은 우리나라의 사정과는 맞지 않다고 생각하는 것 같군요. 차라리 능력 있는 커뮤니케이터를 육성하는 게 현실적이라는 거죠?  김상욱 : 네, 너무 이상적인 접근이라고 생각해요. 왜냐하면, 아까 얘기했던 여러 가지 이유 때문에 그런 소통의 의미조차 찾지 못하는 과학자가 현실에는 많으니까요.  이명현 : 두 분 말씀을 듣고 보니, 과학 수다가 그런 가교 역할을 할 수도 있겠다는 생각이 듭니다.  강양구 : 맞습니다. 김상욱 교수님도 언급했지만, 과학자 가운데는 글쓰기에만 능한 사람도 있고 말하기에만 능한 사람도 있고 심지어 둘 다 미숙한 이들도 있잖아요. 또 자신의 성과나 고민을 소통하는 데 특별한 필요성을 느끼지 못하는 이들도 많고요. 그러니까 그런 분에게 맞춤한 다양한 소통 채널을 제공할 수 있어야 하고, 과학 수다가 그 하나가 될 수 있겠죠.  정재승 : 지금까지 얘기를 듣고 보니 과학 수다 시즌 2가 너무나 기대되는데요. 혹시 지금 기획 중인 시즌 2의 내용을 살짝 공개할 수 있을까요?  강양구 : 이건 영업 비밀인데요. (웃음) 하나는 요즘 빅 히스토리에 관심이 있는 분들이 많잖아요? 그래서 빅 히스토리의 중요한 장면을 여섯 장면 혹은 열 장면 정도를 뽑아낸 다음에 그 장면에 대해서 정확하고 재미있는 이야기를 해줄 수 있는 국내의 과학자 한두 분을 모신 다음에 빅히스토리 과학 수다를 해보는 기획을 추진 중입니다.  정재승 : 와, 재밌겠네요.  강양구 : 여기까지만 할게요. 또 다른 준비 중인 과학 수다가 하나 더 있는데, 그건 나중에 공개하겠습니다. (웃음)  정재승 : 이거 궁금하게 만드는군요. 그나저나 형식에 변화를 살짝 주는 것도 좋을 것 같습니다. 예를 들어, 맥주를 마시면서 한다든가, 이런 식으로요. 알코올이 살짝 곁들여지는 것만으로도 수다의 분위기가 훨씬 더 편해질 것 같거든요.  강양구 : 시즌 2에서는 알코올과 함께 정재승 교수님도 꼭 한 번 모시고 싶습니다. 커뮤니케이터 정재승이 아니라 사이언티스트 정재승을…. (웃음)  정재승 : 일단 시즌 1에서 안 불러줬기 때문에 이미 삐친 상태인데요. (웃음)  이명현 : 아니에요. 일부러 두 명을 아껴둔 겁니다. 정재승과 장대익(서울대학교 교수). 비장의 카드로!  정재승 : 그렇게까지 말씀을 하시니 제 매니저와 상의해 보겠습니다. (웃음) 이렇게 말씀을 듣다 보니 지금 책으로 묶인 &lt;과학 수다&gt;가 어떤 모습일지 궁금해 하는 독자가 많이 늘었을 것 같습니다. 이참에 &lt;과학 수다&gt;를 함께 읽고 또 더 멋진 시즌 2를 기대해 보죠. 여기 계신 세 분도 과학 수다를 통해서 더 많은 사람이 과학을 즐길 수 있도록 더 애써주시면 좋겠습니다.   ⓒ프레시안(손문상)           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;프레시안&gt;이 아시아태평양이론물리센터(APCTP), 사이언스북스와 함께 특별한 연중 기획을 시작합니다. 매주 월요일 아침 한 권의 '과학' 고전을 뽑아서 여러분께 소개합니다.  서평 대상으로 선정된 고전 50권은 "우리에게 맞춤한 우리 시대"의 과학 고전을 과학자, 과학 담당 기자, 과학 저술가, 도서평론가 등 여럿이 머리를 맞대고 2015년에 새롭게 선정한 것입니다. 이번 연재는 선정된 과학 고전 각각을 독자에게 소개하고 또 새롭게 읽어보는 특별한 기회가 될 것입니다.  김상욱 부산대학교 교수(물리학자), 손승우 한양대학교 교수(물리학자), 이강영 경상대학교 교수(물리학자), 이권우 도서평론가, 이명현 박사(천문학자), 이정모 서대문자연사박물관 관장, 강양구 기자 등이 돌아가면서 서평을 쓸 예정입니다.  오늘은 손승우 교수가 앨버트 라슬로 바라바시의 &lt;링크&gt;에 얽힌 흥미로운 이야기를 들려줍니다.     ▲ &lt;링크&gt;(앨버트 라슬로 바라바시 지음, 강병남·김기훈 옮김, 동아시아 펴냄). ⓒ동아시아   얼마 전 인기리에 방영을 마친 &lt;응답하라 1988&gt;을 포함한 모든 '응답하라' 시리즈의 오프닝에서는, 주제곡은 그 시대에 따라 달라지지만, 배경에 잡음처럼 들어간 "삐—지-지-직" 하는 PC통신 시절 모뎀 연결 소리가 공통적으로 나온다.  이제 그 효과음의 정체를 알아차리고, 그 소리가 전해주는 '연결됨'의 두근거림과 애절함을 공감하는 사람이 얼마나 될까? '응답하라' 시리즈의 첫 번째 시대인 1997년에 개봉한 영화 &lt;접속&gt;을 보여준다면 그 느낌을 전할 수 있을까?  다음 '응답하라' 시리즈가 처음의 1997년에서 더 이상 과거로 가지 않고 시리즈의 네 번째로 이어진다면, 2002년이 될 거라는 기대가 많다. 내가 기억하는 2002년은 밀레니엄 버그의 공포가 가시고, 미니홈피 '싸이월드'가 인기를 끌기 시작했으며, 많은 사람들이 이제 호출기 대신 휴대전화를 들고 다녔다.  제16대 대통령 선거를 앞두고 선거 운동이 치열했고, 지금과 다르게 남북 관계가 좋았으며, '2002 한일 월드컵'에 대한 기대와 열기로 들떠 그 어느 해보다 뜨겁고도 시원한 여름을 보냈다. 개인적으로는 아주 다른 의미로 특별한 해였는데, 나는 그해에 KAIST(한국과학기술원) 물리학과 대학원생으로 '복잡계 및 통계 물리 연구실'에 합류할 수 있었다.  그 당시 인기 있었던 보아의 'No.1'을 주제곡으로 하고, "삐—지-지-직" 하는 PC 통신 연결 소리와 함께 나의 &lt;응답하라 2002&gt;로 기억을 되돌려 본다. "삐—지-지-직."  월드컵은 이미 끝나고 가을을 기다리던 2002년 늦여름.  2001년 가을에 KAIST에 새로 부임한 정하웅 교수의 '복잡계 및 통계 물리 연구실'은 꾸려진 지 1년 밖에 되지 않았다. 하지만 연구실에서는 매주 국제 학술지에 새롭게 출판된 복잡계 네트워크 연구 논문을 읽고 토론하는 열띤 세미나가 이어졌다.  나는 지난 여름 복잡계 네트워크에 대한 총설 논문의 공부를 끝내고, 최신 연구 결과를 추적하며 독자적인 연구 주제를 막 고민하던 중이었다. 그 때 공부한 논문이 바로 앨버트 라슬로 바라바시가 &lt;리뷰스 오브 모던 피직스&gt;에 2002년 1월에 출판한 '복잡계 네트워크의 통계역학(Statistical mechanics of complex networks)'이다.  그즈음은 인터넷의 사용이 활발해지고, 싸이월드와 같은 미니홈피와 소셜 미디어에 대한 대중의 관심이 본격적으로 일어나던 시기로 국내 학계에서도 복잡계 네트워크에 대한 관심이 폭발적으로 증가했다. 이름도 복잡해 보이는 '복잡계 네트워크 이론'을 쉽게 설명해 줄 과학 대중서에 다들 목말라하던 시기이다.  그때 나는 바라바시의 대중서 &lt;링크&gt;(강병남·김기훈 옮김, 동아시아 펴냄)의 번역본을 운 좋게도 미리 읽을 수 있었다. 그 임무를 충실히 하지는 않은 것 같지만, 오탈자와 어색한 번역을 찾는다는 명목이었다.  &lt;링크&gt;는 열다섯 개의 장(이 책에서는 장의 개념을 재미있게 '링크'라고 표현하였다)으로 이루어져 제법 두툼하지만, 첫 장을 읽기 시작하면 중간에 멈추기 어렵다. 바라바시는 그의 첫 대중서 &lt;링크&gt;에서 다양한 등장인물의 에피소드와 서사적 표현으로 종종 읽는 이들에게 즐거운 시공간 여행을 선사한다.  위대한 수학자 레온하르트 오일러의 임종을 지키기 위해 1783년 러시아 상트페테르부르크로, "여행하는 수학자" 폴 에르되스를 만나러 1920년 헝가리 부다페스트로, 다시 1965년 레오 카다노프의 미국 일리노이로 정신없이 달린다. 과학 대중서가 마치 소설책 읽듯이 읽히는 것은 바로 그의 폭넓은 배경 지식과 과학자의 글에서는 보기 드문 훌륭한 서사가 어우러진 데 있다.  에르되스와 구둣가게 소년과의 대화에서는 천진난만하고 독특하면서도 어느 누구와도 수학에 대한 진지한 이야기를 시작할 수 있을 것 같은 그의 개성이 느껴지며, 대화를 직접 듣는 현장감마저 느껴진다.  초등학교에서 배웠던, 연필을 종이에서 떼지 않고, 모든 선을 한번만 지나 그림을 완성하는 한 붓 그리기는 어떻게 21세기를 지배하는 네트워크 과학이 되었을까? 이에 대한 답을 찾고 싶은 사람들과 '이게 무슨 뚱딴지같은 소리야?'라고 질문을 이해하지 못한 사람은 이 책 &lt;링크&gt;를 꼭 읽어 보길 권한다.  우리가 매일 사용하는 인터넷이, 틈만 나면 수시로 확인하는 카카오톡과 페이스북 같은 소셜 미디어가, 전 세계의 항공망이, 세포 안의 단백질과 신진 대사 물질이, 기업들의 이사회 구성원과 주식들의 관계가 모두 복잡계 네트워크 이론의 지배를 받는다.  한 붓 그리기의 가능성을 증명한 오일러의 1736년 쾨니히스베르크 다리 문제에서는 일곱 개의 다리를 오직 한 번만 건널 수 있는 경로가 있는가 묻는다. 이 문제에서 쾨니히스베르크에서 두 지류가 만나는 프레겔 강이 얼마나 넓은지, 그 사이에 위치한 크네이포프 섬이 얼마나 아름다운지, 그 섬과 육지들을 연결하는 일곱 다리가 얼마나 큰지는 전혀 중요하지 않다. 단지, 중요한 것은 육지와 섬에 해당하는 네 개의 점이 있고, 그 사이를 연결하는 일곱 다리는 그 점을 연결하는 선들로 표현 가능하다는 것을 알고, 이를 점과 선을 연결한 '네트워크'로 추상화하는 데 있다. 이로써 문제는 경로를 찾는 사람의 재주보다는 네트워크의 속성에 달린 것으로 된다.  이렇듯 문제의 구성 요소 간의 핵심적인 연결만을 간추린 네트워크의 구조는 우리 주변의 복잡한 세계를 이해하기 위한 열쇠가 된다. "실제 네트워크의 구조는 어떻게 생겼을까?", "그 구조와 성장을 지배하는 법칙이 있을까?" 하는 질문들이 바로 복잡계 네트워크 이론의 출발점이다.  이에 대한 첫 번째 시도가 바로 '네트워크의 점들은 확률적으로 마구잡이로 연결되어 있다'고 보는 '무작위 네트워크 이론'이다. 에르되스와 레니는 자연이 따를 수 있는 가장 단순한 방법인 무작위성을 가정하여, 그 동안의 획일적인 정규 격자의 틀에서 벗어났을 뿐 아니라, 수학적으로 아름다운 이론을 정립하였다. 이때가 1959년이다.  그 이후, 마크 그라노베터를 위시한 사회학 분야의 연구에서는 사회 연결망이 몇 개의 강한 클러스터로 이루어져 있고, 이를 약한 연결이 이어주는 구조임을 밝혔다. 무작위 네트워크 모델에서 이를 수정하기 위해, 1998년 던컨 와츠와 스티븐 스트로가츠가 '작은 세상 네트워크' 모델을 제안한다. 하지만, 작은 세상 네트워크도 무작위 네트워크와 마찬가지로 연결선 수의 분포가 정규분포와 같은 종형을 따른다.  종형 연결선 수 분포는 대규모 네트워크 자료가 확보되면서 대부분의 실제 네트워크와는 다르다는 것이 밝혀진다. 실제 네트워크들은 생각보다 큰 연결선 수를 갖는 점들이 많은 '멱함수 법칙'을 따르는 긴 꼬리 분포를 보인다. 이는 80/20의 법칙으로 더 유명한 롱테일 분포에 해당하는 것이다.   ▲ 멱함수 범칙을 따르는 '척도 없는 네트워크'. 소수와 연결된 노드(점)는 아주 많은 반면에 다수와 연결된 노드는 아주 적다. 다수의 링크를 독점한 소수와 소수의 링크만 보유한 다수가 또렷하게 대비된다.    이로부터 저자인 바라바시 팀이 연결선 수 분포가 멱함수 법칙을 따르는 '척도 없는 네트워크' 모델 연구에 이르게는 되는 여정을 다섯 번째 장에서부터 본격적으로 서술한다. 척도 없는 네트워크 발견을 학술지에 보고하고, 그 구조를 설명하기 위한 '성장'과 '선호적 연결'의 알고리즘 모델을 찾는 과정이 역동적이고 긴박하게 그려지는데, 연구자의 '아드레날린'이 읽는 이에게까지 느껴진다.  인터넷 웹페이지의 연결 구조에서도, 논문을 함께 쓴 공동 저자들의 사회 연결망 구조에서도, 영화에 함께 출연한 할리우드 배우들의 네트워크에서도, IBM의 컴퓨터 칩셋의 회로도에서도, 미국 서부 전력망과 예쁜꼬마선충의 신경망에서도 모두 멱함수 법칙을 따르는 연결선 수 분포가 나타난다.  도대체 멱함수 법칙이 무슨 의미가 있고, 왜 중요할까? 이런 근본적인 질문에 관심이 있는 독자라면 여섯 번째 장을 361쪽의 노트와 함께 찬찬히 살펴보면 좋을 것이다. (사실 이는 통계물리학의 상전이와 임계 현상에 관계된 심도 깊은 논의를 품고 있다.) 혹, 척도 없는 네트워크의 발견을 응용하고 적용하는데 관심이 더 많다면, 열 번째 장 이후에 다양한 적용에 대한 논의가 펼쳐진다. 그 이후는 중간부터 읽는다고 해서 이해에 큰 문제가 되지는 않는다.  '응답하라' 시리즈가 한창 인기 있을 때 "어·남·○"가 있어, 드라마 속 미래의 남편을 찾는 즐거움에 찬물을 끼얹는 글들이 있었다. 이제 급격한 성장기를 지나 여러 학문 분야에 응용되는 단계에 접어든 복잡계 네트워크 이론의 연구자들에게는 "어·네·멱"이 통할 것이다. "어차피 네트워크는 멱함수 법칙이다." 하지만, 방심은 마시라 남편이 정환이라 확신했다 택이인 줄 알고 소위 '멘붕'을 겪은 시청자들이 많지 않았던가.  14년 전 KAIST 연구실에서 시작한 복잡계 네트워크 연구는 나의 연구 인생 큰 부분을 차지하게 되었고, 이제는 나의 학생들을 지도하고 있다. 네트워크 연구의 선구자인 폴 에르되스에게 몇 단계 만에 닿을 수 있는가를 뜻하는 에르되스 넘버가 있다. 책의 내용 중에 바라바시 의 에르되스 넘버가 4라기에 '이제 나는 적어도 6은 되겠구나!' 하는 생각에 에르되스 넘버를 미국수학회(AMS)에서 제공하는 서비스(☞바로 가기 : MathSciNet)를 이용하여 확인해 봤다. 그런데, 의외로 다른 경로로 4가 되었다. 최근에 &lt;세상물정의 물리학&gt;(동아시아 펴냄)의 저자로 유명한 성균관대학교 김범준 교수 그룹과 논문을 썼는데, 김범준 교수는 톰 브리톤이라는 스웨덴의 수리생물학자와 논문을 썼고, 다시 브리톤은 스웨덴의 수학자 스벤테 얀슨과 논문을 썼다. 얀슨은 에르되스와 함께 쓴 논문이 있다.  되돌아보면 인생의 중요한 분기점에는 의외성도 많고 불확실성도 많다. 내가 그때 그저 좋아 했던 것들이 나의 미래를 이 정도로 결정할 줄이야!  다시 '응답하라'의 마지막 내레이션을 빌려 마무리 해 본다. 연구의 열정으로 "뜨겁고 순수했던, 그래서 시리도록 그리운 그 시절. 들리는가, 들린다면 응답하라." 나의 2002년이여!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲충북도가 11일 서울 충북학사 서서울관에서 국회의원초청 정책간담회를 진행했다. (왼쪽부터) 장선배 충북도의장, 김수민 의원, 이종배 의원, 변재일 의원, 이시종 도지사, 오제세 의원, 정우택 의원, 도종환 의원, 이후삼 의원.ⓒ충북도       충북선 철도 고속화사업 오송연결선 반영 등 6조 원대 내년도 지역현안 예산확보를 위해 충북도가 지역출신과 연고 국회의원들과 머리를 맞댔다.   도는 11일 서울 영등포구 소재 충북학사 서서울관에서 변재일, 오제세, 정우택, 도종환, 이후삼, 김종대, 김수민 국회의원이 참석한 가운데 정책간담회를 가졌다.  도가 내년도 예산에 대한 협조를 구하는 이날 자리에 도는 지역출신과 비례대표, 지역연고 의원 등 21명을 초청할 예정이었으나 7명밖에 참석하지 않아 국회차원의 협조가 여전히 미약한 아쉬움을 남겼다.  이날 간담회에서는 충북선 철도 고속화사업 오송연결선 반영, 세종~세종관문공항 고속화도로 건설, 세종~오송역~청주공항 중전철 건설 등 에 대한 지원과 협조가 논의됐다.  이어 오송 국제 K-뷰티스쿨 건립, KAIST 생명과학기술대학 오송 확대이전, 미래첨단농업복합단지 조성, 중부권 차세대 방사광 가속기 구축, 수소 융복합실증단지 공모 선정, 충북 시스템반도체 후공정 플랫폼 구축, 충청권 2030 하계 아시안게임 공동유치, 2019 충주세계무예마스터십 개최 등도 포함됐다.  또한 기재부 심사가 진행되고 있는 가운데 중부고속도로(서청주~증평) 확장, 충청권 유교문화권 광역관광개발 사업, 미래해양과학관 건립, TBN충북교통방송국 건립, 국립 충주박물관 건립, 천연물 지식산업센터 구축, 단양군 보건의료원 건립, 영동~보은 국도 건설, 소방복합치유센터 구축 등 71건의 사업에 대해 정부예산 반영을 적극 요청했다.  이시종 지사는 “충북선철도 고속화사업 예타면제, 청주국제공항 거점항공사 면허발급 등 지역현안 해결에 큰 역할을 해 준 지역 국회의원들에게 감사하다”며 이번 간담회에서 건의한 주요 현안 및 정부예산 사업에 대해서도 각별한 관심과 지원을 다시 한 번 요청했다.  아울러 지난달 22일 충북 오송에서 대통령이 참석한 가운데 개최한 바이오헬스 국가비전 선포식 후 바이오산업 중심지로 발돋움하기 위한 후속 조치에 대해서도 자세히 설명하며 협조를 구했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      (재)영월장학회(이사장 최명서 영월군수)는 지역인재 육성을 위한2020년 2학기 복학 장학생을 선발한다고 31일 밝혔다 신청기간은 오는 8월 3일부터 8월 14일까지다. 선발인원은 일반 4년제 및 서울대, 카이스트, 포스텍, GIST, UNIST, 의·수의·한의예·약학·치대를 포함해 총 5명이다.     ▲영월군 청사. ⓒ프레시안  신청 필수요건은 공고일 현재 영월군에 주소를 두고 있으며 영월군 내 고등학교를 졸업한 뒤 휴학 직전 학기 이수학점이 15학점 이상(계절학기 포함), 3.3 이상의 성적 요건을 충족해야 한다. 접수는 영월군청 홈페이지에 인터넷 접수로 하고 제출서류는 영월군청 자치행정교육과로 우편 또는 방문 제출하면 된다. 장학금 신청 관련 자세한 내용은 영월군 홈페이에서 확인할 수 있으며 기타사항은 영월군청 자치행정교육과로 문의하면 된다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      항한국항공우주산업진흥협회(항공우주협회)는 지난 22일 국회 의원회관 제1세미나실에서 열린 ‘항공 산업 육성을 위한 정책 세미나’가 성황리에 마무리됐다고 밝혔다.  자유한국당 김규환 의원과 더불어민주당 송영길 의원이 공동주최하고 항공우주협회가 주관한 이번 정책세미나는 국내 항공 제조 산업 육성 및 수출 촉진 방안과 일자리 창출을 위한 정부조달제도 발전 방향 등을 모색하기 위해 마련됐다.  항공우주협회 김조원 회장을 비롯해 기획재정부, 산업통상자원부, 국토교통부 담당과장, 유관부처 및 전문가 등 100여명이 참석한 이번 행사는 주제 발표, 패널 토론, 질의응답 순으로 진행됐다.   ⓒ한국항공우주산업진흥협회   이날 첫 번째 발제자로 참석한 항공안전기술원 이강이 박사는 항공안전협정(BASA*) 상호인정범위 확대를 위한 시범사업 추진전략을 발표했다.   이 박사는 “국산 항공기 및 부품의 수출을 촉진하기 위해서는 그동안 BASA IPA(감항성 이행절차)에 따라 KC-100 비행기, B737-400 타이어 등 소형항공기, 기술표준품(TSO)에만 한정되어 있었던 상호인정범위의 확대가 필수”라며, “이를 위한 국책 과제 추진 시 국내 항공산업 육성과 수출 촉진을 위하여 기획 단계에서 부터 본격적인 시범사업 시 까지 정부의 적극적인 지원이 필요하다”고 강조했다.  두 번째 발제자인 조달연구원 김대식 박사는 ‘일자리 창출을 위한 정부조달제도 발전 방향’을 주제로 정부조달제도의 현황과 시장에 대해 소개했다.   김 박사는 “외산 의존도를 낮추고 국산조달 비중을 높이기 위한 정부조달제도의 입찰방식 개선을 통해 신산업 육성 및 일자리 창출이 가능하다”며, “우선 국민의 세금으로 만든 국산 항공기, 헬기들이 국유재산으로 이용될 수 있는 분위기가 안정적으로 조성되어야 한다”고 말했다.   또한 “중장기 구매 계획 및 통합구매, 자국산 우선 구매제도 등 국산품을 보호하기 위한 제도적인 개선 노력도 중요하다”고 덧붙였다.  주제 발표 이후 이어진 패널 토론에서는 항공우주학회 이재우 수석부회장(건국대)을 좌장으로 기획재정부 천재호 지역경제정책과장, 산업통상자원부 양병내 자동차항공과장, 국토교통부 오성운 항공기술과장, 항공우주학회 방효충 부회장(KAIST) 등이 항공우주산업의 현안 및 육성을 위한 개선과제, 국내 제작 항공기 및 부품 경쟁력 강화 방안 등에 대해 토론했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      장성군이 지난 18일, 중국 중경시 소재 중경우전대학과 교육교류 협약(MOU)을 체결했다고 26일 밝혔다.     ▲중국 중경시 소재 중경우전대학과 교육교류 협약(MOU) 체결 모습 ⓒ장성군    이에 따라 장성군은 매년 관내 4개 고등학교에서 선발된 8명의 우수 학생들에게, 중경우전대학에서 학부 및 석·박사 학위 과정을 이수할 수 있는 기회를 제공할 예정이다. 내년 2월까지 관내 고교 홍보 기간을 가진 뒤 학교별로 2명의 학생을 선발, 3월 중으로 입학 수속을 마치게 된다.  선발된 장성군 학생들은 6개월 간 어학연수 기간을 거친 뒤 학부 과정을 시작하며, 본인 의사에 따라 차후 석·박사 과정까지 진행할 수 있다(학비는 본인 부담). 대학 측에서는 교육기간 동안 국내 교수진을 초빙해 멘토링 서비스를 지원하고 기숙사도 무료로 제공한다.  중경우전대학은 중경시 내 67개 대학 가운데 상위권(3~5위)에 있는 4년제 종합대학이다. 컴퓨터·IT·전자상거래 등 이공계열이 특화된 대학으로, 한국과는 총 5개소의 연구개발센터를 공동으로 설립하는 등 우호적 협력관계를 유지하고 있다.  뿐만 아니라 인하대, 카이스트(KAIST), 고려대, 건국대 등 국내 대학과 활발한 교육 교류를 이어가고 있으며, 삼성, KT, SK하이닉스 등의 국내 기업과도 공동 연구를 진행하고 있다.  유두석 군수는 이번 협약이 “장성군의 글로벌 인재 육성에 또 하나의 기회가 될 것이다. 5년 기한의 협약이지만 자동으로 기간이 연장되는 만큼, 향후 장성군과의 지속적인 교육 교류를 기대한다”고 전했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 세탁 가능한 입는 디스플레이 모듈 모식도 및 구동 사진 ⓒKAIST       전자 기능을 의복이나 착용 장치에 통합한 웨어러블 기기에 대한 관심이 커지고 있는 가운데 외부 전원없이 자가 발전되고, 세탁할 수 있는 디스플레이 모듈 기술이 개발됐다.  KAIST 전기및전자공학부 최경철 교수와 전남대학교 의류학과 조석호 교수 연구진이 개발한 이 기술은 옷감을 직접 기판으로 사용하는 전자소자의 상용화를 앞당길 것으로 기대된다.  또 전자소자가 외부 전원 없이 자가 발전해 에너지를 절약할 수 있고, 전통적인 섬유기술과 첨단 IT 산업의 융합으로 의류의 첨단기술화를 통해 ‘입는 디스플레이’라는 신시장을 창출할 것으로 평가된다.  최경철 교수 연구진은 낮 동안에 태양에너지를 전기에너지로 변경하는 PSC 및 적은 전력으로 작동할 수 있는 OLED를 직물 위에 형성해, 자가 구동할 수 있는 ‘입는 디스플레이 모듈’ 구현에 성공했다.  이 디스플레이 모듈은 낮에 충전한 전력으로 저녁에도 구동 할 수 있어 탈부착 없이 사용할 수 있다.  또 입는 디스플레이 형태로 제작된 디스플레이 모듈이 비 오는 날이나 세탁해도 특성을 유지할 수 있도록, 투습 방지에 탁월한 새로운 봉지막도 개발했다.  이 봉지막의 경우 무기막을 포함하고 있지만 유연성이 좋아 세탁과 3mm의 낮은 곡률반경에서도 성능 저하없이 옷감 위에 입는 디스플레이 모듈을 형성할 수 있다.  또 70℃ 이하의 저온공정을 사용해 실제 의류에 사용되는 다양한 소재에 적용할 수 있다.        ▲ 최경철 교수(앞줄 오른쪽) 연구진 (시계방향으로 최경철 교수, 조석호 교수, 전용민 연구원, 정은교 박사)ⓒ    최경철 교수는 “기존의 플라스틱 기판 기반의 웨어러블 전자소자 및 디스플레이 연구와 달리 일상생활에 입는 옷감을 기판으로 활용해 세탁이 가능하고 외부 전원 없이 고분자 태양전지로 디스플레이를 구동하는 전자소자 모듈을 구현했다”며 “태양에너지를 이용해 자가 구동 및 세탁이 가능한, 전기 충전이 필요 없는 진정한 의미의 입을 수 있는 디스플레이 기술 시대를 열었다”고 설명했다.  정은교 박사과정과 전용민 연구원이 주도한 이번 연구는 국제 학술지‘에너지&amp;인바이런멘탈 사이언스(Energy and Environmental Science, IF : 30.067)’ 1월18일 자 온라인판에 게재됐고, 우수성을 인정받아 뒤표지 논문으로 선정됐다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      인터넷의 개방 확대가 미래지향적이고 가치지향적이다얼마 전 방송통신위원회가 보안 접속(https) 또는 우회 접속 관련 차단 기능 고도화 정책을 발표하면서 해외 인터넷 사이트에 대한 접속 차단 기능을 고도화하고, 895건의 불법 해외사이트 차단하는 결정을 내렸다. 불법도박, 불법음란물에 대한 사회적인 피해와 부작용이 커지고 있는 상황에서 방통위는 법 위반 해외사업자에 대한 법 집행력 확보 및 이용자의 피해구제의 한계를 극복하기 위한 조치였다고 항변하고 있다. 하지만, 국민들은 'https' 차단 정책에 대한 반대 의견으로 청와대에 국민청원이 올렸고, 이에 대해 방송통신위원회 위원장은 정책 결정 과정에서 국민들이 공감할 수 있도록 소통하는 노력이 부족했다고 사과했지만, 아직도 인터넷 공간에서 논란은 가라 앉지 않고 있는 상황이다. 1450년경 구텐베르크 성서의 의미로 알 수 있듯이 사회는 기존 질서가 구축한 정보통제의 규제와 틀을 뚫어내는 고단한 투쟁을 통해서 발전해 올 수 있었다. 인터넷 정보는 곧 언론이고 여론이고, 심지어 집단적 지성이기도 한 세상이다. 지금은 모든 정보가 인터넷을 통해 유통되는 디지털전환(4차산업혁명)의 시대다. 스마트기술(ICBM etc)에 기반하여 산업, 행정 및 문화 등 사회 전체가 혁신으로 전환되는 시대다. 행정부처에서 인터넷을 언제든지 규제할 수 있다는 선례를 남겨서 너무 가슴 아프다. 다시는 이러한 시도가 없어야 할 것이다. 막는다고 기술적으로 완벽히 막을 수도 없고, 미래지향적이도 않고, 가치지향적이지도 않다. 인터넷 통제, 검열 사태로 번진 이유...국민감정 이해해야우리나라는 군사정권 시절에 보도통제를 통하여 세부지침까지 세워 어떠한 기사도 검열 전에는 보도될 수 없었던 시기가 있었다. 촛불혁명에 의해 박근혜 대통령의 탄핵이 결정되었던 시점인 2017년 3월에 기무사령부가 작성한 계엄령 발표문건에서 계엄 선포와 동시에 언론, 출판, 공연 전시물에 대한 사전검열과 포털·소셜미디어(SNS)를 차단하여 유언비어를 통제하는 내용이 추가된 것으로 알려지면서 국민들은 또다시 분노하였다.우리나라의 '촛불혁명'은 얼마 전 프랑스의 '노란 조끼' 시위와 종종 비교되곤 한다. 촛불혁명과 노란조끼 시위는 최고 권력자의 오만과 불통에서 출발하였던 점에서 비슷한 것 같지만, 질서유지와 비폭력에 의한 '촛불혁명'은 아마 세계사에 길이 남을만한 세계적 사건이라고 할 수 있다. 국민들은 IT기술을 적극적으로 활용하여 단순 시위에 그칠 수 있었던 촛불을 혁명으로 승화시켰기에 이번 사태에 대해서 더욱 배신감을 느꼈으리라 생각된다. 단순히 국민들은 문재인 정부에서 개인의 정보를 검열당한다고 생각하는 것이 아니라, 이러한 정책이 유지될 경우 차기 혹은 차차기 정권에서 마음만 먹으면 개인의 정보를 감찰하고, 정권에 적대적인 사이트를 폐쇄할 수 있을 길을 열어준 것에 대한 반대일 것이다. 국민의 믿음으로 탄생한 정권, 국민들과 인터넷의 자정 능력을 신뢰해야인터넷의 발전은 그동안의 간접민주주의 형태를 직접민주주의 형태로 변화시킬 가능성을 보여주며, 다양한 정보가 공유·확산되는데 기여하였다. 또한, 이러한 정보의 공유를 통해 새로운 민주주의 체제가 가능하다는 것을 보여줬던 것이 바로 촛불혁명이다.  이번 방통위 조치가 국민들과 우리나라의 대표적인 경제 분야인 IT 분야에 대해 잘못된 신호를 주는 것이 되어서는 안 될 것이다. 국민들이 자유스럽게 인터넷을 통해 정보를 생산, 공유할 수 있고, IT산업이 4차 산업혁명 시대에 한국 경제 성장의 뒷받침이 되도록 지켜줘야 할 것이다. 국민의 많은 지지 속에 탄생한 문재인 정부는 이제 다시 국민의 신뢰를 얻기 위해 국민의 높은 의식 수준과 인터넷의 자정 능력에 대해서 거꾸로 신뢰를 보여줘야 할 것이다.필자 이현웅 박사는 현재 문화체육관광부 산하 문화정보화 전담 기관인 한국문화정보원 원장을 맡고 있다. 한국개발연구원 세계도시정책연구소 부소장, 카이스트 테크노경영연구소 선임연구원 등을 지냈다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      강원랜드(대표 문태곤)는 지난 24일 강원랜드 컨벤션호텔에서 참가 학생 36명과 인솔교사 등이 참여한 가운데 ‘2018 하이원 선상학교’ 오리엔테이션을 개최했다.  이날 오리엔테이션에서는 하이원 선상학교 프로그램에 대한 전반적인 소개를 시작으로 선내 생활 및 안전수칙에 대한 안내, 조 편성 등이 진행됐다.  또한 단체빙고, 스피드퀴즈, 골든벨과 같은 레크레이션 활동을 통해 참가자들이 친분을 쌓을 수 있는 시간도 마련됐다.    ▲지난 24일 열린 2018 하이원 산상학교 오리엔테이션. ⓒ강원랜드     오리엔테이션에 참가한 36명의 학생들은 공모를 통해 선발됐으며, 내달 11일부터 18일까지 7박8일 일정의 하이원 선상학교에 참여하게 된다.  참가 학생들은 카이스트 정재승 교수, 사진작가 조세현, 방송인 노홍철, 소설가 은희경 등 각계 명사들의 강연에도 참여하고 부산항, 러시아 블라디보스토크, 일본 후쿠오카, 일본 가나자와 등에서 역사‧문화 탐방 프로그램을 수행하게 된다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      한림대학교(총장 김중수)가 영국의 대학평가기관 QS(Quacquarelli Symonds)에서 실시한 ‘2021 QS 세계대학평가(QS World University Rankings 2021)’에서 국내 18위에 이름을 올렸다. 이번 평가에서 한국 대학은 한림대를 포함해 서울대, KAIST, 고려대, POSTECH, 연세대 등 29개 대학이 순위에 들었다. 한림대는 지난해 최고 성적인 국내 19위에 이어 올해 18위로 한 계단 상승했으며, 강원도 내 대학 중 유일하게 세계 500위권 글로벌 대학으로 자리잡았다.    ▲한림대학교 전경. ⓒ한림대   QS 세계대학평가는 세계 각국의 학계와 산업계에서 선정된 15만명이 평가위원으로 참여해 만들어진 학계의 평판 평가(40%), 졸업생 평판도(10%), 교육 여건(20%), 논문 피인용 수(20%), 국제화 정도(10%)를 평가지표로 사용하고 있으며, 세계적으로 가장 권위 있는 대학 평가로 인정받고 있다. 한림대는 김중수 총장 재임기간 동안『한림 Vision &amp; Action 2016~2022, 한림 Vision &amp; Action 2018~』의 3대 핵심전략인 글로벌화, 융합화, 지역화 정책으로 학생중심교육 실현을 위해 지속적 노력을 기울여 왔다. 2019년부터 글로벌융합대학과 글로벌협력대학원을 중심으로 KOICA 석사학위연수사업과 글로벌협력사업을 추진해 대학의 글로벌화를 선도하고 있다. 특히, 한림대는 올해 교육부의 첨단학과 신설 및 학생 정원 증원을 승인받아 2021년부터 입학정원 60명 규모의 인공지능융합학부를 신설하고, Health &amp; Life Care 분야에서 AI를 기반으로 강원도의 4차산업혁명 교육을 선도하는 대학으로 도약을 준비하고 있다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      제주도는 원희룡 도지사가 5일부터 11일까지 미국 첨단기술 연구단지인 실리콘밸리와 세계 최대 전자제품 박람회인 세계가전전시회(이하 CES) 2020에 참석한다고 밝혔다.오는 7일 부터 10일 까지 라스베이거스 컨벤션센터에서 개최되는 이번 행사에서 원희룡 도지사는 제주도가 추진 중인 ‘글로벌 블록체인 허브 도시’ 및 ‘스마트 아일랜드’ 조성 등에 대한 국내외 오피니언 리더들과의 협력방안 모색에 나선다.   .ⓒ제주특별자치도   특히 제주가 선도하고 있는 전기차 연관 산업의 육성을 위해 세계적인 전기자동차 및 배터리 제조사인 Tesla사의 프리몬트 공장을 방문해 기업관계자와 면담하고 의견을 교환할 예정이다.CES는 미국가전협회가 주관해 매년 1월 미국라스베가스에서 열리는 세계최대 규모의 가전IT제품 전시회 로서 모바일월드콩그레스(MWC), 국제가전박람회(IFA)와 더불어 세계 3대 기술 전시회로 꼽힌다.원희룡 지사는 6일 산호세 실리콘밸리에 위치한 스타트업 육성학교인‘Draper University’의 Asra nadeem 총장을 만나 혁신 스타트업 육성방안 등에 대해 의견을 교환하고 이어 테슬라사의 프리몬트 공장을 방문한다.7일에는 라스베가스에서 개최되는 CES 2020에 참가해 정보통신기술의 세계적인 흐름과 글로벌 가전제품 시장동향을 살피고 블록체인, 사물인터넷 등 분야를 선도하는 국내외 오피니언 리더들을 만나는 한편, 김현석 삼성전자 대표, 현대자동차 지영조 사장 및 두산・LG 임원들과 면담을 갖는다.한편 원희룡 지사의 이번 미국 출장에는 김상협 제주그린빅빅뱅포럼위원장(㈔우리들의 미래 이사장, KAIST 지속발전연구센터장)과 이찬진 전 한글과컴퓨터 사장, 노희섭 미래전략국 국장 등이 동행했다.제주도는 이번 원희룡 지사의 미국방문을 통해 제주의 4차 산업혁명 시대 전략산업 육성과 제주의 지속가능한 발전 생태계 마련을 위한 계기가 될 것으로 기대하고 있다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      바른미래당, 민주평화당, 정의당 등 야 3당이 '연동형 비례대표제' 도입을 위한 무기한 농성에 들어간 상황에서 더불어민주당, 자유한국당이 예산안 처리를 잠정 합의해 비판의 목소리가 높아지고 있다. 두 거대 양당이 군소 야당을 '패싱'한 셈이다. 심지어 국회 제 3의 교섭단체(바른미래당)마저 예산안 합의 과정에서 소외시킨 것은 헌정 사상 그 유례를 찾기 드문 일이다. 선거구제 개편이 협상 테이블에 올랐음에도 이를 건너 뛴 것 역시, 선거 제도 개혁을 바라지 않는 거대 양당의 속내가 드러난 것이라는 비판이 제기되고 있다. 개혁 성향의 학자 189명은 6일 '비례성이 보장되는 선거제도 도입을 촉구하는 교수․연구자 일동'으로 긴급 성명을 내고 선거제도 개혁을 외면한 더불어민주당과 자유한국당의 '야합'을 거세게 비판했다. 이들 학자들은 "항간에는 야3당이 선거제도 개혁과 예산안 처리를 연계시키자 민주당은 현 선거제도의 고수에 뜻을 같이하는 자유한국당과의 거래를 통하여 예산안 통과를 획책하고 있다는 흉흉한 소문까지 나돌고 있다. 이른바 '반개혁연대' 혹은 '적폐연대'를 도모하고 있다는 것"이라며 "민주당은 여론이 이토록 민감하게 반응하고 있다는 사실에 유의하여 개혁 전선에 더욱 신중하게 임해야 할 것"이라고 경고했다. 189명의 학자들은 "우리는 연동형 비례대표제를 도입해야 한다는 야3당의 주장에 전적으로 동의한다"며 "거제도의 개혁은 그 어떤 국정과제보다도 시급하고 중요한 것이라고 아니할 수 없다. 오죽하면 예산안 처리와 연계할 생각까지 했겠는가"라고 했다. 이들은 "다시 한 번 돌아보자. 우리 국민의 대다수를 차지하는 비정규직 노동자, 소상공인, 청년 등의 사회경제적 약자들은 하루하루를 살아내기가 어려워 불안과 공포 속에 허덕이고 있는데, 막상 국회 안엔 그들을 대표하는 정당과 정치인이 별로 없다. 시민이 주인이라고 하는 민주 국가의 대다수 주인이 정치적 대리인 없이 방치돼 있다는 것인데, 이게 어떻게 대의제 민주주의란 말인가"라고 선거구제 개혁을 외면한 두 거대 양당을 비판했다. 이들은 이어 "연동형 비례대표제와 같이 약자를 포함한 주요 사회경제 집단의 정치적 대표성을 두루 보장해줄 수 있는 '좋은 선거제도'의 도입이 필요하다"라고 주장하며 "그래야 목전까지 다가온 사회 해체의 위기를 극복할 수 있다. 포용국가, 복지국가의 건설은 그런 다음에야 가능한 일이다"라고 주장했다. 이들은 "이제 시간이 별로 없다. 무엇보다 민주당의 결단이 필요하다"라며 "비례성 높은 선거제도의 도입은 2012년과 2017년 대선, 그리고 2016년 총선 때의 민주당 공약이지 않았던가. 2015년엔 당시 문재인 당 대표의 주도로 '권역별 (소선거구-비례대표) 연동제' 도입이 공식 당론으로 채택되기도 했다. 민주당은 야당시절의 그 충정을 회복해야 한다"고 지적했다. 이들은 첫째 "제 정당은 정기국회 종료 전 정당 득표율과 의석 배분율 간의 비례성이 보장되는 선거제도 도입에 합의할 것", 둘째 "민주당도 야3당이 기 결성한 '선거제도 개혁 연대'에 동참, 개혁의 맏형 역할을 수행하고 자유한국당의 협조를 견인할 것", 셋째 "민주당은 선거제도 개혁 연대를 계기로 협치가 제대로 작동케 하라", 넷째, 대통령은 5당 대표와의 담판회동을 개최하라"는 요구 사항을 내놓았다. 해당 성명은 12월 5일 정오부터 6일 오후 5시까지 서명을 받았고, 서명에 동참한 189명 학자들 명단은 다음과 같다. 서명자 명단 (189명 : 2018년 12월 6일 오후 5시 현재)강남훈(한신대), 강내희(지식순환협동조합 대안대학), 강봉수(제주대), 강사윤(제주대), 강수돌(고려대), 강신성(한남대), 강원택(서울대), 고부응(중앙대), 고세훈(고려대), 고영철(제주대), 고철환(서울대), 구춘권(영남대), 권순미(고용노동연수원), 김교빈(호서대), 김귀옥(한성대), 김규완(고려대), 김규종(경북대), 김남석(경남대), 김누리(중앙대), 김대영(제주대), 김동춘(성공회대), 김레베카(성공회대), 김맹하(제주대), 김명환(서울대), 김민정(서울시립대), 김병기(대한독립운동총사 편찬위원회), 김상균(성균관대), 김상현(한양대), 김서중(성공회대), 김선일(경희대), 김성재(조선대), 김세균(서울대), 김신동(한림대), 김양희(대구대), 김연태(고려대), 김영균(청주대), 김영순(서울과기대), 김용복(경남대), 김용일(한국해양대), 김용진(서강대), 김유선(한국노동사회연구소), 김유찬(홍익대), 김윤상(경북대), 김윤철(경희대), 김윤태(고려대), 김은주(한국여성정치연구소), 김일규(강원대), 김정희(제주대), 김재석(경북대), 김종해(가톨릭대), 김준(동국대), 김진균(성균관대), 김진석(서울여대), 김진해(경희대), 김태일(영남대), 김헌태(한림국제대학원대), 김형철(성공회대), 김호균(명지대), 남기업(토지+자유연구소), 남중섭(대구대), 류동영(목포대), 문진영(서강대), 박경태(성공회대), 박기수(성균관대), 박명림(연세대), 박진희(동국대), 박배균(서울대), 박동천(전북대), 박순성(동국대), 박승호(성공회대), 박주원(영남대), 박지현(인제대), 박진도(충남대), 박창근(가톨릭관동대), 박태순(바른미래연구원), 박형준(글로벌정치경제연구소), 박혜숙(제주한라대), 배병인(국민대), 배재국(한국해양대), 백승흠(청주대), 백영경(방통대), 백종만(전북대), 서복경(서강대), 서영표(제주대), 선대인(선대인경제연구소), 선재원(평택대), 선학태(전남대), 손열(연세대), 손준식(중앙대), 손호철(서강대), 송원근(경남과기대), 송주명(한신대), 송태수(고용노동연구원), 신광영(중앙대), 신동면(경희대), 신승환(가톨릭대), 신용인(제주대), 신호창(서강대), 심광현(한예종), 심규호(제주국제대), 안용흔(대구가톨릭대), 양길현(제주대), 양재원(가톨릭대), 양해림(충남대), 염민호(전남대), 오세곤(순천향대), 오현철(전북대), 우석훈(성공회대), 우희종(서울대), 원효식(대구대), 위대현(이화여대), 유병제(대구대), 유성진(이화여대), 유세종(한신대), 유종성(가천대), 윤병선(건국대), 윤용만(인천대), 윤원일(수원여대), 윤찬영(전주대), 윤홍식(인하대), 은민수(고려대), 이계수(건국대), 이금숙(성신여대), 이덕일(한가람역사문화연구소), 이대근(북한대학원대), 이도흠(한양대), 이병천(강원대), 이병한(원광대), 이삼열(숭실대), 이성헌(서울대), 이병훈(중앙대), 이봉수(세명대), 이상이(제주대), 이영제(한국정치연구회), 이원영(수원대), 이재민(제주한라대), 이종오(명지대), 이주하(동국대), 이창곤(한겨레경제사회연구원), 이태수(꽃동네대), 임강택(통일연구원), 임순광(한국비정규교수노동조합), 임운택(계명대), 임재홍(방통대), 임종대(한신대), 임춘성(목포대), 장동표(부산대), 장용창(숙의민주주의환경연구소), 장평우(청주대), 전강수(대구가톨릭대), 전재호(서강대), 전형수(대구대), 정기석(마을연구소), 정민(제주한라대), 정병기(영남대), 정슬기(중앙대), 정승필(경상대), 정원호(한국노동사회연구소), 정인환(협성대), 정재원(국민대), 조돈문(가톨릭대), 조문영(연세대), 조성대(한신대), 조승래(청주대), 조애리(카이스트대), 조영배(제주대), 조영재(명지대), 조현철(서강대), 진영종(성공회대), 천세철(건국대), 천정환(성균관대), 최갑수(서울대), 최무영(서울대), 최배근(건국대), 최상명(우석대), 최승제(경상대), 최영찬(서울대), 최유진(경남대), 최태욱(한림국제대학원대), 최현(제주대), 하선규(홍익대), 한성일(건국대), 허상수(지속가능한사회연구소), 홍경준(성균관대), 홍남선(목포대), 홍성학(충북보건과학대), 홍윤기(동국대), 홍진곤(건국대), 한상희(건국대)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 왼쪽부터 안수진 박사과정 이지항 박사 이상완 교수 ⓒKAIST       KAIST 바이오 및 뇌공학과 이상완 교수 연구팀이 영국 케임브리지 대학, 구글 딥마인드와의 공동 연구를 통해 차세대 뇌 기반 인공지능 시스템 설계의 방향을 제시했다.  이번에 진행된 신경과학-인공지능 융합 연구는 인간의 두뇌가 기존의 인공지능 알고리즘이 해결하지 못하는 부분을 해결할 수 있다는 사실에 기반을 두고 성능, 효율, 속도의 균형적 설계와 같은 다양한 공학적 난제를 해결할 수 있는 신경과학 기반 강화학습 이론을 제안한 것으로, 새로운 인공지능 알고리즘 설계에 긍정적인 영향을 줄 것으로 기대된다. 이 교수 팀은 강화학습 등의 개별 인공지능 알고리즘이 해결하지 못하는 공학적 문제를 인간의 두뇌가 이미 해결하고 있다는 사실에 기반한 ‘전두엽 메타 제어’ 이론을 제안했다.  중뇌 도파민-복외측전전두피질 네트워크에서 외부 환경에 대한 학습의 신뢰도를 스스로 평가할 수 있는 보상 예측 신호나 상태 예측 신호와 같은 정보를 처리한다.  인간의 두뇌는 이 정보들을 경쟁적-협력적으로 통합하는 프로세스를 통해 외부 환경에 가장 적합한 학습 및 추론 전략을 찾는다는 것이 이론의 핵심이다.  이 원리를 단일 인공지능 알고리즘이나 로봇설계에 적용하면 외부 상황변화에 강인하게 성능, 효율, 속도 세 조건(performance-efficiency-speed tradeoff) 사이의 균형점을 유지하는 최적의 제어 시스템을 설계할 수 있다.  나아가 다수의 인공지능 개체가 협력하는 상황에서는 서로의 전략을 이용함으로 협력-경쟁 사이의 균형점을 유지할 수 있다.  이지항 박사는 “현대 인공지능의 우수한 성능은 사람의 행동 수준 관찰뿐 아니라 두뇌의 저수준 신경 시스템을 알고리즘으로 구현해 적극적으로 발전시킨 결과”며며 “이번 연구는 계산신경과학에 기반한 결과로 현대 딥러닝과 강화학습에서 겪는 성능, 효율, 속도 사이의 난제를 해결하는 실마리가 될 수 있고, 새로운 인공지능 알고리즘 설계에 많은 영감을 줄 것”이라고 말했다.  이상완 교수와 이지항 박사, 안수진 박사과정이 주도한 이번 연구는 국제 학술지 사이언스의 자매지 ‘사이언스 로보틱스(Science Robotics)’ 1월16일 자 온라인판에 포커스 형식으로 게재됐다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      한동안 걷지 못했다. 메모장을 들춰보니 지난해 가을부터 걷지 않았다. 버나드 쇼의 묘비명이 떠올랐다. '우물쭈물하다가 내 이럴 줄 알았다.' 시간이 나기를, 마음에 여유가 생기기를 기다리다가 지는 나뭇잎과 솟아나는 새순을 차창을 통해 보고 말았다. 세 계절을 걷지 않았다는 것은 내가 나로 살지 못했다는 명백한 증거다. 나에게 걷기는 단순한 운동이 아니다. 습관, 아니 태도에 가깝다. 조금 거창하게 말해서 문명에 대응하는 나의 방식이랄까. 걷기는 유산소 운동이다. 그런데 산소가 근육이나 골격에만 필요한 것은 아니다. 정신에도 뼈와 살이 있을 것이다. 걷기는 정신에도 산소를 공급한다. 걷는 동안 우리의 정신은 녹색으로 변한다. '녹색의 마음'에 가까워진다. 녹색의 마음이라니? 한마디로 '다른 생각, 다른 삶'을 지향하는 상상력이다. 산업 문명의 폐해를 뛰어넘으려는 적극적 사유. 다시 말해 이성과 과학을 우선하는 근대성에 대한 저항이자, 도시적 삶에 대한 자발적 탈출이 녹색의 행동이다. 자본과 권력의 작동 방식인 힘의 논리에서 벗어나 지구 생태계의 한 구성원으로서 '생명 평화'의 가치를 추구하는 모든 노력이 녹색에 포함된다. 내가 걷기와 재회한 것은 그리 오래되지 않는다. 게다가 뒤늦었다. 십수 년 전, 40대로 접어들어서야 걷기를 다시 경험했다. 2001년 5월 '지리산 8백50리 도보 순례'에 참여하지 않았다면 나는 걷기로부터 영영 멀어졌을지도 모른다. 그해 5월 3일부터 18일까지 14박 15일, 나는 도보 순례단 단원이자 취재 기자 자격으로 지리산 외곽을 시계 방향으로 한 바퀴 돌았다. 남원 실상사에서 출발해 산청, 하동, 구례, 남원을 거쳐 다시 실상사에 도착했다. 5대 종단인 불교, 가톨릭, 개신교, 원불교, 천도교가 지리산에 모여 '생명 평화'를 구현하기 위한 다양한 행사를 기획했는데 도보 순례도 그 가운데 하나였다.  보름 동안 걸어 지리산을 한 바퀴 오전에는 함께 걷는 단원이었지만, 오후에는 기자로 돌아가야 했다. 내가 몸담은 매체의 인터넷 홈페이지에 도보순례 모든 과정을 '지상 중계'해야 했다. 날마다 저녁 기사를 올려야 한다는 중압감이 없지 않았지만, 오전에는 걷기에 집중했다. 마라톤이라면 모를까, 걷기만큼은 자신이 있다고 생각했다. 그런데 웬걸, 첫날부터 몸이 삐꺽거리기 시작했다. (산문집 &lt;바쁜 것이 게으른 것이다&gt;(호미 펴냄)에도 썼지만) 길이 나를 받아주질 않는 것이었다. 난감했다. 걷기가 여간 부자연스럽지 않았다. 돌아보니 중학교 졸업 뒤로 제대로 걷지를 않았다. 쉬지 않고 한 시간 넘게 걸어본 적이 없었다. 걸을 기회조차 없었다. 그럼에도 자전거 타기처럼, 걷기는 언제든 마음만 먹으면 가능하다고 여긴 것이 불찰이었다. 덜컥거리고 뒤뚱거리던 내 몸과 마음은 사흘째가 되어서야 자연스러워졌다. 걷기에 리듬이 생겼다. 걷기에 음악성이 부여되자 풍경과 나 사이에, 대자연과 나 사이에 장애물이 없어졌다. 외부 세계와 내가 실시간으로, 전면으로 직통(直通)했다. 그해 5월 초순, 산청에서 하동으로 넘어가는 고갯마루에서 나는 '자연인'이었다. 내 몸은 지리산 일대로 쏟아져 내리는 5월의 햇살 속으로, 섬진강 쪽에서 불어오는 오전의 푸진 바람 속으로 완벽하게 스며들었다. 지리산이 품고 있는 골짜기, 골짜기가 밀어 올린 산록, 강과 산기슭 사이 넓게 드리워진 논과 밭, 양지 녘에 옹기종기 들어선 오래된 마을, 마을과 마을을 이어주는 길이 다 내 안으로 들어왔다가 나갔다. 말 그대로 '텅 빈 충만'이었다. 무엇 하나 부족한 것이 없었다. 걷고 있다는 사실조차 의식하지 않게 되었다. 길 위를 떠가는 것 같았다. 내가 너무 행복했던 것일까. 섬진강을 거슬러 구례로 접어들 무렵, 운조루 앞에서 나도 모르게 중얼거렸다.  '내 여생에 이런 도보 순례를 또 할 수 있을까.'  그로부터 14년. 결론부터 말하자면 지리산 도보 순례와 같은 걷기는 없었다. 하루 종일 걸어본 적도 없다. 5년 전인가, 제주 올레 길을 걸을 기회가 있었는데, 불행하게도 그 전날 왼쪽 무릎에 탈이 나는 바람에 한나절도 걸을 수 없었다. 학생들과 함께 몇 번 문학 기행을 다녀오기도 했지만, 일정이 빠듯해 서너 시간 넘게 내쳐 걸을 기회가 없었다. 2년 전, 안 되겠다 싶어 걷기에 좋은 비싼 신발(트레킹화) 한 켤레를 장만하고 시간을 쪼개기로 결심했다. 시간을 낼 수 없다면, 시간이 나지 않는다면, 의도해서 시간을 쪼개는 수밖에 없다. 도시에서 걷기로 작정한 것이다. 내가 즐겨 걷는 코스는 두 군데다. 경희대에서 카이스트, 산림과학원(홍릉), 고대 앞을 지나 안암동 로터리까지. 마음이 내킬 때는 성북천을 거슬러 혜화동 로터리까지 걷는다. 안암동까지는 40분, 혜화동까지는 한 시간 반 정도 걸린다. 경희대에서 홍릉으로 넘어가는 길은 서울에서도 제법 알려진 은행나무길이고, 홍릉에서 고대 앞까지는 가는 길 또한 제법 운치가 있다. 정릉천을 건널 때는 고가도로가 볼썽사납지만, 노을이 지거나 초승달이 떠 있으면 걸음걸이가 더없이 가볍다. 내가 도시에 지지 않고 있다는, 내가 내 삶의 주인이라는 느낌이 든다.   ⓒDanny Perez   고가도로 교각에 '서민 주택'을 짓자 내가 살고 있는 동네에서도 걷기 좋은 길을 찾아냈다. 경기도 고양시 행신동 서정마을 아파트단지를 가로지르는 성사천 길이다. 마침 얼마 전 경의선과 중앙선이 연결되어 기차를 타고 출퇴근하는 경우가 잦아졌다. 아파트 사이를 지나 천변 길로 내려서면 바로 '자연'이다. 아직 키 큰 나무는 없지만, 풀들이 무성하다. 강매역 아래 물가에는 오리 떼가 살고 있어 번번이 발길을 멈추게 한다. 성사천은 강매역을 지나 자유로 아래 물길을 따라 곧장 한강 하류와 합류하는데 물이 불어나면 한강의 물고기들이 올라온다는 소리를 들은 적이 있다. 성사천 길에서 '모든 것은 연결되어 있다'는 녹색 사상의 핵심을 번번이 환기한다. 걸으면서 엉뚱한 생각을 자주 한다. 버스나 기차를 탈 때와는 전혀 다른 환경이기 때문일 것이다. 대중교통을 이용할 때는 '멍하니' 있을 수가 없다. 책이나 스마트폰에 눈이 간다. 하지만 걸을 때는 걸을 수밖에 없다. 그렇다고 나와 외부 세계가 분리되는 것은 아니다. 걸으면서 끊임없이 외부와 교감을 하게 된다. 걷기는 명상과 운동 중간쯤에 해당한다. 생각을 놓치지 않으면서 외부를 관찰할 수 있다. 때로는 생각과 외부가 만나 놀라운 의미를 빚어내기도 한다. 시(詩)의 메타포처럼 서로 무관한 것들이 연결돼 스파크를 일으킨다. 며칠 전 저녁, 정릉천 종암교 위에서 저 번쩍거림이 있었다. 지난해 여름에만 해도 노숙자들이 종암교 근처에서 숙식을 해결하는 모습을 자주 목격했다. 올봄에는 노숙자들이 보이지 않아 궁금하던 차였다. 북한산에서 흘러내려 와 청계천과 만나는 정릉천은 내부순환도로가 건설되면서 하천 중앙에 고가도로를 지지하는 교각들이 세워졌다. 이와 함께 개천 양쪽으로 보행로와 자전거 도로가 마련됐다. 둔치를 시민을 위한 공공재로 만든 것은, 만시지탄이지만 박수를 보내지 않을 수 없다. 그런데 여기서 '한술' 더 뜰 수는 없을까. 저 교각들 사이에 상판을 설치해 거기에다 서민을 위한 주거 공간을 만들자는 것이다. 교각 사이를 활용한다면 신혼부부를 포함한 젊은이를 위한 원룸, 독거노인을 위한 공동 시설, 서민층을 위한 임대 주택이 가능할 것이다. 상판을 설치하는 데 드는 비용이 재개발이나 재건축에 드는 비용보다 훨씬 저렴할 것이다. 고가도로가 있는 곳은 의외로 많다. 강변북로와 올림픽대로의 수많은 교각들도 얼마든지 창의적으로 '개발'할 수 있다. 고가도로가 없는 개천도 재발견할 수 있다. 가령 성북천이나 청계천 위에 상판을 올려 예술인을 위한 창작 공간을 마련한다면, 지역사회가 몰라보게 활성화될 수 있다. 내가 걷지 않았다면 이런 생각, 즉 도시 곳곳에 공유재를 확보하기 위한 '엉뚱한 상상'은 불가능했을 것이다.  도시의 인간화, 마음의 녹색화 지난 몇 년 사이, 내 관심은 도시 쪽으로 크게 기울고 있다. 여기저기 기회가 있을 때마다 써왔지만, 내가 도시를 떠날 수 없다는 판단이 갈수록 확고해지기 때문이다. 베이비 붐 세대의 은퇴가 시작됐다. 50∼60대의 노후 설계도 문제지만, 인구 폭발과 고령화 사회 또한 우리가 일찍이 경험해보지 못한 난제 가운데 난제다. 이 모든 문제가 도시 곳곳에서 동시에 발생하고 있다. 도시를 떠날 수 있다면 당장 떠나야 한다. 하지만 노후를 전원에서 보낼 수 있는 조건을 갖춘 사람, 즉 재산이 넉넉하거나 연금이 충분한 사람은 그리 많지 않다. 귀농이나 귀촌은 적극 시도해볼 만한 대안이지만, 결코 녹록지 않은 도전이다. 은퇴자와 고령자는 물론, 젊은 세대 대부분이 도시에서 살다가 도시에서 생을 마감해야 한다. 그렇다면 도시를 바꿔야 한다. 도시를 우리가 살 만한 환경으로 전환시켜야 한다. 도시에 인간의 체온을 불어넣는 첫걸음은, 우리가 도시에서 살다가 도시에서 죽어야 한다는 엄연한 사실을 받아들이고 이를 공유하는 것이다. 이 과정에서 우리는 도시를 다시 보게 될 것이다. 누가 도시를 이렇게 만들었는가, 도시의 주인은 과연 누구인가, 시민이 살기 좋은 도시는 어떻게 가능한가. 이와 같은 질문을 공론화해야 한다. 우리가 살아가고 있는 이 도시는 우리가 만든 것이 아니다. 도시(국가) 정책 입안자, 도시 계획 전문가, 부동산 소유자와 건설 업자의 이해관계가 뒤얽혀 지금 우리가 살고 있는 도시를 만들었다. 도로, 공원, 녹지, 광장 같은 공공 공간(시설)은 거의 대부분 '관제'였다. 경제 논리, 힘의 논리가 도시를 건설했다. 시민이 가만히 있는 한, 도시는 결코 달라지지 않을 것이다. 현재와 같은 체제, 현재 수준의 가치관이 지속된다면 도시는 머지않아 슬럼가로 전락할 것이다. 가진 자들은 다 빠져나가고 짐승으로 전락한 자들이 약육강식의 정글에서 아귀다툼을 벌이게 될 것이다. '도시의 인간화'는 우리 '마음의 녹색화'에 달려 있다. 마음의 녹색화는 '지금과 다른 삶은 얼마든지 가능하다'라는 상상력에서 싹튼다. 그런데 그런 상상력은 어떻게 가능한가. 우선 걸어보자. 타지 말고, 뛰지 말고 시간을 쪼개 걸어보자. 걸으면 보인다. 내가 보이고, 내 삶의 안팎이 보인다. 함께 걸으면 더 잘 보인다. 우리가 살고 있는 이 도시가 더 잘 보인다. 누가 '어떤 도시가 살기 좋은 도시인가'라고 묻는다면, 내 답변은 하나다. &lt;우리는 도시에서 행복한가&gt;(찰스 몽고메리 지음, 윤태경 옮김, 미디어윌 펴냄)의 한 대목을 빌어 이렇게 말할 것이다.'걷기 좋은 도시가 살기 좋은 도시다.' 걷기 좋은 도시는 공공재(공유재)가 많은 도시다. 걷기 좋은 도시는 안전하고 이웃이 있으며 좋은 장소가 있는 아름다운 도시다. 이런 도시에서 더 나은 미래를 위한 이야기가 만들어진다. 살기 좋은 도시를 만들기 위해, 우리가 먼저 나서야 한다. 도시에서 걸어야 한다.  월간 &lt;작은 것이 아름답다&gt;는 1996년 창간된 우리나라 최초 생태 환경 문화 월간지입니다. 자연과 더불어 살아가는 삶을 위한 이야기와 정보를 전합니다. 생태 감성을 깨우는 녹색 생활 문화 운동과 지구의 원시림을 지키는 재생 종이 운동을 일굽니다. 달마다 '작아의 날'을 정해 즐거운 변화를 만드는 환경 운동을 펼칩니다. 자연의 흐름을 담은 우리말 달이름과 우리말을 살려 쓰려 노력합니다. (☞바로 가기 : &lt;작은 것이 아름답다&gt;)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ⓒ전북대      전북대학교 컴퓨터공학부 자율로봇연구실(지도교수 이말례) 학생들이 세계 최초로 열린 ‘AI 월드컵 2017(AIWC 2017)’에서 영광의 우승컵을 들어올렸다.  한국과학기술원(KAIST) 주최로 지난 1일 대전에서 진행된 이 대회는 AI 축구와 AI 경기해설, AI 기자 등 총 3개 종목으로 구성됐다. 지난 11월 초까지 참가 접수한 국내 대학과 연구기관, 기업 등에서 총 26개 팀이 참가했다.  이 대회에서 전북대 ‘AR Lab’ 팀은 AI 축구 우승을 차지, 트로피 및 부상 1000만 원을 수상했다.  가상공간에서 진행되는 AI 축구는 AI 기술로 축구하는 방법을 학습한 5명의 선수들이 한 팀을 이루어 상대팀 골대에 골을 넣는 축구 경기다.  전북대 학생들은 물리 엔진이 적용된 시뮬레이터 ‘webots’로 물리법칙을 구현, 양 바퀴에 속도를 줌으로써 각각 5개의 로봇(differential wheeled robots)을 제어했다.  AR Lab 채홍석 팀장은 “학습할 때 선수 개개인이 아니라 선수를 총괄하는 한 명의 감독이 있다고 생각하고 감독을 학습시켰다”며, “특정 전략을 주입하는 게 아니라 어떤 시점에 공격하고 방어할지 AI 선수에게 선택권을 줬다”고 말했다.  한편, 전북대 자율로봇연구실은 지도교수 1명, 박사후과정생 1명, 박사과정생 7명, 석사과정생 8명 등으로 구성, 2003년 설립 이후 SCI급 국제논문을 100여 편 등재했다. 특히 공학이론과 딥러닝 시뮬레이션 등 광범위한 연구 방법을 통해 인공지능 및 로봇에 관한 다양한 연구(Person Following Robot, Dancing Robot for Autistic child 등)를 수행해 왔다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      한국도 핵무장을 해야 한다는 주장이 다시금 고개를 들고 있다. 다섯 차례 핵실험을 한 북한 김정은 정권이 계속해서 미사일 시험 발사를 하자 보수층을 중심으로 우리도 핵무장을 하자는 목소리가 확산되고 있는 것이다.   보수를 자처하는 자유한국당은 핵무장이 당장 어려우면 전술핵이라도 다시 도입하자는 주장을 펼치고 있다. 이를 당론으로 채택하겠다는 것이다. 그럴 경우 한국에 '핵 의병당'(核義兵黨)이 하나 탄생되는 셈이다.  게다가 북한의 대륙간 탄도미사일이 이제는 미국 서부지역까지 도달할 수 있을만큼의 사거리를 확보한 것으로 보여 미국의 대북한 위협 인식 또한 높아졌다. 사드(THAAD‧고고도 미사일 방어체계)의 한반도 배치 역시 그 위협에서 나온 자위적 조치의 일환이라는 것이 워싱턴의 주장이다.  국제사회도 북한 제재에 적극적이다. 유엔안보리는 북한 '화성-14'형 발사 실험에 역대 최고로 평가받는 대북 제재 결의안 2371호를 만장일치로 신속하게 채택했다. 중국이 제재 결의안을 얼마만큼 성실하게 이행하느냐에 따라 제재의 성패가 갈리겠지만 북한으로서는 어떤 형태로든 부담이 되는 또 하나의 제재가 만들어진 셈이다.  그럼에도 북한이 핵을 포기할 것인가는 물음에 절대 다수의 전문가들은 회의적이다. 2016년 9월을 마지막으로 지금까지 다섯 차례의 실험을 하고 핵무기를 탑재할 미사일 개발도 향상되고 있는 마당에 김정은 정권이 자발적으로 핵무기를 포기하리라 기대하는 것은 비현실적이다. 그런 선례도 없다.   북한은 지상과 해상을 오가면서 미사일 시험발사를 간헐적으로 시도할 것이다. 따라서 북한의 핵무기와 미사일 능력이 고도화될수록 보수층을 중심으로 국내 핵무장 주장은 핵무기의 정치·군사·경제적 타당성 분석과는 별개로 탄력을 받을 것이 분명하다.   ▲ 지난 7월 28일 밤 북한이 발사한 대륙간 탄도 미사일(ICBM)인 '화성-14'형 ⓒAP=연합뉴스    한국의 핵능력 현주소  일반적으로 핵 능력을 평가하는 기준은 핵연료 주기와 이를 군사적으로 활용할 수 있는 능력을 어디까지 확보했느냐에 따라 달리 평가된다. 핵무기 개발과 관련한 핵연료 주기 기술은 크게 재처리와 농축으로 나눈다.   재처리 공법은 원자로를 가동하면서 남게 되는 사용후핵연료를 통해 재처리 시설(공장)에서 무기급 핵연료를 확보하는 것이다. 고농축은 우라늄-235의 함유량을 무기급으로 높이는 것을 일컫는다. 전력을 생산하기 위해 가동 중인 원자로의 농축 정도는 2~5%인 반면에 무기급 농축 정도는 90%가 되어야 한다. 한국은 한미원자력협력협정과 국제 규약 등에 따라 24기 원자로를 가동하고 있음에도 재처리와 농축을 하지 못하게 되어 있다.  핵무기 원료 확보 여부와 별개로, 핵무기 설계나 제조와 관련해서도 한국의 기술적 연구와 개발은 아직 초보 단계에 이른다는 평가가 지배적이다. 정보 공유의 확대로 핵무기 제조에 대한 기술과 정보들이 이전보다 확대되어 있기는 해도 원하는 폭발력을 얻기 위해서는 고도의 기술이 필요하다. 핵무기 제조에 약 1300여 명의 기술자와 500여 명의 과학자가 필요하다는 유엔 보고서도 있었다.   박정희 정권 시절인 1976년 한국원자력연구소에는 약 천 명의 원자력 전문가들이 있었으며, 박사 학위 소지자 250명 중 56명이 '핵 과학' 분야에 관여하기도 했다. (참고로 1960년대 스웨덴 핵무기 연구에 참여한 과학자는 350여 명이었다.)  현재 관련 연구소는 확대되었으며 그동안 서울대학교, KAIST 등 15개 대학교 원자력 관련 학과에서 배출한 인력도 수만 명에 이른다. 1950년대 10여 명의 원자력 공학도가 지속가능한 에너지원으로서 원자력 산업의 중요성을 인식하고서 세미나 형태로 원자력 양성을 시작한 것에 비하면 상전벽해(桑田碧海)를 이룬 셈이다.  한편, 핵무기를 운반할 수 있는 무기체계(전투기, 미사일 등)는 오래 전부터 확보되어 있기에 핵확산이 실제 이루어질 경우 운반체계의 장애요인은 없어 보인다. 그런데 비무기급 핵분열성 물질과 무기급 핵분열성물질을 생산할 수 있는 기술요소 등을 확보(technical hedging)하였다고 해도 이를 실제 무기화(weaponization)로 옮길 수 있을지는 미지수이다. 결국 북한 핵위협의 대안으로 핵무장을 압도적으로 찬성하는 공론을 국민들로부터 어떻게 이끌어내느냐가 관건이다.  핵무장과 한반도비핵화공동선언 그리고 한미원자력협력협정  국내에서 핵무장 문제가 처음 수면 위로 부상한 시점은 1970년 7월 닉슨 행정부가 주한미군 7사단 철수계획을 한국 정부에 일방적으로 통고한 후였다. 당시 박정희 정부는 미국의 결정을 저지시키려는 노력과 함께 국방과학연구소와 무기개발위원회를 통하여 독자적인 군수물자 조달과 생산을 위한 계획을 세우기 시작했다.   공개 자료에 따르면 당시 무기개발위원회가 만장일치로 핵무기 개발에 동의한 것으로 훗날 밝혀졌다. 이에 핵무기 개발의 일환으로 1972년 프랑스로부터 핵연료재처리 시설을 구입할 것을 논의하였으며, 주한미군 철수가 직접적인 원인이 되었음을 지적하고 있다. 이어 1975년 4월 베트남이 패망하고 박정희 대통령은 1975년 6월 12일 기자회견에서 처음으로 핵무기를 처음으로 언급하였다.  박 대통령은 미국이 전술핵을 철수할 경우 한국은 자체적인 핵능력을 개발해야만 할 것이라고 했다. 그는 동년 6월 25일 &lt;워싱턴 포스트&gt;(WP)와 인터뷰에서 한국 국방과학연구소로 하여금 핵무기에 관한 연구를 수행할 것을 지시했다는 &lt;뉴스위크&gt;(Newsweek)지의 보도를 부인하면서도, 동시에 주한미군 철수 시 한국은 핵무기 개발까지도 포함해서 모든 옵션을 고려할 것이라고 언급했다. 북한 도발에 대한 억지책이자 미국과의 협상에서 유리한 고지를 차지하기 위한 양수겸장의 전술이었다.  1974년 인도 핵실험에 놀란 미국은 한국 정부의 이러한 움직임에 강력한 저지 활동을 펼쳤다. 1975년 말 미국은 프랑스로부터 재처리공장을 구입하려는 한국의 계획을 취소하게끔 다각도의 압력을 행사하였으며, 그 결과 박정희 정부는 1976년 1월 구입계획을 포기하게 된다.   1976년 11월 대선에서 주한미군 철수를 공약으로 내걸고 당선된 카터 행정부가 들어서자 또다시 주한미군 철수문제가 대두되었다. 1977년 5월 철수 이야기가 본격적으로 논의되자 박 정권은 미국이 전술핵을 철수할 경우 한국은 핵확산금지 조약(NPT)에 서명했음에도 불구하고 자체 핵무기개발이 불가피하다는 입장을 전했다. 1979년 10월 박정희 대통령이 시해되고 이후 전두환 정권이 들어서자 핵무기에 대한 논의는 수면 아래로 사라지게 된다.  전두환 정권을 이어받은 노태우 정권은 '한반도비핵화공동선언'을 구상하게 된다. 1991년 여름과 가을 사이, 한미 양국은 하와이에서 남한 내에 배치된 전술핵 철수와 관련하여 협상을 벌이고 있었다. 노태우 정부 김종휘 청와대 안보수석과 아버지 부시 행정부의 국방차관 폴 월포위츠가 각각 대표로 나섰다.   이 회담의 결과로 부시 대통령은 1991년 9월 27일, 남한 내의 전술핵 철수를 공식 발표했다. 노태우 정권은 이를 이어받아 같은 해 12월 18일 '대한민국 어디에도 어떤 형태로든 핵무기는 더 이상 존재하지 않는다'는 핵 부재를 선언했다.  북한도 적극적으로 움직였다. 핵문제를 협의하기 위한 남북 간 실무 대표 접촉이 크리스마스도 지난 1991년 12월 26일부터 31일까지 판문점에서 비밀리에 열렸다. 여기서 북한은 그동안 주장해 오던 비핵지대화 주장을 철회하고 우리가 마련한 비핵화 선언에 응하면서 합의에 이르게 된다.   이어서 1992년 1월 20일 남한의 정원식 총리와 북한의 연형묵 총리가 서명하고 남북고위급회담 6차 회담에서 서명한 문본을 교환하면서 2월 19일 자로 정식 발효됐다. 비핵화공동선언은 이후 북한의 핵실험에도 불구하고 한국의 핵무장을 원천적으로 봉쇄하는 족쇄 역할을 톡톡히 해왔다. 아킬레스건이 됐다.  예상대로 미국은 원자력협정 개정을 위한 협상에서 비핵화공동선언을 마치 암행어사 마패처럼 꺼내들고서 한국이 재처리와 농축을 하지 않겠다는 약속을 하지 않았냐고 압박해왔다. 한국 정부도 비핵화공동선언이 여전히 유효하다는 입장을 고수하고 있다.   2015년 6월에 개정된 한미원자력협력협정을 또 다시 개정하지 않는 한 한국이 미국의 승인을 받지 않고 미국산 우라늄을 자체 재처리하거나 농축할 권리를 확보하기란 불가능하다. 따라서 개정된 원자력협정 내용을 제대로 보았다면 현행 협정을 변경하지 않은 채 (원자력 에너지를 연료로 사용할 뿐 핵무기를 탑재하는 것이 아니기 때문에) '핵' 추진 잠수함을 건조하는 것이 불가능하다는 사실을 알게 될 것이다. 원자력 추진 잠수함 언급은 북한 핵위협에 효과적인 헤징으로 기능할 수도 없으며 오히려 탈핵을 표방한 정책에 혼선만 더할 뿐이다.  현실적 방안 : 헤징(hedging) 능력 강화  '절대무기'(absolute weapon)로 불리는 핵무기에 대응하는 현실적 방법은 선제공격을 당하고서도 2차 공격(최소 억지력)까지 가능한 핵무기를 확보하는 일이다. 한국이 이러한 능력을 북한처럼 비밀리에 확보하기란 불가능하다. 그렇다고 미국이 이스라엘과 파키스탄에 그랬던 것처럼 한국의 핵무장 시도(sheltered pursuit)를 묵인하지도 않을 것이다. 국제사회의 예견되는 제재에도 불구하고 한국은 공개리에 핵무장을 하겠다고 선언할 정치, 경제, 사회 환경도 마련되어 있지 않다. 달리 말해, 핵무장 공론화를 통해 국내적 합의(숙의 과정)를 이끌어 낼 동력이 마련되어 있지 않다. 이념적 분란만 초래할 것이 분명하다.  따라서 한국은 헤징(hedging : develop the option as a weapon)을 점진적으로 제고하는 것이 가장 현실적 경로이다. 원자력 헤징은 실제 핵무기를 제조하는 것이 아니라 기술적으로 준비하는 것을 일컫는다.   이를테면 단순히 핵무기에 관심이 있다는 의견 표명만 하고 비무기급 핵분열성 물질을 지니고 있으면 'technical(기술적) 헤징' 능력을 지니고 있다고 본다. 여기에다 무기급 핵분열성 몰질과 핵무기에 대해 제한적이지만 이론적 연구가 이루어지고 운반 체계까지 갖추고 있다면 'insurance(예방적) 헤징' 으로 불린다. 한국은 현재 이 정도 수준에 있다고 판단된다.   마지막으로 무기급 물질을 생산할수 있고 이론적 연구 제한도 받지 않고 국내 여론 대다수가 핵무장에 찬성하지만 실제 무기 제조 작업은 하지 않고, 핵 포기를 결코 하지 않겠다고 명시적으로 선언하면 이는 'hard(강력한) 헤징'으로 불리기도 한다. 이란의 경우가 여기에 해당한다.   어떤 길을 택해야 하는지는 다른 나라의 사례를 참고할 필요가 있다. 아르헨티나(1968~90), 브라질(1953~90), 인도(1948~89), 이란(1974~현재), 리비아(1970~1981), 노르웨이(1946~62), 남아프리카공화국(1969~74), 호주(1956~73), 프랑스(1945~54), 이탈리아(1955~59), 일본(1954~현재), 루마니아(1960년대 후반~89), 대만(1967~74), 서독(1956~69), 유고슬라비아(1948~60), 이집트(1955~80), 이라크(1973~81), 이스라엘(1949~55), 파키스탄(1954~71), 스웨덴(1945~66), 스위스(1945~69) 등 많은 국가들이 택한 경로를 심층적으로 연구해 볼 필요가 있다.  그동안 핵무기를 보유하려는 동기(안보위협, 국가 위신, 국내정치 등)에 대한 연구가 다수를 이뤘다면 이에 못지않게 핵무기 기술 또는 무기화 경로에 대한 포괄적 정책연구도 중요하다. 현재 핵무기를 보유하고 있거나 핵무기를 가지려고 했던 국가들의 경로가 제각각이기 때문이다.   김정은 정권의 핵 위협에 상응하는 대칭적 핵무장 주장을 이해 못할 바는 아니지만, 자칫 현재의 헤징 단계에서 핵무장(weaponization)으로 이어지는 도중에 예기치 않은 군사적 충돌 확률이 결코 낮지 않다는 사실이다. 따라서 위에 언급한 국가들이 종국적으로 선택한 경로까지 포함해서 비교연구가 올바르게 이루어진다면 우리가 추구해야 할 핵무장 좌표가 어디쯤 매겨져야 할 것인지가 합리적으로 도출될 것이다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ⓒ 황호진 후보측      황호진 전북교육감 예비후보는 10일 전주대학교 스타센터에서 3000여명이 참석한 가운데 성황리에 출판기념회를 마쳤다. 이날 출판기념회에는 유성엽 국회 교육문화체육관광위원장을 비롯해 시장군수, 지방의원, 이상덕 전북교총회장 등 교육 계관계자들과 지인들이 함께 했다.  유성엽 의원은 축사를 통해 “평소 황호진 후보는 전북교육에 대한 애정 어린 관심을 바탕으로 전북교육을 위해 노력해 왔다”면서 “황 후보의 지론처럼 교육부의 권한이 지역 교육청으로 이양되는 교육자치제가 실현되기를 바란다”고 말했다.  출판기념회에서 특강을 진행한 임상빈 KAIST 새로운교육대표는 “4차혁명을 대비하기 위해 초등학교 때부터 SW교육이 필요하다”고 강조하면서 “전북이 대한민국에서 가장 활발하게 코딩교육을 포함한 소프트웨어 교육이 이루어지기를 희망한다”고 밝혔다. 황호진 후보는 ‘학생이 주인 되는 학교’ 저자와의 대화를 통해 “현재 우리 학교는 어른들의 의한, 어른들을 위한, 어른들에게 필요한 학교가 되어 있다”고 지적하면서 “앞으로 전북의 학교를 ‘학생들을 위한’ 학교로 만들어 가는데 노력해 나가겠다”고 말했다. 그는 이어 “우리 교육이 출세지향적인 교육 분위기 때문에 학생들이 무한경쟁에 내몰리고 있는 실정이다” 면서 “다가오는 4차산업혁명에 대비하기 위해서는 학생 개인의 자질을 키우고 다양성을 존중해 역량 있는 인재를 키워내는 근본적인 교육의 변화가 필요하다”고 주장했다.  한편 이날 출판기념회에는 김완영 당시 용봉초등학교 담임교사가 참석해 “황 어린이는 어렸을 때부터 리더쉽이 뛰어난 학생이었다. 황호진 후보가 책에서 그리는 교육세상이 이루어지기를 바란다”고 밝혀 많은 관객들의 공감을 얻었다.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      '2019스마트국토엑스포' 포스터 ⓒLX      국토교통부가 주최하고 한국국토정보공사(LX)가 주관하는 국내최대 공간정보축제인 ‘2019스마트국토엑스포’가 8월 7일부터 3일간 서울 삼성동 코엑스에서 개최된다. ‘공간정보의 융합, 스마트한 미래를 열다’라는 주제로 올해 12번째 생일을 맞는 국토엑스포는 총 24개국 정부와 기업, 기관이 참여하고 85개사 186개의 전시부스가 운영된다. 또한 공간정보 새싹기업판로설명회 등 4가지 창업지원프로그램과 공간정보아카데미 교육간담회 등 3가지 취업지원프로그램 등 다양한 일자리창출 프로그램을 창업·구직자에게 소개한다. 국토교통부는 최신 공간정보신기술전시회와 국내최대 비즈니스교류 플랫폼, 글로벌리더들의 컨퍼런스 등 놓치면 후회할 3가지 관람 포인트도 소개했다. 먼저 전시회에서는 현재 핫 이슈로 떠오르고 있는 스마트시티의 구현기술인 ‘디지털 트윈’을 활용한 ‘미세먼지 바람길 추적 시뮬레이션’과 지하철 화재 속 대피훈련을 가상현실(VR)로 체험할 수 있다.  또 24개 이상의 다양한 컨퍼런스와 국내외 비즈니스 프로그램이 진행되면서 국내 최대의 비즈니스 교류 플랫폼이 자연스럽게 형성되는 효과도 노린다.  마지막으로 KAIST 김대영 교수와 에스리(esri)社 리차드 버든(Richard Budden) 본부장, KT 김병성 상무 등이 ‘4차 산업혁명과 공간정보 융합’에 관한 미래 메시지를 전달하는 종합컨퍼런스도 눈여겨 볼만 하다. 최창학 사장은 “무더운 여름, 첨단공간정보 세계로의 스마트한 피서를 자신 있게 권해드린다”면서 “이번 행사가 공간정보에 대한 쉬운 이해와 함께 더 나아가 혁신성장과 일자리창출의 교두보가 되길 바란다”고 말했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      고등학생이었을 때, 이과생은 대학 입시에서 물리, 화학, 생물, 지구과학 가운데 두 과목을 선택했다. 물리와 화학 가운데 반드시 한 과목을 포함해야했다. 대개의 학생들은 물리-지구과학이나 화학-생물의 조합으로 정했다. 나는 특이하게도 물리-화학을 선택했는데, 당시 카이스트 입시는 물리, 화학, 생물을 모두 필수로 했기 때문이다. 아무튼 당시 학생들은 생물을 물리의 반대말쯤으로 여겼다. 시험에서 물리는 원리를 적용해서 푸는 과목이고, 생물은 그냥 무작정 암기하는 과목이라고 생각했기 때문이다.  이런 선입견은 물리를 좋아하는 학생들이 생물학을 멀리하게 만들었다. 실제 내가 대학에 다니던 시절, 물리학과 학생들은 생물학을 이류 과학쯤으로 생각하는 분위기도 있었다. 당시 물리학과가 최고의 상한가를 치던 때란 것도 이런 경향에 일조했으리라. 하지만 내가 졸업할 즈음엔 생물학의 세상이 도래해 있었다.  내가 생물학에 흥미를 가지게 된 것은 당시 전파과학사에서 나온 &lt;양자생물학&gt;이란 책을 알게 되면서다. '광합성'이 그냥 화학식들의 연쇄 변환 과정을 외우는 것에 불과하다고 생각했는데, 그게 아니었던 것이다. 전자가 광합성 단백질 위를 뛰어 다니며 에너지를 만들어내는 모습을 상상하는 것만으로 가슴이 뛰었다. 이전에 생물학을 제대로 몰랐던 것이다.     ▲ &lt;생명의 도약&gt;(닉 레인 지음, 김정은 옮김, 글항아리 펴냄). ⓒ글항아리   오늘 소개할 닉 레인의 &lt;생명의 도약&gt;(김정은 옮김, 글항아리 펴냄) 같은 책을 내가 학창시절 읽었다면 생물학을 보는 시각이 많이 달라졌을 거다. 닉 레인은 생명과학 분야의 브라이언 그린, 리처드 도킨스라 할 만하다. 아주 쉽다고는 할 수 없지만, 깊이나 명료함에 있어 이 분야에서 최고다. 나는 그의 전작 &lt;미토콘드리아&gt;(김정은 옮김, 뿌리와이파리 펴냄)를 읽고 단박에 팬이 되었다. &lt;미토콘드리아&gt;는 깊이 있는 내용이 많아 좀 어렵다는 느낌이 들었지만, &lt;생명의 도약&gt;은 다루는 주제가 방대해서 그런지 전작에 비하면 오히려 술술 읽히는듯하다.  이 책은 생명 진화의 역사에서 가장 중요한 10개의 발명을 다룬다. 하나하나 독립적으로 쓰여 있어 관심 있는 것부터 읽어도 무방하다. 물론 시간 순으로 제시되어 있으니 순서대로 읽는 것을 추천한다. 인간의 역사에서 가장 중요한 발명품 10개를 고르라면 사람마다 다르겠지만, 바퀴, 문자, 증기기관, 트랜지스터 등을 고를 수 있을 거다. 닉 레인은 생명의 역사에서 가장 중요한 것으로 생명의 기원, DNA, 광합성, 진핵세포, 성(性), 운동, 시각, 온혈성, 의식, 죽음의 열 가지를 선택했다.  첫 번째 주제는 '생명의 기원'. "최초의 생명은 어떻게 생겼을까?" 모두가 궁금해 하지만 잘 다루지 않는 질문이다. 우주론의 "빅뱅 이전에 무엇이 있었는가?" 만큼이나 중요하고 어렵다. 현대 과학이 자신 있게 모른다고 답하는 문제이기도 하다. 저자는 '열수분출공'에서 최초의 생명이 탄생했다는 가설을 설명한다. 열수분출공은 심해에서 땅 속의 뜨거운 물질을 뿜어내는 굴뚝 모양의 구조물을 말한다. 이 일대는 온도가 수백 도에 달하고, 양잿물이나 다름없는 강한 알칼리성을 띄고 있다. 인간은 1초도 버틸 수 없는 환경이다. 하지만 놀랍게도 여기에 수많은 생명체가 살고 있다.  이런 지옥 같은 환경이 어떻게 생명 탄생의 부화장이 되었을까? 이걸 이해하려면 생명과학의 핵심 원리들을 알고 있어야한다. 열수분출공에서는 기체가 부글거리며 올라오는데 수소다. 뿐만 아니라 여기서 '아세틸티오에스테르'라는 물질이 생산된다. 생물학 지식이 있는 사람은 여기서 무릎을 치겠지만, 나도 눈을 껌벅 거리기만 했으니 너무 걱정은 마시라.  지구상 생명체는 물질대사의 핵심적인 화학 반응이 동일하다. 바로 고등학교 생물 시간에 배웠던 시트르산 회로다. 원형으로 꼬리를 물고 늘어선 수많은 화합물들의 이름을 외우던 기억이 날 거다. 안타깝지만 나는 다 잊어버렸다. 보통 시트르산 회로는 유기 분자를 소비하여 수소와 이산화탄소가 생성된다. 당신 몸의 세포가 지금 이 순간에도 하고 있는 일이다.  아마도 열수분출공에서는 시트르산 회로의 역전이 일어나는 것 같다. 그렇다면 주위에 널린 여러 분자들로부터 생명에 필요한 유기분자들을 만들어 낼 수 있다. 실제 열수분출공 근처 사는 세균에서 이런 역전이 흔히 관측된다고 한다. 여전히 많은 부분이 가설로 점철되어 있지만, 최초의 생명체를 추적하는 최신 이론의 윤곽이나 방법을 맛볼 수 있는 소중한 기회가 아닐 수 없다.  두 번째 이야기는 'DNA'. 생물학에 조금이라도 관심이 있는 사람이라면 DNA에 대한 기초 지식은 가지고 있을 거다. 나 같은 물리학자도 DNA에서 RNA를 통해 단백질로 이어지는 생물학의 중심 원리쯤은 알고 있다. RNA를 이루는 3개의 염기가 하나의 아미노산을 지정하며, 아미노산이 모이면 단백질이 되고, 단백질이 우리 몸의 모든 화학반응을 제어한다는 사실도 알고 있다. 이 책에서 알게 된 새로운 사실은 코돈이라 불리는 3개의 염기 순서에 의미가 있다는 거다.  염기에는 A, C, G, U 네 종류가 있다. 여기서 세 개를 골라 나열하여 만들어지는 가능한 코돈의 수는 4×4×4=64가지다. 이것으로 지정해야 하는 아미노산은 모두 20개니까, 하나의 아미노산에 여러 개의 코돈이 중복하여 대응된다. 놀랍게도 코돈 속에는 아미노산과 관련한 생명의 역사가 숨어있다.  예를 들어, 코돈의 첫 번째 염기는 전구(前驅) 물질과 관련 있다. 세포에서는 아미노산이 몇 가지 전구물질에서 시작하여 일련의 생화학적 단계를 통해 아미노산들이 만들어진다. 그런데, 같은 전구물질에서 만들어지는 아미노산들을 지정하는 코돈의 첫 번째 문자가 같다. 예를 들어 피루부산이라는 전구물질에서 만들어지는 아미노산은 모두 U로 시작하는 식이다.  두 번째 문자는 아미노산이 물에 녹는지 녹지 않는지와 연관된다. 이것은 단백질의 3차원 구조와 관련한 중요한 정보다. 끝으로 코돈의 세 번째 염기는 주로 중복된다. 세 번째 염기를 바꾸어도 아미노산이 바뀌지 않는 경우가 많다는 거다. 예를 들어, 'GC'로 시작하는 코돈의 경우 세 번째 염기와 상관없이 모두 '알라닌'이라는 아미노산을 지정한다. 최초의 생명체가 2개의 염기로 된 코돈을 쓰다가 나중에 3개의 염기를 쓰는 쪽으로 진화했을까? 사실 복잡한 아미노산 5개를 제외한 15개의 아미노산에 종결코돈을 더한 16개라는 숫자는 두 개의 염기만으로 지정할 수 있다. 정말 흥미롭다!  세 번째 이야기는 '광합성'. 닉 레인이 설명하는 광합성의 개념은 정말 단순하다. 그의 말을 옮겨 보자.  "이산화탄소에 전자 몇 개를 첨가하고 전하의 균형을 위해서 양성자 몇 개를 함께 넣어주면, 갑자기 당(糖)이 만들어진다."  우리에게 친숙한 식물은 물에서 전자를 얻는다. 물론 물이 순순히 전자를 내놓을 리 없으니 태양에서 내리쬐는 자외선이 필요하다. 그러면 폐기물로 산소가 발생한다.  지구상에 시아노박테리아가 광합성을 시작한 이래 지구의 산소 농도는 증가해왔다. 산소는 반응성이 강하여 위험한 물질로 산소에 적응하지 못한 생물은 대부분 사라졌다. 하지만 산소를 사용하면 많은 에너지를 얻을 수 있다. 지금과 같이 (박테리아에 비해) 거대한 생물이 생길 수 있었던 것도 산소 호흡이 가능했기 때문이다. 닉 레인이 풀어내는 광합성의 생화학 이야기를 읽다보면 본격적으로 생물학을 공부하고 싶어질 정도다. 지금까지 생명의 도약 10가지 가운데 3가지의 맛만 보았다. 나머지 7가지가 궁금해질 거다.  물리학은 보편적 이치를 찾지만, 생물학은 다양성을 탐구한다고 한다. 생명에 다양성이 생기는 이유는 진화 때문이다. 진화는 그냥 무작위적인 적응이다. 그렇다면 생명에는 보편성이 없는 걸까? 그렇지 않다. 생명의 보편성은 모든 것이 최초 하나의 생명체에서 진화했다는 사실에 근거한다. 진화의 고비에서 문턱을 넘은 첫 번째 생명체가 있었기에 이후의 생명들은 그 생명체의 특성을 공유한다. 이처럼 진화는 다양성과 함께 보편성도 만든다. 생명 현상에 들어있는 보편성의 비밀을 알고 싶은 사람에게 이 책을 추천하는 바이다. 물리학자들도 예외는 아니다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      난민[難民] : 인종, 종교 또는 정치적, 사상적 차이로 인한 박해를 피해 외국이나 다른 지방으로 탈출하는 사람들  삶의 터전을 잃은 시리아 난민들은 "우린 인간이다"를 외치며 프랑스, 독일, 캐나다로 인간답게 살기 위해 건너갔다. 프랑스 정부가 불도저로 칼레 난민촌을 밀어버려도, 같은 인간이지만 우리나라에서 살 인간은 아니라는 듯 마케도니아가 국경을 닫아도 그들의 이동은 계속됐다. 시리아 난민 사태가 일어난 지 몇 달이 지났을 때도 내전은 격화됐다. 터키 국경으로만 3만 명이 몰렸다. 60만 명의 난민이 추가로 발생할 거란 예측도 있다.  정치적·사상적 차이로 인한 박해를 피하기 위해 탈출한 사람을 '난민'으로 일컫는다. 난민의 가장 큰 문제점은 어떤 제도도 그들을 지켜줄 수 없다는 사실이다. 국적은 있으나 본국을 피해 다른 곳으로 이주했고, 이주국에 살고 있으나 국적은 여전히 본국에 있다. 쉽게 말해 음영지대에 사는 사람들이다.  난민을 음영지대에 사는, 사회 제도의 빛을 보지 못하는 사람으로 규정한다면 내가 발을 딛고 있는 한국도 난민 발생 국가다. 그리고 그 난민이 청년이라면, 미래세대의 기둥이 될 청년이 난민이라면, 그 나라는 곧 무너질 것이다. 오늘날 한국 사회에서 무너지고 있는 나라의 기둥, 그 난민들의 이름은 청년 노동 난민, 청년 주거 난민이다.    ▲ &lt;미스핏츠&gt; '청춘의 집' 프로젝트 '당신에게 집은 어떤 의미입니까'에 사용된 이미지. ⓒ미스핏츠   9.5%. 지난달 통계청이 발표한 청년(15~29세) 실업률이다. 몇 번의 실패 끝에 구직을 포기한 사람들과 취업을 준비하고 있는 사람들이 통계에 잡히지 않고 1주일에 1시간만 일해도 취업자로 분류되는 걸 고려하면 실질적인 청년 실업률은 훨씬 높을 것이다. 대학교 이상의 학력을 가진 청년들의 실업률은 무려 25.3%라는 조사도 있다. 고등학교 학생의 약 70%가량이 대학을 진학하는 현실을 감안하면, 최소 5분의 1가량의 청년이 대학을 나왔음에도 아무 일도 하지 않는 실업자인 신세다.   일부는 요즘 젊은 사람들이 고생하기 싫어서, 눈이 높아서 취업을 못 한다고 이야기한다. 눈을 낮추면 취업될 가능성이 커지긴 한다. 하지만 그 현실은 어떠한가. 2015년 중소기업 직원 평균 월급이 대기업의 60%가량이었다. 이 정도 임금 격차는 조사 이후 처음이라고 한다. 독일과 일본은 임금 격차가 각각 74%, 82% 내외로 우리나라보다 덜하다. 청년들이 중소기업을 회피하는 이유는 일이 힘들어서가 아니라, 삶이 힘들어서다. 눈을 낮추라고 할 게 아니라 중소기업의 위치를 올려야 하는 게 급선무다. 우리나라 굴지의 보수 일간지가 사설로 "청년들에게 어떻게 중소기업 취업을 권할 수 있는가"를 이야기하는 판국이다.  20.3%. 지난해 첫 직장을 잡은 청년들의 5분의 1가량이 1년 이하 계약직으로 일을 시작했다. 기업은 정규직 일자리를 비용문제를 들먹이며 줄이고 있고 정부 역시 정규직이 과보호 받고 있다면서 정규직 기득권 해체를 주장한다. 정부와 기업이 전폭적으로 실시한 임금피크제 역시 취업에 도움이 안 된다는 소식이 들린다. 정규직의 기득권이 없어지면 마치 청년의 일자리가 생길 것처럼 말했지만 청년의 일자리는 더욱 악화되고 있다. 국회예산정책처 역시 임금피크제와 청년 일자리의 연결고리가 약하다고 평가했다. 효과가 제한적이기 때문에 청년고용 의무제도를 적극적으로 시행하는 것이 필요하다고 주장했다. 임금피크제를 도입한 기업 절반가량이 신규채용을 하지 않는다고 밝혔다. 아버지 월급이 줄고, 자식 일자리가 생기는 게 아니라 아버지 월급은 줄고 자식 일자리는 여전히 없다. 생긴 일자리도 1년 이하 계약직이 20%다.  78%. 부모가 비정규직일 때 자녀도 비정규직인 경우가 78%에 달했다. 정규직과 비정규직이 노동자 사이의 신분으로 굳어졌는데, 이 신분이 자식에게까지 이어진다. 비정규직인 부모는 충분한 자본을 쌓지 못하고, 자본이 부족해서 자녀에게 교육자본, 사회자본을 투자하지 못한다. 투자받지 못한 자녀는 노동 시장에서 약자일 수밖에 없으며 비정규직이 늘어나는 상황에서 비정규직이 될 확률이 더욱 높아진다. 수저 계급론은 일부 가지지 못한, 약해빠진 청년들의 투정이 아니라 통계적으로 증명된 엄중한 현실이다.  프레카리아트(Precariat) : 불안정한(precarious)과 프롤레타리아트(proletariat)의 합성어  청년들은 불안정한 노동으로 몰렸다. 청년들이 약해서 헬조선을 말하는 게 아니고, 아무 근거 없이 탈조선을 소리치는 것도 아니다. 정치권에서 청년 담론이 몇 년 전부터 유행했지만 청년들의 상황은 갈수록 악화됐다. 불안정 노동, 불안정한 비정규직들을 뜻하는 '프레카리아트'는 유럽의 단어였다. 금융위기 이후 이탈리아, 스페인, 포르투갈 등 유럽 국가들이 취한 노동시장 개혁의 핵심은 노동시장 유연화였다. 기업이 노동자들에게 들이는 비용을 줄이면 그만큼 채용을 늘릴 것이라는 장밋빛 전망에 의한 계획이었다. 결과는 어땠을까. 유로존 청년들 중 절반가량이 비정규직이다. 스페인 같은 경우, 청년 10명 중 7명이 비정규직이다. 장밋빛 전망은 전망으로만 끝났다. 2011년 유로 크라이시스의 해결책으로 꼽히던 노동시장 유연화를 동아시아의 한 국가가 도입했다. 노조 조직률이 10% 내외인 상황에서, 비정규직 627만 명 중 절반가량이 1년 미만 근속하는 세상에 노동시장을 유연화하겠다고 한다.  불안정한 비정규직으로 남을 수밖에 없는 청년들을 아무도 보호하지 않는다. 정부는 노동시장 유연화를 소리치고, 국회 역시 노동시장 관련 4대 입법에 관해 뚜렷한 해답을 내놓지 못했다. 제도의 보호를 받지 못하는 청년 노동자들은 난민의 위치에 준한다. 제도의 부재로 인한 박해를 청년층은 피할 수 없다. 불안정한 노동자로 남지 않고, 탈출하고 싶은 노동자로 변하고 있다. 상황은 점점 악화될 것이다. 프레카리아트가 아닌 노동 난민으로의 변화다.  청년들이 일자리의 꿈과 동시에 버린 또 한 가지의 꿈이 있다. 바로 '집'이다. '집에서 오손도손 사는 행복한 가정'을 꿈꾸는 청년은 그리 많지 않다. 실버푸어, 에듀푸어 등 온갖 푸어(poor)들이 넘쳐나지만, 그 시작은 하우스푸어였다. 2016년 하우스푸어의 주인공은 '큰 집을 사기 위해 빚을 내 투자했다가 빚을 못 갚는' 중산층이 아니라, '하루 살고 하루 자기도 버거운' 청년층이다.     ▲ &lt;청년, 난민 되다&gt;(미스피츠 지음, 코난북스 펴냄). ⓒ코난북스   2013년 민달팽이 유니온이 발표한 보고서에 따르면, 전국 청년의 14.7%가 주거빈곤 상태에 놓여 있었다. 주택법에 규정된 최저주거 기준(1인당 14제곱미터)에 미달하는 주택, 지하방, 고시원 등에서 거주하는 청년이 전국에 140만 명 정도 있다. 필자가 &lt;청년, 난민 되다&gt;(미스피츠 지음, 코난북스 펴냄)를 쓰면서 만나게 된 청년들 대부분이 이런 상태에 놓여 있었다. 수치로 가늠할 수 없는 주거의 현실은 꽤 암담했다. 벽간 소음이 너무 심해 잠을 잘 수 없던 사람, 소음 때문에 스트레스를 받아 치료를 받은 사람, 너무나 비싼 월세를 충당하기 위해 위험한 아르바이트를 했던 사람 등 주거 난민의 현실은 통계치로 표현할 수 없는 무언가였다.  단순히 안 좋은 집에 사는 게 청년주거 빈곤의 핵심은 아니다. 문제는 월세가 너무나 비싸다는 점이다. 2013년 기준 고시원의 평당 월세는 15만 2000원이었다. 타워팰리스의 평당 월세는 14만 8000원이었다. 고시원에서 매일 소음과 싸우며 잠을 이루는 친구들이 강남의 중심인 타워팰리스보다 높은 평당 월세를 내는 현실이다. 실제로 2012년 기준으로 소득의 30% 이상을 주거비로 쓰는 청년 1인 가구가 전체의 70%에 달했다. 절반 이상을 내는 경우도 23%가량이었다. 월급의 절반을 주거비로 내는, 월세로 내는 상황에서 청년들이 보다 나은 내일을 꿈꿀 수 있을까. 청년들은 으리으리한 궁궐 같은, 아방궁 같은 집을 꿈꾸지 않는다. 아프면 삼각김밥 대신에 죽을 끓일 수 있고, 햇볕을 쬐면서 하루를 시작할 수 있는 집을 꿈꾼다.  청년주거 빈곤은 청년 빈곤의 시작이다. 부모에게 주거비 지원을 받지 못하는 학생은 월세를 내기 위해 아르바이트를 한다. 한 달 내내 최저 시급으로 아르바이트해서 번 돈의 30%가량을 주거비에 쓴다. 많게는 절반가량을 쓴다. 아르바이트하다 보면 생활이 망가진다. 일을 끝내고 오면 축 늘어지고, 공부할 시간에 잠을 자고 쉬게 된다. 자기 계발은커녕 하루하루 재충전하기도 벅차다. 이 상태에서 좋은 일자리를 갖기는 힘들다. 결국 부모에게 주거비를 지원받을 수 있는 청년, 즉 수저가 있는 사람들만 그럴듯한 자기 계발과 취업을 도전할 수 있다. 정말 심플한 알고리즘이다. 너무 극단적으로 묘사한 것이 아니냐고 물을 수 있지만 필자가 만난 인터뷰이 모두가 공통적으로 짚은 문제점이다. 주거 빈곤에 이은 취업 실패, 취업을 하더라도 불안정한 취업이 되는 이 상황. 노동 난민과 주거 난민이 공존하는 이 나라가 난민 국가가 아닐 수 있을까.  주거 난민과 노동 난민 등 난민 발생의 근본적인 문제는 사회 시스템을 붕괴시킨다는 점이다. 독일과 프랑스가 난민 유입으로 인해 갈등을 겪고 여러 문제가 발생하는 것처럼 한국도 여러 문제를 직면하고 있다.  가장 큰 문제는 국민연금이다. 노동 불안과 주거 불안에 시달리는 청년들은 자연스레 출산을 포기한다. 아이 울음소리가 들리지 않는 나라에서 국민연금이 제대로 작동될 리가 없다. 노후 대비가 취약한 한국의 노년층을 고려하면 국민연금의 붕괴는 노년 세대 전체의 붕괴다. 이를 막으려면 노동과 주거 두 개의 문제를 해결해야 한다. 카이스트 김우창 교수는 해결책으로 국민연금을 제시했다. 국민연금으로 어떻게 국민연금의 불안을 줄일 수 있을까. 바로 청년에게 투자하는 방식이다. 505조 원가량 되는 국민연금의 1%가량이라도 인구에 투자하면, 국민연금의 금융투자수익률을 웃돌 가능성이 있다는 것이 김 교수의 주장이다. 쉽게 말해, 국민연금을 청년에 투자해 저출산 문제를 해결하면 자연스러운 선순환이 된다는 뜻이다. 김우창 교수가 이 아이디어를 냈을 때가 2014년이다. 그 후 2년이 지난 지금 국민의당과 더불어민주당 역시 국민연금을 주택에 투자하자는 아이디어를 내놓았다. 새누리당 김무성 대표는 구체적인 대책을 언급하진 않았지만 미래에 대한 불안을 줄이기 위해 청년의 주택문제와 일자리문제를 해결해야 한다는 것에 동의했다.  인간은 노동과 주거로 삶을 건축한다. 노동으로 돈을 모아 자신의 가족을 꾸리고, 생계를 이어가고 미래를 꿈꾼다. 주거는 가족과 생계 그리고 미래를 꿈꿀 수 있는 가장 기초적인 공간이다. 한국의 청년들은 노동 난민, 주거 난민으로 몰리고 있다. 제도의 보호를 받지 못하고, 오히려 제도 바깥으로 밀려 나가고 있다. 청년난민들에게 그럴듯한 공간을 주자. 성실하게 노력하면 일자리를 얻을 수 있고, 번듯한 일자리가 아니어도 안정적으로 일할 수 있고, 그 돈으로 집에서 가족과 함께 생활할 수 있게 하자. 더 이상 한국의 청년들이 헬조선의 청년 난민이 아니라 대한민국의 건강한 미래세대로 남을 수 있게….   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲허태정 대전시장(오른쪽)과 박영선 중소벤처기업부 장관이 면담을 마치고 기념촬영을 하고 있다 ⓒ(대전시)      중소벤처기업부의 세종시 이전설과 관련, 허태정 대전시장이 지난달 30일 박영선 중소벤처기업부 장관을 만나 중기부의 대전 잔류를 강력히 요청했다.  허 시장은 이날 박 중기부 장관과 면담을 갖고 "대전에 있는 중기부가 최근 들어 신임 장관 취임시마다 세종시로 이전한다는 이야기가 있다"며 "반드시 대전에 남아야 한다"고 강조했다.  허 시장은 그 근거로 1998년 중소기업청이 정부대전청사로 이전해 2017년 7 월 중소벤처기업부로 승격된 이후 20여년간 대전과 함께 국가발전을 견인해 왔다는 점을 들었다.  허 시장은 특히 중기부의 세종시 이전이 수도권 과밀해소와 국가균형발을 위한 세종시 설치 목적상 비수도권간 공공기관 이전은 그 취지와도 맞지 않는다고 역설했다.  이외에도 그동안 대전․충남이 혁신도시에서 제외돼 공공기관 이전과 지역인재 채용에서 불이익을 받은 점, 대덕특구 등 과학 인프라와 연계된 정부출연연․연구소․벤처기업이 밀집된 대전의 장점 등을 감안할 때 대전이 중기부가 있어야할 최적지라고 주장했다  허 시장은 또 이 자리에서 대전시의 대표적 청년창업 지원사업인 ‘대전스타트업 파크’ 조성사업이 순조롭게 진행될 수 있도록 국비사업에 대한 관심과 지원을 당부했다.  허 시장은 대전이 40년 역사의 대덕특구를 중심으로 한 과학기술과 한국과학기술원(KAIST), 충남대 등 최고 수준의 우수인력을 보유한 혁신창업 생태계 조성의 최적지임을 강조하며 대전시의 바이오클러스터 육성정책에 발맞춰 바이오분야에 대한 규제자유특구로 지정해 줄것을 함께 요청했다.  허 시장은 이와함께 지난해 국회 예결위에서 설계비가 반영된 ‘원도심 소상공인 상생주차장’ 건설 사업에 대해서도 소상공인의 오랜 숙원사업임을 감안해 전폭적인 지원을 해 달라고 건의했다.  소상공인 상생주차장은 대전의 대표 시장인 중앙시장을 중심으로 인근 소상공인의 주차 불편을 해소할 수 있는 사업이다. 허 시장은 “신임 박영선 장관의 취임을 진심으로 축하드린다”며 “앞으로도 대전과 함께 성장해온 중소벤처기업부가 대전에 계속 남아 지역의 소상공인과 중소벤처기업이 잘 성장할 수 있는 토대를 마련해 달라”고 말했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "박근혜 대통령이 김무성 새누리당 대표 체제를 무너뜨리기로 마음먹은 것 같다."   2선 국회의원이자 보건복지부 장관을 지낸 유시민 작가의 말이 신호탄이 됐다. '친박계, 김무성 흔들기 본격화' '유승민 다음은 김무성?' '유시민 예언, 실현될까' 등 방송과 신문은 '김무성 마약 사위' 사건을 둘러싼 집권여당의 파벌 싸움을 대대적으로 보도했다. 급기야 친박 핵심이자 박근혜 대통령 정무특보인 윤상현 새누리당 의원은 '김무성 대선후보 불가론'까지 언급했다.   팟캐스트 &lt;노유진의 정치카페&gt;가 방송된 지 하루 만의 일이다. 유 작가의 한 마디가 &lt;프레시안&gt;을 통해 알려진 뒤, 24시간이 안 돼 벌어진 상황이다.(☞바로 가기 : 유시민 "박근혜, 김무성 무너뜨리기 마음먹은 듯")   청취자들도 크게 호응했다. &lt;노유진의 정치카페&gt; '순수한 안철수, 위기의 김무성' 편은 지난 15일부터 18일까지 나흘 연속 팟캐스트 포털사이트 '팟빵'에서 1위를 차지했다. 덩달아 &lt;노유진의 정치카페&gt;를 제작하는 정의당의 인기도 올라갔다. "유시민·노회찬·심상정 이들이 참 정치인이다"라는 칭찬부터 "정의당에 가입하고 싶다"는 적극적인 움직임까지, &lt;노유진의 정치카페&gt;는 현재 가장 '존재감 쩌는' 방송이다.    ▲ 팟캐스트 &lt;노유진의 정치카페&gt; 녹음 현장. ⓒ프레시안(이명선)   이쯤 되면, 궁금해진다. 분명히 배후가 있을 텐데, 세 사람을 한 자리에 모은 이가 누구일까? 또 매주 방송을 기획하고, 제작하는 이는 누구일까?   놀라지 마시라. 인기 팟캐스트 &lt;노유진의 정치카페&gt;의 배후는 프레시안 협동조합 조합원인 백정현 피디다. 백 피디는 정의당 뉴미디어실 실장으로, 지난해 5월부터 &lt;노유진의 정치카페&gt;를 총괄하고 있다. 이실직고하면, 유 작가와 노 전 대표 모두 프레시안 협동조합 조합원이다. 계기는? '정의당'을 알리기 위해서…  6.4 지방선거를 앞두고 '어떻게 하면 정의당을 알릴 수 있을까?'를 고민했다. 당시 정의당 지지율은 1~2퍼센트(%)였다(현재는 4%대로 올라왔다). 선거는 초시계처럼 다가오는데, 대중에게 파급력을 줄 수 있는 뭔가를 해야 하는데, 답답했다. 여러 아이디어 중 노회찬·유시민·진중권 세 사람의 토크쇼가 있었다. 대중 영향력이 있는 사람들인 만큼 한 번을 하더라도 제대로 준비해서 팟캐스트로 방송하는 게 나을 것 같았다. 세 사람에게 '한 번 해보자'라고 했지만, 기획자 입장에서는 '한 번으로 끝나지 않을 것'이라는 예감이 있었다.  '이빨이 맞았을 때'는? 하다 보니 자연스럽게…  사실 처음에는 걱정이 많았다. 하지만, 석 달여가 지났을까? 세 사람의 '케미(chemi)'가 자연스럽게 발산됐다. 진 교수는 사회자로, 청취자의 입장에서 사안을 살핀다. 유 작가는 '타임라인'이라는 코너를 운영할 만큼 튀는 시선을 자랑한다. 노 전 대표는 두 사람 사이에서 균형을 잡으면서도 사안을 촌철살인(寸鐵殺人) 한 마디로 정리한다. 리허설을 따로 하지 않는다. 제 나름대로의 트랙을 만들어 놓으면, 세 사람이 각자 그 위를 달린다.   진정한 배후가 따로 있다? 대통령이 열 받게 했다!   진 교수나 노 전 대표는 정의당과 관계된 일이라면, 언제든 오케이(Okay)하는 사람들이라 걱정하지 않았다. 단, 유 작가의 참여 여부가 문제였다. 유 작가를 찾아간 날이 박근혜 대통령이 세월호 참사와 관련한 대국민담화를 발표했던 지난해 5월 19일이었다. 몹시 흥분해 있었다. 유 작가가 단박에 '열 받아서 안 되겠다'며 '뭐든지 하자'고 하더라.   추천 에피소드는? '인공지능' 김대식 박사 편!     ▲ &lt;노유진의 정치카페&gt; 피디인 백정현 조합원. ⓒ프레시안(이명선)   2015년 신년특집으로, &lt;빅퀘스천&gt;(동아시아 출판사 펴냄)을 쓴 김대식 카이스트대학 교수를 초청했다. 스티븐 호킹 박사 등이 지난해 말 '인공지능(AI)이 인류의 멸망을 가지고 올지도 모른다'고 예언한데서 착안했다. 나름대로 모험적인 섭외였는데, 반응이 폭발적이었다. AI에 대한 논란을 '노유진'과 김 박사가 미래(SF)가 아닌 현실(FACT)의 문제로 다뤘다. AI는 머지않아 노동시장을 위협하고 사람과 사람의 관계를 단절시킬 것이라며, 정치권이 고민해야 할 문제라고 강조했다. 9월 8일 자 '세계 화폐전쟁, 그리고 화폐개혁' 편도 마찬가지다. 중국 주식시장의 붕괴와 위안화 평가 절하 문제를 정치적 맥락으로 짚었다.  기획자의 능력이 돋보인다. '국보급 존재' 세 사람 덕!  팟캐스트는 수다를 떨 듯 이야기하는 형태다. 일상의 얘기인 친구나 상사 뒷담화 등은 얼마든지 가능하지만, 인공지능·주식·세계 경제 등을 수다로 녹여내기란 정말 어렵다. 전문 영역을 수다의 영역으로 용해해 내는 것은 '노유진', 이 세 사람을 따라올 사람이 있을까? 기획자가 하고 싶다고 해서 되는 게 아니다. 국보급인 세 사람 덕이다. 청취자들이 &lt;노유진의 정치카페&gt;를 '내가 기다렸던 얘기를 해주는 방송'으로 기억해줬으면 좋겠다.   &lt;옥천신문&gt; 편집장일 때와 비교한다면? 지금이 좋다!  펜 기자일 때보다 창의적인 활동(기획·편집 등)이 가능하다. 개인적으로 굉장히 만족한다. 언론인에서 정당인이 되면서 생경했던 것도 사실이지만, &lt;노유진의 정치카페&gt;를 하면서 사람들이 듣고 싶어 하는 이야기와 내가 하고 싶어 하는 이야기 사이에서 접점을 찾은 것 같다. 2012년 대선 당시 문재인 캠프에서 'TV토론팀' 실무를 맡았다. 그러면서 지도자의 역할에 대해 고민했다. 시대의 흐름을 읽고 대중을 설득하는 능력, 그 능력은 자신의 삶에서 나오는 것이더라. '새정치민주연합과 정의당 중 대중 설득력을 가진 정당이 어딘가?'라고 묻는다면, '정의당'이라고 답할 것이다.   매체와 정당, 목적은 하나? '공감'이 핵심이다!   매체와 정당은 기본적으로 독자와 대중에게 '공감'을 이끌어 내야 한다. 우리 기사와 정책에 사람들이 얼마나 공감하느냐가 가장 중요하다. 공감하는 사람이 많아지면, 프레시안의 경우에는 조합원이 될 것이고 정의당은 가입하는 당원이 늘어날 것이다. &lt;노유진의 정치카페&gt;를 듣고 입당한 사람들이 실제로 많다. 특히 정당가입 추천인란에 '노유진'이라고 쓰는 사람이 많다.  &lt;프레시안&gt;을 평가한다면? 조합비 값 톡톡히 치르고 있다!  '주빌리 은행' 제윤경 대표를 인터뷰한 9월 15일 자 '2015년 추노(推奴) 이야기'는 &lt;프레시안&gt; 기사를 보고 기획했다. 인터뷰를 너무 잘했더라.(☞바로 가기 : "떳떳하게 말하자. 빚 못 갚겠다!") &lt;프레시안&gt;은 기자 자체가 콘텐츠라고 생각한다. 정치 외에 인문사회 분야의 다양한 주제를 인터뷰나 서평, 연재 등으로 녹여내고 있다. &lt;노유진의 정치카페&gt;를 기획하며 &lt;프레시안&gt; 기사를 많이 참고한다. 깊이 있는 기사가 1차 형태라면, '노유진'이 결합한 수다 형태로 2차 가공을 하는 셈이다. 그런 면에서 조합원으로 조합비 값을 톡톡히 치르고 있다. '노유진'이 말하는 &lt;노유진의 정치카페&gt; 배후는 '약오름'?  노회찬 : &lt;노유진의 정치카페&gt; 최대 무기는 백정현 피디 아니야?  유시민 : 무슨 소리! 내가 합류하면서 &lt;노유진의 정치카페&gt;가 뜬 거지.  진중권 : 노회찬 전 대표와 유시민 작가가 &lt;저공비행&gt;이라는 이름으로 팟캐스트를 한 적이 있다. 그런데 안 떴다. 내가 합류하면서 떴지. 원래 한 번으로 끝날 거였는데, 반응이 워낙 좋아서….  유시민 : 6.4 지방선거 끝나면 안 하려고 했는데, 선거 끝났다고 방송을 바로 끝내면 뭐라고 할까 봐. 진중권 : 또 '선거 끝났다고 방송 그만 하는 것 아냐?'라는 글이 올라왔다. 유시민 : 그래서 우리가 약 올라서 '이대로 끝내면 안 된다. 조금 더 하자'라고 했다가 오늘까지 왔다. 하다 보니까 반응도, 내용도 엄청 좋아졌다. 지금은 언론 역할까지 한다.  진중권 : 다른 데 인터뷰할 이유도, 글 쓸 이유도 없다. 지난 '화폐개혁' 방송 다운로드가 200만 건 넘었다고 들었다. 노회찬 : 지금까지 전체 누적 다운로드만 8000만이라며? 유시민 : 11월 하순이면 다운로드 1억은 되겠네. 12월 초까지 10번 정도만 더 방송하면….  진중권 : 그 정도쯤이야.  노회찬 : 1억 다운로드되면, &lt;노유진의 정치카페&gt; 중국 진출하는 건가?   ▲ 왼쪽부터 진중권 교수, 노회찬 전 대표, 유시민 작가. ⓒ백정현     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ⓒ포스텍      POSTECH(포항공과대학교, 총장 김무환)이 로이터통신이 평가한 ‘2019 세계에서 가장 혁신적인 100대 대학’ 순위에서 세계 12위에 올랐다. 아시아 소재 대학 중 가장 높은 순위다.  로이터는 세계적인 정보서비스 회사 클래리베이트 애널리틱스(Clarivate Analytics)와 함께 학술논문과 영향력, 특허출원 수, 논문 인용도 등을 척도로 매년 ‘혁신적인 대학’ 순위를 발표하고 있다.  POSTECH은 이 평가에서 미국 캘리포니아대 시스템(University of California System, 13위)과 존스홉킨스대(15위), 캘리포니아공대(16위)를 제치고 12위에 올랐다.  아시아에서는 1위로, 일본 도쿄대(26위), 서울대(29위), KAIST(34위), 중국 칭화대(41위)가 그 뒤를 이었다.  로이터는 POSTECH을 “한국의 철강기업 포스코가 1986년 세운 대학으로, 산업체와 특별한 협력 관계(unique ties)를 맺고 있는 연구중심대학”이라고 밝혔다.  또 2019년 발표된 인공각막을 3D프린터로 제작할 수 있는 ‘바이오잉크’ 기술(기계 조동우 교수·창의IT 장진아 교수)과 2018년 홍합접착 단백질을 이용한 줄기세포 전달체 기술(화공 차형준 교수)을 대표적인 혁신 기술로 소개했다.  지난 2012년부터 2017년까지 POSTECH은 총 349개의 특허를 출원, 79.7%라는 높은 등록률을 보였다.  특허 출원 시 논문이 얼마나 많이 인용됐는지를 놓고 평가하는 ‘기술사업화 영향력 점수(Commercial Impact Score)’에서는 평균(40.5)보다 높은 48.8점을 얻었다.  한편 이 평가에서는 미국 스탠포드대가 5년 연속으로 1위를 차지했으며, 2위와 3위도 다름없이 매사추세츠공대(MIT), 하버드 대학이 올랐다.  우리나라에서는 POSTECH을 포함 총 6개 대학(서울대, KAIST, 성균관대(45위), 한양대(72위), 연세대(76위))이 100위 안에 이름을 올렸다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      대기업이 회사 밖 엔지니어가 발명한 기술을 함부로 베껴 쓰던 행태에 제동이 걸렸다. 미국 법원 배심원단 평결 때문이다. '기술 유출' 혐의가 엉뚱한 용도로 쓰이는 행태가 또 드러났다.   &lt;블룸버그&gt; 등 외신에 따르면, 미국 텍사스 동부지법 배심원단은 지난 16일 모바일 기기에 쓰이는 핵심 기술을 무단 사용한 삼성전자가 약 4억 달러(약 4400억 원)을 배상하라는 평결을 했다. 이후 판사가 이 사건을 징벌적 피해(treble damages)로 판단하면, 평결 금액의 3배까지 배상 금액을 올릴 수 있다. 이 경우, 배상 금액은 약 12억 달러(약 1조3000억 원)가 된다.   이종호 서울대 교수가 2001년 발명해서 2003년 미국에 특허를 낸, 이른바 '벌크 핀펫(FinFET)' 기술에 대한 평결이다.   이 교수는 카이스트가 설립한 지식재산권 관리 업체인 KIP에 이 기술의 특허 권한을 양도했다. KIP는 지난 2015년부터 갤럭시S6 등에 이 기술을 사용했지만 특허권료를 내지 않고 버틴 삼성전자를 상대로 2016년 미국 법원에 특허 침해 소송을 냈다.   소송이 진행되는 동안, 삼성전자 측은 다양한 편법을 동원했다. 이종호 교수가 과거 재직했던 경북대학교 측과 접촉해서, 경북대가 이 기술 특허권이 있다고 주장하도록 부추겼다는 지적이 나왔다. 경북대 측이 이렇게 주장하면, KIP가 낸 소송이 기각될 수 있었다.   아울러 삼성전자는 산업통상자원부에 '산업 기술 무단 유출' 혐의를 조사하도록 요청했다. 대기업이 엉뚱한 목적으로 기술 유출 혐의를 주장하는 행태가 또 드러났다. 기술 민족주의 정서가 강한 한국 문화에서 종종 통하던 방식이다. 직원에게 '기술 유출' 누명을 씌우거나, 대기업이 피해자 흉내를 내는 방식으로 해당 기업이 원하는 다른 것을 얻는 일이 종종 있었다. 국가정보원 역시 민주화 이후 '산업 기밀 보호'를 존재 명분으로 삼으면서, 기술 유출 혐의를 악용하곤 했다.   하지만 미국 법원 배심원단은 삼성전자 측 주장을 받아들이지 않았다. 삼성전자와 달리, 인텔은 이 교수와 KIP 측에게 약 100억 원을 주고 이 기술을 쓴다는 점이 참작됐다. 100억 원 아끼려던 삼성전자는 그보다 수십 배를 물어주게 됐다.   이에 대해 삼성전자는 즉각 항소하겠다고 밝혔다. &lt;블룸버그&gt;에 따르면, 삼성전자뿐 아니라 퀄컴과 글로벌파운드리 등도 이 기술 특허를 침해했지만, 아무런 배상을 하지 않았다. 이는 관련 소송이 확대될 가능성을 예고한다. 아울러 이 교수와 KIP 측이 거둘 특허권 수익이 더 늘어날 수 있다는 뜻도 된다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲    신성철 KAIST 총장 ⓒ KAIST    신성철 KAIST 총장이 미국 노스웨스턴대 재료과학 분야 ‘올해의 자랑스러운 동문상’ 수상자로 선정됐다.  동문상 선정위원회는 "세계 자성학 분야에서의 독보적인 연구로 재료물리학 발전에 기여한 학문적 업적과 대학 총장으로서 고등교육 및 인재양성에 기여한 공로를 인정해 신성철 KAIST 총장을 올해의 자랑스러운 동문상 수상자로 선정했다"고 밝혔다.  시상식은 오는 5월16일 노스웨스턴대학교에서 열릴 예정이다.  신성철 총장은 1974년 서울대 응용물리학과 졸업 후 1977년 KAIST 고체물리학과 석사를 거쳐 1984년 노스웨스턴대에서 재료물리학 박사 학위를 받았다.  신 총장은 노스웨스턴대 박사과정 재학 중 금속인 비스무트와 반도체인 납텔루라이드(PbTe)의 구조가 유사하다는 점에 착안해 두 물질로 초격자 다층박막 구조를 세계 최초로 만들어 초격자 구조 신물질을 제작했다.  신 총장은 나노 자성체 스핀 동력학을 연구하는‘나노스핀닉스(Nanospinics)’ 분야를 개척했으며, 20여 년간 300여 편의 관련 논문을 발표하고 37건의 국내외 특허를 등록·출원하는 등 이 분야의 국내외 연구를 선도했다.  이 같은 공로로 2008년 자성학 분야 한국 과학자로서는 최초로 미국 물리학회 석학회원에 선정됐고 2016년 한국 과학자로서 최초로‘아시아자성연합회’상을 받았다.  또 국내 과학기술 발전과 차세대 인재양성에 기여한 공로로 2007년 과학기술훈장 창조장과 2012년 대한민국 최고과학기술인상을 수상했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      강정민 원자력안전위원회 위원장이 국정감사 당일인 29일 돌연 사퇴해 야당은 물론 여당 의원들까지 무책임한 대응이라며 목소리를 높였다.   올해 1월 취임한 강 위원장은, 카이스트 초빙교수 시절인 2015년 원자력연구원 사업에 참여했다는 의혹이 지난 12일 국정감사에서 불거지면서 결격사유라는 지적을 받았다. '원자력안전위원회 설치 및 운영에 관한 법률'에 따르면, 최근 3년 이내 핵발전 및 핵에너지 관련 사업에 관여한 적이 있는 자는 위원 결격사유에 해당한다. 이런 경우 설사 위원으로 임명됐더라도 퇴직해야 한다.   강 위원장은 이날 오전 인사혁신처에 사직서를 냈고, 그의 사직서는 바로 수리된 것으로 전해졌다. 강 위원장은 국정감사장에서 "결격사유가 있으면 책임지겠다"며 "결격 여부는 감사원에서 감사를 받겠다"고 말했고, 지난 26일 실제로 감사원에 스스로 감사를 청구했었다.   여야는 한 마디로 황당하다는 반응이다. 원안위를 관할하는 국회 과학기술정보통신방송위원회 한국당 간사인 정용기 의원은 "위원장이 국감을 회피하기 위해 사직서를 내고 이 자리에 안 나왔다"고 비판했다. 과방위 바른미래당 간사인 신용현 의원도 "국감 날 사직서를 제출한 것은 초유의 사태"라며 "(12일 국감장에서의) 위증 말고도 그 무책임함에 대해 책임을 져야 한다"고 했다.   여당인 더불어민주당에서도 비판이 나왔다. 민주당 과방위원인 이철희 의원은 "사퇴하려고 했다면 문제제기 당일(12일) 국감 이후 바로 했어야 했고, 아니면 오늘 국감장에 와서 소회를 밝히고 사퇴 이유를 밝히는 게 도리"라며 "국회를 무시하는 것"이라고 지적했다. 민주당 소속인 노웅래 과방위원장도 "강 위원장이 연구에 참여하지도 않고 연구비를 탔다는 것 (아니냐)"며 "관행을 시정하는 계기로 삼아야 한다"고 언급했다.     ▲강정민 원자력안전위원장이 지난 12일 국회 국정감사에서 선서하고 있다. ⓒ연합뉴스     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲27일 제57회 세종시의회 임시회 본회의에서 상병헌 세종시의원이 세종시 자족기능 필수요건인 대학 캠퍼스 유치를 촉구하고 있다. ⓒ세종시의회       상병헌 세종시의원은 27일 제57회 세종시의회 임시회 본회의에서 “세종시의 자족기능 확보를 위해 대학 캠퍼스 유치를 촉구한다”고 밝혔다.  상 의원은 5분 발언을 통해 “세종시는 2012~2018년 국내·외 17개 대학과 23건의 입주협약을 체결했다”며 “이중 현재까지 입주를 확정지은 대학은 카이스트 융합의과학원, 충남대 의대, 아일랜드의 트리니티대, 이탈리아의 산타체칠리아 음악원 등 4곳에 불과하다”고 지적했다.  이어 “최근 입주를 확정지은 산타체칠리아 음악원과 트리니티 대학도 설립시기가 지연되고 있고 나머지 13개 대학들도 입주여부가 불투명하다”고 말했다.  그러면서 “지지부진한 대학유치 상황을 타결하기 위해 세종시와 행복청, 교육부, 국무조정실 등으로 구성된 ‘대학유치추진단’을 조직해 협조체계를 구축해야 한다”고 제안했다.  상 의원은 특히 종합대학 단독 캠퍼스 유치를 강조했다.  그는 “현재 세종시 집현리 4-2생활권 중 종합대학을 유치할 수 있는 부지는 100만㎡”라며 “이곳에 의료복합형대학캠퍼스를 유치해야한다”고 주장했다.  이를 위한 선결과제로 학부와 대학원의 순수정원을 확보해야 하고 LH의 토지공급 단가를 적정하게 낮춰야한다고 말했다. 입주대학 교직원에 대한 정주여선 인센티브도 제시했다.  국립보건의료대, 한국예술종합학교 등 특성화된 대학들을 유치할 것도 제안했다.  상 의원은 “한예종 서울 석관동 캠퍼스 이전 계획이 있어 이미 고양시, 인천, 서울 송파구 등 지자체들이 2016년부터 유치경쟁에 나서고 있다”며 “세종시도 검토할 필요가 있다”고 밝혔다.  더불어 “한전공대설립사례에서 보듯 세종시에 대학설립여부 핵심은 교육부의 정원인가에 달려 있다. 학부와 대학원에 적어도 2000명 선의 정원이 인가돼야 유수의 대학들이 관심을 보일 것”이라며 “국회 세종의사당 건립, 대통령 세종 집무실 설치 등 현안과 함께 대학유치가 실현될 수 있도록 노력해 달라”고 요청했다.    ▲27일 세종시의회에서 열린 ‘제57회 임시회 본회의’에서 상병헌 세종시의원이 5분 발언을 통해 “세종시의 자족기능 확보를 위해 대학 캠퍼스 유치를 촉구한다”고 밝히고 있다. ⓒ프레시안(김수미)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       순천대학교(총장 고영진)가 지난 15일 두산중공업 경남 창원 본사 게스트하우스에서 13개 산·학·연과 ‘수소가스터빈 연소기 개발 및 복합발전 실증 사업화’에 관한 업무협약을 체결했다고 17일 밝혔다.  이번 협약에는 두산중공업(주), 한국기계연구원, (재)경남테크노파크, 한국지역난방공사, 한국남동발전, 한국남부발전, 한울항공기계(주), 한국과학기술원 및 순천대학교 외 5개 대학(서울대, KAIST, 강릉원주대, 세종대, 인하대) 등 전체 13개 기관이 참여했다.    ▲지난 15일 창원 두산중공업에서 열린 ‘수소 가스터빈 연소기 개발 및 수소터빈 실증사업 협력 협약 체결식’에서 주요 참석자들이 기념 촬영을 하고 있다.(사진 왼쪽부터 허재선 순천대학교 산학협력단장, 임종원 한국지역난방공사 미래개발원장, 안완기 경남테크노파크 원장, 안관식 한국남부발전 기술안전본부장, 박홍욱 두산중공업 파워서비스BG장, 임다두 한국남동발전 삼천포발전본부장, 박상진 한국기계연구원장, 이승수 한울항공기계 대표) ⓒ순천대학교    참여기관들은 수소연료를 통한 전력생산의 핵심기술인 ‘100% 수소가스터빈 연소기 개발’을 위해 국비 193억을 투입해 60개월간 연구개발을 진행하고, 6개 발전공기업 현장(발전소)에서 실증을 거쳐 2028년 상용화하는 것을 목표로 하는 대형 국책사업 수행을 위해 협력한다.  가스터빈 연소기술은 발전(發電) 분야 외 미사일, 항공기 및 우주발사체의 핵심기술인 관계로 국방산업, 우주산업과도 직결되는 국가 차원의 전략 기술이라 선진국에서도 극도의 보안 유지와 기술이전을 기피하고 있는 최첨단 기술로 순천대학교에서는 우주항공공학과 이기만 교수 연구팀이 기술개발에 협력할 예정이다.  주요 8개 기관의 대표들이 모인 협약식에 6개 참여대학을 대표해 유일하게 참석한 순천대학교 허재선 산학협력단장은 “이번 협약을 통해 발전공기업 외 민간 발전산업 및 항공우주산업 분야에서 우리 대학의 위상을 높이고, 에너지 관련 대형 국책사업에 주도적으로 참여할 수 있을 것으로 기대된다. 향후 지속적인 연구개발 추진 및 관련 인력 양성의 동력을 확보해 나가겠다”고 말했다.  한편, 순천대학교는 과제수행 기간 중 한국남부발전, 한국남동발전, 한국지역난방공사, 두산중공업(주) 등 동 사업을 추진하는 발전사 및 제작사와의 상호교류를 통해 순천대학교 연구팀의 현장 방문과 학생채용 등도 함께 추진해 간다는 계획이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲이노시톨 대사효소(IPMK) 제거된 생쥐의 공포기억 소거 증진 : 유전자 녹아웃 기술을 이용하여 생쥐의 흥분성 신경세포 특이적으로 이노시톨 대사효소(IPMK)를 제거했고(그림 위), 그 결과 소리 및 전기자극으로 학습된 공포기억이 소거되는 능력이 현저하게 향상됐다(그림 아래) ⓒ한국연구재단       KAIST 김세윤 교수 연구팀이 공포기억에 악해지도록 뇌를 조절하는 효소를 발견했다.  연구팀은 존스 홉킨스 의대, 뉴욕대, 컬럼비아 의대와의 국제 공동 연구를 통해 뇌의 흥분성 신경세포에서 이노시톨 대사효소를 제거함으로써 공포기억의 소거 현상이 조절되는 것을 규명했다.  현대 신경생물학의 핵심주제인 ‘기억은 어떻게 만들어지고 지워지는지’에 대한 연구는 현대 신경생물학의 핵심주제이다.  연구팀은 뇌의 흥분성 신경세포에 발현되는 이노시톨 대사효소가 공포기억의 소거 조절에서 핵심 역할을 담당한다는 것을 밝혔다.  생쥐에게 강한 소리자극과 전기자극을 동기화하면 매우 강력하게 공포기억이 학습된다.  이후 전기자극 없이 소리자극만 반복적으로 제시되면 공포기억에 대한 반응이 서서히 줄어드는데, 이를 ‘공포기억의 소거(extinction of fear memory)’라고 한다.  공포기억의 소거는 단순한 기억 소멸보다는 공포자극에 동기화된 기억을 억제하는 또 다른 학습으로 받아들여진다.  생쥐의 흥분성 신경세포에서만 특이적으로 이노시톨 대사효소를 제거하자, 공포기억의 소거 반응이 촉진됐다.  특히 이 효소가 제거된 생쥐의 편도체에서는 공포기억의 소거 반응을 전달하는 신호전달계의 활성화에 동반됨을 확인했다.  이노시톨 대사효소는 음식으로 섭취되거나 생체 내에서 합성된 포도당 유사물질인 이노시톨을 인산화해주는 효소이다.  이번 연구를 통해 이노시톨 대사가 기존에 알려진 세포의 성장, 신진대사 뿐 아니라 뇌기능 조절에서도 중요한 기능을 한다는 점을 알 수 있었다.        ▲ 김세윤 교수 ⓒ한국연구재단    김세윤 교수는 “각종 트라우마 및 극심한 스트레스등에 의하여 후천적으로 획득된 공포기억은 심할 경우 외상후 스트레스 장애 및 공포증과 같은 현대 사회의 심각한 정신 질환들을 유발한다“면서 ”이에 공포기억의 소거현상에 대한 기초적인 뇌과학 지식의 이해와 더불어 치료 타겟을 확립하는 데에 기여할 것으로 기대된다“고 설명했다.  이 연구 성과는 세계적 학술지 ‘PNAS’에 1월28일자 논문으로 게재됐다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      한국사회책임네트워크(KSRN·대표 김영호)는 2015년 기업의 사회적 책임(CSR)과 관련된 '올해의 7대 뉴스'를 선정했다. 참여 단체의 책임자와 전문가로 구성된 집행위원회(위원장 안치용 2.1지속가능연구소장)가 집담회를 통해서 '사회책임 생태계'에 기여한 좋은 소식(Good News)과 부정적 영향을 끼친 나쁜 소식(Bad News)을 7개씩 선별했다. 선정대상은 CSR 관련 소식을 중심으로 하되 정부와 국회의 동향과 국내에서 반향이 컸던 해외소식을 일부 포함했다.   Good News TOP 7  "국민연금 SRI 걸음마…한국사회책임네트워크 출범"  ① 국민연금, 투자시 ESG 고려 및 현황 공시…국내 최대 투자자의 'SRI 걸음마'  국민연금이 올해부터 투자결정에서 기업의 환경·사회·지배구조(ESG, environment, social, governance) 등 사회적 책임을 고려할 수 있고, 이에 따른 기금관리와 운용현황을 공시하게 되면서 국내 최대 투자자인 국민연금이 기업의 사회적 책임(CSR)을 촉진하고 독려하는 걸음마를 시작했다. 국민연금의 ESG 고려 투자는 세계 연기금에서 주목받는 규모로 커진 국민연금 기금이 덩치에 맞게 지구적 차원에서 CSR을 제고하는 데 기여할 수 있는 '투자원칙'을 수립하고, 연결되는 '기업 평가기준'을 개발하는 시발점으로 평가할 수 있다. 자본시장에서 일어난 '제도권'의 변화는 대한민국을 지속가능사회로 발전시키는 데 기여할 전망이다. 하지만 CSR 관련 법규의 원활한 입법이 지연되고, 국민연금이 삼성물산-제일모직 합병, 홈플러스 매각 등에서 CSR을 제고하는 방향으로 기업관여를 하지 못했다는 비판도 거셌다.   ② 김영란법 입법 … 잃어버린 '반쪽'(공직자 이해충돌 방지)은 되찾아야  '부정청탁 및 금품 등 수수의 금지에 관한 법률' 제정은 정계, 관계, 재계, 학계, 문화예술계를 불문하고 관행처럼 되풀이되는 부정청탁과 금품·향응 수수에 일대 경종을 울렸다. 앞으로 기업(인)과 공직자 사이에서 인허가·면허·평가·판정·재판·조정 등에서의 처리위반, 과태료 등에 대한 감경·면제, 채용·승진·계약체결·보조금·장려금의 개입, 공공기관 수상·포상의 관여, 직무상 비밀누설, 일감·용역 몰아주기 등과 이에 대한 행위를 '알선'하는 것까지 '부정청탁'으로 처벌받는다. 이 법은 2016년 9월부터 시행되는데, 그동안 정관계와 재계, 언론계 등이 사회적 책임을 우회·회피하기 위해 다양한 방식으로 '짬짜미'를 해 왔던 부패의 사슬을 끊는 역사적 입법으로 평가된다. 하지만 김영란 국민권익위원장이 제안한 원안에서 '공직자이해충돌방지' 규정이 누락돼 '반토막 김영란법'이라는 비판과 함께 국회가 약속대로 온전한 입법을 마무리해야 한다는 요구가 높다.   ③ 제21차 파리 기후변화 당사국 총회(COP21) 합의 도출 프랑스 파리에서 세계 196개국 대표들이 모여 온실가스 감축에 합의했다. 1997년 교토의정서 이후 18년 만에 역사적 진척이 이뤄졌다. 주요내용은 산업화(1750년) 이전 대비 지구 평균온도 상승폭을 섭씨 2°C 이하로 제한하고, 더 나아가 상승폭을 1.5°C 이내로 제한하기로 노력한다는 것이다. 또한 2018년부터 5년마다 모든 국가의 온실가스 감축 이행여부를 점검하고, 2020년부터 선진국은 매년 최소 1천억 달러(약 118조원)를 개도국 온실가스 저감에 보조하도록 했다. 온실가스 감축시점을 앞당기고 속도를 강화해서 2050년 이후 온실가스 배출량과 지구의 온실가스 흡수능력 사이에 균형을 유지하도록 하는 데에도 합의했다. 각국의 온실가스 자발적 감축목표(INDC) 제출은 의무이지만, 이행을 강제할 법적 규제는 불비하다. 각국이 진정성 있는 감축목표를 제시하고 실효성 있는 정책을 개발하는 것과 세계의 시민들이 감시를 강화하는 것이 과제로 남았다.  ④ 사회적 책임 장려 위한 '조달법 개정안' 국회 상임위 통과 정부의 조달업무에서 사회책임을 고려할 법적 근거가 마련됐다. 정부의 수다한 조달절차에서 환경, 인권, 노동, 고용, 공정거래, 소비자보호 등 사회적·환경적 가치를 반영할 수 있다는 내용이 법규로서 명시된 것이다. 국회 상임위원회를 통과한 '조달법 개정안'(홍일표 의원 대표발의)은 '사회적 책임 공공조달'의 법적 근거를 마련했다는 측면에서 의의를 갖는다. 본회의 통과가 확실시되는 이 개정안은 '효율성'만을 명시했던 제1조 조달사업의 목적에 '공공성 고려'라는 내용을 삽입함으로써 조달 사업에서 사회적 책임 원칙을 강화했다. 우리나라의 공공조달 시장은 연간 120조원에 달하며, 수많은 기업들이 이 조달시장에 참여하고 있다. 이 개정안이 본회의를 통과하면 정부나 공공영역의 조달을 통해 기업의 사회적 책임(CSR)이 촉진될 또 하나의 법적인 근거가 마련되는 셈이다. 국민연금의 ESG고려는 자본시장에서, 공공조달은 조달시장에서 각각 새로운 변화를 일으켜 시장과 사회 전반에 CSR을 확산시키는 계기가 될 전망이다. 특히 공공조달은 중소기업의 CSR 확산에 영향을 미칠 것으로 점쳐진다.  ⑤ 한국거래소 'ESG 중심' 사회책임지수 발표 한국거래소가 사회책임투자(SRI) 활성화와 기업지배구조 개선을 위해 12월 21일부터 환경, 사회책임, 지배구조(ESG)를 중심으로 한 사회책임지수를 발표하고 있다. 새로 개발된 지수는 ESG 통합점수가 높은 상위 150개 종목으로 구성된 'ESG Leaders 150', 지배구조(G) 점수가 높거나 과거보다 많이 상승한 100개 종목으로 구성된 'Governance Leaders 100', 환경(E) 점수가 높거나 과거보다 많이 상승한 100개 종목으로 구성된 'Eco Leaders 100' 등 세 가지 종목으로 이뤄졌다. 한국거래소가 함께 발표한 자료에 따르면 ESG 우수기업의 대부분이 주가상승률에서 평균상승률보다 훨씬 높은 수준을 나타냈다. 한국거래소가 사회책임지수에 근거한 종목을 발표함으로써 앞으로 착한 기업을 대상으로 한 '투자 바구니'를 더욱 풍성하게 하고, 증권시장과 사회 전반에서 기업의 사회적 책임(CSR)에 대한 인식을 제고하는 데 기여할 것으로 기대된다.   ⑥ SNS가 'CSR의 감시자'로 부상 … '사회책임 생태계' 활력 불어넣어 SNS시대에 부정부패와 비리를 은폐하는 것은 어려워졌다. 지속가능 경영지수, 윤리경영지수를 산출하는 데서 '사회적 평판'의 중요성이 더욱 커진 한해였다. 지난해 남양분유 '갑질' 사건, 대한항공 회항사건 등에 이어 올해도 최근 몽고식품 회장의 운전사 폭행사건까지 기업과 기업주들의 무책임한 행태에 대해 SNS의 감시와 비판이 활발하게 작동했다. 기업들은 업무외적 영역까지 시장의 평가와 반응에 노출됨으로써 다양한 경로로 사회적 책임 압박을 받고 있다. 기업에 대한 각종 평가에서도 SNS를 통해 네거티브 스크리닝(Negative Screening)이 이뤄짐에 따라 기업의 반칙, 기업주들의 갑질과 폭력, 시장질서 위반 등은 적나라하게 검증되고 있다. SNS의 반응은 언론보도에도 큰 영향을 미쳐 기업은 스스로의 부패와 비리 등 커다란 사회적 해악을 기부와 나눔 등 단지 사회적 선행만으로 가릴 수 없게 됐다. SNS는 사회책임 생태계에 활력을 불어 넣고 있다.   ⑦ 한국사회책임네트워크 출범 … CSR 공론화·정책화 노력 한국사회책임투자포럼, 기업책임시민센터, 2.1지속가능연구소, 소비자와 함께, 푸른아시아, CSR서울이니셔티브, 생생협동조합, 한국녹색도시협회, 지속가능사회를 위한 젊은 기업가들(YeSS), 토마토CSR연구소, 지속가능청년협동조합 바람, ISO26000 전문가포럼 등 12개 단체와 관련 전문가들이 '한국사회책임네트워크'(KSRN)를 결성했다. 대표로는 김영호 한국사회책임포럼 이사장(전 산자부장관), 고문으로 안병훈 KAIST 명예교수, 윤증현 전 기재부장관, 이계안 2.1지속가능연구소 이사장(전 현대자동차 CEO), 인명진 한국녹색도시협회 명예이사장 등이 참여했다. KSRN은 앞으로 사회책임기본법 제정, ESG 관련 공시 확대 등 기업의 사회적 책임(CSR)을 제고하기 위한 정책청원을 전개하고, 사회책임 생태계를 활성화하는 데서 국회와 정부의 역할을 높이는 감시자 역할을 강화할 방침이다. 새해에도 CSR 공론화를 위한 다양한 학술·교육·평가·홍보 등을 주관·후원·참여할 계획이다.     ⓒ한국사회책임네트워크     Bad News TOP 7 "삼성 '그룹내 합병' 주주가치 훼손…롯데·두산 등 CSR 망각"  ① 삼성생명-제일모직 합병 … 주주가치 훼손, 국민연금의 배임적 행태 삼성생명-제일모직 합병과정에서 보여준 삼성그룹의 행태는 재벌3세 경영승계에 대한 논란은 접어두고서라도, 기본적으로 주주가치 존중과 기업의 사회적 책임(CSR) 측면에서 상당히 거리가 멀었다는 비판을 받았다. 국민연금은 최대 기관투자자이자 공적 기금으로서 정당한 기업관여에 역행하는 의사결정으로 공공기관 및 공적 연기금에 대한 사회적 책무를 다하지 못했다는 지적을 받았다. 또한 삼성그룹의 엘리엇매니지먼트에 대한 대응과정에서 '경제애국주의' 논란을 초래했는데, 이러한 대응방식은 글로벌 대기업의 경영 트렌드와는 상이한 것으로 앞으로는 국내에서도 더 이상 지속되기 어려울 것으로 전망된다. 삼성그룹이 재계에서 차지하는 비중에 비추어 합병 직후 제시한 기업지배구조 개선, 주주권익 보호를 위한 거버넌스 위원회, 기업의 사회적 책임을 이행하기 위한 CSR위원회 등은 시민사회가 그 이행여부와 활동과정을 감시해야 할 중요한 약속들이다.   ② 롯데그룹 '후진적' 기업지배구조와 경영권 분쟁 롯데그룹 삼부자의 경영권 분쟁은 국민의 눈살을 찌푸리게 했다. 국적을 둘러싼 정체성 논란과 4백개가 넘는 순환출자 고리는 국내 재벌순위 5위그룹의 후진적 기업지배구조, 투명하지 못한 기업경영의 속살을 적나라하게 드러냈다. 2013년 기준 1% 이하 지분소유까지 포함한 롯데그룹의 순환출자 고리는 9만5천여개에 달했다는 점이 재조명됐고, 정체불명의 광윤사와 L투자회사는 투명하지 못한 가족경영에 대한 비판여론을 부채질했다. 삼성물산-제일모직 합병논란과 롯데 경영권 분쟁은 그동안 'CSR 불모지'로 여겼던 '기업의 지배구조'에 대한 사회적 각성을 촉발했고, 주력업종이 유통계열인 롯데그룹에 대한 소상공인단체, 소비자단체의 불매운동은 'CSR 무풍지대'였던 대기업 상품에 대해서도 시장의 반응과 사회적 압력이 실질적으로 이뤄지는 시대에 접어들었다는 점을 시사했다. 롯데호텔 임시직원 해고와 관련된 소송과정이 불거지면서 노동인권에 대한 롯데그룹의 안이한 자세도 여론의 질타를 받았다.   ③ 폭스바겐 '배기가스 조작' … 뿌리는 '후진적' 기업지배구조  독일 자동차산업의 대명사인 '폭스바겐'이 배기가스 조작으로 세계적 물의를 빚었다. 환경기준을 통과하기 위해 프로그램을 조작해서 기준치 대비 최대 40배나 속여서 발표한 사실이 드러나면서 올해 세계 경제계의 뜨거운 뉴스가 됐다. 피해를 입은 국내 소비자도 개선과 보상을 요구했으나, 폭스바겐 한국지사가 소극적인 자세로 일관해 논란을 빚었다. 폭스바겐이 저지른 비윤리적 행위의 뿌리는 기업지배구조에서 기인한다는 시각도 있다. 유서 깊은 글로벌 대기업이라고 보기 힘든 '복잡한 기업지배구조'에서 경영의 난맥상이 유래했다는 것이다. 폭스바겐의 배기가스 조작사건은 ESG(환경 사회 지배구조)로 집약되는 기업의 사회적 책임(CSR)에서 글로벌기업이라고 해도 중소기업보다 못한 행태를 보일 수 있다는 점을 확인시켰다. 폭스바겐의 추락은 대기업이나 중소기업이나 CSR을 다하는 데에는 왕도가 따로 없다는 값비싼 교훈을 남겼다.   ④ 두산그룹 '신입사원 명예퇴직' 논란 … 최악의 '기업 PR' 두산그룹의 주력계열사인 두산인프라코어가 경영난을 이유로 20대 신입사원까지 명예퇴직 대상에 포함시켜 사내는 물론이고 각계의 거센 질타를 받았다. 창업 110년, 재계 서열 12위의 두산그룹은 그동안 '지구의 가치를 높이는 기업', '사람이 미래다' 등을 캐치프레이즈로 내세우며 윤리적 경영과 기업의 사회적 책임(CSR)을 주창해 왔다. 더구나 기업총수인 박용만 회장은 대한상공회의소 회장을 맡고 있어 정부의 청년취업 대책에서 중요한 파트너인데 신입사원 명예퇴직이라는 의아한 의사결정이 이뤄지는데 아무런 책임도 없다고 보기는 힘들다. 이 사건은 국내 재벌기업의 의사결정 과정에 대해서도 의구심을 불러 일으켰다. 또한 두산그룹의 '20대 신입사원 명예퇴직' 논란은 수백억에 달하는 프로야구 지원이나 막대한 기업 이미지광고를 공허하게 만들었다는 점에서 2015년 '최악의 기업PR'이라는 빈축을 면하기 어렵다. 이미지 추락은 순간임을 보여준 사건이었다.   ⑤ 대우조선해양 분식회계·산업은행 모럴해저드 … 주인 없는 거대기업들 '경고음' 기업회계의 투명성은 기업의 사회적 책임(CSR)을 거론할 필요 없이 기본 중에 기본에 속하는 요소임에도 불구하고 밖으로 수많은 사회공헌활동을 전개한 대기업들이 여전히 '의혹의 시선'을 가장 많이 받는 문제이기도 하다. 올해는 이른바 '주인 없는 대기업' 포스코·대우조선해양 등에서 드러난 비자금 등 불법비리와 분식회계 논란이 불거졌고, 해외자원 개발을 위한 '성공불융자'에서도 특정기업에 대한 특혜의혹이 제기됐다. 또한 부실기업을 관리해야 할 정책금융기관인 산업은행이 도리어 '낙하산 논란'에 휘말렸다. 국가정책금융기관의 엄중한 책임성에 비추어 이러한 도덕적 해이는 '사회책임 생태계'에도 악영향을 미치는 커다란 감점 요인이다. 한국사회가 CSR을 세계적 표준에 맞게 개선하려면 대기업과 공공기관, 공기업의 관계에서 드러난 '부패의 사슬'을 끊어야 한다는 점을 다시 한번 환기시켜 주었다.   ⑥ 메르스사태 키운 삼성서울병원 '비밀주의' … 의료기관의 사회적 책임 망각  메르스(중동호흡기증후군) 사태는 근본적으로 국가방역시스템과 보건의료전달체계 등 구조적 원인이 있지만, 삼성서울병원의 비밀주의는 보건복지부의 안이한 상황인식과 맞물려 사태를 눈덩이처럼 키우는 화근이 됐다. 삼성서울병원의 대응과정은 재벌그룹 의료기관이 국가적 긴급사태에 대처하고 사회적으로 소통하는 자세가 어떤 수준인가를 적나라하게 드러냈다는 평가를 받았다. 의료기관은 법적으로 비영리기관이지만 기업의 사회적 책임(CSR)의 범주에서 자유로울 수 없다. 이른바 빅5(삼성서울병원 서울아산병원 서울대병원 연세대병원 가톨릭대병원)를 비롯한 대형병원의 경쟁이 가열될수록 이들이 과거 재벌의 성장과정을 답습할 것이란 사회적 우려가 현실화했다는 평가를 받는다. 메르스사태는 보건의료분야가 갖는 공공성에 비추어 대형병원이 윤리경영과 CSR의 원칙과 표준을 확립하고 실천하는 것이 시급하다는 점을 일깨워 줬다.   ⑦ 사회적 책임 촉진 위한 일부 법안 국회 '표류' 중 사회책임투자(SRI)나 공공조달에서 사회책임 입법 활동이 상당한 성과를 보이고 있는 반면 CSR 촉진에 매우 중요하지만 아직 상임위도 통과하지 못하고 국회에서 표류중인 법안도 있다. '자본시장법 개정안'이 대표적이다. 홍일표 의원과 이언주 의원이 각각 대표발의한 이 법안은 상장기업들이 의무적으로 내는 사업보고서에 환경, 인권, 노동, 공정거래 관행, 소비자 보호, 지역사회 공헌 등 기업의 사회적 책임(CSR)과 관련한 사항을 의무적으로 공시하도록 하는 내용을 골자로 하고 있다. 이 법안은 사회책임투자자가 매우 중요하게 여기는 법안이기도 하다. 그러나 이 두 개의 법안은 여전히 해당 상임위조차 통과하지 못하고 있는 실정이다. 반면 유럽연합(EU)에서는 이와 관련한 법안이 2014년 4월 유럽의회를 통과한 상태다. 또 국가를 당사자로 하는 계약에서 역시 CSR 요소를 고려할 수 있도록 하는 '국가계약법 개정안'도 역시 소관 상임위에서 여전히 계류 중이다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      가습기 살균제는 실은 가습기 살균제가 아니었다. 가습기 살균제 노릇을 제대로 하려면 물통에 넣은 살균제가 외부로 오랫동안 빠져나가지 않고 상당 시간 그대로 머물러 있어야 한다. 그래야 가습기 내부의 세균이 살균된다. 하지만 가습기 살균제 제조, 판매 기업은 한결같이 가습기 물에 넣어 희석하고 나서, 이를 초음파 진동 또는 가열 방식으로 공기 중으로 바로 내뿜는 방식을 채택했다.  이는 농약 분무기에 살균 성분의 농약을 넣고 들판이 아닌 방안에서 마구 뿌리는 격이다. 한마디로 가습기 살균제는 가습기 내부를 살균하는 것이 아니라 살균 성분이 포함된 미세 수중기가 공기 중으로 뿜어져 나와 공기 중 떠다니는 미생물과 만나 이들을 죽이는 실내 공기 살균제였다.  최초의 가습기 살균제는 1994년 유공이 개발해 시판했다. 유공은 당시 신제품을 내놓으면서 시판 직전 보도 자료를 언론사에 뿌렸다. 이는 신문 기사에 그대로 반영됐다. 당시 언론사들은 유공이 배포한 보도 자료를 가지고 그대로 기사화했다. &lt;매일경제&gt; &lt;중앙일보&gt; 등 여러 신문이 이를 다루었다.  &lt;매일경제&gt; 1994년 11월 16일자는 "유공(대표 조규향) 바이오텍 사업팀(팀장 노승권)이 1년 동안 18억 원을 투자해 가습기의 물에 첨가하면 각종 질병을 일으키는 세균을 완전 살균해주는" 가습기 메이트를 개발했다고 보도하며 "인체 무해"를 제목으로 뽑아 강조했다. 이 신문은 또 "유공 부설 대덕연구소에서 이 살균제를 콜레라균과 포도상구균 등과 내부의 물때를 형성하는 물때균이 들어있는 물에 0.5% 농도로 첨가, 살균력을 실험한 결과 약 3시간 경과 시 99% 정도를, 만 하루가 지났을 때는 100%의 살균력을 나타냈다"고 덧붙였다. 이어 "'가습기 메이트'란 제품명으로 판매될 이 살균제의 효력은 약 15일 이상 지속되며 독성 시험 결과 인체에 전혀 해가 없는 것으로 조사됐다"고 전했다.  &lt;중앙일보&gt;는 같은 날 이런 내용과 함께 "선진국에도 (가습기) 물때를 제거하는 제품은 있으나 살균용 제품은 없는 점에 착안, 내년 중 북미 지역에 수출키로 했다"라고 보도했다. 유공은 국내 최초일 뿐 아니라 '세계 최초' 가습기 살균제 출시를 강조했다.가습기 살균제 사건의 진실① '악마의 변호사' 김앤장, 이렇게 움직였다② 나는 악마와 거래한 '청부 과학자'입니다!③ 가습기 연쇄 살인범, 환경부 탓에 놓칠 뻔!④ 가습기 살균제, SK 책임은 없나⑤ 가습기 연쇄 살인, 일본에서 일어났다면…⑥ 가습기 연쇄 살인, 왜 한국만 당했나?⑦ 의사들은 왜 가습기 연쇄 살인을 못 막았나?⑧ 옥시와 합의를 권한 판사는 누구인가? ⑨ 가습기 살균제, 산자부가 웃는 이유는?⑩ 또 기레기, "홍수종은 '가습기 의인' 아니다!"⑪ 폐를 들어낸 국가 대표 배구 선수, 보상은 '0원'⑫ 검찰, 김앤장-SK-이마트를 살렸다⑬ &lt;조선일보&gt;, 누구 욕할 처지인가?⑭ 검찰, 왜 산자부와 환경부는 봐 주나?⑮ 여배우 불륜 스캔들과 가습기 살균제 유공(SK케미칼)의 무모한 용기, 수백 명을 죽음으로 몰아  미국은 살균제 성분을 가습기 물에 집어넣는다는 것은 매우 위험한 일로 상상조차 할 수 없는 것으로 보았기 때문에 그런 제품을 만드는 것 자체를 꿈도 꾸지 않은 반면, 대한민국 기업은 어처구니없는 살인 제품을 만들고선 너무나 용감하게 국내 최초, 세계 최초를 강조했다. 그리고 그 무모한 용기는 세계 최초로 살균제가 수백 명의 사람을 죽이는 재앙을 불러왔다.  당시 유공은 독성 시험을 했다고 분명 밝혔다. 이는 완벽한 거짓임이 분명하다. 화학 물질은 거짓말을 하지 않는다. 유공이 당시 가습기 살균제 성분으로 사용한 화학 물질은 CMIT/MIT로 최근 알려졌다. 이 성분의 가습기 살균제 사용으로 현재까지만 해도 사망 1명을 포함해 모두 3명이 중증 피해를 입었다고 정부가 공식 등급 판정했다.  이 성분은 미국에서 유독 농약 성분으로 등록돼 있다. 유럽연합(EU)의 소비자안전과학위원회 자료를 보면 실험 생쥐, 실험 쥐. 토끼, 기니피그 등을 대상으로 독성 시험을 한 결과 흡입의 경우 소량으로도 죽을 수 있고 피부, 안구 등에 다양한 독성을 보이는 것으로 나타났다.  1994년 독성 시험 결과 안전 발표, 실은 거짓말일 가능성 높아  선진국의 이런 독성 시험 자료로 미루어 1994년 유공이 가습기 메이트란 살균제를 시판하면서 독성 시험을 제대로 하지 않고 무해하다고 거짓말을 했거나 아니면 엉터리 독성 시험을 하고선 마치 독성 시험을 제대로 한 것처럼 속였을 가능성 둘 중 하나임이 분명해졌다. 이는 검찰 수사로 반드시 밝혀내야 할 부분이다. 국회 청문회 과정에서도 철저한 심문이 필요하다.  유공은 콜레라균에 대한 살균력 테스트도 하였다고 했다. 콜레라는 당시 전파력이 강한 1군 전염병을 일으키는 치명적 병원균이었다. 만약 콜레라 환자가 한 명이라도 생기면 방역 당국은 즉각 비상사태에 들어간다. 집단 발병 가능성이 매우 높은 수인성 전염병균이기 때문이다. 콜레라균은 민간 연구소가 그렇게 쉽게 배양 및 실험할 수 있는 세균이 아니다. 콜레라균에 대해 어떻게 살균력 실험을 했다는 것인지 앞으로 철저하게 규명돼야 한다.  1994년 유공이 가습기 살균제를 최초 개발했다는 이야기를 듣고 왜 석유 에너지 기업이 이런 가정용 화학 제품까지 손을 댔을까 하는 의문이 들었다. 1973년 제1차 석유 파동 이후 유공은 해외 유전 탐사에 도전했으나 별 소득이 없어 포기를 하고 만다. 그래서 1980년 석유 에너지 부문은 선경(현 SK)으로 경영권을 넘기게 된다. 유공은 주력 사업을 에너지와 석유 화학 분야로 크게 갈래를 지우고 특히 정밀 화학 사업에 힘을 쏟게 된다.  이 때 구조 조정 대상자들이 많았다고 한다. 이들을 모두 내쫓을 수 없어 각자도생을 꾀하도록 했다. 화학, 생물 전공자로 이루어진 생물공학연구팀이 연구소 설립과 함께 1985년 만들어졌다. 이 시기에 서울대학교 미생물학과를 나온 뒤 한국과학기술원(KAIST)에서 석사 학위를 갓 취득한 노승권 씨가 연구소에 선임연구원으로 합류한다. 이들은 당시 조직에서 잘리지 않고 살아남기 위해 별의별 사업 아이디어를 짜냈다고 한다.  생물공학연구팀은 석유를 장기간 보관할 때 곰팡이에 오염되면 석유의 품질이 나빠지는 문제를 해결하기 위해 항진균제 개발 연구를 1988년 시작했다. 첫 결실은 1990년 해조류에서 곰팡이 제거 물질을 추출해 1993년 '팡이제로'란 상품명으로 내놓는 성과로 나타났다. 이에 자신감을 얻은 노승권 팀은 1994년 가습기 메이트 가습기용 살균제 개발이라는 두 번째 성과물을 내놓는다.  그 성과는 17년의 세월이 지나 비극의 씨앗으로 바뀌었다. 가습기 살균제에 살균제 한 방울을 떨어트리면 '물 때 걱정 끝', '청소 끝'이란 생각은 무척 매력적이다. 하지만 세균을 모두 죽일 정도의 강한 살균력이라면 당연히 이것이 공기 중으로 나왔을 때는 사람에게 위험할 수도 있다는 생각을 전문가라면 당연히 해보았을 것이다. 유공의 당시 노승권 팀장은 왜 그런 것에까지는 생각이 미치지 못했을까.   ▲ 가습기 살균제 세계 최초 개발을 보도한 &lt;매일경제&gt; 1994년 11월 16일자. ⓒnewslibrary.naver.com     최초 개발 당시 시판 반대 목소리도 있었으나 묵살 당해  실은 당시 가습기 살균제 제품을 출시하기 전에 내부에서 일부 반대가 있었던 것으로 전해진다. 안전성 문제를 확실하게 해결하지 않은 상태에서 서둘러 시판했을 때의 위험과 아직 가습기 사용이 보편화되지 않아 사업성이 낮을 수 있다는 염려 때문이었다는 것이다.  유공이 1993년 '팡이제로'를 시장에 내놓자 몇 달 뒤 LG화학도 경쟁 상품으로 '곰팡이 아웃'을 내놓는다. 유공 쪽이 이를 보고 혹 LG화학이 자신보다 먼저 가습기 살균제 제품을 내놓을지도 모른다는 우려 때문에 충분한 독성 시험을 하지 않고 제품 출시를 서둘렀을 가능성이 있다.  유공은 1993년 '소비자용 살균 조성물'에 대한 특허를 신청(등록은 1996년에 이루어짐)했다. 여기에는 CMIT/MIT 계열의 이소티아졸리논 성분 등 외국의 기존 살균제를 에어로졸이나 스프레이 형태의 소비자용 제품으로 만드는 것이 포함돼 있다. 매우 위험한 특허라 할 수 있다.  가습기용 물에 타서 사용하는 가습기 살균제란 아이디어를 유공이 1994년 내놓지 않았다면 지금까지도 이런 제품이 선진국에서처럼 시장에 나오지 않았을 수도 있다. 혹 나왔다 하더라도 그 시기가 많이 늦어졌을지도 모른다. 하지만 첫 제품이 나오니 고삐 풀린 망아지처럼 가습기 살균제는 여기저기서 마구 내놓았다.  CMIT/MIT 성분을 특허 때문에 쓸 수 없게 된 다른 기업들은 폴리헥사메틸렌구아니딘(PHMG)과 염화올리고에톡시에틸구아니딘(PGH)이란 전혀 다른, 더 강력한 살균력을 지닌 유독 성분을 넣은 가습기 살균제를 개발해 팔기 시작했다. 비극이 재앙 수준으로 가는 일등공신 노릇을 '악마의 특허'가 한 것이다.  유공에서 최초의 가습기 살균제를 개발한 주역인 노승권 팀장은 지금 어디서 무엇을 하고 있을까? 그의 이름은 1994년 '유공, 세계 최초 가습기 살균제 개발'을 보도한 당시 신문 기사와 &lt;가습기 살균제 건강피해 사건 백서&gt;에 이미 나와 있다. 하지만 그 뒤 그가 어떤 일을 해왔고 최근에는 무엇을 하는지는 언론에 거의 소개되지 않았다.  바이오 벤처 사업가로 변신, 최근 언론 활동 활발  인터넷에서 노승권이란 이름을 치면 그가 1996년 유공을 나와 1997년 바이오 벤처 기업 '유진사이언스'를 창업한 뒤 지금은 메타사이언스 대표를 맡고 있다는 사실을 알 수 있다. 영국 더럼 대학교에서 박사 학위를 받았으며 한국생물공학회 부회장, &lt;미생물과 산업&gt; 편집간사, 한국바이오벤처협회 이사 등을 지내는 등 학술 활동과 기업 경영을 활발하게 병행하고 있다.  2012년부터는 네이버 블로그 '출장 발명가의 행복이야기'를 운영하며 재미있는 생물학, 맛과 음식의 과학, 건강 정보 등에 대한 글을 실으며 동시에 &lt;스포츠경향&gt;에는 '출장 발명가 노승권의 알면 힘이 되는 생물학'이라는 칼럼을 맡아 매주 연재하고 있다.  관심을 끄는 것은 가습기 살균제 사건이 지난 4월부터 우리 사회에 엄청난 지진을 일으켰고 그 여진이 남아 있는 가운데 지난 15일자 &lt;스포츠경향&gt; 연재 코너에 '세균과 친해져야 하는 두 가지 새로운 이유'란 제목으로 다음과 같은 내용의 칼럼을 실었다는 사실이다.  "지금까지 부정적 이미지로만 인식돼 왔던 세균은 사실 정신 건강 회복, 기억력 유지, 면역기능 향상 등에 긍정적 모습으로 우리 몸 곳곳에 존재하고 있습니다. 가까운 장래에 이러한 세균을 이용해 스트레스 회복 탄력성을 높이고 기억력 감퇴 같은 퇴행성 질환을 치료하는 시대가 열리리라 기대해 봅니다.  세균이라는 단어는 우리 머리에 '감염' '위험' '죽음' 같은 부정적 모습을 떠오르게 합니다. 그러나 세균과 인간은 오랜 세월 동안 여러 영향을 서로 주고받으며 공생하고 있습니다. 예를 들어 우리 몸의 장에 살고 있는 장내 세균은 음식물의 소화, 흡수를 돕고 식욕 조절에 영향을 줄 뿐 아니라 면역 기능에도 관여합니다. 그런데 최근 세균이 정신 건강과 기억력 유지에도 관련이 있다는 연구 결과가 속속 발표되고 있습니다. 이런 영향을 주는 미생물에는 장내세균뿐 아니라 환경 미생물도 포함된다고 합니다."  감염, 위험, 죽음 등의 부정적 모습을 소비자들이 떠올리게 만들어 세균은 깡그리 죽여야 한다며 가습기 살균제를 개발, 판매한 주역이 이제 와서는 이보다는 세균의 긍정적 모습을 바로 바라보아야 한다고 강조하고 있다. '병 주고 약주는 격'의 글이다.  그가 과거의 판단이 잘못된 것임을 깨우치고 피해자와 그 가족에게 사과할 마음이 조금이라도 있다면 국회 청문회에 출석해, 아니 지금 당장이라도 언론과 피해자 및 가족 앞에 나서서 당시 유공에서 독성 시험을 제대로 했는지, CMIT/MIT의 유해성에 대해서는 어느 정도 알고 있었는지 등에 대해 진솔하게 증언해 주기를 기대한다.  그의 정직한 증언을 토대로 해 유공의 가습기 살균제 사업을 고스란히 인수한 SK케미칼에 대한 추궁과 사법 처리가 이루어져야 한다.안종주 박사는 &lt;한겨레&gt; 보건복지 전문기자를 지냈으며, 서울대학교 보건대학원에서 박사 학위를 받았다. 2008년부터 &lt;프레시안&gt;에 '안종주의 위험 사회' '안종주의 건강 사회' '안종주의 위험과 소통' 연재 칼럼을 써왔다. 가습기 살균제 사건이 터진 2011년부터 피해자 실태와 사건의 원인 등에 대한 수십 편의 글을 6년째 기고해왔다.  보건복지부 질병관리본부의 &lt;가습기 살균제 피해 사건 백서&gt; 총괄편집인을 맡았으며 석면, 가습기 살균제, 메르스 등 우리 사회에서 벌어지는 각종 보건 및 환경 보건 위험에 관해 다양한 매체를 통해 시민들과 소통하며 대학에서 강의를 하고 있다. 저서로 &lt;석면, 침묵의 살인자&gt; &lt;위험 증폭 사회&gt; 등 다수가 있다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      국회 교육위원회 국정감사에서 여야가 조국 법무부 장관과 나경원 자유한국당 원내대표 자녀의 '입시 특혜 의혹'을 두고 공방전을 벌였다. 서울대 행정관에서 열린 이날 국정감사에서 여야는 오세정 서울대 총장을 상대로 관련 질의를 쏟아냈다. 조국 장관과 나경원 원내대표는 모두 서울대 출신의 유력 인사들로, 자녀들의 대학 입학 시 '아빠 찬스', '엄마 찬스'를 활용한 게 아니냐는 의혹 제기다. 조국 장관 파문으로 특권층의 '특혜 대물림' 현실이 사회적 상실감을 일으킨 가운데, 서울대 국감은 이런 민심에 아랑곳없이 '그들만의 정쟁'을 벌이는 정치권의 현주소를 그대로 드러냈다. '조의 딸', 인턴·장학금·진단서...자유한국당은 예상대로 조국 장관의 딸 조모 씨 의혹을 집중 공략했다. 새로운 팩트 제시보다는 지금까지 제기된 의혹들 다시 한 번 추궁하는 식이었다. 조 씨에 관한 의혹을 크게 세 가지다. △ 고교시절 서울대 인턴을 어떤 경위로 하게 되었는지, △ 환경대학원 재학 중 장학금 수혜 대상자가 된 경위와 △ 환경대학원 휴학 당시 제출한 진단서의 진위 여부다.전희경 자유한국당 의원은 "조민 씨 본인이 언론에도 나와서 인터넷 공고를 보고 전화를 했다고 하는데 해당 인터넷 공고를 찾을 수 없다"며 "다른 인턴 공고에는 대상자가 대학생과 대학원생으로 명시돼 있어 고등학생은 대상이 아니다"고 지적했다. 그러면서 "인턴을 했다는 공익인권법센터는 조국 장관과 친분이 있는 한인섭·안경환 법대 교수가 참여하고 있는 곳"이라며 "조 씨가 인턴을 했다는 시기는 한인섭 교수가 센터장으로 있어 의혹이 확신으로 이어진다"고 말했다.이에 오 총장은 "모든 공고가 다 남아있는 것은 아니다"라며 "'고교생 인턴'은 흔한 것은 아니지만 아예 없는 것은 아니다"고 해명했다.곽상도 의원은 조 씨의 장학금 수혜 과정과 진단서의 위조여부를 집중 추궁했다. 조 씨는 부산대 의전원에 입학하기 앞서 서울대 환경대학원에 적을 뒀다. 조 씨는 환경대학원 재학 당시 1, 2학기 교외 장학금을 받고 2학기 재학 중 진단서를 제출하며 휴학했다. 조 씨가 받은 교외 장학금은 '관악회'라는 서울대 동문회가 지급하는 장학금이다. 야당은 수혜율 8%인 외부 장학금을 조 씨가 받은 것은 특혜라는 입장이다.오 총장은 이에 대해 "관악회에서 선발해 통보한 것으로 어떤 인사가 추천했는지 알 수 없다"고 답했다. 그러나 곽 의원은 "1학기에는 조 씨외 3명, 2학기에는 조 씨외 15명이 선발됐다"며 "장학금을 받은 학생들을 상대로 어떤 경위로 받았는지 조사해볼 수 있는 것 아니냐"고 지적했다. 또한 곽 의원은 "대학으로부터 받은 조 씨 진단서를 보면 워터마크도 없고 병명이나 발행한 의사는 개인정보를 이유로 지워져 보이지 않았다"며 "범죄에 제공된 것은 개인정보보호 대상자에 해당하지 않는다"고 공개를 요구했다.이에 김연수 서울대병원장은 "진료 내용을 타인이 밝히는 것은 의료법 위반"이라며 "양식이나 서체를 보면 서울대 병원 것이 맞는 것으로 본다"고 답했다.   ▲오세정 서울대학교 총장이 10일 서울대학교에서 열린 국회 교육위원회 국정감사에서 질의에 답변하고 있다. ⓒ연합뉴스   '나의 아들', 논문·포스터·과학경진대회...더불어민주당 의원들은 나경원 한국당 원내대표 아들 김 모 씨의 고교시절 논문 특혜 의혹을 추궁했다. 김 씨는 2015년 고등학교 재학 당시, 의생명공학 분야에서 세계적 권위를 인정받는 'IEEE EMBC(전기전자기술자협회 의생체공학컨퍼런스)' 포스터에 '광전용적맥파와 심탄동도를 활용한 심박출량의 타당성에 대한 연구(A Research on the Feasibility of Cardiac Output Estimation Using Photoplethysmogram and Ballistocardiogram)' 제1저자로 등재됐다. 여기에 김 씨 소속은 '서울대 대학원'으로 돼 있다는 것이 여당 의원들의 설명이다. 포스터는 연구의 개요를 설명하거나 내용을 요약한 것으로 '논문 초록'과 같이 논문의 일종이라는 게 여당 의원들의 입장이다.또 같은 학술회의에서 발표된 '비(非)실험실 환경에서 심폐 건강의 측정에 대한 예비적 연구(Preliminary study for the estimation of cardiopulmonary fitness in non-laboratory setting)'에는 제4저자로 이름을 올렸다. 해당 논문에서 김 씨와 함께 공동저자로 등재된 이들은 모두 서울대 의공학과 소속으로 고등학생 연구자는 김 씨가 유일하다. 김 씨는 논문 발표 이듬해 예일대학교 화학과에 입학했다.박경미 더불어민주당 의원은 나경원 원내대표의 이름을 직접 거론하지는 않고 '유력 정치인'이라고 표현했지만 사실상 나 원내대표를 겨냥한 의혹제기였다. 박 의원은 "2014년 유력 정치인이 아들의 과학경진대회 참가를 위해 평소 친분이 있던 서울대 윤 모 교수에게 실험실 사용을 청탁했다"고 주장했다. 박 의원은 '아이가 스스로 실험하고 포스터를 작성했다'는 나 원내대표의 해명에 대해서도 "대학원생 2명이 기기작동과 데이터 취득방법 등을 알려주고 도와줬다"며 "실험의 아이디어도 윤 교수가 제공한 것 아니냐"고 의혹을 제기했다.박 의원은 "김 씨는 2015년 3월 뉴햄프셔 과학경진대회 엔지니어링 부문에서 1등, 전체 2등을 했다"며 "같은 해 8월 밀라노 컨퍼런스에서 이뤄진 포스터 발표에는 김 씨가 아닌 대학원생이 참여했다"고 말했다. 김 씨의 과학경진대회 수상이 김 씨 스스로의 힘이 아니라 윤 교수의 도움 하에 이루어졌다는 취지의 이야기다.박 의원은 또 김 씨가 작성한 논문 포스터가 IRB(연구윤리심의)를 받지 않았다는 점을 두고 "해당 과학경진대회는 IRB를 별도로 요구하는데 허위로 기재했을 가능성이 있다"며 "IRB는 신청에서 승인까지 1~2개월이 걸리는데 김 씨가 방학 때 한국에 있는 기간 동안 빨리 논문 포스터를 완성해야 하니 IRB를 누락할 수밖에 없던 것 아니냐"고 물었다.이어 "고등학생 혼자 해야 한다는 과학경진대회 규정도 위반한 것"이라며 "사실이라면 김 씨의 포스터와 과학경진대회 수상이 취소될 것이고 예일대 입학도 취소될 가능성이 있다"고 말했다. 조국 장관의 딸 조민 씨가 제1저자로 등재됐던 병리학 논문은 IRB를 거치지 않아 취소된 바 있다.서영교 더불어민주당 의원은 "2014년 대학원 박사과정 논문 그래프와 김 씨의 2015년 발표본의 그래프가 똑같다"며 "2014년에 이미 발표된 자료가 그대로 이용됐는데 김 씨가 논문을 위해 어떤 역할이 있었느냐"고 연구부정 의혹을 제기했다.같은 당 조승래 의원도 "윤 교수가 이걸 다른 학회에 제출했다면 윤 교수가 학생의 연구 성과를 표절했다는 것이냐"며 "거꾸로 윤 교수의 연구성과를 학생이 갖다 썼다면 도용한 것 아니냐"고 물었다. 이에 오 총장은 "이공계 특성상 '교신저자'로, 자신의 기자재를 사용하게 하면 실험에 직접 참여하지 않아도 저자로 등재될 수 있다"고 설명했다.기득권층의 교육 대물림, 결국 '그들만의 리그'가 문제국정감사가 이 같은 양당의 '진흙탕 공방'으로 얼룩진 가운데, 여영국 정의당 의원은 "특권, 대물림, 불평등 교육"이라며 제도의 문제를 지적했다. 여 의원은 "기득권이 아닌 사람들은 일반 대학을 졸업하고 외국 유학을 한들 시간강사로 전락하고 비정규직으로 취직한다"며 "기득권 대물림 교육은 노동 불평등 문제와 직결된다"고 지적했다.여 의원이 공개한 자료에 따르면 서울대의 2019년 입학생 중 자사고와 특목고 출신은 43.6%에 달했다. 또 국가장학금 신청자 중 소득 최상위 분위에 속하는 9분위와 10분위 자녀들이 서울대는 52.02%로 다른 4년제 대학이 평균적으로 27.23%인 것에 비해 월등히 높았다. 여 의원은 "부모의 경제력이 반영됐다고 볼 수 있지 않겠느냐”며 “기회균형 전형, 지역균형 전형 등을 확대해야 하는 것 아니냐"고 지적했다.김해영 더불어민주당 의원도 서울대 법학전문대학원 입학 현황을 공개했다. 김 의원이 공개한 자료에 의하면 지난 5년간 서울대 법학전문대학원에 입학한 763명 중 포항공대와 카이스트를 제외하고 비수도권 출신은 단 2명에 불과했다. 연령별로는 41세 이상은 한 명도 없었고 35세 이상 40세 이하가 3명에 불과했다. 올해 입학생 152명 중 28세 이하가 147명인 점을 들어, 김 의원은 "다양한 경험을 가진 법률 전문가를 양성하겠다는 로스쿨 도입 취지에 맞게 선발하고 있느냐"고 물었다.국정감사는 이외에도 서울교대 신입생 단체 성희롱 사건, 서울대 서어서문학과 이 모 교수 사건을 비롯해 강사법 도입 이후 시간강사 대량 해고 문제, 학교 비정규직 노동자 문제 등이 제기됐다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      정치인 안철수에게 좋은 일이 생기면, '안철수 테마주'가 덩달아 뜬다. 지난 총선 다음 날 오전에도, '안랩' 주가가 일시적으로 올랐었다. 정치인 안철수에겐 안 좋은 일이다. 안철수 국민의당 공동대표가 집권하면 권력을 사적으로 유용할 것이라는 믿음이 반영된 현상이기 때문이다. 그렇지 않고서는, 안 대표가 대권에 가까워질 때마다 '안랩' 주가가 오르는 현상을 설명할 수 없다. '테마주'와 검은 기대  지난 2012년 초까지 300원대였던 미래산업 주가가 같은 해 9월에는 2000원대까지 치솟았다. 안 대표가 지난 2008년부터 2011년까지 카이스트 기술경영전문대학원에서 '정문술 석좌교수'를 지냈다는 점 때문에 생긴 일이었다. 미래산업 창업자 정문술 씨가 안 대표와 가까운 사이일 것이라는 믿음이 주가를 6배 이상 끌어올렸다. 정작 정 씨는 안 대표가 대선 출마를 선언하기 닷새 전에 갖고 있던 미래산업 주식 전부를 팔아치웠다. 그래서 400억 원대 현금을 마련했다. 이와 동시에 미래산업 주가는 폭락했다. 이 회사 주가는 현재 400원대다.  '정치인 테마주'는 이밖에도 많다. 최근에는 '반기문 테마주'도 거론된다. 반기문 유엔(UN) 사무총장의 동생 반기호 씨가 부회장을 맡고 있는 보성파워텍이 대표적이다. 반 총장이 오는 25일 열리는 제11회 제주포럼에 참석할 것 같다는 보도가 나오자 주가가 뛰었다. 반 총장이 국내 정치에 참여하겠다는 뜻을 밝힌 적은 없다. 정치에 뛰어든다한들 꼭 집권한다는 보장도 없다. 만약 권력을 잡고 나서, 동생이 다니는 회사에게 이권을 몰아준다면 탄핵 사유가 된다. 그런데 주가가 뛴다. '반기문 테마주' 목록에는 반 총장과 친하다고 알려진 동창이 사외이사로 재직 중인 회사도 있다. 단지 반 총장의 고향 근처에 본사가 있다는 이유로 '반기문 테마주'에 포함된 기업도 있다.  설마하니 한국 정치가 그 정도로 썩었을까. 권력자와 실낱같은 연결 고리만 있어도 이권을 챙길 만큼. 주식 시장은 그렇게 보나보다.  '정치인 테마주'가 '권력을 잡고 나서 친한 사람에게 특혜를 줄 것'이란 검은 기대 위에 서 있다면, '재벌 총수 테마주'는 다른 유형의 어두운 기대에 뿌리를 둔다. 총수가 지분을 많이 보유한 계열사가 다른 계열사로부터 이익을 빨아들일 것이라는 기대다. 요컨대 정상적인 시장 거래로 얻는 것 이상의 이익을 누리리라는 기대다.  '정치인 테마주' 현상이 정치권력을 사적으로 유용했던 역사에서 비롯됐다면, '재벌 총수 테마주' 현상은 한국 재벌의 독특한 작동 방식이 빚어냈다.  총수 지분 높은 회사가 유리하다  그런데 둘 사이에는, 중요한 차이가 있다. 기관 투자자, 주식 전문가들은 '정치인 테마주'에는 진지한 관심을 두지 않는다. 오히려 코웃음 친다. 하지만 '재벌 총수 테마주'에 대해선 태도가 다르다. 기관 투자자가 테마주 현상을 부추기는 공범이 된다.  이건희 삼성전자 회장이 쓰러진 뒤 2년 동안, 국내 주식 시장의 중요한 화두가 '이재용 테마주'였다. 국내 최대 재벌이 3세 경영 체제에 들어섰다. 하필 국내외 경제 전망도 어두운 시점이다. 그룹 차원의 '새 판짜기'가 진행될 텐데, 어느 계열사에 투자해야 이익을 볼까. 널리 통용되는 판단 기준이 있다. 총수 지분 비율이다. 예컨대 삼성그룹에서 사업 재편 작업이 복잡하게 진행 중이지만, 이재용 부회장의 지분 비율이 높은 회사는 손해 보지 않으리라는 것이다. 그보다 한술 더 떠서, 삼성그룹 수뇌부가 이 부회장에게 유리하게끔 계열사 인수합병 과정을 주무를 것이라고 믿는 이들도 많다.  이런 믿음을 현실로 확인해준 사건이 지난해 7월 제일모직과 삼성물산의 합병이었다. 당시 합병 비율이 논란이 됐다. 주식 시가 총액을 기준으로 합병 비율을 정하는데, 하필 삼성물산 주가가 낮고 제일모직 주가가 높은 시점을 골랐다. 삼성그룹 수뇌부의 전략적 판단이었다. 다만 법적인 문제는 없다. 당시 제일모직은 삼성그룹 지주회사 격이었다. 이재용 부회장은 제일모직 지분 23.2%를 갖고 있는 최대 주주였다. (이건희 회장 일가 지분 합계는 50.7%) 반면, 이 부회장은 삼성물산 주식은 아예 없었다. '총수 지분 비율이 높은 계열사가 유리하다'라는 공식이 그대로 적용된 경우다. 제일모직은 합병으로 이익을 봤고, 삼성물산은 손해였다.  주식 전문가들에겐 이런 공식이 익숙했다. 합병 이전, 이 부회장의 지분이 없었던 삼성물산 주가가 낮게 평가됐던 한 이유였다. 기관 투자자들이 삼성물산을 외면했다. 단, 국민 노후 자금을 굴리는 국민연금은 예외였다. 합병 선언 당시 삼성물산 지분 9.79%를 갖고 있는 2대 주주였던 국민연금은, 합병 논란 속에서 오히려 삼성물산 지분을 11.21%까지 늘렸다. 손해를 키우는 선택을 한 것이다. 결과적으로 국민연금은 6000억 원대 손해를 봤다. 이재용이 사면 무조건 오른다? 그 뒤론, 학습 효과가 생겼다. 초보 투자자들 역시 '총수 지분 비율'을 눈여겨보게 됐다. 이재용 부회장이 사는 주식을 따라서 산다. 올해 2월, 이 부회장이 삼성엔지니어링 자사주 300만 주를 사들였다. 전에는 삼성 총수 일가가 삼성엔지니어링 주식을 직접 보유한 적이 없었다. 그런데 이제 총수 지분이 생긴 것이다. 삼성엔지니어링은 삼성그룹의 대표적인 부실 계열사다. 무리한 저가 수주로 손실을 입었고, 자본 잠식에 빠졌다. 그런데 이 부회장이 주식을 샀다는 발표만으로, 삼성엔지니어링 주가가 뛰었다. 이 부회장이 언제 삼성엔지니어링 주식 추가 매입을 할지가 증권가의 관심사다.  삼성SDI가 신규순환출자 금지에 걸려 내놓은 삼성물산 주식 역시 마찬가지다. 이 부회장이 일부를 사겠다고 했다. 그러자 삼성물산 주식이 전부 팔렸다.  적어도 주식 가격만 놓고 보면, 이 부회장이 '마이더스의 손' 역할을 하는 셈이다. '사겠다' 한마디만 하면, 기업 실적과 관계없이 주가가 뛴다.  '총수 지분 비율'만 보고 투자하면 승승장구 하는 건가. 그렇지는 않다. 1년 만에 주가가 반 토막 난 사례도 있다. 삼성SDS 역시 이 부회장이 보유한 지분 비율이 높은 편이었다. 그래서 투자자들의 관심도 뜨거웠다. 지배 구조 개편에서 중요한 역할을 하리라는 것이다. 지난 1년 사이, 삼성SDS 주가가 최고점을 찍었던 건, 지난해 5월 28일이었다. 34만1000원을 기록했다. 그보다 하루 전, &lt;한국일보&gt;에 "삼성전자-SDS도 합병 유력"이라는 기사가 실렸다. 당시는 제일모직과 삼성물산의 합병 계획이 발표된 뒤였는데, 삼성전자와 삼성SDS의 합병까지 이뤄지면 이재용 부회장이 삼성전자에 대한 지배력을 확실하게 높일 수 있다는 내용이었다.그 무렵, 증권가에서도 비슷한 소문이 돌았었다. 이런 보도가 나올 당시, 이 부회장은 삼성SDS 지분 11.25%를 갖고 있었다. 이 부회장이 지닌 삼성전자 지분은 0.6%였다. 제일모직-삼성물산 합병과 비슷한 효과를 기대한 투자자가 많았다. 제일모직의 자리에 삼성SDS를, 삼성물산의 자리에 삼성전자를 놓는 것이다. 이는 삼성전자 주주들이 손해를 볼 수 있다는 뜻이다. 얼마 뒤, 삼성전자 측이 삼성SDS와의 합병 설을 공식 부인했다. 삼성SDS 주가는 계속 떨어졌다. 지금은 17만 원대다.    ▲삼성SDS 주가 그래프.    하락세가 가팔라진 건, 올해 1월 28일 이후다. 이재용 부회장이 삼성SDS 주식 일부를 팔겠다고 한 날이다. 주식 팔아서 생긴 돈은 어디에 썼나. 부실 계열사인 삼성엔지니어링 주식 사는데 썼다. 이 부회장의 선택에 따라, 삼성SDS 주주들은 울고 삼성엔지니어링 주주들은 웃었다. 물론, 앞으로 이 부회장은 다양한 선택을 할 게다. 그때마다 울고 웃는 쪽이 역동적으로 바뀔 수 있다. '이재용 테마주' 사서 웃었던 이들이, 한순간에 쪽박 찰 수도 있다는 말이다. 경영진 규율 기능이 없는 주식 시장  애초 삼성그룹 지배 구조 문제가 생긴 이유 자체가 총수 일가가 적은 지분으로 계열사를 장악하려 했기 때문이다. 이런 상황은 크게 변하지 않았다. 결국 이 부회장은 지금 얼마 안 되는 지분을 이리저리 옮기고 있을 뿐이다. 한 계열사에서 총수 지분이 늘어나서 생긴 이익은 결국 다른 계열사의 몫을 당겨온 것에 불과하다. 주식 투자자들이 이 부회장의 주식 매입 신호에 따라 움직이는 상황에서 합리적인 투자는 불가능하다. 그 속에서 누군가는 이익을, 다른 누군가는 손해를 본다.'그게 어때서? 주식 시장은 원래 투기 판인데….' 그렇지 않다. 합리적으로 설명할 수 없는 이익과 손해가 있다는 건, 시장이 순기능보다 역기능에 가깝게 움직인다는 뜻이다. 김상조 한성대학교 교수(경제개혁연대 소장)는 한 칼럼에서 "(주식 등) 자본 시장의 역할을 자금 조달 측면에서만 봐서는 안 된다"고 지적했다. 그는 "자본 시장이 금융 시스템의 중심을 이루고 있다는 미국·영국에서도 기업에 가장 많은 자금을 공급하는 것은 은행"이라며, "자본 시장의 핵심 기능은 기업에 대한 정보를 생산함으로써 실적이 나쁘거나 부당 행위를 한 경영진을 규율하는 데 있다"고 밝혔다. 요컨대 실적이 나쁜 기업은 주가가 떨어져야 한다. 그래서 무능한 경영진을 규율할 수 있어야 한다. 한국 주식 시장은 이런 기능이 작동하지 않는다. 부실 기업이 '테마주'에 편입돼서 주가가 오른다. 주식 시장은 기업에 대한 의미 있는 정보를 생산하지도 않고, 경영진을 규율하지도 않는다. 공정성, 합리성에 대한 신뢰가 사라진 시장에선 투기 심리만 만개한다.  시너지 없는 통합 삼성물산, 이재용만 웃었다  이건희 회장이 건재하던 시절에는 삼성에버랜드가 삼성그룹 지주회사 격이었다. 그런데 2년 전 이 회장이 쓰러진 직후, 삼성에버랜드는 제일모직과 합치더니 기습적으로 상장했다. 삼성SDS 역시 마찬가지였다. "당분간 상장 계획이 없다"라던 삼성 측 입장은 슬그머니 뒤집어졌다. 그 뒤론, 모든 절차가 숨 가쁘게 진행됐다. 삼성에버랜드, 제일모직, 삼성물산이 합쳐진 통합 삼성물산이 지금은 지주회사 격이다. 그럼 이 회사는 뭐 하는 곳인가. 놀이동산과 패션, 건설업과 플랜트, 무역 상사를 아우르는 회사인데, 어떤 전망을 갖고 있는지 투자자도 잘 모른다. 계속 이 상태로 있을 건지, 다시 사업 부문을 헤쳐모여 할 건지 알려진 바가 없다.   다만 분명한 건, 주가는 꾸준히 떨어졌다는 점이다. 통합 첫 날인 지난해 9월 1일 17만 원대를 기록한 삼성물산 주가는 지금 12만 원대다. 성격이 다른 사업들을 합친 시너지 효과는 나오지 않고 있다.    ▲삼성물산 주가 그래프.    또 하나 분명한 건, 이재용 부회장은 확실히 이익을 봤다는 점이다. 지난 1996년 48억 원에 산 삼성에버랜드 전환사채(CB)가 지난해 제일모직-삼성물산 합병을 거치며 통합 삼성물산 지분 16.5%로 전환됐다. 삼성물산 시가총액이 24조1855억 원이므로, 3조3906억 원쯤 되는 셈이다. 48억 원을, 20년 만에 3조 원 이상으로 불렸다.  한국 대표 기업이 '테마주' 유행에 휩쓸린 책임  대체로 확실해졌다. '이재용 테마주'에 투자해서 돈을 번 사람들이 있다. 그러나 그에 못지않은 수의 투자자가 돈을 잃었다. 삼성물산 주가는 그룹 차원의 관리에도 불구하고 꾸준히 하락한다. 삼성물산은 삼성바이오로직스 지분 51%를 갖고 있다. 삼성바이오로직스의 바이오시밀러 사업은 삼성그룹의 차세대 먹을거리로 거론된다. 곧 상장을 앞두고 있다. 삼성물산은 삼성바이오로직스 상장의 최대 수혜자로 꼽힌다. 그런데 삼성물산 주가는 오르지 않는다. 삼성SDS 주가는 반 토막 났다.   아예 '테마주'로 분류되지 않았더라면, 주가에 거품이 끼는 일도, 갑자기 가격이 떨어지는 일도 없었을 게다. 삼성그룹 지배구조 재편 효과에 따른 이익을 기대하고 주식을 샀다가, 호재가 발표된 직후에 판 사람들이 주로 돈을 벌었다. 이런 분위기에서는, 기업 가치를 보고 장기 투자하는 사람들이 불리해진다. 그리고 한국의 대표 기업 삼성이 '테마주' 유행에 휩쓸린 책임은, 삼성 수뇌부에게 있다. 경영권 승계와 사업 재편 과정에서 온갖 변칙을 동원해서 투자자들을 헷갈리게 했다. 제 구실 못하는 기관 투자자  이런 상황을 어떻게 바로잡아야 하나. 금융 관계자들이 공통적으로 요구하는 건, 기관 투자자의 제 역할이다.   지난해 제일모직과 삼성물산의 합병이 진행될 당시, 비판적인 보고서를 낸 증권사는 한화투자증권 한 곳뿐이었다. 그나마도 보고서를 낸 뒤, 최고경영자가 퇴진 압박을 받았었다. 나머지 다수 증권사의 보고서를 따라 투자했던 이들은 대개 손해를 봤다. 그에 대해 책임을 지는 증권사는 없다. 외국 증권사는 보고서 가운데 일정 비율 이상은 주식을 팔라고 한다. 한국은 그렇지 않다. 무조건 사라는 보고서 일색이다. 증권 전문가의 전망을 신뢰하기 힘든 구조다. 전문가의 권위가 없으니, 루머와 작전이 힘을 받는다.  당시 국민연금의 행태도 황당했다. 중요한 결정에 대해 국민연금은 의결권행사전문위원회를 열도록 돼 있다. 그런데 합병에 반대하는 결론이 나올까봐, 국민연금은 의결권행사전문위원회를 열지 않았다.  흔히 알려진 것과 달리, 소액 주주들은 제일모직과 삼성물산의 합병에 대해 찬성한 비율이 높지 않았다. 국민연금이 찬성하지 않았다면, 합병은 무산되는 거였다.  경제개혁연구소가 지난해 7월 두 회사의 주주 총회를 앞두고 진행한 여론조사에서도 합병에 비판적인 입장이 우세했다. "이건희 회장 일가의 사익을 위한 것이므로 국민연금이 반대해야 한다"는 응답자가 44.3%였다. "국익의 관점에서 국민연금이 합병에 찬성해야 한다"는 응답자는 42.5%로 찬성보다 1.8%p 적었다. "모름·무응답"은 13.2%였다.합병 찬반에 대해서는 의견이 분분했지만 합병 목적은 "이건희 회장 일가의 경영권 승계를 위한 것"(63.2%)이라는 의견이 압도적이었다. "회사와 주주들의 이익을 위한 것"이라는 응답은 26.5%였고 모름·무응답은 10.3%였다. 삼성 측이 대대적인 광고 공세를 했다는 점을 고려하면, 눈에 띄는 결과다. 이런 조사 결과는 지난해 합병 당시 기관 투자자들의 행태가 대중에게 어떻게 비쳤을 지를 짐작케 한다. 기관 투자자에 대한 신뢰가 깎일수록, 공신력 낮은 정보에 더 의지하는 악순환이 생긴다.  스튜어드십 코드 도입에 반발하는 재계, 주주 여론과 동떨어져 정부 역시 이런 문제들을 알고 있다. 금융위원회가 올해 상반기 안에 '스튜어드십 코드'를 도입하기로 한 것도 그래서다. 스튜어드십 코드는 국민연금, 자산운용사, 보험사 등 국내 상장사 주식을 보유·운용하는 모든 기관 투자자들이 주주권을 적극 행사하고 주주권 행사 내용을 수탁자에게 투명하게 보고·공시하도록 유도하는 자율 지침이다. 이에 대해 경제개혁연대 등 시민단체는 별 실효성이 없다고 비판한다. 지금 마련된 내용만으로 기관 투자자들이 주주권을 적극적으로 행사하게끔 유도하기에 부족하다는 게다. 예컨대 '기관투자자 간의 연대' 원칙이 빠진 점을 특히 문제 삼는다.  반면, 재계는 정반대 이유로 강하게 반발한다. 전국경제인연합회, 중소기업중앙회, 코스닥협회, 한국상장사협의회, 한국중견기업연합회는 지난 3일 '스튜어드십 코드 도입에 대한 경제 단체 공동 의견'을 통해 이런 입장을 밝혔다. "상장 기업들이 스튜어드십 코드 도입으로 정부가 국민연금, 자산운용사 등 기관 투자자를 활용해 상장사 경영에 영향력을 행사할 수 있다는 점을 우려하고 있다."  요컨대 재계는 기관 투자자가 제 목소리를 내는 게 싫다고 한다. 주식 가격을 받쳐주는 역할만 했으면 좋겠다는 게다. 지난해 제일모직과 삼성물산의 합병 당시 기관 투자자들이 보였던 모습을 그대로 유지하라는 게다. 스튜어드십 코드 도입을 준비 중인 금융위원회는 재계의 이런 목소리에 어떻게 대응할까. 분명한 건, 소액 투자자와 일반인의 여론은 재계 목소리와 반대라는 점이다. 각종 조사에서 국민연금 등 기관 투자자의 행태에 비판적인 의견이 더 많았다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      대학교수 '갑질' 해부성폭력·폭언·폭행의 실태대학에는 서열이 있다. 정년트랙 교수 아래 비정년 트랙 교수가 있고, 교수 아래 직원이, 그리고 그 아래 어디쯤 학생이 존재한다. 캠퍼스에서 부당한 처우를 받거나 인권유린을 당해도 약자는 할 말이 없다. 일부 교수들은 학생들의 취업과 학점을 쥐고 있으면서 소위 갑질을 한다. 이사를 할 때 자장면 한그릇만 사주면 된다고 생각하는 교수들부터 근로장학생의 임금을 착취하는 교수, 성희롱과 폭언을 일삼는 교수 등 소위 괴물이 된 교수들이 우리사회에 여전히 존재한다. / 들어가는 말지난해 12월 제자와 인턴학생 9명을 강제 추행한 혐의로 서울대 강석진 수리과학부 교수가 구속기소됐다. 이어 서울대 경영대 모 교수의 추가 성추행 의혹이 나오면서 진상조사에 나서고 있다. 서울대에서 터진 이 두 사건은 대학사회의 '갑을 문화'를 이슈화시켰다. 강석진 교수의 경우 10년 넘게 학생들을 성추행했지만 최근에야 알려졌다. 서울대 내 설치된 인권센터에서는 이미 강 교수에 대해서는 파면 및 중징계를 요구하는 의견서를 대학에 제출했다. 충북에서도 충북대 남자 교수의 남학생 성추행 사건, 한국교통대 교수의 직원 사찰, 같은 대학 또다른 교수의 폭언 및 근로장학금 갈취 사건 등이 최근 언론에 알려졌다. 도내에서 일어난 사건들을 정리해본다.   ▲ 대학 내 교수들의 성희롱 사건이나 폭언 등은 오랫동안 지속되고 잘 밝혀지지 않는다. 약자인 학생들은 학점과 취업이라는 미래 때문에 교수의 부당한 행위를 고발하지 못한다. ⓒ충북인뉴스      # 상습적인 폭언, 폭행 빈번했지만…한국교통대 증평캠퍼스 식품공학과 A교수(63)의 폭언은 이미 공공연한 비밀이었다. A교수는 여성의 생식기를 표현하는 말을 욕으로 서슴지 않고 강의 중에 내뱉었다. 근로장학생의 장학금도 갈취했다는 혐의도 받고 있는 상태다. A교수는 이미 90년대 학교에서 물의를 일으킨 바 있다. 당시에도 학생들이 문제제기해 퇴직각서를 썼다. 하지만 그는 살아남았고 정년을 2년 앞둔 노교수가 됐다.2009년엔 A교수가 음료수 캔으로 학생을 폭행해 벌금 100만원과 정직 및 감봉 3개월의 처분을 받았다. 당시 학생이 형사고발을 하지는 않아 사건은 마무리됐다. A교수의 망언과 비위사실을 목격했던 학생들이 이번에는 참지 않았다. 지난달 7일 국가인권위원회에 진정을 냈다. 진정서의 내용은 A교수가 여학생들에게 성적 수치심을 유발하는 언어폭력을 상습적으로 행사하고, 성적 조작과 본인 저서 강매·학생 ID 도용·강의실 내 흡연 같은 각종 비리·비위행위를 저질렀다는 것이었다. 이에 대해 답변을 듣고자 A교수에게 수차례 전화통화를 시도했지만 연결이 되지 않았다. 대학 측에선 이 사건에 대해 진상조사위원회가 꾸려졌고, 이미 이 같은 사실에 대해 10여명의 학생들이 진술을 마쳤다. 하지만 대학 측은 한 달이 지나도록 아직까지 이렇다 할 대책을 내놓지 못하고 있다. 학교 측의 미온적 대응에 학생들은 성명서를 발표하고 해당교수의 수강신청을 거부하기에 이르렀다. 이번 학기에 A교수가 가르치는 4~5개의 전공강좌가 개설됐지만 1,2,3학년 학년당 30여명 즉 100여명이 강의를 신청하지 않았다. 수강신청은 지난 6일에 완료됐다. 학과 학생들은 9일 성명서를 발표해 "모욕적인 발언, 수업시간에 막말과 욕설, 교재 표절 및 강매, 근로장학생 장학금 갈취 등 A교수가 저지른 상식에서 벗어난 행위들을 일일이 열거하기 힘들다. A교수가 진행하는 수업은 전공학과 학생들은 꼭 수강해야 하는 필수 과목인 만큼, 다른 교수로 교체해 수업을 진행해 달라"고 학교 측에 요구했다.이어 "A교수는 진상조사위를 통해 억울하다는 입장을 밝혔지만 있지도 않은 일을 만들어 교수에게 덮어씌우는 제자가 어디에 있겠느냐. 아직도 자신의 잘못을 뉘우치지 않고 무고한 학생들만 탓하는 교수하고는 더 이상 사제지간의 관계를 지속키 어렵다"고 밝혔다.학생들은 또 "사법당국에 A교수의 비리 사실을 직접 고발하겠다"면서 그동안 학교 측에 제출한 증거자료들을 돌려 줄 것을 요구했다. 이에 대해 조희찬 한국교통대 교무처장은 “아직까지 징계 위원회에서 조사가 끝나지 않았다. 조사위원회도 수사권이 있는 게 아니라 판단하기가 조심스러운 부분이 있다”라고 설명했다. 학교 측은 조사를 마치면 징계위원회를 열 계획이다. 하지만 아직까지 확정된 안은 없다. 학생들의 수강신청 거부에 대해서는 "신청날짜가 지났지만 다시 학생들이 신청할 수 있는 기회를 주려고 한다"며 즉답을 피했다.# 더듬고…만지고…성추행 사건 카이스트 출신의 충북대 공업화학과 B교수(남·40)는 지난해 12월 12일 술을 마시고 남학생 제자를 성추행한 혐의(강제추행)로 현행범으로 체포됐다. B교수는 전날 오후 11시 30분께 청주시 흥덕구 복대동 자신의 오피스텔에서 함께 술을 마시던 남학생 제자(24)의 몸을 더듬는 등 성추행한 혐의를 받고 있다. 학생의 신고를 받고 출동한 경찰에 의해 B교수는 체포됐다. 현재 기소의견으로 검찰에 송치돼 2월 4일 재판에 회부됐다. B교수는 "제자와 함께 술을 마시던 중 장난을 치다가 몸을 만진 것이지 성추행하려는 의도는 없었다"며 혐의를 부인했지만 B교수가 휴대폰으로 촬영한 제자의 신체부위가 수사과정에서 발견되면서 덜미가 잡혔다. B교수는 사진을 찍었다가 후에 삭제했지만 다시 복원됐다. 지난해 9월에는 여제자 수십명을 상습적으로 성추행한 제천 세명대의 한 학과장이 구속됐다. 학과장인 C교수는 지난해 6월 9일 오후 9시경 여학생 2명과 함께 노래방에 가 게임을 핑계로 이들의 몸을 더듬는 등 2012년부터 지난해 6월까지 비슷한 방법으로 27차례에 걸쳐 여제자 23명을 성추행한 혐의를 받고 있다. 경찰에 따르면 씨는 자신의 연구실에서 일하는 여학생과 교양 과목 수강생 등을 상대로 성적이나 진로에 대해 상담을 해주겠다며 사적인 자리를 마련한 뒤 성추행을 일삼아 온 것으로 조사됐다.프레시안=충북인뉴스 교류 기사   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      더불어민주당 문재인 전 대표는 17일 "기업이 죽으면 어떡하나"라며 이재명 성남시장이 주장하는 법인세 인상안과 선을 그었다. 최근 보수적인 인물들을 영입한 데 대해서도 문재인 전 대표는 "정권 교체를 위해 온다면, 우리로서는 환영할 일"이라고 적극적으로 방어했다.   더불어민주당 문재인 전 대표는 17일 종합편성채널 등이 주관한 당내 대선 경선 토론에서 집중적인 견제를 받았다. 이재명 성남시장으로부터는 '적폐 청산' 의지를 지적받았고, 안희정 충남지사로부터는 '배타적 리더십'이라는 견제를 받았다.   문재인 전 대표는 이날 이재명 성남시장과 증세 방안을 토론하는 과정에서 법인세 인상에 대해 부정적인 뜻을 밝혔다.   문재인 전 대표는 이재명 시장에게 "우리나라 (최대) 법인세율 22%는 경제협력개발기구(OECD) 국가 평균인 22.8%에 비해 낮은 편이 아니다"라며 "모든 국가들이 법인세를 낮추는 방향으로 가는데, 우리는 22%에서 한번에 8%를 올려서 30%로 높인다면 기업이 어떻게 감당할 수 있나"라고 물었다.   이재명 시장이 "모든 기업이 아니라 10대 재벌들이 22%를 내고, OECD 평균 실효세율이 22%인데 우리나라는 16%"라며 "500억 원 이상 버는 대기업만 증세하면 OECD 평균 실효세율 정도 될 것이다. 그 정도는 있어야 문재인 후보의 기초연금, 아동 수당 공약에도 10조 원이 드는데 그 일부라도 할 수 있다"고 반박했다.   그러자 문재인 전 대표는 "(법인세를 갑자기 올려서) 기업이 죽으면 어떡하나?"라고 반문했다. 문재인 전 대표는 '영입 인사'를 두고 이재명 성남시장과 안희정 충남도지사 모두로부터 공격받았다. 먼저 이재명 시장은 문재인 전 대표를 향해 "기득권과 대연정하려는 것 아닌가"라고 날을 세웠다. 최근 문재인 전 대표가 박근혜 전 대통령의 '줄푸세(세금은 줄이고, 규제는 풀고, 법 질서는 세우고)' 정책을 고안한 김광두 서강대학교 교수를 캠프에 영입한 점을 언급하면서다.  문재인 전 대표는 "지금 우리가 장관이나 고위 공직자를 뽑는 게 아니지 않나"라며 "정권교체가 필요하다고 생각하는 사람들이 정권 교체를 돕기 위해 오고 있는 것이다. 우리로서는 환영할 일"이라고 반박했다. 문 전 대표는 "앞으로 고위 공직자 인사청문회가 오면, 걱정하지 말라"며 "저야말로 역대 청와대에서 가장 검증을 깐깐하게 했던 민정수석 출신 아닌가"라고 덧붙였다.   그러자 이번에는 안희정 지사가 문재인 전 대표의 영입 인사들을 문제 삼고 나섰다. 문재인 전 대표가 자신과의 갈등으로 탈당한 안철수 의원과 김종인 의원을 두고는 "혁신에 반대했다"고 비판했지만, 다른 한편으로는 보수적인 인사를 캠프에 영입하는 것은 앞뒤가 맞지 않는다는 취지에서다.   안희정 충남지사는 안철수 의원과 김종인 의원의 탈당을 근거로 문재인 전 대표에게 "통합의 리더십이 부족하다"고 주장했다. 이에 문재인 전 대표는 "(탈당은) 혁신이라는 원칙을 지키는 과정에서 발생한 일"이라며 "크게 보자면 일부가 나갔지만, 반면에 더 많은 좋은 분들이 우리 당으로 들어오고 10만 명이 넘는 권리 당원이 들어오며 우리 당이 훨씬 크고 건강한 정당이 됐다"고 반박했다.   하지만 안희정 지사는 "지금 문재인 캠프에 있는 사람들을 혁신 세력이라고 할 수 있나. 내 편이 되면 무조건 예쁘게 봐주면서, 나와 정치적 권력 싸움의 반대 진영에 있으면 배척하는 정치적 철학과 리더십으로 어떻게 대한민국을 이끌겠나"라고 직격탄을 날렸다.   문재인 전 대표는 안 지사에게 "안희정 지사는 저보다 정치를 오래하지 않았나. 2002년 노무현 후보가 당의 후보가 되고 난 이후에도 오히려 당의 후보를 흔들어서 후보를 교체하려는 움직임부터 시작해서 우리 당의 파란만장한 우여곡절을 지켜보지 않았나. 다 그런 연장선상에 있는 일"이라며 "그러다가도 다시 힘을 모은 게 야당의 역사다. 앞으로 정권 교체를 위해 힘을 모을 수 있으리라 생각한다"고 반박했다. 반면 문재인 전 대표는 안희정 지사가 전날 발표한 '국민 안식년제'와 '국공립대학교 등록금 0원' 정책을 공략했다. 문재인 전 대표는 10년 근속한 노동자에게 1년 유급 휴가를 주자는 '안식년 제도'에 대해서는 "적용 대상이 공무원, 공기업, 대기업 노동자밖에 없고, 비정규직과 자영업자는 제도에서 배제된다"고 지적했다. 국공립대 등록금 0원 정책에 대해서는 "국공립대에 사교육을 받은 부잣집 출신들이 더 많은데, 오히려 국공립과 사립을 가리지 않고 주는 '반값 등록금' 정책이 형평성에 맞지 않나"라고 말했다.   안희정 지사는 안식년제에 대해서는 "주5일제를 도입할 때도 (비정규직이 배제된다는) 똑같은 질문이 나왔지만, 주5일제 근무를 통해 새로운 형태의 노동 문화가 정착됐다"고 반박했다. 국공립대 등록금 0원 정책에 대해서는 "카이스트급으로 지방 국공립대학을 육성해 지역 균형 발전의 동력을 만들자는 취지"라며 "대학생들이 겪는 높은 등록금 부담 문제는 다른 차원에서 준비 중"이라고 답했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 금속-리간드 협동성을 이용한 이소시아네이트 합성의 모식도 ⓒ한국연구재단       KAIST 이윤호 교수 연구팀이 독성가스인 포스겐을 사용하지 않고 폴리우레탄의 전구체 이소시아네이트를 합성하는 새로운 촉매법을 개발했다.  폴리우레탄은 플라스틱의 일종으로 합성섬유, 페인트 등 산업적 활용 범위가 넓어 폴리우레탄의 전구체로 쓰이는 이소시아네이트의 소비량도 많다.  그러나 이를 생산하기 위한 기존 산업공정에서 독성가스인 포스겐을 활용하기 때문에 그 유해성이 문제가 되고있다.  연구팀은 금속-리간드(착물에서 중심원자를 둘러싸 결합되어 있는 이온 또는 분자의 총칭) 협동성을 발견하고, 이를 이용해 포스겐 사용을 대체할 수 있는 이소시아네이트 합성법을 보고했다.  금속-리간드 협동성은 3개의 인 원자로 구성된 PPP 리간드가 금속 물질의 화학반응에 직접 참여하는 것이다.  연구팀은 이를 적용해 금속인 니켈과 리간드인 아마이드를 반응시켰다. 여기에 일산화탄소 반응을 더하면 이소시아네이트가 형성된다.  금속-리간드 협동성에서 금속의 산화 상태가 변화함에 따라 인 화합물 기반의 라디칼(짝지어지지 않은 하나의 전자) 홀전자자 형성되고, 이들이 P-P 결합을 형성한다.  이렇게 형성된 이종핵 금속 착물은 결합력이 약한 것이 특징이다.  균일 분해되어 또 다른 라디칼 종을 형성하는데, 이를 촉매로 이용하면 다양한 화학종의 결합 활성 및 절단이 가능하다.        ▲ 이윤호 교수 ⓒ한국연구재단   이윤호 교수는 “우리 연구실에서 규명한 금속-리간드 협동성을 활용해, 저온‧저압 조건에서 이소시아네이트를 합성할 수 있는 새로운 촉매법을 개발했다”며 ”추후 이소시아네이트 기반 산업 및 일산화탄소 기반의 반응 공정 및 촉매 개발에 적용할 수 있을 것으로 기대된다“고 설명했다.  이 연구는 화학분야 국제학술지 앙게반테 케미(Angewandte Chemie) 9월 7일자 논문으로 게재됐다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      강원 횡성 송호대학교 제11대 정창덕 총장이 선임됐다.  송호대는 지난 6월 29일 이사회(이사장 최금순)를 열어 안양대학교 정창덕 총장을 송호대 제11대 총장에 선임했다고 31일 밝혔다.    ▲정창덕 송호대 총장.     정 신임 총장은 8월 1일 취임한다.   송호대는 관계자는 “정창덕 신임총장은 교육, 연구, 행정 등의 다양한 경험을 통한 혁신적인 사고와 훌륭한 인격을 겸비하여 송호대학 발전에 적임자로 사료된다”고 선임배경을 설명했다.  정 총장은 전북 임실 출신으로 단국대 전기공학과를 나와 연세대에서 산업경제 석사를 받은 뒤 카이스트에서 경영정보 박사학위를 취득했다.   미국 인디애나대와 UCLA에서 연구와 강의를 했고, 일본 도쿄교육대학원 대학 객원교수를 거쳐 중국 하얼빈대 석좌교수, 고려대 컴퓨터정보학과 교수, 산업자원부와 정보통신부 국가전략회의 위원, 청와대 정책기획 자문위원 등을 역임했다.   산업자원부 장관상, 미국 ABB 소프트웨어 상과 대통령상 등을 수상한바 있으며, 현재 (사)한국유비쿼터스학회장 및 (사)미래창조협회장 등을 맡고 있다.  한편 정 총장의 임기는 2017년 8월 1일부터 2019년 7월 31일까지 2년이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲14일 열린 KAIST 제 261차 정기 이사회 ⓒKAIST      KAIST 이사회가 신성철 KAIST총장에 대한 과기부의 직무정지 요청을 거부했다. 이장무 KAIST 이사장은 14일 열린 KAIST 제 261차 정기 이사회를 마친 후 “총장 직무를 정지시키는 것은 매우 신중하게 처리해야 한다는 의견이 많았다”며 “이사회는 보다 심도 있는 논의를 위해 직무정지 건은 차기 이사회에서 심의·의결하기로 결정했다”고 발표했다.  이어 “공공기관의 운영에 관한 법률 제52조의3 제2항에 의거해 유영민 과학기술정보통신부 장관으로부터‘신성철 총장의 직무정지’를 요구하는 공문을 지난 11월30일 오후 5시30분 접수한 바 있다”면서 “14일 열린 제 261차 정기 이사회의 공식 안건으로 이를 상정하고 참석이사 9명과 이에 관해 논의했다”고 설명했다.  KAIST 이사회는 정기이사회 개최 후 발표한 ‘ KAIST 이사회 입장문’을 통해 “KAIST 이사회는 과기부가 관련 법령과 사안의 중대성에 비추어 가장 적절하다고 판단되는 법적 조치를 이행하였을 것으로 생각하며 이를 존중한다”면서 “이제는 이사회가 과기부의 판단을 존중하면서도 KAIST의 명예와 그 구성원의 자긍심을 지킬 수 있는 지혜를 모아야 할 시점”이라고 밝혔다.  또 “이사회는 한국 과학기술의 긍지인 KAIST가 타 기관의 감사 결과에 의하여 국제적 위상이 흔들리고 혼란이 야기되고 있는 현실에 대하여 심각한 우려를 표한다”면서 “총장은 현재의 상황으로 KAIST와 과학기술계에 누를 끼친 점에 대해서 유감을 표명하고 자중하여 주시기를 바란다”고 당부했다.  한편 다음 KAIST 정기 이사회는 내년 3월 개회할 예정이어서, 이사회는 검찰의 수사 결과에 따라 임시 이사회 소집 여부와 시기를 결정할 것으로 보인다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      강원랜드(대표 문태곤)가 지원하는 ‘2018 하이원 선상학교’프로그램 참가 학생들이 12일 부산에서 출항식을 갖고 6박 7일 일정으로 해외 탐방에 나선다.  이번 선상학교 참가 학생들은 폐광지역 4개 시군 고등학교 1, 2학년 재학생 중 예술, 과학, 문학, 역사, 환경 분야 등에서 재능 및 특기를 보유한 학생들로 공모를 통해 지난달 20일 최종 36명이 선발됐다   이들은 11일 부산 감천문화마을을 답사하고 사전 캠프에 참여하는 등 국내 일정을 마무리하고, 4월 12일부터 18일까지 6박 7일 간의 일정으로 러시아 블라디보스토크, 일본 가나자와 ‧ 후쿠오카 등을 방문해 기항지 탐방 활동을 펼치게 된다.     ▲하이원 선상학교에 참여하는 학생들이 11일 부산 감천문화마을을 답사한 뒤 기념촬영하고 있다.ⓒ강원랜드     특히 오는 14일에는 항일운동의 흔적과 고려인 강제 이주의 아픈 역사를 간직한 러시아 블라디보스토크를 방문해 역사문화 탐방 활동에 참여하는 등 대한민국 현대사를 되돌아 볼 수 있는 소중한 기회를 가질 예정이다.   또한 카이스트 정재승 교수, 방송인 노홍철, 여성 리더십 전문가인 퍼블리시스원의 조유미 대표, 사진작가 조세현, 소설가 은희경 등 평소에 만나보기 힘든 명사들로부터 꿈을 이루는 방법에 대한 강의도 듣고, 코칭도 받을 수 있는 프로그램에 참가한다.   김창완 사회공헌실장은 “하이원 선상학교는 폐광지역 창의인재 육성을 위해 마련한 프로그램”이라며 “‘배’라는 한정된 공간에서 이뤄지는 다양한 전문가들과의 교류, 스스로 기획하는 해외 문화 탐방활동, 각기 다른 문화와 재능을 가진 친구과의 사귐 등을 통해 긍정적인 자극을 받으며 꿈을 향해 도전하는 인재로 성장하길 바란다”고 말했다.   한편 올해로 여섯 번째를 맞이하는‘하이원 선상학교’는 5만 7000톤급 크루즈인‘그린보트’를 타고 아시아 각국을 체험하는 프로그램으로, 강원랜드는 2013년부터 2017년까지 폐광지역 청소년 197명에게‘하이원 선상학교’프로그램 참가를 지원해왔다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       전북대학교 졸업생이 미국 루이지애나 주립대(Louisiana State University) 조교수로 임용돼 화제.  화제의 주인공은 전북대 경영학과를 졸업한 최대웅 박사(34·사진).     사진제공=전북대    전북 완주군 출신인 최 박사는 지난 2009년 전북대를 졸업한 뒤 미국 알라배마 주립대(University of Alabama)에서 석사학위를 받았고, 지난해 동 대학원에서 재무학 박사학위와 응용통계학 석사학위를 받았다.  최 박사는 이후 재무학 분야에서 세계 최고 수준의 학회인 유럽금융학회(European Finance Association, Mannheim, Germany)에 논문을 발표하고, 국내 카이스트와 미국 알라배마 주립대 등에서 세미나를 하는 등 재무학 연구 분야에서 인정을 받았다.  이러한 연구 성과를 인정받아 국내외 유수 학회에서 우수 논문상을 받은 최박사는 알라배마 주립대에서도 2013년부터 올해까지 재무학 전공 필수인 기업 재무(Business Finance), 금융시장론 (Financial Markets and Institutions), 재무 관리 (Intermediate Financial Management)등의 학부 과목을 강의하다 지난 8월부터 경영대학 조교수에 정식 임용됐다.  최대웅 교수는 “2010년 미국에서 재무학 박사에 도전하면서 7년 동안 실패와 어려움도 많았지만 국내외 교수님들, 그리고 가족들의 도움으로 여러 난관을 잘 이겨낼 수 있었다”며 “포기하지 않고 열심히 노력한다면 꼭 꿈을 이룰 수 있다는 희망을 모교 후배들에게 전하고 싶다”고 밝혔다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲논문이 실린 국제학술지 표지 ⓒKAIST       KAIST 생명화학공학과 이진우 교수 연구팀이 서로 다른 크기의 기공을 갖는 구조의 무기소재 합성을 통한 황 담지체를 개발해 리튬-황 이차전지의 성능을 높였다.  연구팀은 다차원 상분리 현상을 동시에 유도해 각기 다른 두 종류 크기의 기공을 갖는 티타늄질화물을 합성했다.  이를 황 담지체로 활용해 우수한 수명 안정성과 속도를 갖는 리튬-황 이차전지를 개발했다.  리튬-황 이차전지는 이론적으로 기존 리튬 이온 이차전지보다 약 7배 이상 높은 에너지 밀도 특성을 보인다.        ▲다공성 티타늄질화물 전자현미경 사진 ⓒKAIST    또 황의 저렴한 가격은 전지 생산 단가를 급격히 낮춰줄 수 있을 것으로 기대된다.  그러나 리튬-황 이차전지 양극에서는 황의 낮은 전기 전도도와 황이 충·방전 과정에서 전극으로부터 새어나가는 현상이 있다.  연구팀은 문제 해결을 위해 50나노미터 이상 크기의 매크로 기공과 50나노미터 이하의 메조 기공을 동시에 지닌 계층형 다공성 구조의 티타늄질화물 기반의 황 담지체를 개발했다.  티타늄질화물은 황과의 화학적 작용력이 매우 강하고 전기 전도도가 높아 충·방전 과정에서 황이 전극으로부터 빠져나가는 것을 막아주고 황의 전기화학적 산화, 환원 반응을 빠르게 해준다.  연구팀은 매크로 기공과 메조 기공의 구조적 시너지 효과로 인해 많은 양의 황을 안정적으로 담으면서도 높은 수명 안정성 및 속도 특성을 보임을 확인했다.        ▲ 이진우 교수(왼쪽)가 연구원과 실험을 진행하고 있다 ⓒKAIST    이 교수는 “리튬-황 이차전지는 여전히 해결해야 할 문제점이 많아 이를 해결하기 위한 연구는 지속적으로 이뤄져야 한다”며 “이번 연구를 통해 안정적인 수명을 지닌 양극 소재 개발의 독보적인 기술을 확보했다”고 말했다.  이번 연구는 재료 분야 국제 학술지 ‘어드밴스드 머티리얼즈(Advanced Materials)’ 1월15일자 표지논문에 게재됐다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲2018년도 ‘KAIST 자랑스런 동문상’ 수상자 ⓒKAIST       KAIST 총동문회(회장 차기철)는 2018년도 KAIST 자랑스런 동문상 수상자로 서길수 영남대 총장과 김광수 하버드 의대 교수, 문영환 코아텍 대표이사, 전영현 삼성SDI 대표이사 등 4명을 선정했다.  김광수 하버드 의대 교수는 신경생물학 분야의 선구자적 연구를 통해 파킨슨병 치료제 연구 개발에 기여한 공로를 인정받아 수상자로 선정됐다.  문영환 코아텍 대표이사는 화학 공정에 필요한 환경 촉매·특수 가스 전문 업체 설립과 경쟁력 있는 제조 기술을 확보해 수입대체를 통한 국가 경쟁력을 높이고 환경 보전에 앞장선 공로를 수상의 영광을 안았다.  전영현 SDI 대표이사는 메모리 반도체 분야의 세계적인 기술 전문가로 생산성과 공정 기술 향상을 주도해 삼성전자를 전 세계 반도체 1위 기업으로 이끄는 등 국가 경쟁력을 높인 공로를 인정받았다.  서길수 영남대 총장은 우수한 연구 인력을 양성하는 교육자로 현장과 정책을 잇는 교육 혁신 행정가로 두각을 나타냈다.  한편 KAIST 자랑스런 동문상은 1992년 제정해 지금까지 27회에 걸쳐 99명의 수상자를 배출했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      조선대학교(총장 강동완) 항공우주공학과 우주기술융합연구실(지도교수 오현웅) 소속 학부새싹장학생 고지성(3년), 강주성(2년) 학생이 과학기술정보통신부가 주최하고 KAIST 인공위성 연구소가 주관한 ‘제7회 2018 캔위성 체험 경연대회’에서 우수상(카이스트 총장상)을 수상했다.  이번 경연대회에서 수상한 캔위성 ‘D3 Cansat (Diverse Deploy Device Can Satellite)’은 국내 연구기반이 취약한 큐브위성용 태양전지판 구속분리장치를 개발하였으며 이를 캔위성에 탑재하여 검증하는 것을 목표로 하였다.   일반적으로 구속분리장치는 나일론선 절단 방식을 적용하고 있으며 낮은 체결력과 체결작업의 어려움이 있다.   이러한 단점을 극복하기 위해 높은 △높은체결력 △종·횡방향 동시 구속 △체결작업의 용이성 △위성 내부의 접근성이 가능한 장점을 갖는 4가지 유형의 구속분리장치를 개발하였다. 또한 조도센서를 통해 전개 상태를 확인할 수 있으며 부가적으로 실시간 영상 카메라를 통해 전개 상태를 확인할 수 있다.    ▲ 2018 캔위성체험경연대회에서 우수상을 수상한 조선대학 고지성(3년), 강주성(2년) 학생ⓒ조선대학교    위성 임무를 모사하는 캔위성 경연을 통해 인공위성 체계에 관한 이해를 증진시키고 위성 기술 대중화를 위해 2012년도부터 열리고 있는 캔위성 경연대회는 참가팀이 자체 제작한 교육용 모사위성(CanSat)을 수백 미터 상공으로 쏘아 올린 뒤 하강할 때 임무를 수행하는 과정을 평가하는 방식으로 이뤄진다.   올해 대회에는 대학부 21개 팀, 고교부 48개 팀이 참가해 1차 평가(5월)와 2차 평가(6월), 캔위성 발사(8월), 최종평가(8월)를 거쳐 각 부문 최우수상 1팀(과학기술정보통신부장관상), 우수상 2팀(카이스트 총장상), 장려상 2팀(항공우주연구원장상)을 선정했으며 시상식은 9월 27일 정부과천종합청사에서 거행되었다. 각 부문 최우수상과 우수상 수상 팀에게는 상금과 함께 우주선진국 해외연수 기회를 제공한다.  한편 조선대학교 항공우주공학과 우주기술융합연구실 소속 학부생들은 2016년 캔위성 경연대회에 이어 3년 연속으로 수상하는 쾌거를 이뤘다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      국립 경상대학교(GNU·총장 이상경) ‘고효율·안전 항공핵심기술 선도연구센터’가 미래창조과학부가 추진하는 ‘2017년 선도연구센터(ERC) 지원사업’에 선정됐다.   미래창조과학부와 한국연구재단은, 경상대학교가 경남도, 진주시, 사천시, 한국항공우주산업(KAI) 등의 지원을 받아 신청한 항공선도연구센터를 2017년 국가선도연구센터(ERC)로 최종 선정했다고 지난 7일 공식 발표했다.   항공선도연구센터는 고효율·안전 항공핵심기술 분야의 원천·응용연구 연계가 가능한 세계적 수준의 연구 성과를 창출하고 대학 산학협력의 거점전문센터 역할을 수행하게 된다. 이로써 국내 최초로 지정된 경남 진주·사천 항공국가산단이 성공적으로 정착하는 데 중추적 역할을 담당할 기업지원 R&amp;D;의 한 축이 갖추어진 셈이다.   ▲항공선도연구센터 산학협력 거점 전문센터 자립 비전. ⓒ경상대학교    선도연구센터는 국가적으로 집중 육성할 필요가 있는 학문 분야에 대해 전국 모든 대학을 대상으로 공모해, 대학의 역량과 지자체·산업체 등의 지원의지, 환경 등을 종합해 선정하는 대한민국 최고 권위의 대학 연구센터 지원사업이다. 지금까지는 주로 수도권 대학들의 사업으로 인식돼 왔다.   이번 미래창조과학부와 한국연구재단의 발표에 의하면 경상대학교는 항공을 포함한 범기계 분야에서 연구중심대학을 포함한 전국 최상위권 4개 대학 컨소시엄과의 경합을 거쳐, 국내 최초의 항공선도연구센터로 선정됐다.  이로써 경상대학교는 향후 7년간 국고 135억 원, 지자체 지원금 28억 원 등 모두 201억 원의 예산을 확보해 산업수요 중심의 고효율·안전 관련 항공핵심기술 연구를 집중적으로 수행하게 된다.  항공선도연구센터에는 주관기관인 경상대학교와 울산과기원, KAIST, 서울대 컨소시엄 참여 대학의 12명의 국내 항공 관련 최고 전문가들이 핵심연구원으로 참여하며, 한국항공우주산업 등 10개 산업체, 캐나다 McGill, 미국 UCSD 대학 등 13개 국제협력 기관도 함께 참여한다.  이번에 항공 분야 정부지정 선도연구센터가 경상대학교에 설치됨으로써 지난 5월 2일 고시된 진주·사천 항공국가산단의 활성화에도 큰 도움이 될 것으로 기대된다.  경남도 신종우 미래산업국장은 “그동안 경남도가 항우연 분원 유치 등 항공 관련 정부출연연구소의 유치를 꾸준히 추진해 왔는데, 이번에 미래형 항공핵심기술과 핵심기자재 국산화 연구 개발을 주도할 선도연구센터가 경상대학교에 설치됨에 따라, 이를 향후 항공국가산단의 기업지원 R&amp;D;센터로 육성해 나가겠다”고 밝혔다.  경상대학교 공과대학 항공우주시스템공학과 명노신 교수(선도연구센터장)는 “미국 캔사스주 위치타 대학의 국립항공연구원 NIAR와 같이, 경남도, 진주시, 사천시 등과 협력하여 항공선도연구센터를 항공국가산단에 입주하는 기업의 연구개발, 시험평가 기능을 직접 지원하는 자립형 연구소로 발전시켜 나가겠다”는 포부를 밝혔다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ▲ DIBR 3D 영상 워터마킹 기법을 이용한 영상 예제 = (왼쪽부터 윗줄 원본 중앙영상, 깊이영상, 아랫줄 워터마크가 삽입된 중앙영상, 삽입된 워터마크 신호=가시성을 위해 10배 강화된 신호) ⓒKAIST      KAIST 전산학부 이흥규 교수 연구팀이 인공신경망을 이용해 워터마크를 영상에 삽입 및 검출하는 기술을 개발해 홈페이지를 통해 시범 운영하고 있다.  연구팀의 웹 서비스에서는 인공신경망 학습을 통한 새로운 공격에 대응하고 ▲인공신경망의 비선형적인 특성을 통해 높은 보안성을 가진 인공신경망 기반 2D 영상 워터마킹 기법 ▲다양한 시점 변환이 발생하더라도 영상 보호가 가능한 DIBR 3D 영상 워터마킹 기법 ▲워터마크 삽입으로 인한 시각피로도 상승을 최소화하는 S3D 영상 워터마킹 기법을 제공한다.  연구팀의 2D 영상 워터마킹 기법은 최초의 인공신경망 기반 워터마킹 기법으로 이미지에 가해질 수 있는 다양한 공격을 이용해 인공신경망을 학습함으로써 강인성을 획득한다.  동시에 인공신경망의 심층구조를 통해 워터마크 해킹 공격에 대한 높은 보안성을 획득함으로써 기존의 보안 취약점을 대폭 개선했다.  고부가가치를 가지는 3D 영상 보안을 위한 워터마킹 기법도 개발해 웹 서비스로 제공한다.  사용자는 2D 영상 또는 3D 영상을 웹 서비스에 업로드 해 워터마크를 삽입하고 추후 필요시 삽입한 워터마크를 검출함으로써 각종 분쟁 해결에 활용할 수 있다.  또한 이 기술은 압축 등의 공격을 가상으로 진행하는 시뮬레이션 툴과 워터마크 삽입 세기 조절, 그리고 워터마크 삽입으로 인한 영상품질 비교 등의 서비스를 함께 제공한다.  이번 연구는 기술 활용 모델에 따라 요구되는 다양한 견고성에 따라 유연하게 추가 수정이 가능하고 해킹에 견고하게 설계됨으로써 워터마킹 기술 유용성을 극대화했다.  연구팀은 개발된 기술은 다양한 공격 유형에 적응적으로 대응하며 상용 가능한 수준의 기술 신뢰도를 보인다고 밝혔다.        ▲강지현 문승원 지상근 박사과정 이흥규 교수 (왼쪽부터) ⓒ KAIST   이흥규 교수는 “영상 관련 각종 분쟁들이 저작권에 국한되던 종전의 범위를 넘어 최근 가짜 영상 유통에 따른 진위 판별, 인증, 무결성 검사, 유통 추적 등으로 관심 분야가 급속히 커지고 있다”며 “인공지능 기술을 활용해 기존 워터마킹 기법들의 기술적인 한계점을 해결할 수 있는 디지털 워터마킹 연구를 선도하겠다”고 말했다.  현재까지 개발된 기존 워터마킹 기술은 모두 공격 유형, 세기 등 특정 조건을 사전에 정하고 이를 만족시키도록 설계 및 구현돼 다양한 공격 유형이 존재하는 실제 환경에 사용하기에는 실용적 측면, 기술 확장성, 유용성 등에 한계가 있었다.  또한 워터마크 제거, 복사, 대체 등의 해킹 기술 발전으로 인해 기술 자체의 보안 취약성에도 문제가 있었다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      경남도과학교육원(원장 김동환)은 오는 21일 오후 2시30분 1층 대강당에서 제50회 과학의 날 기념식을 갖는다.   이번 기념식은 과학기술교육의 중요성을 강조하고 우수 과학 어린이들과 우수 과학 교사의 사기를 진작하기 위해 마련했다.  기념식에는 경남교육청 김원찬 부교육감을 비롯해 지역교육청 교육장, 학교장, 학부모, 경남과학사랑어머니회, 2017. 과학동아리 활동 지원 대상팀 지도교사, 경남과학전람회 작품 제작 컨설팅 희망 교사 등 200여명이 참석한다.   ▲경남과학교육원 전경.    우수 과학 어린이와 우수과학 교사들에 대한 미래창조과학부장관 상장 및 표창장 전수, 초청 특강, 과학동아리 활동 지도 방법 특강, 경남전람회 작품 제작 컨설팅 등을 실시할 계획이다.  이날 기념식에서 과학기술 유공 교사는 하청초등학교 고두철 교사 외 19명으로 시·군교육지원청별로 엄정한 심사를 거쳐 추천된 창의적인 과학기술교육에 앞장서고 과학문화 확산에 공헌하며 주위의 신망이 두터운 모범적인 교사들이다.  우수과학 어린이는 도내 초등학교에서 학교장 추천을 받아 선정된 학생으로 총 495명이며 이 가운데 가고파초등학교 이동건 학생 외 시·군교육지원청별 대표학생 17명이 기념식에 참가해 수상한다.  초청 특강 연사인 KAIST 배석형 교수는 ‘미래 사회가 요구하는 창의적 융합 인재의 특성과 덕목’이라는 주제 강연을 갖는다.  배 교수는 “4차 산업혁명 시대가 요구하는 미래 인재는 새로운 역할과 환경에 적응할 수 있는 유연성과 다학제적 학습 능력을 갖추고 인공지능이 대체하지 못하는 창의성 및 감성 등 인간 고유의 뛰어난 능력을 발휘할 수 있는 사람”이라며 “이러한 인재를 어떻게 키울 것인가에 대한 고민이 필요하다”는 내용을 강의할 예정이다.  한편 경남과학교육원은 4월 과학의 달을 맞아 ‘세상을 바꾸는 상상! 상상을 실현하는 과학기술·ICT!’ 라는 주제로 전국적으로 과학기술 중요성을 강조하기 위한 다채로운 행사를 마련하고 있다.   경남도교육청 김원찬 부교육감은 기념사에서 “4차 산업 혁명 시대를 맞아 미래 인재가 갖추어야 할 가장 중요한 역량은 창조력이다. 창조력의 발현을 위해서는 융합지식과 창의력, 동료들과의 협업과 의사소통능력이 중요하다”며 과학교육의 중요성을 당부할 예정이다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      이낙연 국무총리는 2018년 8일 자로 강원순(63) 현 사행산업통합감독위원회 위원장 직무대행을 제5대 사행산업통합감독위원회 위원장으로 위촉했다.   강원순 신임 위원장은 조달청 정책홍보본부장, 재경부 국제조세센터 소장, 카이스트 정보과학기술대학 초빙교수, 한국연합복권 대표이사 등을 역임했다.   지난 2016년 제4기 사행산업통합감독위원회 위원으로 위촉되어 2018년 1월부터 사행산업통합감독위원회 위원장 직무대행을 맡아 왔다.     ▲강원순 사감위원장. ⓒ사감위     강원순 위원장은 재정‧금융 정책의 수립과 집행, 경제 및 사행산업 분야의 다양한 경력과 정책조정 능력을 겸비한 행정가로 사행산업의 건전 발전과 불법사행산업 근절을 위해 활발한 활동을 펼칠 것으로 기대된다.  신임 위원장의 임기는 전 위원장의 잔여임기인 2019년 12월 5일까지다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             KAIST와 국립중앙과학관은 과학문화 전시서비스의 획기적인 개선을 위해 최근 ‘스마트 과학관 전시연구단’을 출범했다. ⓒ KAIST     KAIST와 국립중앙과학관이 실내 위치인식 기술과 증강현실(AR) 및 가상현실(VR), 사물인터넷(IoT), 인공지능(AI) 등 4차 산업혁명 관련 핵심기술을 연계해 과학관의 전시안내 기술을 혁신할 시스템 개발을 위해 스마트 과학관 전시연구단(이하 연구단)을 출범시켰다. 연구단은 한국연구재단의 지원을 받아 전시기반기술·전시운영기술·전시콘텐츠 등 3개 분야에 KAIST 등 9개 대학과 전자부품연구원 등 2개 연구기관 등 모두 11개 기관을 참여시켜 오는 2022년까지 4년간 모두 15개 과제를 수행하게 된다. 또한 실내 위치기반 전시안내시스템 개발을 마치면 관람객의 위치에 따라 증강 및 가상현실(AR/VR) 등을 포함한 다양한 기술을 적용한 전시안내 서비스를 제공하게 된다.  특히 스마트폰을 통해 전문 안내자의 설명을 직접 듣는 것과 같은 유사서비스도 제공받을 수 있다.  이 시스템에 적용되는 실내 위치인식 기술은 KAIST가 개발한 실내 위치인식시스템 KAILOS(KAIST Indoor Locating System)가 활용될 예정이다.  연구단은 이밖에 관람객들의 다양한 요구를 과학관측에 즉각 전달해 전시개선에 반영될 수 있게 하는 리빙랩 기법도 적용할 방침이다.  국립중앙과학관과 KAIST는 연구단이 개발한 새로운 전시안내시스템을 대전 국립중앙과학관부터 우선 적용하되 전국 167개 과학관과 과학관처럼 각종 전시물을 안내하는 각 지역의 박물관과 미술관에도 단계적으로 확대할 방침이다.  배정회 국립중앙과학관 전시단장은 “매년 과학관을 방문하는 수십만 명의 청소년들에게 과학을 통한 꿈과 영감을 심어주기 위해 4차 산업혁명시대에 걸맞게 전시안내도 이제는 최신 IT기술을 활용해 이뤄져야 한다”고 강조했다.  KAIST 한동수 교수는 “과학관 전시기술과 전시 콘텐츠를 체계적으로 구성해 스마트 과학관 전시플랫폼에 담을 계획”이라며 “AR·VR 기술과 실내 위치인식 기술이 통합되어 전시안내에 활용되는 첫 사례가 될 것”이라고 말했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲    신성철 KAIST 총장이 4일 해명 기자회견을 하고있다 ⓒ프레시안(육심무 기자)    신성철 KAIST 총장은 4일 “양심에 부끄럽고 어긋나는 일을 하지 않았다”며 과학기술정통부에서 제기한 제자 편법 채용과 국가연구비 횡령 혐의 등을 전면 부인했다.  과학기술정보통신부로 부터 국가 연구비를 횡령한 혐의로 고발과 아울러 직무정지 요청이 통보된 신성철 총장은 이날 기자회견을 자청해 대구경북과학기술원과 로렌스 버클리연구소와의 이면 계약을 비롯해 국가 연구비 횡령 및 업무상 배임 등 각종 의혹에 대해 해명했다.  신 총장은 “세계적 기초연구소인 로렌스 버클리 연구소와 무명의 신생대학인 대구경북과학기술원이 협약을 맺고, 한국의 연구자들에게 공동연구 길을 터준 것을 자랑스럽게 생각해 왔는데 상상할 수도 없는 의혹이 전개되는 상황에 참담한 마음을 금할 길이 없다”며 "제기된 의혹들은 모두 사실이 아니다"고 밝혔다.  신 총장은 A박사의 채용비리 의혹에 대해 “국내 박사로는 매우 드물게 버클리 연구소의 포스닥으로 시작해 비정규직 연구원을 거쳐 정규직 연구원이 된, 여성박사로는 거의 최초의 성공스토리라고 생각한다”면서 “현재 버클리연구소 빔라인 책임자로 우리나라 학자들의 실험을 도와주고 교육도 시키고, 교량적인 역할을 하고 있는 공로자”라고 설명했다.  또 “적법한 절차를 거쳐 채용됐고 급여 결정도 규정에 따른 것”이라며 “절반이 넘는 돈이 A박사의 인건비로 지급됐다는 것은 말도 안된다”고 지적했다.  버클리연구소에 대한 현금 지원에 대해서는 “빔 타임의 독자적 사용권 요청에 의해 운영비의 일부를 보낸 것이며, 우수한 시설을 저렴하게 독자적으로 연구에 이용할 수 있게 한 것으로, 조금도 잘못됐다고 생각 안하며 다시 결정하래도 다시 지원할 것”이라고 강조했다.  신 총장은 “지난 30여년간 치열하게 일하면서 공직자로서 자신을 철저히 관리하며 양심에 부끄러움이 없이 살아왔다”면서 “이번 건으로 인하여 밤세워 연구에 매진하는 젊은 연구자들의 사기가 꺽이는 일이 없기를 바란다”고 말했다.        ▲신성철 카이스트 총장 ⓒ프레시안(육심무 기자)    한편 과기부는 지난 30일 신성철 총장과 관계자 등 4명을 업무상 횡령 등의 혐의로 검찰에 고발하고, KAIST에 총장의 직무정지를 요청하는 공문을 보낸 바 있다.  신 총장은 대구경북과학기술원 총장으로 재임하던 2013년 제자인 미국 로렌스버클리 연구소 계약직 A씨를 정식절차를 거치지 않고 겸직 교수로 채용하고, 3년간 연구에 참여하지 않았는데도 1억 4000만 원을 급료로 지급하도록 지시한 혐의를 받고 있다.  또 연구 장비에 대한 사용료 명목으로 A씨가 근무하는 버클리 연구소에 2014년부터 올해까지 22억 원을 보내 이 돈의 절반가량을 A씨의 인건비로 사용토록 했다는 의혹을 받고 있는 것으로 알려졌다.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ▲더불어민주당 김성주의원(전주병) ⓒ프레시안     국민연금 개혁이 계속 미뤄질 경우 급격한 제도변화 및 보험료율 상승 등 국민이 수용하기 어려울 수 있는 상황이 초래될 수 있다는 연구자료와 함께 국회 차원에서 연금개혁을 위한 논의기구가 조속히 만들어져야 한다는 주장이 제기됐다. 국회 보건복지위원회 간사인 김성주 의원(더불어민주당)은 14일, 카이스트 국민연금연구원의 연구자료를 인용하면서, 국민연금 개혁이 지연될수록 국민연금 기금 적립과 연금 지급에 필요한 보험료율이 급격하게 상승될 것이라고 주장하고, 연금개혁을 위한 국회 차원의 기구 구성을 촉구했다. 국민연금은 올해로 33주년을 맞이했고, 2018년까지 모두 4차례의 국민연금 재정추계와 제도개선 방안이 발표된 바 있다.  하지만 실제 연금개혁이 이뤄진 것은 1996년과 2006년 2차례뿐이고 그 이후 보험료율, 소득대체율과 같은 모수개혁은 이뤄지지 않았다. 제4차 국민연금 재정추계에 따르면 제도변화가 없는 한 2024년 1천조 원을 돌파하고 2041년 1778억 원에서 정점에 이른 후 2057년에 소진되는 것으로 추계됐다.  그러나 국가가 존재하는 한 연금의 지급이 멈출 수 없는 만큼 외국에서도 다양한 연금개혁을 통해 국민들에게 연금을 지급해 오고 있다. 김성주의원은 따라서 "우리나라는 연금개혁을 통해 전환의 비용을 계층간, 세대간 합리적으로 분담하고, 실질적인 노후소득 보장장치로서 기능하도록 해야 하는 시대적 과제를 안고 있다."고 주장했다. 김 의원이 공개한 연구자료에 따르면, 4차 재정추계 기준으로 2020년에 연금개혁이 된다면 완전적립식의 제도변화를 시도해볼 수 있지만, 5년 뒤인 2025년에 연금개혁이 될 경우 완전부과방식으로 갈 수밖에 없는 상황을 보여주고 있다.  연구자료는 특히 향후 100년간 적립배율이 1배 이상, 0.5%의 추가 수익률과 100조원의 국가보조금이 투입을 전제로 할 때 2015년 연금개혁이 됐다면 보험료율 12.02%로 설정이 가능했겠지만, 2020년 연금개혁 시에는 20.40%로 높아지고, 2025년 연금개혁이 된다면 같은 제약조건을 만족할 보험요률 산출이 어렵다는 것을 보여주고 있다.  즉, 연금개혁이 늦어질수록 국민연금의 재정목표 달성, 지속가능성을 위해 지불해야 할 비용이 기하급수적으로 늘어난다는 것이다. 문재인 정부는 2018년 제4차 국민연금 재정추계와 제도발전위원회의 제도개선방안, 복지부와 국민연금공단이 개최한 전국 순회 국민토론회 개최와 이를 통해 수렴된 국민여론을 바탕으로 제4차 국민연금종합운영계획(정부안)을 발표했다.  또한 2019년 경제사회노동위원회 연금개혁특위는 보험료 및 소득대체율을 인상하는 다수안을 국회와 정부에 제안했다. 이제는 국민여론과 정부안, 사회적논의기구가 제시한 개선안을 놓고 국회가 논의해야 할 때가 된 것이다. 김성주 의원은 "연금개혁은 혁명이 아니다. 그러나 연금개혁을 위한 골든타임은 얼마 남지 않았다. 지금이라도 연금개혁을 위한 국회 논의기구를 구성해야 한다."며 "국회가 남탓, 정부탓 하면서 마냥 국민연금 개혁을 미룰 수 있는 상황이 아니다”면서 국민연금 개혁을 위한 국회 특위 구성을 강조했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲   KAIST 신성철 총장이 스위스 다보스포럼에 참석한다 ⓒ프레시안(육심무 기자)    KAIST 신성철 총장과 이상엽 특훈교수가 스위스 다보스에서 오는 21~25일 열리는 2019 세계경제포럼(이하 WEF) 연차총회에 WEF로부터 공식초청을 받아 참석한다.  신성철 총장은 WEF 클라우스 슈밥(Klaus Schwab) 회장으로부터 다보스포럼 글로벌대학리더스포럼(이하 GULF: Global University Leader Forum) 회원대학의 총장 자격으로 작년에 이어 2년 연속 초청을 받았다.  GULF는 미국 하버드대, MIT, 영국 옥스퍼드대, 일본 동경대, 중국 북경대 등 27개 대학 총장들이 초청을 받아 운영되는 국제 고등 교육계 리더들의 모임이다.  신 총장은 KAIST의 우수한 과학기술 역량의 집중적인 전수를 통해 케냐의 경제발전을 촉진시키는 내용의 사업계획을 소개할 예정이다.  신 총장은 특히 클라우스 슈밥 회장과 무라트 손메즈(Murat Sonmez) 4차 산업혁명센터장 등 WEF측 고위인사들과 만나 올 3월 KAIST에 문을 여는‘Korea-WEF 4IR Center’의 운영 및 사업방향에 관해 논의할 계획이다.  이밖에 사우디아라비아의 모하메드 알-투와이즈리(Mohammed Al-Tuwaijri) 경제기획부 장관과 면담을 갖고 한-사우디 양국 간 협력사항을 논의할 예정이다, 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      보좌진 월급을 빼돌려 불법 정치자금으로 사용하고 후원금을 불법 수수한 혐의로 재판에 넘겨진 자유한국당 이군현(66, 경남 통영·고성) 의원이 징역형 집행유예를 확정받아 의원직을 상실했다.  대법원 2부(주심 조재연 대법관)는 27일 정치자금법 위반 혐의로 기소된 이 의원의 상고심에서 정치자금 불법 수수에 대해 징역 1년 6개월에 집행유예 3년을 선고한 원심판결을 확정했다.  회계보고 누락에 대해서도 징역 6개월에 집행유예 3년을 선고한 원심판결을 확정했다.  공직선거법에 따르면 정치자금법 위반 혐의로 벌금 100만 원 이상의 형이 확정되면 국회의원 당선이 무효가 된다.  이 의원은 19대 의원 시절인 2011년 7월~2015년 12월 보좌진 급여 중 2억4600만 원을 돌려받아 국회에 등록되지 않은 다른 직원의 급여와 지역구 사무실 운영비 등에 쓴 혐의로 2016년 8월 재판에 넘겨졌다.  선거관리위원회에 정식으로 신고하지 않은 예금 계좌에서 사용한 정치자금의 수입·지출 보고를 누락하고, 고등학교 동문인 사업가 허모 씨에게서 2011년 5월 1천500만원을 격려금 명목으로 수수한 혐의도 받았다.  1·2심은 "다시는 이런 일이 벌어지지 않게 하려면 의원직을 박탈할 수 있는 형의 선고가 불가피하다"며 정치자금 불법 수수 혐의에 징역 1년 6개월에 집행유예 3년, 회계보고 누락 혐의에 대해선 징역 6개월에 집행유예 3년을 선고했다.  대법원이 하급심이 선고한 형을 그대로 확정함에 따라 이 의원은 의원직을 상실하게 됐다.  교육 전문가 출신인 이 의원은 한국과학기술원(KAIST) 인문사회과학부 교수, 중앙대 교육대학원 교수를 지내다 2014년 17대 총선 때 한나라당 비례대표로 국회에 입성했다.  이후 18~20대 총선 때 고향인 통영·고성에서 잇따라 당선된 4선 의원이다. 20대 총선에선 경쟁 후보가 없어 전국에서 유일하게 무투표로 당선됐다.  </t>
   </si>
   <si>
     <t xml:space="preserve">          ▲ 비디오의 한 장면을 캡처한 그림: 왼쪽이 기존 방식 오른쪽이 초해상화( 기술을 이용하여 복원한 비디오 ⓒKAIST       인터넷이 느려도 고화질 영상을 감상할 수 있는 딥러닝 기술을 이용한 인터넷 비디오 전송 기술을 KAIST 전기및전자공학부 신진우, 한동수 교수 연구팀이 개발했다.  이 기술은 유튜브, 넷플릭스 등에서 비디오를 사용자에게 전송할 때 사용하는 적응형 스트리밍 비디오 전송기술과 딥러닝 기술인 심층 콘볼루션 신경망 기반의 초해상화를 접목한 새로운 방식이다.  이는 열악한 인터넷 환경에서도 고품질, 고화질의 비디오 시청이 가능할 뿐 아니라 4K, AV/VR 등을 시청할 수 있는 새로운 기반 기술이 될 것으로 기대된다.  기존의 적응형 스트리밍은 시시각각 변화하는 인터넷 대역폭에 맞춰 스트리밍 중인 비디오 화질을 실시간으로 조절한다.  이를 위해 다양한 알고리즘이 연구되고 있으나 네트워크 환경이 좋지 않을 때는 어느 알고리즘이라도 고화질의 비디오를 감상할 수 없다는 한계가 있다.  연구팀은 적응형 스트리밍에 초해상화를 접목해 인터넷 대역폭에 의존하는 기존 적응형 스트리밍의 한계를 극복했다.        ▲비디오 서버로부터 비디오가 전송된 후 저화질의 비디오가 고화질의 비디오로 변환되는 과정 ⓒ KAIST     연구팀이 새롭게 개발한 시스템은 추가로 신경망 조각을 비디오 조각과 같이 다운받게 했다.  제일 큰 신경망의 크기는 총 2메가바이트(MB)이며 비디오에 비해 상당히 작은 크기이다.  사용자의 컴퓨터에서는 동영상 시청과 함께 병렬적으로 심층 콘볼루션 신경망(CNN) 기반의 초해상화 기술을 사용해 비디오 플레이어 버퍼에 저장된 저화질 비디오를 고화질로 바꾸게 된다. 모든 과정은 실시간으로 이뤄지며 이를 통해 사용자들이 고화질의 비디오를 시청할 수 있다.  한동수 교수는 “지금은 데스크톱에서만 구현했지만 향후 모바일 기기에서도 작동하도록 발전시킬 예정이다”며 “이 기술은 현재 유튜브, 넷플릭스 등 스트리밍 기업에서 사용하는 비디오 전송 시스템에 적용한 것으로 실용성에 큰 의의가 있다”고 말했다.  </t>
   </si>
   <si>
+    <t xml:space="preserve">          ▲ 대전시의회는 17일 문송천 카이스트 명예교수를 초청해 ‘사물인터넷시대의 블록체인’이란 주제로 연찬회를 개최했다 ⓒ대전시의회       대전시의회(의장 김종천)는 17일 제241회 임시회 개회식을 갖고 2019년도 첫 임시회를 열었다.  이번 임시회에서는 의원 발의 조례안 7건을 포함해 조례안 16건,동의안 5건, 건의안 2건, 보고 7건 등 모두 33건의 안건을 처리할 예정이다.  이날 제1차 본회의에서는 시와 교육청의 금년도 주요업무 보고를 청취하고, 홍종원 의원이 대표 발의한 ‘대전 중부소방서 설치 촉구 건의안’, 이광복 의원이 대표 발의한 ‘대전 도시철도 2호선 예타 면제 대상사업 선정 촉구 건의안’을 의결하고 중앙부처 및 국회 등에 건의하기로 했다.  또 홍종원 의원은 ‘통학 사각지대 학생들을 위한 통학여건 개선’을, 박혜련 의원은 ‘본격 개막된 2019 대전방문의 해, 붐업을 위한 제언’을, 채계순 의원은 ‘3.1만세운동 100주년, 민족정기 세우는 대전건설 제안’을, 민태권 의원은 ‘조정교부금 산정방식 변경을 통한 재정 형평화 모색방안’을, 문성원 의원은 ‘신탄진휴게소 하이패스 IC신설’을 촉구했다.  대전시의회는 이날 임시회 산회 후 대회의실에서 카이스트 명예교수인 문송천 전산학 박사를 초청해 ‘사물인터넷시대의 블록체인’이란 주제로 전체의원 연찬회를 개최했다.  이날 강의는 블록체인 등 4차 산업혁명 기술기반 인식강화에 대한 필요성과 국내외 동향, 타 지자체 동향, 그에 따른 의회 대응 전략방안 등에 대하여 다양한 정보를 공유하고 이해를 넓히고자 마련됐다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      '저성과 현역 20대 총선 퇴출'을 선언한 바 있는 새누리당 이한구 공천관리위원장은 11일, 유승민 전 원내대표는 "상식적으로 저성과자가 아니다"고 말했다. (☞ 관련 기사 : 이한구 새누리 공천위원장 "저성과·비인기 현역은 배제")당헌·당규에 따라 공천관리위원회가 솎아내게 될 새누리당 공천 부적격자에 유 전 원내대표가 포함되지 않는다는 사견을 밝힌 것이다. 이에 따라 유사 전략 공천 방식인 '우선 추천' 제도를 새누리 강세 지역인 TK(대구·경북)에서까지 활용, 친박계 주도의 '유승민 찍어내기'가 진행되는 것 아니냐는 당 안팎의 의구심이 해소될 수 있을지 주목된다. 이 공관위원장은 이날 오전 CBS라디오 &lt;김현정의 뉴스쇼&gt;와 한 인터뷰에서 '시중에서 저성과자를 걸러내는 것이 결국 유승민 컷오프(예비 경선 중 공천 탈락)를 위한 것 아니냐는 말이 나온다'는 사회자의 말에 이렇게 말했다. 그는 "'유승민 의원은 무조건 된다'고는 제가 얘기를 못 한다. 그건(부적격자 선정) 위원회에서 결정을 하는 거니까"라면서도 "상식적으로 생각을 해서 말이 되는지 안 되는지를 판단하면 된다. 유승민 의원이 보통 사람들 판단에 저성과자인가"라고 되묻기도 했다. 이 공관위원장은 "최소한 상식적으로 (유 전 원내대표가) 저성과자냐. 내가 알기로는 아니다"는 말도 덧붙였다. 이 공관위원장은 이날 자신이 못 박은 '저성과자·비인기자 퇴출'은 현행 새누리당 당헌·당규에 따라 진행될 것이라는 강조도 거듭했다. 그는 "그냥 알기 쉽게 하느라고 '비인기자' 이렇게 표현을 했지, 사실은 우리 공천 관리 규정에 부적격자 심사 기준이라는 게 있다"면서 "규정에 있는 표현을 보면 '신망이 부족한 경우'를 예로 들어놨고 또 공직자로서 적합하지 않은 이들은 애초부터 경선에 부칠 필요도 없다는 내용이 있다. 저는 그걸 적용하겠다는 것"이라고 말했다. 이 공관위원장은 또 사회자가 '더불어민주당처럼 20% 컷오프나 예전 한나라당처럼 하위 25% 컷오프 이런 식으로 (물갈이 규모를) 정해놓는 것이 아니냐'고 묻자 "저는 절대 평가를 하겠다고 말씀을 드렸다"고도 말했다. 통상적으로 당내 예비 경선 단계에서 이루어지는 20~25%대 솎아내기 수준보다 훨씬 더 높은 수준의 물갈이 이루어질 수도 있음을 시사한 것이다. 이 공관위원장은 "(공천) 신청을 받아봐서 종합적인 판단"을 할 것이라고 말했다. 이한구 "양반집 도련님처럼 월급쟁이로 4년 보낸 사람은 퇴출"이 공관위원장은 이 같은 현역 물갈이를 진행할 수밖에 없는 이유로 "우리나라가 이대로 가면 심각한 위기에 처할 수밖에 없는데, 그 위기를 개척할 수 있는 개혁 정신과 능력을 (20대 국회의원들이) 갖춰야 한다"는 점을 내세웠다. 그는 "20대 국회는 새 시대를 만드는 국회"라면서 "19대에서도 능력 발휘를 못 하고 국민 신망을 못 받던 사람들을 그냥 공천하겠다면 곤란하다"고 말했다. 이 위원장의 이 같은 '개혁 정신과 능력'을 일각에선 박근혜 대통령의 4대 개혁 과제 수행과 연결지어 해석하는 것에 대해선 이 위원장은 말을 아꼈다. 그는 '대통령이 뭔가 일을 좀 하려고 하는데 적극적으로 나서지 않았던 사람들이 그 범주(공관위 평가를 통한 부적격자 선정)에 들어간다는 말이냐'는 사회자 질문에 "별별 말을 다 만들어내는 게 우리 언론이다. 제가 그런 것에는 말리지 않고 싶다"고 했다. 그는 다만 "우리 여당에서는 예를 들어서 양반집 도련님처럼 하는 사람들이 많다"면서 그가 생각하는 부적격자 상(想)을 다소 추상적으로나마 설명했다. 이 공관위원장은 "중요한 이슈가 있을 때 적극적으로 나서서 문제를 풀려고 하기보다는 그냥 월급쟁이 비슷하게 하다가 4년 내내 별로 존재감이 없던 사람들이 제법 있다"면서 "그런 사람들은 아무래도 집중 심사할 수밖에 없다"고 말했다. 이 공관위원장은 또 "심지어는 야당 편인지 우리 편인지 모르(겠)는 사람도 많다"면서 "새 시대에 맞는 개혁을 추진하는 데 걸림돌이 될 사람들은 생각을 해 봐야겠다"고도 했다. '전략공천 제로'를 밀어붙여 온 새누리당 김무성 대표가 이 공관위원장을 향해 "이번 공관위원장은 경선을 총괄 관리만 하면 된다. 공천 권한을 행사할 수 있는 자리가 아닌데 잘못 이해하신 것 아닌가'라는 말을 한 것에 대해선 이 공관위원장은 '당헌·당규에 권한이 있다'는 취지로 응수했다. 그는 "당헌·당규에 관리위에서 부적격자를 선정할 수 있게 돼 있다"면서 "절대로 당헌·당규는 지킨다. 그 안에서 최대한으로 개혁 공천을 할 것이다. 그게 우리의 사명이다"고 말했다. (☞ 관련 기사 : 새누리 '친박', 더민주 '카이스트', 국민의당 '호남')  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 시제품으로 제작된 이방성 전도 필름 ⓒKAIST       KAIST 신소재공학과 백경욱 교수 연구팀이 차세대 고해상도 8K UHD 디스플레이에 적용할 수 있는 극 미세피치용 이방성 전도필름(Anchoring Polymer Layer Anisotropic Conductive Films, APL ACFs)을 개발했다.  연구팀은 연구개발특구진흥재단의 지원을 받아 대덕연구개발특구본부 기술이전사업화 사업 공동 개발을 통해 산업계에서 즉시 평가 가능한 시제품 제작을 완료했다.  이번에 개발한 새 이방성 전도필름은 기존의 이방성 전도필름이 갖는 극 미세피치의 적용에 대한 한계를 근본적으로 해결한 것으로 모바일 기기, OLED 기반 대형 패널 등에 다양하게 활용 가능할 것으로 기대된다.  극미세피치 접속용 ACFs 제품의 활용은 대폭적으로 확대될 전망인데 현재 산업계에서는 대부분 일본 기업의 ACFs 제품에 의존하는 상황이어서 ACFs 재료의 국산화가 매우 절실한 상황이다.  연구팀은 특정 단일층으로 구성된 폴리머 필름이 도전입자를 단단히 고정시키는 형태의 이방성 전도필름을 개발해 도전입자의 유동을 억제시킴으로써 전극 간 전기 단락 문제를 근본적으로 해결했다.        ▲APL의 전자현미경 사진 ⓒKAIST    연구팀은 일상에서 흔히 접할 수 있는 나일론을 활용해 도전입자가 잘 분포되고 고정된 단일층 나일론 필름을 제작했다.  나일론 필름은 높은 인장강도 값을 지녔기 때문에 도전입자의 움직임을 완벽하게 제어할 수 있었고, 접합 공정 후 도전입자의 포획률을 기존 이방성 전도 필름의 33%에서 최고 수준인 90%까지 끌어올리는 데 성공했다. 또한 이방성 전도필름의 가격에 가장 큰 영향을 미치는 도전입자의 함량을 3분의 1 이상 줄였다.  연구팀은 20마이크론 수준의 극 미세피치에서 전기적 단락이 없고 100% 절연 특성을 구현하면서 우수한 접속을 형성할 수 있는 도전입자를 확보해 안정적인 전기적 특성, 높은 신뢰성, 저렴한 가격의 이방성 전도필름을 제작했다.        ▲윤달진 박사과정과 백경욱 교수 ⓒKAIST    백경욱 교수는 “이번에 개발한 이방성 전도필름은 극 미세피치를 가진 VR, 4K, 8K UHD 디스플레이 분야 뿐 아니라 OLED 기반 대형 패널, 모바일 기기에도 적용 가능하다”며 “극 미세피치 접속 핵심 소재의 국산화를 통해 세계 시장을 독점하고 있는 일본의 이방성 전도필름 제품을 대체해 경쟁력을 높이는 데 기여할 수 있다”고 말했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ⓒ전북대병원      전북대학교병원 의생명연구원 개원 27주년을 기념하고 보건의료기술연구개발사업인 연구중심병원 R&amp;D; 육성사업을 활성화하기 위해 지난 26일 임상연구지원센터에서 심포지엄을 개최했다.  이번 심포지엄은 전북대병원이 서울아산병원과 컨소시엄을 구성해 ‘연구중심병원 육성(R&amp;D;) 지원’ 신규과제로 선정된 ‘4차 산업혁명 HCT(사람중심융합기술) 진료-케어 신산업 생태계구축’을 주제로 진행됐다.  조남천 병원장은 환영사를 통해 “우리 전북대병원이 서울아산병원과 컨소시엄을 구성해 2018년 연구중심병원 R&amp;D; 신규과제로 선정을 받게 된 것은 이미 검증된 여구중심병원이 컨소시엄에 참여하는 지방병원을 지원해 연구역량을 높일 수 있도록 지방병원을 육성하는데 큰 의미가 있다”면서 “이번 심포지엄이 양 기관의 상호협력을 강화해 연구 과제를 진행하는데 있어 더욱 탄력을 받길 바란다”고 말했다.  이날 심포지엄은 연구중심병원 세부과제의 책임교수(신경과, 종양내과, 핵의학과, 정신건강의학과)들이 참석해 주제발표를 진행했고, KAIST 명상과학연구소 김완두 소장이 ‘마인드풀니스 명상의 치료적 컴패숀 명상’을 주제로 강의했다.   전북대병원 박성광(신장내과) 교수와 원광대병원 윤권화(의생명연구원장) 교수가 좌장으로 참여한 심포지엄에서는 △HCT기반 미래형 뇌질환 헬스케어(강동화 서울아산병원 신경과) △HCT 기반 스마트 암 헬스케어(김태원 서울아산병원 종양내과) △HCT 기술 구현을 위한 암, 뇌질환 진단/치료용 방사성의약품개발(서울아산병원 핵의학과) △HCT기반 인지정서장애 헬스케어(정영철 전북대병원 정신건강의학과) 등에 대한 발표가 이어졌다.  한편 연구중심병원 연구개발 사업은 보건복지부가 병원들이 진료 위주에서 벗어나 임상 지식을 활용해 개방형 융합연구 기반을 구축하고 연구 역량을 높이면서 기술사업화 성과를 내기 위해 추진하고 있는 사업이다.  전북대병원은 서울아산병원과 컨소시엄을 구성해 연구중심병원 육성사업 신규과제에 선정됐으며, 제4부과제로 인지정서장애(조현병, 치매, 자살, 우울)의 인공지능기반 조기진단 및 치료를 위한 플랫폼 구축 구제를 수행하게 된다.   세부과제 수행은 정영철(정신건강의학과, 의생명연구원 원장) 교수가 연구책임자이며 참여 연구원으로 김회린 교수(KAIST), 신병수 교수(전북대병원 신경과), 김고운 교수(전북대병원 신경과), 김민걸 교수(전북대병원 임상약리), 오석일 교수(전북대 컴퓨터공학부), 오강한 박사(전북대 컴퓨터공학부)가 공동 연구를 하게 된다.   연구 내용으로는 △기능자기공명영상을 이용하여 조현병과 자살/우울에 대한 인공지능 기반 진단 및 예후 예측 기술의 개발 △음성 분석을 통한 인지기능 저하, 조현병, 자살/우울을 진단할 수 있는 VoiceBot 개발 등의 효과 및 부작용에 대한 설명, 부작용 대처 요령 등을 인공지능 기반으로 대답해주는 ChatBot 개발, △마음챙김 명상을 기상현실로 경험할 수 있게 하는 동영상 개발 등이 포함되어 있다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          KAIST 이번 초세대 협업연구실 선정 ⓒ KAIST       KAIST가 올 3월부터 국내 대학 중 처음 도입해 운영 중인 초세대 협업연구실이 4개로 늘어났다.  KAIST는 이번 초세대 협업연구실 선정에 1985년 노벨 물리학상을 수상한 클라우스 폰 클리칭 박사(독일 막스 플랑크 고체물리학 연구소)와 2002년 노벨 화학상 수상자인 쿠르트 뷔트리히 박사(스위스 취리히공대 교수) 등 총 6인이 심사위원으로 참여해 장기주 특훈교수(물리학과)와 유룡 특훈교수(화학과)를 제2차 초세대 협업연구실 지원 대상자로 선정했다고 6일 밝혔다.  초세대 협업연구실은 학문적 업적이 뛰어난 교수가 퇴직과 동시에 연구실 문을 닫아 그동안 축적한 연구업적과 노하우 등 학문적 유산이 사장(死藏)되는 것을 막고 후배 교수가 선배 교수의 연구를 계승해 발전시키기 위한 제도이다.  특히 이 제도의 특징은 선배 교수가 은퇴 이후에도 연구원 자격으로 후배 교수들과 계속 연구에 참가할 수 있다.  초세대 협업연구실 지원 대상자로 선정된 물리학과 장기주 특훈교수는 나노과학기술대학원 김용현 교수, 물리학과 한명준 교수와 함께 ‘응집물질계산물리’연구실을 운영한다.  새로운 양자 현상을 예측 하고 기능성 물질 개발을 목표로 제1원리 전자구조 계산을 통해 물질의 물리적 특성을 규명하고 신물질을 디자인하는 연구를 수행하게 된다.  화학과 유룡 특훈교수는 생명화학공학과 최민기 교수와 공동으로 ‘분자촉매 디자인 및 반응 공학’연구실을 운영할 계획이다.  분자 레벨 및 나노 영역에 첨단 화학기법을 접목해 촉매를 설계하는 연구 분야다.  에너지 및 환경 문제에서 핵심적인 역할을 수행하는 각종 화학반응의 반응 효율을 극대화하는 연구를 수행할 예정이다.  KAIST는 이번에 선정된 연구실에는 향후 5년간 운영비와 협업 연구 공간 등 각종 편의시설을 제공할 계획이다. 연구실 운영 5년 후 평가 결과에 따라 계속 지원이 가능하다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ○…어제 박근혜 대통령이 국회법 개정안에 대해 거부권을 행사하고 재의 요구안을 의결시킨 후, 정치권 상황부터 짚어보겠습니다. 우선 새누리당은 어제 오후 1시 30분부터 오후 6시까지 의원총회를 열었는데요. 국회법 개정안 재의에 의원 전체가 표결에 참여하지 않기로 결정했습니다. 새누리당은 청와대와 여당이 각을 세우는 모습을 보이면 당청 관계가 악화될 수 있다는 이유입니다. 안건 상정 권한이 있는 정의화 의장은 재의 입장을 확인했지만, 국회법 개정안은 새누리당이 국회 과반수가 넘기 때문에 국회법 개정안은 사실상 폐기 수순을 밟게 됐습니다. 박근혜 대통령이 직접적인 비판을 받았던 유승민 원내대표는 사퇴하지 않기로 결정했습니다. 유승민 원내대표는 의원총회가 끝난 뒤 "앞으로 잘하라는 채찍으로 받아들이겠다"며 당청 간 소통이 원활하지 못했다는 점에 사과했습니다. 새정치민주연합은 새누리당이 국회법 개정안을 제의하지 않기로 하자 강력하게 반발했습니다. 문재인 대표가 국회의장과 여야 대표 3자 회동을 통해 해결책을 찾자고 제안했지만 여당이 이에 답하지 않으면서 무산됐습니다. 한때 국회 의사일정 전면 거부를 선언했던 새정치민주연합은 본회의를 열고 메르스 관련 법안만 통과시키고, 국회법 개정안 재의 때까지 나머지 국회 일정은 보이콧하기로 했습니다. 어제 열린 본회의에서는 일명 '메르스법'이라고 불리는 감염병 환자와 질병 정보 등을 공개하는 등의 내용의 '감염병 예방 및 관리에 관한 법률 개정안'만 처리됐습니다.  ○…정부가 최소 10조 원 이상의 추가경정예산을 편성하기로 했습니다. 정부와 새누리당과의 당정 협의에서 추경 예산 규모에 대한 이견을 좁히지 못해 정확한 규모는 발표되지 않았습니다. 추경예산과 각종 기금의 운용 계획 변경을 합하면 올 하반기 투입되는 재정은 15조 원을 넘어설 것으로 보입니다. 정부는 수출 부진과 가뭄, 특히 메르스 사태로 인한 소비 침체를 막기 위해 이 같은 방침을 정했는데요. 일각에서는 추경이 효과를 보려면 최소 6개월이 걸려 현재의 메르스 사태를 해결하는 데 별 도움이 안 된다는 지적이 나오고 있습니다. 또 지난해 기준 나라빚이 약 800조 원에 이르는 만큼 재정악화에 대한 우려도 나오고 있습니다. 최종 추경안은 7월 초 당정협의를 거쳐 확정될 예정입니다.   ○…새정치민주연합 윤리심판원이 '공갈' 발언으로 논란이 됐던 정청래 최고위원에 대한 재심에서 징계 수위를 '당직 자격정지 1년'에서 '당직 자격정지 6개월'로 낮췄습니다. 윤리심판원 안병욱 원장은 감경 이유에 대해, 논란이 됐던 발언의 당사자인 주승용 최고위원 등 현직 의원 60여명이 탄원서를 낸 것이 이유가 됐다고 전했습니다. 이를 받아들이지 않을 경우, 당 화해와 화합 분위기를 해칠 수 있어 내린 결정이라는 설명입니다. 이번 조치로 정청래 최고위원은 11월 26일에 지역위원장직을 회복하게 됐는데요. 혁신위원회가 내놓은 혁신안이 추인되면 공직선거 120일전인 12월 15일에는 바로 지역위원장에서 물러나야 합니다. '비노 세작' 발언으로 제소된 김경협 의원과 '전위부대' 발언으로 제소된 조경태 의원에 대한 징계 여부는 다음달 9일 결정될 예정입니다.  ○…변호사시험 성적 공개를 금지한 변호사시험법이 위헌이라는 헌법재판소의 판단이 나왔습니다. 앞서 로스쿨 재학생과 로스쿨 출신 변호사들이 '시험 성적은 시험에 응시한 사람을 포함해 누구에게도 공개하지 아니한다'고 규정돼 있는 변호사시험법에 대해 헌법소원 심판을 제기했는데요. 헌법재판소는 "이 조항은 변호사 시험에 합격한 사람의 성적을 공개하지 않아 청구인들의 알 권리 중 정보공개청구권을 제한한다"고 판단했습니다. 헌법재판소는 변호사시험 성적을 공개하지 않는 것이 과당경쟁과 서열화를 방지한다는 입법 목적은 정당하다고 봤지만, 성적을 공개하지 않음으로써 오히려 대학 서열에 따라 서열화가 고착되므로 적절한 수단이 아니라고 판단했습니다.  ○…어제 나온 헌법재판소 결정 하나 더 보겠습니다. 아동과 청소년으로 인식될 수 있는 사람이나 표현물이 등장하는 음란물의 소지와 배포를 처벌하는 일명 '아청법'이 합헌이라는 헌법재판소 결정이 나왔습니다. 논란이 됐던 건 '아동과 청소년으로 인식될 수 있는 사람'이라는 표현인데요. 현행법대로라면 성인 배우가 미성년자를 연기한 영화 &lt;은교&gt;등도 처벌 대상이라는 지적이 제기돼 왔습니다. 헌법 재판소는 논란이 된 표현은 일반인의 입장에서 실제 아동 또는 청소년으로 오인하기에 충분할 정도의 사람이 등장하는 경우를 의미함을 알 수 있고, 제작 동기와 경위 등을 종합하면 판단 기준이 구체화되기 때문에 명확성 원칙에 위반되지 않는다며 이같이 결정했습니다.   ○…최저임금위원회가 어제(25일) 사용자 측 위원들의 집단 퇴장으로 중단됐습니다. 사용자 측이 반발한 건 내년도 최저임금에 월급을 병기하자는 방안입니다. 지난 18일에 열린 전원회의에서 이러한 의견이 제시된 바 있고, 이를 표결에 부치도록 하자 사용자 측 위원들은 반발하며 집단 퇴장했습니다. 사용자 측을 대표하는 한국경영자총협회는 "시급으로 결정하는 최저임금에 월급을 병기하자는 위원회 의견은 법리에 어긋난다"며 지금까지의 관행을 무시하면 산업 현장에 혼란이 빚어질 수 있다고 주장했습니다. 최저임금위원회는 오는 29일까지 최저임금 인상안을 의결할 예정이었지만, 어제 이후 협상 일정이 잡히지 않아 협상은 법정 시한을 넘길 것으로 전망됩니다.  ○…지난해 제자들을 성추행한 의혹으로 카이스트에서 해임된 교수가 국립대병원인 서울대병원 산하 연구원에 재취업한 것으로 드러났습니다. A교수는 학생들을 상대로 성희롱적인 발언과 성추행을 일삼았다는 학생들의 주장으로 카이스트 성폭력 위원회로부터 지난해 5월 조사를 받고 같은 해 8월 혐의를 인정받아 해임됐습니다. 서울대병원 연구실에 재취업한 것은 이로부터 약 3개월이 지난 것으로 확인됐습니다. 이에 대해 교육부 관계자는 '머니투데이'와의 인터뷰에서 "파면이나 해임된 교수는 교육부가 관리할 대상이 아니며 계약직 교수는 법적으로 교수가 아니기 때문에, 이직 시 성추문 관련 경력의 기재 여부 역시 해당 대학이나 기관이 판단할 일"이라고 전했습니다.  ○…남자 프로농구 안양 KGC 전창진 감독이 어제 경찰에 소환돼 불법 스포츠 도박과 승부 조작 혐의로 조사를 받았습니다. 경찰은 전창진 감독이 사채업자로부터 3억 원을 빌린 뒤 구속된 강 모 씨 명의로 도박을 한 것으로 보고 있는데요. 경찰은 전창진 감독이 사채업자에게 써준 차용증을 확보한 것으로 알려지고 있습니다. 전창진 감독은 혐의를 인정하지 않는다고 부인했습니다. 이런 가운데, 농구와 유도 선수 등 20여명도 같은 혐의로 경찰의 수사를 받고 있는 것으로 확인됐습니다. '한국일보' 취재 결과, 이들은 경찰로부터 불법 스포츠 도박 사이트에 수억 원대 도박을 한 혐의를 받고 있습니다. 경찰은 또 이들이 '경기 중 후배들에게 실수 좀 하게 하라'는 내용의 휴대전화 메시지와 음성파일을 확인해, 소속 선수들과 승부 조작을 했는지 조사 중입니다.   이 기사는 6월 26일 &lt;시사통&gt; '뉴스브리핑' 내용입니다. (☞바로 가기 : &lt;시사통&gt;)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   			&lt;프레시안&gt;과 사이언스북스, 카이스트(KAIST)가 특별한 강연을 엽니다. 카이스트에서 학생들로부터 최고의 강의로 찬사를 받는 명강사에게 직접 강의를 들을 수 있는 기회입니다. 이번 강의는 '몸의 과학, 미래의 의학'이라는 주제로 최근 전 세계적으로 큰 주목을 받고 있는 맞춤형 정밀 의학부터 인체의 면역 시스템까지 우리가 반드시 알아야 하는 최신 의학 연구 성과를 본격적으로 소개합니다. (☞신청 하기)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲'세종 더휴 예미지' L1·L2 전체 조감도 ⓒ세종 더휴 예미지       한신공영㈜과 ㈜금성백조주택이 24일 ‘세종 더휴 예미지’ 견본주택을 개관하고 본격 분양에 나선다.  4-2 생활권 L1·L2블록에 들어설 ‘세종 더휴 예미지’는 지하 1층~지상 20층, 아파트 15개동(846가구) 규모로 지어진다.  주택형별로는 △전용 59㎡ 309가구 △전용 84㎡ 398가구 △전용 97㎡ 139가구 등이다.  ‘세종 더휴 예미지’ 는 삼성천 바로 옆에 들어서게 돼 수변 조망이 우수하다. 삼성천에 조성될 예정인 수변공원에는 금강 조망이 가능한 축제나루와 전망공간·철새조망대 등이 마련될 예정이며, 수변 산책로 등도 조성될 계획이다.  또 삼성천 수변공원과 단지 측면부가 470m 이상 맞닿아 있어 입주민들의 여가 공간인 단지 내 커뮤니티 시설도 수변공원과 연계될 수 있도록 배치된다.  수변 특화동도 조성돼 가치를 높인다. 이밖에 금강·안산·괴화산 등이 인근에 있어 수변과 녹지 조망권 등 쾌적한 주거 환경이 강점이다.  ‘초학세권’ 교육환경과 교통 편의성도 눈여겨볼 만 하다. 단지 바로 앞에 조성될 초등학교와 중학교를 통해, 학생들은 도보로 안전하게 통학할 수 있다.  아울러 단지 인근에 간선급행버스체계 BRT(Bus Rapid Transit) 정류장이 예정돼 있다. 세종시의 BRT 인프라는 국내 최고 수준으로, BRT 구축이 완료되면 세종시 주요 권역으로 빠르고 편리하게 이동할 수 있다.        ▲'세종 더휴 예미지' L1·L2 전체 조감도 ⓒ세종 더휴 예미지    직주근접 특성도 우수하다. 대학·연구 핵심거점으로 특화된 4-2 생활권 내에는 세종테크밸리를 비롯 국내외 우수대학과 연구기관·산업체 등이 들어선다.  카이스트 융합의과학원·충남대 의학바이오융합 캠퍼스·기술집약적 벤처기업·국책연구기관 등이 입주할 예정이다. 차량을 이용해 약 16분이면 정부세종청사에 도달할 수 있고, 대덕연구단지와 대전 제3·4산업단지도 각각 약 11km와 15km 거리에 있어 출퇴근이 용이하다.  생활 및 문화 인프라 역시 우수하다. 세종테크밸리 내 캠퍼스타운은 상업·문화·업무 지역으로 계획돼 쇼핑과 문화의 거리가 조성될 예정이다.  또한 삼성천에는 4-1 생활권과 연결되는 보행전용교가 설치된다. 이를 통해 4-1생활권에 밀집한 다수의 관공서 및 이미 조성된 다양한 인프라를 공유할 수 있다.  차은혁 세종 더휴 예미지 분양 소장은 “세종 4-2 생활권 내에서도 수변 조망권·초학세권’ 등 멀티 프리미엄을 갖춘 단지는 흔치 않다”며 “직주근접 특성을 포함해 실거주 여건이 우수하다. 행정안전부·과학기술정보통신부 이전과 국회 세종의사당 설치 확정 등 호재도 많아 다양한 투자자의 관심이 집중될 것”이라고 말했다.  견본주택은 세종시 대평동 264-1번지에 마련된다. 입주는 2021년 11월 예정이다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           대전상공회의소는 10일 오전 대전 유성호텔에서 ‘제205차 대전경제포럼 조찬세미나’를 개최했다.  정성욱 회장은 인사말을 통해 “최근 주변에 최저임금 인상, 노동시간 단축 등으로 어려움을 호소하는 기업이 늘고 있다”며 “자금줄이 막혀있는 중소기업에 도움을 줄 수 있는 정부지원이 제때 이뤄질 수 있도록 정치권에서 지혜를 모아줬으면 한다”고 말했다.   이날 포럼에서는 바이오 및 뇌공학 박사 정재승 카이스트 교수를 초청, ‘제4차 산업혁명 시대, 미래의 기회는 어디에 있는가?’를 주제로 특강을 진행했다.   정재승 교수는 오는 2022년 세종시 5-1 생활권에 지어질 스마트시티의 총괄책임자다.  정 교수는 “스마트시티의 핵심은 데이터다. 도시 주민들의 활동이 만들어내는 데이터를 사물인터넷을 통해 수집하고, 인공지능이 이 데이터를 분석해 주민들의 행복과 삶의 질을 높일 서비스를 제공하는 게 취지”라고 밝혔다.  이어 “스마트시티 건설이 본격적으로 착수된다면, 첨단 기술과 일자리, 문화, 역사, 환경이 더불어 살 수 있는 4차 산업혁명의 집약체가 되며, 지역 기업들에게도 새로운 기회가 될 수 있을 것”이라고 설명했다.  또 “그동안 인터넷이 사람과 사람을 연결했다면, 이제 4차 산업에서는 사람을 둘러싼 모든 사물에 인터넷 센서를 통해 사물끼리 커뮤니케이션하는 세상이 만들어질 것”이라며 “사물의 오프라인이 모두 데이터화되고, 온라인 세상에서 존재하는 정보들을 분석해 개인 맞춤형의 더욱 편리한 세상이 도래할 것”이라고 덧붙였다.  특히, 정 교수는 “4차 산업혁명의 새로운 패러다임을 찾아 준비하고, 연구해야 한다”며 “인공지능과 빅데이터 등의 과학기술을 활용하는 것만큼, 서비스 기회를 창출할 줄 아는 경영학적 마인드가 함께 뒷받침 돼야 한다”고 강조했다.  한편, 이날 포럼에는 정성욱 대전상의 회장을 비롯해 설동호 대전시교육감, 정교순 대전사랑시민협의회장, 강도묵 대전개발위원회 회장, 이명로 대전지방고용노동청장, 문동환 한국타이어 부사장 등 포럼회원과 기관·단체장, 공무원, 기업 임직원 등 250여명이 참석했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 0세 음악회 포스터 ⓒ대전시      대전시립교향악단이 시민 맞춤형 콘서트로 가을을 수놓는다.  대전시립교향악단은 11일 카이스트에서 ‘캠퍼스에 퍼지는 비타민 클래식’을, 12일 대전예술의전당 앙상블홀에서‘0세 음악회’를 연다.  캠퍼스에 퍼지는 비타민 클래식은 스쿨 클래식 시리즈로 카이스트 가족과 시민들을 위해 열리며, 0세 음악회는 임산부와 태아를 위해 ‘클래식 속의 동화’를 주제로 연주한다.  0세부터 어른까지 시민 맞춤형 콘서트로 개최하는 이번 음악회는 류명우 전임지휘자의 해설이 함께 하는 지휘와 소프라노 마혜선, 조은주, 바리톤 길경호의 아름다운 아리아가 함께한다.  연주회 레퍼토리는 로시니의 오페라 ‘신데렐라’서곡, 훔퍼딩크의 오페라 ‘헨젤과 그레텔’ 서곡, 모차르트의 오페라 ‘마술피리’ 셀렉션, 차이콥스키의 발레모음곡 ‘잠자는 숲속의 공주’ 서주와 왈츠 등으로 구성된다.        ▲대전시향 캠퍼스 음악회 포스터 ⓒ대전시향    여기에 카이스트 공연은 플루티스트 라팔 졸코스의 연주로 모차르트의 ‘플루트 협주곡 사장조, 작품 313’이, ‘0세 음악회’에서는 피아니스트 함인아의 연주로 모차르트 ‘피아노 협주곡 제23번 가장조, 작품 488’이 더해진다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      '이재용'이라는 이름 뒤에 회장 직함이 붙는 건, 시간문제다. 병석에 있는 이건희 회장이 최근까지 유지했던 직함은 세 가지다. 삼성전자 회장, 삼성생명공익재단 이사장, 삼성문화재단 이사장. 이 가운데 뒤의 두 가지를 이재용 삼성전자 부회장이 물려받았다. 그게 지난 5월 15일이다. 남은 하나, 삼성전자 회장을 물려받기 위한 작업은 마무리 단계다. 김용철 변호사의 양심선언을 계기로 출범한 삼성특검 수사, 이후 진행된 재판이 모두 종결된 게 2008년이다. 대부분의 사안에서 면죄부를 받았다. 법적 걸림돌이 사라진 뒤, 경영권 승계 작업은 물 흐르듯 진행됐다. '이재용의 경영능력'을 따져 묻는 건 그래서다. 삼성이 주식시장에서 차지하는 비중은 보통 25%이상이다. 올해 초에는 30% 가까이 됐다. 다른 경제지표를 살펴도 결론은 같다. 삼성이 흔들리면 한국경제에겐 치명타다. 삼성을 이끌 이재용 부회장이 무능하면, 우리네 살림살이도 피곤해진다."이재용의 경영능력이 검증되지 않았다"라는 표현은, 물론 새롭지 않다. 삼성 경영권 승계를 염두에 둔 프로젝트는 그동안 다양하게 진행됐다. 1996년 삼성에버랜드 전환사채(CB) 헐값 발행 사건이 시작이었다. 그때마다 시민사회단체는 "'경영능력이 검증되지 않은 이재용'에게 경영권을 넘기기 위해 삼성이 온갖 편법, 불법 행위를 한다"고 비판했다. 하지만 비판의 초점은 주로 삼성의 편법, 불법행위였다. 이 당시만 해도, '이재용 삼성 회장' 체제는 먼 미래의 일이었다. 하지만 지금은 다르다. 이건희 회장이 다시 경영 전면에 나설 가능성은 없다. '이재용 삼성 회장' 체제는 가까운 미래다. 총수가 황제처럼 군림하는 재벌 문화, 삼성이 한국경제에서 차지하는 비중. 이 두 가지를 함께 고려하면, '이재용의 경영능력'은 한가한 질문거리가 아니다.그런데 근거가 너무 빈약하다. 먹고사는 일이, 그러니까 경제가 전부라고 외치는 이들이 이렇게나 많은데, 최고의 경제 권력에 대한 정보가 이토록 적다는 건, 놀라운 일이다. 일단은 어쩔 수 없다. 그간 알려진 정보만으로 네 개의 질문을 뽑았다. 이런 질문을 통해 '이재용의 경영능력'을 제대로 검증하기란 불가능하다. 다만 '이재용 삼성 회장' 체제가 현실이 되기 전에 잠시 생각을 정리해볼 기회는 되리라고 본다. 1. 'e삼성'의 실패에서 뭘 배웠나'이재용의 경영능력'을 이야기할 때 늘 나오는 단어가 'e삼성'이다. 벤처바람이 아직 뜨겁던 2000년, 삼성 구조조정본부(옛 비서실, 현 미래전략실)가 추진한 프로젝트다. 벤처바람이 식으면서 함께 망했다. 당시 삼성 구조본은 이재용 부회장을 위한 성공신화를 만들려 했다. 경영 후계자가 될 자격을 입증하는 사례 말이다. 아울러 벤처바람을 타고 'e삼성' 관련 주식 가격이 오르면, 경영권 승계 작업에 필요한 자금도 마련할 수 있다고 봤다. 이를 위해 삼성 계열사에서 다양한 인원이 차출됐다. 'e삼성'의 실패 사례는 이재용 부회장의 경영능력을 불신하는 근거로 주로 인용됐다. 하지만 'e삼성' 관련 의사결정을 주도한 건 삼성 구조본이었다. 또 15년 전 사건이다. '2015년 지금, 이재용 부회장이 어떤 경영능력을 갖고 있는지'를 검증하는 근거로 삼기엔 무리가 있다. 다만 질문거리는 될 수 있다. 'e삼성' 실패에 따른 부담은 결국 삼성 계열사가 떠안았다. 이는 지금도 비난받는 대목이다. 따라서 삼성의 주주와 임직원, 다른 이해관계자들은 이재용 부회장에게 물어볼 권리가 있다. "이재용은 'e삼성'의 실패에서 무엇을 배웠나. 어떤 반성을 하고 있나." 2. '을'의 처지에 대해 얼마나 아나    ▲ '메르스 사태'에 대해 사과하는 이재용 삼성전자 부회장. ⓒ연합뉴스   김용철 변호사는 삼성 구조본에서 일하며 이재용 부회장을 지켜본 경험을 여러 차례 이야기했다. 늘 나오는 게 보통사람의 생활감각에 대한 무지였다. 결혼식 축의금으로 '0'을 더 붙인 돈을 내고도, 무감각했다는 사례가 대표적이다. 삼성이 만드는 제품과 서비스 가운데 상당수는 보통사람들을 겨냥한다. 소비자의 정서와 감각에 둔감한 건 기업가에게 치명적인 약점이다. 이건희 회장 역시 월급 받으려 일하는 보통사람들의 정서를 이해하지 못하는 게 자신의 약점이라고 말했다고 한다. 맞는 말이다. 문제는 여기서 그치지 않는다. 기업가는 결국 장사꾼이며, 승부사다. 재벌 총수라 해도 본질은 같다. 한마디로 '을'의 처지를 견뎌내는 독기가 있어야 한다는 말이다. 황태자로 자란 이재용 부회장에게 이런 자질이 있겠는가, 라는 의문이 있다. 언론에 드문드문 비친 이재용 부회장의 이미지는 철저한 '갑'이었다. 아버지 이건희 회장만 해도, 승계 우선권을 지닌 형들 앞에선 '을'이었다. 이재용 부회장은 최근 1년 여 사이에만 네 차례에 걸쳐 시진핑 중국 국가 주석을 만났다. 시 주석은 세계에서 두 번째로 힘이 센 사람이다. 그런데 시 주석을 수시로 만났다. 어지간한 국가 원수도 기대하기 힘든 일이다. 언론에 비친 모습만 보면, 이재용 부회장은 영국 왕실 가족 느낌이다. 이런 그가 단 하루라도 '을'의 처지를 견뎌낼 수 있을까?그렇지 않다면, 그의 경영능력을 의심하는 게 당연하다. 기업가는 결국 소비자와 주주의 눈치를 봐야 하는 존재다. 왕실 가족 이미지는 기업가와 상극이다. 이 대목에서 중요한 신호가 있었다. 지난달 23일, 이재용 부회장이 공개적으로 머리를 숙였다. 삼성서울병원에서 확산된 '메르스(MERS·중동호흡기증후군)' 때문이다. 사과 회견이 그의 생애 첫 기자 회견이었다. 마침 생일이기도 했다. 이재용 부회장이 사과를 자청했다고 한다. 이로써 그가 '허리에 깁스'하지 않았다는 건 입증됐다. 필요하면, 머리 숙일 줄도 안다. 하지만 그것으론 부족하다. 이재용 부회장이 머리 숙일 일들은, 이미 많았다. 그때마다 그의 허리는 꼿꼿했다. 생애 첫 공개사과가 너무 늦었다.3. '미지의 충격'을 견딜 맷집이 있나기사를 준비하며, 김상조 한성대학교 교수(경제개혁연대 소장)를 만났다. 김 교수는 삼성에 대한 가장 날카로운 비판자로 꼽힌다. 이런 그가 이재용 부회장이 잘했다고 말했다. '메르스 사태'에 대한 사과 말이다. 그리고 덧붙이는 말. "삼성은 결과가 예상되는 일에 대해서만 강하다." '메르스 사태'는 어느 정도 답이 정해진 질문이었다. '사과'가 답이다. 시기와 방법이 고민거리였다. 그 정도는 할 수 있다. 하지만 이재용 부회장이 서 있는 시험대는 또 있다. 투기자본 엘리엇 매니지먼트의 공격이다. 이건 성격이 다르다. 정해진 답이 없다. 엘리엇이 진짜 노리는 바가 무엇인지 알 수 없으니 말이다. 엘리엇은 제일모직과 삼성물산의 합병 조건을 문제 삼았다. 그렇다면, 오는 17일로 예정된 두 회사의 주주총회에서 합병이 승인되면, 즉 삼성이 표 대결에서 엘리엇을 꺾으면, 문제가 풀리는 건가. 그렇지 않다. 그 뒤에 어떤 사태가 기다리고 있을지 알 수 없다. '미지의 충격'이 계속 이어질 수 있다. 김 교수는 삼성이 '엘리엇 충격'에 취약한 게 그래서라고 했다. 삼성이 일부 사업부문에서 세계 1위를 기록한 건 최근의 일이다. 선진국 기업을 따라잡으려는 추적자로 보낸 세월이 훨씬 길다. 추적자는 목표가 분명하다. 가야할 길도 선명하다. 하지만 1등은 스스로 길을 찾아야 한다. 늘 '미지의 충격'에 노출된다. 2등이라면 1등의 대응방식을 배우면 된다. 그러나 1등은 그런 기회가 없다. 삼성은 아직 이런 상황에 익숙지 않다는 게 김 교수의 설명이다. 'e삼성' 당시와 달리, '엘리엇' 사태 대응에선 이재용 부회장이 주도적인 결정을 하고 있다고 봐야 한다. 물론, 실무전략은 법률 및 재무 전문가들의 몫이다. 그러나 이건희 회장이 의식불명인 상태에서 큰 결정을 내릴 사람은 이재용 부회장뿐이다. 늘 준비된 경로만 밟아왔던 이재용 부회장이 '엘리엇 충격'이라는 '정답 없는 문제'를 잘 풀 수 있을까. 한마디로 '미지의 충격'을 견딜 맷집이 있느냐는 질문이다.4. 창의적인 직원을 붙잡아둘 '매력'이 있나삼성전자 국내 직원 가운데 절반 가까이가 연구 개발 직군이다. 머리 쓰는 일, 새로운 걸 만들어내는 일을 하는 직원이 다수라는 말이다. 한마디로 지식기업. 2000년대 들어 가속화된 변화다. 이병철, 이건희 시대의 삼성 직원은 '매뉴얼'에 충실한 모범생이었다. 그때는 '추적자'였다. 선진국 기업의 매뉴얼을 입수해 잘 따르는 게 중요했다. 1등이 된 지금은 그럴 수 없다. 자기 머리로 목표를 찾아야 한다. 지식기업으로의 변화는, 그래서 필연이다. 이재용 시대의 삼성 직원은 그저 고분고분하기만 한 걸로는 부족하다. 창의적인 인재를 끌어들이고 붙잡아두는 게 이재용 시대의 과제다. 이병철, 이건희 시대의 삼성 직원들은 단지 회장이라는 이유로 충성했다. 하지만 이재용 시대의 삼성 직원들도 그러리라는 법은 없다. 자존심 강한 지식노동자를 끌어당길 '매력'이 이재용 부회장에게 있느냐는 질문이 나온다.전길남 카이스트 명예교수. '한국 인터넷의 아버지'라고 불리는 그가 &lt;블로터&gt; 인터뷰에서 지적한 내용이 날카롭다. 기사 마무리를 갈음할만한 내용이다."구글러(구글 직원)한테 물어봐라. 너희 사장 어떻게 생각하냐고. '굉장한 사람이다, 존경한다'라고 얘기할 거다. 삼성 사람한테 물어봐라. 너희 오너 어떻게 생각하나. 주식 투자 잘한다고 할 거다. 구글에서 일하는 사람이 래리 페이지(구글 창업자)를 존경하는 것처럼 삼성 직원이 이재용을 존경할까. (…) 이건희, 이재용한테 제일 중요한 게 뭐라고 보나. 계속 삼성 오너 자리를 지키는 게 목적이다. 젊은 사람한테 물어봐라. 계속 이건희, 이재용 부자가 삼성 회장 자리를 지킬 수 있게 결사적으로 노력하는 일에 협조하고 싶은 사람이 있는지.(…) 이건희 회장이 차기 사장(회장)이 될 기회를 아들에게만 준다면, 그게 삼성의 한계일 거다. 스티브 잡스가 아들에게 사장 시키고 다른 사람은 그 자리 못 앉게 하면 애플이 지금 같은 회사가 될 수 없었을 거다. 삼성의 공은 한국 회사도 세계 최고가 될 수 있다는 점을 보여준 것이다. 이 정도로 삼성의 미션은 끝나면 된다. 앞으로 구글, 페이스북 같은 회사를 만들 수 있는지는 젊은 사람들 손에 달렸다."   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      -'미래가 있는 대학, 다 함께 행복한 대학, SMART GNU’를 위한 노력 -PoINT 유형 Ⅱ 통해 경남과기대와 연합대학→대학통합 추진 -CK-1, LINC+, ERC ARC 등 국책사업 선정…교육·연구 경쟁력 제고 -6개 분야 101개 공약 및 주요사업 중 83건 완료 또는 추진 중 -“새 정부 대학 정책에도 능동적으로 대처하도록 준비할 것”  국립 경상대학교(GNU·www.gnu.kr) 제10대 이상경 총장(61)이 취임 1주년을 맞이했다. 이 총장은 ‘미래가 있는 대학, 다 함께 행복한 대학, SMART GNU’를 캐치프레이즈로 제시하며 지난해 6월 7일 취임했다.  이 총장은 취임 1주년을 맞이해 교직원에게 보낸 서신에서 “지난 1년은 여러분의 개척정신과 노력으로 여러 가지 어려운 조건을 잘 극복해 왔다”며 “여러분의 참여와 소통, 배려와 화합의 정신에 깊이 감사드린다”고 말했다.  또한 “공약을 포함한 지난 1년간의 주요사업 추진 실적을 점검해보니, 6개 분야 101개 사업 가운데 83건은 완료했거나 현재 추진 중이고, 주변 여건상 실현 불가능하거나 중장기 과제로 미뤄둔 것은 17건이었다”며 “지금까지 우리 대학교의 미래를 향해 힘차게 전진해 왔듯이 모든 교수님, 직원 선생님들께서 함께 노력하면 무슨 일이든 해낼 수 있다는 것을 배웠다”고 강조했다.   ▲이상경 총장. ⓒ경상대학교    이어 “경남과학기술대학교와 ‘국립대학 혁신지원사업 유형 Ⅱ’를 통해 대학연합 후 통합을 추진하고 있다”고 전제하고 “교직원 설문조사에서 67.8%라는 높은 찬성률로 지지해 주신 여러분께 감사드린다. 투명하고 민주적으로 경남과기대와의 연합 후 대학통합을 추진하겠다”고 설명했다.  이 총장은 오는 2018년에 개교 70주년이 되는 것과 관련해 “대학본부에서 70주년의 의미를 되짚어보고 100년 대학을 향한 힘찬 발걸음을 함께 내딛기 위해 무엇을 해야 할지 고민하고 연구하고 있다”며 “조만간 공개될 개교 70주년 기념사업에도 애정과 참여의 정신을 보여주시기를 당부드린다”고 말했다.  특히 “새 정부가 제시한 고등교육 관련 정책에도 능동적으로 대처하기 위해 준비하고 있다”며 “올해도 변함없이 ‘지리산을 짊어지는 것과 같은 책임감과 천만 리 먼길 나서는 아침의 다짐으로, 엄숙하고 경건하게’ 여러분과의 약속을 지키도록 하겠다”고 다짐했다.   ▲경남과학기술대학교와 연합대학 후 통합 추진  경상대는 교육부의 국립대학 혁신지원사업(PoINT) 유형 Ⅱ(대학 간 혁신형)를 통해 경남과학기술대학교와 연합대학을 구축한 후 향후 대학통합을 추진하기로 했다. 지난 4월 진행된 두 대학 구성원 설문조사에서 경상대는 67.8%, 경남과기대는 84.6%가 찬성한 것으로 나타났다. 이에 따라 두 대학 총장은 같은 달 이와 관련한 MOU에 서명했으며 현재 교육부의 심사가 진행되고 있다.    ▲경상대학교 전경.    이는 학령인구 감소에 따른 대학 구조조정의 압력을 극복하기 위한 방안의 하나로 추진하는 것으로 앞으로 두 대학은 특성과 여건에 맞는 협업모델을 개발해 대학 간 기능의 효율화, 자원의 공동활용 등을 추진하기로 했다. 또한 이를 위해 그동안 담당 부서 관계자를 중심으로 지역산업, 기초학문 보호, 고등교육 확대, 우수학생 유치, 여건개선, 예산절감 등의 부문에서 연합대학의 효과를 극대화할 수 있도록 방안을 모색해 왔다.   이 총장은 “경남과기대와의 연합 후 통합 추진은 경상대가 경남을 대표하는 거점 국립대학교로서 그 역할을 다해 나가는 데 중대한 이정표가 될 것”이라며 “우리 대학교의 미래를 개척하고 책임지고자 하는 마음으로 모든 구성원과 지역사회의 적극적인 관심과 참여를 당부드린다”고 강조했다.   경상대와 경남과기대의 계획대로라면 오는 2021년 두 대학은 통합하게 된다. 이 총장은 자신의 총장 임기는 2020년 6월까지라고 전제하고 “그 이전에 통합을 위한 사전 준비 작업을 마무리지을 것이다. 이에 대해서는 경남과기대 총장과 서로 약속했다”고 말했다.  ▲주요 국책사업 선정으로 교육·연구 경쟁력 제고  경상대는 교육부의 지방대학특성화사업(CK-1)에 선정되어 올해 사업비로 60억 원을 확보했다. 이 사업은 대학발전계획에 따라 특성화 분야를 선정하고 창의적 전문인력을 양성함으로써 대학 경쟁력을 강화하는 사업이다. 이 사업에 참여하는 사업단은 창의적 항공IT기계융합 인력양성사업단, 창의적 미래그린 인재양성사업단, 미래창조형 농업생명 인재양성 사업단, 미래개척 기초생명과학 인재양성사업단, 한국학 고전을 통한 창의적 글로컬 인재양성 사업단, ENA 공공전문가 양성사업단 등 6개다.    ▲경상대학교 휘장.    경상대는 지난 4월부터 내년 2월까지 시행하는 ‘사회맞춤형 산학협력선도대학 육성사업(LINC+)에 선정되어 올해 사업비 38억4400만 원을 지원받아 산학연계형 교육 인프라를 구축하고 산학협력 친화형 교육 프로그램을 운영하고 있다. 올해부터 오는 2022년까지 5년간 수행하는 이 사업의 총 사업비는 192억2300만 원이다. 이 사업에는 향후 12개 단과대학 63개 학과가 참여할 예정이다. LINC사업을 성공적으로 수행한 데 이어 LINC+ 사업에도 선정됨으로써 경상대는 지역에서 실질적 산학협력을 이끄는 중심대학으로서 역할을 다할 수 있게 되었다.  경상대는 고교교육 기여대학 지원사업에 8년 연속 선정되어 고교교육을 내실화하고 입학전형 여건을 개선함으로써 우수인재를 확보할 수 있게 되었다. 중고교 학생을 대상으로 체험활동을 지원하고, 찾아가는 입학전형 설명회를 개최하는 등 우수인재 확보와 체계적인 교육 제공, 글로벌 경쟁력을 갖춘 창의적 개척인재 양성이라는 선순환 구조를 이뤄냈다.  미래창조과학부와 한국연구재단이 지원하는 2017년 선도연구센터(ERC) 지원사업에도 최종 선정되어 향후 7년간 국고 135억 원, 지자체 지원금 28억 원 등 모두 201억 원의 예산을 확보해 산업수요 중심의 고효율·안전 관련 항공핵심기술 연구를 집중적으로 수행하게 된다. 항공선도연구센터에는 주관기관인 경상대학교를 비롯해 울산과기원, KAIST, 서울대 컨소시엄 참여 대학의 국내 항공 관련 최고 전문가 12명이 핵심연구원으로 참여한다. 또한 한국항공우주산업 등 10개 산업체, 캐나다 McGill, 미국 UCSD 대학 등 13개 국제협력 기관도 함께 참여한다. 이로써 지난 5월 2일 고시된 진주·사천 항공국가산단의 활성화에도 큰 도움이 될 것으로 기대를 모으고 있다.    ▲경상대학교 휘장 시그니처 가로.    농림축산식품연구센터 지원사업인 스마트팜 연구센터(ARC) 사업에 선정된 경상대는 지난 4월부터 오는 12월 말까지 7억8000만 원의 사업비를 농림축산식품부로부터 지원받는다. 전체 사업기간은 10년이며 대응자금을 포함한 총사업비는 160억 원이다. 경상대는 이 사업을 통해 농업과 정보통신기술(ICT) 산업을 융합해 농업 분야 핵심기술을 확보하고 농식품 분야 우수 연구인력을 육성해 나가고 있다.  2017년도 상반기 한국연구재단의 인문·이공분야 사업 선정 현황을 보면, 이공분야 기초연구사업에서는 89건이 선정돼 지난해 같은 기간 20건에 비해 4배 이상 괄목할 만하게 늘어났다. 또한 인문사회분야 기초연구사업에서도 올 상반기에 6건이 선정(미발표 3건 포함하지 않음)됐다. 산학협력단은 전체 교수를 대상으로 한국연구재단 사업 신청을 독려한 결과로 풀이하고 있다.   ▲날로 좋아지는 교육시설  경상대는 지난 2013년 4월 착공한 ‘고문헌도서관 및 박물관’ 신축공사를 지난해 8월 완료했다. 모두 172억2500만 원이 투입된 고문헌도서관 및 박물관은 올해 전시시설 설치까지 완료한 뒤 정식 개관하게 된다. 경상대 교직원, 학생들은 물론 지역주민들은 지역 고문헌 전문 도서관과 박물관을 통해 옛것의 가치와 전통의 소중함을 배우게 될 것으로 기대를 모으고 있다.  경상대는 투명하고 책임있는 행정 구현과 공공 기록물의 안전한 보존 및 효율적 활용을 통해 거점 국립대학으로서 책무를 다하기 위해 지난 4월 남명학관 2층에 ‘경상대 기록관’을 설치했다. 또한 지난해 10월에는 학생상담센터를 개소해 학생들의 대학생활 적응, 성격, 학업, 대인관계, 진로, 정신건강 등에 관한 개인상담 및 집단상담 기능 제공은 물론 자기성장 및 치유, 명상, 힐링 등 대학생활에 꼭 필요한 다양한 프로그램을 제공함으로써 건강하고 에너지 넘치는 활기찬 개척인으로 육성하는 데 기여하고 있다.   ▲경상대학교 전경 항공촬영.    경상대 대학본부 뒤편에 지상 5층 연면적 8152㎡ 규모로 신축 중인 ‘GNU 국제문화회관’은 개교 70주년인 내년 12월 완공될 예정으로 사업이 순조롭게 진행되고 있다. ‘개방형 스포츠 콤플렉스’ 신축 공사도 올해 안으로 설계를 완료하고 착공에 들어갈 예정이다. 북문 부근에는 GNU 어린이집을 신축, 개원해 교직원 복지에 일익을 담당하고 있다.  특히 경상대는 진주 혁신도시에 이전한 대표적 공기업인 한국토지주택(LH)공사와 대학협력형 행복주택 건립을 위한 협약을 체결하고 대학 남문 인근 부지에 200호 규모의 행복주택 건립을 추진하고 있다. 사회초년생과 재학생 등에게 저렴한 임대료의 행복주택을 공급하여 경제적 부담을 해소하게 된다.   ▲지역과 세계와 함께 하는 GNU  경상대는 지역사회의 크고 작은 행사에 참여해 거점국립대로서의 역할을 다해 나가고 있다. 진주 남강 마라톤대회, 창녕 영산 쇠머리대기 시연회 등에 참여하는 것은 물론, 진주 혁신도시 입주 공기업 11곳과 협약을 체결해 산학협력, 공동연구 등을 통해 지역발전에 기여하고 있다.   경상대는 또한 지난 1년 사이에 벨기에 비베스대학, 태국 킹몽큿대학, 중국 장수대학, 베트남 하노이대학 등 8개 대학과 교류협정을 체결해 유학생 유치와 경상대 재학생 파견 등 실질적인 교류를 해나가고 있다. 뿐만 아니라 태국, 중국, 베트남 등 7개국에서 13회에 걸쳐 해외 입학설명회를 개최해 3300여 명에게 경상대의 우수한 교수진과 교육·연구시설 등을 소개하고 유학생 유치에 최선을 다했다.  교육부 국립국제교육원이 주최하는 아세안(ASEAN) 국가 우수 이공계 대학생 초청연수, 주요국가 학생 및 토픽우수자 초청 연수기관 선정 등을 통해 경상대의 교육 인프라가 국제적으로 공인받기도 했다. 교육부와 법무부가 올 2월 발표한 ‘2016년 교육 국제화 역량 인증 평가’에서 인증대학으로 선정된 것도 ‘글로벌 경상대’의 위상을 보여주는 것이다.   ▲학생 취업률 제고에도 만전  경상대는 고용노동부가 주관하는 2017년 대학창조일자리센터 사업을 유치해 경상대 재학생을 비롯한 서부경남지역 청년층을 대상으로 종합적인 취업지원 서비스를 제공하고 있다. 경상대는 앞으로 5년 동안 연간 6억 원, 총 30억 원을 투입해 경남서부 권역의 교육·산학협력의 중심뿐만 아니라 권역 내 청년고용 서비스의 허브 역할을 수행할 계획이다.    ▲이상경 총장. ⓒ경상대학교    이 총장은 대학창조일자리센터 개소식에서 “경상대는 고용노동부의 대학창조일자리센터 사업을 유치함으로써 향후 대학 내 취업지원기관 및 대학 외 유관기관과의 연계를 강화하게 되고 또한 취업·창업 인프라를 강화해 진로취업 서비스를 강화하는 등 경상대뿐만 아니라 경남서부지역 청년층 취업률 제고를 위해 최선을 다할 것”이라고 강조했다.  경상대는 이 외에도 경남도와 ‘도내 대학생 채용확대를 위한 협력’을 체결해 경남권 기업체에 보다 많은 학생이 취업할 수 있도록 공동 노력하고 있다. 현재까지 36개 기업과 ‘경남형 기업트랙 협약’을 체결해 기업 맞춤형 교육과 취업을 직접 연계하고 있다.   그뿐만 아니라 진주 혁신도시 이전 공기업과 합동채용설명회를 개최해 취업 정보 공유의 장을 제공했다. 혁신도시로 이전한 11개 공기업이 모두 참가한 가운데 1600여 명의 학생이 상담부스와 설명회 현장을 찾아 공기업 인사채용 등에 대한 궁금증을 해소했다.   지난 2013~2017년 현재, 진주 혁신도시 11개 공기업에 정규직(무기계약직 포함)으로 취업한 경상대 졸업생은 한국남동발전 40명, 국방기술품질원 40명 등 모두 176명에 이른다. 연도별로는 2013년 28명, 2014년 39명, 2015년 32명, 2016년 43명, 지난 5월 말 현재 34명 등이다. 해마다 40명 안팎의 졸업생이 혁신도시 공기업 취업에 성공하고 있는 것이다. 올해는 더욱 늘어날 것으로 전망된다.   이는 경상대와 혁신도시 이전 공기업이 공동채용(취업) 설명회를 해마다 개최함으로써 채용관련 정보를 학생들에게 제공하는 것은 물론, 정부에서도 지방이전 공기업에 지역출신 인재 채용을 독려해온 덕분이다. 특히 경상대는 혁신도시 이전 공기업뿐만 아니라 지역으로 이전한 대기업, 항공 국가산단 입주 기업 등에 대한 취업률 제고를 위해 행정력을 쏟아붓고 있다.  ▲‘다 함께 행복한 대학’ 만들기  경상대는 ‘다 함께 행복한 대학’을 위해 교수, 직원, 학생에 대한 복지수준을 향상시키고 있다.   경상대는 경쟁력 있는 신임교원과 학문 후속세대를 양성하기 위해 ‘신임교원 연구기반 조성을 위한 운영지침’을 개선해 나가고 있다. 또한 교수 학술활동 경비 및 지원금 지침을 개정해 SCI, SCIE급 논문 게재 시 편당 경비지원을 확대했다. 연구년제 연구비 지원도 내실화함으로써 교수들이 재충전과 동시에 안정적으로 연구과제를 수행하도록 했다.   직원에 대한 복지와 교육지원도 늘려나가고 있다. 지난 2월에는 행정직원이 상해 동화대, 싱가포르 국립대를 방문해 팀별 문제해결 과제를 수행하며 글로벌 역량을 강화했다. 직원의 전문성을 강화하기 위해 역량기반 교육훈련 체계를 구축하고 직급별 리더십 교육을 실시하고 있다.    ▲이상경 총장. ⓒ경상대학교    학생생활관은 숙식만 해결하는 생활관의 개념을 넘어서고 있다. 생활관은 학생이 교양을 쌓고 다양한 문화생활을 향유할 수 있는 기회를 제공하기 위해 ‘홈바리스타 원데이 클래스’, ‘니하오 중국어 이지토킹’, ‘겟잇뷰티 네일아트 클래스’ 교양문화 강좌를 마련하여 학생들의 호평 속에 진행했다.   뿐만 아니라 경상대는 경상대 신문고 설치, 교수 승진 지침의 합리적 개선, 업무 관련 전문성을 중시하는 인사, 연수기회 확대와 포상-승진 제도의 합리화, 신임교수 채용 제도 개선 등을 추진하고 있다. 이를 통해 모든 구성원들이 다 함께 행복한 생활을 해나갈 수 있도록 하겠다는 것이다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ⓒ한국도로공사 전북본부      권혁(55) 한국도로공사 전북본부장이 10일 취임식을 갖고 업무에 들어갔다. 권 신임 본부장은 전주 출신으로 서울대학교 농업토목공학과와 KAIST 대학원 토목공학과를 졸업했으며, 도로공사 입사 이후 광주지사장과 밀양울산건설사업단장, 본사 품질환경처장을 역임했다. 권 본부장은 취임사를 통해 "국민과의 최우선 약속인 안전 강화를 위해 과학적인 유지관리로 교통사고를 최소화하고, 완벽한 재난관리체계 구축과 작업장 안전사고 예방에 완벽을 기하겠다"고 다짐했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      순천시의회 주윤식 부의장(2선)은 지난 13일 문재인 대통령의 대선 공약인 한전공과대학(켑코텍·Kepco Tech)의 순천 유치를 위한 가칭 한전공대순천유치시민위원회(이하 한전공대유치위) 발족을 촉구하고 나섰다.    ▲순천시의회 주윤식 부의장     문재인 대통령의 공약인 한전공대는 한국전력이 2022년 개교를 목표로 5000억 원을 투자해 설립하는 공과대학으로 ‘마스터 플랜’ 수립을 위한 글로벌 컨설팅 용역이 진행되고 있다.   정부는 한국과학기술원(KAIST), 포항공과대학(POSTECH)에 버금가는 신재생녹색에너지전문대학으로 발전시킨다는 계획이다.   이에 주 부의장은 “한전공대 유치를 위한 범시민 추진위원회인 한전공대유치위 발족을 제안하고 유치위 구성 및 운영을 통해 한전공대 순천 설립을 반드시 성사 시켜야한다”고 강조했다.   주 부의장은 “한전공대 설립은 광주·전남의 도시 불균형 발전을 해소할 수 있는 문재인 정부의 획기적 공약으로 교육도시인 순천으로 유치해야 한다”며 당위성을 호소했다.   그는 또 “설 이후 시민과 정치인, 시민단체 등의 참여를 통해 한전공대유치위를 구성해 지역사회 차원의 추진역량을 결집하자”고 촉구했다.  특히 그는 “한전공대가 나주와 광주 인근인 전남중부권에 설립되면 인구와 산업, 공공기관 등의 편중이 심화되는데다 무안도청 이전으로 동부권 주민들이 소외받는 현실에서 한전공대 순천 유치로 지역발전의 균형을 이뤄야한다”고 강조했다.   끝으로 주 부의장은 “지역경제활성화 등 지역에 미치는 파급효과를 극대화하기 위해 한전공대 부지 선정과 입지 여건 및 기반시설 등에 관해 지역사회의 활발한 논의가 이뤄져야 한다”며 “지역사회 차원의 타당성 용역을 추진하고, 학교 유치를 위해 정부 및 정치권과의 긴밀한 협조체계를 구축해 나가야한다”고 피력했다.   한편 주윤식 순천시의회 부의장은 2선 의원으로 활발한 의정활동으로 주목받고 있으며, 문재인 대통령 선거 당시 선거대책본부장을 맡아 왕성한 활동을 펼치는 등 문재인 정부 창건에 기여한 바 있다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      헌정 사상 처음으로 파면된 박근혜 전 대통령이 그동안 받은 명예박사학위의 취소 여부에 관심이 쏠린다. 15일 주요 대학 등에 따르면 박 전 대통령은 한국과학기술원(2008년), 부경대(2008년), 서강대(2010년)에서 각각 명예박사학위를 받았다. 지난해 11월 국정농단 사태가 불거진 이후 재학생을 중심으로 학위 취소 요구가 있었지만 해당 대학은 미온적인 입장이다. 박 전 대통령은 2008년 11월 21일 한나라당 전 대표 자격으로 부산 부경대를 방문해 명예정치학박사 학위를 받았다.학위 수여 당시에는 대학 입장에서 상징적 의미가 컸지만, 탄핵 파문으로 상황이 달라졌다. 지난해 12월 박 전 대통령의 학위 수여를 기념해 대학본부 앞에 기념수와 함께 설치된 기념비석에 붉은색 스프레이 페인트가 칠해진 게 확인돼 철거되는 일이 발생했다.부경대 학칙을 보면 명예박사학위를 받은 사람이 그 명예를 손상한 경우에 관련 위원회 심의를 거쳐 학위 수여를 취소할 수 있다고 돼 있다. 대학 관계자는 "지난해 연말에 박 전 대통령의 명예박사학위를 취소할 수 있는지를 알아보려고 학칙을 확인한 적이 있다"며 "아직 내부적으로 정해진 지침은 없다"고 말했다.박 전 대통령의 모교인 서강대에서는 지난해 11월 학부와 대학원 학생들이 학교 측에 박 전 대통령의 명예정치학박사 학위 취소를 요구했다.서강대 전자공학 1970학번인 박 전 대통령은 2010년 4월 17일 개교 50주년 기념식에서 한나라당 전 대표 자격으로 명예정치학박사 학위를 받았다.서강대 학부·대학원 총학생회와 정치외교학과 운영위원회 등 27개 학생회·모임은 지난해 선언문에서 "법과 제도를 부정하고 민주주의를 위협한 박 대통령에게 '서강'의 이름으로 명예를 논할 수 없고 서강대 정치학 명예박사 학위를 인정할 수 없다"고 주장했다. 부경대와 마찬가지로 서강대 학칙에도 '학위를 받은 후 그 명예를 손상할 경우 총장이 학위를 취소할 수 있다"고 돼 있다.대학 관계자는 "관련 학칙은 있으나 현재까지 박 전 대통령의 명예박사학위 취소를 검토한 바는 없다"고 설명했다.박 전 대통령은 2008년 2월 29일 한국과학기술원(KAIST) 졸업식에서 명예이학박사 학위를 받았다. KAIST 설립 이후 첫 여성 명예박사 학위였다. 지난해 11월 카이스트 학생들은 '박근혜 KAIST 명예박사 철회촉구대회'를 열었다. 학교 관계자는 "명예박사학위 수여에 대한 학칙은 있으나 해당 학위의 박탈에 대한 학칙은 없다"고 설명했다. 박 전 대통령은 국내 3개 대학 외에 국외에서 대만 중국문화대 명예문학박사(1987년), 독일 드레스덴공대 명예법학박사(2014년), 프랑스 파리6대학 명예이학박사(2016년) 학위를 받았다. 부산대 정치외교학과 김진영 교수는 "소정의 학업을 완수하고 받는 박사학위와 대학본부의 자체 판단으로 수여하는 명예박사학위는 본질적으로 다르지만, 재학생이나 동문 입장에서 명예롭지 못한 사람이 같은 대학의 명예학위를 갖고 있다면 싫을 것"이라고 말했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 오픈벤처랩(Open Venture Lab)’개소식 ⓒKAIST       KAIST가 생계형 위주의 창업을 지양하는 대신 지속가능한 기술기반의 창업환경 구축을 통해 국가차원의 일자리 확대와 강화에 기여하기 위해 일반 국민을 대상으로 개방형 창업지원 프로그램을 운영한다.  KAIST(총장 신성철)는 4일 대전 문지캠퍼스에서 스퀘어미터 여정현 대표 등 예비창업자와 안성태 K-스쿨 교수 등 멘토 그룹, 김병윤 창업원장과 최경철 산학협력단장 등 주요 보직교수가 참석한 가운데 ‘오픈벤처랩(Open Venture Lab)’ 개소식을 가졌다.  오픈벤처랩은 기술창업에 도전하는 일반 국민들을 대상으로 일정기간 비즈니스 트레이닝을 제공하는 창업지원 프로그램이다.  이 프로그램의 지원을 받는 예비 창업팀은 KAIST로부터 ▲창업 준비공간은 물론 ▲국내·외 우수 네트워크 연계 ▲전문적인 창업 프로그램 ▲ 필요시 KAIST 보유기술 이전 등 각종 혜택을 제공 받을 수 있다.  KAIST는 오픈벤처랩 가동을 위해 사회적 가치창출을 추구하는 아이디어를 가진 5명 이하의 예비 창업팀을 대상으로 지난 8월 27일부터 9월 12일까지 약 3주간의 공모를 진행했다.  총 13개의 지원팀 중 심사위원단의 평가를 거쳐 스퀘어미터(대표 여정현) 등 8개 예비 창업팀을 선정했는데 이 팀 중에는 여성창업 2개 팀과 고교생 창업 1개 팀이 포함됐다.  8개의 예비 창업팀은 10월부터 12월까지 3개월간 창업 기초교육 및 멘토링 위주로 이뤄지는 ‘프리오픈벤처랩’과정을 훈련받은 뒤, 이후 9개월간 창업실전 트레이닝이 집중되는 ‘오픈벤처랩’과정을 거치게 된다.  오픈벤처랩 운영기간 중에는 스타 창업가에서 창업전문 교수로 변신한 안성태 KAIST 교수(K-School) 등 7명의 멘토단이 조력자로 나선다.  안 교수는 스탠퍼드대 재료공학 박사 출신으로 내셔널세미컨덕터(미국)·샤프(일본)·삼성전자 등 글로벌 반도체 기업에서 근무했다. 지난 2000년에는 미국 실리콘밸리에서 모바일 디스플레이 구동 칩을 개발하는 ‘리디스테크놀로지’를 창업해 2004년에 매출 약 1억 5000만 달러(약 1620억 원) 규모로 성장시켜 나스닥에 상장시킨 경력의 소유자다.  KAIST는 예비 창업팀이 1년여의 훈련과정을 모두 마치게 되면 이중 우수한 창업팀을 선발해 문지캠퍼스에 있는 창업보육센터에 입주시키는 등 창업을 위한 기초 교육과정에서부터 본격적인 사업을 추진할 수 있는 비즈니스 인큐베이팅까지 창업에 필요한 모든 과정을 단계별로 제공할 방침이다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      부산 기장이 다시 핵 시설로 몸살을 앓고 있다. 2010년 이명박 정부 시기 스마트 원자로 수출 기술 실증과 방사선 동위원소 생산을 목적으로 시작된 '수출용 연구용 원자로' 사업의 건설 승인이 이뤄지면서 지역사회에서 논란이 거세지고 있다. 탈핵 에너지전환을 기치로 내건 문재인 정부지만 수출용 연구용 원자로는 탈핵 정책에서 비켜나있다. 여기서 끝이 아니다.상업용 원전 이외의 분야, 특히 원자력 연구 개발은 여전히 탈핵정책의 사각지대에 가깝다. 한 예로, 최근 정부의 지원 아래 초소형 원자로 연구가 시작되었다. 울산과학기술원과 경희대, 서울대, 울산대, 카이스트, 국제원자력대학원대학교의 연구진으로 구성된 초소형 원전 연구단은 7월 2일 국제원자력기구(IAEA) 제17차 혁신 원자로 및 핵연료주기에 관한 국제프로젝트(INPRO, International Project on Innovative Nuclear Reactors and Fuel Cycles) 포럼에서 자신들의 구상을 밝혔다. 이 자리에는 과학기술정보통신부 문미옥 제1차관이 참석해 중소형 원전의 비전에 공감을 표시했다. 초소형 원자로 연구가 과학기술정보통신부와 한국연구재단이 올해 시작한 원자력융합기술개발 사업에 선정된 만큼 놀랄 일은 아니다. 그렇게 27억 원 이상의 연구개발비가 초소형 원자로 연구에 투입되었고, 앞으로 최소 4년간 더 지원을 받을 예정이다.문제는 초소형 원자로 연구의 필요성, 그리고 초소형 원자로의 상용화 가능성에 의문이 제기되지 않을 수 없는 상황이라는 데 있다. 언론 보도에 따르면, 초소형 원전 연구단은 납-비스무스를 냉각재로 사용하는 20MW 규모의 소형 원자로를 개발할 계획이다. 개발에 성공할 경우, 소형 원자로는 쇄빙선이나 부유식 원전에 쓰일 수 있다고 한다. 그러나 초소형 원전 연구단과 원자력계의 기대와 달리 소형 원전의 전망은 밝지 않다. 소형이라고 해도 핵물질을 사용하는 이상 까다로운 안전 규제를 피할 수 없다. 옹호론자들은 소형 원전이 경제성은 떨어지지만 대형 원전보다 투자비가 적게 드는 만큼 송전망 연결이 어려운 지역에서 유용하게 쓰일 수 있다고 주장한다. 하지만 분산형 재생에너지나 LNG 복합 화력 등을 놔두고 번거로운 원자력 안전 규제까지 감수하면서 굳이 소형 원전을 선택할 이유가 마땅치 않아 보인다. 소형 원자로는 핵잠수함이나 항공모함 등 군사적 용도로의 전용이 용이한 만큼 핵무기 미보유국이 쇄빙선이나 상업용 선박에 소형 원자로를 이용하기도 어렵다. 실제로 원자력 쇄빙선은 러시아에서 몇 척 운영되고 있을 따름이다. 전 세계적으로 소형 원자로 모델이 수십 개 제시되고 있는 만큼 납-비스무스 원자로가 성공한다는 보장도 없다. 이처럼 전망이 불투명한 곳에 국가의 연구개발비를 투입할 필요가 있을까?   ▲ 국내 개발된 소형 원자로 '스마트(SMART)'의 내외부 모습. ⓒ한국원자력연구원   그동안 원자력계는 연구개발의 필요성과 개발 가능성이 적은 분야에도 연구개발비를 쉽게 사용해왔다. 특혜에 가까운 지원이 가능했던 것은 1kWh당 1.2원씩 부과되는 원자력연구개발기금을 통해 재원을 안정적으로 확보할 수 있었기 때문이다. 유사 사례를 찾기 힘든 원자력연구개발기금은 1996년 원자력연구소가 사업 이관을 대가로 얻어낸 것이다. 1980~90년대 원자력연구소는 원자로 계통설계, 핵연료 설계 사업 등에 참여하면서 연구비를 충당해왔다. 그러나 기초 연구를 담당하는 원자력연구소가 사업에 참여할 명분이 약했던 만큼 계속 사업 이관 요구를 받았다. 하지만 원자력연구소는 사업 이관을 끈질기게 거부했고, 결국 정부가 원자력연구개발비를 제도적으로 보장하는 타협책을 제시하고서야 갈등이 풀렸다. 원자력연구개발기금 덕분에 원자력계는 연구개발의 필요성이나 개발 가능성이 낮은 분야에도 쉽게 예산을 투입할 수 있었다. 그렇게 스마트 원전 개발에 수천억 원이 쓰였다. 지금까지 7000억 원가량 투입된 것으로 알려진 파이로 프로세싱과 소듐냉각고속로 연구개발사업이 지속될 수 있었던 것도 원자력연구개발기금 덕분이었다. 다른 나라들은 폐기하거나 시도하지 않는 사업이라도 일단 예산이 투입되면 개발 기대가 확대 재생산되면서 계속 연구개발비가 투입되었다. 반핵운동의 힘은 여기까지 미치지 못했고, 사회적 감시는 작동하지 않았다. 최근에서야 파이로 프로세싱과 소듐냉각고속로가 거의 유일하게 도마 위에 올랐지만 2020년까지 사업이 계속되는 것을 막을 수 없었고, 잠정적으로 실증로 건설에 추가 예산을 투입하는 않는 선에서 봉합되었다.문재인 정부 들어서면서 원전 안전, 원전 해체, 방사선 동위원소 활용 등을 집중 육성하는 방향으로 원자력연구개발의 방향 전환 시도가 일어나고 있다. 연구개발비 배분에 있어 일정한 변화가 감지되는 것도 사실이다. 하지만 원자력융합기술개발이라는 그럴 듯한 이름으로 초소형 원자로 연구가 진행되는 데서 드러나듯이 문제가 온전히 해결되지는 않은 듯싶다. 나아가 원자력연구개발기금의 개편과 같은 구조적인 문제는 아예 논의의 대상에 오르지 못하고 있다. 그 사이 원자력계는 좋았던 시절로 되돌아갈 기회를 틈틈이 엿보고 있다.한발 더 나가자면, 원자력연구개발기금 개편은 결국 탈핵에너지전환에 부합하게끔 전기요금제도를 개편하는 문제와 맞닿아있다. 원자력연구개발기금은 부과금의 형태로 전기요금에 포함되어 있기 때문에 원자력연구개발기금을 축소·폐지하기 위해서는 부과금 체계를 바꿔야한다. 한편 사회적, 환경적 비용을 반영하고 에너지 전환 비용을 마련하는 차원에서 전기요금의 부과금과 조세를 조정할 필요성이 커지고 있다. 이미 덴마크나 독일의 경우, 각종 부담금과 세금을 늘려 전기 소비를 억제하는 동시에 에너지 전환 비용으로 사용하고 있다. 전기요금 인상 없는 에너지 전환을 표방하는 정부가 나설지 모르겠지만, 전기요금의 부담금과 조세 체계 개편은 탈핵에너지전환의 과정에서 언젠가는 부딪칠 문제임에 틀림없다. 사각지대에 놓인 원자력연구개발비 문제, 그리고 퇴행적으로 진행되는 주택용 전기요금 누진제 논의에 개입할 수 있는 연결고리를 계속 찾아야하는 이유도 여기 있다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      아침 출근 준비에 바쁜 와중에 양치질하며 거울을 바라보는 것만으로 날씨나 중요한 뉴스, 유튜브 영상 등을 확인할 수 있다면 큰 도움이 될 것이다.        ▲ KAIST 전산학부 신인식 교수와 김효수 연구교수팀이 스마트폰 기반의 터치 사운드 위치파악 기술을 개발했다 ⓒKAIST    KAIST 전산학부 신인식 교수와 김효수 연구교수팀이 이를 현실화하는 스마트폰 기반의 터치 사운드 위치파악 기술을 개발했다.  이 기술은 사람들이 항상 휴대하는 스마트폰, 태블릿 PC 등을 사용한 기술로, 언제 어디서나 책상 등 주변 사물들을 가상 키보드로 활용해 장문의 문자, 메일 등을 손쉽게 작성할 수 있고 체스와 같은 보드게임도 즐길 수 있다.  또 단순 디스플레이 기능만 제공하던 스마트 TV나 거울과 같은 스마트기기에 터치 입력 기능을 삽입해 좀 더 편리하고 효율적인 기기 활용을 할 수 있다.  연구팀이 개발한 시스템은 지난 11월4~7일 중국 선전에서 열린 모바일 및 센싱 분야의 최고 권위 국제학회 ACM SenSys에서 발표돼 호평을 받았으며, 우수성을 인정받아 ‘베스트 페이퍼 러너-업 어워드(best paper runner-up award)’를 수상했다.  연구팀은 사용자가 손톱 등으로 사물을 터치했을 때 발생하는 터치 충돌 소리가 고체 표면을 통해 전달되는 과정을 분석했다.  소리가 공기를 통해 전달될 때와는 달리 고체 표면에 전달될 때에는 주파수에 따라 다른 속도로 전달되는 분산(dispersion) 현상을 겪는다.  분산 현상으로 인해 주파수별로 소리 도달 시간 차이는 소리 전달 거리에 비례해 증가하며, 주변 소음이 변화해도 비례 관계는 변하지 않는다.        ▲거울을 터치스트린으로 사용하는 시험 ⓒKAIST    김효수 연구교수는 이러한 관찰에 기반해 고체 표면을 통해 전달된 터치 소리를 스마트폰에 녹음하고 간단한 조정 과정을 통해 주파수별 소리 도달 시간 차이와 소리 전달 거리의 관계를 파악했다.  이후 이 값을 이용해 사용자의 터치 입력 위치를 정확하게 계산하는 기술을 개발했다.  개발한 시스템은 약 17인치의 터치스크린에서 평균 0.4cm 이내의 측정 오차를 보였다.  특히 나무 책상, 유리 거울, 아크릴 보드 등 다양한 종류의 사물에서 주변 물체의 위치나 소음이 변하는 상황에서도 항상 1cm 이내의 측정 오차를 기록하는 정확성을 보였다.  특히 기존 기술이 터치 입력 위치파악에만 수백 초 소요되는 것과 달리 정확성과 편리한 사용을 위해 약 10초 이내의 간단한 조정을 통해 기술을 적용하는 데 성공했다.  신 교수는 “우리가 주위에서 흔히 볼 수 있는 거울, 책상, 벽 등의 표면을 마치 터치스크린처럼 사용할 수 있다면 재미있고 유용한 앱들이 많이 활성화될 것”이라며 “이 기술은 마이크로폰 3~4개 설치만으로도 터치 입력을 가능하게 하는 새로운 터치 인터페이스 기술”이라고 설명했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2016~2017년은 의회권력과 행정권력이 선거를 통해 교체되는 시기이다. 하지만 여기에는 통상적 절차 이상의 중요한 의미가 있다. 지금의 정치적 시대 상황을 한마디로 규정하면 '삶을 바꿔야겠다는 대중의 강렬한 열망'이다. 더 이상 이대로는 살 수 없다는 고통스러운 절규, 사회를 바꿔야 한다는 요구, 세력(리더십)을 교체해야겠다는 문제의식이다. 이런 열망들은 십수 년 전부터 발아되고, 축적되고, 내재화되어 온 것들이다. 이는 2016~2017년을 대중의 삶을 근본적으로 변화시키는 체제 전환의 발판으로 삼을 것을 요구한다.이 속에서 나타나는 중요한 특징은 '보수우위 구도의 점진적 소멸'이다. 지금까지 많은 사람들이 한국사회를 '보수 쪽으로 기울어진 운동장'으로 규정해 왔다. 야권의 정치인들은 그 같은 규정을 방패막이로 삼아 그 속에 안주해 왔다. 필자가 이미 수년 전부터 주장해 온 바지만, 다시 한 번 말하자면 그 같은 담론은 즉각 폐기되어야 한다. 국가기구, 언론, 재정기반, 지지층의 조직화 상태 등에서 한국사회의 지형이 보수 쪽으로 기울어져 있음을 부인할 수는 없다. 그러나 더 중요한 것은 대중의 마음이 오히려 그 반대로 기울어져 있다는 사실이다. 대중은 지금까지의 보수패권의 통치로는 대한민국이 더 이상 앞으로 나아갈 수 없다는 것을 간파하고 있다. 국가주권 하나 감당하지 못하고 자신을 끊임없이 비하하면서 강한 것에 재빠르게 굴종하는 사대성, 기득권의 독식에만 몰두하면서 국가공동체에 대한 사랑과 헌신을 쏟아본 적이 없는 천민성, 자신은 법과 규칙을 적당히 뭉개면서 약자에게는 법을 내세워 호통치는 배타성, 보수의 이런 핵심적 특징들은 대중의 변화 열망과 갈수록 멀어지고 있다.'보수=부패, 진보=무능'이라는 경험칙도 이미 깨졌다. 이명박의 국민성공시대, 박근혜의 국민행복시대가 말짱 거짓과 기만에 지나지 않았다는 것을 대중은 몸서리치게 경험하고 있다. 그럼에도 보수=부패, 진보=무능이라는 프레임이 여전히 지속되고 있는 것은 여당과 야당의 권력기술의 차이 때문이다. 바로 이 같은 시대 구조의 흐름은 선거정치의 공간에서 보수와 진보의 역학구도를 지속적으로 변화시켜 왔다. 진보가 유능한 것은 아니지만, 보수 가치에 대한 회의와 변화에 대한 강한 열망은 보수와 진보가 선거공간에서 거의 대등한 일대일 대결구도를 형성할 수 있게 만들었다. 1997년 최초 집권 때는 보수 대 진보가 '6:4' 정도의 구도였고 집권을 위해 DJP연대라는 변칙이 불가피했으나 오늘날에는 적어도 '5:5구도'에 가깝게 바뀌었다. 물론 야권정당의 취약과 무능으로 인해 '5:5구도'가 중대선거이거나 바람이 불 때만 형성되고 일상적 시기에는 잠복하는 약점이 있지만 말이다. 아래 표에서도 확인할 수 있지만, 2010년 지방선거 이후 지금까지 중대선거의 공간에서 진보적 가치와 의제가 지배적 이슈가 되고, 양대 진영 간 득표율이 지속적으로 일대일 구도를 재현하고 있는 현상은 정치지형이 '더 이상 기울어진 운동장'으로만 파악할 수 없음을 나타내고 있다. 특히 2016~2017년은 보수 리더십이 고갈되는 시기이다. 보수진영은 민주정부에 대한 대중의 실망감을 활용하여 과거 보수정권에 대한 향수를 복제해냄으로써 이명박-박근혜 정부로 이어지는 리더십을 창출하는 데 성공했다. 그러나 더 이상 그런 복제는 불가능하게 되었다. 두 번에 걸친 복제가 대중에게 매우 실망스러운 결과를 가져다주었기 때문이다. 이에 따라 보수진영은 당분간 집권을 위한 새로운 국민적 리더십을 재생산해는 데 커다란 어려움을 겪을 전망이다. 이상과 같은 이유로 우리는 2016~2017년을 '권력교체'라는 통상적 절차의 의미로 파악해서는 안 된다고 주장한다. 대중의 열망을 정확히 실현해내고 시대정신을 구현해 내는 체제전환의 계기로 만들어야 한다고 보는 것이다. 얼마 전 카이스트(KAIST) 주최 토론회에서 박성원 박사가 발표한 20~34세 청년층 대상 설문조사 결과에 나왔듯이, 2016~2017년은 "붕괴, 새로운 시작"의 기점이 되어야 한다. 새정치연합은 잘못된 길로 가고 있다그동안 보수패권에 대한 대중의 회의와 불신은 대안세력에 대한 모색으로 끊임없이 표출되어 왔다. 대중의 요구가 반사적으로 표출되어 온 대상은 일차적으로 새정치연합으로 대표되는 제1야당 세력이다. 새누리당을 제외하고 국가를 맡길 수 있는 유일한 현실적 대안이었기 때문에 대중은 반복적으로 열망을 투사해 왔다. 지금도 마찬가지다. 그러나 그 같은 기대는 번번이 실망과 좌절로 귀결되어 왔다. 특히 2012년 대선 이후 새정치연합(민주당)은 정체와 퇴행의 길을 걸어왔다. 김한길-안철수 대표체제는 '중도·보수적 외연의 확대'를 지향하는 정치노선을 채택했다. "민생을 지향하는 새로운 노선"이라는 수사가 포장지로 입혀졌다. 그러나 그들은 대중이 겪는 고통스러운 현실에 맞서 치열하게 싸우지 않았다. 스스로가 천명한 '거짓 대 약속'의 구도는 온데간데없이 실종되고 말았다. 박근혜 정권의 기초선거 공천폐지의 약속 파기는 물론이고, 경제민주화 공약의 후퇴, 세제개편의 졸속 추진, 원‧하청관계에 대한 개혁의 부진, 무늬와 실질이 괴리된 이상한 공기업 개혁 등 거짓된 약속들과 치열하게 싸우지 않았다. 오직 공천의 사유화와 장난질, 그리고 재보선 참패라는 앙상한 결과만 남게 되었다. 그 후 문재인 대표 체제가 출범했다. 다소의 변화가 기대될 만도 했다. 그러나 문재인 대표 체제의 지도노선 역시 김한길-안철수 지도부와 별반 다르지 않아 보인다. 지금 문재인 지도부는 '경제정당'과 '안보정당'을 두 축으로 한 정치노선을 천명하고 있다. 두 축의 조합은 다분히 문재인 대표의 집권전략의 성격을 암시하고 있다. 그것은 한마디로 '중도주의로의 선회'이자, '정권교체를 위한 보수층의 비토 회피전략'이라고 읽힌다. '경제정당'으로의 정체성 전환은 상당히 중요한 의미가 있지만, 그것은 구호와 이벤트로 되는 것이 아니다. 첫째, '어떤' 경제정당이냐는 것이다. 경제를 강조한다고 모두 선이 아니다. 과거 독재정권들, 민주화 이후 이명박 정부, 박근혜 정부는 경제와 민생을 핑계로 민주주의를 탄압하거나 후퇴시켰다. 야권진영에서도 과거 열린우리당이나 안철수‧김한길 대표체제가 중도실용이라는 이름으로 개혁적 정체성을 혼란스럽게 만들다가 침몰하고 말았다. 경제정당론이 진정한 의미를 갖기 위해서는 두 가지 선결조건이 충족되어야 한다. 하나는 과거 민주정부 시기 양극화를 심화시킨 데 대해 분명한 반성의 과정이 전제되어야 하며, 가깝게는 현재까지도 새정치연합이 경제이슈를 다루는 데 왜 번번이 실패하고 있는지 확실하게 규명되어야 한다. 다른 하나는 '경제정당'이라는 새로운 정체성을 세우고 주도할 수 있는 인적 역량, 즉 전략그룹과 전문가집단을 당의 중심에 포진해야 한다는 것이다. 이는 보스와 계파에 충성하는 당의 지배구조를 바꿔 대중의 삶의 현장 속에서 이슈를 만드는 능력을 발휘하지 못하면 살아남을 수 없게 체질과 구조를 혁신한다는 중대한 전환의 의미가 담겨 있다. 그러나 새정치연합의 새 지도부가 그런 선결조건을 갖추기 위해 모종의 노력을 하고 있어 보이지는 않는다. 과거 참여정부 시절 재벌과 관료집단 그리고 신자유주의에 경도되어 끌려갔던 일에 대해서 명확한 반성을 한 적이 있는지 기억나는 게 없다. 지난 대선 때도 '박정희냐 노무현이냐'로 논쟁구도를 만들고 자기들의 가치를 고수하는 데 급급했었다는 기억이 남는다. 지금도 새정치연합은 전세대란, 담뱃값인상, 가계부채, 노동시장구조개선, 무상급식중단 등의 이슈를 다룸에 있어서 왜 그렇게 자신들의 태도가 불투명하고 무능한지, 왜 그렇게 서민의 삶을 보호하려는 의지가 없어 보이는지 전혀 해명하지 않는다. 경제정당을 제대로 하기 위해 당의 체질과 인적 자원을 대대적으로 혁신하겠다는 의지를 찾아보기는 더욱 어렵다. 오히려 계파 간 갈등을 관리하기 위해 소지역주의를 내세워 지분을 요구하는 당내 구세력들에게 구차한 모습을 드러내고 있는 모양새다. 새 대표체제의 정치노선을 더 예민하게 드러내는 부분은 '경제정당'보다 오히려 '안보정당'일는지 모른다. 집권전략의 핵심은 사실상 여기에 있다고 봐야 한다. 그것은 '지난 대선에서 집토끼의 지지는 매우 견고하지만 보수층의 비토가 더 컸기 때문에 집권에 실패했다'는 내부 평가와 연결되어 있을 것이다. 만약 이런 판단이 연계되어 있다면 새 지도부는 정치‧안보이슈는 물론이고 경제이슈까지를 포함해서 어떤 이슈에 대해서도 결코 무리수를 두려고 하지 않을 것이며, 보수층에게 '비토'당할 건수를 만들지 않고 그들을 달래는 일을 중심선으로 해서 움직여 나가게 될 것이다. 실제로 요즘 문재인 대표의 행보는 이런 해석을 뒷받침해주고 있다. 최근 4.29재보선 과정에서 야권진영의 자중지란이 심화된 것도 궁극적으로 새정치연합 지도부의 전략과 관리방식이 자초한 결과였다. 일차적으로는 엉뚱한 곳에 전선을 쳤다. 박근혜 정부와 새누리당의 실정을 규탄하고 민생이슈를 점화시켜 선명한 정치구도를 만들기보다는 오히려 당의 원로와 구세력 그리고 지도부를 총출동시켜 집 나간 옛 동지를 제압하러 다녔다. 애초 극복해야 할 대상을 분명히 하지 않고, 가치노선을 선명하게 만들지 않았으며, 내부 반란을 진압하고 텃밭을 사수하는 데 전력을 투입했다. 오로지 전패 모면, 텃밭 사수의 방어적 전략운영은 야권내부의 이전투구와 자중지란을 심화시켰다. 비록 최근의 성완종 스캔들이 새정치연합의 숨통을 틔워주었지만, 그 같은 내생적 약점은 총선 같은 큰 선거에서 커다란 후과로 나타날 개연성이 크다. 정권교체의 담론을 경계한다 무슨 뜬금없는 소리냐고 반문할 수 있지만, 2016~2017년의 여정에서 우리는 '정권교체' 담론의 함정에 빠지는 것을 무엇보다 경계해야 한다. '정권교체' 담론은 진보-야권진영의 정체성을 혼란에 빠뜨리고 자중지란으로 몰고 가는 치명적 독이 될 수 있다. 정권교체 담론은 양면적 가치를 갖고 있다. '정권교체를 위해서라면 독사과라도 먹겠다'는 태도가 특히 위험하다. 보수층의 비토를 회피하는 것이 정권교체의 핵심전략이 된다면 정권교체 자체도 위험해질 수 있다. 최근 문재인 대표가 보여준 행보는 불길한 전조이다. 이승만-박정희 묘소참배, 조선일보 방상훈 회장을 조용히 만난 것, 천안함 관련 발언, 그리고 성완종 파문에 대한 다분히 의도적인 것 같은 미지근한 대응 태도는 정권장악을 위해서라면 기꺼이 독배를 들지도 모르겠다는 의구심이 생기게 한다. 천안함 관련 발언만 해도 그렇다. '진실'을 규명하는 차원에서 합리적 의심의 권리가 대한민국 자유민주주의 헌법의 가치와 명백히 조화되는 것임을 이야기하는 대신에 수구세력들의 '종북몰이'와 색깔론을 회피하는 쪽으로 나아갔다. 단언컨대 종북몰이는 결코 적당히 회피할 수 있는 대상이 아니며, 그럴수록 더욱 옥죄어 오는 족쇄와 같은 것이다. 종북몰이는 비록 어렵고 힘들지라도 원칙을 지키며 싸워야 하는 대상이다. 종북몰이는 한갓 사이비 이념을 빙자한 권력게임에 불과해서 그 자체로 반경제-반민생적이기 때문이다. 지금 새정치연합 안에는 '안보는 보수, 경제는 중도, 사회는 진보'라는 말 틀을 무의식적으로 추종하는 사람들이 많다. 그것은 새누리당 유승민 원내대표의 정치노선과 딱 맞아 떨어지는 것인데, 이런 태도는 정권교체 국면에서 새누리당이 언제든지 선점하고 들어올 수 있는 야권의 아킬레스건으로 남게 될 것이다. 그런데도 지금 새정치연합의 모든 부류들은 친노, 비노, 486 할 것 없이 중도주의의 늪에 빠져있다. 다시 말하면 2016~2017년 우리의 목표는 정권교체가 아니다. 우리의 목표는 특권·배제·불통의 사회질서 아래 만성적 불안과 존엄 상실을 겪으며 살아가는 국민의 삶을 근본적으로 변화시키는 것이다. 이를 위해 사회체제를 바꾸겠다는 '사회교체'의 명확한 비전과 메시지를 만들어가야 한다. 나아가 그것을 달성하기 위한 정치패러다임의 혁명을 지향해야 한다. 사회교체를 주도할 '세력교체'를 요구해야 한다. 기성 정치의 배타적 독과점체제를 허물고, 진보-야권진영 스스로는 수명을 다한 기존의 이념, 정치노선, 조직노선, 대중노선의 전면적 혁신을 추진해야 한다. 국민의 삶을 근본적으로 변화시키지 않고 정권교체만을 말하는 것은 엘리트들의 권력게임에 지나지 않는다. 새누리당은 부자들의 돈벌이를 돕는 일에만 혈안이고 사회적 약자에게 '가만있어라!'고 윽박지르며 대중을 이간질하는 데 골몰한다. 새정치연합은 이를 정치적으로 이슈화시키지도 못하고 있고, 그럴 의지도 박약해 보인다. 우리는 이를 뛰어넘는 대중의 목소리, 주장, 담론을 만들어 우뚝 세워내야 한다. 그것은 '원하라' '말하라' '움직여라' '바꿔라' '얻어라'이다. "삶을 바꾸자!" "사회를 바꾸자!" "세력을 교체하자!" '사회교체' '세력교체'를 위한 혁신기지를 건설해야 한다야권-진보진영의 혁신기지를 건설해야 한다. 혁신기지는 우리의 삶을 바꾸고, 사회를 변혁하고, 세력을 교체하고자 하는 개인, 그룹, 세력들이 모인 정치적 연대체이다. 우리에게 혁신이란 우로 가느냐, 아니면 좌로 가느냐의 논쟁을 뛰어넘는 것이어야 한다. 그런 발상 자체가 진영논리에 갇힌 사고이기 때문이다. 혁신기지는 한편에서는 낡은 진보의 전투적 운동주의와 이념적 진영주의를 극복하고, 다른 한편에서는 낡은 중도의 몰가치적이고 기회주의적 태도를 극복하여, '소통·공유·참여에 입각한 새로운 공동체의 가치'를 실현해 나가는 것이다. 혁신주의자들의 가치 기준은 오직 불합리한 독과점과 배제와 불통의 악습과 비타협적으로 투쟁함으로써 노동과 생명가치의 존엄을 드높이고 상식과 정의에 반하는 특권과 권위주의를 추방하는 것이다. 그리하여 철저히 국민의 삶을 실질적으로 변화시키는 문제해결능력을 중시하는 정치활동을 지향하는 것이다. 혁신주체의 형성을 위한 조건이 어느 때보다 열악한 것은 사실이다. 그러나 변화의 전야는 오히려 고요한 법이다. "역사의 갈림길에 서 있는 지금, 우리는 바른 선택을 할 수 있고 역경들을 맞을 준비가 되어 있다고 믿습니다. 만약 당신들이 제가 느끼는 긴박함을 느끼고 있다면, 조국은 그 약속대로 쇄신되고 길고 긴 정치적 암흑에서 벗어나 보다 밝은 빛을 맞이할 것입니다."라는 오바마 연설문의 한 구절처럼, 비록 소수일지라도 올바른 목표와 전략을 갖고 있다면 세상을 바꿔낼 수 있다. 몇 년 전 &lt;나꼼수&gt;가 수백만 명의 대중을 동원할 때 그들은 불과 수 명에 지나지 않았다. 그들이 좀 더 올바른 비전과 정교한 정치전략을 갖고 있었다면 세상은 지금보다 훨씬 더 많이 변했을 것이다. 야권-진보진영의 혁신기지는 두 가지 목표를 수행해야 한다. 하나는 박근혜 정부와 새누리당 그리고 수구세력들에게 제대로 싸움을 걸어야 한다. 말로만의 경제‧민생이 아니라 실질적으로 대중의 삶을 근본적으로 변화시킬 것을 요구해야 한다. 대중의 삶을 변화시키는 이슈와 의제들을 만들어 던지고, 이를 통해 강력한 대결구도를 만들어야 한다. 그렇게 해서 새정치연합이 못하는 일을 해낼 수 있어야 한다. 그런 점에서 혁신기지는 단순히 '야권교체'를 요구하는 수준을 뛰어넘어야 한다. 다음으로 야권-진보진영 내부의 질서를 재편‧혁신하는 일에 앞장서야 한다. 지금 시점에서 야권 재편은 한국정치 나아가 한국사회를 변화시키는 출발점이자 핵심고리이다. 지금 여권에는 그런 동력이 없는 반면, 야권에는 상대적이지만 가능성이 없지 않다. 이는 여권에 비해 야권이 지닌 중요한 자산이다. 야권 재편을 둘러싼 치열한 내부 담론투쟁과 정치경쟁은 2016~2017년 중대선거 공간에서 야권이 의제, 이슈, 매스컴의 헤드라인을 점거하는 데 도움이 되기 때문이다. 우리는 이미 지난 대선에서 문재인-안철수 후보 사이의 후보단일화 논쟁이 어떻게 그런 효과를 창출했는지 경험한 바 있다. 이번 재보선에서도 아무런 뉴스거리가 되지 않던 광주 서을 선거가 천정배의 출마로 치열한 경쟁선거가 되면서 언론의 조명을 받는 것은 긍정적 현상이다. 분열-통합담론은 기득권자의 프레임이며, 그것으로는 야권이 결코 진정한 혁신과 수권 대안 세력으로 거듭나는 길이 될 수 없다. 내부 경쟁체제를 만들고 국민들의 역동적 참여를 야권으로 끌어들여서 그 정치경쟁에서 살아남은 세력이 야권 전체를 대표하여 총선과 대선으로 가도록 하는 것이 핵심이다. 그렇게 해서 '세력교체'의 시동을 걸어야 한다. 지금 상황에서 중요한 특징의 하나는 야권진영 내에 체제전환의 담론투쟁이 죽어있다는 것이다. 2010년 지방선거를 전후해서 2012년 총선과 대선국면으로 이어지면서 활화산처럼 솟구쳐 올랐던 보편복지, 경제민주화, '안철수현상' 등의 정치담론이 지금은 전혀 활성화 되지 못하고 있는 것이다. 이렇게 정치담론이 황무지상태인 이유는 무엇인가? 여러 가지 이유가 있겠지만 결코 간과할 수 없는 문제는 진보-야권진영의 창조적 파괴와 재편을 위한 동력이 심하게 고갈되고, 그나마 남은 동력들도 기성 야권정당의 공고한 기득권질서 아래에 단단히 억압되어 있다는 사실일 것이다. 따라서 진보-야권진영에 창조적 파괴의 동력이 작동해야 한다. 기성 야권정당이 대중의 엄청난 불신을 받고 있으면서도 대단히 견고한 카르텔을 이뤄 새로운 가치와 인적 자원의 유통을 가로막고 있는 이 현실구조를 타파해야 한다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      자유한국당 내에서 일본의 '무역 보복 조치'와 관련해 WTO 승소 가능성을 장담할 수 없다는 주장이 나왔다. 자유한국당 황교안 대표는 7일 일본의 경제보복 관련 긴급대책회의를 주재하고 "분명한 사실은 이런 일본의 경제보복이 WTO 규정과 국제법 관례에도 맞지 않는 매우 부당한 조치라는 것"이라며 "어떠한 이유와 명분으로도 정당화될 수 없는 만큼 바로 보복조치를 철회하는 것이 마땅하다"고 말했다. 법률가인 황 대표가 WTO 규정에 맞지 않다고 규정했지만, 결이 다른 목소리들이 나왔다. 자유한국당 김현아 원내대변인은 별도 논평을 내고 "정부는 WTO 제소를 검토하겠다며 큰소리치지만 승소 가능성도 장담할 수 없을뿐더러 관련 산업이 붕괴한 후에 WTO 소송에서 이긴다 한들 무슨 소용이 있겠나"라고 주장했다. 김 원내대변인은 "일본의 이번 보복조치는 자유무역정신에 역행하는 비정상적 조치로 마땅히 철회되어야 한다. 하지만, 예상된 일이었고 많은 경고들이 있었음에도 이 지경이 될 때까지 정부 역할을 제대로 못 한 문 정권의 '뒷북' 대응은 답답하기만 하다"고 비판했다. 일본의 경제 보복 관련 긴급 대책회의에서도 황 대표의 인식과 다른 말들이 나왔다. &lt;머니투데이&gt;가 보도한 데 따르면 이날 회의에 참석한 정인교 인하대 교수는 "WTO에 제소해 이길 승산은 거의 없다고 판단한다"며 "일본정부가 수출금지가 아닌 심사를 강화하겠다고 했기 때문"이라고 주장했다. 정 교수는 "더구나 WTO의 최종결심기구인 상소기구의 위원 정원7명인데 연말이면 1명만 남는다"며 "판결하려면 최소 3명이 필요한데 결국 판결이 언제날지도 모르는 상황"이라고 주장했다.또 회의에 참석한 이병태 카이스트 교수는 "정부가 과거 정부들을, 지난 역사를 부정하는 적폐로 보지말고 협약은 협약대로 존중해야 한다"며 "정부가 국민들을 어린애 같은 자존심에 의존하게 하는 태도를 버렸으면 좋겠다"고 문재인 정부를 비판했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ▲인사말 하는 최정우 포스코 회장 ⓒ포스코      포스코는 15일 서울 포스코센터에서 제51기 정기주주총회와 이사회를 열어 이날 재선임된 김신배 사외이사를 이사회 의장으로 선출했다. 포스코는 2006년부터 14년째 이사회 의장을 사외이사로 선임해오고 있다.  또한 사외이사로 박희재 서울대 공과대학 교수를 신규 선임하고, 정문기 성균관대 경영대학 교수를 재선임했다. 사내이사로는 김학동 부사장과 정탁 부사장을 신규 선임하고, 장인화 사장과 전중선 부사장을 재선임했다. 주총 후 열린 이사회에서는 김신배 의장 선임 외에 장인화 사장을 대표이사로 재선임했다.  이날 주주총회에서 최정우 회장은 인사말을 통해 “포스코는 고부가가치 제품 판매를 확대하고 실질적인 원가절감 활동으로 수익성을 제고해 경영목표를 달성하고 미래사업 발굴 활성화를 위한 신사업 추진체계를 확립해 장기·안정적 성장기반을 구축하겠다”고 말했다. 특히 “그룹 신성장 핵심사업으로 육성중인 2차전지 소재사업은 조속한 시일 내에 Global Top Player로 도약할 수 있도록 총력을 기울이겠다”고 강조했다.  해외 주주 대표와 기관투자자 등 국내외 주주 200여명도 주총에 참석했으며 재무제표 승인 등의 안건도 통과됐다. 김신배 의장은 SK텔레콤 대표이사 사장, SK C&amp;C; 대표이사 부회장을 역임한 대표적인 IT분야 기업인으로, 경영능력을 인정받아 SK그룹 부회장을 지냈으며, 2017년부터 포스코 사외이사를 맡고 있다.  박희재 신임 사외이사는 서울대 교수 재직중 벤처기업 SNU프리시전을 설립한바 있고, 산업통상자원부 R&amp;D;전략기획단장, 청년희망재단 이사장 등을 지냈다. 현재 서울대 공과대학 기계항공공학부 교수로 재직중이다. 감사위원으로는 정문기 사외이사가 재선임됐다.  김학동 신임 사내이사는 포스코 광양제철소 선강담당 부소장, SNNC 대표이사, 포스코 포항제철소장, 광양제철소장을 거쳐 올해 생산본부장으로 선임됐다.  정탁 신임 사내이사는 ㈜대우로 입사해 쿠알라룸푸르 지사장, 금속본부장, 포스코 에너지조선마케팅실장, 철강사업전략실장 등을 거쳐 현재 마케팅본부를 맡고 있다.  한편, 이날 포스코는 CEO 직속 자문기구인 기업시민위원회를 출범시켰다. 기업시민위원회는 사외전문가 및 사내외 이사 총 7명으로 구성되며, 분기별 위원회를 개최해 포스코그룹의 기업시민 경영이념과 활동방향에 대해 논의할 예정이다.  초대 위원장에는 김준영 성균관대 이사장이, 사외 위원으로는 장세진 카이스트 경영대학원 및 싱가포르국립대학교 교수와 김인회 인하대학교 법학전문대학원 교수가 각각 선임됐다.  김준영 위원장은 거시경제 분야 전문가로 사회, 교육, 인문 등에 대한 경험이 풍부해 포스코가 추구하는 사회적 가치창출을 위한 적임자로 평가받고 있다.  사외이사인 장승화 서울대학교 법과대학 교수와 박희재 서울대학교 공과대학 교수, 사내이사인 전중선 부사장, 김학동 부사장도 기업시민위원으로 활동한다. 위원회는 포스코그룹의 기업시민 및 지속가능발전을 위한 조언은 물론, 기업시민 활동의 사회적 가치 창출에 대한 성과평가 등의 역할도 수행하게 된다.  포스코는 경제, 경영, 인문사회, 법학 등 각 분야에서 뛰어난 전문성을 보유한 사외 전문가 3인을 위원으로 선임함으로써, 기업시민위원회가 포스코의 기업시민활동이 사회에 필요한 가치를 창출할 수 있도록 전문가적인 조언을 제공할 것으로 기대하고 있다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲바른미래당 신용현 의원 ⓒ신용현의원실       바른미래당 대전시당위원장(직무대행장)인 신용현 국회의원은 과기부의 신성철 카이스트 총장 고발과 관련해 “당사자가 제대로 소명할 기회조차 갖지 못한 것은 문제”라며 과학의 객관성과 중립성을 훼손하는 정치적 물갈이를 우려했다.  한국표준과학연구원장을 역임한 신 의원은 6일 원내대책회의에서 “우리나라의 대표 과학기술 교육기관 카이스트 총장에 대한 과기부의 검찰 고발은 사상 초유의 일 ”이라며 “특히 최근 정부 임명 기관장의 일련의 사퇴와 맞물려 순수하게 바라볼 수만은 없다”고 말했다 .  또 “과기부가 주장한 연구비 이중송금과 제자 편법 채용 의혹에 대해서 당사자가 제대로 소명할 기회조차 갖지 못한 것은 문제”라며 “절차와 규정을 준수하는 사실 여부 파악이 먼저”라고 강조했다 .  신 의원은 “과기부가 신 총장 횡령의혹으로 수사를 의뢰했는데 횡령이 아니라면 당연히 잘못이고, 횡령이라면 관리책임을 면하기는 어렵다”고 질책하고 “빠르고 투명한 수사를 통해 진상이 조속히 밝혀지기를 기대한다 ”고 말했다 .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      진주 국립경남과학기술대(총장 김남경)는 에너지공학과 오현철 교수와 Texas A&amp;M; 대학의 머트 아티란(Mert Atilhan) 교수, KAIST 자패르 야부즈(Cafer T. Yavuz) 교수 공동연구진이 유연하지만 견고한 다공성 공유결합 유기 폴리머(porous covalent organic polymers)를 이용하여 초고효율 메탄(천연가스) 저장 소재를 개발했다고 15일 밝혔다.  해당 내용은 Nature Energy (네이처 에너지, 인용지수(IF) 54.0)의 최신 호인 2019년 7월호에 게재됐다.  천연가스는 액화 또는 압축 방법을 이용하여 저장하고 있으나 비용이 고가이다. 따라서 대안으로 다공성 물질에 흡착해 저장하는 방식에 대한 연구가 많이 진행되고 있다.      ▲경남과기대 에너지공학과 오현철 교수.ⓒ 경남과기대    하지만, 미국 에너지 성(DOE)에서 요구하는 상용화 가능한 목표치(0.5 g g−1, 263 l l−1)에 사용 가능한 저장능력(working capacity)이 도달하는 물질은 현재까지 개발이 안 됐다.  이번 연구에서는 유연하지만 견고한 다공성 공유결합 유기 폴리머를 성공적으로 합성하고 천연가스 저장능력을 측정 했다.  합성된 폴리머의 단단한 성질 때문에 저압에서는 천연가스 저장량이 매우 낮았으나 고압으로 가면 유연한 구조가 열리면서 급격한 천연가스 저장능력 향상을 보여주었다.  해당 결과는 미국 에너지 성에서 요구하는 상용화 가능한 목표치를 상회하는 연구 결과로 새로운 천연가스 저장 시스템 구현에 크게 기여할 것으로 보고 있다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      필자가 3월 4일자 &lt;프레시안&gt;에 기고했던 칼럼(☞바로 가기 : "핵폐기물, 답이 없다")에 대해 카이스트 원자력 및 양자공학과의 윤종일 교수가 &lt;주간조선&gt; 4월 1일자 기고(☞바로 가기 : "[지상논쟁] 사용후핵연료 처리 답이 없는 게 아니라 의지가 없는 것!")를 통해 진지한 비판을 해주었다. 지상을 통한 논쟁 제안에 기꺼이 화답하고자, 그리고 윤종일 교수의 오해 또는 나와의 중요한 의견 차이를 확인할 필요성에서 &lt;프레시안&gt;의 지면을 다시 빌고자 한다.   우선 윤종일 교수는 내가 "과학적 근거가 매우 희박한 비전문가의 말을 인용"하면서 "마치 사용후핵연료 문제 해결에 답이 없기를 희망하는 것처럼 느껴진다"고 썼다. 이런 지적은 절반은 틀리고 절반은 맞을 것 같다. 과학을 모르는 비전문가란 다카기 진자부로 선생은 아닐 테고 아마도 프랑스의 다큐멘터리 감독을 지칭하는 것으로 보인다. 그런데 그가 핵물리학 전공자가 아닐 공산이 크므로 전문가가 아니라고 할 수는 있어도, 사용후핵연료를 다루는 작품을 짜임새 있게 만들 수 있을 만큼 핵발전에 대한 종합적 지식을 갖추었으므로 비전문가라고 매도할 것은 아니라고 본다. 오히려, 자신의 전공 영역 외의 분야에 대해서는(심지어 핵발전과 방사능 관련 주제에 대해서도) 깊은 지식이나 현장 경험이 없는 핵공학자들이 많이 있다. 또한, 사용후핵연료 처리 문제가 핵물리학과 공학의 시각에서만 해결될 수 있는 게 아니라는 것을 다큐멘터리 "영원한 봉인"은 일깨워주고 있고, 나는 인류사적 시간을 초월하는 문제에 대한 역사철학적 관점과 감성을 핵발전을 찬성하는 이들도 조금쯤은 공유했으면 하는 바램을 갖는다는 것을 인정한다. 또한, 나는 사용후핵연료 문제에 답이 없기를 희망하는 것이 아니라 현재로서는 해결 방법을 찾기 어려운 문제라는 나의 판단에 가급적 많은 사람들이 동의하기를 희망한다는 것도 밝힌다.   하지만 윤 교수가 전문적인 식견을 바탕으로 반론을 제기한 것을 나는 기쁘게 읽었고 얼마간 배움을 얻었다. 적어도 윤 교수의 설명은 사용후핵연료를 재처리하여 핵 사이클이 완성되면 폐기물 문제가 해결된다고 주장하는 적잖은 찬핵 논자들이나, 사용후핵연료는 처음 300년간 대부분의 방사능이 소멸되어 손으로 만질 수준이 된다고 주장하는 정범진 교수의 말과는 차원이 다르다. 윤 교수는 플루토늄을 포함하는 사용후핵연료 처리는 생명체가 접근할 수 없는 외진 곳을 찾아서 몇 번의 반감기가 지나는 충분한 시간 동안 격리하는 방법밖에 없다는 중요한 전제에서 출발하기 때문이다.   윤 교수는 사용후핵연료의 처분이 공학적으로 충분히 가능하다는 점을 두 가지 논거를 가지고 설명한다. 하나는 사용후핵연료의 위해도는 방사능 총량이 아니라 방사성 핵종의 지하수 용해도에 좌우된다는 것이다. 다른 하나는 사용후핵연료를 둘러싸는 구리로 된 2차 방벽과 완충재의 3차 방벽 그리고 4차 방벽의 역할을 하는 천연암반 덕분에 유출과 용해를 차단할 수 있다는 것이다. 때문에 그에 따르면 설령 방사성핵종이 녹더라도 지하수를 통해 1미터 정도를 이동하는 데만 수십만 년 이상의 시간이 걸리고 방사능 유출률은 급격히 떨어지게 된다. 그리고 아프리카 가봉 오클로의 천연암반 사례를 통해 자연 상태에서도 이러한 현상이 발견된다는 것을 일러준다. 자연이 스스로 행하는 방사능 차단을 인간이 첨단과학으로 건설하는 더 깊고 견고한 시설이 하지 못할 이유가 없다는 것이다. 그래서 윤 교수는 "예기치 않은 변화조차도 고려하는 게 과학"이며 대중의 막연한 불안감을 이용하여 근거 없는 공포감을 조성하고 전문가들의 과학적 의견보다 비전문가들의 확증편향적 주장을 더 신뢰해서는 안 된다고 조언한다.   그런데 윤 교수가 오해한 것 중 하나는 내가 사용후핵연료 처분장이 미래의 예기치 않은 변화를 감당할 수 있으리란 보장이 없다고 한 것은 그저 심지층 처분시설의 물리적인 건전성과 안전성 유지의 문제를 말한 게 아니라는 점이다. 처분시설 관리를 책임져야 할 국가와 정부가 앞으로 십만년이 아니라 수백년 사이에 전쟁이나 정변 같은 위기 상황에 처해도 사용후핵연료를 안전하게 지킬 수 있을 것인가, 적절한 예산과 기술력이 지속적으로 투입되지 않아도 지진이나 기후격변뿐 아니라 도난이나 인위적 도용을 막을 수 있을 것인가를 묻는 것이다. 극단적인 가정이라고 치부할지 모르겠지만, 예기치 않은 변화조차도 과학기술은 대비해야 하고 10만년 동안 견딜 네 겹에 걸친 방벽을 염두에 두어야 한다고 한 것은 윤 교수다.   윤 교수의 말대로 사용후핵연료를 이대로 방치할 수는 없고, 이를 안전하게 관리할 수 있도록 공학적인 고민과 사회적 합의를 위해 노력해야 한다. 그래서 윤 교수에게 몇 가지 질문을 돌려드린다. 나는 사용후핵연료가 공학 이론적으로 격리 처분될 수 있고 충분한 안전성을 보장할 수 있다는 그의 설명에 상당히 동의할 수 있다. 과거 방폐장 갈등이 한창일 때 서울대 원자핵공학과 교수들이 관악산 암반에 처분장을 둘 수 있다고 제안한 것의 진정성까지도 어느 정도 신뢰한다. 그러나 그것이 지금 한국의 사용후핵연료 처분 방식 결정에 대체 무슨 도움이 되는가?  윤 교수의 설명과 같이 4차 방벽까지 갖춘 부지는 어디에 있는가? 그것은 한국에서 매년 750톤 이상 새로 발생하는 사용후핵연료를 능히 담을 수 있는 크기인가? 또 관악산이 아니라 어느 벽촌 산간이나 외진 어촌이라 하더라도, 이제까지 누적된 것들 말고도 매년 그만큼의 양을 엄청난 부피와 무게의 금속제 보관용기에 담아 처분장으로 옮기는 게 가능할까? 공학적으로 가능하다 하더라도 사회적인 반발과 갈등을 감당할 수 있을까? 그리고 빠질 수 없는 질문, 설계와 시공 뿐 아니라 이송과 관리에 얼마나 돈이 들고 그 돈은 누가 어떻게 부담할까? 왜 그 계산은 아무도 내놓지 않는가? 공학의 영역이 아니어서 인가?  나는 찬핵 진영이 '블랙아웃'과 '전기료 폭탄'이라는 괴담에 의지하지 않기를 바라는 만큼, 핵발전에 반대하는 이들도 비과학적인 괴담에 사로잡히기를 바라지 않는다. 때문에 사용후핵연료 처분 문제가 괴담이 아니기 위해서라면 처분과 관련한 공학적, 사회적, 경제적인 여러 측면들을 투명하게 논의해야 한다고 말하고 싶은 것이다. 나 역시 사용후핵연료 처분이 너무 큰 걱정이지만 윤 교수는 사용후핵연료 처리의 답을 찾을 "의지가 없으니 길이 보이지 않는 것"이라고 질타한다.   의지 박약의 문제일까? 로키마운틴 연구소의 에머리 로빈스는 지금부터 한참 전인 1976년에 &lt;에너지 전략: 선택되지 않은 길(Energy Strategy: The Road Not Taken?)&gt;이라는 저술에서 화석에너지와 핵에너지 중심의 '경성 에너지'와는 다른 재생가능에너지와 효율 중심의 '연성 에너지'의 경로가 가능하고 또 필요하다고 말했다. 40여 년 전과 비교하면 로빈스의 생각들은 많은 부분 상식이 되었고, 그의 글 제목대로 나는 다른 에너지의 길을 찾을 의지를 요청하고 싶다. 그러나 그 길은 더 이상 사용후핵연료 발생을 늘려서는 더욱 요원해진다는 판단을 공유하는 데에서 시작될 것이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      12일, 한국과학기술원을 방문해 채수찬 대외부총장과 새만금 관련 렵력방안을 논의한 김현숙 새만금개발청장(사진 오른쪽)ⓒ새만금개발청      새만금개발청이 시진핑 중국 국가주석의 새만금 방문을 추진하고 있는 것으로 알려졌다.12일 새만금개발청에 따르면 이날 김현숙 청장이 세종시와 대전에 있는 대외경제정책연구원과 한국과학기술원(KAIST, 대전)을 잇따라 찾아 새만금 주요사업 현황을 소개하고, 시진핑 주석의 새만금 방문 방안 등을 논의했다.   김 청장은 대외경제정책연구원의 정철 부원장 등 관계자들을 만나 새만금 한중산업협력단지 활성화 방안 및 새만금 국제포럼 개최를 통한 시진핑' 주석 방한 시 새만금 현장 초청 등에 대해 의견을 나눴다. 이어 김 청장은 한국과학기술원 채수찬 대외부총장을 만나 새만금 개발사업 현황을 소개하고, 시진핑 주석 방문 관련 포럼 개최와 신규 산업 및 기업 유치 등에 한국과학기술원의 협력을 요청했다.   채 부총장은 "새만금 포럼을 통한 시진핑 주석 초청은 좋은 아이디어로 적극 협력하겠다"라며 "새만금에 주요 인프라가 갖춰져 있고 있는 지금부터가 중요하다"고 강조했다. 앞서 대회경제정책연구원 정 부원장은 "새만금 홍보를 위해서는 좋은 방안이지만, 국내 다양한 한중포럼과는 차별되는 내용이 있어야 한다"라며 "현실적으로, 이동 거리 및 방한일정을 생각할 때 수도권에서 행사를 개최하는 것도 검토할 필요가 있다"고 의견을 제시했다. 한편 김 청장은 대전에 위치한 한국항공우주연구원을 방문해 임호철 원장 등을 만나 새만금 국제공항과 주변 여건에 대해서 설명하고, 새만금에 적합한 항공우주분야 신산업 소개와 향후 연구원의 신규 사업 추진 시 새만금의 공간활용 검토를 요청했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲콤부차 스타트업 ‘부루구루’를 창업한 KAIST MBA 출신 동문들. 왼쪽부터 김형진 고객경험총괄이사, 박상재 대표, 박훈 CTO, 추현진 전략이사 ⓒ KAIST       2014년 KAIST 한 학생이 방에서 맥주를 빚던 중에 차단기가 경영대 기숙사가 정전된 적이 있었다.  그 일로 기숙사에서 쫓겨날 뻔했던 박상재 학생은 국내·외 손꼽히는 양조대회에서 우승을 차지한 뒤 맥주회사 공동 창업자를 거쳐 지난해 12월 KAIST MBA 출신 동문들과 유기농 발효음료 스타트업인 ‘부루구루’를 창업했다.  박 씨가 창업한 스타트업‘부루구루’에는 현재 박훈(29·테크노 MBA 재학 중), 추현진(40·테크노 MBA 2015년 졸업), 김형진(31·경영공학부 박사 2018년 졸업) 씨 등이 참여 중이다.  이들이 주목한 아이템은 ‘콤부차(Kombucha)’로 녹차나 홍차를 우린 물에 여러 미생물로 구성된 공생체(SCOBY)를 넣어 발효한 음료다.  고대 중국 만주일대에서 유래한 음료로 현대그룹 창업주인 고 정주영 회장, 로널드 레이건 전 미국 대통령이 즐겨 마셨으며 최근에는 미란다 커, 레이디 가가, 아만다 사이프리드 등 할리우드 스타들의 기호식품으로 유명세를 탔다.  지난해 전 세계 콤부차 시장은 1조 3000억 원 규모로 전년 대비 37.4% 성장했다.  부루구루는 음료 시장의 변화와 잠재력을 발견한 국내 엑셀러레이터 퓨처플레이와 미국 실리콘밸리 기반의 스파크랩벤처스로부터 총 7억 원의 초기 투자를 받았다.  콤부차는 맥주와 공정 방식이 거의 비슷하기 때문에 양조 전문가인 박상재 대표가 전반적인 경영과 함께 제품 개발에 주력한다.  수제 맥주를 개발할 때처럼 설비 하나하나를 직접 제작해 창업 6개월 만에 종균 배양 용기에 관련한 특허 출원을 완료했다.  박상재 대표는 지난 5월 모교에 총 1억 원의 창업 장학금을 기탁했다.  박상재 대표는“외국에서는 경영학 석사(MBA) 출신의 20%~30%가 창업을 하지만 우리나라에서는 MBA 출신의 창업가를 좀처럼 찾아보기 힘들다”며 “부루구루의 성공을 통해 국내 MBA 창업의 좋은 선례를 남기고 싶다”고 밝혔다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      광양시가 신남방정책의 전략적 요충지로써 대한민국을 대표하는 수출 중심도시로 급 부상하게 될 것 으로 보여 관심이 집중되고 있다.   ▲김영록 전라남도지사는 27일 “광양을 대한민국을 대표하는 수출 중심도시로 키워 나가겠다”고 밝혔다.ⓒ광양시   김영록 전남도지사는 27일 광양시를 방문해 시민과의 대화에서 “동서화합의 상징지역인 광양은 철강산업 고도화, 소재산업 육성, 항만인프라 확충을 통해 경쟁력을 확보하고 있다”며 "광양을 대한민국을 대표하는 수출 중심도시로 키워 나가겠다"고 밝혔다또, “세풍산단 기능성 화학소재 클러스터 기반 구축, 금속가공 열처리산업 생태계 기반 구축, 광양항 해양산업클러스터, 수산물 유통물류센터 조성 등 광양시의 현안사업 추진을 적극 돕겠다”고 밝혔다  이와함께 “2020년 개관 예정인 도립미술관을 차질 없이 진행하고, 광양 다압과 경남 하동을 연결하는 남도2대교 건설도 추진되도록 교량 건설 실시설계비 국고 지원을 건의하겠다”고 말했다. 광양시가 우수시책들로 추진하고 있는 청년 주택구입 자금 대출이자 지원, 전국 최초 공립 어린이 보육재단 설립, 창의예술고등학교 착공 등 에 대해서도 "저출산 극복 및 인구 유입 측면에서 의미 있는 일”이라고 높게 평가했다. 광양시가 건의한 중마동 우봉카이스트빌 인근 주차장 조성과 옥곡 위험 소하천 정비사업 지원에 대해서는 적극 협력하겠다고 약속했다. 주민 건의사안인 광양보건대 정상화 방안과 관련해서는 “광양시나 지역사회에서 누구나 공감할 수 있는 방안과 프로그램을 제안하면 교육부총리 건의 등 적극 협력하겠다”고 답했고, 동부권 통합청사 광양 건립에 대해서는 “동부권의 합의가 이뤄지지 않으면 합리적 결정 과정을 거쳐서 결정하겠다”고 말했다.찬반 논란이 일고 있는 황금산단 목질계 화력발전소 건설을 두고서는 “허가권자인 광양만권경제자유구역청장과 협의하고 의견을 구하겠다”고 답했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 대전시 청사에서 열린    3.1운동 및 임시정부수립 100주년 기념식 ⓒ대전시    3.1운동 및 임시정부수립 100주년을 기념하는 다양한 행사들이 대전 지역에서 개최됐다.  대전시는 1일 시청사 2층 로비에서 애국지사와 시민 1000여 명이 참석한 가운데 기념식을 개최했다 .  이날 기념식에서 대전 지역의 유일한 생존 애국지사인 정완진(92) 지사가 독립선언서를 낭독했고, 시립무용단은 3.1절을 기념해 '천고'를 공연했다. 행사에 참가한 시민들은 정오를 기해 대한독립만세 문구를 새긴 클래퍼를 펼치며 만세 삼창을 연출했다 .        ▲ 대전현충원을 참배하는 정완진 애국지사(흰 옷)와 기관단체장들 ⓒ대전시    기념식에 앞서 지방자치단체장과 애국지사․유족, 보훈단체장들은 대전 현충원을 참배한 뒤, 시청 남문광장 한밭종각에서 타종식을 가졌다.  허태정 대전시장은 이날 소녀상에 헌화하고, 단재 신채호 선생의 생가를 방문하기도 했다.        ▲소녀상에 헌화하는 허태정 대전시장 ⓒ대전시    이에 앞서 엑스포시민광장 일원에서 열린 제100주년 3.1절 기념 자전거 대행진에는 시민과 자전거동호인 1만 여명이 참가했다.  이날 오전 11시 엑스포시민 광장을 출발한 시민들은 엑스포대교, 엑스포과학공원, 카이스트, 궁동네거리, 충남대정문, 자운대, 화암네거리, 전민네거리를 지나 엑스포시민광장으로 이어지는 대덕연구단지 주변 18㎞를 주행했다.        ▲ 제100주년 3.1절 기념 자전거 대행진 ⓒ대전시    이날 오후 5시에는 중구 으능정이거리 스카이로드에서 ‘1919 대한독립만세’ 행사가 열렸다.  행사 참가자들은 100년 전 3·1운동을 재연해 독립선언서를 함께 낭독하고, 애국가와 만세를 부르며 3·1운동의 정신을 기렸다.  또 국악그룹과 성악앙상블 공연, 버블아티스트 퍼포먼스 등이 펼쳐져 그 날의 감동을 예술로 승화시켰다  이밖에 태극기 클레이, 무궁화 자수, 유관순 열사에게 편지쓰기 등 다양한 체험부스가 운영됐다.        ▲국악방송 프로그램 배너 ⓒ국악방송    대전 국악방송은 3.1운동 및 대한민국임시정부수립 100주년을 기념해 KBS와 공동 제작한 ‘대한민국을 만든 노래들’을 1일 공개했다.  ‘대한민국을 만든 노래들’로 명명된 이 프로그램은 첫 방송으로는 ‘유관순 열사가’와 ‘신흥무관학교 교가’ 편을 소개했다.  ‘신흥무관학교 교가’는 민족을 구하고 독립된 새 나라를 만들자는 결의를 담고 있으며, 후에 임시정부가 이 노래를 군가로 채택했다.  박동실에 의해 창작된 것으로 알려진 ‘유관순 열사가’는 유관순 열사의 만세운동을 실감나게 느낄 수 있는 박진감 넘치는 장단과 노래로 짜여져 있다.        ▲ 대전동구청 광장에 그려진 인간 태극기 ⓒ대전시동구    한편 대전 동구는 28일 오후 6시 주민과 직원 500여명이 모여 제 100 주년 3.1 절 기념행사를 개최했다 .  동구는 오는 4월2일 대전지역 만세운동의 도화선이 되었던 3.16 인동 장터 만세운동 재연행사를 개최하기 위해 으능정이 스카이로드 –대전역 -만세로 광장에 이르는 1.5km 구간 횃불 릴레이 등의 행사를 준비 중이다 .  대전 대덕구도 28일 회덕역에서 3.1운동 및 임시정부수립 100주년 기념 3.1운동 재연 행사를 가졌다.        ▲대덕구 주민의 가두 행진 ⓒ대전시대덕구    이날 행사는 대덕 구민 선언문 낭독과 붓사위 퍼포먼스, 태극기 춤 공연, 독립선언문 낭독, 만세삼창, 회덕역에서 수자원공사까지 가두 행진을 이어갔다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      자유한국당 국회의원 선거구 조직위원장 선발을 위한 사흘간의 공개오디션이 지난 12일 끝났다.  공개오디션이 실시된 15곳의 지원자 36명 가운데 전·현직 의원은 8명이었지만, 최종 선발된 이는 조해진(경남 밀양·의령·함안·창녕)·류성걸(대구 동갑) 전 의원 등 2명뿐이었다.  3선 의원 출신의 권영세(서울 용산구) 전 주중대사, 비례대표 의원이자 원내대변인인 김순례(경기 성남 분당을) 의원 등은 탈락했다.  대신 여성과 청년의 약진이 두드러졌다.  서울 강남을, 서울 송파병, 부산 사하갑 등 9곳에서 여성 또는 정치신인이라고 할 수 있는 30·40대가 오디션을 통과, 조직위원장에 선정됐다.  한국당은 공개오디션 마지막 날인 이날 영등포 당사에서 경기 성남 분당을, 강원 원주, 충남 당진, 경남 밀양·의령·함안·창녕, 경북 고령·성주·칠곡 등 5곳의 조직위원장을 선발했다.  성남 분당을에서 민주평화통일자문회의 강남구협의회 청년위원장을 지낸 40대 초반의 김민수(41)씨가 김순례 의원을 꺾는 이변을 연출했다.  강원 원주을 공개오디션에서는 IT 벤처기업인 ㈜스쿱미디어 부사장(COO) 김대현(42)씨와 산업통상자원부에 몸담았다가 19대 국회의원을 지낸 이강후(66) 전 의원이 맞붙었다.  김대현씨는 89점을 얻어 43점을 받은 이 전 의원을 누르고 조직위원장에 선발됐다.  충남 당진에서는 충남지방경찰청장 출신의 정용선(55)씨가 19대 국회의원을 지낸 김동완 전 의원을 꺾었다.  경남 밀양·의령·함안·창녕에서는 조해진 전 의원이 박상웅 전 한국당 부대변인과 신도철 숙명여대 교수를 누르고 선발됐다.  재선 의원 출신인 조해진 전 의원은 19대 국회 때 원내수석부대표를 지냈으며 비박(비박근혜)계로 분류된다.  경북 고령·성주·칠곡에서는 경북 성주군수를 지낸 김항곤(68)씨가 19대 국회의원을 지낸 홍지만 전 의원과 이영식 대경경제성장포럼 대표를 물리치고 조직위원장이 됐다.  김병준 비상대책위원장은 페이스북에서 이번 공개오디션에 대해 "한국당이 다시 살아나고 있음을 느낄 수 있었고, 무엇보다 젊은 세대가 보여준 실력과 가능성에서 희망을 봤다"며 "한국당이 젊은 정당, 대안 야당, 수권정당, 스마트하고 투쟁력 있는 정당으로 변하고 있다고 비대위원장으로서 자신 있게 말씀드릴 수 있다"고 밝혔다.  조강특위는 공모를 통해 새로 인선할 선거구 총 79곳 가운데 10∼12일 공개오디션으로 뽑은 15곳을 제외한 64곳의 조직위원장을 13일까지 인선할 예정이다.  비대위는 오는 14일 조강특위의 조직위원장 인선안을 의결할 방침이다.앞서 이틀째인 11일에도 30·40대와 여성의 약진이 이어졌다.   서울 양천을에서는 40대 변호사 출신 손영택(47)씨가 16대 국회의원을 지낸 오경훈(55) 전 의원을 눌렀고, 서울 강남병에서는 여성으로 이명박정부 시절 청와대 여성가족비서관을 지낸 이재인(60)씨가 김완영(44) 전 국회의장실 정무비서관을 꺾고 선발됐다.  울산 울주에서는 울산지방경철청장을 지낸 서범수(56) 전 경찰대학장이 카이스트 출신의 청년 창업가 장능인(30)씨와 김두겸(61) 전 울산 남구청장을 누르고 조직위원장에 올랐다.  대구 동갑에서는 기획재정부 2차관과 19대 국회의원을 지낸 류성걸(62) 전 의원이, 경북 경산에서는 박근혜정부 당시 청와대 홍보수석을 지낸 윤두현(58) 전 수석이 각각 뽑혔다.  특히 대구 동갑의 류성걸 전 의원과 경북 경산의 윤두현 전 수석은 지난 2016년 20대 총선 당시 계파 간 첨예한 공천 갈등 속에 낙천 또는 경선 패배의 아픔을 겪은 바 있다.  그동안 바른미래당에 몸담아오다 지난달 한국당에 복당한 '비박' 류성걸 전 의원은 20대 총선 당시 대구 동갑에서 '진박'(진정한 친박근혜)인 정종섭 후보에 밀려 낙천 후 무소속으로 출마했으나 결국 낙선했다.  윤두현 전 수석은 박근혜정부 청와대에 몸담은 친박계로, 20대 총선에서 '유승민 사단'으로 분류됐던 김상훈 의원과 대구 서구 공천을 위한 경선에서 맞붙어 고배를 마셨다.  지난 총선에서 계파 갈등으로 공천에서 탈락한 인사들이 재도전의 발판을 마련한 모양새다.  공개오디션 첫날인 10일에도 당의 전통 텃밭으로 통했던 서울 강남을 지역에서 30대 초반 정치신인인 정원석(31)씨가 이수원 전 국회의장 비서실장, 이지현 전 서울시의원을 꺾는 돌풍을 일으켰다.  서울 송파병에서도 김성용(33) 전 새누리당(한국당의 전신) 중앙미래세대위원장이 김범수 ㈔세이브NK(북한인권 통일준비 NGO·46) 대표를 눌렀다.  서울 용산구에서는 황춘자 전 서울메트로 경영기획본부장이 3선 의원 출신인 '역전노장' 권영세 전 주중대사를 이겼다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      강원랜드(대표 문태곤)가 내달 9일까지 강원 폐광지역 4개 시·군 고등학교 1, 2학년을 대상으로‘2018 하이원 선상학교’참가자를 모집한다.  이번‘2018 하이원 선상학교’참가대상은 예술, 과학, 문학, 역사, 환경 분야 등에서 재능 및 특기를 보유한 폐광지역 4개 시·군 고등학교 1, 2학년 재학생으로 학교장의 추천을 받아야 한다.   참가를 원하는 학생은 오는 3월 9일까지 신청서, 추천서, 재능 및 특기 증빙자료 등의 신청서류를 작성해 방문 또는 우편으로 강원랜드 사회공헌팀에 제출하면 된다.     ⓒ강원랜드     강원랜드는 신청자를 대상으로 서류 및 면접심사 등 종합적인 평가를 거쳐 오는 3월 20일 총 36명의 참가자를 선발할 예정이다. 참가비용은 전액 강원랜드에서 부담한다.  하이원 선상학교에 선발된 학생들은 오는 4월 11일부터 18일까지 7박 8일 간의 일정으로 부산 감천문화마을 및 러시아 블라디보스토크, 일본 가나자와, 후쿠오카 등을 방문하는 탐방 활동에 참여하게 된다.   또한 카이스트 정재승 교수, 사진작가 조세현, 방송인 노홍철, 소설가 은희경 등 평소에 만나보기 힘든 명사들로부터 꿈을 이루는 방법에 대한 강의도 듣고, 코칭도 받을 수 있는 기회가 주어진다.   한편 올해로 여섯 번째를 맞이하는‘하이원 선상학교’는 5만 7000톤급 크루즈인 ‘그린보트’를 타고 아시아 각국을 체험하는 프로그램이다. 강원랜드는 2013년부터 2017년까지 폐광지역 청소년 197명에게 ‘하이원 선상학교’참가비를 지원했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      문재인 대통령이 8일 행정안전부 장관에 진영 더불어민주당 의원을, 중소벤처기업부 장관에 박영선 더불어민주당 의원을 내정했다. 집권 3년 차를 맞이한 문 대통령은 이날 국토교통부, 통일부, 문화체육관광부 등 7개 부처에 대한 중폭 개각을 단행했다.  과거 새누리당 출신인 진영 행정안전부 장관 내정자는 박근혜 정부에서 보건복지부 장관을 지내던 때 '소신 발언'을 해 물러났다. 홍준표 전 경남도지사가 '진주의료원 폐업' 방침을 밝혔을 때 공공의료 붕괴를 우려하며 반대 목소리를 냈고, 박근혜 전 대통령의 '기초연금과 국민연금 연계 지급' 방침에 반대해 장관직을 사퇴했다. 2016년 김종인 전 더불어민주당 비상대책위원장의 영입으로 서울 용산구에서 4선에 성공했다. 국회 안전행정위원회 위원장을 지낸 이력이 있다. 박영선 중소벤처기업부 장관 내정자는 재벌의 편법적인 지배 구조를 개선하는 내용의 공정거래법, 상법 개정안 등을 발의하며 '재벌 저격수'라고 불려왔다. 민주당에서 재벌개혁특별위원회 위원장을 맡기도 한 박영선 내정자는 "재벌 개혁이야말로 위기의 한국 경제를 살릴 수 있는 최선의 방안"이라고 주장해왔다. 대기업과 중소기업 상생 방안에 힘을 실을지 주목된다. 박 의원은 민주당 내에서 차기 서울시장 후보군으로 꾸준히 거론된다.김의겸 청와대 대변인은 이번 개각의 의미에 대해 "국민이 체감할 수 있는 성과를 내기 위해 능력이 검증된 인사를 발탁한다는 의미가 있다"고 말했다. 김의겸 대변인은 진영 내정자에 대해서는 "모두가 안전한 나라, 다 함께 잘사는 지역을 실현해 나갈 적임자"라고 평가했고, 박영선 내정자에 대해서는 "재벌 개혁, 중소·벤처기업 지원을 위한 의정 활동을 열정적으로 수행했다"는 발탁 이유를 밝혔다.    ▲ 진영 행정안전부 장관 내정자(왼쪽)와 박영선 중소벤처기업부 장관 내정자(오른쪽). ⓒ청와대   문화체육관광부 장관 대상에 올랐던 우상호 더불어민주당 의원은 이번에 입각 대상에서 빠졌다. 차기 총선을 앞두고 당에서의 쓰임새를 감안한 조치라는 게 민주당 안팎의 설명이다. 김의겸 대변인은 "당에서 필요한 사람이라는 요청이 있었다"며 "강기정 청와대 정무수석이 지난 7일 이해찬 더불어민주당 대표를 만난 자리에서 최종적으로 결정되지 않았나 싶다"고 말했다.  우 의원은 빠졌지만, 진영·박영선 의원 모두 '비문재인계'로 분류된다는 측면에서 청와대는 이번 인사를 '통합 인사', '탕평 인사'로 보고 있다. 중진 의원들을 장관으로 기용하는 것은 청와대로서는 인사청문회 부담을 덜고, 당에는 '인적 쇄신' 부담을 덜어준다는 측면에서도 서로 윈윈(win-win)이라는 분석도 나온다. 두 의원은 2020년 총선 불출마를 선언하고 입각을 받아들였다. 이에 대해 당 핵심 관계자는 "중진 의원들이 장관이 되면 당으로서는 '물갈이 부담'을 덜게 된다"고 말했다. 통일부 장관에는 김연철 통일연구원장이 내정됐다. 김연철 내정자는 노무현 정부 당시 대통령 직속 정책기획위원회 위원, 통일부 장관 정책보좌관 등을 지냈다. 해양수산부, 국토교통부, 문화체육부, 과학기술정보통신부 등 나머지 4개 부처 장관 내정자는 보수 관료나 교수 출신들이 채웠다. 국토교통부 장관에는 최정호 전 국토부 차관이, 문체부 장관에는 박양우 전 문화관광부 차관이 내정됐다. 과학기술정보통신부 장관에는 'LG전자-카이스트 6G 연구센터장'을 맡은 이력이 있는 조동호 카이스트 교수가 내정됐다. 해양수산부 장관에는 문성혁 세계해사대학 교수가 내정됐다. 그밖에도 문 대통령은 차관급 두 명에 대한 인사도 단행했다. 식품의약품안전처장에는 이의경 성균관대학교 제약산업학과 교수를, 대도시권광역교통위원회 위원장에는 최기주 아주대학교 교통시스템공학과 교수를 임명했다. 이번 개각으로 물러나는 김부겸 행정안전부 장관, 김영춘 해양수산부 장관, 김현미 국토교통부 장관, 도종환 문화체육부 장관, 유영민 과학기술정보통신부 장관, 홍종학 중소벤처기업부 장관 등은 2020년 총선 출마를 준비할 것으로 보인다. 당 출신은 아니지만, 문재인 정부 초대 통일부 장관으로 세 차례에 걸린 남북 정상회담을 이끌었던 조명균 현 통일부 장관도 2020년 경기도 의정부 지역 출마가 점쳐진다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      문재인 대통령이 29일 원자력안전위원회 위원장, 국민권익위원회 부위원장 등 차관급 인사를 단행했다. 새 원자력안전위원회 위원장으로는 강정민 미국 천연자원보호위원회(NRCD) 선임연구위원이 임명됐다. 경남 김해 출신인 강정민 위원장은 서울대학교에서 원자핵공학과 석사를 마치고 일본 동경대학교에서 시스템양자공학 박사를 받았다. 한국원자력연구원 연구원, 미국 존스홉킨스대학교 국제대학원(SAIS) 객원연구원, 한국과학기술원(KAIST) 원자력 및 양자공학과 초빙 교수 등을 역임했으며, 신고리 5·6호기 공론화위원회에 건설 재개 반대 전문가로 참여했다. 국민권익위원회 부위원장으로는 권태성 현 국민권익위원회 기획조정실장이 승진 임명됐다. 부산 출신인 권태성 부위원장은 고려대학교 행정학과를 졸업해 행정고시 29회를 합격한 관료다. 권태성 부위원장은 국민권익위원회 상임위원, 국무조정실 정부업무평가실장, 국무조정실 새만금사업추진기획단장 등을 지냈다. 원자력안전위원회는 원전 정책을 다루는 컨트롤타워다. 김용환 전 위원장은 임기를 절반 가량 남겨두고 최근 사직서를 제출했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 인공지능양자컴퓨팅 IT 인력양성 연구센터 개소식 ⓒKAIST       KAIST가 2일 대전 본원 학술문화관에서 ‘인공지능양자컴퓨팅 IT 인력양성 연구센터’(이하 ITRC) 개소식을 가졌다.  국내 최초로 정부의 지원을 받아 설립되는 KAIST 인공지능양자컴퓨팅 ITRC는 올해부터 4년간 약 32억 원의 민·관 연구비가 투입되며, 서울대·고려대·경희대 등 3개 대학과 KT·호모미미쿠스·액터스네트워크·미래텍 등 4개 기업이 공동 참여한다.  인공지능양자컴퓨팅 ITRC는 4차 산업혁명의 핵심 이슈인 인간 수준의 인공지능에 요구되는 계산능력을 제공하기 위한 양자컴퓨팅 기술을 연구 개발하는 한편 대학원에는 산학연계 교육프로그램을 설치해 관련 산업을 주도할 전문 인력을 양성할 예정이다.  양자컴퓨팅은 현재 디지털 컴퓨터로 가능한 계산능력의 한계를 초월할 수 있을 것으로 기대되는 기술이다.  IBM, 구글, 인텔 등 세계적인 초우량 IT 기업과 디웨이브(D-Wave), 리게티(Rigetti), 아이온큐(IonQ) 등 벤처기업들이 관련 분야를 선도하고 있으며 원천기술 확보를 위한 전략적 연구 개발과 투자를 아끼지 않고 있다.  반면, 우리나라는 관련 분야 선진국들에 비해 7년 이상 기술이 뒤져있는 상태다.  KAIST는 인공지능양자컴퓨팅 ITRC 설립을 계기로 이를 극복할 선택과 집중의 전략을 마련할 계획이다. 기존 해외 선도 기업이 확보 중인 1세대 양자컴퓨팅 소자기술을 활용하는 양자 알고리듬 및 소프트웨어 원천기술을 확보하되, 미래 차세대 양자컴퓨팅 소자기술을 선점하는 기초연구에도 중점을 두는 등 2개 트랙의 전략을 동시에 추진할 방침이다.  이준구 KAIST 인공지능양자컴퓨팅 ITRC 센터장은 “양자컴퓨팅은 4차 산업혁명을 실현하기 위해서 반드시 필요한 실행기술(enabling technology)이 될 것으로 기대 한다”며 “인공지능양자컴퓨팅 ITRC를 통해 국내 학계와 산업계에 필요한 미래 양자 ICT 분야 전문 인력을 육성하고 산업계에 기술을 확산하는 기반을 마련하겠다”고 밝혔다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      전북대학교 총장 내정자 김동원 교수ⓒ프레시안 자료      전북대학교 김동원 교수(60·산업정보시스템공학과)가 오는 25일께 문재인 대통령으로부터 전북대학교 총장 임명장을 받을 것으로 알려졌다.  22일 전북대 홍보실 관계자에 따르면 이날 교육부가 김동원 교수에게 빠르면 25일, 늦을 경우 28일께 문재인 대통령으로부터 임명장 수여식이 있을 것이라는 통보를 한 것으로 안다고 밝혔다.  이에 따라 그동안 총장 임용을 둘러싼 인사검증 논란 등은 1차 마무리될 전망이다.  김 교수는 지난해 10월 29일 실시된 전북대 총장 선거에서 1순위 총장 임용후보로 추천됐다. 임기는 4년이다.  국립대 총장은 교육부의 교육공무원 인사위원회 심의-인사혁신처 후보자 제청-국무회의 심의·의결-대통령 재가 절차를 밟아 임용된다. 김 교수는 지난해 10월 30일 기자회견에서 “전국에 300여개 월드클래스기업 있다. 우리 지역에도 최소 10여개 가 있어야 한다. 그러나 단 한 곳도 없다”고 전제하고 “대학의 역할은 지역 인재 키우는 것이다”며 “이제 막 졸업장을 딴 성인 신입생이 아니라 20~30대에 크게 성장할 수 있도록 돕겠다”고 약속한 바 있다.  한편 김동원 교수는 1982년 서울대학교 산업공학과를 졸업했으며, 이후 카이스트 석사를 거쳐 호카이도대학교에서 생산공학 박사학위를 받았다.  지난 2011년, 전북대학교 공과대학장이었던 시절에 정부지원사업 없이 대학 자체예산으로 전북 내 고등학생을 대상으로 창의기술아카데미 캠프를 운영해왔다.  이를 성과로 한국산업기술진흥원의 공모사업에 응시해 전북대 청소년 창의기술인재센터 설립과 운영여건을 마련, 전북 청소년들의 이공계 인재 육성에 기여했다는 평가다.  1988년 4월부터 현재까지 전북대학교 교수로 재직했으며, 공과대학장과 산학협력단장을 지냈다.  현재 전북대 공학교육혁신거점센터장, 전북대 청소년창의기술인재센터장, 교육부 인정기관심의위원장 등의 역할을 맡고 있다.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      문재인 대통령은 31일 박기영 순천대 교수가 낙마한 과학기술정보통신부 과학기술혁신본부장 자리에 임대식 한국과학기술연구원(KAIST) 생명과학과 교수를 임명했다.임 본부장은 미국 텍사스주립대에서 생화학 및 분자유전학으로 박사 학위를 받았으며 현재 한국과학기술원 히포(Hippo) 세포분열·분화창의연구단 단장을 맡고 있다. 지난 대선 때는 문재인 대통령의 싱크탱크인 '정책공간 국민성장포럼'의 과학기술분과에서 활동했다.박수현 청와대 대변인은 임 본부장에 대해 "암 억제 등 생명과학기술 권위자로서 뛰어난 역량과 관리역량을 겸비해 과학기술분야 변화에 혁신을 이끌 적임자"라고 했다.문 대통령은 또 국가과학기술자문회의 부의장에 염한웅 포항공대 물리학과 교수를, 국가과학기술심의회 위원장에 백경희 고려대 생명과학부 교수를 각각 임명했다.박 대변인은 "염 부의장은 우리나라 기초과학분야의 새로운 세대를 대표하는 물리학자로 노벨상에 근접한 과학자 중 하나로 평가받는다"며 "새 정부의 과학기술정책 방향과 목표를 실현할 적임자로 과학기술정책 기조와 혁신과제 등에 대한 실효성 있는 대통령 자문 역할을 할 것으로 기대한다"고 소개했다. 백 위원장에 대해선 "식물 성장과 메커니즘을 규명해 온 생물학자로 왕성한 연구활동과 더불어 신진 과학자 양성에 많은 노력 기울여왔다"며 "과학자로서의 식견과 통찰력, 오래 연구경험으로 예산분배, 심의 등 의사결정의 수장으로의 역할을 기대한다"고 했다.하지만 백 위원장은 지난 2004년 1월자 '식물과 세포생리학 저널'에 실렸던 논문에 교신저자로 실험에 참여했으나, 데이터가 일부 조작됐고 중복된 것으로 확인돼 2013년 해당 논문이 철회된 바 있다.이에 대해 청와대 관계자는 "검증 과정에서 2004년 모 과학지에 논문 중복 게재 문제가 있었던 사실을 알고 있었다"고 했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      이세돌 9단이 달라졌다. "대충 뒀는데 이겼다"라던 거만한 천재는 이제 없다. 자신을 꺾은 알파고 개발자에 대해 "존경한다"고 했다. 이창호, 조훈현에 대해서도 "존경하지는 않는다"라고 했던 그였다. 후배 기사(棋士)들의 조언에도 귀를 열었다. 바둑의 발상지인 중국에 가서도 "중국 기보(棋譜, 바둑 둔 기록)를 연구해 본 적 없다"라던 그였다.   불과 일주일만에 있었던 변화다. 흘러넘치는 천재성을 감당 못해 휘청거리던 청년으로만 그를 기억하던 이들에겐, 그게 더 충격적이다. 인간 천재가 기계 앞에서 겸손해졌다. 이세돌은 기계 덕분에 어른이 됐다. 천재와 창의력에 대한 환상이 깨졌다 컴퓨터가 초보적인 추론 능력을 갖게 된 게 십년 전이다. 단순한 계산기, 정보 저장소 역할에서 벗어났다는 뜻이다. 이제는 컴퓨터가 '생각'을 한다. 그러니까 인간 전문가의 역할을 컴퓨터가 대신하는 게 놀라운 일은 아니다. 법관, 엔지니어, 의사, 회계사 등의 역할 가운데 일부를 컴퓨터가 곧 대체하리라는 전망 앞에서도 그러려니 했다.   하지만 컴퓨터가 인간 천재를 넘어선 장면에선 무척 놀랐다. 인간 전문가는 교육과 훈련으로 길러낼 수 있다. 컴퓨터가 그 과정을 따라하는 건 쉽게 상상할 수 있다. 하지만 인간 천재가 어떻게 태어나는지, 우리는 모른다. 그런데 벌써 컴퓨터가 인간 천재를 꺾었다. 그 다음에는 무슨 일이 있을까. 두렵고 궁금하다.   15일 마지막 대국을 마친 뒤, 이세돌이 기자들을 만났다. 그는 "이번 대국으로 인간의 창의력이라든지 바둑 격언에 대해 의문이 들었다"라고 했다.   지난 일주일 동안 이세돌은 인간보다 더 창의적인 바둑을 두는 기계와 싸워야 했다. 창의력이 인간의 전유물이라거나, 바둑 격언에 수천 년 동안 쌓인 지혜가 응축돼 있다는 통념에 대해 당연히 의문이 들었을 게다.  '통념'이라는 모래주머니 없이 뛴다면? 기계가 인간보다 더 창의적인 건, 사실 자연스런 일이다. 창의성이란 기존 통념에서 벗어난 자유로운 발상에서 나온다. 그런데 기계는 통념 자체가 없다. 그저 목표를 향한 가장 빠른 길을 찾아낼 뿐이다. 관습이나 편견으로부터 완전히 자유롭다. 결과만 보면, 인간보다 더 자유로운 발상을 하는 것 같다.   인간이 내놓은 자유로운 발상, 창의성은 낡은 고정 관념과 싸우면서 확보한 전리품이다. 그러므로 인간과 기계를 같은 기준으로 비교하면 안 된다. '통념'이라는 모래주머니를 달고 뛰는 경우와 그렇지 않은 경우, 결과는 뻔하다.  하지만 우리는 어차피 결과만 본다. 창의적 발상에 이르는 과정에서 기존 통념과 얼마나 치열한 투쟁을 했는지에 관심을 갖는 이는 없다. 컴퓨터 살 때, 반도체 공장에서 죽어나간 젊은 여성 노동자를 기억하는 이가 없는 것처럼. 따라서 기계가 창의성으로 인간을 압도한다면, 그걸 막을 길은 당분간 없을 게다.  허사비스 "범용 목적 학습 기계 개발이 최종 목표" 물론 기계가 지닌 창의성을 과대평가할 필요는 없다. 인간 지능은 범용성이 있다. 수학을 잘 하는 사람은 외국어도 빨리 배운다. 바둑 천재는 체스도 쉽게 익힌다. 그러나 인공적으로 구현한 지능은 아직 범용성이 없다. 바둑으로 이세돌을 꺾은 알파고가 체스를 둘 수는 없다. 아기 수준의 추론 능력을 지닌 기계가 어른 천재를 꺾을 수 있었던 건, 사실 인간 엔지니어들의 공이었다. 유치한 추론 능력을 이리저리 조립해서, 고도의 사고력을 구현했다. 그건 아직까지는 인간의 역할이다.   알파고를 개발한 구글 딥마인드의 공동창업자 겸 최고경영자(CEO)인 데미스 허사비스 역시 이런 한계를 잘 안다. 그걸 깨는 게 그의 꿈이다. 그는 지난 11일 카이스트를 방문해서 "범용 목적을 가진 학습 기계를 개발하는 것이 최종 목표"라고 말했다. 그 목표가 달성되면, 인간 지능과 인공지능을 구별 짓던 중요한 경계 하나가 무너진다. 인공지능 연구자들은 인공지능이 인간처럼 범용성을 갖추는 날은 아직 까마득하다고 말한다. 인간 지능의 비밀조차 제대로 밝혀지지 않았기 때문이다. 하지만 기계가 추론 능력을 갖추고, 그걸 활용하는 속도는 전문가들의 예상보다 훨씬 빨랐다. 마찬가지로 "범용 목적을 가진 학습 기계 개발" 역시 예상보다 빠를 수 있다. 물론, 가능성일 뿐이다.  "컴퓨터에게 지시 받는 인간 박사…우리는 기계를 섬겨야 하나" 어찌됐건, 인간의 정신 활동이 빠르게 기계로 대체되리라는 점은 분명하다. 인간 고유의 창의적 영역이라던 작곡 역시 기계로 넘어갔다. 미국 예일대학교 연구진은 '쿨리타'라는 인공지능 소프트웨어를 만들었다. 기계가 스스로 작곡을 한다. 예일대 연구진은 인간이 만든 음악과 인공지능이 작곡한 음악을 사람들에게 각각 들려주는 실험을 했다. 대부분은 구별하지 못했다. 이밖에도 다양한 인공지능 작곡 소프트웨어가 나왔다. 인공지능이 만든 음악을 유튜브에서도 쉽게 찾을 수 있는데, 평범한 청취자는 인간이 만든 곡과 구별할 수 없다.   다들 그래서 불안해한다. 그저 일자리 걱정이 아니다. 우리는 정신을 육체보다 높이 두는 문화에 익숙하다. 지식과 지능의 서열로 사회적 위계를 정한다. 책에 있는 내용을 잘 습득해서 시험을 잘 치는 능력이냐, 아니면 창의적인 발상을 하는 능력이냐 등 강조점의 차이만 있었다. 하지만 둘 다 지식과 지능의 어느 측면에 불과하다. 큰 틀에선 마찬가지다.  그런데 정신, 지식, 지능의 자리에 인간 대신 기계가 들어섰다. 그럼 이제 우리는 기계를 섬겨야 하나, 라는 불안이다.   실제로 많은 누리꾼이 이세돌의 맞은편에서 바둑돌을 놓은 아자 황 박사를 동정했다. 아자 황 박사의 역할은 알파고의 지시대로 바둑 판 위에 돌을 놓는 거였다. 그 역시 공학박사이고, 아마추어 바둑 5단이다. 하지만 그는 알파고의 지시 내용을 이해도 하지 못한 채 무조건 따라야 했다. 누리꾼들은 아자 황 박사가 인류의 미래 모습이라며 걱정스러워 했다.  언제까지 두뇌의 서열로 사회적 위계 정해야 하나 그게 꼭 걱정할 일일까. 이런 불안은 정신, 지식, 지능의 가치를 너무 높게 치는 문화와 맞물려 있다. 언제까지 그래야 하나. 육체와 감성은 언제까지 정신과 두뇌의 노예로만 지내야 하나.   이세돌이 첫 번째 대국에서 알파고에게 진 뒤, 박재동 화백이 쓴 글이 화제가 됐다. 그 역시 바둑 팬이다. 그는 처음에는 이세돌을 응원했지만, 마음을 돌려먹었다고 했다. 이젠 알파고를 응원한다는 게다. 인공지능의 발전이 인간의 일자리를 줄일 수 있다는 걸 그 역시 잘 안다. 돈과 권력을 지닌 이들이 인공지능을 더 잘 이용하리라는 점 역시 알고 있다. 그럼에도 그는 알파고를 응원했다. 박 화백의 글 가운데 일부를 옮긴다.   "그런데 왜 나는 알파고가 이기기를, 그것도 간절히 바라는 것인가!  그것은 이제 지금 같은 국영수의 시대를 끝내기 때문이다. 머리 좋고 똑똑한 사람이 지배하는 시대가 끝나기 때문이다. 마치 옛날에 힘이 좋은 자가 무리를 지배하던 시대가 활 잘쏘는 자에게 밀려 지나가고, 그 다음은 무사의 시대가 시험을 통과한 관료의 시대로 교체되어 간 역사로 보는 것처럼 이제 똑똑하고 머리 좋은 사람의 시대가 지나가고 있는 것이다.  지금 학교에서 하는 많은 시험용 공부는 알파고가 맡게 될 것이다. 그뿐 아니라 수없이 많은 직업이 알파고가 대신하게 될 것이다. 좋은 일만 있지는 않을 것이다. 많은 실업이 기다리고 있을 것이다.  그러나 이제 알파고가 할 수 없는 일은 무엇인가를 생각하게 될 것이다. 더욱더 인간적인 일이 무엇인가를 생각하게 될 것이다. 그것 자체로 중요한 것이다.  (…) 그러나 세계의 대세가 똑똑한 지배자의 쾌감보다는 사람의 의미, 사람의 기쁨, 진정한 즐거움. 그런 것들이 화두가 되는 새 시대에 대한 희망 때문이다." 인간보다 똑똑한 기계 나와도, 기계에게 복종할 마음 품지 않을 세상 기자도 비슷한 생각이다. 생각하는 기계가 우리를 지배할까 두렵나. 그렇다면, 범용 인공지능이 나오기 전에 우리 사회 질서를 바꾸면 된다. 정신, 지식, 지능으로 사람을 평가하고 줄 세우는 관행을 깨면 된다. 그 뒤엔 인간보다 똑똑한 기계가 나온다한들, 아무도 기계에게 복종할 마음을 품지 않을 게다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      세상을 바꿀 디지털 기술을 미리 알아보고 선정해 시상하는 '넥엑스플로 어워드'의 2015년 대상에 KAIST 조병진 교수 연구팀이 개발한 '웨어러블 발전장치'가 뽑혔다.넷엑스플로 어워드는 유엔 산하 교육과학문화 전문 기구인 유네스코가 공동주최자로 참여하는 행사로 매년 전 세계 전문가들의 의견을 모아 에너지·환경·교육 등의 분야에서 '세상을 바꿀 기술 10가지'를 선정해 각 연구 개발팀에 시상한다. 특히 그 중에서 대상은 누리꾼들의 투표를 통해 결정되는 방식을 택하고 있다.'트위터'는 2008년부터 시작된 이 상의 첫 대상 수상작인 것에서 알 수 있듯, 넥엑스플로 어워드 수상작들은 상업적 성공 가능성이 매우 높은 혁신적인 아이디어라는 것을 국제적으로 공인받는다는 의미가 있다.조 교수팀이 개발한 '웨어러블 발전장치'는 유리섬유 위에 자유자재로 휘어지는 '열전(熱電) 반도체 소자'를 입힌 것으로, 이 유리섬유가 들어있는 옷을 입으면 체온에 의해 전기가 발생해 스마트폰 등 몸에 휴대하는 각종 전자장치에 필요한 배터리 충전이 가능하다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      서울 등 수도권이 아닌 지역 스타트업을 대상으로 지원하는 투자펀드가 조성된다.  BNK금융그룹은 14일 오전 본점에서 지역 스타트업 투자 확대 및 성장 지원 위해 선보엔젤파트너스, 미래과학기술지주와 함께 '부울경 스타트업 투자펀드 약정식'을 가졌다고 밝혔다.    ▲ '부울경 스타트업 투자펀드 약정식'. ⓒ부산은행    선보엔젤파트너스는 글로벌 네트워크를 보유한 지역 대표 스타트업 전문투자기관이며 미래과학기술지주는 한국과학기술원(KAIST), 울산과학기술원(UNIST) 등 전국의 과학기술원이 공동으로 설립한 신기술창업전문회사이다.   이번 약정은 약정기업 간 상호협력을 통한 지역 스타트업에 대한 지원 체계 구축 및 투자 확대 등으로 창업생태계 조성과 지역경제 활성화를 도모하기 위해 추진됐다.  특히 BNK금융그룹은 미래과학기술지주 등과 함께 40억 규모의 'BNK-선보 부울경 스타트업 신기술사업투자조합 1호' 펀드를 조성해 서울 및 수도권 중심의 투자 환경으로 인해 상대적으로 소외되어 있는 지역 스타트업에 대한 투자를 확대하기로 했다.  펀드의 운용은 BNK투자증권과 선보엔젤파트너스가 공동으로 담당한다.  또한 핀테크, 바이오, 신소재 등 지역의 주력 신산업을 영위하는 스타트업을 적극 발굴해 BNK부산은행 'BNK 썸 인큐베이터'와 'BNK 핀테크랩' 내 입주기업과의 연계 투자도 추진할 계획이다.  BNK금융지주 정충교 그룹CIB부문장은 "오늘 약정을 통해 조성되는 펀드가 지역 스타트업에 활력을 불어넣는 마중물이 되길 바란다"며 "청년 창업가들과 혁신 스타트업들이 지역발전을 위한 신성장동력 마련에 앞장 서주길 바란다"고 전했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             교모세포종의 발암이 시작을 불꽃놀이에 비유한 그림. 암의 발생이 암이 존재하는 부위가 아니라 멀리 떨어져 있는 뇌실하영역에서 시작함을 보여 주는 그림으로 불꽃 하나 하나가 무수히 셀수 없는 암세포라면, 그 근원은 불꽃을 발사하는 대포에서 시작됨을 비유하여 전체 연구 결과를 묘사하고 있다 ⓒ KAIST     악성 뇌종양인 교모세포종은 미국 암 관련 사망률은 4위에 달하며 미국의 에드워드 케네디, 존 매케인 상원의원 등이 이 질병으로 사망했거나 투병 중일 만큼 널리 알려진 병이다.  KAIST 의과학대학원 이정호 교수 연구팀이 세브란스병원 신경외과 강석구 교수와의 공동 연구를 통해 악성 뇌종양인 교모세포종 돌연변이 발생이 암 부위가 아닌 암에서 멀리 떨어진 뇌실하영역에서 발생한다는 사실을 규명했다.  이정호 교수 연구팀은 암 발생 부위가 아닌 종양과 떨어져 있는 뇌실하영역이라는 곳에 주목했다.  교모세포종이 수술 이후에도 재발률이 높다는 점에서 원인이 다른 곳에 있을 것이라고 판단한 것이다.  이 교수는 “교모세포종은 종양을 떼어내도 1~2년 후에 재발률이 높다. 암은 돌연변이인데 돌연변이가 발생하는 곳이 종양이 아닌 다른 부위라고 생각했고 그곳이 바로 뇌실하영역(subventricular zone : SVZ)이라는 사실을 밝혀냈다”고 말했다.  연구팀은 지난 2013년부터 2017년 사이에 수술을 한 뇌종양 환자 28명을 대상으로 종양조직 외에 수술 중 제거되는 종양조직, 정상조직, 뇌실주변의 조직 3가지를 조합해 분석한 결과 딥 시퀀싱, 단일세포시퀀싱 등을 통해 교모세포종의 시작이 뇌실하영역에서 발생한 낮은 빈도의 종양을 유발하는 돌연변이에 의한 것임을 밝혀냈다.  특히 유전자 편집 동물 모델을 통해 뇌실하영역에서 돌연변이가 생기면 이 돌연변이를 가진 세포가 뇌실하영역을 떠나 뇌의 다른 부위로 이동해 교모세포종이 되는 사실도 확인했다. 이는 돌연변이 세포가 마치 불꽃놀이처럼 곳곳으로 퍼진 뒤 시간이 지나자 다른 부위에서 종양으로 진화한 것이라는 것을 입증한 것이다.  KAIST 의과학대학원 졸업생 이주호 박사가 1저자로 참여한 이번 연구 결과는 국제 학술지 ‘네이처(Nature)’ 8월 1일자 온라인 판에 게재됐다.  이는 교모세포종 발병의 원인이 암 발생 부위일 것이라는 기존의 학설을 뒤집는 연구 결과로, 악성도가 가장 높은 종양인 교모세포종의 치료법 개발에 새로운 방향을 제시할 것으로 기대된다.  또한 그동안 암 조직만을 대상으로 이뤄진 암 연구가 암의 기원이 되는 조직에 대한 연구로 발전하면서 교모세포종 뿐 아니라 다른 암에 대해서도 치료의 실마리를 찾을 수 있는 기반이 될 것으로 보인다.        이정호 교수와 이주호 박사 ⓒ KAIST   1저자인 이주호 박사는 “암 중 예후가 가장 좋지 않은 교모세포종에 대한 발암의 비밀을 국내 연구진이 풀어냈다는 것에 큰 의미가 있다”며 “악성 뇌종양의 연구와 치료의 획기적 전환점을 최초로 증명하고 제시한 것"이라고 말했다.  이정호 교수는 “암 중 가장 예후가 좋지 않은 교모세포종의 원인을 파악하고 동물 모델 제작까지 성공했다는 점에서 큰 의미가 있다. 환자에게서 찾은 것을 동물에 그대로 반영했기 때문에 여기서 치료를 할 수 있다면 임상까지 가능할 것이다”고 예측했다.  연구팀은 KAIST 교원창업(소바젠, 대표 김병태)을 통해 이번 연구결과를 바탕으로 뇌실하영역의 세포가 교모세포종으로 진화되는 과정을 막기 위한 치료약 개발에 나설 예정이다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ⓒ포항시      포항시는 지난 20일 시청 중회의실에서 송경창 부시장 주재로 관련 부서장 및 용역수행기관인 캡스톤브릿지 관계자 등이 참석한 가운데 ‘포항지역 의과대학 설립 타당성 조사 연구용역 중간보고회’를 가졌다.  보고회는 정부 의료보건 정책, 범부처 의사과학자 양성 정책 등 의대 설립과 관련한 정책 동향 보고를 시작으로, 의과대학 설립 기반을 위한 부지 확보방안, 의대 설립 추진방향 등 주요 사항을 논의하고 향후전략 수립을 점검했다.  포항은 의과대학 설립 시에 관련 산업 발전을 위한 밸류체인 형성 등 다양한 시너지 효과를 창출할 수 있으며, 전국 최초 강소개발연구특구 지정으로 바이오․의료․소재 등 공동연구를 통한 연구중심 의과대학을 설립하기에 최적의 조건을 갖추고 있다고 분석됐다.  이와 더불어, 듀크대학, 카이스트 등 국내외 주요 의과학 선진융합대학원 사례 공유 및 포항시에 적합한 모델 구축 방향에 대해 논의했으며 지자체와 대학의 지속적인 소통과 교류를 바탕으로 상생 협력체계 강화가 선행돼야 한다는 공감대를 형성했다.  송경창 포항시 부시장은 “이번 중간보고회를 통해 도출된 의견 및 전략에 대해 적극 검토해 국가정책 변화 및 의대정원 증원 등 불시에 찾아올 수 있는 모든 상황에 철저히 대비해야 한다”고 말했다.  한편 이번 연구용역은 의과대학 설립을 통해 52만 포항시민의 의료복지 수준 향상과 국가균형발전을 위한 정책 실현 및 지역 간 의료격차 해소 등을 목표로 지난 7월 착수보고회를 시작했으며, 오는 3월에 최종 연구 결과물이 나오도록 추진할 계획이다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      우리나라의 해외조달시장은 연간 9조 5000억 여 원에 달하는 거대시장으로 최근 진출하려는 중소기업들이 증가하고 있으나 제대로 된 전문 인력이 없어 입찰제안서 작성 등에 어려움을 겪고 있다.  또한 이와 관련된 교육도 국내에 많지 않아 전문인력 양성의 필요성이 대두돼왔다.  이러한 문제점을 해결하기 위해 조달청(청장 정무경)이 전국 대학생들을 대상으로 ‘해외조달시장 전문인력 양성 기초과정’을 신설하고 교육생을 모집한다.  해외조달시장에 관심을 높이고 기초역량을 강화하기 위해 개설되는 이번 교육은 KAIST 글로벌 공공조달연구센터와 협업해 강사진과 과목을 구성했다.  특히 무역실무에 대한 기초 역량 강화 뿐 아니라 미국, 유엔 등 주요 해외조달시장 소개와 벤더등록 교육, 제안서 작성에 대한 실습까지 수행함으로써 해외조달시장에 대한 전반적인 이해를 넓힐 수 있을 것으로 기대된다.  교육은 오는 7월15일부터 18일까지 3박4일간의 일정으로 경북 김천 조달교육원에서 운영되며 이달 14일까지 지원 신청을 받는다.  이상윤 조달청 기획조정관은 “단기교육의 특성상 전문 인력을 양성하는데 한계는 있겠지만 해외조달시장에 대한 기본지식을 향상시키고 장기적으로 글로벌시장에 대한 안목을 높인다는 점에서 대학생들의 많은 참여를 기대한다”며 “앞으로도 중소기업의 해외조달시장 수출에 대한 전문성을 향상시키고 실질적인 낙찰로 이어질 수 있도록 지원을 아끼지 않겠다”고 밝혔다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      새누리당 유승민 전 원내대표가 국내 언론사 정치부 기자 250명이 선정한 올해의 '백봉 신사상' 대상을 수상했다. 정직성, 정치적 리더십, 사회·국민에 대한 헌신, 의회민주주의 실천 등이 이 상 수상자를 선정하기 위한 설문 문항의 주요 덕목으로 꼽힌다. 유 전 원내대표는 8일 오전 '백봉 라용군 선생 기념사업회'가 국회에서 개최한 제 17회 백봉신사상 시상식에 참석해 대상 메달을 받고 간략한 수상 소감을 밝혔다. 그는 "저는 평소 아무리 욕을 먹어도 정치가 제일 중요하다는 신념을 갖고 정치를 해왔다"면서 "욕을 아무리 먹어도 제일 중요한 정치를 똑바로 할 수 있도록 매진하겠다"고 밝혔다. 유 전 원내대표는 "(1997년) IMF 경제 위기를 경험한 직후 경제학도로서의 자리를 버리고 정치에 뛰어들었다"면서 "직접 정치를 해 우리 국민들이 먹고 사는 문제를 해결하는데 기여해보겠다는 꿈을 가졌다"고도 말했다. 이어 그는 "그런데 지금 국민은 꿈과 희망이 없다고 좌절하고 있다"면서 "저성장과 양극화를 극복하는 것이 우리가 반드시 해야 할 시대적 과제이고, 성숙한 민주주의를 만드는 일도 정치인들의 시대적 책무"라고 했다. 유 전 원내대표는 시상식이 끝난 후 기자들을 만나서는 "갑자기 원내대표 선거를 해서 5개월간 했고 (올 한해 동안) 일들이 많았다"면서 "대상을 예상하지 못했는데 언론인들이 뽑아줘 큰 상을 받게 됐다"고 감사의 뜻을 밝히기도 했다. 유 전 원내대표 외에도 정의화 국회의장·새누리당 김무성 대표·새누리당 조해진 의원·새정치민주연합 문재인 대표·안철수 전 공동대표·이석현 국회부의장·이종걸 원내대표·우윤근 의원·박수현 의원·정의당 심상정 대표도 '백봉 신사상'을 받았다. 이종걸 원내대표는 "정 의장은 국회법 (파동) 때 저와 유승민 전 원내대표를 수차례 만나 유승민 보호에 온 몸을 던졌다"면서 "김 대표나 이 국회부의장도 유승민 지키기에 나섰다. 유승민 전 원내대표의 측근들이 다 이 상을 수상한 것 같다"고 농담을 던졌다. 실제로 이번 수상자 명단에는 유승민 전 원내대표의 자진 사퇴 몰이에 나섰던 친박계 의원들은 한 명도 포함되지 않았다. 한편, 기념사업회 회장이자 시상자인 정 의장은 '시상자가 수상을 하는 것은 맞지 않다'며 상을 고사했으나 주최측의 거듭된 요청과 언론인들의 평가를 존중한다는 차원에서 상을 받기로 결정했다고 기념사업회 측은 밝혔다. 백봉신사상은 매년 백봉라용균선생기념사업회가 국내 언론사 정치부 기자들 설문조사를 통해 선정하고 있다. 올해 수상자 선정은 지난달 9일부터 20일까지 조사에 참여한 기자 250명의 설문조사 응답 결과를 한국과학기술원(KAIST) 정연승 교수에게 통계 의뢰해 결정됐다. 설문에 응답한 기자들은 '신사 의원'의 가장 중요한 덕복으로 정직성(32.0%), 정치적 리더십(18.4%), 사회·국민에 대한 헌신(17.2%), 의회민주주의 실천(14.0%), 소통 능력(12.8%) 등이 중요하다는 의견을 보였다고 기념사업회 측은 밝혔다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      강원 태백시는 서울대학교 이성환 입학사정관을 초청한 가운데 오는 6일 황지고등학교 시청각실에서 입시설명회를 개최한다고 밝혔다.   지역 내 고등학생 및 학부모를 대상으로 열리는 이번 입시설명회는 서울대학교 자연과학대학 여름 과학 캠프 프로그램 일환으로 마련됐다.   이번 설명회는 지역 학생들을 위한 진로, 진학 등 학생부 종합전형 대비 방안을 비롯한 맞춤형 대입 전략 멘토링 등으로 진행될 예정이다.     ▲고교생과 학부모 초청 입시설명회. ⓒ태백시     또한, 서울대뿐만 아니라 전반적인 입시 동향에 대한 설명으로 수험생과 학부모들의 궁금증을 속 시원히 해소해 줄 것으로 기대된다.   한편, 서울대 자연과학대학 학생회에서 자연과학분야 전공 체험 기회를 제공하기 위한 여름 과학 캠프는 상장중과 황지중, 황지고 학생을 대상으로 오는 5일부터 9일까지 진행된다.   서울대 여름 과학 캠프는 올해 태백, 인제, 고창, 영덕 전국 4개 지역에서만 개최되며 태백 지역에서는 처음 열리는 캠프인 만큼 뜨거운 관심과 기대를 모으고 있다.   특히, 눈에 띄는 것은 태백 출신인 서울대 자연과학대학 물리·천문학부 김형도 교수는 카이스트에서 물리학 학·석·박사 학위를 취득했으며 현재 서울대 자연과학대학 연구부학장으로 재직 중이다.   김형도 교수는 이번 여름 과학 캠프에 각별한 관심과 애정을 쏟고 있는 것으로 알려졌다.   시 관계자는 “태백 출신 김형도 서울대 교수의 태백시 방문은 매우 고무적인 일로 학생들에게 좋은 본보기와 자극이 될 것”이라며 “이번 입시설명회와 여름 과학 캠프의 열기가 어느 때 보다 뜨거울 것으로 기대된다”고 말했다.   한편, 태백시는 지역 학생과 학부모들을 위한 교육 여건 개선 및 진로·진학 정보 제공 외에도 우수대학 캠프 및 입시설명회 유치 등 대학과 연계한 교육·입시 프로그램 개발에 힘쓰고 있다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      미디어아트분야 최고 권위의 행사인 ‘2019 국제전자예술심포지엄’(ISEA2019)이 오는 6월22일부터 28일까지 광주 국립아시아문화전당에서 열린다.   ‘2019 국제전자예술심포지엄’은 1988년부터 이어져 온 전통과 권위가 있는 세계적인 미디어아트 축제로 지난 30년 간 17개국에서 개최돼 매년 1000명 이상의 예술가, 전문가들이 참여하는 행사다.     ▲세계적인 미디어아트 축제인 2019국제전자예술심포지엄이 국립아시아문화전당에서 열린다. 사진은 광주문화재단 미디어338에서 열렸던 미디어아트 전시 장면 ⓒ프레시안(정인서 기자)    광주광역시는 이탈리아 피렌체와 치열한 경쟁 끝에 2016년 유치하는데 성공해 약 2년 반 동안의 준비기간을 거쳐 이번 심포지엄을 열게 됐다고 밝혔다.  광주시와 국립아시아문화전당, 카이스트 문화기술대학원이 주최하고, 아트센터나비미술관과 아시아문화원이 주관하는 이번 행사는 개최도시 광주의 풀이말인 빛고을에서 영감을 얻은 영원한 빛이라는 의미의 ‘룩스 에테르나(Lux Aeterna)’를 주제로 학술 프로그램, 아트 프로그램, 지역 연계 프로그램으로 구성된다.   학술 프로그램은 공모와 초청분야로 나뉘며 각 주제별 연구 과정이나 결과를 발표와 토론으로 만나볼 수 있다.  기조연설은 원광연 국가과학기술연구회 이사장과 유럽 입자물리 연구소의 마이클 도저, 인공 생명을 주제로 활발한 활동을 해오고 있는 미디어 아티스트 크리스타 좀머러, 테이트 모던의 이숙경 수석 큐레이터가 맡는다.  이 밖에도 특별세션으로 ▲‘백남준과 한국의 미디어아트’를 주제로 한 세션 ▲도시를 주제로 한 세션 ▲한국영상학회와 연계한 세션 등도 진행된다.  아트 프로그램으로는 전시와 퍼포먼스, 스크리닝, 아티스트 토크 프로그램이 진행될 예정으로, 약 100여 점의 세계 각국의 작품들이 소개된다.  특히 특별전시로 일부 초청작과 심사작을 함께 구성한 아트센터 나비의 특별전이 오는 7월28일까지 복합 5관에서 열리고, 2019국제전자예술심포지엄의 특별주제인 ‘푸드 앤 테크(Food&amp;Tech;)’와 연계해 액트 페스티벌(ACT Festival)도 동시 개최된다.  또 개·폐막식 하이라이트로 이이남 작가와 로보링크, 월드뮤직그룹 공명, 아트센터 나비가 함께하는 드론 개막 퍼포먼스와 전통문화관에서 정자영 작가의 폐막 퍼포먼스가 있을 예정이다.  지역 연계프로그램으로는 광주 도심 곳곳을 탐색하며 얻은 결과물을 전시와 퍼포먼스를 통해 보여주는 참여형 워크숍이 광주문화재단 미디어 338 무대에서 진행되고, 이와 함께 조선대 미술대학 학생들과 지역 작가가 함께 제작한 작품도 함께 소개된다.  2019 국제전자예술심포지엄 공모에는 59개국 총 1200여 건이 접수되는 등 국내외 미디어 아티스트, 과학자, 교육자 등 관련 분야의 전문가들이 대거 참여해 행사의 성공적 개최에 대한 기대감을 높이고 있다.   시 관계자는 “2019 국제전자예술심포지엄을 통해 지역의 전통, 문화예술과 문화 산업, 첨단 기술을 결합하고 이를 통해 새로운 문화예술 콘텐츠를 개발하길 바란다. 세계 각국의 관련 기관과의 연결망을 형성하고, 국내외 미디어 아트 동향을 접해 볼 수 있는 교류의 장이 될 것이다”고 말했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      울산대학교 졸업생들의 국내 10대 대기업 임원 비중이 국내 대학 가운데 상위권에 속하는 것으로 나타났다.  울산대학교는 개교때부터 산학협력교육을 지속적으로 실시한 결과 졸업생들의 '톱 클래스 글로벌' 국내 대기업 임원 비중이 높은 것으로 분석됐다고 12일 밝혔다.  국내 시가총액 상위 10대 기업이 금융감독원에 제출한 '2017년 사업보고서'에 나타난 전체 임원 2083명(사외이사 제외)의 최종 학력을 분석한 결과 울산대는 21명을 배출해 국내 대학 중 17위에 올랐다.        ▲ 울산대학교 학생들 현대자동차 현장실습 모습. ⓒ울산대학교    대학별로는 서울대가 232명을 배출해 가장 많았다. 다음으로 카이스트·고려대(각 142명), 연세대(126명), 성균관대(100명), 한양대(93명), 서강대·경북대(각 66명), 인하대(64명), 부산대(59명) 순으로 나타났다.  특히 울산대는 관계사인 현대자동차 총 임원 294명 가운데 고려대(28명), 서울대(26명), 부산대(22명), 연세대·한양대(13명) 다음인 12명으로 6위(전체 임원의 4%)를 차지했다.  현대모비스에서는 울산대가 7명으로 고려대(9명), 한양대(8명)에 이어 3번째였다.  울산대는 이 밖에 삼성전자, SK하이닉스 각각 1명의 임원을 배출했으며 10대 기업에 배출한 전공은 기계·전기·전자·조선·산업관리·건축 등 이공계열이 15명, 경영·경제 등 인문사회계열이 6명으로 집계됐다.  김현준 울산대 기획처장은 "개교 때부터 시작한 산학협력교육으로 실무에 강한 우수 인력을 배출한 것이 실적 위주의 승진에 반영된 결과라고 본다"고 말했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      한림대학교가 영국의 대학평가기관 QS(Quacquarelli Symonds)가 실시한 ‘2017/2018 설립 50주년 미만 세계대학평가’에서 국내 6위(세계 101-150위권)에 이름을 올렸다.   이번 평가에서 한국 대학은 한림대를 포함한 KAIST, POSTECH, GIST, 울산대, 아주대 등 6개 대학이 순위에 들었다. 세계 1위는 싱가포르 난양공대가 차지했다.     ▲한림대 캠퍼스 전경. ⓒ한림대     2012년부터 발표하기 시작한 QS 설립 50주년 미만 대학 순위는 ‘QS 세계대학순위’를 기반으로 매겨진다. 설립 50주년을 넘지 않은 대학만을 대상으로 하며 상위 150개 대학을 발표한다.   평가는 ▲학계 평판도(40%) ▲교수당 학생 수(20%) ▲논문당 피인용 수(20%) ▲졸업생 평판도(10%) ▲외국인교수 비율(5%) ▲외국인 학생 비율(5%) 등 6가지 지표를 통해 이뤄진다.   한림대는 최근 대학의 새로운 비전을 바탕으로 복수전공 필수화와 융합인재학부 신설, 융합전공 교육기회 확대, 글로벌 융합대학 설립을 추진하며 국제 사회에서 필요로 하는 핵심 인재 육성을 위한 변화를 이어가고 있다.   </t>
+  </si>
+  <si>
     <t xml:space="preserve">           박성효 자유한국당 대전시장 예비후보가 도시철도 2호선과 관련, 지하와 고가를 혼용하고 고속트램을 운행하는 방식을 구상, 시장 당선 후 적극 추진하겠다는 의지를 표명했다.  박 예비후보는 26일 오후 선거캠프에서 기자회견을 갖고, 이 같은 대전도시철도 2호선 ‘DTX(Daejeon metropolitan Train eXpress) 건설’ 구상을 발표했다.  박 예비후보는 “DTX는 기존 정부의 예비타당성(이하 예타) 통과 예산 및 동일 노선으로 추진, 타당성 재조사 없이 내년 말 설계 착수에 들어가 오는 2020년 착공이 가능할 것”이라는 판단을 내놨다.  특히 DTX는 주요 도심 통과 구간의 경우 지하로 운행하고, 속도가 빠른 경전철인 ‘고속트램’을 선택해 기존 트램의 단점인 교통 혼잡과 느린 속도 우려를 해소하겠다는 계획이다.  DTX는 민선 5기 예타를 통과한 자기부상열차 노선(1단계 28.6㎞, 2단계 6㎞)에 38㎞/h의 ‘고속트램’을 운행하고, 구간별로 지하 및 고가를 혼용하는 건설방식이다.  박 예비후보의 설명대로라면, 지하구간은 서구 가수원교~서대전~대흥~대동~가양~중리동~오정 농산물시장~둔산~과학공원 네거리 19.5㎞로, 저심도 공법을 적용해 건설함으로써 그동안 트램의 단점으로 지적돼온 차로 잠식에 의한 교통 정체 문제를 해소할 수 있다.  또 고가구간은 과학공원 네거리~카이스트~유성구청~충남대~유성온천~목원대~도안~진잠~관저~가수원교 14㎞로, 갑천변과 도안신도시에 건설해 도시경관 저해를 일정부분 줄이고, 서대전IC 인근 차량기지 인입선 구간 1.1㎞는 노면으로 운영된다.  고가 구조물의 경우, 주변 경관과 어우러지는 심플하고 세련된 디자인으로 설계, 갑천변 DTX 고가는 갑천과 함께 새로운 명소로 각광받을 수 있을 것이라는 설명이다.  이와 함께 대덕구와 유성구의 교통소외를 해소하는 방안으로 가칭 ‘대덕테크노밸리 지선’을 구축하겠다는 의지를 밝혔다. 해당구간은 중리동~연축동~전민동~대덕테크노밸리~송강~3.4산업단지~신탄진에 이른다.  이에 따른 건설비를 보면, 1단계 구간은 민선 5기 자기부상열차 1단계 구간 1조 3671억 원의 87.8%인 1조 1961억원으로 추산했으며, 2단계 구간은 2193억 원, 대덕테크노밸리 지선 구간은 2576억 원으로 각각 추산했다.  박성효 예비후보는 “DTX는 한마디로 속도가 빠른 경전철의 장점과 설비·운영이 간단하고 이용이 편리한 트램의 장점을 융합한 것”이라며 “향후 세부적인 사항은 전문가들과의 협의를 통해 구체화할 계획”이라고 밝혔다. 							 </t>
   </si>
   <si>
-    <t xml:space="preserve">      12일, 한국과학기술원을 방문해 채수찬 대외부총장과 새만금 관련 렵력방안을 논의한 김현숙 새만금개발청장(사진 오른쪽)ⓒ새만금개발청      새만금개발청이 시진핑 중국 국가주석의 새만금 방문을 추진하고 있는 것으로 알려졌다.12일 새만금개발청에 따르면 이날 김현숙 청장이 세종시와 대전에 있는 대외경제정책연구원과 한국과학기술원(KAIST, 대전)을 잇따라 찾아 새만금 주요사업 현황을 소개하고, 시진핑 주석의 새만금 방문 방안 등을 논의했다.   김 청장은 대외경제정책연구원의 정철 부원장 등 관계자들을 만나 새만금 한중산업협력단지 활성화 방안 및 새만금 국제포럼 개최를 통한 시진핑' 주석 방한 시 새만금 현장 초청 등에 대해 의견을 나눴다. 이어 김 청장은 한국과학기술원 채수찬 대외부총장을 만나 새만금 개발사업 현황을 소개하고, 시진핑 주석 방문 관련 포럼 개최와 신규 산업 및 기업 유치 등에 한국과학기술원의 협력을 요청했다.   채 부총장은 "새만금 포럼을 통한 시진핑 주석 초청은 좋은 아이디어로 적극 협력하겠다"라며 "새만금에 주요 인프라가 갖춰져 있고 있는 지금부터가 중요하다"고 강조했다. 앞서 대회경제정책연구원 정 부원장은 "새만금 홍보를 위해서는 좋은 방안이지만, 국내 다양한 한중포럼과는 차별되는 내용이 있어야 한다"라며 "현실적으로, 이동 거리 및 방한일정을 생각할 때 수도권에서 행사를 개최하는 것도 검토할 필요가 있다"고 의견을 제시했다. 한편 김 청장은 대전에 위치한 한국항공우주연구원을 방문해 임호철 원장 등을 만나 새만금 국제공항과 주변 여건에 대해서 설명하고, 새만금에 적합한 항공우주분야 신산업 소개와 향후 연구원의 신규 사업 추진 시 새만금의 공간활용 검토를 요청했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ⓒ 황호진 후보측      황호진 전북교육감 예비후보는 10일 전주대학교 스타센터에서 3000여명이 참석한 가운데 성황리에 출판기념회를 마쳤다. 이날 출판기념회에는 유성엽 국회 교육문화체육관광위원장을 비롯해 시장군수, 지방의원, 이상덕 전북교총회장 등 교육 계관계자들과 지인들이 함께 했다.  유성엽 의원은 축사를 통해 “평소 황호진 후보는 전북교육에 대한 애정 어린 관심을 바탕으로 전북교육을 위해 노력해 왔다”면서 “황 후보의 지론처럼 교육부의 권한이 지역 교육청으로 이양되는 교육자치제가 실현되기를 바란다”고 말했다.  출판기념회에서 특강을 진행한 임상빈 KAIST 새로운교육대표는 “4차혁명을 대비하기 위해 초등학교 때부터 SW교육이 필요하다”고 강조하면서 “전북이 대한민국에서 가장 활발하게 코딩교육을 포함한 소프트웨어 교육이 이루어지기를 희망한다”고 밝혔다. 황호진 후보는 ‘학생이 주인 되는 학교’ 저자와의 대화를 통해 “현재 우리 학교는 어른들의 의한, 어른들을 위한, 어른들에게 필요한 학교가 되어 있다”고 지적하면서 “앞으로 전북의 학교를 ‘학생들을 위한’ 학교로 만들어 가는데 노력해 나가겠다”고 말했다. 그는 이어 “우리 교육이 출세지향적인 교육 분위기 때문에 학생들이 무한경쟁에 내몰리고 있는 실정이다” 면서 “다가오는 4차산업혁명에 대비하기 위해서는 학생 개인의 자질을 키우고 다양성을 존중해 역량 있는 인재를 키워내는 근본적인 교육의 변화가 필요하다”고 주장했다.  한편 이날 출판기념회에는 김완영 당시 용봉초등학교 담임교사가 참석해 “황 어린이는 어렸을 때부터 리더쉽이 뛰어난 학생이었다. 황호진 후보가 책에서 그리는 교육세상이 이루어지기를 바란다”고 밝혀 많은 관객들의 공감을 얻었다.      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 0세 음악회 포스터 ⓒ대전시      대전시립교향악단이 시민 맞춤형 콘서트로 가을을 수놓는다.  대전시립교향악단은 11일 카이스트에서 ‘캠퍼스에 퍼지는 비타민 클래식’을, 12일 대전예술의전당 앙상블홀에서‘0세 음악회’를 연다.  캠퍼스에 퍼지는 비타민 클래식은 스쿨 클래식 시리즈로 카이스트 가족과 시민들을 위해 열리며, 0세 음악회는 임산부와 태아를 위해 ‘클래식 속의 동화’를 주제로 연주한다.  0세부터 어른까지 시민 맞춤형 콘서트로 개최하는 이번 음악회는 류명우 전임지휘자의 해설이 함께 하는 지휘와 소프라노 마혜선, 조은주, 바리톤 길경호의 아름다운 아리아가 함께한다.  연주회 레퍼토리는 로시니의 오페라 ‘신데렐라’서곡, 훔퍼딩크의 오페라 ‘헨젤과 그레텔’ 서곡, 모차르트의 오페라 ‘마술피리’ 셀렉션, 차이콥스키의 발레모음곡 ‘잠자는 숲속의 공주’ 서주와 왈츠 등으로 구성된다.        ▲대전시향 캠퍼스 음악회 포스터 ⓒ대전시향    여기에 카이스트 공연은 플루티스트 라팔 졸코스의 연주로 모차르트의 ‘플루트 협주곡 사장조, 작품 313’이, ‘0세 음악회’에서는 피아니스트 함인아의 연주로 모차르트 ‘피아노 협주곡 제23번 가장조, 작품 488’이 더해진다.  </t>
+    <t xml:space="preserve">          ▲ (좌) 일반적인 그래핀 섬유의 단면과 (중), (우) 도파민을 이용하여 두단계로 결함 제어된 후의 그래핀 섬유의 단면의 전자현미경 이미지 ⓒKAIST       KAIST 신소재공학과 김상욱 교수 연구팀이 흑연계 그래핀을 이용해 우수한 물성을 갖는 신개념의 탄소섬유를 개발했다.  그래핀이 액체에 분산됐을 때 액정을 형성하는 새로운 현상을 최초로 밝히고 관련 원천특허를 보유하고 있는 연구팀은 그래핀 액정을 기반으로 하는 다양한 신소재 관련 후속연구를 통해 해당 분야를 선도하고 있다.  최근에는 그래핀 액정을 이용한 값싼 습식 섬유공정을 통해 기존 탄소섬유보다 훨씬 저렴한 탄소섬유의 제조가 가능한 것으로 규명됐다.  그러나 현재까지의 공정으로는 섬유 형성 과정에서 그래핀 층의 접힘 현상이 발생해 공극이 발생한다는 고질적인 문제점이 있다. 이러한 구조적 결함은 탄소섬유의 기계적 물성 뿐 아니라 전기전도성도 취약하게 만든다.  김 교수 연구팀은 문제 해결을 위해 자연계의 홍합에서 영감을 얻어 개발된 고분자인 도파민의 접착 성질에 주목했다. 다양한 분야에서 연구되는 이 도파민을 이용하면 그래핀 층간의 접착력을 증가시켜 구조적 결함을 방지하는 효과를 기대할 수 있다.  연구팀은 이를 통해 구조적 결함이 제어된 고강도의 탄소섬유 제작에 성공했다. 또한 폴리도파민의 탄화과정을 통해 전기전도도 역시 향상된 섬유를 제조하는 데 성공했다.  연구팀은 도파민에 열처리를 가하면 그래핀과 유사한 구조를 갖는다는 이론을 바탕으로 그래핀 액정 상에서 도파민의 고분자화 조건을 최적화시켰고, 이를 섬유화해 기존 그래핀 섬유의 본질적인 결함 제어 문제를 해결했다.  또한 도파민의 구조 변환을 통해 기존 고분자의 근본적 한계인 전도도 측면에서 손해를 보지 않으면서, 도파민 분자에 존재하는 질소의 영향으로 전기전도도 측면에서도 물성이 향상됨을 확인했다.  김상욱 교수는 “그래핀 액정을 이용한 탄소섬유는 기술적 잠재성에도 불구하고 구조적 한계를 극복해야 하는 한계가 있었다”며 “이번 기술은 추후 복합섬유 제조 및 다양한 웨어러블 직물기반 응용소자에 활용 가능할 것이다”고 말했다.  연구팀이 개발한 탄소섬유는 홍합접착제로 잘 알려진 폴리도파민(poly-dopamine)을 이용해 그래핀 층간 접착력을 높여 고강도, 고전도도를 갖는다. 이 신소재는 직물형태의 다양한 웨어러블 장치용 원천소재로 활용 가능할 것으로 기대된다.  김인호 박사과정이 1저자로 참여한 이번 연구는 재료과학분야 국제 학술지 ‘어드밴스드 머티리얼즈(Advanced Materials)’ 10월 4일자 표지논문으로 선정됐다. (논문명 : Mussel-Inspired Defect Engineering of Graphene Liquid Crystalline Fibers for Synergistic Enhancement of Mechanical Strength and Electrical Conductivity, 홍합접착제를 이용한 구조적 결함 제어를 통한 고강도/고전도도의 그래핀 액정 섬유 제조) 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      장제원 자유한국당 수석대변인이 "사회주의 국가로 만들려는 것이 문재인 정부가 하려는 것이 아닌가 하는 의구심이 있다"고 말했다. 그는 2일 자유한국당 최고위원회 회의에서 국회 개헌특위 자문위원회가 마련한 개헌안 관련 언론 보도를 인용하며 이같이 주장했다. 장 대변인은 "(개헌안에) 자유시장 경제는 없어지고 사회적 경제가 자리를 잡았다. 평화통일이 없어지고 민주통일이 자리잡았다. 기업의 자유를 옥죄는 노동이사제, 비정규직 철폐가 들어갔다"며 "자유한국당은 이런 사회주의 헌법 개정, 문재인 개헌을 막아내고 자유민주주의 헌법 개정, 국민 개헌을 끝까지 관철시킬 것"이라고 말했다.자문위는 헌법안에 '국가는 중소기업과 소상공인을 보호·육성하고, 사회적 경제의 발전을 위하여 노력하여야 한다'는 등의 규정을 포함한 것으로 알려졌다. 그간 장 대변인은 '사회적 경제'와 '사회주의' 개념을 혼동하고 있다는 지적을 받아왔다. 사회적 경제가 시장경제와 배치되는 개념이 아니라는 비판을 이를 의식한 듯 그는 이날 "자유시장 경제의 보완 가치인 사회적 경제의 이념이 그 빈자리를 메우고 있다"고 말했다. 그럼에도 사회적 경제 등이 포함된 개헌을 뭉뚱그려 '사회주의 개헌'이라고 명토박은 것이다.장 대변인의 규정과 달리 유럽위원회(EC)에서는 사회적 경제를 다음과 같이 정의한다. "사회적 경제는 협동조합, 상호 사회단체, 비영리 단체, 사회 기업을 포함하며 유럽 시장에서 광범위한 제품과 서비스를 제공하고 있다. 사회적 기업은 사회적 혁신을 위한 엔진이다." 예를 들어, 스페인의 명문구단 FC바르셀로나는 사회적 경제의 일환인 협동조합이다. 재계 3위인 SK그룹도 사회적 기업가 MBA과정을 KAIST 경영대학원에서 운영하고 있다. 무엇보다 사회적 경제는 이명박-박근혜 정부 시절, 자유한국당의 전신인 새누리당도 지지했던 개념이다. 사회적 경제 기본법은 지난 2014년 새누리당에서 당론으로 채택하고 67명이 공동발의에 참여한 법안이다. 공동발의한 의원으로는 현 자유한국당 정책위의장을 맡은 함진규 의원도 있었다. 사회적기업육성법은 노무현 대통령 재임시절 여야 합의로 통과됐고, 이명박 대통령은 사회적 기업을 국정과제로 채택했다. 사회적 경제에서 한 축을 담당하는 협동조합기본법은 이명박 대통령 재임 시절 새누리당이 다수당이던 국회가 통과시키기도 했다. 당시 사회적 경제 기본법안을 대표 발의한 바른정당 유승민 대표는 "사회적 경제'는 '사회주의 경제'가 아니다"며 "사회적 경제는 정부의 세금 투입이 늘어나야만 복지가 확대되고, 양극화를 해결할 수 있다는 일부 좌파들의 주장과도 다르다"고 밝힌 적이 있다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲글자 포함 화자 인식 모식도 ⓒKAIST       KAIST 신소재공학과 이건재 교수와 전기및전자공학부 유창동 교수 연구팀이 인공지능 기반의 화자(話者) 인식용 유연 압전 음성센서를 개발했다.  이번 연구를 통해 개인별 음성 서비스를 스마트 홈 가전이나 인공지능 비서, 생체 인증 분야 등 차세대 기술에 활용 가능할 것으로 기대된다.  음성 센서는 인간과 기계 사이의 자유로운 소통을 가능하게 만드는 가장 직관적인 수단으로 4차 산업혁명의 핵심 기술로 주목받고 있다.  음성센서 시장은 2021년 대략 160억 달러 규모로 커질 것으로 예상된다.  그러나 현재 산업계에서는 음성 신호 수신 시 정전용량을 측정하는 콘덴서 형식을 사용하기 때문에 민감도가 낮고 인식 거리가 짧아 화자 인식률에 한계가 있다.  연구팀은 인간의 달팽이관을 모사해 주파수에 따라 다른 영역이 진동하는 사다리꼴의 얇은 막을 제작했다. 음성신호에 따른 공진형 진동을 유연 압전 물질을 통해 감지하는 자가발전 고민감 음성 센서를 개발했다.  연구팀의 음성 센서는 기존 기술 대비 2배 이상 높은 민감도를 가져 미세한 음성 신호를 원거리에서도 감지할 수 있다. 또한 다채널로 신호를 받아들여 하나의 언어에 대해 복수 개의 데이터를 얻을 수 있다.  이 기술을 기반으로 누가 이야기하는지 찾아내는 화자인식 시스템에 적용해 97.5%의 화자인식 성공률을 무향실에서 달성했고 기존 기술 대비 오류를 75% 이상 줄였다.  화자인식 서비스는 음성 분야에 세상을 바꿀 기술로 기대를 받고 있다.  기존 기술은 소프트웨어 업그레이드를 통한 접근으로 인식률에 한계가 있었지만 연구팀의 기술은 하드웨어 센서를 개발함으로써 능력을 크게 향상시켰다.  추후 첨단 소프트웨어를 접목한다면 다양한 환경에서도 화자 및 음성 인식률을 높일 수 있을 것으로 예상된다.        ▲ 이건재 교수 ⓒKAIST    이건재 교수는 “이번에 개발한 머신 러닝 기반 고민감 유연 압전 음성센서는 화자를 정확하게 구별할 수 있기 때문에 개인별 음성 서비스를 스마트 가전이나 인공지능 비서에 접목할 수 있을 것이며 생체 인증 및 핀테크와 같은 보안 분야에서도 큰 역할을 할 수 있을 것이다”고 말했다.  이번 연구 결과는 국제 학술지 ‘나노 에너지(Nano Energy)’ 9월호에 ‘민감도’와 ‘화자인식’ 논문 두 편으로 동시 게재됐고 현재 관련 기술은 실용화 단계에 있다. (민감도 논문 : Basilar Membrane-Inspired Self-Powered Acoustic Sensor Enabled by Highly Sensitive Multi Tunable Frequency Band, 화자인식 논문 : Machine Learning-based Self-powered Acoustic Sensor for Speaker Recognition)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ⓒ한수원      한국수력원자력(사장 정재훈, 이하 한수원)이 24일 경주화백컨벤션센터에서 ‘2019 산학연 통합 사업화 유망기술 설명회’를 개최했다.  올해로 4회째 개최한 설명회는 한수원과 한국원자력연구원 등이 보유한 각종 기술을 중소기업에 소개하는 자리다. 이후 관심 있는 기업들이 기술이전을 받을 수 있도록 지원한다.  행사는 한수원이 주관하고, 한국원자력연구원, 기술보증기금, 한국원자력산업회의, KAIST, 경희대, 해오름동맹 3개 대학(UNIST, 동국대, 울산대)이 공동주최했다.  정재훈 한수원 사장과 이영석 경주부시장, 임채영 한국원자력연구원 본부장을 비롯한 100여개의 중소기업들이 참석했다.  정재훈 사장은 “다양한 중소기업 지원활동 중 기술이전은 수익과 일자리, 두 가지 성과를 동시에 창출하는 의미가 큰 사업”이라며, “앞으로도 중소기업에 실질적으로 도움이 되는 사업들을 확대해 원전산업생태계 유지와 활성화를 위해 노력할 것”이라고 말했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲어드밴스드 펑셔널 머티리얼즈(Advanced Functional Materials) 표지 ⓒKAIST       KAIST 생명화학공학과 김도현 교수 연구팀이 수력 공정의 전단력(剪斷力)과 혼합특성을 이용해 2차원 나노소재 분산용액을 대량생산할 수 있는 기술을 개발했다.  2차원 나노소재 분산용액은 전자, 에너지 저장 및 전환 소자 개발에 사용되는 용액기반 공정에 직접 적용 가능해 소자의 다양화와 성능 개선을 실현시키는 데 기여할 것으로 기대된다.  2차원 소재는 나노사이즈의 두께로 박리됐을 때 새롭고 우수한 물리, 화학적 특성이 나타나는 장점이 있으나 기존 박리기술들은 용량 증가에 따라 2차원 소재에 균일한 에너지를 주는 것이 어렵고 고비용과 많은 시간이 소요된다.  또 나노두께로 박리된 2차원 나노시트들은 표면에너지의 증가로 다시 원래 두께로 돌아가려는 성질이 있어 유기용매나 계면활성제 등의 사용이 필요해 농도 제어나 응용성에 한계가 있다.  연구팀은 최근 2년간의 연구를 통해 반응기 내 최적화된 전단력과 혼합효율이 2차원 소재의 박리에 가장 효율적임을 규명했다.  연구팀은 증가된 반응기 용량에서도 이를 균일하게 유지할 수 있는 유동 모델과 응용 분야에 유용한 분산제를 선택해 수용액의 물리적 박리를 통한 고농도 2차원 나노소재의 고속 대량 생산기술을 개발했다.  연구팀은 테일러-쿠에트 흐름 기반의 유동 반응기를 제작했다.  테일러-쿠에트 흐름은 반응기 용량의 증가에도 높은 전단응력과 효과적인 혼합 효과를 가져 균일한 사이즈로 2차원 나노소재가 박리될 수 있다는 장점을 갖는다.  연구팀은 2차원 나노소재를 소량으로도 수용액상 안정화 및 분산시킬 수 있는 이온성 액체를 동국대 한영규 교수팀의 제일원리 계산을 통해 분산제로 선정해 박리효율과 분산농도를 극대화했다.  연구팀은 개발한 분산용액의 성능을 확인하기 위해 막 여과 공정 (membrane filtration process)과 잉크젯 프린터의 잉크에 용액을 적용했다.  연구팀은 고속생산 된 그래핀 분산용액을 막 여과 공정에 적용해 유연하고 높은 전도성의 마이크로 전극 필름을 만들었고, 슈퍼캐패시터 소자의 전극으로 적용했을 때 안정적이고 고성능 용량을 보임을 확인했다.  연구팀은 고속생산 된 그래핀(graphene), 이황화 몰리브덴(MoS2), 붕화 질소(BN) 나노소재 분산용액을 잉크로 사용해 A4용지에 수 마이크로 두께의 나노소재 패턴을 만들었다. 그 중 그래핀 나노소재 패턴은 인쇄 후에도 추가적인 열처리 없이 기존의 전기적 성질을 잃지 않아 패턴 기반의 전기회로 역할을 하는 것을 확인했다.        ▲ 김도현 교수 연구팀 ⓒ KAIST    김 교수는 “연구팀의 수용액상 나노소재 고속, 대량 생산기술은 다양한 종류의 2차원 소재들도 쉽게 적용 가능하다”며 “전자, 바이오센서, 에너지 저장 전환 시스템의 고효율 및 저비용 생산 최적화가 가능할 것이다”고 말했다.  이번 연구 결과는 재료 분야 국제 학술지 ‘어드밴스드 펑셔널 머티리얼즈(Advanced Functional Materials)’ 8월 12일자에 온라인 게재됐고, 논문의 우수성을 인정받아 표지논문에 선정됐다. (논문명 : Hydraulic Power Manufacturing for Highly Scalable and Stable 2D Nanosheet Dispersions and Their Film Electrode Application)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           매년 카이스트(KAIST·총장 신성철) 여성 대학원생들의 ‘성희롱·성추행’에 대한 고충이 설문을 통해 밝혀진 가운데 카이스트 대학의 전문기구가 제 기능을 하지 못하는 유명무실한 상태인 것으로 지적받고 있다.   14일 카이스트 대학원생들에 따르면, 지난 2012년부터 총학생회 차원에서 대학원생들의 ‘연구환경실태조사’를 진행하며 학내 부조리 및 인권침해실태를 파악하고 있는데, 매년 여성 대학원생들의 ‘성희롱·성추행’ 피해 사례가 끊이지 않고 있다.  실제로 2017년도 설문조사에서도 여성 대학원생 429명 중 13.5%인 58명이 교수 또는 동료 등에 의해 ‘성희롱·성추행’ 피해를 입었다고 답했다. 피해 입은 인원수만 놓고 보면, 전년에 조사된 수치보다 다소 높은 것이다.  문제는 대학원 총학 자체조사가 진행된 지난 2012년부터 최근까지 이 같은 여성 대학원생들의 피해가 줄지 않고 있다는 점이다.  사태의 심각성을 인지한 대학원 총학의 경우, 자체적으로 인권센터를 구성해 피해학생들의 상담을 담당하거나, 사안에 따라 유관기관의 협조를 얻어 필요한 조치를 진행하는 등 노력을 기울이고 있지만, 대학 본부 차원의 노력은 피해 학생들에게 크게 도움이 되지 않고 있는 실정이다.  이는 피해 학생들이 대학 본부에서 운영하는 상담실과 인권윤리센터에 대한 불신을 드러내기 때문으로 학생들은 자신들의 피해내용이 교수 또는 교내에 알려져 2차 피해를 입을 것을 크게 우려하고 있는 것으로 전해졌다.  ‘성희롱·성추행’ 피해자는 수차례에 걸친 상담 뿐 아니라, 심리치료 기관 또는 사법기관으로의 인계 등 복잡한 처리절차가 수반되는데 대학 차원에서 나서서 이 같은 일을 진행할 수 있겠냐는 반문도 따른다.  카이스트 대학본부에서 운영하는 상담실과 인권윤리센터는 대학원생 5700여명을 포함해 학부생, 교수, 직원 등 2만여명을 담당해야 하는데, 인권윤리센터의 경우, 센터장을 포함해 겨우 3명만이 일을 수행하고 있는 상황이다. 더구나 센터장은 또다른 보직을 겸하고 있어 사실상 이름만 걸어놓은 상태라는 지적이다.  인권윤리센터 측은 상담실과 대학원 총학 인권센터 등과 벨트를 구축해 학부생 및 대학원생들에 대한 피해 상담과 조치 등에 적극 힘쓸 계획임을 밝혔지만, 대학본부의 기능에 회의적인 대학원 총학 인권센터가 벨트 구축안에 불참키로 함으로써 사실상 헛구호에 그칠 공산이 크다.  카이스트 대학원 총학생회 관계자는 “인권윤리센터 산하에 교수, 학부생, 대학원생 등으로 조직된 포용성위원회가 지난해 9월 설치됐지만, 최근까지 한 번도 회의를 하지 않는 등 전시행정에 불과하다는 지적도 나온다”며 “대학원 총학 차원에서는 대학 본부의 기능에 대해 크게 기대하지 않고 자체 상담기능 강화를 위해 전문상담사 자격획득 등 노력을 기울이고 있다”고 말했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      동해시(시장 심규언)는 한국도서관협회와 10월의 하늘 준비위원회가 공동주최하는 공모사업에 선정돼 오는 31일 오후2시 ‘10월의 하늘’강연회를 개최한다고 밝혔다. ‘10월의 하늘’ 강연회는 카이스트 정재승 교수의 제안으로 시작돼 11주년을 맞이한 과학강연 재능기부 행사로 올해는 전국의 24여개 도서관에서 강연을 진행한다.     ▲동해 발한도서관. ⓒ동해시   이번 강연회는 총2회로 1부는 과학작가(ESC) 소속의 박재용 강사가 ‘우리 모두 똥을 먹어요’라는 주제로 ‘똥을 먹는 동물들을 통한 생태계와 진화에 대한 이야기’를 갖게 된다. 또 2부는 세종 스마트시티 총괄계획단 소속의 조성행 박사의 ‘무서운 코로나, 우리 동네는 어떻게 되어야 할까?’라는 주제로 ‘안심하고 즐겁고 편안할 생활을 위해 어떻게 우리 동네를 바꾸어야 좋은지’에 대한 강연을 진행할 예정이다. 강연은 초등학생 3~6학년 학생들을 대상으로 진행되며, 수강을 희망하는 학생은 오는 13일 오전 10시부터 동해시립도서관 홈페이지를 통해 신청하면 된다. 특히 올해는 코로나19로 인해 ZOOM을 활용한 온라인 화상 강연으로 진행돼 ①PC(웹캠, 마이크 기능 이어폰), ②노트북, ③스마트폰 중 한가지 기기를 필수 지참해야 수강생 접수가 가능하다.  장순희 동해시평생교육센터 소장은 “과학이 쉽고 재미있는 분야라는 것을 청소년들이 경험하고 느끼며, 과학자와 소통하는 시간이 되기를 바란다”고 말했다.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ⓒ포스코      포스코 포항제철소(소장 오형수)는 12일 본사 대회의실에서 한국인 최초로 우주비행을 했던 이소연 박사를 초청, ‘무중력으로부터의 깨달음’이란 주제로 강연을 했다.   카이스트를 졸업한 이 박사는 2008년 4월 러시아 소유즈 우주선을 타고 열흘간 국제우주정거장에서 18가지 과학임무를 수행한 뒤 무사히 귀환했다.   우주탐험 10년을 맞은 올해 이 박사는 지난 우주인 선발 도전 과정부터 우주 비행, 우주에서 본 지구 모습 등 생생한 경험담을 풀어냈으며 이를 통해 자아성찰의 기회를 가지고 끊임없이 도전할 수 있었던 일에 대해 담담하고 솔직하게 전달했다.  이번 강의는 포항, 서울, 광양에 동시 생중계되어 많은 직원들이 들을 수 있도록 했으며 오는 21일 광양제철소에서도 동일한 방식으로 진행될 예정이다.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ⓒ전주대학교      전북 전주대 LINC+사업단과 (사)벤처기업협회 전북지회가 공동 주관하는 전북중소벤처리더스포럼 아카데미 최고경영자과정 제1기 수료식이 전주대 리사이틀홀에서 열렸다.  중소벤처리더스 최고경영자과정은 ‘벤처가 살아나 경제가 산다.’라는 벤처협회 슬로건의 의미를 담아 전북지역 중소벤처기업의 활성화를 위하여 전주대 LINC+사업단과 (사)벤처기업협회 전북지회가 공동 발족하고 운영하는 전북중소벤처리더스포럼 중점사업의 일환으로 추진됐다.   지난 9월 입학한 45명의 기관 및 중소벤처기업 대표들은 15주 동안 매주 화요일, 4차 산업혁명시대 선도를 위한 역량강화교육 및 명사특강, 창조 경영교육, 디지털마케팅 교육 등 다양한 교육을 이수하였다.  특히 한국SW/ICT 총연합회 조풍연 회장, 한국생산성본부 노규성 회장, 카이스트 이경상 교수, 홍콩 슈팅 갤러리 손정 대표 등 국내 최고 전문가들이 명사로 나서며 급격하게 변화하는 시장의 트렌드를 정확히 집어내고 수강생들의 전문성을 향상시켰다.  수강생들은 6주간 한국생산성본부에서 설계된 디지털마케팅 전문과정도 이수하며 4차 산업혁명을 선도하는 기본 소양을 갖추게 됐다.  전북중소벤처리더스포럼은 지난 10월 25일에는 세계한인무역협회(OKTA) 유럽지회장 일행 30명을 전주대로 초청하여 전북벤처기업협회 회원사와의 무역 상담을 중개하기도 하여 향후 유럽 진출을 위한 교두보를 마련하는 등 지역의 중소 벤처기업 활성화에 크게 기여하고 있다.  아울러 이날 수료식에서는 제1기 수료생 중심으로 구성된 원우회(회장 최혁종)가 4차 산업혁명 시대를 선도할 미래 인재 육성과 전주대 발전을 위한 발전기금 300만원을 전달했다.  최혁종 원우회장은 “전주대의 지역 중소 벤처기업 발전을 위한 노력에 감사하며 4차 산업혁명 시대를 선도할 우수한 인재양성에 힘써 달라"고 전했다.  전주대 이호인 총장은 “벤처기업이 지역경제를 이끌어가는 중심점에서 기업의 리더들이 다함께 다가오는 미래를 준비해야 한다”며 “중소 벤처분야와 지역산업이 함께 발전하고 성장할 수 있도록 대학에서도 최선의 노력을 다하겠다”고 약속했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      (재)영월장학회(이사장 최명서 영월군수)는 지난 21일 강원 영월군청 상황실에서 2020년 제1차 이사회를 개최해 장학생 선발인원을 확대했다고 밝혔다   이날 이사회에서는 올해 사업계획서 및 예산안, 장학금 선발예정 인원 확정안 등 총 6건의 안건을 심의하고 지역인재 양성을 위한 열띤 토론의 시간을 가졌다.   올해 일반대, 세경대, 지역 내 고등학교 등 장학생 선발예정 인원은 312명으로 총 7억 1200만 원의 장학금을 지급할 예정이다.     ▲영월군 청사. ⓒ프레시안     또한, 지난해 대비 일반대 장학생 선발인원을 65명에서 95명으로 30명을 확대하고 장학생 신청자격의 용어를 쉽게 정비했다.   또, 우수대학(서울대, KAIST, POSTECH, UNIST, GIST, 의·수의·한의예·약학·치대) 장학생 중 등록금 전액 타 장학금 수혜자 및 등록금 100만 원 이하 장학생들에게 지급하던 생활비를 연 200만 원에서 연 300만 원으로 증액했다.   올해 영월장학회 장학생 1차 접수는 23일부터 오는 2월18일까지 진행될 예정이다.   최명서 영월군수는 “지역인 재양성 및 어려운 환경 속에서 배움의 뜻을 잃지 않고 열심히 공부하고자 하는 학생들에게 더 많은 혜택이 돌아갈 수 있도록 적극 노력하겠다”고 말했다.   한편, 1989년 설립된 영월장학회는 영월군 출연금을 비롯해 각계각층의 후원으로 2019년 12월 말 136억 원의 기금이 조성됐으며 그동안 4203명에게 장학금 61억 700만 원을 지급했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           제21기 통일교육위원 대전협의회(이하 협의회)가 본격 출범했다.  협의회는 26일 오후 대전 레전드호텔에서 출범식 및 워크숍을 가졌다고 27일 밝혔다.  이날 행사에는 협의회 회장인 한남대 이덕훈 총장과 이무일 통일교육원장을 비롯해 대학, 공공기관, 기업, 언론 등 각계의 통일 전문 위원들이 참석했다.   이덕훈 회장은 개회사에서 “역사적인 남북정상회담이 열리는 전날 이렇게 통일교육위원 대전협의회 출범식을 개최해 뜻 깊게 생각한다”며 “한반도 평화를 위한 긴 여정의 출발선상에 있는 지금 여기 계신 위원님들과 함께 지혜를 모아 통일 교육의 장을 넓히고 소통하며 나아가겠다”고 말했다.  이어 이무일 원장의 축사, 위촉장 전수, 임원 선임 이후, 세종연구소 통일전략연구실 정성장 실장의 ‘북한의 대남·대외 정책 전환과 김정은의 리더십 재평가’란 주제로 특강이 이어졌다.  총 위원 39명 중 19명이 새로 위촉된 이번 ‘제21기 통일교육위원 대전협의회’는 각각 한 목소리로 다음 세대를 위한 통일 교육의 필요성을 공감했다.   정기철 위원(한남대 국어국문창작학과 교수)은 “청소년과 사회 소외계층을 응원하기 위해 만든 학과 연극동아리가 있는데 학생들의 눈높이에서 통일을 주제로 한 연극을 기획하면 감동적일 것 같다”고 말했다.   한편 이날 선임된 제21기 통일교육위원 대전협의회 임원은 부회장에 배명헌 카이스트 연구원, 현은용 한남대 입학사정관, 감사에 노기옥 건양대 간호학과 교수, 오세구 대전 반석고등학교 교장, 최이조 ㈜고운식물원 본부장 등이다.  통일교육위원 협의회는 통일부 통일교육원 산하 기관으로 전국 시·도에 17개, 미국 일본 등 5개 협의회로 구성돼 있다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      대선 전 국민의당 당원이 문재인 대통령 아들의 특혜 취업 정황 증언을 날조해 냈다는 충격적 사건과 관련, 국민의당 내에서는 안철수 당시 대선후보의 책임론이 불거지는 한편 '특검 도입' 주장이 나오고 있다. 일각에선 해당 증언이 조작으로 밝혀진 점이 문 대통령 아들의 특혜 취업 의혹 전체가 근거가 없다는 것을 의미하지는 않는다며 선을 긋기도 했다. 더불어민주당이 강경 대응을 예고하고 있는 가운데, 국민의당이 이같은 태도를 취함으로써 당분간 이 문제가 첨예한 정치 쟁점이 될 가능성이 더 커졌다.   박주선 국민의당 비상대책위원장은 27일 오전 기자들과 만나 "증거를 조작해서 문 대통령 아들에 대해 명예를 훼손하고 범죄 혐의가 있는 것처럼 (주장)한 것은 미안하다고 사과했다"며 "그렇다고 해서 특혜 채용 전체가 명쾌하게 해결됐다거나 사실이 아니라고 말할 수는 없다"고 했다. 박 비대위원장은 그러면서 특검으로 이번 문제를 해결하자고 주장했다. 그는 "민주당은 우리가 증거 조작에 여러 사람이 관여했는데 꼬리 자르기 식으로 수사를 축소하려 한다는 의혹을 갖고 있기 때문에 그 부분은 (민주당이) 특검에 협조하면 해소될 것으로 본다. 민주당 입장에서 특검을 반대할 이유는 없다고 본다"고 말했다.   김동철 국민의당 원내대표도 앞서 이날 원내대책회의에서 "상상조차 할 수 없는 일이 벌어졌다. 거듭 사죄 말씀 드린다"며 해당 사건에 대해 비판한 뒤 "검찰, 나아가 특검이 이번 사건을 한 점 의혹 없이 철저히 수사해 국기문란사범으로 법정 최고형으로 다뤄 달라"고 주장했다. 김 원내대표는 회의 후 "여야가 합의한다면 특검이 더 좋은 것 아닐까. 어떤 의혹도 없이 한번에 해결할 수 있으니까"라며 "천인공노할 증거 조작이 있었지만, 그게 문준용 씨의 특혜 취업(의혹)에 면죄부를 줄 수는 없다. 증거 조작 당사자들은 법이 할 수 있는 최고형에 처해야 하지만, 그 발단이 된 것은 문준용 씨의 특혜 취업 의혹이니까 그 두 가지를 동시에 처리할 수 있도록 특검도 하나의 방법이 될 수 있다"고 말했다. 그는 "여야가 특검에 합의해 준다면 우리 당은 특검 추천을 하지 않겠다"고도 했다. 국민의당은 이날 의원총회 등을 통해 특검 도입을 당 차원에서 공식 요구할지 등 이번 사태 대응 방안을 논의할 것으로 알려졌다. 국민의당은 이날 검찰 조사와는 별개로 당 자체 진상조사단을 구성하고, 단장에 김관영 의원(재선, 전북 군산)을 임명했다고 밝혔다. 특검론 도입, 왜?…"문준용 취업 비리도 철저히 조사" 역공  특검론을 처음 공식화한 것은 '증언 조작' 사건 당시 당 대표였던 박지원 전 대표다. 박 전 대표는 이날 평화방송(CPBC) 라디오 인터뷰에서 "충격적 내용을 보고 깜짝 놀랐다. 어떻게 당에서 이런 일이 있었을까"라며 "대선 당시 당 대표이자 상임선대위원장으로서 파일이 조작되었다면 대단히 잘못됐고 유감스러운 일"이라고 사과하면서도 "그렇지만 녹취록, 카톡 캡처 이런 것이 조작된 것과 본질은 다르다"며 특검 도입을 주장했다.   박 전 대표는 "특검을 해서, 우리 당의 잘못이 있다고 하면 그 잘못도 철저히 규명돼서 정확하게 처벌하고 법적 조치를 해야 된다. 따라서 저는 특검을 제안한다"며 "우리 당원에 의해서 조작됐다고 하면 그것도 잘못이지만 문준용 씨의 모든 채용 비리 자체가 어떻게 되었는가 하는 문제에 대해서도 철저히 조사가 되어야 되기 때문에 저는 특검으로 가서 국민 의혹을 규명하는 것이 좋다는 말씀을 드린다"고 했다.   박 전 대표는 대선 당시 당 대표였던 자신과 안철수 대선후보가 조작 사실을 알았는지에 대해 "저에게는 전혀 보고한 사실이 없고 그 내용도 몰랐다"며 "(안철수 후보도) 몰랐을 가능성이 높다고 생각한다. 상식적으로 봐도 책임 있는 지도부, 또 관계자라고 하면 이것을 '조작해서 해라' 할 수 있는 사람은 없을 것"이라고 말했다.   안철수 전 후보와 가까운 '친(親)안철수계'로 분류되는 문병호 전 의원도 이날 YTN 라디오 인터뷰에서 "선거가 워낙 화급한 시기였기 때문에 정확한 검증을 못하고 이것을 대외적으로 발표했었는데, 이 문제에 대해서 정확한 조사가 필요할 것 같다"면서도 "안철수 후보도 그것을 알고 있었느냐, 여러 가지 따져봐야 할 문제인데 지금까지 파악한 바로는 공명선거추진단 정도에서 이 문제가 논의됐고, 아마 박지원 상임선대위원장에게도 정확히 보고가 되지 않은 것으로 파악하고 있다"고 했다.   박 전 대표는 이번 녹취록 조작의 주범으로 지목된 국민의당 당원 이유미 씨와 이 씨로부터 조작된 파일을 넘겨받아 당 지도부에 전달한 이준서 최고위원에 대해 "그 분들이 만약 안철수 후보의 측근이라 해도 그렇게 선거에 깊숙이 개입한 사람들이 아니다"라고 선을 긋기도 했다.  '안철수 책임론'도 불거져…이상돈 "이유미는 안철수 광팬, 이준서도 安이 데려와"  이 씨와 이 전 최고위원의 공모 여부, 즉 이 전 최고위원이 조작을 지시했거나 최소한 조작 사실을 알고도 묵인했는지 여부는 이번 사건이 얼마나 대형화될지를 가르는 첫 분수령이 된다.   전날 JTBC 방송 보도에 따르면, 이 씨는 검찰 조사를 앞두고 주변에 보낸 메시지에서 "모 위원장의 지시로 허위 자료를 만든 일로 오늘 남부지검 참고인 조사를 받게 됐다"며 자신이 증언 녹취록을 조작한 것이 사실상 이준서 전 최고위원의 "지시"에 의한 것이라고 주장했다. 방송에 따르면 이 씨는 "아마 당에서는 사과문 발표하고 저희를 출당 조치할 것"이라며 "그 위원장도 저에게 책임을 씌우고 있어서 몹시 어렵다", "당이 당원을 케어(care)하지 않는다는 것을 알게 됐다"고 주장했다. 이 씨는 또 "당에서 기획해서 지시해 놓고 꼬리자르기를 하려 한다"는 내용의 문자 메시지를 주변에 보내기도 한 것으로 전해졌다.   또 &lt;조선일보&gt;는 이 씨가 지난 5월 5일 공개 기자회견을 하기 전에 이 전 최고위원에게 "지금이라도 늦지 않았다. 꾸며낸 일이라고 털어놓자"고 했지만, 이 전 최고위원은 오히려 "대선이 끝나면 고소 고발은 모두 취하된다"며 묵살했다고 보도했다. 이 전 최고위원은 이에 대해 &lt;조선&gt; 인터뷰에서 "이 씨가 제보자를 보호하기 위해서 하는 말로 이해했다"고 해명했다.   이유미 씨 본인 역시 안 전 후보가 카이스트 기술경영대학원 교수로 있을 때 제자였던 것으로 알려지면서 '안철수의 측근'으로 지목되기도 했다. 다만 "이 씨가 무슨 측근이냐"는 반론도 있다. 이준서 전 최고위원이 국민의당에 영입될 당시 그를 추천한 것으로 알려진 한 인사는 이 씨에 대해 "무슨 측근이 총선 공천은커녕 컷오프를 당하느냐"며 "이 씨는 2012년 대선 때에도 자원봉사자였고, 이번 대선 때도 거의 역할을 한 것이 없다. 청년위 부위원장을 맡은 것도 대선 후반으로 와서의 일"이라고 했다. 실제로 이 씨가 출마 의사를 밝힌 2016년 총선 전남 여수갑 지역구 국민의당 후보 경선은 김경호·김영규·이용주 3파전으로 치러졌었다.  이 씨의 국민의당 대선캠프 내 위상이나 이준서 전 최고위원과의 공모 여부와는 별개로, 이 전 최고위원은 안철수 전 대선후보가 지난 총선을 앞두고 2016년 1월 국민의당을 창당할 때 외부 영입인사 1호로 영입한 인사라는 점에서 이 전 최고위원이 어떤 형태로든 사건에 연루된 것 자체가 안 전 후보에게는 정치적 타격으로 작용할 전망이다.   국민의당 이상돈 의원은 이날 기독교방송(CBS) 라디오 인터뷰에서 "안철수 후보가 이것(조작 사실)을 알고 그럴 사람은 아닌데, 여하튼 본인도 책임을 면할 수 없다"며 "자신이 데려온 사람이 사고를 일으킨 것 아니냐. 거기에 대해서는 응당 정치적으로 책임이 있다"고 주장했다.   이 의원은 "이준서 전 최고위원은 사실 정확한 뿌리는 잘 모르는 사람 아니냐. 젊은 표 공략한다고 (영입했지만) 경력도 일천하고 그렇다고 시의원이나 한 사람도 아니다. 그 후에 최고위원이니 비대위원이니 타이틀은 거창했지만 그 사람이 당의 중요한 의사결정에 큰 영향을 미쳤다고 저는 보지 않는다"며 "더 중요한 것은 안철수 대표가 처음 창당 때부터 데려온 사람 아니냐"고 했다.   이 의원은 또 "이유미라는 이 문제의 인물도 (2012년 안철수 대선캠프인) '진심캠프' 때부터 안철수 팬 중에서도 극렬한 팬이다. 광팬이라고 말할 수 있다"며 "제가 짐작하기로는 이유미라는 사람이 (공명선거추진단장) 이용주 의원이나 그 위의 상층부, 선대위원이나 본부장과 연락이 있었던 사람은 아닌 것 같다"고 했다. 이 의원은 "이준서 본인은 현재 부인하고 있고 자기도 속았다는 식으로 얘기하고 있지만, 그것(조작된 증언)을 가지고 이용주 의원과 김인원 부단장 두 사람한테 얘기해서 이 두 사람이 이것을 진실이라고 믿고 터뜨리게 한 것 아니냐. 그 과정이 너무 허술했다. 어떻게 검사 출신인 사람들이 스크린(걸러내기)도 못하고…"라며 "설마 이용주 의원이나 선대위원, 본부장 이런 사람들이 알고서 그럴 리는 없는데. 이걸 막지 못한 것에 대해서 입이 열 개라도 할 말이 없다"고 대선 당시 선대위 요직에 있던 이들을 싸잡아 비판했다.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲KAIST 2019학년도 입학식에 참석한 새내기들 ⓒKAIST       KAIST(총장 신성철)는 20일 대전 본원 대강당에서 2019학년도 입학식을 겸한 KAIST가족 환영행사를 가졌다.  지난 1971년 설립된 KAIST는 1986년부터 학사과정 학생을 선발하기 시작해 올해 34번째 입학식을 개최했다.  이날 입학식에는 721명의 신입생이 참석해 대학생활의 첫발을 내디뎠다.  신입생 구성은 일반전형 546명과 학교장 추천전형 89명, 고른기회전형 37명, 특기자전형 18명, 수능우수자전형 11명, 외국인전형 20명이다.        ▲입학식에서 신입생들의 선서를 받고있는 신성철 총장 ⓒKAIST    신성철 총장은“기초과목을 폭 넓게 공부하는 학생, 미래 글로벌 리더로서의 꿈을 갖고 훈련하고 준비하는 학생, 학문·삶·생각의 깊이와 폭을 넓힐 수 있게 동문과 전공, 국적을 초월해 다양한 친구를 사귀는 학생이 되어 줄 것”을 당부했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      한림대학교는 영국의 대학평가기관 QS(Quacquarelli Symonds)와 THE(Times Higher Education)가 실시한 ‘2018 QS 세계대학평가’ 및 ‘2018 THE 신흥대학순위’에서 각각 국내 21위와 6위에 이름을 올렸다.   이번 QS 세계대학평가에서 한국 대학은 한림대를 포함해 서울대, KAIST, POSTECH, 고려대, 성균관대 등 30개 대학이 순위에 들었다.     ▲한림대 캠퍼스 전경. ⓒ한림대     한림대는 지난 5년간 순위가 꾸준하게 상승하여 올해도 국내 21위, 세계 591-600위에 이름을 올렸고 강원도내 대학 가운데에서는 유일하게 연속 랭크돼 상위권을 지켜왔다. 세계 1위는 미국의 MIT가 차지했다.   또 개교 50년을 넘기지 않은 신흥대학을 대상으로 하는 ‘THE 2018 신흥대학 순위’에서 한림대는 최초 순위에 진입(국내 6위, 세계 201-250위)하는 데 성공하였으며 국내에서는 총 7개 대학이 순위에 포함됐다.   세계에서 가장 권위 있는 양대 대학평가에서 잇따라 고무적인 성적을 거두고 있는 한림대는 2016년 선포한 ‘Vision &amp; Action 2016~2022’를 바탕으로 스쿨제 도입, 복수전공 필수화, 소속변경 자율화, 융합전공 교육기회 확대, 글로벌융합대학 및 글로벌협력대학원 신설 등 국제 사회에서 필요로 하는 핵심 인재 육성을 위한 변화를 이어가고 있다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 포스트이보가 알칼로이드의 합성전략 모식도 ⓒKAIST       KAIST 화학과 한순규 교수 연구팀이 마약중독 치료제와 항암제 후보물질로 쓰일 수 있는 천연물을 인공적으로 합성하는 데 성공했다.  연구팀은 시중에서 구할 수 있는 카타란틴(catharanthine)을 원료로 해 산화와 재배열을 통해 마약중독 치료제 및 항암제 후보물질 생산의 원천기술로 활용될 7종의 이보가 및 포스트이보가 천연물을 합성했다.  이보가 알칼로이드가 생 합성적으로 변형된 천연물 중 빈블라스틴(vinblastine)은 현재 항암제로 쓰이고 있다.  천연물 전합성(全合成)은 간단한 시작물질로부터 다단계의 화학반응을 통해 원하는 천연물을 합성하는 학문 분야이다.  그러나 이 다단계 화학반응을 거치는 과정에서 합성효율이 낮아지는 한계가 있다.  연구팀은 이보가 알칼로이드 천연물인 카타란틴이 미 식품의약국(FDA) 승인 항암제인 나벨빈(Navelbine®)의 공업원료로 쓰여 시중에서 쉽게 구할 수 있다는 점에 착안했다.  산화와 재배열을 통해 카타란틴의 구조를 변형시켜 고부가가치의 포스트이보가 천연물을 효율적으로 합성했다.  연구팀은 이번 연구에서 이보가 알칼로이드에서 자연적으로 파생되면서 분자적 재배열을 이룬 천연물군을 ‘포스트이보가’ 알칼로이드라고 이름 지었다.  그리고 다양한 효소의 작용을 통해 식물 내에서 이뤄지는 이보가 골격의 분자적 재배열을 화학적으로 구현하는 데 성공했다.  합성에 성공한 포스트이보가 알칼로이드는 타버틴진(tabertinggine), 보아틴진(voatinggine), 디피닌(dippinine) B로, 이 중 보아틴진과 디피닌 B는 최초의 합성이다.  특히 디피닌 천연물군은 30년 이상 학계의 관심을 받아왔음에도 정복하지 못한 난공불락의 천연물로 여겨졌는데 이번에 최초로 합성에 성공했다.  한순규 교수는 “이번 연구는 포스트이보가 알칼로이드 합성에 새로운 패러다임을 부여한 연구”라며 “본 연구를 통해 다양한 항암제 및 마약중독 치료제 후보물질을 합성할 수 있는 원천기술을 확보했다는 데 의의가 있다”고 말했다.  이번 연구는 화학 분야 국제 학술지이자 셀자매지인 ‘켐(Chem)’ 11월 15일 자에 ‘생합성 가설에 기반한 이보가 알칼로이드의 단위체 포스트이보가 알칼로이드로의 변환’이라는 제목으로 실렸다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      조동호 과학기술정보통신부 장관 후보자는 27일 제기된 자녀 '호화 유학' 지원 논란에 대해 "문제가 있었다고 생각한다"며 거듭 사과했다.  박성중 의원(자유한국당)은 이날 열린 국회 과학기술정보방송통신위원회 인사청문회에서 "7년 동안 7억을 송금했다. 후보자 연봉이 1억원 내외로 알고 있는데, 연봉 전체를 바친다는 게 이해가 안 된다"며 "그동안 자녀는 포르쉐를 타고 월세 240만원인 아파트에 살며 '황제유학'을 했다"고 비판했다.  이에 조 후보자는 "학교에서 받는 급여 외에 기타 소득이 있고, 전세자금과 아내 퇴직금이 있다. 유학자금은 보낼 수 있는 범위에서 보냈다"고 설명했다.   그러면서도 "자동차(포르쉐) 관련해 문제를 일으켜 송구하다"며 "부부가 같이 직장 생활을 하며 자녀들에 대한 서포팅을 못 했다고 생각해왔다. 이에 잘못된 방향으로 지원한 듯하다"고 사과했다.  박 의원은 "청년 네 명 중 한 명이 실업자다. '인턴'이 '금(金)턴'으로 불리는 현 상황에서 장남과 차남이 정식 채용공고도 없이 인턴이 됐다"며 채용 비리 의혹도 제기했다.   이에 대해 조 후보자는 "채용 과정에 관여하지 않았다"며 "장남과 차남의 인턴 생활은 고용과 직결된 게 아니다"라고 잘라 말했다.  조 후보자의 장남은 2012년 5∼6월 조 후보자가 사내이사를 지낸 '동원 OLEV'에서 인턴을 했다. 차남의 경우 조 후보자가 교수로 재직 중인 카이스트에서 위촉기능원으로 근무한 바 있다.  장남과 차남의 군 복무 특혜 의혹도 제기됐다.   박 의원은 "후보자 차남은 군에서 복무한 637일 중 총 98일의 휴가를 받았다"며 "닷새에 한 번꼴로 휴가를 나온 셈"이라고 지적했다. 또 "장남의 경우 경영학 전공인데 한미연합사령부 통신병으로 배치됐다. 7명 배치됐는데 후보자 장남을 제외한 전부는 전기전자·정보통신 계열"이라고 주장했다.  박 의원은 조 후보자가 국방부 정보화책임관 자문위원에 위촉됐던 사실을 들며, 특혜 의혹을 제기했으나 조 후보자는 "장남, 차남의 군 생활과 관련해 영향을 미친 바 없다"고 해명했다. 한편 조 후보자가 미국 콜로라도대에서 유학 중인 장남의 재산 고지를 거부해 한 차례 논란이 일기도 했다. 조 후보자는 애초 인사혁신처 가이드라인에 따라 고지거부 사유서를 국회에 제출했지만, 이런 고지거부가 오해를 불러일으킨다고 판단함에 따라 청문회 전날인 26일 장남의 재산을 공개했다.  공개한 재산 내용은 콜로라도주 볼더 카운티의 공동주택 임차보증금 1천861달러(약 211만원), 예금 2만1천610달러(약 2천450만원), 현금 1만9천500달러(약 2천211만원·차량매매대금), 차량 1대(2012년식 포르쉐·약 3천600만원) 등이다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      GIST(지스트, 총장 문승현) 학사과정인 GIST대학의 학생들이 한국과학기술원(KAIST) 창업원이 주최한 오디션 형식의 학생창업지원 프로그램 「E*5 KAIST(2018년 하반기)」에서 1위와 2위에 해당하는 최우수상과 우수상을 수상했다.  2018년 하반기「E*5 KAIST」는 지난 8-9월, 프로젝트 팀의 참가 신청을 받고 서류심사를 통해 25개 내외의 ‘Pre-E*5’ 팀을 선정했으며, 이들을 대상으로 약 3개월간 1·2·3차 미션을 거쳐 지난 12월 14일(금), 4개의 우수팀을 선정하고 창업자금을 지원했다.  GIST대학에 재학 중인 ▲강종혁 학생(전기전자컴퓨터전공 4학년)은 KAIST재학생 4명, 졸업생 1명과 함께 셀렉트스타(SelectStar) 팀으로 이 프로그램에 참가하여 최우수상(창업자금 지원액 1,000만 원)을 수상했고, ▲송대욱 학생(기계공학전공 4학년)과 김민준 학생(화학전공 4학년)은 KAIST․중앙대 재학생 각 1명과 함께 배달긱(배달Geek) 팀으로 참가해 우수상(창업자금 지원액 500만 원)을 수상했다.    ▲ 최우수상을 수상한 셀렉트스타팀 수상 사진ⓒGIST    최우수상을 수상한 셀렉트스타 팀은 모바일 사용자를 통한 분업화된 AI 학습 데이터 생산 플랫폼과 수집․가공된 데이터에 대한 전수 검사를 할 수 있는 자체 AI 시스템을 갖춤으로써 기존 업체들과 비교해 효율성과 정확성 측면에서 차별화된다.   AI 학습용 데이터 생산은 최근 빠르게 성장하고 있는 신생 분야로 셀렉트스타 팀은 정부 부처 통합 창업경진대회인「도전! K-스타트업 2018」 국방리그에서 특별상인 국방부장관상을 수상(2,000만원의 상금 수여)해 이미 창업 성공의 발전 가능성을 인정받았다.   우수상을 수상한 배달긱은 학생들의 기숙사 생활을 고려해 점심‧저녁‧야식의 1인분 주문에 특화된 ‘배달 앱’을 개발했다.      ▲우수상을 수상한 베탈긱팀의 수상 사진ⓒGIST    1인분을 주문하더라도 추가 배달비가 없는데다 추가 할인과 이벤트를 이용할 수 있어 이미 GIST의 학생 기숙사에서는 활성화되어 있을 뿐 아니라 기숙사 인근 업체에서도 환영할만한 서비스이다.   배달긱 또한 「2018 하반기 광주·전남 모의크라우드펀딩 대회」우수상, 「2018 GIST CEO Forum 모의 크라우드펀딩 대회」대상,「2018 GIST 창업아이디어 경진대회」최우수상 등 수상 이력을 통해 사업성을 인정받았다.  배달긱 팀을 이끌고 있는 송대욱 학생은 “배달긱 서비스의 검증과 사업 확장에 대한 계획을 수립하기 위해 E*5 KAIST에 참가하게 되었다. 배달긱 서비스의 가능성과 앞으로 나아갈 방향에 대해 확인하고 탐색하는 동시에 좋은 결과까지 얻어 기쁘다”고 전했다.   또한 "배달긱이 GIST만을 위한 배달앱에서 거듭나 모든 혼밥족을 위한 1인 배달 서비스로 나아갈 것이다"고 향후 포부를 말했다.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      바야흐로 창업의 시대다. 중앙과 지방 정부 모두 가릴 것 없이 청년들에게 창업을 권장하는 데 막대한 예산을 쏟아 붓고 있다. 사회 연결망 서비스(SNS)에서는 성공한 20대 최고 경영자(CEO)의 인터뷰가 돌아다니고, 일부 언론에서는 아예 지면의 한 페이지를 '창업' 관련 기사로 도배한다. 대학에서도 창업 관련 과목이 대거 신설했다. 심지어 '이공계 연구 중심 대학'의 본보기를 제시한다는 카이스트조차 창업 맞춤형 학, 석사 통합 과정을 개설하여 논문을 쓰지 않고 창업만으로도 졸업할 수 있는 교육 과정을 개설했다.  왜 창업이 대세가 되었나?  표면적인 원인은 높은 청년 실업률이다. 지난 4월 기준 청년 실업률은 10.9%로 매달 사상 최고를 경신하고 있으며, 체감 실업률은 34%에까지 이른다는 통계도 있다. 숫자를 떠나 20대의 태반이 백수라는 '이태백', 인문계의 90%는 논다는 '인구론' 등의 말이 회자될 정도로 지금의 청년 세대는 사상 최악의 구직난에 시달리고 있다.  졸업 후 생계를 꾸리기 위한 소득 확보가 불안정해지면서 청년층의 일상이 위태로워졌다. 연애, 결혼, 출산 등을 포기한다는 '칠포 세대'라는 말에서 알 수 있듯이 가정을 꾸리기도, 아이를 낳기도 힘들어졌다. 그 결과 사회 전반적으로 저출산-고령화 문제가 심각해져 2019년에는 '인구 절벽' 을 맞이할 것으로 예상된다. 청년층이 변변한 소비력을 갖추지 못하자 경제의 활력도 되살아나지 않고 있다. 빈곤 청년이 늘어나면서 생계형 범죄에서 차지하는 청년층의 비중도 늘어났다. 청년 세대의 구직난이 사회 전반의 불안정으로 확산되는 분위기이다.  이런 상황을 극복하기 위해 선택할 수 있는 방안은 두 가지이다. 공공의 역할을 강화하거나 민간(시장)의 영역을 확대하는 것이다. 박근혜 정부가 선택한 것은 후자였고, 그것이 바로 기획재정부, 중소기업청, 교육부, 고용노동부, 미래창조과학부 등 여러 부처가 수천억 원의 예산으로 대거 참여하는 '청년 창업 지원' 정책으로 표출되었다. 혁신적 사고를 가진 청년들이 창업을 통해 새로운 일자리를 만들어 낼 수 있도록 지원한다는 것이다.  그럴듯한 내용으로 포장하고 있지만, 이것은 사실상 구직의 책임을 '사회적' 주체인 정부에게서 '개인'인 청년에게 전환하는 것이다. 즉, 정부는 더는 일자리를 창출할 수 없으니 당사자인 청년들이 스스로 나서서 직업을 창출해내야 한다는 것이다. 따라서 청년 실업 대책의 초점은 대출 위주의 초기 자금 지원으로 청년들이 하루라도 빨리 출발선을 벗어날 수 있도록 밀어주는 역할에 그친다.  동일한 정책적 기조를 가지고 있던 이명박 정부 역시 마찬가지였다. "청년들이 위험한 도전을 피하는 게 아닌가 싶다"라며 청년 실업을 당사자의 문제로 돌렸다. 박근혜 정부의 "실패를 두려워하지 않는 도전과 혁신을 통해 새로운 일자리를 만들어 내라"는 창업 지원 정책과 일맥상통한다. 지금의 청년들이 단지 실패가 두려워 몸을 사리는 나약함 때문에 일자리를 찾지 못하고 있다는, 결국 지금의 실업난을 개인의 책임을 돌려 공공의 역할을 축소하려는 보수 정권의 정책적 기조의 연장선이다.    ▲ 2014년 12월 18일 청와대에서 제6차 청년위원회 회의를 연 박근혜 대통령. ⓒ청와대    그러나 지금의 청년 실업은 청년 개인의 문제가 아니다. 중소기업과 대기업 간 임금 및 고용 환경의 심각한 격차, 비정규직의 만연 등 노동 시장의 왜곡이 심각하다. 게다가 직장에서 생계를 꾸릴 수 있는 안정적인 소득이 확보되지 않는 한, 사회 안전망이 빈약한 우리나라에서 빈곤층으로 전락할 수밖에 없다. 따라서 어떻게 해서든 고용 안정성과 적당한 수준의 월급, 그리고 안정적인 고용 환경이 제공되는 '좋은 일자리'를 갖기 위해 오랜 취업 준비기간을 거치고 있는 것이다.  이런 근본적인 문제를 외면하는 정책은 단기적으로는 반짝 효과를 낼 수 있을지언정 장기적으로 오히려 해가 될 수 있다. 실제로 정부의 창업 지원 정책은 청년 창업자들을 대거 육성하였지만 동시에 우리 경제의 불안정성을 더 높이고 있다.  창업 지원 정책의 문제  ① 생계형 창업자 양산  지금의 상황에서 청년들은 창업을 '권유'받지 않고 '강요'당한다. 매년 비좁아지고 있는 '좋은 일자리'의 취업문 앞에서 번번이 좌절하느니 다양한 지원 방안이 있는 창업에 도전해보는 것이 막막한 생계에 도움이 될 것 같기에 울며 겨자 먹기 식으로 창업에 나서는 경우가 많아졌기 때문이다.  이러한 이유로 우리나라는 유독 '생계형 창업자'가 '혁신형 창업자'보다 많다. 통계청 발표에 따르면, 2014년 말 기준으로 20대가 대표자로 등록된 사업체 수가 1년 새 24%나 급증하여 연령대 중 가장 높은 증가율을 보였는데, 대부분이 음식점, 카페, 옷가게 등 생계형 창업에 집중되었다고 한다.  급격히 늘어난 만큼 폐업률도 높다. 청년 창업자의 5년 생존율은 16%로 일반 기업의 절반 수준에 불과하다. 특히, 외식업의 경우 94% 정도가 폐업한다는 현실을 고려할 때, 청년 기업의 폐업률이 높은 것도 생계형 창업에 집중되어 있기 때문인 것으로 예측할 수 있다.  특히, 우리나라는 평균 재창업 횟수가 0.8회에 불과해 한번 실패할 경우 다시 일어서기가 어렵다는 사실을 감안하면, 높은 폐업률은 청년 창업 지원 정책이 실업률을 반짝 낮출 수 있을지는 몰라도 장기적으로 청년 실업에 대한 궁극적인 해결책이 될 수 없음을 보여준다.  ② 단기적 성과 중심의 무리한 창업 확대  정부가 노동 시장의 구조적 문제에 대한 고려 없이 지금 이 순간 높은 실업률을 낮추는 데 급급하면서 창업 지원 정책 역시 단기적 성과 위주로 흘러가고 있다. 특히, 대학과 연계한 사업인 창업 선도 대학의 예산이 2016년 기준 752억 원인데, 이 창업 지원 예산을 받기 위한 대학의 '도덕적 해이' 문제가 제기되고 있다. 정부의 지원금만 받고 자체 예산은 투입하지 않는 대학이 약 40%에 이르고 있으며, 창업 지원을 전담하는 인력도 1~2명에 그치거나 전혀 없는 곳도 태반이다. 심지어 창업 실적을 올리기 위해 제대로 된 준비 없이 학생들에게 개인 사업자 등록을 하도록 요구하는 경우도 빈번하다.  이런 문제들은 성과 측정 지표가 제대로 만들어져 있지 않고, 양적 성과 중심으로 창업 선도 대학을 선정하고 있기 때문에 발생한다. 또한, 예산이 투입되는 데도 정부의 제대로 된 감시가 이루어지지 않아 수백억 원에 이르는 예산이 '눈먼 돈'이 되어 대학 배불리기에 사용되고 있다. 예산을 따내려는 대학과 빨리 성과를 내려는 정부 사이에서 정작 당사자인 청년은 제대로 된 준비 없이 창업으로 내몰리고 있다.  ③ 기업 간 빈익빈 부익부 현상의 심화  또한, 정부의 창업 지원 정책에서 눈에 띄는 것은 대기업과의 공동 보조이다. 470억 원 수준의 중소기업청 창업 프로그램인 팁스의 운영사를 현대자동차와 포스코, SK 등의 대기업들로 지정하였고, 실제 팁스를 통한 창업자의 31%가 대기업 출신이다. 이밖에도 KT 등 몇몇 대기업들과 공동 자금을 조성하여 청년 창업 프로그램을 공동으로 운영하는 경우도 많다.  물론, 이를 통해 대기업들의 경영 노하우를 공유하고, 멘토링, 판로 지원 등 다양한 지원을 받을 수 있다는 장점도 있다. 하지만 팁스 운영사 선정 과정에서 벤처 창업계가 우려했다시피, 정부의 상당한 예산이 투입되는 공공사업을 이익 추구 단체인 대기업이 좌지우지하는 것은 신생 기업을 키우겠다는 취지에도 맞지 않을뿐더러 공익성도 보장되지 않는다.  게다가 창업 프로그램의 공동 운영을 통해 대기업은 청년 창업자들이 만들어내는 아이디어를 별도의 위험부담 없이 공유할 수 있는 가능성이 있다. 이와 같은 문제들은 기업 간 관계에서 대기업 위주로 부와 자산이 편중되어 있는 양극화 구조를 심화시킬 가능성이 크다.  청년들을 낭떠러지에서 구할 방법  이처럼 정부의 청년 창업 지원 정책이 여러 문제를 가지고 있는 것은 지금의 청년 실업이 노동 시장, 더 나아가 사회 구조적으로 발생한 복합적 문제임에도 불구하고 지금 당장 이슈가 되고 있는 청년 실업률을 낮추려는 데 급급하기 때문이다. 또한, 동시에 기존 보수 정권의 정책적 기조에 따라 공공의 역할보다는 개인의 책임에 맡겨 문제를 해결하려고 하기 때문이기도 하다. 다시 말해, 이 모든 원인은 실제로 실업 상태에 놓인 청년 당사자의 입장에서 해결책을 바라보지 않기 때문이다.    ⓒ연합뉴스    그렇다면, 실제 청년 당사자들은 창업에 대해 어떻게 생각하고 있을까? 2015년 현대경제원의 '창업에 대한 국민 인식 조사'에 따르면, '창업에 관심 있다'라고 응답하는 20대와 30대는 각각 38.4%, 28.6%로 가장 낮은 비율을 보였다. 특히, 박근혜 정부의 창업 지원 정책이 실시되는 전후를 비교했을 때 창업을 구체적으로 고려해본 적 없다는 비율은 2015년 69.3%로 2년 전에 비해 오히려 1.2%포인트 상승했다. 정부는 청년들에게 창업을 하라고 등을 떠미는데, 정작 청년들은 창업을 필요로하지 않았다.  지금의 이 불안한 사회에서 우리 청년들에게 가장 필요한 것은 한국의 마크 저커버그가 될 수도 있다는 허황된 기대를 심어주는 창업이 아니다. 단지 지금 이 순간 일상을 살아가고 여유를 가질 수 있도록 안정된 소득이 보장되는 괜찮은 일자리이다. 이러한 상황에서 실패하면 신용 불량자가 될 가능성에 대한 대책보다 일단 창업자가 되어 실업 상태에서 벗어날 수 있도록 초기 자금 지원에 급급한 정부의 창업 지원 정책은 고용 절벽에 직면하고 있는 청년들에게 잘 체감되지 않는다. 오히려 벼랑 끝으로 밀어내는 것처럼 느껴진다.  이제부터라도 정부는 일자리가 없어 암울한 청년 세대의 입장에서 청년 실업 정책을 재편해야 한다. 물론, 저성장을 겪고 있는 경제의 구조적 한계 속에서 신규 일자리를 창출하는 게 매우 힘든 일이기에, 새로운 성장 동력을 발굴할 수 있도록 창업을 장려할 필요도 있다. 그러나 지금처럼 단지 청년 실업률을 빠른 시일 안에 낮추기 위한 정책으로 제대로 된 안전망도 구축되어 있지 않은 상태에서 '혁신형 창업'이 활성화 될 가능성은 없다. 따라서 청년 창업 지원 정책의 방향을 대출 위주의 단기 성과주의 정책보다는 실패에 대한 공포가 발목을 잡지 않을 수 있도록 안전망 확충으로 방향을 틀어야 한다.  그리고 무엇보다 중요한 것은 청년 창업 지원 정책에 쏟아 붓고 있는 막대한 예산을 돌려 노동 시장의 구조적 문제를 해결하는 데 사용해야 한다는 것이다. 비정규직의 축소, 최저임금의 현실화, 중소기업과 대기업 간 임금 격차 축소, 노동권 보장을 위해 예산을 투입해야 한다. 이를 통해 나쁜 일자리를 좋은 일자리로 탈바꿈하면 청년들을 노동 시장으로 진입시킬 수 있다. 따지고 보면, 아직 경험이 미숙한 청년들이 새로운 일자리를 만들어내길 기대하기보다는 기존 일자리의 질을 바꾸는 것이 정책적 차원에서 더 쉬울 수도 있다.  청년 실업 문제는 노동 시장의 구조적 모순으로 인해 발생한 문제이기 때문에 보수와 진보를 떠나 사회 전체적인 책임의 차원에서 다루어야 한다. 그러나 지금의 청년 창업 지원 정책은 낭떠러지에 홀로 서 있는 청년들에게 저 멀리 보이는 세상이 훨씬 더 좋다고 어서 날아보라고 강요하고 있다. 창의력을 길러주지 못하는 획일적 교육 속에서 튼튼한 날개를 가진 청년들이 몇 명이나 될지 조차도 알 수 없는 상황에서 말이다.  게다가 덜컥 날아올랐다가 힘이 없어 바닥으로 떨어질 경우, 이들을 치료할 수 있는 대책은 너무 빈약하다. 이런 열악한 상황에서 그래도 혼자의 힘으로 날아보라고 청년들을 떠미는 것이 정부와 사회의 역할인지, 아니면 손을 잡아끌어 안전한 사회적 울타리 안에서 튼튼한 날개를 가질 때까지 보듬어주고 혹시 떨어지더라도 금방 다시 올라올 수 있도록 사다리를 놓아주는 것이 맞는지, 당사자의 입장에서 생각해보면 금방 답이 나오지 않을까.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2015년 6월 23일, 한국 프로야구 삼성과 롯데의 경기가 끝난 후 올라온 기사를 그대로 소개한다.삼성 12:4 롯데롯데는 23일 열린 2015 프로야구 삼성과의 홈경기에서 4-12점으로 크게 패하며 홈 팬들을 실망시켰다. 롯데는 이상화를 선발로 등판시켰고 삼성은 차우찬이 나섰다. 삼성은 최형우가 맹활약을 펼쳤다. 최형우는 1회 초 0아웃에 맞이한 타석에서 2점을 뽑아내며 삼성의 8점차 승리를 이끈 일등공신이 됐다. 롯데는 김현우를 끝까지 공략하지 못하며 안방에서 삼성에 8점차 승리를 내주었다.이 기사는 서울대 언론정보학과 이준환 교수 연구 팀이 개발한 기사 작성 로봇이 썼다. 작성된 기사는 곧바로 프로야구 뉴스로봇(k_baseball_bot)이 자동으로 트위터와 페이스북에 공유했다. 기사 작성부터 발행까지, 사람의 손이 단 하나도 들어가지 않았다.그런데, 어색하긴 한가? 일부 '손보면 좋을' 부분이 있을 뿐이다. 세상에. 로봇이 '일등공신'이니, '맹활약'이니 한다. 로봇이 기사를 쓴다는 이야기는 들었지만, 기껏해야 석 줄짜리 단순 기사이리라 생각했다. 알고 보니 워드스미스(Wordsmith)라는 기사 로봇은 2013년 한 해 동안 300만 건의 기사를 작성했단다. 관련 직종 근무자로서 이건 아니다 싶다. 내 일자리가 진짜 위협받게 생겼다.로봇의 위협에 직면한 일자리가 한둘이 아니란다. 약사의 영역이던 처방전 조제는 이미 로봇이 더 잘한다. 실수가 제로에 가깝다. 변호사의 몸값도 떨어질지 모르겠다. 판례 자료 조사를 로봇에 맡긴 회사는 기존보다 훨씬 싼 값에 법률 서비스를 제공한단다. 한 예측 결과에 따르면 법을 집행하는 판사의 자리마저 로봇에게 위협받고 있단다. 빅 데이터의 시대, 정보 기술의 시대가 뭔가 했더니 우리 일자리를 뺏는 시대였다. 로봇이 단순 노무는 물론, 서비스 영역, 창조의 영역에까지 침투하고 있다. (이 망할 로봇아!)이러다 인간의 노동 영역은 예술·정치 분야 정도로 협소해질지도 모르겠다. 아니, 이미 미국 리싱크로보틱스의 로봇 백스터가 유튜브 영상을 보고 파스타를 따라 만들었다. 소프트뱅크가 공개한 페퍼는 현재 일본 네스카페 매장에서 서비스직으로 일한다. 수줍어할 줄도 안다. 2050년이면 로봇과의 섹스가 일상화되리라는 전망까지 나온다. 이미 올해 영국에서는 섹스 로봇 금지 캠페인이 시작됐다. 영화 &lt;저지 드레드&gt;나 &lt;그녀&gt;, &lt;아이, 로봇&gt;의 얘기가 아니다. 벌써 우리의 일상에 로봇의 마수가 뻗쳤다! 제2의 러다이트 운동이라도 벌여야 하나.공학을 전공하지 않은 이라도 누구나 과학을 공상한다. 영화 &lt;터미네이터&gt;에서 본 미래가 실재하지 않을까 염려하기도 하고, &lt;바이센테니얼 맨&gt;의 감성을 느낄 날이 다가오리라 짐작하기도 한다. (어쩌면 &lt;이디오크러시&gt;에 나온, 인류 전부가 바보가 된 미래가 올 지도 모르지. &lt;매드 맥스&gt;가 그리는 황폐한 시대를 맞이할 수도 있고,) 상상은 언제나 재미있는 법이니까.   ▲ 지난해부터 네스카페 매장에서 서빙을 시작한 로봇 페퍼가 가증스러운 표정으로 사람을 바라보고 있다. ⓒwikipedia.org   &lt;로봇 시대, 인간의 일&gt;(구본권 지음, 어크로스 펴냄)은 상상의 영역이 어디까지 현실화되었는지를 이야기한다. &lt;한겨레&gt; 기자이자 사람과디지털연구소 소장인 저자가 지난해 낸 &lt;당신을 공유하시겠습니까?&gt;(어크로스 펴냄)에 이어 두 번째로 과학에 대한 인문학적 사유를 담았다.책에는 다양한 로봇이 소개된다. 카이스트의 휴보처럼 우리가 흔히 아는 안드로이드 형 로봇만이 나오지 않는다. 무인 자동차를 움직이는 로봇, 번역하는 로봇, 검색 엔진 로봇, 기사 쓰는 로봇 등이 다채롭게 이야기된다. 모두 현재 우리와 함께 일상을 살아가는 (나쁜) 놈들이다. 앞서 소개한 로봇이 쓴 기사도 이 책에 인용된 사례다.책이 뛰어난 점은, 이 과학의 세계를 인문학적 사유로 훑어간다는 데 있다. 무인 자동차 시대를 이야기하며 "사람의 운전은 너무 위험해서 금지될 것"이라는 미래 전망과 함께, 사고 발생에 대비해 로봇에게 어떤 알고리즘을 프로그래밍할 것이냐는 철학적 질문을 던진다. 무인 자동차가 직진하면 한 살 어린아이를 치고, 꺾으면 다섯 명의 어른을 치는 상황이 올 때 이 자동차는 어떤 선택을 하도록 우리가 프로그래밍해야 하느냐는 이야기다.이처럼 이 책은 현대 과학이 우리와 살아가기 위해 필요한 인문학적 고민을 다방면에의 고증과 자료를 바탕으로 독자에게 제시한다. 자동 번역 프로그래밍으로 언어 장벽이 사라지는 시대에 외국어를 배운다는 점은 무엇이냐는 질문에 대해 책은 문화를 꺼낸다. 지식이 공유되는 사회를 이야기하며 사회학적 고찰을 담기도 한다. 철학, 인류학, 경제학, 인문학, 심리학적인 사유를 로봇이라는 주제에 녹여냈다. 로봇 이야기에 아널드 토인비의 말씀이 딸려 나오고, 아리스토텔레스의 고민이 묻어난다.책에 실리는 로봇 기술의 현재를 보면, 무서움마저 든다. 구글이 개발한 무인 자동차는 160만 킬로미터를 무사고로 달렸다. 이미 로봇은 사람의 감정까지 추측할 수 있다. 마이크로소프트 리서치의 감정 추정 알고리즘은 사람의 감정을 93% 정확도로 예측한다. 이성의 영역이야 그렇다손 치더라도, 사람의 감정마저 알아차린다니! 이러다 사람보다 로봇과 대화하는 게 더 편할지도 모르겠다.덕분에 과학이라고는 공상과학 영화나 소설밖에 모르는 (나 같은) 이라도 이 책을 통해 진지한 사유의 시간을 가질 수 있다. 책은 모든 장마다 이런 물음을 배치해뒀다. 반려견 형태인 반려 로봇을 발로 차는 건 괜찮을까? 로봇과 정말 사랑에 빠져버린다면 어떡하나? 로봇이 우리의 일자리를 다 대체해버린다면, 우리는 대체 뭘 해야 하나?   ▲ &lt;로봇 시대, 인간의 일&gt;(구본권 지음, 어크로스 펴냄). ⓒ어크로스   로봇이 우리의 미래를 크게 바꾸리라는 점은 의심의 여지가 없다. 무인 자동차가 다니는 미래를 소개하는 대목을 생각해 보자. 정말 무인 자동차가 상용화된다면? 도로 정체가 지금보다 훨씬 줄어들 것이다. 교통사고는 극적으로 감소할 것이고, 무엇보다 우리는 모두가 차 안에서 다른 짓을 할 것이다. 대리운전이 사라질 것이고, 장애인의 이동권이 극적으로 보장될 것이다. 그러나, 운전이 취미인 사람은 과연 드라이브를 포기할 수 있을까?과학은 미래를 만든다. 그러나 이를 현실화하기 위해서는 인문학적 고민과 사회학적 탐구의 결과가 반영되어야 한다. 이 책은 이처럼 우리가 미처 생각지 못했을 법한 진지한 물음에 최대한 성실하게 답한다. 읽는 즐거움을 준다는 점에서 뛰어나고, 현대 로봇 기술이 어디까지 왔는지 짚고 넘어가는 계기를 준다는 점에서도 훌륭하며, 무엇보다 상상의 나래를 마음껏 펼칠 계기를 만들어준다는 점에서 탁월하다.책에 소개된 미국 기술철학자 랭던 위너의 말 대로 "세계 지도에 테크노폴리스라는 국가가 나오지는 않지만 우리는 그 국가의 시민이고, 좋든 싫든 우리 자신이 인간 역사의 새로운 질서에 속하게 되었다는 것을 인정해야 한다." 이미 로봇과의 공존은 현실이다. 이 시대에 우리는 무엇을, 어떻게 대비해야 할까. 아아, 과학자가 숫자를 휘갈긴 칠판 사진(그러니까 아인슈타인의 사진 같은 것)만 봐도 머리가 아파지는 나로서는 그저 두려울 따름이지만, 어찌되었든 기술 세계의 시민으로서 이 책에 나온 멀지 않은 미래에 내가 취할 입장은 미리 정리해두는 게 좋겠다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ▲조달청 대표 마크 ⓒ 조달청       조달청(청장 정무경)은 22일 서울 서초구 서울지방조달청에서 해외조달 청년 인재와 해외 진출 유망 기업을 연결해 주는 채용 상담회를 개최했다.  채용 상담회에는 해외조달 시장 전문 인력 양성과정’으로 수료한 청년 인재들이 참여했으며, 해외 진출 유망 기업들에 인턴·정규직으로 채용하기 위한 자리로 마련되었다.  올해 처음 실시한 ‘해외조달 시장 전문 인력양성 과정’은 조달청과 카이스트(KAIST) 글로벌 공공조달연구센터의 협업으로 이루어졌으며 외국어 특기 대학생·취업 준비생을 선발하여 국제입찰에 필요한 제안서 작성 등 전문 해외조달 실무를 교육하는 과정이다.  상담회에서 선발되는 기업 인턴·정규직 채용 예정자들은 3일 동안 중소기업 실무에 맞는 추가 심화교육을 받은 후 9월부터 근무할 예정이다..  이상윤 기획조정관은 “해외조달 전문교육을 받은 청년 인재들이 중소기업과 함께한다면 우수한 품질과 기술력을 가진 중소기업들이 해외조달 시장에서 좋은 성과를 내는 데 도움이 될 것”이라고 말했다.  한편, 상담회에 앞서 해외조달 시장 진출 중소기업을 대상으로 해외조달사업 전략 설명회를 갖고, 교육 수료생들이 작성한 기업 역량 분석 영문 발표회도 함께 진행하였다   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ KAIST 김성용 교수 ⓒ KAIST       KAIST 기계공학과 김성용 교수가 한국인 최초로 세계 해양관측 분야 주요 국제학회인 ‘OceanObs’19’의 운영위원에 선출됐다.  김 교수는 북태평양해양과학기구의 관측전문위원 및 연안 관측 자문위원으로 활동하며 전문성과 학문적 성과를 인정받아 운영위원 지명을 받았다.  전 세계 20여 개국 주요 학자 및 연구진으로 구성되는 운영위원에 김 교수는 북태평양해양과학기구의 관측전문위원 및 연안 관측 자문위원으로 활동한 성과를 인정받아 선정됐다.  이 학회에서는 전 세계 해양관측 분야 전문가들이 연안부터 대양에 이르는 해역의 물리, 생물, 화학 변수의 모니터링과 해양 공학 등의 응용기술 적용을 통해 향후 10년의 연구 방향을 결정한다.  미 항공우주국과 미 해양대기청, 유럽우주기구 등 20여 단체에서 예산 및 최첨단 장비를 지원받는 이 회의는 수중 드론과 무인 관측, 위성을 이용한 원격탐사 등 전방위적 해양관측을 진행한다.  이를 통해 기후변화, 해양산성화, 에너지 및 해양오염 등 향후 10년간의 중요한 과학문제 해결을 위한 장기 계획을 수립한다.  김 교수는 “이번 학회를 통해 도출된 향후 10년간의 주요 연구 분야를 국내 및 KAIST 내에 무인 관측 시스템 기반의 자연재해 및 기후변화 모니터링 연구로 구체화하여 다학제간 협업을 도모할 예정”이라며 “나아가 국방 과학기술의 응용 연구도 추진할 계획”이라고 말했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ▲행복청이 오는 8월27일 입주설명회와 9월 입주공고를 내고 공동캠퍼스 입주를 돕는다. 행복도시 공동캠퍼스 조감도 ⓒ행복청     행정중심복합도시건설청(청장 이문기, 이하 행복청)은 세종특별자치시 금남면 집현리(4-2생활권)에 조성하고 있는 공동캠퍼스에 대한 입주설명회와 입주공고를 실시한다고 22일 밝혔다. 오는 8월27일 열리는 입주설명회는 최근 전국의 유수 대학들이 공동캠퍼스에 대해 높은 관심을 보이고 있는데 따른 것으로 공동캠퍼스 입주에 체계적인 준비를 할 수 있도록 도움을 주기 위해 개최된다. 입주설명회에서는 공동캠퍼스 추진현황, 임대형 캠퍼스의 임대료와 분양형 캠퍼스의 토지분양가를 공개하고, 신청서류, 입주공고, 입주심사위원회의 입주심사 등 입주일정 및 절차를 상세하게 안내할 예정이다. 입주공고에는 임대형 캠퍼스와 분양형 캠퍼스로 나누어 각각의 위치과 규모, 임대료 및 분양가, 신청기간 등의 내용이 포함되며, 입주신청은 대학․외국교육기관, 국내․외 연구기관이 할 수 있다. 행복청은 공동캠퍼스 입주를 신청한 대학들을 대상으로 전문가로 구성된 ‘공동캠퍼스 입주심사위원회’에서 공정하고 합리적으로 심사를 진행할 예정이다. 입주심사위원회에서는 입주계획의 구체성·타당성, 재원확보계획의 실현가능성과 산학연 협력 활성화 계획에 따라 도시발전에 미치는 효과 등이 공동캠퍼스 조성 및 운영계획과 일치하는지를 중점적으로 심사할 계획이다. 한편 행복도시 공동캠퍼스에 대해 지속적으로 관심을 기지고 있던 카이스트가 지난 2018년 5월 입주협의각서를 체결한 것을 시작으로 2018년 11월에는 충남대가, 올해 5월에는 고려대, 이번 달에는 충북대, 공주대, 한국개발연구원 국제정책대학원 등이 행복청과 공동캠퍼스 입주 협의각서를 체결했다. 행복청은 입주공고 등을 통해 정확한 입주수요를 파악하여 공동캠퍼스 조성․운영계획 및 설계 등에 반영함으로써 공동캠퍼스 조성사업의 완성도를 더욱 높일 계획이다. 또한 지난 2018년 4월에 공동캠퍼스 조성 및 운영 근거를 담은 행복도시법 및 시행령을 개정·시행하고 교육부와 협의를 통해 공동캠퍼스 입주대학 설치·운영 고시 및 공동캠퍼스 입주절차 및 승인기준을 마련하는 등 제도정비를 완료했다. 이어 올해 2월에는 공동캠퍼스 설계공모를 통해 당선작을 선정했으며, 오는 2021년 부지조성 및 임대형 캠퍼스 건축공사에 착공해 2023년까지 준공하고 2024년 3월 개교한다는 계획이다. 김복환 행복청 도시계획국장은 “분양형과 임대형 캠퍼스가 함께하는 형태로 대학 및 연구기관 등이 입주하는 국내 최초의 캠퍼스 모델인 공동캠퍼스 조성 사업이 반드시 성공할 수 있도록 최선의 노력을 다하겠다”라고 말했다.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      경북도는 8일 산업통상자원부 주관 공모사업인 ‘반도체인프라구축지원사업’에 선정돼 국비 24억원을 비롯한 총 사업비 29억원을 확보했다고 밝혔다.  경북도는 ‘반도체인프라구축지원사업’ 포스텍(나노융합기술원)을 주관기관으로 5개 대학(성균관대, 명지대, 산기대, UNIST, KAIST)과 컨소시엄을 구성해 공모사업에 선정 됐다.  본 사업은 대학 내 반도체 공정 실습교육 환경이 구축된 연구소와 센터 등에 노후화 된 장비를 교체하고 업그레이드를 지원하는 사업이다.  사업에서 차세대 반도체산업 육성과 관련해 기 구축된 인프라 업그레이드를 통해 장비 노후화 및 사용 불가능한 부품을 보수 교체, 장비 도입에 따른 교육 프로그램 개설. 운용해 반도체 분야에서 급증하는 전문인력 수요대응, 산업체 재직자 교육을 통해 기업 수요기반 실무교육으로 반도체업체 기술개발 역량 제고를 지원한다.  이번 사업 선정으로 반도체 분야 기업지원, 기술개발 및 교육에 중요한 기반 역할을 하고, 단순히 노후장비 교체 수준이 아닌 첨단인프라(시설, 장비, 인력)를 인재양성에 제공할 수 있는 계기가 될 것으로 기대하고 있다.  이장준 경북도 과학기술정책과장은 “경북도는 이번 사업을 통해 양성된 인력이 반도체 분야 소재‧ 부품‧ 장비산업의 경쟁력을 높이고 산업 전반에 실무능력을 갖춘 전문인력이 지속적으로 공급될 수 있도록 지원 하겠다”고 밝혔다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      한림대 의과대학 생화학교실 박재봉 교수가 책임 저자로 참여한 논문이 국제저명학술지인 리독스 바이올로지 (Redox Biology) 2월 온라인판에 게재됐다.  신경세포에서 아밀로이도베타 농도에 따른 다른 신호전달 경로를 규명한 이번 연구는 베트남출신 한림대 의과대학 박사과정 캅킴쿠옹(Kim Cuong Cap)씨가 주저자로서 연구를 수행하고, 책임연구자로 박재봉 교수가 연구를 지휘했다.    ▲베트남출신 한림대 의과대학 박사과정 캅킴쿠옹(Kim Cuong Cap)씨와 박재봉 교수. ⓒ한림대학교     공동연구자로 의과대학 서상원 교수, 카이스트(KAIST) 정원석 교수, 키스트(KIST) 류훈 교수가 참여했다.   알츠하이머 치매의 대표적인 증상이 신경세포 바깥쪽에 아밀로이드반이 형성되고 신경세포 안쪽에 타우 단백질이 엉켜 신경세포를 손상시키는 것이다.   아밀로이드베타가 타우 단백질을 인산화 시킨다는 것은 알려져 있으나 그 기전을 잘 알려져 있지 않다.   연구 결과를 보면 저농도의 아밀로이드베타는 오히려 타우단백질의 인산화를 촉진하고, 고농도의 아밀로이드베타는 오히려 타우 단백질의 인산화를 촉진하지 않는 반면, 활성산소를 많이 만들고 지질합성 효소인 ATP citrate lyase (ACL)을 유도해 지질합성을 증가시킨다.  이번 연구로 많은 양의 아밀로이드베타로 인해 신경세포 밖에서 형성된 아밀로이드 반(Plague)을 저해하거나 아밀로이드베타 생성을 저해하는 치매치료제 후보약물들이 있다.  하지만, 아밀로이드를 완전히 제거하는 것이 아니며, 치매치료제 처치 후 저농도의 아밀로이드베타가 남아있다면 여전히 신경세포에 위협적인 요인임으로 아밀로이드 제거보다 신경세포에서 아밀로이드베타의 신호전달 경로차단이 알츠하이머 치매치료에 효과적일 수 있음을 시사했다.  Redox Biology는 2018년 JCR 기준, 저널의 피인용지수를 나타내는 지수인 IF(Impact Factor)가 7.793로 생화학분야의 최우수 국제학술지이다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      고흥군은 9일 고흥 항공센터 일원에서 '2018 캔위성 체험·경연대회'가 성황리에 개최했다고 밝혔다.  올해로 7회째를 맞이한 대회는 전국 청소년에게 위성에 대한 이해를 증진하고, 우주분야 저변확대 및 대중화를 실현하고자 과학기술정보통신부가 주최하고, KAIST 인공위성연구소가 주관하며 한국항공우주연구원과 고흥군의 후원으로 열렸다.     ▲9일 고흥 항공센터 일원에서 '2018 캔위성 체험·경연대회'가 성황리에 개최했다. ⓒ고흥군    캔모양의 소형 모사위성을 과학로켓으로 쏘아 올려 자유낙하 중 대기과학정보, 영상, 기후변화 등의 특정임무를 수행·평가하고, 수상자에게는 과학기술정보통신부 장관상을 비롯한 상장과 시상금, 그리고 해외 우주관련 시설 견학의 기회도 제공한다.  무더위 속에서도 고등부(슬기부) 10개팀과 대학부(창작부) 10개팀 등 100여명이 참가하여 열띤 경연을 펼쳤으며, 경연 결과 부문별로 5개팀씩 총 10개팀이 수상의 영예를 가졌다.   고흥군 김기홍 부군수는 환영사를 통해 "학생들 모두 뜨거운 열정과 에너지를 바탕으로 대한민국 우주항공산업을 이끌어 줄 것을 기대한다"며 "캔위성대회가 우주산업 발전의 든든한 디딤돌인 동시에 우주항공 중심도시 고흥군의 위상을 각인시키는 계기가 되길 기원한다"고 밝혔다.  한편 고흥군은 우주핵심기술 개발과 핵심부품 국산화 등 우주산업 경쟁력 제고를 위해 과학로켓을 개발 및 운용하는 '과학로켓센터 건립사업'을 2022년까지 추진할 계획이다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      마침내 그가 입을 열었다. 1994년 최초의 가습기 살균제 유공(주)의 가습기메이트 개발자로 알려진 노승권 박사다. 가습기 살균제 사건 청문회를 코앞에 둔 26일 저녁 여의도 옥시레킷벤키저 본사 건물이 있는 1층 커피숍에서 만났다.  29일과 30일 이틀간 청문회 증인으로 채택된 그는 인터뷰 내내 불안해하고 난감해하는 모습을 보였다. 그도 그럴 것이 자신의 인생에서 청문회는 자신과는 전혀 상관없는 일이라고만 여겨왔기 때문이다. 청문회는 분명 방송으로 중계될 터이고 그동안 제법 많은 사람을 알고 지낸 그로서는 화면에 비쳐진 자신의 모습과 자신에 결코 호의적인 질문을 던지지 않을 것이 분명한 국정 조사 위원의 추궁이 걱정됐다.  그는 2011년 가습기 살균제가 많은 인명 피해와 건강 피해를 가져왔다는 뉴스를 듣고 정말 그들에게 미안하고 안타까운 심정으로 지난 5년간 지내왔다고 털어놓았다. 가습기 살균제 사건이 터진 뒤 무려 5년이 지나서야 모습을 드러냈다.  노승권 씨는 서울대학교 자연과학대학 미생물학과를 1979년 입학해 1983년 졸업하고 나서, 곧바로 한국과학기술원(KAIST) 생물공학과에 들어가 1985년 졸업했다. 석사를 딴 뒤 곧바로 ㈜유공에 입사해 1985년부터 1996년까지 '바이오텍 사업부장' 등으로 근무하면서 곰팡이제로, 최초의 가습기 살균제 제품인 가습기메이트 개발에 깊이 관여했으며 유공 시절 영국 더럼 대학교에서 생물공학 박사 학위를 받았다. 1997년 퇴사해 유진사이언스라는 바이오 벤처 기업을 창업해 운영하기도 했다.  지금은 식품 가공 등을 하는 메타사이언스라는 아주 자그마한 벤처 기업을 새로 창업해 꾸려가고 있다. 한국생물공학회 부회장, &lt;미생물과 산업&gt; 편집간사, 한국바이오벤처협회 이사 등을 역임했다. 또 2012년부터 네이버 블로그 '출장 발명가의 행복 이야기'를 운영했으며 &lt;스포츠경향&gt;에 지난 2015년부터 올해 6월까지 '출장 발명가 노승권의 알면 힘이 되는 생물학'이란 팻말을 달고 칼럼을 매주 연재하기도 했다.   ▲ 노승권 박사의 가습기 살균제 최초 개발 사실을 알린 뉴스. ⓒnaver.com    가습기 물에 살균제를 타는 방식의 제품 개발은 노승권 박사의 아이디어  그는 인터뷰에서 지금까지 알려지지 않은 몇몇 중요한 이야기를 털어놓았다. 1994년 최초의 가습기 살균제 제품을 내놓을 당시 서울대학교 수의과대학 이영순 교수한테 거액을 주고 흡입 독성 연구를 맡겼으며 연구 보고서에 미국 환경청(EPA)이 만든 프로토콜에 따른 흡입 독성 연구 결과 인체에 무해한 수준의 농도로 가습기 살균제 성분, 즉 CMIT/MIT(클로로메틸이소티아졸리논/메틸이소티아졸리논)를 희석해 가습기메이트를 만들었다고 밝혔다. 그와 1시간가량 나눈 대화는 다음과 같다.  - 1994년 최초의 가습기 살균제 제품을 만들 때 가습기 내부를 세척하는 세정제가 아니라 가습기 물에 타서 이를 공기 중으로 분무하는 제품을 만드는 아이디어는 어디서 나온 것인가?  "나의 아이디어였다. 미생물학이 전공이어서 가습기 살균제에서 미생물이 자랄 수 있으며 이럴 경우 가습기 사용자의 건강에 이상이 생길 수 있다는 것을 외국 문헌을 통해 알고 있었다. 그래서 미생물 성장은 최대한 억제하면서 인체에는 해가 없는 제품을 만들면 인기를 끌 수 있겠다고 생각했다."  - 당시 만들어 판 가습기메이트 제품은 가격이 4000원으로 지금의 돈 가치로 환산하면 2만~3만 원 하는 비싼 가격인데 구매한 사람이 얼마나 됐는가?  "정확한 판매량은 모르지만 제법 팔렸던 것으로 기억한다. 물론 2000년대 팔린 것과 같이 많은 양은 아니었다."  - 살균제 성분은 당시 많이 있었을 텐데 가습기메이트에 CMIT/MIT를 쓰게 된 경위는?  "가습기 물에 잘 녹아야 하고 또 물속에서 쉽게 분해되지 않는 성분을 골랐다. 또 미생물 살균력도 좋고 흡입 독성이 이미 알려진 성분을 골라야 인체에 해가 없는 농도의 제품을 개발할 수 있기 때문에 많은 후보 물질을 가지고 연구를 하다 CMIT/MIT를 최종 낙점했다."  - 미생물을 죽일 정도면 사람에게도 해를 끼칠 수 있다는 생각을 했을 터이고 또 가습기 살균제를 사용하면 사람이 이를 들이마시게 된다는 것은 상식적이다. 그렇다면 인체에 안전한 농도를 찾기 위해 엄격한 흡입독성 시험이 필요하지 않은가?  "그렇다. 그래서 당시 우리나라에서 최고의 독성 전문가라고 알려진 서울대 수의대 이영순 교수(도쿄 대학교 대학원 수의병리학 석사와 박사 출신의 이영순 교수는 서울대 수의과대학 학장과 한국수의공중보건학회 회장, 제4대 식품의약품안전청장을 거쳐 아시아실험동물합회 회장을 지냈으며 현재 서울대학교 수의과대학 명예교수와 대한민국학술원 회원이다. 지난 2월 서울종합예술실용학교 석좌교수로 임명됐다)에게 개발 제품의 독성 시험 연구 용역을 맡겼다."  이영순 교수에게 거액의 연구 용역비 지급하고 미국 수준 독성 시험 요구해  - 이영순 교수는 어떻게 알고 연구용역을 맡겼는가?  "한국과학기술원에서 석사 과정에 있을 때 독성 전문가인 양규환 교수(그는 나중에 한국생명공학연구원장을 지냈으며 한남대학교 부총장을 역임했다) 밑에서 배웠기 때문에 양 교수를 통해 이 교수를 알고 있었다."  - 당시 연구 용역비 규모는 얼마였으며 어떤 독성 시험을 의뢰했나?  "정확한 액수는 기억나지 않지만 당시 1억 원이 훨씬 넘는 연구 용역비를 주었다. 지금의 돈 가치로 환산하면 적어도 6억~7억 원은 될 것이다. 흡입 독성 연구를 충분히 할 수 있는 비용을 주었다."  - 얼마 전 언론 인터뷰에서 이 교수는 당시 서울대 수의대에는 본격적인 흡입 독성을 시험할 장치가 없어 실험 쥐의 코에다 가습기 살균제 성분 용액을 떨어트려 보는 간이 흡입 독성 시험만 했다고 증언한 적이 있는데….  "아니다. 당시 이 교수는 쥐를 체임버에 넣고 체임버 안 공기 중으로 가습기 살균제 성분을 가득 분무해 포화시킴으로써 쥐가 살균제 성분을 제대로 흡입하게끔 하는 포화 노출 시험(saturation test)을 했다고 했다. 당시 보고서에 그런 내용이 있었던 것으로 기억한다."  - 그 기억이 정확하지 않을 수도 있지 않은가?  "물론 오래된 일이기는 하지만 당시 미국 환경청(EPA)의 독성 시험 프로토콜(실시 요강)을 확보해 유공의 대덕연구소 연구원과 함께 서울대 수의대를 직접 찾아가서 이 프로토콜대로 시험을 해달라고 했기 때문에 확실히 기억하고 있다."  - 당시 보고서는 어디에 있는가? 개인적으로 가지고 있는 것은 없는가?  "서울대 이영순 교수한테서 받은 보고서는 유공 대덕연구소와 유공 바이오텍사업부에 있었다. 유공이 다른 곳으로 넘어가면서 그 보고서가 어떻게 됐는지는 모른다. 나는 1997년에 퇴사했다. 개인적으로 소장하고 있지 않다.  (유공(현 SKC)의 '가습기메이트'가 인체에 해가 없다는 근거를 제공한 서울대 수의대의 1994년 연구 용역 보고서는 보존 기간이 지나 폐기된 것으로 확인됐다고 서울대 수의과학연구소가 이 정보 공개를 청구한 송기호 변호사에게 지난 23일 통보한 바 있다. 따라서 에스케이케미칼에 이 보고서가 없으면 현재로서는 관련자들의 증언을 토대로 진위를 파악할 수밖에 없다. 그렇지 않으면 수사를 통해 밝혀내는 길밖에 없다.)  청문회 코앞에 두고 피해자에게 사과하면 작위적이라고 생각하지 않을까 머뭇거려  - 가습기 살균제란 제품을 세상에 처음 내놓았기 때문에 참사가 일어났다고 생각하지는 않은가. 그렇다면 설혹 당시 유공 가습기메이트 제품을 사용한 뒤 피해를 입은 사람이 나오지 않는다 하더라도 '판도라 상자'의 문을 연 장본인으로서 피해자들에게 사과 또는 사죄할 생각이 지금이라도 없는가?  "모레가 청문회인데 지금 피해자와 그 가족들에게 사과한다고 하면 쇼를 한다거나 작위적이라고 국민이 생각할 수도 있겠다는 생각에서 청문회에서 모든 것을 이야기하는 것이 바람직하다는 생각을 하고 있다."  그와 인터뷰를 마치고 커피숍을 나오니 오래간만에 시원한 바람이 여의도 빌딩 숲 사이로 지나가고 있었다. 마침 커피숍 입구 바로 앞 길거리에서는 가습기 살균제 참사 시민 네트워크 관계자들이 천막을 치고 옥시 불매를 외치며 옥시를 규탄하는 농성 시위를 벌이고 있었다. 가습기 살균제 피해자와 가족 모임 강찬호 대표, 참여연대 안진걸 사무처장, 환경보건시민센터 최예용 소장, 백도명 공동대표, 조수자 환경피해지원위원장 등의 모습이 눈에 들어왔다.  30일 청문회에는 노 박사와 함께 이영순 교수가 증인으로 출석할 예정이다. 또 가습기메이트 최초 개발과 관련해 최상락 에스케이바이오텍연구원, 가습기메이트 제조와 관련해 안영준 당시 ㈜유공 부장도 참고인 자격으로 나온다. 이들을 한 자리에 불러놓고 대질 신문 식으로 1994년 최초 개발에 얽힌 진실을 파헤치면 노 박사가 인터뷰에서 밝힌 내용의 진위가 어느 정도 가려질 수도 있다고 생각한다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲지난 6일 충북도청에서 ‘오송 R&amp;BD; 융합형 연구병원’ 협약식이 진행됐다.(왼쪽부터) 김창균 한국화학연구원장 직무대행, 신성철 한국과학기술원 총장, 이시종 충북도지사, 한헌석 충북대학교병원장, 김장성 한국생명공학연구원장 ⓒ충북대병원       충북 청주시 오송첨단복합단지에 사업화 연계기술을 개발하는 ‘오송 R&amp;BD; 융합형 연구병원’ 설립이 본격화 됐다.  7일 충북대학교병원에 따르면 ‘오송 R&amp;BD; 융합형 연구병원’의 건립을 추진하기 위해 지난 6일 충북도청에서 충북도와 카이스트, 한국생명공학연구원, 한국화학연구원과 공동 MOU를 체결했다.  이날 이시종 도지사와 한헌석 충북대학교병원장을 비롯해 신성철 카이스트 총장, 김장성 한국생명공학연구원장, 김창균 한국화학연구원장 직무대행 등 컨소시엄 기관장들이 참석한 가운데 협약식이 진행됐다.  ‘오송 R&amp;BD; 융합형 연구병원’은 앞으로 정밀의료·재생의학·스마트 재활 등 특성화 진료, 개방형 플랫폼(OPEN Platform), 신약·의료기기 임상시험 허브 완성이라는 기본 개념으로 오송 첨단의료복합단지의 핵심인프라로서 연구성과를 기업에 전파하는 앵커 역할을 수행할 전망이다.  연구병원은 충북대병원이 운영사업자로 선정돼 건립 진행 중인 오송임상시험센터와 연계해 건립될 계획이다.  이번 협약을 통해 충북도는 ‘오송 R&amp;BD; 융합형 연구병원’의 기획 및 설립·운영을 위한 협조·지원을 약속했으며 컨소시엄 참여기관들은 연구병원 관련 전 분야에서 기획 및 설립·운영에 협력하기로 했다.  한헌석 충북대병원장은 “세계적으로 특성화 된 진료와 연계하는 연구개발이 가능하도록 충북도와 컨소시엄 참여기관이 ‘오송 R&amp;BD; 융합형 연구병원’을 추진하게 된 것에 큰 의미가 있다”고 말했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ ‘어드밴스드 펑셔널 머티리얼즈(Advanced Functional Materials) 표지 ⓒKAIST       KAIST 전기및전자공학부 이현주 교수 연구팀이 생체 친화적 실크 고분자를 이용해 생체적합 전도성 접착제를 개발하고 이를 통해 인간 피부에 잘 부착되는 경피형 전자소자를 개발했다.  이번에 개발된 실크 전도성 접착제 필름은 생체친화적 실크 고분자에 금속이온을 도입해 접착성을 갖도록 만든 기술로 접착성이 높은 경피형 전자소자의 구현이 가능해 장기간 모니터링 및 약물 투여가 필요한 환자에게 적용할 수 있을 것으로 기대된다.  연구팀은 기존 실크 고분자의 한계와 제한을 극복하기 위해 칼슘이온을 도입을 통해 생체 적합하고 고접착력을 갖는 실크 접착제를 개발했다.  고접착 특성과 더불어 실크 고분자의 칼슘이온은 실크 접착제가 이온전도성을 갖게 도와주며, 원래의 실크 고분자가 갖고 있는 생분해특성에 의해 특정 조건에서 쉽게 접착력이 사라지는 특성을 보인다.  연구팀은 이 특성을 통해 실크접착제를 경피형 전자소자와 인체피부사이에 삽입해 고접착을 가지는 유연성 캐패시터 터치센서를 제작하고 장기간 부착이 가능하고 쉽게 탈부착 및 재사용 할 수 있는 터치센서를 개발했다.  또한 인체 장기의 조직 중 신축성이 강한 방광 조직에 고 접착성을 가지는 변형센서를 집적해 방광 조직의 변형률에 따른 저항변화를 이용한 변형정도를 확인했다.  연구팀의 기술은 생체적합성과 접착력이 높아 체내 이식용 전자소자에도 활용돼 장기간 모니터링 및 치료에 응용 가능할 것으로 기대된다.  이 교수는 “생체친화적인 실크고분자를 이용해 재사용이 가능하며 쉽게 생분해가 되는 고접착 접착제를 개발했다는 점에서 실크 물질에 대한 새로운 가능성을 제시했다”며 “바이오공학 분야에서 경피형 및 체내이식형 전자소자에 적용할 수 있고 장기간 모니터링 및 약물전달 시스템을 구현할 수 있을 것이다”고 말했다.  서지원 박사, 김효중 박사과정이 주도하고 생명화학공학과 최시영 교수, 김기한 박사가 참여한 이번 연구는 국제 학술지 ‘어드밴스드 펑셔널 머티리얼즈(Advanced Functional Materials)’ 9월 5일자 표지논문에 게재됐다. (논문명 : 피부부착형 전자소자를 위한 생체적합 및 고접착성을 지닌 칼슘이 도입된 실크 접착제, Calcium-modified silk as a biocompatible and strong adhesive for epidermal electronics)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 미 아르곤연구소 석학연구원인 장윤일 박사가 프레시안과 인터뷰에서 원자력에너지의 전망에 대해 설명하고 있다 ⓒ프레시안(육심무 기자)       미국 시카고에 있는 아르곤국립연구소는 평화적인 원자력 이용의 시발점으로 불리는 곳이다. 파괴의 상징이었던 원자력을 인류 문명 발전의 디딤돌인 에너지로 이용할 수 있는 기술을 탄생시킨 이 연구소는 현재는 연구원 3천여 명이 다양한 분야의 에너지원과 기초 과학에 관한 연구를 수행하고 있다.  서울대 원자력학과를 졸업하고 미국 아르곤 국립연구소 석학 연구원이자 소듐냉각증식원자로 개발을 총 잭임자 장윤일(76) 박사는 미국 과학계의 노벨상이라 불리는 로렌스 상을 받은 원자력 학계의 거두이다. 카이스트 원자력 및 양자 공학과 초빙으로 대전에 온 장윤일 아르곤연구소 석학연구원을 만나 세계 원자력의 전망과 우리의 과제 등에 대해 들어본다.  프레시안 : 한국과 인류의 미래 에너지로 원자력이 가장 적합하다고 강조하고 계신데 그 이유는 무엇인지요?  장윤일 : 현재 경제의 엔진이라고 일는 전기 에너지는 지난 50 년 동안 GDP 성장에 비례해 소비량이 지속적으로 증가하고 있지요. 세계 적인 증가 추세를 감안해 추산해 볼 때 2050년 전력 수요는 현재 보다 2.5 배, 2100년에는 4 배까지 증가할 것으로 예상됩니다. 이러한 전력 수요 증가를 감안할 때 인류는 발전 방법을 고르고 선택할 여유가 별로 없어요. 우리는 석탄, 천연 가스, 석유, 원자력, 수력, 태양, 풍력, 바이오매스 등 모든 에너지원을 상황에 따라 이용할 수밖에 없을 겁니다. 석탄에서 시작해 석유와 천연가스 등 매장 에너지원 들은 모두 유한하고 고갈될 시점까지 예측할 수 있지요.  태양에너지와 풍력에너지 등 신재생에너지는 대량 수요를 충족시키기 위한 선결 조건들이 만만치 않은 것이 현실입니다. 그러나 인류의 두뇌에서 탄생한 원자력 에너지는 전력 생산 방법 중에서 가장 친환경적이고 원자재 및 토지를 가장 적게 사용하는 발전 방식입니다. 온실가스와 요즘 관심이 집중되는 미세먼지를 포함한 대기 오염과 온실 가스 발생도 다른 발전 방식에 비해 거의 없고, 급증하는 전력 소비에 대처할 수 있는 가장 합리적인 기술이지요. . 프레시안 : 원자력 에너지의 장점을 구체적으로 설명하신다면.  장윤일 : 첫 번째는 경제적인 부분입니다. 천연자원의 보유량이 많지 않은 한국은 전량 수입에 의존하는 석유나 천연가스 등에 비해 원자력은 지난 수십 년 동안 가장 경제적인 에너지 자원이었습니다. 에너지별 발전 원가를 원자력 발전에 대비해 보면 LNG는 3.5배, 풍력 3.4배, 태양광은 4.6배가 더 비싸고요. 원자력 발전 원가에는 사용 후 연료 처분 비용과 제염 해체 비용이 포함되어 있지 않다는 주장도 있는데 이 비용은 정부에서 관리하는 기금에 적립되고 있습니다.  환경문제를 비교해 봐도 원자력이 압도적입니다. 1톤의 핵분열은 350만톤의 석탄 연소와 동등한 에너지를 생산하고, 화석연료와 달리 대기 오염이나 미세 먼지 없이 깨끗한 에너지를 생산합니다. 온실가스 배출량은 원자력보다 석탄은 30배, 천연가스는 20배 정도이며 발전소 건설에 필요한 철강 요구량은 원자력보다 풍력 또는 태양광 발전소는 10배 이상, 태양열 발전소는 50배 이상이 필요합니다. 토지 이용 면적은 원자력보다 태양광 발전이 50배, 풍력은 400배가 필요하므로 원자력은 모든 에너지원 중에서 가장 환경친화적이며, 에너지 공급 잠재력은 거의 무한하다고 할 수 있지요. 또 태양광과 풍력은 전력 저장과 조절 등에 한계가 있어, 한국과 같이 폐쇄된 전력 시장에서 시간대 별로 초과 또는 부족한 전력의 관리가 어려워 장점을 대부분 상쇄해버려요.  프레시안 : 원자력발전소의 방사능에 대한 환경단체의 경고음과 주민들의 우려가 날로 높아지고 있습니다.  장윤일 : 방사능에 대한 그릇된 내용들이 사실인양 너무 많이 퍼져 있습니다. 자연 방사능은 지표에서도 라돈 가스로 올라오고, 하늘에서 우주 방사선으로 내려오고, 마시는 물, 먹는 음식은 물론 우리 몸체 안에도 나옵니다. 또 일상용품이나 방사선 치료 받을 때 등 우리 몸과 주변에 어디에나 방사능이 있고, 우리와 같이 살고 있어요.  이란 람사르처럼 자연 방사능 양이 한국보다 100배가 높은 지역이 있고 세계 곳곳에 10배 이상 높은 지역이 있어요. 그런데 이런 곳에 사는 사람들의 수명이 평균보다 높아서 Radiation Hormesis 라고 불리지요. 즉 어느 정도의 낮은 방사선은 오히려 건강에 유익하다는 설이지만, 학술적으로 완전히 증명되지는 않았습니다. 전세계 원전 주변의 방사능 양을 측정해 보면 일상 생활 속에서 만나는 방사능의 평균보다 오히려 낮게 나옵니다.        ▲장윤일 아르곤연구소 석학연구원 ⓒ프레시안(육심무 기자)    프레시안 : 우리나라와 인접한 일본 후쿠시마의 원전사고로 인해 원전에 대한 공포와 부정적인 의견이 커지는 계기가 된 것으로 보입니다.  장윤일 : 원전이 안전한가 하는 문제에 관하여 두 가지의 크게 잘못 알려진 사실이 있습니다. 첫째는 후쿠시마 원전사고로 많은 희생자가 있다고 알려져 있는데 사실은 원전 폭발로 희생된 사람은 없다는 점이지요. 2만명 정도의 사망자와 실종자는 일본 역사상 가장 컸던 지진과 쓰나미 때문이었고, 엄밀히 말해 원자로 사고로 인한 것은 아니었어요. 다만 사고 초기 아무런 대비 없이오염원을 처리하러 들어갔던 직원 한 명은 방사선 피폭이 사망원인으로 알려졌습다.  중요한 점은 원자력 발전으로 인하여 배출되는 방사선의 양이 자연 방사능의 10만 분의 1 정도이고 후쿠시마, 체르노빌 같은 대형사고 시에도 주변에서의 피폭량은 대기중 방사능의 10배 정도로 건강에 피해가 없는 수준이었지요. 건강에 문제가 되는 수준은 기존의 100배 정도의 방사능이 있어야 하며 원자로 주변의 방사능으로 인한 피해라며 잡힌 통계들은 과학적으로 정확한 근거가 없습니다.  둘째로 리히터 규모(Richter Scale)에 맹점이 있어요. 후쿠시마의 9.0 지진과 경주의 5.8 지진 폭의 차이가 두 배 정도 되는 것이 아니고, 10의 9승과 10의 5.6승의 차이, 즉 1600배의 차이지요. 여기에 파괴력(Energy Released)은 1600의 1.5 자승, 즉 64000배의 차이로 하늘과 땅의 차이라고밖에 표현할 말이 없어요. 후쿠시마 원전들도 엄밀히 분석하면 지진을 못 견딘 것이 아니라 지진으로 인한 쓰나미로 인해 원자로 3기의 Diesel generator oil tank가 쓸려 내려가서 발생한 일이었어요. 33년 전 체르노빌 원전사고에서는 증기 폭발과 흑연 감속재 화재로 인해 노출된 노심을 차단하기 위해 죽음을 각오하고 헬리콥터 저공비행을 한 조종사 200여 명 중 42명이 사망하기도 했습니다.  프레시안 : 미래형 원전인 소디움냉각증식원자에 관해 설명해주신다면.  장윤일 : 현재 상업용 원전은 우라늄 자원의 0.6 %만을 활용하고 있으며 99.4%는 사용 후 연료나 방사능 폐기물 등으로 처분해야 하지요. 스웨덴은 19억년 전에 생성된 깊은 암반에 500m 깊이 지하에 직접 처분하고 있고 한국에서도 경주 방사성폐기물처분장에 매립 처분하고 있지요. 하지만 미국 아르곤 국립 연구소에서 개발한 소디움냉각증식원자로의 파이로프로세싱 기술은 사용 후 핵연료에 있는 반감기가 긴 원소를 추출해 고속로에서 연소시켜 우라늄 자원 활용률을 170배까지 확장 가능해요. 또 남은 폐기물의 반감기도 줄일 수 있어 처분장 건설 및 관리 부담이 크게 경감됩니다. 이 방법은 현재 미국 아르곤 연구소와 한국만이 공유하고 있으며, 미래 전력 수요 증가를 감당 할 수 있는 무한한 에너지원이 될 수 있을 것으로 기대됩니다.  프레시안 : 한국 과학자들, 특히 정부 출연연구기관의 정년퇴직 제도로 우수한 인재가 조로한다는 지적을 받고 있다는데.  장윤일 : 미국인에서는 일정한 나이가 되었다고 직업을 그만두게 하는 것을 법적으로 금지하고 있어서 능력만 있다면 나이가 문제가 되지 않아요. 나이에 의한 퇴직 강요는 차별이라는 판단에 의한 것인데 일만 잘 할수 있다면 직업을 계속 유지할 수 있지요. 나만 해도 나이가 76세인데 연구소에서 근력을 필요로 하는 육체 노동자가 아닌 만큼 연구 능력이 있다고 인정해 나이에 전혀 구애받지않고 일하고 있지요.  한국원자력연구원의 경우 61세 정년퇴직을 한다고 들었어요. 미국의 연구원이라면 61세면 아직 한창일 나이인데 그만둬야 한다니 개인적으로 안타깝다고 생각하고 국가적으로 큰 낭비가 아닐 수 없어요. 더욱 우려되는 것은 이 과학자들에게 중국 등 원자력 기술 개발에 국가적 지원들 등에 업은 기업들이 몇배의 연봉을 제시하며 유혹하는 것이지요. 이는 단순한 개인의 문제가 아니라 향후 경쟁 국가에 선두 자리를 내주는 결과를 초래할 위험이 커요.   프레시안 : 한국은 현 정부들어 원전 중단에 대한 공론화를 진행하는 등 탈원전 정책을 추진하고 있는데 이에 대한 견해는요?  장윤일 : 정부의 탈원전 정책에 관해서는 내가 말할 수 있는 부분이 아닌 것 같습니다. 그러나 원자력은 에너지 시장에서 ‘대안이 없는 대안’이라는 것이 정설입니다. 독일이 유일하게 완전한 탈원전 정책을 추구하는 것과 일본이 후쿠시마 사고 이후 일부 원전의 가동을 중단했지만 다른 국가들에서는 원자력 발전 비중이 점차 확대되고 있어요. 최근 인도와 중국, 러시아, 벨라루스 및 우크라이나에 약 80개의 신규 원전이 건설되었고, 향우 10년 안에 중국과 다른 19개국은 100기의 원전을 추가로 건설할 계획을 진행하고 있어요.  특히 산유국인 사우디아라비아와 아랍에미레이트를 비롯해 중동 지역 등 30여 국가에서 처음으로 원자력 에너지 도입을 검토하고 있는 것은 널리 알려진 사실입니다. 한국은 현재 세계에서 5번째로 원자력 발전소가 많은 나라이며 미국에서도 한국의 원전기술을 높게 평가하고 있어요. 이러한 원자력 르네상스는 미래의 전력 수요 증가를 대비하는 데 중요한 역할을 할 것이며, 원자력 공학 분야에 대한 전문 인력의 수요는 계속 늘어날 전망인 만큼 이 분야에 젊은이들이 과감하게 지원하라고 권하고 싶어요. 국내가 아니라도 세계가 원자력 전문 인력을 최소한 백년 이상 필요로 할 것예요.  프레시안 : 더 조언해 주실 말씀이 있다면.  징윤일 : 앞으로 장기적으로 볼 때 고속로와 파이로프로세싱 기술을 확보하는 국가가 원전기술을 선도하게 될 것입니다. 원자력연구원의 PGSFR(제4세대 원전 고속로)프로젝트는 2012년 아르곤 국립연구소와 국제공동연구로 시작되었요. 원래 계획은 2020년까지 설계 인가를 받고, 2028년까지 건설을 완료할 계획이었으나 성공적인 고속로 기술 이전에도 불구하고 과학외적인 요소로 인해 프로젝트가 중단될 위기예요.  중국과 인도는 고속로 기술을 개발하기 위해 지금도 끊임없이 노력하고 있으며 앞으로 5~6년 안에 한국의 원전기술을 따라잡을 수 있을 것으로 보입니다. 한국에서 먼저 차세대 원자력 기술을 실증하기 위해 고속로 프로젝트는 재가동되어야 하며 30년 후 한국에서 미래 세대를 위한 원자력 기술의 성공 사례가 될 것입니다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 바른미래당 신용현 의원 ⓒ신용현의원실       최근 신성철 카이스트 총장의 검찰고발 및 직무정지 요청사태에 대한 과학기술계의 비판이 고조되고 있는 가운데 신용현 국회의원은 11일 과기부가 신 총장에 대한 직무정지요청을 철회하고 정당하고 적법한 감사를 진행해야 한다고 주장했다.  신용현 의원은 “7일 카이스트 교수들이 시작한 항의성명서에 타 대학 교수들이 동참하면서 590명이 넘게 서명을 이어가고 있고, 어제는 대표적 과학기술시민단체인 바른 과학기술사회 실현을 위한 국민연합까지 과기정통부의 부적절한 감사과정을 지적하고, 총장 직무정지요청 철회를 포함한 비판성명을 냈다”고 말했다.  또 “과학기술인들의 항의성명이 이루어진 배경은 현 정부에서 자행되는 찍어내기 식의 부당하고 무리한 표적감사에 대한 불만이 자리 잡고 있다”고 면서 “이번 감사과정에서 신성철 총장은 제대로 된 소명기회조차 부여받지 못한 것으로 알려졌다”고 지적했다.  아울러 “최종 감사결과가 나오고 사실여부가 확인되기도 전에 횡령, 편법채용이라는 말을 쓰면서 그 혐의를 언론에 공표하여 명예를 실추시켰고, 총장의 직무정지요청을 너무 성급하게 했다는 주장들로 과학기술계가 들끓고 있다”고 비판했다.  신 의원은 “한국연구재단 이사장, 한국과학창의재단 이사장, 한국생명공학연구원 원장, 원자력안전기술원장, 한국과학기술기획평가원 원장 등 임기가 만료되기도 전에 원치 않은 사표를 내야했던 기관장들이 줄줄이 나왔다”며 “잘못이 있다면 당연히 처벌받고 책임져야하지만, 정권에 의한 편 가르기와 줄 세우기를 하는 현실은 과학기술계의 자유로운 연구풍토를 저해하는 적폐 중의 적폐”라고 목소리를 높였다.  또 “적폐청산을 부르짖는 문재인정부가 적폐를 만드는 일은 이제 멈춰야하며, 과학기술계는 진영논리나 정치이념과는 거리가 있는 집단”이라고 강조했다.  신용현 의원은 “정부는 이런 논란을 해소하기 위해 신 총장에 대한 업무정지요청을 철회하고 좀 더 정당하고 적법한 감사를 진행해서 그 결과를 빨리 공표해야 할 것”이라며 “과학기술계에 대한 정치권력 개입을 원천적으로 차단할 수 있는 인사제도의 개편을 요구한다”고 말했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ▲한동대 고(故) 김영길 초대 총장 ⓒ한동대     국내 재료공학계의 거목이자 한동대 초대 총장을 지낸 김영길(사진) 전 총장이 별세했다. 향년 81세.  1일 한동대에 따르면 김영길 전 총장은 지난달 30일 오전 3시 서울 신촌 세브란스 병원에서 소천했다.  김영길 전 총장은 지난 5월부터 숙환으로 서울 아산의료원과 서울 신촌 세브란스병원에 입원해 치료를 받아왔다.  1939년 10월 3일 경북 안동 태생의 김 전 총장은 서울대 금속공학과를 졸업하고 미국 유학길에 올라 미주리주립대학교에서 금속공학석사, 렌셀러폴리테크닉대학교에서 재료공학박사 학위를 받았다.  온누리교회 초대 장로와 한동대 초대 총장(1995.2~2014.1)을 역임하고, 2016년 6월부터는 한동대 명예총장을 맡아 대학발전에 매진해 온 김 전 총장은 미국 NASA 루이스연구소 연구원(1974.5~1976.5), KAIST 재료공학과 교수(1978~1995), 한국창조과학회 초대 회장(1981~1997), 유엔아카데믹임팩트 한국협의회 회장(2012.8~현재)을 지냈다.  미국 NASA 발명상을 2회(1976,1981) 수상했고, 풍산금속과 협력해 발명한 반도체 리드 프레임 ‘PMC-102’합금 제조기술은 우리나라 최초의 ‘선진국 기술 수출 1호’ 기록으로 남아있다.  국민훈장 동백장(1982), 세종문화상(1986), 올해의 과학자상(1987), 한국기독교선교대상 교육자부문(1999), 제4회 한국기독교 학술상(2004), 2014년 전문인 선교대상(2014) 등을 수상한 바 있다.  KAIST에서 한동대로 자리를 옮겨 지난 1995년 한동대 초대 총장에 취임한 후, 혁신적인 커리큘럼과 기독교정신 기반의 인성교육으로 대표되는 교육실험을 통해, 교육중심대학이라는 새로운 교육모델을 제시했다는 평가다.  공부해서 남 주자, Why not Change the world? 세상을 변화시키자는 모토로, 경북 포항에 세워진 한동대를 단기간에 신흥 명문사학의 반열에 올려놓았으며, 제17대 한국대학교육협의회 회장과 국가교육과학기술자문회의 과학기술분과위원장을 역임한 바 있다.  빈소는 신촌 세브란스병원 장례식장 특1호에 마련될 예정이며, 조문은 30일 오전 12시부터 가능하다. 발인은 천국 환송 예배(서울) 7월 2일 오전 7시 온누리교회 서빙고 성전, 천국 환송 예배(포항) 7월 2일 오후 5시 한동대학교 그레이스스쿨(IGE)이다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      지난 3월 알파고와 이세돌 9단의 대국으로 전국은 인공지능 열기에 들떴다. 일부의 미래학자와 SF 소설가들 사이에서 회자되던 지능을 가진 기계가 사람들의 상상에만 있는 것이 아니라 현실이 될 수도 있다는 점에서 인공지능 논란은 일부 전문가들의 주제에서 대중적 주제로 발전했다. 미래를 고민하는 여유가 없는 한국사회에서 좀처럼 보기 어려운 기회였다. 그런데 알파고가 암시하는 미래 사회의 경제적 모습 중에는 상당 규모의 직업 변화 가능성이 있다. 지금까지의 컴퓨터는 프로그래밍 된 작업만 수행하는 기계여서 인간 노동의 생산성을 높이는 보조자의 역할을 했다. 반면 추상화 능력과 직관적으로 판단하고 추론하는 능력을 가진 오늘날의 인공지능은 인간만이 수행할 수 있다고 간주되던 일단의 직업군들을 대체할 수도 있을 것이다. 이로 인해 지금까지 현대자본주의를 지탱해 온 노동과 생산 패러다임에 큰 격변이 일어날 수 있다. 카이스트의 뇌과학 전문가 김대식 교수는 인공지능의 발달에 따라 생산과 소비의 연결고리가 끊어질 것이며, 이로 인해 기존의 사회 보장 제도는 크게 변화해야 한다고 말했다. 즉 지능을 가진 기계가 이전에 인간의 노동이 했던 영역을 상당 부분 대체하면서 물질적, 비물질적 생산의 혁명이 발생하지만 이렇게 생산된 재화와 서비스를 누가 소비할 것인가의 문제를 해결하지 못한다는 것이다. 즉, 기계가 생산한 재화와 서비스를 소비할 수 있게 하는 사회적 장치를 필요로 하게 된다.여기서 그는 사회적 생산과 소비의 고리를 연결하는 수단으로서 기본소득의 필요성을 인정한다. 물론 동시에 무언가 가치있는 일을 하지 않고 단순히 소득만 주는 것으로는 인간성의 황폐화가 발생할 수 있다고 우려하기도 한다. 그러므로 단순히 복지정책의 골격을 기본소득으로 하냐 마냐의 문제만이 아니고, 교육제도와 경제질서의 전반적 변화가 같이 수반되어야 한다는 것이다.   ▲ 핀란드 정부는 최근 기본 소득 정책 도입을 추진하고 있다. ⓒ게티이미지뱅크   인공지능 등장으로 생산주의, 노동주의가 폐기된다면?필자는 이 문제와 관련하여 사고하고 토론하는 일이 열려있어야 한다고 당연히 생각하면서 인간의 상상력과 창조력이 얼마나 중요한가라는 점을 느꼈다. 우리 사회는 알파고가 이세돌 9단을 꺾었을 때에야 깜짝 놀랐지, 사실 이 이벤트가 없었다면 미래를 준비하기 위한 선각자들의 많은 이야기를 또 다른 황당한 소리로 치부하고 말았을 것이 아닌가?여기에 그렇게 치부되고 있는 하나의 정책이 있다. 그것은 성남시에서 하는 청년배당 정책이다. 성남시는 지난 1월 '3년 이상 시내에서 거주한 만 24세 청년에게 1분기 배당금으로 12만5000원 상당의 지역화폐(성남사랑상품권)를 지급했다.'고 발표했다. 단 두 줄에 요약된 이 뉴스는 부족한 이 지면에서 다룰 수 없는 수많은 논점을 포함한다. 언뜻 들었을 때 '왜 24세의 청년에게, 왜 12만5000원을, 왜 성남사랑상품권으로 주나?'라는 의문이 들 것이다. 알파고에서 성남사랑상품권까지의 연결고리는 '기본소득'에 의해 이어진다. 기본소득 정책은 오랫동안 학계에서 연구되어져 왔는데, 최근 들어 갑자기 핀란드, 스위스, 영국, 프랑스 등의 정책 당국자의 입에서 제기되었고, 뉴욕타임스, 브루킹스 연구소, 미국의 벤처 투자자와 같은 주류 언론, 연구진, 자본가들도 이 필요성을 인정하면서 뉴스에도 상당히 오르내리고 있다. 기본소득이 기존의 복지정책과 달라지는 결정적 지점은 복지를 소득, 노동과 연계하지 않는다는 점이다. 전통적 복지정책은 저소득층을 중심으로 이루어진다. 여기서 복지는 생존권이자, 사회(국가)의 시혜가 되는 셈이다. 복지 수혜자의 경우, 소득이 증가하면 수혜 대상에서 제외되므로 근로 유인에 역으로 작용하는 부작용이 있어 노동 패러다임에서 출현한 복지정책이 역설적으로 노동 패러다임과 충돌하는 문제를 가지고 있었다. 이는 노동과 연계한 복지, 즉 생산적 복지 논의로 이어졌고, 결국은 복지정책이 국민경제에 부담으로만 인식되는 수준에 도달했던 것이다. 반면 기본소득은 노동을 조건으로 걸지도 않고 소득 수준과 연계하지 않는다. 시민이라면 모두 받을 수 있는 기본권인 것이다. 여기서 전통적 복지정책과 철학적으로 달라진다는 점을 알 수 있다. 따라서 직관적으로 간단한 기본소득이라는 아이디어에 일반 시민들이 반감을 가진다면 아마도 이 아이디어가 반노동적이어서가 아닌가라고 생각해본다. 그러나 우리 사회의 근간인 생산주의, 노동주의가 언젠가 폐기되어야 할 원리라고 한다면 어떻게 할 것인가? 여기서 다시 알파고의 사례로 돌아가보자. 만약 알파고가 던진 문제가 단순히 일회적 에피소드가 아니고 장기적 경향으로 나타난다면 (기를 쓰고 인공지능 기술 개발에 투자하는 전 세계적 경향을 볼 때 인류는 자기도 모르게 어떤 특이점을 넘어버릴 가능성이 매우 높다) 기존의 생산주의, 노동주의적 패러다임만으로서는 인류의 미래사를 이해할 수도 없고, 미래 인류의 문제를 해결하기가 매우 어려울 수 있다. 성남사랑상품권이 전자화폐와 결합한다면?이런 점에서 기본소득 아이디어는 단순히 황당한 생각으로 치부할 것이 아니라, 알파고에 걸맞는 관심과 대접을 받을 필요가 있다는 것이다. 이미 선진국에서 그렇게 관심을 보이고 있질 않은가? 현재 한국 사회에서 시민의 의식 수준, 정치권과 정책당국자의 이해관계로 인해 순수한 형태의 기본소득이라는 방식은 연구단계에서만 머물러 있었다. 그런데 성남시의 성남사랑상품권은 기본소득에 관한 순수한 아이디어가 구체화 되는 과정을 잘 보여준다는 점에서 매우 흥미롭다. 앞에서 이야기 했듯이 기본소득은 철학적 기반 자체가 생산주의와 노동주의에 익숙한 우리가 쉽게 받아들이기는 생소하다. 그러나 우리 경제는 이미 실업의 구조화, 만성화가 현실이 되어 있고, 다른 한편 비정규직과 빈곤한 소상공인의 문제도 구조적으로 만성화되어 있다. 이는 미래가 아니라 현실의 문제다. 빈곤과 직업의 부족에 대해서는 기본소득을 지급하고, 소상공인이라는 열악한 생산자들에 대해서는 기본소득을 쓰게 해서 이 양 계층을 연결해 본다는 실험, 이것이 성남사랑상품권의 창의성이 아닐까? 성남사랑상품권은 성남에서만 유통되는 지역화폐로 볼 수 있다.이제 성남시의 실험을 여, 야의 정쟁의 대상으로 볼 것이 아니라, 과거와 미래의 논쟁으로 보아야 할 것이 아닌가라는 생각을 해 보았다. 필자가 성남시 관련 기사에서 상품권 한 다발을 들고 환하게 웃고 있는 재래시장 상인의 모습을 보았는데, 좀 더 창의적인 사고를 해서, 종이 상품권이 아니라 전자화폐와 결합한 상품권을 만들어 유통시켜보면 어떨까라는 생각을 했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "이대로라면 정재승의 스마트 시티는 실패할 것이다." 지난 17일 송용찬 중앙대학교 교수가 &lt;프레시안&gt; 인터뷰 도중 작심한듯 내놓은 '애정어린 경고'다. '정재승의 스마트 시티'는 '연예인급 스타 뇌과학자' 정재승 카이스트 교수가 문재인 정부의 8대 선도사업 중 하나인 스마트시티 건설사업의 마스터플래너(MP. 총괄계획을 맡은 책임자)가 되어달라는 국가의 부름을 받고, 세종시(세종 5-1 생활권)에 구축하겠다고 지난달 16일 발표한 국가시범도시다.  첫삽을 뜨지도 않은 국가적 사업에 재를 뿌리는 것도 아니고 송 교수는 왜 이런 발언을 거침없이 하는 것일까? 송 교수는 국가표준기술력향상사업으로 중앙대에 처음으로 개설된 '표준고위과정' 총괄책임자다. 이 과정은 산업통상자원부 산하 국가기술표준원과 중앙대가 힘을 합쳐 고품격 표준전문가 네트워크를 형성하겠다며 신설된 국비지원사업이다.     ▲"표준은 21세기 언어"라고 강조하는 송용찬 중앙대 교수. 그는 산업자원부가 중앙대에 개설한 '표준고위과정' 총괄책임자다.ⓒ중앙대   "초연결사회 스마트시티, 표준도 없이 어떻게 건설하나"  송 교수는 "스마트시티는 모든 것이 원격통신망으로 이어진 초연결사회"라면서 "표준이 확립되지 않고 어떻게 연결을 시킬 수 있느냐"고 반문한다.   예를 들어, 스마트시티에 자율주행차가 달리려면 정밀한 도로지도가 있어야 하고, 순식간에 도로지형에 따른 상황변화를 자동차가 인식할 수 있어야 한다. 그런데 도로지형 신호를 자동차가 인식하려면 지도와 자동차가 서로 소통할 수 있는 표준이 정립되어야 한다. 송 교수는 "현실은 표준이 왜 모든 것의 기초가 되는지 인식도 부족하다"면서 "이런 수준에서 스마트시티를 누가 책임지고 건설할 수 있다는 것이냐"고 개탄했다.  이미 2003년 최초의 스마트시티라고 할 수 있는 u시티 사업은 실패했다는 평가를 받고 있다. u시티의 u는 "언제 어디서나 존재한다"는 뜻의 유비쿼터스(ubiquitous)의 머릿글자로 u시티는 "언제 어디서나 시민들이 편하게 행정.교통.복지.환경.방재 등의 도시정보를 제공받고 활용할 수 있는 여건을 제공하는 도시"를 말한다.  송교수는 "u시티 사업이 별다른 성과를 거두지 못한 것도 표준이 정립되지 못한 현실의 수준이 큰 걸림돌로 작용하고 있기 때문"이라고 지적한다. '정재승의 스마트시티'와 함께 동시에 추진되고 있는 스마트시티 '부산 에코델타시티'는 벌써부터 흔들리고 있다. 부산 스마트시티의 MP가 돌연 사임을 한 것이다.  스마트시티의 MP는 스마트시티의 목표와 비전을 구상하고, 기본 구도까지 현실화하는 작업을 총괄하는 책임자다. '세계적인 스마트시티 사업 전문가'로 영국에서 어렵사리 초빙한 인재라더니, 그 인재가 3개월만에 "못하겠다"고 나간 것이다. 늘 그렇듯 "일신상의 사유의 사퇴"라는 게 정부의 공식 입장이다. 하지만 업계에서는 "못해먹겠다고 진저리를 치고 나갔다"는 소문이 파다하다.  그가 절망한 한국의 현실은 복합적인 것으로 알려졌다. 하지만 한국의 표준 작업 수준도 스마트시티 MP의 고민거리일 수밖에 없다는 것이 송 교수의 주장이다. 업계에서는 정재승 교수마저 흔들리고 있다는 소문까지 나오고 있다. 정 교수가 MP로서 마스터플랜을 만들겠다고 지원을 요청하자, 관련 부처에서 오히려 놀라면서 "마스터플랜을 직접 만들려고 하느냐. 우리가 용역회사를 통해 만들겠다"고 황당한 반응을 보였다는 일화가 회자되고 있다.  MP 자체가 마스터플랜을 수립하는 임무를 맡은 책임자를 뜻하는데, 예산 지원도 없이 지원부처의 인식부터 바꾸기 위해 마스터플랜이 아니라 "마스터플랜은 MP가 만든다"는 등 규정을 만드느라 진땀을 뺐다는 것이다. 소문이 아니라 정 교수가 직접 토로한 얘기다.   21세기 국가 첨단사업에 최고의 전문가를 총괄책임자로 영입해 놓고는 예산 지원은커녕 정규 보수를 한푼도 책정하지 않은 채 스마트시티 사업을 발표한 것이다.  부산 엘코델타시티의 후임 MP는 AP(Assistance Planner)를 승진시키는 형식으로 자리를 채웠다. 하지만 업계에서는 "최고의 전문가들을 이렇게 푸대접하고 전혀 스마트하지 않은 수준의 사업기반에서 추진되는 스마트시티의 앞날이 캄캄하다"는 것이 중론이다.  송 교수는 "최근 중국의 스마트시티 사업 현황을 파악하기 위해 현지에 가보니, 스마트시티 건설을 위해 표준이 중요하다는 점을 강조해서 인상 깊었다"면서 중국 스마트시티 사업 관계자의 발언을 소개했다.  이 관계자는 "21세기의 언어는 '표준'이다"라고 말했다는 것이다. 송 교수는 이 말을 풀어서 설명했다. 못을 이용하지 않고 목재로 선박을 건조할 때, 목재를 결합하기 위해 각 부분의 표준을 미리 정해야 하는 것처럼, 21세기가 국제적으로도 초연결사회가 되기 위해서는 모든 분야가 소통이 가능하도록 해야 하는데, 바로 이것이 언어의 역할이며, 서로 다른 것을 소통시키는 언어가 바로 '표준'이라는 것이다. 즉, 스마트사회를 표방한다면, 그 사회의 실질적인 언어는 '표준'이라는 것이다.  산업부가 '표준고위과정' 지원 나선 이유 스마트시티 사업을 국가적으로 육성하는 이유는 수출산업이기도 하기 때문이다. 국제적으로 경쟁하는 사업이다. 중국은 아시아지역 스마트시티 중 50% 이상을 건설한다는 계획으로 2020년까지 전국 500여 개 도시에 스마트시티 건설 사업을 진행하고 있다. 총 사업비가 1조 위안(약 163조 원)에 이른다. 산업통상자원부가 국가기술표준원을 통해 '표준고위과정' 지원에 나선 것도 스마트시티가 국가사업으로 표준전문가 양성과 각 분야의 표준전문가들의 소통을 위한 네트워크 구축이 시급하다는 판단 때문이다. 산업부는 표준고위과정에 대해 "4차 산업혁명시대에 표준화를 통한 혁신성장 및 표준정책 인적 생태계 구성을 위한 것"이라고 의미를 부여했다.  산업부에 따르면, 국정과제로 5년간 글로벌 기술표준 전문인력 300명 양성을 추진할 계획으로, 4차 산업혁명시대 연결성의 핵심으로 꼽히는 표준의 중요성이 커짐에 따라 표준 선점 및 전략적 활용을 위한 표준전문가 양성이 필수라는 것이다. 이를 위해 표준 전략기획, 기업경영층 등 산·학·연 표준경영 인력을 대상으로 중앙대에 표준고위과정이 개설 및 운영된다. 9월 7일부터 16주간 중앙대에서 처음 운영될 이 프로그램은 표준관련 기업, 시험·인증기관, 국제표준전문가 등 50여명을 대상으로 1기 과정이 진행된다.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          2017 KAIST-포스텍(POSTECH) 학생대제전 ⓒKAIST       과학도들이 맞붙어 ‘사이언스 워(Science War)’라는 별칭으로도 불리는 ‘KAIST-포스텍(POSTECH) 학생대제전’이 14일~15일 포스텍에서 개최된다.  2002년부터 시작된 이 대회는 KAIST(총장 신성철)와 포스텍(총장 김도연) 학생들이 친목을 도모하고 개인의 소질과 능력을 발산하는 축제의 장으로 이어왔다.  이공계 두뇌들이 참가하는 행사답게 해킹·인공지능(AI)·과학퀴즈 등 3개의 과학경기 종목과 야구, 축구, 농구 등의 구기 종목에 e-Sports(League of Legends)를 포함한 4개의 운동경기를 합쳐 총 7개 종목에서 대결을 펼친다. 또 번외로 배드민턴 경기도 치러진다.  4개 종목 이상 승리한 대학이 종합우승을 차지하는 방식으로 매년 9월 대전과 포항을 번갈아 오가며 개최하는 학생대제전은 원정 대학의 명칭을 앞에 표기하는 원칙에 따라 올해는 ‘카·포전’으로 불린다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ▲한성현 경남대학교 교수. ⓒ경남대학교       ‘2020 혁신 리더 대상’은 대한민국의 미래를 이끌어갈 정치, 경제, 사회, 문화 등 다양한 분야에서 우수한 공적을 남기고 국가와 사회발전에 기여하며 대한민국의 우수성을 널리 알린 주인공들에게 주어지는 상이다.  경남대학교는 5일 한성현 기계공학부 교수가 2020 혁신 리더 교육계 부문 대상을 수상했다고 밝혔다.  교육계 부문 대상을 수상한 한성현 교수는 그동안 4차 산업혁명 핵심기술의 가치 제고와 맞춤형 인재양성에 매진하면서 대학의 역할 증대와 위상 제고에 크게 기여해왔다.  또한 지역의 첨단 로봇산업 발전과 경남마산로봇랜드의 성공적 조성에 헌신해왔는데, 이번에 그 공로를 인정받았다.  한 교수는 그동안 한국산업융합학회 회장, 한국산업응용학회 회장, ICROS 부회장, 국가지정 로봇지능기술연구센터장(KAIST 분소장), 경남로봇산업교류회 회장, 경남마산로봇랜드 자문위원장 등을 역임하며 로봇 및 융합산업기술 분야 발전을 위해 왕성한 활동을 해왔다.  이와 함께 지난 1992년 기계공학부 교수로 임용된 이래 학생들의 교육과 연구에 매진하면서 BK21사업 센터장, NURI 사업단장, 기계공학부 학부장, 공학기술연구원장, 공과대학장, 산업대학원장 등을 역임하며 대학의 성장과 발전에도 크게 기여했다.  한편 한성현 교수는 수상 소감을 통해 “이 상은 앞으로 학생들의 교육과 연구에 더욱 정진하라는 뜻이라 생각하며, 계속해서 지역의 첨단산업 발전과 맞춤형 인재 양성을 위해 매진하겠다”고 말했다.       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      경남대는 지난해 교수들의 성공적인 교육경험을 토대로 대학 전체가 공유하고 확산하기 위한 '2017 경남대학교 교육혁신포럼'을 개최한다고 10일 밝혔다.  10일부터 11일까지 이틀간 한마미래관 및 창조관에서 열리는 이번 포럼은 3개 세션으로 나눠 교수와 학생들이 참여하는 교육혁신콘서트로 진행된다.  포럼 제1세션에서는 경험기반교육, 제2세션에서는 지역협력교육, 제3세션에서는 경남대교육의 미래를 주제로 초청특강 2회, 학생발표 3회, 교수들의 주제발표 31개와 열띤 토론이 마련된다.    ⓒ경남대학교     특히 첫날 열린 콘서트에서는 김해욱(경제금융학과)·도태융(경호보안학과)·염혜진(간호학과) 학생은 교과목을 수강하면서 느꼈던 점에 대해 체계적이고 일목요연하게 설명해 참석자들로부터 큰 박수갈채를 받았다.  또 이태억 KAIST 교수의 KAIST의 수업혁신 전략 및 사례, 김우승 한양대 ERICA캠퍼스 부총장의 직무능력강화를 위한 산학연계 교육방안이라는 초청 발표를 통해 앞서가는 대학의 우수사례를 벤치마킹하는 계기가 마련했다.  박재규 총장은 "이번 포럼을 통해 우리 대학이 지역의 중심에서 잘 가르치는 대학으로 더욱 발전할 수 있다는 자신감을 가지게 되었다”며 “매년 정기적인 포럼을 통해 4차 산업혁명 시대 지역밀착형 대학의 선도모델이 되도록 지속적으로 지원해 나갈 것"이라고 말했다.   한편 경남대는 4차 산업혁명시대를 이끌 창의융합형 지역인재 양성을 위해 경험기반교육, 모듈형 교육과정, 지역연계교과목 운영, 과정중심 평가, 맞춤형 학생지도 등을 추진하고 있다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      강원랜드는 7일 컨벤션호텔에서 제147차 이사회를 열고 ‘카지노 게임기구 제조업 및 판매업’을 할 수 있도록 정관을 변경하는 등 6개 안건을 심의 의결했다.  이날 이사회는 2016회계연도 재무제표, 연결재무제표와 영업보고서 승인안과 이사 및 감사위원 선임계획안, 정관 일부 변경안, 제19기 정기주주총회 소집안, 정선군 도시재생 지원센터 지원안, 2017년도 강원FC 후원금 증액과 광고선전비 추가경정안 등을 심의 의결했다.  제1호 안건은 2016회계년도 재무제표, 연결재무제표 및 영업보고서 승인안으로 매출액 1조6965억 원, 당기순이익 4545억 원 등의 연결재무제표 승인과 함께 배당성향 44.16%의 현금배당(주당 990원)을 실시키로 했다.    ⓒ강원랜드     제2호 이사 및 감사위원 선임계획안은 비상임 이사후보로 신주호(정선 부군수)씨를, 사외이사 후보로 최돈용(보령메디앙스(주) 경영기획실장), 한인구(KAIST 경영대학 교수)씨를 주주총회에 추천해 선임키로 의결했다.  또한 감사위원 후보로 김상일(전 영월군 부군수), 최돈용(보령메디앙스(주) 경영기획실장), 한인구(KAIST 경영대학 교수)씨를 추천했다.  제3호 정관 일부 변경안은 슬롯머신기기 제조 사업을 하기 위해 정관 제2조에 ‘카지노 게임기구 제조업 및 판매업’을 추가했다.  또 ‘Craft-Beer(수제맥주)’제조 사업을 도입하기 위해 정관 제2조 제12호 ‘주류판매업’을‘주류 제조업 및 판매업’으로 변경하는 것으로 의결했다.  이어 제4호 제19기 정기주주총회 소집안은 오는 30일 11시 강원랜드호텔 대연회장에서 개최하기로 원안 의결했다.  또 제5호인 정선군 도시재생 지원안과 관련해서는 기부금 6억 3000만 원을 정선군 도시재생 지원센터 수탁기관인 ‘재단법인 3.3기념 사업회’에 전달하는 것과 지원 인력 1명을 파견하기로 원안 의결했다.  마지막 안건인 2017년도 강원FC 후원금 증액 및 광고선전비 추가경정안은 강원랜드가 강원도 대표기업으로서 강원도민의 화합과 사기 진작에 기여하고자 강원도민프로축구단 후원금 예산 20억 원을 40억 원(20억 증액)으로 변경하기로 원안 의결했다.   이에 따라 강원랜드는 폐광지역 학교 체육교실을 비롯해 멘토링, 소외계층 경기 초청 등을 강화해 앞으로 강원FC를 통해 기업의 사회적책임을 다할 예정이다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 박범계의원과 조병용신한금융회장, 허태정 대전시장(좌로부터)이 투자협약 체결을 한 후 기념 촬영을 하고있다 ⓒ 대전시      대전시는 20일 중회의실에서 허태정 대전시장과 조용병 신한금융그룹 회장, 박범계 국회의원 등이 참석한가운데 신한금융그룹과 대전 스타트업파크 투자협약을 체결했다.  이에 따라 신한금융그룹은 대전 유성구 일원에 조성 중인 대전스타트업 파크에 총 1000억 원을 투자하기로 했다. 이번 투자는 단순한 금융지원을 넘어 신한금융그룹이 대전 스타트업파크의 성공을 위한 한 축을 담당한다는 점에서 남다른 의미를 갖고 있다.  신한금융그룹은 1000억 원을 들여 스타트업과 지원기관의 활동 공간 조성, 스타트업들을 위한 투자 전용펀드 조성·운영 등에 나설 예정이다.  대전 스타트업파크는 카이스트, 충남대학교 등 대학과 대덕특구 출연연구소의 우수한 인적자원, 연구 인프라 및 원천기술이 집적된 창업생태계 조성 최적지로 미국의 실리콘밸리와 같은 세계적인 스타트업 타운을 모델로 조성된다.  대전시는 지난 상반기 중앙정부의 스타트업 파크 공모사업에는 선정되지 못했지만, 사업의 중요성과 필요성을 감안해 국비 지원 여부와 관계없이 대전 스타트업 파크 조성 사업을 추진하고 있다.  허태정 대전시장은 “이번 협약은 대전 스타트업 파크가 대전의 미래를 이끌어갈 핵심 사업이자 대한민국 경제를 도약시킬 가능성에 대한 투자”라며 “앞으로 카이스트 등 모든 협력기관과 합심해 대한민국의 혁신형 창업 모델의 성공사례를 반드시 우리 대전에서 이루어내겠다"라고 말했다  한편, 대전시와 신한금융그룹은 이번 투자협약을 준비하며 구체적인 사업내용과 일정에 대해서도 협의를 마쳤으며, 협약 이후 스타트업 지원에 대한 보다 구체적인 사업 계획을 마련할 계획이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      더불어민주당 문재인 대선 후보와 국민의당 안철수 대선 후보는 18일 각각 '기초연금 30만 원 공약'을 내며 어르신 표심 잡기에 나섰다. 문재인 후보는 이날 전북 전주시에 있는 덕진노인복지회관에서, 안철수 후보는 이날 어르신 일자리 현장인 '카이스트 교내 빨래방'에서 각각 '노인 복지 공약'을 발표했다. 두 후보의 노인 공약은 크게 △기초연금 등 노인 소득 보장 분야 △노인 의료 보장 분야 △노인 일자리 분야로 나뉜다. 노인 소득 보장 공약에서 두 후보는 모두 박근혜 정부가 단행한 '기초연금-국민연금 가입 기간 연계'를 폐지하고, 기초연금을 30만 원으로 올리겠다고 약속했다. 다만, 기초연금 지급 대상에서 차이가 있다. 문재인 후보는 현재 소득 하위 70% 노인에게 10만~20만 원씩 차등 지급되던 기초연금을 소득 하위 70% 노인에게 30만 원으로 차별 없이 지급하겠다는 방침이다. 안철수 후보는 소득 하위 50% 노인에게만 30만 원으로 기초연금을 올리겠다는 입장이다. 나머지 소득 하위 50~70% 노인에게는 20만 원을 지급한다.  하지만 이른바 '줬다 뺏는 기초연금' 문제에 대해서는 두 후보 측 모두 한 발 물러섰다. '줬다 뺏는 기초연금'이란 기초연금을 올려도 기초생활보장 수급 노인은 인상된 기초연금만큼의 기초생활보장 급여가 깎이는 문제를 일컫는다. 가장 가난한 기초생활보장 수급 노인이 기초연금 인상의 혜택을 받지 못하는 것이다. 더불어민주당 선대위의 홍종학 정책부본부장은 &lt;프레시안&gt;과 한 통화에서 "기초생활보장 제도는 그대로 두는 것을 전제로 한다"고 말했다. 국민의당 선대위 김원종 정책부본부장도 &lt;프레시안&gt;과 한 통화에서 "기초생활 급여는 보충 급여의 측면이 있는 만큼, 좀더 검토해야 한다"고 답했다. 노인 의료 보장 공약에서 두 후보는 모두 지역마다 '치매지원센터'를 설립하고, 공공 요양시설을 확충하며 노인 틀니 등에 대한 지원을 늘리겠다고 했다. 문재인 후보는 '치매 국가 책임제'와 '틀니, 임플란트 본인 부담금 절반 할인' 공약을 내세웠다. 중증 치매 환자를 전문적으로 돌보는 공공 치매전문병원, 공공 노인 요양시설을 확충하겠다고 했다. 어르신을 대상으로 '찾아가는 방문 건강 서비스'를 시행하겠다고 했다. 안철수 후보는 노인 틀니 본인부담금을 현행 50%에서 30%로 낮추겠다고 했다. 치매 환자에게는 간병 건강보험 급여를 우선 적용하고, 노인 장기요양보험 대상자를 전체 노인 대비 7.5%(52만 명)에서 12%(80만 명)까지 단계적으로 늘리겠다고 했다. 또 75세 이상 고령자 입원 본인 부담금을 현행 20%에서 10%로 낮추고, 노인장기요양보험 본인 부담금에서 시설 급여는 20%→15%, 재가 급여는 15%→10%로 낮추겠다고 했다. 노인 일자리 공약에서 문재인 후보는 어르신과 마을공동체를 위한 사회공익형 일자리를 대폭 늘리고, 공공 근로 수당도 현 20만 원 수준에서 40만 원까지 늘리겠다고 밝혔다. 안철수 후보는 노인 일자리를 향후 5년간 매년 5만개씩 늘려서 2022년에는 68.7만 개로 확충하고, 공공 근로 수당을 현 22만 원에서 30만 원 수준으로 올리겠다는 계획이다. 안 후보는 "60세 이상 퇴직자를 대상으로 직업 재교육과 재고용 시스템을 만들고, 이를 위해 '인생 이모작법'을 제정하겠다"고 했다.그 밖에도 문재인 후보는 '홀몸 어르신 맞춤형 공공 임대주택'을 매년 1만 개씩 임기 내 5만 개를 제공하겠다고 공약했다. 농산어촌에는 '100원 택시'를 도입해 어르신 교통 불편을 해소하겠다고 했다. 안철수 후보는 경로당을 만성질환을 겪는 노인을 위한 '어르신 건강 여가생활 지원센터'로 확대 개편하고, 독거 노인을 위해 경로당과 마을회관을 '독거노인 공동생활가정'으로 단계적으로 리모델링하겠다고 밝혔다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      문화체육관광부(장관 박양우)와 한국콘텐츠진흥원(원장 김영준, 이하 콘진원)은 ‘2020 콘텐츠인사이트’를 온라인 컨퍼런스로 전환해 오는 21일부터 23일까지 총 3일간 진행한다. 올해 ‘콘텐츠인사이트’는 코로나19로 새로운 전환을 맞고 있는 콘텐츠산업에 주목해 기술, 소비, 사회의 ‘변화’를 주제로 개최된다. 콘텐츠산업계를 주도하는 각 분야 국내외 연사들이 한 자리에 모여 콘텐츠의 현재와 미래를 살피고, 콘텐츠의 지속가능한 성장을 위한 인사이트를 공유할 예정이다.    ▲2020 콘텐츠인사이트 포스터 ⓒ한국콘텐츠진흥원   첫날 21일 진행되는 1일차 세션에서는 ‘기술의 변화 - 더 가까워지는 실감콘텐츠’를 주제로 5G 기술 상용화로 각광받는 실감콘텐츠 비즈니스의 현재와 미래에 대해 논한다. ▲우운택 교수(카이스트)와 ▲이진하 최고제품책임자(스페이셜)가 실감콘텐츠에 대한 기조연설과 강연을 펼치고, ▲조익환 상무(SKT) ▲신영근 팀장 (LGU+) ▲이영호 팀장(KT) 등 통신3사 관계자가 김종민 XR 큐레이터와 함께 대담을 진행한다. 2일차는 ‘소비의 변화 – 세계관과 캐릭터 확장’을 주제로 콘텐츠 세계관을 구축하는 트랜스미디어 전략과 캐릭터의 재해석을 다룬다. 전 DC코믹스 부사장 및 공동발행인 ▲댄 디디오(Dan Didio)와 영화 &lt;조커&gt;, &lt;다크 나이트&gt; 시리즈 제작 프로듀서로 잘 알려진 ▲마이클 우스랜(Michael E. Uslan)이 해외연사로 참여해 각각 DC유니버스의 확장 전략과 히어로물의 시점 다변화에 대해 강연을 펼친다. 국내 연사로는 영화 &lt;신과함께&gt;, &lt;광해&gt; 제작자인 ▲원동연 대표, 영화 &lt;강철비&gt;, &lt;변호인&gt; 연출자인 ▲양우석 영화감독이 민용준 저널리스트와 함께 ‘미디어 경계를 넘어 확장하는 세계관 속 입체적 캐릭터의 탄생’에 대해 이야기할 예정이다. 마지막 3일차에는 ‘사회의 변화 - 다양성 콘텐츠’를 주제로 젠더 및 에이지즘(Ageism, 연령차별주의) 등 다양성을 확보하기 위한 콘텐츠업계의 여러 시도를 살펴본다. 전 넷플릭스 다양성 총괄 책임자 ▲미셸 킹(Michelle King)의 강연에 이어 방영과 동시에 화제를 모으고 있는 드라마 &lt;보건교사 안은영&gt;의 원작자이자 집필에 참여한 ▲정세랑 작가, 국내 최초 여성 스탠드업 코미디쇼 &lt;박나래의 농염주의보&gt;를 연출한 ▲김주형 PD와 영화 &lt;69세&gt;로 올해 가장 주목받는 여성 감독 중 한명인 ▲임선애 감독이 씨네21 김혜리 기자와 함께 다양성 콘텐츠에 대한 강연과 대담을 진행한다. 또한, 올해 ‘콘텐츠인사이트’는 심화 워크숍을 신설해 참가자에게 콘텐츠산업계 전문가 4인의 세미강연을 포함한 1:1 밀착 멘토링 및 네트워킹 기회를 제공한다. 심화 워크숍은 ‘유통의 변화 – 슈퍼IP의 개발과 확장’을 주제로 진행되며, 참가자는 총 20명 내외로 오는 16일 자정까지 신청 받는다. 이번 ‘2020 콘텐츠인사이트’는 코로나19 확산 방지를 위해 비대면 온라인 방식으로 진행되며, 오는 21일~23일 오후 2시부터 콘진원 공식 유튜브를 통해 생중계될 예정이다. 콘텐츠 분야 현업인이라면 누구나 무료로 참여할 수 있으며, 보다 자세한 내용과 신청방법은 2020 콘텐츠인사이트 누리집을 통해 확인할 수 있다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      전남의 미래 먹거리산업을 자문할 ‘전남 신 성장추진위원회’가 지난 15일 서울 롯데호텔에서 출범식을 갖고, 에너지신산업 등 4대 신 성장산업의 발전 방안 마련에 머리를 맞댔다.  이날 출범식에선 김영록 전라남도지사가 민간 위원 10명에게 위촉장을 수여하고, 전남의 신 성장 전략산업에 대해 토론했다.   ▲전남의 미래 먹거리산업을 자문할 ‘전남 신 성장추진위원회’가 지난 15일 롯데호텔에서 출범했다.ⓒ전남도청   이번 전남 신 성장추진위원회는 전라남도의 자문기구다. 김영록 도지사가 위원장을 맡고, 민간위원으로 지역 출신 전직 고위관료, 산업계 전·현직 CEO, 법조인·학계 저명인사 등 11명으로 구성됐다. 참여 위원은 배국환 전 기재부2차관, 윤종록 전 미래부2차관, 이재훈 전 산업부2차관, 김준식 전 포스코 대표이사, 하경진 전 현대삼호중공업 사장, 조순태 전 녹십자 부회장, 송세경 KAIST 위촉 책임연구원, 문승현 전 광주과기원 총장, 소병철 전 법무연수원장, 권희석 서울관광재단 이사장 겸 하나투어 수석 부회장이다. 추진위원회는 앞으로 전남의 미래 신 성장 동력산업 육성에 대한 자문과 함께 국내외 산업정책 동향 및 국내외 중견․대기업에 대한 투자유치 자문 역할을 한다.  전라남도는 이날 출범식에서 ‘정도 천년, 전남 새천년 비전’이라는 주제로 전남이 앞으로 미래 신 성장산업으로 중점 육성할 글로벌 에너지신산업 등 4개 분야 주요 프로젝트를 설명하고, 위원들의 폭 넓은 의견을 수렴했다.  또 분야별로 글로벌 에너지신산업 육성의 경우 한전공대 설립 및 대형 랜드마크 연구시설 유치, 에너지신산업 클러스터 조성 등을 논의했다. 바이오 메디컬 허브 구축 분야에선 전남첨단의료복합단지 유치 방안을, 남해안 신 성장 관광벨트 구축 분야에선 섬․해양 관광산업 육성을 위한 크루즈관광 활성화 방안을, 드론산업 클러스터 조성 분야에선 드론 전·후방산업 육성 및 민간투자 활성화 방안을 논의했다.  또한 미래 신 성장산업 육성을 위한 신산업 분야 중견·대기업 투자유치 방안을 논의했다.  배국환 위원은 “전남만이 가진 청정지역 섬 해양관광, 바이오의약, 휴양산업을 중장기적으로 적극 육성해야 한다”며 “여수, 목포 지역을 크루즈산업을 동북아 거점으로 육성해야 한다”고 주장했다.  문승현·조순태 위원은 전남의 미래를 책임질 인재 육성을 위해 우수 중고등학교와 한전공대 등 특성화 대학 육성을 강조했다. 김준식 위원은 전남지역 미분양 산단을 임대산단으로 전환해 투자유치에 힘쓸 것을 제안했다. 배국환 위원은 세계적 자원인 전남의 갯벌과 천일염을 활용해 미래 전략산업으로 육성할 것을 주문했다. 하경진 위원은 기존 산업인 조선 산업 등의 대외 경쟁력을 확보하고 미래 신산업도 조화롭게 육성해야 한다고 조언했다.  이날 김영록 도지사는 “전남은 섬․해양 등 천혜의 자연자원과 미래 신 성장 인프라를 갖춘 기회의 땅”이라며 “전남이 앞으로 100년간 먹고 살 신 성장 전략산업에 대한 위원들의 적극적인 의견을 당부드린다”고 말했다.  한편 신성장위원회는 이날 공동위원장으로 배국환 위원을 선임하고, 매 분기별 정기적으로 회의를 열어 현안을 논의키로 했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ⓒ민주평화당      민주평화당이 21대 총선 2호 공약으로 '국공립대학교 무상등록금 실시'를 내걸었다. 20일 민평당에 따르면 지역인재의 수도권 집중화를 해소하고 누구나 대학교육을 받을 수 있는 교육권리를 보장하기 위해 이 공약을 제시했다.  또 사립대 재학생들의 부담경감을 위해 학자금대출 이자를 무상으로 전환하고 이후 재단 적립금 등을 통해 사립대도 등록금이 인하될 수 있도록 한다는 계획이다.  정동영 대표는 "지역 우수인재의 상당수가 서울과 수도권 대학으로 진학하며, 지역 인재가 수도권으로 몰리고 지역기업도 서울로 이전하는 악순환이 지속되고 있다"며 "지방의 우수인재들이 지방 국공립대에 진학해 지역 인재로 성장할 수 있도록 유인하는 정책이 필요하다"고 강조했다.  이어 그는 "지역 대학이 인재를 배출하고 동시에 좋은 기업도 지역에 유치하는 선순환 구조를 만드는 것이 필요하며, 지방 명문 대학이 된 포항공대, 카이스트, 울산과학기술대 등 모두 무상교육과 재정지원의 결과다"고 설명했다.  현재 학생수와 평균 등록금을 기준으로 할 경우 국공립대 무상 등록금에는 약 1조 4000억 원 규모의 재원이 필요할 것으로 추정된다.   2017년 국회예산정책처 예산추계에 따르면 사관학교를 제외한 전국 국공립대학을 모두 무상화할 경우 연간 8300억 원의 예산이 소요되는 것으로 나타난 바 있다.  이에 더해 사립대학교 재학생들을 위해 학자금대출을 무이자로 전환한다면 현재 연 학자금 대출 규모는 연 1조 8000억 원으로, 2%인 이자를 무상으로 전환할 경우 연간 370억 원이 필요하게 된다. 한편 민주평화당은 주택에 비해 과도한 특혜를 받고 있는 별도합산토지(상가, 빌딩 부속토지)에 대한 종부세 정상화로 1조 5000억 원 이상을 마련할 수 있다는 점을 강조했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ⓒ전주시      2020 전주다움으로 세계와 승부하겠습니다! 존경하는 전주시민 여러분!  2020년 새해 복 많이 받으십시오.  지난 5년 동안 전주는 사람과 생태와 문화를 핵심 가치로 놓고 도시의 체질을 바꾸고 전주만의 정체성을 찾기 위해 노력했습니다. 그 결과 전주는 대한민국에서 가장 주목받는 도시로 성장하고 있습니다. '가장 전주다운 것이 가장 세계적인 것'이라는 확고한 믿음으로 2020년 전주는 세계와 승부하는 한 해를 만들고자 합니다.  세계와 겨룰 수 있는 무기는 단연 '전주다움'입니다.경제 분야에서도 전주만의 특징과 장점을 살려가겠습니다. 수소경제 시범도시로 선정된 만큼 원천기술과 인프라를 선점하겠습니다. 국가 탄소산업 1번지로서 산단 조성과 관련기업 유치에 힘을 쏟겠습니다. 드론기업지원센터 구축, 국제드론축구센터 설립 등으로 국가 드론산업을 주도하겠습니다. 산학융합플라자 건립, 팔복예술공장과 연계한 팔복청년예술놀이터 건립, KAIST 미래 발전전략 포럼 운영 등 청년창업 친화도시를 조성하겠습니다. 전북중소기업연수원과 4개 권역 지식산업센터를 건립해 좋은 인재들이 지역을 떠나지 않고 일할 수 있는 여건을 만들겠습니다.  문화 분야에서도 세계와 당당히 승부하는 원년을 만들겠습니다.구도심 문화심장터 100만평의 중심인 한옥마을에 전주관광산업 발전의 기폭제가 될 대한민국 1호 관광트램을 도입하겠습니다. 호남의 수부이자 관민상화의 상징인 전라감영 복원 원년을 맞아 2단계 복원과 전주부성 일부 복원을 추진하겠습니다.충경로는 제2첫마중길로 거듭납니다. 한옥마을과 구도심 글로벌 웰컴센터 조성으로 국제관광 거점공간을 확보하겠습니다. 종합경기장 본격 재생과 함께 옛 법원·검찰청 자리는 전통문화와 과학기술이 융합하는 미래형 콘텐츠, 가칭 한국문화원형 미디어아트센터를 건립해 덕진 뮤지엄밸리의 꿈을 앞당기겠습니다.  지난 12월, 중화산 전주시립도서관 야호책놀이터와 평화동 야호책놀이터 개관으로 도서관 도시로 성장할 수 있는 가능성을 확인했습니다. 이를 바탕으로 새해에는 '도서관, 그 이상의 도서관 도시'로 거듭납니다. 전주는 인문학 365, 인문주간 선포, 전주독서대전 개최 등으로 꾸준히 쌓아온 인문의 힘이 있습니다. 시청로비 도서관, 서학마을 예술전문도서관, 첫마중길과 구도심 여행전문도서관, 독립출판 전문 완산도서관, 혁신도시와 에코시티 커뮤니티센터에도 야호 책놀이터를 만들어 모든 시민이 책과 함께 성장하는 도서관 도시를 만들어가겠습니다.   천만그루 정원도시를 만들기 위한 발걸음도 계속 됩니다.1월부터 시민헌수를 시작해 6월에 천만그루 정원도시 종합계획을 완료하고 금암분수정원 조성 등 도시 곳곳을 정원으로 만들겠습니다. 전주 종합경기장 부지는 5가지 테마숲 조성 등 '시민의 숲 1963'이라는 이름으로 시민과 함께 만들어가겠습니다. 일몰제로 사라질 위기에 처한 장기미집행 도시공원 내 사유지는 시에서 일괄 매입해 난개발을 막고 도시 숲과 공원을 살리는 기회로 바꾸겠습니다.   시민들의 여가와 저녁이 있는 삶을 응원하겠습니다.한옥마을 문화시설과 7개 도서관 이용시간을 밤 10시까지 연장하고 서부권·북부권 복합복지관 건립을 추진해 다양해진 문화욕구를 충족시키고 문화향유의 폭을 넓히겠습니다. 아이부터 어르신까지 섬세한 돌봄으로 복지의 질을 높이겠습니다. 정든 집에서 노후를 편안하게 보낼 수 있도록 지원하는 전주형 통합돌봄 선도사업의 완성도를 높여가고 발달장애인 사서 정규직 전환 등 양질의 일자리를 만들어가겠습니다. 공공어린이 재활의료센터 건립, 국공립어린이집 확대로 모든 부모가 안심할 수 있는 보육환경을 만들어가겠습니다.  아이들이 숲속에서 놀고, 책과 함께 놀고, 예술과 함께 노는 전주형 야호플랜을 지속적으로 추진하고 우리 아이들이 주체적으로 미래를 설계하는 '10학년 인생학교' 등 새롭고 혁신적인 야호학교를 본격적으로 운영하겠습니다.  사랑하는 전주시민 여러분! 지난 5년 동안 전주는 많은 변화를 이룩했습니다. 조금씩 쌓여온 작은 변화들이 어느 순간 폭발적인 힘으로 전환돼 새로운 시대를 열어가듯, 전주는 지금 새로운 변화의 시간을 앞두고 있습니다.  국내 관광도시를 넘어서 국제 관광거점도시로 도약하고 대한민국 수소경제를 압도적으로 이끌어가는 선도도시, 지역균형발전을 선도하고 시민의 삶을 바꿀 특례시의 꿈을 전주는 결코 포기하지 않을 것입니다.   끊임없이 변화하지만 본질은 끝까지 지켜내는 뚝심 있는 도시. 자존심을 잃지 않고 전주다움으로 세계와 승부하는 도시. 세계 어디를 가든 '전주사람'이라는 것이 자랑스러운 도시. 시민 여러분과 함께 만들어가겠습니다.  사랑하는 전주시민 여러분, 새해 복 많이 받으십시오! 2020년 1월 7일 전주시장 김 승 수 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             대전비엔날레 2018 바이오 전시회를 관람하는 김정숙 여사 ⓒ대전시립미술관     문재인 대통령과 휴가를 보내고 있는 김정숙 여사가 지난 2일 대전시립미술관을 찾아 대전비엔날레 2018 바이오 전시회를 관람했다.  대전시립미술관은 3일 김정숙 여사가 휴가 중 대전시립미술관을 깜짝 방문해 미술관을 찾은 시민들과 함께 작품을 감상하였다고 밝혔다.  김정숙 여사는 한 시간 가량 생명공학기술을 기반으로 예술적 상상력이 더해진 바이오아트 작품 26여점을 관람하였으며 이 자리에서 “과학과 예술적 상상력이 결합된 바이오아트 작품들이 매우 흥미롭고 한편으로는 많은 생각을 하게 된다”고 말했다.  대전비엔날레 2018 바이오는 10월 24일 까지 대전시립미술관, 창작센터, DMA아트센터, KAIST비전관, 한국화학연구원 디딤돌 플라자 SPACE C#, 기초과학연구원 과학문화센터 전시관 등 과학과 예술의 융합을 추구하는 대전의 다양한 장소에서 선보인다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      나주시(시장 강인규)는 급변하는 대학 입시제도와 관련해 신속한 정보 제공 및 올바른 학습 습관 형성을 위해 관내 초·중·고 학생, 학부모를 대상으로 맞춤형 진학·진로 지도에 나선다.   먼저 대학 입학을 목전에 둔 고교생을 대상으로 ‘찾아가는 입시설명회’와 ‘진로컨설팅’을 운영한다.      ▲나주시(시장 강인규)는 급변하는 대학 입시제도와 관련해 신속한 정보 제공 및 올바른 학습 습관 형성을 위해 관내 초·중·고 학생, 학부모를 대상으로 맞춤형 진학·진로 지도에 나선다.    시는 맹준희 카이스트 융합교육센터소장과 성기민 월드클래스 진료교육연구소장을 초청해 지난 22일 금성고에서 ‘변화하는 대학의 이해’와 ‘지역 맞춤형 합리적 진학방향’ 주제로 학생과 학부모 100여명이 참석한 가운데 입시설명회를 가진데 이어 오는 28일 봉황고에서 관련 설명회를 개최할 예정이다.   ‘진로컨설팅’은 각교 학교장 추천을 받은 학생 165명을 대상으로 진행된다. 4월부터 12월까지 수시전형에 비중을 두고 학생수준별 ‘1:1맞춤형반’, ‘학교별 방문반’, ‘심화반’을 각각 구성, 전국 우수대학 뿐만 아니라 개인별 특기 적성에 맞는 입시정보와 전략을 지도할 계획이다.  중학생을 대상으로는 진로체험 공모사업을 학교별로 신청 받는다.   이 사업은 자유학년제 시행에 따른 다양한 진로 체험 기회를 제공하고자 마련됐으며, 나주교육진흥재단에서 3월 말까지 관내 중학교에 희망 신청을 받아, 학교당 3~10백만 원을 지원할 계획이다.   또 관내 초등학생 5~6학년을 대상으로는 ‘공부습관 프로젝트’를 계획했다.   학생들의 올바른 학습 습관 형성과 꿈과 목표를 설정하는 과정을 통해 공부에 대한 동기와 흥미를 부여하기 위해 마련된 이 프로젝트는 내달 5일까지 교육진흥재단에 신청을 받아 오는 4월 11일부터 5월 2일까지 매주 수요일 나주종합스포츠파크에서 총 4회 8차시 과정으로 운영할 계획이다.   특히, 초등학생 자녀를 둔 학부모들의 지도 고민 해소를 위해 시는 혁신도시 공익활동지원센터 회의실에서 ‘행복한 자녀를 위한 코칭 맘 스쿨’을 진행 중에 있다.   지난 3월 6일부터 7월 31일까지 매주 화요일에 걸쳐 진행되는 코칭 맘 스쿨은 자녀 성장에 맞춘 지식과 정보를 제공하는 과정으로 이수 시 자기주도학습 코칭지도사 2급 자격 취득의 기회도 주어진다.  나주시는 이 밖에도 9월 초, ‘꿈길 찾아 떠나는 진로콘서트’를 종합스포츠파크 다목적체육관에서 초·중학생 3,000여명을 대상으로 진행한다.   올해 3회째를 맞은 진로콘서트는 △진로 탐색관, △진로 설계관, △진로멘토 상담관, △테마 별 진로직업체험관, △관내 고교 및 대학 홍보관, △진로직업정보 갤러리관 등 총 60개 부스를 운영, 학생들을 위한 폭넓은 진로·진학 정보를 제공할 방침이다.   강인규 나주시장은 “우리 지역 맞춤형 교육프로그램 확대와 학부모 역량 강화 등을 통해 나주를 으뜸 교육도시로 발돋움 시킬 것”이라며, “우리 지역 학생들이 올바른 진학정보와 다양한 체험을 통해 미래 진로 선택에 큰 도움이 되길 바란다”고 말했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      제주국제자유도시개발센터(이사장 문대림, JDC)는 지난 14일 제주혁신성장센터 코워킹 스페이스인 J-CUBE에서 네트워킹 데이를 개최했다. 이번 ‘네트워킹 데이’는 코로나19 사태로 인해 올해 처음으로 개최되는 네트워킹 행사로 제주혁신성장센터 내 4개 특화 사업 분야(ICT 융합창업허브 친환경 스마트자동차연구센터 낭그늘 J-Cube)간의 소통과 교류 활성화를 위해 마련됐다.    ▲JDC는 지난 14일 제주혁신성장센터 코워킹 스페이스인 J-CUBE에서 네트워킹 데이를 개최했다.ⓒ제주국제자유도시개발센터   JDC와 사업 위탁운영사(▲KAIST 친환경스마트자동차연구센터 ▲(주)한예종 기술지주, ▲(주)MYSC, ▲(재)홍합밸리) 소속 참석자들은 오찬에 참석해 각종 지원 사업 안내와 함께 향후 운영방안 및 입주기업들의 협업을 이끌어낼 수 있는 프로그램에 대한 아이디어를 자유롭게 제안하는 시간을 가졌다. 더불어 JDC는 최근 주관기관으로 선정된 중소벤처기업부의 ‘메이커스페이스 구축 운영’ 사업 계획을 공유하고 운영사들과 교육 및 입주기업 지원 방안에 대해 논의했다. ‘네트워킹 데이’는 이번 행사를 시작으로 매월 1회씩 사전 신청을 받아 개최될 예정이다. 다양한 사업을 영위하고 있는 입주기업들 간 소통을 통해 협업과 교류의 활성화가 기대된다. 성낙창 JDC 산업육성팀장은 “네트워킹 데이를 계기로 제주혁신성장센터 내에서 성장하고 기업들이 서로 교류가 활발하게 이뤄지길 기대한다”며 “나아가 ‘혁신성장 멤버십’이 구축돼 혁신성장센터 출신 입주기업들이 성장해 후배 창업기업들을 이끌어주는 선순환 구조를 구축 하겠다”고 말했다.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      광양시립중앙도서관에서 아이들에게 과학이 주는 즐거움과 우주와 자연이 주는 경이로움을 체험할 수 있는 특별한 강연이 펼쳐진다.  과학자들의 재능기부로 이뤄지는 ‘10월의 하늘, 과학자들의 작은 도시 강연회’가 10월 28일 오후 2시 중앙도서관 다목적실에서 열린다.     ▲10월의 하늘 강연 포스터    올해로 8번째를 맞이하는 ‘10월의 하늘’은 청소년을 대상으로 운영되는 ‘도서관 과학 강연’ 행사로 전국 32개 공공도서관에서 진행된다.  이번에 개최되는 ‘10월의 하늘’ 과학 강연에는 정재승 카이스트 KAIST 바이오 및 뇌공학과 박사가 ‘뇌공학으로 바라보는 인간의 미래는?’이라는 주제로 시민들을 찾아간다.  또 국민수 전남대병원 의생명연구원 선임연구원 박사가 ‘과학자, 그리고 글쓰기’라는 주제로 이야기 할 예정이다.  김미라 중앙도서관팀장은 “이번 과학 강연을 통해 아이들이 어렵게만 생각하던 과학에 대해 더 큰 관심을 갖고, 학생들이 새로운 꿈을 꿀 수 있기를 바란다”고 말했다.  청소년들에게 과학에 대한 재미와 꿈을 선사해 줄 이번 ‘10월의 하늘’ 강연은 중학생을 대상으로 운영되며, 접수와 문의는 도서관 홈페이지와 전화를 통해 가능하다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      분산도 100% 로듐 앙상블 촉매를 이용한 자동차 배기가스 정화 반응 개념도       자동차 배기가스를 정화하는데 있어 시중의 디젤 산화 촉매에 비해 50도 낮은 온도에서 100%의 전환율을 달성하는 분산도 100%의 로듐 앙상블 촉매가 개발됐다.  KAIST는 생명화학공학과 이현주 교수가 포항공대 한정우 교수와의 공동 연구를 통해 자동차 배기가스 정화에 사용할 수 있는 분산도 100%의 로듐 앙상블 촉매를 개발했다고 23일 발표했다. 프로필렌(C3H6)과 프로판(C3H8) 등의 탄화수소는 대표적인 자동차 배기가스 오염물질로 반드시 촉매 산화 반응을 통해 이산화탄소(CO2)와 물(H2O)로 전환한 뒤 배출해야 하는데, 탄소-탄소, 탄소-수소 결합을 깨뜨려야만 탄화수소 산화반응이 진행되기 때문에 촉매 반응을 위해서는 금속 앙상블 자리를 확보하는 것이 필수적이다. 연구팀은 이러한 문제를 해결하기 위해 100%의 분산도를 갖는 로듐 앙상블 촉매를 개발해 자동차 배기가스 정화반응에 적용했다. 100%의 분산도를 갖는다는 것은 모든 금속 원자가 표면에 드러나 있기 때문에 모든 원자가 반응에 참여할 수 있다는 의미이다. 결과적으로 일산화탄소(CO), 일산화질소(NO), 프로필렌, 프로판 산화 반응에서 모두 우수한 저온 촉매 성능을 보였고, 이는 탄화수소 산화 반응 성능이 없는 단일원자 촉매나 낮은 금속 분산도로 인해 저온 촉매 성능이 떨어지는 나노입자 촉매의 단점을 보완한 것이다.  연구팀이 개발한 분산도 100%의 로듐 앙상블 촉매는 상용화된 디젤 산화 촉매(DOC, diesel oxidation catalysts)보다 높은 활성과 내구성을 가져 실제 자동차 배기가스 정화에 적용 가능할 것으로 기대된다.   정호진 박사과정과 이현주 교수     이현주 교수는 “이번에 개발한 촉매는 기존의 단일원자, 나노입자 촉매와는 다른 새로운 금속 촉매 개념으로 학술적으로 기여하는 바가 크다”며 “자동차 배기가스 정화 촉매 분야에도 산업적으로 적용 가능해 가치가 큰 연구”라고 말했다.  정호진 박사과정이 1저자로 참여한 이번 연구 결과는 화학 분야 국제 학술지 ‘미국 화학회지(JACS, Journal of the American Chemical Society)’ 7월 5일자 온라인 판에 게재됐다. (논문명 : Fully Dispersed Rh Ensemble Catalyst to Enhance Low-Temperature Activity, 저온 활성 향상을 위한 완전히 분산된 로듐 앙상블 촉매)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      울산과학기술원(UNIST 이하 '울산과기원')에 교수가 없다는 투의 제목을 보고 독자들은 대체 무슨 소리인가 싶을 것이다. 그러나 울산과기원의 정관에 따르면 이 대학에는 오로지 임원과 직원만 있으니, 정관 제5장 '직원'의 첫 조항인 제29조(직원의 정의)는 "이 정관에서 사용하는 직원이라 함은 울산과학기술원법에서 언급하는 임원을 제외한 울산과기원 소속 모든 교직원을 말한다." 즉 교원은 별도의 규정 없이 직원에 포함된다. 제30조(직원의 임면) 1항은 "교원 및 연구원 등 직원은 울산과기원 인사규정에 따라 총장이 임명한다"로 되어 있으니 더욱 심각하다. 법과 정관에 교원인사위원회 설치가 빠져 있으니 교원 인사의 공정성과 객관성, 교육과 연구의 자유와 자율성을 보장받지 못할 가능성이 농후하다. 이런 내용은 똑같이 과학기술정보통신부(이하 '과기부') 산하 대학인 한국과기원(KAIST), 광주과기원(GIST), 대구경북과기원(DGIST)의 정관과도 적지 않은 차이가 난다. 이들 기관 중에서 울산과기원이 막내 격이니 갈수록 개악된 꼴이다. 과거 한국과기원 등에서 심심찮게 문제가 되었지만, 이런 제도로는 이사회를 등에 업은 총장의 전횡을 막기 어렵다. 다행히 작년 12월에 울산과학기술원법이 개정(올 6월 25일 시행 예정)되어 교원인사위원회, 평의원회 등이 새로이 포함되었고, 이에 맞춰 변경될 정관은 과거보다 훨씬 나아질 전망이지만 아직 갈 길이 멀다. 허술한 법과 정관에 따르는 문제는 한두 가지가 아니다. 그러나 가장 개선이 시급한 중대 사안은 조직을 이끌 총장을 뽑는 제도에 교수의 목소리가 전혀 반영될 수 없다는 점이다. 바람직한 총장 선출 방식을 둘러싸고 다양한 입장이 있을 수 있지만, 시대의 대세는 교원뿐만 아니라 직원과 학생의 목소리까지도 수용하는 개방적이고 투명한 선출 제도이다. 4대 과기원 법에 모두 새로이 들어간 평의원회 구성 규정이 바로 그러하지 않던가. 울산과기원법 16조2의 2항에 따르면, 평의원회는 교원, 직원, 학생 등 각각의 구성단위를 대표하는 11명 이상의 평의원으로 구성하되 "어느 하나의 구성단위에 속하는 평의원의 수가 전체 평의원 정수의 2분의 1을 초과해서는 아니 된다"고 규정하고 있다. 하지만 울산과기원을 포함한 4대 과기원의 총장 선출 규정은 여전히 지나치게 폐쇄적이어서 시대의 흐름과 동떨어져 있다.그런데 더 따지고 들면 울산과기원을 포함한 4대 과기원은 과연 대학인지 아닌지 모호한 법적 지위를 가지고 있다. 이 문제를 따지려면 내가 재직하는 서울대학교의 법적 지위를 둘러싼 논란을 살펴보는 것이 지름길이다. 2010년 12월 이명박 정권이 '국립대학법인 서울대학교 설립‧운영에 관한 법률'을 국회에서 날치기 통과시켜 서울대가 국립대학에서 국립대학법인으로 바뀐 이후 여러 가지 법적 문제가 발생했지만, 그중에서도 내가 가장 이해하기 어려웠던 일은 기획재정부(이하 '기재부')가 서울대를 공공기관으로 지정하려는 움직임이었다. 법인화 이후 바뀐 허술한 총장 간선제로 뽑힌 성낙인 전 총장은 취임 1년을 맞아 전체 구성원에게 보낸 이메일(｢존경하는 서울대 가족 여러분께 올립니다｣ 2015년 7월 27일)에서 서울대가 "다른 국립대학들과는 달리 외로운 처지"라면서 "심지어 서울대학교는 엄연한 교육기관임에도 불구하고 국가 공공기관으로 지정하려는 움직임마저 있는데, 이것은 학문의 자유를 심각하게 저해할 수 있는 부당한 시도"라고 푸념했다.과연 '공공기관'은 무엇이며, 서울대를 공공기관으로 지정할 수 있는 법률적 근거는 무엇인지? 왜 공공기관이 되면 학문의 자유가 저해되는지? 나로서는 쉽게 풀리지 않는 의문들이었지만, 교육부 아닌 과기부 산하 대학들의 법적 지위를 살펴보면 실마리를 찾을 수 있다. 나는 한국과기원, 광주과기원, 대구경북과기원, 울산과기원이 소관 부처만 과기부냐 교육부냐의 차이가 있지 모두 서울대와 동일한 법적 위상을 가진 고등교육기관이라고 막연히 생각해왔다. 그러나 이는 사실이 아니었다. 이들 4대 과기원의 운영과 정부 지원을 규율하는 가장 상위의 법은 '과학기술기본법'이겠지만, 직접적으로는 '특정연구기관 육성법'이 이들 과기원에 대한 정부 지원과 감독의 근거 법률이다. 이 법 시행령 제3조(연구기관의 지정)는 4대 과기원을 포함하여 한국원자력안전기술원, 한국원자력의학원, 한국연구재단, 한국과학기술기획평가원, 한국과학창의재단, 기초과학연구원 등 총 15개 기관을 명시하고 있다. 이중에는 누가 봐도 고등교육기관, 즉 대학이 아닌 조직들이 많으니 여기서부터 4대 과기원이 특정연구기관인지, 아니면 연구와 교육을 겸하는 고등교육기관인지가 헛갈리기 시작한다. 동시에 4대 과기원은 '공공기관의 운영에 관한 법률'에 따라 공공기관으로 지정되어 있다. 이 법에 따라 과기원들은 시장형 공기업, 준시장형 공기업, 기금관리형 준정부기관, 위탁집행형 준정부기관, 기타 공공기관의 다섯 범주 중에서 마지막의 '기타 공공기관'으로 분류된다. 기재부 보도자료에 따르면 2018년 1월 기준으로 총 338개 기관이 공공기관으로 지정되어 있고, 인문사회과학 분야에서 기타 공공기관에 속하는 유사 기관으로 동북아역사재단, 한국고전번역원, 한국학중앙연구원 등이 있다. 김병섭 교수(서울대 행정학)는 ｢국립대학법인 서울대학교의 조직적 성격｣(서울대 평의원회 온라인 뉴스레터 제5호. 2017년 8월 15일)에서 서울대를 공공기관으로 지정하려는 기재부의 입장이 교육기관과 행정기관의 차이를 무시하는 오류로서 헌법 제31조 4항("교육의 자주성‧전문성‧정치적 중립성 및 대학의 자율성은 법률이 정하는 바에 의하여 보장된다")의 정신과 어긋나는 동시에 고등교육법 제11조의2(평가 등)에서 자체평가 규정을 둔 취지와도 충돌한다고 본다. 실제 '공공기관의 운영에 관한 법률'은 제1조에서 공공기관의 "자율경영 및 책임경영체제의 확립에 관하여 필요한 사항을 정하여 경영을 합리화하고 운영의 투명성을 제고함으로써 공공기관의 대국민 서비스 증진에 기여함을 목적"으로 하고 있으니 대학이라는 고등교육기관과는 어울리지 않는다. 김 교수는 동법 제4조 2항에서 '방송법'에 따른 한국방송공사와 '한국교육방송공사법'에 따른 한국교육방송공사를 (언론의 자율성과 특수성을 감안하여) 공공기관 지정의 예외로 명시한 것과 동일한 차원에서 서울대를 기타 공공기관에서 제외해야 한다고 결론짓는다. 그렇다면 4대 과기원 역시 연구와 교육을 주 임무로 하는 고등교육기관이므로 서울대와 하등 다를 바가 없으니 똑같이 공공기관 지정에서 자유로워야 한다고 보는 것이 옳다. 일반적으로 시민들이 대학으로 인식하고 있음에도 불구하고 과기원이 공공기관으로 지정되어 운영되는 역사적 연원은 무엇일까? 과기원의 복잡한 발전과정에 대한 역사적 분석은 내 능력을 멀리 벗어나지만, 적어도 우리 정부가 4대 과기원을 차례로 설치하여 운영하는 과정에서 압축성장 시대 특유의 관 주도적 법과 제도, 즉 경제성장에 유용한 과학기술을 발전시키고 해당 분야의 인력을 신속하게 양성하는 일사불란한 정책과 제도에 집중해왔다는 점만큼은 틀림없다. 그러나 추격형 발전모델의 시대에 상명하복의 빠른 결정과 일사불란한 실행이 효율적이었다면, 탈추격형의 발전모델을 창안해야 할 오늘에는 더 이상 그러한 제도가 유효할 수 없다. 빅데이터와 인공지능의 시대, 생명과학과 나노기술의 시대에는 한층 수평적이고 자율적인 소통의 문화와 제도가 있어야만 창의적인 과학적 발견과 기술 개발이 가능하다는 것은 상식이다. 더구나 본격적인 융복합학문의 시대에는 자연과학과 공학이 인문사회과학과 하나가 되어 탐구해야 할 주제와 쟁점들이 많으며, 분초를 다투는 과학기술의 눈부신 발전은 그만큼 인류에게 기회뿐만 아니라 심각한 위험을 가져다주기 때문에 시민의 관점에서 과학기술 분야 연구의 내용과 성격을 투명하게 감시할 필요성도 더욱 커지고 있다. 문과와 이과를 분리한 고등학교 교육과정 극복을 위한 노력이 본격화되는 시대에 과학기술에 특화된 과기원을 일반 대학과 분리하여 그 법적 지위를 이처럼 모호하게 두는 것이 과연 시대의 변화에 맞는 것일까.  내일의 과학 인재를 길러내는 4대 과기원을 기타 공공기관으로 지정하여 정부의 직접적 통제 아래 두려는 구태의연한 발상은 새 시대의 도전에 무력할 수밖에 없다. 이미 서울대를 공공기관으로 지정하려는 시도에서 그런 문제는 심각하게 드러났다. 그처럼 낡아빠진 제도와 관행을 고집한다면, 지금까지 우리가 겪은 과학기술 분야의 심각한 부정과 폐해가 더욱 심해질 것이다. 한국 대학은 2005년의 황우석 교수 사건 이래 연구윤리를 강화해왔지만, 한반도대운하/4대강 사업, 가습기 살균제, 라돈 침대 등 그 피해 범위를 제대로 조사하기도 어려울 정도의 심각한 피해를 시민들이 직접 당하는 일마저 겪어야 했다. 이런 불행한 일들은 과학기술 분야의 고등교육기관에 채워진 낡은 족쇄, 즉 시대에 뒤진 제도와 관료적인 통제, 경직된 조직문화와 무관할 수 없다. 비단 교육부와 과기부 산하의 대학뿐만 아니라 고용노동부 등 다른 중앙부처 산하의 대학들까지 포함하여 고등교육, 고등직업교육에 대한 큰 그림을 정비하는 사회적 공론화가 절실하다. 이에 앞서 교원의 법적 지위와 자율성 보장을 훼손하는 울산과기원 정관은 당장 전면적으로 고쳐야 한다. 뿐만 아니라 다른 과기원을 규율하는 법률과 정관 역시 전면적으로 검토하여 더 나은 대학 거버넌스를 만들어야 한다. 앞서도 지적했지만, 당장 가장 중대한 문제이자 당사자들에게는 초미의 관심사로서 울산과기원을 포함한 4대 과기원의 총장 선출 제도를 개선해야 한다. 교육부 산하 대학들의 총장 선출 제도 역시 큰 문제를 안고 있지만, 진정한 과학기술의 성취는 민주적이고 투명한 연구조직에서만 나올 수 있다. 최근의 언론 보도에 따르면, 올해 들어 한국과기원 등 69개 연구기관이 기타 공공기관 내의 '연구목적기관'으로 지정되면서 약간의 개선이 이루어지고 있을 만큼 정부와 국회도 문제를 어느 정도 인식하고 있다. 4대 과기원의 운영체제를 일신하는 일은 우리 사회에서 진행되는 촛불혁명의 또다른 큰 진전이 될 것이다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      문재인 대통령은 25일 국가교육회의 의장에 신인령 이화여대 명예교수를, 4차산업혁명위원회 위원장에 장병규 블루홀 이사회 의장을, 저출산·고령화사회위원회 부위원장에 김상희 더불어민주당 의원을 각각 위촉했다. 강원도 강릉 출신인 신인령 국가교육회의 의장은 한국노동법학회장과 교육부 법학교육위원장, 이화여대 총장, 삼성고른기회장학재단 이사장을 거쳐 현재 이대 법대 명예교수로 재임 중이다.박수현 청와대 대변인은 "신 의장은 법학자이자 교육전문가로 풍부한 경륜과 학식을 겸비해 고등교육은 물론 유·초·중등교육과 평생 직업교육 등 각 분야의 현안을 합리적으로 조율할 적임자"라며 "주요 국정목표인 국가가 책임지는 교육을 구현하고 모든 아이는 우리 모두의 아이라는 새 정부의 교육철학을 실현해 교육혁신에 역할을 하리라고 기대한다"고 밝혔다. 대구 출신인 장병규 4차산업혁명위원장은 한국과학기술원(KAIST) 전산학과에서 학·석사 학위를 받은 뒤 20대이던 1997년 네오위즈를 공동창업했다. 이후 1999년 채팅사이트 세이클럽을 내놨으며 2005년에는 검색엔진 개발업체 '첫눈'을 창업했다가 이듬해 네이버에 350억원을 받고 매각했다. 2007년에는 게임업체 블루홀을 창업했으며, 올해 3월 출시한 '배틀 그라운드' 게임은 글로벌 PC게임 순위에서 1위를 차지하고 있다.장 위원장은 현재 블루홀의 지분 20% 정도를 보유한 최대 주주로서, 비상장회사이지만 장외주가를 토대로 계산하면 장 위원장의 지분 가치가 9000억 원을 넘는 것으로 알려졌다.박 대변인은 "장 위원장은 20대 때 창업한 네오위즈를 시작으로 블루홀 스튜디오 등을 성공시켜 IT 업계의 '미다스 손'으로 불리는 살아있는 전설이자 스타트업 기업인 우상"이라며 "실전경험과 혁신적 소통리더십으로 새 정부의 4차 산업혁명에 대응하기 위한 정책과 국가 전략을 구현할 적임자"라고 밝혔다. 또한 "4차 산업혁명과 관련한 분야별 대응기반을 마련하고 주요 정책의 심의 조정을 통한 종합대책 수립, 대국민 인식 제고와 사회적 합의도출 등 4차 산업혁명의 컨트롤 타워 역할을 성공적으로 수행하리라고 기대한다"고 했다. 대통령이 위원장인 저출산·고령화사회위원회의 부위원장으로 위촉된 김상희 의원은 충남 공주 출신으로, 한국여성민우회 상임대표와 대통령 직속 지속가능발전위원회 위원장 등을 거쳐 18대 국회부터 3선 의원을 기록하고 있는 현역 의원이다. 박 대변인은 "김 부위원장은 3선 의원으로 여성과 환경, 노동 분야에서 다양한 경험과 전문성을 쌓았고 의원 재직시 여성인권보호, 일·가정 양립 지원을 위해 노력했고 국민노후생활 보장하려는 새 정부의 복지철학을 누구보다도 잘 이해하는 적임자"라고 했다.또한 "저출산 극복과 노후생활 보장이라는 국정과제를 완수해 내 삶을 책임지는 국가라는 복지철학 실현에 기여할 것으로 기대한다"고 덧붙였다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      안철수 전 국민의당(현 바른미래당) 대표가 23일 법무부의 검찰 중간간부 인사 결과에 대해 별도 입장문을 내어 비판했다.   안 전 대표는 "청와대의 울산시장 선거 개입 의혹, 조국 전 법무장관 가족 비리 의혹, 유재수 감찰무마 의혹, 우리들병원 특혜 의혹, 삼성바이오로직스 분식회계 의혹 등 '살아있는 권력'에 대한 수사를 지휘하는 검찰 지휘부가 한 명의 예외도 없이 다 바뀌었다"며 이를 "살아있는 권력 수사에 대한 퇴장 명령"으로 규정했다. 그는 "하루하루 나라가 무너지고 있다"며 이같이 주장했다.  안 전 대표는 "검찰총장의 힘을 빼고 청와대 관련 수사를 하지 말라고 지휘라인을 쫓아낸 폭거"라고 비판하며 "국민께 위임받은 공공재인 인사권을 개인과 진영, 권력의 수단으로 삼는 것은 명백한 권력의 사유화로서 헌법 파괴이자 민주주의 파괴"라고 주장했다.   안 전 대표는 "대통령께서 윤석열 검찰총장을 임명하면서 '살아있는 권력에 대해서도 수사할 수 있는 분'이라고 말씀했던 것을 우리 국민은 기억하고 있다"며 "이제 국민은 누가 나라를 망치는지, 누가 민주주의를 무너뜨리는지, 현 정권이 덮고 가려는 진실이 무엇인지 확실히 알게 됐다"고 법무부를 넘어 문재인 대통령을 겨냥했다.   그는 "'검찰공화국'이란 말이 있을 만큼 절제되지 않은 검찰권을 행사해온 검찰에 대한 개혁의 취지는 공감한다"면서도 "그러나 검찰의 합법적인 수사를 막는 것은 법치주의와 민주주의, 그리고 헌법정신 파괴"라며 "국민이 납득할 수 없는 권력 행사는 국민이 위임한 권력 행사를 넘어서는 것"이라고 지적했다.   그는 "윤석열 검찰총장이 살아있는 권력을 끝까지 수사할 수 있도록 국민과 함께 지키고 응원할 것"이라며 "검찰의 목을 비틀어도 진실은 드러날 것이다. 검찰을 권력의 시녀로 만드는 것은 가짜 민주주의 정권"이라고 했다.   귀국 후 나흘째인 안 전 대표는 이날 대전 카이스트를 찾아 AI(인공지능) 개발 등 과학기술 발전 방안에 대해 대학 관계자들과 토의했다. 정치 행보에 대해서는 여전히 구체적인 답을 하지 않았다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      세계 정상의 프로 바둑기사 이세돌과 구글의 인공지능 프로그램 '알파고(AlphaGo)'가 벌이는 세기의 바둑 대결이 사흘 앞으로 다가왔다.  관심의 초점은 상금 100만 달러(고정환율로 11억 원)를 놓고 사람과 인공지능이 벌이는 역사적인 대결의 결과다.  과학계에서는 아직 '이세돌 승리'를 예상하는 사람이 많지만 그렇지 않은 경우도 있다.  사람의 두뇌처럼 신경망 구조로 작동하는 알파고가 프로기사 기보를 포함해 3천만 건의 기보를 학습했지만 아직은 이세돌의 판단과 직관을 능가할 역량을 가졌다고 보기 힘들다는 것이다.  알파고가 지난해 10월 유럽 챔피언 판후이 2단을 5전 전승으로 꺾었지만 판후이의 실력은 이세돌에 훨씬 못 미치고, 아직 세계 최정상급 바둑 고수의 변화무쌍한 대국 방식에는 충분히 적응하지 못한 것으로 보기 때문이다.  정재승 카이스트 바이오 및 뇌공학과 교수는 "알파고는 단기 전략은 우수하지만 멀리 내다보고 미리 수를 쓰는 능력은 현저하게 떨어진다"며 "바둑은 멀리 내다보고 게임을 진행해야 해서 이세돌 기사가 이길 확률이 더 높다"고 전망했다.  알파고가 매수 최적의 착점을 찾아낼 수 있겠지만 프로기사들처럼 몇십수 앞을 내다보는 착점은 어려울 것이라는 분석이다.  물론 알파고의 승리를 점치는 학자들도 있다.   김진호 서울과학종합대학원 교수 등은 컴퓨터가 스스로 학습하며 지능을 키우는 '딥러닝'이 하루가 다르게 발전하고 있어 넉달 전 판후이와 치른 경기를 토대로 알파고의 실력을 추정하는 것은 부정확할 수 있다는 주장을 펼친다.  실제 알파고는 사람이 1천 년 이상 걸릴 100만 번의 대국을 한 달 안에 학습한다. 개발자인 구글 역시 이세돌과 알파고의 승률을 50 대 50으로 예상하고 있다.  이번 대국에서 이세돌이 우승한다고 해도 인간 우위가 그리 오래가지는 않을 전망이다.   인간이 바둑을 배우듯이 빅데이터를 통해 '학습'하고, 딥러닝으로 '추론'까지 해내는 알파고가 인간을 뛰어넘는 것은 시간문제라는 관측이다.  김대식 카이스트 교수도 "알파고가 이번 대결에서 이기고 지는 것은 큰 의미가 없다"며 "알파고는 이세돌과의 대결에서 더 강해지고, 만약 몇 년 뒤 재대결이 벌어지면 그때는 승부 예측이 매우 어려워질 것"이라고 예상했다.   결국, 이세돌과 알파고의 대국은 일회성 이벤트가 아니라 인공지능이 가져올 미래의 그림을 그려보게 한다는 점에서 더 큰 의미가 있다.  '학습'과 '추론'의 방식으로 인공지능이 인간에게 도전하는 이번 사건은 미래에 벌어질 수많은 사건의 전초전과 다름없다.  주어진 과제를 해결하는 기존의 인공지능과는 달리 데이터를 분석하고 사람과 상호작용을 통해 추론하고, 다양한 상황에서 스스로 판단해 적절하게 행동할 수 있는 인공지능의 등장은 인간 생활에도 큰 변화를 가져올 것이 분명하다.  인공지능 로봇이 현재는 공장이나 인간이 접근하기 힘든 산업 현장에 주로 배치됐다면 미래에는 사람과의 상호작용이 필요한 서비스업에도 쓰일 수 있다.  이렇게 되면 상당수의 지식·서비스 노동이 인공지능으로 대체되고, 실업과 잉여노동인구 관리, 양극화와 같은 사회문제가 발생할 수 있다.  큰 변화가 예상되기는 하지만 인공지능이 일자리와 사회의 질서를 완전히 압도할 것으로 우려할 필요는 없다는 의견도 많다.  이준환 서울대 언론정보학과 교수는 "인공지능이 사람의 일을 다 뺏지는 못할 것"이라며 "인공지능이 보조적인 역할을 수행하는 가운데, 사람이 종사하는 새로운 일자리가 빠르게 창출될 것"이라고 내다봤다.   정재승 교수도 "사회적 맥락을 이해하거나 복잡한 의사결정을 내리는 일은 그렇게 간단하지 않다"며 "인공지능은 인간을 흉내 낼 뿐이지 인간처럼 사고하는 것은 아니어서 본질에서 차이가 있다"고 말했다.   체스 그랜드마스터인 존 스필먼도 최근 영국 인디펜던트에 기고한 글에서 "기계는 사람만큼 많은 것을 창조하지 못한다"며 "돌벽에 우리 머리를 찧기보다는 기계를 탁월한 훈련 도구로 활용해야 한다"고 강조했다.       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲지난해 10월 열린 KAIST 발전후원의 밤 행사에 송지나 작가 및 드라마 카이스트 출연진과 함께 참석해 축사 중인 배우 이민우 ⓒ KAIST       지난 1999년 1월부터 2000년 10월까지 SBS 드라마 ‘카이스트’에 전기과 학생으로 출연했던 탤런트 이민우씨가 KAIST 홍보대사로 위촉됐다.  이민우씨는 “드라마 카이스트는 가장 애착이 가는 작품 중 하나이자 많은 팬들이 아직도 기억해주는 작품”이라며 “저에게는 각별한 의미를 가진 KAIST의 홍보대사를 맡게 돼 영광이며 나날이 새롭게 발전해나가는 KAIST를 널리 알릴 수 있도록 최선을 다하겠다”라고 소감을 밝혔다.  이씨는 앞으로 KAIST 홍보대사로서 대내외 주요행사 참석과 강연 및 세미나 등에 참여할 예정이다.        ▲탤런트 이민우 ⓒ KAIST    신성철 KAIST 총장은 “글로벌 가치창출로 세계를 선도하며 포용적 성장을 실천하고 있는 KAIST의 위상과 가치를 전파하는 중요한 역할을 부탁한다”고 당부했다.  한편 배우 이민우씨의 KAIST 홍보대사 위촉식은 19일 롯데호텔 서울에서 열리는 KAIST 총동문회 신년교례회 행사에서 진행된다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      문재인 대통령 아들 문준용 씨 관련 '증언 조작' 사건에 대해 국민의당 자체 진상조사단이 예상대로 "당원 이유미 씨의 단독 범행"이라는 조사 결과를 내놨다. 박지원 당시 당 대표나 안철수 대선후보 등은 사전에 조작 사실은 물론, 회견 자체에 대해 몰랐다는 것이다. 다만 박지원 전 대표가 사건 관련자인 이준서 전 최고위원과 통화한 정황이 추가로 나왔으나, 박 전 대표는 "기억이 없다"고 했다고 한다.   또 국민의당이 조작된 제보를 곧이듣고 제대로 된 검증을 하지 않았다는 부분에 대해서는 "검증 최소 요건은 갖췄다"면서도 "추가 검증 과정을 거치지 못해 아쉬움이 남는다"고 일부 과실을 인정했지만, 조작 사실을 대선 이전에 사전 인지한 것은 아니라고 했다. 만약 검찰 조사에서 당 조사 결과와 다른 결과가 나올 경우 국민의당의 신뢰도는 더 추락할 것으로 보인다.   "안철수·박지원이 관여·인지했다는 어떤 증거도 없어"  국민의당 진상조사단장인 김관영 의원은 3일 오전 국회 당 대표실에서 기자회견을 열고 "증거조작과 관련해 당의 직접 개입이 있었는지 여부에 대한 종합적 결론은 이유미 씨의 단독 범행(이라는 것)"이라며 "박지원 전 대표나 안철수 전 대표가 이 사건에 관여·인지했거나, 조작된 사실을 인지했다고 보일 만한 어떤 증거나 진술도 발견하지 못했다"고 밝혔다.   김관영 단장은 "국민의당이 검증에 실패한 것은 부정할 수 없는 사실이지만, 조직적으로 없는 증거를 조작할 만큼 미숙한 정당이거나 파렴치한 정당은 아니다"라고 강조하며 이같이 말했다.   김 단장은 "진상조사단에서는 박 전 대표와 이준서 간, 안 전 대표와 이준서 간의 관계가 사건을 공모할 만큼 자주 연락하거나 친분이 높다고 보기 어렵다는 판단을 내렸다"며 "그 외에, 대선캠프 보고 라인에 있었던 장병완 총괄선대본부장 역시 지역 유세에 집중하고 있어 기자회견 전 해당 내용에 보고받은 바 없는 것으로 조사됐다"고 했다.   김 단장은 사건 경위에 대해 "이준서 전 최고위원은 4월 말경 이유미에게 파슨스 스쿨(출신) 지인이 있다는 말을 듣고 문준용 씨에 대한 정보 수집을 요구했다"며 "이유미는 '파슨스 출신 김○○ 씨에게 들었다'며 여러 얘기를 전했고, 이준서는 제보 내용에 신빙성이 있다는 판단 하에 해당 내용에 대한 추가 물증 자료를 요청했다. 이에 이유미는 최초로 카카오톡 단체 대화 메시지 화면을 조작해 제공했고, 뒤이어 음성녹음 파일까지 남동생을 동원해 조작해서 이준서에 제공했다"고 밝혔다.   김 단장은 이 과정에서 이준서 전 최고위원이 조작을 지시했는지에 대해 "6월 25일 저녁 (이준서·이유미와 이용주·김성호·김인원 간의) 5자 회동 참석자들에 따르면, 이유미는 '이준서의 거듭된 자료 요구 압박에 못이겨 증거를 조작했다'고 진술했으나 '이준서가 이유미에게 명시적 혹은 은유적으로라도 조작을 지시한 적 있나'라는 질문에 '그런 부분은 없다'고 이유미가 답한 바 있다"고 했다.   기자회견 전 해당 의혹 내용이 당 지도부에 보고됐는지에 대해 김 단장은 "이준서는 해당 제보를 입수한 5월 1일경 관련 내용을 언론사 3개사 기자와 박지원 당시 대표에게 알렸다"며 "(그러나) 박 전 대표는 이준서의 제보 내용을 구체적으로 보고받은 바 없다고 진술했다"고 했다. 그는 "다만 이준서에 대한 추가 조사를 통해 당시 박지원 대표와 한 차례 통화한 내용이 밝혀졌다"며 "(이 통화 내용은) 구체적 제보 내용을 의논한 게 아니라 '바이버로 자료를 보냈으니 확인해 보라'는 내용의 간단한 통화 내용이었음을 확인했다"고 했다.   박 전 대표는 이에 대해 "기억에 없다"는 입장이다. 박 전 대표는 "발신 내역에는 (이 전 최고위원과의 통화 기록이) 없고, 정확한 것은 이 전 최고위원의 발신 내역을 확인해야 한다"는 입장을 보좌관을 통해 밝혔다. 수신과 발신 내역이 모두 표시되는 휴대전화의 '최근 통화 기록'의 경우에는, 이미 두 달 전의 일이어서 박 전 대표의 전화기에는 5월 1일의 내용이 표시되지 않는 상태라고 김 단장은 전했다.   김 단장은 또 "안철수 전 대표에게 당 내에서 이 건에 관해 보고한 적은 없는 것으로 진술되고 있다"며 "이준서나 이유미 등이 안 전 대표에게 이번 사건에 대해 5일(기자회견) 이전에 문자 메시지 등으로 내용을 전송한 것이 없다는 것을 안 전 대표의 휴대전화 기록 등으로 확인했다"고 밝혔다.   이 전 최고위원이 5월 3일 조작된 음성파일을 입수한 후, 박지원·안철수 전 대표는 아니라도 당 내의 누군가와 상의했을 수 있다는 부분에 대해 김 단장은 "이준서에 의하면 5월 1일 처음으로 캡처 화면을 받고 3개 언론사 기자와 박지원 전 대표에게 보냈으나, (해당 3개 언론사의) 기자들이 '이것으로는 부족하다. 진술을 바꿀 수도 있으니 (제보자의) 연락처를 주면 직접 통화하겠다'고 해서 이 내용을 이유미에게 전했고, 이유미가 '파슨스 스쿨을 졸업하고 대기업에 댜니는데 자꾸 전화가 오면 회사를 다니기 어렵다'고 해서 (이준서가 다시 이유미에게) '녹취를 다시 제공할 수 있느냐', '기자와 상의한 결과 녹취 정도면 상의해볼 수 있다'고 했다"면서 "5월 4일 이용주 의원실에서 당 공명선거추진단 간부들과 만나기 전까지는 기자들과만 (제보 내용에 대해) 상의했다"고 말했다.  검증 과정 및 대선 후 후속조치는?  국민의당이 조작된 음성파일 등에 대한 검증을 소홀히 했을 가능성도 진상조사 대상이었다. 김 단장은 이에 대해 "국민의당 공명선거추진단은 이준서가 제공한 문준용 관련 카카오톡 메시지와 (음성)녹취록 등을 5월 4일 오후 2시와 8시경 이용주 의원 사무실에서 만나 확인하고 검증 절차에 들어갔다"며 "김인원 부단장의 진술에 따르면, 이유미가 제공한 카카오톡 대화방(화면)에 등장하는 김모 씨와 박모 씨가 실제로 파슨스 스쿨 동문이라는 것을 확인했고, 녹취록에서 나온 이야기가 실제로 유학 생활을 하지 않고서는 알 수 없는 내용인 점은 물론 전달자가 이준서 당시 최고위원이었다는 점에서 제보자 신뢰도에 대해 신뢰할 수밖에 없었다고 (김 부단장이) 진술하고 있다"고 전했다.   김 단장은 "제보 신뢰도를 확인하기 위해 추가적 검증 절차를 진행했고, (김모와 박모 씨) 두 사람의 인적사항과 연락처를 확보하기 위해 이준서에게 지속적으로 관련 정보를 요구했지만 이준서는 제보자 보호의 중요성과 신변 보호 필요성을 언급하며 제출을 미뤘다"며 "제보자에 대한 최소한의 확인을 해야 한다는 (공명선거추진단의) 거듭된 요구에 김모 씨의 이메일 주소를 제공했고, 제공된 주소를 기자단 대표를 통해 이메일 인터뷰까지 제공하겠다고 밝혔기 때문에 '그 정도면 신원 확인이 충분하다'고 판단해 회견을 진행했다"고 밝혔다.   김 단장은 "비록 검증과정에서 최소 요건은 갖췄다고 볼 수 있지만, 제보자 김모 씨와 문준용 씨의 파슨스 스쿨 입학 시기 등 추가적 검증 과정을 거치지 못한 점이 아쉬움으로 남는다"며 "이런 점에서 부실 검증과 관련해서는 당이 보다 확실한 후속 조치를 진행해야 한다고 판단했다"고 발표했다. 즉 검증이 충분하지 못했다는 점은 일부 인정한 것이다.   김 단장은 "충분히 검증을 못한 채 보도가 된 것은 입이 백 개, 천 개라도 할 말이 없는 잘못"이라며 "증거를 조작하려고 마음먹은 사람이 만들어낸 상황에 당의 검증 시스템은 조작을 걸러내지 못하고 무력했다"고 지적했다.   이후 이 증거가 조작된 것이라는 것을 국민의당에 최초로 인지한 시점은 김 단장에 따르면 6월 24일이다. 김 단장은 "이유미는 6월 20일경, 지난 5월 5일 기자회견 이후 있었던 고소·고발 사건에 대한 검찰 조사가 실제로 진행되고 본인에까지 6월 26일에 출석하라는 요구가 오자 자신의 증거 조작이 드러날 것을 두려워한 상황에서 6월 24일 조성은 전 국민의당 비대위원과 이용주 의원에게 털어놓았다"며 "이용주 의원은 24일 최초의 자백을 들은 후 다음날인 25일 밤늦게 공명선거추진단의 김성호·김인원 부단장과 이준서, 이유미 등과의 5자 회동을 통해 증거 조작 사건에 대한 구체적 경위와 상황을 확인했다"고 밝혔다.   따라서 6월 24일 있었던 안철수 전 대표와 이준서 전 최고위원 간의 면담은, 양자 모두 '조작' 사실을 인지하지 못한 속에서 이뤄졌다는 게 국민의당의 조사 결과다. 김 단장은 "6월 24일 이준서와 안 전 대표 간의 5분 면담에서도 이준서는 '대선 시기 고소·고발된 건에 대해 검찰 수사가 진행되고 있는데 당의 관심이 너무 없어서 서운하다'는 취지의 얘기를 했을 뿐, 이유미의 구명이나 고소와 관련해 직접 언급한 게 없음을 안 전 대표와 이준서에게 공통적으로 확인했다"고 밝혔다.   김 단장은 "다만, 이준서는 '안 전 대표와의 면담에서 이유미의 고소 취하 얘기를 했다는 취지의 거짓말을 이유미에게 했다'고 진술했다"며 그 이유에 대해서는 "이유미가 (자신에 대한) 고소 취하에 관심이 많았고 불안해 해서 이유미를 안심시킬 취지로 '안철수를 만나 얘기했다'고 이유미에게 거짓말을 했노라 (이준서가) 진술했다"고 설명했다.   때문에 이유미 씨가 안 전 대표에게 보낸 문자 메시지는, 안 전 대표가 조작은 물론 이준서 전 최고위원으로부터 이 씨 관련 언급을 전혀 듣지 못한 상태에서 안 전 대표에게 발송된 것이라고 김 단장은 설명했다. 김 단장은 "이유미가 6월 25일 안 전 대표에 보낸 문자메시지는 오전 7시 3분에 발송됐고, 안 전 대표가 이용주 의원으로부터 관련 내용을 유선으로 전해들은 시각은 오전 9시 7분경"이라며 "이유미는 최근 1년 동안 총선 무렵인 지난해 3월과 이번 등 3차례 일방적으로 안 전 대표에게 문자를 보냈으나 안 전 대표는 답하지 않았다"고 했다.   이 씨가 안 전 대표에게 보낸 문자메시지는 "여수갑 공천 태풍 상황을 좌시하시면 안 된다"는 등 총선 공천에 대한 항의 1건(2016년 3월 21일), 안 전 대표의 카이스트 방문 관련 카이스트 교수들과의 만남 요청 1건(2017년 2월 15일) 등이었고, 지난달 25일에 이번 사건과 관련해서 "이유미입니다. 어제 이준서와 면담을 했다고 들었는데 제발 고소 일괄 취하를 부탁드린다. 이번 일로 구속까지 된다고 하니 죽고 싶다. 절박한 마음으로 부탁드린다"는 내용의 문자를 보냈으나 안 전 대표는 "이용주 의원의 전화를 받고서야 (메시지의) 의미를 알게 됐지만 별도 답장할 필요성을 못 느꼈다"고 김 단장에게 진술한 것으로 전해졌다.   안철수, 3일에도 입장 표명 없어  한편 안 전 대표는 검찰이나 당 진상조사단의 조사를 통해 사실관계가 어느 정도 확정된 이후에 입장 표명을 할 것으로 알려져, 진상조사단 발표가 있었던 이날 입장을 낼지 관심이 모였으나 이날 중에는 입장 발표 계획이 없는 것으로 전해졌다.   김 단장에 따르면, 안 전 대표는 당 자체 진상조사를 위해 김 단장과 전날 만난 자리에서 "대단히 엄중하게 생각하고 있다. 국민과 당에 죄송한 일이 발생했다. 검찰에서 철저하게 진상이 밝혀져서 하나도 남김 없이 밝혀졌으면 한다"고 말했다고 한다.   이에 따라 안 전 대표의 직접 입장 표명은 검찰이 이날 이준서·김성호·김인원 등 사건 주요 관련자들에 대한 조사를 진행한 이후가 될 것으로 보인다.   당 자체 진상 조사는 이날 김 단장의 공식 발표를 끝으로 마무리된 상태다. 김 단장은 안 전 대표와 박 전 대표 등 총 13명의 관련자에 대해 대면 및 전화 조사를 진행했다며, 이유미 씨에 대한 구치소 접견은 "또다른 오해를 불러일으킬 가능성" 때문에 추진하지 않기로 했다고 밝혔다. 이제 국민의당의 자체 조사 결과가 검찰에 의해 뒤집힐지 여부가 초미의 관심사가 된 상태다.   이 전 최고위원은 이날 검찰에 출석하기 전 기자들에게 "조작을 지시한 적 없다. 윗선에서 지시한 것 없다"며 "저도 조작 사실을 몰랐고, 그에 따른 어떠한 압력도 가하지 않았다"고 말했다. 김성호 전 수석부단장도 검찰 청사 앞에서 "이준서·이유미 자체를 모른다. 모르는 사람과 무슨 조작을 하겠나"라며 "공명선거추진단 내에서는 최선의 검증을 하기 위해 최대의 노력을 다했다"고 말한 것으로 전해졌다.  김인원 전 부단장도 이날 오후 검찰에 출석하면서 "미리 (조작) 사실을 알았다면 발표를 했겠느냐"며 "당연히 사실로 알았고, 지금도 이 사실이 믿기지 않는다"고 했다. 김 부단장은 "결과적으로 부실했지만 (검증에) 최선을 다했다"며 "사실이 아닌 것이 발표돼 드릴 말씀이 없다. 송구스럽다"고 했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      K-water가 지난 13일 중소기업지원제도 통합과제 공모에 대해 설명회를 열고 있다.      K-water가 물산업 중소기업 지원에 두 팔을 걷었다.  K-water는 오는 24일까지 ‘2018년 상반기 물산업 중소기업 기술개발 지원제도’에 참여할 중소기업을 모집한다고 밝혔다.  공모분야는 모두 4개로, ‘성과공유제’ ‘민관공동투자 기술개발사업’ ‘구매조건부 신제품 개발사업’ ‘물산업 기자재 공급자 등록제’다.   ‘성과공유제’는 K-water와 중소기업이 공동과제를 수행해 기자재의 원가절감이나 성능 및 품질향상 성과를 도출한 경우, 해당 기업과 2년간 수의계약을 체결해 개발제품의 판로를 지원하는 제도다.   또 ‘민관공동투자사업’과 ‘구매조건부 신제품개발사업’은 중소기업이 K-water의 필요기술을 개발하고, K-water와 중소벤처기업부가 함께 개발비 일부를 지원하는 사업이다.  지원금 규모와 기관별 부담비율은 사업별로 다르며, 최종 과제 심사와 선정은 중소벤처기업부에서 한다. 선정기업에 K-water의 댐·수도 사업장을 활용해 제품성능을 시험할 기회도 부여한다.  ‘물산업기자재등록제’는 K-water에 기자재를 제조·납품하는 중소기업을 대상으로 공급안정성, 기술능력 등을 평가해 우수기업에 ‘K-water 3년간 입찰 참가자격’을 부여하는 제도다.   공모 자격요건과 필요서류 등은 K-water 마중물센터 홈페이지(https://www.kwater.or.kr/mjmool)에서 확인할 수 있으며, 관련 문의는 K-water 물산업플랫폼센터(042-629-2530)로 하면 된다.   K-water는 이번 공모를 통해 중소기업의 기술경쟁력 제고는 물론, 매출확대와 신규 일자리 창출까지 가능할 것으로 기대하고 있다.   K-water는 지난해에도 다양한 중소기업 지원제도를 통해 총 861억 원의 물산업 중소기업 매출과 921개의 신규 일자리 창출에 기여했다.  K-water 이학수 사장은 “국내 물산업 육성을 위해서는 민간과 공공부문이 힘을 모아야 한다. 우수한 중소기업이 물산업 주역으로 성장할 수 있도록 K-water가 적극 지원하겠다. 관심 있는 기업의 적극적인 참여를 바란다”고 말했다.   한편, 지난 13일에는 K-water 본사에서 이번 공모 정보를 전달하는 설명회가 열렸다.   이날 설명회에는 물산업 중소기업 외 카이스트(KAIST) 등 기술개발 협력기관도 참여해 ‘스마트물관리’ 등 4차 산업혁명에 대비한 물산업 트렌드와 최신기술을 중소기업과 공유했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    최근 전자기기 및 광학기기의 소형화로 초박형 디지털카메라에 대한 수요가 증가하고 있는 가운데 우리나라 연구팀이 곤충의 시각 구조를 적용한 렌즈를 제작하고 이를 이미지 센서와 결합한 초박형 디지털카메라를 개발해 향후 획기적인 변화를 가져올 것으로 예상된다.   KAIST 바이오및뇌공학과 정기훈 교수 연구팀이 독특한 눈 구조를 가진 곤충인 제노스 페키(Xenos peckii)를 모사한 초박형 디지털카메라를 개발했다.     ▲ (좌) MEMS 공정을 통해 제작된 마이크로프리즘 어레이의 SEM 영상. (우) 완성된 초박형 디지털 카메라의 광학 영상 ⓒKAIST이번에 개발된 디지털 카메라는 기존 이미징 시스템보다 더 얇으면서 상대적으로 넓은 광시야각과 높은 분해능력을 갖는 이 제노스 페키를 모사해 감시 및 정찰 장비, 의료용 영상기기, 모바일 등 다양한 소형 이미징 시스템에 적용될 것으로 기대된다.       ▲(좌) Xenos peckii 의 Scanning electron micrograph (SEM) 영상 (우) 형광 염색된 Xenos peckii의 시각구조 ⓒKAIST기존의 카메라 모듈은 광학적 수차를 줄이기 위해 광축을 따라 복수의 렌즈로 구성돼 있어 부피가 매우 크다는 단점을 각고 있다.또한 이런 모듈을 단순히 크기만 줄여 소형기기에 적용하면 분해능과 감도가 떨어지게 된다.연구팀은 이러한 문제를 해결하기 위해 다른 곤충과는 달리 각 오마티디아에서 개별의 영상을 획득할 수 있는 제노스 페키의 시각구조에서 영감을 얻어 마이크로프리즘 어레이와 마이크로렌즈 어레이로 구성된 초박형 렌즈를 제작했다.제작에는 대량 생산을 할 수 있는 MEMS 공정을 이용했으며 볼 렌즈 임프린팅 및 3D 모세관 충진 기법과 같은 새로운 기술을 적용했다.이 후 렌즈를 평면의 이미지 센서 위에 바로 집적시켜 초박형 디지털 카메라를 완성했다.완성된 초박형 디지털 카메라는 2mm 이내의 매우 작은 크기를 가지며 각기 다른 광축의 방향 갖는 마이크로프리즘 어레이를 통하여 다른 평면 형태의 생체모사 카메라에 비해 넓은 광시야각을 확보할 수 있는 특징을 갖고 있다.        ▲(좌) Xenos peckii의 시각기관을 통해 얻은 영상. (우) 초박형 디지털 카메라를 통해 얻은 영상 ⓒKAIST   또한 마이크로프리즘 어레이 사이는 흑색 폴리머로 충진되어 프리즘 간의 빛의 간섭을 방지할 수 있으며 이에 따라 광학적 크로스토크 현상 없이 영상을 얻을 수 있으며, 확보된 영상들은 영상처리기술을 통해 하나의 영상으로 복원시킬 수 있다.이어 복원된 영상은 단일 영상보다 더 선명해진 이미지를 가지며 더 넓은 영역을 관측할 수 있는 것으로 확인됐다.        ▲정기훈 교수(가운데)와 연구원들 ⓒKAIST정기훈 교수는 “초박형 카메라를 제작하는 새로운 방법을 제시했다”며 “이 연구는 기존의 평면 CMOS 이미지 센서 어레이에 마이크로 카메라를 완전히 장착한 초박형 곤충 눈 카메라의 첫 번째 데모이며 다양한 광학 분야에 큰 영향을 미칠 것으로 확신한다.”라고 말했다.이번 연구결과는 국제 학술지 ‘빛 : 과학과 응용(Light : Science &amp;Applications;)’ 10월 24일 자에 ‘제노스 페키의 시각기관을 모사한 초박형 디지털카메라, Xenos peckii vision inspires an ultrathin digital camera’라는 주제로 게재됐다.    한편 정 교수 연구팀은 반딧불이의 배 마디 구조를 분석해 광효율을 높은 LED 렌즈를 개발한 바 있고, 생체모사를 통한 무반사 기판을 제작하는 등 해당 분야를 선도하고 있다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ X-선 근접 암치료장비 ⓒKAIST       KAIST 원자력 및 양자공학과 조성오 교수 연구팀이 탄소나노튜브를 이용해 손가락보다 작은 진공 밀봉형 초소형 X-선 튜브와 X-선 근접 암치료장비(brachytherapy device)를 개발해 암 치료와 의료용 영상장치, 첨단 산업용 X-선 장비 등에 활용될 것으로 기대된다. 환경오염으로 파괴된 지구의 오존층으로 인한 자외선 양의 증가로 피부암 발병률이 높아지고 있다.이로 인해 세계적으로 매년 약 300만 명의 환자가 발생한다. 이러한 피부암 치료에 방사선을 이용하면 미용적 손실없이 수 분 내에 암을 치료할 수 있고, 고령이나 타 질환으로 인해 수술을 하기 어려운 경우에도 쉽게 적용할 수 있다.  조 교수 연구팀은 강남세브란스 이익재 교수 연구팀과 공동으로 개발한 X-선 근접 암치료장비를 이용해 피부암 및 켈로이드에 대한 세포 및 동물실험을 수행했다.이를 통해 개발한 장비가 기존의 방사선 원격 치료장비인 선형가속기(LINAC)와 동등한 치료 효과를 가진다는 것을 확인했다. 현재 병원에서 주로 사용하고 있는 선형가속기는 방사선 치료 장비로 고가와 넓은 공간 차지, 대형 차폐시설 필요는 물론 가동시 발생하는 방사선 에너지가 높아 치료 부위 외의 정상 세포도 훼손할 수 있는 문제점을 안고 있다.        ▲초소형 X-선 튜브 ⓒKAIST   이번에 공동 연구팀이 개발한 X-선 근접 암치료장비는 선형가속기에 비해 10분의 1 이하의 가격이고, 국부적 치료가 가능해 정상 세포의 손상을 최소화할 수 있으며 크기도 작아 이동 및 방사선 차폐에 편리한 장점을 갖고 있다. 또한 인체에 삽입할 수 있어 피부암과 켈로이드 등 인체 표면의 질환 치료 외에도 유방암, 자궁암, 직장암 등과 같은 다양한 암을 치료에 이용할 수 있는 특성을 갖고 있다. 특히 X-선 튜브를 더 소형화하면 내시경에 장착해 위암, 식도암, 대장암, 췌장암 등을 치료할 수도 있다.        ▲ 조성오 교수 ⓒKAIST   조 교수 팀이 개발한 초소형 X-선 튜브는 암 치료 외에 의료용 영상장치, 3D 반도체 비파괴검사, X-선 물질 분석장치, X-선 리소그래피, 나노 측정 장비 등 첨단 의료 및 산업용 장비 개발에도 활용할 수 있다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ▲.ⓒ김상협 제주연구원장 후보자     제주연구원 임원추천위원회는 제11대 제주연구원장 후보자로 김상협 한국과학기술원(KAIST) 글로벌전략연구소 지속발전센터장(57)을 선정하고 제주도지사에게 추천했다고 24일 밝혔다. 임원추천위원회는 지난 23일 제주연구원 회의실에서 원장 공개모집에 응모한 지원자 2명을 대상으로 심사를 진행한 결과 김상협 한국과학기술원 지속발전센터장을 원장 적격자로 선정 의결했다. 김 후보자는 서울대학교 외교학과를 졸업한뒤 매일경제신문 · SBS 기자를 거쳐 청와대 미래비전비서관(1급) · 녹색성장기획관(차관급), 한국과학기술원 경영공학부 초빙교수를 지냈으며 현재 한국과학기술원 글로벌전략연구소 지속발전센터장으로 재직중이다. 제주도는 추천된 김 후보자를 대상으로 결격사유 조회를 거쳐 제주도의회에 인사청문회를 요청하게 된다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">              기업과 대학, 로봇유관기관이 참여하는 대전 로봇융합 페스티벌이 3일부터 5일까지 대전컨벤션센터에서 열린다.  이번 행사는 KAIST 충남대학교 대한로봇스포츠협회 국제청소년로봇연맹 한국로봇교육연합회 ㈜새온 ㈜라스테크 등 7개 기관이 참여하고 있다. 7개 전국대회는 33개 분야 59개 부문으로 나뉘어 총 1671팀, 2637여명의 선수가 참가해 로봇경진대회와 전시 및 체험행사 등을 진행한다.  전국대회로는 ▲ 지능형 SoC 로봇워대회 ▲ 제2회 국제로봇올림피아드 중남부대회 ▲ 지능형 창작로봇 경진대회 ▲ 이동로봇 소프트웨어 코딩 경진대회 ▲ 2018 국제청소년 로봇대회 ▲ 페밀리아 로봇창작 경진대회 ▲ 인공지능 서비스로봇 콘텐츠 개발대회가 있다.  더불어 (사)한국로봇교육연합회 방과 후 선생님을 대상으로 지역 중소기업의 우수 로봇기업제품 설명회를 통해 로봇기업 비즈니스도 지원한다.  부대행사로는 도전 발명 골든벨과 일일 발명 교실 개최와 둔산대공원에서 야간에 로봇영화를 상영할 예정이다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ⓒ전주시      김승수 전북 전주시장이 도시의 운명을 바꿀 '전주다움'으로 세계화에 방점을 뒀다.김 시장은 세계와 당당히 승부하겠다는 것은 가장 전주다운 것이 가장 세계적인 것이라는 확신이다.변화할 것을 변화하되 도시의 본질인 전주다움은 끝까지 지켜내 온 노력으로 인해 프랑스 베르사유와 이탈리아 피렌체, 미국 뉴올리언스 등 세계적인 도시들이 앞다퉈 전주시와의 교류하거나 교류를 희망하고 있는 점을 간파한 김 시장.그를 신년 기자회견 직후 만나 세계화에 이른바 '맞장'을 선언한 이야기를 나눠봤다. /편집자- 세계 글로벌 도시와의 승부수를 띄웠다. 어떤 마음으로 이런 카드를 새해에 꺼내들었는지▲ 전주다움을 꼿꼿이 지켜내고 자존심을 잃지 않는 도시, 세계 어디를 가든 전주사람이라는 것이 자랑스러운 도시를 시민과 함께 만들어 가고 싶었다.밖에서 본 전주는 많은 것을 해 낼 수 있는 잠재력 높은 도시이다. 가장 전주다운 경제와 사람, 생태, 문화로 다른 도시를 따라가는 도시가 아니라 다른 도시를 이끌어가는 도시를 만들겠다는 각오다.무엇보다도 우리 미래세대에게 더 나은 삶터를 물려줄 수 있도록 지금보다 더 견고한 전주다운 도시 기반을 닦도록 하는 것이 필요하다고 판단했다. - 가장 전주답게 먹고 산다는 것은 무엇인가 ▲ 전주시는 올해 최우선 과제로 시민들의 먹고사는 문제를 해결하는 것에 초점을 맞췄다. 이를 위해 시는 일자리 창출과 지역경제 살리기를 목표로 미래먹거리산업과 중소기업·청년창업 중심의 전주형 경제를 키울 계획이다.대표적으로 국내 최초로 탄소전문 연구기관인 한국탄소융합기술원(옛 전주기계산업리서치센터)을 설립하고 지난 2007년부터 육성해온 탄소산업, 그리고 문재인 정부가 대한민국 혁신성장의 열쇠로 육성하는 수소산업, 전주시가 세계 최초로 개발하고 보급한 드론축구로 대표되는 드론산업, 전주혁신도시로 이전한 국민연금공단을 중심으로 한 금융산업 등 4대 신성장산업을 고도화하는 것이다.특히 전주는 대한민국에서 가장 앞장서 키워온 탄소산업의 강점을 살려 지난해 12월 국토교통부 공모사업에 선정된 수소경제 시범도시 사업을 선도하고, 수소저장 대형용기 개발 등 수소저장용기 안전성 실증기반 구축 및 수소인프라 구축을 통해 대한민국 수소경제를 이끌게 된다.이와 더불어 전주 탄소소재 국가산업단지와 드론기업지원 허브센터를 중심으로 탄소산업과 드론산업도 키우고, 금융산업 전문인력 양성 및 세계 유수 연기금 초청 국제포럼 개최 등을 통해 제3금융도시로 도약하는 것이다.여기에 전주형 문화재생사업인 팔복예술공장에 이어 노동자들도 함께 즐기는 팔복청년예술놀이터를 조성하고, 네이버와 한컴 등 민간기업의 특화된 전문지식을 공유하고 지원하는 전주형 청년창업 플랫폼을 유치함으로써 청년 창업 친화도시를 만들 작정이다. 또 청년공간인 청년청 건립과 청년 소통공간 ‘비빌’ 확대 등을 통해 청년역량강화 프로그램을 운영하고, KAIST(한국과학기술원)과 협력해 미래 발전전략 포럼을 운영하는 등 대학주도의 혁신성장 협력체계도 가동한다.뿐만 아니라 시는 살맛나는 전주형 서민경제 구현을 위해 4차 산업혁명에 대비한 전문인력 양성 등 교육시설과 창업지원공간 등을 갖춘 전북중소기업연수원을 건립하고, 첨단벤처단지 지식산업센터와 신산업융복합 지식산업센터, 기술창업성장지원센터, 산학융합프라자의 '3+1 거점'을 구축해 지역기업의 경쟁력을 강화할 수 있는 기반을 갖추는 것이다. 이밖에 지역기업 기(氣)살리기 2.0과 지역자재 우선구매, 골목상권 지원 등을 통해 지역경제의 대들보인 중소기업과 소상공인도 빈틈없이 챙기는 한편, 시민먹거리 주권확립과 먹거리 복지 실현을 위한 전주푸드 플랜을 활성화시키고, 농업소득기반 확충, 전주형 지역화폐 도입, 금융복지상담소 확대·개편 등도 추진한다.    ⓒ전주시   - 가장 전주답게 꽃피운다는 것은 ▲ 전통문화와 미래기술을 융합한 전주만의 새로운 문화콘텐츠로 세계와 당당히 승부하는 국제관광도시로의 도약도 준비하는 것이라고 말할 수 있다.세계적인 수준의 관광인프라를 확충하기 위해 전주한옥마을에 대한민국 최초의 관광트램을 도입하고, 가장 전주다운 전통과 현대가 어우러진 한옥마을 100대 체험콘텐츠를 강화하는 등 전주의 매력과 경쟁력을 키우려 한다.또 전주한옥마을을 장애인과 노약자 등 누구나 편리하게 여행할 수 있도록 무장애 열린관광지로 만들고, 주민주도형 한옥마을 재생프로젝트도 추진한다.전주한옥마을 중심의 가장 한국적인 관광 자원과 인프라를 갖춘 시는 대한민국을 대표하는 한(韓)문화를 확산시켜 나가기 위해 국내 유일의 한옥마을 관광트램을 도입하고 온 브랜드 상품개발 등 관광브랜드를 강화하기로 했다. 한옥정원 조성 등 한국형 숙박환경으로 고급화하고 최근 핫플레이스로 각광받고 있는 객리단길의 경우 여행자거리 특성화사업을 펼치는 등 대한민국은 물론 세계의 중심에 있는 관광도시로 만드는데 전력을 다할 방침이다. 나아가 가장 전주다운 전통문화와 역사문화콘텐츠를 강화하기 위해 전라감영 재창조 복원을 시작으로 전주 대사습청 조성·운영과 전주관광 외연 확대를 위한 전주부성 복원, 후백제 역사문화 재조명, 풍패지관 주변 정비 등을 추진하고, 서노송예술촌 등 문화적 도시재생사업과 종교관광시설 건립, 동학농민혁명 역사문화벨트 조성 등 역사문화콘텐츠 발굴·재생·복원에 힘쓸 계획이다.여기에 전주시내 중심도로인 충경로 정비를 통해 제2의 첫마중길로 만들고, 대규모 국제행사 유치를 위한 전담기구인 컨벤션뷰로를 설치해서 국제관광도시 인프라를 구축하려한다. 동시에 인문으로 성장하는 전주 도서관도시 프로젝트도 추진한다.한발짝 더는 법원·검찰청 이전 부지에 한국문화원형콘텐츠 체험전시관을 건립하고, 기록문화의 정수인 전주한지의 세계화를 추진하는 등 전통문화와 과학기술을 융복합해 세계와 당당히 승부할 수 있도록 전주관광산업의 미래를 준비할 것이다.- 가장 전주답게 준비한다는 것에 대해 설명해달라  ▲ 가장 전주다운 미래를 열기 위해 천만그루의 꽃과 나무, 숲과 정원이 있는 도시를 만드는 천만그루 정원도시 프로젝트, 가장 인간적인 전주형 복지정책, 미래세대를 위한 예술교육 등을 집중 전개한다는 것이다.이를 위해 지·간선제의 확대와 간선급행버스체계(BRT) 도입 등으로 시민의 발인 시내버스 운영체계를 획기적으로 개선하고, 안전속도 5030 하향과 마을주민주도의 동별 주정차계획 수립 등으로 보행자 중심의 교통문화를 확립하게 된다.천만그루 정원도시 전주 종합계획 수립과 정원산업도시 기반 확충, 전주종합경기장 부지재생 '시민의 숲 1963' 추진, 도시공원 일몰제에 대응한 장기미집행 도시공원 매입 등을 통해 도심 곳곳에 천만그루 나무와 꽃을 심어 도시 전체를 숲과 정원으로 가득한 생태도시로 만들어 미래 세대에게 물려줄 계획이다. 뿐만 아니라 전주형 미세먼저 저감대책과 에너지디자인 3040을 지속 추진함으로써 기후변화에 선제 대응할 방침이다. 또 기존 재개발과 다르게 해당지역에서 살고 있는 '사람'을 최우선 가치로 생각하는 전주형 주거지 재생사업도 새롭게 추진하고, 전주월드컵경기장 인근 종합스포츠타운 조성과 혁신도시 다목적체육센터 건립, 에코시티 복합커뮤니티센터 건립으로 시민들의 생활문화체육거점도 만들어 나갈 예정이다. 따뜻한 전주를 만들기 위한 사람 중심의 지속적인 복지정책도 전주답게 준비하는 것 중에 하나다.4대 복지전략으로 전주형 통합돌봄 중심 맞춤형 복지 추진과 장애인의 삶을 바꾸는 인권도시 도약, 아이키우기 좋은 도시, 숲·책·예술놀이터도시 조성 등을 추진한다. 대표적으로 시는 어르신들이 정든 집에서 노후를 편안하게 보낼 수 있는 전주형 통합돌봄 선도사업을 완성도 있게 정착시켜 나가고, 전주시 복지재단 ‘전주사람’의 운영 활성화로 복지사각지대 없는 전주를 만들겠다.덧붙여 장애인 일자리와 인권존중문화도 지속적으로 확대하고 국공립어린이집 확대와 온종일 돌봄체계 구축, 공공어린이 재활의료센터 건립, 아동지원 정책 확대 등 함께 돌보는 양육환경을 조성할 계획이다.끝으로 전주시는 예술을 놀이로 즐기며 성장하는 예술놀이도시와 모험심과 상상력을 기르고 행복한 미래를 선물하게 될 야호 생태숲놀이터, 책과 함께 놀며 상상력을 키우는 책놀이터, 야호학교 등 창의적 미래인재를 양성하기 위한 전주형 10학년 인생학교, 건강한 가정을 위한 '야호 부모학교' 운영 등 야호 5대 프로젝트를 확대해 미래 주역인 아동·청소년이 주도적으로 자신의 삶을 설계하는 놀이터도시를 만들어 나가겠다.-전주시장답게 전주시민에게 끝인사 부탁한다▲ 사람들이 가장 가고 싶은 도시, 머물고 싶은 도시는 기억과 지역의 정체성을 지켜온 도시라고 여기고 있다. 미래 먹거리 산업을 육성해 활기찬 도시로 만들고, 가장 전주만의 고유의 색채와 강점을 잘 살려서 글로벌 도시로써 세계의 주요 도시와 경쟁할 수 있는 담대한 전주의 미래를 열 수 있도록 시민과 함께 하겠다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      제주국제자유도시개발센터(이사장 문대림, 이하 JDC)는 14일 제주혁신성장센터에서 한국은행 제주본부와 제주혁신성장센터 입주기업 금융 지원을 위한 업무협약을 체결했다.이번 업무협약은 도내 유망 중소기업 발굴 및 지원과 중소기업 지원을 위한 정보 교류 등 제주지역 기업 성장을 촉진하고 지역 경제 활성화에 활력을 불어 넣기 위해 체결됐다.   JDC가 14일 제주혁신성장센터에서 한국은행 제주본부와 업무협약을 체결했다. ⓒ제주국제자유도시개발센터   중소기업 지원자금은 금융기관 대출 금리에 추가적으로 금리를 우대하는 방식으로 지원되며 기업의 신용도, 담보, 신용보증서 여력 등에 따라 금리 우대 폭이 결정된다.또한 제주혁신성장센터 내 입주기업은 JDC가 발급한 추천서를 금융기관에 제출함으로써 대출심사에 필요한 업종 인증서 및 특허증 등 각종 증빙서류를 대체할 수 있게 돼 제출 서류가 대폭 간소화된다.문대림 JDC 이사장은 “한국은행 제주본부와 공동으로 제주혁신성장센터 입주기업을 위한 금융 지원제도를 마련하게 돼 매우 뜻깊게 생각 한다”며 “향후 입주기업을 위한 금융지원 제도 마련에도 더욱 노력할 것”이라고 말했다.한편 제주혁신성장센터는 JDC가 국토교통부 일자리 로드맵에 따라 청년 창업지원과 양질의 일자리 창출 및 지역경제 활성화를 위해 지난 2018년 12월 개소했다.또한 제주혁신성장센터에는 KAIST 친환경 스마트자동차연구센터, 한예종 ICT융합창업허브, 제주 사회적경제 소셜벤처 지원사업 ‘낭그늘’, 청년 취·창업 복합 지원 공간 J-CUBE 등 총 4개 분야 30여 개 기업이 입주해 활발한 활동을 진행하고 있다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "재난조사는 연구 후 도서관에 처박히는 것이 아니라 실제 활동과 변화를 이끌어낼 수 있어야한다" - 스캇 개브리얼 놀즈 드렉셀 대학교 교수실효성 있는 재난조사를 위해서는 최소한 다섯 가지 질문을 고려해야 한다는 주장이 제기됐다.16일 사회적참사 특별조사위원회 주최로 서울 중구 포스트타워에서 미국 재난 안전 전문가 스캇 놀즈 드렉셀 대학교 교수 간담회가 열렸다. 놀즈 교수는 2017년 여름에 카이스트 방문학자로 한국을 방문해 특조위와 유가족들과 인터뷰를 한 바 있다.재난조사는 '최소한' 다섯 가지 목적이 있다놀즈 교수는 "재난조사는 다양한 목적이 동시에 수행되고 있다"고 말했다. 그중 놀즈 교수가 강조한 것은 △책임을 지우기 △사건을 설명하기 △피해자들의 요구에 응답하기 △교훈을 배우기 △사건을 종결하기 등 다섯 가지다. 놀즈 교수는 다섯 가지 카테고리에 대해 "완벽한 것은 아니지만 최소한 재난 후 우리사회가 어떤 방향으로 나아가는지 알기 위해서 꼭 대답해야 하는 질문"이라고 설명했다.'책임 지우기'에 대해 놀즈 교수는 "기존의 법적 시스템이 재난을 포괄하기 어려운 경우가 많다"며 "개인의 잘잘못을 가리는데 급급해 큰 규모의 재난을 다루는 데는 적합하지 않다"고 말했다.그러면서 엑손 발디즈 사건을 예로 들었다. 엑손 발디즈 사건은 1989년 지중해에서 유조선 엑손 발디즈(엑슨발데즈)가 좌초되면서 24만 배럴의 원유가 프린스 윌리엄만에 유출된 사고다. 놀즈 교수는 엑손 발디즈 사건을 "최악의 환경재난"이라며 "그러나 가장 큰 책임을 져야 할 조셉 헤이젤 우드 선장은 아무런 책임 없이 풀려났다"고 기존 법의 한계를 설명했다. 그러면서도 "세월호 사고에서 알 수 있듯이 몇몇의 잘못된 사람을 처벌하는 것만으로는 충분하지 않다"고 덧붙였다.놀즈 교수는 재난조사의 다섯 가지 중 '사건 설명하기'를 두고 "재난을 설명하는 새로운 방식"이라며 "재난이 특정한 시간과 공간에서 일어나고 시작과 끝이 있다는 해석은 충분하지 않다"고 말했다.놀즈 교수는 "세월호와 가습기살균제 서사를 봤을 때 아이가 아프거나 배가 침몰하는 특정한 사건이 시작이 아니다"라며 미국 허리케인 카트리나 사고를 예로 들었다. "짧게는 뉴올리언스의 댐이나 펌프 시스템이 왜 잘못됐는지를 설명할 수 있어야 한다"며 "좀 더 길게는 40년 전에 비슷한 일이 있었는데 왜 반복됐는지, 더 길게는 80년에 걸친 기후변화와 해수면 상승에 대해 설명해야한다"고 말했다.'피해자들의 요구에 응하는 것'과 '교훈을 배우기' 등도 제시됐다. 피해자들의 요구에 응하는 것은 피해자, 또는 그 가족들이 납득할 수 있는 원인을 찾는 것을 말한다. 놀즈 교수는 9·11 테러로 소방관인 아들을 잃은 샐리 리젠하드의 사례를 들며 "'테러가 나서 건물이 무너졌다'는 말로는 비번인 아들이 현장에 출동하고, 사망하고, 유해를 찾지 못한 점들을 설명하지 못한다"고 말했다. 교훈을 배우는 것은 실제적인 대책 마련을 의미한다. 놀즈 교수는 "허리케인 카트리나 이후 물이 들어오는 곳에 건물을 세우지 말라는 대책이 세워졌다"고 설명했다.마지막으로 '사건을 종결짓기'에 대해 놀즈 교수는 "누가 사망했는지는 밝히는 일"이라고 설명했다. 놀즈 교수는 "9·11 테러의 경우 1700여명의 피해자 유해가 아직 발견되지 않고 있다"며 "재난조사기구는 바로 이 일을 수행하기 위해 있는 것"이라고 말했다. 그러면서 "재난조사가 끝났다고 선언하는 것은 그 감정을 보존하고 추모하는 것이다"라며 "세월호 기억교실을 방문하고 큰 감동을 받았다. 추모시설의 좋은 예시"라고 말했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲iCVD 장치를 이용한 특정 고분자 코팅 세포배양기판과 이를 이용한 표면 유도 3차원 암줄기세포 스페로이드 형성 모식도 ⓒKAIST       생체 내 환경과 유사한 3차원 스페로이드 형태로 양질의 암 줄기세포를 손쉽게 대량 배양할 수 있는 원천 기술이 개발돼 암치료제 개발에 기여할 것으로 보인다. 암 줄기세포는 항암제에 대한 내재적 저항성을 가져 암의 전이와 재발에 깊이 관여하고 있다.그러나 종양 안에 극히 일부 존재하기 때문에 지금까지는 다양한 암 줄기세포의 대량 확보가 어려워 암 연구 및 약물 개발에 제약을 받아왔다.  KAIST 생명과학과 전상용, 이대엽 교수와 생명화학공학과 임성갑 교수 공동 연구팀이 특수 고분자박막을 이용해 3차원 암 줄기세포 스페로이드(spheroids)를 손쉽게 제작할 수 있는 세포배양 플랫폼을 개발했다.  연구팀은 ‘개시제를 이용한 화학 기상 증착법’을 이용한 고분자 박막을 형성해 암 줄기세포를 제작했다.  이번 연구에서 특정 고분자 박막에서 배양된 표면 자극 유도 암 줄기세포 스페로이드가 약 24시간 안에 형성되고, 배양시간에 따른 암 줄기세포와 관련된 유전자 양의 증가를 발견했다.  또 플랫폼을 통해 형성된 암 줄기세포 스페로이드는 실제 항암제를 처리했을 때 뛰어난 약물저항성을 지니고 있음을 확인했다.  아울러 종양 동물모델에서 비교그룹에서는 보이지 않았던 다른 장기로 암이 전이되는 것을 확인했다.  이밖에 전체염기서열분석(Whole-genome sequencing)을 통해 표면 자극 유도 암 줄기세포와 실제 암 환자 암 줄기세포와의 유사성을 확인했다.        ▲ 전상용 교수 연구진 ⓒKAIST    전상용 교수는 “이미 시판되고 있는 다양한 종류의 암 세포주들 뿐만 아니라 환자에서 유래한 생체 내 환경과 유사한 3차원 스페로이드 형태로 양질의 암 줄기세포를 고효율로 손쉽게 대량 배양할 수 있는 원천 기술을 개발했다”며 “향후 암 줄기세포 기초 연구 및 약물 개발의 패러다임을 바꿀 수 있고, 나아가 암 줄기세포 제작용 플랫폼 소재에 대한 원천 기술 확보를 통해 거대한 암 관련 의료시장에서의 경제적인 부가가치 창출도 가능할 것으로 기대한다”고 말했다.  최민석, 최윤정 박사, 유승정 박사과정이 공동 1 저자로 참여한 이번 연구는 미국 암학회(AACR) 대표 국제학술지인 암 연구(Cancer Research) 10월24일자 온라인 판에 ‘Polymer thin film-induced tumor spheroids acquire cancer stem cell-like properties’라는 제목으로 게재됐다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          돼지 복강에 삽입된 유연 내시경 수술로봇을 이용해 담낭을 절개하는 임상실험 ⓒKAIST       KAIST 기계공학과 미래의료로봇연구단(소장 권동수 교수)이 개발한 유연 원격 내시경수술로봇 ‘케이-플렉스(K-FLEX)’가 살아있는 동물의 담낭을 절개하는 수술에 성공했다.  연구팀은 지난 7월 17일 돼지 복강에 삽입된 유연 내시경 수술로봇을 이용해 담낭을 절개하는 임상실험을 진행했다.  복강 내 로봇의 정밀 제어기술과 소형관절 설계기술이 핵심 기반기술이다.  연구팀의 케이-플렉스 로봇은 입이나 항문, 요도 등 우리 몸에 존재하는 통로를 따라 뱀처럼 유연하게 삽입돼 몸속을 자유롭게 관찰하다 이상이 있는 경우 손가락처럼 생긴 초소형 로봇 팔이 나와 수술을 진행한다.  기존의 상용화된 수술 로봇은 곧은 수술도구를 이용하고 복부에 3~4개의 구멍을 내야 하는 문제점이 있는 반면 연구팀의 기술은 외부절개 없이 내부절개만으로 수술이 가능해 출혈량, 세균 감염, 합병증 등의 위험을 줄일 수 있다.  연구팀은 초소형 로봇 팔이 낼 수 있는 힘을 두 배 이상 끌어올리는 동시에 크기도 절반으로 축소해 유연성과 소형화 문제를 해소하는 소형 관절 기술을 개발했다.  연구팀은 돼지 배의 표면에 만든 절개 부위에 다양한 방향과 각도로 휘어지는 유연 내시경 수술로봇을 삽입하고 병변이 위치한 간과 담낭으로 로봇을 접근시켰다.  이후 내시경의 채널을 통과한 직경 3.7mm의 소형 수술도구가 간을 젖히며 수술을 위한 시야 확보를 한 뒤 다른 채널을 통과한 전기 소작기를 이용해 간과 담낭 사이를 절제했다.         케이-플렉스(K-FLEX) 장치 ⓒKAIST   모든 수술 과정은 연구팀이 내시경의 앞부분에 설치한 카메라를 통해 송출된 돼지 신체 내부를 모니터링하며 원격 조종 장치를 통해 진행됐다.  연구팀은 이 기술을 통해 지난 6월 29일 영국 런던 임페리얼 컬리지에서 열린 ‘서지컬 로봇 챌린지 2018(Surgical Robot Challenge 2018)’에서 수술로봇 강국들을 제치고 ‘베스트 어플리케이션 어워드’와 ‘오버롤 위너’상을 동시에 수상하기도 했다.  권동수 교수는 “이번 실험의 의미는 국내 최초로 유연한 내시경로봇을 살아있는 동물의 복강 내에서 이동시켜 병변에 접근시키고 수술을 진행함으로써 임상 적용의 가능성을 확인했다는 의미를 갖는다”고 말했다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          조영호 교수 연구팀 ⓒKAIST       KAIST 바이오및뇌공학과 조영호 교수 연구팀이 피부의 경도를 근거로 인간의 열적 쾌적감을 예측할 수 있는 지표를 발굴했다.  인간은 개인별 체질과 기후 환경에 따라 동일한 온도와 습도에서도 느끼는 더위와 추위, 즉 열적 쾌적감이 다르다.  인간이라면 누구나 더위를 느끼는 상황에서 피부온도와 땀 발생량이 올라가고 반대로 추위를 느끼면 피부온도와 땀 발생량이 감소한다.  연구팀은 지난 2월 이러한 피부온도와 땀 발생률의 두 가지 지표를 통해 인간의 열적 쾌적감을 측정할 수 있는 기기를 개발한 바 있다.  연구팀은 기존의 열적 쾌적감 지표 외에 인간의 피부 경도(硬度)를 추가적인 지표로 활용할 수 있음을 처음으로 발견했다.  인간이 추위나 더위를 느낄 때 모근에 붙어있는 아주 작은 근육인 입모근(立毛筋)이 수축되거나 이완된다.  우리가 추위를 느낄 때 흔히 ‘소름이 돋는다’고 말하는 신체 반응도 입모근이 수축해 피부가 단단해지며 발생한다. 반대로 더위를 느낄 때 모공에서 땀이 나는 반응도 입모근이 이완되면서 발생하는 현상이다.  연구팀은 입모근에 의해 피부의 경도가 변한다는 점에 착안해 피부 경도를 인간 열적 쾌적감의 새로운 지표로 제안했다.  조 교수 연구팀은 기존의 지표인 피부 온도와 땀 발생률과 피부 경도는 인간의 열적 쾌적감을 판단할 수 있는 각각의 독립적인 지표이며, 기존의 두 지표에 더해 피부 경도를 추가하면 쾌적감 판단 신뢰도가 23.5% 향상됨을 피험자 실험을 통해 입증했다.  이를 통해 피부 경도를 측정할 수 있는 센서를 개발하고 이를 적용해 자동차, 실내 등에서 기존의 냉, 난방기보다 인간과 교감 기능이 뛰어난 개인별 맞춤형 냉, 난방기를 개발할 예정이다.  조 교수는 “새로 발굴한 지표인 피부 경도를 도입해 인간의 개인별 체질, 기후 환경과 무관하게 실제 느끼는 열적 쾌적감 예측의 신뢰도를 높여 개인별 맞춤형 냉, 난방기의 개발에 힘쓸 예정이다”며 “신체적 건강 상태 뿐 아니라 정신적 건강과 감정 상태 교감을 통해 인간과 기계 간 정서적 교감도 이룰 수 있을 것이다”고 말했다.  윤성현, 심재경 연구원의 주도한 이번 연구는 네이처 자매지 ‘사이언티픽 리포트(Scientific Reports)’ 8월 13일자 온라인 판에 게재됐다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      김동원 전북대학교 총장ⓒ전북대학교      김동원 제18대 전북대학교 총장이 28일, 4년간의 공식 업무를 시작했다.  지난 22일 국무회의에서 총장 임명안이 심의·의결된 김 신임 총장은 28일자로 공식 대통령 임명을 받았다.  김 총장은 이날 내부 업무보고 등을 받고 향후 공고한 협력체계 구축을 논의하는 일정으로 임기 첫날을 시작했다.  이어 김 총장은 조직개편을 통해 차기 집행부를 꾸리고, 추후 취임식을 통해 전북대 경영의 세부 밑그림을 제시할 계획이다.  분권과 공감, 융합을 대학 운영의 키워드로 제시한 김 총장은 “대학 조직은 대규모 심포니 오케스트라를 닮아 있다.  김 총장은 "구성원들을 배려하고, 창의적인 영감을 불어넣을 대형 오케스트라의 명지휘자 총장이 되겠다”고 밝혔다.  한편 김동원 총장은 서울대 산업공학과를 졸업하고 카이스트에서 석사, 일본 북해도대학에서 박사학위를 받았다. 1988년부터 전북대 산업공학과 교수로 재직하며 공과대학장과 산업기술대학원장, 환경대학원장, 공학교육혁신거점센터장 등을 지냈다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ⓒ전주대      전북 전주대학교는 박상업 교수가 한국물리학회 ‘계원물리학상’을 수상했다고 20일 밝혔다.  계원물리학상은 한국물리학회가 발간하는 ‘새물리’지에 다수의 우수논문을 발표하는 등 한국 물리학 활성화와 물리학 용어 발전에 기여한 학자에게 수여된다.   박 교수는 KAIST에서 물리학 석·박사 학위를 취득하고 1989년부터 전주대에 재직 중이다. 박 교수는 과학서 ‘과학과 인문 at eyes’ 출판, 한국물리학회 학술지 등에 다수의 논문을 게재하며 한국 물리학 발전과 연구에 기여하고 있다.   특히, 박 교수는 물리학의 영역을 인문학과 한국어로 확장하며 한국적 물리학 발전에 기여해왔다. 논문 ‘훈민정음의 원형 자음과 원형 모음의 과학적 원리(2016)’와 ‘진동수 격자 이론과 훈민정음 모음도(2017)’를 통해서 자연 현상과 간단한 물리법칙을 언어(language)로 표현한 ‘훈민정음’의 원리와 과학성을 재분석하여 물리학과 언어학의 호환성을 검증했다.   또, ‘1일 주가 흐름의 위상 분석과 투자 패턴(2017)’을 통해 하루 동안 주가 흐름의 경제 빅데이터를 물리학적으로 연구하여 새로운 주가 분석 기법과 경제 예측 모델을 개발 중에 있다.   전주대 박상업 교수는 “기존 학문을 수용하고 변형하는 수동적 학문 태도가 아닌 학문을 가꾸고 경작하는 학문에 대한 주도적 태도가 중요하다고 생각한다”며 “이런 주도적 태도의 중심에는 한국 문화와 한국어가 있기 때문에 한국어를 중심으로 하는 한국적 물리학 발전을 위해 연구를 계속하겠다”고 말했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       빈센트 두사스테 ⓒKAIST       빈센트 두사스테(Vincent Dusastre) 네이처 머티리얼스(Nature Materials)지 편집장과 미국 MIT·스탠포드대학 신소재 및 화학과 교수 등 관련 분야의 세계적인 석학 9명이 KAIST에 모인다.  8월 7일 대전에서 열릴 ‘2018 KAIST 재료 생명화학공학 국제 워크숍’에는 세계적인 석학들과 신소재·화학공학·생명공학 분야 전문가 500여 명이 참석해 미래 선도 기술에 대한 최신 트렌드와 학제 간 협력 강화 등을 논의할 예정이다. ‘유망 소재분야의 빅 아이디어들’이란 주제로 열리는 이번 국제 워크숍에서 빈센트 두사스테(Vincent Dusastre) 박사는 ‘에너지 소재의 연구동향 및 미래’를 주제로, 미국 화학회가 발행하는 나노분야의 대표적 학술지인 나노학술지(ACS Nano) 편집장인 폴 웨이즈(Paul S. Weiss) UCLA 교수는 ‘나노과학과 나노기술의 미래’를 주제로 각각 발표에 나선다.   또 재료화학 학회지(Chemistry of Materials) 편집장인 질리안 뷰리악(Jillian M. Buriak) 알버타대 교수는 ‘유기 태양전지용 기계학습과 간이 예측모델의 최적화를 위한 응용’을 주제로, 악타 머티리얼리아(Acta Materialia)지 편집장인 크리스토퍼 슈(Christopher A. Schuh) MIT 교수는 ‘결정립계(grain boundary) 분리를 통한 나노구조 금속의 3차원 인쇄기술’을 주제로 발표를 진행한다.   이와 함께 매크로몰리큘스(Macromolecules) 부편집장인 티모시 스와거(Timothy M. Swager) MIT 교수는 ‘화학반응 및 촉매를 이용한 나노-전자 센서’를 주제로, 또 제프리 그로스만(Jeffrey C. Grossman) MIT 교수와 제난 바오(Zhenan Bao) 스탠포드대 교수는 ‘원자크기의 재료설계 기술’과 ‘생체 피부모방 고분자 전자재료 및 디바이스’를 주제로 발표 및 토론에 참여할 예정이다.   국내 전문가로는 바이오테크놀리지 저널(Biotechnology Journal) 및 메타볼릭 엔지니어링(Metabolic Engineering)의 편집장인 이상엽 KAIST 교수와 에너지 스토리지 머티리얼스(Energy Storage Materials)지 부편집장인 김상욱 KAIST 교수가 발표자로 나선다.   이번 국제 워크숍은 △차세대 기능성 나노구조체 △환경 및 산업용 화학생명공학 소재 △미래 에너지 소재 기술 등 모두 3개 세션으로 나눠 진행되며, 신소재 및 생명화공 분야 세계적인 석학들의 강연 외에 미래 선도 기술에 대한 최신 트렌드 소개도 진행된다.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      과학기술 윤리에 관한 대중적 관심을 가장 높인 사건은 황우석 사건일 것이다. 이 사건에서 인간복제, 난자 기증 매매 등과 연관된 생명 윤리와 연구 윤리는 물론 취재 윤리까지 다루어졌다. 과학기술 윤리는 일상생활 윤리와는 다르게, 과학기술의 급속한 발전에 따라 답하기 어려운 문제를 갑자기 제기하곤 한다. 유전자 조작 기술과 관련된 생명의학 윤리, 인간을 대체하고 있는 인공지능 윤리, 인터넷 공간에서 일어나는 일들에 관한 사이버 윤리는 지난 세기에는 상상 속 문제였지만 지금은 당면한 문제이다. 새로운 과학기술 분야들이 매우 다양하게 나타남에 따라 과학기술 윤리 문제는 지속적으로 발생할 것이다. 이 글에서는 다양한 과학기술 윤리 문제들을 간략히 살펴보고, 최근 한국에서 일어난 일들을 통해 과학기술 윤리를 어떻게 만들어 나갈지 생각해보고자 한다. (필자)과학기술 발전과 함께 나타나는 윤리 문제들미토콘드리아 유전자의 결함으로 인한 질병을 치료하는 방법으로 난자의 미토콘드리아를 다른 사람의 미토콘드리아로 바꾸는 기술이 개발되고 있으며, 이 방법을 적용하여 정자, 난자, 미토콘드리아의 유전자를 각기 다른 사람으로부터 받은 아기가 이미 태어났다. 이 기술의 허용할지, (미국은 허용하고 있지 않다) 허용한다면 미토콘드리아를 제공한 사람을 부모로 인정할지, 부모로 인정한다면 부모로서 권리와 의무를 어떻게 규정할지는 사회적 합의에 이르기 쉽지 않은 문제이다. 근년에 들어 크리스퍼(CRISPR)라고 부르는 획기적인 유전자 편집 기술이 – 비용, 속도, 용이함 면에서 기존 기술에 비해 엄청나게 뛰어난 기술이 눈부시게 발전하고 있다. 유전자 관련 기술을 인간에 적용하는 데 아무런 제약이 없다시피 한 중국을 중심으로 이 기술을 이용한 인간 유전자 연구가 활발하게 진행되고 있다. 이 기술을 적용하면 유전자가 변형되어 GMO가 만들어지지만 세련된 편집으로 인해 편집 여부를 알기도 쉽지 않다. 보도에 의하면, 2018년 1월까지 중국에서 86명이 크리스퍼를 이용하여 유전자 편집을 하였다고 한다. 지금과 같이 규제가 없다면 머지않아 중국에서는 오늘날 성형수술이 일상화되어 있는 것처럼 유전자 편집이 보편화될 것이다. 지금은 중국인들이 한국에 의료관광을 오고 있지만 한국인들이 유전자 편집을 위해 중국으로 의료관광을 갈 날이 오지 않으리라 장담하기 어렵다. 한국에서는 생명윤리법을 통해 국내에서 행하는 인간 유전자 관련 연구와 치료를 엄격하게 규제하고 있지만 국외에서 유전자 편집이 일상화된다면 생명윤리법을 어떻게 개정해야 할지 가늠하기 어렵다. 현대 인공지능 분야의 창시자 중 한 사람으로 평가받는 바이젠바움(Joseph Weizembaum, 1923-2008)은 이미 1976년 고객 서비스 상담원, 임상의, 노인 돌보미, 군인, 판사, 경찰관 같이 존중과 돌봄이 요구되는 일에 종사하는 사람을 대신하는 데 인공지능이 사용되어서는 안 된다고 주장하였다. 이 중 몇몇 직종에는 인공지능이 도입되고 있으며, 아마도 모든 직종을 인공지능으로 대체하려 할 것이다. 지금은 인공지능의 신기함에 들떠있지만 조만간 인간의 존엄성과 관련된 문제들을 실감하게 될 것이다. 페북 데이터가 미국 대선에서 악용된 것은 댓글을 통한 여론 조작과는 또 다른 차원의 빅데이터가 가지고 있는 윤리 문제를 보여준다. 수 년 전만 하더라도 개와 고양이를 구별하는 방법에 대해 고민하던 인공지능 연구자들은 알파고끼리의 대국을 통해 고도화된 인공지능이 인간을 넘어설 수 있다는 것을 보여주고 알파고를 바둑계에서 은퇴시키기에 이르렀다. 이런 빅데이터를 활용한 인공지능이 야기할 문제들을 예측하고 그에 관한 윤리 규정을 미리 만드는 것은 불가능하다고 해도 과언이 아니다. 이외에도 과학기술 윤리와 관련된 문제들은 많다.최근 한국의 과학기술 윤리와 관련된 몇 가지 소식을 언론에서 접할 수 있었는데, 그 중 두 사건을 중심으로 과학기술 윤리를 살펴보고자 한다.KAIST 인공지능 연구지난 4월 뉴욕 타임즈 등 유수의 언론은 30개국 50명이 넘는 인공지능 연구자들이 KAIST와의 인공지능 관련 협력을 거부하는 서한에 서명하였다고 보도하였다. 그 직후 가디언은 서명을 주도한 호주의 인공지능 연구자 월쉬(Toby Walsh) 교수의 기고문을 실었는데, 그 내용을 요약하면 다음과 같다.자율자동차는 보행자를 확인, 추적하고 피할 수 있는 알고리즘을 사용하고 있는데, 이는 전투원을 확인 추적 겨냥하는 알고리즘으로 쉽게 변형될 수 있다. 이는 자율무기가 조만간 실현될 수 있음을 의미한다. 다시 말하면 인간의 생사를 결정하는 일에서 인간을 완전히 배제하는 인공지능을 탑재한 무기가 나타날 수 있다. 이는 도덕적으로 받아들일 수 없는 일이지만 자율무기의 조짐은 이미 볼 수 있다. 드론을 이용한 무기는 이라크 아프가니스탄 등에서 널리 사용되고 있는데, 현재는 그것을 조종하는 군인이 사람의 생사를 결정하지만, 즉 반(半)자율무기이지만 군인을 인공지능으로 대체하면 자율무기가 된다. 이는 화약, 핵무기에 이은 무기 진화의 3차 혁명이다. 우리는 자율무기에 장착된 인공지능이 국제인도법(國際人道法)를 준수하도록 할 방법을 알지 못한다. 자율무기는 화학무기처럼 아주 적은 비용으로 대량살상 무기가 될 가능성이 열려있는 무기이다. 게다가 자율무기는 컴퓨터 바이러스처럼 누가 만들었는지도 알기 어렵다. 이런 특성으로 인해 자율무기는 현재의 불안한 국제질서를 더욱 불안하게 만들 것이다. KAIST가 한화시스템(Hanwha Systems)과 협력하여 자율무기, 예컨대 무인잠수함 개발 경쟁에 뛰어들 것이라고 코리아 타임즈가 보도하였다. 한화는 유엔 협약에 반하는 집속탄을 만들고 있기 때문에 10년 전 노르웨이의 미래 펀드는 한화를 윤리적 블랙리스트에 넣었다. (이런 상황에서 인공지능 전문가들이 KAIST와의 협력을 거부하는 요구에 서명하였다.) KAIST 총장은 이 거부 움직임에 빠르게 반응하여, KAIST는 자율무기를 개발하지 않을 것이며 더 나아가 유의미한 인간의 제어가 항상 유지되도록 하겠다고 확인하였다. 이는 하룻밤 사이에 이룬 성과이다.이와 관련된 보도에 따르면, 한국은 비무장지대에서 보초로봇을 사용하고 있다. 현재 이 로봇은 카메라로 연결되어 군인이 조작하고 있지만 자율모드로 전환할 수 있는 기관총을 장착하고 있다. 이렇게 한국도 자율무기 제작 능력을 가지고 있으며, 관련 기술들의 발전 속도와 세계 각국 국방 관계자들의 관심으로 보아 자율무기에 대한 실질적인 통제는 사실상 불가능해 보인다. 무기 사용에 의미 있는 인간 통제가 있어야 한다는, 스스로 판단하고 작동하는 인공지능이 탑재된 터미네이터 같은 살생 무기가 허용되어서는 안 된다는 인공지능 연구자들의 윤리는 21세기에 보편적으로 지켜지기에는 너무 오래된 것이라는 느낌까지 갖게 된다.미성년 자녀 논문 공저자 지난 4월 교육부 보도 자료에 따르면, 교육부는 미성년 자녀의 논문 공저자 등록 실태를 조사하였는데, 2007년 이후 10년 동안 미성년 자녀가 공저자로 등록된 논문이 138건이었다. 미성년자가 논문 저자가 되는 것은 허용되지만 연구에 기여하지 않은 사람이 저자가 되는 것은 연구부정행위(부당저자)에 해당한다. 교육부는 이들 논문에 대해 부당저자 여부를 검증토록 하고, 부당저자 사안에 대해서는 징계, 사업비 환수와 더불어 대입 활용여부를 조사하여 입학취소 등 필요한 조치를 할 것이라고 한다. 2007년 당시 과학기술부는 황우석 사건을 계기로 ‘연구윤리 확보를 위한 지침’을 만들었다. 이 지침은 연구 진실성을 담보하고 연구부정행위를 방지하는 데 목적을 두고 있으며, 위조, 변조, 부당저자 표시 등을 연구부정행위로 규정하고 있다. 2015년 교육부는 이 지침을 보다 구체화하는 방향으로 개정하였는데, 미성년 저자와 관련되어 또다시 개정할 모양이다. 교육부 보도 자료의 검증 대상 논문들에 대한 자세한 정보가 공개되지 않아 단언할 수는 없지만 요즘 시행되고 있는 여러 가지 R&amp;E;(Research &amp; Education) 프로그램들의 성과가 – 주로 영재고, 과학고 학생들이 참여하는 이공계 연구-교육 프로그램들의 성과가 논문으로 발표되고 있는 상황에 비추어보면 검증 대상 논문의 상당수가 과학기술 논문일 것으로 추측된다.(보도에 따르면 일부 검증대상 논문의 주저자는 과학기술 분야 교수들이다.)검증대상 논문 중 일부라도 부당저자 경우에 해당하고 미성년 자녀의 대학입시에 활용되었다면 그 파문은 상당할 것이다. 대학입시는 한국 사회에서 가장 민감한 사회 문제 중 하나이며, 사교육으로 인한 대학입시에서의 불공정, 학벌로 인한 사회적 양극화 등에 비춰볼 때 미성년 자녀 부당저자는 채용비리보다 더 심각한 문제로 부각될 것이다. 사실 자식에 대한 부모의 마음은 동서양이 다르지 않다. 미국에서 부모들의 학력 수준이 가장 높은 지역 중 하나인 실리콘벨리에서도 고학력 부모들이 자녀의 학습활동에 관여하는 일은 흔하다. 한국과 마찬가지로 미국의 대학입시에서도 다양한 학생활동 기록을 반영하지만 논문은 공정하지 않게 처리될 수 있기 때문에 별로 고려하지 않는다고 한다. 한국의 대학입시에서 논문을 성과로 반영하는 것은 이미 기울어진 운동장을 기정사실화하는 것이다. 사교육 과열을 방지하기 위해 각종 경시대회 성적을 생활기록부는 물론 자기소개서에도 쓰지 못하게 하는 상황에서 다양한 활동의 범주를 넘어 선행학습의 ‘최고 단계’라도 해도 과언이 아닌 논문을 대입 평가에 포함시키는 것은 과해 보인다. 대학에서는 R&amp;E; 경험을 입시에 반영하기보다 그런 경험을 가진 학생들을 위한 프로그램을 입학 후에 실시하는 것이 바람직하다.과학기술 윤리 – 어떻게 만들 것인가? 그 기원을 기억하기 어려울 정도로 오랜 시간에 걸쳐 정립되는 생활 윤리와 달리 과학기술 윤리 문제는 과학기술의 심한 경쟁과 발전 속도에 대응하기 위해 그 대책이 긴급하게 요구되는 경향을 보인다. 또한 윤리위원회 같은 기구를 통하든 묵시적이든 대책이 세워진 후에는 과학기술의 전문성으로 인해 그것이 잘 지켜지는지 검증하기 쉽지 않다. 일반적으로 과학기술은 그 내용 면에서 다른 분야보다 엄밀하기 때문에 과학기술자들은 과학기술 윤리 문제를 내부적으로 잘 정리하고 준수하여 다른 분야 사람들에게 모범의 예가 될 것으로 예상할 수도 있다. 그러나 앞에서 언급한 여러 예에서 볼 수 있듯이 과학기술 윤리 문제는 엄밀하게 재단하기 쉽지 않다. 오히려 과학기술자들은 인문 사회과학 분야 종사자들보다 분야 외적 사회활동이 적기 때문에, 또 자신이 관련되어 있는 과학기술의 사회적 의미에 큰 관심을 두지 않기 때문에 복잡 미묘한 윤리 문제를 다루는 데 더 서투르다. 과학기술자들이 정규과정에서 심도 있는 윤리 교육을 받는 일은 드물며, 보통은 과학기술 활동, 즉 과학기술자들 사이의 교류를 통해 윤리를 체득한다. 다시 말하면 과학기술자의 윤리 개념은 체계적인 교육보다 개인적인 경험에 좌우된다고 해도 과언이 아니다. 부적절한 연구비 관리 등 비윤리적인 행태는 그 연구자의 교육 연구 과정에서 경험을 통해 형성된 윤리 의식에 따른 결과라고 보는 것이 타당하다. 근래에 들어 과학기술자들을 대상으로 연구부정 연구비관리 규정 등에 관한 교육을 하기도 하지만 사회적으로 미묘한 문제를 다룰 수 있는 능력을 갖추기 위한 체계적인 노력은 크게 미흡하다. 간단히 말하면 한국 과학기술계가 최근 나타나고 있는 복잡한 과학기술 윤리 문제에 대한 답을 제시할 수 있는 능력을 갖추고 있다고 말하기 힘들다. 그러나 이는 한국 과학기술계만의 문제는 아니며, 과학기술 선진국들도 사정이 크게 다르지 않다. 과학기술 못지않게 사회적 변화 역시 예전에 비해 매우 빠르게 일어나고 있기 때문에 과학기술계 내부에서 사회적 변화에 부응하는 과학기술 윤리를 정립하기는 어렵다. 과학기술 윤리 공론화위원회과학기술 윤리 문제에 대한 답을 사회적 합의를 통해 제시하는 방식을 생각해볼 수 있다. 2017년 원자력 발전소 문제에 대한 합의를 이끌어낸 신고리 5·6호기 공론화위원회는 참고할만한 방식이다. 과학기술 내용은 투표와 같은 합의에 의해 결정할 수 없지만 - 과학지식 자체가 과학자사회의 합의에 의한 결정이며, 그 과정이 매우 합리적이라고 인식하기도 하지만, 과학기술의 사회적 이용에 관한 내용은 신고리 공론화위원회처럼 사회적 합의로 정해야 한다. 과학기술 관련 문제에 대한 사회적 합의는 선진국에서도 어려운 문제이지만 그 예는 비교적 쉽게 찾아볼 수 있다. 사회적 합의에 장애가 되는 것은 과학기술 지식에 대한 일반인들의 접근이 쉽지 않으며, 따라서 일반인들이 합의 과정에 참여하는 데 많은 시간과 노력이 필요하다는 점이다. 사실 새로운 과학기술은 해당 분야에 종사하지 않는 과학기술자에게도 낯설다. 직접적인 이해관계가 없는 과학기술 윤리 문제를 해결하는 데 자발적으로 참여할 일반인은 거의 없기 때문에 과학기술과 관련된 시민운동이 비교적 활발한 서구에서도 전문성을 극복하고 과학기술의 민주주의를 이루는 일은 쉽지 않다. 과학기술 윤리 공론화위원회 같은 사회적 합의 방식이 제대로 작동하기 위해서는 민주사회는 아이디어 원칙 도덕에 대한 경쟁에서 독점이 생기지 않도록 계속 경계해야 한다는 기본적인 원칙을 항상 염두에 두어야 한다. 이를 위해서는 과학기술자가 아닌 사람들이 과학기술의 사용에 미치는 영향력을 높일 수 있는 방안을 생각하고 실천해야 한다. 과학기술 분야는 내부적으로 비교적 자율적이며, 외부압력으로부터 보호받아야 한다는 통념을 넘어설 수 있는 사회적 분위기가 만들어져야 한다. 과학기술자계는 일반인들이 이해할 수 있는 언어로 된 과학기술지식을 준비하여 그에 대한 인식론적 실천을 할 수 있는 일반대중 활동가를 기르는 데 노력해야 할 것이다. 과학기술 윤리 문제는 과학기술이 사회에 기여하고 있음을 보일 수 있는 또 다른 기회이기도 하다. 과학기술정책은 전통적으로 ‘민주적’으로 결정되지 않는 경향이 있는데 - 정치 경제적 요인이 강하게 작용하여 과학기술자나 일반시민보다 관료, 기업, 군의 요구에 따라 결정되는데, 과학기술 윤리와 관련된 사회적 합의 방식과 관련된 제도와 인적 자원은 보다 민주적인 과학기술 정책을 수립하는 데 도움을 줄 것이다. 어떤 분야든 아마추어의 수준이 높아지면 프로의 수준은 덩달아 높아지듯이 이런 제도적 인적 인프라는 과학기술의 발전에 크게 기여할 것이다.윤리와 법 윤리 문제가 그저 윤리 차원에 머무른다면, 또 그를 어겨 이득을 취할 수 있다면 윤리는 제대로 지켜지기 어렵다. 윤리가 실천되기 위해서는 법적 뒷받침이 필요하다. ‘갑질’이 반복되는 것에서 알 수 있듯이 윤리 문제를 그저 ‘국민정서’에만 맡겨놓는다면 일시적인 여론의 질타를 받는 것 외에 별다른 진척이 없을 것이다. 일반적으로 윤리적 판단과 법적 판단에는 차이가 있다. 미성년 자녀 공저자가 부당저자로 판단되고 – 이를 판단하는 일은 꽤나 미묘한 문제이지만 – 그 결과 자녀의 대학입학 취소 같은 제재를 받는다면, 이는 분명 법적 다툼으로 옮겨갈 것이다. 이 경우 국민폄하 발언으로 파면되었던 교육부 기획관에 대한 처벌이 과하였다는 법원의 판단에서 볼 수 있듯이 정서에 따른 제재가 법원의 판단과 다를 수 있다. 한편으로 지난 4월 일어난 삼성증권 전산 사고에서 볼 수 있듯이 한국 사회의 윤리 수준이 예전보다 못하다는 생각도 든다. 자본의 입장에 반하거나 기득권의 후퇴를 요구하는 제도화에는 강한 저항이 있기 때문에 실효성 있는 법적 제도화는 꽤나 어려울 것이다. 과학기술 윤리에 대한 수긍할만한 제도화를 위해서는 그를 강력하게 뒷받침할 수 있는 많은 과학기술 외부인들이 참여할 수 있는 여건과 그를 위한 과학기술계의 노력이 절실하다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      대한민국의 경제가 침체되고 있는 이유가 문재인 정부의 정책이 이념 편향적이라는 주장이 제기됐다.  서병수 전 부산시장이 개설한 '리더쉽 4.0 사랑방'이 11일 오후 3시 동아대 부민캠퍼스에서 공식 출범을 겸한 '첫 번째 이바구 한마당'을 개최했다.    ▲ 11일 오후 3시 동아대 부민캠퍼스에서 열린 '리더쉽 4.0 사랑방' 강연 모습. 왼쫀부터 서병수 전 부산시장, 이병태 카이스트 교수. ⓒ리더십 4.0 사랑방    이날 행사에 앞서 서병수 전 시장은 "이번에 국회에서 선거법, 공수처법을 빨리 통과시키기 위한 패스트트랙이라는 제도에 올렸다"며 "중요한 것은 이 법을 만들어서 정말 한국이 안정되고 미래 번영을 위해서 바람직한 법인지 논해야 한다"고 지적했다.  이어 "청와대의 청원이라고 해서 정당해산 청원으로 갑론을박을 하는 것은 이야기의 본질이 아니다. 본질을 얘기해야 하는데 걱정이다"며 "외교, 경제 문제는 절대 우리가 양보해서는 안 된다. 우리 국가와 젊은이들의 미래가 달린 일이다"고 현 정국의 상황을 설명했다.  이어진 강연에서는 'J노믹스의 자살적 실험과 위기의 한국경제'라는 주제로 카이스트 이병태(경영학) 교수가 글로벌 경제가 성장하는 가운데 한국 경제의 침체 이유가 문재인 정부의 이념 편향적인 정책을 실시하고 있다며 강한 비판을 쏟아냈다.   이병태 교수는 "아버지가 일당 10만원을 벌어서 자식에게 용돈 2만원을 주는 것과 하루 100만원을 벌어서 15만원을 주는 것이 비율로만 놓고 본다면 낮아지지만 이것이 자식이 돈을 못 쓰는 사회인가"라며 상대적 격차가 절대 빈곤인 것처럼 선동하고 있다고 비난했다.   또한 "국가가 삶의 모든 단계를 책임진다고 하는데 이것은 공산주의에서 한 얘기다. 기회는 균등하고, 절차는 공정하고, 결과는 정의로워야 한다고 하는데 이것은 질 낮은 사회주의다"며 "시장경제는 자유가 있을 때 번영한다. 지금 우리나라는 자유도가 2017년부터 내려가고 있다. 이 정부가 하고 싶은 것 다 한다면 40위 밖으로 나갈 것이다"고 현 정부의 경제 정책이 기본적인 개념에 대한 이해도 없이 만들어진 것이다고 꼬집었다.   한편 '리더쉽 4.0 사랑방'은 연결·소통과 융합의 플랫폼이자 시장경제와 자유민주주의 사회 실천을 가치로 부산시민 누구나 참여가 가능하며 다양한 정보를 공유하고 자유롭게 토론하는 장으로 운영되고 있다.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      고흥군에서 어린이들에게 우주과학에 대한 꿈과 도전을 키워 줄 특별한 과학행사가 열린다.   고흥군은 오는 25일 '10월에 만나는 특별한 과학행사'로 ▲과학 놀이터와 ▲과학자 특강을 준비했다고 19일 밝혔다.     ⓒ고흥군    이날 고흥문화회관에서 오전 10시 30분부터 풍선 로켓 발사, 주사기 공포탄을 만들며 과학 원리를 체험할 수 있는 과학놀이터가 열리고, 2시부터 우주과학관에서는 과학자 특강이 열려 카이스트 인공위성연구소 박홍영 박사, 서정기 박사가 인공위성과 천문과학 분야에 대한 이야기를 들려주고 과학관 체험도 함께 한다.  고흥군 관계자는 "애초 시험발사체 발사 성공을 기원하는 기념행사를 준비했으나, 발사가 연기되어 발사 성공기원 이벤트는 취소되었으나, 과학 행사만큼은 지역 내 과학문화를 확산하고 어린이, 청소년들에게 의미 있는 시간을 마련해주고자 특별히 추진하게 되었다."며 참여를 부탁했다.   </t>
   </si>
   <si>
     <t xml:space="preserve">      정의당이 김기식 금융감독원장의 외유 논란과 관련해 재차 비판을 내놨다. 야당이지만 진보 성향이란 점에서 대개 문재인 정부 정책 방향에 동조해 온 정의당마저 김 원장 사퇴를 요구하고 나설지 주목된다.   추혜선 정의당 수석대변인은 11일 오후 국회 기자회견에서 "김기식 원장의 해명과 청와대의 입장 발표에도 불구하고, 드러난 문제점들에 대한 불신을 해소하기에는 여전히 불충분하다"며 "오히려 추가로 의혹들이 드러나고 있는 상황"이라고 지적했다.   정의당은 "이대로 논란이 지속된다면 제대로 된 개혁을 기대하기도 어렵다"며 "금감원 앞에 놓인 산적한 과제들이 개인적 논란에 발목이 잡혀선 안 될 것"이라고 지적했다. 정의당은 "금감원장은 뛰어난 공정성과 도덕성이 요구되는 자리"라며 "전임 금감원장이 채용 비리에 연루되어 스스로 물러났던 점도 이 때문"이라고 꼬집기도 했다.   추 대변인은 이어 "정의당은 이제 김 원장의 거취 문제가 유보할 수 없는 임계점에 닿았다고 판단한다"며 "내일 아침 당 상무위(타 정당의 최고위에 해당)에서 당의 입장을 정할 예정"이라고 밝혔다.   20대 국회 내 야당 가운데 문재인 정부와 가장 성향이 비슷하다고 평가되는 정의당은 그간 특히 인사 문제에서 일종의 '캐스팅 보터' 역할을 해왔다. '정의당마저 반대하면 낙마한다'는 뜻에서 일본 만화 &lt;데스노트&gt;에 비겨 '정의당 데스노트(살생부)'라는 말까지 회자됐다. 안경환 법무, 조대엽 노동, 박성진 중소벤처부 장관 후보자와 박기영 과학기술혁신본부장 내정자의 경우가 그 사례였다.   정의당은 이날 추 대변인을 통해 김 금감원장을 감싸는 청와대의 태도에 대해서도 비판을 내놨다. 추 대변인은 "청와대가 김 원장에 '해임 불가' 입장을 재차 밝히며 '피감기관 예산으로 해외 출장을 간 것이 국민 눈높이에 부합하지 않는다는 지적을 받아들이면서도, 적법하기 때문에 업무 수행에는 문제가 없다'고 했다"며 "청와대 입장에 유감을 표명하지 않을 수 없다. 인사 원칙이 '적법'이라는 것은 문재인 정부가 국민 눈높이에 벗어났다는 공개적인 선언과 다를 바 없기 때문"이라고 날을 세웠다.   다만 정의당은 "김 원장과 동행했던 보좌진을 문제삼으며 '여비서' 논란을 부추기는 보수 야당의 행태도 지적하지 않을 수 없다"며 "국회 여성 보좌진과 인턴 모두를 무시하는 정치적 공세에 유감을 표한다. 의혹과 관련해 해당 사안만 적확히 지적해도 충분하다"고 일침을 가했다.   김 원장의 외유 논란과 관련, 현재 정의당을 제외한 모든 원내 정당은 김 원장의 사퇴를 요구하고 있다. 보수·중도진영에 속하는 자유한국당과 바른미래당은 물론, 범진보진영으로 뷴류되는 민주평화당도 조배숙 대표가 직접 두 차례나 나서 김 원장의 해임을 촉구했다. 12일 정의당 상무위의 결정에 따라 국회 내에서 여당이 진보·보수 양쪽에서 포위되는 상황이 나올 수도 있다.   고립 위기를 맞고 있는 더불어민주당은 김 원장에 대한 공세에 맞서 역공을 펼치고 있다. 제윤경 민주당 원내대변인은 이날 오후 브리핑에서 "'김기식 흠집내기'에 가장 앞장서고 있는 김성태 한국당 원내대표 역시 과거 2015년 두 차례에 걸쳐 한국공항공사를 통한 '나홀로 출장'과 '보좌진 대동 출장'이 있다는 점을 지적한다"고 밝혔다.   제 대변인은 "김 원내대표의 두 번의 출장은 출장 국가만 같은 것이 아니라 국제민간항공기구 방문과 스미소니언 방문으로 출장 주요 일정이 완벽히 동일하다. 김 금감원장에 대한 비난 기준으로 보자면 김성태 원내대표야말로 피감기관을 통한 해외 출장이었고 '갑질'의 최정점에 있다는 비판을 피할 길이 없다"고 비판했다.   민주당에서는 김 원장과 함께 원내 의견그룹 '더좋은미래' 활동을 했던 남인순·유은혜·이재정·진선미·홍익표 의원이 이날 오전 나서 "더미래연구소는 김 원장의 개인 연구소가 아니라 '더좋은미래' 소속 의원 21명이 '가치와 비전, 대안을 중심으로 정치를 변화시키겠다'는 취지에서 연구기금을 1000만 원 이상씩 갹출해 독립 싱크탱크로 만들고 운영하고 있는 공동의 자산이자 성과"라며 "악의적 흠집내기를 즉각 중단하라"고 주장하기도 했다.   서울시장 후보 경선에 나선 박영선·우상호 의원도 나섰다. 우 의원은 안철수 바른미래당 서울시장 예비후보가 김 원장 사퇴를 촉구한 것과 관련해 "안 후보는 카이스트 교수로 재직하던 2009~2010년 국민 세금인 카이스트 비용으로 부인 김미경 교수와 개인적 외유성 출장을 4차례 다녀온 것으로 의심된다"며 "한국당 의원 중 17~19대 국회에서 김 원장과 비슷한 방법으로 해외 출장을 다녀온 상당수 의원을 알고 있다. 한국당은 자기 당 소속 의원부터 고발해야 할 것"이라고 역공했다. 박 의원도 "김 원장이 잘했다고 생각하지는 않지만, 재벌개혁이라는 기치를 들다 보면 기대치가 높아지기 때문에 본인 도덕성과 관련해 더 높은 수준을 요구하는 국민 눈높이에 부응해야 하는 어려움이 있다"고 말했다.   </t>
   </si>
   <si>
-    <t xml:space="preserve">       전북대학교 졸업생이 미국 루이지애나 주립대(Louisiana State University) 조교수로 임용돼 화제.  화제의 주인공은 전북대 경영학과를 졸업한 최대웅 박사(34·사진).     사진제공=전북대    전북 완주군 출신인 최 박사는 지난 2009년 전북대를 졸업한 뒤 미국 알라배마 주립대(University of Alabama)에서 석사학위를 받았고, 지난해 동 대학원에서 재무학 박사학위와 응용통계학 석사학위를 받았다.  최 박사는 이후 재무학 분야에서 세계 최고 수준의 학회인 유럽금융학회(European Finance Association, Mannheim, Germany)에 논문을 발표하고, 국내 카이스트와 미국 알라배마 주립대 등에서 세미나를 하는 등 재무학 연구 분야에서 인정을 받았다.  이러한 연구 성과를 인정받아 국내외 유수 학회에서 우수 논문상을 받은 최박사는 알라배마 주립대에서도 2013년부터 올해까지 재무학 전공 필수인 기업 재무(Business Finance), 금융시장론 (Financial Markets and Institutions), 재무 관리 (Intermediate Financial Management)등의 학부 과목을 강의하다 지난 8월부터 경영대학 조교수에 정식 임용됐다.  최대웅 교수는 “2010년 미국에서 재무학 박사에 도전하면서 7년 동안 실패와 어려움도 많았지만 국내외 교수님들, 그리고 가족들의 도움으로 여러 난관을 잘 이겨낼 수 있었다”며 “포기하지 않고 열심히 노력한다면 꼭 꿈을 이룰 수 있다는 희망을 모교 후배들에게 전하고 싶다”고 밝혔다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      문재인 대통령이 신임 과학기술보좌관으로 박수경 한국과학기술원(KAIST) 교수를 임명했다. 차관급 청와대 인사 가운데 최연소다. 문 대통령은 4일 박 신임 보좌관을 임명했다고 강민석 청와대 대변인이 춘추관 브리핑을 통해 밝혔다. 박 보좌관은 한국기계연구원 선임연구원과 국가과학기술자문회의 위원을 거쳐 한국과학기술원 기계공학과 교수로 재직 중이다. 1973년생으로, 현재 청와대 수석‧보좌관회의 참석자 가운데 가장 젊다. 강 대변인은 "여성 최초 한국과학기술원 기계공학과 교수인 박 보좌관은 생체시스템의 역학적 특성을 연구하는 생체역학 분야에서 왕성한 연구 활동을 이어왔을 뿐만 아니라 국가과학기술자문회의 위원을 역임하는 등 정책 참여 경험도 겸비한 것으로 평가를 받고 있다"며 임명 배경을 밝혔다. 이어 "현장과 긴밀히 호흡하면서 과학기술·ICT 혁신을 가속화하는 데 기여할 것으로 기대한다"고 밝혔다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      난민[難民] : 인종, 종교 또는 정치적, 사상적 차이로 인한 박해를 피해 외국이나 다른 지방으로 탈출하는 사람들  삶의 터전을 잃은 시리아 난민들은 "우린 인간이다"를 외치며 프랑스, 독일, 캐나다로 인간답게 살기 위해 건너갔다. 프랑스 정부가 불도저로 칼레 난민촌을 밀어버려도, 같은 인간이지만 우리나라에서 살 인간은 아니라는 듯 마케도니아가 국경을 닫아도 그들의 이동은 계속됐다. 시리아 난민 사태가 일어난 지 몇 달이 지났을 때도 내전은 격화됐다. 터키 국경으로만 3만 명이 몰렸다. 60만 명의 난민이 추가로 발생할 거란 예측도 있다.  정치적·사상적 차이로 인한 박해를 피하기 위해 탈출한 사람을 '난민'으로 일컫는다. 난민의 가장 큰 문제점은 어떤 제도도 그들을 지켜줄 수 없다는 사실이다. 국적은 있으나 본국을 피해 다른 곳으로 이주했고, 이주국에 살고 있으나 국적은 여전히 본국에 있다. 쉽게 말해 음영지대에 사는 사람들이다.  난민을 음영지대에 사는, 사회 제도의 빛을 보지 못하는 사람으로 규정한다면 내가 발을 딛고 있는 한국도 난민 발생 국가다. 그리고 그 난민이 청년이라면, 미래세대의 기둥이 될 청년이 난민이라면, 그 나라는 곧 무너질 것이다. 오늘날 한국 사회에서 무너지고 있는 나라의 기둥, 그 난민들의 이름은 청년 노동 난민, 청년 주거 난민이다.    ▲ &lt;미스핏츠&gt; '청춘의 집' 프로젝트 '당신에게 집은 어떤 의미입니까'에 사용된 이미지. ⓒ미스핏츠   9.5%. 지난달 통계청이 발표한 청년(15~29세) 실업률이다. 몇 번의 실패 끝에 구직을 포기한 사람들과 취업을 준비하고 있는 사람들이 통계에 잡히지 않고 1주일에 1시간만 일해도 취업자로 분류되는 걸 고려하면 실질적인 청년 실업률은 훨씬 높을 것이다. 대학교 이상의 학력을 가진 청년들의 실업률은 무려 25.3%라는 조사도 있다. 고등학교 학생의 약 70%가량이 대학을 진학하는 현실을 감안하면, 최소 5분의 1가량의 청년이 대학을 나왔음에도 아무 일도 하지 않는 실업자인 신세다.   일부는 요즘 젊은 사람들이 고생하기 싫어서, 눈이 높아서 취업을 못 한다고 이야기한다. 눈을 낮추면 취업될 가능성이 커지긴 한다. 하지만 그 현실은 어떠한가. 2015년 중소기업 직원 평균 월급이 대기업의 60%가량이었다. 이 정도 임금 격차는 조사 이후 처음이라고 한다. 독일과 일본은 임금 격차가 각각 74%, 82% 내외로 우리나라보다 덜하다. 청년들이 중소기업을 회피하는 이유는 일이 힘들어서가 아니라, 삶이 힘들어서다. 눈을 낮추라고 할 게 아니라 중소기업의 위치를 올려야 하는 게 급선무다. 우리나라 굴지의 보수 일간지가 사설로 "청년들에게 어떻게 중소기업 취업을 권할 수 있는가"를 이야기하는 판국이다.  20.3%. 지난해 첫 직장을 잡은 청년들의 5분의 1가량이 1년 이하 계약직으로 일을 시작했다. 기업은 정규직 일자리를 비용문제를 들먹이며 줄이고 있고 정부 역시 정규직이 과보호 받고 있다면서 정규직 기득권 해체를 주장한다. 정부와 기업이 전폭적으로 실시한 임금피크제 역시 취업에 도움이 안 된다는 소식이 들린다. 정규직의 기득권이 없어지면 마치 청년의 일자리가 생길 것처럼 말했지만 청년의 일자리는 더욱 악화되고 있다. 국회예산정책처 역시 임금피크제와 청년 일자리의 연결고리가 약하다고 평가했다. 효과가 제한적이기 때문에 청년고용 의무제도를 적극적으로 시행하는 것이 필요하다고 주장했다. 임금피크제를 도입한 기업 절반가량이 신규채용을 하지 않는다고 밝혔다. 아버지 월급이 줄고, 자식 일자리가 생기는 게 아니라 아버지 월급은 줄고 자식 일자리는 여전히 없다. 생긴 일자리도 1년 이하 계약직이 20%다.  78%. 부모가 비정규직일 때 자녀도 비정규직인 경우가 78%에 달했다. 정규직과 비정규직이 노동자 사이의 신분으로 굳어졌는데, 이 신분이 자식에게까지 이어진다. 비정규직인 부모는 충분한 자본을 쌓지 못하고, 자본이 부족해서 자녀에게 교육자본, 사회자본을 투자하지 못한다. 투자받지 못한 자녀는 노동 시장에서 약자일 수밖에 없으며 비정규직이 늘어나는 상황에서 비정규직이 될 확률이 더욱 높아진다. 수저 계급론은 일부 가지지 못한, 약해빠진 청년들의 투정이 아니라 통계적으로 증명된 엄중한 현실이다.  프레카리아트(Precariat) : 불안정한(precarious)과 프롤레타리아트(proletariat)의 합성어  청년들은 불안정한 노동으로 몰렸다. 청년들이 약해서 헬조선을 말하는 게 아니고, 아무 근거 없이 탈조선을 소리치는 것도 아니다. 정치권에서 청년 담론이 몇 년 전부터 유행했지만 청년들의 상황은 갈수록 악화됐다. 불안정 노동, 불안정한 비정규직들을 뜻하는 '프레카리아트'는 유럽의 단어였다. 금융위기 이후 이탈리아, 스페인, 포르투갈 등 유럽 국가들이 취한 노동시장 개혁의 핵심은 노동시장 유연화였다. 기업이 노동자들에게 들이는 비용을 줄이면 그만큼 채용을 늘릴 것이라는 장밋빛 전망에 의한 계획이었다. 결과는 어땠을까. 유로존 청년들 중 절반가량이 비정규직이다. 스페인 같은 경우, 청년 10명 중 7명이 비정규직이다. 장밋빛 전망은 전망으로만 끝났다. 2011년 유로 크라이시스의 해결책으로 꼽히던 노동시장 유연화를 동아시아의 한 국가가 도입했다. 노조 조직률이 10% 내외인 상황에서, 비정규직 627만 명 중 절반가량이 1년 미만 근속하는 세상에 노동시장을 유연화하겠다고 한다.  불안정한 비정규직으로 남을 수밖에 없는 청년들을 아무도 보호하지 않는다. 정부는 노동시장 유연화를 소리치고, 국회 역시 노동시장 관련 4대 입법에 관해 뚜렷한 해답을 내놓지 못했다. 제도의 보호를 받지 못하는 청년 노동자들은 난민의 위치에 준한다. 제도의 부재로 인한 박해를 청년층은 피할 수 없다. 불안정한 노동자로 남지 않고, 탈출하고 싶은 노동자로 변하고 있다. 상황은 점점 악화될 것이다. 프레카리아트가 아닌 노동 난민으로의 변화다.  청년들이 일자리의 꿈과 동시에 버린 또 한 가지의 꿈이 있다. 바로 '집'이다. '집에서 오손도손 사는 행복한 가정'을 꿈꾸는 청년은 그리 많지 않다. 실버푸어, 에듀푸어 등 온갖 푸어(poor)들이 넘쳐나지만, 그 시작은 하우스푸어였다. 2016년 하우스푸어의 주인공은 '큰 집을 사기 위해 빚을 내 투자했다가 빚을 못 갚는' 중산층이 아니라, '하루 살고 하루 자기도 버거운' 청년층이다.     ▲ &lt;청년, 난민 되다&gt;(미스피츠 지음, 코난북스 펴냄). ⓒ코난북스   2013년 민달팽이 유니온이 발표한 보고서에 따르면, 전국 청년의 14.7%가 주거빈곤 상태에 놓여 있었다. 주택법에 규정된 최저주거 기준(1인당 14제곱미터)에 미달하는 주택, 지하방, 고시원 등에서 거주하는 청년이 전국에 140만 명 정도 있다. 필자가 &lt;청년, 난민 되다&gt;(미스피츠 지음, 코난북스 펴냄)를 쓰면서 만나게 된 청년들 대부분이 이런 상태에 놓여 있었다. 수치로 가늠할 수 없는 주거의 현실은 꽤 암담했다. 벽간 소음이 너무 심해 잠을 잘 수 없던 사람, 소음 때문에 스트레스를 받아 치료를 받은 사람, 너무나 비싼 월세를 충당하기 위해 위험한 아르바이트를 했던 사람 등 주거 난민의 현실은 통계치로 표현할 수 없는 무언가였다.  단순히 안 좋은 집에 사는 게 청년주거 빈곤의 핵심은 아니다. 문제는 월세가 너무나 비싸다는 점이다. 2013년 기준 고시원의 평당 월세는 15만 2000원이었다. 타워팰리스의 평당 월세는 14만 8000원이었다. 고시원에서 매일 소음과 싸우며 잠을 이루는 친구들이 강남의 중심인 타워팰리스보다 높은 평당 월세를 내는 현실이다. 실제로 2012년 기준으로 소득의 30% 이상을 주거비로 쓰는 청년 1인 가구가 전체의 70%에 달했다. 절반 이상을 내는 경우도 23%가량이었다. 월급의 절반을 주거비로 내는, 월세로 내는 상황에서 청년들이 보다 나은 내일을 꿈꿀 수 있을까. 청년들은 으리으리한 궁궐 같은, 아방궁 같은 집을 꿈꾸지 않는다. 아프면 삼각김밥 대신에 죽을 끓일 수 있고, 햇볕을 쬐면서 하루를 시작할 수 있는 집을 꿈꾼다.  청년주거 빈곤은 청년 빈곤의 시작이다. 부모에게 주거비 지원을 받지 못하는 학생은 월세를 내기 위해 아르바이트를 한다. 한 달 내내 최저 시급으로 아르바이트해서 번 돈의 30%가량을 주거비에 쓴다. 많게는 절반가량을 쓴다. 아르바이트하다 보면 생활이 망가진다. 일을 끝내고 오면 축 늘어지고, 공부할 시간에 잠을 자고 쉬게 된다. 자기 계발은커녕 하루하루 재충전하기도 벅차다. 이 상태에서 좋은 일자리를 갖기는 힘들다. 결국 부모에게 주거비를 지원받을 수 있는 청년, 즉 수저가 있는 사람들만 그럴듯한 자기 계발과 취업을 도전할 수 있다. 정말 심플한 알고리즘이다. 너무 극단적으로 묘사한 것이 아니냐고 물을 수 있지만 필자가 만난 인터뷰이 모두가 공통적으로 짚은 문제점이다. 주거 빈곤에 이은 취업 실패, 취업을 하더라도 불안정한 취업이 되는 이 상황. 노동 난민과 주거 난민이 공존하는 이 나라가 난민 국가가 아닐 수 있을까.  주거 난민과 노동 난민 등 난민 발생의 근본적인 문제는 사회 시스템을 붕괴시킨다는 점이다. 독일과 프랑스가 난민 유입으로 인해 갈등을 겪고 여러 문제가 발생하는 것처럼 한국도 여러 문제를 직면하고 있다.  가장 큰 문제는 국민연금이다. 노동 불안과 주거 불안에 시달리는 청년들은 자연스레 출산을 포기한다. 아이 울음소리가 들리지 않는 나라에서 국민연금이 제대로 작동될 리가 없다. 노후 대비가 취약한 한국의 노년층을 고려하면 국민연금의 붕괴는 노년 세대 전체의 붕괴다. 이를 막으려면 노동과 주거 두 개의 문제를 해결해야 한다. 카이스트 김우창 교수는 해결책으로 국민연금을 제시했다. 국민연금으로 어떻게 국민연금의 불안을 줄일 수 있을까. 바로 청년에게 투자하는 방식이다. 505조 원가량 되는 국민연금의 1%가량이라도 인구에 투자하면, 국민연금의 금융투자수익률을 웃돌 가능성이 있다는 것이 김 교수의 주장이다. 쉽게 말해, 국민연금을 청년에 투자해 저출산 문제를 해결하면 자연스러운 선순환이 된다는 뜻이다. 김우창 교수가 이 아이디어를 냈을 때가 2014년이다. 그 후 2년이 지난 지금 국민의당과 더불어민주당 역시 국민연금을 주택에 투자하자는 아이디어를 내놓았다. 새누리당 김무성 대표는 구체적인 대책을 언급하진 않았지만 미래에 대한 불안을 줄이기 위해 청년의 주택문제와 일자리문제를 해결해야 한다는 것에 동의했다.  인간은 노동과 주거로 삶을 건축한다. 노동으로 돈을 모아 자신의 가족을 꾸리고, 생계를 이어가고 미래를 꿈꾼다. 주거는 가족과 생계 그리고 미래를 꿈꿀 수 있는 가장 기초적인 공간이다. 한국의 청년들은 노동 난민, 주거 난민으로 몰리고 있다. 제도의 보호를 받지 못하고, 오히려 제도 바깥으로 밀려 나가고 있다. 청년난민들에게 그럴듯한 공간을 주자. 성실하게 노력하면 일자리를 얻을 수 있고, 번듯한 일자리가 아니어도 안정적으로 일할 수 있고, 그 돈으로 집에서 가족과 함께 생활할 수 있게 하자. 더 이상 한국의 청년들이 헬조선의 청년 난민이 아니라 대한민국의 건강한 미래세대로 남을 수 있게….   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      한림대학교(총장 김중수)가 영국의 대학평가기관 QS(Quacquarelli Symonds)에서 실시한 ‘2021 QS 세계대학평가(QS World University Rankings 2021)’에서 국내 18위에 이름을 올렸다. 이번 평가에서 한국 대학은 한림대를 포함해 서울대, KAIST, 고려대, POSTECH, 연세대 등 29개 대학이 순위에 들었다. 한림대는 지난해 최고 성적인 국내 19위에 이어 올해 18위로 한 계단 상승했으며, 강원도 내 대학 중 유일하게 세계 500위권 글로벌 대학으로 자리잡았다.    ▲한림대학교 전경. ⓒ한림대   QS 세계대학평가는 세계 각국의 학계와 산업계에서 선정된 15만명이 평가위원으로 참여해 만들어진 학계의 평판 평가(40%), 졸업생 평판도(10%), 교육 여건(20%), 논문 피인용 수(20%), 국제화 정도(10%)를 평가지표로 사용하고 있으며, 세계적으로 가장 권위 있는 대학 평가로 인정받고 있다. 한림대는 김중수 총장 재임기간 동안『한림 Vision &amp; Action 2016~2022, 한림 Vision &amp; Action 2018~』의 3대 핵심전략인 글로벌화, 융합화, 지역화 정책으로 학생중심교육 실현을 위해 지속적 노력을 기울여 왔다. 2019년부터 글로벌융합대학과 글로벌협력대학원을 중심으로 KOICA 석사학위연수사업과 글로벌협력사업을 추진해 대학의 글로벌화를 선도하고 있다. 특히, 한림대는 올해 교육부의 첨단학과 신설 및 학생 정원 증원을 승인받아 2021년부터 입학정원 60명 규모의 인공지능융합학부를 신설하고, Health &amp; Life Care 분야에서 AI를 기반으로 강원도의 4차산업혁명 교육을 선도하는 대학으로 도약을 준비하고 있다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      강원랜드는 7일 컨벤션호텔에서 제147차 이사회를 열고 ‘카지노 게임기구 제조업 및 판매업’을 할 수 있도록 정관을 변경하는 등 6개 안건을 심의 의결했다.  이날 이사회는 2016회계연도 재무제표, 연결재무제표와 영업보고서 승인안과 이사 및 감사위원 선임계획안, 정관 일부 변경안, 제19기 정기주주총회 소집안, 정선군 도시재생 지원센터 지원안, 2017년도 강원FC 후원금 증액과 광고선전비 추가경정안 등을 심의 의결했다.  제1호 안건은 2016회계년도 재무제표, 연결재무제표 및 영업보고서 승인안으로 매출액 1조6965억 원, 당기순이익 4545억 원 등의 연결재무제표 승인과 함께 배당성향 44.16%의 현금배당(주당 990원)을 실시키로 했다.    ⓒ강원랜드     제2호 이사 및 감사위원 선임계획안은 비상임 이사후보로 신주호(정선 부군수)씨를, 사외이사 후보로 최돈용(보령메디앙스(주) 경영기획실장), 한인구(KAIST 경영대학 교수)씨를 주주총회에 추천해 선임키로 의결했다.  또한 감사위원 후보로 김상일(전 영월군 부군수), 최돈용(보령메디앙스(주) 경영기획실장), 한인구(KAIST 경영대학 교수)씨를 추천했다.  제3호 정관 일부 변경안은 슬롯머신기기 제조 사업을 하기 위해 정관 제2조에 ‘카지노 게임기구 제조업 및 판매업’을 추가했다.  또 ‘Craft-Beer(수제맥주)’제조 사업을 도입하기 위해 정관 제2조 제12호 ‘주류판매업’을‘주류 제조업 및 판매업’으로 변경하는 것으로 의결했다.  이어 제4호 제19기 정기주주총회 소집안은 오는 30일 11시 강원랜드호텔 대연회장에서 개최하기로 원안 의결했다.  또 제5호인 정선군 도시재생 지원안과 관련해서는 기부금 6억 3000만 원을 정선군 도시재생 지원센터 수탁기관인 ‘재단법인 3.3기념 사업회’에 전달하는 것과 지원 인력 1명을 파견하기로 원안 의결했다.  마지막 안건인 2017년도 강원FC 후원금 증액 및 광고선전비 추가경정안은 강원랜드가 강원도 대표기업으로서 강원도민의 화합과 사기 진작에 기여하고자 강원도민프로축구단 후원금 예산 20억 원을 40억 원(20억 증액)으로 변경하기로 원안 의결했다.   이에 따라 강원랜드는 폐광지역 학교 체육교실을 비롯해 멘토링, 소외계층 경기 초청 등을 강화해 앞으로 강원FC를 통해 기업의 사회적책임을 다할 예정이다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      제주국제자유도시개발센터(이사장 문대림, JDC)의 ‘2020 JDC AI×글로벌 아카데미’ 첫 강좌가 개최된다. 오는 27일 오후 2시부터 KCTV 제주방송 차세대 디스플레이 스튜디오에서 열리는 첫 강좌에는 AI 전문가인 이경상 카이스트 교수가 ‘빅데이터‧클라우드 시장 전망과 기회’라는 주제로 강연 한다.    ▲제주국제자유도시개발센터는 27일 ‘2020 JDC AI×글로벌 아카데미’ 첫 강좌를 개최한다.ⓒ제주국제자유도시개발센터   이번 강연에 초청된 이경상 교수는 IBM LASC AI 연구원, 세상을 바꾸는 테크놀로지 포럼 설립, 한국생산성본부 모바일 생산성 추진단장으로 활동해 왔다. JDC는 올해부터 'JDC AI×글로벌 아카데미'로 명칭을 바꾸고 테마를 4차 산업혁명으로 변화하는 세계적인 추세에 따라 AI 집중 강좌를 신설할 예정이다. 27일 첫 강좌를 시작으로 오는 12월까지 AI 주제 8강좌 및 인문‧교양 5강좌를 제주시에서 진행하고 부동산 가치 분석 등 8강좌를 서귀포시에서 진행해 총 21강좌가 개최될 예정이다. 관심 있는 도민이면 누구나 참가 가능하며 아카데미 참가 신청 등 관련 문의는 KCTV 제주방송으로 연락하면 된다. 김경훈 JDC 사회가치추진실장은 “제주도민이 4차 산업혁명으로 급변하는 미래사회에 대비하고 준비할 수 있도록 제주대표 강좌로 발전시켜 나가는데 최선을 다할 것” 이라고 밝혔다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      바둑을 흔히 '수담(手談)'이라고 한다. 손으로 하는 대화라는 뜻이다. 바둑판에는 361(19*19)개의 점이 있다. 여기에 돌을 놓는 경우의 수는 천문학적이다. 워낙 다양한 가능성이 있는 탓에, 사람의 개성이 잘 드러난다. 성격이 급한지 느긋한지, 대범한지 소심한지, 바둑 몇 번 둬보면 알 수 있다. 마치 속 깊은 대화를 나눈 것처럼 말이다.  알파고는 계산기가 아니다 이처럼 인간적인 게임에서 기계가 인간을 이겼다. 9일 오후 1시에 시작된 '구글 딥마인드 챌린지 매치' 5번기 제1국에서 인공지능 소프트웨어 알파고가 이세돌 9단을 꺾었다. 알파고가 단지 수 계산에만 능해서 거둔 승리였다면, 그리 놀랍지 않다. 하지만 이날 대국 해설자는 "양쪽의 이름을 가리고 본다면, 누가 이세돌인지 알 수 없을 것"이라고 말했다. 알파고가 마치 사람처럼 바둑을 뒀다는 게다. 사람처럼 실수도 했다. 리듬도 탔다. 기세가 잔뜩 오르기도 했고, 숨을 고르기도 했다. 이날 대국 관련 정보가 없는 사람이 봤다면, 재기 발랄한 신예 기사(棋士)가 나타났다고 평했으리라.   이날 대국에서 인상적인 장면은 이세돌의 7번째 수였다. 바둑 논리로 설명할 수 없는, '변칙수'였다. 이세돌은 이렇게 생각했던 모양이다. '알파고는 논리에 따라 움직이므로, 이성으로 이해할 수 없는 수를 두면 판이 흔들린다.'  하지만 틀렸다. 알파고는 이런 변칙 앞에서도 당황하지 않았다. 해설자들이 알파고를 '괄목상대'한 것도 그때부터다. 알파고는 단순한 계산기가 아니다. 그 이상이다. 해설자들이 이날 대국을 중계하며 사용한 표현이 재미있다. "알파고가 치명적인 실수를 했다.", "알파고가 당황했다.", "알파고가 '멘붕'에 빠졌다.", "알파고가 정신 차렸다."    ▲ 이세돌 9단. ⓒ연합뉴스   욕망하는 인간, 컴퓨터가 넘을 수 없는 경계 실수하고 당황하며, '멘붕'에 빠졌다가 정신을 차리는 컴퓨터. 이쯤 되면 '신인류'의 탄생에 가깝다. 물론, 과장된 표현이다.   컴퓨터가 아무리 '인간적인' 바둑을 둬도, 넘을 수 없는 경계가 있다. 컴퓨터에겐 욕망이 없다. 바둑을 못 두던 녀석이 어느 날 나를 뛰어넘는 실력을 보이면, 사람은 질투를 느낀다. 수학 문제는 나보다 훨씬 잘 푸는 녀석이 유독 바둑은 나를 못 이기면, 쾌감을 느낀다. 전체 승률이 망가지더라도, 저 녀석만은 꺾고 싶다는 생각이 들 때가 있다. 모두 욕망을 가진 인간이기에 겪는 일이다.   컴퓨터와 인간 사이의 경계는 아직 분명하다. 컴퓨터에게 욕망을 심어서 이익을 얻는 경우를 상상하기 어려우므로, 이런 경계는 앞으로도 유지될 게다. 지식 서열로 위계 정하는 사회, 컴퓨터가 도쿄대학 합격하면? 대중의 관심은, 욕망을 모르는 신인류가 언제까지 우리에게 봉사할지에 쏠려 있다. 우리는 지식과 지능의 서열로 사회적 위계를 정하는데 익숙하다. 각종 시험에서 좋은 점수를 받은 사람이 높은 자리에 오르는 걸 공정하다고 본다.   그런데 머리 쓰는 일에서 컴퓨터가 사람을 앞질렀다. 그것도 단순 계산 또는 정보 저장이 아닌, '손으로 하는 대화'에서다. 사실, 시험도 이젠 컴퓨터가 더 잘 친다. 일본에선 인공지능 소프트웨어가 매년 대학입시 모의고사를 친다. 사람과 똑같은 조건으로, 즉 인터넷 접속을 차단하고 시험을 봐도 도쿄대학교 합격권 점수를 받는다. 인공지능 소프트웨어에게 인터넷 접속을 허용하고 시험을 치게 한 적도 있다. 당시 일본 누리꾼들의 반응이 재미있었다. '그건 불공정하다.' 어차피 상대는 컴퓨터일 뿐인데, '공정성'을 따져서 어쩌겠다는 건가.   아마도 불안 심리 때문이었을 게다. '컴퓨터가 내 일자리를 빼앗는 건 아닐까.' '나를 가르치고 지휘하며 통제하는 자리에 컴퓨터가 들어서는 건 아닐까.'   알파고가 이세돌을 꺾은 9일 오후 내내, 숱한 직장인들이 이런 불안감을 토로했다. 시험 잘 쳐서 좋은 직장에 들어갔고, 머리 잘 써서 진급했다. 그런데 컴퓨터가 머리 쓰는 일로 인간을 이긴다면, 좋은 직장과 윗자리는 컴퓨터에게 양보해야 하는 것 아닌가. 그러면 당장 자식 학원비가 밀린다. 이를 어쩌나.  '범용 인공지능'은 멀었다 김진형 카이스트 명예교수가 최근 한 세미나에서 한 이야기가 흥미롭다. 인공지능 분야의 원로 학자인 그는 "알파고는 바둑만 둘 줄 알지만, 이세돌은 퀴즈도 푼다"고 말했다.   '범용 인공지능'은 아직 나오지 않았다는 뜻이다. 지금껏 나온 인공지능 소프트웨어는 특정 목적을 위해서만 쓰인다. 하지만 우리가 하는 일 가운데 상당 부분은 '범용 지능'에 의지한다. 바둑 두고, 퀴즈 푸는 능력을 두루 활용한다. 종합적인 판단 능력이 필요한 일, 윗사람의 업무는 더욱 그렇다. 알파고가 이세돌을 이겼다. 하지만 대국 시간 등 세부 규칙은 미묘하게 알파고에게 유리했다. 규칙을 누구에게 유리하게 정할지, 그에 따른 책임은 어떻게 질지 등은 앞으로도 오랫동안 인간의 몫이다. 판단하고 결정하며 책임지는 일자리는 안전할 게다.  기계와 공생하는 시대 변수는 또 있다. 에릭 브린욜프슨 미국 매사추세츠공과대학교(MIT) 슬론경영대학원 교수, 같은 대학에서 가르치는 앤드루 맥아피 교수 등은 인공지능과 일자리의 관계에 대해 오랫동안 연구했다. 이들에 따르면, 로봇과 인공지능이 일자리를 줄이는 게 사실이다. 이는 구조적인 문제라서 전통적인 거시경제학 처방으로는 해결할 수 없다. 그러나 기계가 사람의 역할을 온전히 대체하는 건 아니다. 그들은 체스 게임을 예로 든다. 바둑보다 앞서 인공지능 소프트웨어가 정복한 영역이다. 인공지능 소프트웨어가 세계 체스 챔피언을 꺾은 게 지난 1997년이다. 이후 체스 산업이 확 시들었다. 이세돌이 알파고에게 최종 패배한다면, 바둑 산업도 같은 운명을 맞게 되리라는 예상이 나온다.   그런데 여기서 작은 반전이 있었다. 에릭 브린욜프슨 교수와 앤드루 맥아피 교수가 진짜 주목하는 건 이 대목이다. 분명히 사람은 이제 체스 시합에서 컴퓨터를 이기지 못한다. 하지만 사람과 컴퓨터가 협력하면, 달라진다. 최고 수준 소프트웨어를 꺾는 사례가 나온다. 체스 인기가 전보다 덜한 건 사실이다. 그러나 새로운 방식으로 체스를 즐기는 이들이 생겨났다. 사람과 컴퓨터가 팀을 이뤄서 시합을 치르는 것이다.   이는 다른 일자리에도 적용될 수 있다. 인공지능이 사람의 일을 완전히 대체할 수는 없다. 사람과 기계는 앞으로 긴밀한 공생 관계를 유지하게 될 게다. 지금까지는 인맥과 수완이 좋은, 즉 다른 사람과의 협력을 잘 이끌어내는 이들이 주로 성공했다. 앞으로는 새로운 조건이 붙는다. 기계와 잘 협력하는 이들이 살아남는다. 그래도 일자리는 줄어든다 요컨대 앞으로도 계속 일자리를 유지하고 싶다면, 다음 조건 가운데 하나는 갖춰야 한다. 첫 번째는 '종합적인 판단 능력'이 필수적인 일을 하는 것이다. 아직 '범용 인공지능'은 나오지 않았기 때문이다. 두 번째는 기계와 공생하는 법을 터득하는 것이다. 이제껏 기계가 도입되지 않았던 분야에서 기계를 활용한다면, 살아남을 가능성이 크다. 제3의 대안도 있다. 궂은 일을 하는 것이다. 지금 등장한 인공지능 기술은 관련 데이터가 충분히 쌓여 있어야만 힘을 발휘한다. 따라서 문서로 남기기 힘든 지식(암묵지)에 의지하는 일은 앞으로도 오랫동안 사람의 몫이 된다. 간병인, 배관공 등이 그렇다. '모라벡의 역설'이 적용되는 경우다. 사람에게 쉬운 일이 로봇에겐 어렵고, 사람에게 어려운 건 로봇에게 쉽다는 뜻이다. 예컨대 자연스런 걷기 동작을 구현하는 건 로봇공학자에게 대단히 어려운 과제다.  그래도 문제는 남는다. 크게 두 가지다. 어찌 됐건 '좋은 일자리'의 절대치는 줄어든다. 그게 첫 번째다. '종합적인 판단 능력'이 필요한 일은 주로 윗사람의 몫이다. 피라미드 조직의 아랫부분에 있는 다수는 어쩔 건가. 또 모든 노동자가 기계와 공생하는 법을 터득하기는 어렵다. 먼저 적응한 소수는 살아남겠지만 나머지 다수는 불안하다. '궂은 일'을 하는 경우 역시 마찬가지다. 기계로 대체할 수 없다고 해서 꼭 '좋은 일자리'인 것은 아니다. 오히려 기존의 '좋은 일자리'가 줄어들면서, 억지로 '궂은 일'에 내몰린 이들이 늘어날 수 있다. 그렇게 되면, '궂은 일' 하는 여건은 지금보다 더 나빠질 수 있다.숙련으로 향하는 사다리가 치워졌다 두 번째는 세대 문제다. 앞서 '종합적인 판단 능력'을 갖춘 사람은 살아남으리라고 했다. 그러나 처음부터 이런 능력을 갖춘 사람은 없다. 예컨대 제조 업체 사장은 대개 현장 엔지니어 출신이다. 신입사원 시절에는 단순하고 반복적인 일을 했다. 그러다 차츰 업무 범위를 넓혀가서 결국 사장이 됐다. 그 과정에서 긴 시간이 걸리고, 숱한 시행착오를 거친다. 그렇게 탄생한 사장의 업무는 기계가 대신할 수 없다.  그런데 인공지능의 발달과 자동화의 진행은, 과거 신입사원이 하던 업무를 빼앗아간다. 이는 지엽적인 일부터 시작해서 차츰 업무 범위를 넓혀갈 기회가 사라진다는 뜻이다. 이미 '종합적인 판단 능력'을 갖춘 사람에겐 계속 기회가 열리지만, 그 단계에 도달하지 못한 젊은 세대에겐 사다리가 사라진다는 뜻이 된다.   인공지능 발달로 줄어들 일자리 가운데 하나로 회계사가 꼽힌다. 회계사가 아예 사라진다는 걸까. 그건 아니다. 숙련된 회계사가 기계의 도움을 받아 지금보다 더 많은 일을 한다는 뜻이다. 그렇다면, 전체 회계사 일자리는 줄어든다. 문제는 지금 숙련된 회계사 역시 과거에는 실수를 연발하는 초보자였다는 점이다. 그런데 초보 일자리가 줄어들면, 젊은 회계사는 영원히 미숙련 상태로 남아야 한다.   이런 논리는 모든 업종에 적용된다. 로봇 기자가 기사를 쓴다. 그래도 사람 편집자 혹은 기자가 기사를 검토하고 손질해야 한다. 그 일자리는 숙련도 높은 선배의 몫이다. 선배 기자는 이미 다양한 시행 착오를 경험했다. 반면 젊은 기자가 업무 경험 속에서 숙련도를 높일 기회는 확 줄어든다. 이는 세대 갈등의 한 원인이 될 수 있다.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      우리나라의 해외조달시장은 연간 9조 5000억 여 원에 달하는 거대시장으로 최근 진출하려는 중소기업들이 증가하고 있으나 제대로 된 전문 인력이 없어 입찰제안서 작성 등에 어려움을 겪고 있다.  또한 이와 관련된 교육도 국내에 많지 않아 전문인력 양성의 필요성이 대두돼왔다.  이러한 문제점을 해결하기 위해 조달청(청장 정무경)이 전국 대학생들을 대상으로 ‘해외조달시장 전문인력 양성 기초과정’을 신설하고 교육생을 모집한다.  해외조달시장에 관심을 높이고 기초역량을 강화하기 위해 개설되는 이번 교육은 KAIST 글로벌 공공조달연구센터와 협업해 강사진과 과목을 구성했다.  특히 무역실무에 대한 기초 역량 강화 뿐 아니라 미국, 유엔 등 주요 해외조달시장 소개와 벤더등록 교육, 제안서 작성에 대한 실습까지 수행함으로써 해외조달시장에 대한 전반적인 이해를 넓힐 수 있을 것으로 기대된다.  교육은 오는 7월15일부터 18일까지 3박4일간의 일정으로 경북 김천 조달교육원에서 운영되며 이달 14일까지 지원 신청을 받는다.  이상윤 조달청 기획조정관은 “단기교육의 특성상 전문 인력을 양성하는데 한계는 있겠지만 해외조달시장에 대한 기본지식을 향상시키고 장기적으로 글로벌시장에 대한 안목을 높인다는 점에서 대학생들의 많은 참여를 기대한다”며 “앞으로도 중소기업의 해외조달시장 수출에 대한 전문성을 향상시키고 실질적인 낙찰로 이어질 수 있도록 지원을 아끼지 않겠다”고 밝혔다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      미디어아트분야 최고 권위의 행사인 ‘2019 국제전자예술심포지엄’(ISEA2019)이 오는 6월22일부터 28일까지 광주 국립아시아문화전당에서 열린다.   ‘2019 국제전자예술심포지엄’은 1988년부터 이어져 온 전통과 권위가 있는 세계적인 미디어아트 축제로 지난 30년 간 17개국에서 개최돼 매년 1000명 이상의 예술가, 전문가들이 참여하는 행사다.     ▲세계적인 미디어아트 축제인 2019국제전자예술심포지엄이 국립아시아문화전당에서 열린다. 사진은 광주문화재단 미디어338에서 열렸던 미디어아트 전시 장면 ⓒ프레시안(정인서 기자)    광주광역시는 이탈리아 피렌체와 치열한 경쟁 끝에 2016년 유치하는데 성공해 약 2년 반 동안의 준비기간을 거쳐 이번 심포지엄을 열게 됐다고 밝혔다.  광주시와 국립아시아문화전당, 카이스트 문화기술대학원이 주최하고, 아트센터나비미술관과 아시아문화원이 주관하는 이번 행사는 개최도시 광주의 풀이말인 빛고을에서 영감을 얻은 영원한 빛이라는 의미의 ‘룩스 에테르나(Lux Aeterna)’를 주제로 학술 프로그램, 아트 프로그램, 지역 연계 프로그램으로 구성된다.   학술 프로그램은 공모와 초청분야로 나뉘며 각 주제별 연구 과정이나 결과를 발표와 토론으로 만나볼 수 있다.  기조연설은 원광연 국가과학기술연구회 이사장과 유럽 입자물리 연구소의 마이클 도저, 인공 생명을 주제로 활발한 활동을 해오고 있는 미디어 아티스트 크리스타 좀머러, 테이트 모던의 이숙경 수석 큐레이터가 맡는다.  이 밖에도 특별세션으로 ▲‘백남준과 한국의 미디어아트’를 주제로 한 세션 ▲도시를 주제로 한 세션 ▲한국영상학회와 연계한 세션 등도 진행된다.  아트 프로그램으로는 전시와 퍼포먼스, 스크리닝, 아티스트 토크 프로그램이 진행될 예정으로, 약 100여 점의 세계 각국의 작품들이 소개된다.  특히 특별전시로 일부 초청작과 심사작을 함께 구성한 아트센터 나비의 특별전이 오는 7월28일까지 복합 5관에서 열리고, 2019국제전자예술심포지엄의 특별주제인 ‘푸드 앤 테크(Food&amp;Tech;)’와 연계해 액트 페스티벌(ACT Festival)도 동시 개최된다.  또 개·폐막식 하이라이트로 이이남 작가와 로보링크, 월드뮤직그룹 공명, 아트센터 나비가 함께하는 드론 개막 퍼포먼스와 전통문화관에서 정자영 작가의 폐막 퍼포먼스가 있을 예정이다.  지역 연계프로그램으로는 광주 도심 곳곳을 탐색하며 얻은 결과물을 전시와 퍼포먼스를 통해 보여주는 참여형 워크숍이 광주문화재단 미디어 338 무대에서 진행되고, 이와 함께 조선대 미술대학 학생들과 지역 작가가 함께 제작한 작품도 함께 소개된다.  2019 국제전자예술심포지엄 공모에는 59개국 총 1200여 건이 접수되는 등 국내외 미디어 아티스트, 과학자, 교육자 등 관련 분야의 전문가들이 대거 참여해 행사의 성공적 개최에 대한 기대감을 높이고 있다.   시 관계자는 “2019 국제전자예술심포지엄을 통해 지역의 전통, 문화예술과 문화 산업, 첨단 기술을 결합하고 이를 통해 새로운 문화예술 콘텐츠를 개발하길 바란다. 세계 각국의 관련 기관과의 연결망을 형성하고, 국내외 미디어 아트 동향을 접해 볼 수 있는 교류의 장이 될 것이다”고 말했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ▲한성현 경남대학교 교수. ⓒ경남대학교       ‘2020 혁신 리더 대상’은 대한민국의 미래를 이끌어갈 정치, 경제, 사회, 문화 등 다양한 분야에서 우수한 공적을 남기고 국가와 사회발전에 기여하며 대한민국의 우수성을 널리 알린 주인공들에게 주어지는 상이다.  경남대학교는 5일 한성현 기계공학부 교수가 2020 혁신 리더 교육계 부문 대상을 수상했다고 밝혔다.  교육계 부문 대상을 수상한 한성현 교수는 그동안 4차 산업혁명 핵심기술의 가치 제고와 맞춤형 인재양성에 매진하면서 대학의 역할 증대와 위상 제고에 크게 기여해왔다.  또한 지역의 첨단 로봇산업 발전과 경남마산로봇랜드의 성공적 조성에 헌신해왔는데, 이번에 그 공로를 인정받았다.  한 교수는 그동안 한국산업융합학회 회장, 한국산업응용학회 회장, ICROS 부회장, 국가지정 로봇지능기술연구센터장(KAIST 분소장), 경남로봇산업교류회 회장, 경남마산로봇랜드 자문위원장 등을 역임하며 로봇 및 융합산업기술 분야 발전을 위해 왕성한 활동을 해왔다.  이와 함께 지난 1992년 기계공학부 교수로 임용된 이래 학생들의 교육과 연구에 매진하면서 BK21사업 센터장, NURI 사업단장, 기계공학부 학부장, 공학기술연구원장, 공과대학장, 산업대학원장 등을 역임하며 대학의 성장과 발전에도 크게 기여했다.  한편 한성현 교수는 수상 소감을 통해 “이 상은 앞으로 학생들의 교육과 연구에 더욱 정진하라는 뜻이라 생각하며, 계속해서 지역의 첨단산업 발전과 맞춤형 인재 양성을 위해 매진하겠다”고 말했다.       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">             ▲태아 뇌 발달 과정 중 신경 줄기 세포에 BRAF V600E 돌연변이가 발생하여 뇌전증 동반 소아 뇌종양을 유발하는 기전 ⓒ한국연구재단     KAIST 의과학대학원 이정호 교수 연구팀이 난치성 뇌전증(간질 발작)을 일으키는 소아 뇌종양의 근본 원인과 뇌전증 발생의 원리를 규명해 새로운 치료법을 제시했다.  이번 연구 결과를 통해 수술 치료에 어려움이 있는 소아 뇌종양 기반의 난치성 뇌전증 치료에 큰 기여를 할 수 있을 것으로 기대된다.  연구팀은 소아 뇌종양 환지 뇌 조직 및 동물 모델의 분자 유전학적 분석을 통해 태아의 뇌 발달과정 중 신경 줄기 세포에 ‘비라프 (BRAF V600E)’라는 돌연변이가 발생하면서 난치성 뇌전증이 동반된 소아 뇌종양이 발생하는 것을 규명했다.  연구팀은 뇌전증이 동반된 소아 뇌종양 중 하나인 신경절 교세포종 환자의 종양 조직을 분자 유전학적으로 분석한 결과 비라프 유전변이가 태아 뇌 발달 과정 중 발생함을 확인했다.  이 변이를 동물 모델에서 구현해 신경절 교세포종의 병리 양상을 재현하고 발작을 관찰해 소아 뇌종양 기반의 뇌전증 치료용 동물 모델을 최초로 확립했다.  이를 이용해 면역 염색 분석과 전사체 분석을 실시했다. 소아 뇌종양에서 발생하는 난치성 뇌전증이 신경세포에 존재하는 비라프 변이로 인해 발생하고, 교세포에 존재하는 변이는 종양 덩어리를 형성하는데 중요한 역할을 하는 것을 확인했다.  특히 현재 임상에서 항암제로 사용되고 있는 비라프의 저해제를 동물 모델에 주입해 난치성 뇌전증 치료 효과를 확인했다.        ▲ 고현용 연구원 ⓒ한국연구재단   고현용 연구원은 “소아 뇌종양 환자의 경 줄기 세포에서 발생한 특정 돌연변이가 난치성 뇌전증 발생에 핵심적 역할을 한다는 것을 국내 연구진이 최초로 발견해냈다는 것에 큰 의미가 있다”며 “소아 뇌종양으로 인해 발생한 난치성 뇌전증의 근본 원인을 규명해 과적 치료의 가능성을 처음으로 보여준 것이다”고 말했다.  연구팀은 KAIST 교원창업기업을 통해 소아 뇌종양 기반의 난치성 뇌전증 치료약 개발에 나설 예정이다.  이번 연구 결과는 국제 학술지 ‘네이처 메디슨(Nature Medicine)’ 9월 17일자 온라인 판에 게재됐다. (논문명: 비라프 체성 돌연변이가 소아뇌종양의 본질적 뇌전증 발생에 기여함; BRAF somatic mutation contributes to intrinsic epileptogenicity in pediatric brain tumors)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲지난 6일 충북도청에서 ‘오송 R&amp;BD; 융합형 연구병원’ 협약식이 진행됐다.(왼쪽부터) 김창균 한국화학연구원장 직무대행, 신성철 한국과학기술원 총장, 이시종 충북도지사, 한헌석 충북대학교병원장, 김장성 한국생명공학연구원장 ⓒ충북대병원       충북 청주시 오송첨단복합단지에 사업화 연계기술을 개발하는 ‘오송 R&amp;BD; 융합형 연구병원’ 설립이 본격화 됐다.  7일 충북대학교병원에 따르면 ‘오송 R&amp;BD; 융합형 연구병원’의 건립을 추진하기 위해 지난 6일 충북도청에서 충북도와 카이스트, 한국생명공학연구원, 한국화학연구원과 공동 MOU를 체결했다.  이날 이시종 도지사와 한헌석 충북대학교병원장을 비롯해 신성철 카이스트 총장, 김장성 한국생명공학연구원장, 김창균 한국화학연구원장 직무대행 등 컨소시엄 기관장들이 참석한 가운데 협약식이 진행됐다.  ‘오송 R&amp;BD; 융합형 연구병원’은 앞으로 정밀의료·재생의학·스마트 재활 등 특성화 진료, 개방형 플랫폼(OPEN Platform), 신약·의료기기 임상시험 허브 완성이라는 기본 개념으로 오송 첨단의료복합단지의 핵심인프라로서 연구성과를 기업에 전파하는 앵커 역할을 수행할 전망이다.  연구병원은 충북대병원이 운영사업자로 선정돼 건립 진행 중인 오송임상시험센터와 연계해 건립될 계획이다.  이번 협약을 통해 충북도는 ‘오송 R&amp;BD; 융합형 연구병원’의 기획 및 설립·운영을 위한 협조·지원을 약속했으며 컨소시엄 참여기관들은 연구병원 관련 전 분야에서 기획 및 설립·운영에 협력하기로 했다.  한헌석 충북대병원장은 “세계적으로 특성화 된 진료와 연계하는 연구개발이 가능하도록 충북도와 컨소시엄 참여기관이 ‘오송 R&amp;BD; 융합형 연구병원’을 추진하게 된 것에 큰 의미가 있다”고 말했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ⓒ전주대학교      전북 전주대 LINC+사업단과 (사)벤처기업협회 전북지회가 공동 주관하는 전북중소벤처리더스포럼 아카데미 최고경영자과정 제1기 수료식이 전주대 리사이틀홀에서 열렸다.  중소벤처리더스 최고경영자과정은 ‘벤처가 살아나 경제가 산다.’라는 벤처협회 슬로건의 의미를 담아 전북지역 중소벤처기업의 활성화를 위하여 전주대 LINC+사업단과 (사)벤처기업협회 전북지회가 공동 발족하고 운영하는 전북중소벤처리더스포럼 중점사업의 일환으로 추진됐다.   지난 9월 입학한 45명의 기관 및 중소벤처기업 대표들은 15주 동안 매주 화요일, 4차 산업혁명시대 선도를 위한 역량강화교육 및 명사특강, 창조 경영교육, 디지털마케팅 교육 등 다양한 교육을 이수하였다.  특히 한국SW/ICT 총연합회 조풍연 회장, 한국생산성본부 노규성 회장, 카이스트 이경상 교수, 홍콩 슈팅 갤러리 손정 대표 등 국내 최고 전문가들이 명사로 나서며 급격하게 변화하는 시장의 트렌드를 정확히 집어내고 수강생들의 전문성을 향상시켰다.  수강생들은 6주간 한국생산성본부에서 설계된 디지털마케팅 전문과정도 이수하며 4차 산업혁명을 선도하는 기본 소양을 갖추게 됐다.  전북중소벤처리더스포럼은 지난 10월 25일에는 세계한인무역협회(OKTA) 유럽지회장 일행 30명을 전주대로 초청하여 전북벤처기업협회 회원사와의 무역 상담을 중개하기도 하여 향후 유럽 진출을 위한 교두보를 마련하는 등 지역의 중소 벤처기업 활성화에 크게 기여하고 있다.  아울러 이날 수료식에서는 제1기 수료생 중심으로 구성된 원우회(회장 최혁종)가 4차 산업혁명 시대를 선도할 미래 인재 육성과 전주대 발전을 위한 발전기금 300만원을 전달했다.  최혁종 원우회장은 “전주대의 지역 중소 벤처기업 발전을 위한 노력에 감사하며 4차 산업혁명 시대를 선도할 우수한 인재양성에 힘써 달라"고 전했다.  전주대 이호인 총장은 “벤처기업이 지역경제를 이끌어가는 중심점에서 기업의 리더들이 다함께 다가오는 미래를 준비해야 한다”며 “중소 벤처분야와 지역산업이 함께 발전하고 성장할 수 있도록 대학에서도 최선의 노력을 다하겠다”고 약속했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">              기업과 대학, 로봇유관기관이 참여하는 대전 로봇융합 페스티벌이 3일부터 5일까지 대전컨벤션센터에서 열린다.  이번 행사는 KAIST 충남대학교 대한로봇스포츠협회 국제청소년로봇연맹 한국로봇교육연합회 ㈜새온 ㈜라스테크 등 7개 기관이 참여하고 있다. 7개 전국대회는 33개 분야 59개 부문으로 나뉘어 총 1671팀, 2637여명의 선수가 참가해 로봇경진대회와 전시 및 체험행사 등을 진행한다.  전국대회로는 ▲ 지능형 SoC 로봇워대회 ▲ 제2회 국제로봇올림피아드 중남부대회 ▲ 지능형 창작로봇 경진대회 ▲ 이동로봇 소프트웨어 코딩 경진대회 ▲ 2018 국제청소년 로봇대회 ▲ 페밀리아 로봇창작 경진대회 ▲ 인공지능 서비스로봇 콘텐츠 개발대회가 있다.  더불어 (사)한국로봇교육연합회 방과 후 선생님을 대상으로 지역 중소기업의 우수 로봇기업제품 설명회를 통해 로봇기업 비즈니스도 지원한다.  부대행사로는 도전 발명 골든벨과 일일 발명 교실 개최와 둔산대공원에서 야간에 로봇영화를 상영할 예정이다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      광양시가 신남방정책의 전략적 요충지로써 대한민국을 대표하는 수출 중심도시로 급 부상하게 될 것 으로 보여 관심이 집중되고 있다.   ▲김영록 전라남도지사는 27일 “광양을 대한민국을 대표하는 수출 중심도시로 키워 나가겠다”고 밝혔다.ⓒ광양시   김영록 전남도지사는 27일 광양시를 방문해 시민과의 대화에서 “동서화합의 상징지역인 광양은 철강산업 고도화, 소재산업 육성, 항만인프라 확충을 통해 경쟁력을 확보하고 있다”며 "광양을 대한민국을 대표하는 수출 중심도시로 키워 나가겠다"고 밝혔다또, “세풍산단 기능성 화학소재 클러스터 기반 구축, 금속가공 열처리산업 생태계 기반 구축, 광양항 해양산업클러스터, 수산물 유통물류센터 조성 등 광양시의 현안사업 추진을 적극 돕겠다”고 밝혔다  이와함께 “2020년 개관 예정인 도립미술관을 차질 없이 진행하고, 광양 다압과 경남 하동을 연결하는 남도2대교 건설도 추진되도록 교량 건설 실시설계비 국고 지원을 건의하겠다”고 말했다. 광양시가 우수시책들로 추진하고 있는 청년 주택구입 자금 대출이자 지원, 전국 최초 공립 어린이 보육재단 설립, 창의예술고등학교 착공 등 에 대해서도 "저출산 극복 및 인구 유입 측면에서 의미 있는 일”이라고 높게 평가했다. 광양시가 건의한 중마동 우봉카이스트빌 인근 주차장 조성과 옥곡 위험 소하천 정비사업 지원에 대해서는 적극 협력하겠다고 약속했다. 주민 건의사안인 광양보건대 정상화 방안과 관련해서는 “광양시나 지역사회에서 누구나 공감할 수 있는 방안과 프로그램을 제안하면 교육부총리 건의 등 적극 협력하겠다”고 답했고, 동부권 통합청사 광양 건립에 대해서는 “동부권의 합의가 이뤄지지 않으면 합리적 결정 과정을 거쳐서 결정하겠다”고 말했다.찬반 논란이 일고 있는 황금산단 목질계 화력발전소 건설을 두고서는 “허가권자인 광양만권경제자유구역청장과 협의하고 의견을 구하겠다”고 답했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      경북도는 8일 산업통상자원부 주관 공모사업인 ‘반도체인프라구축지원사업’에 선정돼 국비 24억원을 비롯한 총 사업비 29억원을 확보했다고 밝혔다.  경북도는 ‘반도체인프라구축지원사업’ 포스텍(나노융합기술원)을 주관기관으로 5개 대학(성균관대, 명지대, 산기대, UNIST, KAIST)과 컨소시엄을 구성해 공모사업에 선정 됐다.  본 사업은 대학 내 반도체 공정 실습교육 환경이 구축된 연구소와 센터 등에 노후화 된 장비를 교체하고 업그레이드를 지원하는 사업이다.  사업에서 차세대 반도체산업 육성과 관련해 기 구축된 인프라 업그레이드를 통해 장비 노후화 및 사용 불가능한 부품을 보수 교체, 장비 도입에 따른 교육 프로그램 개설. 운용해 반도체 분야에서 급증하는 전문인력 수요대응, 산업체 재직자 교육을 통해 기업 수요기반 실무교육으로 반도체업체 기술개발 역량 제고를 지원한다.  이번 사업 선정으로 반도체 분야 기업지원, 기술개발 및 교육에 중요한 기반 역할을 하고, 단순히 노후장비 교체 수준이 아닌 첨단인프라(시설, 장비, 인력)를 인재양성에 제공할 수 있는 계기가 될 것으로 기대하고 있다.  이장준 경북도 과학기술정책과장은 “경북도는 이번 사업을 통해 양성된 인력이 반도체 분야 소재‧ 부품‧ 장비산업의 경쟁력을 높이고 산업 전반에 실무능력을 갖춘 전문인력이 지속적으로 공급될 수 있도록 지원 하겠다”고 밝혔다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      바야흐로 창업의 시대다. 중앙과 지방 정부 모두 가릴 것 없이 청년들에게 창업을 권장하는 데 막대한 예산을 쏟아 붓고 있다. 사회 연결망 서비스(SNS)에서는 성공한 20대 최고 경영자(CEO)의 인터뷰가 돌아다니고, 일부 언론에서는 아예 지면의 한 페이지를 '창업' 관련 기사로 도배한다. 대학에서도 창업 관련 과목이 대거 신설했다. 심지어 '이공계 연구 중심 대학'의 본보기를 제시한다는 카이스트조차 창업 맞춤형 학, 석사 통합 과정을 개설하여 논문을 쓰지 않고 창업만으로도 졸업할 수 있는 교육 과정을 개설했다.  왜 창업이 대세가 되었나?  표면적인 원인은 높은 청년 실업률이다. 지난 4월 기준 청년 실업률은 10.9%로 매달 사상 최고를 경신하고 있으며, 체감 실업률은 34%에까지 이른다는 통계도 있다. 숫자를 떠나 20대의 태반이 백수라는 '이태백', 인문계의 90%는 논다는 '인구론' 등의 말이 회자될 정도로 지금의 청년 세대는 사상 최악의 구직난에 시달리고 있다.  졸업 후 생계를 꾸리기 위한 소득 확보가 불안정해지면서 청년층의 일상이 위태로워졌다. 연애, 결혼, 출산 등을 포기한다는 '칠포 세대'라는 말에서 알 수 있듯이 가정을 꾸리기도, 아이를 낳기도 힘들어졌다. 그 결과 사회 전반적으로 저출산-고령화 문제가 심각해져 2019년에는 '인구 절벽' 을 맞이할 것으로 예상된다. 청년층이 변변한 소비력을 갖추지 못하자 경제의 활력도 되살아나지 않고 있다. 빈곤 청년이 늘어나면서 생계형 범죄에서 차지하는 청년층의 비중도 늘어났다. 청년 세대의 구직난이 사회 전반의 불안정으로 확산되는 분위기이다.  이런 상황을 극복하기 위해 선택할 수 있는 방안은 두 가지이다. 공공의 역할을 강화하거나 민간(시장)의 영역을 확대하는 것이다. 박근혜 정부가 선택한 것은 후자였고, 그것이 바로 기획재정부, 중소기업청, 교육부, 고용노동부, 미래창조과학부 등 여러 부처가 수천억 원의 예산으로 대거 참여하는 '청년 창업 지원' 정책으로 표출되었다. 혁신적 사고를 가진 청년들이 창업을 통해 새로운 일자리를 만들어 낼 수 있도록 지원한다는 것이다.  그럴듯한 내용으로 포장하고 있지만, 이것은 사실상 구직의 책임을 '사회적' 주체인 정부에게서 '개인'인 청년에게 전환하는 것이다. 즉, 정부는 더는 일자리를 창출할 수 없으니 당사자인 청년들이 스스로 나서서 직업을 창출해내야 한다는 것이다. 따라서 청년 실업 대책의 초점은 대출 위주의 초기 자금 지원으로 청년들이 하루라도 빨리 출발선을 벗어날 수 있도록 밀어주는 역할에 그친다.  동일한 정책적 기조를 가지고 있던 이명박 정부 역시 마찬가지였다. "청년들이 위험한 도전을 피하는 게 아닌가 싶다"라며 청년 실업을 당사자의 문제로 돌렸다. 박근혜 정부의 "실패를 두려워하지 않는 도전과 혁신을 통해 새로운 일자리를 만들어 내라"는 창업 지원 정책과 일맥상통한다. 지금의 청년들이 단지 실패가 두려워 몸을 사리는 나약함 때문에 일자리를 찾지 못하고 있다는, 결국 지금의 실업난을 개인의 책임을 돌려 공공의 역할을 축소하려는 보수 정권의 정책적 기조의 연장선이다.    ▲ 2014년 12월 18일 청와대에서 제6차 청년위원회 회의를 연 박근혜 대통령. ⓒ청와대    그러나 지금의 청년 실업은 청년 개인의 문제가 아니다. 중소기업과 대기업 간 임금 및 고용 환경의 심각한 격차, 비정규직의 만연 등 노동 시장의 왜곡이 심각하다. 게다가 직장에서 생계를 꾸릴 수 있는 안정적인 소득이 확보되지 않는 한, 사회 안전망이 빈약한 우리나라에서 빈곤층으로 전락할 수밖에 없다. 따라서 어떻게 해서든 고용 안정성과 적당한 수준의 월급, 그리고 안정적인 고용 환경이 제공되는 '좋은 일자리'를 갖기 위해 오랜 취업 준비기간을 거치고 있는 것이다.  이런 근본적인 문제를 외면하는 정책은 단기적으로는 반짝 효과를 낼 수 있을지언정 장기적으로 오히려 해가 될 수 있다. 실제로 정부의 창업 지원 정책은 청년 창업자들을 대거 육성하였지만 동시에 우리 경제의 불안정성을 더 높이고 있다.  창업 지원 정책의 문제  ① 생계형 창업자 양산  지금의 상황에서 청년들은 창업을 '권유'받지 않고 '강요'당한다. 매년 비좁아지고 있는 '좋은 일자리'의 취업문 앞에서 번번이 좌절하느니 다양한 지원 방안이 있는 창업에 도전해보는 것이 막막한 생계에 도움이 될 것 같기에 울며 겨자 먹기 식으로 창업에 나서는 경우가 많아졌기 때문이다.  이러한 이유로 우리나라는 유독 '생계형 창업자'가 '혁신형 창업자'보다 많다. 통계청 발표에 따르면, 2014년 말 기준으로 20대가 대표자로 등록된 사업체 수가 1년 새 24%나 급증하여 연령대 중 가장 높은 증가율을 보였는데, 대부분이 음식점, 카페, 옷가게 등 생계형 창업에 집중되었다고 한다.  급격히 늘어난 만큼 폐업률도 높다. 청년 창업자의 5년 생존율은 16%로 일반 기업의 절반 수준에 불과하다. 특히, 외식업의 경우 94% 정도가 폐업한다는 현실을 고려할 때, 청년 기업의 폐업률이 높은 것도 생계형 창업에 집중되어 있기 때문인 것으로 예측할 수 있다.  특히, 우리나라는 평균 재창업 횟수가 0.8회에 불과해 한번 실패할 경우 다시 일어서기가 어렵다는 사실을 감안하면, 높은 폐업률은 청년 창업 지원 정책이 실업률을 반짝 낮출 수 있을지는 몰라도 장기적으로 청년 실업에 대한 궁극적인 해결책이 될 수 없음을 보여준다.  ② 단기적 성과 중심의 무리한 창업 확대  정부가 노동 시장의 구조적 문제에 대한 고려 없이 지금 이 순간 높은 실업률을 낮추는 데 급급하면서 창업 지원 정책 역시 단기적 성과 위주로 흘러가고 있다. 특히, 대학과 연계한 사업인 창업 선도 대학의 예산이 2016년 기준 752억 원인데, 이 창업 지원 예산을 받기 위한 대학의 '도덕적 해이' 문제가 제기되고 있다. 정부의 지원금만 받고 자체 예산은 투입하지 않는 대학이 약 40%에 이르고 있으며, 창업 지원을 전담하는 인력도 1~2명에 그치거나 전혀 없는 곳도 태반이다. 심지어 창업 실적을 올리기 위해 제대로 된 준비 없이 학생들에게 개인 사업자 등록을 하도록 요구하는 경우도 빈번하다.  이런 문제들은 성과 측정 지표가 제대로 만들어져 있지 않고, 양적 성과 중심으로 창업 선도 대학을 선정하고 있기 때문에 발생한다. 또한, 예산이 투입되는 데도 정부의 제대로 된 감시가 이루어지지 않아 수백억 원에 이르는 예산이 '눈먼 돈'이 되어 대학 배불리기에 사용되고 있다. 예산을 따내려는 대학과 빨리 성과를 내려는 정부 사이에서 정작 당사자인 청년은 제대로 된 준비 없이 창업으로 내몰리고 있다.  ③ 기업 간 빈익빈 부익부 현상의 심화  또한, 정부의 창업 지원 정책에서 눈에 띄는 것은 대기업과의 공동 보조이다. 470억 원 수준의 중소기업청 창업 프로그램인 팁스의 운영사를 현대자동차와 포스코, SK 등의 대기업들로 지정하였고, 실제 팁스를 통한 창업자의 31%가 대기업 출신이다. 이밖에도 KT 등 몇몇 대기업들과 공동 자금을 조성하여 청년 창업 프로그램을 공동으로 운영하는 경우도 많다.  물론, 이를 통해 대기업들의 경영 노하우를 공유하고, 멘토링, 판로 지원 등 다양한 지원을 받을 수 있다는 장점도 있다. 하지만 팁스 운영사 선정 과정에서 벤처 창업계가 우려했다시피, 정부의 상당한 예산이 투입되는 공공사업을 이익 추구 단체인 대기업이 좌지우지하는 것은 신생 기업을 키우겠다는 취지에도 맞지 않을뿐더러 공익성도 보장되지 않는다.  게다가 창업 프로그램의 공동 운영을 통해 대기업은 청년 창업자들이 만들어내는 아이디어를 별도의 위험부담 없이 공유할 수 있는 가능성이 있다. 이와 같은 문제들은 기업 간 관계에서 대기업 위주로 부와 자산이 편중되어 있는 양극화 구조를 심화시킬 가능성이 크다.  청년들을 낭떠러지에서 구할 방법  이처럼 정부의 청년 창업 지원 정책이 여러 문제를 가지고 있는 것은 지금의 청년 실업이 노동 시장, 더 나아가 사회 구조적으로 발생한 복합적 문제임에도 불구하고 지금 당장 이슈가 되고 있는 청년 실업률을 낮추려는 데 급급하기 때문이다. 또한, 동시에 기존 보수 정권의 정책적 기조에 따라 공공의 역할보다는 개인의 책임에 맡겨 문제를 해결하려고 하기 때문이기도 하다. 다시 말해, 이 모든 원인은 실제로 실업 상태에 놓인 청년 당사자의 입장에서 해결책을 바라보지 않기 때문이다.    ⓒ연합뉴스    그렇다면, 실제 청년 당사자들은 창업에 대해 어떻게 생각하고 있을까? 2015년 현대경제원의 '창업에 대한 국민 인식 조사'에 따르면, '창업에 관심 있다'라고 응답하는 20대와 30대는 각각 38.4%, 28.6%로 가장 낮은 비율을 보였다. 특히, 박근혜 정부의 창업 지원 정책이 실시되는 전후를 비교했을 때 창업을 구체적으로 고려해본 적 없다는 비율은 2015년 69.3%로 2년 전에 비해 오히려 1.2%포인트 상승했다. 정부는 청년들에게 창업을 하라고 등을 떠미는데, 정작 청년들은 창업을 필요로하지 않았다.  지금의 이 불안한 사회에서 우리 청년들에게 가장 필요한 것은 한국의 마크 저커버그가 될 수도 있다는 허황된 기대를 심어주는 창업이 아니다. 단지 지금 이 순간 일상을 살아가고 여유를 가질 수 있도록 안정된 소득이 보장되는 괜찮은 일자리이다. 이러한 상황에서 실패하면 신용 불량자가 될 가능성에 대한 대책보다 일단 창업자가 되어 실업 상태에서 벗어날 수 있도록 초기 자금 지원에 급급한 정부의 창업 지원 정책은 고용 절벽에 직면하고 있는 청년들에게 잘 체감되지 않는다. 오히려 벼랑 끝으로 밀어내는 것처럼 느껴진다.  이제부터라도 정부는 일자리가 없어 암울한 청년 세대의 입장에서 청년 실업 정책을 재편해야 한다. 물론, 저성장을 겪고 있는 경제의 구조적 한계 속에서 신규 일자리를 창출하는 게 매우 힘든 일이기에, 새로운 성장 동력을 발굴할 수 있도록 창업을 장려할 필요도 있다. 그러나 지금처럼 단지 청년 실업률을 빠른 시일 안에 낮추기 위한 정책으로 제대로 된 안전망도 구축되어 있지 않은 상태에서 '혁신형 창업'이 활성화 될 가능성은 없다. 따라서 청년 창업 지원 정책의 방향을 대출 위주의 단기 성과주의 정책보다는 실패에 대한 공포가 발목을 잡지 않을 수 있도록 안전망 확충으로 방향을 틀어야 한다.  그리고 무엇보다 중요한 것은 청년 창업 지원 정책에 쏟아 붓고 있는 막대한 예산을 돌려 노동 시장의 구조적 문제를 해결하는 데 사용해야 한다는 것이다. 비정규직의 축소, 최저임금의 현실화, 중소기업과 대기업 간 임금 격차 축소, 노동권 보장을 위해 예산을 투입해야 한다. 이를 통해 나쁜 일자리를 좋은 일자리로 탈바꿈하면 청년들을 노동 시장으로 진입시킬 수 있다. 따지고 보면, 아직 경험이 미숙한 청년들이 새로운 일자리를 만들어내길 기대하기보다는 기존 일자리의 질을 바꾸는 것이 정책적 차원에서 더 쉬울 수도 있다.  청년 실업 문제는 노동 시장의 구조적 모순으로 인해 발생한 문제이기 때문에 보수와 진보를 떠나 사회 전체적인 책임의 차원에서 다루어야 한다. 그러나 지금의 청년 창업 지원 정책은 낭떠러지에 홀로 서 있는 청년들에게 저 멀리 보이는 세상이 훨씬 더 좋다고 어서 날아보라고 강요하고 있다. 창의력을 길러주지 못하는 획일적 교육 속에서 튼튼한 날개를 가진 청년들이 몇 명이나 될지 조차도 알 수 없는 상황에서 말이다.  게다가 덜컥 날아올랐다가 힘이 없어 바닥으로 떨어질 경우, 이들을 치료할 수 있는 대책은 너무 빈약하다. 이런 열악한 상황에서 그래도 혼자의 힘으로 날아보라고 청년들을 떠미는 것이 정부와 사회의 역할인지, 아니면 손을 잡아끌어 안전한 사회적 울타리 안에서 튼튼한 날개를 가질 때까지 보듬어주고 혹시 떨어지더라도 금방 다시 올라올 수 있도록 사다리를 놓아주는 것이 맞는지, 당사자의 입장에서 생각해보면 금방 답이 나오지 않을까.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      장성군이 지난 18일, 중국 중경시 소재 중경우전대학과 교육교류 협약(MOU)을 체결했다고 26일 밝혔다.     ▲중국 중경시 소재 중경우전대학과 교육교류 협약(MOU) 체결 모습 ⓒ장성군    이에 따라 장성군은 매년 관내 4개 고등학교에서 선발된 8명의 우수 학생들에게, 중경우전대학에서 학부 및 석·박사 학위 과정을 이수할 수 있는 기회를 제공할 예정이다. 내년 2월까지 관내 고교 홍보 기간을 가진 뒤 학교별로 2명의 학생을 선발, 3월 중으로 입학 수속을 마치게 된다.  선발된 장성군 학생들은 6개월 간 어학연수 기간을 거친 뒤 학부 과정을 시작하며, 본인 의사에 따라 차후 석·박사 과정까지 진행할 수 있다(학비는 본인 부담). 대학 측에서는 교육기간 동안 국내 교수진을 초빙해 멘토링 서비스를 지원하고 기숙사도 무료로 제공한다.  중경우전대학은 중경시 내 67개 대학 가운데 상위권(3~5위)에 있는 4년제 종합대학이다. 컴퓨터·IT·전자상거래 등 이공계열이 특화된 대학으로, 한국과는 총 5개소의 연구개발센터를 공동으로 설립하는 등 우호적 협력관계를 유지하고 있다.  뿐만 아니라 인하대, 카이스트(KAIST), 고려대, 건국대 등 국내 대학과 활발한 교육 교류를 이어가고 있으며, 삼성, KT, SK하이닉스 등의 국내 기업과도 공동 연구를 진행하고 있다.  유두석 군수는 이번 협약이 “장성군의 글로벌 인재 육성에 또 하나의 기회가 될 것이다. 5년 기한의 협약이지만 자동으로 기간이 연장되는 만큼, 향후 장성군과의 지속적인 교육 교류를 기대한다”고 전했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      기독교인들이 들으면 언짢을 이야기지만, 연애 대상으로 '교회 다니는 남자(여자) 만나지 말라'는 말, 한 번쯤은 다들 들어봤을 것이다. 일요일마다 교회를 가야 하니 만날 시간도 부족하고, 연인에게도 교회 출석을 권유하는데 거절하면 관계가 어색해질까 염려도 되고, 특히나 연애·결혼 등에 대한 가치관 차이가 크다는 등의 이유다.   독실한 기독교인인 송유창(33) 조합원도 이런 이야기를 물론 들어 봤다고 했다. 그가 창업한 IT 스타트업 기업 '큐티네트웍스'가 소셜데이팅 애플리케이션 '크리스천 데이트'를 개발한 이유 가운데 하나도 이런 것이었다. 송 조합원의 개인적 경험과 관심사에서 시작한 일이지만, 이 서비스는 회사의 주력 사업이 됐다. '개발자'인 큐티네트웍스와는 별도로, 크리스천 데이트 관련 오프라인 행사 등을 위해 비영리법인도 만들어졌다. 비영리법인 '크리스천 데이트'는 후원금과 기부금으로 운영된다.   '크리스천 데이트' 서비스는 어떤 면에서 논쟁적이다. 다른 결혼정보회사나 만남 주선 서비스처럼, 돈 낸다고 다 가입이 되지도 않는다. 오히려 회원가입 신청을 하면 회사가 심사를 한다. 진짜 기독교인이 맞는지, 미혼이 맞는지, 신앙 생활을 얼마나 열심히 하는지 등이다. 가입비나 소개비는 받지 않고, 소개받은 이성이 마음에 들 경우 메시지를 보낼 때에만 '커피 한 잔 값'을 받는단다.   왜 기독교인들만을 대상으로 했을까? 기독교인들이 '연애 약자'라는 게 송 조합원의 설명이다. 일각에서 '교회 오빠' 등의 사례를 들어 '기독교인들은 연애 부자 아니냐'고 하는 데 대해 송 조합원은 고개를 젓는다.   "'교회 오빠'는 소수…30대 남성 기독교인, 연애경험은 일반인 절반"  "소위 '교회 오빠'는 소수에게만 해당되는 얘기죠. 외모가 뛰어나거나 하면 당연히 인기가 많겠지만 그건 정말 소수고, 오히려 그런 몇 명에게 많은 이성이 '해바라기' 하는 문화가 있다 보니 더 연애들을 못 해요. 또 얼마 전까지만 해도, 같은 교회 안에서의 만남을 막는 분위기도 있었어요. 대학교 같은 학과 안에서 이른바 '씨씨(CC·캠퍼스 커플)'로 연애하다 깨지면 전체 분위기가 소원해지는 것 같은 그런 일 때문에 '가족 같은 교회 공동체를 위해 이 안에서 연애하는 것은 자제해 달라'는 게 목사님 방침인 교회가 많았어요.  그러다 보니 남녀가 그룹으로는 어울리는데 1대1로 만날 기회가 없어, 나이 서른이 다 돼도 오히려 미숙하죠. 실제로 회원들에게 설문을 해 보니 '듀오' 등 다른 소개 업체와 비교해 봤을 때 같은 결혼 적령기 남성인데도 평균 연애 경험이 훨씬 적더라고요. 30대 초반 남성은 보통 3.5회가 평균인데, 크리스천 데이트 회원들 평균은 1.8회였어요."  기사 첫머리에 소개한 통설도 있고 보면, 그럴 법하다는 생각도 들었다. 송 조합원은 또 "기독교인들은 연애를 하면 결혼까지 직결지어서 생각하는 경우가 많아, 이성을 만나면 결혼해야 한다는 강박 때문에 연애를 하기 어려운 부분도 있다"고 지적하기도 했다. 같은 기독교인들끼리 만날 기회도 의외로 적다는 게 그의 설명이다.   "한국 기독교에는 개별 교회 중심 문화가 강해서, 만약 같은 교회 안에서 짝을 찾지 못하면 다른 교회 다니는 사람을 만날 기회도 사실은 없어요. 그래서 '다른 교회 사람'을 찾아 주는, 믿을 수 있는 통로를 만들면 좋겠다고 생각하게 됐죠."  단 그는 "처음부터 종교성을 띠고 기독교인들만을 위한 프로그램을 하자는 것은 아니었는데, 대학원(카이스트) 창업 프로그램 지원을 받아 모인 팀이 우연히 전원 기독교인이었다"며 "(팀원들이) 더 잘 이해할 수 있는 특정 대상에 집중하기로 결정했다"는 설명도 곁들였다.  "소개팅 100번 하고 170번 해준 경험…이제 나누고파"  그는 지난 3월에는 &lt;연애나이를 알면 결혼이 보인다&gt;(S 펴냄)라는 책도 냈다. 크리스천 데이트 회원들과 상담을 하면서 발굴한 사례 위주로 엮은 책이었다. 이른바 '모태솔로'부터, '썸'은 잘 타지만 연애는 길게 못 하는 사람 등 다양한 경우를 담았다고 그는 소개했다. 연애와 결혼은 왜 그의 화두가 됐을까?  "'3포 세대'라는 말도 있지만, 2030 청년 시기의 중요한 미션(과업) 중 하나가 평생을 함께할 짝을 찾는 연애잖아요. 더 좋은 연애를 하게 돕는 프로그램을 만들어 보자는 취지로 크리스천 데이트도 만든 겁니다. 저도 '연애 유년기'에만 7년이나 머물렀던 경험도 있어서, 제 경험도 녹아들어 있어요. 제가 스스로 20대 때 아무 어려움 없이 연애를 해 왔다면 할 수 없는 얘기겠지만, 연애 때문에 엄청나게 힘들었던 경험을 했습니다. 20대 때 소개팅을 100번 정도 한 것 같아요. (책 발간은) 이제는 결혼한 입장에서 어려움을 겪는 사람들에게 제 경험을 나눠주고 상담해 주고 싶었어요"  100번. 참고로 그가 이 일을 시작하기 전, 친구들에게 개인적으로 주선해 준 소개팅도 180회 전후가 된다고 한다. 그는 "물론 그 때는 그걸 업(業)으로 할 생각은 없었는데 그런 경험이 쌓인 것도 도움이 됐다"고 웃으며 말했다. 책을 내기 전후로 강연도 하고 다니게 된 그에게, 혼자인 '프레시안' 조합원들을 위해 '기독교인이 아닌 사람들에게도 연애 관련 조언 좀 해 달라'고 부탁을 했다.   "무엇보다 연애에 대한 두려움을 버렸으면 좋겠어요. 다들 완벽한 연애를 하려 하는데, 연애는 어려운 게 당연한 거고, 아무리 잘 하고 있어도 만나는 사람과 결혼할 확률보다 헤어질 확률이 높은 것도 당연해요. 오히려 '앞으로 어떻게 될지 모른다'는 두려움과 아쉬움이 쌓여 건강한 연애로 가지 않을까 하고, 집착은 내려놔야 한다고 말해주고 싶어요. 연애를 완벽하게 해서 결혼으로 꼭 가야 한다고 생각하기보다, '공부'한다는 관점, 배움과 성장의 관점으로 연애를 대한다면 좋은 연애를 할 수 있지 않을까요?"    ▲ 송유창 IT회사 '큐티네트웍스' 대표 겸 비영리법인 '크리스천데이트' 대표. '크리스천 데이트'는 큐티네트웍스가 내놓은 스마트폰 애플리케이션이기도 하다.   "'아, 이 기사 잘 썼다'하고 보니 &lt;프레시안&gt; 기사더라"  조합원 가입 이유를 물었다. 그는 "솔직히 &lt;프레시안&gt;을 챙겨 보는 것은 아니"라면서 "&lt;프레시안&gt;이라는 '브랜드'를 처음 알게 된 것이 아니고, 소위 보수나 진보로 대변되는 관점들 속에서 '아, 이 기사는 객관적으로 잘 썼다'고 생각한 기사가 있어서 보다 보면 &lt;프레시안&gt; 기사였다"고 좋았던 '첫인상'에 대해 말했다.   그는 "SNS 같은 것을 보면, 어떤 사회적 이슈에 대해 언론사들이 각자의 관점을 얘기하는데 진보는 너무 진보적이고 보수는 너무 보수적인 (고정된) 관점을 취한다"며 "&lt;프레시안&gt;도 진보를 표방하지만 더 객관적으로 보도하려고 노력하고 있다는 점이 느껴진다"고 평가했다.   조합원으로서 언론협동조합 프레시안에 바라는 점을 묻자 그는 "사회의 많은 사람들 목소리를 대변하는 것이 되지 못하고 있는 시대인데, 사람들의 목소리를 객관적으로 대변하는 언론이 돼 달라"며 "지금까지 잘해온 것처럼 해 달라"고 응원했다. 							 </t>
+    <t xml:space="preserve">          ▲왼쪽부터 정현정 교수 최경아 연구교수 김태수 박사과정 석현정 교수 ⓒKAIST        숙면을 방해하는 푸른 빛이 직장인과 학생들의 고민인 아침 '잠을 깨우고 생체리듬을 유지하는데 효과적인 것으로 밝혀졌다.  KAIST 산업디자인학과 석현정 교수와 최경아 연구교수는 높은 색의 온도를 갖는 청백색(blue-enriched white)의 푸른 빛이 아침잠을 깨우는 데 효과적이라는 것을 입증했다.  이번 연구는 산업디자인학과 소속 교수와 연구원이 참여해 순수과학 분야 저널에 논문을 게재한 디자인학과 자연과학의 융합 연구 표본으로 평가된다.  기존 대부분의 연구에서는 푸른 빛을 저녁이나 늦은 오후에 접하면 멜라토닌 분비가 억제돼 숙면을 방해한다는 사실을 규명하는 것에만 주력했다. 그러나 석 교수 연구팀은 푸른 빛이 저녁에는 숙면에 방해될 수 있지만 오전에 쬐는 청백색의 빛은 인체를 잠에서 깨워 생체리듬을 조절하는 데 긍정적인 영향을 미친다는 사실을 밝혀냈다.  연구팀은 KAIST 학생 15명을 대상으로 호르몬과 타액 변화 등의 생리적 지표와 설문조사를 통한 주관적 지표를 동시에 관찰한 결과 빛의 색 변화에 따라 감성 등을 나타낸 주관적 지표와 멜라토닌 분비에 변화가 일어남을 확인했다.  종전 학습 환경의 조명이 학생들의 학습 활동에 미치는 영향을 밝힌 최경아 연구교수는 이번 연구를 통해 조명의 빛깔이 사람에게 미치는 영향을 하루 주기와 접목해 더욱 심화된 결과를 얻었다.  석현정 교수는 “처음에는 단순히 조명을 다양하게 바꿔가며 구성원들을 편하게 쉬게 해주려는 의도에서 시작해, 호텔이나 레스토랑, 모닥불 등의 조명에서는 편안해지고 흰색 조명에서는 긴장감이 발생하는 이유를 명쾌하게 밝히고자 했다”며 “과학적 근거와 고도화를 통해 신뢰성이 있는 데이터를 수집했고 많은 사람이 혜택을 볼 수 있는 결과를 얻었다”고 말했다.  또 “학문마다 중요시하는 관점이 달라 디자인학자로서 자연과학의 기준을 통과하기가 쉽지 않지만, 꼼꼼히 설계하고 유의미한 데이터를 축적하는 데 노력을 기울여 좋은 결과가 나온 것 같다”며 “인간 중심의 조명이 우리 일상생활에 성공적으로 적용될 기회는 무궁무진하다”고 말했다.  최경아 연구교수는 “이와 같은 조명 시스템의 진화가 실내 건축물뿐 아니라 자동차 내부와 지하주차장 세탁기, 냉장고 등 각종 전자기기에도 적용될 수 있다”면서 “스마트 조명 시스템을 달력, 출장 앱과 연동한다면 자동 학습을 통해 인간의 생체리듬과 권장 수면시간 및 기상 시간에 맞춰 조명의 색과 세기를 조절할 수도 있을 것”으로 전망했다.  또 “빛을 단순히 공간을 밝히는 용도를 넘어 사용자의 경험을 한층 더 풍요롭게 하는 중요한 도구로 인식하는 데서 시작된 연구”라며 “학문 간 경계를 허물고 우리 연구를 읽어주는 독자의 스펙트럼이 확대된다는 데 의의가 있다”고 말했다.  이번 연구는 국제 학술지 ‘사이언티픽 리포트(Scientific Reports)’ 1월23일 자에 ‘Awakening effects of blue-enriched morning light exposure on university students’ physiological and subjective responses‘라는 제목으로 게재됐다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      '뉴라이트' 역사관 논란이 불거진 박성진 중소벤처기업부 장관 후보자의 거취가 불투명해졌다. 박 후보자가 창조과학 신봉자로 드러난 데 이어 이승만, 박정희 독재를 긍정 평가하고 1948년 건국을 주장하는 활동을 한 것으로 밝혀지자 청와대의 분위기도 급변하고 있다.지난해 11월 25일 포항공대 기계공학과에서 열린 '대한민국 건국의 문명사적 의미' 세미나의 연사로 이영훈 전 서울대 경제학부 교수를 초청한 이가 박 후보자라는 사실도 30일 추가로 드러났다. 전공과 전혀 무관한 세미나 주제인 데다, 대표적인 식민지근대화론자인 이영훈 전 교수를 연사로 초청한 것이다.'한국창조과학회' 활동 이력이 드러난 당시 "이사직을 즉각 사퇴한 것으로 알고 있다"며 "공직자로서 개인이 갖고 있는 종교의 자유가 있다"고 옹호했던 청와대 관계자는 새롭게 제기된 역사관 논란에는 "(창조과학 신봉과는) 차원이 다른 문제"라고 했다.문재인 대통령이 직접 8.15 광복절 경축사를 통해 "내년 8.15는 정부 수립 70주년"이라며 뉴라이트 계열의 1948년 건국절 주장을 일축한 지 보름 만에 장관 후보자의 뉴라이트 사관이 밝혀지자 청와대도 적잖이 곤혹스런 눈치다.청와대는 그럼에도 국회 인사청문회까지는 지켜보겠다는 입장이다. 청와대 관계자는 "청문회에서 최종적으로 본인에게 해명, 설명의 기회가 주어져야 한다는 인사 원칙에는 변함이 없다"고 말했다.이 관계자는 다만 "본인이 실제 그런 발언을 정확하게 했고, 그러한 내재적 신념을 갖고 있는지 다른 자료도 찾아보고 여러 단위에서 검증하는 중"이라며 낙마 가능성을 열어놓았다.박 후보자의 한국창조과학회 활동 이력을 '종교의 자유'로 옹호하며 대수롭지 않게 보는 청와대에 대한 반발도 거세지고 있다. 한국창조과학회는 1981년 설립된 기독교 창조과학 확산 단체로, 창조과학은 성서의 창조론을 과학에 근거한 사실로 보고 진화론을 부정하는 신앙운동을 전개해왔다. 박 후보자는 이 같은 논란에 "저는 하나님을 믿는 기독교 신자로 창조론을 믿는 것이 아니라 창조신앙을 믿는 것"이라며 "개인적인 창조과학 연구 활동은 없었으며 과학적인 방법론에 입각한 진화론을 존중한다"고 해명한 바 있다.하지만 과학계에선 '반지성'의 문제를 종교의 문제로 이해하는 청와대가 본질을 왜곡하고 있다는 지적이 잇따른다.장대익 서울대학교 자유전공학부 교수는 27일 페이스북을 통해 "창조과학과 같은 반지성적 세계관을 신봉하고 실천하는 이들이 버젓이 높은 자리로 올라가고 영향력을 행사하는 현실은 지성에 대한 모욕"이라고 반발했다.장 교수는 "그런 과학계 인사가 포진해있는 정부라면, '창조과학자 옹호자를 쓰는 게 뭐가 문제냐'고 해명하는 정부라면, 더 이상 존경할 수 없다"며 "대체 이 정부는 언제부터 MB보다 더 실용주의 노선을 택했나?"라며 비판했다.정재승 카이스트 교수도 26일 페이스북에 "창조과학을 신봉하는 것은 단지 종교적 선택이 아니다"라며 "지금까지 인류가 쌓아 올린 과학적 성취를 부정하는 '반과학적인 태도를 지녔다'는 뜻"이라고 지적한 뒤 "나는 창조과학을 지지하는 과학자들을 매우 위험한 학자들이라 여긴다"라고 썼다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      경북교육청은 19∼20일까지 양일간 웅비관에서 영재교육기관 담당 교원과 전문직원 200여명을 대상으로 연수를 실시한다. 이번 연수는 코로나19 예방을 위해 50여 명씩 총 4개 기수로 나눠 진행되며 포스트 코로나 시대를 대비한 온라인 영재교육 프로그램 개발을 목적으로 한다. KAIST 이성혜 박사를 강사로 초청해 온라인 영재교육 부분에 대한 특강과 하반기 업무전달로 구성했다.    ▲경북교육청, 온라인 영재교육 역량 향상 연수 ⓒ경북도교육청   ‘비대면 수업 설계 전략’을 주제로 100분간 진행된 강의를 통해 원격수업의 구조적인 취약점을 진단하고 수업에 대한 패러다임의 전환기에 준비해야 할 비대면 수업 전략, 비대면 캠프 운영 방안을 소개했다. 또한 152개 영재교육기관을 대상으로 실시한 컨설팅 과정에서 나타난 우수 사례와 보완해야 할 부분에 대한 내용을 공유하고, 2021년 영재교육대상자 선발, GED 영재교육종합데이터베이스 활용방법, 영재 국가통계 작성 안내 등 하반기 영재교육 운영과 관련된 내용을 소개했다. 김종윤 창의인재과장은 “4차 산업혁명 시대의 교육환경 변화에서 창의융합 인재 양성은 반드시 필요한 과제로, 학생활동중심 수업의 영재교육을 위해 지속적으로 노력해 달라”고 했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ⓒ전북연구개발특구본부      연구개발특구진흥재단 전북연구개발특구본부는 5일 아름다운컨벤션에서 '글로벌 기술사업화 및 기술의 해외시장진출 지원' 주제로 '전북특구육성자문단 1차 포럼'을 개최했다.  이번 포럼은 글로벌 사업화와 전북기업이 나아갈 방향에 대해 논의, 전북특구 육성자문단 및 산․학․연․관 등 75개 기관에서 130여명이 참석했다.  기조연설은 전 미래창조과학부 장관 최문기(KAIST 명예교수)가 '글로벌 기술사업화 및 기술의 해외시장진출 지원'이라는 주제로 발표했다.  발표에서 KAIST는 글로벌 기술사업화를 위해 먼저 해외 기술 수요를 조사하고, 수요기술에 대해 국내 기술자원을 발굴해 해외로 기술 이전 및 해외 기업과 공동으로 기술을 개발하는 등 기술사업화를 추진하고 있다고 말했다.  주요사례로 코스타리카 전력통신공사(ICE)에서 국내의 스마트 그리드 기술 이전을 요청, KAIST․ETRI․한전․포스코ICT 등 4개 기관의 협력을 통해 코스타리카에 “스마트 에너지 프로젝트*”를 추진하고 있는 사례를 소개했다.  기조연설에 이어 KAIST 송락경 교수의 KAIST 기업지원 사례 발표가 진행됐다.  KAIST에서는 현지 글로벌 전문네트워크에 의한 글로벌 시장기회를 분석하고, 글로벌 현지에서의 잠재고객 접촉 실습을 통한 시장기회를 직접 검증할 수 있는 '글로벌 역량강화 현지 실전 프로그램' 등을 통해 글로벌 시장에 진출한 기업들의 사례를 소개했다.  기조연설 및 사례발표에 이어 글로벌 기술사업화와 전북기업이 나아갈 방향에 대해 패널토론이 진행됐다.  안계혁 전주대학교 산학협력단 부단장은 "전북지역 기업의 기술혁신 역량은 타지역에 비해 상대적으로 낮은 수준으로 전북기업의 기술사업화를 위해 기업․대학․출연연 등 산학연이 협력할 수 있는 지역기술협력 플랫폼 구축이 시급하다"고 주장했다.  김영준 한국무역협회 전북지역본부 본부장은 "중소기업이 독자적으로 해외시장에 진출하기에는 시간과 비용이 많이 들어 우선 국내의 무역진흥기관이나 시장조사기관 등을 통해 시장조사가 필요하다"며 "무엇보다 글로벌 시장에 대한 성공적인 진출을 위해서는 2~3년 동안의 체계적이고 지속적인 현지 소비자에 대한 접근을 통한 시장수요 창출이 필요하다"고 강조했다.  서준석 전북특구본부 본부장은 “우리나라 기술수출의 대부분은 대기업이 차지하고 있지만, 유망한 공공기술을 이전 받았거나 차별화된 자체 기술을 보유한 전북지역 중소기업들도 개발도상국을 대상으로 기술 수출 가능성이 높은 것으로 판단된다"며 "전북특구본부에서 추진하고 있는 글로벌 진출 지원 사업 등을 통해 전북특구 내 중소기업의 해외시장 진출을 적극 지원하겠다”고 말했다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      강원대학교(총장 김헌영)가 세계 대학 순위 평가 중 하나인 2017 라이덴 랭킹 자연과학·공학 분야에서 국내 대학 중 4위를 차지했다.   강원대는 자연과학·공학 분야에서 이화여대, KAIST, 포항공대에 이어 4번째로 서울대(5위), 고려대(6위), GIST(7위)가 그 뒤를 이었다.     ▲강원대학교 춘천캠퍼스 대학본부. ⓒ강원대     종합순위에서도 국내에서 16위, 거점국립대 중에서는 3위를 차지했다.   라이덴 랭킹은 네덜란드 라이덴 대학이 발표하는 세계대학 랭킹으로 논문의 수와 논문 인용도를 평가 지표로 사용하고 있어 논문의 질이 우수한 대학이 높은 점수를 받게 돼 있다. 대학의 연구력 수준을 가늠할 수 있다는 평가를 받는다.   올해 평가는 1천편 이상의 논문을 발표한 전 세계 902개 대학을 대상으로 했다.   라이덴 랭킹은 종합순위 외에 ▲생물의학·보건학(Biomedical &amp; Health sciences) ▲생명과학·지구과학(LIfe &amp; Earth sciences) ▲수학컴퓨터공학(Mathematics &amp; Computer science) ▲자연과학·공학(Physical sciences &amp; Engineering) ▲사회과학·인문학(Social sciences &amp; Humanities) 등 6개 분야에서 각각 순위를 발표하고 있다.   김헌영 총장은 21일 “최근 우리대학에서 여러 국책 연구과제 수주도 확대되고 있는 것처럼 강원대학교의 연구 경쟁력이 다시한 번 입증된 것”이라면서 “연구환경 개선을 위한 투자 확대와 보다 효율적인 연구 지원 시스템을 구축해 보다 양질의 논문이 배출될 수 있도록 하겠다”고 밝혔다.   한편 이번 평가 종합 순위에서는 미국 록펠러 대학이 1위를, MIT공대, 스탠퍼드대, 하버드대가 그 뒤를 이었다.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      창원대학교가 국가에서 지정하는 기능성 나노구조재료 분야 핵심품목 연구·개발 대학에 선정됐다. 이 국책사업은 과학기술정보통신부가 소재·부품·장비 분야의 기술력 향상과 핵심·원천기술의 국산화를 통한 국가 자립역량 강화를 위해 시행하는 것으로 국책연구소 20곳과 대학연구실 5곳을 선정해 지원하고 육성한다. 이에 따라 창원대 신소재공학부 기능성 나노구조재료 연구실은 지난 2일 과기부 기술특별위원회에서 ‘국가연구실(N-LAB)’로 선정, 의결됐다.     ▲과학기술정보통신부 주관 '국가연구실(N-LAB)'에 선정된 창원대학교 신소재공학과 기능성 나노구조재료 연구실 연구원들. ⓒ창원대   국가연구실은 소재·부품·장비 분야의 핵심품목과 관련해 국가로부터 지속적인 연구 지원과 중장기적 연구를 통해 기술 자립화의 구심점 역할을 수행하게 된다. 이번에 선정된 대학연구실은 창원대를 비롯해 서울대와 카이스트(KAIST), 한양대, 전남대 등 모두 5곳이다. 창원대 신소재공학과 기능성 나노구조재료 연구실은 가스터빈 고온부품을 제조하는 데 적용되는 세라믹 기술에 대한 핵심·원천 기술을 기반으로 기술혁신과 산업화에 주력하고 있다. 세라믹 기술은 열을 차단하고 전달되지 않도록 하는 코팅 기술과 주형·코어 기술이다.  창원대 국가연구실은 이를 바탕으로 신개념의 차세대 소재와 유기·무기 하이브리드 코팅 소재, 고온부품의 신뢰성 평가, 나노기술을 접목한 세라믹 소재 대량생산 등의 연구와 개발을 진행하고 있다. 특히 특허와 논문 등에서 우수한 연구 성과와 소재·부품·장비 분야의 전문 연구인력 배출 등이 높은 평가를 받아 이번 국가연구실 선정에 결정적 역할을 한 것으로 알려졌다. 창원대 국가연구실 책임교수인 신소재공학과 정연길 교수는 “이번 국가연구실 지정을 발판으로 향후 선진국 주도형 기술 분야인 고온부품 소재분야에서 핵심·원천기술의 국산화를 실현할 것”이라며 “이를 통해 국가경쟁력을 제고하고 국가 에너지 정책을 뒷받침하기 위한 산·학·연·관 협력을 극대화하는 등 고온부품 허브 역할을 하는 기능성 나노구조재료 연구실로 육성해나갈 것”이라고 밝혔다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲    KAIST 화학과 김상율 교수 연구팀 ⓒKAIST     KAIST 화학과 김상율 교수 연구팀이 유리와 같은 투명성과 열팽창계수를 가져 유기소재의 열팽창 제어에 응용 가능한 고분자를 합성하는데 성공했다.  고분자 물질을 합성할 때 고분자 사슬 간에 상호작용하는 힘을 도입하고 힘의 방향이 수직으로 교차하게 만들며, 사슬 간 거리를 적절히 조절하면 온도에 따른 팽창 및 수축을 억제할 수 있다. 김 교수 연구팀은 이러한 화학구조를 투명한 고분자 물질에서 구현했다.  투명하면서도 유연한 차세대 디스플레이 제조를 위해서는 유리 수준의 투명성과 열팽창계수를 가진 접을 수 있는 기판소재가 필요하지만 이러한 조건을 갖는 유연 고분자 소재는 알려진 바 없었다.  연구팀이 합성에 성공한 새로운 고성능 고분자 물질인 투명한 폴리아마이드이미드 필름은 열팽창정도가 4ppm/oC로 유리 수준으로 낮으면서도 유연하고, 아몰레드(AMOLED) 디스플레이 제조공정에 적용할 수 있는 내열성을 갖고 있다.  연구팀은 새로 합성된 투명 폴리아마이드이미드 필름 위에 이그조 박막 트랜지스터(IGZO TFT)소자를 제작해 필름을 반경 1mm까지 접어도 소자가 정상적으로 작동되는 것을 확인했다.  김 교수는 “이번 연구 결과는 그간 난제로 여겨졌던 무정형 고분자의 열팽창을 화학적 가교결합 없이 조절해 유리 정도 수준으로 낮추면서도 유연성을 확보하고 동시에 투명하게 만드는 방법을 제시한 흥미로운 연구결과이다”며 “다양한 유기소재의 열팽창을 제어하는 데 응용 가능할 것으로 기대된다”고 말했다.  이 연구성과는 국제 학술지 사이언스 어드밴시스(Science Advances) 10월 26일자 온라인 판에 게재됐다.  (논문명 : Poly(amide-imide) materials for transparent and flexible displays )        ▲ 고성능 고분자 물질인 투명한 폴리아마이드이미드 필름 ⓒKAIST    한편, 얇고 가벼운 평판디스플레이에 사용되는 반도체소자는 세라믹과 비슷한 열팽창계수를 갖고 있어 열팽창계수의 차이가 큰 고분자 필름 위에 반도체소자를 만들게 되면 작동 시 발생하는 열에 의한 팽창과 수축의 차이로 소자가 파괴되는 문제가 발생한다.  따라서 반도체소자와 기판의 열팽창계수를 일치시키는 것은 성공적인 디스플레이를 제조하는데 매우 중요하다.  무정형인 투명한 고분자 물질의 열팽창계수를 줄이는 방법으로 고분자 사슬들을 연결시켜 망상구조를 형성시키는 방법이 알려져 있지만 망상 구조를 갖는 고분자 물질은 유연성을 잃어버리고 필름으로 제조해도 유연하지 않게 된다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      한국과학기술원(KAIST) 부설 한국과학영재학교의 기출 시험지와 '모범 답안지'가 유출됐다는 의혹이 제기돼 학교 측에서 자체 진상 조사에 착수했다.  한과영은 "부산의 한 입시학원에서 학교 기출 시험지와 모범 답안이 유출됐다는 제보가 접수돼 경위를 조사 중이다"고 17일 밝혔다.    ▲ 한국과학영재학교 전경. ⓒ한국과학영재학교    한과영에 따르면 한 학기 동안 치러진 시험의 문제를 그다음 해 같은 학기가 시작될 때 공개하고 재학생들이 볼 수 있도록 교내 도서관에 비치한다.  모범 답안의 경우에는 시험 성적을 공개하면서 학생들에게 확인 용도로만 제공하고 회수하면서 전면 공개는 하지 않고 있다.  그러나 최근 부산의 한 입시학원에서 학교에서 공개하지 않은 기출 시험 문제와 모범 답안을 가지고 있다는 학부모 제보가 접수됐다.  한과영에서도 확인한 결과 유출된 자료가 교사들이 학생들에게 보여주는 모범 답안과 일치하는 것을 확인하고 곧바로 유출 경로를 파악하고 나섰다.  한과영 김훈 교감은 "답지는 학생들한테도 제공하지 않고 보여주기만 하고 있는데 공개되지 않은 답지가 학원가에 돌고 있다는 사실을 확인했다"며 "비공개 문서는 아니지만 개선 방안을 모색하겠다. 유출 경로도 파악해 비정상적인 경로라면 그에 따라 처분하겠다"고 말했다. 부산진구 당감동에 위치한 한과영은 국내 유일의 국립 과학영재학교로 교육부가 아닌 과학기술정보통신부에 소속돼 있다. 또한 일반 고등학교와 달리 교육과정과 학제가 대학교와 비슷한 학점제로 운영된다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ▲ 허태정 대전시장(오른쪽)이 김규철 프레시안 세종충청취재본부 편집국장과 인터뷰를 하고 있다 ⓒ프레시안(문상윤)     두번의 유성구청장을 지난 후 150만 시민의 리더가 된 허태정 대전시장은 취임 후 1년여 동안 대전도시철도 2호선(트램) 예타면제사업 확정, 어린이재활병원 공모선정, 지역인재 채용 충청권 광역화 합의, 3.8 민주의거 국가기념일 지정, 충청권 광역철도 1단계 건설 총사업비 승인, 대전교도소 이전 확정, 대덕특구 동측진입도로 예타통과 등  쉼없는 행보를 보여왔다.프레시안은 허태정 대전시장으로부터 지금까지 시정을 이끌면서 나타난 문제점에 대한 해결방향과 향후 계획에 대해 들어보는 시간을 마련했다. /편집자주 프레시안 : 시정 운영 1년간의 소회를 듣고 싶습니다. 허태정 : 제가 취임 선서를 한 게 엊그제 같은데 벌써 1년이 흘렀다. 그동안 ‘시민과 함께 행복한 대전’을 만들기 위해 정신없이 달려왔었고 지난 1년은 지역의 오래된 현안 사업을 마무리하고, 민선 7의 새로운 기반을 다지는 한 해였다. 트램 예비 타당성 면제 확정, 하수처리장 이전, 유성복합터미널 건설, 교도소 이전, 공공어린이 재활병원 건립 등 해묵은 과제들이 해결되는 성과로 이어졌지만 한편으로는 베이스볼 드림파크 부지 선정, LNG 발전소 유치 등 갈등과 아쉬움도 있었다. 지난 1년은 남은 3년을 잘 이끌어 가기 위한 기반을 다지는 해였고 길지 않은 남은 3년 동안 계획했던 중․장기 사업들을 구체화하고 성과를 낼 수 있는 시간이 되도록 열심히 뛰겠다. 프레시안 : 유성구청장을 2번 연임하셨는데 최근 어려워진 유성을 다시 살릴 수 있는 방법이 있다면? 허태정 : 유성은 온천을 중심으로 관광산업이 발달했었다. 당시에는 24시간 개방하는 관광특구라는 특수를 누렸던 시절이 있었지만, 지금은 제도적인 기능이 소멸되었고 그리고 국민들의 주거문화가 많이 바뀌면서 온천이 사양산업이 되어갔다.온천의 특성과 장점을 잘 살려서 온천을 기반으로 하는 숙박시설이 예전 같진 않지만 그 기능을 지역의 장점을 살리는 인프라를 구축하고 있다. 예를 들면 길거리 족욕상으로 이곳이 온천 휴양도시임을 알리고 다음으로는 단순 온천관광으로 경쟁력을 확보할 수 없기 때문에 이런 것을 기반으로 해서 숙박과 연결되는 컨벤션산업, 마이스 산업으로 이 부분들을 집중적으로 육성하고 세종시와 연계해서 콘퍼런스나 산업을 유치해서 유성의 경제를 같이 활력을 찾는 산업이 앞으로의 대안이 될 것으로 보고 실제로도 변화가 일어나고 있다고 본다. 프레시안 : 프로 축구 대전시티즌이 계속해서 여러 구설수에 오르고 있는데 구단주로서 이 문제를 어떻게 해결하실 예정인지?허태정 : 시티즌 문제는 개혁이 진행 중이다. 시티즌과 관련된 의혹과 불미스러운 사안이 발생했고 대표이사도 새롭게 교체해서 개혁을 주도하고 있고 내부적인 개혁을 통한 자구책 마련, 시민들의 신뢰를 회복하고 성적으로 프로구단임을 입증해야 될 책임도 있다. 대전 시티즌이 완전히 새롭게 탈바꿈할 수 있도록 내부 개혁과 경쟁력을 함께 해결해나가는데 지원할 것이고 여러 방안에 대한 고민도 함께 하고 있으니 앞으로 지켜 봐달라. 프레시안 : 대전의 미래 먹거리 계획과 지역 경제 살리기 지역 인재 채용 전망에 대해 듣고 싶고 또한 다른 시도에 비해 관급입찰 제도가 중,소 지역 업체 우대 조항 조래가 미비해 타시도 경쟁업체가 낙찰되어 세금 및 일자리 창출이 유출되고 있는데 이에 대한 대책을 듣고 싶다. 허태정 : 대전의 미래 먹거리는 혁신도시법 개정안의 큰 이슈는 ‘지역 인재 의무채용’과 ‘공공기관 이전’과 연관이 있다. 150만 대전 인구의 10% 정도가 대학생으로, 청년실업이 굉장히 높은 편이고 실제 19개 대학에 재학생이 14만 4천 명, 졸업생은 한 해 2만 6천 명의 졸업생이 쏟아진다. 그런데 광역자치단체 중 대전과 충남만 혁신도시로 지정되지 않아, 공공기관 이전에 따른 지역 청년들이 심각한 역차별, 인구 유출, 지역 경제 위축 현상들이 일어나는 등 당연히 받아야 할 혜택을 받지 못하고 있는 것이다. 지난 7월17일, ‘혁신도시법 개정안’이 국회 국토위 법안소위를 통과하면서 2022년 기준 17개 공공기관에 900여 개의 의무채용 기회를 얻어냈고 우리 대전지역 고교·대학 졸업생 등 지역 청년들에게 공공기관 취업의 길이 많이 넓어졌다. 지역업체 보호 관련 조례는 ‘지역 건설산업 활성화 촉진 및 하도급업체 보호에 관한 조례’로 우리 시도 같은 조례를 운영하고 있고 지역 업체에 대한 공동도급비율을 49% 이상, 하도급 비율을 60% 이상으로 권장하는 규정 등을 담고 있다. 그래도 미비한 각종 관급 입찰 관련 법령, 조례 등을 추가로 검토해서 지역업체 보호와 활성화를 위해 적극적으로 노력해 나가겠다. 프레시안 : 대전은 과학도시로서의 명성을 이어가려면 뛰어난 연구시설 및 연구자가 필요하다. 대전 연구개발특구의 과학자들이 2020년 대거 은퇴를 예상하고 있어 퇴직 연구자에 대한 사회적 활용 시스템이 필요로 해 보입니다. 이에 대한 계획은?허태정 : 국가 과학기술 위원회의 자료에 따르면 현재 대전의 고경력 과학기술인은 총 1100여 명으로 추산되며 앞으로 2021년까지 매년 300여 명 내외의 과학기술인이 은퇴할 것으로 예상되고 있다. 대전시는 이들 과학기술인의 경험과 지식이 사장되지 않고 지역사회 과학 산업 발전에 기여할 수 있도록 전국 최초로 2013년부터 고 경력 과학기술인을 활용한 사업을 추진하고 있다.올해는 과학대중화 사업 등 10개 사업에 총 17억 원을 지원하고 있으며, 은퇴 과학기술인 200여 명이 활동하고 있다. 주요 사업으로는 청소년, 일반 시민 등을 대상으로 과학 멘토링 사업, 과학 강좌, 과학해설사 등 다양한 과학대중화 사업을 시행함과 동시에 우리 지역 중소·벤처기업의 기술 지원 사업 등을 추진하고 있고 앞으로 우리 대전시는 은퇴 과학자 활동을 위해 다각적으로 추진하여 기업의 혁신성장에 기여할 수 있도록 적극 지원하겠다.프레시안 : 광주에는 삼성전자 공장 앞의 도로 이름을 ‘삼성로’ 청주시에는 SK로가 생겼다. 혹시 대전시에서도 (예)연구단지로 등 브랜드를 만들 그런 계획을 하고 있을까요? 허태정 : 좋은 제안이고 지금 어느 국가든 도시든 가장 중요한 것은 일자리, 경제다. 대전은 대덕특구를 기반으로 함께 성장한 도시이기도 하며 대전의 미래를 이끌어 갈 주요한 기반과 근거지가 대덕특구이고 대덕특구를 기반으로 한 스타트업 집중 육성과 이것을 통한 대전의 새로운 경제 도약들을 이뤄낼 수 있는 기반으로 삼고 있다. 기업이든 지역을 대표하는 기관이든 이를테면 카이스트의 경우, 카이스트 앞의 다리를 카이스트고라고 명명하듯이 지역의 특성을 감안한 도로명이나 기타 상징들을 만들어가는 것은 당연한 일이고 적극적으로 펼칠 사업이라고 생각하며 검토해 실천해 나가겠다.  프레시안 : 일본이 우리나라 화이트리스트 배제 등 노골적으로 우리를 적대시하는데 그로 인한 대전지역의 피해는 없나? 허태정 : 구체적인 피해가 표면화되진 않았지만 피해가 전혀 없을 수는 없지만 무역규모를 보면 대전은 일본에 4억 천만 불 정도를 수입 의존하고 있고 다행히 한 쪽 분야로 집중되지는 않아 위기를 맞고 있진 않지만 일본에 의한 수출규제 화이트리스트 제외된 품목들에 대한 제제가 구체적으로 진행된다면 피해가 생길 수밖에 없어 관련 대책 회의를 지난주 휴가 중에도 열었다. 그동안에는 한·일이 역사적으로는 대립했지만, 경제적으로는 큰 갈등 없이 이어져왔는데 이제는 일본의 의도가 분명히 드러난 것이고 대법원 판결은 핑계일 뿐 한국의 경제 성장을 억제하고 일본의 컨트롤 안에 두고 싶어 하는 일본의 의도가 보여서 반드시 이번 기회에 단결하여 이런 의도를 이겨내야 된다고 생각한다.  프레시안 : 마지막으로 프레시안 독자들과 시민들에게 하실 말씀은.. 허태정 : 민선 7기가 출범하고 벌써 1년이 지났음. 정말 쉼 없이 달려온 시간이었다. 도시철도 2호선, 월평공원 민간 특례 사업 등 해묵은 과제도 해결하고, 국비 3조 원 시대 개막, 하수처리장 이전 적격성 조사 통과 등 눈에 띄는 성과도 만들었지만 한편으로는 그런 과정에서 시행착오도 있었고, 아쉬운 점도 있었다. 이제 민선 7기 2년 차에 접어들었고 남은 3년 결코 길지 않은 시간이지만 첫 마음으로 새롭고 힘차게 다시 시작하겠다.시민참여를 강화해서 시민주권시대를 공고히 하고 4차 산업혁명 특별시 완성, 트램 건설 등 기존의 대형 사업들이 차질 없이 진행되도록 하나하나 꼼꼼히 챙기고 약속사업을 비롯해 혁신도시 지정, 대덕특구 재창조 등 대전의 미래를 결정하고 도시의 모습을 바꿀 수 있는 중요한 사업들을 잘 챙겨나가겠다. 남은 3년, 믿고 응원해달라. 대담 /김규철 세종충청취재본부 편집국장  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲청주하우스콘서트 ‘2019 Summer Classical Music Festival’이 22~24일 오후 7시30분부터 청주첨단문화산업단지 동부창고 34동에서 열린다. ⓒ청주하우스콘서트       한여름의 무더위를 날려버릴 청주하우스콘서트 ‘2019 Summer Classical Music Festival’이 22~24일 오후 7시30분부터 청주첨단문화산업단지 동부창고 34동에서 열린다.  먼저 22일 열리는 제66회 청주하우스콘서트(2019 Summer Festival 1)는 피아니스트 정재원 &amp; 첼리스트 최경은의 듀오 리사이틀 ‘쇼팽의 밤’이다.  ‘즉흥환상곡, 작품번호 66’, ‘첼로 소나타 사 단조, 작품번호 65’ 등 쇼팽의 곡을 연주한다.        ▲22일은 제66회 청주하우스콘서트(2019 Summer Festival 1) 피아니스트 정재원 &amp; 첼리스트 최경은의 듀오 리사이틀 ‘쇼팽의 밤’이 공연된다. ⓒ청주하우스콘서트    이날 연주자인 피아니스트 정재원은 세계적인 피아니스트 마르타 아르헤리치로부터 ‘깊은 감명을 주는, 일가를 이룬 헌신적인 음악가’라는 평을 받았으며 13세 때 첫 공개 독주회를 열었다.  17세엔 미국 조안나 하지스 국제콩쿨 우승으로 주어진 데뷔 연주를 시작으로, 한국과 유럽을 중심으로 연주활동을 이어오고 있다. 현재 성신여대 음악대학 피아노과 교수로 재직 중이다.  첼리스트 최경은은 섬세한 표현력과 깊이 있는 음악적 해석을 지닌 연주자다. 예원학교를 거쳐 서울예술고등학교를 수석 입학하고 수석 졸업했다.  서울대학교 음악대학을 수시 입학해 4년 전액장학생으로 수석 졸업했으며 세계적인 첼리스트 랄프 커쉬바움의 러브콜을 받아 영국으로 건너간 뒤 영국북부왕립음악원과 남가주대학교에서 전액장학생으로 박사학위 까지 취득하며 전문연주자로서의 탄탄한 기반을 마련했다.        ▲23일은 제67회 청주하우스콘서트(2019 Summer Festival 2) ‘김효영의 생황 트리오’가 공연된다. ⓒ청주하우스콘서트    23일은 제67회 청주하우스콘서트(2019 Summer Festival 2) ‘김효영의 생황 트리오’가 공연된다.  생황에 김효영, 피아노 조윤성, 콘트라베이스 황호규가 무대에 올라 상주아리랑, 눈물 등의 곡을 협연한다.  한국의 대표적인 생황연주가인 김효영은 조선 말 명맥이 끊겼던 악기 생황을 오늘날 복원과 창작활동으로 다시 발전시켜 다시 주목받게 했다.  생황을 자유자재로 다루는 동시에, 지속적으로 생황음악을 만들고 있는 작곡가이자 타 분야와의 과감한 접목으로 전통음악에 국한하지 않는 새로운 음악을 추구하는 음악가로 높이 평가받고 있다.  특히 다른 장르와의 크로스오버를 넘어 현대 클래식 분야에 생황만의 독보적인 영역을 구축하고 있다.        ▲24일은 제68회 청주하우스콘서트(2019 Summer Festival 3) ‘피아졸라의 사계’ 고상지의 반도네온 트리오 공연이 펼쳐진다. ⓒ청주하우스콘서트    24일은 제68회 청주하우스콘서트(2019 Summer Festival 3) ‘피아졸라의 사계’ 고상지의 반도네온 트리오 공연이 펼쳐진다.  대전과학고등학교와 한국과학기술원 카이스트 출신인 고상지는 유명 반도네온 연주가다. 일본 애니메이션과 게임음악에 빠져 작곡을 시작했다고 한다.  지금까지 3집의 정규앨범과 싱글 앨범 ‘마지막 만담(2017)’, ‘따뜻하게 안아줄게(2016)’ 등을 발매했다.  공연 관람료는 어른 1만 원, 어린이·청소년 5000원이며, 자세한 내용은 청주하우스콘서트 홈페이지를 통해 확인할 수 있다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          나노바이오센서·칩 기술상용화 지원센터 개소식ⓒ대전시       대전시 유성구 카이스트 내 나노종합기술원(원장 이재영)에 들어선 나노바이오센서·칩 기술상용화 지원센터가 7일 개소식을 갖고 운영에 들어갔다.  나노바이오센서·칩 기술상용화 지원센터는 유전자 진단을 위한 나노바이오센서·칩 혁신기술 개발 및 기술상용화를 위한 핵심인프라 를 구축하고, 대전시에 소재한 분자진단기반 바이오센서기업의 시제품제작, 분석·성능평가, 시험·인증, 기술고도화 등 기업성장 지원 역할을 수행한다.  나노바이오센서·칩 기술상용화 지원센터는 대전시 유전자의약산업 특화육성 계획의 일환으로 추진되는 ‘모듈형 나노바이오칩 플랫폼 구축사업’의 실행을 위해 건립됐다.  여기에는 2022년까지 과학기술정보통신부 나노·소재기술개발지원사업 공모선정으로 확보한 75억 원(국비 50억 원, 시비 20억 원, 민간 5억 원)의 사업비가 투입된다. 							 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ‘스텔라데이지호의 2차 심해수색 추진’을 위한 공청회가 25일 전경련회관 컨퍼런스센터에서 개최됐다.  공청회는 1차 심해수색의 한계점에 대한 분석과 사고원인 규명, 유해수습의 다각적인 기술적 검토를 통해 성공적인 2차 심해수색 추진을 위해 마련됐다.     ⓒ허영 의원실   국방첨단기술연구원 서주노수석연구원, 선박해양플랜트연구소 강희진 박사, KAIST 과학기술정책대학원 전치형 학과장 등 각분야 해양전문가들이 참여했다.  스텔라데이지호는 폴라리스 쉬핑사(한국 해운사) 소속 화물선이다. 철광석을 싣고 브라질에서 중국으로 항행하던 중 2017년 3월 31일 오후 1시 20분(현지시각) 남대서양에서 침몰했다. 사고 당시 탑승 선원 총 24명 중 사고 익일 구조된 필리핀인 2명을 제외한 22명(한국인 8명, 필리핀인 14명)이 아직까지 실종 상태이다.  정부는 사고 직후 선박 침몰 해역 주변국의 협력을 통해 선박 및 실종자 수색을 했으나, 실종자를 추가 발견하지 못한채 2017년 사고해역 주변 수색은 종료됐다.  실종선원 행방 확인과 선박의 침몰 원인을 밝히기 위해 작년 2월 열흘간에 걸친 심해수색을 통한 항해기록저장장치 회수와 실종자로 추정되는 유해를 발견했으나, 사고원인 규명과 유해수습은 현재까지 이뤄지지 않고 있는 상황이다. 허영 의원은 “스텔라데이지호 사고는 노후된 유조선을 개조, 철광석 수송선으로 용도변경한 채 무리한 항행을 한 것에 1차 원인이 있다”며 “2차 심해수색을 통해 보다 정확한 사고원인 규명과 실종자로 추정되는 유해의 수습이 이뤄질 수 있도록 노력하겠다”고 말했다.  이번 공청회는 원내 4개 정당 17명의 국회의원이 공동 주최했다.  코로나19 확산 방지를 위해 참석인원을 50인 미만으로 제한하고, 방역 수칙을 철저히 준수한 가운데 진행됐다.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ▲ 황교안 자유한국당 대표를 비롯해 나경원 원내대표 등 소속 의원들과 토론자 등 관계자들이 파이팅을 외치고 있다. ⓒ송언석 의원실       자유한국당 송언석 의원(경북 김천, 국토교통위원회)이 14일 최근 심각하게 대두되고 있는 미세먼지 대책방안을 논의하기 위한 토론회를 14공동 개최했다.  송 의원은 이날 오전 국회 의원회관에서 한반도선진화재단과 공동으로 개최한 토론회에서 황교안 대표를 비롯한 나경원 원내대표, 정용기 정책위의장 등 당 지도부와 이완영, 백승주, 이만희 의원 등이 다수 참석했다.  이날 주제발표에 나선 카이스트 원자력·양자공학과 정용훈 교수는 ‘미세먼지와 에너지 믹스’란 주제로 미세먼지가 인체에 끼치는 악영향을 분석하고 석탄·LNG 발전이 유발하는 미세먼지가 정부 발표보다 각각 2배, 8배 많을 수 있다는 연구결과를 공개했다.  그러면서 정 교수는 “초미세먼지로 인한 연간 조기 사망자 11,900명은 결코 무시할 수 없는 위험이며, 초미세먼지가 방사능 피폭보다 100배 위험하다”며 원자력을 포함한 전력생산의 무탄소화를 주장했다.  주제발표에 이어 설성인 조선비즈 차장, 정서용 고려대 국제학부 교수, 이종태 고려대 보건과학대학 교수의 토론이 진행됐다.  송언석 의원은 “우리나라에서 석유나 가스가 나오는 것도 아니다. 우리가 만들 수 있는 것은 원전밖에 없다”며 “미세먼지로 경제까지 악영향을 받는데 정부는 원전을 줄이고 석탄발전을 늘리며 거꾸로 가고 있다”고 강조했다.  이에 “탈원전 정책 폐기와 중국의 협력 확보의 뚜렷한 답이 나와 있는 만큼 문재인 정부는 즉각 나서야한다”며 “미세먼지 문제로 어려움을 겪고 있는 아세안 국가들과 함께 미세먼지 문제 해결을 위한 협정을 맺는 방법도 고려할 필요가 있다”고 제안했다.  </t>
   </si>
   <si>
     <t xml:space="preserve">      강원 삼척시는 직원들을 대상으로 사고의 폭을 넓히고 삼척을 새롭게 디자인할 수 있는 통찰 교육으로 ‘11월 원더풀 삼척포럼’을 15일 시청 대회의실에서 개최했다.  이날 강연은 지난 11차 포럼에 이어 다가올 수소 경제시대에 능동적으로 대비하고, 지속가능한 에너지 자립도시 삼척구현을 위해 ‘수소’를 연속 기획주제로 ‘재생에너지 연계 수소생산 기술현황 및 전망’을 통해 관점을 디자인하는 자리로 마련했다.   강연자 김창희 박사는 한국과학기술원(KAIST) 출신으로, 한국에너지기술연구원 기획조정본부장을 역임했고, 현재는 한국에너지기술연구원 책임연구원으로 재직 중이다.     ▲15일 삼척시청 대회의실에서 열린 11월 원더플 삼척포럼. ⓒ삼척시     산업통상자원부 수소에너지 전문위원회 위원, 한국수소 및 신에너지학회 수소제조부문 위원장, (사)한국수소산업협회 연구개발부문 위원장 등으로 왕성하게 활동하고 있다.  한편, 2017년 3월부터 시작된 원더풀 삼척포럼은 육동한 강원연구원장, 강병근 건국대 명예교수, 이광재 (재)여시재 원장 등 쟁쟁한 강사 11명이 다녀갔다.   삼척시 관계자는 “원더풀 삼척포럼을 통해 경험과 지혜를 습득해 공직자의 관점을 개선하고, 전문가의 제언을 시책에 반영하는 한편 시정철학을 공감․연대하는 계기로 발전시켜 나갈 계획”이라고 말 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ○…어제 박근혜 대통령이 국회법 개정안에 대해 거부권을 행사하고 재의 요구안을 의결시킨 후, 정치권 상황부터 짚어보겠습니다. 우선 새누리당은 어제 오후 1시 30분부터 오후 6시까지 의원총회를 열었는데요. 국회법 개정안 재의에 의원 전체가 표결에 참여하지 않기로 결정했습니다. 새누리당은 청와대와 여당이 각을 세우는 모습을 보이면 당청 관계가 악화될 수 있다는 이유입니다. 안건 상정 권한이 있는 정의화 의장은 재의 입장을 확인했지만, 국회법 개정안은 새누리당이 국회 과반수가 넘기 때문에 국회법 개정안은 사실상 폐기 수순을 밟게 됐습니다. 박근혜 대통령이 직접적인 비판을 받았던 유승민 원내대표는 사퇴하지 않기로 결정했습니다. 유승민 원내대표는 의원총회가 끝난 뒤 "앞으로 잘하라는 채찍으로 받아들이겠다"며 당청 간 소통이 원활하지 못했다는 점에 사과했습니다. 새정치민주연합은 새누리당이 국회법 개정안을 제의하지 않기로 하자 강력하게 반발했습니다. 문재인 대표가 국회의장과 여야 대표 3자 회동을 통해 해결책을 찾자고 제안했지만 여당이 이에 답하지 않으면서 무산됐습니다. 한때 국회 의사일정 전면 거부를 선언했던 새정치민주연합은 본회의를 열고 메르스 관련 법안만 통과시키고, 국회법 개정안 재의 때까지 나머지 국회 일정은 보이콧하기로 했습니다. 어제 열린 본회의에서는 일명 '메르스법'이라고 불리는 감염병 환자와 질병 정보 등을 공개하는 등의 내용의 '감염병 예방 및 관리에 관한 법률 개정안'만 처리됐습니다.  ○…정부가 최소 10조 원 이상의 추가경정예산을 편성하기로 했습니다. 정부와 새누리당과의 당정 협의에서 추경 예산 규모에 대한 이견을 좁히지 못해 정확한 규모는 발표되지 않았습니다. 추경예산과 각종 기금의 운용 계획 변경을 합하면 올 하반기 투입되는 재정은 15조 원을 넘어설 것으로 보입니다. 정부는 수출 부진과 가뭄, 특히 메르스 사태로 인한 소비 침체를 막기 위해 이 같은 방침을 정했는데요. 일각에서는 추경이 효과를 보려면 최소 6개월이 걸려 현재의 메르스 사태를 해결하는 데 별 도움이 안 된다는 지적이 나오고 있습니다. 또 지난해 기준 나라빚이 약 800조 원에 이르는 만큼 재정악화에 대한 우려도 나오고 있습니다. 최종 추경안은 7월 초 당정협의를 거쳐 확정될 예정입니다.   ○…새정치민주연합 윤리심판원이 '공갈' 발언으로 논란이 됐던 정청래 최고위원에 대한 재심에서 징계 수위를 '당직 자격정지 1년'에서 '당직 자격정지 6개월'로 낮췄습니다. 윤리심판원 안병욱 원장은 감경 이유에 대해, 논란이 됐던 발언의 당사자인 주승용 최고위원 등 현직 의원 60여명이 탄원서를 낸 것이 이유가 됐다고 전했습니다. 이를 받아들이지 않을 경우, 당 화해와 화합 분위기를 해칠 수 있어 내린 결정이라는 설명입니다. 이번 조치로 정청래 최고위원은 11월 26일에 지역위원장직을 회복하게 됐는데요. 혁신위원회가 내놓은 혁신안이 추인되면 공직선거 120일전인 12월 15일에는 바로 지역위원장에서 물러나야 합니다. '비노 세작' 발언으로 제소된 김경협 의원과 '전위부대' 발언으로 제소된 조경태 의원에 대한 징계 여부는 다음달 9일 결정될 예정입니다.  ○…변호사시험 성적 공개를 금지한 변호사시험법이 위헌이라는 헌법재판소의 판단이 나왔습니다. 앞서 로스쿨 재학생과 로스쿨 출신 변호사들이 '시험 성적은 시험에 응시한 사람을 포함해 누구에게도 공개하지 아니한다'고 규정돼 있는 변호사시험법에 대해 헌법소원 심판을 제기했는데요. 헌법재판소는 "이 조항은 변호사 시험에 합격한 사람의 성적을 공개하지 않아 청구인들의 알 권리 중 정보공개청구권을 제한한다"고 판단했습니다. 헌법재판소는 변호사시험 성적을 공개하지 않는 것이 과당경쟁과 서열화를 방지한다는 입법 목적은 정당하다고 봤지만, 성적을 공개하지 않음으로써 오히려 대학 서열에 따라 서열화가 고착되므로 적절한 수단이 아니라고 판단했습니다.  ○…어제 나온 헌법재판소 결정 하나 더 보겠습니다. 아동과 청소년으로 인식될 수 있는 사람이나 표현물이 등장하는 음란물의 소지와 배포를 처벌하는 일명 '아청법'이 합헌이라는 헌법재판소 결정이 나왔습니다. 논란이 됐던 건 '아동과 청소년으로 인식될 수 있는 사람'이라는 표현인데요. 현행법대로라면 성인 배우가 미성년자를 연기한 영화 &lt;은교&gt;등도 처벌 대상이라는 지적이 제기돼 왔습니다. 헌법 재판소는 논란이 된 표현은 일반인의 입장에서 실제 아동 또는 청소년으로 오인하기에 충분할 정도의 사람이 등장하는 경우를 의미함을 알 수 있고, 제작 동기와 경위 등을 종합하면 판단 기준이 구체화되기 때문에 명확성 원칙에 위반되지 않는다며 이같이 결정했습니다.   ○…최저임금위원회가 어제(25일) 사용자 측 위원들의 집단 퇴장으로 중단됐습니다. 사용자 측이 반발한 건 내년도 최저임금에 월급을 병기하자는 방안입니다. 지난 18일에 열린 전원회의에서 이러한 의견이 제시된 바 있고, 이를 표결에 부치도록 하자 사용자 측 위원들은 반발하며 집단 퇴장했습니다. 사용자 측을 대표하는 한국경영자총협회는 "시급으로 결정하는 최저임금에 월급을 병기하자는 위원회 의견은 법리에 어긋난다"며 지금까지의 관행을 무시하면 산업 현장에 혼란이 빚어질 수 있다고 주장했습니다. 최저임금위원회는 오는 29일까지 최저임금 인상안을 의결할 예정이었지만, 어제 이후 협상 일정이 잡히지 않아 협상은 법정 시한을 넘길 것으로 전망됩니다.  ○…지난해 제자들을 성추행한 의혹으로 카이스트에서 해임된 교수가 국립대병원인 서울대병원 산하 연구원에 재취업한 것으로 드러났습니다. A교수는 학생들을 상대로 성희롱적인 발언과 성추행을 일삼았다는 학생들의 주장으로 카이스트 성폭력 위원회로부터 지난해 5월 조사를 받고 같은 해 8월 혐의를 인정받아 해임됐습니다. 서울대병원 연구실에 재취업한 것은 이로부터 약 3개월이 지난 것으로 확인됐습니다. 이에 대해 교육부 관계자는 '머니투데이'와의 인터뷰에서 "파면이나 해임된 교수는 교육부가 관리할 대상이 아니며 계약직 교수는 법적으로 교수가 아니기 때문에, 이직 시 성추문 관련 경력의 기재 여부 역시 해당 대학이나 기관이 판단할 일"이라고 전했습니다.  ○…남자 프로농구 안양 KGC 전창진 감독이 어제 경찰에 소환돼 불법 스포츠 도박과 승부 조작 혐의로 조사를 받았습니다. 경찰은 전창진 감독이 사채업자로부터 3억 원을 빌린 뒤 구속된 강 모 씨 명의로 도박을 한 것으로 보고 있는데요. 경찰은 전창진 감독이 사채업자에게 써준 차용증을 확보한 것으로 알려지고 있습니다. 전창진 감독은 혐의를 인정하지 않는다고 부인했습니다. 이런 가운데, 농구와 유도 선수 등 20여명도 같은 혐의로 경찰의 수사를 받고 있는 것으로 확인됐습니다. '한국일보' 취재 결과, 이들은 경찰로부터 불법 스포츠 도박 사이트에 수억 원대 도박을 한 혐의를 받고 있습니다. 경찰은 또 이들이 '경기 중 후배들에게 실수 좀 하게 하라'는 내용의 휴대전화 메시지와 음성파일을 확인해, 소속 선수들과 승부 조작을 했는지 조사 중입니다.   이 기사는 6월 26일 &lt;시사통&gt; '뉴스브리핑' 내용입니다. (☞바로 가기 : &lt;시사통&gt;)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 인공지능양자컴퓨팅 IT 인력양성 연구센터 개소식 ⓒKAIST       KAIST가 2일 대전 본원 학술문화관에서 ‘인공지능양자컴퓨팅 IT 인력양성 연구센터’(이하 ITRC) 개소식을 가졌다.  국내 최초로 정부의 지원을 받아 설립되는 KAIST 인공지능양자컴퓨팅 ITRC는 올해부터 4년간 약 32억 원의 민·관 연구비가 투입되며, 서울대·고려대·경희대 등 3개 대학과 KT·호모미미쿠스·액터스네트워크·미래텍 등 4개 기업이 공동 참여한다.  인공지능양자컴퓨팅 ITRC는 4차 산업혁명의 핵심 이슈인 인간 수준의 인공지능에 요구되는 계산능력을 제공하기 위한 양자컴퓨팅 기술을 연구 개발하는 한편 대학원에는 산학연계 교육프로그램을 설치해 관련 산업을 주도할 전문 인력을 양성할 예정이다.  양자컴퓨팅은 현재 디지털 컴퓨터로 가능한 계산능력의 한계를 초월할 수 있을 것으로 기대되는 기술이다.  IBM, 구글, 인텔 등 세계적인 초우량 IT 기업과 디웨이브(D-Wave), 리게티(Rigetti), 아이온큐(IonQ) 등 벤처기업들이 관련 분야를 선도하고 있으며 원천기술 확보를 위한 전략적 연구 개발과 투자를 아끼지 않고 있다.  반면, 우리나라는 관련 분야 선진국들에 비해 7년 이상 기술이 뒤져있는 상태다.  KAIST는 인공지능양자컴퓨팅 ITRC 설립을 계기로 이를 극복할 선택과 집중의 전략을 마련할 계획이다. 기존 해외 선도 기업이 확보 중인 1세대 양자컴퓨팅 소자기술을 활용하는 양자 알고리듬 및 소프트웨어 원천기술을 확보하되, 미래 차세대 양자컴퓨팅 소자기술을 선점하는 기초연구에도 중점을 두는 등 2개 트랙의 전략을 동시에 추진할 방침이다.  이준구 KAIST 인공지능양자컴퓨팅 ITRC 센터장은 “양자컴퓨팅은 4차 산업혁명을 실현하기 위해서 반드시 필요한 실행기술(enabling technology)이 될 것으로 기대 한다”며 “인공지능양자컴퓨팅 ITRC를 통해 국내 학계와 산업계에 필요한 미래 양자 ICT 분야 전문 인력을 육성하고 산업계에 기술을 확산하는 기반을 마련하겠다”고 밝혔다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "재난조사는 연구 후 도서관에 처박히는 것이 아니라 실제 활동과 변화를 이끌어낼 수 있어야한다" - 스캇 개브리얼 놀즈 드렉셀 대학교 교수실효성 있는 재난조사를 위해서는 최소한 다섯 가지 질문을 고려해야 한다는 주장이 제기됐다.16일 사회적참사 특별조사위원회 주최로 서울 중구 포스트타워에서 미국 재난 안전 전문가 스캇 놀즈 드렉셀 대학교 교수 간담회가 열렸다. 놀즈 교수는 2017년 여름에 카이스트 방문학자로 한국을 방문해 특조위와 유가족들과 인터뷰를 한 바 있다.재난조사는 '최소한' 다섯 가지 목적이 있다놀즈 교수는 "재난조사는 다양한 목적이 동시에 수행되고 있다"고 말했다. 그중 놀즈 교수가 강조한 것은 △책임을 지우기 △사건을 설명하기 △피해자들의 요구에 응답하기 △교훈을 배우기 △사건을 종결하기 등 다섯 가지다. 놀즈 교수는 다섯 가지 카테고리에 대해 "완벽한 것은 아니지만 최소한 재난 후 우리사회가 어떤 방향으로 나아가는지 알기 위해서 꼭 대답해야 하는 질문"이라고 설명했다.'책임 지우기'에 대해 놀즈 교수는 "기존의 법적 시스템이 재난을 포괄하기 어려운 경우가 많다"며 "개인의 잘잘못을 가리는데 급급해 큰 규모의 재난을 다루는 데는 적합하지 않다"고 말했다.그러면서 엑손 발디즈 사건을 예로 들었다. 엑손 발디즈 사건은 1989년 지중해에서 유조선 엑손 발디즈(엑슨발데즈)가 좌초되면서 24만 배럴의 원유가 프린스 윌리엄만에 유출된 사고다. 놀즈 교수는 엑손 발디즈 사건을 "최악의 환경재난"이라며 "그러나 가장 큰 책임을 져야 할 조셉 헤이젤 우드 선장은 아무런 책임 없이 풀려났다"고 기존 법의 한계를 설명했다. 그러면서도 "세월호 사고에서 알 수 있듯이 몇몇의 잘못된 사람을 처벌하는 것만으로는 충분하지 않다"고 덧붙였다.놀즈 교수는 재난조사의 다섯 가지 중 '사건 설명하기'를 두고 "재난을 설명하는 새로운 방식"이라며 "재난이 특정한 시간과 공간에서 일어나고 시작과 끝이 있다는 해석은 충분하지 않다"고 말했다.놀즈 교수는 "세월호와 가습기살균제 서사를 봤을 때 아이가 아프거나 배가 침몰하는 특정한 사건이 시작이 아니다"라며 미국 허리케인 카트리나 사고를 예로 들었다. "짧게는 뉴올리언스의 댐이나 펌프 시스템이 왜 잘못됐는지를 설명할 수 있어야 한다"며 "좀 더 길게는 40년 전에 비슷한 일이 있었는데 왜 반복됐는지, 더 길게는 80년에 걸친 기후변화와 해수면 상승에 대해 설명해야한다"고 말했다.'피해자들의 요구에 응하는 것'과 '교훈을 배우기' 등도 제시됐다. 피해자들의 요구에 응하는 것은 피해자, 또는 그 가족들이 납득할 수 있는 원인을 찾는 것을 말한다. 놀즈 교수는 9·11 테러로 소방관인 아들을 잃은 샐리 리젠하드의 사례를 들며 "'테러가 나서 건물이 무너졌다'는 말로는 비번인 아들이 현장에 출동하고, 사망하고, 유해를 찾지 못한 점들을 설명하지 못한다"고 말했다. 교훈을 배우는 것은 실제적인 대책 마련을 의미한다. 놀즈 교수는 "허리케인 카트리나 이후 물이 들어오는 곳에 건물을 세우지 말라는 대책이 세워졌다"고 설명했다.마지막으로 '사건을 종결짓기'에 대해 놀즈 교수는 "누가 사망했는지는 밝히는 일"이라고 설명했다. 놀즈 교수는 "9·11 테러의 경우 1700여명의 피해자 유해가 아직 발견되지 않고 있다"며 "재난조사기구는 바로 이 일을 수행하기 위해 있는 것"이라고 말했다. 그러면서 "재난조사가 끝났다고 선언하는 것은 그 감정을 보존하고 추모하는 것이다"라며 "세월호 기억교실을 방문하고 큰 감동을 받았다. 추모시설의 좋은 예시"라고 말했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      GIST(지스트, 총장 문승현) 학사과정인 GIST대학의 학생들이 한국과학기술원(KAIST) 창업원이 주최한 오디션 형식의 학생창업지원 프로그램 「E*5 KAIST(2018년 하반기)」에서 1위와 2위에 해당하는 최우수상과 우수상을 수상했다.  2018년 하반기「E*5 KAIST」는 지난 8-9월, 프로젝트 팀의 참가 신청을 받고 서류심사를 통해 25개 내외의 ‘Pre-E*5’ 팀을 선정했으며, 이들을 대상으로 약 3개월간 1·2·3차 미션을 거쳐 지난 12월 14일(금), 4개의 우수팀을 선정하고 창업자금을 지원했다.  GIST대학에 재학 중인 ▲강종혁 학생(전기전자컴퓨터전공 4학년)은 KAIST재학생 4명, 졸업생 1명과 함께 셀렉트스타(SelectStar) 팀으로 이 프로그램에 참가하여 최우수상(창업자금 지원액 1,000만 원)을 수상했고, ▲송대욱 학생(기계공학전공 4학년)과 김민준 학생(화학전공 4학년)은 KAIST․중앙대 재학생 각 1명과 함께 배달긱(배달Geek) 팀으로 참가해 우수상(창업자금 지원액 500만 원)을 수상했다.    ▲ 최우수상을 수상한 셀렉트스타팀 수상 사진ⓒGIST    최우수상을 수상한 셀렉트스타 팀은 모바일 사용자를 통한 분업화된 AI 학습 데이터 생산 플랫폼과 수집․가공된 데이터에 대한 전수 검사를 할 수 있는 자체 AI 시스템을 갖춤으로써 기존 업체들과 비교해 효율성과 정확성 측면에서 차별화된다.   AI 학습용 데이터 생산은 최근 빠르게 성장하고 있는 신생 분야로 셀렉트스타 팀은 정부 부처 통합 창업경진대회인「도전! K-스타트업 2018」 국방리그에서 특별상인 국방부장관상을 수상(2,000만원의 상금 수여)해 이미 창업 성공의 발전 가능성을 인정받았다.   우수상을 수상한 배달긱은 학생들의 기숙사 생활을 고려해 점심‧저녁‧야식의 1인분 주문에 특화된 ‘배달 앱’을 개발했다.      ▲우수상을 수상한 베탈긱팀의 수상 사진ⓒGIST    1인분을 주문하더라도 추가 배달비가 없는데다 추가 할인과 이벤트를 이용할 수 있어 이미 GIST의 학생 기숙사에서는 활성화되어 있을 뿐 아니라 기숙사 인근 업체에서도 환영할만한 서비스이다.   배달긱 또한 「2018 하반기 광주·전남 모의크라우드펀딩 대회」우수상, 「2018 GIST CEO Forum 모의 크라우드펀딩 대회」대상,「2018 GIST 창업아이디어 경진대회」최우수상 등 수상 이력을 통해 사업성을 인정받았다.  배달긱 팀을 이끌고 있는 송대욱 학생은 “배달긱 서비스의 검증과 사업 확장에 대한 계획을 수립하기 위해 E*5 KAIST에 참가하게 되었다. 배달긱 서비스의 가능성과 앞으로 나아갈 방향에 대해 확인하고 탐색하는 동시에 좋은 결과까지 얻어 기쁘다”고 전했다.   또한 "배달긱이 GIST만을 위한 배달앱에서 거듭나 모든 혼밥족을 위한 1인 배달 서비스로 나아갈 것이다"고 향후 포부를 말했다.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲14일 열린 KAIST 제 261차 정기 이사회 ⓒKAIST      KAIST 이사회가 신성철 KAIST총장에 대한 과기부의 직무정지 요청을 거부했다. 이장무 KAIST 이사장은 14일 열린 KAIST 제 261차 정기 이사회를 마친 후 “총장 직무를 정지시키는 것은 매우 신중하게 처리해야 한다는 의견이 많았다”며 “이사회는 보다 심도 있는 논의를 위해 직무정지 건은 차기 이사회에서 심의·의결하기로 결정했다”고 발표했다.  이어 “공공기관의 운영에 관한 법률 제52조의3 제2항에 의거해 유영민 과학기술정보통신부 장관으로부터‘신성철 총장의 직무정지’를 요구하는 공문을 지난 11월30일 오후 5시30분 접수한 바 있다”면서 “14일 열린 제 261차 정기 이사회의 공식 안건으로 이를 상정하고 참석이사 9명과 이에 관해 논의했다”고 설명했다.  KAIST 이사회는 정기이사회 개최 후 발표한 ‘ KAIST 이사회 입장문’을 통해 “KAIST 이사회는 과기부가 관련 법령과 사안의 중대성에 비추어 가장 적절하다고 판단되는 법적 조치를 이행하였을 것으로 생각하며 이를 존중한다”면서 “이제는 이사회가 과기부의 판단을 존중하면서도 KAIST의 명예와 그 구성원의 자긍심을 지킬 수 있는 지혜를 모아야 할 시점”이라고 밝혔다.  또 “이사회는 한국 과학기술의 긍지인 KAIST가 타 기관의 감사 결과에 의하여 국제적 위상이 흔들리고 혼란이 야기되고 있는 현실에 대하여 심각한 우려를 표한다”면서 “총장은 현재의 상황으로 KAIST와 과학기술계에 누를 끼친 점에 대해서 유감을 표명하고 자중하여 주시기를 바란다”고 당부했다.  한편 다음 KAIST 정기 이사회는 내년 3월 개회할 예정이어서, 이사회는 검찰의 수사 결과에 따라 임시 이사회 소집 여부와 시기를 결정할 것으로 보인다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      더불어민주당 문재인 대선 후보와 국민의당 안철수 대선 후보는 18일 각각 '기초연금 30만 원 공약'을 내며 어르신 표심 잡기에 나섰다. 문재인 후보는 이날 전북 전주시에 있는 덕진노인복지회관에서, 안철수 후보는 이날 어르신 일자리 현장인 '카이스트 교내 빨래방'에서 각각 '노인 복지 공약'을 발표했다. 두 후보의 노인 공약은 크게 △기초연금 등 노인 소득 보장 분야 △노인 의료 보장 분야 △노인 일자리 분야로 나뉜다. 노인 소득 보장 공약에서 두 후보는 모두 박근혜 정부가 단행한 '기초연금-국민연금 가입 기간 연계'를 폐지하고, 기초연금을 30만 원으로 올리겠다고 약속했다. 다만, 기초연금 지급 대상에서 차이가 있다. 문재인 후보는 현재 소득 하위 70% 노인에게 10만~20만 원씩 차등 지급되던 기초연금을 소득 하위 70% 노인에게 30만 원으로 차별 없이 지급하겠다는 방침이다. 안철수 후보는 소득 하위 50% 노인에게만 30만 원으로 기초연금을 올리겠다는 입장이다. 나머지 소득 하위 50~70% 노인에게는 20만 원을 지급한다.  하지만 이른바 '줬다 뺏는 기초연금' 문제에 대해서는 두 후보 측 모두 한 발 물러섰다. '줬다 뺏는 기초연금'이란 기초연금을 올려도 기초생활보장 수급 노인은 인상된 기초연금만큼의 기초생활보장 급여가 깎이는 문제를 일컫는다. 가장 가난한 기초생활보장 수급 노인이 기초연금 인상의 혜택을 받지 못하는 것이다. 더불어민주당 선대위의 홍종학 정책부본부장은 &lt;프레시안&gt;과 한 통화에서 "기초생활보장 제도는 그대로 두는 것을 전제로 한다"고 말했다. 국민의당 선대위 김원종 정책부본부장도 &lt;프레시안&gt;과 한 통화에서 "기초생활 급여는 보충 급여의 측면이 있는 만큼, 좀더 검토해야 한다"고 답했다. 노인 의료 보장 공약에서 두 후보는 모두 지역마다 '치매지원센터'를 설립하고, 공공 요양시설을 확충하며 노인 틀니 등에 대한 지원을 늘리겠다고 했다. 문재인 후보는 '치매 국가 책임제'와 '틀니, 임플란트 본인 부담금 절반 할인' 공약을 내세웠다. 중증 치매 환자를 전문적으로 돌보는 공공 치매전문병원, 공공 노인 요양시설을 확충하겠다고 했다. 어르신을 대상으로 '찾아가는 방문 건강 서비스'를 시행하겠다고 했다. 안철수 후보는 노인 틀니 본인부담금을 현행 50%에서 30%로 낮추겠다고 했다. 치매 환자에게는 간병 건강보험 급여를 우선 적용하고, 노인 장기요양보험 대상자를 전체 노인 대비 7.5%(52만 명)에서 12%(80만 명)까지 단계적으로 늘리겠다고 했다. 또 75세 이상 고령자 입원 본인 부담금을 현행 20%에서 10%로 낮추고, 노인장기요양보험 본인 부담금에서 시설 급여는 20%→15%, 재가 급여는 15%→10%로 낮추겠다고 했다. 노인 일자리 공약에서 문재인 후보는 어르신과 마을공동체를 위한 사회공익형 일자리를 대폭 늘리고, 공공 근로 수당도 현 20만 원 수준에서 40만 원까지 늘리겠다고 밝혔다. 안철수 후보는 노인 일자리를 향후 5년간 매년 5만개씩 늘려서 2022년에는 68.7만 개로 확충하고, 공공 근로 수당을 현 22만 원에서 30만 원 수준으로 올리겠다는 계획이다. 안 후보는 "60세 이상 퇴직자를 대상으로 직업 재교육과 재고용 시스템을 만들고, 이를 위해 '인생 이모작법'을 제정하겠다"고 했다.그 밖에도 문재인 후보는 '홀몸 어르신 맞춤형 공공 임대주택'을 매년 1만 개씩 임기 내 5만 개를 제공하겠다고 공약했다. 농산어촌에는 '100원 택시'를 도입해 어르신 교통 불편을 해소하겠다고 했다. 안철수 후보는 경로당을 만성질환을 겪는 노인을 위한 '어르신 건강 여가생활 지원센터'로 확대 개편하고, 독거 노인을 위해 경로당과 마을회관을 '독거노인 공동생활가정'으로 단계적으로 리모델링하겠다고 밝혔다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      천만평에 이르는 땅에 태양광 발전을 한다면, 생산되는 거대한 전력을 활용해 &lt;새만금 재생에너지 테크노시티&gt;라는 옥동자를 낳아야 하지 않은가? 국내외의 재생 에너지 관련 기업들을 유치할 수 있는 실현 가능하고 전략적이며 구체적인 방략은 무엇인가? 국제금융자본을 유치할 수 있는 체계적이고 전략적인 접근법은 어떠해야 하는가? 새만금을 아시아 테마관광,레저산업의 메카로 만들 수는 없는가? 문명사적 전환의 시각으로 새만금을 바라 볼 때, 과연 어떠한 장벽들을 하나하나 무너뜨려야 할 것인가?  그렇다면 지금의 신항만 정책은 미래를 담보하고 있는가?    사단법인(준)새만금새전북21과 전북일보가 손잡고 5일 오후 8시30분부터 6일 새벽 2시까지, 전북 군산 라마다군산호텔 대회의실에서 '제1차 새만금 밤샘토론'을 개최했다. ⓒ유상근 기자   전북과 새만금의 ‘운명’을 바꾸기 위한 전문가들의 ‘담대한’ 정책제안 발제와, 현장의 기업인들의 기탄없는 토론이 펼쳐졌다.  사단법인(준)새만금새전북21과 전북일보가 손잡고 5일 오후 8시30분부터 6일 새벽 2시까지, 전북 군산 라마다군산호텔 대회의실에서 '제1차 새만금 밤샘토론'을 개최했다.  이두엽 공동대표(전주대 객원교수)의 사회로 진행된 밤샘토론에서 정석훈 전 전북개발공사 사장은 새만금사업의 지난날을 돌아보면서 ‘새만금, 무엇이 장벽이고, 어떤 길이 살 길인가’를 주제로 총론적 발제를 담당했다.  정 전 사장은 "새만금개발사업은 농어촌공사에서 시행하는 새만금지구 산업단지 개발사업"이라고 소개하며 "복합형으로 개발 진행하고 있으나 수요가 없다. 산업용(제조업) 수요 부진하나 현 개발사업은 산업단지 위주다. 어느 부문에서 수요 촉진이 가능한지 연구해야 한다"고 주장했다.   오창환 전북대 지구환경공학과 교수(새만금 재생에너지 민관협력위원회 공동위원장)은 지난 30여년 새만금 사업의 지체로 인해 발생된 피해를 분석하고 환경복원의 시급한 과제를 거론하면서, 후세를 위한 상생(相生)의 전략을 제시했다.  오 교수는 "2007년에 새만금 사업이 농업용지 100%에서 농업용지 70%와 산업관광용지 30%로 수정됐고, 2008년에 다시 농업용지 30%, 산업 및 관광 용지 70%로 수정. 이러한 과정에서 내부 계발 예산이 1조3000억에서 22조로 늘어나며 새만금호 수질이 계속 나빠져 5, 6급수 상태"라며 "부분 해수 유통으로 새만금 사업 이익을 극대화해야 한다"고 강조했다.  오 교수는 "해수유통 없이는 새만금 호수가 썩고 모든 투자는 물거품이 될 가능성이 매우 높다"며 "현 새만금 호수의 14.5%만이 농업에 필요하기 때문에 해수유통을 해도 농업용수 공급에 문제 없다"라고 주장했다.  또 "27년동안 10조 투자에 내부 공사진도 12%, 5개의 공장 입주, 15조의 어업 손실을 발생시킨 현 새만금 사업은 이미 실패한 사업"이라며 "어업 생산량 74% 감소와 생태관광지로서의 가치 하락에 의해 앞으로 매년 1조 이상의 경제적 피해를 입을 것"이라는 우려도 했다.  오 교수는 또 "미세먼지를 발생시킬 원인이 타 지역에 비해 상대적으로 적은 전북지역의 미세먼지 농도가 매우 높은 원인이 밝혀지지 않고 있다"라며 매립을 위해 지표로 옮겨진 호수퇴적물을 미세먼지의 원인으로 추정하기도 했다.  이재영 전북 RE-100 대표이사(전 성공회대 교수)는 국내의 제생에너지 관련 기업들과 마이크로소프트, 알리바바 등 RE-100에 참여한 기업들을 새만금사업에 참여시키기 위해서 정부가 무엇을 할 것인가를 주제로 발표했다.  이 대표이사는 "구글과 아마존, 애플을 비롯해 완성차 업체인 GM과 BMW 등 세계 유수의 기업들을 비롯해 157개 기업이 RE100(Renewable Energy 100%:재생에너지 100% 달성)에 참여하고 있다"라며 전북이 앞장서서 RE100 선언을 하고 새만금을 RE100 특구로 지정해야 한다고 강조했다.  이 대표이사는 "적극적인 기업 유치활동을 통해 국내 RE100인증이 필요한 기업들을 새만금으로 끌어 들인다면 우리나라 기업의 대내외 이미지 재고와 경쟁력, 그리고 문재인정부가 추진하고 있는 3020재생에너지 정책에 큰 힘을 줄 것이 분명하다"고 말했다.   수상태양광 전문가인 양기해 SEGI엔지니어링 회장은 "최근 새만금 내부 개발이 가시화되는 시점에서 그 시금석이 되는 수상태양광 발전시설단지와 수변도시개발은 매우 중요한 의미를 갖는 시금석"이라고 강조하며 ▲태풍에도 안전한 구조 ▲수질정화기능 ▲디자인이 가미된 명품 수상태양광발전시설 등 수상태양광 발전시설이 구비해야 될 3가지 인자를 제시했다. 양 회장은 또 "유니버시아드 대회를 할 때 유럽대표단은 새만금을 보여주겠다고 하니 생태를 파괴한 새만금은 가지 않겠다고 보이콧 했다는 일화가 있다"라며 "종 다양성이 확보되는 세계유일의 생태 생명도시로 태어나야 한다"는 의견도 제시했다.  한상근 KAIST교수는 2040년의 시점에서 새만금의 미래를 내다보는 문명사적 전망을 제시하고, 방송컨텐츠 전문가이기도 한 ㈜호미로의 박인택 대표는 ‘새만금이기에 가능한’ 다양한 비즈니스 모델을 제안했다.   테마파크 전문가인 홍승광씨는 ‘Asia Fantasy 테마파크’를 중심으로 새만금의 ‘문화관광전략’을 펼쳐 보였으며, 국제금융전문가인 김석범 TLBU FOUNDATION 이사는 다양한 글로벌 비즈니스 경험을 바탕으로 ‘국제자본과 세계적 기업의 새만금 유치’를 위한 전략적 접근법을 구체화했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲    신성철 KAIST 총장 ⓒ KAIST    신성철 KAIST 총장이 미국 노스웨스턴대 재료과학 분야 ‘올해의 자랑스러운 동문상’ 수상자로 선정됐다.  동문상 선정위원회는 "세계 자성학 분야에서의 독보적인 연구로 재료물리학 발전에 기여한 학문적 업적과 대학 총장으로서 고등교육 및 인재양성에 기여한 공로를 인정해 신성철 KAIST 총장을 올해의 자랑스러운 동문상 수상자로 선정했다"고 밝혔다.  시상식은 오는 5월16일 노스웨스턴대학교에서 열릴 예정이다.  신성철 총장은 1974년 서울대 응용물리학과 졸업 후 1977년 KAIST 고체물리학과 석사를 거쳐 1984년 노스웨스턴대에서 재료물리학 박사 학위를 받았다.  신 총장은 노스웨스턴대 박사과정 재학 중 금속인 비스무트와 반도체인 납텔루라이드(PbTe)의 구조가 유사하다는 점에 착안해 두 물질로 초격자 다층박막 구조를 세계 최초로 만들어 초격자 구조 신물질을 제작했다.  신 총장은 나노 자성체 스핀 동력학을 연구하는‘나노스핀닉스(Nanospinics)’ 분야를 개척했으며, 20여 년간 300여 편의 관련 논문을 발표하고 37건의 국내외 특허를 등록·출원하는 등 이 분야의 국내외 연구를 선도했다.  이 같은 공로로 2008년 자성학 분야 한국 과학자로서는 최초로 미국 물리학회 석학회원에 선정됐고 2016년 한국 과학자로서 최초로‘아시아자성연합회’상을 받았다.  또 국내 과학기술 발전과 차세대 인재양성에 기여한 공로로 2007년 과학기술훈장 창조장과 2012년 대한민국 최고과학기술인상을 수상했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      경남대는 지난해 교수들의 성공적인 교육경험을 토대로 대학 전체가 공유하고 확산하기 위한 '2017 경남대학교 교육혁신포럼'을 개최한다고 10일 밝혔다.  10일부터 11일까지 이틀간 한마미래관 및 창조관에서 열리는 이번 포럼은 3개 세션으로 나눠 교수와 학생들이 참여하는 교육혁신콘서트로 진행된다.  포럼 제1세션에서는 경험기반교육, 제2세션에서는 지역협력교육, 제3세션에서는 경남대교육의 미래를 주제로 초청특강 2회, 학생발표 3회, 교수들의 주제발표 31개와 열띤 토론이 마련된다.    ⓒ경남대학교     특히 첫날 열린 콘서트에서는 김해욱(경제금융학과)·도태융(경호보안학과)·염혜진(간호학과) 학생은 교과목을 수강하면서 느꼈던 점에 대해 체계적이고 일목요연하게 설명해 참석자들로부터 큰 박수갈채를 받았다.  또 이태억 KAIST 교수의 KAIST의 수업혁신 전략 및 사례, 김우승 한양대 ERICA캠퍼스 부총장의 직무능력강화를 위한 산학연계 교육방안이라는 초청 발표를 통해 앞서가는 대학의 우수사례를 벤치마킹하는 계기가 마련했다.  박재규 총장은 "이번 포럼을 통해 우리 대학이 지역의 중심에서 잘 가르치는 대학으로 더욱 발전할 수 있다는 자신감을 가지게 되었다”며 “매년 정기적인 포럼을 통해 4차 산업혁명 시대 지역밀착형 대학의 선도모델이 되도록 지속적으로 지원해 나갈 것"이라고 말했다.   한편 경남대는 4차 산업혁명시대를 이끌 창의융합형 지역인재 양성을 위해 경험기반교육, 모듈형 교육과정, 지역연계교과목 운영, 과정중심 평가, 맞춤형 학생지도 등을 추진하고 있다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ PD-1 발현에 따른 각 세포군의 특징적인 유전자 발현 양상 ⓒKAIST       KAIST 의과학대학원 박수형 교수와 서울아산병원 황신, 송기원 교수 공동연구팀이 간암 환자의 탈진된 종양 침투 면역세포 구성의 차이에 따른 간암 환자군을 구분하는 데 성공했다.  이번 연구는 서울아산병원 임상 연구팀과 KAIST 의과학대학원이 동물 모델이 아닌 임상을 통해 새 면역 항암 치료법을 위한 협업을 진행한 것으로 중개 연구(translational research)의 우수 모델로 평가된다.  암이 발생하면 인체는 암세포를 제거하기 위해 면역세포인 T세포를 활성화하는데, 종양은 T세포의 기능을 억제하기 위한 환경을 구성한다.  암세포는 생존을 위해 면역세포로부터 몸을 숨기는데, 면역 관문 억제제는 암세포가 숨는 데 도움을 주는 PD-1, PD-L1의 작용을 차단함으로써 면역세포가 정상적으로 암세포를 공격할 수 있게 되는 것이다.  그러나 면역 관문 억제제는 약 2~30%의 환자에게만 효능이 있고 70% 이상의 환자에게는 효과가 없어 면역항암제의 치료 효능을 높이기 위한 연구가 계속되고 있다.         ▲서울아산병원 황신 교수 ⓒKAIST    연구팀은 간암 환자의 탈진한 T세포 중에서 PD-1 단백질을 많이 발현하는 T세포가 그렇지 않은 T세포에 비해 면역세포의 기능이 더 많이 저하돼 있고, PD-1 이외의 다양한 면역 관문 수용체를 동시에 발현하는 것을 발견했다.  특히 간암 환자 중에서 약 절반 정도의 환자만이 PD-1을 많이 발현하는 탈진 T세포를 갖고 있으며, 이러한 환자들이 복합 면역 관문 억제제에 의해 T세포의 기능이 효과적으로 회복됨을 확인했다.        ▲박수형 교수 ⓒKAIST    박수형 교수는 “이번에 새롭게 제시된 환자군은 현재 적용 중인 면역 관문 억제제 치료의 반응을 예측할 수 있는 바이오 마커로서 유용하게 활용될 수 있다”며 “복합 면역 관문 억제제가 특정 환자에게만 효능이 있음을 제시해 맞춤 의학의 근거가 될 수 있다는 임상적 의의를 갖는다”라고 말했다.   보건복지부 첨단의료기술개발 사업의 지원을 받아 김형돈 박사과정이 1저자로 참여한 이번 연구는 국제 학술지 ‘소화기학(Gastroenterology)’ 12월4일 자에 게재됐다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "시위 및 중상모략 주동 등 선동행위 금지." (경찰청 인천지방경찰청 종합시설관리 과업지시서)"갑에 배치할 미화원의 자격은 사상이 건전하고 품행이 단정해야" (관세청 경남양산세관 도급계약서)"작업도중 잡담, 콧노래 등의 고성을 삼가야 하며 사무실 의자 및 소파 등에 앉아서 쉬지 못하도록 한다." (문화재청 국립문화재연구소 청소용역 과업지시서)"당 원의 주요보직자 등의 출퇴근 시에는 (경비 용역 노동자는) 환영과 전송의 예절을 갖춘다." (한국과학기술연구원(KAIST) 부설 한국과학영재학교 경비 과업 지시서)새정치민주연합 을지로위원회가 196개 정부·공공 기관의 간접고용 비정규직 용역 계약서를 전수조사해 7일 발표한 내용 중 일부다. 지난해 중앙대에서 발견돼 사회적 논란이 됐던 '콧노래, 소파 휴식 금지' 과업 지시서가 공공 기관에서도 다시 발견됐다. (☞ 관련 기사 : 중앙대, '콧노래·잡담 금지'…"불법 투성이 계약서") 또 쟁의권 등의 노동 3권을 사실상 원천 봉쇄하거나 계약서상 '갑'에게 '환영과 전송의 예절'을 갖추게끔 하는 전근대적 계약 내용까지 발견된다. 을지로위는 이날 오후 국회에서 기자회견을 열고 이 같은 부당한 용역 계약서의 사례들을 제시하며 "이번 국정감사에서 전 상임위에 걸쳐 정부·공공기관의 '용역근로자 근로조건 보호지침' 준수 여부를 확인하겠다"고 밝혔다. 정부가 '지침' 내놔도 공공기관들은 '나몰라라'?'용역근로자 근로조건 보호지침'은 청소·경비 등 용역 노동자들의 노동 조건이 사회 문제가 되자 2012년 이후 정부가 발표하고 있는 산하 기관 대상 지침이다.올해 1월에도 기획재정부, 행정자치부, 고용노동부가 합동으로 새 지침을 발표하기도 했으며, 금주 중에 고용노동부 또한 지침 준수여부를 조사한 결과를 발표할 계획이다. 지침은 용역 계약서 있어서는 안 될 노동 3권 제약 규정이나, 과도한 복무 규정을 예시와 함께 구체적으로 제시하고 있다. 또 용역 노동자에게 정부가 제시하는 '시중 노임 단가'를 지급하도록 하고 있다. 용역업체가 바뀌더라도 '특별한 사정이 없는 한 (용역 노동자들의) 고용을 승계'할 것 또한 지침으로 제시하고 있으며, 논란이 된 '콧노래·휴식 금지' 복무 규정은 '불법 파견 소지'가 있으므로 용역계약서에 담기 바람직하지 않다고 지적돼 있기도 하다. 시중 노임단가 적용 기관 고작 6%그럼에도 을지로위가 196개 기관의 용역 계약서를 검토한 결과, 정부의 이 같은 지침을 따르지 않고 있는 기관들이 상당한 것으로 확인됐다. 을지로위원회는 시중 노임단가를 적용하는 기관은 고작 6%(11개)밖에 되지 않는다고 밝혔다. 시중 노임단가는 중소기업 중앙회에서 발표하는 '중소제조업 직종별 임금조사 보고서'의 단순노무종사원 노임을 기본급으로 적용하여 산정된다. 올해 시중노임단가는 6만4150원으로 정부 계산에 따르면 시급은 8019원이다. '불법 파견' 논란을 부를 수 있는 원청 업체(용역 계약서상 '갑')의 용역 노동자에 대한 인사 개입과 고용불안 야기 가능 조항이 용역 계약서에 없어, 용역 노동자가 보호되고 있는 기관은 19%(38개) 수준이라고 을지로위는 분석했다. 81%에 이르는 공공 기관이 실제 사용자가 아닌 원청 업체에 의한 해고, 징계, 인사이동 등을 가능하게 하는 조항을 용역 계약서에 갖추고 있다는 얘기다. 일례로 대전지방경찰청 용역계약서 과업지시서에는 "종업원 중 부적격자가 있을 경우 교체 통보 시 을은 이를 수용하여야 하며 부적격 사요는 비공개에 이의제기는 금지"와 같은 내용이 포함돼 있다. 노동자 파업·태업이 음주 도박과 같은 행위?을지로위는 또 노동 3권 보호 기관은 43%에 불과하다고도 밝혔다. 나머지 기관들은 용역 노동자의 시위 등의 쟁의 행위를 용역 계약서를 통해 사실상 원천 차단함으로써 비정규직 노동자들의 노동 3권을 침해하고 있다는 지적이다. 을지로위는 부당 조항 예시로 '중상모략'을 금지한 인천지방경찰청의 과업지시서와 함께 "미화원은 파업 또는 태업, 음주 도박 등을 하는 행위를 해서는 아니된다"는 국토교통부 산하 한국시설안전공단의 과업 지시서도 제시했다. 근로기준법, 노조법 등으로 보장되는 파업권을 무시하고, 파업을 음주나 도박 행위와 동급으로 놓고 있는 과업 지시서다. 고용승계 지침 있는 기관 66%…野 "전 기관 지침 준수토록 하겠다"'고용승계' 지침을 따르고 있는 곳은 66%(129개)라고 을지로위는 밝혔다. 다른 기관들은 "수탁업체는 특별한 사정이 없는 한 기존 근로자를 계속 고용하여야 한다"와 같은 고용 승계 조항이나 문구를 용역 계약서에 포함하고 있지 않다는 지적이다. 을지로위의 우원식 위원장은 이날 기자회견에서 "작년 국회 환경노동위원회 국정감사에서 이 같은 문제를 지적해서 고용노동부 산하 기관이 (용역 계약을) 고친 결과 (해당 기관의) 평균 임금이 25만 원가량 올랐다"면서 "이번 국감을 통해 전 기관이 지침을 철저히 이행하도록 하겠다"고 밝혔다. (☞ 관련 기사 : "노동부 '부처 아님'? 전교조 불법 지적하기 앞서…")그러면서 "정부의 가짜 노동 개혁과는 달리, 공공기관 간접고용 비정규직 문제와 갑·을 관계 불공정 거래 문제를 해소하는 국정감사장을 만들겠다"고도 했다. 한편, '환영과 전송의 예절을 갖춘다'는 조항이 있는 한국과학영재학교는 즉시 문제가 된 조항을 삭제하겠다고 밝혔다.이 학교 관계자는 이날 &lt;프레시안&gt;과 한 통화에서 "2013년 시설 관리를 용역화하며 다른 곳의 용역 계약서를 참고로 삼다 보니 문제가 된 조항이 들어오게 된 것 같다"면서 "이런 조항을 파악하지 못한 것은 저희 잘못이다. 즉시 해당 조항을 삭제하겠다"고 밝혔다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      순천시의회 주윤식 부의장(2선)은 지난 13일 문재인 대통령의 대선 공약인 한전공과대학(켑코텍·Kepco Tech)의 순천 유치를 위한 가칭 한전공대순천유치시민위원회(이하 한전공대유치위) 발족을 촉구하고 나섰다.    ▲순천시의회 주윤식 부의장     문재인 대통령의 공약인 한전공대는 한국전력이 2022년 개교를 목표로 5000억 원을 투자해 설립하는 공과대학으로 ‘마스터 플랜’ 수립을 위한 글로벌 컨설팅 용역이 진행되고 있다.   정부는 한국과학기술원(KAIST), 포항공과대학(POSTECH)에 버금가는 신재생녹색에너지전문대학으로 발전시킨다는 계획이다.   이에 주 부의장은 “한전공대 유치를 위한 범시민 추진위원회인 한전공대유치위 발족을 제안하고 유치위 구성 및 운영을 통해 한전공대 순천 설립을 반드시 성사 시켜야한다”고 강조했다.   주 부의장은 “한전공대 설립은 광주·전남의 도시 불균형 발전을 해소할 수 있는 문재인 정부의 획기적 공약으로 교육도시인 순천으로 유치해야 한다”며 당위성을 호소했다.   그는 또 “설 이후 시민과 정치인, 시민단체 등의 참여를 통해 한전공대유치위를 구성해 지역사회 차원의 추진역량을 결집하자”고 촉구했다.  특히 그는 “한전공대가 나주와 광주 인근인 전남중부권에 설립되면 인구와 산업, 공공기관 등의 편중이 심화되는데다 무안도청 이전으로 동부권 주민들이 소외받는 현실에서 한전공대 순천 유치로 지역발전의 균형을 이뤄야한다”고 강조했다.   끝으로 주 부의장은 “지역경제활성화 등 지역에 미치는 파급효과를 극대화하기 위해 한전공대 부지 선정과 입지 여건 및 기반시설 등에 관해 지역사회의 활발한 논의가 이뤄져야 한다”며 “지역사회 차원의 타당성 용역을 추진하고, 학교 유치를 위해 정부 및 정치권과의 긴밀한 협조체계를 구축해 나가야한다”고 피력했다.   한편 주윤식 순천시의회 부의장은 2선 의원으로 활발한 의정활동으로 주목받고 있으며, 문재인 대통령 선거 당시 선거대책본부장을 맡아 왕성한 활동을 펼치는 등 문재인 정부 창건에 기여한 바 있다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      한림대 의과대학 생화학교실 박재봉 교수가 책임 저자로 참여한 논문이 국제저명학술지인 리독스 바이올로지 (Redox Biology) 2월 온라인판에 게재됐다.  신경세포에서 아밀로이도베타 농도에 따른 다른 신호전달 경로를 규명한 이번 연구는 베트남출신 한림대 의과대학 박사과정 캅킴쿠옹(Kim Cuong Cap)씨가 주저자로서 연구를 수행하고, 책임연구자로 박재봉 교수가 연구를 지휘했다.    ▲베트남출신 한림대 의과대학 박사과정 캅킴쿠옹(Kim Cuong Cap)씨와 박재봉 교수. ⓒ한림대학교     공동연구자로 의과대학 서상원 교수, 카이스트(KAIST) 정원석 교수, 키스트(KIST) 류훈 교수가 참여했다.   알츠하이머 치매의 대표적인 증상이 신경세포 바깥쪽에 아밀로이드반이 형성되고 신경세포 안쪽에 타우 단백질이 엉켜 신경세포를 손상시키는 것이다.   아밀로이드베타가 타우 단백질을 인산화 시킨다는 것은 알려져 있으나 그 기전을 잘 알려져 있지 않다.   연구 결과를 보면 저농도의 아밀로이드베타는 오히려 타우단백질의 인산화를 촉진하고, 고농도의 아밀로이드베타는 오히려 타우 단백질의 인산화를 촉진하지 않는 반면, 활성산소를 많이 만들고 지질합성 효소인 ATP citrate lyase (ACL)을 유도해 지질합성을 증가시킨다.  이번 연구로 많은 양의 아밀로이드베타로 인해 신경세포 밖에서 형성된 아밀로이드 반(Plague)을 저해하거나 아밀로이드베타 생성을 저해하는 치매치료제 후보약물들이 있다.  하지만, 아밀로이드를 완전히 제거하는 것이 아니며, 치매치료제 처치 후 저농도의 아밀로이드베타가 남아있다면 여전히 신경세포에 위협적인 요인임으로 아밀로이드 제거보다 신경세포에서 아밀로이드베타의 신호전달 경로차단이 알츠하이머 치매치료에 효과적일 수 있음을 시사했다.  Redox Biology는 2018년 JCR 기준, 저널의 피인용지수를 나타내는 지수인 IF(Impact Factor)가 7.793로 생화학분야의 최우수 국제학술지이다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ▲더불어민주당 김성주의원(전주병) ⓒ프레시안     국민연금 개혁이 계속 미뤄질 경우 급격한 제도변화 및 보험료율 상승 등 국민이 수용하기 어려울 수 있는 상황이 초래될 수 있다는 연구자료와 함께 국회 차원에서 연금개혁을 위한 논의기구가 조속히 만들어져야 한다는 주장이 제기됐다. 국회 보건복지위원회 간사인 김성주 의원(더불어민주당)은 14일, 카이스트 국민연금연구원의 연구자료를 인용하면서, 국민연금 개혁이 지연될수록 국민연금 기금 적립과 연금 지급에 필요한 보험료율이 급격하게 상승될 것이라고 주장하고, 연금개혁을 위한 국회 차원의 기구 구성을 촉구했다. 국민연금은 올해로 33주년을 맞이했고, 2018년까지 모두 4차례의 국민연금 재정추계와 제도개선 방안이 발표된 바 있다.  하지만 실제 연금개혁이 이뤄진 것은 1996년과 2006년 2차례뿐이고 그 이후 보험료율, 소득대체율과 같은 모수개혁은 이뤄지지 않았다. 제4차 국민연금 재정추계에 따르면 제도변화가 없는 한 2024년 1천조 원을 돌파하고 2041년 1778억 원에서 정점에 이른 후 2057년에 소진되는 것으로 추계됐다.  그러나 국가가 존재하는 한 연금의 지급이 멈출 수 없는 만큼 외국에서도 다양한 연금개혁을 통해 국민들에게 연금을 지급해 오고 있다. 김성주의원은 따라서 "우리나라는 연금개혁을 통해 전환의 비용을 계층간, 세대간 합리적으로 분담하고, 실질적인 노후소득 보장장치로서 기능하도록 해야 하는 시대적 과제를 안고 있다."고 주장했다. 김 의원이 공개한 연구자료에 따르면, 4차 재정추계 기준으로 2020년에 연금개혁이 된다면 완전적립식의 제도변화를 시도해볼 수 있지만, 5년 뒤인 2025년에 연금개혁이 될 경우 완전부과방식으로 갈 수밖에 없는 상황을 보여주고 있다.  연구자료는 특히 향후 100년간 적립배율이 1배 이상, 0.5%의 추가 수익률과 100조원의 국가보조금이 투입을 전제로 할 때 2015년 연금개혁이 됐다면 보험료율 12.02%로 설정이 가능했겠지만, 2020년 연금개혁 시에는 20.40%로 높아지고, 2025년 연금개혁이 된다면 같은 제약조건을 만족할 보험요률 산출이 어렵다는 것을 보여주고 있다.  즉, 연금개혁이 늦어질수록 국민연금의 재정목표 달성, 지속가능성을 위해 지불해야 할 비용이 기하급수적으로 늘어난다는 것이다. 문재인 정부는 2018년 제4차 국민연금 재정추계와 제도발전위원회의 제도개선방안, 복지부와 국민연금공단이 개최한 전국 순회 국민토론회 개최와 이를 통해 수렴된 국민여론을 바탕으로 제4차 국민연금종합운영계획(정부안)을 발표했다.  또한 2019년 경제사회노동위원회 연금개혁특위는 보험료 및 소득대체율을 인상하는 다수안을 국회와 정부에 제안했다. 이제는 국민여론과 정부안, 사회적논의기구가 제시한 개선안을 놓고 국회가 논의해야 할 때가 된 것이다. 김성주 의원은 "연금개혁은 혁명이 아니다. 그러나 연금개혁을 위한 골든타임은 얼마 남지 않았다. 지금이라도 연금개혁을 위한 국회 논의기구를 구성해야 한다."며 "국회가 남탓, 정부탓 하면서 마냥 국민연금 개혁을 미룰 수 있는 상황이 아니다”면서 국민연금 개혁을 위한 국회 특위 구성을 강조했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ⓒ포항시      포항시는 지난 20일 시청 중회의실에서 송경창 부시장 주재로 관련 부서장 및 용역수행기관인 캡스톤브릿지 관계자 등이 참석한 가운데 ‘포항지역 의과대학 설립 타당성 조사 연구용역 중간보고회’를 가졌다.  보고회는 정부 의료보건 정책, 범부처 의사과학자 양성 정책 등 의대 설립과 관련한 정책 동향 보고를 시작으로, 의과대학 설립 기반을 위한 부지 확보방안, 의대 설립 추진방향 등 주요 사항을 논의하고 향후전략 수립을 점검했다.  포항은 의과대학 설립 시에 관련 산업 발전을 위한 밸류체인 형성 등 다양한 시너지 효과를 창출할 수 있으며, 전국 최초 강소개발연구특구 지정으로 바이오․의료․소재 등 공동연구를 통한 연구중심 의과대학을 설립하기에 최적의 조건을 갖추고 있다고 분석됐다.  이와 더불어, 듀크대학, 카이스트 등 국내외 주요 의과학 선진융합대학원 사례 공유 및 포항시에 적합한 모델 구축 방향에 대해 논의했으며 지자체와 대학의 지속적인 소통과 교류를 바탕으로 상생 협력체계 강화가 선행돼야 한다는 공감대를 형성했다.  송경창 포항시 부시장은 “이번 중간보고회를 통해 도출된 의견 및 전략에 대해 적극 검토해 국가정책 변화 및 의대정원 증원 등 불시에 찾아올 수 있는 모든 상황에 철저히 대비해야 한다”고 말했다.  한편 이번 연구용역은 의과대학 설립을 통해 52만 포항시민의 의료복지 수준 향상과 국가균형발전을 위한 정책 실현 및 지역 간 의료격차 해소 등을 목표로 지난 7월 착수보고회를 시작했으며, 오는 3월에 최종 연구 결과물이 나오도록 추진할 계획이다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      문재인 대통령은 31일 박기영 순천대 교수가 낙마한 과학기술정보통신부 과학기술혁신본부장 자리에 임대식 한국과학기술연구원(KAIST) 생명과학과 교수를 임명했다.임 본부장은 미국 텍사스주립대에서 생화학 및 분자유전학으로 박사 학위를 받았으며 현재 한국과학기술원 히포(Hippo) 세포분열·분화창의연구단 단장을 맡고 있다. 지난 대선 때는 문재인 대통령의 싱크탱크인 '정책공간 국민성장포럼'의 과학기술분과에서 활동했다.박수현 청와대 대변인은 임 본부장에 대해 "암 억제 등 생명과학기술 권위자로서 뛰어난 역량과 관리역량을 겸비해 과학기술분야 변화에 혁신을 이끌 적임자"라고 했다.문 대통령은 또 국가과학기술자문회의 부의장에 염한웅 포항공대 물리학과 교수를, 국가과학기술심의회 위원장에 백경희 고려대 생명과학부 교수를 각각 임명했다.박 대변인은 "염 부의장은 우리나라 기초과학분야의 새로운 세대를 대표하는 물리학자로 노벨상에 근접한 과학자 중 하나로 평가받는다"며 "새 정부의 과학기술정책 방향과 목표를 실현할 적임자로 과학기술정책 기조와 혁신과제 등에 대한 실효성 있는 대통령 자문 역할을 할 것으로 기대한다"고 소개했다. 백 위원장에 대해선 "식물 성장과 메커니즘을 규명해 온 생물학자로 왕성한 연구활동과 더불어 신진 과학자 양성에 많은 노력 기울여왔다"며 "과학자로서의 식견과 통찰력, 오래 연구경험으로 예산분배, 심의 등 의사결정의 수장으로의 역할을 기대한다"고 했다.하지만 백 위원장은 지난 2004년 1월자 '식물과 세포생리학 저널'에 실렸던 논문에 교신저자로 실험에 참여했으나, 데이터가 일부 조작됐고 중복된 것으로 확인돼 2013년 해당 논문이 철회된 바 있다.이에 대해 청와대 관계자는 "검증 과정에서 2004년 모 과학지에 논문 중복 게재 문제가 있었던 사실을 알고 있었다"고 했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 세탁 가능한 입는 디스플레이 모듈 모식도 및 구동 사진 ⓒKAIST       전자 기능을 의복이나 착용 장치에 통합한 웨어러블 기기에 대한 관심이 커지고 있는 가운데 외부 전원없이 자가 발전되고, 세탁할 수 있는 디스플레이 모듈 기술이 개발됐다.  KAIST 전기및전자공학부 최경철 교수와 전남대학교 의류학과 조석호 교수 연구진이 개발한 이 기술은 옷감을 직접 기판으로 사용하는 전자소자의 상용화를 앞당길 것으로 기대된다.  또 전자소자가 외부 전원 없이 자가 발전해 에너지를 절약할 수 있고, 전통적인 섬유기술과 첨단 IT 산업의 융합으로 의류의 첨단기술화를 통해 ‘입는 디스플레이’라는 신시장을 창출할 것으로 평가된다.  최경철 교수 연구진은 낮 동안에 태양에너지를 전기에너지로 변경하는 PSC 및 적은 전력으로 작동할 수 있는 OLED를 직물 위에 형성해, 자가 구동할 수 있는 ‘입는 디스플레이 모듈’ 구현에 성공했다.  이 디스플레이 모듈은 낮에 충전한 전력으로 저녁에도 구동 할 수 있어 탈부착 없이 사용할 수 있다.  또 입는 디스플레이 형태로 제작된 디스플레이 모듈이 비 오는 날이나 세탁해도 특성을 유지할 수 있도록, 투습 방지에 탁월한 새로운 봉지막도 개발했다.  이 봉지막의 경우 무기막을 포함하고 있지만 유연성이 좋아 세탁과 3mm의 낮은 곡률반경에서도 성능 저하없이 옷감 위에 입는 디스플레이 모듈을 형성할 수 있다.  또 70℃ 이하의 저온공정을 사용해 실제 의류에 사용되는 다양한 소재에 적용할 수 있다.        ▲ 최경철 교수(앞줄 오른쪽) 연구진 (시계방향으로 최경철 교수, 조석호 교수, 전용민 연구원, 정은교 박사)ⓒ    최경철 교수는 “기존의 플라스틱 기판 기반의 웨어러블 전자소자 및 디스플레이 연구와 달리 일상생활에 입는 옷감을 기판으로 활용해 세탁이 가능하고 외부 전원 없이 고분자 태양전지로 디스플레이를 구동하는 전자소자 모듈을 구현했다”며 “태양에너지를 이용해 자가 구동 및 세탁이 가능한, 전기 충전이 필요 없는 진정한 의미의 입을 수 있는 디스플레이 기술 시대를 열었다”고 설명했다.  정은교 박사과정과 전용민 연구원이 주도한 이번 연구는 국제 학술지‘에너지&amp;인바이런멘탈 사이언스(Energy and Environmental Science, IF : 30.067)’ 1월18일 자 온라인판에 게재됐고, 우수성을 인정받아 뒤표지 논문으로 선정됐다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      울산대학교 졸업생들의 국내 10대 대기업 임원 비중이 국내 대학 가운데 상위권에 속하는 것으로 나타났다.  울산대학교는 개교때부터 산학협력교육을 지속적으로 실시한 결과 졸업생들의 '톱 클래스 글로벌' 국내 대기업 임원 비중이 높은 것으로 분석됐다고 12일 밝혔다.  국내 시가총액 상위 10대 기업이 금융감독원에 제출한 '2017년 사업보고서'에 나타난 전체 임원 2083명(사외이사 제외)의 최종 학력을 분석한 결과 울산대는 21명을 배출해 국내 대학 중 17위에 올랐다.        ▲ 울산대학교 학생들 현대자동차 현장실습 모습. ⓒ울산대학교    대학별로는 서울대가 232명을 배출해 가장 많았다. 다음으로 카이스트·고려대(각 142명), 연세대(126명), 성균관대(100명), 한양대(93명), 서강대·경북대(각 66명), 인하대(64명), 부산대(59명) 순으로 나타났다.  특히 울산대는 관계사인 현대자동차 총 임원 294명 가운데 고려대(28명), 서울대(26명), 부산대(22명), 연세대·한양대(13명) 다음인 12명으로 6위(전체 임원의 4%)를 차지했다.  현대모비스에서는 울산대가 7명으로 고려대(9명), 한양대(8명)에 이어 3번째였다.  울산대는 이 밖에 삼성전자, SK하이닉스 각각 1명의 임원을 배출했으며 10대 기업에 배출한 전공은 기계·전기·전자·조선·산업관리·건축 등 이공계열이 15명, 경영·경제 등 인문사회계열이 6명으로 집계됐다.  김현준 울산대 기획처장은 "개교 때부터 시작한 산학협력교육으로 실무에 강한 우수 인력을 배출한 것이 실적 위주의 승진에 반영된 결과라고 본다"고 말했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      '이재용'이라는 이름 뒤에 회장 직함이 붙는 건, 시간문제다. 병석에 있는 이건희 회장이 최근까지 유지했던 직함은 세 가지다. 삼성전자 회장, 삼성생명공익재단 이사장, 삼성문화재단 이사장. 이 가운데 뒤의 두 가지를 이재용 삼성전자 부회장이 물려받았다. 그게 지난 5월 15일이다. 남은 하나, 삼성전자 회장을 물려받기 위한 작업은 마무리 단계다. 김용철 변호사의 양심선언을 계기로 출범한 삼성특검 수사, 이후 진행된 재판이 모두 종결된 게 2008년이다. 대부분의 사안에서 면죄부를 받았다. 법적 걸림돌이 사라진 뒤, 경영권 승계 작업은 물 흐르듯 진행됐다. '이재용의 경영능력'을 따져 묻는 건 그래서다. 삼성이 주식시장에서 차지하는 비중은 보통 25%이상이다. 올해 초에는 30% 가까이 됐다. 다른 경제지표를 살펴도 결론은 같다. 삼성이 흔들리면 한국경제에겐 치명타다. 삼성을 이끌 이재용 부회장이 무능하면, 우리네 살림살이도 피곤해진다."이재용의 경영능력이 검증되지 않았다"라는 표현은, 물론 새롭지 않다. 삼성 경영권 승계를 염두에 둔 프로젝트는 그동안 다양하게 진행됐다. 1996년 삼성에버랜드 전환사채(CB) 헐값 발행 사건이 시작이었다. 그때마다 시민사회단체는 "'경영능력이 검증되지 않은 이재용'에게 경영권을 넘기기 위해 삼성이 온갖 편법, 불법 행위를 한다"고 비판했다. 하지만 비판의 초점은 주로 삼성의 편법, 불법행위였다. 이 당시만 해도, '이재용 삼성 회장' 체제는 먼 미래의 일이었다. 하지만 지금은 다르다. 이건희 회장이 다시 경영 전면에 나설 가능성은 없다. '이재용 삼성 회장' 체제는 가까운 미래다. 총수가 황제처럼 군림하는 재벌 문화, 삼성이 한국경제에서 차지하는 비중. 이 두 가지를 함께 고려하면, '이재용의 경영능력'은 한가한 질문거리가 아니다.그런데 근거가 너무 빈약하다. 먹고사는 일이, 그러니까 경제가 전부라고 외치는 이들이 이렇게나 많은데, 최고의 경제 권력에 대한 정보가 이토록 적다는 건, 놀라운 일이다. 일단은 어쩔 수 없다. 그간 알려진 정보만으로 네 개의 질문을 뽑았다. 이런 질문을 통해 '이재용의 경영능력'을 제대로 검증하기란 불가능하다. 다만 '이재용 삼성 회장' 체제가 현실이 되기 전에 잠시 생각을 정리해볼 기회는 되리라고 본다. 1. 'e삼성'의 실패에서 뭘 배웠나'이재용의 경영능력'을 이야기할 때 늘 나오는 단어가 'e삼성'이다. 벤처바람이 아직 뜨겁던 2000년, 삼성 구조조정본부(옛 비서실, 현 미래전략실)가 추진한 프로젝트다. 벤처바람이 식으면서 함께 망했다. 당시 삼성 구조본은 이재용 부회장을 위한 성공신화를 만들려 했다. 경영 후계자가 될 자격을 입증하는 사례 말이다. 아울러 벤처바람을 타고 'e삼성' 관련 주식 가격이 오르면, 경영권 승계 작업에 필요한 자금도 마련할 수 있다고 봤다. 이를 위해 삼성 계열사에서 다양한 인원이 차출됐다. 'e삼성'의 실패 사례는 이재용 부회장의 경영능력을 불신하는 근거로 주로 인용됐다. 하지만 'e삼성' 관련 의사결정을 주도한 건 삼성 구조본이었다. 또 15년 전 사건이다. '2015년 지금, 이재용 부회장이 어떤 경영능력을 갖고 있는지'를 검증하는 근거로 삼기엔 무리가 있다. 다만 질문거리는 될 수 있다. 'e삼성' 실패에 따른 부담은 결국 삼성 계열사가 떠안았다. 이는 지금도 비난받는 대목이다. 따라서 삼성의 주주와 임직원, 다른 이해관계자들은 이재용 부회장에게 물어볼 권리가 있다. "이재용은 'e삼성'의 실패에서 무엇을 배웠나. 어떤 반성을 하고 있나." 2. '을'의 처지에 대해 얼마나 아나    ▲ '메르스 사태'에 대해 사과하는 이재용 삼성전자 부회장. ⓒ연합뉴스   김용철 변호사는 삼성 구조본에서 일하며 이재용 부회장을 지켜본 경험을 여러 차례 이야기했다. 늘 나오는 게 보통사람의 생활감각에 대한 무지였다. 결혼식 축의금으로 '0'을 더 붙인 돈을 내고도, 무감각했다는 사례가 대표적이다. 삼성이 만드는 제품과 서비스 가운데 상당수는 보통사람들을 겨냥한다. 소비자의 정서와 감각에 둔감한 건 기업가에게 치명적인 약점이다. 이건희 회장 역시 월급 받으려 일하는 보통사람들의 정서를 이해하지 못하는 게 자신의 약점이라고 말했다고 한다. 맞는 말이다. 문제는 여기서 그치지 않는다. 기업가는 결국 장사꾼이며, 승부사다. 재벌 총수라 해도 본질은 같다. 한마디로 '을'의 처지를 견뎌내는 독기가 있어야 한다는 말이다. 황태자로 자란 이재용 부회장에게 이런 자질이 있겠는가, 라는 의문이 있다. 언론에 드문드문 비친 이재용 부회장의 이미지는 철저한 '갑'이었다. 아버지 이건희 회장만 해도, 승계 우선권을 지닌 형들 앞에선 '을'이었다. 이재용 부회장은 최근 1년 여 사이에만 네 차례에 걸쳐 시진핑 중국 국가 주석을 만났다. 시 주석은 세계에서 두 번째로 힘이 센 사람이다. 그런데 시 주석을 수시로 만났다. 어지간한 국가 원수도 기대하기 힘든 일이다. 언론에 비친 모습만 보면, 이재용 부회장은 영국 왕실 가족 느낌이다. 이런 그가 단 하루라도 '을'의 처지를 견뎌낼 수 있을까?그렇지 않다면, 그의 경영능력을 의심하는 게 당연하다. 기업가는 결국 소비자와 주주의 눈치를 봐야 하는 존재다. 왕실 가족 이미지는 기업가와 상극이다. 이 대목에서 중요한 신호가 있었다. 지난달 23일, 이재용 부회장이 공개적으로 머리를 숙였다. 삼성서울병원에서 확산된 '메르스(MERS·중동호흡기증후군)' 때문이다. 사과 회견이 그의 생애 첫 기자 회견이었다. 마침 생일이기도 했다. 이재용 부회장이 사과를 자청했다고 한다. 이로써 그가 '허리에 깁스'하지 않았다는 건 입증됐다. 필요하면, 머리 숙일 줄도 안다. 하지만 그것으론 부족하다. 이재용 부회장이 머리 숙일 일들은, 이미 많았다. 그때마다 그의 허리는 꼿꼿했다. 생애 첫 공개사과가 너무 늦었다.3. '미지의 충격'을 견딜 맷집이 있나기사를 준비하며, 김상조 한성대학교 교수(경제개혁연대 소장)를 만났다. 김 교수는 삼성에 대한 가장 날카로운 비판자로 꼽힌다. 이런 그가 이재용 부회장이 잘했다고 말했다. '메르스 사태'에 대한 사과 말이다. 그리고 덧붙이는 말. "삼성은 결과가 예상되는 일에 대해서만 강하다." '메르스 사태'는 어느 정도 답이 정해진 질문이었다. '사과'가 답이다. 시기와 방법이 고민거리였다. 그 정도는 할 수 있다. 하지만 이재용 부회장이 서 있는 시험대는 또 있다. 투기자본 엘리엇 매니지먼트의 공격이다. 이건 성격이 다르다. 정해진 답이 없다. 엘리엇이 진짜 노리는 바가 무엇인지 알 수 없으니 말이다. 엘리엇은 제일모직과 삼성물산의 합병 조건을 문제 삼았다. 그렇다면, 오는 17일로 예정된 두 회사의 주주총회에서 합병이 승인되면, 즉 삼성이 표 대결에서 엘리엇을 꺾으면, 문제가 풀리는 건가. 그렇지 않다. 그 뒤에 어떤 사태가 기다리고 있을지 알 수 없다. '미지의 충격'이 계속 이어질 수 있다. 김 교수는 삼성이 '엘리엇 충격'에 취약한 게 그래서라고 했다. 삼성이 일부 사업부문에서 세계 1위를 기록한 건 최근의 일이다. 선진국 기업을 따라잡으려는 추적자로 보낸 세월이 훨씬 길다. 추적자는 목표가 분명하다. 가야할 길도 선명하다. 하지만 1등은 스스로 길을 찾아야 한다. 늘 '미지의 충격'에 노출된다. 2등이라면 1등의 대응방식을 배우면 된다. 그러나 1등은 그런 기회가 없다. 삼성은 아직 이런 상황에 익숙지 않다는 게 김 교수의 설명이다. 'e삼성' 당시와 달리, '엘리엇' 사태 대응에선 이재용 부회장이 주도적인 결정을 하고 있다고 봐야 한다. 물론, 실무전략은 법률 및 재무 전문가들의 몫이다. 그러나 이건희 회장이 의식불명인 상태에서 큰 결정을 내릴 사람은 이재용 부회장뿐이다. 늘 준비된 경로만 밟아왔던 이재용 부회장이 '엘리엇 충격'이라는 '정답 없는 문제'를 잘 풀 수 있을까. 한마디로 '미지의 충격'을 견딜 맷집이 있느냐는 질문이다.4. 창의적인 직원을 붙잡아둘 '매력'이 있나삼성전자 국내 직원 가운데 절반 가까이가 연구 개발 직군이다. 머리 쓰는 일, 새로운 걸 만들어내는 일을 하는 직원이 다수라는 말이다. 한마디로 지식기업. 2000년대 들어 가속화된 변화다. 이병철, 이건희 시대의 삼성 직원은 '매뉴얼'에 충실한 모범생이었다. 그때는 '추적자'였다. 선진국 기업의 매뉴얼을 입수해 잘 따르는 게 중요했다. 1등이 된 지금은 그럴 수 없다. 자기 머리로 목표를 찾아야 한다. 지식기업으로의 변화는, 그래서 필연이다. 이재용 시대의 삼성 직원은 그저 고분고분하기만 한 걸로는 부족하다. 창의적인 인재를 끌어들이고 붙잡아두는 게 이재용 시대의 과제다. 이병철, 이건희 시대의 삼성 직원들은 단지 회장이라는 이유로 충성했다. 하지만 이재용 시대의 삼성 직원들도 그러리라는 법은 없다. 자존심 강한 지식노동자를 끌어당길 '매력'이 이재용 부회장에게 있느냐는 질문이 나온다.전길남 카이스트 명예교수. '한국 인터넷의 아버지'라고 불리는 그가 &lt;블로터&gt; 인터뷰에서 지적한 내용이 날카롭다. 기사 마무리를 갈음할만한 내용이다."구글러(구글 직원)한테 물어봐라. 너희 사장 어떻게 생각하냐고. '굉장한 사람이다, 존경한다'라고 얘기할 거다. 삼성 사람한테 물어봐라. 너희 오너 어떻게 생각하나. 주식 투자 잘한다고 할 거다. 구글에서 일하는 사람이 래리 페이지(구글 창업자)를 존경하는 것처럼 삼성 직원이 이재용을 존경할까. (…) 이건희, 이재용한테 제일 중요한 게 뭐라고 보나. 계속 삼성 오너 자리를 지키는 게 목적이다. 젊은 사람한테 물어봐라. 계속 이건희, 이재용 부자가 삼성 회장 자리를 지킬 수 있게 결사적으로 노력하는 일에 협조하고 싶은 사람이 있는지.(…) 이건희 회장이 차기 사장(회장)이 될 기회를 아들에게만 준다면, 그게 삼성의 한계일 거다. 스티브 잡스가 아들에게 사장 시키고 다른 사람은 그 자리 못 앉게 하면 애플이 지금 같은 회사가 될 수 없었을 거다. 삼성의 공은 한국 회사도 세계 최고가 될 수 있다는 점을 보여준 것이다. 이 정도로 삼성의 미션은 끝나면 된다. 앞으로 구글, 페이스북 같은 회사를 만들 수 있는지는 젊은 사람들 손에 달렸다."   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      전남의 미래 먹거리산업을 자문할 ‘전남 신 성장추진위원회’가 지난 15일 서울 롯데호텔에서 출범식을 갖고, 에너지신산업 등 4대 신 성장산업의 발전 방안 마련에 머리를 맞댔다.  이날 출범식에선 김영록 전라남도지사가 민간 위원 10명에게 위촉장을 수여하고, 전남의 신 성장 전략산업에 대해 토론했다.   ▲전남의 미래 먹거리산업을 자문할 ‘전남 신 성장추진위원회’가 지난 15일 롯데호텔에서 출범했다.ⓒ전남도청   이번 전남 신 성장추진위원회는 전라남도의 자문기구다. 김영록 도지사가 위원장을 맡고, 민간위원으로 지역 출신 전직 고위관료, 산업계 전·현직 CEO, 법조인·학계 저명인사 등 11명으로 구성됐다. 참여 위원은 배국환 전 기재부2차관, 윤종록 전 미래부2차관, 이재훈 전 산업부2차관, 김준식 전 포스코 대표이사, 하경진 전 현대삼호중공업 사장, 조순태 전 녹십자 부회장, 송세경 KAIST 위촉 책임연구원, 문승현 전 광주과기원 총장, 소병철 전 법무연수원장, 권희석 서울관광재단 이사장 겸 하나투어 수석 부회장이다. 추진위원회는 앞으로 전남의 미래 신 성장 동력산업 육성에 대한 자문과 함께 국내외 산업정책 동향 및 국내외 중견․대기업에 대한 투자유치 자문 역할을 한다.  전라남도는 이날 출범식에서 ‘정도 천년, 전남 새천년 비전’이라는 주제로 전남이 앞으로 미래 신 성장산업으로 중점 육성할 글로벌 에너지신산업 등 4개 분야 주요 프로젝트를 설명하고, 위원들의 폭 넓은 의견을 수렴했다.  또 분야별로 글로벌 에너지신산업 육성의 경우 한전공대 설립 및 대형 랜드마크 연구시설 유치, 에너지신산업 클러스터 조성 등을 논의했다. 바이오 메디컬 허브 구축 분야에선 전남첨단의료복합단지 유치 방안을, 남해안 신 성장 관광벨트 구축 분야에선 섬․해양 관광산업 육성을 위한 크루즈관광 활성화 방안을, 드론산업 클러스터 조성 분야에선 드론 전·후방산업 육성 및 민간투자 활성화 방안을 논의했다.  또한 미래 신 성장산업 육성을 위한 신산업 분야 중견·대기업 투자유치 방안을 논의했다.  배국환 위원은 “전남만이 가진 청정지역 섬 해양관광, 바이오의약, 휴양산업을 중장기적으로 적극 육성해야 한다”며 “여수, 목포 지역을 크루즈산업을 동북아 거점으로 육성해야 한다”고 주장했다.  문승현·조순태 위원은 전남의 미래를 책임질 인재 육성을 위해 우수 중고등학교와 한전공대 등 특성화 대학 육성을 강조했다. 김준식 위원은 전남지역 미분양 산단을 임대산단으로 전환해 투자유치에 힘쓸 것을 제안했다. 배국환 위원은 세계적 자원인 전남의 갯벌과 천일염을 활용해 미래 전략산업으로 육성할 것을 주문했다. 하경진 위원은 기존 산업인 조선 산업 등의 대외 경쟁력을 확보하고 미래 신산업도 조화롭게 육성해야 한다고 조언했다.  이날 김영록 도지사는 “전남은 섬․해양 등 천혜의 자연자원과 미래 신 성장 인프라를 갖춘 기회의 땅”이라며 “전남이 앞으로 100년간 먹고 살 신 성장 전략산업에 대한 위원들의 적극적인 의견을 당부드린다”고 말했다.  한편 신성장위원회는 이날 공동위원장으로 배국환 위원을 선임하고, 매 분기별 정기적으로 회의를 열어 현안을 논의키로 했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      대선 전 국민의당 당원이 문재인 대통령 아들의 특혜 취업 정황 증언을 날조해 냈다는 충격적 사건과 관련, 국민의당 내에서는 안철수 당시 대선후보의 책임론이 불거지는 한편 '특검 도입' 주장이 나오고 있다. 일각에선 해당 증언이 조작으로 밝혀진 점이 문 대통령 아들의 특혜 취업 의혹 전체가 근거가 없다는 것을 의미하지는 않는다며 선을 긋기도 했다. 더불어민주당이 강경 대응을 예고하고 있는 가운데, 국민의당이 이같은 태도를 취함으로써 당분간 이 문제가 첨예한 정치 쟁점이 될 가능성이 더 커졌다.   박주선 국민의당 비상대책위원장은 27일 오전 기자들과 만나 "증거를 조작해서 문 대통령 아들에 대해 명예를 훼손하고 범죄 혐의가 있는 것처럼 (주장)한 것은 미안하다고 사과했다"며 "그렇다고 해서 특혜 채용 전체가 명쾌하게 해결됐다거나 사실이 아니라고 말할 수는 없다"고 했다. 박 비대위원장은 그러면서 특검으로 이번 문제를 해결하자고 주장했다. 그는 "민주당은 우리가 증거 조작에 여러 사람이 관여했는데 꼬리 자르기 식으로 수사를 축소하려 한다는 의혹을 갖고 있기 때문에 그 부분은 (민주당이) 특검에 협조하면 해소될 것으로 본다. 민주당 입장에서 특검을 반대할 이유는 없다고 본다"고 말했다.   김동철 국민의당 원내대표도 앞서 이날 원내대책회의에서 "상상조차 할 수 없는 일이 벌어졌다. 거듭 사죄 말씀 드린다"며 해당 사건에 대해 비판한 뒤 "검찰, 나아가 특검이 이번 사건을 한 점 의혹 없이 철저히 수사해 국기문란사범으로 법정 최고형으로 다뤄 달라"고 주장했다. 김 원내대표는 회의 후 "여야가 합의한다면 특검이 더 좋은 것 아닐까. 어떤 의혹도 없이 한번에 해결할 수 있으니까"라며 "천인공노할 증거 조작이 있었지만, 그게 문준용 씨의 특혜 취업(의혹)에 면죄부를 줄 수는 없다. 증거 조작 당사자들은 법이 할 수 있는 최고형에 처해야 하지만, 그 발단이 된 것은 문준용 씨의 특혜 취업 의혹이니까 그 두 가지를 동시에 처리할 수 있도록 특검도 하나의 방법이 될 수 있다"고 말했다. 그는 "여야가 특검에 합의해 준다면 우리 당은 특검 추천을 하지 않겠다"고도 했다. 국민의당은 이날 의원총회 등을 통해 특검 도입을 당 차원에서 공식 요구할지 등 이번 사태 대응 방안을 논의할 것으로 알려졌다. 국민의당은 이날 검찰 조사와는 별개로 당 자체 진상조사단을 구성하고, 단장에 김관영 의원(재선, 전북 군산)을 임명했다고 밝혔다. 특검론 도입, 왜?…"문준용 취업 비리도 철저히 조사" 역공  특검론을 처음 공식화한 것은 '증언 조작' 사건 당시 당 대표였던 박지원 전 대표다. 박 전 대표는 이날 평화방송(CPBC) 라디오 인터뷰에서 "충격적 내용을 보고 깜짝 놀랐다. 어떻게 당에서 이런 일이 있었을까"라며 "대선 당시 당 대표이자 상임선대위원장으로서 파일이 조작되었다면 대단히 잘못됐고 유감스러운 일"이라고 사과하면서도 "그렇지만 녹취록, 카톡 캡처 이런 것이 조작된 것과 본질은 다르다"며 특검 도입을 주장했다.   박 전 대표는 "특검을 해서, 우리 당의 잘못이 있다고 하면 그 잘못도 철저히 규명돼서 정확하게 처벌하고 법적 조치를 해야 된다. 따라서 저는 특검을 제안한다"며 "우리 당원에 의해서 조작됐다고 하면 그것도 잘못이지만 문준용 씨의 모든 채용 비리 자체가 어떻게 되었는가 하는 문제에 대해서도 철저히 조사가 되어야 되기 때문에 저는 특검으로 가서 국민 의혹을 규명하는 것이 좋다는 말씀을 드린다"고 했다.   박 전 대표는 대선 당시 당 대표였던 자신과 안철수 대선후보가 조작 사실을 알았는지에 대해 "저에게는 전혀 보고한 사실이 없고 그 내용도 몰랐다"며 "(안철수 후보도) 몰랐을 가능성이 높다고 생각한다. 상식적으로 봐도 책임 있는 지도부, 또 관계자라고 하면 이것을 '조작해서 해라' 할 수 있는 사람은 없을 것"이라고 말했다.   안철수 전 후보와 가까운 '친(親)안철수계'로 분류되는 문병호 전 의원도 이날 YTN 라디오 인터뷰에서 "선거가 워낙 화급한 시기였기 때문에 정확한 검증을 못하고 이것을 대외적으로 발표했었는데, 이 문제에 대해서 정확한 조사가 필요할 것 같다"면서도 "안철수 후보도 그것을 알고 있었느냐, 여러 가지 따져봐야 할 문제인데 지금까지 파악한 바로는 공명선거추진단 정도에서 이 문제가 논의됐고, 아마 박지원 상임선대위원장에게도 정확히 보고가 되지 않은 것으로 파악하고 있다"고 했다.   박 전 대표는 이번 녹취록 조작의 주범으로 지목된 국민의당 당원 이유미 씨와 이 씨로부터 조작된 파일을 넘겨받아 당 지도부에 전달한 이준서 최고위원에 대해 "그 분들이 만약 안철수 후보의 측근이라 해도 그렇게 선거에 깊숙이 개입한 사람들이 아니다"라고 선을 긋기도 했다.  '안철수 책임론'도 불거져…이상돈 "이유미는 안철수 광팬, 이준서도 安이 데려와"  이 씨와 이 전 최고위원의 공모 여부, 즉 이 전 최고위원이 조작을 지시했거나 최소한 조작 사실을 알고도 묵인했는지 여부는 이번 사건이 얼마나 대형화될지를 가르는 첫 분수령이 된다.   전날 JTBC 방송 보도에 따르면, 이 씨는 검찰 조사를 앞두고 주변에 보낸 메시지에서 "모 위원장의 지시로 허위 자료를 만든 일로 오늘 남부지검 참고인 조사를 받게 됐다"며 자신이 증언 녹취록을 조작한 것이 사실상 이준서 전 최고위원의 "지시"에 의한 것이라고 주장했다. 방송에 따르면 이 씨는 "아마 당에서는 사과문 발표하고 저희를 출당 조치할 것"이라며 "그 위원장도 저에게 책임을 씌우고 있어서 몹시 어렵다", "당이 당원을 케어(care)하지 않는다는 것을 알게 됐다"고 주장했다. 이 씨는 또 "당에서 기획해서 지시해 놓고 꼬리자르기를 하려 한다"는 내용의 문자 메시지를 주변에 보내기도 한 것으로 전해졌다.   또 &lt;조선일보&gt;는 이 씨가 지난 5월 5일 공개 기자회견을 하기 전에 이 전 최고위원에게 "지금이라도 늦지 않았다. 꾸며낸 일이라고 털어놓자"고 했지만, 이 전 최고위원은 오히려 "대선이 끝나면 고소 고발은 모두 취하된다"며 묵살했다고 보도했다. 이 전 최고위원은 이에 대해 &lt;조선&gt; 인터뷰에서 "이 씨가 제보자를 보호하기 위해서 하는 말로 이해했다"고 해명했다.   이유미 씨 본인 역시 안 전 후보가 카이스트 기술경영대학원 교수로 있을 때 제자였던 것으로 알려지면서 '안철수의 측근'으로 지목되기도 했다. 다만 "이 씨가 무슨 측근이냐"는 반론도 있다. 이준서 전 최고위원이 국민의당에 영입될 당시 그를 추천한 것으로 알려진 한 인사는 이 씨에 대해 "무슨 측근이 총선 공천은커녕 컷오프를 당하느냐"며 "이 씨는 2012년 대선 때에도 자원봉사자였고, 이번 대선 때도 거의 역할을 한 것이 없다. 청년위 부위원장을 맡은 것도 대선 후반으로 와서의 일"이라고 했다. 실제로 이 씨가 출마 의사를 밝힌 2016년 총선 전남 여수갑 지역구 국민의당 후보 경선은 김경호·김영규·이용주 3파전으로 치러졌었다.  이 씨의 국민의당 대선캠프 내 위상이나 이준서 전 최고위원과의 공모 여부와는 별개로, 이 전 최고위원은 안철수 전 대선후보가 지난 총선을 앞두고 2016년 1월 국민의당을 창당할 때 외부 영입인사 1호로 영입한 인사라는 점에서 이 전 최고위원이 어떤 형태로든 사건에 연루된 것 자체가 안 전 후보에게는 정치적 타격으로 작용할 전망이다.   국민의당 이상돈 의원은 이날 기독교방송(CBS) 라디오 인터뷰에서 "안철수 후보가 이것(조작 사실)을 알고 그럴 사람은 아닌데, 여하튼 본인도 책임을 면할 수 없다"며 "자신이 데려온 사람이 사고를 일으킨 것 아니냐. 거기에 대해서는 응당 정치적으로 책임이 있다"고 주장했다.   이 의원은 "이준서 전 최고위원은 사실 정확한 뿌리는 잘 모르는 사람 아니냐. 젊은 표 공략한다고 (영입했지만) 경력도 일천하고 그렇다고 시의원이나 한 사람도 아니다. 그 후에 최고위원이니 비대위원이니 타이틀은 거창했지만 그 사람이 당의 중요한 의사결정에 큰 영향을 미쳤다고 저는 보지 않는다"며 "더 중요한 것은 안철수 대표가 처음 창당 때부터 데려온 사람 아니냐"고 했다.   이 의원은 또 "이유미라는 이 문제의 인물도 (2012년 안철수 대선캠프인) '진심캠프' 때부터 안철수 팬 중에서도 극렬한 팬이다. 광팬이라고 말할 수 있다"며 "제가 짐작하기로는 이유미라는 사람이 (공명선거추진단장) 이용주 의원이나 그 위의 상층부, 선대위원이나 본부장과 연락이 있었던 사람은 아닌 것 같다"고 했다. 이 의원은 "이준서 본인은 현재 부인하고 있고 자기도 속았다는 식으로 얘기하고 있지만, 그것(조작된 증언)을 가지고 이용주 의원과 김인원 부단장 두 사람한테 얘기해서 이 두 사람이 이것을 진실이라고 믿고 터뜨리게 한 것 아니냐. 그 과정이 너무 허술했다. 어떻게 검사 출신인 사람들이 스크린(걸러내기)도 못하고…"라며 "설마 이용주 의원이나 선대위원, 본부장 이런 사람들이 알고서 그럴 리는 없는데. 이걸 막지 못한 것에 대해서 입이 열 개라도 할 말이 없다"고 대선 당시 선대위 요직에 있던 이들을 싸잡아 비판했다.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      서울 등 수도권이 아닌 지역 스타트업을 대상으로 지원하는 투자펀드가 조성된다.  BNK금융그룹은 14일 오전 본점에서 지역 스타트업 투자 확대 및 성장 지원 위해 선보엔젤파트너스, 미래과학기술지주와 함께 '부울경 스타트업 투자펀드 약정식'을 가졌다고 밝혔다.    ▲ '부울경 스타트업 투자펀드 약정식'. ⓒ부산은행    선보엔젤파트너스는 글로벌 네트워크를 보유한 지역 대표 스타트업 전문투자기관이며 미래과학기술지주는 한국과학기술원(KAIST), 울산과학기술원(UNIST) 등 전국의 과학기술원이 공동으로 설립한 신기술창업전문회사이다.   이번 약정은 약정기업 간 상호협력을 통한 지역 스타트업에 대한 지원 체계 구축 및 투자 확대 등으로 창업생태계 조성과 지역경제 활성화를 도모하기 위해 추진됐다.  특히 BNK금융그룹은 미래과학기술지주 등과 함께 40억 규모의 'BNK-선보 부울경 스타트업 신기술사업투자조합 1호' 펀드를 조성해 서울 및 수도권 중심의 투자 환경으로 인해 상대적으로 소외되어 있는 지역 스타트업에 대한 투자를 확대하기로 했다.  펀드의 운용은 BNK투자증권과 선보엔젤파트너스가 공동으로 담당한다.  또한 핀테크, 바이오, 신소재 등 지역의 주력 신산업을 영위하는 스타트업을 적극 발굴해 BNK부산은행 'BNK 썸 인큐베이터'와 'BNK 핀테크랩' 내 입주기업과의 연계 투자도 추진할 계획이다.  BNK금융지주 정충교 그룹CIB부문장은 "오늘 약정을 통해 조성되는 펀드가 지역 스타트업에 활력을 불어넣는 마중물이 되길 바란다"며 "청년 창업가들과 혁신 스타트업들이 지역발전을 위한 신성장동력 마련에 앞장 서주길 바란다"고 전했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲청주하우스콘서트 ‘2019 Summer Classical Music Festival’이 22~24일 오후 7시30분부터 청주첨단문화산업단지 동부창고 34동에서 열린다. ⓒ청주하우스콘서트       한여름의 무더위를 날려버릴 청주하우스콘서트 ‘2019 Summer Classical Music Festival’이 22~24일 오후 7시30분부터 청주첨단문화산업단지 동부창고 34동에서 열린다.  먼저 22일 열리는 제66회 청주하우스콘서트(2019 Summer Festival 1)는 피아니스트 정재원 &amp; 첼리스트 최경은의 듀오 리사이틀 ‘쇼팽의 밤’이다.  ‘즉흥환상곡, 작품번호 66’, ‘첼로 소나타 사 단조, 작품번호 65’ 등 쇼팽의 곡을 연주한다.        ▲22일은 제66회 청주하우스콘서트(2019 Summer Festival 1) 피아니스트 정재원 &amp; 첼리스트 최경은의 듀오 리사이틀 ‘쇼팽의 밤’이 공연된다. ⓒ청주하우스콘서트    이날 연주자인 피아니스트 정재원은 세계적인 피아니스트 마르타 아르헤리치로부터 ‘깊은 감명을 주는, 일가를 이룬 헌신적인 음악가’라는 평을 받았으며 13세 때 첫 공개 독주회를 열었다.  17세엔 미국 조안나 하지스 국제콩쿨 우승으로 주어진 데뷔 연주를 시작으로, 한국과 유럽을 중심으로 연주활동을 이어오고 있다. 현재 성신여대 음악대학 피아노과 교수로 재직 중이다.  첼리스트 최경은은 섬세한 표현력과 깊이 있는 음악적 해석을 지닌 연주자다. 예원학교를 거쳐 서울예술고등학교를 수석 입학하고 수석 졸업했다.  서울대학교 음악대학을 수시 입학해 4년 전액장학생으로 수석 졸업했으며 세계적인 첼리스트 랄프 커쉬바움의 러브콜을 받아 영국으로 건너간 뒤 영국북부왕립음악원과 남가주대학교에서 전액장학생으로 박사학위 까지 취득하며 전문연주자로서의 탄탄한 기반을 마련했다.        ▲23일은 제67회 청주하우스콘서트(2019 Summer Festival 2) ‘김효영의 생황 트리오’가 공연된다. ⓒ청주하우스콘서트    23일은 제67회 청주하우스콘서트(2019 Summer Festival 2) ‘김효영의 생황 트리오’가 공연된다.  생황에 김효영, 피아노 조윤성, 콘트라베이스 황호규가 무대에 올라 상주아리랑, 눈물 등의 곡을 협연한다.  한국의 대표적인 생황연주가인 김효영은 조선 말 명맥이 끊겼던 악기 생황을 오늘날 복원과 창작활동으로 다시 발전시켜 다시 주목받게 했다.  생황을 자유자재로 다루는 동시에, 지속적으로 생황음악을 만들고 있는 작곡가이자 타 분야와의 과감한 접목으로 전통음악에 국한하지 않는 새로운 음악을 추구하는 음악가로 높이 평가받고 있다.  특히 다른 장르와의 크로스오버를 넘어 현대 클래식 분야에 생황만의 독보적인 영역을 구축하고 있다.        ▲24일은 제68회 청주하우스콘서트(2019 Summer Festival 3) ‘피아졸라의 사계’ 고상지의 반도네온 트리오 공연이 펼쳐진다. ⓒ청주하우스콘서트    24일은 제68회 청주하우스콘서트(2019 Summer Festival 3) ‘피아졸라의 사계’ 고상지의 반도네온 트리오 공연이 펼쳐진다.  대전과학고등학교와 한국과학기술원 카이스트 출신인 고상지는 유명 반도네온 연주가다. 일본 애니메이션과 게임음악에 빠져 작곡을 시작했다고 한다.  지금까지 3집의 정규앨범과 싱글 앨범 ‘마지막 만담(2017)’, ‘따뜻하게 안아줄게(2016)’ 등을 발매했다.  공연 관람료는 어른 1만 원, 어린이·청소년 5000원이며, 자세한 내용은 청주하우스콘서트 홈페이지를 통해 확인할 수 있다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ⓒ전주시      김승수 전북 전주시장이 도시의 운명을 바꿀 '전주다움'으로 세계화에 방점을 뒀다.김 시장은 세계와 당당히 승부하겠다는 것은 가장 전주다운 것이 가장 세계적인 것이라는 확신이다.변화할 것을 변화하되 도시의 본질인 전주다움은 끝까지 지켜내 온 노력으로 인해 프랑스 베르사유와 이탈리아 피렌체, 미국 뉴올리언스 등 세계적인 도시들이 앞다퉈 전주시와의 교류하거나 교류를 희망하고 있는 점을 간파한 김 시장.그를 신년 기자회견 직후 만나 세계화에 이른바 '맞장'을 선언한 이야기를 나눠봤다. /편집자- 세계 글로벌 도시와의 승부수를 띄웠다. 어떤 마음으로 이런 카드를 새해에 꺼내들었는지▲ 전주다움을 꼿꼿이 지켜내고 자존심을 잃지 않는 도시, 세계 어디를 가든 전주사람이라는 것이 자랑스러운 도시를 시민과 함께 만들어 가고 싶었다.밖에서 본 전주는 많은 것을 해 낼 수 있는 잠재력 높은 도시이다. 가장 전주다운 경제와 사람, 생태, 문화로 다른 도시를 따라가는 도시가 아니라 다른 도시를 이끌어가는 도시를 만들겠다는 각오다.무엇보다도 우리 미래세대에게 더 나은 삶터를 물려줄 수 있도록 지금보다 더 견고한 전주다운 도시 기반을 닦도록 하는 것이 필요하다고 판단했다. - 가장 전주답게 먹고 산다는 것은 무엇인가 ▲ 전주시는 올해 최우선 과제로 시민들의 먹고사는 문제를 해결하는 것에 초점을 맞췄다. 이를 위해 시는 일자리 창출과 지역경제 살리기를 목표로 미래먹거리산업과 중소기업·청년창업 중심의 전주형 경제를 키울 계획이다.대표적으로 국내 최초로 탄소전문 연구기관인 한국탄소융합기술원(옛 전주기계산업리서치센터)을 설립하고 지난 2007년부터 육성해온 탄소산업, 그리고 문재인 정부가 대한민국 혁신성장의 열쇠로 육성하는 수소산업, 전주시가 세계 최초로 개발하고 보급한 드론축구로 대표되는 드론산업, 전주혁신도시로 이전한 국민연금공단을 중심으로 한 금융산업 등 4대 신성장산업을 고도화하는 것이다.특히 전주는 대한민국에서 가장 앞장서 키워온 탄소산업의 강점을 살려 지난해 12월 국토교통부 공모사업에 선정된 수소경제 시범도시 사업을 선도하고, 수소저장 대형용기 개발 등 수소저장용기 안전성 실증기반 구축 및 수소인프라 구축을 통해 대한민국 수소경제를 이끌게 된다.이와 더불어 전주 탄소소재 국가산업단지와 드론기업지원 허브센터를 중심으로 탄소산업과 드론산업도 키우고, 금융산업 전문인력 양성 및 세계 유수 연기금 초청 국제포럼 개최 등을 통해 제3금융도시로 도약하는 것이다.여기에 전주형 문화재생사업인 팔복예술공장에 이어 노동자들도 함께 즐기는 팔복청년예술놀이터를 조성하고, 네이버와 한컴 등 민간기업의 특화된 전문지식을 공유하고 지원하는 전주형 청년창업 플랫폼을 유치함으로써 청년 창업 친화도시를 만들 작정이다. 또 청년공간인 청년청 건립과 청년 소통공간 ‘비빌’ 확대 등을 통해 청년역량강화 프로그램을 운영하고, KAIST(한국과학기술원)과 협력해 미래 발전전략 포럼을 운영하는 등 대학주도의 혁신성장 협력체계도 가동한다.뿐만 아니라 시는 살맛나는 전주형 서민경제 구현을 위해 4차 산업혁명에 대비한 전문인력 양성 등 교육시설과 창업지원공간 등을 갖춘 전북중소기업연수원을 건립하고, 첨단벤처단지 지식산업센터와 신산업융복합 지식산업센터, 기술창업성장지원센터, 산학융합프라자의 '3+1 거점'을 구축해 지역기업의 경쟁력을 강화할 수 있는 기반을 갖추는 것이다. 이밖에 지역기업 기(氣)살리기 2.0과 지역자재 우선구매, 골목상권 지원 등을 통해 지역경제의 대들보인 중소기업과 소상공인도 빈틈없이 챙기는 한편, 시민먹거리 주권확립과 먹거리 복지 실현을 위한 전주푸드 플랜을 활성화시키고, 농업소득기반 확충, 전주형 지역화폐 도입, 금융복지상담소 확대·개편 등도 추진한다.    ⓒ전주시   - 가장 전주답게 꽃피운다는 것은 ▲ 전통문화와 미래기술을 융합한 전주만의 새로운 문화콘텐츠로 세계와 당당히 승부하는 국제관광도시로의 도약도 준비하는 것이라고 말할 수 있다.세계적인 수준의 관광인프라를 확충하기 위해 전주한옥마을에 대한민국 최초의 관광트램을 도입하고, 가장 전주다운 전통과 현대가 어우러진 한옥마을 100대 체험콘텐츠를 강화하는 등 전주의 매력과 경쟁력을 키우려 한다.또 전주한옥마을을 장애인과 노약자 등 누구나 편리하게 여행할 수 있도록 무장애 열린관광지로 만들고, 주민주도형 한옥마을 재생프로젝트도 추진한다.전주한옥마을 중심의 가장 한국적인 관광 자원과 인프라를 갖춘 시는 대한민국을 대표하는 한(韓)문화를 확산시켜 나가기 위해 국내 유일의 한옥마을 관광트램을 도입하고 온 브랜드 상품개발 등 관광브랜드를 강화하기로 했다. 한옥정원 조성 등 한국형 숙박환경으로 고급화하고 최근 핫플레이스로 각광받고 있는 객리단길의 경우 여행자거리 특성화사업을 펼치는 등 대한민국은 물론 세계의 중심에 있는 관광도시로 만드는데 전력을 다할 방침이다. 나아가 가장 전주다운 전통문화와 역사문화콘텐츠를 강화하기 위해 전라감영 재창조 복원을 시작으로 전주 대사습청 조성·운영과 전주관광 외연 확대를 위한 전주부성 복원, 후백제 역사문화 재조명, 풍패지관 주변 정비 등을 추진하고, 서노송예술촌 등 문화적 도시재생사업과 종교관광시설 건립, 동학농민혁명 역사문화벨트 조성 등 역사문화콘텐츠 발굴·재생·복원에 힘쓸 계획이다.여기에 전주시내 중심도로인 충경로 정비를 통해 제2의 첫마중길로 만들고, 대규모 국제행사 유치를 위한 전담기구인 컨벤션뷰로를 설치해서 국제관광도시 인프라를 구축하려한다. 동시에 인문으로 성장하는 전주 도서관도시 프로젝트도 추진한다.한발짝 더는 법원·검찰청 이전 부지에 한국문화원형콘텐츠 체험전시관을 건립하고, 기록문화의 정수인 전주한지의 세계화를 추진하는 등 전통문화와 과학기술을 융복합해 세계와 당당히 승부할 수 있도록 전주관광산업의 미래를 준비할 것이다.- 가장 전주답게 준비한다는 것에 대해 설명해달라  ▲ 가장 전주다운 미래를 열기 위해 천만그루의 꽃과 나무, 숲과 정원이 있는 도시를 만드는 천만그루 정원도시 프로젝트, 가장 인간적인 전주형 복지정책, 미래세대를 위한 예술교육 등을 집중 전개한다는 것이다.이를 위해 지·간선제의 확대와 간선급행버스체계(BRT) 도입 등으로 시민의 발인 시내버스 운영체계를 획기적으로 개선하고, 안전속도 5030 하향과 마을주민주도의 동별 주정차계획 수립 등으로 보행자 중심의 교통문화를 확립하게 된다.천만그루 정원도시 전주 종합계획 수립과 정원산업도시 기반 확충, 전주종합경기장 부지재생 '시민의 숲 1963' 추진, 도시공원 일몰제에 대응한 장기미집행 도시공원 매입 등을 통해 도심 곳곳에 천만그루 나무와 꽃을 심어 도시 전체를 숲과 정원으로 가득한 생태도시로 만들어 미래 세대에게 물려줄 계획이다. 뿐만 아니라 전주형 미세먼저 저감대책과 에너지디자인 3040을 지속 추진함으로써 기후변화에 선제 대응할 방침이다. 또 기존 재개발과 다르게 해당지역에서 살고 있는 '사람'을 최우선 가치로 생각하는 전주형 주거지 재생사업도 새롭게 추진하고, 전주월드컵경기장 인근 종합스포츠타운 조성과 혁신도시 다목적체육센터 건립, 에코시티 복합커뮤니티센터 건립으로 시민들의 생활문화체육거점도 만들어 나갈 예정이다. 따뜻한 전주를 만들기 위한 사람 중심의 지속적인 복지정책도 전주답게 준비하는 것 중에 하나다.4대 복지전략으로 전주형 통합돌봄 중심 맞춤형 복지 추진과 장애인의 삶을 바꾸는 인권도시 도약, 아이키우기 좋은 도시, 숲·책·예술놀이터도시 조성 등을 추진한다. 대표적으로 시는 어르신들이 정든 집에서 노후를 편안하게 보낼 수 있는 전주형 통합돌봄 선도사업을 완성도 있게 정착시켜 나가고, 전주시 복지재단 ‘전주사람’의 운영 활성화로 복지사각지대 없는 전주를 만들겠다.덧붙여 장애인 일자리와 인권존중문화도 지속적으로 확대하고 국공립어린이집 확대와 온종일 돌봄체계 구축, 공공어린이 재활의료센터 건립, 아동지원 정책 확대 등 함께 돌보는 양육환경을 조성할 계획이다.끝으로 전주시는 예술을 놀이로 즐기며 성장하는 예술놀이도시와 모험심과 상상력을 기르고 행복한 미래를 선물하게 될 야호 생태숲놀이터, 책과 함께 놀며 상상력을 키우는 책놀이터, 야호학교 등 창의적 미래인재를 양성하기 위한 전주형 10학년 인생학교, 건강한 가정을 위한 '야호 부모학교' 운영 등 야호 5대 프로젝트를 확대해 미래 주역인 아동·청소년이 주도적으로 자신의 삶을 설계하는 놀이터도시를 만들어 나가겠다.-전주시장답게 전주시민에게 끝인사 부탁한다▲ 사람들이 가장 가고 싶은 도시, 머물고 싶은 도시는 기억과 지역의 정체성을 지켜온 도시라고 여기고 있다. 미래 먹거리 산업을 육성해 활기찬 도시로 만들고, 가장 전주만의 고유의 색채와 강점을 잘 살려서 글로벌 도시로써 세계의 주요 도시와 경쟁할 수 있는 담대한 전주의 미래를 열 수 있도록 시민과 함께 하겠다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      마침내 그가 입을 열었다. 1994년 최초의 가습기 살균제 유공(주)의 가습기메이트 개발자로 알려진 노승권 박사다. 가습기 살균제 사건 청문회를 코앞에 둔 26일 저녁 여의도 옥시레킷벤키저 본사 건물이 있는 1층 커피숍에서 만났다.  29일과 30일 이틀간 청문회 증인으로 채택된 그는 인터뷰 내내 불안해하고 난감해하는 모습을 보였다. 그도 그럴 것이 자신의 인생에서 청문회는 자신과는 전혀 상관없는 일이라고만 여겨왔기 때문이다. 청문회는 분명 방송으로 중계될 터이고 그동안 제법 많은 사람을 알고 지낸 그로서는 화면에 비쳐진 자신의 모습과 자신에 결코 호의적인 질문을 던지지 않을 것이 분명한 국정 조사 위원의 추궁이 걱정됐다.  그는 2011년 가습기 살균제가 많은 인명 피해와 건강 피해를 가져왔다는 뉴스를 듣고 정말 그들에게 미안하고 안타까운 심정으로 지난 5년간 지내왔다고 털어놓았다. 가습기 살균제 사건이 터진 뒤 무려 5년이 지나서야 모습을 드러냈다.  노승권 씨는 서울대학교 자연과학대학 미생물학과를 1979년 입학해 1983년 졸업하고 나서, 곧바로 한국과학기술원(KAIST) 생물공학과에 들어가 1985년 졸업했다. 석사를 딴 뒤 곧바로 ㈜유공에 입사해 1985년부터 1996년까지 '바이오텍 사업부장' 등으로 근무하면서 곰팡이제로, 최초의 가습기 살균제 제품인 가습기메이트 개발에 깊이 관여했으며 유공 시절 영국 더럼 대학교에서 생물공학 박사 학위를 받았다. 1997년 퇴사해 유진사이언스라는 바이오 벤처 기업을 창업해 운영하기도 했다.  지금은 식품 가공 등을 하는 메타사이언스라는 아주 자그마한 벤처 기업을 새로 창업해 꾸려가고 있다. 한국생물공학회 부회장, &lt;미생물과 산업&gt; 편집간사, 한국바이오벤처협회 이사 등을 역임했다. 또 2012년부터 네이버 블로그 '출장 발명가의 행복 이야기'를 운영했으며 &lt;스포츠경향&gt;에 지난 2015년부터 올해 6월까지 '출장 발명가 노승권의 알면 힘이 되는 생물학'이란 팻말을 달고 칼럼을 매주 연재하기도 했다.   ▲ 노승권 박사의 가습기 살균제 최초 개발 사실을 알린 뉴스. ⓒnaver.com    가습기 물에 살균제를 타는 방식의 제품 개발은 노승권 박사의 아이디어  그는 인터뷰에서 지금까지 알려지지 않은 몇몇 중요한 이야기를 털어놓았다. 1994년 최초의 가습기 살균제 제품을 내놓을 당시 서울대학교 수의과대학 이영순 교수한테 거액을 주고 흡입 독성 연구를 맡겼으며 연구 보고서에 미국 환경청(EPA)이 만든 프로토콜에 따른 흡입 독성 연구 결과 인체에 무해한 수준의 농도로 가습기 살균제 성분, 즉 CMIT/MIT(클로로메틸이소티아졸리논/메틸이소티아졸리논)를 희석해 가습기메이트를 만들었다고 밝혔다. 그와 1시간가량 나눈 대화는 다음과 같다.  - 1994년 최초의 가습기 살균제 제품을 만들 때 가습기 내부를 세척하는 세정제가 아니라 가습기 물에 타서 이를 공기 중으로 분무하는 제품을 만드는 아이디어는 어디서 나온 것인가?  "나의 아이디어였다. 미생물학이 전공이어서 가습기 살균제에서 미생물이 자랄 수 있으며 이럴 경우 가습기 사용자의 건강에 이상이 생길 수 있다는 것을 외국 문헌을 통해 알고 있었다. 그래서 미생물 성장은 최대한 억제하면서 인체에는 해가 없는 제품을 만들면 인기를 끌 수 있겠다고 생각했다."  - 당시 만들어 판 가습기메이트 제품은 가격이 4000원으로 지금의 돈 가치로 환산하면 2만~3만 원 하는 비싼 가격인데 구매한 사람이 얼마나 됐는가?  "정확한 판매량은 모르지만 제법 팔렸던 것으로 기억한다. 물론 2000년대 팔린 것과 같이 많은 양은 아니었다."  - 살균제 성분은 당시 많이 있었을 텐데 가습기메이트에 CMIT/MIT를 쓰게 된 경위는?  "가습기 물에 잘 녹아야 하고 또 물속에서 쉽게 분해되지 않는 성분을 골랐다. 또 미생물 살균력도 좋고 흡입 독성이 이미 알려진 성분을 골라야 인체에 해가 없는 농도의 제품을 개발할 수 있기 때문에 많은 후보 물질을 가지고 연구를 하다 CMIT/MIT를 최종 낙점했다."  - 미생물을 죽일 정도면 사람에게도 해를 끼칠 수 있다는 생각을 했을 터이고 또 가습기 살균제를 사용하면 사람이 이를 들이마시게 된다는 것은 상식적이다. 그렇다면 인체에 안전한 농도를 찾기 위해 엄격한 흡입독성 시험이 필요하지 않은가?  "그렇다. 그래서 당시 우리나라에서 최고의 독성 전문가라고 알려진 서울대 수의대 이영순 교수(도쿄 대학교 대학원 수의병리학 석사와 박사 출신의 이영순 교수는 서울대 수의과대학 학장과 한국수의공중보건학회 회장, 제4대 식품의약품안전청장을 거쳐 아시아실험동물합회 회장을 지냈으며 현재 서울대학교 수의과대학 명예교수와 대한민국학술원 회원이다. 지난 2월 서울종합예술실용학교 석좌교수로 임명됐다)에게 개발 제품의 독성 시험 연구 용역을 맡겼다."  이영순 교수에게 거액의 연구 용역비 지급하고 미국 수준 독성 시험 요구해  - 이영순 교수는 어떻게 알고 연구용역을 맡겼는가?  "한국과학기술원에서 석사 과정에 있을 때 독성 전문가인 양규환 교수(그는 나중에 한국생명공학연구원장을 지냈으며 한남대학교 부총장을 역임했다) 밑에서 배웠기 때문에 양 교수를 통해 이 교수를 알고 있었다."  - 당시 연구 용역비 규모는 얼마였으며 어떤 독성 시험을 의뢰했나?  "정확한 액수는 기억나지 않지만 당시 1억 원이 훨씬 넘는 연구 용역비를 주었다. 지금의 돈 가치로 환산하면 적어도 6억~7억 원은 될 것이다. 흡입 독성 연구를 충분히 할 수 있는 비용을 주었다."  - 얼마 전 언론 인터뷰에서 이 교수는 당시 서울대 수의대에는 본격적인 흡입 독성을 시험할 장치가 없어 실험 쥐의 코에다 가습기 살균제 성분 용액을 떨어트려 보는 간이 흡입 독성 시험만 했다고 증언한 적이 있는데….  "아니다. 당시 이 교수는 쥐를 체임버에 넣고 체임버 안 공기 중으로 가습기 살균제 성분을 가득 분무해 포화시킴으로써 쥐가 살균제 성분을 제대로 흡입하게끔 하는 포화 노출 시험(saturation test)을 했다고 했다. 당시 보고서에 그런 내용이 있었던 것으로 기억한다."  - 그 기억이 정확하지 않을 수도 있지 않은가?  "물론 오래된 일이기는 하지만 당시 미국 환경청(EPA)의 독성 시험 프로토콜(실시 요강)을 확보해 유공의 대덕연구소 연구원과 함께 서울대 수의대를 직접 찾아가서 이 프로토콜대로 시험을 해달라고 했기 때문에 확실히 기억하고 있다."  - 당시 보고서는 어디에 있는가? 개인적으로 가지고 있는 것은 없는가?  "서울대 이영순 교수한테서 받은 보고서는 유공 대덕연구소와 유공 바이오텍사업부에 있었다. 유공이 다른 곳으로 넘어가면서 그 보고서가 어떻게 됐는지는 모른다. 나는 1997년에 퇴사했다. 개인적으로 소장하고 있지 않다.  (유공(현 SKC)의 '가습기메이트'가 인체에 해가 없다는 근거를 제공한 서울대 수의대의 1994년 연구 용역 보고서는 보존 기간이 지나 폐기된 것으로 확인됐다고 서울대 수의과학연구소가 이 정보 공개를 청구한 송기호 변호사에게 지난 23일 통보한 바 있다. 따라서 에스케이케미칼에 이 보고서가 없으면 현재로서는 관련자들의 증언을 토대로 진위를 파악할 수밖에 없다. 그렇지 않으면 수사를 통해 밝혀내는 길밖에 없다.)  청문회 코앞에 두고 피해자에게 사과하면 작위적이라고 생각하지 않을까 머뭇거려  - 가습기 살균제란 제품을 세상에 처음 내놓았기 때문에 참사가 일어났다고 생각하지는 않은가. 그렇다면 설혹 당시 유공 가습기메이트 제품을 사용한 뒤 피해를 입은 사람이 나오지 않는다 하더라도 '판도라 상자'의 문을 연 장본인으로서 피해자들에게 사과 또는 사죄할 생각이 지금이라도 없는가?  "모레가 청문회인데 지금 피해자와 그 가족들에게 사과한다고 하면 쇼를 한다거나 작위적이라고 국민이 생각할 수도 있겠다는 생각에서 청문회에서 모든 것을 이야기하는 것이 바람직하다는 생각을 하고 있다."  그와 인터뷰를 마치고 커피숍을 나오니 오래간만에 시원한 바람이 여의도 빌딩 숲 사이로 지나가고 있었다. 마침 커피숍 입구 바로 앞 길거리에서는 가습기 살균제 참사 시민 네트워크 관계자들이 천막을 치고 옥시 불매를 외치며 옥시를 규탄하는 농성 시위를 벌이고 있었다. 가습기 살균제 피해자와 가족 모임 강찬호 대표, 참여연대 안진걸 사무처장, 환경보건시민센터 최예용 소장, 백도명 공동대표, 조수자 환경피해지원위원장 등의 모습이 눈에 들어왔다.  30일 청문회에는 노 박사와 함께 이영순 교수가 증인으로 출석할 예정이다. 또 가습기메이트 최초 개발과 관련해 최상락 에스케이바이오텍연구원, 가습기메이트 제조와 관련해 안영준 당시 ㈜유공 부장도 참고인 자격으로 나온다. 이들을 한 자리에 불러놓고 대질 신문 식으로 1994년 최초 개발에 얽힌 진실을 파헤치면 노 박사가 인터뷰에서 밝힌 내용의 진위가 어느 정도 가려질 수도 있다고 생각한다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      광양시립중앙도서관에서 아이들에게 과학이 주는 즐거움과 우주와 자연이 주는 경이로움을 체험할 수 있는 특별한 강연이 펼쳐진다.  과학자들의 재능기부로 이뤄지는 ‘10월의 하늘, 과학자들의 작은 도시 강연회’가 10월 28일 오후 2시 중앙도서관 다목적실에서 열린다.     ▲10월의 하늘 강연 포스터    올해로 8번째를 맞이하는 ‘10월의 하늘’은 청소년을 대상으로 운영되는 ‘도서관 과학 강연’ 행사로 전국 32개 공공도서관에서 진행된다.  이번에 개최되는 ‘10월의 하늘’ 과학 강연에는 정재승 카이스트 KAIST 바이오 및 뇌공학과 박사가 ‘뇌공학으로 바라보는 인간의 미래는?’이라는 주제로 시민들을 찾아간다.  또 국민수 전남대병원 의생명연구원 선임연구원 박사가 ‘과학자, 그리고 글쓰기’라는 주제로 이야기 할 예정이다.  김미라 중앙도서관팀장은 “이번 과학 강연을 통해 아이들이 어렵게만 생각하던 과학에 대해 더 큰 관심을 갖고, 학생들이 새로운 꿈을 꿀 수 있기를 바란다”고 말했다.  청소년들에게 과학에 대한 재미와 꿈을 선사해 줄 이번 ‘10월의 하늘’ 강연은 중학생을 대상으로 운영되며, 접수와 문의는 도서관 홈페이지와 전화를 통해 가능하다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲   KAIST 신성철 총장이 스위스 다보스포럼에 참석한다 ⓒ프레시안(육심무 기자)    KAIST 신성철 총장과 이상엽 특훈교수가 스위스 다보스에서 오는 21~25일 열리는 2019 세계경제포럼(이하 WEF) 연차총회에 WEF로부터 공식초청을 받아 참석한다.  신성철 총장은 WEF 클라우스 슈밥(Klaus Schwab) 회장으로부터 다보스포럼 글로벌대학리더스포럼(이하 GULF: Global University Leader Forum) 회원대학의 총장 자격으로 작년에 이어 2년 연속 초청을 받았다.  GULF는 미국 하버드대, MIT, 영국 옥스퍼드대, 일본 동경대, 중국 북경대 등 27개 대학 총장들이 초청을 받아 운영되는 국제 고등 교육계 리더들의 모임이다.  신 총장은 KAIST의 우수한 과학기술 역량의 집중적인 전수를 통해 케냐의 경제발전을 촉진시키는 내용의 사업계획을 소개할 예정이다.  신 총장은 특히 클라우스 슈밥 회장과 무라트 손메즈(Murat Sonmez) 4차 산업혁명센터장 등 WEF측 고위인사들과 만나 올 3월 KAIST에 문을 여는‘Korea-WEF 4IR Center’의 운영 및 사업방향에 관해 논의할 계획이다.  이밖에 사우디아라비아의 모하메드 알-투와이즈리(Mohammed Al-Tuwaijri) 경제기획부 장관과 면담을 갖고 한-사우디 양국 간 협력사항을 논의할 예정이다, 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 찔러도 피 안나는 주사바늘의 제조과정 및 표면 특성 ⓒ한국연구재단       과학기술정보통신부와 한국연구재단은 이달의 과학기술인상 10월 수상자로 무출혈 주사바늘을 개발한 KAIST 화학과 이해신 교수를 선정했다.  연구재단은 이해신 교수가 세계 최초로 무출혈 주사바늘을 개발해 에이즈, 에볼라, 간염 바이러스 등 환자의 혈액이 매개되는 의료진의 2차 감염 문제를 근본적으로 방지하는 데 기여한 공로가 높이 평가되었다고 선정 배경을 설명했다.  주사기는 세계 의료기 시장의 30%를 차지하는 기본적인 의료도구다. 혈관, 피하, 근육 등의 경로로 질병 예방 및 치료용 약물을 주입하거나 혈액채취, 생검 등 대부분 의료현장에서 사용된다.  처치 후에는 환부를 압박해 지혈해야 하는데 혈우병, 당뇨, 암 등 지혈 기능성이 약한 환자와 아스피린 같은 항혈전제제 장기복용자 등은 정상적으로 지혈이 이뤄지지 않는 경우도 많다.  이 교수가 개발한 무출혈 주사바늘은 표면을 지혈 기능성 재료로 코팅하는 방식이다.        ▲ 찔러도 피 안나는 주사바늘의 지혈 메커니즘은 혈액응고인자와 무관하여 혈우병 동물 모델에서도 효과적인 지혈 기능성을 나타냈다. ⓒ한국연구재단    비교적 간단한 개념이지만 관건은 주사바늘을 코팅하는 재료가 피부와 혈관조직을 뚫고 체내로 주입될 때 작용하는 마찰력을 견딜 수 있도록 표면에 단단히 고정되어 있어야 한다.  또한 주사 후에는 혈관 내벽이나 피부에 붙어 주사 부위를 막아야 하며 인체에도 무해해야 한다. 이 교수는 파도가 치는 해안가 바위에도 단단히 붙어 있는 홍합 발끝의 섬유다발인 족사 구조에 카테콜아민 성분에서 해답을 찾았다.  이 교수는 갑각류의 단단한 껍질에서 추출되는 키토산 골격에 카테콜을 함유한 키토산-카테콜 신소재를 이용해 주사 과정의 마찰력을 견디고 혈액과 즉각적 접착막을 형성하는 무출혈 주사바늘 코팅용 생체 접착제를 개발했다.  홍합모사 생체접착제를 주사바늘에 마이크론 두께로 코팅하면 건조 과정에서 얇은 박막이 형성된다.  이 박막은 혈액과 닿으면 빠르게 하이드로젤 형태의 연성 소재로 바뀌면서 혈장단백질과 결합하여 주사바늘 구멍을 막는 실런트(sealant) 역할을 하게 된다.  무출혈 주사바늘에 사용한 지혈물질은 단독으로 지혈제로 사용할 수 있으며, 2015년 지혈제를 국내에서 상용화한 데 이어 2016년 미국 FDA의 허가를 획득했다. 또한 관련 연구내용은 2017년 국제학술지 네이처 머터리얼스(Nature Materials)에 게재됐다.        ▲ 이해신 교수 ⓒ한국연구재단    이해신 교수는 “홍합의 접착 메커니즘을 모사한 키토산-카테콜은 생리식염수에서도 높은 용해도를 보이고 점막이나 조직에 대한 접착력도 우수해 주사바늘을 코팅하기에 매우 적합한 소재”라며 “이를 단백질과 결합해 혈관주사를 놓으면 타겟팅이 어려운 심장에 약물을 선택적으로 전달할 수 있어 심장 난치병 치료에도 유용할 것으로 기대한다”고 밝혔다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      부산 기장이 다시 핵 시설로 몸살을 앓고 있다. 2010년 이명박 정부 시기 스마트 원자로 수출 기술 실증과 방사선 동위원소 생산을 목적으로 시작된 '수출용 연구용 원자로' 사업의 건설 승인이 이뤄지면서 지역사회에서 논란이 거세지고 있다. 탈핵 에너지전환을 기치로 내건 문재인 정부지만 수출용 연구용 원자로는 탈핵 정책에서 비켜나있다. 여기서 끝이 아니다.상업용 원전 이외의 분야, 특히 원자력 연구 개발은 여전히 탈핵정책의 사각지대에 가깝다. 한 예로, 최근 정부의 지원 아래 초소형 원자로 연구가 시작되었다. 울산과학기술원과 경희대, 서울대, 울산대, 카이스트, 국제원자력대학원대학교의 연구진으로 구성된 초소형 원전 연구단은 7월 2일 국제원자력기구(IAEA) 제17차 혁신 원자로 및 핵연료주기에 관한 국제프로젝트(INPRO, International Project on Innovative Nuclear Reactors and Fuel Cycles) 포럼에서 자신들의 구상을 밝혔다. 이 자리에는 과학기술정보통신부 문미옥 제1차관이 참석해 중소형 원전의 비전에 공감을 표시했다. 초소형 원자로 연구가 과학기술정보통신부와 한국연구재단이 올해 시작한 원자력융합기술개발 사업에 선정된 만큼 놀랄 일은 아니다. 그렇게 27억 원 이상의 연구개발비가 초소형 원자로 연구에 투입되었고, 앞으로 최소 4년간 더 지원을 받을 예정이다.문제는 초소형 원자로 연구의 필요성, 그리고 초소형 원자로의 상용화 가능성에 의문이 제기되지 않을 수 없는 상황이라는 데 있다. 언론 보도에 따르면, 초소형 원전 연구단은 납-비스무스를 냉각재로 사용하는 20MW 규모의 소형 원자로를 개발할 계획이다. 개발에 성공할 경우, 소형 원자로는 쇄빙선이나 부유식 원전에 쓰일 수 있다고 한다. 그러나 초소형 원전 연구단과 원자력계의 기대와 달리 소형 원전의 전망은 밝지 않다. 소형이라고 해도 핵물질을 사용하는 이상 까다로운 안전 규제를 피할 수 없다. 옹호론자들은 소형 원전이 경제성은 떨어지지만 대형 원전보다 투자비가 적게 드는 만큼 송전망 연결이 어려운 지역에서 유용하게 쓰일 수 있다고 주장한다. 하지만 분산형 재생에너지나 LNG 복합 화력 등을 놔두고 번거로운 원자력 안전 규제까지 감수하면서 굳이 소형 원전을 선택할 이유가 마땅치 않아 보인다. 소형 원자로는 핵잠수함이나 항공모함 등 군사적 용도로의 전용이 용이한 만큼 핵무기 미보유국이 쇄빙선이나 상업용 선박에 소형 원자로를 이용하기도 어렵다. 실제로 원자력 쇄빙선은 러시아에서 몇 척 운영되고 있을 따름이다. 전 세계적으로 소형 원자로 모델이 수십 개 제시되고 있는 만큼 납-비스무스 원자로가 성공한다는 보장도 없다. 이처럼 전망이 불투명한 곳에 국가의 연구개발비를 투입할 필요가 있을까?   ▲ 국내 개발된 소형 원자로 '스마트(SMART)'의 내외부 모습. ⓒ한국원자력연구원   그동안 원자력계는 연구개발의 필요성과 개발 가능성이 적은 분야에도 연구개발비를 쉽게 사용해왔다. 특혜에 가까운 지원이 가능했던 것은 1kWh당 1.2원씩 부과되는 원자력연구개발기금을 통해 재원을 안정적으로 확보할 수 있었기 때문이다. 유사 사례를 찾기 힘든 원자력연구개발기금은 1996년 원자력연구소가 사업 이관을 대가로 얻어낸 것이다. 1980~90년대 원자력연구소는 원자로 계통설계, 핵연료 설계 사업 등에 참여하면서 연구비를 충당해왔다. 그러나 기초 연구를 담당하는 원자력연구소가 사업에 참여할 명분이 약했던 만큼 계속 사업 이관 요구를 받았다. 하지만 원자력연구소는 사업 이관을 끈질기게 거부했고, 결국 정부가 원자력연구개발비를 제도적으로 보장하는 타협책을 제시하고서야 갈등이 풀렸다. 원자력연구개발기금 덕분에 원자력계는 연구개발의 필요성이나 개발 가능성이 낮은 분야에도 쉽게 예산을 투입할 수 있었다. 그렇게 스마트 원전 개발에 수천억 원이 쓰였다. 지금까지 7000억 원가량 투입된 것으로 알려진 파이로 프로세싱과 소듐냉각고속로 연구개발사업이 지속될 수 있었던 것도 원자력연구개발기금 덕분이었다. 다른 나라들은 폐기하거나 시도하지 않는 사업이라도 일단 예산이 투입되면 개발 기대가 확대 재생산되면서 계속 연구개발비가 투입되었다. 반핵운동의 힘은 여기까지 미치지 못했고, 사회적 감시는 작동하지 않았다. 최근에서야 파이로 프로세싱과 소듐냉각고속로가 거의 유일하게 도마 위에 올랐지만 2020년까지 사업이 계속되는 것을 막을 수 없었고, 잠정적으로 실증로 건설에 추가 예산을 투입하는 않는 선에서 봉합되었다.문재인 정부 들어서면서 원전 안전, 원전 해체, 방사선 동위원소 활용 등을 집중 육성하는 방향으로 원자력연구개발의 방향 전환 시도가 일어나고 있다. 연구개발비 배분에 있어 일정한 변화가 감지되는 것도 사실이다. 하지만 원자력융합기술개발이라는 그럴 듯한 이름으로 초소형 원자로 연구가 진행되는 데서 드러나듯이 문제가 온전히 해결되지는 않은 듯싶다. 나아가 원자력연구개발기금의 개편과 같은 구조적인 문제는 아예 논의의 대상에 오르지 못하고 있다. 그 사이 원자력계는 좋았던 시절로 되돌아갈 기회를 틈틈이 엿보고 있다.한발 더 나가자면, 원자력연구개발기금 개편은 결국 탈핵에너지전환에 부합하게끔 전기요금제도를 개편하는 문제와 맞닿아있다. 원자력연구개발기금은 부과금의 형태로 전기요금에 포함되어 있기 때문에 원자력연구개발기금을 축소·폐지하기 위해서는 부과금 체계를 바꿔야한다. 한편 사회적, 환경적 비용을 반영하고 에너지 전환 비용을 마련하는 차원에서 전기요금의 부과금과 조세를 조정할 필요성이 커지고 있다. 이미 덴마크나 독일의 경우, 각종 부담금과 세금을 늘려 전기 소비를 억제하는 동시에 에너지 전환 비용으로 사용하고 있다. 전기요금 인상 없는 에너지 전환을 표방하는 정부가 나설지 모르겠지만, 전기요금의 부담금과 조세 체계 개편은 탈핵에너지전환의 과정에서 언젠가는 부딪칠 문제임에 틀림없다. 사각지대에 놓인 원자력연구개발비 문제, 그리고 퇴행적으로 진행되는 주택용 전기요금 누진제 논의에 개입할 수 있는 연결고리를 계속 찾아야하는 이유도 여기 있다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      안철수 전 국민의당(현 바른미래당) 대표가 23일 법무부의 검찰 중간간부 인사 결과에 대해 별도 입장문을 내어 비판했다.   안 전 대표는 "청와대의 울산시장 선거 개입 의혹, 조국 전 법무장관 가족 비리 의혹, 유재수 감찰무마 의혹, 우리들병원 특혜 의혹, 삼성바이오로직스 분식회계 의혹 등 '살아있는 권력'에 대한 수사를 지휘하는 검찰 지휘부가 한 명의 예외도 없이 다 바뀌었다"며 이를 "살아있는 권력 수사에 대한 퇴장 명령"으로 규정했다. 그는 "하루하루 나라가 무너지고 있다"며 이같이 주장했다.  안 전 대표는 "검찰총장의 힘을 빼고 청와대 관련 수사를 하지 말라고 지휘라인을 쫓아낸 폭거"라고 비판하며 "국민께 위임받은 공공재인 인사권을 개인과 진영, 권력의 수단으로 삼는 것은 명백한 권력의 사유화로서 헌법 파괴이자 민주주의 파괴"라고 주장했다.   안 전 대표는 "대통령께서 윤석열 검찰총장을 임명하면서 '살아있는 권력에 대해서도 수사할 수 있는 분'이라고 말씀했던 것을 우리 국민은 기억하고 있다"며 "이제 국민은 누가 나라를 망치는지, 누가 민주주의를 무너뜨리는지, 현 정권이 덮고 가려는 진실이 무엇인지 확실히 알게 됐다"고 법무부를 넘어 문재인 대통령을 겨냥했다.   그는 "'검찰공화국'이란 말이 있을 만큼 절제되지 않은 검찰권을 행사해온 검찰에 대한 개혁의 취지는 공감한다"면서도 "그러나 검찰의 합법적인 수사를 막는 것은 법치주의와 민주주의, 그리고 헌법정신 파괴"라며 "국민이 납득할 수 없는 권력 행사는 국민이 위임한 권력 행사를 넘어서는 것"이라고 지적했다.   그는 "윤석열 검찰총장이 살아있는 권력을 끝까지 수사할 수 있도록 국민과 함께 지키고 응원할 것"이라며 "검찰의 목을 비틀어도 진실은 드러날 것이다. 검찰을 권력의 시녀로 만드는 것은 가짜 민주주의 정권"이라고 했다.   귀국 후 나흘째인 안 전 대표는 이날 대전 카이스트를 찾아 AI(인공지능) 개발 등 과학기술 발전 방안에 대해 대학 관계자들과 토의했다. 정치 행보에 대해서는 여전히 구체적인 답을 하지 않았다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  KAIST가 오는 20일부터 22일까지 대전 본원 학술문화관에서 KAIST 국제 인공지능(AI) 기술 워크숍과 제1회 국제 인공지능 축구대회를 개최한다.  이번 워크숍에서는 세계적으로 저명한 AI 전문가를 초빙해 기조연설과 단기 집중강좌, 패널 토론 등을 통해 AI의 기술적 이해와 알고리즘 개발 방법, 미래의 AI 기술 전망 등을 다룰 예정이다.  스위스의 로봇 시뮬레이터 제작 업체인 사이버보틱스(Cyberbotics)의 대표 올리버 미첼(Olivier Michel)은 ‘AI 시뮬레이션 벤치마크와 경기 운영 툴’을 주제로 기조연설에 나선다.  미국 퍼듀대학 컴퓨터정보기술학과의 에릭 맷슨(Eric T. Matson) 교수는 ‘AI 기술을 적용한 자율주행차량 운행의 위험 요소 해결 방안’에 대하여 강연한다.  단기 집중강좌로는 KAIST 전기및전자공학부 정세영 교수의 ‘심화 강화학습에 대하여’와 KAIST 전산학부 황성주 교수의 ‘딥러닝을 통한 실시간 스포츠 해설의 생성 방법’이 개설됐다.  또 KAIST 전기및전자공학과 정세영 교수의 ‘샘플의 효율적 심화 강화학습’과 KAIST 바이오및뇌공학과 이상완 교수의 ‘뇌에 영감화된 AI; 로봇 뇌의 공학구조에 대하여’가 플래그쉽 강좌로 열린다.  KAIST 전기및전자공학부 유창동 교수가 진행하는 패널 토론에서는 ‘인공지능과 함께하는 엔터테인먼트’를 주제로 미국, 스위스, 대만, 터키, 한국 등 AI 분야의 대표적 전문가들이 패널리스트로 참가해 인공지능을 활용한 엔터테인먼트 산업의 현황과 전망에 대하여 토론할 예정이다.  KAIST는 20일부터 22일까지 ‘AI 월드컵 2018’을 개최한다.  세계 최초로 열리는 제1회 국제 인공지능 축구대회로 ▲AI 축구 ▲AI 경기해설 ▲AI 기자 등 총 3개 종목으로 구별하여 진행된다.  토너먼트 형식으로 치러지는 AI 축구는 미국, 캐나다, 대만, 프랑스, 이란, 인도 등 해외팀과 KAIST, 서울대, AI 산업체 연구원 등 국내팀이 참여해 승부를 펼친다. 본선 경기부터 치러지며 8월 22일(수)에 개최될 준결승, 결승전은 일반인 및 청소년에게도 공개할 예정이다.  AI 축구 최종 우승팀에게는 상금으로 미화 1만불, 준우승팀과 3위팀에게는 각각 5,000불과 2,000불이 지급된다.  KAIST 공과대학 김종환 학장은 “미래 산업을 선도하는 AI 기술은 과거 알파고와 이세돌의 대국 같은 인간 대 기계의 대결을 넘어섰다”며 “이번 AI 기술 워크숍 및 AI 월드컵을 통해 창의적이면서 실험적이고 도전적인 방식으로 학습된 정밀한 알고리즘 기술을 소개할 것”이라고 밝혔다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      자유한국당이 연일 '막말' 논란으로 몸살을 앓으면서 황교안 당 대표가 "엄정하게 책임을 묻겠다"는 경고까지 했지만, 이번에는 황 대표가 야심차게 내놓은 당 특별기구 '2020경제대전환위원회'의 외부 위원 일부가 SNS에 막말성 표현을 했다는 논란이 7일 불거졌다.   경제대전환위는 한국당 황교안 대표가 내년 총선을 앞두고 경제정책을 중심으로 대안을 모색하고 중도층을 우군화시키기 위해 출범시킨 기구다. 지난 4일 황 대표는 위원회 출범식에 참석해 "앞으로 여러분이 만들어 주는 비전과 정책이 내년 총선과 2020년 대선까지 우리 당을 이끌 견인차가 될 것"이라고 의미를 강조하기도 했다.   그런데 이 위원회에 외부 전문가 위원으로 참여한 이병태 카이스트 교수와 조동근 명지대 교수 등 일부 인사들이 과거 SNS에 올린 글을 보니, 문재인 정부와 더불어민주당 인사들, 나아가 세월호 추모 분위기에 대해서도 수위를 넘은 비난을 한 것이 확인됐다.   이 교수는 지난 5월 10일 문재인 대통령의 취임 2주년 특별대담 기사를 '페이스북'에 공유하며 "치매인가? 정신분열증인가?"라고 문 대통령의 최저임금 관련 발언을 비판했다. 같은 달 31일에는 헝가리 유람선 사고를 언급하면서 "추모는 이렇게 정치권력과 무관하게 조용하게 치르는 내면적 행위라야" 한다고 주장하고 "세월호 추모가 더 이상 추모가 아니라 타락한 정치권력 놀음인 이유"라고 비난했다.   이 교수는 또 경제대전환위 출범 이틀 전인 이달 2일에는 "5.18에 관해 발언을 했다고 징계하는 한국당"이라며 "자유주의 보수적 가치를 내거는 정당이 표현의 자유를 허용하지 못하면 이미 대한민국은 조지 오엘의 &lt;동물농장&gt; 수준"이라고 5.18 막말 의원에 대한 한국당의 징계를 비판하기도 했다. 정부의 복지 수당 지급 확대를 비판하면서 "국민 1000만 명을 보조금 무상 수당에 의존하도록 만들었다. 기업에게 무한 복지를 확대하고, 역시 사회적 기생충화하고 있다"는 표현을 하기도 했다.   이 교수는 경제대전환위 출범 이후인 지난 5일과 6일에도 청와대의 보훈가족 오찬 배포자료 논란과 관련해 "유족에겐 고문이고 정신적 학대다. 이 미친 짓거리들을 하는 청와대가 제 정신이냐"라고 비난하는 글을 올리거나, 문 대통령이 주체사상 추종자라며 하야를 촉구한 한국기독교총연합회(한기총) 성명서를 공유하면서 "와우. 가장 과감하고 선명한 성명서가 나왔다"고 감탄하는 글을 올렸다.   조동근 교수 또한 올해 3~5월 페이스북에 올린 글에서 김상조 공정거래위원장에 대해 "사춘기 때 생각을 60이 돼도 바꾸지 않는다면 정신지체"라고 비난했고, 박영선 중소기업벤처부 장관에 대해 "박영선은 내가 가장 극혐하는 여자다. 내 기준에 의하면 저 여자는 인간도 아니다", "그녀는 천재가 아닌 천치다", "이번에 쓰레기 일부를 확실히 치웠다"고 공격했다.   바른미래당 손학규 대표를 향해 "그러니 찌질이란 말을 듣지", "정치인은 재활용되는 쓰레기보다도 못하네요"라고 비난한 글도 있었고, 지난달 한 방송 출연 후에는 "방송국에서 수다덩어리 '꼴 좌파'와 입씨름을 했다. 기분 엿같다"는 감상을 올리기도 했다. 지난 6일에도 "현충일의 경건함을 깬 '극혐' 김제동의 강연 취소"라며 "정말 엿같은 기분"이라고 하기도 했다.   다만 전현직 국회의원 등 유권자들에 대한 정치적 책임을 지는 정치인들의 막말과, 학자인 이들이 SNS에 일부 문제성 표현물을 올린 문제를 동일선상에 놓고 봐야 하느냐는 지적도 있다. 이 교수는 자신의 과거 SNS 발언이 6일 한 언론에 의해 처음 보도되자 다시 SNS에 글을 올려 "언론의 본분이 권력 비판인가, 권력 편에서 시민 표현의 자유에 재갈 물리기인가?"라며 "이 나라의 진짜 문제는 막말이 아니라 비겁한 침묵이다. 막말보다 천만 배 중요한 것은 표현의 자유"라며 항변성 입장을 밝히기도 했다.   그러나 한국당이 최근 주요 당직자들과 전현직 의원들의 막말 논란으로 연일 여론의 비판을 받고 있는 가운데, '황교안 플랜'의 핵심 구상으로 준비된 경제대전환위 참여 인사들로까지 논란이 확대된다면 적잖은 타격이 예상된다. 경제대전환위가 어떤 성과물을 내더라도 '막말' 이미지가 덧칠될 우려가 있기 때문이다. 지난 5일 당의 막말 논란과 관련해 "더 이상의 잘못은 용납할 수가 없다. 국민 마음에 상처를 주고 신뢰를 떨어뜨리는 언행이 나온다면 엄정하게 책임을 물을 것"이라고 경고한 황 대표가 어떤 입장을 밝힐지도 관심거리다.   지난 4일 당 특별기구 외부 위원으로 위촉된 이들 교수들이 지난 5~6일에도 "미친 짓거리", "(한기총이) 과감하고 선명", "극혐", "엿같은 기분" 등의 표현물을 게시한 것은 황 대표의 '경고' 시점 이후이기 때문이다.   정치권에서는 대번에 비판이 나왔다. 바른미래당은 이날 오전 최도자 수석대변인 명의로 '막말 정국에 막말 위원으로 시작하는 한국당 경제대전환위원회, 막말 근절 의지 있나?'라는 제목의 논평을 내고 "경제대전환위에 참여한 인사들의 면면을 보면 '막말을 근절하겠다'는 한국당의 공언이 무색하다"고 꼬집었다.  최 수석대변인은 "황 대표는 (경제대전환)위원회 출범식에서 '비판을 넘어 대안 중심으로 논의 방향을 잡아줄 것'을 주문했으나, 정치적 편향성을 넘어 진영 간 증오와 혐오를 부추기는 인사들이 내놓는 경제 대안을 국민 전부가 공감하고 수용할 수 있을까?"라고 지적하면서 "자칫 경제를 정치적 이해에 따라 접근하지는 않을지 걱정스럽다. '막말 정국'에 '막말 위원'으로 시작하는 한국당 위원회에 우려를 금할 수 없다"고 했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      대학교수 '갑질' 해부성폭력·폭언·폭행의 실태대학에는 서열이 있다. 정년트랙 교수 아래 비정년 트랙 교수가 있고, 교수 아래 직원이, 그리고 그 아래 어디쯤 학생이 존재한다. 캠퍼스에서 부당한 처우를 받거나 인권유린을 당해도 약자는 할 말이 없다. 일부 교수들은 학생들의 취업과 학점을 쥐고 있으면서 소위 갑질을 한다. 이사를 할 때 자장면 한그릇만 사주면 된다고 생각하는 교수들부터 근로장학생의 임금을 착취하는 교수, 성희롱과 폭언을 일삼는 교수 등 소위 괴물이 된 교수들이 우리사회에 여전히 존재한다. / 들어가는 말지난해 12월 제자와 인턴학생 9명을 강제 추행한 혐의로 서울대 강석진 수리과학부 교수가 구속기소됐다. 이어 서울대 경영대 모 교수의 추가 성추행 의혹이 나오면서 진상조사에 나서고 있다. 서울대에서 터진 이 두 사건은 대학사회의 '갑을 문화'를 이슈화시켰다. 강석진 교수의 경우 10년 넘게 학생들을 성추행했지만 최근에야 알려졌다. 서울대 내 설치된 인권센터에서는 이미 강 교수에 대해서는 파면 및 중징계를 요구하는 의견서를 대학에 제출했다. 충북에서도 충북대 남자 교수의 남학생 성추행 사건, 한국교통대 교수의 직원 사찰, 같은 대학 또다른 교수의 폭언 및 근로장학금 갈취 사건 등이 최근 언론에 알려졌다. 도내에서 일어난 사건들을 정리해본다.   ▲ 대학 내 교수들의 성희롱 사건이나 폭언 등은 오랫동안 지속되고 잘 밝혀지지 않는다. 약자인 학생들은 학점과 취업이라는 미래 때문에 교수의 부당한 행위를 고발하지 못한다. ⓒ충북인뉴스      # 상습적인 폭언, 폭행 빈번했지만…한국교통대 증평캠퍼스 식품공학과 A교수(63)의 폭언은 이미 공공연한 비밀이었다. A교수는 여성의 생식기를 표현하는 말을 욕으로 서슴지 않고 강의 중에 내뱉었다. 근로장학생의 장학금도 갈취했다는 혐의도 받고 있는 상태다. A교수는 이미 90년대 학교에서 물의를 일으킨 바 있다. 당시에도 학생들이 문제제기해 퇴직각서를 썼다. 하지만 그는 살아남았고 정년을 2년 앞둔 노교수가 됐다.2009년엔 A교수가 음료수 캔으로 학생을 폭행해 벌금 100만원과 정직 및 감봉 3개월의 처분을 받았다. 당시 학생이 형사고발을 하지는 않아 사건은 마무리됐다. A교수의 망언과 비위사실을 목격했던 학생들이 이번에는 참지 않았다. 지난달 7일 국가인권위원회에 진정을 냈다. 진정서의 내용은 A교수가 여학생들에게 성적 수치심을 유발하는 언어폭력을 상습적으로 행사하고, 성적 조작과 본인 저서 강매·학생 ID 도용·강의실 내 흡연 같은 각종 비리·비위행위를 저질렀다는 것이었다. 이에 대해 답변을 듣고자 A교수에게 수차례 전화통화를 시도했지만 연결이 되지 않았다. 대학 측에선 이 사건에 대해 진상조사위원회가 꾸려졌고, 이미 이 같은 사실에 대해 10여명의 학생들이 진술을 마쳤다. 하지만 대학 측은 한 달이 지나도록 아직까지 이렇다 할 대책을 내놓지 못하고 있다. 학교 측의 미온적 대응에 학생들은 성명서를 발표하고 해당교수의 수강신청을 거부하기에 이르렀다. 이번 학기에 A교수가 가르치는 4~5개의 전공강좌가 개설됐지만 1,2,3학년 학년당 30여명 즉 100여명이 강의를 신청하지 않았다. 수강신청은 지난 6일에 완료됐다. 학과 학생들은 9일 성명서를 발표해 "모욕적인 발언, 수업시간에 막말과 욕설, 교재 표절 및 강매, 근로장학생 장학금 갈취 등 A교수가 저지른 상식에서 벗어난 행위들을 일일이 열거하기 힘들다. A교수가 진행하는 수업은 전공학과 학생들은 꼭 수강해야 하는 필수 과목인 만큼, 다른 교수로 교체해 수업을 진행해 달라"고 학교 측에 요구했다.이어 "A교수는 진상조사위를 통해 억울하다는 입장을 밝혔지만 있지도 않은 일을 만들어 교수에게 덮어씌우는 제자가 어디에 있겠느냐. 아직도 자신의 잘못을 뉘우치지 않고 무고한 학생들만 탓하는 교수하고는 더 이상 사제지간의 관계를 지속키 어렵다"고 밝혔다.학생들은 또 "사법당국에 A교수의 비리 사실을 직접 고발하겠다"면서 그동안 학교 측에 제출한 증거자료들을 돌려 줄 것을 요구했다. 이에 대해 조희찬 한국교통대 교무처장은 “아직까지 징계 위원회에서 조사가 끝나지 않았다. 조사위원회도 수사권이 있는 게 아니라 판단하기가 조심스러운 부분이 있다”라고 설명했다. 학교 측은 조사를 마치면 징계위원회를 열 계획이다. 하지만 아직까지 확정된 안은 없다. 학생들의 수강신청 거부에 대해서는 "신청날짜가 지났지만 다시 학생들이 신청할 수 있는 기회를 주려고 한다"며 즉답을 피했다.# 더듬고…만지고…성추행 사건 카이스트 출신의 충북대 공업화학과 B교수(남·40)는 지난해 12월 12일 술을 마시고 남학생 제자를 성추행한 혐의(강제추행)로 현행범으로 체포됐다. B교수는 전날 오후 11시 30분께 청주시 흥덕구 복대동 자신의 오피스텔에서 함께 술을 마시던 남학생 제자(24)의 몸을 더듬는 등 성추행한 혐의를 받고 있다. 학생의 신고를 받고 출동한 경찰에 의해 B교수는 체포됐다. 현재 기소의견으로 검찰에 송치돼 2월 4일 재판에 회부됐다. B교수는 "제자와 함께 술을 마시던 중 장난을 치다가 몸을 만진 것이지 성추행하려는 의도는 없었다"며 혐의를 부인했지만 B교수가 휴대폰으로 촬영한 제자의 신체부위가 수사과정에서 발견되면서 덜미가 잡혔다. B교수는 사진을 찍었다가 후에 삭제했지만 다시 복원됐다. 지난해 9월에는 여제자 수십명을 상습적으로 성추행한 제천 세명대의 한 학과장이 구속됐다. 학과장인 C교수는 지난해 6월 9일 오후 9시경 여학생 2명과 함께 노래방에 가 게임을 핑계로 이들의 몸을 더듬는 등 2012년부터 지난해 6월까지 비슷한 방법으로 27차례에 걸쳐 여제자 23명을 성추행한 혐의를 받고 있다. 경찰에 따르면 씨는 자신의 연구실에서 일하는 여학생과 교양 과목 수강생 등을 상대로 성적이나 진로에 대해 상담을 해주겠다며 사적인 자리를 마련한 뒤 성추행을 일삼아 온 것으로 조사됐다.프레시안=충북인뉴스 교류 기사   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      제11대 제주연구원장에 김상협(58) 카이스트 초빙교수가 임명됐다. 김상협 신임 제주연구원장은 지난 1일 원희룡 지사로부터 임명장을 받고 업무를 시작했다.    ▲제11대 제주연구원장에 김상협(58) 카이스트 초빙교수가 임명됐다.ⓒ제주연구원   김 원장의 임기는 이날부터 2023년 8월 31일까지 3년이다. 김 원장은 사내통신망을 통해 진행된 취임사에서 “제주는 대한민국의 테스트베드라는 통념을 넘어 대한민국의 미래를 좌우하는 헤드쿼터로 자림매김하는 과정에 있다”고 말했다. 이어 “제주의 역사와 정체성을 바탕으로 도민과 함께 미래를 만들어나가는 도민의 씽크탱크로 제주연구원이 발전해나갈 수 있도록 최선을 다하겠다”고 덧붙였다. 한편 제주연구원은 이날 코로나19로 인해 대면 취임식을 생략하고 사내통신망을 통해 취임사를 배포한 뒤 부서장 간담회를 개최하는 것으로 마무리했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      한국전력(대표이사 사장 김종갑)은 2일(월) 한전 본사에서 한전, 전라남도, 나주시 간 ‘그린수소 사업 협력 MOU’를 체결했다.  지난 5월 정부는 탄소 배출 없는 그린수소 생산을 위해 한전을 사업자로 선정해 재생에너지 잉여전력을 활용한 수전해(P2G) 기술을 통해 그린수소를 만들어 저장하는 사업을 정부과제로 선정해 추진하기로 했다.     ▲2일(월) 한전 본사에서 한전, 전라남도, 나주시 간 ‘그린수소 사업 협력 MOU’를 체결했다. ⓒ한국전력    이날 MOU에서 한전은 그린수소 기술개발 및 사업추진을 주관하고, 전라남도와 나주시는 수소 생산에 필요한 태양광 설비 지원 및 인허가 등 행정지원을 하기로 했다.  그린수소 사업은 정부의 ‘재생에너지 3020 계획’에 따라 계속 증가하는 재생에너지를 활용해 수소를 생산함으로써 재생에너지 잉여전력 문제를 해결하고 이로써 전력계통 안정성 유지에도 기여할 것으로 예상한다.  또한, 이날 한전은 한국동서발전, 한국과학기술원(KAIST) 및 한양대 등 17개 기업·기관과도 ‘그린수소 기술개발 협력 MOU’를 체결다. 한전은 수전해·메탄화·운영기술 개발 및 실증을 총괄하고 참여기업·기관은 수전해 수소 생산·저장·메탄화 및 운영시스템 개발을 위해 협력하기로 했다. ※ MOU 참여기관 : 한국전력, 한국동서발전, 한국중부발전, 한국과학기술원 (KAIST), 한국과학기술연구원(KIST), 한국에너지기술연구원, 고등기술연구원, 포항산업과학연구원, 한양대, 동국대, 두산중공업, 한국선급, 대성에너지, 엘 켐텍, 수소에너젠, 지필로스, 에이치앤파워, 아크로랩스   이 날 MOU 체결식에서 김종갑 한전 사장은 “한전은 전라남도, 나주시, 참여기관과 지속적으로 협력해 정부 에너지전환 정책에 부응하고 중소기업과 지역사회 발전을 위해 더욱 노력할 것이다”고 전했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      대기업이 회사 밖 엔지니어가 발명한 기술을 함부로 베껴 쓰던 행태에 제동이 걸렸다. 미국 법원 배심원단 평결 때문이다. '기술 유출' 혐의가 엉뚱한 용도로 쓰이는 행태가 또 드러났다.   &lt;블룸버그&gt; 등 외신에 따르면, 미국 텍사스 동부지법 배심원단은 지난 16일 모바일 기기에 쓰이는 핵심 기술을 무단 사용한 삼성전자가 약 4억 달러(약 4400억 원)을 배상하라는 평결을 했다. 이후 판사가 이 사건을 징벌적 피해(treble damages)로 판단하면, 평결 금액의 3배까지 배상 금액을 올릴 수 있다. 이 경우, 배상 금액은 약 12억 달러(약 1조3000억 원)가 된다.   이종호 서울대 교수가 2001년 발명해서 2003년 미국에 특허를 낸, 이른바 '벌크 핀펫(FinFET)' 기술에 대한 평결이다.   이 교수는 카이스트가 설립한 지식재산권 관리 업체인 KIP에 이 기술의 특허 권한을 양도했다. KIP는 지난 2015년부터 갤럭시S6 등에 이 기술을 사용했지만 특허권료를 내지 않고 버틴 삼성전자를 상대로 2016년 미국 법원에 특허 침해 소송을 냈다.   소송이 진행되는 동안, 삼성전자 측은 다양한 편법을 동원했다. 이종호 교수가 과거 재직했던 경북대학교 측과 접촉해서, 경북대가 이 기술 특허권이 있다고 주장하도록 부추겼다는 지적이 나왔다. 경북대 측이 이렇게 주장하면, KIP가 낸 소송이 기각될 수 있었다.   아울러 삼성전자는 산업통상자원부에 '산업 기술 무단 유출' 혐의를 조사하도록 요청했다. 대기업이 엉뚱한 목적으로 기술 유출 혐의를 주장하는 행태가 또 드러났다. 기술 민족주의 정서가 강한 한국 문화에서 종종 통하던 방식이다. 직원에게 '기술 유출' 누명을 씌우거나, 대기업이 피해자 흉내를 내는 방식으로 해당 기업이 원하는 다른 것을 얻는 일이 종종 있었다. 국가정보원 역시 민주화 이후 '산업 기밀 보호'를 존재 명분으로 삼으면서, 기술 유출 혐의를 악용하곤 했다.   하지만 미국 법원 배심원단은 삼성전자 측 주장을 받아들이지 않았다. 삼성전자와 달리, 인텔은 이 교수와 KIP 측에게 약 100억 원을 주고 이 기술을 쓴다는 점이 참작됐다. 100억 원 아끼려던 삼성전자는 그보다 수십 배를 물어주게 됐다.   이에 대해 삼성전자는 즉각 항소하겠다고 밝혔다. &lt;블룸버그&gt;에 따르면, 삼성전자뿐 아니라 퀄컴과 글로벌파운드리 등도 이 기술 특허를 침해했지만, 아무런 배상을 하지 않았다. 이는 관련 소송이 확대될 가능성을 예고한다. 아울러 이 교수와 KIP 측이 거둘 특허권 수익이 더 늘어날 수 있다는 뜻도 된다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲글자 포함 화자 인식 모식도 ⓒKAIST       KAIST 신소재공학과 이건재 교수와 전기및전자공학부 유창동 교수 연구팀이 인공지능 기반의 화자(話者) 인식용 유연 압전 음성센서를 개발했다.  이번 연구를 통해 개인별 음성 서비스를 스마트 홈 가전이나 인공지능 비서, 생체 인증 분야 등 차세대 기술에 활용 가능할 것으로 기대된다.  음성 센서는 인간과 기계 사이의 자유로운 소통을 가능하게 만드는 가장 직관적인 수단으로 4차 산업혁명의 핵심 기술로 주목받고 있다.  음성센서 시장은 2021년 대략 160억 달러 규모로 커질 것으로 예상된다.  그러나 현재 산업계에서는 음성 신호 수신 시 정전용량을 측정하는 콘덴서 형식을 사용하기 때문에 민감도가 낮고 인식 거리가 짧아 화자 인식률에 한계가 있다.  연구팀은 인간의 달팽이관을 모사해 주파수에 따라 다른 영역이 진동하는 사다리꼴의 얇은 막을 제작했다. 음성신호에 따른 공진형 진동을 유연 압전 물질을 통해 감지하는 자가발전 고민감 음성 센서를 개발했다.  연구팀의 음성 센서는 기존 기술 대비 2배 이상 높은 민감도를 가져 미세한 음성 신호를 원거리에서도 감지할 수 있다. 또한 다채널로 신호를 받아들여 하나의 언어에 대해 복수 개의 데이터를 얻을 수 있다.  이 기술을 기반으로 누가 이야기하는지 찾아내는 화자인식 시스템에 적용해 97.5%의 화자인식 성공률을 무향실에서 달성했고 기존 기술 대비 오류를 75% 이상 줄였다.  화자인식 서비스는 음성 분야에 세상을 바꿀 기술로 기대를 받고 있다.  기존 기술은 소프트웨어 업그레이드를 통한 접근으로 인식률에 한계가 있었지만 연구팀의 기술은 하드웨어 센서를 개발함으로써 능력을 크게 향상시켰다.  추후 첨단 소프트웨어를 접목한다면 다양한 환경에서도 화자 및 음성 인식률을 높일 수 있을 것으로 예상된다.        ▲ 이건재 교수 ⓒKAIST    이건재 교수는 “이번에 개발한 머신 러닝 기반 고민감 유연 압전 음성센서는 화자를 정확하게 구별할 수 있기 때문에 개인별 음성 서비스를 스마트 가전이나 인공지능 비서에 접목할 수 있을 것이며 생체 인증 및 핀테크와 같은 보안 분야에서도 큰 역할을 할 수 있을 것이다”고 말했다.  이번 연구 결과는 국제 학술지 ‘나노 에너지(Nano Energy)’ 9월호에 ‘민감도’와 ‘화자인식’ 논문 두 편으로 동시 게재됐고 현재 관련 기술은 실용화 단계에 있다. (민감도 논문 : Basilar Membrane-Inspired Self-Powered Acoustic Sensor Enabled by Highly Sensitive Multi Tunable Frequency Band, 화자인식 논문 : Machine Learning-based Self-powered Acoustic Sensor for Speaker Recognition)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲   대전시의회 김인식 의원 ⓒ대전시의회    대전시의회 김인식 의원이 22일 주민들을 현혹시키고, 아무런 공론화 없이 추진되는 평촌산업단지 LNG발전소 유치를 반드시 철회하라고 촉구했다.  김인식 의원은 이날 대전시의회 임시회 본회의에서 “지난 14일 기성동 평촌산업단지 기업유치 설명회를 개최한다면서, 실제로는 LNG발전소 유치 계획을 설명했다”며 “참석한 21명의 주민들은 기업유치 설명회인 줄 알고 참석했지만, 다른 지역에서 반대한다는 LNG발전소 유치발표인 것을 알고 당혹감을 넘어 분노하고 있는 상황”이라고 지적했다.  또 “더욱 황당한 것은 설명회 이후 단 5일 만인 지난 19일 속전속결로 비밀작전을 수행하듯 대전시가 한국서부발전과 투자양해각서를 자랑스럽게 체결하였다는 점”이라며 허태정 대전시장에게 “이게 말이 된다고 생각하느냐?”고 추궁했다.  아울러 “평상시 시민을 위한 공론화 행정을 주장하면서도 정보제공과 찬반 의사도 물어보지 않고, 21명의 주민을 갑자기 불러서, 일방적으로, 속전속결로 밀어 붙이는 이유가 무엇이나?”며 “급하게 밀어 붙여야 할 시급한 정치적 이유가 있는 것은 아닌지 주민들은 의심하고 있고, 이런 밀실 행정에 충격을 받은 기성동 주민들은 발전소 반대 프랑카드를 수 십여개 내걸고 개탄과 분노를 표출하는 상황을 알고는 있느냐”고 물었다.  특히 “다른 산업단지에는 기업 몇 개만 유치하더라도 연일 언론에 크게 홍보했던 과정을 생각해보면, 적어도 수개월동안 대전시장과 유력인사들이 협의와 사전 동의가 있었을 텐데 그동안 쉬쉬하고 있었던 이유는 무엇이냐?”면서 “주민들의 반대가 무서워서 주민들도 21명만 알리라고 한 거냐”고 따졌다.  김 의원은 "대기업을 유치할 수 있다는 무책임한 말을 책임질 수 있는 지, 대기업 유치 근거는 무엇이냐"고 추궁했다.  또 “평촌공단 면적의 절반가량을 LNG발전소 부지로 내어준다면 앞으로 평촌공단은 첨단기업을 위한 공단이 아닌 발전소 관련기업 공단일 뿐”이라며 “본 의원이 대통령 부부도 방문한바 있는 장태산에 대한 관광단지 개발을 지속적으로 요구해왔지만 답변이 없었던 이유가 LNG발전소 부지로 만들기 위한 것이었냐”며, "청정지역 기성동 주민들에게 환경오염이 걱정되는 발전소는 상상할 수 없는 충격"이라고 비판했다.  김 의원은 “KAIST 교수도 LNG발전소 건립으로 2015년 신차기준, 배기가스를 뿜는 자동차 10만대가 대전시에 늘어나는 것이라며 지구온난화나 미세먼지 측면에서 환경문제로 이어진다고 지적했다”면서 “이런 환경적인 문제로 음성군을 비롯한 전국 여러 지역에서 LNG발전소 건립에 반대하고 있다”고 제시했다.  또 대전시는 LNG를 청정연료로 포장해 주민들을 현혹시키고, 주민의 건강과 안전을 위협하는 이런 환경적인 문제에 대해 아무런 설명도 없이 청정연료라는 말로 포장하고 있다“며 ”대전시는 환경오염 여부에 대한 과학적인 자료를 제시하고 설명해야 할 의무가 있다“고 강조했다.  아울러 ”지역 주민에게 일자리 만들어 준다지만 옳지 않다“면서 ”타시도 사례를 보면 발전소 운영 및 지원인력은 100명 이내 대부분 외지에서 출퇴근하는 전문 엔지니어들로, 주민들에게 제공되는 일자리는 청소나 단기 용역과 같은 허드레 일만 돌아가고 있다“고 반박했다.  김인식 의원은 ”공론화 절차도 거치지 않고, 기업유치라는 말로 지역주민들을 현혹시키면서 환경과 주민안전을 위협하는 발전소를 일방적으로 유치하려는 대전시 계획에 전적으로 반대하며, 앞으로 기성동 주민을 비롯한 서구 구민 모두와 함께 이번 LNG발전소 유치계획 철회에 앞장 서 나가겠다“고 밝혔다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       순천대학교(총장 고영진)가 지난 15일 두산중공업 경남 창원 본사 게스트하우스에서 13개 산·학·연과 ‘수소가스터빈 연소기 개발 및 복합발전 실증 사업화’에 관한 업무협약을 체결했다고 17일 밝혔다.  이번 협약에는 두산중공업(주), 한국기계연구원, (재)경남테크노파크, 한국지역난방공사, 한국남동발전, 한국남부발전, 한울항공기계(주), 한국과학기술원 및 순천대학교 외 5개 대학(서울대, KAIST, 강릉원주대, 세종대, 인하대) 등 전체 13개 기관이 참여했다.    ▲지난 15일 창원 두산중공업에서 열린 ‘수소 가스터빈 연소기 개발 및 수소터빈 실증사업 협력 협약 체결식’에서 주요 참석자들이 기념 촬영을 하고 있다.(사진 왼쪽부터 허재선 순천대학교 산학협력단장, 임종원 한국지역난방공사 미래개발원장, 안완기 경남테크노파크 원장, 안관식 한국남부발전 기술안전본부장, 박홍욱 두산중공업 파워서비스BG장, 임다두 한국남동발전 삼천포발전본부장, 박상진 한국기계연구원장, 이승수 한울항공기계 대표) ⓒ순천대학교    참여기관들은 수소연료를 통한 전력생산의 핵심기술인 ‘100% 수소가스터빈 연소기 개발’을 위해 국비 193억을 투입해 60개월간 연구개발을 진행하고, 6개 발전공기업 현장(발전소)에서 실증을 거쳐 2028년 상용화하는 것을 목표로 하는 대형 국책사업 수행을 위해 협력한다.  가스터빈 연소기술은 발전(發電) 분야 외 미사일, 항공기 및 우주발사체의 핵심기술인 관계로 국방산업, 우주산업과도 직결되는 국가 차원의 전략 기술이라 선진국에서도 극도의 보안 유지와 기술이전을 기피하고 있는 최첨단 기술로 순천대학교에서는 우주항공공학과 이기만 교수 연구팀이 기술개발에 협력할 예정이다.  주요 8개 기관의 대표들이 모인 협약식에 6개 참여대학을 대표해 유일하게 참석한 순천대학교 허재선 산학협력단장은 “이번 협약을 통해 발전공기업 외 민간 발전산업 및 항공우주산업 분야에서 우리 대학의 위상을 높이고, 에너지 관련 대형 국책사업에 주도적으로 참여할 수 있을 것으로 기대된다. 향후 지속적인 연구개발 추진 및 관련 인력 양성의 동력을 확보해 나가겠다”고 말했다.  한편, 순천대학교는 과제수행 기간 중 한국남부발전, 한국남동발전, 한국지역난방공사, 두산중공업(주) 등 동 사업을 추진하는 발전사 및 제작사와의 상호교류를 통해 순천대학교 연구팀의 현장 방문과 학생채용 등도 함께 추진해 간다는 계획이다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      '2019스마트국토엑스포' 포스터 ⓒLX      국토교통부가 주최하고 한국국토정보공사(LX)가 주관하는 국내최대 공간정보축제인 ‘2019스마트국토엑스포’가 8월 7일부터 3일간 서울 삼성동 코엑스에서 개최된다. ‘공간정보의 융합, 스마트한 미래를 열다’라는 주제로 올해 12번째 생일을 맞는 국토엑스포는 총 24개국 정부와 기업, 기관이 참여하고 85개사 186개의 전시부스가 운영된다. 또한 공간정보 새싹기업판로설명회 등 4가지 창업지원프로그램과 공간정보아카데미 교육간담회 등 3가지 취업지원프로그램 등 다양한 일자리창출 프로그램을 창업·구직자에게 소개한다. 국토교통부는 최신 공간정보신기술전시회와 국내최대 비즈니스교류 플랫폼, 글로벌리더들의 컨퍼런스 등 놓치면 후회할 3가지 관람 포인트도 소개했다. 먼저 전시회에서는 현재 핫 이슈로 떠오르고 있는 스마트시티의 구현기술인 ‘디지털 트윈’을 활용한 ‘미세먼지 바람길 추적 시뮬레이션’과 지하철 화재 속 대피훈련을 가상현실(VR)로 체험할 수 있다.  또 24개 이상의 다양한 컨퍼런스와 국내외 비즈니스 프로그램이 진행되면서 국내 최대의 비즈니스 교류 플랫폼이 자연스럽게 형성되는 효과도 노린다.  마지막으로 KAIST 김대영 교수와 에스리(esri)社 리차드 버든(Richard Budden) 본부장, KT 김병성 상무 등이 ‘4차 산업혁명과 공간정보 융합’에 관한 미래 메시지를 전달하는 종합컨퍼런스도 눈여겨 볼만 하다. 최창학 사장은 “무더운 여름, 첨단공간정보 세계로의 스마트한 피서를 자신 있게 권해드린다”면서 “이번 행사가 공간정보에 대한 쉬운 이해와 함께 더 나아가 혁신성장과 일자리창출의 교두보가 되길 바란다”고 말했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 왼쪽부터 안수진 박사과정 이지항 박사 이상완 교수 ⓒKAIST       KAIST 바이오 및 뇌공학과 이상완 교수 연구팀이 영국 케임브리지 대학, 구글 딥마인드와의 공동 연구를 통해 차세대 뇌 기반 인공지능 시스템 설계의 방향을 제시했다.  이번에 진행된 신경과학-인공지능 융합 연구는 인간의 두뇌가 기존의 인공지능 알고리즘이 해결하지 못하는 부분을 해결할 수 있다는 사실에 기반을 두고 성능, 효율, 속도의 균형적 설계와 같은 다양한 공학적 난제를 해결할 수 있는 신경과학 기반 강화학습 이론을 제안한 것으로, 새로운 인공지능 알고리즘 설계에 긍정적인 영향을 줄 것으로 기대된다. 이 교수 팀은 강화학습 등의 개별 인공지능 알고리즘이 해결하지 못하는 공학적 문제를 인간의 두뇌가 이미 해결하고 있다는 사실에 기반한 ‘전두엽 메타 제어’ 이론을 제안했다.  중뇌 도파민-복외측전전두피질 네트워크에서 외부 환경에 대한 학습의 신뢰도를 스스로 평가할 수 있는 보상 예측 신호나 상태 예측 신호와 같은 정보를 처리한다.  인간의 두뇌는 이 정보들을 경쟁적-협력적으로 통합하는 프로세스를 통해 외부 환경에 가장 적합한 학습 및 추론 전략을 찾는다는 것이 이론의 핵심이다.  이 원리를 단일 인공지능 알고리즘이나 로봇설계에 적용하면 외부 상황변화에 강인하게 성능, 효율, 속도 세 조건(performance-efficiency-speed tradeoff) 사이의 균형점을 유지하는 최적의 제어 시스템을 설계할 수 있다.  나아가 다수의 인공지능 개체가 협력하는 상황에서는 서로의 전략을 이용함으로 협력-경쟁 사이의 균형점을 유지할 수 있다.  이지항 박사는 “현대 인공지능의 우수한 성능은 사람의 행동 수준 관찰뿐 아니라 두뇌의 저수준 신경 시스템을 알고리즘으로 구현해 적극적으로 발전시킨 결과”며며 “이번 연구는 계산신경과학에 기반한 결과로 현대 딥러닝과 강화학습에서 겪는 성능, 효율, 속도 사이의 난제를 해결하는 실마리가 될 수 있고, 새로운 인공지능 알고리즘 설계에 많은 영감을 줄 것”이라고 말했다.  이상완 교수와 이지항 박사, 안수진 박사과정이 주도한 이번 연구는 국제 학술지 사이언스의 자매지 ‘사이언스 로보틱스(Science Robotics)’ 1월16일 자 온라인판에 포커스 형식으로 게재됐다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      제주도는 원희룡 도지사가 5일부터 11일까지 미국 첨단기술 연구단지인 실리콘밸리와 세계 최대 전자제품 박람회인 세계가전전시회(이하 CES) 2020에 참석한다고 밝혔다.오는 7일 부터 10일 까지 라스베이거스 컨벤션센터에서 개최되는 이번 행사에서 원희룡 도지사는 제주도가 추진 중인 ‘글로벌 블록체인 허브 도시’ 및 ‘스마트 아일랜드’ 조성 등에 대한 국내외 오피니언 리더들과의 협력방안 모색에 나선다.   .ⓒ제주특별자치도   특히 제주가 선도하고 있는 전기차 연관 산업의 육성을 위해 세계적인 전기자동차 및 배터리 제조사인 Tesla사의 프리몬트 공장을 방문해 기업관계자와 면담하고 의견을 교환할 예정이다.CES는 미국가전협회가 주관해 매년 1월 미국라스베가스에서 열리는 세계최대 규모의 가전IT제품 전시회 로서 모바일월드콩그레스(MWC), 국제가전박람회(IFA)와 더불어 세계 3대 기술 전시회로 꼽힌다.원희룡 지사는 6일 산호세 실리콘밸리에 위치한 스타트업 육성학교인‘Draper University’의 Asra nadeem 총장을 만나 혁신 스타트업 육성방안 등에 대해 의견을 교환하고 이어 테슬라사의 프리몬트 공장을 방문한다.7일에는 라스베가스에서 개최되는 CES 2020에 참가해 정보통신기술의 세계적인 흐름과 글로벌 가전제품 시장동향을 살피고 블록체인, 사물인터넷 등 분야를 선도하는 국내외 오피니언 리더들을 만나는 한편, 김현석 삼성전자 대표, 현대자동차 지영조 사장 및 두산・LG 임원들과 면담을 갖는다.한편 원희룡 지사의 이번 미국 출장에는 김상협 제주그린빅빅뱅포럼위원장(㈔우리들의 미래 이사장, KAIST 지속발전연구센터장)과 이찬진 전 한글과컴퓨터 사장, 노희섭 미래전략국 국장 등이 동행했다.제주도는 이번 원희룡 지사의 미국방문을 통해 제주의 4차 산업혁명 시대 전략산업 육성과 제주의 지속가능한 발전 생태계 마련을 위한 계기가 될 것으로 기대하고 있다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      국립 경상대학교(GNU·총장 이상경) ‘고효율·안전 항공핵심기술 선도연구센터’가 미래창조과학부가 추진하는 ‘2017년 선도연구센터(ERC) 지원사업’에 선정됐다.   미래창조과학부와 한국연구재단은, 경상대학교가 경남도, 진주시, 사천시, 한국항공우주산업(KAI) 등의 지원을 받아 신청한 항공선도연구센터를 2017년 국가선도연구센터(ERC)로 최종 선정했다고 지난 7일 공식 발표했다.   항공선도연구센터는 고효율·안전 항공핵심기술 분야의 원천·응용연구 연계가 가능한 세계적 수준의 연구 성과를 창출하고 대학 산학협력의 거점전문센터 역할을 수행하게 된다. 이로써 국내 최초로 지정된 경남 진주·사천 항공국가산단이 성공적으로 정착하는 데 중추적 역할을 담당할 기업지원 R&amp;D;의 한 축이 갖추어진 셈이다.   ▲항공선도연구센터 산학협력 거점 전문센터 자립 비전. ⓒ경상대학교    선도연구센터는 국가적으로 집중 육성할 필요가 있는 학문 분야에 대해 전국 모든 대학을 대상으로 공모해, 대학의 역량과 지자체·산업체 등의 지원의지, 환경 등을 종합해 선정하는 대한민국 최고 권위의 대학 연구센터 지원사업이다. 지금까지는 주로 수도권 대학들의 사업으로 인식돼 왔다.   이번 미래창조과학부와 한국연구재단의 발표에 의하면 경상대학교는 항공을 포함한 범기계 분야에서 연구중심대학을 포함한 전국 최상위권 4개 대학 컨소시엄과의 경합을 거쳐, 국내 최초의 항공선도연구센터로 선정됐다.  이로써 경상대학교는 향후 7년간 국고 135억 원, 지자체 지원금 28억 원 등 모두 201억 원의 예산을 확보해 산업수요 중심의 고효율·안전 관련 항공핵심기술 연구를 집중적으로 수행하게 된다.  항공선도연구센터에는 주관기관인 경상대학교와 울산과기원, KAIST, 서울대 컨소시엄 참여 대학의 12명의 국내 항공 관련 최고 전문가들이 핵심연구원으로 참여하며, 한국항공우주산업 등 10개 산업체, 캐나다 McGill, 미국 UCSD 대학 등 13개 국제협력 기관도 함께 참여한다.  이번에 항공 분야 정부지정 선도연구센터가 경상대학교에 설치됨으로써 지난 5월 2일 고시된 진주·사천 항공국가산단의 활성화에도 큰 도움이 될 것으로 기대된다.  경남도 신종우 미래산업국장은 “그동안 경남도가 항우연 분원 유치 등 항공 관련 정부출연연구소의 유치를 꾸준히 추진해 왔는데, 이번에 미래형 항공핵심기술과 핵심기자재 국산화 연구 개발을 주도할 선도연구센터가 경상대학교에 설치됨에 따라, 이를 향후 항공국가산단의 기업지원 R&amp;D;센터로 육성해 나가겠다”고 밝혔다.  경상대학교 공과대학 항공우주시스템공학과 명노신 교수(선도연구센터장)는 “미국 캔사스주 위치타 대학의 국립항공연구원 NIAR와 같이, 경남도, 진주시, 사천시 등과 협력하여 항공선도연구센터를 항공국가산단에 입주하는 기업의 연구개발, 시험평가 기능을 직접 지원하는 자립형 연구소로 발전시켜 나가겠다”는 포부를 밝혔다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ▲인사말 하는 최정우 포스코 회장 ⓒ포스코      포스코는 15일 서울 포스코센터에서 제51기 정기주주총회와 이사회를 열어 이날 재선임된 김신배 사외이사를 이사회 의장으로 선출했다. 포스코는 2006년부터 14년째 이사회 의장을 사외이사로 선임해오고 있다.  또한 사외이사로 박희재 서울대 공과대학 교수를 신규 선임하고, 정문기 성균관대 경영대학 교수를 재선임했다. 사내이사로는 김학동 부사장과 정탁 부사장을 신규 선임하고, 장인화 사장과 전중선 부사장을 재선임했다. 주총 후 열린 이사회에서는 김신배 의장 선임 외에 장인화 사장을 대표이사로 재선임했다.  이날 주주총회에서 최정우 회장은 인사말을 통해 “포스코는 고부가가치 제품 판매를 확대하고 실질적인 원가절감 활동으로 수익성을 제고해 경영목표를 달성하고 미래사업 발굴 활성화를 위한 신사업 추진체계를 확립해 장기·안정적 성장기반을 구축하겠다”고 말했다. 특히 “그룹 신성장 핵심사업으로 육성중인 2차전지 소재사업은 조속한 시일 내에 Global Top Player로 도약할 수 있도록 총력을 기울이겠다”고 강조했다.  해외 주주 대표와 기관투자자 등 국내외 주주 200여명도 주총에 참석했으며 재무제표 승인 등의 안건도 통과됐다. 김신배 의장은 SK텔레콤 대표이사 사장, SK C&amp;C; 대표이사 부회장을 역임한 대표적인 IT분야 기업인으로, 경영능력을 인정받아 SK그룹 부회장을 지냈으며, 2017년부터 포스코 사외이사를 맡고 있다.  박희재 신임 사외이사는 서울대 교수 재직중 벤처기업 SNU프리시전을 설립한바 있고, 산업통상자원부 R&amp;D;전략기획단장, 청년희망재단 이사장 등을 지냈다. 현재 서울대 공과대학 기계항공공학부 교수로 재직중이다. 감사위원으로는 정문기 사외이사가 재선임됐다.  김학동 신임 사내이사는 포스코 광양제철소 선강담당 부소장, SNNC 대표이사, 포스코 포항제철소장, 광양제철소장을 거쳐 올해 생산본부장으로 선임됐다.  정탁 신임 사내이사는 ㈜대우로 입사해 쿠알라룸푸르 지사장, 금속본부장, 포스코 에너지조선마케팅실장, 철강사업전략실장 등을 거쳐 현재 마케팅본부를 맡고 있다.  한편, 이날 포스코는 CEO 직속 자문기구인 기업시민위원회를 출범시켰다. 기업시민위원회는 사외전문가 및 사내외 이사 총 7명으로 구성되며, 분기별 위원회를 개최해 포스코그룹의 기업시민 경영이념과 활동방향에 대해 논의할 예정이다.  초대 위원장에는 김준영 성균관대 이사장이, 사외 위원으로는 장세진 카이스트 경영대학원 및 싱가포르국립대학교 교수와 김인회 인하대학교 법학전문대학원 교수가 각각 선임됐다.  김준영 위원장은 거시경제 분야 전문가로 사회, 교육, 인문 등에 대한 경험이 풍부해 포스코가 추구하는 사회적 가치창출을 위한 적임자로 평가받고 있다.  사외이사인 장승화 서울대학교 법과대학 교수와 박희재 서울대학교 공과대학 교수, 사내이사인 전중선 부사장, 김학동 부사장도 기업시민위원으로 활동한다. 위원회는 포스코그룹의 기업시민 및 지속가능발전을 위한 조언은 물론, 기업시민 활동의 사회적 가치 창출에 대한 성과평가 등의 역할도 수행하게 된다.  포스코는 경제, 경영, 인문사회, 법학 등 각 분야에서 뛰어난 전문성을 보유한 사외 전문가 3인을 위원으로 선임함으로써, 기업시민위원회가 포스코의 기업시민활동이 사회에 필요한 가치를 창출할 수 있도록 전문가적인 조언을 제공할 것으로 기대하고 있다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      한림대학교는 영국의 대학평가기관 QS(Quacquarelli Symonds)와 THE(Times Higher Education)가 실시한 ‘2018 QS 세계대학평가’ 및 ‘2018 THE 신흥대학순위’에서 각각 국내 21위와 6위에 이름을 올렸다.   이번 QS 세계대학평가에서 한국 대학은 한림대를 포함해 서울대, KAIST, POSTECH, 고려대, 성균관대 등 30개 대학이 순위에 들었다.     ▲한림대 캠퍼스 전경. ⓒ한림대     한림대는 지난 5년간 순위가 꾸준하게 상승하여 올해도 국내 21위, 세계 591-600위에 이름을 올렸고 강원도내 대학 가운데에서는 유일하게 연속 랭크돼 상위권을 지켜왔다. 세계 1위는 미국의 MIT가 차지했다.   또 개교 50년을 넘기지 않은 신흥대학을 대상으로 하는 ‘THE 2018 신흥대학 순위’에서 한림대는 최초 순위에 진입(국내 6위, 세계 201-250위)하는 데 성공하였으며 국내에서는 총 7개 대학이 순위에 포함됐다.   세계에서 가장 권위 있는 양대 대학평가에서 잇따라 고무적인 성적을 거두고 있는 한림대는 2016년 선포한 ‘Vision &amp; Action 2016~2022’를 바탕으로 스쿨제 도입, 복수전공 필수화, 소속변경 자율화, 융합전공 교육기회 확대, 글로벌융합대학 및 글로벌협력대학원 신설 등 국제 사회에서 필요로 하는 핵심 인재 육성을 위한 변화를 이어가고 있다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      (재)영월장학회(이사장 최명서 영월군수)는 지난 21일 강원 영월군청 상황실에서 2020년 제1차 이사회를 개최해 장학생 선발인원을 확대했다고 밝혔다   이날 이사회에서는 올해 사업계획서 및 예산안, 장학금 선발예정 인원 확정안 등 총 6건의 안건을 심의하고 지역인재 양성을 위한 열띤 토론의 시간을 가졌다.   올해 일반대, 세경대, 지역 내 고등학교 등 장학생 선발예정 인원은 312명으로 총 7억 1200만 원의 장학금을 지급할 예정이다.     ▲영월군 청사. ⓒ프레시안     또한, 지난해 대비 일반대 장학생 선발인원을 65명에서 95명으로 30명을 확대하고 장학생 신청자격의 용어를 쉽게 정비했다.   또, 우수대학(서울대, KAIST, POSTECH, UNIST, GIST, 의·수의·한의예·약학·치대) 장학생 중 등록금 전액 타 장학금 수혜자 및 등록금 100만 원 이하 장학생들에게 지급하던 생활비를 연 200만 원에서 연 300만 원으로 증액했다.   올해 영월장학회 장학생 1차 접수는 23일부터 오는 2월18일까지 진행될 예정이다.   최명서 영월군수는 “지역인 재양성 및 어려운 환경 속에서 배움의 뜻을 잃지 않고 열심히 공부하고자 하는 학생들에게 더 많은 혜택이 돌아갈 수 있도록 적극 노력하겠다”고 말했다.   한편, 1989년 설립된 영월장학회는 영월군 출연금을 비롯해 각계각층의 후원으로 2019년 12월 말 136억 원의 기금이 조성됐으며 그동안 4203명에게 장학금 61억 700만 원을 지급했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      한국도 핵무장을 해야 한다는 주장이 다시금 고개를 들고 있다. 다섯 차례 핵실험을 한 북한 김정은 정권이 계속해서 미사일 시험 발사를 하자 보수층을 중심으로 우리도 핵무장을 하자는 목소리가 확산되고 있는 것이다.   보수를 자처하는 자유한국당은 핵무장이 당장 어려우면 전술핵이라도 다시 도입하자는 주장을 펼치고 있다. 이를 당론으로 채택하겠다는 것이다. 그럴 경우 한국에 '핵 의병당'(核義兵黨)이 하나 탄생되는 셈이다.  게다가 북한의 대륙간 탄도미사일이 이제는 미국 서부지역까지 도달할 수 있을만큼의 사거리를 확보한 것으로 보여 미국의 대북한 위협 인식 또한 높아졌다. 사드(THAAD‧고고도 미사일 방어체계)의 한반도 배치 역시 그 위협에서 나온 자위적 조치의 일환이라는 것이 워싱턴의 주장이다.  국제사회도 북한 제재에 적극적이다. 유엔안보리는 북한 '화성-14'형 발사 실험에 역대 최고로 평가받는 대북 제재 결의안 2371호를 만장일치로 신속하게 채택했다. 중국이 제재 결의안을 얼마만큼 성실하게 이행하느냐에 따라 제재의 성패가 갈리겠지만 북한으로서는 어떤 형태로든 부담이 되는 또 하나의 제재가 만들어진 셈이다.  그럼에도 북한이 핵을 포기할 것인가는 물음에 절대 다수의 전문가들은 회의적이다. 2016년 9월을 마지막으로 지금까지 다섯 차례의 실험을 하고 핵무기를 탑재할 미사일 개발도 향상되고 있는 마당에 김정은 정권이 자발적으로 핵무기를 포기하리라 기대하는 것은 비현실적이다. 그런 선례도 없다.   북한은 지상과 해상을 오가면서 미사일 시험발사를 간헐적으로 시도할 것이다. 따라서 북한의 핵무기와 미사일 능력이 고도화될수록 보수층을 중심으로 국내 핵무장 주장은 핵무기의 정치·군사·경제적 타당성 분석과는 별개로 탄력을 받을 것이 분명하다.   ▲ 지난 7월 28일 밤 북한이 발사한 대륙간 탄도 미사일(ICBM)인 '화성-14'형 ⓒAP=연합뉴스    한국의 핵능력 현주소  일반적으로 핵 능력을 평가하는 기준은 핵연료 주기와 이를 군사적으로 활용할 수 있는 능력을 어디까지 확보했느냐에 따라 달리 평가된다. 핵무기 개발과 관련한 핵연료 주기 기술은 크게 재처리와 농축으로 나눈다.   재처리 공법은 원자로를 가동하면서 남게 되는 사용후핵연료를 통해 재처리 시설(공장)에서 무기급 핵연료를 확보하는 것이다. 고농축은 우라늄-235의 함유량을 무기급으로 높이는 것을 일컫는다. 전력을 생산하기 위해 가동 중인 원자로의 농축 정도는 2~5%인 반면에 무기급 농축 정도는 90%가 되어야 한다. 한국은 한미원자력협력협정과 국제 규약 등에 따라 24기 원자로를 가동하고 있음에도 재처리와 농축을 하지 못하게 되어 있다.  핵무기 원료 확보 여부와 별개로, 핵무기 설계나 제조와 관련해서도 한국의 기술적 연구와 개발은 아직 초보 단계에 이른다는 평가가 지배적이다. 정보 공유의 확대로 핵무기 제조에 대한 기술과 정보들이 이전보다 확대되어 있기는 해도 원하는 폭발력을 얻기 위해서는 고도의 기술이 필요하다. 핵무기 제조에 약 1300여 명의 기술자와 500여 명의 과학자가 필요하다는 유엔 보고서도 있었다.   박정희 정권 시절인 1976년 한국원자력연구소에는 약 천 명의 원자력 전문가들이 있었으며, 박사 학위 소지자 250명 중 56명이 '핵 과학' 분야에 관여하기도 했다. (참고로 1960년대 스웨덴 핵무기 연구에 참여한 과학자는 350여 명이었다.)  현재 관련 연구소는 확대되었으며 그동안 서울대학교, KAIST 등 15개 대학교 원자력 관련 학과에서 배출한 인력도 수만 명에 이른다. 1950년대 10여 명의 원자력 공학도가 지속가능한 에너지원으로서 원자력 산업의 중요성을 인식하고서 세미나 형태로 원자력 양성을 시작한 것에 비하면 상전벽해(桑田碧海)를 이룬 셈이다.  한편, 핵무기를 운반할 수 있는 무기체계(전투기, 미사일 등)는 오래 전부터 확보되어 있기에 핵확산이 실제 이루어질 경우 운반체계의 장애요인은 없어 보인다. 그런데 비무기급 핵분열성 물질과 무기급 핵분열성물질을 생산할 수 있는 기술요소 등을 확보(technical hedging)하였다고 해도 이를 실제 무기화(weaponization)로 옮길 수 있을지는 미지수이다. 결국 북한 핵위협의 대안으로 핵무장을 압도적으로 찬성하는 공론을 국민들로부터 어떻게 이끌어내느냐가 관건이다.  핵무장과 한반도비핵화공동선언 그리고 한미원자력협력협정  국내에서 핵무장 문제가 처음 수면 위로 부상한 시점은 1970년 7월 닉슨 행정부가 주한미군 7사단 철수계획을 한국 정부에 일방적으로 통고한 후였다. 당시 박정희 정부는 미국의 결정을 저지시키려는 노력과 함께 국방과학연구소와 무기개발위원회를 통하여 독자적인 군수물자 조달과 생산을 위한 계획을 세우기 시작했다.   공개 자료에 따르면 당시 무기개발위원회가 만장일치로 핵무기 개발에 동의한 것으로 훗날 밝혀졌다. 이에 핵무기 개발의 일환으로 1972년 프랑스로부터 핵연료재처리 시설을 구입할 것을 논의하였으며, 주한미군 철수가 직접적인 원인이 되었음을 지적하고 있다. 이어 1975년 4월 베트남이 패망하고 박정희 대통령은 1975년 6월 12일 기자회견에서 처음으로 핵무기를 처음으로 언급하였다.  박 대통령은 미국이 전술핵을 철수할 경우 한국은 자체적인 핵능력을 개발해야만 할 것이라고 했다. 그는 동년 6월 25일 &lt;워싱턴 포스트&gt;(WP)와 인터뷰에서 한국 국방과학연구소로 하여금 핵무기에 관한 연구를 수행할 것을 지시했다는 &lt;뉴스위크&gt;(Newsweek)지의 보도를 부인하면서도, 동시에 주한미군 철수 시 한국은 핵무기 개발까지도 포함해서 모든 옵션을 고려할 것이라고 언급했다. 북한 도발에 대한 억지책이자 미국과의 협상에서 유리한 고지를 차지하기 위한 양수겸장의 전술이었다.  1974년 인도 핵실험에 놀란 미국은 한국 정부의 이러한 움직임에 강력한 저지 활동을 펼쳤다. 1975년 말 미국은 프랑스로부터 재처리공장을 구입하려는 한국의 계획을 취소하게끔 다각도의 압력을 행사하였으며, 그 결과 박정희 정부는 1976년 1월 구입계획을 포기하게 된다.   1976년 11월 대선에서 주한미군 철수를 공약으로 내걸고 당선된 카터 행정부가 들어서자 또다시 주한미군 철수문제가 대두되었다. 1977년 5월 철수 이야기가 본격적으로 논의되자 박 정권은 미국이 전술핵을 철수할 경우 한국은 핵확산금지 조약(NPT)에 서명했음에도 불구하고 자체 핵무기개발이 불가피하다는 입장을 전했다. 1979년 10월 박정희 대통령이 시해되고 이후 전두환 정권이 들어서자 핵무기에 대한 논의는 수면 아래로 사라지게 된다.  전두환 정권을 이어받은 노태우 정권은 '한반도비핵화공동선언'을 구상하게 된다. 1991년 여름과 가을 사이, 한미 양국은 하와이에서 남한 내에 배치된 전술핵 철수와 관련하여 협상을 벌이고 있었다. 노태우 정부 김종휘 청와대 안보수석과 아버지 부시 행정부의 국방차관 폴 월포위츠가 각각 대표로 나섰다.   이 회담의 결과로 부시 대통령은 1991년 9월 27일, 남한 내의 전술핵 철수를 공식 발표했다. 노태우 정권은 이를 이어받아 같은 해 12월 18일 '대한민국 어디에도 어떤 형태로든 핵무기는 더 이상 존재하지 않는다'는 핵 부재를 선언했다.  북한도 적극적으로 움직였다. 핵문제를 협의하기 위한 남북 간 실무 대표 접촉이 크리스마스도 지난 1991년 12월 26일부터 31일까지 판문점에서 비밀리에 열렸다. 여기서 북한은 그동안 주장해 오던 비핵지대화 주장을 철회하고 우리가 마련한 비핵화 선언에 응하면서 합의에 이르게 된다.   이어서 1992년 1월 20일 남한의 정원식 총리와 북한의 연형묵 총리가 서명하고 남북고위급회담 6차 회담에서 서명한 문본을 교환하면서 2월 19일 자로 정식 발효됐다. 비핵화공동선언은 이후 북한의 핵실험에도 불구하고 한국의 핵무장을 원천적으로 봉쇄하는 족쇄 역할을 톡톡히 해왔다. 아킬레스건이 됐다.  예상대로 미국은 원자력협정 개정을 위한 협상에서 비핵화공동선언을 마치 암행어사 마패처럼 꺼내들고서 한국이 재처리와 농축을 하지 않겠다는 약속을 하지 않았냐고 압박해왔다. 한국 정부도 비핵화공동선언이 여전히 유효하다는 입장을 고수하고 있다.   2015년 6월에 개정된 한미원자력협력협정을 또 다시 개정하지 않는 한 한국이 미국의 승인을 받지 않고 미국산 우라늄을 자체 재처리하거나 농축할 권리를 확보하기란 불가능하다. 따라서 개정된 원자력협정 내용을 제대로 보았다면 현행 협정을 변경하지 않은 채 (원자력 에너지를 연료로 사용할 뿐 핵무기를 탑재하는 것이 아니기 때문에) '핵' 추진 잠수함을 건조하는 것이 불가능하다는 사실을 알게 될 것이다. 원자력 추진 잠수함 언급은 북한 핵위협에 효과적인 헤징으로 기능할 수도 없으며 오히려 탈핵을 표방한 정책에 혼선만 더할 뿐이다.  현실적 방안 : 헤징(hedging) 능력 강화  '절대무기'(absolute weapon)로 불리는 핵무기에 대응하는 현실적 방법은 선제공격을 당하고서도 2차 공격(최소 억지력)까지 가능한 핵무기를 확보하는 일이다. 한국이 이러한 능력을 북한처럼 비밀리에 확보하기란 불가능하다. 그렇다고 미국이 이스라엘과 파키스탄에 그랬던 것처럼 한국의 핵무장 시도(sheltered pursuit)를 묵인하지도 않을 것이다. 국제사회의 예견되는 제재에도 불구하고 한국은 공개리에 핵무장을 하겠다고 선언할 정치, 경제, 사회 환경도 마련되어 있지 않다. 달리 말해, 핵무장 공론화를 통해 국내적 합의(숙의 과정)를 이끌어 낼 동력이 마련되어 있지 않다. 이념적 분란만 초래할 것이 분명하다.  따라서 한국은 헤징(hedging : develop the option as a weapon)을 점진적으로 제고하는 것이 가장 현실적 경로이다. 원자력 헤징은 실제 핵무기를 제조하는 것이 아니라 기술적으로 준비하는 것을 일컫는다.   이를테면 단순히 핵무기에 관심이 있다는 의견 표명만 하고 비무기급 핵분열성 물질을 지니고 있으면 'technical(기술적) 헤징' 능력을 지니고 있다고 본다. 여기에다 무기급 핵분열성 몰질과 핵무기에 대해 제한적이지만 이론적 연구가 이루어지고 운반 체계까지 갖추고 있다면 'insurance(예방적) 헤징' 으로 불린다. 한국은 현재 이 정도 수준에 있다고 판단된다.   마지막으로 무기급 물질을 생산할수 있고 이론적 연구 제한도 받지 않고 국내 여론 대다수가 핵무장에 찬성하지만 실제 무기 제조 작업은 하지 않고, 핵 포기를 결코 하지 않겠다고 명시적으로 선언하면 이는 'hard(강력한) 헤징'으로 불리기도 한다. 이란의 경우가 여기에 해당한다.   어떤 길을 택해야 하는지는 다른 나라의 사례를 참고할 필요가 있다. 아르헨티나(1968~90), 브라질(1953~90), 인도(1948~89), 이란(1974~현재), 리비아(1970~1981), 노르웨이(1946~62), 남아프리카공화국(1969~74), 호주(1956~73), 프랑스(1945~54), 이탈리아(1955~59), 일본(1954~현재), 루마니아(1960년대 후반~89), 대만(1967~74), 서독(1956~69), 유고슬라비아(1948~60), 이집트(1955~80), 이라크(1973~81), 이스라엘(1949~55), 파키스탄(1954~71), 스웨덴(1945~66), 스위스(1945~69) 등 많은 국가들이 택한 경로를 심층적으로 연구해 볼 필요가 있다.  그동안 핵무기를 보유하려는 동기(안보위협, 국가 위신, 국내정치 등)에 대한 연구가 다수를 이뤘다면 이에 못지않게 핵무기 기술 또는 무기화 경로에 대한 포괄적 정책연구도 중요하다. 현재 핵무기를 보유하고 있거나 핵무기를 가지려고 했던 국가들의 경로가 제각각이기 때문이다.   김정은 정권의 핵 위협에 상응하는 대칭적 핵무장 주장을 이해 못할 바는 아니지만, 자칫 현재의 헤징 단계에서 핵무장(weaponization)으로 이어지는 도중에 예기치 않은 군사적 충돌 확률이 결코 낮지 않다는 사실이다. 따라서 위에 언급한 국가들이 종국적으로 선택한 경로까지 포함해서 비교연구가 올바르게 이루어진다면 우리가 추구해야 할 핵무장 좌표가 어디쯤 매겨져야 할 것인지가 합리적으로 도출될 것이다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ⓒ한국도로공사 전북본부      권혁(55) 한국도로공사 전북본부장이 10일 취임식을 갖고 업무에 들어갔다. 권 신임 본부장은 전주 출신으로 서울대학교 농업토목공학과와 KAIST 대학원 토목공학과를 졸업했으며, 도로공사 입사 이후 광주지사장과 밀양울산건설사업단장, 본사 품질환경처장을 역임했다. 권 본부장은 취임사를 통해 "국민과의 최우선 약속인 안전 강화를 위해 과학적인 유지관리로 교통사고를 최소화하고, 완벽한 재난관리체계 구축과 작업장 안전사고 예방에 완벽을 기하겠다"고 다짐했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      정부의 ‘탈원전’ 에너지 정책이 원전 관련 대기업과 280여개 협력업체가 밀집한 경남 창원지역 경제에 미치는 영향은 어떨까.  직접적 이해관계가 얽힌 두산중공업을 비롯해 지역 경제계와 자치단체, 전문연구기관 등의 전반적인 의견은 부정적인 것으로 나타났다.  이 같은 의견은 창원시 산하 전문연구기관인 창원시정연구원(원장 전수식)과 창원상공회의소(회장 한철수)가 3일 창원컨벤션센터에서 개최한 ‘정부 에너지 정책 변화와 지역 경제’ 세미나에서 제기됐다.        ▲경남 창원시 창원컨벤션센터에서 3일 '정부 에너지 정책 변화와 지역 경제' 세미나가 열리고 있다. ⓒ프레시안(석동재)    창원시정연구원의 곽소희 연구위원은 주제 발표에서 정부의 에너지 전환 정책으로 원전 관련 기업의 매출이 줄어들고, 대기업의 경영실적 악화는 협력업체 매출 감소라는 연쇄충격으로 작용할 수 있다고 예측했다.   고용도 줄어 좋은 일자리와 신규채용이 감소할 수밖에 없고, 복리후생비가 줄어 회식이나 행사가 줄어들면 소비가 감소해 지역상권이 타격을 입는 것은 당연하다는 설명이다. 게다가 경영악화로 설비투자가 감소하고, 속도도 빨라질 수밖에 없다는 것이다.  결국, 조선업 위기를 겪고 있는 창원지역 경제가 탈원전 정책 탓에 ‘고용위기’라는 또 다른 위기에 봉착할 수 있다고 제시했다.  곽 연구위원은 “경남 창원지역 원전 관련 대기업과 협력업체뿐만 아니라 지역상권, 고용, 투자 등 경제 전반에 부정적인 영향을 미치고 창원 경제 규모를 축소시킬 우려가 있다”고 지적했다.  또 “정부의 에너지 정책 변화에 대응하고, 창원 경제에 부정적 영향을 최소화하기 위한 대책 마련 및 피해 최소화를 위한 국비 확보가 필요하다”고 제언했다.  전국금속노동조합 두산중공업지회도 이날 “정부의 에너지정책 전환에 따라 신규 원자력발전소 건설계획 중단 등으로 두산중공업 및 발전설비 제조 산업이 위기에 직면했다”며 “이는 고용된 노동자들의 고용불안으로 이어졌으며, 두산중공업을 중심으로 형성된 발전설비 제조업이 밀집한 창원지역은 심각한 경제위기로 내몰고 있다”고 밝혔다.  이에 앞서 정부의 에너지 정책 변화와 원자력 산업에 대해 주제 발표를 한 정용훈 카이스트 교수는 “원자력 발전 투자는 계속 운전 및 신규건설 투자 모두 경제성을 가지고 있다”며 “신규원전 건설이 중단될 경우 핵심기술은 사라질 수밖에 없다”고 피력했다.  이날 열린 ‘정부 에너지 정책 변화와 지역 경제’ 세미나에서는 △정부의 에너지 정책의 변화 △정부의 에너지 정책 변화의 영향을 받은 원자력 산업 △정부에너지 정책 변화와 창원 경제 △정부 에너지 정책 변화에 대한 창원 지역의 목소리 등 다양한 주제에 대한 발표와 논의가 진행됐다.  허성무 창원시장은 “주력 제조업의 장기침체와 일본의 수출규제 등으로 창원경제는 먹구름이 껴 있다”며 “정부의 탈원전 정책 역시 창원경제 침체의 원인 중 하나”라고 목소리를 높였다.  허 시장은 “창원지역에서 폐업하는 공장 수는 탈원전 정책 전이던 2016년 28개에서 올해 5월에는 50여개로 늘어났다”며 “창원국가산단의 공장 가동률도 90%에서 78%로 크게 낮아졌다”고 덧붙였다.  그는 창원 경제가 직면한 위기를 이겨내기 위한 돌파구로 수소산업을 지목했다. 허 시장은 “정부의 에너지 전환 촉진 로드맵 발표에 맞춰 수소연료전지 발전 사업을 추진하고 있다”며 “정부 에너지 정책 변화가 지역경제에 미치는 영향을 잘 분석하고 지혜로운 대처를 해나갈 것”이라고 밝혔다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "이대로라면 정재승의 스마트 시티는 실패할 것이다." 지난 17일 송용찬 중앙대학교 교수가 &lt;프레시안&gt; 인터뷰 도중 작심한듯 내놓은 '애정어린 경고'다. '정재승의 스마트 시티'는 '연예인급 스타 뇌과학자' 정재승 카이스트 교수가 문재인 정부의 8대 선도사업 중 하나인 스마트시티 건설사업의 마스터플래너(MP. 총괄계획을 맡은 책임자)가 되어달라는 국가의 부름을 받고, 세종시(세종 5-1 생활권)에 구축하겠다고 지난달 16일 발표한 국가시범도시다.  첫삽을 뜨지도 않은 국가적 사업에 재를 뿌리는 것도 아니고 송 교수는 왜 이런 발언을 거침없이 하는 것일까? 송 교수는 국가표준기술력향상사업으로 중앙대에 처음으로 개설된 '표준고위과정' 총괄책임자다. 이 과정은 산업통상자원부 산하 국가기술표준원과 중앙대가 힘을 합쳐 고품격 표준전문가 네트워크를 형성하겠다며 신설된 국비지원사업이다.     ▲"표준은 21세기 언어"라고 강조하는 송용찬 중앙대 교수. 그는 산업자원부가 중앙대에 개설한 '표준고위과정' 총괄책임자다.ⓒ중앙대   "초연결사회 스마트시티, 표준도 없이 어떻게 건설하나"  송 교수는 "스마트시티는 모든 것이 원격통신망으로 이어진 초연결사회"라면서 "표준이 확립되지 않고 어떻게 연결을 시킬 수 있느냐"고 반문한다.   예를 들어, 스마트시티에 자율주행차가 달리려면 정밀한 도로지도가 있어야 하고, 순식간에 도로지형에 따른 상황변화를 자동차가 인식할 수 있어야 한다. 그런데 도로지형 신호를 자동차가 인식하려면 지도와 자동차가 서로 소통할 수 있는 표준이 정립되어야 한다. 송 교수는 "현실은 표준이 왜 모든 것의 기초가 되는지 인식도 부족하다"면서 "이런 수준에서 스마트시티를 누가 책임지고 건설할 수 있다는 것이냐"고 개탄했다.  이미 2003년 최초의 스마트시티라고 할 수 있는 u시티 사업은 실패했다는 평가를 받고 있다. u시티의 u는 "언제 어디서나 존재한다"는 뜻의 유비쿼터스(ubiquitous)의 머릿글자로 u시티는 "언제 어디서나 시민들이 편하게 행정.교통.복지.환경.방재 등의 도시정보를 제공받고 활용할 수 있는 여건을 제공하는 도시"를 말한다.  송교수는 "u시티 사업이 별다른 성과를 거두지 못한 것도 표준이 정립되지 못한 현실의 수준이 큰 걸림돌로 작용하고 있기 때문"이라고 지적한다. '정재승의 스마트시티'와 함께 동시에 추진되고 있는 스마트시티 '부산 에코델타시티'는 벌써부터 흔들리고 있다. 부산 스마트시티의 MP가 돌연 사임을 한 것이다.  스마트시티의 MP는 스마트시티의 목표와 비전을 구상하고, 기본 구도까지 현실화하는 작업을 총괄하는 책임자다. '세계적인 스마트시티 사업 전문가'로 영국에서 어렵사리 초빙한 인재라더니, 그 인재가 3개월만에 "못하겠다"고 나간 것이다. 늘 그렇듯 "일신상의 사유의 사퇴"라는 게 정부의 공식 입장이다. 하지만 업계에서는 "못해먹겠다고 진저리를 치고 나갔다"는 소문이 파다하다.  그가 절망한 한국의 현실은 복합적인 것으로 알려졌다. 하지만 한국의 표준 작업 수준도 스마트시티 MP의 고민거리일 수밖에 없다는 것이 송 교수의 주장이다. 업계에서는 정재승 교수마저 흔들리고 있다는 소문까지 나오고 있다. 정 교수가 MP로서 마스터플랜을 만들겠다고 지원을 요청하자, 관련 부처에서 오히려 놀라면서 "마스터플랜을 직접 만들려고 하느냐. 우리가 용역회사를 통해 만들겠다"고 황당한 반응을 보였다는 일화가 회자되고 있다.  MP 자체가 마스터플랜을 수립하는 임무를 맡은 책임자를 뜻하는데, 예산 지원도 없이 지원부처의 인식부터 바꾸기 위해 마스터플랜이 아니라 "마스터플랜은 MP가 만든다"는 등 규정을 만드느라 진땀을 뺐다는 것이다. 소문이 아니라 정 교수가 직접 토로한 얘기다.   21세기 국가 첨단사업에 최고의 전문가를 총괄책임자로 영입해 놓고는 예산 지원은커녕 정규 보수를 한푼도 책정하지 않은 채 스마트시티 사업을 발표한 것이다.  부산 엘코델타시티의 후임 MP는 AP(Assistance Planner)를 승진시키는 형식으로 자리를 채웠다. 하지만 업계에서는 "최고의 전문가들을 이렇게 푸대접하고 전혀 스마트하지 않은 수준의 사업기반에서 추진되는 스마트시티의 앞날이 캄캄하다"는 것이 중론이다.  송 교수는 "최근 중국의 스마트시티 사업 현황을 파악하기 위해 현지에 가보니, 스마트시티 건설을 위해 표준이 중요하다는 점을 강조해서 인상 깊었다"면서 중국 스마트시티 사업 관계자의 발언을 소개했다.  이 관계자는 "21세기의 언어는 '표준'이다"라고 말했다는 것이다. 송 교수는 이 말을 풀어서 설명했다. 못을 이용하지 않고 목재로 선박을 건조할 때, 목재를 결합하기 위해 각 부분의 표준을 미리 정해야 하는 것처럼, 21세기가 국제적으로도 초연결사회가 되기 위해서는 모든 분야가 소통이 가능하도록 해야 하는데, 바로 이것이 언어의 역할이며, 서로 다른 것을 소통시키는 언어가 바로 '표준'이라는 것이다. 즉, 스마트사회를 표방한다면, 그 사회의 실질적인 언어는 '표준'이라는 것이다.  산업부가 '표준고위과정' 지원 나선 이유 스마트시티 사업을 국가적으로 육성하는 이유는 수출산업이기도 하기 때문이다. 국제적으로 경쟁하는 사업이다. 중국은 아시아지역 스마트시티 중 50% 이상을 건설한다는 계획으로 2020년까지 전국 500여 개 도시에 스마트시티 건설 사업을 진행하고 있다. 총 사업비가 1조 위안(약 163조 원)에 이른다. 산업통상자원부가 국가기술표준원을 통해 '표준고위과정' 지원에 나선 것도 스마트시티가 국가사업으로 표준전문가 양성과 각 분야의 표준전문가들의 소통을 위한 네트워크 구축이 시급하다는 판단 때문이다. 산업부는 표준고위과정에 대해 "4차 산업혁명시대에 표준화를 통한 혁신성장 및 표준정책 인적 생태계 구성을 위한 것"이라고 의미를 부여했다.  산업부에 따르면, 국정과제로 5년간 글로벌 기술표준 전문인력 300명 양성을 추진할 계획으로, 4차 산업혁명시대 연결성의 핵심으로 꼽히는 표준의 중요성이 커짐에 따라 표준 선점 및 전략적 활용을 위한 표준전문가 양성이 필수라는 것이다. 이를 위해 표준 전략기획, 기업경영층 등 산·학·연 표준경영 인력을 대상으로 중앙대에 표준고위과정이 개설 및 운영된다. 9월 7일부터 16주간 중앙대에서 처음 운영될 이 프로그램은 표준관련 기업, 시험·인증기관, 국제표준전문가 등 50여명을 대상으로 1기 과정이 진행된다.      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      강원 태백시는 서울대학교 이성환 입학사정관을 초청한 가운데 오는 6일 황지고등학교 시청각실에서 입시설명회를 개최한다고 밝혔다.   지역 내 고등학생 및 학부모를 대상으로 열리는 이번 입시설명회는 서울대학교 자연과학대학 여름 과학 캠프 프로그램 일환으로 마련됐다.   이번 설명회는 지역 학생들을 위한 진로, 진학 등 학생부 종합전형 대비 방안을 비롯한 맞춤형 대입 전략 멘토링 등으로 진행될 예정이다.     ▲고교생과 학부모 초청 입시설명회. ⓒ태백시     또한, 서울대뿐만 아니라 전반적인 입시 동향에 대한 설명으로 수험생과 학부모들의 궁금증을 속 시원히 해소해 줄 것으로 기대된다.   한편, 서울대 자연과학대학 학생회에서 자연과학분야 전공 체험 기회를 제공하기 위한 여름 과학 캠프는 상장중과 황지중, 황지고 학생을 대상으로 오는 5일부터 9일까지 진행된다.   서울대 여름 과학 캠프는 올해 태백, 인제, 고창, 영덕 전국 4개 지역에서만 개최되며 태백 지역에서는 처음 열리는 캠프인 만큼 뜨거운 관심과 기대를 모으고 있다.   특히, 눈에 띄는 것은 태백 출신인 서울대 자연과학대학 물리·천문학부 김형도 교수는 카이스트에서 물리학 학·석·박사 학위를 취득했으며 현재 서울대 자연과학대학 연구부학장으로 재직 중이다.   김형도 교수는 이번 여름 과학 캠프에 각별한 관심과 애정을 쏟고 있는 것으로 알려졌다.   시 관계자는 “태백 출신 김형도 서울대 교수의 태백시 방문은 매우 고무적인 일로 학생들에게 좋은 본보기와 자극이 될 것”이라며 “이번 입시설명회와 여름 과학 캠프의 열기가 어느 때 보다 뜨거울 것으로 기대된다”고 말했다.   한편, 태백시는 지역 학생과 학부모들을 위한 교육 여건 개선 및 진로·진학 정보 제공 외에도 우수대학 캠프 및 입시설명회 유치 등 대학과 연계한 교육·입시 프로그램 개발에 힘쓰고 있다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      조선대학교(총장 강동완) 항공우주공학과 우주기술융합연구실(지도교수 오현웅) 소속 학부새싹장학생 고지성(3년), 강주성(2년) 학생이 과학기술정보통신부가 주최하고 KAIST 인공위성 연구소가 주관한 ‘제7회 2018 캔위성 체험 경연대회’에서 우수상(카이스트 총장상)을 수상했다.  이번 경연대회에서 수상한 캔위성 ‘D3 Cansat (Diverse Deploy Device Can Satellite)’은 국내 연구기반이 취약한 큐브위성용 태양전지판 구속분리장치를 개발하였으며 이를 캔위성에 탑재하여 검증하는 것을 목표로 하였다.   일반적으로 구속분리장치는 나일론선 절단 방식을 적용하고 있으며 낮은 체결력과 체결작업의 어려움이 있다.   이러한 단점을 극복하기 위해 높은 △높은체결력 △종·횡방향 동시 구속 △체결작업의 용이성 △위성 내부의 접근성이 가능한 장점을 갖는 4가지 유형의 구속분리장치를 개발하였다. 또한 조도센서를 통해 전개 상태를 확인할 수 있으며 부가적으로 실시간 영상 카메라를 통해 전개 상태를 확인할 수 있다.    ▲ 2018 캔위성체험경연대회에서 우수상을 수상한 조선대학 고지성(3년), 강주성(2년) 학생ⓒ조선대학교    위성 임무를 모사하는 캔위성 경연을 통해 인공위성 체계에 관한 이해를 증진시키고 위성 기술 대중화를 위해 2012년도부터 열리고 있는 캔위성 경연대회는 참가팀이 자체 제작한 교육용 모사위성(CanSat)을 수백 미터 상공으로 쏘아 올린 뒤 하강할 때 임무를 수행하는 과정을 평가하는 방식으로 이뤄진다.   올해 대회에는 대학부 21개 팀, 고교부 48개 팀이 참가해 1차 평가(5월)와 2차 평가(6월), 캔위성 발사(8월), 최종평가(8월)를 거쳐 각 부문 최우수상 1팀(과학기술정보통신부장관상), 우수상 2팀(카이스트 총장상), 장려상 2팀(항공우주연구원장상)을 선정했으며 시상식은 9월 27일 정부과천종합청사에서 거행되었다. 각 부문 최우수상과 우수상 수상 팀에게는 상금과 함께 우주선진국 해외연수 기회를 제공한다.  한편 조선대학교 항공우주공학과 우주기술융합연구실 소속 학부생들은 2016년 캔위성 경연대회에 이어 3년 연속으로 수상하는 쾌거를 이뤘다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 시제품으로 제작된 이방성 전도 필름 ⓒKAIST       KAIST 신소재공학과 백경욱 교수 연구팀이 차세대 고해상도 8K UHD 디스플레이에 적용할 수 있는 극 미세피치용 이방성 전도필름(Anchoring Polymer Layer Anisotropic Conductive Films, APL ACFs)을 개발했다.  연구팀은 연구개발특구진흥재단의 지원을 받아 대덕연구개발특구본부 기술이전사업화 사업 공동 개발을 통해 산업계에서 즉시 평가 가능한 시제품 제작을 완료했다.  이번에 개발한 새 이방성 전도필름은 기존의 이방성 전도필름이 갖는 극 미세피치의 적용에 대한 한계를 근본적으로 해결한 것으로 모바일 기기, OLED 기반 대형 패널 등에 다양하게 활용 가능할 것으로 기대된다.  극미세피치 접속용 ACFs 제품의 활용은 대폭적으로 확대될 전망인데 현재 산업계에서는 대부분 일본 기업의 ACFs 제품에 의존하는 상황이어서 ACFs 재료의 국산화가 매우 절실한 상황이다.  연구팀은 특정 단일층으로 구성된 폴리머 필름이 도전입자를 단단히 고정시키는 형태의 이방성 전도필름을 개발해 도전입자의 유동을 억제시킴으로써 전극 간 전기 단락 문제를 근본적으로 해결했다.        ▲APL의 전자현미경 사진 ⓒKAIST    연구팀은 일상에서 흔히 접할 수 있는 나일론을 활용해 도전입자가 잘 분포되고 고정된 단일층 나일론 필름을 제작했다.  나일론 필름은 높은 인장강도 값을 지녔기 때문에 도전입자의 움직임을 완벽하게 제어할 수 있었고, 접합 공정 후 도전입자의 포획률을 기존 이방성 전도 필름의 33%에서 최고 수준인 90%까지 끌어올리는 데 성공했다. 또한 이방성 전도필름의 가격에 가장 큰 영향을 미치는 도전입자의 함량을 3분의 1 이상 줄였다.  연구팀은 20마이크론 수준의 극 미세피치에서 전기적 단락이 없고 100% 절연 특성을 구현하면서 우수한 접속을 형성할 수 있는 도전입자를 확보해 안정적인 전기적 특성, 높은 신뢰성, 저렴한 가격의 이방성 전도필름을 제작했다.        ▲윤달진 박사과정과 백경욱 교수 ⓒKAIST    백경욱 교수는 “이번에 개발한 이방성 전도필름은 극 미세피치를 가진 VR, 4K, 8K UHD 디스플레이 분야 뿐 아니라 OLED 기반 대형 패널, 모바일 기기에도 적용 가능하다”며 “극 미세피치 접속 핵심 소재의 국산화를 통해 세계 시장을 독점하고 있는 일본의 이방성 전도필름 제품을 대체해 경쟁력을 높이는 데 기여할 수 있다”고 말했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      한국과학기술원(KAIST) 부설 한국과학영재학교의 기출 시험지와 '모범 답안지'가 유출됐다는 의혹이 제기돼 학교 측에서 자체 진상 조사에 착수했다.  한과영은 "부산의 한 입시학원에서 학교 기출 시험지와 모범 답안이 유출됐다는 제보가 접수돼 경위를 조사 중이다"고 17일 밝혔다.    ▲ 한국과학영재학교 전경. ⓒ한국과학영재학교    한과영에 따르면 한 학기 동안 치러진 시험의 문제를 그다음 해 같은 학기가 시작될 때 공개하고 재학생들이 볼 수 있도록 교내 도서관에 비치한다.  모범 답안의 경우에는 시험 성적을 공개하면서 학생들에게 확인 용도로만 제공하고 회수하면서 전면 공개는 하지 않고 있다.  그러나 최근 부산의 한 입시학원에서 학교에서 공개하지 않은 기출 시험 문제와 모범 답안을 가지고 있다는 학부모 제보가 접수됐다.  한과영에서도 확인한 결과 유출된 자료가 교사들이 학생들에게 보여주는 모범 답안과 일치하는 것을 확인하고 곧바로 유출 경로를 파악하고 나섰다.  한과영 김훈 교감은 "답지는 학생들한테도 제공하지 않고 보여주기만 하고 있는데 공개되지 않은 답지가 학원가에 돌고 있다는 사실을 확인했다"며 "비공개 문서는 아니지만 개선 방안을 모색하겠다. 유출 경로도 파악해 비정상적인 경로라면 그에 따라 처분하겠다"고 말했다. 부산진구 당감동에 위치한 한과영은 국내 유일의 국립 과학영재학교로 교육부가 아닌 과학기술정보통신부에 소속돼 있다. 또한 일반 고등학교와 달리 교육과정과 학제가 대학교와 비슷한 학점제로 운영된다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">             KAIST와 국립중앙과학관은 과학문화 전시서비스의 획기적인 개선을 위해 최근 ‘스마트 과학관 전시연구단’을 출범했다. ⓒ KAIST     KAIST와 국립중앙과학관이 실내 위치인식 기술과 증강현실(AR) 및 가상현실(VR), 사물인터넷(IoT), 인공지능(AI) 등 4차 산업혁명 관련 핵심기술을 연계해 과학관의 전시안내 기술을 혁신할 시스템 개발을 위해 스마트 과학관 전시연구단(이하 연구단)을 출범시켰다. 연구단은 한국연구재단의 지원을 받아 전시기반기술·전시운영기술·전시콘텐츠 등 3개 분야에 KAIST 등 9개 대학과 전자부품연구원 등 2개 연구기관 등 모두 11개 기관을 참여시켜 오는 2022년까지 4년간 모두 15개 과제를 수행하게 된다. 또한 실내 위치기반 전시안내시스템 개발을 마치면 관람객의 위치에 따라 증강 및 가상현실(AR/VR) 등을 포함한 다양한 기술을 적용한 전시안내 서비스를 제공하게 된다.  특히 스마트폰을 통해 전문 안내자의 설명을 직접 듣는 것과 같은 유사서비스도 제공받을 수 있다.  이 시스템에 적용되는 실내 위치인식 기술은 KAIST가 개발한 실내 위치인식시스템 KAILOS(KAIST Indoor Locating System)가 활용될 예정이다.  연구단은 이밖에 관람객들의 다양한 요구를 과학관측에 즉각 전달해 전시개선에 반영될 수 있게 하는 리빙랩 기법도 적용할 방침이다.  국립중앙과학관과 KAIST는 연구단이 개발한 새로운 전시안내시스템을 대전 국립중앙과학관부터 우선 적용하되 전국 167개 과학관과 과학관처럼 각종 전시물을 안내하는 각 지역의 박물관과 미술관에도 단계적으로 확대할 방침이다.  배정회 국립중앙과학관 전시단장은 “매년 과학관을 방문하는 수십만 명의 청소년들에게 과학을 통한 꿈과 영감을 심어주기 위해 4차 산업혁명시대에 걸맞게 전시안내도 이제는 최신 IT기술을 활용해 이뤄져야 한다”고 강조했다.  KAIST 한동수 교수는 “과학관 전시기술과 전시 콘텐츠를 체계적으로 구성해 스마트 과학관 전시플랫폼에 담을 계획”이라며 “AR·VR 기술과 실내 위치인식 기술이 통합되어 전시안내에 활용되는 첫 사례가 될 것”이라고 말했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          조영호 교수 연구팀 ⓒKAIST       KAIST 바이오및뇌공학과 조영호 교수 연구팀이 피부의 경도를 근거로 인간의 열적 쾌적감을 예측할 수 있는 지표를 발굴했다.  인간은 개인별 체질과 기후 환경에 따라 동일한 온도와 습도에서도 느끼는 더위와 추위, 즉 열적 쾌적감이 다르다.  인간이라면 누구나 더위를 느끼는 상황에서 피부온도와 땀 발생량이 올라가고 반대로 추위를 느끼면 피부온도와 땀 발생량이 감소한다.  연구팀은 지난 2월 이러한 피부온도와 땀 발생률의 두 가지 지표를 통해 인간의 열적 쾌적감을 측정할 수 있는 기기를 개발한 바 있다.  연구팀은 기존의 열적 쾌적감 지표 외에 인간의 피부 경도(硬度)를 추가적인 지표로 활용할 수 있음을 처음으로 발견했다.  인간이 추위나 더위를 느낄 때 모근에 붙어있는 아주 작은 근육인 입모근(立毛筋)이 수축되거나 이완된다.  우리가 추위를 느낄 때 흔히 ‘소름이 돋는다’고 말하는 신체 반응도 입모근이 수축해 피부가 단단해지며 발생한다. 반대로 더위를 느낄 때 모공에서 땀이 나는 반응도 입모근이 이완되면서 발생하는 현상이다.  연구팀은 입모근에 의해 피부의 경도가 변한다는 점에 착안해 피부 경도를 인간 열적 쾌적감의 새로운 지표로 제안했다.  조 교수 연구팀은 기존의 지표인 피부 온도와 땀 발생률과 피부 경도는 인간의 열적 쾌적감을 판단할 수 있는 각각의 독립적인 지표이며, 기존의 두 지표에 더해 피부 경도를 추가하면 쾌적감 판단 신뢰도가 23.5% 향상됨을 피험자 실험을 통해 입증했다.  이를 통해 피부 경도를 측정할 수 있는 센서를 개발하고 이를 적용해 자동차, 실내 등에서 기존의 냉, 난방기보다 인간과 교감 기능이 뛰어난 개인별 맞춤형 냉, 난방기를 개발할 예정이다.  조 교수는 “새로 발굴한 지표인 피부 경도를 도입해 인간의 개인별 체질, 기후 환경과 무관하게 실제 느끼는 열적 쾌적감 예측의 신뢰도를 높여 개인별 맞춤형 냉, 난방기의 개발에 힘쓸 예정이다”며 “신체적 건강 상태 뿐 아니라 정신적 건강과 감정 상태 교감을 통해 인간과 기계 간 정서적 교감도 이룰 수 있을 것이다”고 말했다.  윤성현, 심재경 연구원의 주도한 이번 연구는 네이처 자매지 ‘사이언티픽 리포트(Scientific Reports)’ 8월 13일자 온라인 판에 게재됐다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      그리스에서 뜨거운 불꽃을 피운 2018 평창 동계올림픽 성화가 1988년 서울 올림픽 이후 30년 만에 대한민국에 도착해 전국을 돌며 대회 성공 개최의 열기를 불어넣고 있다.  '모두를 빛나게 하는 불꽃(Let Everyone Shine)'이란 슬로건을 지닌 평창 성화는 지난 10월 24일 그리스 올림피아의 헤라 신전에서 채화돼 올림픽 개막을 100일 앞둔 지난달 1일 인천공항에 도착했다.  제주-부산-울산-경남-전라도-충청도 일정을 마친 성화의 불꽃은 지난 29일 대구에 입성했다. 101일간의 여정 중 절반 이상을 마무리한 평창의 불꽃은 31일 대구에서 진행되는 제야의 종 타종 행사와 함께 더 밝게 타오를 예정이다.     ⓒ조직위    ◆대한민국서 60일을 빛낸 2018 평창 동계올림픽 성화  그리스에서 안전램프에 담겨 전세기를 통해 들어온 평창 성화는 지난 11월 1일 인천공항에 도착했다. 도종환 문화체육관광부 장관과 김연아 홍보대사가 나란히 안전램프를 들고 전세기에서 내렸고, 이낙연 국무총리와 최문순 강원도지사, 유승민 국제올림픽위원회(IOC) 선수위원 등이 성화를 맞이했다.  평창 성화는 인천공항에 도착 후 곧바로 7500명 주자가 참여해 2018킬로미터를 달리는 101일간의 대장정에 나섰다. 7500이라는 숫자는 남북한 인구를 뜻하고, 2018킬로미터는 평창 동계올림픽의 개막 연도를 의미한다.  인천을 떠나 제주도로 옮겨진 성화는 내륙 봉송의 첫 관문인 부산을 시작으로 지금까지 울산, 창원, 목포, 광주, 대전, 천안, 구미 등을 거치며 1118킬로미터를 달려왔다.  순천에서는 400명이 한복을 곱게 차려입고 봉화언덕을 오르내리며, 화합과 통합의 의미를 담은 대규모 강강술래 성화봉송 퍼포먼스를 펼치며 장관을 연출했다.  31일 대구에서 타오르고 있는 성화는 2018년 새해 첫날 포항 호미곶에서 해돋이를 시작으로 경주, 수원, 인천, 서울, 파주 등의 봉송로를 이동해 2월 9일 올림픽 개막 당일 평창에 도착한다.  ◆ 모두를 빛나게 하는 불꽃, 2018 평창 동계올림픽 성화  봉송 첫날 1번 주자의 영광은 만 11세의 나이로 피겨 종합선수권대회에서 역대 최연소 우승 기록을 경신한 유영 선수가 맡았다.   이후 유재석, 박명수, 수지 등 유명 연예인을 비롯해 차두리, 추신수, 박찬호, 김태균, 김소희 등 전·현직 운동선수들도 2018 평창 동계올림픽 성공개최를 기원하며 성화 봉송에 참여했다.  유명인들만 참여한 것은 아니다. 제주를 대표하는 해녀를 비롯해 교사, 대학생, 소방관 등 다양한 직업을 가진 이들은 물론 장애인, 다문화가정 등 대한민국을 구성하고 있는 시민들이 대거 함께했다.  이 밖에도 88 서울 올림픽 성화봉송 주자의 자녀들이 2018 평창 동계올림픽 성화봉송 주자로 참여한 사연, 곧 태어날 아이에게 자랑스러운 모습을 보여주고 싶은 예비아빠 등 다양한 사연을 가진 이들이 ‘평창의 불꽃’을 옮기는데 동참했다.  현재까지 봉송에 참여한 주자는 4300여명이다. 성화봉송단은 ‘모두를 빛나게 하는 불꽃(Let Everyone Shine)’이란 성화봉송 슬로건을 실현하고, 대한민국 국민 모두와 성화가 가진 희망과 열정의 메시지를 공유하기 위해 전국 방방곡곡을 달리고 있다.   그 대표적인 예로는 ‘찾아가는 성화 봉송’ 프로그램을 꼽을 수 있다. 성화봉송단은 휴식일을 활용, 총 13곳을 방문해 다양한 이들에게 올림픽의 정신을 나누고 성화 봉송을 체험할 수 있는 기회를 제공하고 있다.  지금까지 성화봉송단은 의령 사랑의집(여성지적장애인 보호 시설)을 시작으로 합천 희망지역아동센터(저소득 결손가정 교육시설), 순창군 노인복지센터(노인돌보미 바우처), 보령시 상이군경회(참전용사), 옥천군 다문화가족지원센터(다문화가정) 등을 찾아 평창의 불꽃을 나눴다. ◆다사다난한 봉송 여정...돌발상황 뚫고 달리는 2018 평창 동계올림픽 성화  전 세계인의 관심 속에 대한민국 전역을 밝히고 있는 성화봉송 일정이 순탄한 것만은 아니다. 조직위는 지진과 조류인플루엔자(AI)를 비롯한 다양한 돌발상황에 직면했지만 효율적으로 대처, 봉송을 이어나가고 있다.  포항에서 발생한 유례없는 지진으로 인해 수능이 연기됨에 따라 성화봉송 일정을 변경했다. 성화 봉송 행사 진행시 발생하는 환호 등 소음과 교통통제 등이 수험생들에게 부정적인 영향을 미칠 수 있기 때문이었다.   전북 고창군에서 AI가 발생하자 조직위는 전남 순천 생태습지를 성화 봉송 경로에서 긴급히 제외하고 운행하는 모든 차량에 대해 방역을 실시했다.  지난 22일에는 충북 제천에서 봉송을 진행할 계획이었지만, 전날 화재가 발생함에 따라 제천 일정을 전면 취소하고 추모의 시간을 가졌다. 23일 단양에서는 봉송 재개 전 화재 희생자를 추모하고 이런 사고가 재발하지 않기를 바라는 마음에서 경건한 묵념의 시간을 갖기도 했다.  ◆봉송의 역사를 새로 쓰고 있는 2018 평창 동계올림픽 성화  이번 성화 봉송에는 기차, 비행기, 배, 자전거 등 일반적인 교통수단 이외에도 다양한 방식의 이동 수단도 등장했다. 부산에서는 요트, 여수에선 해상케이블카를 이용한 봉송이 진행됐다. 통영 거북선, 부여 황포돛배도 등장해 역사적 의의를 더했고, 곡성에서는 증기기관차를 활용한 이색 봉송도 펼쳐졌다.    ⓒ조직위     구축함을 이용한 해상 성화 봉송이 진행되기도 했다. 봉송은 진해에서 성화의 불꽃으로 수놓았다.   대전에서는 로봇이 주자로 나섰다. 한국과학기술원(KAIST)의 재난구조로봇 ‘휴보’가 성화주자로 참여해 대한민국의 정보통신기술(ICT)을 전 세계에 선보였다.  성화봉송단은 각 지역이 간직한 고유의 문화, 아름다운 자연환경과 역사적 유물, 기술 등을 바탕으로 이색적인 봉송을 진행하고 있다. 이는 세계에 대한민국의 숨은 모습을 소개할 수 있는 기회로 작용하고 있다.  이희범 조직위원장은 “평창 동계올림픽 성화봉송이 어느덧 절반을 지나면서 대회에 대한 국민들의 관심과 열기도 높아지고 있다”며 “2월 9일, 평창 동계올림픽 개회식에서 점화되는 순간까지 다양한 소재로 봉송을 진행해 국민들은 물론 세계인들이 함께하는 축제가 될 수 있도록 최선을 다 하겠다”고 말했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲바른미래당 신용현 의원 ⓒ신용현의원실       바른미래당 대전시당위원장(직무대행장)인 신용현 국회의원은 과기부의 신성철 카이스트 총장 고발과 관련해 “당사자가 제대로 소명할 기회조차 갖지 못한 것은 문제”라며 과학의 객관성과 중립성을 훼손하는 정치적 물갈이를 우려했다.  한국표준과학연구원장을 역임한 신 의원은 6일 원내대책회의에서 “우리나라의 대표 과학기술 교육기관 카이스트 총장에 대한 과기부의 검찰 고발은 사상 초유의 일 ”이라며 “특히 최근 정부 임명 기관장의 일련의 사퇴와 맞물려 순수하게 바라볼 수만은 없다”고 말했다 .  또 “과기부가 주장한 연구비 이중송금과 제자 편법 채용 의혹에 대해서 당사자가 제대로 소명할 기회조차 갖지 못한 것은 문제”라며 “절차와 규정을 준수하는 사실 여부 파악이 먼저”라고 강조했다 .  신 의원은 “과기부가 신 총장 횡령의혹으로 수사를 의뢰했는데 횡령이 아니라면 당연히 잘못이고, 횡령이라면 관리책임을 면하기는 어렵다”고 질책하고 “빠르고 투명한 수사를 통해 진상이 조속히 밝혀지기를 기대한다 ”고 말했다 .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           대전상공회의소는 10일 오전 대전 유성호텔에서 ‘제205차 대전경제포럼 조찬세미나’를 개최했다.  정성욱 회장은 인사말을 통해 “최근 주변에 최저임금 인상, 노동시간 단축 등으로 어려움을 호소하는 기업이 늘고 있다”며 “자금줄이 막혀있는 중소기업에 도움을 줄 수 있는 정부지원이 제때 이뤄질 수 있도록 정치권에서 지혜를 모아줬으면 한다”고 말했다.   이날 포럼에서는 바이오 및 뇌공학 박사 정재승 카이스트 교수를 초청, ‘제4차 산업혁명 시대, 미래의 기회는 어디에 있는가?’를 주제로 특강을 진행했다.   정재승 교수는 오는 2022년 세종시 5-1 생활권에 지어질 스마트시티의 총괄책임자다.  정 교수는 “스마트시티의 핵심은 데이터다. 도시 주민들의 활동이 만들어내는 데이터를 사물인터넷을 통해 수집하고, 인공지능이 이 데이터를 분석해 주민들의 행복과 삶의 질을 높일 서비스를 제공하는 게 취지”라고 밝혔다.  이어 “스마트시티 건설이 본격적으로 착수된다면, 첨단 기술과 일자리, 문화, 역사, 환경이 더불어 살 수 있는 4차 산업혁명의 집약체가 되며, 지역 기업들에게도 새로운 기회가 될 수 있을 것”이라고 설명했다.  또 “그동안 인터넷이 사람과 사람을 연결했다면, 이제 4차 산업에서는 사람을 둘러싼 모든 사물에 인터넷 센서를 통해 사물끼리 커뮤니케이션하는 세상이 만들어질 것”이라며 “사물의 오프라인이 모두 데이터화되고, 온라인 세상에서 존재하는 정보들을 분석해 개인 맞춤형의 더욱 편리한 세상이 도래할 것”이라고 덧붙였다.  특히, 정 교수는 “4차 산업혁명의 새로운 패러다임을 찾아 준비하고, 연구해야 한다”며 “인공지능과 빅데이터 등의 과학기술을 활용하는 것만큼, 서비스 기회를 창출할 줄 아는 경영학적 마인드가 함께 뒷받침 돼야 한다”고 강조했다.  한편, 이날 포럼에는 정성욱 대전상의 회장을 비롯해 설동호 대전시교육감, 정교순 대전사랑시민협의회장, 강도묵 대전개발위원회 회장, 이명로 대전지방고용노동청장, 문동환 한국타이어 부사장 등 포럼회원과 기관·단체장, 공무원, 기업 임직원 등 250여명이 참석했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">             교모세포종의 발암이 시작을 불꽃놀이에 비유한 그림. 암의 발생이 암이 존재하는 부위가 아니라 멀리 떨어져 있는 뇌실하영역에서 시작함을 보여 주는 그림으로 불꽃 하나 하나가 무수히 셀수 없는 암세포라면, 그 근원은 불꽃을 발사하는 대포에서 시작됨을 비유하여 전체 연구 결과를 묘사하고 있다 ⓒ KAIST     악성 뇌종양인 교모세포종은 미국 암 관련 사망률은 4위에 달하며 미국의 에드워드 케네디, 존 매케인 상원의원 등이 이 질병으로 사망했거나 투병 중일 만큼 널리 알려진 병이다.  KAIST 의과학대학원 이정호 교수 연구팀이 세브란스병원 신경외과 강석구 교수와의 공동 연구를 통해 악성 뇌종양인 교모세포종 돌연변이 발생이 암 부위가 아닌 암에서 멀리 떨어진 뇌실하영역에서 발생한다는 사실을 규명했다.  이정호 교수 연구팀은 암 발생 부위가 아닌 종양과 떨어져 있는 뇌실하영역이라는 곳에 주목했다.  교모세포종이 수술 이후에도 재발률이 높다는 점에서 원인이 다른 곳에 있을 것이라고 판단한 것이다.  이 교수는 “교모세포종은 종양을 떼어내도 1~2년 후에 재발률이 높다. 암은 돌연변이인데 돌연변이가 발생하는 곳이 종양이 아닌 다른 부위라고 생각했고 그곳이 바로 뇌실하영역(subventricular zone : SVZ)이라는 사실을 밝혀냈다”고 말했다.  연구팀은 지난 2013년부터 2017년 사이에 수술을 한 뇌종양 환자 28명을 대상으로 종양조직 외에 수술 중 제거되는 종양조직, 정상조직, 뇌실주변의 조직 3가지를 조합해 분석한 결과 딥 시퀀싱, 단일세포시퀀싱 등을 통해 교모세포종의 시작이 뇌실하영역에서 발생한 낮은 빈도의 종양을 유발하는 돌연변이에 의한 것임을 밝혀냈다.  특히 유전자 편집 동물 모델을 통해 뇌실하영역에서 돌연변이가 생기면 이 돌연변이를 가진 세포가 뇌실하영역을 떠나 뇌의 다른 부위로 이동해 교모세포종이 되는 사실도 확인했다. 이는 돌연변이 세포가 마치 불꽃놀이처럼 곳곳으로 퍼진 뒤 시간이 지나자 다른 부위에서 종양으로 진화한 것이라는 것을 입증한 것이다.  KAIST 의과학대학원 졸업생 이주호 박사가 1저자로 참여한 이번 연구 결과는 국제 학술지 ‘네이처(Nature)’ 8월 1일자 온라인 판에 게재됐다.  이는 교모세포종 발병의 원인이 암 발생 부위일 것이라는 기존의 학설을 뒤집는 연구 결과로, 악성도가 가장 높은 종양인 교모세포종의 치료법 개발에 새로운 방향을 제시할 것으로 기대된다.  또한 그동안 암 조직만을 대상으로 이뤄진 암 연구가 암의 기원이 되는 조직에 대한 연구로 발전하면서 교모세포종 뿐 아니라 다른 암에 대해서도 치료의 실마리를 찾을 수 있는 기반이 될 것으로 보인다.        이정호 교수와 이주호 박사 ⓒ KAIST   1저자인 이주호 박사는 “암 중 예후가 가장 좋지 않은 교모세포종에 대한 발암의 비밀을 국내 연구진이 풀어냈다는 것에 큰 의미가 있다”며 “악성 뇌종양의 연구와 치료의 획기적 전환점을 최초로 증명하고 제시한 것"이라고 말했다.  이정호 교수는 “암 중 가장 예후가 좋지 않은 교모세포종의 원인을 파악하고 동물 모델 제작까지 성공했다는 점에서 큰 의미가 있다. 환자에게서 찾은 것을 동물에 그대로 반영했기 때문에 여기서 치료를 할 수 있다면 임상까지 가능할 것이다”고 예측했다.  연구팀은 KAIST 교원창업(소바젠, 대표 김병태)을 통해 이번 연구결과를 바탕으로 뇌실하영역의 세포가 교모세포종으로 진화되는 과정을 막기 위한 치료약 개발에 나설 예정이다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ⓒ전주시      전북 전주 국립무형유산원 일원에서 '제2회 전주 세계슬로포럼·슬로어워드'가 개최됐다.전주시와 한국슬로시티본부는 24일과 25일 이틀간 ‘세계가 묻고 전주가 답하다’라는 슬로건과 ‘슬로니스와 삶의 질’을 대주제로 포럼을 진행한다. 포럼에서는 7개국 12명의 슬로전문가들의 발제와 토론 및 어워드 사례발표가 이어지고, 슬로시티 홍보체험관 등 다채로운 프로그램도 운영된다.특히, 세계 최초로 슬로운동 성과를 격려하기 위한 국제규모의 시상제도인 슬로어워드도 시상한다.전주시는 24일 전주전통문화연수원 풍락헌에서 김승수 전주시장과 손대현 한국슬로시티본부 이사장, 독일의 베스트셀러 작가이자 언론인인 프란츠 알트 박사, 덴마크 바우네호이 애프터스콜레의 울리크 구스 이버슨 교장 등 슬로시티 석학들이 참석한 가운데 ‘제2회 전주 세계슬로포럼&amp;슬로어워드’ 관련 기자간담회를 개최하고, 발제주제의 의미와 배경 등을 설명했다. 전주 국제슬로포럼&amp;슬로어워드는 전 세계 슬로시티들과 네트워크를 형성하기 위해 전주시가 마련한 국제행사로 국제슬로시티연맹(사무총장 올리베티)이 공인하는 국제슬로시티 회원도시 유일의 국제포럼&amp;어워드 행사이다. 첫날 개막식에서는 슬로 운동의 해외 전문가와 국내외 슬로시티 지자체, 슬로시티 주민협의회, 슬로시티 全州(전주)학교 오손도손 교육 수료자, 일반시민 등이 참석한 가운데 김승수 전주시장의 대회선언과 조르지오 올리베트 국제슬로시티연맹 사무총장(이탈리아)의 축사, 후루하시 미치요 코노하나 패밀리 국제 수석(일본)의 특별게스트 스피치에 이어 발제와 토론이 진행됐다. 특히, 발제를 맡은 프란츠 알츠 박사와 울리크 구스 이버슨 교장은 슬로시티넵 철학을 실천해 온 각 분야별 세계 최고 전문가들로, 이번 포럼에서 각각 ‘태양에너지 혁명과 녹색경제-느림·작음·간소함’과 ‘우리 아이들의 인격 함양과 함께의 가치’에를 주제로 태양에너지 혁명과 녹색 경제, 우리 아이들의 행복한 교육에 대해 생각하고 공유하는 자리를 마련했다. 또한, 김영걸 카이스트 정보미디어대학원 교수를 좌장으로 가우티 요하네손 국제슬로시티 아이슬란드 듀피보그르 시장과 이효중 전북대학교 화학과 교수(한국태양광발전학회 소속), 핀란드 슬로라이프의 저자인 미쉘 램블린 교수, 한국의 대안학교인 꿈틀리 인생학교의 정승관 교장이 참여하는 토론도 펼쳐졌다. 포럼 이틀째인 25일에는 슬로정신의 구현과 발전에 기여해온 이탈리아 슬로시티 오르비에토의 주세페 저머니 시장과 프랑스 슬로시티 미항드의 피에르 보운드란 시장, 함정희 함씨네토종콩 식품 대표, 노박래 서천군수에 대한 전주 슬로어워드 국제·국내 부문 시상식과 사례발표가 진행될 예정이다. 이와 함께, 이번 전주 세계슬로포럼에서는 국내 15개 슬로시티 시·군이 모두 참여한 가운데 한국슬로시티의 우수사례를 공유·평가하는 자리도 마련된다.올해 처음 도입된 ‘한국슬로시티 주민활동 경진대회’는 사전에 접수받은 국내 6개 슬로시티 회원 도시를 대상으로 주민활동 사례 발표와 현장 평가를 거쳐 주민 참여율과 지역자원 활용도, 슬로시티 정신과의 부합도 등을 평가 후 최우수·우수·장려상을 시상하는 방식으로 운영된다. 이밖에, 전주를 처음 찾은 해외 연사들이 슬로시티 전주의 매력을 느낄 수 있도록 전주한옥마을에서 아마추어 가야금 연주가들의 릴레이 공연을 감상할 수 있는 ‘제1회 슬로시티 가야금 페스티벌’이 진행되고, 25일 개막하는 전주비빔밥 축제와 연계한 달팽이 스탬프 투어와 씨앗엽서쓰기 체험, 15개 한국슬로시티 홍보관 등 전주만의 슬로시티 문화를 체험할 수 있는 행사 등도 넉넉히 준비됐다. 시는 이번 행사를 통해 슬로시티와 슬로운동에 대한 시민들의 인식을 바꾸고, 슬로시티의 주민으로서 ‘느림의 가치’를 생활에서 어떻게 발견할 것인지 알아가는 소중한 기회를 제공함으로써 시민들이 행복한 지속가능한 슬로시티로 나아갈 수 있을 것으로 기대하고 있다. 울리크 구스 이버슨 덴마크 바흐네호이 애프터스콜레 교장은 “덴마크 사람들이 세계에서 가장 행복한 국민이 될 수 있었던 이유가 애프터 스콜레 등 덴마크의 행복 교육 시스템을 통한 오랜 전통의 인격 함양과 많은 관련이 있다”고 설명했다. 독일의 프란츠 알트 박사는 “태양에너지 혁명과 함께 녹색 경제, 생태경제로 가기 위해 슬로시티의 철학인 보다 느리고, 작게, 그리고 간소해져야 된다”고 말했다. 손대현 한국슬로시티연맹 이사장은 “발제를 맡게 된 두 분은 슬로시티 철학을 몸소 실천해온 각 분야별 세계 최고 전문가들로, 전주 세계슬로포럼을 위해 귀한 시간을 허락해주셨다”면서 “슬로운동의 가치와 이를 실현하기 위해 힘써온 전 세계 슬로시티와 활동가들의 철학을 만날 수 있는 이번 포럼에 국내 슬로시티 지자체와 많은 시민들의 관심과 참여를 부탁드린다”고 밝혔다. 김승수 전주시장은 “전주시는 슬로시티 가치 실현과 사람·생태·문화의 시정 핵심 가치 실현을 위해 슬로시티를 상징하는 ‘공동체를 이끌어가는 달팽이’처럼 느리지만 당당한 걸음을 걸어왔다”면서 “이번 전주 세계슬로포럼&amp;슬로어워드를 통해 아름다운 전통의 가치와 조화로운 공동체의 삶을 계승해온 전주의 모습을 널리 알리겠다”고 강조했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           자율주행차 등 국토교통 분야의 최신 연구성과와 신기술을 한자리에서 볼 수 있고, 국토교통 지식포럼 등 풍성한 부대행사가 함께하는 ‘2018 국토교통 기술대전’이 서울 코엑스(COEX) 3층 D홀에서 오는 7일부터 8일까지 열린다.  국토교통부(장관 김현미)가 주최하고 국토교통과학기술진흥원이 주관해 올해로 아홉 번째를 맞는 이번 행사는 169개 기관의 전시를 비롯해 산․학․연․관이 참여하는 국토교통 과학기술 분야 국내 최대 규모의 행사로 기대를 모으고 있다.  이번 전시는 ‘꿈을 이루는 기술, 함께 누리는 미래’를 주제로 크게 7개 전시관으로 구성된다.  혁신성장관에는 자율주행차, 신교통인프라 등 4차 산업혁명 시대의 새로운 성장동력 기술이, 국민복지기술관에는 장수명 주택, 차세대 여객 휴대수하물 보안검색기술, 초정밀 위치확인 보정 시스템 등 우리의 생활환경을 바꿔 줄 다양한 기술이 전시된다.  세계화기술관에는 드론 활용 교량 진단 등 세계시장을 목표로 하는 선도 기술이, 미래기술관에는 자동화물운송, 도시 열섬현상 관리 등 미래 환경 변화에 대응하기 위한 유망기술이 전시된다.  또 창업환경 조성을 위해 중소기업에 전시공간을 무료로 제공하는 기술인증관․기술사업화관을 운영하고, 구인․구직자 연결을 통해 일자리가 창출될 수 있도록 채용상담관도 운영할 계획이다.  깊이 있는 설명이 필요한 경우, 전문 해설사가 동행하며 전시를 체험해볼 수 있도록 도와주는 안내(도슨트) 프로그램도 이용할 수 있다.  판교에서 시험운행 예정인 자율주행버스(차세대융합기술연구원), 최초로 국산부품을 장착해 임시운행허가를 받은 자율주행차(만도) 등 현재 국내에서 개발 중인 차량 7대도 전시돼 평소 접하기 어려웠던 자율주행차를 직접 만나볼 수 있다.  이와 함께, 취업박람회, 지식포럼 등 다양한 부대행사도 함께 진행된다.  먼저, 국토교통 취업 박람회인 ‘굿 잡 페어(Good-Job Fair)’를 개최한다. 한국도로공사, 한국철도공사, 한국항공우주연구원, 포스코 등 국토교통 분야 30여 개 공공․민간 R&amp;D; 기관이 참여하는 이 행사에서는 인사담당자의 채용 상담과 각종 취업정보 등이 제공돼 청년 구직자들의 많은 관심을 받을 것으로 예상된다.   또 ‘국토교통 지식포럼’을 통해 미국 항공우주국(NASA) 신재원 국장, 경희사이버대학교 정지훈 교수, 카이스트 바이오 뇌공학과 정재승 교수와 함께 4차 산업혁명이 가져올 새로운 미래를 그려볼 수 있는 자리도 마련했다.  국토교통 빅데이터의 적극적 활용방안 모색을 위해 무박 2일(27시간) 동안 21개팀(86명)이 치열한 두뇌싸움을 벌이는 ‘국토교통 빅데이터 해커톤’ 행사도 함께 진행된다.  이밖에, 지난 5개월 동안 실시한 국토교통기술 대국민 아이디어 공모전을 통해 선정된 총 13건의 우수 아이디어에 대한 시상식과 함께, 자율주행차, 스마트 모빌리티, 스마트 건설 등 17개 분야의 정책․학술 토론회도 동시에 진행될 예정이다.   국토부 관계자는 “이번 행사가 국토교통 과학기술이 국민들께 한걸음 더 다가갈 수 있는 계기가 되길 바라며, 자율주행차․드론 등 혁신성장 동력에 대한 국민의 체감도를 높이고 기업의 연구개발 성과가 사업화로 이어지도록 적극 지원하겠다”라고 밝혔다.  2018 국토교통기술대전의 주요 일정, 세부 프로그램, 체험행사 사전등록 정보 등은 공식 누리집(www.techfair.kr)을 통해 확인할 수 있다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      제주국제자유도시개발센터(이사장 문대림, 이하 JDC)는 14일 제주혁신성장센터에서 한국은행 제주본부와 제주혁신성장센터 입주기업 금융 지원을 위한 업무협약을 체결했다.이번 업무협약은 도내 유망 중소기업 발굴 및 지원과 중소기업 지원을 위한 정보 교류 등 제주지역 기업 성장을 촉진하고 지역 경제 활성화에 활력을 불어 넣기 위해 체결됐다.   JDC가 14일 제주혁신성장센터에서 한국은행 제주본부와 업무협약을 체결했다. ⓒ제주국제자유도시개발센터   중소기업 지원자금은 금융기관 대출 금리에 추가적으로 금리를 우대하는 방식으로 지원되며 기업의 신용도, 담보, 신용보증서 여력 등에 따라 금리 우대 폭이 결정된다.또한 제주혁신성장센터 내 입주기업은 JDC가 발급한 추천서를 금융기관에 제출함으로써 대출심사에 필요한 업종 인증서 및 특허증 등 각종 증빙서류를 대체할 수 있게 돼 제출 서류가 대폭 간소화된다.문대림 JDC 이사장은 “한국은행 제주본부와 공동으로 제주혁신성장센터 입주기업을 위한 금융 지원제도를 마련하게 돼 매우 뜻깊게 생각 한다”며 “향후 입주기업을 위한 금융지원 제도 마련에도 더욱 노력할 것”이라고 말했다.한편 제주혁신성장센터는 JDC가 국토교통부 일자리 로드맵에 따라 청년 창업지원과 양질의 일자리 창출 및 지역경제 활성화를 위해 지난 2018년 12월 개소했다.또한 제주혁신성장센터에는 KAIST 친환경 스마트자동차연구센터, 한예종 ICT융합창업허브, 제주 사회적경제 소셜벤처 지원사업 ‘낭그늘’, 청년 취·창업 복합 지원 공간 J-CUBE 등 총 4개 분야 30여 개 기업이 입주해 활발한 활동을 진행하고 있다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ▲ 허태정 대전시장(오른쪽)이 김규철 프레시안 세종충청취재본부 편집국장과 인터뷰를 하고 있다 ⓒ프레시안(문상윤)     두번의 유성구청장을 지난 후 150만 시민의 리더가 된 허태정 대전시장은 취임 후 1년여 동안 대전도시철도 2호선(트램) 예타면제사업 확정, 어린이재활병원 공모선정, 지역인재 채용 충청권 광역화 합의, 3.8 민주의거 국가기념일 지정, 충청권 광역철도 1단계 건설 총사업비 승인, 대전교도소 이전 확정, 대덕특구 동측진입도로 예타통과 등  쉼없는 행보를 보여왔다.프레시안은 허태정 대전시장으로부터 지금까지 시정을 이끌면서 나타난 문제점에 대한 해결방향과 향후 계획에 대해 들어보는 시간을 마련했다. /편집자주 프레시안 : 시정 운영 1년간의 소회를 듣고 싶습니다. 허태정 : 제가 취임 선서를 한 게 엊그제 같은데 벌써 1년이 흘렀다. 그동안 ‘시민과 함께 행복한 대전’을 만들기 위해 정신없이 달려왔었고 지난 1년은 지역의 오래된 현안 사업을 마무리하고, 민선 7의 새로운 기반을 다지는 한 해였다. 트램 예비 타당성 면제 확정, 하수처리장 이전, 유성복합터미널 건설, 교도소 이전, 공공어린이 재활병원 건립 등 해묵은 과제들이 해결되는 성과로 이어졌지만 한편으로는 베이스볼 드림파크 부지 선정, LNG 발전소 유치 등 갈등과 아쉬움도 있었다. 지난 1년은 남은 3년을 잘 이끌어 가기 위한 기반을 다지는 해였고 길지 않은 남은 3년 동안 계획했던 중․장기 사업들을 구체화하고 성과를 낼 수 있는 시간이 되도록 열심히 뛰겠다. 프레시안 : 유성구청장을 2번 연임하셨는데 최근 어려워진 유성을 다시 살릴 수 있는 방법이 있다면? 허태정 : 유성은 온천을 중심으로 관광산업이 발달했었다. 당시에는 24시간 개방하는 관광특구라는 특수를 누렸던 시절이 있었지만, 지금은 제도적인 기능이 소멸되었고 그리고 국민들의 주거문화가 많이 바뀌면서 온천이 사양산업이 되어갔다.온천의 특성과 장점을 잘 살려서 온천을 기반으로 하는 숙박시설이 예전 같진 않지만 그 기능을 지역의 장점을 살리는 인프라를 구축하고 있다. 예를 들면 길거리 족욕상으로 이곳이 온천 휴양도시임을 알리고 다음으로는 단순 온천관광으로 경쟁력을 확보할 수 없기 때문에 이런 것을 기반으로 해서 숙박과 연결되는 컨벤션산업, 마이스 산업으로 이 부분들을 집중적으로 육성하고 세종시와 연계해서 콘퍼런스나 산업을 유치해서 유성의 경제를 같이 활력을 찾는 산업이 앞으로의 대안이 될 것으로 보고 실제로도 변화가 일어나고 있다고 본다. 프레시안 : 프로 축구 대전시티즌이 계속해서 여러 구설수에 오르고 있는데 구단주로서 이 문제를 어떻게 해결하실 예정인지?허태정 : 시티즌 문제는 개혁이 진행 중이다. 시티즌과 관련된 의혹과 불미스러운 사안이 발생했고 대표이사도 새롭게 교체해서 개혁을 주도하고 있고 내부적인 개혁을 통한 자구책 마련, 시민들의 신뢰를 회복하고 성적으로 프로구단임을 입증해야 될 책임도 있다. 대전 시티즌이 완전히 새롭게 탈바꿈할 수 있도록 내부 개혁과 경쟁력을 함께 해결해나가는데 지원할 것이고 여러 방안에 대한 고민도 함께 하고 있으니 앞으로 지켜 봐달라. 프레시안 : 대전의 미래 먹거리 계획과 지역 경제 살리기 지역 인재 채용 전망에 대해 듣고 싶고 또한 다른 시도에 비해 관급입찰 제도가 중,소 지역 업체 우대 조항 조래가 미비해 타시도 경쟁업체가 낙찰되어 세금 및 일자리 창출이 유출되고 있는데 이에 대한 대책을 듣고 싶다. 허태정 : 대전의 미래 먹거리는 혁신도시법 개정안의 큰 이슈는 ‘지역 인재 의무채용’과 ‘공공기관 이전’과 연관이 있다. 150만 대전 인구의 10% 정도가 대학생으로, 청년실업이 굉장히 높은 편이고 실제 19개 대학에 재학생이 14만 4천 명, 졸업생은 한 해 2만 6천 명의 졸업생이 쏟아진다. 그런데 광역자치단체 중 대전과 충남만 혁신도시로 지정되지 않아, 공공기관 이전에 따른 지역 청년들이 심각한 역차별, 인구 유출, 지역 경제 위축 현상들이 일어나는 등 당연히 받아야 할 혜택을 받지 못하고 있는 것이다. 지난 7월17일, ‘혁신도시법 개정안’이 국회 국토위 법안소위를 통과하면서 2022년 기준 17개 공공기관에 900여 개의 의무채용 기회를 얻어냈고 우리 대전지역 고교·대학 졸업생 등 지역 청년들에게 공공기관 취업의 길이 많이 넓어졌다. 지역업체 보호 관련 조례는 ‘지역 건설산업 활성화 촉진 및 하도급업체 보호에 관한 조례’로 우리 시도 같은 조례를 운영하고 있고 지역 업체에 대한 공동도급비율을 49% 이상, 하도급 비율을 60% 이상으로 권장하는 규정 등을 담고 있다. 그래도 미비한 각종 관급 입찰 관련 법령, 조례 등을 추가로 검토해서 지역업체 보호와 활성화를 위해 적극적으로 노력해 나가겠다. 프레시안 : 대전은 과학도시로서의 명성을 이어가려면 뛰어난 연구시설 및 연구자가 필요하다. 대전 연구개발특구의 과학자들이 2020년 대거 은퇴를 예상하고 있어 퇴직 연구자에 대한 사회적 활용 시스템이 필요로 해 보입니다. 이에 대한 계획은?허태정 : 국가 과학기술 위원회의 자료에 따르면 현재 대전의 고경력 과학기술인은 총 1100여 명으로 추산되며 앞으로 2021년까지 매년 300여 명 내외의 과학기술인이 은퇴할 것으로 예상되고 있다. 대전시는 이들 과학기술인의 경험과 지식이 사장되지 않고 지역사회 과학 산업 발전에 기여할 수 있도록 전국 최초로 2013년부터 고 경력 과학기술인을 활용한 사업을 추진하고 있다.올해는 과학대중화 사업 등 10개 사업에 총 17억 원을 지원하고 있으며, 은퇴 과학기술인 200여 명이 활동하고 있다. 주요 사업으로는 청소년, 일반 시민 등을 대상으로 과학 멘토링 사업, 과학 강좌, 과학해설사 등 다양한 과학대중화 사업을 시행함과 동시에 우리 지역 중소·벤처기업의 기술 지원 사업 등을 추진하고 있고 앞으로 우리 대전시는 은퇴 과학자 활동을 위해 다각적으로 추진하여 기업의 혁신성장에 기여할 수 있도록 적극 지원하겠다.프레시안 : 광주에는 삼성전자 공장 앞의 도로 이름을 ‘삼성로’ 청주시에는 SK로가 생겼다. 혹시 대전시에서도 (예)연구단지로 등 브랜드를 만들 그런 계획을 하고 있을까요? 허태정 : 좋은 제안이고 지금 어느 국가든 도시든 가장 중요한 것은 일자리, 경제다. 대전은 대덕특구를 기반으로 함께 성장한 도시이기도 하며 대전의 미래를 이끌어 갈 주요한 기반과 근거지가 대덕특구이고 대덕특구를 기반으로 한 스타트업 집중 육성과 이것을 통한 대전의 새로운 경제 도약들을 이뤄낼 수 있는 기반으로 삼고 있다. 기업이든 지역을 대표하는 기관이든 이를테면 카이스트의 경우, 카이스트 앞의 다리를 카이스트고라고 명명하듯이 지역의 특성을 감안한 도로명이나 기타 상징들을 만들어가는 것은 당연한 일이고 적극적으로 펼칠 사업이라고 생각하며 검토해 실천해 나가겠다.  프레시안 : 일본이 우리나라 화이트리스트 배제 등 노골적으로 우리를 적대시하는데 그로 인한 대전지역의 피해는 없나? 허태정 : 구체적인 피해가 표면화되진 않았지만 피해가 전혀 없을 수는 없지만 무역규모를 보면 대전은 일본에 4억 천만 불 정도를 수입 의존하고 있고 다행히 한 쪽 분야로 집중되지는 않아 위기를 맞고 있진 않지만 일본에 의한 수출규제 화이트리스트 제외된 품목들에 대한 제제가 구체적으로 진행된다면 피해가 생길 수밖에 없어 관련 대책 회의를 지난주 휴가 중에도 열었다. 그동안에는 한·일이 역사적으로는 대립했지만, 경제적으로는 큰 갈등 없이 이어져왔는데 이제는 일본의 의도가 분명히 드러난 것이고 대법원 판결은 핑계일 뿐 한국의 경제 성장을 억제하고 일본의 컨트롤 안에 두고 싶어 하는 일본의 의도가 보여서 반드시 이번 기회에 단결하여 이런 의도를 이겨내야 된다고 생각한다.  프레시안 : 마지막으로 프레시안 독자들과 시민들에게 하실 말씀은.. 허태정 : 민선 7기가 출범하고 벌써 1년이 지났음. 정말 쉼 없이 달려온 시간이었다. 도시철도 2호선, 월평공원 민간 특례 사업 등 해묵은 과제도 해결하고, 국비 3조 원 시대 개막, 하수처리장 이전 적격성 조사 통과 등 눈에 띄는 성과도 만들었지만 한편으로는 그런 과정에서 시행착오도 있었고, 아쉬운 점도 있었다. 이제 민선 7기 2년 차에 접어들었고 남은 3년 결코 길지 않은 시간이지만 첫 마음으로 새롭고 힘차게 다시 시작하겠다.시민참여를 강화해서 시민주권시대를 공고히 하고 4차 산업혁명 특별시 완성, 트램 건설 등 기존의 대형 사업들이 차질 없이 진행되도록 하나하나 꼼꼼히 챙기고 약속사업을 비롯해 혁신도시 지정, 대덕특구 재창조 등 대전의 미래를 결정하고 도시의 모습을 바꿀 수 있는 중요한 사업들을 잘 챙겨나가겠다. 남은 3년, 믿고 응원해달라. 대담 /김규철 세종충청취재본부 편집국장  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      2016~2017년은 의회권력과 행정권력이 선거를 통해 교체되는 시기이다. 하지만 여기에는 통상적 절차 이상의 중요한 의미가 있다. 지금의 정치적 시대 상황을 한마디로 규정하면 '삶을 바꿔야겠다는 대중의 강렬한 열망'이다. 더 이상 이대로는 살 수 없다는 고통스러운 절규, 사회를 바꿔야 한다는 요구, 세력(리더십)을 교체해야겠다는 문제의식이다. 이런 열망들은 십수 년 전부터 발아되고, 축적되고, 내재화되어 온 것들이다. 이는 2016~2017년을 대중의 삶을 근본적으로 변화시키는 체제 전환의 발판으로 삼을 것을 요구한다.이 속에서 나타나는 중요한 특징은 '보수우위 구도의 점진적 소멸'이다. 지금까지 많은 사람들이 한국사회를 '보수 쪽으로 기울어진 운동장'으로 규정해 왔다. 야권의 정치인들은 그 같은 규정을 방패막이로 삼아 그 속에 안주해 왔다. 필자가 이미 수년 전부터 주장해 온 바지만, 다시 한 번 말하자면 그 같은 담론은 즉각 폐기되어야 한다. 국가기구, 언론, 재정기반, 지지층의 조직화 상태 등에서 한국사회의 지형이 보수 쪽으로 기울어져 있음을 부인할 수는 없다. 그러나 더 중요한 것은 대중의 마음이 오히려 그 반대로 기울어져 있다는 사실이다. 대중은 지금까지의 보수패권의 통치로는 대한민국이 더 이상 앞으로 나아갈 수 없다는 것을 간파하고 있다. 국가주권 하나 감당하지 못하고 자신을 끊임없이 비하하면서 강한 것에 재빠르게 굴종하는 사대성, 기득권의 독식에만 몰두하면서 국가공동체에 대한 사랑과 헌신을 쏟아본 적이 없는 천민성, 자신은 법과 규칙을 적당히 뭉개면서 약자에게는 법을 내세워 호통치는 배타성, 보수의 이런 핵심적 특징들은 대중의 변화 열망과 갈수록 멀어지고 있다.'보수=부패, 진보=무능'이라는 경험칙도 이미 깨졌다. 이명박의 국민성공시대, 박근혜의 국민행복시대가 말짱 거짓과 기만에 지나지 않았다는 것을 대중은 몸서리치게 경험하고 있다. 그럼에도 보수=부패, 진보=무능이라는 프레임이 여전히 지속되고 있는 것은 여당과 야당의 권력기술의 차이 때문이다. 바로 이 같은 시대 구조의 흐름은 선거정치의 공간에서 보수와 진보의 역학구도를 지속적으로 변화시켜 왔다. 진보가 유능한 것은 아니지만, 보수 가치에 대한 회의와 변화에 대한 강한 열망은 보수와 진보가 선거공간에서 거의 대등한 일대일 대결구도를 형성할 수 있게 만들었다. 1997년 최초 집권 때는 보수 대 진보가 '6:4' 정도의 구도였고 집권을 위해 DJP연대라는 변칙이 불가피했으나 오늘날에는 적어도 '5:5구도'에 가깝게 바뀌었다. 물론 야권정당의 취약과 무능으로 인해 '5:5구도'가 중대선거이거나 바람이 불 때만 형성되고 일상적 시기에는 잠복하는 약점이 있지만 말이다. 아래 표에서도 확인할 수 있지만, 2010년 지방선거 이후 지금까지 중대선거의 공간에서 진보적 가치와 의제가 지배적 이슈가 되고, 양대 진영 간 득표율이 지속적으로 일대일 구도를 재현하고 있는 현상은 정치지형이 '더 이상 기울어진 운동장'으로만 파악할 수 없음을 나타내고 있다. 특히 2016~2017년은 보수 리더십이 고갈되는 시기이다. 보수진영은 민주정부에 대한 대중의 실망감을 활용하여 과거 보수정권에 대한 향수를 복제해냄으로써 이명박-박근혜 정부로 이어지는 리더십을 창출하는 데 성공했다. 그러나 더 이상 그런 복제는 불가능하게 되었다. 두 번에 걸친 복제가 대중에게 매우 실망스러운 결과를 가져다주었기 때문이다. 이에 따라 보수진영은 당분간 집권을 위한 새로운 국민적 리더십을 재생산해는 데 커다란 어려움을 겪을 전망이다. 이상과 같은 이유로 우리는 2016~2017년을 '권력교체'라는 통상적 절차의 의미로 파악해서는 안 된다고 주장한다. 대중의 열망을 정확히 실현해내고 시대정신을 구현해 내는 체제전환의 계기로 만들어야 한다고 보는 것이다. 얼마 전 카이스트(KAIST) 주최 토론회에서 박성원 박사가 발표한 20~34세 청년층 대상 설문조사 결과에 나왔듯이, 2016~2017년은 "붕괴, 새로운 시작"의 기점이 되어야 한다. 새정치연합은 잘못된 길로 가고 있다그동안 보수패권에 대한 대중의 회의와 불신은 대안세력에 대한 모색으로 끊임없이 표출되어 왔다. 대중의 요구가 반사적으로 표출되어 온 대상은 일차적으로 새정치연합으로 대표되는 제1야당 세력이다. 새누리당을 제외하고 국가를 맡길 수 있는 유일한 현실적 대안이었기 때문에 대중은 반복적으로 열망을 투사해 왔다. 지금도 마찬가지다. 그러나 그 같은 기대는 번번이 실망과 좌절로 귀결되어 왔다. 특히 2012년 대선 이후 새정치연합(민주당)은 정체와 퇴행의 길을 걸어왔다. 김한길-안철수 대표체제는 '중도·보수적 외연의 확대'를 지향하는 정치노선을 채택했다. "민생을 지향하는 새로운 노선"이라는 수사가 포장지로 입혀졌다. 그러나 그들은 대중이 겪는 고통스러운 현실에 맞서 치열하게 싸우지 않았다. 스스로가 천명한 '거짓 대 약속'의 구도는 온데간데없이 실종되고 말았다. 박근혜 정권의 기초선거 공천폐지의 약속 파기는 물론이고, 경제민주화 공약의 후퇴, 세제개편의 졸속 추진, 원‧하청관계에 대한 개혁의 부진, 무늬와 실질이 괴리된 이상한 공기업 개혁 등 거짓된 약속들과 치열하게 싸우지 않았다. 오직 공천의 사유화와 장난질, 그리고 재보선 참패라는 앙상한 결과만 남게 되었다. 그 후 문재인 대표 체제가 출범했다. 다소의 변화가 기대될 만도 했다. 그러나 문재인 대표 체제의 지도노선 역시 김한길-안철수 지도부와 별반 다르지 않아 보인다. 지금 문재인 지도부는 '경제정당'과 '안보정당'을 두 축으로 한 정치노선을 천명하고 있다. 두 축의 조합은 다분히 문재인 대표의 집권전략의 성격을 암시하고 있다. 그것은 한마디로 '중도주의로의 선회'이자, '정권교체를 위한 보수층의 비토 회피전략'이라고 읽힌다. '경제정당'으로의 정체성 전환은 상당히 중요한 의미가 있지만, 그것은 구호와 이벤트로 되는 것이 아니다. 첫째, '어떤' 경제정당이냐는 것이다. 경제를 강조한다고 모두 선이 아니다. 과거 독재정권들, 민주화 이후 이명박 정부, 박근혜 정부는 경제와 민생을 핑계로 민주주의를 탄압하거나 후퇴시켰다. 야권진영에서도 과거 열린우리당이나 안철수‧김한길 대표체제가 중도실용이라는 이름으로 개혁적 정체성을 혼란스럽게 만들다가 침몰하고 말았다. 경제정당론이 진정한 의미를 갖기 위해서는 두 가지 선결조건이 충족되어야 한다. 하나는 과거 민주정부 시기 양극화를 심화시킨 데 대해 분명한 반성의 과정이 전제되어야 하며, 가깝게는 현재까지도 새정치연합이 경제이슈를 다루는 데 왜 번번이 실패하고 있는지 확실하게 규명되어야 한다. 다른 하나는 '경제정당'이라는 새로운 정체성을 세우고 주도할 수 있는 인적 역량, 즉 전략그룹과 전문가집단을 당의 중심에 포진해야 한다는 것이다. 이는 보스와 계파에 충성하는 당의 지배구조를 바꿔 대중의 삶의 현장 속에서 이슈를 만드는 능력을 발휘하지 못하면 살아남을 수 없게 체질과 구조를 혁신한다는 중대한 전환의 의미가 담겨 있다. 그러나 새정치연합의 새 지도부가 그런 선결조건을 갖추기 위해 모종의 노력을 하고 있어 보이지는 않는다. 과거 참여정부 시절 재벌과 관료집단 그리고 신자유주의에 경도되어 끌려갔던 일에 대해서 명확한 반성을 한 적이 있는지 기억나는 게 없다. 지난 대선 때도 '박정희냐 노무현이냐'로 논쟁구도를 만들고 자기들의 가치를 고수하는 데 급급했었다는 기억이 남는다. 지금도 새정치연합은 전세대란, 담뱃값인상, 가계부채, 노동시장구조개선, 무상급식중단 등의 이슈를 다룸에 있어서 왜 그렇게 자신들의 태도가 불투명하고 무능한지, 왜 그렇게 서민의 삶을 보호하려는 의지가 없어 보이는지 전혀 해명하지 않는다. 경제정당을 제대로 하기 위해 당의 체질과 인적 자원을 대대적으로 혁신하겠다는 의지를 찾아보기는 더욱 어렵다. 오히려 계파 간 갈등을 관리하기 위해 소지역주의를 내세워 지분을 요구하는 당내 구세력들에게 구차한 모습을 드러내고 있는 모양새다. 새 대표체제의 정치노선을 더 예민하게 드러내는 부분은 '경제정당'보다 오히려 '안보정당'일는지 모른다. 집권전략의 핵심은 사실상 여기에 있다고 봐야 한다. 그것은 '지난 대선에서 집토끼의 지지는 매우 견고하지만 보수층의 비토가 더 컸기 때문에 집권에 실패했다'는 내부 평가와 연결되어 있을 것이다. 만약 이런 판단이 연계되어 있다면 새 지도부는 정치‧안보이슈는 물론이고 경제이슈까지를 포함해서 어떤 이슈에 대해서도 결코 무리수를 두려고 하지 않을 것이며, 보수층에게 '비토'당할 건수를 만들지 않고 그들을 달래는 일을 중심선으로 해서 움직여 나가게 될 것이다. 실제로 요즘 문재인 대표의 행보는 이런 해석을 뒷받침해주고 있다. 최근 4.29재보선 과정에서 야권진영의 자중지란이 심화된 것도 궁극적으로 새정치연합 지도부의 전략과 관리방식이 자초한 결과였다. 일차적으로는 엉뚱한 곳에 전선을 쳤다. 박근혜 정부와 새누리당의 실정을 규탄하고 민생이슈를 점화시켜 선명한 정치구도를 만들기보다는 오히려 당의 원로와 구세력 그리고 지도부를 총출동시켜 집 나간 옛 동지를 제압하러 다녔다. 애초 극복해야 할 대상을 분명히 하지 않고, 가치노선을 선명하게 만들지 않았으며, 내부 반란을 진압하고 텃밭을 사수하는 데 전력을 투입했다. 오로지 전패 모면, 텃밭 사수의 방어적 전략운영은 야권내부의 이전투구와 자중지란을 심화시켰다. 비록 최근의 성완종 스캔들이 새정치연합의 숨통을 틔워주었지만, 그 같은 내생적 약점은 총선 같은 큰 선거에서 커다란 후과로 나타날 개연성이 크다. 정권교체의 담론을 경계한다 무슨 뜬금없는 소리냐고 반문할 수 있지만, 2016~2017년의 여정에서 우리는 '정권교체' 담론의 함정에 빠지는 것을 무엇보다 경계해야 한다. '정권교체' 담론은 진보-야권진영의 정체성을 혼란에 빠뜨리고 자중지란으로 몰고 가는 치명적 독이 될 수 있다. 정권교체 담론은 양면적 가치를 갖고 있다. '정권교체를 위해서라면 독사과라도 먹겠다'는 태도가 특히 위험하다. 보수층의 비토를 회피하는 것이 정권교체의 핵심전략이 된다면 정권교체 자체도 위험해질 수 있다. 최근 문재인 대표가 보여준 행보는 불길한 전조이다. 이승만-박정희 묘소참배, 조선일보 방상훈 회장을 조용히 만난 것, 천안함 관련 발언, 그리고 성완종 파문에 대한 다분히 의도적인 것 같은 미지근한 대응 태도는 정권장악을 위해서라면 기꺼이 독배를 들지도 모르겠다는 의구심이 생기게 한다. 천안함 관련 발언만 해도 그렇다. '진실'을 규명하는 차원에서 합리적 의심의 권리가 대한민국 자유민주주의 헌법의 가치와 명백히 조화되는 것임을 이야기하는 대신에 수구세력들의 '종북몰이'와 색깔론을 회피하는 쪽으로 나아갔다. 단언컨대 종북몰이는 결코 적당히 회피할 수 있는 대상이 아니며, 그럴수록 더욱 옥죄어 오는 족쇄와 같은 것이다. 종북몰이는 비록 어렵고 힘들지라도 원칙을 지키며 싸워야 하는 대상이다. 종북몰이는 한갓 사이비 이념을 빙자한 권력게임에 불과해서 그 자체로 반경제-반민생적이기 때문이다. 지금 새정치연합 안에는 '안보는 보수, 경제는 중도, 사회는 진보'라는 말 틀을 무의식적으로 추종하는 사람들이 많다. 그것은 새누리당 유승민 원내대표의 정치노선과 딱 맞아 떨어지는 것인데, 이런 태도는 정권교체 국면에서 새누리당이 언제든지 선점하고 들어올 수 있는 야권의 아킬레스건으로 남게 될 것이다. 그런데도 지금 새정치연합의 모든 부류들은 친노, 비노, 486 할 것 없이 중도주의의 늪에 빠져있다. 다시 말하면 2016~2017년 우리의 목표는 정권교체가 아니다. 우리의 목표는 특권·배제·불통의 사회질서 아래 만성적 불안과 존엄 상실을 겪으며 살아가는 국민의 삶을 근본적으로 변화시키는 것이다. 이를 위해 사회체제를 바꾸겠다는 '사회교체'의 명확한 비전과 메시지를 만들어가야 한다. 나아가 그것을 달성하기 위한 정치패러다임의 혁명을 지향해야 한다. 사회교체를 주도할 '세력교체'를 요구해야 한다. 기성 정치의 배타적 독과점체제를 허물고, 진보-야권진영 스스로는 수명을 다한 기존의 이념, 정치노선, 조직노선, 대중노선의 전면적 혁신을 추진해야 한다. 국민의 삶을 근본적으로 변화시키지 않고 정권교체만을 말하는 것은 엘리트들의 권력게임에 지나지 않는다. 새누리당은 부자들의 돈벌이를 돕는 일에만 혈안이고 사회적 약자에게 '가만있어라!'고 윽박지르며 대중을 이간질하는 데 골몰한다. 새정치연합은 이를 정치적으로 이슈화시키지도 못하고 있고, 그럴 의지도 박약해 보인다. 우리는 이를 뛰어넘는 대중의 목소리, 주장, 담론을 만들어 우뚝 세워내야 한다. 그것은 '원하라' '말하라' '움직여라' '바꿔라' '얻어라'이다. "삶을 바꾸자!" "사회를 바꾸자!" "세력을 교체하자!" '사회교체' '세력교체'를 위한 혁신기지를 건설해야 한다야권-진보진영의 혁신기지를 건설해야 한다. 혁신기지는 우리의 삶을 바꾸고, 사회를 변혁하고, 세력을 교체하고자 하는 개인, 그룹, 세력들이 모인 정치적 연대체이다. 우리에게 혁신이란 우로 가느냐, 아니면 좌로 가느냐의 논쟁을 뛰어넘는 것이어야 한다. 그런 발상 자체가 진영논리에 갇힌 사고이기 때문이다. 혁신기지는 한편에서는 낡은 진보의 전투적 운동주의와 이념적 진영주의를 극복하고, 다른 한편에서는 낡은 중도의 몰가치적이고 기회주의적 태도를 극복하여, '소통·공유·참여에 입각한 새로운 공동체의 가치'를 실현해 나가는 것이다. 혁신주의자들의 가치 기준은 오직 불합리한 독과점과 배제와 불통의 악습과 비타협적으로 투쟁함으로써 노동과 생명가치의 존엄을 드높이고 상식과 정의에 반하는 특권과 권위주의를 추방하는 것이다. 그리하여 철저히 국민의 삶을 실질적으로 변화시키는 문제해결능력을 중시하는 정치활동을 지향하는 것이다. 혁신주체의 형성을 위한 조건이 어느 때보다 열악한 것은 사실이다. 그러나 변화의 전야는 오히려 고요한 법이다. "역사의 갈림길에 서 있는 지금, 우리는 바른 선택을 할 수 있고 역경들을 맞을 준비가 되어 있다고 믿습니다. 만약 당신들이 제가 느끼는 긴박함을 느끼고 있다면, 조국은 그 약속대로 쇄신되고 길고 긴 정치적 암흑에서 벗어나 보다 밝은 빛을 맞이할 것입니다."라는 오바마 연설문의 한 구절처럼, 비록 소수일지라도 올바른 목표와 전략을 갖고 있다면 세상을 바꿔낼 수 있다. 몇 년 전 &lt;나꼼수&gt;가 수백만 명의 대중을 동원할 때 그들은 불과 수 명에 지나지 않았다. 그들이 좀 더 올바른 비전과 정교한 정치전략을 갖고 있었다면 세상은 지금보다 훨씬 더 많이 변했을 것이다. 야권-진보진영의 혁신기지는 두 가지 목표를 수행해야 한다. 하나는 박근혜 정부와 새누리당 그리고 수구세력들에게 제대로 싸움을 걸어야 한다. 말로만의 경제‧민생이 아니라 실질적으로 대중의 삶을 근본적으로 변화시킬 것을 요구해야 한다. 대중의 삶을 변화시키는 이슈와 의제들을 만들어 던지고, 이를 통해 강력한 대결구도를 만들어야 한다. 그렇게 해서 새정치연합이 못하는 일을 해낼 수 있어야 한다. 그런 점에서 혁신기지는 단순히 '야권교체'를 요구하는 수준을 뛰어넘어야 한다. 다음으로 야권-진보진영 내부의 질서를 재편‧혁신하는 일에 앞장서야 한다. 지금 시점에서 야권 재편은 한국정치 나아가 한국사회를 변화시키는 출발점이자 핵심고리이다. 지금 여권에는 그런 동력이 없는 반면, 야권에는 상대적이지만 가능성이 없지 않다. 이는 여권에 비해 야권이 지닌 중요한 자산이다. 야권 재편을 둘러싼 치열한 내부 담론투쟁과 정치경쟁은 2016~2017년 중대선거 공간에서 야권이 의제, 이슈, 매스컴의 헤드라인을 점거하는 데 도움이 되기 때문이다. 우리는 이미 지난 대선에서 문재인-안철수 후보 사이의 후보단일화 논쟁이 어떻게 그런 효과를 창출했는지 경험한 바 있다. 이번 재보선에서도 아무런 뉴스거리가 되지 않던 광주 서을 선거가 천정배의 출마로 치열한 경쟁선거가 되면서 언론의 조명을 받는 것은 긍정적 현상이다. 분열-통합담론은 기득권자의 프레임이며, 그것으로는 야권이 결코 진정한 혁신과 수권 대안 세력으로 거듭나는 길이 될 수 없다. 내부 경쟁체제를 만들고 국민들의 역동적 참여를 야권으로 끌어들여서 그 정치경쟁에서 살아남은 세력이 야권 전체를 대표하여 총선과 대선으로 가도록 하는 것이 핵심이다. 그렇게 해서 '세력교체'의 시동을 걸어야 한다. 지금 상황에서 중요한 특징의 하나는 야권진영 내에 체제전환의 담론투쟁이 죽어있다는 것이다. 2010년 지방선거를 전후해서 2012년 총선과 대선국면으로 이어지면서 활화산처럼 솟구쳐 올랐던 보편복지, 경제민주화, '안철수현상' 등의 정치담론이 지금은 전혀 활성화 되지 못하고 있는 것이다. 이렇게 정치담론이 황무지상태인 이유는 무엇인가? 여러 가지 이유가 있겠지만 결코 간과할 수 없는 문제는 진보-야권진영의 창조적 파괴와 재편을 위한 동력이 심하게 고갈되고, 그나마 남은 동력들도 기성 야권정당의 공고한 기득권질서 아래에 단단히 억압되어 있다는 사실일 것이다. 따라서 진보-야권진영에 창조적 파괴의 동력이 작동해야 한다. 기성 야권정당이 대중의 엄청난 불신을 받고 있으면서도 대단히 견고한 카르텔을 이뤄 새로운 가치와 인적 자원의 유통을 가로막고 있는 이 현실구조를 타파해야 한다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      국회 교육위원회 국정감사에서 여야가 조국 법무부 장관과 나경원 자유한국당 원내대표 자녀의 '입시 특혜 의혹'을 두고 공방전을 벌였다. 서울대 행정관에서 열린 이날 국정감사에서 여야는 오세정 서울대 총장을 상대로 관련 질의를 쏟아냈다. 조국 장관과 나경원 원내대표는 모두 서울대 출신의 유력 인사들로, 자녀들의 대학 입학 시 '아빠 찬스', '엄마 찬스'를 활용한 게 아니냐는 의혹 제기다. 조국 장관 파문으로 특권층의 '특혜 대물림' 현실이 사회적 상실감을 일으킨 가운데, 서울대 국감은 이런 민심에 아랑곳없이 '그들만의 정쟁'을 벌이는 정치권의 현주소를 그대로 드러냈다. '조의 딸', 인턴·장학금·진단서...자유한국당은 예상대로 조국 장관의 딸 조모 씨 의혹을 집중 공략했다. 새로운 팩트 제시보다는 지금까지 제기된 의혹들 다시 한 번 추궁하는 식이었다. 조 씨에 관한 의혹을 크게 세 가지다. △ 고교시절 서울대 인턴을 어떤 경위로 하게 되었는지, △ 환경대학원 재학 중 장학금 수혜 대상자가 된 경위와 △ 환경대학원 휴학 당시 제출한 진단서의 진위 여부다.전희경 자유한국당 의원은 "조민 씨 본인이 언론에도 나와서 인터넷 공고를 보고 전화를 했다고 하는데 해당 인터넷 공고를 찾을 수 없다"며 "다른 인턴 공고에는 대상자가 대학생과 대학원생으로 명시돼 있어 고등학생은 대상이 아니다"고 지적했다. 그러면서 "인턴을 했다는 공익인권법센터는 조국 장관과 친분이 있는 한인섭·안경환 법대 교수가 참여하고 있는 곳"이라며 "조 씨가 인턴을 했다는 시기는 한인섭 교수가 센터장으로 있어 의혹이 확신으로 이어진다"고 말했다.이에 오 총장은 "모든 공고가 다 남아있는 것은 아니다"라며 "'고교생 인턴'은 흔한 것은 아니지만 아예 없는 것은 아니다"고 해명했다.곽상도 의원은 조 씨의 장학금 수혜 과정과 진단서의 위조여부를 집중 추궁했다. 조 씨는 부산대 의전원에 입학하기 앞서 서울대 환경대학원에 적을 뒀다. 조 씨는 환경대학원 재학 당시 1, 2학기 교외 장학금을 받고 2학기 재학 중 진단서를 제출하며 휴학했다. 조 씨가 받은 교외 장학금은 '관악회'라는 서울대 동문회가 지급하는 장학금이다. 야당은 수혜율 8%인 외부 장학금을 조 씨가 받은 것은 특혜라는 입장이다.오 총장은 이에 대해 "관악회에서 선발해 통보한 것으로 어떤 인사가 추천했는지 알 수 없다"고 답했다. 그러나 곽 의원은 "1학기에는 조 씨외 3명, 2학기에는 조 씨외 15명이 선발됐다"며 "장학금을 받은 학생들을 상대로 어떤 경위로 받았는지 조사해볼 수 있는 것 아니냐"고 지적했다. 또한 곽 의원은 "대학으로부터 받은 조 씨 진단서를 보면 워터마크도 없고 병명이나 발행한 의사는 개인정보를 이유로 지워져 보이지 않았다"며 "범죄에 제공된 것은 개인정보보호 대상자에 해당하지 않는다"고 공개를 요구했다.이에 김연수 서울대병원장은 "진료 내용을 타인이 밝히는 것은 의료법 위반"이라며 "양식이나 서체를 보면 서울대 병원 것이 맞는 것으로 본다"고 답했다.   ▲오세정 서울대학교 총장이 10일 서울대학교에서 열린 국회 교육위원회 국정감사에서 질의에 답변하고 있다. ⓒ연합뉴스   '나의 아들', 논문·포스터·과학경진대회...더불어민주당 의원들은 나경원 한국당 원내대표 아들 김 모 씨의 고교시절 논문 특혜 의혹을 추궁했다. 김 씨는 2015년 고등학교 재학 당시, 의생명공학 분야에서 세계적 권위를 인정받는 'IEEE EMBC(전기전자기술자협회 의생체공학컨퍼런스)' 포스터에 '광전용적맥파와 심탄동도를 활용한 심박출량의 타당성에 대한 연구(A Research on the Feasibility of Cardiac Output Estimation Using Photoplethysmogram and Ballistocardiogram)' 제1저자로 등재됐다. 여기에 김 씨 소속은 '서울대 대학원'으로 돼 있다는 것이 여당 의원들의 설명이다. 포스터는 연구의 개요를 설명하거나 내용을 요약한 것으로 '논문 초록'과 같이 논문의 일종이라는 게 여당 의원들의 입장이다.또 같은 학술회의에서 발표된 '비(非)실험실 환경에서 심폐 건강의 측정에 대한 예비적 연구(Preliminary study for the estimation of cardiopulmonary fitness in non-laboratory setting)'에는 제4저자로 이름을 올렸다. 해당 논문에서 김 씨와 함께 공동저자로 등재된 이들은 모두 서울대 의공학과 소속으로 고등학생 연구자는 김 씨가 유일하다. 김 씨는 논문 발표 이듬해 예일대학교 화학과에 입학했다.박경미 더불어민주당 의원은 나경원 원내대표의 이름을 직접 거론하지는 않고 '유력 정치인'이라고 표현했지만 사실상 나 원내대표를 겨냥한 의혹제기였다. 박 의원은 "2014년 유력 정치인이 아들의 과학경진대회 참가를 위해 평소 친분이 있던 서울대 윤 모 교수에게 실험실 사용을 청탁했다"고 주장했다. 박 의원은 '아이가 스스로 실험하고 포스터를 작성했다'는 나 원내대표의 해명에 대해서도 "대학원생 2명이 기기작동과 데이터 취득방법 등을 알려주고 도와줬다"며 "실험의 아이디어도 윤 교수가 제공한 것 아니냐"고 의혹을 제기했다.박 의원은 "김 씨는 2015년 3월 뉴햄프셔 과학경진대회 엔지니어링 부문에서 1등, 전체 2등을 했다"며 "같은 해 8월 밀라노 컨퍼런스에서 이뤄진 포스터 발표에는 김 씨가 아닌 대학원생이 참여했다"고 말했다. 김 씨의 과학경진대회 수상이 김 씨 스스로의 힘이 아니라 윤 교수의 도움 하에 이루어졌다는 취지의 이야기다.박 의원은 또 김 씨가 작성한 논문 포스터가 IRB(연구윤리심의)를 받지 않았다는 점을 두고 "해당 과학경진대회는 IRB를 별도로 요구하는데 허위로 기재했을 가능성이 있다"며 "IRB는 신청에서 승인까지 1~2개월이 걸리는데 김 씨가 방학 때 한국에 있는 기간 동안 빨리 논문 포스터를 완성해야 하니 IRB를 누락할 수밖에 없던 것 아니냐"고 물었다.이어 "고등학생 혼자 해야 한다는 과학경진대회 규정도 위반한 것"이라며 "사실이라면 김 씨의 포스터와 과학경진대회 수상이 취소될 것이고 예일대 입학도 취소될 가능성이 있다"고 말했다. 조국 장관의 딸 조민 씨가 제1저자로 등재됐던 병리학 논문은 IRB를 거치지 않아 취소된 바 있다.서영교 더불어민주당 의원은 "2014년 대학원 박사과정 논문 그래프와 김 씨의 2015년 발표본의 그래프가 똑같다"며 "2014년에 이미 발표된 자료가 그대로 이용됐는데 김 씨가 논문을 위해 어떤 역할이 있었느냐"고 연구부정 의혹을 제기했다.같은 당 조승래 의원도 "윤 교수가 이걸 다른 학회에 제출했다면 윤 교수가 학생의 연구 성과를 표절했다는 것이냐"며 "거꾸로 윤 교수의 연구성과를 학생이 갖다 썼다면 도용한 것 아니냐"고 물었다. 이에 오 총장은 "이공계 특성상 '교신저자'로, 자신의 기자재를 사용하게 하면 실험에 직접 참여하지 않아도 저자로 등재될 수 있다"고 설명했다.기득권층의 교육 대물림, 결국 '그들만의 리그'가 문제국정감사가 이 같은 양당의 '진흙탕 공방'으로 얼룩진 가운데, 여영국 정의당 의원은 "특권, 대물림, 불평등 교육"이라며 제도의 문제를 지적했다. 여 의원은 "기득권이 아닌 사람들은 일반 대학을 졸업하고 외국 유학을 한들 시간강사로 전락하고 비정규직으로 취직한다"며 "기득권 대물림 교육은 노동 불평등 문제와 직결된다"고 지적했다.여 의원이 공개한 자료에 따르면 서울대의 2019년 입학생 중 자사고와 특목고 출신은 43.6%에 달했다. 또 국가장학금 신청자 중 소득 최상위 분위에 속하는 9분위와 10분위 자녀들이 서울대는 52.02%로 다른 4년제 대학이 평균적으로 27.23%인 것에 비해 월등히 높았다. 여 의원은 "부모의 경제력이 반영됐다고 볼 수 있지 않겠느냐”며 “기회균형 전형, 지역균형 전형 등을 확대해야 하는 것 아니냐"고 지적했다.김해영 더불어민주당 의원도 서울대 법학전문대학원 입학 현황을 공개했다. 김 의원이 공개한 자료에 의하면 지난 5년간 서울대 법학전문대학원에 입학한 763명 중 포항공대와 카이스트를 제외하고 비수도권 출신은 단 2명에 불과했다. 연령별로는 41세 이상은 한 명도 없었고 35세 이상 40세 이하가 3명에 불과했다. 올해 입학생 152명 중 28세 이하가 147명인 점을 들어, 김 의원은 "다양한 경험을 가진 법률 전문가를 양성하겠다는 로스쿨 도입 취지에 맞게 선발하고 있느냐"고 물었다.국정감사는 이외에도 서울교대 신입생 단체 성희롱 사건, 서울대 서어서문학과 이 모 교수 사건을 비롯해 강사법 도입 이후 시간강사 대량 해고 문제, 학교 비정규직 노동자 문제 등이 제기됐다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      대한민국의 경제가 침체되고 있는 이유가 문재인 정부의 정책이 이념 편향적이라는 주장이 제기됐다.  서병수 전 부산시장이 개설한 '리더쉽 4.0 사랑방'이 11일 오후 3시 동아대 부민캠퍼스에서 공식 출범을 겸한 '첫 번째 이바구 한마당'을 개최했다.    ▲ 11일 오후 3시 동아대 부민캠퍼스에서 열린 '리더쉽 4.0 사랑방' 강연 모습. 왼쫀부터 서병수 전 부산시장, 이병태 카이스트 교수. ⓒ리더십 4.0 사랑방    이날 행사에 앞서 서병수 전 시장은 "이번에 국회에서 선거법, 공수처법을 빨리 통과시키기 위한 패스트트랙이라는 제도에 올렸다"며 "중요한 것은 이 법을 만들어서 정말 한국이 안정되고 미래 번영을 위해서 바람직한 법인지 논해야 한다"고 지적했다.  이어 "청와대의 청원이라고 해서 정당해산 청원으로 갑론을박을 하는 것은 이야기의 본질이 아니다. 본질을 얘기해야 하는데 걱정이다"며 "외교, 경제 문제는 절대 우리가 양보해서는 안 된다. 우리 국가와 젊은이들의 미래가 달린 일이다"고 현 정국의 상황을 설명했다.  이어진 강연에서는 'J노믹스의 자살적 실험과 위기의 한국경제'라는 주제로 카이스트 이병태(경영학) 교수가 글로벌 경제가 성장하는 가운데 한국 경제의 침체 이유가 문재인 정부의 이념 편향적인 정책을 실시하고 있다며 강한 비판을 쏟아냈다.   이병태 교수는 "아버지가 일당 10만원을 벌어서 자식에게 용돈 2만원을 주는 것과 하루 100만원을 벌어서 15만원을 주는 것이 비율로만 놓고 본다면 낮아지지만 이것이 자식이 돈을 못 쓰는 사회인가"라며 상대적 격차가 절대 빈곤인 것처럼 선동하고 있다고 비난했다.   또한 "국가가 삶의 모든 단계를 책임진다고 하는데 이것은 공산주의에서 한 얘기다. 기회는 균등하고, 절차는 공정하고, 결과는 정의로워야 한다고 하는데 이것은 질 낮은 사회주의다"며 "시장경제는 자유가 있을 때 번영한다. 지금 우리나라는 자유도가 2017년부터 내려가고 있다. 이 정부가 하고 싶은 것 다 한다면 40위 밖으로 나갈 것이다"고 현 정부의 경제 정책이 기본적인 개념에 대한 이해도 없이 만들어진 것이다고 꼬집었다.   한편 '리더쉽 4.0 사랑방'은 연결·소통과 융합의 플랫폼이자 시장경제와 자유민주주의 사회 실천을 가치로 부산시민 누구나 참여가 가능하며 다양한 정보를 공유하고 자유롭게 토론하는 장으로 운영되고 있다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲iCVD 장치를 이용한 특정 고분자 코팅 세포배양기판과 이를 이용한 표면 유도 3차원 암줄기세포 스페로이드 형성 모식도 ⓒKAIST       생체 내 환경과 유사한 3차원 스페로이드 형태로 양질의 암 줄기세포를 손쉽게 대량 배양할 수 있는 원천 기술이 개발돼 암치료제 개발에 기여할 것으로 보인다. 암 줄기세포는 항암제에 대한 내재적 저항성을 가져 암의 전이와 재발에 깊이 관여하고 있다.그러나 종양 안에 극히 일부 존재하기 때문에 지금까지는 다양한 암 줄기세포의 대량 확보가 어려워 암 연구 및 약물 개발에 제약을 받아왔다.  KAIST 생명과학과 전상용, 이대엽 교수와 생명화학공학과 임성갑 교수 공동 연구팀이 특수 고분자박막을 이용해 3차원 암 줄기세포 스페로이드(spheroids)를 손쉽게 제작할 수 있는 세포배양 플랫폼을 개발했다.  연구팀은 ‘개시제를 이용한 화학 기상 증착법’을 이용한 고분자 박막을 형성해 암 줄기세포를 제작했다.  이번 연구에서 특정 고분자 박막에서 배양된 표면 자극 유도 암 줄기세포 스페로이드가 약 24시간 안에 형성되고, 배양시간에 따른 암 줄기세포와 관련된 유전자 양의 증가를 발견했다.  또 플랫폼을 통해 형성된 암 줄기세포 스페로이드는 실제 항암제를 처리했을 때 뛰어난 약물저항성을 지니고 있음을 확인했다.  아울러 종양 동물모델에서 비교그룹에서는 보이지 않았던 다른 장기로 암이 전이되는 것을 확인했다.  이밖에 전체염기서열분석(Whole-genome sequencing)을 통해 표면 자극 유도 암 줄기세포와 실제 암 환자 암 줄기세포와의 유사성을 확인했다.        ▲ 전상용 교수 연구진 ⓒKAIST    전상용 교수는 “이미 시판되고 있는 다양한 종류의 암 세포주들 뿐만 아니라 환자에서 유래한 생체 내 환경과 유사한 3차원 스페로이드 형태로 양질의 암 줄기세포를 고효율로 손쉽게 대량 배양할 수 있는 원천 기술을 개발했다”며 “향후 암 줄기세포 기초 연구 및 약물 개발의 패러다임을 바꿀 수 있고, 나아가 암 줄기세포 제작용 플랫폼 소재에 대한 원천 기술 확보를 통해 거대한 암 관련 의료시장에서의 경제적인 부가가치 창출도 가능할 것으로 기대한다”고 말했다.  최민석, 최윤정 박사, 유승정 박사과정이 공동 1 저자로 참여한 이번 연구는 미국 암학회(AACR) 대표 국제학술지인 암 연구(Cancer Research) 10월24일자 온라인 판에 ‘Polymer thin film-induced tumor spheroids acquire cancer stem cell-like properties’라는 제목으로 게재됐다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      '뉴라이트' 역사관 논란이 불거진 박성진 중소벤처기업부 장관 후보자의 거취가 불투명해졌다. 박 후보자가 창조과학 신봉자로 드러난 데 이어 이승만, 박정희 독재를 긍정 평가하고 1948년 건국을 주장하는 활동을 한 것으로 밝혀지자 청와대의 분위기도 급변하고 있다.지난해 11월 25일 포항공대 기계공학과에서 열린 '대한민국 건국의 문명사적 의미' 세미나의 연사로 이영훈 전 서울대 경제학부 교수를 초청한 이가 박 후보자라는 사실도 30일 추가로 드러났다. 전공과 전혀 무관한 세미나 주제인 데다, 대표적인 식민지근대화론자인 이영훈 전 교수를 연사로 초청한 것이다.'한국창조과학회' 활동 이력이 드러난 당시 "이사직을 즉각 사퇴한 것으로 알고 있다"며 "공직자로서 개인이 갖고 있는 종교의 자유가 있다"고 옹호했던 청와대 관계자는 새롭게 제기된 역사관 논란에는 "(창조과학 신봉과는) 차원이 다른 문제"라고 했다.문재인 대통령이 직접 8.15 광복절 경축사를 통해 "내년 8.15는 정부 수립 70주년"이라며 뉴라이트 계열의 1948년 건국절 주장을 일축한 지 보름 만에 장관 후보자의 뉴라이트 사관이 밝혀지자 청와대도 적잖이 곤혹스런 눈치다.청와대는 그럼에도 국회 인사청문회까지는 지켜보겠다는 입장이다. 청와대 관계자는 "청문회에서 최종적으로 본인에게 해명, 설명의 기회가 주어져야 한다는 인사 원칙에는 변함이 없다"고 말했다.이 관계자는 다만 "본인이 실제 그런 발언을 정확하게 했고, 그러한 내재적 신념을 갖고 있는지 다른 자료도 찾아보고 여러 단위에서 검증하는 중"이라며 낙마 가능성을 열어놓았다.박 후보자의 한국창조과학회 활동 이력을 '종교의 자유'로 옹호하며 대수롭지 않게 보는 청와대에 대한 반발도 거세지고 있다. 한국창조과학회는 1981년 설립된 기독교 창조과학 확산 단체로, 창조과학은 성서의 창조론을 과학에 근거한 사실로 보고 진화론을 부정하는 신앙운동을 전개해왔다. 박 후보자는 이 같은 논란에 "저는 하나님을 믿는 기독교 신자로 창조론을 믿는 것이 아니라 창조신앙을 믿는 것"이라며 "개인적인 창조과학 연구 활동은 없었으며 과학적인 방법론에 입각한 진화론을 존중한다"고 해명한 바 있다.하지만 과학계에선 '반지성'의 문제를 종교의 문제로 이해하는 청와대가 본질을 왜곡하고 있다는 지적이 잇따른다.장대익 서울대학교 자유전공학부 교수는 27일 페이스북을 통해 "창조과학과 같은 반지성적 세계관을 신봉하고 실천하는 이들이 버젓이 높은 자리로 올라가고 영향력을 행사하는 현실은 지성에 대한 모욕"이라고 반발했다.장 교수는 "그런 과학계 인사가 포진해있는 정부라면, '창조과학자 옹호자를 쓰는 게 뭐가 문제냐'고 해명하는 정부라면, 더 이상 존경할 수 없다"며 "대체 이 정부는 언제부터 MB보다 더 실용주의 노선을 택했나?"라며 비판했다.정재승 카이스트 교수도 26일 페이스북에 "창조과학을 신봉하는 것은 단지 종교적 선택이 아니다"라며 "지금까지 인류가 쌓아 올린 과학적 성취를 부정하는 '반과학적인 태도를 지녔다'는 뜻"이라고 지적한 뒤 "나는 창조과학을 지지하는 과학자들을 매우 위험한 학자들이라 여긴다"라고 썼다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 대전시 청사에서 열린    3.1운동 및 임시정부수립 100주년 기념식 ⓒ대전시    3.1운동 및 임시정부수립 100주년을 기념하는 다양한 행사들이 대전 지역에서 개최됐다.  대전시는 1일 시청사 2층 로비에서 애국지사와 시민 1000여 명이 참석한 가운데 기념식을 개최했다 .  이날 기념식에서 대전 지역의 유일한 생존 애국지사인 정완진(92) 지사가 독립선언서를 낭독했고, 시립무용단은 3.1절을 기념해 '천고'를 공연했다. 행사에 참가한 시민들은 정오를 기해 대한독립만세 문구를 새긴 클래퍼를 펼치며 만세 삼창을 연출했다 .        ▲ 대전현충원을 참배하는 정완진 애국지사(흰 옷)와 기관단체장들 ⓒ대전시    기념식에 앞서 지방자치단체장과 애국지사․유족, 보훈단체장들은 대전 현충원을 참배한 뒤, 시청 남문광장 한밭종각에서 타종식을 가졌다.  허태정 대전시장은 이날 소녀상에 헌화하고, 단재 신채호 선생의 생가를 방문하기도 했다.        ▲소녀상에 헌화하는 허태정 대전시장 ⓒ대전시    이에 앞서 엑스포시민광장 일원에서 열린 제100주년 3.1절 기념 자전거 대행진에는 시민과 자전거동호인 1만 여명이 참가했다.  이날 오전 11시 엑스포시민 광장을 출발한 시민들은 엑스포대교, 엑스포과학공원, 카이스트, 궁동네거리, 충남대정문, 자운대, 화암네거리, 전민네거리를 지나 엑스포시민광장으로 이어지는 대덕연구단지 주변 18㎞를 주행했다.        ▲ 제100주년 3.1절 기념 자전거 대행진 ⓒ대전시    이날 오후 5시에는 중구 으능정이거리 스카이로드에서 ‘1919 대한독립만세’ 행사가 열렸다.  행사 참가자들은 100년 전 3·1운동을 재연해 독립선언서를 함께 낭독하고, 애국가와 만세를 부르며 3·1운동의 정신을 기렸다.  또 국악그룹과 성악앙상블 공연, 버블아티스트 퍼포먼스 등이 펼쳐져 그 날의 감동을 예술로 승화시켰다  이밖에 태극기 클레이, 무궁화 자수, 유관순 열사에게 편지쓰기 등 다양한 체험부스가 운영됐다.        ▲국악방송 프로그램 배너 ⓒ국악방송    대전 국악방송은 3.1운동 및 대한민국임시정부수립 100주년을 기념해 KBS와 공동 제작한 ‘대한민국을 만든 노래들’을 1일 공개했다.  ‘대한민국을 만든 노래들’로 명명된 이 프로그램은 첫 방송으로는 ‘유관순 열사가’와 ‘신흥무관학교 교가’ 편을 소개했다.  ‘신흥무관학교 교가’는 민족을 구하고 독립된 새 나라를 만들자는 결의를 담고 있으며, 후에 임시정부가 이 노래를 군가로 채택했다.  박동실에 의해 창작된 것으로 알려진 ‘유관순 열사가’는 유관순 열사의 만세운동을 실감나게 느낄 수 있는 박진감 넘치는 장단과 노래로 짜여져 있다.        ▲ 대전동구청 광장에 그려진 인간 태극기 ⓒ대전시동구    한편 대전 동구는 28일 오후 6시 주민과 직원 500여명이 모여 제 100 주년 3.1 절 기념행사를 개최했다 .  동구는 오는 4월2일 대전지역 만세운동의 도화선이 되었던 3.16 인동 장터 만세운동 재연행사를 개최하기 위해 으능정이 스카이로드 –대전역 -만세로 광장에 이르는 1.5km 구간 횃불 릴레이 등의 행사를 준비 중이다 .  대전 대덕구도 28일 회덕역에서 3.1운동 및 임시정부수립 100주년 기념 3.1운동 재연 행사를 가졌다.        ▲대덕구 주민의 가두 행진 ⓒ대전시대덕구    이날 행사는 대덕 구민 선언문 낭독과 붓사위 퍼포먼스, 태극기 춤 공연, 독립선언문 낭독, 만세삼창, 회덕역에서 수자원공사까지 가두 행진을 이어갔다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      자유한국당 내에서 일본의 '무역 보복 조치'와 관련해 WTO 승소 가능성을 장담할 수 없다는 주장이 나왔다. 자유한국당 황교안 대표는 7일 일본의 경제보복 관련 긴급대책회의를 주재하고 "분명한 사실은 이런 일본의 경제보복이 WTO 규정과 국제법 관례에도 맞지 않는 매우 부당한 조치라는 것"이라며 "어떠한 이유와 명분으로도 정당화될 수 없는 만큼 바로 보복조치를 철회하는 것이 마땅하다"고 말했다. 법률가인 황 대표가 WTO 규정에 맞지 않다고 규정했지만, 결이 다른 목소리들이 나왔다. 자유한국당 김현아 원내대변인은 별도 논평을 내고 "정부는 WTO 제소를 검토하겠다며 큰소리치지만 승소 가능성도 장담할 수 없을뿐더러 관련 산업이 붕괴한 후에 WTO 소송에서 이긴다 한들 무슨 소용이 있겠나"라고 주장했다. 김 원내대변인은 "일본의 이번 보복조치는 자유무역정신에 역행하는 비정상적 조치로 마땅히 철회되어야 한다. 하지만, 예상된 일이었고 많은 경고들이 있었음에도 이 지경이 될 때까지 정부 역할을 제대로 못 한 문 정권의 '뒷북' 대응은 답답하기만 하다"고 비판했다. 일본의 경제 보복 관련 긴급 대책회의에서도 황 대표의 인식과 다른 말들이 나왔다. &lt;머니투데이&gt;가 보도한 데 따르면 이날 회의에 참석한 정인교 인하대 교수는 "WTO에 제소해 이길 승산은 거의 없다고 판단한다"며 "일본정부가 수출금지가 아닌 심사를 강화하겠다고 했기 때문"이라고 주장했다. 정 교수는 "더구나 WTO의 최종결심기구인 상소기구의 위원 정원7명인데 연말이면 1명만 남는다"며 "판결하려면 최소 3명이 필요한데 결국 판결이 언제날지도 모르는 상황"이라고 주장했다.또 회의에 참석한 이병태 카이스트 교수는 "정부가 과거 정부들을, 지난 역사를 부정하는 적폐로 보지말고 협약은 협약대로 존중해야 한다"며 "정부가 국민들을 어린애 같은 자존심에 의존하게 하는 태도를 버렸으면 좋겠다"고 문재인 정부를 비판했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      조동호 과학기술정보통신부 장관 후보자는 27일 제기된 자녀 '호화 유학' 지원 논란에 대해 "문제가 있었다고 생각한다"며 거듭 사과했다.  박성중 의원(자유한국당)은 이날 열린 국회 과학기술정보방송통신위원회 인사청문회에서 "7년 동안 7억을 송금했다. 후보자 연봉이 1억원 내외로 알고 있는데, 연봉 전체를 바친다는 게 이해가 안 된다"며 "그동안 자녀는 포르쉐를 타고 월세 240만원인 아파트에 살며 '황제유학'을 했다"고 비판했다.  이에 조 후보자는 "학교에서 받는 급여 외에 기타 소득이 있고, 전세자금과 아내 퇴직금이 있다. 유학자금은 보낼 수 있는 범위에서 보냈다"고 설명했다.   그러면서도 "자동차(포르쉐) 관련해 문제를 일으켜 송구하다"며 "부부가 같이 직장 생활을 하며 자녀들에 대한 서포팅을 못 했다고 생각해왔다. 이에 잘못된 방향으로 지원한 듯하다"고 사과했다.  박 의원은 "청년 네 명 중 한 명이 실업자다. '인턴'이 '금(金)턴'으로 불리는 현 상황에서 장남과 차남이 정식 채용공고도 없이 인턴이 됐다"며 채용 비리 의혹도 제기했다.   이에 대해 조 후보자는 "채용 과정에 관여하지 않았다"며 "장남과 차남의 인턴 생활은 고용과 직결된 게 아니다"라고 잘라 말했다.  조 후보자의 장남은 2012년 5∼6월 조 후보자가 사내이사를 지낸 '동원 OLEV'에서 인턴을 했다. 차남의 경우 조 후보자가 교수로 재직 중인 카이스트에서 위촉기능원으로 근무한 바 있다.  장남과 차남의 군 복무 특혜 의혹도 제기됐다.   박 의원은 "후보자 차남은 군에서 복무한 637일 중 총 98일의 휴가를 받았다"며 "닷새에 한 번꼴로 휴가를 나온 셈"이라고 지적했다. 또 "장남의 경우 경영학 전공인데 한미연합사령부 통신병으로 배치됐다. 7명 배치됐는데 후보자 장남을 제외한 전부는 전기전자·정보통신 계열"이라고 주장했다.  박 의원은 조 후보자가 국방부 정보화책임관 자문위원에 위촉됐던 사실을 들며, 특혜 의혹을 제기했으나 조 후보자는 "장남, 차남의 군 생활과 관련해 영향을 미친 바 없다"고 해명했다. 한편 조 후보자가 미국 콜로라도대에서 유학 중인 장남의 재산 고지를 거부해 한 차례 논란이 일기도 했다. 조 후보자는 애초 인사혁신처 가이드라인에 따라 고지거부 사유서를 국회에 제출했지만, 이런 고지거부가 오해를 불러일으킨다고 판단함에 따라 청문회 전날인 26일 장남의 재산을 공개했다.  공개한 재산 내용은 콜로라도주 볼더 카운티의 공동주택 임차보증금 1천861달러(약 211만원), 예금 2만1천610달러(약 2천450만원), 현금 1만9천500달러(약 2천211만원·차량매매대금), 차량 1대(2012년식 포르쉐·약 3천600만원) 등이다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ KAIST 김성용 교수 ⓒ KAIST       KAIST 기계공학과 김성용 교수가 한국인 최초로 세계 해양관측 분야 주요 국제학회인 ‘OceanObs’19’의 운영위원에 선출됐다.  김 교수는 북태평양해양과학기구의 관측전문위원 및 연안 관측 자문위원으로 활동하며 전문성과 학문적 성과를 인정받아 운영위원 지명을 받았다.  전 세계 20여 개국 주요 학자 및 연구진으로 구성되는 운영위원에 김 교수는 북태평양해양과학기구의 관측전문위원 및 연안 관측 자문위원으로 활동한 성과를 인정받아 선정됐다.  이 학회에서는 전 세계 해양관측 분야 전문가들이 연안부터 대양에 이르는 해역의 물리, 생물, 화학 변수의 모니터링과 해양 공학 등의 응용기술 적용을 통해 향후 10년의 연구 방향을 결정한다.  미 항공우주국과 미 해양대기청, 유럽우주기구 등 20여 단체에서 예산 및 최첨단 장비를 지원받는 이 회의는 수중 드론과 무인 관측, 위성을 이용한 원격탐사 등 전방위적 해양관측을 진행한다.  이를 통해 기후변화, 해양산성화, 에너지 및 해양오염 등 향후 10년간의 중요한 과학문제 해결을 위한 장기 계획을 수립한다.  김 교수는 “이번 학회를 통해 도출된 향후 10년간의 주요 연구 분야를 국내 및 KAIST 내에 무인 관측 시스템 기반의 자연재해 및 기후변화 모니터링 연구로 구체화하여 다학제간 협업을 도모할 예정”이라며 “나아가 국방 과학기술의 응용 연구도 추진할 계획”이라고 말했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      다음카카오는 신임 단독 대표로 임지훈(35) 현 케이큐브벤처스 대표를 내정했다고 10일 밝혔다.  다음카카오는 모바일 시대에 속도감있게 변화와 혁신을 주도하기 위해 공동 대표 체제에서 단독 대표 체제로 돌입한다고 밝혔다. 합병 이후 본격적으로 시너지를 내기 위한 전략적 결정이다. 임지훈 내정자는 "모바일 시대 주역인 다음카카오의 항해를 맡게 돼 기분좋은 긴장감과 무거운 책임감을 동시에 느낀다"며 "다음카카오를 대한민국 모바일 기업에서 나아가 글로벌 경쟁력을 갖춘 모바일 리딩 기업으로 이끌도록 최선을 다하겠다"고 포부를 밝혔다.     ▲ 임지훈 다음카카오 신임 대표 내정자. ⓒ다음카카오   임 내정자는 KAIST 산업공학과를 졸업하고, NHN 기획실, 보스턴 컨설팅 그룹 컨설턴트를 거쳐 소프트뱅크벤처스 수석심사역을 지낸 뒤 2012년부터 케이큐브벤처스 대표이사를 맡아 왔다.  임 내정자는 케이큐브벤처스를 설립한지 3년만에 국내 대표 스타트업 전문 투자사로 키워내며 모바일 시장에서 한 획을 그은 젊은 기업가다. '핀콘', '레드사하라', '프로그램스', '두나무' 등 50여개의 스타트업에 투자했고, 그 중에서 1000억원의 가치를 가진 기업들을 포함해 수십배 이상 가치가 오른 기업들을 다수 배출하며 탁월한 성과를 인정받아 왔다.  이번 신임 대표 선정은 최세훈, 이석우 공동대표의 적극 제안과 추천으로 이뤄졌다.  최세훈 공동대표는 "다음카카오의 출발을 맡아 진정한 모바일 시대로 진입하는 행복한 경험이었다"며 "앞으로 시작될 진정한 모바일 시대를 이끌어갈 적임자라고 판단해 추천했다. 다음카카오는 모바일 혁신의 아이콘이 될 것"이라고 말했다.  이석우 공동대표는 "임 내정자는 다음카카오의 또 다른 시작을 위한 최고의 인재"라며 "다음카카오의 더 빠른 성장을 기대해달라"로 주문했다. 최세훈, 이석우 공동대표는 임지훈 신임 대표 내정자가 대표직을 수행하도록 적극 지원할 예정이다.  임지훈 내정자는 다음 달 23일 임시 주주총회와 이사회를 거쳐 공식 대표로 선임될 예정이다.프레시안=제주의소리 교류 기사  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           제21기 통일교육위원 대전협의회(이하 협의회)가 본격 출범했다.  협의회는 26일 오후 대전 레전드호텔에서 출범식 및 워크숍을 가졌다고 27일 밝혔다.  이날 행사에는 협의회 회장인 한남대 이덕훈 총장과 이무일 통일교육원장을 비롯해 대학, 공공기관, 기업, 언론 등 각계의 통일 전문 위원들이 참석했다.   이덕훈 회장은 개회사에서 “역사적인 남북정상회담이 열리는 전날 이렇게 통일교육위원 대전협의회 출범식을 개최해 뜻 깊게 생각한다”며 “한반도 평화를 위한 긴 여정의 출발선상에 있는 지금 여기 계신 위원님들과 함께 지혜를 모아 통일 교육의 장을 넓히고 소통하며 나아가겠다”고 말했다.  이어 이무일 원장의 축사, 위촉장 전수, 임원 선임 이후, 세종연구소 통일전략연구실 정성장 실장의 ‘북한의 대남·대외 정책 전환과 김정은의 리더십 재평가’란 주제로 특강이 이어졌다.  총 위원 39명 중 19명이 새로 위촉된 이번 ‘제21기 통일교육위원 대전협의회’는 각각 한 목소리로 다음 세대를 위한 통일 교육의 필요성을 공감했다.   정기철 위원(한남대 국어국문창작학과 교수)은 “청소년과 사회 소외계층을 응원하기 위해 만든 학과 연극동아리가 있는데 학생들의 눈높이에서 통일을 주제로 한 연극을 기획하면 감동적일 것 같다”고 말했다.   한편 이날 선임된 제21기 통일교육위원 대전협의회 임원은 부회장에 배명헌 카이스트 연구원, 현은용 한남대 입학사정관, 감사에 노기옥 건양대 간호학과 교수, 오세구 대전 반석고등학교 교장, 최이조 ㈜고운식물원 본부장 등이다.  통일교육위원 협의회는 통일부 통일교육원 산하 기관으로 전국 시·도에 17개, 미국 일본 등 5개 협의회로 구성돼 있다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲KAIST 2019학년도 입학식에 참석한 새내기들 ⓒKAIST       KAIST(총장 신성철)는 20일 대전 본원 대강당에서 2019학년도 입학식을 겸한 KAIST가족 환영행사를 가졌다.  지난 1971년 설립된 KAIST는 1986년부터 학사과정 학생을 선발하기 시작해 올해 34번째 입학식을 개최했다.  이날 입학식에는 721명의 신입생이 참석해 대학생활의 첫발을 내디뎠다.  신입생 구성은 일반전형 546명과 학교장 추천전형 89명, 고른기회전형 37명, 특기자전형 18명, 수능우수자전형 11명, 외국인전형 20명이다.        ▲입학식에서 신입생들의 선서를 받고있는 신성철 총장 ⓒKAIST    신성철 총장은“기초과목을 폭 넓게 공부하는 학생, 미래 글로벌 리더로서의 꿈을 갖고 훈련하고 준비하는 학생, 학문·삶·생각의 깊이와 폭을 넓힐 수 있게 동문과 전공, 국적을 초월해 다양한 친구를 사귀는 학생이 되어 줄 것”을 당부했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      강원랜드(대표 문태곤)가 내달 9일까지 강원 폐광지역 4개 시·군 고등학교 1, 2학년을 대상으로‘2018 하이원 선상학교’참가자를 모집한다.  이번‘2018 하이원 선상학교’참가대상은 예술, 과학, 문학, 역사, 환경 분야 등에서 재능 및 특기를 보유한 폐광지역 4개 시·군 고등학교 1, 2학년 재학생으로 학교장의 추천을 받아야 한다.   참가를 원하는 학생은 오는 3월 9일까지 신청서, 추천서, 재능 및 특기 증빙자료 등의 신청서류를 작성해 방문 또는 우편으로 강원랜드 사회공헌팀에 제출하면 된다.     ⓒ강원랜드     강원랜드는 신청자를 대상으로 서류 및 면접심사 등 종합적인 평가를 거쳐 오는 3월 20일 총 36명의 참가자를 선발할 예정이다. 참가비용은 전액 강원랜드에서 부담한다.  하이원 선상학교에 선발된 학생들은 오는 4월 11일부터 18일까지 7박 8일 간의 일정으로 부산 감천문화마을 및 러시아 블라디보스토크, 일본 가나자와, 후쿠오카 등을 방문하는 탐방 활동에 참여하게 된다.   또한 카이스트 정재승 교수, 사진작가 조세현, 방송인 노홍철, 소설가 은희경 등 평소에 만나보기 힘든 명사들로부터 꿈을 이루는 방법에 대한 강의도 듣고, 코칭도 받을 수 있는 기회가 주어진다.   한편 올해로 여섯 번째를 맞이하는‘하이원 선상학교’는 5만 7000톤급 크루즈인 ‘그린보트’를 타고 아시아 각국을 체험하는 프로그램이다. 강원랜드는 2013년부터 2017년까지 폐광지역 청소년 197명에게 ‘하이원 선상학교’참가비를 지원했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      문재인 대통령과 여야 5당 원내대표가 1년 3개월 만에 만난다. 행정부 수장과 입법부 제정파의 수장이 만나는 자리에서 논의될 수 있는 사안은 많다. 정치학자, 연구자, 전문가 68명이 '민심 그대로 선거제도의 도입을 촉구하는 교수․연구자' 명의로 긴급 성명을 내 문 대통령과 여야 5당 원내대표 회동(16일)을 하루 앞둔 15일 선거제도 개혁안 합의 도출을 촉구했다. 과소 대표, 과대 대표돼 각종 부작용을 낳고 있는 현행 소선거구제를 '민심 그대로' 선거 결과를 낼 수 있는 제도로 바꾸는 게 정치 개혁의 첫 번째 작업이라는 문제 의식에서다. 선거제도 개혁의 당위성은 여야 5당 공히 인정하는 부분이다. 그러나 제도 개혁의 합의점을 도출하는 노력은 지지부진했다. 이들은 "1년 3개월 전 시민사회와 학계의 대다수 인사들은 '선거제도가 먼저'라는 문재인 대통령의 입장을 충분히 이해하고 그 뜻에 전적으로 동의하였다. 사실 지금의 국회가 민의를 제대로 대변하고 있다고 보기는 어렵다"고 지적했다. 이어 이들은 "의회중심제로 가고자한다면, 국회가 먼저 우리 사회 구성원들의 선호와 이익, 갈등과 대립 양상을 있는 그대로 반영할 수 있는 대의 기구로 바로 서야 한다. 그러기 위해선 주요 사회경제 집단의 정치적 대표성을 두루 보장해줄 수 있는 선거제도의 도입이 필요하다"며 "결국 선거제도의 개혁으로 국회가 진정한 민의 대표 기구로 거듭나야 그 국회를 중심으로 하는 권력구조가 제대로 작동할 수 있다. 선거제도의 개혁이 분권형 권력구조의 개편보다 앞서 이루어져야 하는 까닭"이라고 했다. 이들은 "애석하게도, 수많은 시민들이 존경해마지않던 노회찬 의원은 먼저 하늘나라로 갔지만, 선거제도를 개혁하여 힘 있고 실력 있는 약자 대표 정당을 여럿 띄우고 싶어 했던, 그리하여 누구나 더불어 잘 사는 세상을 만들고 싶어 했던 그의 그 아름다운 뜻은 정의당만이 아니라 민주평화당과 바른미래당 등에 의해서도 올곧게 이어져가고 있는 형국"이라고 지적했다. 이들은 "하루라도 빨리 정당 득표율과 의석 배분율 간의 비례성이 보장되는 '민심 그대로 선거제도'가 도입돼야 한다. 그래서 노동자, 소상공인, 청년 등의 사회경제적 약자를 대표하는 유력 정당들이 입법부와 행정부에 상시적으로 포진해 있도록 해야 한다"고 지적했다. 이들은 "지금이 선거제도 개혁의 최적기이다. 문재인 대통령과 5당 원내대표 간의 8월 16일 회동에서는 지난 1년 사이에 일어난 변화의 의미를 잘 파악하여 부디 그에 부합하는 건설적인 합의가 이루어지길 바라마지 않는다"고 문 대통령과 여야 5당에 촉구했다. 서명자 명단 (68명 : 2018년 8월 15일 정오 현재)강남훈 한신대 교수강원택 서울대 교수김규완 고려대 교수김누리 중앙대 교수김명환 서울대 교수김미곤 한국보건사회연구원 선임연구위원김신동 한림대 교수 김연태 고려대 교수김영순 서울과기대 교수김용일 한국해양대 교수김용진 서강대 교수 김윤상 경북대 교수 김윤태 고려대 교수김진방 인하대 교수 김형철 성공회대 연구교수김호균 명지대 교수남기업 토지+자유연구소 소장박명림 연세대 교수박배균 서울대 교수박순성 동국대 교수 박재현 인제대 교수 박지웅 영남대 교수박창근 가톨릭관동대 교수선대인 선대인경제연구소장 선학태 전남대 명예교수송원근 경남과기대 교수 송태수 고용노동연구원 교수신동면 경희대 교수신호창 서강대 교수 안용흔 대구가톨릭대 교수안효상 기본소득네트워크 상임이사양준호 인천대 교수엄민희 텍사스대 교수우석훈 성공회대 외래교수유용태 서울대 교수유종성 가천대 교수윤용만 인천대 교수윤홍식 인하대 교수이대근 경향신문 논설고문이병천 강원대 명예교수이병한 원광대 교수이병훈 중앙대 교수이상이 제주대 교수이삼성 한림대 교수이정우 경북대 명예교수이종훈 명지대 교수이준호 서울대 교수이태경 헨리조지포럼 사무처장 이호근 전북대 교수임강택 통일연구원 선임연구위원전강수 대구가톨릭대 교수전성인 홍익대 교수전현수 경북대 교수 정동훈 광운대 교수 정상호 서원대 교수 정용욱 서울대 교수정원호 한국노동사회연구소 연구위원 정인환 협성대 교수조돈문 가톨릭대 교수조세영 동서대 교수조애리 카이스트 교수최배근 건국대 교수최상명 우석대 교수최영찬 서울대 교수최태욱 한림국제대학원대 교수홍경준 성균관대 교수 홍승권 가톨릭관동대 교수홍윤기 동국대 교수다음은 성명서 전문대통령과 여야 5당 원내대표의 8월 16일 회동에 즈음하여 선거제도 개혁 촉구 교수․연구자 긴급 선언2018년 8월 16일 문재인 대통령과 여야 5당 원내대표가 청와대에서 오찬 회동을 하기로 한 것은 심각한 기능저하에 빠져있는 우리나라의 민주주의를 살리기 위해 대통령과 의회 지도자들이 모처럼 머리를 맞대는 것으로 크게 환영할만한 일이다. 대통령과 여야 원내대표의 만남은 대선 직후인 2017년 5월 19일 이후 1년 3개월 만이다. 첫 번째 만남에서 대통령은 국회가 진정한 민의 대변 기구로 거듭날 수 있도록 선거제도가 개혁된다면 분권형 대통령제가 아니라 의원내각제로의 개헌도 가능하리라고 말한 바 있다. 국회가 비례성 높은 선거제도를 도입한다면 대통령인 자신도 지금의 대통령중심제를 의회중심제로 전환하는 것에 찬성하겠다는 뜻을 분명하게 밝힌 것이다. 사실 비례성이 보장되는 선거제도의 도입은 문재인 대통령의 지론이기도 하다. 2012년 대선 정국에서 당시 문재인 후보는 권역별 비례대표제로의 개혁을 공약으로 내세웠다. 그리고 그가 새정치민주연합의 당 대표였던 2015년 8월에는 ‘권역별 소선거구-비례대표 연동제’의 도입을 공식 당론으로 채택했다. 그 권역별 연동제의 도입은 2017년 대선 때도 그의 공약이었다.1년 3개월 전 시민사회와 학계의 대다수 인사들은 ‘선거제도가 먼저’라는 문재인 대통령의 입장을 충분히 이해하고 그 뜻에 전적으로 동의하였다. 사실 지금의 국회가 민의를 제대로 대변하고 있다고 보기는 어렵다. 비정규직 노동자, 소상공인, 청년 등의 사회경제적 약자들은 하루하루를 살아내기가 어려워 불안과 공포 속에 허덕이고 있는데, 막상 국회 안엔 그들을 대표하는 정당과 정치인이 별로 없기 때문이다. 지역 기반 정당들, 이를테면 ‘영남당’과 ‘호남당’은 있을지언정, 유력한 ‘비정규직 노동자당’이나 ‘소상공인당’은 존재하지 않는 게 사실이지 않는가. 의회중심제로 가고자한다면, 국회가 먼저 우리 사회 구성원들의 선호와 이익, 갈등과 대립 양상을 있는 그대로 반영할 수 있는 대의 기구로 바로 서야 한다. 그러기 위해선 주요 사회경제 집단의 정치적 대표성을 두루 보장해줄 수 있는 선거제도의 도입이 필요하다. 결국, 선거제도의 개혁으로 국회가 진정한 민의 대표 기구로 거듭나야 그 국회를 중심으로 하는 권력구조가 제대로 작동할 수 있다는 것이다. 선거제도의 개혁이 분권형 권력구조의 개편보다 앞서 이루어져야 하는 까닭이다.다행히도, 지난 1년 3개월 사이 정치사회엔 유의미한 변화가 있었다. 무엇보다, 자유한국당이 상당히 변했다. 6.13 지방선거 이전처럼 선거제도 개혁에는 무조건 반대하고 오직 권력구조 개헌만을 고집하는 분들이 줄고 있다. 약자를 위한 포용의 정치를 작동하지 않으면 사회해체의 위기가 닥쳐오리라는 걸 걱정하는 분들이 늘고 있다. 개중에는 심지어 비례성의 원칙이 지켜지는 선거제도가 자유한국당의 미래에도 유리하다고 주장하는 분들도 더러 있다. 김병준 비대위원장은 과거 노무현 정부에서 일할 때 어느 누구보다도 가장 열성적으로 선거제도 개혁을 주창했던 분이기도 하다. 선거제도 개혁을 완수해내겠다는 민주평화당의 의지와 각오는 정의당을 압도할 만큼 뜨거워졌다. 바른미래당도 선거제도 개혁에 관한 열정에 있어 민주평화당이나 정의당과 크게 다르지 않다. 이 세 정당은 개혁입법연대의 성공은 선거제도 개혁에 대한 민주당의 태도에 달려 있다고 주장할 정도이다. 애석하게도, 수많은 시민들이 존경해마지않던 노회찬 의원은 먼저 하늘나라로 갔지만, 선거제도를 개혁하여 힘 있고 실력 있는 약자 대표 정당을 여럿 띄우고 싶어 했던, 그리하여 누구나 더불어 잘 사는 세상을 만들고 싶어 했던 그의 그 아름다운 뜻은 정의당만이 아니라 민주평화당과 바른미래당 등에 의해서도 올곧게 이어져가고 있는 형국이다. 하루라도 빨리 정당 득표율과 의석 배분율 간의 비례성이 보장되는 ‘민심 그대로 선거제도’가 도입돼야 한다. 그래서 노동자, 소상공인, 청년 등의 사회경제적 약자를 대표하는 유력 정당들이 입법부와 행정부에 상시적으로 포진해 있도록 해야 한다. 그래야 양극화 심화, 비정규직 노동자와 영세 자영업자의 급증, 청년의 불안과 좌절 등과 같은 우리나라의 심대한 사회경제 문제들이 근본적으로 해결될 수 있다. 지금이 선거제도 개혁의 최적기이다. 문재인 대통령과 5당 원내대표 간의 8월 16일 회동에서는 지난 1년 사이에 일어난 변화의 의미를 잘 파악하여 부디 그에 부합하는 건설적인 합의가 이루어지길 바라마지 않는다. 짧게는 작금의 여소야대 난국을 헤쳐 나갈 연대와 협력의 정치를 위해, 길게는 경제민주화와 복지국가의 건설 그리고 지속가능한 성장을 가능케 할 합의제 민주주의의 발전을 위해, 대통령과 의회 지도자들이 선거제도 개혁에 관한 기본 틀과 방향 그리고 일정 등에 대승적으로 합의해주길 간절한 마음으로 촉구하는 바이다. 2018년 8월 15일'민심 그대로 선거제도'의 도입을 촉구하는 교수․연구자 일동  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ⓒ전북대병원      전북대학교병원 의생명연구원 개원 27주년을 기념하고 보건의료기술연구개발사업인 연구중심병원 R&amp;D; 육성사업을 활성화하기 위해 지난 26일 임상연구지원센터에서 심포지엄을 개최했다.  이번 심포지엄은 전북대병원이 서울아산병원과 컨소시엄을 구성해 ‘연구중심병원 육성(R&amp;D;) 지원’ 신규과제로 선정된 ‘4차 산업혁명 HCT(사람중심융합기술) 진료-케어 신산업 생태계구축’을 주제로 진행됐다.  조남천 병원장은 환영사를 통해 “우리 전북대병원이 서울아산병원과 컨소시엄을 구성해 2018년 연구중심병원 R&amp;D; 신규과제로 선정을 받게 된 것은 이미 검증된 여구중심병원이 컨소시엄에 참여하는 지방병원을 지원해 연구역량을 높일 수 있도록 지방병원을 육성하는데 큰 의미가 있다”면서 “이번 심포지엄이 양 기관의 상호협력을 강화해 연구 과제를 진행하는데 있어 더욱 탄력을 받길 바란다”고 말했다.  이날 심포지엄은 연구중심병원 세부과제의 책임교수(신경과, 종양내과, 핵의학과, 정신건강의학과)들이 참석해 주제발표를 진행했고, KAIST 명상과학연구소 김완두 소장이 ‘마인드풀니스 명상의 치료적 컴패숀 명상’을 주제로 강의했다.   전북대병원 박성광(신장내과) 교수와 원광대병원 윤권화(의생명연구원장) 교수가 좌장으로 참여한 심포지엄에서는 △HCT기반 미래형 뇌질환 헬스케어(강동화 서울아산병원 신경과) △HCT 기반 스마트 암 헬스케어(김태원 서울아산병원 종양내과) △HCT 기술 구현을 위한 암, 뇌질환 진단/치료용 방사성의약품개발(서울아산병원 핵의학과) △HCT기반 인지정서장애 헬스케어(정영철 전북대병원 정신건강의학과) 등에 대한 발표가 이어졌다.  한편 연구중심병원 연구개발 사업은 보건복지부가 병원들이 진료 위주에서 벗어나 임상 지식을 활용해 개방형 융합연구 기반을 구축하고 연구 역량을 높이면서 기술사업화 성과를 내기 위해 추진하고 있는 사업이다.  전북대병원은 서울아산병원과 컨소시엄을 구성해 연구중심병원 육성사업 신규과제에 선정됐으며, 제4부과제로 인지정서장애(조현병, 치매, 자살, 우울)의 인공지능기반 조기진단 및 치료를 위한 플랫폼 구축 구제를 수행하게 된다.   세부과제 수행은 정영철(정신건강의학과, 의생명연구원 원장) 교수가 연구책임자이며 참여 연구원으로 김회린 교수(KAIST), 신병수 교수(전북대병원 신경과), 김고운 교수(전북대병원 신경과), 김민걸 교수(전북대병원 임상약리), 오석일 교수(전북대 컴퓨터공학부), 오강한 박사(전북대 컴퓨터공학부)가 공동 연구를 하게 된다.   연구 내용으로는 △기능자기공명영상을 이용하여 조현병과 자살/우울에 대한 인공지능 기반 진단 및 예후 예측 기술의 개발 △음성 분석을 통한 인지기능 저하, 조현병, 자살/우울을 진단할 수 있는 VoiceBot 개발 등의 효과 및 부작용에 대한 설명, 부작용 대처 요령 등을 인공지능 기반으로 대답해주는 ChatBot 개발, △마음챙김 명상을 기상현실로 경험할 수 있게 하는 동영상 개발 등이 포함되어 있다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ▲   허태정 대전시장이 KAIST 주최 코로나19 극복을 위한 온라인 국제 포럼서 기념사를 하고있다 ⓒ 대전시   허태정 대전시장이 2년 후 대전에서 열리는 세계 지방정부 연합총회를 세계 지방정부들과 감염병 공동대응을 위한 협력방안 모색의 기회로 삼겠다는 뜻을 밝혔다. 대한민국의 코로나 19 대처가 세계적인 모범사례로 평가받는 만큼 2년 후 열릴 세계 지방정부 연합총회 주최 도시로서 자국의 모범적인 방역체계를 기반으로 전 세계 지방정부 간 감염병 대응 협력체계를 이끌어 내겠다는 의지로 풀이된다. 허시장은 22일 “2년 후 대전에서 열리는 세계 지방정부 연합총회(UCLG)에서 전 세계 지방정부 지도자들과 감염병 공동 대응을 위한 협력방안을 모색하겠다”라고 말했다. 또한 이날 오전 한국 과학기술원(KAIST)이 온라인으로 주최한 글로벌전략연구소-국제포럼 2020(GSI-IF2020)에서 축사를 통해 “전 세계가 겪고 있는 코로나 19를 극복하고 포스트 코로나 19를 위한 소중하고 의미 있는 글로벌 협력방안을 이끌어내는 계기가 될 것”이라며 이 같이 말했다. 이날 축사에 나선 정세균 국무총리도 우리 정부의 투명성과 개방성, 민주적 절차의 기본 원칙에 기반한 방역대책 성공 사례를 소개해 세계 각국 전문가들의 관심을 모았다  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 황교안 자유한국당 대표를 비롯해 나경원 원내대표 등 소속 의원들과 토론자 등 관계자들이 파이팅을 외치고 있다. ⓒ송언석 의원실       자유한국당 송언석 의원(경북 김천, 국토교통위원회)이 14일 최근 심각하게 대두되고 있는 미세먼지 대책방안을 논의하기 위한 토론회를 14공동 개최했다.  송 의원은 이날 오전 국회 의원회관에서 한반도선진화재단과 공동으로 개최한 토론회에서 황교안 대표를 비롯한 나경원 원내대표, 정용기 정책위의장 등 당 지도부와 이완영, 백승주, 이만희 의원 등이 다수 참석했다.  이날 주제발표에 나선 카이스트 원자력·양자공학과 정용훈 교수는 ‘미세먼지와 에너지 믹스’란 주제로 미세먼지가 인체에 끼치는 악영향을 분석하고 석탄·LNG 발전이 유발하는 미세먼지가 정부 발표보다 각각 2배, 8배 많을 수 있다는 연구결과를 공개했다.  그러면서 정 교수는 “초미세먼지로 인한 연간 조기 사망자 11,900명은 결코 무시할 수 없는 위험이며, 초미세먼지가 방사능 피폭보다 100배 위험하다”며 원자력을 포함한 전력생산의 무탄소화를 주장했다.  주제발표에 이어 설성인 조선비즈 차장, 정서용 고려대 국제학부 교수, 이종태 고려대 보건과학대학 교수의 토론이 진행됐다.  송언석 의원은 “우리나라에서 석유나 가스가 나오는 것도 아니다. 우리가 만들 수 있는 것은 원전밖에 없다”며 “미세먼지로 경제까지 악영향을 받는데 정부는 원전을 줄이고 석탄발전을 늘리며 거꾸로 가고 있다”고 강조했다.  이에 “탈원전 정책 폐기와 중국의 협력 확보의 뚜렷한 답이 나와 있는 만큼 문재인 정부는 즉각 나서야한다”며 “미세먼지 문제로 어려움을 겪고 있는 아세안 국가들과 함께 미세먼지 문제 해결을 위한 협정을 맺는 방법도 고려할 필요가 있다”고 제안했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      문재인 대통령은 30일 주미, 주일, 주중대사에 조윤제 카이스트 금융전문대학원 초빙교수, 노영민 더불어민주당 전 의원, 이수훈 경남대 정치외교학과 교수를 각각 내정했다. 이로써 취임 100일을 훌쩍 넘겨 주요 4강 중 러시아를 뺀 3개국 대사를 확정했다. 조윤제 신임 주미대사 내정자는 지난 대선 때 문 대통령의 싱크탱크 '정책공간 국민성장' 소장으로 기여했으며, 새 정부 출범 초부터 경제 및 외교 분야에서 두루 중책 기용이 거론됐던 인물. 지난 5월 말에는 문 대통령의 특사로 임명돼 유럽연합 및 독일을 방문했었다. 경제학자 출신으로 노무현 정부 시절 대통령 경제보좌관을 지낸 조 대사는 주 영국 대사를 역임하기도 했다. 하지만 비(非) 외교관 출신인데다 북한 문제와 북미관계를 직접 다뤄본 경험이 없어 적지 않은 약점으로 작용할 것으로 보인다.박수현 청와대 대변인은 "조 내정자는 주미대사라는 중책을 맡아 한미 FTA, 북핵 등 굵직한 외교 현안을 해결하는 가교 역할을 훌륭히 수행함으로써 한미동맹 강화와 국익 증진에 기여할 것"이라고 했다.노영민 주중대사 내정자는 일찌감치 주중대사 자리가 확실시됐던 인물. 그는 2012년 대선 때 문재인 후보 비서실장을 지냈으며, 이번 대선에서는 경선 캠프와 본선 선대위에서 조직본부장을 맡아온 문 대통령의 측근으로 꼽히고 있다.박 대변인은 "사드와 경제 재재 등 복잡한 외교 현안을 원만하게 해결하고 25주년을 맞는 한중관계를 보다 공고히 할 것으로 기대한다"고 밝혔다.이수훈 주일대사 내정자는 노무현 정부 시절 대통령자문 동북아시대위원회 위원장을 지냈다. 지난 2012년 대선 때부터 문재인 캠프 산하 남북경제연합위원회 위원을 맡는 등 문 대통령과 인연이 깊다. 새 정부 출범 뒤엔 국정기획자문위원회 외교안보분과 위원장을 맡았다.박 대변인은 "복잡하게 얽힌 과거사와 역사 문제를 매듭짓고 한일 관계의 미래지향적 발전에 기여할 것으로 기대한다"고 밝혔다.청와대는 이날 해당 국가에 내정자들에 대한 아그레망(주재국 승인)을 요청했으며, 최종 승인을 얻기까지는 일주일 가량 소요될 것으로 예상하고 있다.4강 대사 가운데 이번 인사 발표에서 빠진 주러대사에는 김홍균 외교부 한반도평화교섭본부장, 오영식 민주당 전 의원, 장호진 전 국무총리실 외교보좌관 등이 하마평에 오르고 있다. 한편 로이터통신은 이날 신임 주한 미국대사에 빅터 차 조지타운대교수가 내정됐으며 도널드 트럼프 대통령이 조만간 이 같은 사실을 발표할 것이라고 보도했다. 그는 2004년 미국 백악관 국가안보회의(NSC) 아시아담당 국장을 지냈으며, 현재 미국 싱크탱크인 전략국제문제연구소(CSIS) 한국 석좌로 활동하고 있다. 북한과 중국에 대한 강경한 압박 정책을 주장하는 '매파'로 분류되는 인물이어서 우리 정부의 기조와 엇박자가 예상된다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      지난 3월 알파고와 이세돌 9단의 대국으로 전국은 인공지능 열기에 들떴다. 일부의 미래학자와 SF 소설가들 사이에서 회자되던 지능을 가진 기계가 사람들의 상상에만 있는 것이 아니라 현실이 될 수도 있다는 점에서 인공지능 논란은 일부 전문가들의 주제에서 대중적 주제로 발전했다. 미래를 고민하는 여유가 없는 한국사회에서 좀처럼 보기 어려운 기회였다. 그런데 알파고가 암시하는 미래 사회의 경제적 모습 중에는 상당 규모의 직업 변화 가능성이 있다. 지금까지의 컴퓨터는 프로그래밍 된 작업만 수행하는 기계여서 인간 노동의 생산성을 높이는 보조자의 역할을 했다. 반면 추상화 능력과 직관적으로 판단하고 추론하는 능력을 가진 오늘날의 인공지능은 인간만이 수행할 수 있다고 간주되던 일단의 직업군들을 대체할 수도 있을 것이다. 이로 인해 지금까지 현대자본주의를 지탱해 온 노동과 생산 패러다임에 큰 격변이 일어날 수 있다. 카이스트의 뇌과학 전문가 김대식 교수는 인공지능의 발달에 따라 생산과 소비의 연결고리가 끊어질 것이며, 이로 인해 기존의 사회 보장 제도는 크게 변화해야 한다고 말했다. 즉 지능을 가진 기계가 이전에 인간의 노동이 했던 영역을 상당 부분 대체하면서 물질적, 비물질적 생산의 혁명이 발생하지만 이렇게 생산된 재화와 서비스를 누가 소비할 것인가의 문제를 해결하지 못한다는 것이다. 즉, 기계가 생산한 재화와 서비스를 소비할 수 있게 하는 사회적 장치를 필요로 하게 된다.여기서 그는 사회적 생산과 소비의 고리를 연결하는 수단으로서 기본소득의 필요성을 인정한다. 물론 동시에 무언가 가치있는 일을 하지 않고 단순히 소득만 주는 것으로는 인간성의 황폐화가 발생할 수 있다고 우려하기도 한다. 그러므로 단순히 복지정책의 골격을 기본소득으로 하냐 마냐의 문제만이 아니고, 교육제도와 경제질서의 전반적 변화가 같이 수반되어야 한다는 것이다.   ▲ 핀란드 정부는 최근 기본 소득 정책 도입을 추진하고 있다. ⓒ게티이미지뱅크   인공지능 등장으로 생산주의, 노동주의가 폐기된다면?필자는 이 문제와 관련하여 사고하고 토론하는 일이 열려있어야 한다고 당연히 생각하면서 인간의 상상력과 창조력이 얼마나 중요한가라는 점을 느꼈다. 우리 사회는 알파고가 이세돌 9단을 꺾었을 때에야 깜짝 놀랐지, 사실 이 이벤트가 없었다면 미래를 준비하기 위한 선각자들의 많은 이야기를 또 다른 황당한 소리로 치부하고 말았을 것이 아닌가?여기에 그렇게 치부되고 있는 하나의 정책이 있다. 그것은 성남시에서 하는 청년배당 정책이다. 성남시는 지난 1월 '3년 이상 시내에서 거주한 만 24세 청년에게 1분기 배당금으로 12만5000원 상당의 지역화폐(성남사랑상품권)를 지급했다.'고 발표했다. 단 두 줄에 요약된 이 뉴스는 부족한 이 지면에서 다룰 수 없는 수많은 논점을 포함한다. 언뜻 들었을 때 '왜 24세의 청년에게, 왜 12만5000원을, 왜 성남사랑상품권으로 주나?'라는 의문이 들 것이다. 알파고에서 성남사랑상품권까지의 연결고리는 '기본소득'에 의해 이어진다. 기본소득 정책은 오랫동안 학계에서 연구되어져 왔는데, 최근 들어 갑자기 핀란드, 스위스, 영국, 프랑스 등의 정책 당국자의 입에서 제기되었고, 뉴욕타임스, 브루킹스 연구소, 미국의 벤처 투자자와 같은 주류 언론, 연구진, 자본가들도 이 필요성을 인정하면서 뉴스에도 상당히 오르내리고 있다. 기본소득이 기존의 복지정책과 달라지는 결정적 지점은 복지를 소득, 노동과 연계하지 않는다는 점이다. 전통적 복지정책은 저소득층을 중심으로 이루어진다. 여기서 복지는 생존권이자, 사회(국가)의 시혜가 되는 셈이다. 복지 수혜자의 경우, 소득이 증가하면 수혜 대상에서 제외되므로 근로 유인에 역으로 작용하는 부작용이 있어 노동 패러다임에서 출현한 복지정책이 역설적으로 노동 패러다임과 충돌하는 문제를 가지고 있었다. 이는 노동과 연계한 복지, 즉 생산적 복지 논의로 이어졌고, 결국은 복지정책이 국민경제에 부담으로만 인식되는 수준에 도달했던 것이다. 반면 기본소득은 노동을 조건으로 걸지도 않고 소득 수준과 연계하지 않는다. 시민이라면 모두 받을 수 있는 기본권인 것이다. 여기서 전통적 복지정책과 철학적으로 달라진다는 점을 알 수 있다. 따라서 직관적으로 간단한 기본소득이라는 아이디어에 일반 시민들이 반감을 가진다면 아마도 이 아이디어가 반노동적이어서가 아닌가라고 생각해본다. 그러나 우리 사회의 근간인 생산주의, 노동주의가 언젠가 폐기되어야 할 원리라고 한다면 어떻게 할 것인가? 여기서 다시 알파고의 사례로 돌아가보자. 만약 알파고가 던진 문제가 단순히 일회적 에피소드가 아니고 장기적 경향으로 나타난다면 (기를 쓰고 인공지능 기술 개발에 투자하는 전 세계적 경향을 볼 때 인류는 자기도 모르게 어떤 특이점을 넘어버릴 가능성이 매우 높다) 기존의 생산주의, 노동주의적 패러다임만으로서는 인류의 미래사를 이해할 수도 없고, 미래 인류의 문제를 해결하기가 매우 어려울 수 있다. 성남사랑상품권이 전자화폐와 결합한다면?이런 점에서 기본소득 아이디어는 단순히 황당한 생각으로 치부할 것이 아니라, 알파고에 걸맞는 관심과 대접을 받을 필요가 있다는 것이다. 이미 선진국에서 그렇게 관심을 보이고 있질 않은가? 현재 한국 사회에서 시민의 의식 수준, 정치권과 정책당국자의 이해관계로 인해 순수한 형태의 기본소득이라는 방식은 연구단계에서만 머물러 있었다. 그런데 성남시의 성남사랑상품권은 기본소득에 관한 순수한 아이디어가 구체화 되는 과정을 잘 보여준다는 점에서 매우 흥미롭다. 앞에서 이야기 했듯이 기본소득은 철학적 기반 자체가 생산주의와 노동주의에 익숙한 우리가 쉽게 받아들이기는 생소하다. 그러나 우리 경제는 이미 실업의 구조화, 만성화가 현실이 되어 있고, 다른 한편 비정규직과 빈곤한 소상공인의 문제도 구조적으로 만성화되어 있다. 이는 미래가 아니라 현실의 문제다. 빈곤과 직업의 부족에 대해서는 기본소득을 지급하고, 소상공인이라는 열악한 생산자들에 대해서는 기본소득을 쓰게 해서 이 양 계층을 연결해 본다는 실험, 이것이 성남사랑상품권의 창의성이 아닐까? 성남사랑상품권은 성남에서만 유통되는 지역화폐로 볼 수 있다.이제 성남시의 실험을 여, 야의 정쟁의 대상으로 볼 것이 아니라, 과거와 미래의 논쟁으로 보아야 할 것이 아닌가라는 생각을 해 보았다. 필자가 성남시 관련 기사에서 상품권 한 다발을 들고 환하게 웃고 있는 재래시장 상인의 모습을 보았는데, 좀 더 창의적인 사고를 해서, 종이 상품권이 아니라 전자화폐와 결합한 상품권을 만들어 유통시켜보면 어떨까라는 생각을 했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲박형민 세종시 경제산업국장은 30일 시청 정음실에서 열린 정례브리핑을 통해 올해 주요 업무계획을 밝히고 있다. ⓒ프레시안(김수미)       세종시가 올해 자율차·빅데이터 등 미래 신산업 거점도시 조성을 위한 다양한 시책을 추진한다.  박형민 세종시 경제산업국장은 30일 시청 정음실에서 열린 정례브리핑을 통해 “올해는 지역화폐 발행 등을 통해 지역상권의 활력을 제고하고 자율차와 함께 바이오, 데이터 등 지역유망 신산업을 적극 발굴 육성하겠다”고 밝혔다.  이어 “스마트 국가산단을 조성해 소상공인과 기업이 보다 발전할 수 있는 다양한 시책을 추진하겠다”고 말했다.  그러면서 “미래 신성장 산업 육성 발굴을 위해 자율차 규제특구, 국책연구개발(R&amp;D;)사업 등을 활용해 자율차 실증을 확대하고 관련 인프라를 확충함으로써 자율차를 최초로 상용화하는 도시로 만들겠다”고 강조했다.  또 “지난해 9월 유치한 네이버 클라우드 데이터 센터의 원활한 설립을 지원하고 데이터센터와 관련한 기업과 빅데이터 및 AI 산업의 유치활동도 적극 추진할 계획”이라고 덧붙였다.  아울러 “다음달 한국과학기술원(KAIST) 내 바이오합성연구단을 산학연클러스터로 이전 개소하고 하반기에는 바이오메디컬활성소재센터 등을 통해 연구장비 구축과 기술이전 및 산학협력 등을 지원해 바이오분야 신산업 육성 기반을 만들어 가겠다”고 밝혔다.  또한 지역 특성을 반영한 일자리 사업을 추진해 고용률 67.5%를 목표로 시민이 체감하는 양질의 일자리를 창출한다는 방침이다.  더불어 “세종시 인적자원개발위원회와 한국산업인력공단 세종지사를 설립해 고용서비스 유관 기관을 확대하고 안정적인 고용정책 추진기반을 조성할 계획”이라고 설명했다.  이와 함께 “우수 스타트업과 중소기업 및 사회복지기관 등을 대상으로 지역주도형 일자리사업을 계속 추진하고 이전공공기관 채용 합동설명회를 개최해 지역 청년과 대학생의 취업 확대를 위해 노력하겠다”고 말했다.  박 국장은 ‘세종시가 좋은 일자리 창출을 위해 시민들의 전공분야 파악 등 준비를 어떻게 하고 있는지’에 대해 “올해 세종시가 대전세종인적자원위원회서 분리돼 독자적으로 세종 특성에 맞는 자료 수집이 가능해 졌다”며 “고용창출에 맞는 일자리와 지원계획을 수립해 지원해 나갈 계획”이라고 밝혔다.  이어 ‘산업단지 입지 조성을 위해 박차를 가한다고 했는데 공간이 어디인지’에 대해 “현재 3개 산업단지가 준비 중”이라며 “벤처밸리는 보상이 진행 중이고 한 곳은 전동면 신중리, 다른 곳은 전의면에 위치한 전동산단이 현재 보상이 진해중이다. 전의면 신방리 일원은 개발계획 고시를 하고 내년 보상에 들어갈 계획”이라고 설명했다.  이와함께 ‘상가공실률에 대한 향후 계획’에 대해 “공급측면서 이미 공급이 진행돼 이를 줄일 수는 없고 공급을 최대 자제하는 방법으로 행복청과 협의할 것”이라고 말한 뒤 “소상공인 자생력강화와 지역화폐 발행 등을 추진할 것”이라고 말했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      진주 국립경남과학기술대(총장 김남경)는 에너지공학과 오현철 교수와 Texas A&amp;M; 대학의 머트 아티란(Mert Atilhan) 교수, KAIST 자패르 야부즈(Cafer T. Yavuz) 교수 공동연구진이 유연하지만 견고한 다공성 공유결합 유기 폴리머(porous covalent organic polymers)를 이용하여 초고효율 메탄(천연가스) 저장 소재를 개발했다고 15일 밝혔다.  해당 내용은 Nature Energy (네이처 에너지, 인용지수(IF) 54.0)의 최신 호인 2019년 7월호에 게재됐다.  천연가스는 액화 또는 압축 방법을 이용하여 저장하고 있으나 비용이 고가이다. 따라서 대안으로 다공성 물질에 흡착해 저장하는 방식에 대한 연구가 많이 진행되고 있다.      ▲경남과기대 에너지공학과 오현철 교수.ⓒ 경남과기대    하지만, 미국 에너지 성(DOE)에서 요구하는 상용화 가능한 목표치(0.5 g g−1, 263 l l−1)에 사용 가능한 저장능력(working capacity)이 도달하는 물질은 현재까지 개발이 안 됐다.  이번 연구에서는 유연하지만 견고한 다공성 공유결합 유기 폴리머를 성공적으로 합성하고 천연가스 저장능력을 측정 했다.  합성된 폴리머의 단단한 성질 때문에 저압에서는 천연가스 저장량이 매우 낮았으나 고압으로 가면 유연한 구조가 열리면서 급격한 천연가스 저장능력 향상을 보여주었다.  해당 결과는 미국 에너지 성에서 요구하는 상용화 가능한 목표치를 상회하는 연구 결과로 새로운 천연가스 저장 시스템 구현에 크게 기여할 것으로 보고 있다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ▲행복청이 오는 8월27일 입주설명회와 9월 입주공고를 내고 공동캠퍼스 입주를 돕는다. 행복도시 공동캠퍼스 조감도 ⓒ행복청     행정중심복합도시건설청(청장 이문기, 이하 행복청)은 세종특별자치시 금남면 집현리(4-2생활권)에 조성하고 있는 공동캠퍼스에 대한 입주설명회와 입주공고를 실시한다고 22일 밝혔다. 오는 8월27일 열리는 입주설명회는 최근 전국의 유수 대학들이 공동캠퍼스에 대해 높은 관심을 보이고 있는데 따른 것으로 공동캠퍼스 입주에 체계적인 준비를 할 수 있도록 도움을 주기 위해 개최된다. 입주설명회에서는 공동캠퍼스 추진현황, 임대형 캠퍼스의 임대료와 분양형 캠퍼스의 토지분양가를 공개하고, 신청서류, 입주공고, 입주심사위원회의 입주심사 등 입주일정 및 절차를 상세하게 안내할 예정이다. 입주공고에는 임대형 캠퍼스와 분양형 캠퍼스로 나누어 각각의 위치과 규모, 임대료 및 분양가, 신청기간 등의 내용이 포함되며, 입주신청은 대학․외국교육기관, 국내․외 연구기관이 할 수 있다. 행복청은 공동캠퍼스 입주를 신청한 대학들을 대상으로 전문가로 구성된 ‘공동캠퍼스 입주심사위원회’에서 공정하고 합리적으로 심사를 진행할 예정이다. 입주심사위원회에서는 입주계획의 구체성·타당성, 재원확보계획의 실현가능성과 산학연 협력 활성화 계획에 따라 도시발전에 미치는 효과 등이 공동캠퍼스 조성 및 운영계획과 일치하는지를 중점적으로 심사할 계획이다. 한편 행복도시 공동캠퍼스에 대해 지속적으로 관심을 기지고 있던 카이스트가 지난 2018년 5월 입주협의각서를 체결한 것을 시작으로 2018년 11월에는 충남대가, 올해 5월에는 고려대, 이번 달에는 충북대, 공주대, 한국개발연구원 국제정책대학원 등이 행복청과 공동캠퍼스 입주 협의각서를 체결했다. 행복청은 입주공고 등을 통해 정확한 입주수요를 파악하여 공동캠퍼스 조성․운영계획 및 설계 등에 반영함으로써 공동캠퍼스 조성사업의 완성도를 더욱 높일 계획이다. 또한 지난 2018년 4월에 공동캠퍼스 조성 및 운영 근거를 담은 행복도시법 및 시행령을 개정·시행하고 교육부와 협의를 통해 공동캠퍼스 입주대학 설치·운영 고시 및 공동캠퍼스 입주절차 및 승인기준을 마련하는 등 제도정비를 완료했다. 이어 올해 2월에는 공동캠퍼스 설계공모를 통해 당선작을 선정했으며, 오는 2021년 부지조성 및 임대형 캠퍼스 건축공사에 착공해 2023년까지 준공하고 2024년 3월 개교한다는 계획이다. 김복환 행복청 도시계획국장은 “분양형과 임대형 캠퍼스가 함께하는 형태로 대학 및 연구기관 등이 입주하는 국내 최초의 캠퍼스 모델인 공동캠퍼스 조성 사업이 반드시 성공할 수 있도록 최선의 노력을 다하겠다”라고 말했다.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      새누리당과 더불어민주당, 국민의당 세 정당이 4일 각 당의 20대 총선 공천 과정을 관리·진행할 공천관리위원회 위원장 등 일부 인사를 확정하고 발표했다. 새누리당 공천관리위원장은 친박계가 추천해 온 이한구 의원으로 확정됐다. 부위원장 겸 간사에는 비박계의 지지를 받는 황진하 사무총장이 임명됐으며 그 외 당내 위원으로는 홍문표 제1 사무부총장과 박종희 제2 사무부총장, 총선 불출마를 선언한 김회선 클린공천지원단장이 선정됐다. 새누리당 공관위원은 총 12~13명으로 구성될 것으로 알려졌다. 아직 발표되지 않은 나머지 위원들은 모두 당 외부에 있는 비정치권 인사가 인선된다. 4선의 이한구 의원은 16대를 제외하곤 17·18·19대 총선에서 대구 수성갑을 지역구로 당선된 대표적인 TK(대구·경북) 의원이자 친박계 의원이다. 내년 총선은 불출마를 선언한 이 의원은 '상향식 공천' 사수에 매달리고 있는 김무성 대표와는 달리 일종의 하향식 공천인 '전략 공천'에 비교적 호의적인 입장으로 알려져 있다. 친박계로선 이런 이 의원이 공관위원장에 임명됨으로써, 계파 입장을 공관위 논의 테이블에 반영할 든든한 통로를 확보한 셈이 됐다. 이 의원은 최근 한 언론 인터뷰에서도 "국민에게 신망을 받지 못한 의원이 많이 당선되는 공천 시스템은 곤란하다"면서 "당헌·당규에 따르면서 방법을 검토하겠다"고 밝혀 '물갈이' 의지를 밝힌 바 있다. 이에 따라 '전략 공천 제로' 원칙이 깨질 것을 우려하는 김 대표는, 나머지 외부 인사 인선 작업을 통해 공관위가 자신의 계획대로 공천 실무를 관리하는 데에만 그치도록 할 마지막 노력을 기울일 것으로 보인다. 김 대표는 지난 1일 최고위원회의에서는 정치적 소수자(여성·청년·장애인) 대표 및 여론조사 전문가, 그리고 최고위원 추천 인사를 일부 포함하는 11~13명 규모의 공관위 구성 방안을 제시했다. 당시 친박계는 여론조사 전문가 포함 등이 불필요하다면서, 최고위원이 1명씩 외부 인사를 추천해야 한다고 맞섰다. 현재 9명으로 구성된 새누리당 최고위원회의는 원유철·서청원·이인제·이정현·김태호·김을동 위원 등 6인이 친박 또는 신박계로 분류돼, 친박계 우위 구조가 유지되고 있다. 따라서 최고위원마다 1명씩 외부 인사를 추천해 공관위를 구성할 경우, 친박계 의사 반영 통로가 더 많아지게 된다. '우선 추천'과 같은 유사 전략 공천 제도를 확대 시행할 가능성이 커지는 것이다. 한편, 이날 박종희 제2 사무부총장이 공관위원에 포함된 것에 대해, 그와 경기 수원갑 공천을 놓고 싸우고 있는 새누리당 김상민 의원(비례대표) 의원은 "박 부총장은 지금 당장 사퇴해야 한다"는 내용의 긴급 기자회견을 열었다. 그는 "정치 선배인 박 부총장은 상대 당도 안 하는 방법으로 저를 음해했다"면서 박 부총장을 "오늘 공직선거법 위반 혐의로 검찰에 고소할 것"이라고 했다.이에 대해 박 부총장 측은 &lt;프레시안&gt;과 한 통화에서 "무엇을 음해했다는 건지 모르겠다"며 "당의 공관위 인선 발표가 난 당일에 이런 기자회견을 하는 것이 적절한 것인지 또한 모르겠다"고 반응했다. 더민주는 전 카이스트 총장, 국민의당은 호남 출신 전 감사원장제1야당이자 원내 2당인 더불어민주당은 홍창선 전 한국과학기술원(KAIST·카이스트) 총장을 공천관리위원장으로 임명했다고 밝혔다. 김성수 더민주 대변인은 이날 김종인 비대위원장이 "개혁적이며 올곧고, 학계에서 두루 덕망을 쌓은 분이고, 17대 국회의원을 지내 정치 현실을 잘 이해하고 있다는 점을 높이 평가했다"고 임명 배경을 밝혔다고 전했다. 홍 전 총장은 72세(1944년생)로 김종인 비대위원장보다 4살 아래다. 그는 연세대 기계공학과를 졸업하고 동 대학원 석사를 거쳐 미 펜실바니아주립대에서 박사 학위를 받은 과학자 출신으로, 2004년 17대 총선에서 열린우리당 비례대표 의원으로 당선돼 원내 활동을 한 경험도 있다. 홍 전 총장은 과거 열린우리당 의원 시절 정동영계로 분류되기도 했으나, 당시 열린우리당 내 중도 성향 의원들의 모임인 '안정적 개혁을 위한 국회의원 모임'(안개모) 멤버로 활동하는 등 중도 성향의 면모를 보여 왔다. 김종인 비대위 체제 출범 이후로 강조되고 있는 '중도화' 노선의 반영이라는 풀이가 나온다. 지난 2일 창당해 원내 3당(17석)이 된 국민의당도 이날 전윤철 전 감사원장에게 공직 후보자가 될 자격을 심사할 권한을 맡겼다고 밝혔다. 안철수 국민의당 상임대표는 이날 오후 기자회견에서 "전 전 원장에게 당 윤리위원장 및 공직후보자자격심사위원장 자리를 부탁드렸고, 전 전 원장이 흔쾌히 수락했다"며 "전 전 원장은 곧고 원칙을 중시하는 분이며, 감사원장으로 강력한 추진력과 리더십을 유감 없이 발휘했다"고 인선 배경을 설명했다. 전 전 원장은 "정치판을 새로운 차원에서 재편성하는 대담한 작업을 하고 있는 안철수·천정배 공동대표의 용기를 더 뒷받침해 드리는 게 좋겠다고 생각했다"고 입당 및 위원장직 수락 소감을 밝혔다. 특히 전 전 원장은 지난해 11월 '천정배 신당'으로 불린 국민회의 신당추진위원회 위원으로 참여했던 인물이다. 천정배 공동대표는 '뉴 DJ'론을 주장하며 호남 현역 의원들에 대한 '물갈이'를 주장했었고, 지난달 28일 &lt;프레시안&gt; '정치통' 인터뷰에서도 '전략공천 등을 활용한 물갈이가 필요하다'는 입장을 유지하고 있다고 밝혔다. (☞관련 기사 : 천정배 "수도권 야권연대, 안철수와 생각 다르다") 때문에 전 전 원장이 공직 후보자 자격 심사를 맡은 것이 호남 의원들에 대한 물갈이를 위한 사전 작업이 아니겠냐는 평이 나오기도 했다. 안 대표는 기자들에게 이같은 질문을 받고 "공천 과정과 관련해서는 자격 기준을 만들 것"이라며 "그 모든 과정을 투명하고 공정하게 밝힐 것이고, 원칙에 따라 일을 진행한다면 큰 무리는 없을 것"이라고 답했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 바른미래당 신용현 의원 ⓒ신용현의원실       최근 신성철 카이스트 총장의 검찰고발 및 직무정지 요청사태에 대한 과학기술계의 비판이 고조되고 있는 가운데 신용현 국회의원은 11일 과기부가 신 총장에 대한 직무정지요청을 철회하고 정당하고 적법한 감사를 진행해야 한다고 주장했다.  신용현 의원은 “7일 카이스트 교수들이 시작한 항의성명서에 타 대학 교수들이 동참하면서 590명이 넘게 서명을 이어가고 있고, 어제는 대표적 과학기술시민단체인 바른 과학기술사회 실현을 위한 국민연합까지 과기정통부의 부적절한 감사과정을 지적하고, 총장 직무정지요청 철회를 포함한 비판성명을 냈다”고 말했다.  또 “과학기술인들의 항의성명이 이루어진 배경은 현 정부에서 자행되는 찍어내기 식의 부당하고 무리한 표적감사에 대한 불만이 자리 잡고 있다”고 면서 “이번 감사과정에서 신성철 총장은 제대로 된 소명기회조차 부여받지 못한 것으로 알려졌다”고 지적했다.  아울러 “최종 감사결과가 나오고 사실여부가 확인되기도 전에 횡령, 편법채용이라는 말을 쓰면서 그 혐의를 언론에 공표하여 명예를 실추시켰고, 총장의 직무정지요청을 너무 성급하게 했다는 주장들로 과학기술계가 들끓고 있다”고 비판했다.  신 의원은 “한국연구재단 이사장, 한국과학창의재단 이사장, 한국생명공학연구원 원장, 원자력안전기술원장, 한국과학기술기획평가원 원장 등 임기가 만료되기도 전에 원치 않은 사표를 내야했던 기관장들이 줄줄이 나왔다”며 “잘못이 있다면 당연히 처벌받고 책임져야하지만, 정권에 의한 편 가르기와 줄 세우기를 하는 현실은 과학기술계의 자유로운 연구풍토를 저해하는 적폐 중의 적폐”라고 목소리를 높였다.  또 “적폐청산을 부르짖는 문재인정부가 적폐를 만드는 일은 이제 멈춰야하며, 과학기술계는 진영논리나 정치이념과는 거리가 있는 집단”이라고 강조했다.  신용현 의원은 “정부는 이런 논란을 해소하기 위해 신 총장에 대한 업무정지요청을 철회하고 좀 더 정당하고 적법한 감사를 진행해서 그 결과를 빨리 공표해야 할 것”이라며 “과학기술계에 대한 정치권력 개입을 원천적으로 차단할 수 있는 인사제도의 개편을 요구한다”고 말했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 조광현 교수(왼쪽)과 연구진 ⓒKAIST        KAIST 바이오및뇌공학과 조광현 교수 연구팀이 뇌파의 생성 및 변조를 담당하는 핵심 신경회로를 규명해, 향후 뇌질환 환자에게서 발생하는 비정상적 뇌파활동을 신경세포 네트워크 수준에서 규명하는 데 활용될 것으로 보인다.  뇌의 다양한 기능은 신경세포인 뉴런 사이의 복잡한 상호작용을 통해 이뤄지며, 뇌파의 비정상적인 생성 및 변조 현상은 다양한 뇌질환과 밀접한 관계를 갖는 것으로 알려져 있다.  그러나 뇌파의 생성 및 변조는 수많은 뉴런 사이의 복잡한 상호작용을 통해 발생하는 예측할 수 없는 창발적 특성(emergent property)을 갖기 때문에 기존의 신경 생물학 실험을 통해 그 원리를 규명하기에는 한계성을 띠었다.  조 교수 연구팀은 시스템생물학 기반의 연구방법을 통해 뇌파의 생성 및 변조 원리를 분석했는데, 여러 뇌 영역 중 특히 감각 피질(sensory cortex)에 주목, 대규모 컴퓨터 시뮬레이션 분석을 통해 흥분성 뉴런과 억제성 뉴런으로 구성된 양성피드백과 음성피드백의 중첩된 구조(interlinked positive and negative feedback)가 뇌파의 생성 및 주파수 변조 현상의 핵심회로임을 최초로 규명했다.  특히 연구팀은 기존의 전기생리학 실험을 통해 측정된 뉴런 간 시냅스의 특정 연결강도가 신경회로의 뇌파 생성 및 변조 기능을 극대화시킬 수 있는 최적의 조합임을 밝혀냈다.  이번에 개발한 수학모형을 활용하면 전통적 생물학 실험을 통해 파악이 어려웠던 뉴런들 간의 다양한 상호작용을 이해하고 신경회로의 복잡한 설계원리를 파악할 수 있을 것으로 기대된다.  또한 여러 뇌질환 환자의 뇌에서 관측되는 비정상적인 뇌파 활동을 신경네트워크 차원에서 분석하고 규명할 수 있을 것으로 예상된다.        ▲뇌파의 생성 및 변조를 담당하는 핵심 신경회로 ⓒKAIST    두뇌 신경회로의 작동원리에 대한 이해를 높인다면 컴퓨터 과학자들이 이를 이용해 새로운 인공지능 기술을 개발할 수 있다.  자폐증이나 집중력 조절장애 등과 관련된 신경회로 규명, 두뇌 치료 기술 개발 등의 원천 의료기술 개발에도 혁신으로 이어질 수 있다.  조 교수는 “지금껏 뇌파의 생성 및 변조를 담당하는 핵심 신경회로가 밝혀진 바가 없었다”며 “이번 연구에서는 최근 커넥토믹스 (connectomcis) 연구를 통해 점차 밝혀지고 있는 뉴런간의 복잡한 연결성에 숨겨진 설계원리를 시스템생물학 연구를 통해 찾아냄으로써 뇌의 동작원리를 파악할 수 있는 새로운 가능성을 제시했다”고 말했다.  이번 연구 결과는 국제 학술지 ‘셀 리포트(Cell Reports)’ 11월6일자 온라인 판에 게재됐다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      세상을 바꿀 디지털 기술을 미리 알아보고 선정해 시상하는 '넥엑스플로 어워드'의 2015년 대상에 KAIST 조병진 교수 연구팀이 개발한 '웨어러블 발전장치'가 뽑혔다.넷엑스플로 어워드는 유엔 산하 교육과학문화 전문 기구인 유네스코가 공동주최자로 참여하는 행사로 매년 전 세계 전문가들의 의견을 모아 에너지·환경·교육 등의 분야에서 '세상을 바꿀 기술 10가지'를 선정해 각 연구 개발팀에 시상한다. 특히 그 중에서 대상은 누리꾼들의 투표를 통해 결정되는 방식을 택하고 있다.'트위터'는 2008년부터 시작된 이 상의 첫 대상 수상작인 것에서 알 수 있듯, 넥엑스플로 어워드 수상작들은 상업적 성공 가능성이 매우 높은 혁신적인 아이디어라는 것을 국제적으로 공인받는다는 의미가 있다.조 교수팀이 개발한 '웨어러블 발전장치'는 유리섬유 위에 자유자재로 휘어지는 '열전(熱電) 반도체 소자'를 입힌 것으로, 이 유리섬유가 들어있는 옷을 입으면 체온에 의해 전기가 발생해 스마트폰 등 몸에 휴대하는 각종 전자장치에 필요한 배터리 충전이 가능하다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      -'미래가 있는 대학, 다 함께 행복한 대학, SMART GNU’를 위한 노력 -PoINT 유형 Ⅱ 통해 경남과기대와 연합대학→대학통합 추진 -CK-1, LINC+, ERC ARC 등 국책사업 선정…교육·연구 경쟁력 제고 -6개 분야 101개 공약 및 주요사업 중 83건 완료 또는 추진 중 -“새 정부 대학 정책에도 능동적으로 대처하도록 준비할 것”  국립 경상대학교(GNU·www.gnu.kr) 제10대 이상경 총장(61)이 취임 1주년을 맞이했다. 이 총장은 ‘미래가 있는 대학, 다 함께 행복한 대학, SMART GNU’를 캐치프레이즈로 제시하며 지난해 6월 7일 취임했다.  이 총장은 취임 1주년을 맞이해 교직원에게 보낸 서신에서 “지난 1년은 여러분의 개척정신과 노력으로 여러 가지 어려운 조건을 잘 극복해 왔다”며 “여러분의 참여와 소통, 배려와 화합의 정신에 깊이 감사드린다”고 말했다.  또한 “공약을 포함한 지난 1년간의 주요사업 추진 실적을 점검해보니, 6개 분야 101개 사업 가운데 83건은 완료했거나 현재 추진 중이고, 주변 여건상 실현 불가능하거나 중장기 과제로 미뤄둔 것은 17건이었다”며 “지금까지 우리 대학교의 미래를 향해 힘차게 전진해 왔듯이 모든 교수님, 직원 선생님들께서 함께 노력하면 무슨 일이든 해낼 수 있다는 것을 배웠다”고 강조했다.   ▲이상경 총장. ⓒ경상대학교    이어 “경남과학기술대학교와 ‘국립대학 혁신지원사업 유형 Ⅱ’를 통해 대학연합 후 통합을 추진하고 있다”고 전제하고 “교직원 설문조사에서 67.8%라는 높은 찬성률로 지지해 주신 여러분께 감사드린다. 투명하고 민주적으로 경남과기대와의 연합 후 대학통합을 추진하겠다”고 설명했다.  이 총장은 오는 2018년에 개교 70주년이 되는 것과 관련해 “대학본부에서 70주년의 의미를 되짚어보고 100년 대학을 향한 힘찬 발걸음을 함께 내딛기 위해 무엇을 해야 할지 고민하고 연구하고 있다”며 “조만간 공개될 개교 70주년 기념사업에도 애정과 참여의 정신을 보여주시기를 당부드린다”고 말했다.  특히 “새 정부가 제시한 고등교육 관련 정책에도 능동적으로 대처하기 위해 준비하고 있다”며 “올해도 변함없이 ‘지리산을 짊어지는 것과 같은 책임감과 천만 리 먼길 나서는 아침의 다짐으로, 엄숙하고 경건하게’ 여러분과의 약속을 지키도록 하겠다”고 다짐했다.   ▲경남과학기술대학교와 연합대학 후 통합 추진  경상대는 교육부의 국립대학 혁신지원사업(PoINT) 유형 Ⅱ(대학 간 혁신형)를 통해 경남과학기술대학교와 연합대학을 구축한 후 향후 대학통합을 추진하기로 했다. 지난 4월 진행된 두 대학 구성원 설문조사에서 경상대는 67.8%, 경남과기대는 84.6%가 찬성한 것으로 나타났다. 이에 따라 두 대학 총장은 같은 달 이와 관련한 MOU에 서명했으며 현재 교육부의 심사가 진행되고 있다.    ▲경상대학교 전경.    이는 학령인구 감소에 따른 대학 구조조정의 압력을 극복하기 위한 방안의 하나로 추진하는 것으로 앞으로 두 대학은 특성과 여건에 맞는 협업모델을 개발해 대학 간 기능의 효율화, 자원의 공동활용 등을 추진하기로 했다. 또한 이를 위해 그동안 담당 부서 관계자를 중심으로 지역산업, 기초학문 보호, 고등교육 확대, 우수학생 유치, 여건개선, 예산절감 등의 부문에서 연합대학의 효과를 극대화할 수 있도록 방안을 모색해 왔다.   이 총장은 “경남과기대와의 연합 후 통합 추진은 경상대가 경남을 대표하는 거점 국립대학교로서 그 역할을 다해 나가는 데 중대한 이정표가 될 것”이라며 “우리 대학교의 미래를 개척하고 책임지고자 하는 마음으로 모든 구성원과 지역사회의 적극적인 관심과 참여를 당부드린다”고 강조했다.   경상대와 경남과기대의 계획대로라면 오는 2021년 두 대학은 통합하게 된다. 이 총장은 자신의 총장 임기는 2020년 6월까지라고 전제하고 “그 이전에 통합을 위한 사전 준비 작업을 마무리지을 것이다. 이에 대해서는 경남과기대 총장과 서로 약속했다”고 말했다.  ▲주요 국책사업 선정으로 교육·연구 경쟁력 제고  경상대는 교육부의 지방대학특성화사업(CK-1)에 선정되어 올해 사업비로 60억 원을 확보했다. 이 사업은 대학발전계획에 따라 특성화 분야를 선정하고 창의적 전문인력을 양성함으로써 대학 경쟁력을 강화하는 사업이다. 이 사업에 참여하는 사업단은 창의적 항공IT기계융합 인력양성사업단, 창의적 미래그린 인재양성사업단, 미래창조형 농업생명 인재양성 사업단, 미래개척 기초생명과학 인재양성사업단, 한국학 고전을 통한 창의적 글로컬 인재양성 사업단, ENA 공공전문가 양성사업단 등 6개다.    ▲경상대학교 휘장.    경상대는 지난 4월부터 내년 2월까지 시행하는 ‘사회맞춤형 산학협력선도대학 육성사업(LINC+)에 선정되어 올해 사업비 38억4400만 원을 지원받아 산학연계형 교육 인프라를 구축하고 산학협력 친화형 교육 프로그램을 운영하고 있다. 올해부터 오는 2022년까지 5년간 수행하는 이 사업의 총 사업비는 192억2300만 원이다. 이 사업에는 향후 12개 단과대학 63개 학과가 참여할 예정이다. LINC사업을 성공적으로 수행한 데 이어 LINC+ 사업에도 선정됨으로써 경상대는 지역에서 실질적 산학협력을 이끄는 중심대학으로서 역할을 다할 수 있게 되었다.  경상대는 고교교육 기여대학 지원사업에 8년 연속 선정되어 고교교육을 내실화하고 입학전형 여건을 개선함으로써 우수인재를 확보할 수 있게 되었다. 중고교 학생을 대상으로 체험활동을 지원하고, 찾아가는 입학전형 설명회를 개최하는 등 우수인재 확보와 체계적인 교육 제공, 글로벌 경쟁력을 갖춘 창의적 개척인재 양성이라는 선순환 구조를 이뤄냈다.  미래창조과학부와 한국연구재단이 지원하는 2017년 선도연구센터(ERC) 지원사업에도 최종 선정되어 향후 7년간 국고 135억 원, 지자체 지원금 28억 원 등 모두 201억 원의 예산을 확보해 산업수요 중심의 고효율·안전 관련 항공핵심기술 연구를 집중적으로 수행하게 된다. 항공선도연구센터에는 주관기관인 경상대학교를 비롯해 울산과기원, KAIST, 서울대 컨소시엄 참여 대학의 국내 항공 관련 최고 전문가 12명이 핵심연구원으로 참여한다. 또한 한국항공우주산업 등 10개 산업체, 캐나다 McGill, 미국 UCSD 대학 등 13개 국제협력 기관도 함께 참여한다. 이로써 지난 5월 2일 고시된 진주·사천 항공국가산단의 활성화에도 큰 도움이 될 것으로 기대를 모으고 있다.    ▲경상대학교 휘장 시그니처 가로.    농림축산식품연구센터 지원사업인 스마트팜 연구센터(ARC) 사업에 선정된 경상대는 지난 4월부터 오는 12월 말까지 7억8000만 원의 사업비를 농림축산식품부로부터 지원받는다. 전체 사업기간은 10년이며 대응자금을 포함한 총사업비는 160억 원이다. 경상대는 이 사업을 통해 농업과 정보통신기술(ICT) 산업을 융합해 농업 분야 핵심기술을 확보하고 농식품 분야 우수 연구인력을 육성해 나가고 있다.  2017년도 상반기 한국연구재단의 인문·이공분야 사업 선정 현황을 보면, 이공분야 기초연구사업에서는 89건이 선정돼 지난해 같은 기간 20건에 비해 4배 이상 괄목할 만하게 늘어났다. 또한 인문사회분야 기초연구사업에서도 올 상반기에 6건이 선정(미발표 3건 포함하지 않음)됐다. 산학협력단은 전체 교수를 대상으로 한국연구재단 사업 신청을 독려한 결과로 풀이하고 있다.   ▲날로 좋아지는 교육시설  경상대는 지난 2013년 4월 착공한 ‘고문헌도서관 및 박물관’ 신축공사를 지난해 8월 완료했다. 모두 172억2500만 원이 투입된 고문헌도서관 및 박물관은 올해 전시시설 설치까지 완료한 뒤 정식 개관하게 된다. 경상대 교직원, 학생들은 물론 지역주민들은 지역 고문헌 전문 도서관과 박물관을 통해 옛것의 가치와 전통의 소중함을 배우게 될 것으로 기대를 모으고 있다.  경상대는 투명하고 책임있는 행정 구현과 공공 기록물의 안전한 보존 및 효율적 활용을 통해 거점 국립대학으로서 책무를 다하기 위해 지난 4월 남명학관 2층에 ‘경상대 기록관’을 설치했다. 또한 지난해 10월에는 학생상담센터를 개소해 학생들의 대학생활 적응, 성격, 학업, 대인관계, 진로, 정신건강 등에 관한 개인상담 및 집단상담 기능 제공은 물론 자기성장 및 치유, 명상, 힐링 등 대학생활에 꼭 필요한 다양한 프로그램을 제공함으로써 건강하고 에너지 넘치는 활기찬 개척인으로 육성하는 데 기여하고 있다.   ▲경상대학교 전경 항공촬영.    경상대 대학본부 뒤편에 지상 5층 연면적 8152㎡ 규모로 신축 중인 ‘GNU 국제문화회관’은 개교 70주년인 내년 12월 완공될 예정으로 사업이 순조롭게 진행되고 있다. ‘개방형 스포츠 콤플렉스’ 신축 공사도 올해 안으로 설계를 완료하고 착공에 들어갈 예정이다. 북문 부근에는 GNU 어린이집을 신축, 개원해 교직원 복지에 일익을 담당하고 있다.  특히 경상대는 진주 혁신도시에 이전한 대표적 공기업인 한국토지주택(LH)공사와 대학협력형 행복주택 건립을 위한 협약을 체결하고 대학 남문 인근 부지에 200호 규모의 행복주택 건립을 추진하고 있다. 사회초년생과 재학생 등에게 저렴한 임대료의 행복주택을 공급하여 경제적 부담을 해소하게 된다.   ▲지역과 세계와 함께 하는 GNU  경상대는 지역사회의 크고 작은 행사에 참여해 거점국립대로서의 역할을 다해 나가고 있다. 진주 남강 마라톤대회, 창녕 영산 쇠머리대기 시연회 등에 참여하는 것은 물론, 진주 혁신도시 입주 공기업 11곳과 협약을 체결해 산학협력, 공동연구 등을 통해 지역발전에 기여하고 있다.   경상대는 또한 지난 1년 사이에 벨기에 비베스대학, 태국 킹몽큿대학, 중국 장수대학, 베트남 하노이대학 등 8개 대학과 교류협정을 체결해 유학생 유치와 경상대 재학생 파견 등 실질적인 교류를 해나가고 있다. 뿐만 아니라 태국, 중국, 베트남 등 7개국에서 13회에 걸쳐 해외 입학설명회를 개최해 3300여 명에게 경상대의 우수한 교수진과 교육·연구시설 등을 소개하고 유학생 유치에 최선을 다했다.  교육부 국립국제교육원이 주최하는 아세안(ASEAN) 국가 우수 이공계 대학생 초청연수, 주요국가 학생 및 토픽우수자 초청 연수기관 선정 등을 통해 경상대의 교육 인프라가 국제적으로 공인받기도 했다. 교육부와 법무부가 올 2월 발표한 ‘2016년 교육 국제화 역량 인증 평가’에서 인증대학으로 선정된 것도 ‘글로벌 경상대’의 위상을 보여주는 것이다.   ▲학생 취업률 제고에도 만전  경상대는 고용노동부가 주관하는 2017년 대학창조일자리센터 사업을 유치해 경상대 재학생을 비롯한 서부경남지역 청년층을 대상으로 종합적인 취업지원 서비스를 제공하고 있다. 경상대는 앞으로 5년 동안 연간 6억 원, 총 30억 원을 투입해 경남서부 권역의 교육·산학협력의 중심뿐만 아니라 권역 내 청년고용 서비스의 허브 역할을 수행할 계획이다.    ▲이상경 총장. ⓒ경상대학교    이 총장은 대학창조일자리센터 개소식에서 “경상대는 고용노동부의 대학창조일자리센터 사업을 유치함으로써 향후 대학 내 취업지원기관 및 대학 외 유관기관과의 연계를 강화하게 되고 또한 취업·창업 인프라를 강화해 진로취업 서비스를 강화하는 등 경상대뿐만 아니라 경남서부지역 청년층 취업률 제고를 위해 최선을 다할 것”이라고 강조했다.  경상대는 이 외에도 경남도와 ‘도내 대학생 채용확대를 위한 협력’을 체결해 경남권 기업체에 보다 많은 학생이 취업할 수 있도록 공동 노력하고 있다. 현재까지 36개 기업과 ‘경남형 기업트랙 협약’을 체결해 기업 맞춤형 교육과 취업을 직접 연계하고 있다.   그뿐만 아니라 진주 혁신도시 이전 공기업과 합동채용설명회를 개최해 취업 정보 공유의 장을 제공했다. 혁신도시로 이전한 11개 공기업이 모두 참가한 가운데 1600여 명의 학생이 상담부스와 설명회 현장을 찾아 공기업 인사채용 등에 대한 궁금증을 해소했다.   지난 2013~2017년 현재, 진주 혁신도시 11개 공기업에 정규직(무기계약직 포함)으로 취업한 경상대 졸업생은 한국남동발전 40명, 국방기술품질원 40명 등 모두 176명에 이른다. 연도별로는 2013년 28명, 2014년 39명, 2015년 32명, 2016년 43명, 지난 5월 말 현재 34명 등이다. 해마다 40명 안팎의 졸업생이 혁신도시 공기업 취업에 성공하고 있는 것이다. 올해는 더욱 늘어날 것으로 전망된다.   이는 경상대와 혁신도시 이전 공기업이 공동채용(취업) 설명회를 해마다 개최함으로써 채용관련 정보를 학생들에게 제공하는 것은 물론, 정부에서도 지방이전 공기업에 지역출신 인재 채용을 독려해온 덕분이다. 특히 경상대는 혁신도시 이전 공기업뿐만 아니라 지역으로 이전한 대기업, 항공 국가산단 입주 기업 등에 대한 취업률 제고를 위해 행정력을 쏟아붓고 있다.  ▲‘다 함께 행복한 대학’ 만들기  경상대는 ‘다 함께 행복한 대학’을 위해 교수, 직원, 학생에 대한 복지수준을 향상시키고 있다.   경상대는 경쟁력 있는 신임교원과 학문 후속세대를 양성하기 위해 ‘신임교원 연구기반 조성을 위한 운영지침’을 개선해 나가고 있다. 또한 교수 학술활동 경비 및 지원금 지침을 개정해 SCI, SCIE급 논문 게재 시 편당 경비지원을 확대했다. 연구년제 연구비 지원도 내실화함으로써 교수들이 재충전과 동시에 안정적으로 연구과제를 수행하도록 했다.   직원에 대한 복지와 교육지원도 늘려나가고 있다. 지난 2월에는 행정직원이 상해 동화대, 싱가포르 국립대를 방문해 팀별 문제해결 과제를 수행하며 글로벌 역량을 강화했다. 직원의 전문성을 강화하기 위해 역량기반 교육훈련 체계를 구축하고 직급별 리더십 교육을 실시하고 있다.    ▲이상경 총장. ⓒ경상대학교    학생생활관은 숙식만 해결하는 생활관의 개념을 넘어서고 있다. 생활관은 학생이 교양을 쌓고 다양한 문화생활을 향유할 수 있는 기회를 제공하기 위해 ‘홈바리스타 원데이 클래스’, ‘니하오 중국어 이지토킹’, ‘겟잇뷰티 네일아트 클래스’ 교양문화 강좌를 마련하여 학생들의 호평 속에 진행했다.   뿐만 아니라 경상대는 경상대 신문고 설치, 교수 승진 지침의 합리적 개선, 업무 관련 전문성을 중시하는 인사, 연수기회 확대와 포상-승진 제도의 합리화, 신임교수 채용 제도 개선 등을 추진하고 있다. 이를 통해 모든 구성원들이 다 함께 행복한 생활을 해나갈 수 있도록 하겠다는 것이다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 미 아르곤연구소 석학연구원인 장윤일 박사가 프레시안과 인터뷰에서 원자력에너지의 전망에 대해 설명하고 있다 ⓒ프레시안(육심무 기자)       미국 시카고에 있는 아르곤국립연구소는 평화적인 원자력 이용의 시발점으로 불리는 곳이다. 파괴의 상징이었던 원자력을 인류 문명 발전의 디딤돌인 에너지로 이용할 수 있는 기술을 탄생시킨 이 연구소는 현재는 연구원 3천여 명이 다양한 분야의 에너지원과 기초 과학에 관한 연구를 수행하고 있다.  서울대 원자력학과를 졸업하고 미국 아르곤 국립연구소 석학 연구원이자 소듐냉각증식원자로 개발을 총 잭임자 장윤일(76) 박사는 미국 과학계의 노벨상이라 불리는 로렌스 상을 받은 원자력 학계의 거두이다. 카이스트 원자력 및 양자 공학과 초빙으로 대전에 온 장윤일 아르곤연구소 석학연구원을 만나 세계 원자력의 전망과 우리의 과제 등에 대해 들어본다.  프레시안 : 한국과 인류의 미래 에너지로 원자력이 가장 적합하다고 강조하고 계신데 그 이유는 무엇인지요?  장윤일 : 현재 경제의 엔진이라고 일는 전기 에너지는 지난 50 년 동안 GDP 성장에 비례해 소비량이 지속적으로 증가하고 있지요. 세계 적인 증가 추세를 감안해 추산해 볼 때 2050년 전력 수요는 현재 보다 2.5 배, 2100년에는 4 배까지 증가할 것으로 예상됩니다. 이러한 전력 수요 증가를 감안할 때 인류는 발전 방법을 고르고 선택할 여유가 별로 없어요. 우리는 석탄, 천연 가스, 석유, 원자력, 수력, 태양, 풍력, 바이오매스 등 모든 에너지원을 상황에 따라 이용할 수밖에 없을 겁니다. 석탄에서 시작해 석유와 천연가스 등 매장 에너지원 들은 모두 유한하고 고갈될 시점까지 예측할 수 있지요.  태양에너지와 풍력에너지 등 신재생에너지는 대량 수요를 충족시키기 위한 선결 조건들이 만만치 않은 것이 현실입니다. 그러나 인류의 두뇌에서 탄생한 원자력 에너지는 전력 생산 방법 중에서 가장 친환경적이고 원자재 및 토지를 가장 적게 사용하는 발전 방식입니다. 온실가스와 요즘 관심이 집중되는 미세먼지를 포함한 대기 오염과 온실 가스 발생도 다른 발전 방식에 비해 거의 없고, 급증하는 전력 소비에 대처할 수 있는 가장 합리적인 기술이지요. . 프레시안 : 원자력 에너지의 장점을 구체적으로 설명하신다면.  장윤일 : 첫 번째는 경제적인 부분입니다. 천연자원의 보유량이 많지 않은 한국은 전량 수입에 의존하는 석유나 천연가스 등에 비해 원자력은 지난 수십 년 동안 가장 경제적인 에너지 자원이었습니다. 에너지별 발전 원가를 원자력 발전에 대비해 보면 LNG는 3.5배, 풍력 3.4배, 태양광은 4.6배가 더 비싸고요. 원자력 발전 원가에는 사용 후 연료 처분 비용과 제염 해체 비용이 포함되어 있지 않다는 주장도 있는데 이 비용은 정부에서 관리하는 기금에 적립되고 있습니다.  환경문제를 비교해 봐도 원자력이 압도적입니다. 1톤의 핵분열은 350만톤의 석탄 연소와 동등한 에너지를 생산하고, 화석연료와 달리 대기 오염이나 미세 먼지 없이 깨끗한 에너지를 생산합니다. 온실가스 배출량은 원자력보다 석탄은 30배, 천연가스는 20배 정도이며 발전소 건설에 필요한 철강 요구량은 원자력보다 풍력 또는 태양광 발전소는 10배 이상, 태양열 발전소는 50배 이상이 필요합니다. 토지 이용 면적은 원자력보다 태양광 발전이 50배, 풍력은 400배가 필요하므로 원자력은 모든 에너지원 중에서 가장 환경친화적이며, 에너지 공급 잠재력은 거의 무한하다고 할 수 있지요. 또 태양광과 풍력은 전력 저장과 조절 등에 한계가 있어, 한국과 같이 폐쇄된 전력 시장에서 시간대 별로 초과 또는 부족한 전력의 관리가 어려워 장점을 대부분 상쇄해버려요.  프레시안 : 원자력발전소의 방사능에 대한 환경단체의 경고음과 주민들의 우려가 날로 높아지고 있습니다.  장윤일 : 방사능에 대한 그릇된 내용들이 사실인양 너무 많이 퍼져 있습니다. 자연 방사능은 지표에서도 라돈 가스로 올라오고, 하늘에서 우주 방사선으로 내려오고, 마시는 물, 먹는 음식은 물론 우리 몸체 안에도 나옵니다. 또 일상용품이나 방사선 치료 받을 때 등 우리 몸과 주변에 어디에나 방사능이 있고, 우리와 같이 살고 있어요.  이란 람사르처럼 자연 방사능 양이 한국보다 100배가 높은 지역이 있고 세계 곳곳에 10배 이상 높은 지역이 있어요. 그런데 이런 곳에 사는 사람들의 수명이 평균보다 높아서 Radiation Hormesis 라고 불리지요. 즉 어느 정도의 낮은 방사선은 오히려 건강에 유익하다는 설이지만, 학술적으로 완전히 증명되지는 않았습니다. 전세계 원전 주변의 방사능 양을 측정해 보면 일상 생활 속에서 만나는 방사능의 평균보다 오히려 낮게 나옵니다.        ▲장윤일 아르곤연구소 석학연구원 ⓒ프레시안(육심무 기자)    프레시안 : 우리나라와 인접한 일본 후쿠시마의 원전사고로 인해 원전에 대한 공포와 부정적인 의견이 커지는 계기가 된 것으로 보입니다.  장윤일 : 원전이 안전한가 하는 문제에 관하여 두 가지의 크게 잘못 알려진 사실이 있습니다. 첫째는 후쿠시마 원전사고로 많은 희생자가 있다고 알려져 있는데 사실은 원전 폭발로 희생된 사람은 없다는 점이지요. 2만명 정도의 사망자와 실종자는 일본 역사상 가장 컸던 지진과 쓰나미 때문이었고, 엄밀히 말해 원자로 사고로 인한 것은 아니었어요. 다만 사고 초기 아무런 대비 없이오염원을 처리하러 들어갔던 직원 한 명은 방사선 피폭이 사망원인으로 알려졌습다.  중요한 점은 원자력 발전으로 인하여 배출되는 방사선의 양이 자연 방사능의 10만 분의 1 정도이고 후쿠시마, 체르노빌 같은 대형사고 시에도 주변에서의 피폭량은 대기중 방사능의 10배 정도로 건강에 피해가 없는 수준이었지요. 건강에 문제가 되는 수준은 기존의 100배 정도의 방사능이 있어야 하며 원자로 주변의 방사능으로 인한 피해라며 잡힌 통계들은 과학적으로 정확한 근거가 없습니다.  둘째로 리히터 규모(Richter Scale)에 맹점이 있어요. 후쿠시마의 9.0 지진과 경주의 5.8 지진 폭의 차이가 두 배 정도 되는 것이 아니고, 10의 9승과 10의 5.6승의 차이, 즉 1600배의 차이지요. 여기에 파괴력(Energy Released)은 1600의 1.5 자승, 즉 64000배의 차이로 하늘과 땅의 차이라고밖에 표현할 말이 없어요. 후쿠시마 원전들도 엄밀히 분석하면 지진을 못 견딘 것이 아니라 지진으로 인한 쓰나미로 인해 원자로 3기의 Diesel generator oil tank가 쓸려 내려가서 발생한 일이었어요. 33년 전 체르노빌 원전사고에서는 증기 폭발과 흑연 감속재 화재로 인해 노출된 노심을 차단하기 위해 죽음을 각오하고 헬리콥터 저공비행을 한 조종사 200여 명 중 42명이 사망하기도 했습니다.  프레시안 : 미래형 원전인 소디움냉각증식원자에 관해 설명해주신다면.  장윤일 : 현재 상업용 원전은 우라늄 자원의 0.6 %만을 활용하고 있으며 99.4%는 사용 후 연료나 방사능 폐기물 등으로 처분해야 하지요. 스웨덴은 19억년 전에 생성된 깊은 암반에 500m 깊이 지하에 직접 처분하고 있고 한국에서도 경주 방사성폐기물처분장에 매립 처분하고 있지요. 하지만 미국 아르곤 국립 연구소에서 개발한 소디움냉각증식원자로의 파이로프로세싱 기술은 사용 후 핵연료에 있는 반감기가 긴 원소를 추출해 고속로에서 연소시켜 우라늄 자원 활용률을 170배까지 확장 가능해요. 또 남은 폐기물의 반감기도 줄일 수 있어 처분장 건설 및 관리 부담이 크게 경감됩니다. 이 방법은 현재 미국 아르곤 연구소와 한국만이 공유하고 있으며, 미래 전력 수요 증가를 감당 할 수 있는 무한한 에너지원이 될 수 있을 것으로 기대됩니다.  프레시안 : 한국 과학자들, 특히 정부 출연연구기관의 정년퇴직 제도로 우수한 인재가 조로한다는 지적을 받고 있다는데.  장윤일 : 미국인에서는 일정한 나이가 되었다고 직업을 그만두게 하는 것을 법적으로 금지하고 있어서 능력만 있다면 나이가 문제가 되지 않아요. 나이에 의한 퇴직 강요는 차별이라는 판단에 의한 것인데 일만 잘 할수 있다면 직업을 계속 유지할 수 있지요. 나만 해도 나이가 76세인데 연구소에서 근력을 필요로 하는 육체 노동자가 아닌 만큼 연구 능력이 있다고 인정해 나이에 전혀 구애받지않고 일하고 있지요.  한국원자력연구원의 경우 61세 정년퇴직을 한다고 들었어요. 미국의 연구원이라면 61세면 아직 한창일 나이인데 그만둬야 한다니 개인적으로 안타깝다고 생각하고 국가적으로 큰 낭비가 아닐 수 없어요. 더욱 우려되는 것은 이 과학자들에게 중국 등 원자력 기술 개발에 국가적 지원들 등에 업은 기업들이 몇배의 연봉을 제시하며 유혹하는 것이지요. 이는 단순한 개인의 문제가 아니라 향후 경쟁 국가에 선두 자리를 내주는 결과를 초래할 위험이 커요.   프레시안 : 한국은 현 정부들어 원전 중단에 대한 공론화를 진행하는 등 탈원전 정책을 추진하고 있는데 이에 대한 견해는요?  장윤일 : 정부의 탈원전 정책에 관해서는 내가 말할 수 있는 부분이 아닌 것 같습니다. 그러나 원자력은 에너지 시장에서 ‘대안이 없는 대안’이라는 것이 정설입니다. 독일이 유일하게 완전한 탈원전 정책을 추구하는 것과 일본이 후쿠시마 사고 이후 일부 원전의 가동을 중단했지만 다른 국가들에서는 원자력 발전 비중이 점차 확대되고 있어요. 최근 인도와 중국, 러시아, 벨라루스 및 우크라이나에 약 80개의 신규 원전이 건설되었고, 향우 10년 안에 중국과 다른 19개국은 100기의 원전을 추가로 건설할 계획을 진행하고 있어요.  특히 산유국인 사우디아라비아와 아랍에미레이트를 비롯해 중동 지역 등 30여 국가에서 처음으로 원자력 에너지 도입을 검토하고 있는 것은 널리 알려진 사실입니다. 한국은 현재 세계에서 5번째로 원자력 발전소가 많은 나라이며 미국에서도 한국의 원전기술을 높게 평가하고 있어요. 이러한 원자력 르네상스는 미래의 전력 수요 증가를 대비하는 데 중요한 역할을 할 것이며, 원자력 공학 분야에 대한 전문 인력의 수요는 계속 늘어날 전망인 만큼 이 분야에 젊은이들이 과감하게 지원하라고 권하고 싶어요. 국내가 아니라도 세계가 원자력 전문 인력을 최소한 백년 이상 필요로 할 것예요.  프레시안 : 더 조언해 주실 말씀이 있다면.  징윤일 : 앞으로 장기적으로 볼 때 고속로와 파이로프로세싱 기술을 확보하는 국가가 원전기술을 선도하게 될 것입니다. 원자력연구원의 PGSFR(제4세대 원전 고속로)프로젝트는 2012년 아르곤 국립연구소와 국제공동연구로 시작되었요. 원래 계획은 2020년까지 설계 인가를 받고, 2028년까지 건설을 완료할 계획이었으나 성공적인 고속로 기술 이전에도 불구하고 과학외적인 요소로 인해 프로젝트가 중단될 위기예요.  중국과 인도는 고속로 기술을 개발하기 위해 지금도 끊임없이 노력하고 있으며 앞으로 5~6년 안에 한국의 원전기술을 따라잡을 수 있을 것으로 보입니다. 한국에서 먼저 차세대 원자력 기술을 실증하기 위해 고속로 프로젝트는 재가동되어야 하며 30년 후 한국에서 미래 세대를 위한 원자력 기술의 성공 사례가 될 것입니다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ▲한동대 고(故) 김영길 초대 총장 ⓒ한동대     국내 재료공학계의 거목이자 한동대 초대 총장을 지낸 김영길(사진) 전 총장이 별세했다. 향년 81세.  1일 한동대에 따르면 김영길 전 총장은 지난달 30일 오전 3시 서울 신촌 세브란스 병원에서 소천했다.  김영길 전 총장은 지난 5월부터 숙환으로 서울 아산의료원과 서울 신촌 세브란스병원에 입원해 치료를 받아왔다.  1939년 10월 3일 경북 안동 태생의 김 전 총장은 서울대 금속공학과를 졸업하고 미국 유학길에 올라 미주리주립대학교에서 금속공학석사, 렌셀러폴리테크닉대학교에서 재료공학박사 학위를 받았다.  온누리교회 초대 장로와 한동대 초대 총장(1995.2~2014.1)을 역임하고, 2016년 6월부터는 한동대 명예총장을 맡아 대학발전에 매진해 온 김 전 총장은 미국 NASA 루이스연구소 연구원(1974.5~1976.5), KAIST 재료공학과 교수(1978~1995), 한국창조과학회 초대 회장(1981~1997), 유엔아카데믹임팩트 한국협의회 회장(2012.8~현재)을 지냈다.  미국 NASA 발명상을 2회(1976,1981) 수상했고, 풍산금속과 협력해 발명한 반도체 리드 프레임 ‘PMC-102’합금 제조기술은 우리나라 최초의 ‘선진국 기술 수출 1호’ 기록으로 남아있다.  국민훈장 동백장(1982), 세종문화상(1986), 올해의 과학자상(1987), 한국기독교선교대상 교육자부문(1999), 제4회 한국기독교 학술상(2004), 2014년 전문인 선교대상(2014) 등을 수상한 바 있다.  KAIST에서 한동대로 자리를 옮겨 지난 1995년 한동대 초대 총장에 취임한 후, 혁신적인 커리큘럼과 기독교정신 기반의 인성교육으로 대표되는 교육실험을 통해, 교육중심대학이라는 새로운 교육모델을 제시했다는 평가다.  공부해서 남 주자, Why not Change the world? 세상을 변화시키자는 모토로, 경북 포항에 세워진 한동대를 단기간에 신흥 명문사학의 반열에 올려놓았으며, 제17대 한국대학교육협의회 회장과 국가교육과학기술자문회의 과학기술분과위원장을 역임한 바 있다.  빈소는 신촌 세브란스병원 장례식장 특1호에 마련될 예정이며, 조문은 30일 오전 12시부터 가능하다. 발인은 천국 환송 예배(서울) 7월 2일 오전 7시 온누리교회 서빙고 성전, 천국 환송 예배(포항) 7월 2일 오후 5시 한동대학교 그레이스스쿨(IGE)이다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ ‘어드밴스드 펑셔널 머티리얼즈(Advanced Functional Materials) 표지 ⓒKAIST       KAIST 전기및전자공학부 이현주 교수 연구팀이 생체 친화적 실크 고분자를 이용해 생체적합 전도성 접착제를 개발하고 이를 통해 인간 피부에 잘 부착되는 경피형 전자소자를 개발했다.  이번에 개발된 실크 전도성 접착제 필름은 생체친화적 실크 고분자에 금속이온을 도입해 접착성을 갖도록 만든 기술로 접착성이 높은 경피형 전자소자의 구현이 가능해 장기간 모니터링 및 약물 투여가 필요한 환자에게 적용할 수 있을 것으로 기대된다.  연구팀은 기존 실크 고분자의 한계와 제한을 극복하기 위해 칼슘이온을 도입을 통해 생체 적합하고 고접착력을 갖는 실크 접착제를 개발했다.  고접착 특성과 더불어 실크 고분자의 칼슘이온은 실크 접착제가 이온전도성을 갖게 도와주며, 원래의 실크 고분자가 갖고 있는 생분해특성에 의해 특정 조건에서 쉽게 접착력이 사라지는 특성을 보인다.  연구팀은 이 특성을 통해 실크접착제를 경피형 전자소자와 인체피부사이에 삽입해 고접착을 가지는 유연성 캐패시터 터치센서를 제작하고 장기간 부착이 가능하고 쉽게 탈부착 및 재사용 할 수 있는 터치센서를 개발했다.  또한 인체 장기의 조직 중 신축성이 강한 방광 조직에 고 접착성을 가지는 변형센서를 집적해 방광 조직의 변형률에 따른 저항변화를 이용한 변형정도를 확인했다.  연구팀의 기술은 생체적합성과 접착력이 높아 체내 이식용 전자소자에도 활용돼 장기간 모니터링 및 치료에 응용 가능할 것으로 기대된다.  이 교수는 “생체친화적인 실크고분자를 이용해 재사용이 가능하며 쉽게 생분해가 되는 고접착 접착제를 개발했다는 점에서 실크 물질에 대한 새로운 가능성을 제시했다”며 “바이오공학 분야에서 경피형 및 체내이식형 전자소자에 적용할 수 있고 장기간 모니터링 및 약물전달 시스템을 구현할 수 있을 것이다”고 말했다.  서지원 박사, 김효중 박사과정이 주도하고 생명화학공학과 최시영 교수, 김기한 박사가 참여한 이번 연구는 국제 학술지 ‘어드밴스드 펑셔널 머티리얼즈(Advanced Functional Materials)’ 9월 5일자 표지논문에 게재됐다. (논문명 : 피부부착형 전자소자를 위한 생체적합 및 고접착성을 지닌 칼슘이 도입된 실크 접착제, Calcium-modified silk as a biocompatible and strong adhesive for epidermal electronics)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           매년 카이스트(KAIST·총장 신성철) 여성 대학원생들의 ‘성희롱·성추행’에 대한 고충이 설문을 통해 밝혀진 가운데 카이스트 대학의 전문기구가 제 기능을 하지 못하는 유명무실한 상태인 것으로 지적받고 있다.   14일 카이스트 대학원생들에 따르면, 지난 2012년부터 총학생회 차원에서 대학원생들의 ‘연구환경실태조사’를 진행하며 학내 부조리 및 인권침해실태를 파악하고 있는데, 매년 여성 대학원생들의 ‘성희롱·성추행’ 피해 사례가 끊이지 않고 있다.  실제로 2017년도 설문조사에서도 여성 대학원생 429명 중 13.5%인 58명이 교수 또는 동료 등에 의해 ‘성희롱·성추행’ 피해를 입었다고 답했다. 피해 입은 인원수만 놓고 보면, 전년에 조사된 수치보다 다소 높은 것이다.  문제는 대학원 총학 자체조사가 진행된 지난 2012년부터 최근까지 이 같은 여성 대학원생들의 피해가 줄지 않고 있다는 점이다.  사태의 심각성을 인지한 대학원 총학의 경우, 자체적으로 인권센터를 구성해 피해학생들의 상담을 담당하거나, 사안에 따라 유관기관의 협조를 얻어 필요한 조치를 진행하는 등 노력을 기울이고 있지만, 대학 본부 차원의 노력은 피해 학생들에게 크게 도움이 되지 않고 있는 실정이다.  이는 피해 학생들이 대학 본부에서 운영하는 상담실과 인권윤리센터에 대한 불신을 드러내기 때문으로 학생들은 자신들의 피해내용이 교수 또는 교내에 알려져 2차 피해를 입을 것을 크게 우려하고 있는 것으로 전해졌다.  ‘성희롱·성추행’ 피해자는 수차례에 걸친 상담 뿐 아니라, 심리치료 기관 또는 사법기관으로의 인계 등 복잡한 처리절차가 수반되는데 대학 차원에서 나서서 이 같은 일을 진행할 수 있겠냐는 반문도 따른다.  카이스트 대학본부에서 운영하는 상담실과 인권윤리센터는 대학원생 5700여명을 포함해 학부생, 교수, 직원 등 2만여명을 담당해야 하는데, 인권윤리센터의 경우, 센터장을 포함해 겨우 3명만이 일을 수행하고 있는 상황이다. 더구나 센터장은 또다른 보직을 겸하고 있어 사실상 이름만 걸어놓은 상태라는 지적이다.  인권윤리센터 측은 상담실과 대학원 총학 인권센터 등과 벨트를 구축해 학부생 및 대학원생들에 대한 피해 상담과 조치 등에 적극 힘쓸 계획임을 밝혔지만, 대학본부의 기능에 회의적인 대학원 총학 인권센터가 벨트 구축안에 불참키로 함으로써 사실상 헛구호에 그칠 공산이 크다.  카이스트 대학원 총학생회 관계자는 “인권윤리센터 산하에 교수, 학부생, 대학원생 등으로 조직된 포용성위원회가 지난해 9월 설치됐지만, 최근까지 한 번도 회의를 하지 않는 등 전시행정에 불과하다는 지적도 나온다”며 “대학원 총학 차원에서는 대학 본부의 기능에 대해 크게 기대하지 않고 자체 상담기능 강화를 위해 전문상담사 자격획득 등 노력을 기울이고 있다”고 말했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      (재)영월장학회(이사장 최명서 영월군수)는 지역인재 육성을 위한2020년 2학기 복학 장학생을 선발한다고 31일 밝혔다 신청기간은 오는 8월 3일부터 8월 14일까지다. 선발인원은 일반 4년제 및 서울대, 카이스트, 포스텍, GIST, UNIST, 의·수의·한의예·약학·치대를 포함해 총 5명이다.     ▲영월군 청사. ⓒ프레시안  신청 필수요건은 공고일 현재 영월군에 주소를 두고 있으며 영월군 내 고등학교를 졸업한 뒤 휴학 직전 학기 이수학점이 15학점 이상(계절학기 포함), 3.3 이상의 성적 요건을 충족해야 한다. 접수는 영월군청 홈페이지에 인터넷 접수로 하고 제출서류는 영월군청 자치행정교육과로 우편 또는 방문 제출하면 된다. 장학금 신청 관련 자세한 내용은 영월군 홈페이에서 확인할 수 있으며 기타사항은 영월군청 자치행정교육과로 문의하면 된다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      경북교육청은 19∼20일까지 양일간 웅비관에서 영재교육기관 담당 교원과 전문직원 200여명을 대상으로 연수를 실시한다. 이번 연수는 코로나19 예방을 위해 50여 명씩 총 4개 기수로 나눠 진행되며 포스트 코로나 시대를 대비한 온라인 영재교육 프로그램 개발을 목적으로 한다. KAIST 이성혜 박사를 강사로 초청해 온라인 영재교육 부분에 대한 특강과 하반기 업무전달로 구성했다.    ▲경북교육청, 온라인 영재교육 역량 향상 연수 ⓒ경북도교육청   ‘비대면 수업 설계 전략’을 주제로 100분간 진행된 강의를 통해 원격수업의 구조적인 취약점을 진단하고 수업에 대한 패러다임의 전환기에 준비해야 할 비대면 수업 전략, 비대면 캠프 운영 방안을 소개했다. 또한 152개 영재교육기관을 대상으로 실시한 컨설팅 과정에서 나타난 우수 사례와 보완해야 할 부분에 대한 내용을 공유하고, 2021년 영재교육대상자 선발, GED 영재교육종합데이터베이스 활용방법, 영재 국가통계 작성 안내 등 하반기 영재교육 운영과 관련된 내용을 소개했다. 김종윤 창의인재과장은 “4차 산업혁명 시대의 교육환경 변화에서 창의융합 인재 양성은 반드시 필요한 과제로, 학생활동중심 수업의 영재교육을 위해 지속적으로 노력해 달라”고 했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          KAIST 이번 초세대 협업연구실 선정 ⓒ KAIST       KAIST가 올 3월부터 국내 대학 중 처음 도입해 운영 중인 초세대 협업연구실이 4개로 늘어났다.  KAIST는 이번 초세대 협업연구실 선정에 1985년 노벨 물리학상을 수상한 클라우스 폰 클리칭 박사(독일 막스 플랑크 고체물리학 연구소)와 2002년 노벨 화학상 수상자인 쿠르트 뷔트리히 박사(스위스 취리히공대 교수) 등 총 6인이 심사위원으로 참여해 장기주 특훈교수(물리학과)와 유룡 특훈교수(화학과)를 제2차 초세대 협업연구실 지원 대상자로 선정했다고 6일 밝혔다.  초세대 협업연구실은 학문적 업적이 뛰어난 교수가 퇴직과 동시에 연구실 문을 닫아 그동안 축적한 연구업적과 노하우 등 학문적 유산이 사장(死藏)되는 것을 막고 후배 교수가 선배 교수의 연구를 계승해 발전시키기 위한 제도이다.  특히 이 제도의 특징은 선배 교수가 은퇴 이후에도 연구원 자격으로 후배 교수들과 계속 연구에 참가할 수 있다.  초세대 협업연구실 지원 대상자로 선정된 물리학과 장기주 특훈교수는 나노과학기술대학원 김용현 교수, 물리학과 한명준 교수와 함께 ‘응집물질계산물리’연구실을 운영한다.  새로운 양자 현상을 예측 하고 기능성 물질 개발을 목표로 제1원리 전자구조 계산을 통해 물질의 물리적 특성을 규명하고 신물질을 디자인하는 연구를 수행하게 된다.  화학과 유룡 특훈교수는 생명화학공학과 최민기 교수와 공동으로 ‘분자촉매 디자인 및 반응 공학’연구실을 운영할 계획이다.  분자 레벨 및 나노 영역에 첨단 화학기법을 접목해 촉매를 설계하는 연구 분야다.  에너지 및 환경 문제에서 핵심적인 역할을 수행하는 각종 화학반응의 반응 효율을 극대화하는 연구를 수행할 예정이다.  KAIST는 이번에 선정된 연구실에는 향후 5년간 운영비와 협업 연구 공간 등 각종 편의시설을 제공할 계획이다. 연구실 운영 5년 후 평가 결과에 따라 계속 지원이 가능하다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ⓒ민주평화당      민주평화당이 21대 총선 2호 공약으로 '국공립대학교 무상등록금 실시'를 내걸었다. 20일 민평당에 따르면 지역인재의 수도권 집중화를 해소하고 누구나 대학교육을 받을 수 있는 교육권리를 보장하기 위해 이 공약을 제시했다.  또 사립대 재학생들의 부담경감을 위해 학자금대출 이자를 무상으로 전환하고 이후 재단 적립금 등을 통해 사립대도 등록금이 인하될 수 있도록 한다는 계획이다.  정동영 대표는 "지역 우수인재의 상당수가 서울과 수도권 대학으로 진학하며, 지역 인재가 수도권으로 몰리고 지역기업도 서울로 이전하는 악순환이 지속되고 있다"며 "지방의 우수인재들이 지방 국공립대에 진학해 지역 인재로 성장할 수 있도록 유인하는 정책이 필요하다"고 강조했다.  이어 그는 "지역 대학이 인재를 배출하고 동시에 좋은 기업도 지역에 유치하는 선순환 구조를 만드는 것이 필요하며, 지방 명문 대학이 된 포항공대, 카이스트, 울산과학기술대 등 모두 무상교육과 재정지원의 결과다"고 설명했다.  현재 학생수와 평균 등록금을 기준으로 할 경우 국공립대 무상 등록금에는 약 1조 4000억 원 규모의 재원이 필요할 것으로 추정된다.   2017년 국회예산정책처 예산추계에 따르면 사관학교를 제외한 전국 국공립대학을 모두 무상화할 경우 연간 8300억 원의 예산이 소요되는 것으로 나타난 바 있다.  이에 더해 사립대학교 재학생들을 위해 학자금대출을 무이자로 전환한다면 현재 연 학자금 대출 규모는 연 1조 8000억 원으로, 2%인 이자를 무상으로 전환할 경우 연간 370억 원이 필요하게 된다. 한편 민주평화당은 주택에 비해 과도한 특혜를 받고 있는 별도합산토지(상가, 빌딩 부속토지)에 대한 종부세 정상화로 1조 5000억 원 이상을 마련할 수 있다는 점을 강조했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      항한국항공우주산업진흥협회(항공우주협회)는 지난 22일 국회 의원회관 제1세미나실에서 열린 ‘항공 산업 육성을 위한 정책 세미나’가 성황리에 마무리됐다고 밝혔다.  자유한국당 김규환 의원과 더불어민주당 송영길 의원이 공동주최하고 항공우주협회가 주관한 이번 정책세미나는 국내 항공 제조 산업 육성 및 수출 촉진 방안과 일자리 창출을 위한 정부조달제도 발전 방향 등을 모색하기 위해 마련됐다.  항공우주협회 김조원 회장을 비롯해 기획재정부, 산업통상자원부, 국토교통부 담당과장, 유관부처 및 전문가 등 100여명이 참석한 이번 행사는 주제 발표, 패널 토론, 질의응답 순으로 진행됐다.   ⓒ한국항공우주산업진흥협회   이날 첫 번째 발제자로 참석한 항공안전기술원 이강이 박사는 항공안전협정(BASA*) 상호인정범위 확대를 위한 시범사업 추진전략을 발표했다.   이 박사는 “국산 항공기 및 부품의 수출을 촉진하기 위해서는 그동안 BASA IPA(감항성 이행절차)에 따라 KC-100 비행기, B737-400 타이어 등 소형항공기, 기술표준품(TSO)에만 한정되어 있었던 상호인정범위의 확대가 필수”라며, “이를 위한 국책 과제 추진 시 국내 항공산업 육성과 수출 촉진을 위하여 기획 단계에서 부터 본격적인 시범사업 시 까지 정부의 적극적인 지원이 필요하다”고 강조했다.  두 번째 발제자인 조달연구원 김대식 박사는 ‘일자리 창출을 위한 정부조달제도 발전 방향’을 주제로 정부조달제도의 현황과 시장에 대해 소개했다.   김 박사는 “외산 의존도를 낮추고 국산조달 비중을 높이기 위한 정부조달제도의 입찰방식 개선을 통해 신산업 육성 및 일자리 창출이 가능하다”며, “우선 국민의 세금으로 만든 국산 항공기, 헬기들이 국유재산으로 이용될 수 있는 분위기가 안정적으로 조성되어야 한다”고 말했다.   또한 “중장기 구매 계획 및 통합구매, 자국산 우선 구매제도 등 국산품을 보호하기 위한 제도적인 개선 노력도 중요하다”고 덧붙였다.  주제 발표 이후 이어진 패널 토론에서는 항공우주학회 이재우 수석부회장(건국대)을 좌장으로 기획재정부 천재호 지역경제정책과장, 산업통상자원부 양병내 자동차항공과장, 국토교통부 오성운 항공기술과장, 항공우주학회 방효충 부회장(KAIST) 등이 항공우주산업의 현안 및 육성을 위한 개선과제, 국내 제작 항공기 및 부품 경쟁력 강화 방안 등에 대해 토론했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ⓒ전주시      2020 전주다움으로 세계와 승부하겠습니다! 존경하는 전주시민 여러분!  2020년 새해 복 많이 받으십시오.  지난 5년 동안 전주는 사람과 생태와 문화를 핵심 가치로 놓고 도시의 체질을 바꾸고 전주만의 정체성을 찾기 위해 노력했습니다. 그 결과 전주는 대한민국에서 가장 주목받는 도시로 성장하고 있습니다. '가장 전주다운 것이 가장 세계적인 것'이라는 확고한 믿음으로 2020년 전주는 세계와 승부하는 한 해를 만들고자 합니다.  세계와 겨룰 수 있는 무기는 단연 '전주다움'입니다.경제 분야에서도 전주만의 특징과 장점을 살려가겠습니다. 수소경제 시범도시로 선정된 만큼 원천기술과 인프라를 선점하겠습니다. 국가 탄소산업 1번지로서 산단 조성과 관련기업 유치에 힘을 쏟겠습니다. 드론기업지원센터 구축, 국제드론축구센터 설립 등으로 국가 드론산업을 주도하겠습니다. 산학융합플라자 건립, 팔복예술공장과 연계한 팔복청년예술놀이터 건립, KAIST 미래 발전전략 포럼 운영 등 청년창업 친화도시를 조성하겠습니다. 전북중소기업연수원과 4개 권역 지식산업센터를 건립해 좋은 인재들이 지역을 떠나지 않고 일할 수 있는 여건을 만들겠습니다.  문화 분야에서도 세계와 당당히 승부하는 원년을 만들겠습니다.구도심 문화심장터 100만평의 중심인 한옥마을에 전주관광산업 발전의 기폭제가 될 대한민국 1호 관광트램을 도입하겠습니다. 호남의 수부이자 관민상화의 상징인 전라감영 복원 원년을 맞아 2단계 복원과 전주부성 일부 복원을 추진하겠습니다.충경로는 제2첫마중길로 거듭납니다. 한옥마을과 구도심 글로벌 웰컴센터 조성으로 국제관광 거점공간을 확보하겠습니다. 종합경기장 본격 재생과 함께 옛 법원·검찰청 자리는 전통문화와 과학기술이 융합하는 미래형 콘텐츠, 가칭 한국문화원형 미디어아트센터를 건립해 덕진 뮤지엄밸리의 꿈을 앞당기겠습니다.  지난 12월, 중화산 전주시립도서관 야호책놀이터와 평화동 야호책놀이터 개관으로 도서관 도시로 성장할 수 있는 가능성을 확인했습니다. 이를 바탕으로 새해에는 '도서관, 그 이상의 도서관 도시'로 거듭납니다. 전주는 인문학 365, 인문주간 선포, 전주독서대전 개최 등으로 꾸준히 쌓아온 인문의 힘이 있습니다. 시청로비 도서관, 서학마을 예술전문도서관, 첫마중길과 구도심 여행전문도서관, 독립출판 전문 완산도서관, 혁신도시와 에코시티 커뮤니티센터에도 야호 책놀이터를 만들어 모든 시민이 책과 함께 성장하는 도서관 도시를 만들어가겠습니다.   천만그루 정원도시를 만들기 위한 발걸음도 계속 됩니다.1월부터 시민헌수를 시작해 6월에 천만그루 정원도시 종합계획을 완료하고 금암분수정원 조성 등 도시 곳곳을 정원으로 만들겠습니다. 전주 종합경기장 부지는 5가지 테마숲 조성 등 '시민의 숲 1963'이라는 이름으로 시민과 함께 만들어가겠습니다. 일몰제로 사라질 위기에 처한 장기미집행 도시공원 내 사유지는 시에서 일괄 매입해 난개발을 막고 도시 숲과 공원을 살리는 기회로 바꾸겠습니다.   시민들의 여가와 저녁이 있는 삶을 응원하겠습니다.한옥마을 문화시설과 7개 도서관 이용시간을 밤 10시까지 연장하고 서부권·북부권 복합복지관 건립을 추진해 다양해진 문화욕구를 충족시키고 문화향유의 폭을 넓히겠습니다. 아이부터 어르신까지 섬세한 돌봄으로 복지의 질을 높이겠습니다. 정든 집에서 노후를 편안하게 보낼 수 있도록 지원하는 전주형 통합돌봄 선도사업의 완성도를 높여가고 발달장애인 사서 정규직 전환 등 양질의 일자리를 만들어가겠습니다. 공공어린이 재활의료센터 건립, 국공립어린이집 확대로 모든 부모가 안심할 수 있는 보육환경을 만들어가겠습니다.  아이들이 숲속에서 놀고, 책과 함께 놀고, 예술과 함께 노는 전주형 야호플랜을 지속적으로 추진하고 우리 아이들이 주체적으로 미래를 설계하는 '10학년 인생학교' 등 새롭고 혁신적인 야호학교를 본격적으로 운영하겠습니다.  사랑하는 전주시민 여러분! 지난 5년 동안 전주는 많은 변화를 이룩했습니다. 조금씩 쌓여온 작은 변화들이 어느 순간 폭발적인 힘으로 전환돼 새로운 시대를 열어가듯, 전주는 지금 새로운 변화의 시간을 앞두고 있습니다.  국내 관광도시를 넘어서 국제 관광거점도시로 도약하고 대한민국 수소경제를 압도적으로 이끌어가는 선도도시, 지역균형발전을 선도하고 시민의 삶을 바꿀 특례시의 꿈을 전주는 결코 포기하지 않을 것입니다.   끊임없이 변화하지만 본질은 끝까지 지켜내는 뚝심 있는 도시. 자존심을 잃지 않고 전주다움으로 세계와 승부하는 도시. 세계 어디를 가든 '전주사람'이라는 것이 자랑스러운 도시. 시민 여러분과 함께 만들어가겠습니다.  사랑하는 전주시민 여러분, 새해 복 많이 받으십시오! 2020년 1월 7일 전주시장 김 승 수 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      문재인 대통령은 25일 국가교육회의 의장에 신인령 이화여대 명예교수를, 4차산업혁명위원회 위원장에 장병규 블루홀 이사회 의장을, 저출산·고령화사회위원회 부위원장에 김상희 더불어민주당 의원을 각각 위촉했다. 강원도 강릉 출신인 신인령 국가교육회의 의장은 한국노동법학회장과 교육부 법학교육위원장, 이화여대 총장, 삼성고른기회장학재단 이사장을 거쳐 현재 이대 법대 명예교수로 재임 중이다.박수현 청와대 대변인은 "신 의장은 법학자이자 교육전문가로 풍부한 경륜과 학식을 겸비해 고등교육은 물론 유·초·중등교육과 평생 직업교육 등 각 분야의 현안을 합리적으로 조율할 적임자"라며 "주요 국정목표인 국가가 책임지는 교육을 구현하고 모든 아이는 우리 모두의 아이라는 새 정부의 교육철학을 실현해 교육혁신에 역할을 하리라고 기대한다"고 밝혔다. 대구 출신인 장병규 4차산업혁명위원장은 한국과학기술원(KAIST) 전산학과에서 학·석사 학위를 받은 뒤 20대이던 1997년 네오위즈를 공동창업했다. 이후 1999년 채팅사이트 세이클럽을 내놨으며 2005년에는 검색엔진 개발업체 '첫눈'을 창업했다가 이듬해 네이버에 350억원을 받고 매각했다. 2007년에는 게임업체 블루홀을 창업했으며, 올해 3월 출시한 '배틀 그라운드' 게임은 글로벌 PC게임 순위에서 1위를 차지하고 있다.장 위원장은 현재 블루홀의 지분 20% 정도를 보유한 최대 주주로서, 비상장회사이지만 장외주가를 토대로 계산하면 장 위원장의 지분 가치가 9000억 원을 넘는 것으로 알려졌다.박 대변인은 "장 위원장은 20대 때 창업한 네오위즈를 시작으로 블루홀 스튜디오 등을 성공시켜 IT 업계의 '미다스 손'으로 불리는 살아있는 전설이자 스타트업 기업인 우상"이라며 "실전경험과 혁신적 소통리더십으로 새 정부의 4차 산업혁명에 대응하기 위한 정책과 국가 전략을 구현할 적임자"라고 밝혔다. 또한 "4차 산업혁명과 관련한 분야별 대응기반을 마련하고 주요 정책의 심의 조정을 통한 종합대책 수립, 대국민 인식 제고와 사회적 합의도출 등 4차 산업혁명의 컨트롤 타워 역할을 성공적으로 수행하리라고 기대한다"고 했다. 대통령이 위원장인 저출산·고령화사회위원회의 부위원장으로 위촉된 김상희 의원은 충남 공주 출신으로, 한국여성민우회 상임대표와 대통령 직속 지속가능발전위원회 위원장 등을 거쳐 18대 국회부터 3선 의원을 기록하고 있는 현역 의원이다. 박 대변인은 "김 부위원장은 3선 의원으로 여성과 환경, 노동 분야에서 다양한 경험과 전문성을 쌓았고 의원 재직시 여성인권보호, 일·가정 양립 지원을 위해 노력했고 국민노후생활 보장하려는 새 정부의 복지철학을 누구보다도 잘 이해하는 적임자"라고 했다.또한 "저출산 극복과 노후생활 보장이라는 국정과제를 완수해 내 삶을 책임지는 국가라는 복지철학 실현에 기여할 것으로 기대한다"고 덧붙였다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      프레시안 협동조합 6월 가입자 중 유일한 20대. 단박에 '이 주의 조합원' 대상으로 정했다. 변.규.홍. 습관적으로 이름 석 자를 검색했다. 헐! 구글신은 그의 트위터와 페이스북, 사진, 관련 기사까지 한 번에 제공했다.   '정치하는 프로그래머'이자, 녹색당 청년조직 '청년녹색당' 전국위원. 카이스트(KAIST)에서 공부했음. 관심사는 IT와 전산, 대학과 청년 문제 등. 기록을 중요하게 생각하며 민주주의 시스템에 대해 고민하고 있음. 현재 병역특례 업체에서 군 복무 중.   범상치 않았다. 시대와 호흡하는 인물이던가, 문제적 인물이던가 둘 중 하나였다. 궁금했다. 지난 20일, 변규홍 조합원을 만났다.    ▲ 6월 언론 협동조합 프레시안의 신규 조합원이 된 변규홍 씨. ⓒ프레시안(이명선)   "'카이스트 악령'과 함께한 학창 시절"  변 조합원은 지금은 학교를 떠났지만, '서남표식 개혁'이 이뤄지던 시절 카이스트를 다녔다. 자신을 "서남표 1세대"라고 말한 그는 당시를 "'카이스트 악령'과 함께한 학창 시절"이라고 표현했다.   서남표 매사추세츠공과대학 명예교수는 2006년 7월부터 2013년 2월까지 카이스트 총장으로 재직했다. 그는 총장 취임 후 징벌적 등록금제(차등 수업료제)와 100% 영어 강의 등을 시행하며 학생들을 경쟁 교육으로 내몰았다. 그 결과 2011년 한해에만 4명의 학생이 자살, 사회적 문제로 대두됐다.(☞ 관련 기사 : '서남표식 개혁'? 알고보면 '카이스트판 MB식 전횡')  "서남표 체제에서 가장 끔찍했던 것은 '무한비하향(無限非下向)' 경쟁이었다. 기준에 미달한 경우, 실패를 만회할 수 없었다. 재수강하거나, 학기를 연장할 방법도 없이 밑바닥까지 떨어뜨려 재기불능 상태를 만들었다. '더는 기회가 없다'는 압박감이 비극을 일으켰다고 생각한다. 이후 학교 문화도, 학생 간 정치도 무너졌다."  후배와 친구의 자살을 목도한 변 조합원은 이듬해 학교 문화가 달라졌다는 사실을 피부로 느꼈다고 했다. "실패를 위로해 주며 다시 일어날 수 있다고 용기를 주던" 선후배와 동기가 사라진 것. 그는 "무너져 가는 것을 무너지지 않게 하는 것"이 자신의 일이라는 생각으로, 학교 중앙선거관리위원회 위원장과 동아리연합회 회장 등 학생회 일에 집중했다.   "흔히 말하는 '운동권 학생'은 아니었지만, 학교의 일방적 행태에 제동을 걸 수 있는 학생회가 필요하다고 생각했다. 또한 학생회는 최소한의 민주성을 가지고 운영되어야 하며, 크든 작든 회의 내용은 반드시 기록되고 공개되어야 한다고 생각했다."   하지만 구성원 모두가 변 조합원의 생각에 동의한 것은 아니었다. 특히 회의 속기록 공개에 대해 "'대의 민주주의'를 내세워 밀실회의를 정당화"하는 등 이견이 많았다.   "기록은 중요하다. 컴퓨터가 수행한 모든 활동 내역은 자동적으로 기록된다. 또 각종 프로그램을 이용해 변경/삭제/생성된 것을 감시한다. '민주주의'라는 시스템도 마찬가지다. 시스템이 제대로 작동하려면, 기록을 통한 재확인과 유지보완이 가능해야 한다."    ▲ 카이스트 학생과 서남표 총장의 간담회가 진행된 2011년 4월 한 학생이 총장의 사과와 개혁 폐기를 요구하는 피켓을 들고 있다. ⓒ연합뉴스   '정치하는 프로그래머'를 꿈꾼다 변 조합원은 학생회 활동을 하며 "정치는 남에게 맡기는 게 아니라 내가 필요한 것을 직접 협상과 합의를 통해 얻는다는 점을 배웠"다.(중앙대 교지 &lt;중앙문화&gt; 70호 '진보 3당원을 만나다' 중) 이진법을 사용하는 컴퓨터처럼 "내가"와 "직접"이라는 두 단어가 무한 연산을 했을 터. 무엇보다 녹색당 강령이 그린라이트(green light)가 됐다.   "대표자를 뽑아서 일을 맡기는 대의민주주의는 한계에 부딪혔습니다. 모든 의사결정 과정이 투명하게 공개되고 시민들이 참여하는 직접·참여 민주주의가 필요합니다."(녹색당 강령 '직접·참여·풀뿌리민주주의' 중)  그는 친구 진달래 씨(전 서울대 동아리연합회 회장, 6.4지방선거 인천시의원 녹색당 비례대표 출마)를 따라 강남 가듯 당원이 됐다. 변 조합원은 당시만 해도 "원자력 발전소 덕에 전기를 싼값에 쓰고 있다"고 생각할 만큼 녹색당과 거리가 있었다. 그러나 지금은 20대 청년이 안전교육도 받지 못한 채 피폭됐다는 뉴스에, 원자력안전위원회 속기록을 직접 찾아볼 정도로 '탈(脫) 원전주의자'가 됐다.(☞ 관련 기사 : 20대 직원 입사 한달 만에 피폭…업체는 숨기기 급급)   "사고 업체는 국정감사에서도 몇 차례 지적을 받은 곳이다. 원자력안전위원회 속기록에 업체의 문제점이 고스란히 적혀 있다. 나름대로 투명한 나라다. 하지만, 이를 대중에게 알리고 문제의식을 공유하는 정당이 없다. 녹색당을 통해 이런 사실을 알리고 싶다."  그는 2년째 청년녹색당 전국위원으로 활동하며, 녹색당에서 다양한 시스템을 만들고 있다. 당은 이번 4.13 총선에서 변 조합원이 제안한 '1인2표 누적투표제'를 적용해 비례대표 후보 다섯 명(황윤, 이계삼, 김주온, 구자상, 신지예 등)을 선정했다. 그러나 안타깝게도, 정당 득표율 미달로 국회 입성에 실패했다.   "민주주의라는 시스템에서 '정치'는 모든 사람이 해야 하는 것이라고 생각한다. 내가 신뢰하는 후보를 고르고, 그 사람을 국회에 들어가게 하는 것도 정치다. 직업이 정치가 아닌 사람도 정치를 할 수 있다는 것을, 많은 사람과 공유하고 싶다."    훅, 질문을 던져봤다. 직접 정치할 생각은 없느냐고. 변 조합원도 에두르지 않았다.   "국회의원을 한 번은 해보고 싶다. 직업을 '정치'로 삼는다면, 최대한 짧게 할 생각이다. 새누리당 김무성 의원의 경우, 정치가 직업인 사람이지만 정치와 동떨어져 보인다. 한국 사회에서 정치란, 밥하고 빨래하는 일상과 같이 가야 한다고 생각한다. 삶이 보편적이지 않은 사람들이 보편적인 삶을 사는 사람의 삶을 바꾸겠다고 정치를 하니, 점점 '이상한 나라'가 되어 가고 있다."     ▲ 팝아트 작가 이하 씨가 전두환 전 대통령, 박근혜 대통령, 이명박 전 대통령을 풍자했다. ⓒ이하   "조합원 교육 프로그램이 있었으면 좋겠다"  변 조합원에게 &lt;프레시안&gt;과의 인연을 물었다. 그는 대뜸 지난 4월 9일 &lt;프레시안&gt;에 실린 이계삼 밀양송전탑반대대책위 사무국장과 문화학자 엄기호 박사의 대담을 언급하며, 자신이 속기했다고 말했다. 변 조합원이 속기한 내용을, 하승우 풀뿌리자치연구소 이음 운영위원이 최종 정리한 것으로 보인다.(☞ 관련 기사 : "왜 녹색당 찍냐고?" "확 뒤집어야 사니까!")   "4.13 총선 전, 녹색당의 교육 정책을 알리고자 한 대담이었다. 기사가 발행된 뒤, &lt;프레시안&gt;에 일정 부분 기여했다는 생각에 뿌듯했다. 그러던 중 언론 협동조합 프레시안에 조합원으로 가입하면, 광고 없는 기사를 볼 수 있다는 얘기가 생각났다. 마침 보너스를 받은 게 있어, 주저 없이 가입했다. 물론, &lt;프레시안&gt; 기사는 녹색당 당원이 되기 전부터 보고 있었다."    이어 그는 "프레시안 조합원으로 해야 하는 일이 있다"며 구내식당과 편의점 등 무너지고 있는 대학생활협동조합을 지적했다.   "전국 대학가에 '아침밥 1000원' 바람이 불고 있다. 학생들의 경제적 부담을 줄여주겠다는 취지는 좋지만, 매끼 밥을 만드는 노동자의 처우는 어떨까. 서울대는 밥값을 1000원으로 낮추면서 생기는 손실은 학교 측이 후생복지기금 등을 출연해 메울 계획이라고 밝혔지만, 투명하게 운영되고 있는지 의문이다. 값싸고 질 좋은 서비스라는 허울에 소외된 구성원은 없는지 살펴야 한다. 협동과 상생을 통한 최상의 복지가 무엇인지 같이 얘기해야 한다."    민주주의와 협동에 대한 고민만큼 변 조합원이 &lt;프레시안&gt;에 바라는 점도 만만치 않을 것 같았다. 그는 "프레시안은 다양한 민주주의 시스템을 실험할 수 있는 그릇(플랫폼)이라는 기대가 있다"며 "협동조합을 제대로 이해할 수 있는 조합원 교육 프로그램이 마련됐으면 좋겠다"고 말했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ▲기공식 모습 ⓒ포항시      국내외 기업체 및 연구기관이 입주하고 신약개발을 협력할 수 있는 산학연 신약개발 연구지원 시설이 경북 포항에 설립된다.  경북도는 포항시, 포스텍(POSTECH), 제넥신과 공동으로 26일 포스텍 생명공학연구센터에서 산학연 신약개발 혁신 연구플랫폼인 ‘바이오 오픈 이노베이션 센터(BOIC)’기공식을 개최했다.   행사에는 전우헌 경북도 경제부지사, 이강덕 포항시장, 김도연 포스텍 총장, 성영철 제넥신 회장, 포스코 관계자, 바이오 기업체 대표 등 200여명이 참석했다.  BOIC는 산학연 신약개발 지원과 기업체․연구소 유치 및 바이오 벤처기업 인큐베이팅 등 지역 신약산업 생태계 조성을 위해 포항시, 포스텍, 제넥신이 공동으로 투자해 구축하는 신약산업 전초기지이다.  특히 제넥신은 포스텍에서 벤처기업으로 출발해 국내 굴지의 제약사로 성장한 바이오 벤처기업의 대표적인 성공모델이다.    ▲세포막단백질연구소 추진단 현판식 ⓒ포항시   BOIC는 포스텍 생명공학연구센터 부지 내 면적 7,926㎡(지상 3층, 지하 1층) 규모로 올해 12월에 준공될 예정이다.   센터에는 제넥신 등 국내외 바이오기업 및 아리조나주립대 등 연구기관 입주와 더불어 신약 후보물질 시험생산과 상품화를 지원할 수 있는 신약개발 파일롯 플랜트 구축, 세포막단백질연구소 사업 추진단 등이 설치돼 운영된다.  그동안 경북도는 포항시, 포스텍, 제넥신과 함께 BOIC 건립을 위한 공동투자협약 체결, 국내외 신약개발 기업체와 연구기관 유치 등 포항지역 신약산업의 생태계 조성을 위해 다양한 활동을 전개해 왔다.   BOIC 건립은 지방정부 차원에서 신약산업 발전을 위해 선도적으로 투자한 사업이다. 기업과 연구기관이 공동으로 연구그룹을 구축하고 신약개발에 협력해 국내외 기업유입과 벤처창업은 물론 바이오 전문인력 양성을 통한 일자리 창출 등이 자연스럽게 연결될 것으로 기대하고 있다.    ▲가속기 기반 신약개발 클러스터 조감도ⓒ경북도   한편 이날 기공식 행사에 앞서 가속기 기반 신약개발 핵심사업인 ‘세포막단백질연구소 설립 사업추진단’ 출범식도 가졌다.   출범식에서 경상북도, 포항시, 포스텍, 포스코는 세포막단백질연구소 설립․운영을 지원하기 위해 업무협약을 체결했다. 또한 이지오 카이스트 교수를 사업추진단장으로 임명하고 세포막단백질연구소 현판 제막식도 가졌다. 이지오 교수는 2020을 빛낼 대한민국 100인에 선정되는 등 국내 세포막단백질 분야 권위자이다.  경상북도는 철강, 자동차 등 지역 주력산업의 위기를 극복하고 다변화할 수 있는 미래성장 동력산업을 육성하기 위해 가속기 기반 신약개발 프로젝트를 전략적으로 추진해 왔으며 프로젝트의 핵심사업인 세포막단백질연구 설립에 집중해 왔다.  세포막단백질연구소는 그 동안 질병 원인의 60%이상을 차지하지만 구조분석이 어려웠던 세포막단백질을 4세대 방사광가속기를 활용해 전문적으로 구조를 규명하고 신약후보물질을 도출하는 연구소로, 1,500조원 글로벌 신약시장에서 우리나라 신약산업이 주도권을 확보할 수 있는 획기적인 전기를 마련할 것으로 기대된다.   전우헌 경북도 경제부지사는 “4세대 방사광가속기, BOIC, 세포막단백질연구소 등 세계적으로 경쟁력 있는 연구시설와 특화된 전문연구소가 지역에 위치하는 만큼 국내외 바이오기업과 연구소를 지속적으로 유치해 지역 신약산업 육성과 일자리를 창출하는데 최선을 다 하겠다” 고 말했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      김동원 전북대 총장임용후보 내정자는 30일 전북대 진수당에서 기자회견을 갖고 당선 소감을 밝혔다. ⓒ 프레시안(=이태영 기자)      "하드웨어 보다는 소프트파워에 충실하고, 투명하고 공정한 대학운영을 염원하는 구성원들의 선택이었다고 생각합니다. 내실있는 지역거점대학으로 지속성장 시키기 위해 분골쇄신 하겠습니다"   김동원 전북대 총장임용후보 내정자는 30일 전북대 진수당에서 기자회견을 갖고 당선 소감을 밝혔다.   김 내정자는 “전국에 300여개 월드클래스기업 있다. 우리 지역에도 최소 10여개 가 있어야 한다. 그러나 단 한 곳도 없다”고 전제하고 “대학의 역할은 지역 인재 키우는 것이다”며 “이제 막 졸업장을 딴 성인 신입생이 아니라 20~30대에 크게 성장할 수 있도록 돕겠다”고 약속했다.   특히 “20~30대 CEO가 나오는 줄기세포 같은 대학을 만들겠다”고 다짐했다.   김 내정자는 취업률에 대해서도 강한 의지를 밝혔다.   그는 “학생들의 질적인 성장이 많이 필요하다. 특히 취업률이 많이 떨어졌다. 학생들을 강의실에서 교육시켜 찍어내는 교육과정을 탈피해야 한다”며 “각자 재능과 능력에 맞춘 교육 과정이 필요하다”고 말했다.   그러면서 “학생들은 많은 생각을 하고 넓게 봐야 한다. 전북대학교는 해외 교환학생이 수도권에 비해 열악하다”며 “많은 학생들을 해외에 보내서 강한 인재로 키우겠다”고 말했다.   전북대학교 발전을 위한 교수 채용 문제에 대해서도 의견을 밝혔다.   그는 “교수채용 자체가 잘못된 것 아니다. 정당성 투명성 이게 문제다 과정 속에서 잘못됐다”며 “교수는 누가 전문가인지 안다. 그런 분들 지원했음에도 다른 교수가 들어오면 자괴감이 들 수 밖에 없다. 대학발전은 동료애로 성장한다. 한 사람 한 사람이 동등한 평등권을 가져야 한다. 불평등이 적은 사회 그게 혁신사회다”고 잘라 말했다.   김 내정자는 또 후보자간 갈등과 반목에 대해 “박근혜 정부 거치면서 직선제를 빼앗겼다는 자괴감이 구성원들 사이에서 퍼졌다. 자긍심이 떨어졌다. 그런 가운데 직선제가 치러졌다. 선거규칙이 미흡할 수밖에 없었다. 그 과정에서 가처분 신청, 고소 고발이 이어졌다”며 “구성원들의 갈등 반목이 있으면 연구실과 강의실에서 알찬 교육을 할수 없다는 것을 모두가 잘 알고 있다. 이남호 전 총장도 고소고발을 취하하겠다는 의사를 밝혔다. 빨리 공부하는 대학으로 만들겠다”고 말했다.   한편 김동원 내정자는 1982년 서울대학교 산업공학과를 졸업했으며, 이후 카이스트 석사를 거쳐 호카이도대학교에서 생산공학 박사학위를 받았다.   지난 2011년, 전북대학교 공과대학장이었던 시절에 정부지원사업 없이 대학 자체예산으로 전북 내 고등학생을 대상으로 창의기술아카데미 캠프를 운영해왔다.   이를 성과로 한국산업기술진흥원의 공모사업에 응시해 전북대 청소년 창의기술인재센터 설립과 운영여건을 마련, 전북 청소년들의 이공계 인재 육성에 기여했다는 평가다.   1988년 4월부터 현재까지 전북대학교 교수로 재직했으며, 공과대학장과 산학협력단장을 지냈다.   이외에 현재 전북대 공학교육혁신거점센터장, 전북대 청소년창의기술인재센터장, 교육부 인정기관심의위원장 등의 역할을 맡고 있다.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲'세종 더휴 예미지' L1·L2 전체 조감도 ⓒ세종 더휴 예미지       한신공영㈜과 ㈜금성백조주택이 24일 ‘세종 더휴 예미지’ 견본주택을 개관하고 본격 분양에 나선다.  4-2 생활권 L1·L2블록에 들어설 ‘세종 더휴 예미지’는 지하 1층~지상 20층, 아파트 15개동(846가구) 규모로 지어진다.  주택형별로는 △전용 59㎡ 309가구 △전용 84㎡ 398가구 △전용 97㎡ 139가구 등이다.  ‘세종 더휴 예미지’ 는 삼성천 바로 옆에 들어서게 돼 수변 조망이 우수하다. 삼성천에 조성될 예정인 수변공원에는 금강 조망이 가능한 축제나루와 전망공간·철새조망대 등이 마련될 예정이며, 수변 산책로 등도 조성될 계획이다.  또 삼성천 수변공원과 단지 측면부가 470m 이상 맞닿아 있어 입주민들의 여가 공간인 단지 내 커뮤니티 시설도 수변공원과 연계될 수 있도록 배치된다.  수변 특화동도 조성돼 가치를 높인다. 이밖에 금강·안산·괴화산 등이 인근에 있어 수변과 녹지 조망권 등 쾌적한 주거 환경이 강점이다.  ‘초학세권’ 교육환경과 교통 편의성도 눈여겨볼 만 하다. 단지 바로 앞에 조성될 초등학교와 중학교를 통해, 학생들은 도보로 안전하게 통학할 수 있다.  아울러 단지 인근에 간선급행버스체계 BRT(Bus Rapid Transit) 정류장이 예정돼 있다. 세종시의 BRT 인프라는 국내 최고 수준으로, BRT 구축이 완료되면 세종시 주요 권역으로 빠르고 편리하게 이동할 수 있다.        ▲'세종 더휴 예미지' L1·L2 전체 조감도 ⓒ세종 더휴 예미지    직주근접 특성도 우수하다. 대학·연구 핵심거점으로 특화된 4-2 생활권 내에는 세종테크밸리를 비롯 국내외 우수대학과 연구기관·산업체 등이 들어선다.  카이스트 융합의과학원·충남대 의학바이오융합 캠퍼스·기술집약적 벤처기업·국책연구기관 등이 입주할 예정이다. 차량을 이용해 약 16분이면 정부세종청사에 도달할 수 있고, 대덕연구단지와 대전 제3·4산업단지도 각각 약 11km와 15km 거리에 있어 출퇴근이 용이하다.  생활 및 문화 인프라 역시 우수하다. 세종테크밸리 내 캠퍼스타운은 상업·문화·업무 지역으로 계획돼 쇼핑과 문화의 거리가 조성될 예정이다.  또한 삼성천에는 4-1 생활권과 연결되는 보행전용교가 설치된다. 이를 통해 4-1생활권에 밀집한 다수의 관공서 및 이미 조성된 다양한 인프라를 공유할 수 있다.  차은혁 세종 더휴 예미지 분양 소장은 “세종 4-2 생활권 내에서도 수변 조망권·초학세권’ 등 멀티 프리미엄을 갖춘 단지는 흔치 않다”며 “직주근접 특성을 포함해 실거주 여건이 우수하다. 행정안전부·과학기술정보통신부 이전과 국회 세종의사당 설치 확정 등 호재도 많아 다양한 투자자의 관심이 집중될 것”이라고 말했다.  견본주택은 세종시 대평동 264-1번지에 마련된다. 입주는 2021년 11월 예정이다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲충북도가 11일 서울 충북학사 서서울관에서 국회의원초청 정책간담회를 진행했다. (왼쪽부터) 장선배 충북도의장, 김수민 의원, 이종배 의원, 변재일 의원, 이시종 도지사, 오제세 의원, 정우택 의원, 도종환 의원, 이후삼 의원.ⓒ충북도       충북선 철도 고속화사업 오송연결선 반영 등 6조 원대 내년도 지역현안 예산확보를 위해 충북도가 지역출신과 연고 국회의원들과 머리를 맞댔다.   도는 11일 서울 영등포구 소재 충북학사 서서울관에서 변재일, 오제세, 정우택, 도종환, 이후삼, 김종대, 김수민 국회의원이 참석한 가운데 정책간담회를 가졌다.  도가 내년도 예산에 대한 협조를 구하는 이날 자리에 도는 지역출신과 비례대표, 지역연고 의원 등 21명을 초청할 예정이었으나 7명밖에 참석하지 않아 국회차원의 협조가 여전히 미약한 아쉬움을 남겼다.  이날 간담회에서는 충북선 철도 고속화사업 오송연결선 반영, 세종~세종관문공항 고속화도로 건설, 세종~오송역~청주공항 중전철 건설 등 에 대한 지원과 협조가 논의됐다.  이어 오송 국제 K-뷰티스쿨 건립, KAIST 생명과학기술대학 오송 확대이전, 미래첨단농업복합단지 조성, 중부권 차세대 방사광 가속기 구축, 수소 융복합실증단지 공모 선정, 충북 시스템반도체 후공정 플랫폼 구축, 충청권 2030 하계 아시안게임 공동유치, 2019 충주세계무예마스터십 개최 등도 포함됐다.  또한 기재부 심사가 진행되고 있는 가운데 중부고속도로(서청주~증평) 확장, 충청권 유교문화권 광역관광개발 사업, 미래해양과학관 건립, TBN충북교통방송국 건립, 국립 충주박물관 건립, 천연물 지식산업센터 구축, 단양군 보건의료원 건립, 영동~보은 국도 건설, 소방복합치유센터 구축 등 71건의 사업에 대해 정부예산 반영을 적극 요청했다.  이시종 지사는 “충북선철도 고속화사업 예타면제, 청주국제공항 거점항공사 면허발급 등 지역현안 해결에 큰 역할을 해 준 지역 국회의원들에게 감사하다”며 이번 간담회에서 건의한 주요 현안 및 정부예산 사업에 대해서도 각별한 관심과 지원을 다시 한 번 요청했다.  아울러 지난달 22일 충북 오송에서 대통령이 참석한 가운데 개최한 바이오헬스 국가비전 선포식 후 바이오산업 중심지로 발돋움하기 위한 후속 조치에 대해서도 자세히 설명하며 협조를 구했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      환경보호, 자연보호를 위해서는 과학기술을 이용해 환경과 자연을 개선하려고만 달려들 것이 아니라, 인간의 자연에 대한 태도나 마음가짐, 그리고 삶의 양식을 바꾸어야 한다.(필자 주)    자살률 1위를 비롯해, 노인빈곤율 1위, 산재사망률 1위, 임시직노동자 비율, 노동시간, 복지비 지출, 출산율, 미세먼지농도 등 대한민국의 실상을 드러내 보여주는 여러 표징들을 보면 우리 사회는 정치, 경제, 사회, 교육, 복지, 국방, 외교, 환경 등등 여러 측면에서 기형화되어 있다는 생각이 들 때가 한두 번이 아니다.   그래서 여러 가지로 고민해야 할 일이 많지만 이런 문제들을 다 고민하기에는 능력이 부족하기도 하고, 또 이 모든 문제에 관심이 가는 것도 아니기에 애초 환경문제, 그것도 환경윤리 문제에 집중해 '민미연 칼럼'을 쓰기로 했다. 그렇다 보니, 요즘 들어 인터넷에서 '환경윤리'라는 말을 적잖이 검색하게 되었다. 게다가 올 초 데자르댕(Joseph R. DesJardins)의 &lt;환경윤리&gt; 책을 번역하기도 한지라, 더 자주 검색하게 된다. 그렇지만 전부터 지겹도록 보아오던 몇몇 도서 소개나 별별 시답지 않은 이야깃거리정도가 검색되기 일쑤다.   그런데 며칠 전 반가운 문구를 발견했다. '뉴스'란의 여러 기사에 '환경윤리'라는 말이 '4차 산업혁명'이라는 말과 함께 무더기로 등장한 것이다. 미래창조과학부 미래준비위원회가 지난 4월 18일 '10년 후 대한민국, 4차 산업혁명 시대의 생산과 소비'라는 미래 전략보고서를 발간해 4차 산업혁명에 대응하기 위한 생산과 소비의 혁신 대응 전략을 제시했다는 내용이다. 그리고 지속가능한 순환경제 시스템 전환을 위해서는 '환경윤리 확립'이 핵심이라는 이야기다. 이것이 그토록 반가운 이유는 그동안 환경문제가 중요성에도 불구하고 여러 가지로 뒷전으로 밀리고 있다는 생각이 머릿속에 늘 강하게 자리 잡고 있었기 때문이다.   아닌 게 아니라, 실제로 이러한 생각을 강력하게 지지해주는 사례가 있다. 실천윤리학의 거장으로 일컬어지는 피터 싱어(Peter Singer)는 &lt;세계화의 윤리(One World: The Ethics of Globalization)&gt;라는 그의 책 1장 첫머리를 "9.11테러 당시 비행기가 세계무역센터를 들이받은" 얘기와 "연료를 많이 잡아먹는 SUV(sports utility vehicle) 차량이 달리면서 이산화탄소를 내뿜는" 얘기로 시작한다.   싱어에 따르면, 9.11테러가 일어나자 그 즉시 많은 사람들(3130명)의 죽음을 가져왔고 잊기 어려운 충격을 남겼으며 그 장면이 전 세계로 생생하게 전달되었다는 것이다. 반면 SUV 차량은 기후변화를 일으키기는 하지만, 그 변화는 전자와 같이 눈에 띄는 것도 아니고 과학적인 장치나 기구들을 활용해야만 겨우 탐지될 수 있다는 것이다. 그럼에도 SUV차량을 가진 사람들이 부지불식간에 야기하는 보다 미묘한 변화는 9.11테러(3130명)보다도 훨씬 더 많은 사람(수백만 명)을 죽게 하리라는 것이 분명하다는 것이다.   잘사는 사람들이 자동차를 더 큰 것으로 바꿀 때 그들은 기후변화가 일어나게 하는데 한몫을 하는 것은 분명하다. 그래서 곡식을 여물지 못하게 만들고, 해수면을 상승시키며, 열대성 질병이 퍼지게 하는 등등의 폐해를 가져다줄 것이다. 게다가 과학자들은 온실가스 배출이 지속될 경우 수백만 명의 생명을 잃게 되리라는 증거를 속속 내놓고 있다. 그럼에도 온실가스를 가장 많이 배출하는 나라인 미국의 당시 지도자였던 조지 W. 부시는 다음과 같은 말을 지껄인다고 싱어는 지적한다.   "미국 경제에 해를 끼치는 일은 어떤 것도 하지 않겠다. 왜냐하면 최우선적인 것은 미국국민이기 때문이다."   부시의 이 말은 경제를 위해서라면 SUV차량의 대량 판매로 인한 온실가스 문제가 대수냐는 이야기로 들린다. 이렇듯 환경문제는 그 중요성과 심각성에도 불구하고 경제나 테러 등과 같은 직접적 문제들보다 등한시되어 온 것이 사실이다.      ⓒ지식공감   환경에 대한 인식이 대체로 이런 상황에서 그동안 환경위기의 주원인 중 하나로 지목되었던 이른바 '과학기술'을 선도하는 미래창조과학부(장관 최양희) 산하 미래준비위원회(위원장 이광형)에서 '환경윤리 확립'이라는 이런 목소리를 냈다는 것은 고무적인 일이 아닐 수 없다. '10년 후 대한민국, 4차 산업혁명 시대의 생산과 소비'라는 미래 전략보고서는 4차 산업혁명에 의한 변화를 우리 생활에 큰 비중을 차지하고 쉽게 접할 수 있는 '생산과 소비'라는 키워드로 풀어내고 있다.   위원회는 보고서에 제시된 이런 전략 방향은 차기 과학기술기본계획 등에 반영하여 정책으로 연계할 계획이고, 이 보고서는 정부부처, 공공기관 외에도 국민 누구나 미래준비에 활용할 수 있도록 제공할 예정이라고 밝혔다. 그래서 이 보고서는 현재 누구나 미래부, KISTEP, KAIST 미래전략대학원 홈페이지에서 무료로 다운로드해 볼 수 있다.  이 보고서에서 미래준비위원회는 먼저 사물인터넷(IoT), 빅데이터, 인공지능(AI) 등의 지능정보기술이 초고속의 초연결 플랫폼을 스마트하게 생성함에 따라, 생산과 소비의 전 과정도 실시간으로 똑똑하고 긴밀하게 연결되는 시대가 열리고 있다고 진단한다. 즉 앞으로 생산과 소비가 결합하여, 생산자는 소비자의 요구를 실시간으로 기획, R&amp;D;, 제조 등에 반영하여 재고 없이 스마트하게 생산하고, 소비자는 원하는 제품과 서비스를 적기에 제공받을 수 있게 될 것이라고 내다 봤다.   그리고 위원회는 4차 산업혁명으로 인한 이러한 생산과 소비의 혁명적 변화를 우리 경제의 위기이자 기회로 보고, 이에 대한 변화 트렌드와 우리 산업의 현주소를 진단하였다. 그리고 이러한 변화에 대응하기 위한 국가, 기업, 사회 등을 포함하는 폭넓은 관점에서 전략 방향을 제시한다. 먼저 기업은 기획·R&amp;D;·제조·마케팅을 데이터 중심으로 신속하고 유기적으로 연계·혁신하고, 플랫폼 생태계를 선도하기 위해 주도적으로 플랫폼을 구축하고 활용할 필요가 있다는 것이다. 그리고 정부, 산학연 등 혁신 주체들은 혁신 역량을 높이기 위해, 4차 산업혁명의 핵심기술을 확보하고 개방형 혁신을 확대하는 한편, 창의적 미래인재 양성을 위해 노력해야 한다는 것이다.   또한 정부는 사회적 합의를 통해 개인정보 보호, 공정경쟁, 지식재산권 등의 제도를 정비하고, 미래가치 원천이 될 데이터와 제조 혁신의 기반인 스마트공장 인프라를 강화할 필요가 있다는 것이다. 그리고 마지막으로 미래의 생산과 소비를 풍요롭게 만들기 위해 사회는 경쟁이 아닌 신뢰와 상호협력의 문화를 조성하고, 지속가능한 순환경제 시스템으로 전환하기 위해 '환경 윤리를 확립'하는 것이 필요하다는 것이다.   말하자면 생산과 소비는 사회 내에서 이루어지고 문화의 한 부분을 차지하면서 생산과 소비는 사회·문화를 변화시키고, 사회·문화는 다시 생산과 소비를 변화시키는 상호작용을 이루기 때문에 미래에 생산과 소비를 발전시켜 가면서도 이로 인한 혜택을 많은 사람들이 누릴 수 있도록 하는 문화와 윤리를 사회에 확립할 필요가 있다는 것이다.   이와 관련해서 특히 보고서는 우리나라는 사회적으로 신뢰가 낮은 수준이며 경쟁 위주의 문화가 만연돼 있다는 점을 지적한다. 그리고 경제협력개발기구(OECD)가 신뢰 수준을 포함하여 측정한 사회자본(social capital) 조사에서 우리나라는 32개국 중 29위로 매우 취약하게 나타났다는 점, 그리고 학교 교육에서부터 경쟁에 길들어 서로를 경쟁자로 보는 시각이 만연해 있다는 점을 지적하며 경쟁이 아닌 신뢰와 상호협력의 문화 조성을 강조한다.  그리고 보고서는 또 한 가지 지속가능한 생산과 소비를 뒷받침하는 윤리를 확립하는 것이 필요한데, 그중에서도 기후변화와 자원 고갈의 위협을 극복할 수 있는 환경윤리의 확립이 매우 시급하다는 점을 이야기한다. 이에 따라 환경 친화적 생산과 소비가 이루어지는 순환경제 시스템 도입의 필요성이 강력하게 제시된다는 것이다. 그리고 순환경제 시스템의 도입은 사회에 환경 친화적 윤리의식이 확립되어 국가와 기업에 적극적으로 요구할 때 탄력을 받을 수 있다는 점을 보고서는 강조하고 있다.   이러한 과학자들의 목소리는 반갑고 쌍수를 들어 환경할 일이다. 그러나 아쉬운 점은 다른 주제와 달리 환경윤리를 언급하는 부분은 비교적 환경윤리 확립을 강조하는 선언적 주장에 그치고 그와 관련한 구체적인 방안에 대한 언급이 없다는 것이다. 이는 수십 명의 필진 중에 눈을 씻고 봐도 윤리나 철학을 포함한 인문학 영역의 학자가 눈에 띄지 않는 점으로 보아 어쩌면 당연한 것으로 보인다. 그렇다면 이제 소비주의·물질주의로 인한 환경위기 등 다중적 위기의 시대에 인류 전체의 지속가능한 미래를 위한 대안적 삶의 방식 중 하나인 '단순한 삶' 혹은 '자발적인 소박함(voluntary simplicity)의 삶'의 방식 등에 대해서도 정부 차원에서 관심을 가지고 여러 가지 측면에서 구체적으로 연구해볼 일이다.  어쨌든 과학기술자들이 혹은 정책전문가들이 환경문제의 해결을 위해 과학기술에만 의존해 먼저 환경을 개조하려 달려드는 것이 아니라, 환경윤리라는 말을 입에 올리고 그것의 확립을 통해 인간의 태도나 마음가짐을 변화시키며 이를 토대로 다시 자연환경과 삶의 방식을 바꾸어나가고자 하는 시각의 변화 조짐은 중요한 의미를 지니는 것으로 생각된다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      정치인 안철수에게 좋은 일이 생기면, '안철수 테마주'가 덩달아 뜬다. 지난 총선 다음 날 오전에도, '안랩' 주가가 일시적으로 올랐었다. 정치인 안철수에겐 안 좋은 일이다. 안철수 국민의당 공동대표가 집권하면 권력을 사적으로 유용할 것이라는 믿음이 반영된 현상이기 때문이다. 그렇지 않고서는, 안 대표가 대권에 가까워질 때마다 '안랩' 주가가 오르는 현상을 설명할 수 없다. '테마주'와 검은 기대  지난 2012년 초까지 300원대였던 미래산업 주가가 같은 해 9월에는 2000원대까지 치솟았다. 안 대표가 지난 2008년부터 2011년까지 카이스트 기술경영전문대학원에서 '정문술 석좌교수'를 지냈다는 점 때문에 생긴 일이었다. 미래산업 창업자 정문술 씨가 안 대표와 가까운 사이일 것이라는 믿음이 주가를 6배 이상 끌어올렸다. 정작 정 씨는 안 대표가 대선 출마를 선언하기 닷새 전에 갖고 있던 미래산업 주식 전부를 팔아치웠다. 그래서 400억 원대 현금을 마련했다. 이와 동시에 미래산업 주가는 폭락했다. 이 회사 주가는 현재 400원대다.  '정치인 테마주'는 이밖에도 많다. 최근에는 '반기문 테마주'도 거론된다. 반기문 유엔(UN) 사무총장의 동생 반기호 씨가 부회장을 맡고 있는 보성파워텍이 대표적이다. 반 총장이 오는 25일 열리는 제11회 제주포럼에 참석할 것 같다는 보도가 나오자 주가가 뛰었다. 반 총장이 국내 정치에 참여하겠다는 뜻을 밝힌 적은 없다. 정치에 뛰어든다한들 꼭 집권한다는 보장도 없다. 만약 권력을 잡고 나서, 동생이 다니는 회사에게 이권을 몰아준다면 탄핵 사유가 된다. 그런데 주가가 뛴다. '반기문 테마주' 목록에는 반 총장과 친하다고 알려진 동창이 사외이사로 재직 중인 회사도 있다. 단지 반 총장의 고향 근처에 본사가 있다는 이유로 '반기문 테마주'에 포함된 기업도 있다.  설마하니 한국 정치가 그 정도로 썩었을까. 권력자와 실낱같은 연결 고리만 있어도 이권을 챙길 만큼. 주식 시장은 그렇게 보나보다.  '정치인 테마주'가 '권력을 잡고 나서 친한 사람에게 특혜를 줄 것'이란 검은 기대 위에 서 있다면, '재벌 총수 테마주'는 다른 유형의 어두운 기대에 뿌리를 둔다. 총수가 지분을 많이 보유한 계열사가 다른 계열사로부터 이익을 빨아들일 것이라는 기대다. 요컨대 정상적인 시장 거래로 얻는 것 이상의 이익을 누리리라는 기대다.  '정치인 테마주' 현상이 정치권력을 사적으로 유용했던 역사에서 비롯됐다면, '재벌 총수 테마주' 현상은 한국 재벌의 독특한 작동 방식이 빚어냈다.  총수 지분 높은 회사가 유리하다  그런데 둘 사이에는, 중요한 차이가 있다. 기관 투자자, 주식 전문가들은 '정치인 테마주'에는 진지한 관심을 두지 않는다. 오히려 코웃음 친다. 하지만 '재벌 총수 테마주'에 대해선 태도가 다르다. 기관 투자자가 테마주 현상을 부추기는 공범이 된다.  이건희 삼성전자 회장이 쓰러진 뒤 2년 동안, 국내 주식 시장의 중요한 화두가 '이재용 테마주'였다. 국내 최대 재벌이 3세 경영 체제에 들어섰다. 하필 국내외 경제 전망도 어두운 시점이다. 그룹 차원의 '새 판짜기'가 진행될 텐데, 어느 계열사에 투자해야 이익을 볼까. 널리 통용되는 판단 기준이 있다. 총수 지분 비율이다. 예컨대 삼성그룹에서 사업 재편 작업이 복잡하게 진행 중이지만, 이재용 부회장의 지분 비율이 높은 회사는 손해 보지 않으리라는 것이다. 그보다 한술 더 떠서, 삼성그룹 수뇌부가 이 부회장에게 유리하게끔 계열사 인수합병 과정을 주무를 것이라고 믿는 이들도 많다.  이런 믿음을 현실로 확인해준 사건이 지난해 7월 제일모직과 삼성물산의 합병이었다. 당시 합병 비율이 논란이 됐다. 주식 시가 총액을 기준으로 합병 비율을 정하는데, 하필 삼성물산 주가가 낮고 제일모직 주가가 높은 시점을 골랐다. 삼성그룹 수뇌부의 전략적 판단이었다. 다만 법적인 문제는 없다. 당시 제일모직은 삼성그룹 지주회사 격이었다. 이재용 부회장은 제일모직 지분 23.2%를 갖고 있는 최대 주주였다. (이건희 회장 일가 지분 합계는 50.7%) 반면, 이 부회장은 삼성물산 주식은 아예 없었다. '총수 지분 비율이 높은 계열사가 유리하다'라는 공식이 그대로 적용된 경우다. 제일모직은 합병으로 이익을 봤고, 삼성물산은 손해였다.  주식 전문가들에겐 이런 공식이 익숙했다. 합병 이전, 이 부회장의 지분이 없었던 삼성물산 주가가 낮게 평가됐던 한 이유였다. 기관 투자자들이 삼성물산을 외면했다. 단, 국민 노후 자금을 굴리는 국민연금은 예외였다. 합병 선언 당시 삼성물산 지분 9.79%를 갖고 있는 2대 주주였던 국민연금은, 합병 논란 속에서 오히려 삼성물산 지분을 11.21%까지 늘렸다. 손해를 키우는 선택을 한 것이다. 결과적으로 국민연금은 6000억 원대 손해를 봤다. 이재용이 사면 무조건 오른다? 그 뒤론, 학습 효과가 생겼다. 초보 투자자들 역시 '총수 지분 비율'을 눈여겨보게 됐다. 이재용 부회장이 사는 주식을 따라서 산다. 올해 2월, 이 부회장이 삼성엔지니어링 자사주 300만 주를 사들였다. 전에는 삼성 총수 일가가 삼성엔지니어링 주식을 직접 보유한 적이 없었다. 그런데 이제 총수 지분이 생긴 것이다. 삼성엔지니어링은 삼성그룹의 대표적인 부실 계열사다. 무리한 저가 수주로 손실을 입었고, 자본 잠식에 빠졌다. 그런데 이 부회장이 주식을 샀다는 발표만으로, 삼성엔지니어링 주가가 뛰었다. 이 부회장이 언제 삼성엔지니어링 주식 추가 매입을 할지가 증권가의 관심사다.  삼성SDI가 신규순환출자 금지에 걸려 내놓은 삼성물산 주식 역시 마찬가지다. 이 부회장이 일부를 사겠다고 했다. 그러자 삼성물산 주식이 전부 팔렸다.  적어도 주식 가격만 놓고 보면, 이 부회장이 '마이더스의 손' 역할을 하는 셈이다. '사겠다' 한마디만 하면, 기업 실적과 관계없이 주가가 뛴다.  '총수 지분 비율'만 보고 투자하면 승승장구 하는 건가. 그렇지는 않다. 1년 만에 주가가 반 토막 난 사례도 있다. 삼성SDS 역시 이 부회장이 보유한 지분 비율이 높은 편이었다. 그래서 투자자들의 관심도 뜨거웠다. 지배 구조 개편에서 중요한 역할을 하리라는 것이다. 지난 1년 사이, 삼성SDS 주가가 최고점을 찍었던 건, 지난해 5월 28일이었다. 34만1000원을 기록했다. 그보다 하루 전, &lt;한국일보&gt;에 "삼성전자-SDS도 합병 유력"이라는 기사가 실렸다. 당시는 제일모직과 삼성물산의 합병 계획이 발표된 뒤였는데, 삼성전자와 삼성SDS의 합병까지 이뤄지면 이재용 부회장이 삼성전자에 대한 지배력을 확실하게 높일 수 있다는 내용이었다.그 무렵, 증권가에서도 비슷한 소문이 돌았었다. 이런 보도가 나올 당시, 이 부회장은 삼성SDS 지분 11.25%를 갖고 있었다. 이 부회장이 지닌 삼성전자 지분은 0.6%였다. 제일모직-삼성물산 합병과 비슷한 효과를 기대한 투자자가 많았다. 제일모직의 자리에 삼성SDS를, 삼성물산의 자리에 삼성전자를 놓는 것이다. 이는 삼성전자 주주들이 손해를 볼 수 있다는 뜻이다. 얼마 뒤, 삼성전자 측이 삼성SDS와의 합병 설을 공식 부인했다. 삼성SDS 주가는 계속 떨어졌다. 지금은 17만 원대다.    ▲삼성SDS 주가 그래프.    하락세가 가팔라진 건, 올해 1월 28일 이후다. 이재용 부회장이 삼성SDS 주식 일부를 팔겠다고 한 날이다. 주식 팔아서 생긴 돈은 어디에 썼나. 부실 계열사인 삼성엔지니어링 주식 사는데 썼다. 이 부회장의 선택에 따라, 삼성SDS 주주들은 울고 삼성엔지니어링 주주들은 웃었다. 물론, 앞으로 이 부회장은 다양한 선택을 할 게다. 그때마다 울고 웃는 쪽이 역동적으로 바뀔 수 있다. '이재용 테마주' 사서 웃었던 이들이, 한순간에 쪽박 찰 수도 있다는 말이다. 경영진 규율 기능이 없는 주식 시장  애초 삼성그룹 지배 구조 문제가 생긴 이유 자체가 총수 일가가 적은 지분으로 계열사를 장악하려 했기 때문이다. 이런 상황은 크게 변하지 않았다. 결국 이 부회장은 지금 얼마 안 되는 지분을 이리저리 옮기고 있을 뿐이다. 한 계열사에서 총수 지분이 늘어나서 생긴 이익은 결국 다른 계열사의 몫을 당겨온 것에 불과하다. 주식 투자자들이 이 부회장의 주식 매입 신호에 따라 움직이는 상황에서 합리적인 투자는 불가능하다. 그 속에서 누군가는 이익을, 다른 누군가는 손해를 본다.'그게 어때서? 주식 시장은 원래 투기 판인데….' 그렇지 않다. 합리적으로 설명할 수 없는 이익과 손해가 있다는 건, 시장이 순기능보다 역기능에 가깝게 움직인다는 뜻이다. 김상조 한성대학교 교수(경제개혁연대 소장)는 한 칼럼에서 "(주식 등) 자본 시장의 역할을 자금 조달 측면에서만 봐서는 안 된다"고 지적했다. 그는 "자본 시장이 금융 시스템의 중심을 이루고 있다는 미국·영국에서도 기업에 가장 많은 자금을 공급하는 것은 은행"이라며, "자본 시장의 핵심 기능은 기업에 대한 정보를 생산함으로써 실적이 나쁘거나 부당 행위를 한 경영진을 규율하는 데 있다"고 밝혔다. 요컨대 실적이 나쁜 기업은 주가가 떨어져야 한다. 그래서 무능한 경영진을 규율할 수 있어야 한다. 한국 주식 시장은 이런 기능이 작동하지 않는다. 부실 기업이 '테마주'에 편입돼서 주가가 오른다. 주식 시장은 기업에 대한 의미 있는 정보를 생산하지도 않고, 경영진을 규율하지도 않는다. 공정성, 합리성에 대한 신뢰가 사라진 시장에선 투기 심리만 만개한다.  시너지 없는 통합 삼성물산, 이재용만 웃었다  이건희 회장이 건재하던 시절에는 삼성에버랜드가 삼성그룹 지주회사 격이었다. 그런데 2년 전 이 회장이 쓰러진 직후, 삼성에버랜드는 제일모직과 합치더니 기습적으로 상장했다. 삼성SDS 역시 마찬가지였다. "당분간 상장 계획이 없다"라던 삼성 측 입장은 슬그머니 뒤집어졌다. 그 뒤론, 모든 절차가 숨 가쁘게 진행됐다. 삼성에버랜드, 제일모직, 삼성물산이 합쳐진 통합 삼성물산이 지금은 지주회사 격이다. 그럼 이 회사는 뭐 하는 곳인가. 놀이동산과 패션, 건설업과 플랜트, 무역 상사를 아우르는 회사인데, 어떤 전망을 갖고 있는지 투자자도 잘 모른다. 계속 이 상태로 있을 건지, 다시 사업 부문을 헤쳐모여 할 건지 알려진 바가 없다.   다만 분명한 건, 주가는 꾸준히 떨어졌다는 점이다. 통합 첫 날인 지난해 9월 1일 17만 원대를 기록한 삼성물산 주가는 지금 12만 원대다. 성격이 다른 사업들을 합친 시너지 효과는 나오지 않고 있다.    ▲삼성물산 주가 그래프.    또 하나 분명한 건, 이재용 부회장은 확실히 이익을 봤다는 점이다. 지난 1996년 48억 원에 산 삼성에버랜드 전환사채(CB)가 지난해 제일모직-삼성물산 합병을 거치며 통합 삼성물산 지분 16.5%로 전환됐다. 삼성물산 시가총액이 24조1855억 원이므로, 3조3906억 원쯤 되는 셈이다. 48억 원을, 20년 만에 3조 원 이상으로 불렸다.  한국 대표 기업이 '테마주' 유행에 휩쓸린 책임  대체로 확실해졌다. '이재용 테마주'에 투자해서 돈을 번 사람들이 있다. 그러나 그에 못지않은 수의 투자자가 돈을 잃었다. 삼성물산 주가는 그룹 차원의 관리에도 불구하고 꾸준히 하락한다. 삼성물산은 삼성바이오로직스 지분 51%를 갖고 있다. 삼성바이오로직스의 바이오시밀러 사업은 삼성그룹의 차세대 먹을거리로 거론된다. 곧 상장을 앞두고 있다. 삼성물산은 삼성바이오로직스 상장의 최대 수혜자로 꼽힌다. 그런데 삼성물산 주가는 오르지 않는다. 삼성SDS 주가는 반 토막 났다.   아예 '테마주'로 분류되지 않았더라면, 주가에 거품이 끼는 일도, 갑자기 가격이 떨어지는 일도 없었을 게다. 삼성그룹 지배구조 재편 효과에 따른 이익을 기대하고 주식을 샀다가, 호재가 발표된 직후에 판 사람들이 주로 돈을 벌었다. 이런 분위기에서는, 기업 가치를 보고 장기 투자하는 사람들이 불리해진다. 그리고 한국의 대표 기업 삼성이 '테마주' 유행에 휩쓸린 책임은, 삼성 수뇌부에게 있다. 경영권 승계와 사업 재편 과정에서 온갖 변칙을 동원해서 투자자들을 헷갈리게 했다. 제 구실 못하는 기관 투자자  이런 상황을 어떻게 바로잡아야 하나. 금융 관계자들이 공통적으로 요구하는 건, 기관 투자자의 제 역할이다.   지난해 제일모직과 삼성물산의 합병이 진행될 당시, 비판적인 보고서를 낸 증권사는 한화투자증권 한 곳뿐이었다. 그나마도 보고서를 낸 뒤, 최고경영자가 퇴진 압박을 받았었다. 나머지 다수 증권사의 보고서를 따라 투자했던 이들은 대개 손해를 봤다. 그에 대해 책임을 지는 증권사는 없다. 외국 증권사는 보고서 가운데 일정 비율 이상은 주식을 팔라고 한다. 한국은 그렇지 않다. 무조건 사라는 보고서 일색이다. 증권 전문가의 전망을 신뢰하기 힘든 구조다. 전문가의 권위가 없으니, 루머와 작전이 힘을 받는다.  당시 국민연금의 행태도 황당했다. 중요한 결정에 대해 국민연금은 의결권행사전문위원회를 열도록 돼 있다. 그런데 합병에 반대하는 결론이 나올까봐, 국민연금은 의결권행사전문위원회를 열지 않았다.  흔히 알려진 것과 달리, 소액 주주들은 제일모직과 삼성물산의 합병에 대해 찬성한 비율이 높지 않았다. 국민연금이 찬성하지 않았다면, 합병은 무산되는 거였다.  경제개혁연구소가 지난해 7월 두 회사의 주주 총회를 앞두고 진행한 여론조사에서도 합병에 비판적인 입장이 우세했다. "이건희 회장 일가의 사익을 위한 것이므로 국민연금이 반대해야 한다"는 응답자가 44.3%였다. "국익의 관점에서 국민연금이 합병에 찬성해야 한다"는 응답자는 42.5%로 찬성보다 1.8%p 적었다. "모름·무응답"은 13.2%였다.합병 찬반에 대해서는 의견이 분분했지만 합병 목적은 "이건희 회장 일가의 경영권 승계를 위한 것"(63.2%)이라는 의견이 압도적이었다. "회사와 주주들의 이익을 위한 것"이라는 응답은 26.5%였고 모름·무응답은 10.3%였다. 삼성 측이 대대적인 광고 공세를 했다는 점을 고려하면, 눈에 띄는 결과다. 이런 조사 결과는 지난해 합병 당시 기관 투자자들의 행태가 대중에게 어떻게 비쳤을 지를 짐작케 한다. 기관 투자자에 대한 신뢰가 깎일수록, 공신력 낮은 정보에 더 의지하는 악순환이 생긴다.  스튜어드십 코드 도입에 반발하는 재계, 주주 여론과 동떨어져 정부 역시 이런 문제들을 알고 있다. 금융위원회가 올해 상반기 안에 '스튜어드십 코드'를 도입하기로 한 것도 그래서다. 스튜어드십 코드는 국민연금, 자산운용사, 보험사 등 국내 상장사 주식을 보유·운용하는 모든 기관 투자자들이 주주권을 적극 행사하고 주주권 행사 내용을 수탁자에게 투명하게 보고·공시하도록 유도하는 자율 지침이다. 이에 대해 경제개혁연대 등 시민단체는 별 실효성이 없다고 비판한다. 지금 마련된 내용만으로 기관 투자자들이 주주권을 적극적으로 행사하게끔 유도하기에 부족하다는 게다. 예컨대 '기관투자자 간의 연대' 원칙이 빠진 점을 특히 문제 삼는다.  반면, 재계는 정반대 이유로 강하게 반발한다. 전국경제인연합회, 중소기업중앙회, 코스닥협회, 한국상장사협의회, 한국중견기업연합회는 지난 3일 '스튜어드십 코드 도입에 대한 경제 단체 공동 의견'을 통해 이런 입장을 밝혔다. "상장 기업들이 스튜어드십 코드 도입으로 정부가 국민연금, 자산운용사 등 기관 투자자를 활용해 상장사 경영에 영향력을 행사할 수 있다는 점을 우려하고 있다."  요컨대 재계는 기관 투자자가 제 목소리를 내는 게 싫다고 한다. 주식 가격을 받쳐주는 역할만 했으면 좋겠다는 게다. 지난해 제일모직과 삼성물산의 합병 당시 기관 투자자들이 보였던 모습을 그대로 유지하라는 게다. 스튜어드십 코드 도입을 준비 중인 금융위원회는 재계의 이런 목소리에 어떻게 대응할까. 분명한 건, 소액 투자자와 일반인의 여론은 재계 목소리와 반대라는 점이다. 각종 조사에서 국민연금 등 기관 투자자의 행태에 비판적인 의견이 더 많았다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ‘스텔라데이지호의 2차 심해수색 추진’을 위한 공청회가 25일 전경련회관 컨퍼런스센터에서 개최됐다.  공청회는 1차 심해수색의 한계점에 대한 분석과 사고원인 규명, 유해수습의 다각적인 기술적 검토를 통해 성공적인 2차 심해수색 추진을 위해 마련됐다.     ⓒ허영 의원실   국방첨단기술연구원 서주노수석연구원, 선박해양플랜트연구소 강희진 박사, KAIST 과학기술정책대학원 전치형 학과장 등 각분야 해양전문가들이 참여했다.  스텔라데이지호는 폴라리스 쉬핑사(한국 해운사) 소속 화물선이다. 철광석을 싣고 브라질에서 중국으로 항행하던 중 2017년 3월 31일 오후 1시 20분(현지시각) 남대서양에서 침몰했다. 사고 당시 탑승 선원 총 24명 중 사고 익일 구조된 필리핀인 2명을 제외한 22명(한국인 8명, 필리핀인 14명)이 아직까지 실종 상태이다.  정부는 사고 직후 선박 침몰 해역 주변국의 협력을 통해 선박 및 실종자 수색을 했으나, 실종자를 추가 발견하지 못한채 2017년 사고해역 주변 수색은 종료됐다.  실종선원 행방 확인과 선박의 침몰 원인을 밝히기 위해 작년 2월 열흘간에 걸친 심해수색을 통한 항해기록저장장치 회수와 실종자로 추정되는 유해를 발견했으나, 사고원인 규명과 유해수습은 현재까지 이뤄지지 않고 있는 상황이다. 허영 의원은 “스텔라데이지호 사고는 노후된 유조선을 개조, 철광석 수송선으로 용도변경한 채 무리한 항행을 한 것에 1차 원인이 있다”며 “2차 심해수색을 통해 보다 정확한 사고원인 규명과 실종자로 추정되는 유해의 수습이 이뤄질 수 있도록 노력하겠다”고 말했다.  이번 공청회는 원내 4개 정당 17명의 국회의원이 공동 주최했다.  코로나19 확산 방지를 위해 참석인원을 50인 미만으로 제한하고, 방역 수칙을 철저히 준수한 가운데 진행됐다.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 오픈벤처랩(Open Venture Lab)’개소식 ⓒKAIST       KAIST가 생계형 위주의 창업을 지양하는 대신 지속가능한 기술기반의 창업환경 구축을 통해 국가차원의 일자리 확대와 강화에 기여하기 위해 일반 국민을 대상으로 개방형 창업지원 프로그램을 운영한다.  KAIST(총장 신성철)는 4일 대전 문지캠퍼스에서 스퀘어미터 여정현 대표 등 예비창업자와 안성태 K-스쿨 교수 등 멘토 그룹, 김병윤 창업원장과 최경철 산학협력단장 등 주요 보직교수가 참석한 가운데 ‘오픈벤처랩(Open Venture Lab)’ 개소식을 가졌다.  오픈벤처랩은 기술창업에 도전하는 일반 국민들을 대상으로 일정기간 비즈니스 트레이닝을 제공하는 창업지원 프로그램이다.  이 프로그램의 지원을 받는 예비 창업팀은 KAIST로부터 ▲창업 준비공간은 물론 ▲국내·외 우수 네트워크 연계 ▲전문적인 창업 프로그램 ▲ 필요시 KAIST 보유기술 이전 등 각종 혜택을 제공 받을 수 있다.  KAIST는 오픈벤처랩 가동을 위해 사회적 가치창출을 추구하는 아이디어를 가진 5명 이하의 예비 창업팀을 대상으로 지난 8월 27일부터 9월 12일까지 약 3주간의 공모를 진행했다.  총 13개의 지원팀 중 심사위원단의 평가를 거쳐 스퀘어미터(대표 여정현) 등 8개 예비 창업팀을 선정했는데 이 팀 중에는 여성창업 2개 팀과 고교생 창업 1개 팀이 포함됐다.  8개의 예비 창업팀은 10월부터 12월까지 3개월간 창업 기초교육 및 멘토링 위주로 이뤄지는 ‘프리오픈벤처랩’과정을 훈련받은 뒤, 이후 9개월간 창업실전 트레이닝이 집중되는 ‘오픈벤처랩’과정을 거치게 된다.  오픈벤처랩 운영기간 중에는 스타 창업가에서 창업전문 교수로 변신한 안성태 KAIST 교수(K-School) 등 7명의 멘토단이 조력자로 나선다.  안 교수는 스탠퍼드대 재료공학 박사 출신으로 내셔널세미컨덕터(미국)·샤프(일본)·삼성전자 등 글로벌 반도체 기업에서 근무했다. 지난 2000년에는 미국 실리콘밸리에서 모바일 디스플레이 구동 칩을 개발하는 ‘리디스테크놀로지’를 창업해 2004년에 매출 약 1억 5000만 달러(약 1620억 원) 규모로 성장시켜 나스닥에 상장시킨 경력의 소유자다.  KAIST는 예비 창업팀이 1년여의 훈련과정을 모두 마치게 되면 이중 우수한 창업팀을 선발해 문지캠퍼스에 있는 창업보육센터에 입주시키는 등 창업을 위한 기초 교육과정에서부터 본격적인 사업을 추진할 수 있는 비즈니스 인큐베이팅까지 창업에 필요한 모든 과정을 단계별로 제공할 방침이다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      '저성과 현역 20대 총선 퇴출'을 선언한 바 있는 새누리당 이한구 공천관리위원장은 11일, 유승민 전 원내대표는 "상식적으로 저성과자가 아니다"고 말했다. (☞ 관련 기사 : 이한구 새누리 공천위원장 "저성과·비인기 현역은 배제")당헌·당규에 따라 공천관리위원회가 솎아내게 될 새누리당 공천 부적격자에 유 전 원내대표가 포함되지 않는다는 사견을 밝힌 것이다. 이에 따라 유사 전략 공천 방식인 '우선 추천' 제도를 새누리 강세 지역인 TK(대구·경북)에서까지 활용, 친박계 주도의 '유승민 찍어내기'가 진행되는 것 아니냐는 당 안팎의 의구심이 해소될 수 있을지 주목된다. 이 공관위원장은 이날 오전 CBS라디오 &lt;김현정의 뉴스쇼&gt;와 한 인터뷰에서 '시중에서 저성과자를 걸러내는 것이 결국 유승민 컷오프(예비 경선 중 공천 탈락)를 위한 것 아니냐는 말이 나온다'는 사회자의 말에 이렇게 말했다. 그는 "'유승민 의원은 무조건 된다'고는 제가 얘기를 못 한다. 그건(부적격자 선정) 위원회에서 결정을 하는 거니까"라면서도 "상식적으로 생각을 해서 말이 되는지 안 되는지를 판단하면 된다. 유승민 의원이 보통 사람들 판단에 저성과자인가"라고 되묻기도 했다. 이 공관위원장은 "최소한 상식적으로 (유 전 원내대표가) 저성과자냐. 내가 알기로는 아니다"는 말도 덧붙였다. 이 공관위원장은 이날 자신이 못 박은 '저성과자·비인기자 퇴출'은 현행 새누리당 당헌·당규에 따라 진행될 것이라는 강조도 거듭했다. 그는 "그냥 알기 쉽게 하느라고 '비인기자' 이렇게 표현을 했지, 사실은 우리 공천 관리 규정에 부적격자 심사 기준이라는 게 있다"면서 "규정에 있는 표현을 보면 '신망이 부족한 경우'를 예로 들어놨고 또 공직자로서 적합하지 않은 이들은 애초부터 경선에 부칠 필요도 없다는 내용이 있다. 저는 그걸 적용하겠다는 것"이라고 말했다. 이 공관위원장은 또 사회자가 '더불어민주당처럼 20% 컷오프나 예전 한나라당처럼 하위 25% 컷오프 이런 식으로 (물갈이 규모를) 정해놓는 것이 아니냐'고 묻자 "저는 절대 평가를 하겠다고 말씀을 드렸다"고도 말했다. 통상적으로 당내 예비 경선 단계에서 이루어지는 20~25%대 솎아내기 수준보다 훨씬 더 높은 수준의 물갈이 이루어질 수도 있음을 시사한 것이다. 이 공관위원장은 "(공천) 신청을 받아봐서 종합적인 판단"을 할 것이라고 말했다. 이한구 "양반집 도련님처럼 월급쟁이로 4년 보낸 사람은 퇴출"이 공관위원장은 이 같은 현역 물갈이를 진행할 수밖에 없는 이유로 "우리나라가 이대로 가면 심각한 위기에 처할 수밖에 없는데, 그 위기를 개척할 수 있는 개혁 정신과 능력을 (20대 국회의원들이) 갖춰야 한다"는 점을 내세웠다. 그는 "20대 국회는 새 시대를 만드는 국회"라면서 "19대에서도 능력 발휘를 못 하고 국민 신망을 못 받던 사람들을 그냥 공천하겠다면 곤란하다"고 말했다. 이 위원장의 이 같은 '개혁 정신과 능력'을 일각에선 박근혜 대통령의 4대 개혁 과제 수행과 연결지어 해석하는 것에 대해선 이 위원장은 말을 아꼈다. 그는 '대통령이 뭔가 일을 좀 하려고 하는데 적극적으로 나서지 않았던 사람들이 그 범주(공관위 평가를 통한 부적격자 선정)에 들어간다는 말이냐'는 사회자 질문에 "별별 말을 다 만들어내는 게 우리 언론이다. 제가 그런 것에는 말리지 않고 싶다"고 했다. 그는 다만 "우리 여당에서는 예를 들어서 양반집 도련님처럼 하는 사람들이 많다"면서 그가 생각하는 부적격자 상(想)을 다소 추상적으로나마 설명했다. 이 공관위원장은 "중요한 이슈가 있을 때 적극적으로 나서서 문제를 풀려고 하기보다는 그냥 월급쟁이 비슷하게 하다가 4년 내내 별로 존재감이 없던 사람들이 제법 있다"면서 "그런 사람들은 아무래도 집중 심사할 수밖에 없다"고 말했다. 이 공관위원장은 또 "심지어는 야당 편인지 우리 편인지 모르(겠)는 사람도 많다"면서 "새 시대에 맞는 개혁을 추진하는 데 걸림돌이 될 사람들은 생각을 해 봐야겠다"고도 했다. '전략공천 제로'를 밀어붙여 온 새누리당 김무성 대표가 이 공관위원장을 향해 "이번 공관위원장은 경선을 총괄 관리만 하면 된다. 공천 권한을 행사할 수 있는 자리가 아닌데 잘못 이해하신 것 아닌가'라는 말을 한 것에 대해선 이 공관위원장은 '당헌·당규에 권한이 있다'는 취지로 응수했다. 그는 "당헌·당규에 관리위에서 부적격자를 선정할 수 있게 돼 있다"면서 "절대로 당헌·당규는 지킨다. 그 안에서 최대한으로 개혁 공천을 할 것이다. 그게 우리의 사명이다"고 말했다. (☞ 관련 기사 : 새누리 '친박', 더민주 '카이스트', 국민의당 '호남')  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      더불어민주당 문재인 전 대표는 17일 "기업이 죽으면 어떡하나"라며 이재명 성남시장이 주장하는 법인세 인상안과 선을 그었다. 최근 보수적인 인물들을 영입한 데 대해서도 문재인 전 대표는 "정권 교체를 위해 온다면, 우리로서는 환영할 일"이라고 적극적으로 방어했다.   더불어민주당 문재인 전 대표는 17일 종합편성채널 등이 주관한 당내 대선 경선 토론에서 집중적인 견제를 받았다. 이재명 성남시장으로부터는 '적폐 청산' 의지를 지적받았고, 안희정 충남지사로부터는 '배타적 리더십'이라는 견제를 받았다.   문재인 전 대표는 이날 이재명 성남시장과 증세 방안을 토론하는 과정에서 법인세 인상에 대해 부정적인 뜻을 밝혔다.   문재인 전 대표는 이재명 시장에게 "우리나라 (최대) 법인세율 22%는 경제협력개발기구(OECD) 국가 평균인 22.8%에 비해 낮은 편이 아니다"라며 "모든 국가들이 법인세를 낮추는 방향으로 가는데, 우리는 22%에서 한번에 8%를 올려서 30%로 높인다면 기업이 어떻게 감당할 수 있나"라고 물었다.   이재명 시장이 "모든 기업이 아니라 10대 재벌들이 22%를 내고, OECD 평균 실효세율이 22%인데 우리나라는 16%"라며 "500억 원 이상 버는 대기업만 증세하면 OECD 평균 실효세율 정도 될 것이다. 그 정도는 있어야 문재인 후보의 기초연금, 아동 수당 공약에도 10조 원이 드는데 그 일부라도 할 수 있다"고 반박했다.   그러자 문재인 전 대표는 "(법인세를 갑자기 올려서) 기업이 죽으면 어떡하나?"라고 반문했다. 문재인 전 대표는 '영입 인사'를 두고 이재명 성남시장과 안희정 충남도지사 모두로부터 공격받았다. 먼저 이재명 시장은 문재인 전 대표를 향해 "기득권과 대연정하려는 것 아닌가"라고 날을 세웠다. 최근 문재인 전 대표가 박근혜 전 대통령의 '줄푸세(세금은 줄이고, 규제는 풀고, 법 질서는 세우고)' 정책을 고안한 김광두 서강대학교 교수를 캠프에 영입한 점을 언급하면서다.  문재인 전 대표는 "지금 우리가 장관이나 고위 공직자를 뽑는 게 아니지 않나"라며 "정권교체가 필요하다고 생각하는 사람들이 정권 교체를 돕기 위해 오고 있는 것이다. 우리로서는 환영할 일"이라고 반박했다. 문 전 대표는 "앞으로 고위 공직자 인사청문회가 오면, 걱정하지 말라"며 "저야말로 역대 청와대에서 가장 검증을 깐깐하게 했던 민정수석 출신 아닌가"라고 덧붙였다.   그러자 이번에는 안희정 지사가 문재인 전 대표의 영입 인사들을 문제 삼고 나섰다. 문재인 전 대표가 자신과의 갈등으로 탈당한 안철수 의원과 김종인 의원을 두고는 "혁신에 반대했다"고 비판했지만, 다른 한편으로는 보수적인 인사를 캠프에 영입하는 것은 앞뒤가 맞지 않는다는 취지에서다.   안희정 충남지사는 안철수 의원과 김종인 의원의 탈당을 근거로 문재인 전 대표에게 "통합의 리더십이 부족하다"고 주장했다. 이에 문재인 전 대표는 "(탈당은) 혁신이라는 원칙을 지키는 과정에서 발생한 일"이라며 "크게 보자면 일부가 나갔지만, 반면에 더 많은 좋은 분들이 우리 당으로 들어오고 10만 명이 넘는 권리 당원이 들어오며 우리 당이 훨씬 크고 건강한 정당이 됐다"고 반박했다.   하지만 안희정 지사는 "지금 문재인 캠프에 있는 사람들을 혁신 세력이라고 할 수 있나. 내 편이 되면 무조건 예쁘게 봐주면서, 나와 정치적 권력 싸움의 반대 진영에 있으면 배척하는 정치적 철학과 리더십으로 어떻게 대한민국을 이끌겠나"라고 직격탄을 날렸다.   문재인 전 대표는 안 지사에게 "안희정 지사는 저보다 정치를 오래하지 않았나. 2002년 노무현 후보가 당의 후보가 되고 난 이후에도 오히려 당의 후보를 흔들어서 후보를 교체하려는 움직임부터 시작해서 우리 당의 파란만장한 우여곡절을 지켜보지 않았나. 다 그런 연장선상에 있는 일"이라며 "그러다가도 다시 힘을 모은 게 야당의 역사다. 앞으로 정권 교체를 위해 힘을 모을 수 있으리라 생각한다"고 반박했다. 반면 문재인 전 대표는 안희정 지사가 전날 발표한 '국민 안식년제'와 '국공립대학교 등록금 0원' 정책을 공략했다. 문재인 전 대표는 10년 근속한 노동자에게 1년 유급 휴가를 주자는 '안식년 제도'에 대해서는 "적용 대상이 공무원, 공기업, 대기업 노동자밖에 없고, 비정규직과 자영업자는 제도에서 배제된다"고 지적했다. 국공립대 등록금 0원 정책에 대해서는 "국공립대에 사교육을 받은 부잣집 출신들이 더 많은데, 오히려 국공립과 사립을 가리지 않고 주는 '반값 등록금' 정책이 형평성에 맞지 않나"라고 말했다.   안희정 지사는 안식년제에 대해서는 "주5일제를 도입할 때도 (비정규직이 배제된다는) 똑같은 질문이 나왔지만, 주5일제 근무를 통해 새로운 형태의 노동 문화가 정착됐다"고 반박했다. 국공립대 등록금 0원 정책에 대해서는 "카이스트급으로 지방 국공립대학을 육성해 지역 균형 발전의 동력을 만들자는 취지"라며 "대학생들이 겪는 높은 등록금 부담 문제는 다른 차원에서 준비 중"이라고 답했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">              AI World Cup 2018 국제대회 포스터     세계 최초의 인공지능 분야 국제대회인 AI World Cup 2018 국제대회가 20~22일 KAIST 학술문화관에서 개최된다.  이번 대회에는 인공지능 분야에서 최고의 기술력을 자랑하는 구글·미국 MIT대와 노스웨스턴대, KAIST, 서울대 등 국내·외 대학 및 연구기관들이 참가한다.  KAIST는 지난 4월 1일부터 참가팀을 모집한 결과 우리나라를 포함해 미국, 브라질, 이란, 중국, 대만, 프랑스, 인도 등 총 12개국에서 모두 29개 팀이 출전을 신청했다.  대회는 AI 축구(23개 팀), AI 경기해설(4개 팀), AI 기자(2개 팀) 등 총 3개 종목으로 나눠 진행되며 각 종목별로 우승팀을 가린다.  AI 축구는 Q-Learning(인공지능의 강화학습 방법) 등의 기술로 축구 전술을 학습한 5개의 인공지능 선수가 전·후반 각 5분간 사람의 조작 없이 상대 팀 골대에 골을 넣어 득점하는 방식으로 진행된다.  예선전은 대회 서버에서 자동으로 매칭(Matching)된 상대와 대결하는 롤링 업데이트(Rolling Update)형 토너먼트 방식으로 치러진다.  최종 우승팀에게는 미화 1만 달러, 준우승 팀과 3위 팀에게는 각각 5000 달러와 2000 달러의 상금이 수여된다. KAIST는 22일 열리는 4강전 및 결승전을 일반인 및 청소년에게도 공개할 예정이다.  AI 경기해설 종목은 AI 축구의 경기영상을 인공지능이 분석하고 설명하는 분야로 우승팀에게는 미화 5000 달러의 상금이 수여된다.  AI 기자 종목은 AI 축구 경기내용과 AI 해설을 바탕으로 인공지능이 기자대신 기사를 작성하는 분야다.  사실에 근거한 충실한 내용을 가장 충실하게 담아낸 팀을 선별해 우승팀에게 미화 5000 달러의 상금을 수여한다.  이번 대회기간 중에는‘국제 인공지능(AI) 기술 워크숍’이 동시에 개최된다.  스위스의 로봇 시뮬레이터 제작사인 사이버보틱스(Cyberbotics)사의 올리버 미첼(Olivier Michel) 대표와 미국 퍼듀대 컴퓨터정보기술학과 에릭 맷슨(Eric T. Matson) 교수 등 세계적으로 저명한 AI 전문가를 초빙해 AI의 기술적인 이해와 알고리즘 개발방법, 미래기술 전망 등 다루는 강연 및 패널 토론 등이 진행된다.  대회조직위원장인 KAIST 김종환 공과대학장은 “이번 대회는 KAIST가 AI기술을 선도하는 리더로서 AI 월드컵 소스코드를 공개해 누구나 쉽게 AI 기술을 습득하고 경험할 수 있는 기회를 제공한다는 점에서 큰 의미가 있다”면서 “AI 월드컵을 통해 인공지능 알고리즘의 개발과 활용영역을 넓혀나가는 것뿐만 아니라 새로운 비즈니스 모델을 창출하는데 기여하는 게 이 대회를 개최하는 목적”이라고 말했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      이명박 정부 시절 국가정보원이 정치인‧교수에 대해 여야를 가리지 않고 전방위적으로 온라인 심리전을 단행한 사실이 국정원 개혁위 조사를 통해 확인됐다. 조금이라도 정권에 비판적인 입장을 보이면 여야를 가리지 않고 공격 대상으로 삼은 셈이다.  국정원 개혁위가 25일 위원회 산하 적폐청산TF로부터 받은 '정치인‧교수 등 MB 정부 비판 세력 제압 활동' 보고 내용에서 거론되는 인물은 20명이 넘는다. 고(故) 노무현 대통령을 비롯해 당시 송영길 인천시장, 박지원 의원, 조국 서울대 교수 등 야권 인사는 물론이고 홍준표‧원희룡 한나라당 의원 등 여권 지도자들도 눈에 띈다.  적폐청산 TF가 분석한 기간은 2009년 노 전 대통령 서거 이후 2012년까지로, 원세훈 전 국정원장 재임 시기다. 개혁위는 "원 전 원장은 취임 이후 심리전단의 조직‧인원을 확대, 정치‧MB정부 비판세력에 대해 문화‧연예계는 물론이고 정치인‧교수 등 사회 각계인사에 대하여 전방위적으로 비판활동을 전개했다"고 밝혔다. 여타 활동과 마찬가지로, 심리전단팀의 비판 활동 무대는 '아고라' 등 포털사이트 게시판, 트위터 등 SNS였다.   당시 국정원의 비판 활동 대상에 오른 야권 주요 인사는 △노무현, △송영길, △박지원, △곽노현, △조국, △이상돈, △천정배, △손학규, △정동영, △최문순, △김진애, △유시민, △장하준 등이다.  국정원은 2011년 2월 당시 송영길 인천시장 "인천시를 대북 평화 전진 기지로 조성하겠다"는 발언을 '종북 행위'로 규정하고, '인천시장 종북행각 규탄 전략 심리전 계획'을 작성, 실행했다. 인천시 홈페이지, 인터넷 카페 등에 비판글을 올려 비판 여론을 조성하는 식이다.  박지원 의원은 김황식 당시 총리 후보자에 대한 비난, 이명박 전 대통령의 러시아 방문에 대한 폄훼 발언 등이 빌미가 됐다. 국정원 직원들은 '박지원 망동 강력 규탄 사이버 심리전 전개'라는 이름으로 보고하고 박 전 의원에 대한 비판 활동을 수행했다.  곽노현 서울시 교육감에 대해선 금품 매수 의혹과 관련, 다음 '아고라', 트위터, 전교조 홈페이지 등을 통해 '양 가면 쓴 이중인격자'라는 비난과 함께 구속 및 사퇴 촉구 서명 활동을 했다. &lt;조선일보&gt;, &lt;동아일보&gt; 등 일간지에 규탄 광고가 실리기도 했다.  조국 교수에 대해선 'KAIST 경쟁체제 비판', '4대강 사업장 폐콘크리트 매립 주장' 등을 이유로 '정치 교수'라고 심리전을 전개했다. 트위터에는 "서울대 조국 교수는 교수라는 양의 탈을 쓰고 체제변혁을 노력하는 대한민국의 늑대다. 93년 남한사회주의노동자동맹 산하 남한사회주의과학원 사건에 연루돼 국보법 위반으로 실형을 선고받은 적이 있다. 천안함, 연평도 北 도발을 옹호하는 대한민국의 적"이라는 비난글을 올렸다.홍준표에 "사돈 남보듯 집안 흉", 원희룡에 "회색분자"  국정원의 총구는 야권으로만 향하지 않았다. △홍준표, △정두언, △안상수, △원희룡, △권영세 등 이 전 대통령에 비판적인 태도를 보인 여권 정치인들을 대상으로 '회색 분자' 등 원색적인 비난을 쏟아내는 압박 활동을 했다.  가장 대표적인 인사가 홍준표 당시 한나라당 최고위원이다. 트위터에 "홍준표 의원은 저격수 명성에 어울리지 않게 자꾸 총부리를 아군에 겨누고 있다. 그러다 아군이 전멸하면 홀로 정치하려는가? 적군 앞에선 단합할땐 해야지, 사돈 남보듯 집안 흉을 봐서 뜨려는 구시대적 행태는 사라져야 한다"는 비난 글이 올라왔다.  이 글은 지금도 트위터 검색을 통해 쉽게 확인할 수 있다. '아늑한 정원'이라는 닉네임의 계정 이용자가 2011년 1월 13일 올린 이 게시글은 이날 개혁위가 발표한 홍 전 의원에 대한 비방 내용과 토씨 하나 다르지 않다.   ▲2011년 1월 13일 트위터에 올라온 홍준표 의원 비방글. 이 내용은 25일 국정원 개혁위가 발표한 국정원 비판 활동 내용과 일치한다.     원희룡 전 의원에 대해선 "회색분자이자 카멜레온의 원희룡 의원은 애국 인사들에게 언제든 뒤에서 칼을 꽂을 수 있는 사람같다", 안상수 당시 한나라당 대표에 대해선 웬 견제! 보온병 등으로 꺼져가는 본인 정치생명 연장을 위해 돌출발언 한 거 같은데 여당내 본인 위치를 생각해서 신중 발언해야지 한마디로 중용해선 안 될 인물"이라고 했다.  국정원 직원이 직접 &lt;미디어워치&gt; 광고 수주 나서기도  당시 국정원은 비판 활동을 위해 트위터 등 SNS을 활용하는 한편, &lt;미디어워치&gt; 등 보수 언론에 '보도 협조'를 구한 것으로 확인됐다. 진중권 교수에 대한 비판, 한명숙 전 총리에 대한 비난 기사가 대표적인 보도 협조의 결과물이다.  국정원은 이같은 보도 협조를 위해 &lt;미디어워치&gt; 지원에 적극 나섰다. 개혁위는 "2009년 2월 &lt;미디어워치(대표 변희재)&gt; 창간 시부터 국정 지지여론 조성을 위한 지원 필요성을 인식하고 창간 재원 마련 관련 조언을 해주거나, 여권 측면 지원이 필요하다는 내용을 지휘부와 청와대에 보고했다"고 밝혔다.  또 &lt;미디어워치&gt; 재원 마련을 위해 경제 및 기관 담당 수집관에게 전경련, 삼성 등 26개 민간기업 및 한전 등 10개 공공기관에 &lt;미디어워치&gt; 광고 지원을 요청토록 지시했고 그 결과, &lt;미디어워치&gt;는 2009.4월~2013.2월간 4억여 원 가량의 기업 광고비를 수주한 것으로 밝혀졌다.  개혁위는 정치인‧교수 대상 심리전에 대한 청와대 개입 여부에 대해선 "직접적인 비방 지시 사실은 확인되고 있지 않다"고 했다. 반면 원 전 원장에 대해선 "'전부서장 회의'와 '일일 모닝브리핑'에서 야권 및 특정 정치인과 선거 관련 대응활동을 수시 지시하였고, 이에 담당부서는 '외곽팀' 등을 활용한 현안대응 심리전을 전개했다"며 정치관여 및 업무상 횡령‧배임 등의 혐의로 원 전 원장 등을 검찰에 수사의뢰할 것을 권고했다고 밝혔다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   &lt;프레시안&gt;이 아시아태평양이론물리센터(APCTP), 사이언스북스와 함께 특별한 연중 기획을 시작합니다. 매주 월요일 아침 한 권의 '과학' 고전을 뽑아서 여러분께 소개합니다.  서평 대상으로 선정된 고전 50권은 "우리에게 맞춤한 우리 시대"의 과학 고전을 과학자, 과학 담당 기자, 과학 저술가, 도서평론가 등 여럿이 머리를 맞대고 2015년에 새롭게 선정한 것입니다. 이번 연재는 선정된 과학 고전 각각을 독자에게 소개하고 또 새롭게 읽어보는 특별한 기회가 될 것입니다.  김상욱 부산대학교 교수(물리학자), 손승우 한양대학교 교수(물리학자), 이강영 경상대학교 교수(물리학자), 이권우 도서평론가, 이명현 박사(천문학자), 이정모 서대문자연사박물관 관장, 강양구 기자 등이 돌아가면서 서평을 쓸 예정입니다.  오늘은 손승우 교수가 앨버트 라슬로 바라바시의 &lt;링크&gt;에 얽힌 흥미로운 이야기를 들려줍니다.     ▲ &lt;링크&gt;(앨버트 라슬로 바라바시 지음, 강병남·김기훈 옮김, 동아시아 펴냄). ⓒ동아시아   얼마 전 인기리에 방영을 마친 &lt;응답하라 1988&gt;을 포함한 모든 '응답하라' 시리즈의 오프닝에서는, 주제곡은 그 시대에 따라 달라지지만, 배경에 잡음처럼 들어간 "삐—지-지-직" 하는 PC통신 시절 모뎀 연결 소리가 공통적으로 나온다.  이제 그 효과음의 정체를 알아차리고, 그 소리가 전해주는 '연결됨'의 두근거림과 애절함을 공감하는 사람이 얼마나 될까? '응답하라' 시리즈의 첫 번째 시대인 1997년에 개봉한 영화 &lt;접속&gt;을 보여준다면 그 느낌을 전할 수 있을까?  다음 '응답하라' 시리즈가 처음의 1997년에서 더 이상 과거로 가지 않고 시리즈의 네 번째로 이어진다면, 2002년이 될 거라는 기대가 많다. 내가 기억하는 2002년은 밀레니엄 버그의 공포가 가시고, 미니홈피 '싸이월드'가 인기를 끌기 시작했으며, 많은 사람들이 이제 호출기 대신 휴대전화를 들고 다녔다.  제16대 대통령 선거를 앞두고 선거 운동이 치열했고, 지금과 다르게 남북 관계가 좋았으며, '2002 한일 월드컵'에 대한 기대와 열기로 들떠 그 어느 해보다 뜨겁고도 시원한 여름을 보냈다. 개인적으로는 아주 다른 의미로 특별한 해였는데, 나는 그해에 KAIST(한국과학기술원) 물리학과 대학원생으로 '복잡계 및 통계 물리 연구실'에 합류할 수 있었다.  그 당시 인기 있었던 보아의 'No.1'을 주제곡으로 하고, "삐—지-지-직" 하는 PC 통신 연결 소리와 함께 나의 &lt;응답하라 2002&gt;로 기억을 되돌려 본다. "삐—지-지-직."  월드컵은 이미 끝나고 가을을 기다리던 2002년 늦여름.  2001년 가을에 KAIST에 새로 부임한 정하웅 교수의 '복잡계 및 통계 물리 연구실'은 꾸려진 지 1년 밖에 되지 않았다. 하지만 연구실에서는 매주 국제 학술지에 새롭게 출판된 복잡계 네트워크 연구 논문을 읽고 토론하는 열띤 세미나가 이어졌다.  나는 지난 여름 복잡계 네트워크에 대한 총설 논문의 공부를 끝내고, 최신 연구 결과를 추적하며 독자적인 연구 주제를 막 고민하던 중이었다. 그 때 공부한 논문이 바로 앨버트 라슬로 바라바시가 &lt;리뷰스 오브 모던 피직스&gt;에 2002년 1월에 출판한 '복잡계 네트워크의 통계역학(Statistical mechanics of complex networks)'이다.  그즈음은 인터넷의 사용이 활발해지고, 싸이월드와 같은 미니홈피와 소셜 미디어에 대한 대중의 관심이 본격적으로 일어나던 시기로 국내 학계에서도 복잡계 네트워크에 대한 관심이 폭발적으로 증가했다. 이름도 복잡해 보이는 '복잡계 네트워크 이론'을 쉽게 설명해 줄 과학 대중서에 다들 목말라하던 시기이다.  그때 나는 바라바시의 대중서 &lt;링크&gt;(강병남·김기훈 옮김, 동아시아 펴냄)의 번역본을 운 좋게도 미리 읽을 수 있었다. 그 임무를 충실히 하지는 않은 것 같지만, 오탈자와 어색한 번역을 찾는다는 명목이었다.  &lt;링크&gt;는 열다섯 개의 장(이 책에서는 장의 개념을 재미있게 '링크'라고 표현하였다)으로 이루어져 제법 두툼하지만, 첫 장을 읽기 시작하면 중간에 멈추기 어렵다. 바라바시는 그의 첫 대중서 &lt;링크&gt;에서 다양한 등장인물의 에피소드와 서사적 표현으로 종종 읽는 이들에게 즐거운 시공간 여행을 선사한다.  위대한 수학자 레온하르트 오일러의 임종을 지키기 위해 1783년 러시아 상트페테르부르크로, "여행하는 수학자" 폴 에르되스를 만나러 1920년 헝가리 부다페스트로, 다시 1965년 레오 카다노프의 미국 일리노이로 정신없이 달린다. 과학 대중서가 마치 소설책 읽듯이 읽히는 것은 바로 그의 폭넓은 배경 지식과 과학자의 글에서는 보기 드문 훌륭한 서사가 어우러진 데 있다.  에르되스와 구둣가게 소년과의 대화에서는 천진난만하고 독특하면서도 어느 누구와도 수학에 대한 진지한 이야기를 시작할 수 있을 것 같은 그의 개성이 느껴지며, 대화를 직접 듣는 현장감마저 느껴진다.  초등학교에서 배웠던, 연필을 종이에서 떼지 않고, 모든 선을 한번만 지나 그림을 완성하는 한 붓 그리기는 어떻게 21세기를 지배하는 네트워크 과학이 되었을까? 이에 대한 답을 찾고 싶은 사람들과 '이게 무슨 뚱딴지같은 소리야?'라고 질문을 이해하지 못한 사람은 이 책 &lt;링크&gt;를 꼭 읽어 보길 권한다.  우리가 매일 사용하는 인터넷이, 틈만 나면 수시로 확인하는 카카오톡과 페이스북 같은 소셜 미디어가, 전 세계의 항공망이, 세포 안의 단백질과 신진 대사 물질이, 기업들의 이사회 구성원과 주식들의 관계가 모두 복잡계 네트워크 이론의 지배를 받는다.  한 붓 그리기의 가능성을 증명한 오일러의 1736년 쾨니히스베르크 다리 문제에서는 일곱 개의 다리를 오직 한 번만 건널 수 있는 경로가 있는가 묻는다. 이 문제에서 쾨니히스베르크에서 두 지류가 만나는 프레겔 강이 얼마나 넓은지, 그 사이에 위치한 크네이포프 섬이 얼마나 아름다운지, 그 섬과 육지들을 연결하는 일곱 다리가 얼마나 큰지는 전혀 중요하지 않다. 단지, 중요한 것은 육지와 섬에 해당하는 네 개의 점이 있고, 그 사이를 연결하는 일곱 다리는 그 점을 연결하는 선들로 표현 가능하다는 것을 알고, 이를 점과 선을 연결한 '네트워크'로 추상화하는 데 있다. 이로써 문제는 경로를 찾는 사람의 재주보다는 네트워크의 속성에 달린 것으로 된다.  이렇듯 문제의 구성 요소 간의 핵심적인 연결만을 간추린 네트워크의 구조는 우리 주변의 복잡한 세계를 이해하기 위한 열쇠가 된다. "실제 네트워크의 구조는 어떻게 생겼을까?", "그 구조와 성장을 지배하는 법칙이 있을까?" 하는 질문들이 바로 복잡계 네트워크 이론의 출발점이다.  이에 대한 첫 번째 시도가 바로 '네트워크의 점들은 확률적으로 마구잡이로 연결되어 있다'고 보는 '무작위 네트워크 이론'이다. 에르되스와 레니는 자연이 따를 수 있는 가장 단순한 방법인 무작위성을 가정하여, 그 동안의 획일적인 정규 격자의 틀에서 벗어났을 뿐 아니라, 수학적으로 아름다운 이론을 정립하였다. 이때가 1959년이다.  그 이후, 마크 그라노베터를 위시한 사회학 분야의 연구에서는 사회 연결망이 몇 개의 강한 클러스터로 이루어져 있고, 이를 약한 연결이 이어주는 구조임을 밝혔다. 무작위 네트워크 모델에서 이를 수정하기 위해, 1998년 던컨 와츠와 스티븐 스트로가츠가 '작은 세상 네트워크' 모델을 제안한다. 하지만, 작은 세상 네트워크도 무작위 네트워크와 마찬가지로 연결선 수의 분포가 정규분포와 같은 종형을 따른다.  종형 연결선 수 분포는 대규모 네트워크 자료가 확보되면서 대부분의 실제 네트워크와는 다르다는 것이 밝혀진다. 실제 네트워크들은 생각보다 큰 연결선 수를 갖는 점들이 많은 '멱함수 법칙'을 따르는 긴 꼬리 분포를 보인다. 이는 80/20의 법칙으로 더 유명한 롱테일 분포에 해당하는 것이다.   ▲ 멱함수 범칙을 따르는 '척도 없는 네트워크'. 소수와 연결된 노드(점)는 아주 많은 반면에 다수와 연결된 노드는 아주 적다. 다수의 링크를 독점한 소수와 소수의 링크만 보유한 다수가 또렷하게 대비된다.    이로부터 저자인 바라바시 팀이 연결선 수 분포가 멱함수 법칙을 따르는 '척도 없는 네트워크' 모델 연구에 이르게는 되는 여정을 다섯 번째 장에서부터 본격적으로 서술한다. 척도 없는 네트워크 발견을 학술지에 보고하고, 그 구조를 설명하기 위한 '성장'과 '선호적 연결'의 알고리즘 모델을 찾는 과정이 역동적이고 긴박하게 그려지는데, 연구자의 '아드레날린'이 읽는 이에게까지 느껴진다.  인터넷 웹페이지의 연결 구조에서도, 논문을 함께 쓴 공동 저자들의 사회 연결망 구조에서도, 영화에 함께 출연한 할리우드 배우들의 네트워크에서도, IBM의 컴퓨터 칩셋의 회로도에서도, 미국 서부 전력망과 예쁜꼬마선충의 신경망에서도 모두 멱함수 법칙을 따르는 연결선 수 분포가 나타난다.  도대체 멱함수 법칙이 무슨 의미가 있고, 왜 중요할까? 이런 근본적인 질문에 관심이 있는 독자라면 여섯 번째 장을 361쪽의 노트와 함께 찬찬히 살펴보면 좋을 것이다. (사실 이는 통계물리학의 상전이와 임계 현상에 관계된 심도 깊은 논의를 품고 있다.) 혹, 척도 없는 네트워크의 발견을 응용하고 적용하는데 관심이 더 많다면, 열 번째 장 이후에 다양한 적용에 대한 논의가 펼쳐진다. 그 이후는 중간부터 읽는다고 해서 이해에 큰 문제가 되지는 않는다.  '응답하라' 시리즈가 한창 인기 있을 때 "어·남·○"가 있어, 드라마 속 미래의 남편을 찾는 즐거움에 찬물을 끼얹는 글들이 있었다. 이제 급격한 성장기를 지나 여러 학문 분야에 응용되는 단계에 접어든 복잡계 네트워크 이론의 연구자들에게는 "어·네·멱"이 통할 것이다. "어차피 네트워크는 멱함수 법칙이다." 하지만, 방심은 마시라 남편이 정환이라 확신했다 택이인 줄 알고 소위 '멘붕'을 겪은 시청자들이 많지 않았던가.  14년 전 KAIST 연구실에서 시작한 복잡계 네트워크 연구는 나의 연구 인생 큰 부분을 차지하게 되었고, 이제는 나의 학생들을 지도하고 있다. 네트워크 연구의 선구자인 폴 에르되스에게 몇 단계 만에 닿을 수 있는가를 뜻하는 에르되스 넘버가 있다. 책의 내용 중에 바라바시 의 에르되스 넘버가 4라기에 '이제 나는 적어도 6은 되겠구나!' 하는 생각에 에르되스 넘버를 미국수학회(AMS)에서 제공하는 서비스(☞바로 가기 : MathSciNet)를 이용하여 확인해 봤다. 그런데, 의외로 다른 경로로 4가 되었다. 최근에 &lt;세상물정의 물리학&gt;(동아시아 펴냄)의 저자로 유명한 성균관대학교 김범준 교수 그룹과 논문을 썼는데, 김범준 교수는 톰 브리톤이라는 스웨덴의 수리생물학자와 논문을 썼고, 다시 브리톤은 스웨덴의 수학자 스벤테 얀슨과 논문을 썼다. 얀슨은 에르되스와 함께 쓴 논문이 있다.  되돌아보면 인생의 중요한 분기점에는 의외성도 많고 불확실성도 많다. 내가 그때 그저 좋아 했던 것들이 나의 미래를 이 정도로 결정할 줄이야!  다시 '응답하라'의 마지막 내레이션을 빌려 마무리 해 본다. 연구의 열정으로 "뜨겁고 순수했던, 그래서 시리도록 그리운 그 시절. 들리는가, 들린다면 응답하라." 나의 2002년이여!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲소형 과학로켓 ‘우리새-2호’ ⓒKAIST        KAIST 항공우주공학과 권세진 교수 연구팀이 KAIST 인공위성연구소와 공동으로 개발한 소형 과학로켓 ‘우리새-2호’를 28일 새만금 간척지에서 발사한다.  이번 시험 발사는 작년 공역 사용 승인을 얻지 못해 취소된 발사시험의 후속 발사로 새만금 간척지 (북위 35도 42분 06초, 동경 126도 33분 36초에서 반경 0.6NM)에서 오전 10시부터 12시 사이에 진행할 예정이다.  연구팀은 연구용 과학로켓 발사장을 확보하기 위해 새만금개발청으로부터 부지 사용허가와 국토교통부 항공교통본부 및 한미공군으로부터 공역 사용 승인을 받아 발사가 가능해졌다.  우리새-2호는 길이 2.2m, 직경 0.2m, 무게 20kg으로 고농도 과산화수소를 산화제로 사용하는 하이브리드 로켓을 추진기관으로 사용해, 발사 시 엔진이 10초간 작동 후 20여 초 간 관성 비행을 해 최대 고도 3km에 도달한 뒤 낙하산을 이용해 지상에서 회수토록 설계됐다.  연구팀은 과학로켓의 하이브리드 엔진, 비행컴퓨터, 낙하산 사출장치 등 핵심 부품과 비행중인 로켓과 교신하는 지상국을 자체 개발했다.  로켓의 비행 데이터는 모두 지상 통제국으로 전송되는 동시에 로켓 내부의 비행컴퓨터 메모리에 저장되며, 비행중 이상이 발생하면 조기에 엔진을 차단하고 낙하산을 사출하도록 설계됐다.  우리새-2호의 엔진에는 고성능 추진체 밸브가 장착돼 로켓이 작동하는 동안 전력 공급 없이 연소실로 추진제 공급이 가능하고, 경량화를 위해 추진제 탱크는 국산 탄소섬유 탱크를 채택했다.  과학 로켓은 고도 30km 이상에서 준궤도로 운용되며 로켓 추진기관 기술, 대기권 재진입 기술, 무중력 실험, 우주과학 및 미세먼지 측정과 같은 대기과학 장비들을 탑재할 수 있다.        ▲ 권세진 교수 ⓒKAIST    권세진 교수는 “11월 4일과 12월 6일에도 관계기관으로부터 발사장과 공역 사용 승인을 받았기 때문에 성능 개량한 로켓을 계속 발사할 계획”이라며 “이번 개발 경험을 토대로 초소형 위성(Cube Satellite)을 저비용으로 지구 궤도에 진입시킬 수 있는 로켓을 계획 중”이라고 말했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "나는 20대 때 2년 동안 주 100시간씩 일했다. 누가 시켜서 한 게 아니다. 내 인생을 위해서 한 거다. 스타트업에는 그런 사람들이 꽤 있다. 이런 스타트업에 주 52시간을 적용하는 것은 그야말로 국가가 나서서 개인의 권리를 뺏는 거다."(11월 1일 자 &lt;중앙일보&gt; "내일 당장 망할지 모르는데 벤처가 어떻게 52시간 지키나" 중) 문재인 대통령 직속 4차산업혁명위원회 위원장 장병규가 언론과의 인터뷰에서 한 말이다. 주 100시간 휴일 없이 일한다고 치면 하루 14시간이 넘는다. 2년 내내 하루도 빠지지 않고 주 100시간, 일 14시간 일했다는 주장이다. 이게 사실이면 대단한 사람이 아닐 수 없는데, 지금은 남들 밑에서 하루 몇 시간 일하는지 궁금하다.   1조 원대 자산가 장병규  장병규가 누구인지 인터넷을 찾아보니, 1973년 대구 태생으로 KAIST 전산학과를 나와 게임개발사와 벤처투자사를 거쳐 스타트업을 한 "성공한 1세대 벤처기업인"으로 "소탈하고 수평적 리더십의 소유자"라는 설명이 나온다.   &lt;조선일보&gt;에는 장병규가 "포브스 선정 2019 한국 부자 순위 47위"라는 기사가 나온다. "자산 8억9000만 달러(1조 513억 원)"란 설명도 달렸다.   장병규는 "4차산업혁명 시대의 인재는 왜 다른가"라는 &lt;중앙일보&gt;의 질문에 "생산 수단을 본인이 갖고 있다는 게 큰 차이다. 자동차 공장 근로자는 컨베이어 벨트를 소유하고 있지 않다. 하지만 4차혁명에서는 생산 수단이 중요한 게 아니라 머리에 들어 있는 지식과 역량, 경험, 스킬이 중요하다"고 물정 모르는 소리를 늘어놓는다.   1조 원 넘는 자산과 "생산 수단"을 가진 장병규는 잘 모르겠지만, 자동차 공장 근로자나 장병규 회사의 프로그램 개발 직원이나 "생산 수단"을 소유하지 못한 일개 노동자에 불과하다.   자본가와 노동자의 가장 큰 차이점은 "(자기) 머리에 들어있는 지식과 역량, 경험, 스킬"을 사용한 결과물의 전유 여부다. 자본가는 그 결과물을 자신이 가져갈 수 있지만, 노동자는 그 결과물을 가져갈 수 없다.   장병규 회사의 직원이 아무리 뛰어난 지식과 역량, 경험, 스킬을 가지고 있더라도 그 결과물의 분배는 회사가 결정하며, 결과적으로 가장 큰 이익을 얻는 이는 소유주 장병규가 될 것은 명약관화하다. 이런 과정이 없었다면 장병규가 한국 부자 순위 47위에 오르는 기적은 일어날 수 없었을 것이다.     ▲ 장병규 대통령 직속 4차산업혁명위원장. ⓒ연합뉴스    병역특례자의 '야전침대' 타령  노동자들을 쥐어짜는 장시간 착취 체제에 기대어 부를 축적한 때문일까. 장병규는 &lt;중앙일보&gt;에 본심을 틀어놓는다. "우리를 외국과 자꾸 비교하는 것도 적절하지 않다. 한국은 자원도 없고 대외 개방성이 굉장히 높다"면서 "총 52시간을 맞추는 법안 자체가 현실과 맞지 않는다"고 내심을 드러낸다.   "중국은 200~300명이 야전침대 놓고 주 2교대 24시간 개발해 모바일 게임을 만들어낸다. 한국에서 이렇게 하면 불법이다. 이러니 경쟁이 안 된다. 그만큼 한국은 일자리가 없어진 거다. 과연 누구를 위한 52시간제 정책인지 생각해 볼 필요가 있다."   19세 산업혁명 당시 잉글랜드나 20세기 초 일제시대의 방직 공장을 연상시키는 노동 착취 체제를 장병규는 "혁신 생태계"라 미화한다. 병역특례 덕분에 일반 병사들은 꿈도 꾸지 못하는 수준의 '금수저' 군 복무를 한 그가 "야전침대" 운운하는 것도 우습기 짝이 없다.   "인간의 얼굴을 한 기술과 투자"  유엔 산하기관인 국제노동기구(ILO)는 올해 발간한 '일의 미래 글로벌 위원회 보고서(Report of the Global Commission on the Future of Work)&gt;'에서 전례 없는 변혁의 시대를 맞아 "인간의 얼굴을 한 투자"를 강조한다.   보고서는 "노동자의 기본권, 적정한 생활 임금 보장, 일하는 시간의 제한, 안전하고 건강한 일터 환경, 전 생애에 걸친 사회보장, 숙련 향상을 위한 평생 교육, 좋은 일자리"를 증진할 수 있도록 "기술 변화를 관리할 것(managing technological change)"을 권고한다.   보고서는 인공지능, 자동화, 로봇의 확산이 (장병규 같은) 소수 엘리트의 수중으로 부가 집중되는 현상을 합리화하는 수단으로 전락해서는 안 된다고 지적하면서, 기술 혁신이 일하는 사람들의 삶의 질을 개선하고, 그들의 선택권을 넓히며, 남녀 격차를 줄이고, 글로벌 불평등이 초래한 문제들을 치유하는 데 기여해야 한다고 강조했다.   19세기에 이미 '10시간' 노동법 제정  1840년대 잉글랜드에서는 '10시간 운동(the 10-Hour Movement)'이 폭발했다. 일하는 시간을 하루 10시간으로 제한해야 한다는 운동으로 1850년대에는 미국으로 퍼졌다. 그 결과 19세기 중반 영국에서는 하루 10시간 법이 만들어지고 미국의 가장 산업화된 북동부 주에서는 11시간제가 도입되었다.   ILO는 정확히 100년 전인 1919년 11월 미국 워싱턴에서 창립 총회를 열고 최초의 국제 노동법인 제1호 협약을 채택했다. 협약은 하루 8시간 주 48시간을 못 박았다.   대한민국 정부는 한국전쟁이 한창이던 1952년 임시 수도 부산에서 근로기준법 제정을 위한 논의를 시작했다. 당시에도 장병규의 궤변처럼 일하고 싶어 하는 노동자들은 시간 제한 없이 일하도록 자유를 주어야 한다는 터무니 없는 주장을 늘어놓는 국회의원들이 있었다.   이런 후안무치한 주장에 대해 영등포갑 출신의 조광섭 의원(1901~1970)은 "노무자들은 시간의 제한을 요구하지 않는다는 것, 즉 얼마든지 24시간 한잠 자지 않더라도 그냥 계속 일할 것을 원하는 것같이 말씀하는 데 그것은 대단한 오해"라고 지적하면서 "일하는 분들한테 시간의 제한이 없다고 본다면 이것은 근로기준법을 만드는 자체에 생각할 여지가 있는 문제"라고 비판하였다.   주 40시간 협약까지 비준한 대한민국 정부  갑론을박을 거쳐 한국전쟁이 휴전으로 막을 내린 1953년 제정된 근로기준법은 하루 8시간 주 48시간을 선언했지만, 이 법 조항은 유명무실했다. 1970년 11월 스물두 살의 전태일은 근로기준법을 준수하라며 제 몸을 불살랐다.   1987년 노동자 대투쟁으로 법 개정이 이뤄져 노태우 정권에서 주 48시간은 주 44시간이 되고, 2004년 노무현 정권에서 주 40시간이 되었다. 2011년 이명박 정권은 주 40시간을 명시한 ILO협약 47호까지 비준했다.   하지만, 대한민국에서 노동자를 위한 '법의 지배(the rule of law)'는 존재한 적이 없다. 근로기준법을 깔아뭉갠 관료들의 행정해석으로 문재인 정권이 들어선 지 3년이 다 된 오늘까지도 노동자를 주 68시간 착취해도 합법인 상황이 이어지고 있다.   그 주된 이유는 대한민국을 지배하는 엘리트들이 헌법과 법령을 무시한 현행의 주 68시간 착취 체제를 주 52시간으로 개선하는 것을 반대하기 때문이다. 그들 중 상당수가 정부 정책에 입김을 불어넣을 수 있는 위치에 있다. 대통령 직속 4차산업혁명위원장을 맡고 있는 장병규 같은 이들이 대표적이다.   현행법에서도 주 100시간 착취는 합법이다   사실 주 52시간이 전면 시행되더라도 주 68시간 넘게 노동자를 착취할 수 있는 방법이 있다. 회사를 5인 미만 사업장으로 쪼개는 것이다. 대한민국 노동자의 30%가 넘는 570만 명이 5인 미만 사업장에서 일한다. 이런 데서는 장병규가 꿈꾸는 주 100시간 일을 시켜도 괜찮다. 근로기준법 적용을 면제받기 때문이다.   지금의 기술력과 자금으로 업종을 전환해 육상운송업, 수상운송업, 항공운송업, 기타 운송 관련 서비스업, 보건업에 투자하는 방법도 있다. 이들 업종은 회사 규모에 상관없이 '특례업종'으로 지정된 덕분에 노동시간 관련 법의 적용을 받지 않는다.   장병규의 1조 원은 깨끗할까  글을 마치며 의문이 하나 든다. 주 100시간 일한 것은 20대의 2년뿐이었다는 장병규의 1조 원 재산은 어떻게 만들어졌을까. 조국 일가 털 듯 턴다면 드러날 그의 합법적 재산은 얼마나 될까.   독자들에게도 질문을 하나 던진다. 국제노동기구(ILO)가 100년 전에 제정한 사상 첫 국제 노동법으로 하루 8시간 주 48시간을 명시한 1호 협약을 대한민국 정부는 과연 비준하고 있을까?   100년 전인 1919년은 민족 해방을 향한 3.1운동의 열기를 안고 대한민국 임시정부가 출범한 해다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ⓒ포스코      포스코 포항제철소(소장 오형수)는 12일 본사 대회의실에서 한국인 최초로 우주비행을 했던 이소연 박사를 초청, ‘무중력으로부터의 깨달음’이란 주제로 강연을 했다.   카이스트를 졸업한 이 박사는 2008년 4월 러시아 소유즈 우주선을 타고 열흘간 국제우주정거장에서 18가지 과학임무를 수행한 뒤 무사히 귀환했다.   우주탐험 10년을 맞은 올해 이 박사는 지난 우주인 선발 도전 과정부터 우주 비행, 우주에서 본 지구 모습 등 생생한 경험담을 풀어냈으며 이를 통해 자아성찰의 기회를 가지고 끊임없이 도전할 수 있었던 일에 대해 담담하고 솔직하게 전달했다.  이번 강의는 포항, 서울, 광양에 동시 생중계되어 많은 직원들이 들을 수 있도록 했으며 오는 21일 광양제철소에서도 동일한 방식으로 진행될 예정이다.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ (좌) 일반적인 그래핀 섬유의 단면과 (중), (우) 도파민을 이용하여 두단계로 결함 제어된 후의 그래핀 섬유의 단면의 전자현미경 이미지 ⓒKAIST       KAIST 신소재공학과 김상욱 교수 연구팀이 흑연계 그래핀을 이용해 우수한 물성을 갖는 신개념의 탄소섬유를 개발했다.  그래핀이 액체에 분산됐을 때 액정을 형성하는 새로운 현상을 최초로 밝히고 관련 원천특허를 보유하고 있는 연구팀은 그래핀 액정을 기반으로 하는 다양한 신소재 관련 후속연구를 통해 해당 분야를 선도하고 있다.  최근에는 그래핀 액정을 이용한 값싼 습식 섬유공정을 통해 기존 탄소섬유보다 훨씬 저렴한 탄소섬유의 제조가 가능한 것으로 규명됐다.  그러나 현재까지의 공정으로는 섬유 형성 과정에서 그래핀 층의 접힘 현상이 발생해 공극이 발생한다는 고질적인 문제점이 있다. 이러한 구조적 결함은 탄소섬유의 기계적 물성 뿐 아니라 전기전도성도 취약하게 만든다.  김 교수 연구팀은 문제 해결을 위해 자연계의 홍합에서 영감을 얻어 개발된 고분자인 도파민의 접착 성질에 주목했다. 다양한 분야에서 연구되는 이 도파민을 이용하면 그래핀 층간의 접착력을 증가시켜 구조적 결함을 방지하는 효과를 기대할 수 있다.  연구팀은 이를 통해 구조적 결함이 제어된 고강도의 탄소섬유 제작에 성공했다. 또한 폴리도파민의 탄화과정을 통해 전기전도도 역시 향상된 섬유를 제조하는 데 성공했다.  연구팀은 도파민에 열처리를 가하면 그래핀과 유사한 구조를 갖는다는 이론을 바탕으로 그래핀 액정 상에서 도파민의 고분자화 조건을 최적화시켰고, 이를 섬유화해 기존 그래핀 섬유의 본질적인 결함 제어 문제를 해결했다.  또한 도파민의 구조 변환을 통해 기존 고분자의 근본적 한계인 전도도 측면에서 손해를 보지 않으면서, 도파민 분자에 존재하는 질소의 영향으로 전기전도도 측면에서도 물성이 향상됨을 확인했다.  김상욱 교수는 “그래핀 액정을 이용한 탄소섬유는 기술적 잠재성에도 불구하고 구조적 한계를 극복해야 하는 한계가 있었다”며 “이번 기술은 추후 복합섬유 제조 및 다양한 웨어러블 직물기반 응용소자에 활용 가능할 것이다”고 말했다.  연구팀이 개발한 탄소섬유는 홍합접착제로 잘 알려진 폴리도파민(poly-dopamine)을 이용해 그래핀 층간 접착력을 높여 고강도, 고전도도를 갖는다. 이 신소재는 직물형태의 다양한 웨어러블 장치용 원천소재로 활용 가능할 것으로 기대된다.  김인호 박사과정이 1저자로 참여한 이번 연구는 재료과학분야 국제 학술지 ‘어드밴스드 머티리얼즈(Advanced Materials)’ 10월 4일자 표지논문으로 선정됐다. (논문명 : Mussel-Inspired Defect Engineering of Graphene Liquid Crystalline Fibers for Synergistic Enhancement of Mechanical Strength and Electrical Conductivity, 홍합접착제를 이용한 구조적 결함 제어를 통한 고강도/고전도도의 그래핀 액정 섬유 제조) 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   강원 태백시는 최근 시청 소회의실에서 웰니스 항노화산업 육성 자문위원회 위촉식을 갖고 웰니스 항노화산업 발전을 위한 본격적인 시동에 들어갔다.  지난달 28일 열린 위촉식에는 한국과학기술원(KAIST) 생명과학기술대학장 김정회 교수가 위원장에, 부위원장에는 상지대학교 김인호 교수가 선출되었다.   위촉식 이후에는 기본계획 용역사인 강원연구원과 강원엔지니어링으로부터 용역 중간보고를 받는 시간을 가졌다.    ▲태백시 항노화산업 육성 자문위원 위촉식. ⓒ태백시     이번 자문위원회는 도시, 건축, 지역개발, 식품, 마케팅 및 약학과 생약, 관광 등 모두 11개 분야에 16명의 박사와 석사, 기술사 등 21명의 전문가 그룹으로 다양하게 구성되었다.   이들 자문위원은 앞으로 태백시의 웰니스 항노화산업과 6차산업에 대한 각종 자문활동과 함께 발전방안 등을 제시하게 된다.  시 관계자는 “1년간 자문위원회 활동 후에는 지원위원회로 재편해 웰니스 항노화산업의 기반을 닦아나갈 계획”이라고 밝혔다.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      금융감독원이 하나금융지주와 하나은행의 2013년 채용비리 의혹과 관련해 지난 13일부터 특별검사에 착수했다. 개별 금융사를 상대로 부원장보를 단장으로 20명이나 되는 검사단을 구성하는 것은 이례적이다. 일단 검사 기간은 4월 2일까지이지만, 금감원은 필요한 경우 기간을 연장할 방침이다.  최종구 금융위원장은 지난 13일 국회 정무위원회 전체회의에 출석해 "인력과 기간에 제한을 두지 않겠다"며 사실상 무기한 검사를 공언했다. 특검단에는 IT 전문인력까지 포함돼 주전산 시스템과 클라우드 서버 등을 샅샅이 훑겠다는 의지를 보였다.  최 위원장은 하나금융과 하나은행에 대한 특별검사에 대해 "채용비리를 발본색원해 감독기관의 권위를 세우는 계기가 되도록 하겠다"고 말하기도 했다.  금융당국이 특정 금융사를 상대로 사실상 무기한 특별검사에 나선 배경에는 최근 하나금융지주 사장 재직 시절 채용비리에 연루된 의혹으로 전격 사퇴한 최흥식 전 금감원장이 있다.      ▲ 김정태 하나금융지주 회장(왼쪽)과 하나금융 사장이었던 최흥식 전 금감원장. 2013년 채용비리 의혹으로 최 전 원장은 취임 6개월 만에 사퇴했다. ⓒ연합뉴스   "금융사 회장에게 금감원장이 당했다" 금감원 창립 이래 수장이 없는 공백 사태가 처음으로 벌어졌고, 취임 6개월 밖에 안 된 금감원장이 사퇴한 배경에는 하나금융 김정태 회장의 3연임을 저지하려는 최흥식 전 금감원장에 대한 반격이라는 시각이 금감원 내에서 적지 않다. 최 원장이 하나금융 사장 재직 시 친구 아들을 추천했다는 2013년 자료가 유출됐는데, 하나은행 측이 이 자료를 흘렸다고 의심하는 것이다.  금감원의 상위기구인 금융감독위원회 최종구 위원장조차 이런 시각을 감추지 않았다. 최 위원장은 이날 국회 정무위 회의에서 "알려진 제보가 하나은행 내부가 아니면 확인하기 어려운 내용으로 경영진들도 제보 사실을 사전에 알고 있었다고 봐야 하지 않겠느냐"고 언급했다. 금감원 노동조합도 15일 최흥식 전 금감원장이 하나금융지주 사장 시절의 채용청탁 의혹으로 물러난 데 대해 "임명 시점에 예고된 참사였다"고 지적했다.  노조는 이날 성명서에서 "하나금융 임원 출신을 금감원장으로 임명한 결정은 감독기구 독립성에 대한 몰이해를 보여주는 것이며, 청와대가 강조하는 적폐청산에도 부합하지 않는다는 점을 들어 (최 전 원장의) 임명을 반대한 바 있다"며 이같이 말했다.  노조는 "최종구 금융위원장 발언처럼 최 전 원장의 낙마를 초래한 채용 특혜 의혹은 하나금융 내부에서 흘러나왔다고 해석하는 게 합리적"이라며 김정태 하나금융 회장을 겨냥했다.  노조는 "누군가 최 원장의 약점을 이용해 상투를 쥐고 흔드는 사태가 초래됐다"며 "새로운 원장은 '주인이 불명확한 지배구조를 이용해 대리인이 사익을 추구하려는 금융회사'에 경종을울릴 수 있어야 한다"고 주장했다.  '주인이 불명확한 지배구조'는 지배적 대주주가 없는 하나금융을, '사익을 추구하려는 대리인'은 3연임 확정을 앞둔 김 회장을 가리킨 것으로 해석된다.  노조는 "새 원장은 금융산업정책을 관장하는 금융위의 규제 완화 압력도 견뎌낼 수 있는 인물이어야 한다"며 "금융산업 지원보다는 리스크 관리에 충실할 수 있는 인물이어야 한다"고 강조했다. 급기야 금융당국은 김정태 회장의 '셀프 3연임'에도 다시 한 번 제동을 걸고 나섰다. 15일 금융감독원이 지난 1월부터 국내 9개 금융지주사의 지배구조를 점검한 결과 발표에 따르면, 은행 등 거대 금융회사를 계열사로 거느린 금융지주회사의 지배구조가 여전히 후진적이어서 금융지주 회장들의 '셀프 연임'이 이뤄질 수밖에 없는 구조적 문제가 드러났다.   지주 회장이 사외이사들을 선임하는 방식이어서 사외이사가 경영진에 끌려다니는 '거수기'로 전락해 회장 연임안이 이사회를 통과하기 쉽게 되어 있다는 것이다.  이사회와 사외이사가 무력화된 탓에 금융지주 회장들은 '셀프 연임'에 사실상 걸림돌이 없는 실정이라고 금감원은 지적했다. 글로벌 금융회사는 오랜 기간 검증을 거쳐 차기 CEO를 뽑는 반면, 국내 금융지주사들은 평균적으로 회장 임기 만료 40일 전 차기 CEO 선출을 시작하는 것도 문제점으로 꼽혔다.  금융당국은 이날 사외이사와 감사 후보추천위원회에 CEO의 참여를 금지하는 등 금융회사 지배구조 개선방안을 발표했다. 금융위는 이런 제도 개선을 위해 금융회사지배구조법 및 시행령, 감독규정 개정을 추진해 금융회사지배구조법 개정안은 상반기 중 국회에 제출하고 시행령 및 감독규정 개정안은 3분기 중 개정을 완료할 계획이다. 금융당국의 서슬 퍼런 압박 속에 오는 23일 예정된 하나금융지주 주주총회에서 김정태 회장의 '3연임 안'이 통과될지도 금융권에서 비상한 관심을 모으고 있다. 지난 2012년 하나금융그룹의 수장이 된 김정태 회장은 2015년 연임에 성공한 바 있다.   하지만 하나금융 노동조합 측의 반대가 거세고, 최흥식 금감원장의 사퇴까지 이어진 금융당국과의 갈등이 막판 변수로 작용할 수 있다는 분석이 나오고 있다.   게다가 국내 민간 의결권 자문사인 서스틴베스트는 김 회장의 3연임 반대를 권고한 상태다. 서스틴베스트는 김 회장의 3연임 반대 이유로 KEB하나은행에 대한 인사 개입 의혹과 김 회장 아들과 금융지주 계열사 간 부당거래 의혹, 박근혜 정부 '창조경제 1호' 기업인 아이카이스트에 대한 부실대출 의혹 등을 제시하면서 "사회적 신뢰가 저하됐고 기업 및 주주가치에 중대한 훼손을 입혔다"고 지적했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      경남 진주시는 정부통합전산센터에서 개최한 제2회 공무원 빅데이터 분석 공모전에 진주시 공무원이 참가해 대상을 수상했다고 10일 밝혔다.  '혜안과 함께라면 나도 빅데이터분석가'라는 주제로 열린 이번 공모전은 전국 공무원들을 대상으로 개최됐으며 진주시팀 등 7팀이 본선에 진출했다.  지난 5일 대전 카이스트에서 열린 최종 발표대회에 참가한 진주시팀은 김봉진(매립장사업소), 박성현(토지정보과), 전희수(징수과)씨로 ‘녹색성장을 위한 자전거 통합정보망 제공’이라는 주제 아래 중앙정부 및 지자체에서 국민 건강증진을 위해 자전거 활성화 정책을 내 놓고 있으나 국민의 관심이 줄어들고 있는 점을 빅데이터로 분석한 결과, 전국단위의 자전거 정보 통합 정보망을 구축 운영해 자전거 이용자 및 잠재적 수요자의 요구를 충족시킬 필요가 있다는 발표로 현장에서 행정자치부장관상인 대상과 상금을 받았다.   ▲제2회 공무원 빅데이터 분석공모전 수상자. ⓒ진주시    한편, 이번 대회의 심사방법은 전문가심사 50%, 방청객 투표 50%였으며, 심사기준은 주제 적합성, 분석 적절성, 활용가능성, PPT 내용 충실도 와 발표태도, 참여자 호응도를 종합적으로 채점해 결정했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    최근 전자기기 및 광학기기의 소형화로 초박형 디지털카메라에 대한 수요가 증가하고 있는 가운데 우리나라 연구팀이 곤충의 시각 구조를 적용한 렌즈를 제작하고 이를 이미지 센서와 결합한 초박형 디지털카메라를 개발해 향후 획기적인 변화를 가져올 것으로 예상된다.   KAIST 바이오및뇌공학과 정기훈 교수 연구팀이 독특한 눈 구조를 가진 곤충인 제노스 페키(Xenos peckii)를 모사한 초박형 디지털카메라를 개발했다.     ▲ (좌) MEMS 공정을 통해 제작된 마이크로프리즘 어레이의 SEM 영상. (우) 완성된 초박형 디지털 카메라의 광학 영상 ⓒKAIST이번에 개발된 디지털 카메라는 기존 이미징 시스템보다 더 얇으면서 상대적으로 넓은 광시야각과 높은 분해능력을 갖는 이 제노스 페키를 모사해 감시 및 정찰 장비, 의료용 영상기기, 모바일 등 다양한 소형 이미징 시스템에 적용될 것으로 기대된다.       ▲(좌) Xenos peckii 의 Scanning electron micrograph (SEM) 영상 (우) 형광 염색된 Xenos peckii의 시각구조 ⓒKAIST기존의 카메라 모듈은 광학적 수차를 줄이기 위해 광축을 따라 복수의 렌즈로 구성돼 있어 부피가 매우 크다는 단점을 각고 있다.또한 이런 모듈을 단순히 크기만 줄여 소형기기에 적용하면 분해능과 감도가 떨어지게 된다.연구팀은 이러한 문제를 해결하기 위해 다른 곤충과는 달리 각 오마티디아에서 개별의 영상을 획득할 수 있는 제노스 페키의 시각구조에서 영감을 얻어 마이크로프리즘 어레이와 마이크로렌즈 어레이로 구성된 초박형 렌즈를 제작했다.제작에는 대량 생산을 할 수 있는 MEMS 공정을 이용했으며 볼 렌즈 임프린팅 및 3D 모세관 충진 기법과 같은 새로운 기술을 적용했다.이 후 렌즈를 평면의 이미지 센서 위에 바로 집적시켜 초박형 디지털 카메라를 완성했다.완성된 초박형 디지털 카메라는 2mm 이내의 매우 작은 크기를 가지며 각기 다른 광축의 방향 갖는 마이크로프리즘 어레이를 통하여 다른 평면 형태의 생체모사 카메라에 비해 넓은 광시야각을 확보할 수 있는 특징을 갖고 있다.        ▲(좌) Xenos peckii의 시각기관을 통해 얻은 영상. (우) 초박형 디지털 카메라를 통해 얻은 영상 ⓒKAIST   또한 마이크로프리즘 어레이 사이는 흑색 폴리머로 충진되어 프리즘 간의 빛의 간섭을 방지할 수 있으며 이에 따라 광학적 크로스토크 현상 없이 영상을 얻을 수 있으며, 확보된 영상들은 영상처리기술을 통해 하나의 영상으로 복원시킬 수 있다.이어 복원된 영상은 단일 영상보다 더 선명해진 이미지를 가지며 더 넓은 영역을 관측할 수 있는 것으로 확인됐다.        ▲정기훈 교수(가운데)와 연구원들 ⓒKAIST정기훈 교수는 “초박형 카메라를 제작하는 새로운 방법을 제시했다”며 “이 연구는 기존의 평면 CMOS 이미지 센서 어레이에 마이크로 카메라를 완전히 장착한 초박형 곤충 눈 카메라의 첫 번째 데모이며 다양한 광학 분야에 큰 영향을 미칠 것으로 확신한다.”라고 말했다.이번 연구결과는 국제 학술지 ‘빛 : 과학과 응용(Light : Science &amp;Applications;)’ 10월 24일 자에 ‘제노스 페키의 시각기관을 모사한 초박형 디지털카메라, Xenos peckii vision inspires an ultrathin digital camera’라는 주제로 게재됐다.    한편 정 교수 연구팀은 반딧불이의 배 마디 구조를 분석해 광효율을 높은 LED 렌즈를 개발한 바 있고, 생체모사를 통한 무반사 기판을 제작하는 등 해당 분야를 선도하고 있다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      세계 정상의 프로 바둑기사 이세돌과 구글의 인공지능 프로그램 '알파고(AlphaGo)'가 벌이는 세기의 바둑 대결이 사흘 앞으로 다가왔다.  관심의 초점은 상금 100만 달러(고정환율로 11억 원)를 놓고 사람과 인공지능이 벌이는 역사적인 대결의 결과다.  과학계에서는 아직 '이세돌 승리'를 예상하는 사람이 많지만 그렇지 않은 경우도 있다.  사람의 두뇌처럼 신경망 구조로 작동하는 알파고가 프로기사 기보를 포함해 3천만 건의 기보를 학습했지만 아직은 이세돌의 판단과 직관을 능가할 역량을 가졌다고 보기 힘들다는 것이다.  알파고가 지난해 10월 유럽 챔피언 판후이 2단을 5전 전승으로 꺾었지만 판후이의 실력은 이세돌에 훨씬 못 미치고, 아직 세계 최정상급 바둑 고수의 변화무쌍한 대국 방식에는 충분히 적응하지 못한 것으로 보기 때문이다.  정재승 카이스트 바이오 및 뇌공학과 교수는 "알파고는 단기 전략은 우수하지만 멀리 내다보고 미리 수를 쓰는 능력은 현저하게 떨어진다"며 "바둑은 멀리 내다보고 게임을 진행해야 해서 이세돌 기사가 이길 확률이 더 높다"고 전망했다.  알파고가 매수 최적의 착점을 찾아낼 수 있겠지만 프로기사들처럼 몇십수 앞을 내다보는 착점은 어려울 것이라는 분석이다.  물론 알파고의 승리를 점치는 학자들도 있다.   김진호 서울과학종합대학원 교수 등은 컴퓨터가 스스로 학습하며 지능을 키우는 '딥러닝'이 하루가 다르게 발전하고 있어 넉달 전 판후이와 치른 경기를 토대로 알파고의 실력을 추정하는 것은 부정확할 수 있다는 주장을 펼친다.  실제 알파고는 사람이 1천 년 이상 걸릴 100만 번의 대국을 한 달 안에 학습한다. 개발자인 구글 역시 이세돌과 알파고의 승률을 50 대 50으로 예상하고 있다.  이번 대국에서 이세돌이 우승한다고 해도 인간 우위가 그리 오래가지는 않을 전망이다.   인간이 바둑을 배우듯이 빅데이터를 통해 '학습'하고, 딥러닝으로 '추론'까지 해내는 알파고가 인간을 뛰어넘는 것은 시간문제라는 관측이다.  김대식 카이스트 교수도 "알파고가 이번 대결에서 이기고 지는 것은 큰 의미가 없다"며 "알파고는 이세돌과의 대결에서 더 강해지고, 만약 몇 년 뒤 재대결이 벌어지면 그때는 승부 예측이 매우 어려워질 것"이라고 예상했다.   결국, 이세돌과 알파고의 대국은 일회성 이벤트가 아니라 인공지능이 가져올 미래의 그림을 그려보게 한다는 점에서 더 큰 의미가 있다.  '학습'과 '추론'의 방식으로 인공지능이 인간에게 도전하는 이번 사건은 미래에 벌어질 수많은 사건의 전초전과 다름없다.  주어진 과제를 해결하는 기존의 인공지능과는 달리 데이터를 분석하고 사람과 상호작용을 통해 추론하고, 다양한 상황에서 스스로 판단해 적절하게 행동할 수 있는 인공지능의 등장은 인간 생활에도 큰 변화를 가져올 것이 분명하다.  인공지능 로봇이 현재는 공장이나 인간이 접근하기 힘든 산업 현장에 주로 배치됐다면 미래에는 사람과의 상호작용이 필요한 서비스업에도 쓰일 수 있다.  이렇게 되면 상당수의 지식·서비스 노동이 인공지능으로 대체되고, 실업과 잉여노동인구 관리, 양극화와 같은 사회문제가 발생할 수 있다.  큰 변화가 예상되기는 하지만 인공지능이 일자리와 사회의 질서를 완전히 압도할 것으로 우려할 필요는 없다는 의견도 많다.  이준환 서울대 언론정보학과 교수는 "인공지능이 사람의 일을 다 뺏지는 못할 것"이라며 "인공지능이 보조적인 역할을 수행하는 가운데, 사람이 종사하는 새로운 일자리가 빠르게 창출될 것"이라고 내다봤다.   정재승 교수도 "사회적 맥락을 이해하거나 복잡한 의사결정을 내리는 일은 그렇게 간단하지 않다"며 "인공지능은 인간을 흉내 낼 뿐이지 인간처럼 사고하는 것은 아니어서 본질에서 차이가 있다"고 말했다.   체스 그랜드마스터인 존 스필먼도 최근 영국 인디펜던트에 기고한 글에서 "기계는 사람만큼 많은 것을 창조하지 못한다"며 "돌벽에 우리 머리를 찧기보다는 기계를 탁월한 훈련 도구로 활용해야 한다"고 강조했다.       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      창원대학교가 국가에서 지정하는 기능성 나노구조재료 분야 핵심품목 연구·개발 대학에 선정됐다. 이 국책사업은 과학기술정보통신부가 소재·부품·장비 분야의 기술력 향상과 핵심·원천기술의 국산화를 통한 국가 자립역량 강화를 위해 시행하는 것으로 국책연구소 20곳과 대학연구실 5곳을 선정해 지원하고 육성한다. 이에 따라 창원대 신소재공학부 기능성 나노구조재료 연구실은 지난 2일 과기부 기술특별위원회에서 ‘국가연구실(N-LAB)’로 선정, 의결됐다.     ▲과학기술정보통신부 주관 '국가연구실(N-LAB)'에 선정된 창원대학교 신소재공학과 기능성 나노구조재료 연구실 연구원들. ⓒ창원대   국가연구실은 소재·부품·장비 분야의 핵심품목과 관련해 국가로부터 지속적인 연구 지원과 중장기적 연구를 통해 기술 자립화의 구심점 역할을 수행하게 된다. 이번에 선정된 대학연구실은 창원대를 비롯해 서울대와 카이스트(KAIST), 한양대, 전남대 등 모두 5곳이다. 창원대 신소재공학과 기능성 나노구조재료 연구실은 가스터빈 고온부품을 제조하는 데 적용되는 세라믹 기술에 대한 핵심·원천 기술을 기반으로 기술혁신과 산업화에 주력하고 있다. 세라믹 기술은 열을 차단하고 전달되지 않도록 하는 코팅 기술과 주형·코어 기술이다.  창원대 국가연구실은 이를 바탕으로 신개념의 차세대 소재와 유기·무기 하이브리드 코팅 소재, 고온부품의 신뢰성 평가, 나노기술을 접목한 세라믹 소재 대량생산 등의 연구와 개발을 진행하고 있다. 특히 특허와 논문 등에서 우수한 연구 성과와 소재·부품·장비 분야의 전문 연구인력 배출 등이 높은 평가를 받아 이번 국가연구실 선정에 결정적 역할을 한 것으로 알려졌다. 창원대 국가연구실 책임교수인 신소재공학과 정연길 교수는 “이번 국가연구실 지정을 발판으로 향후 선진국 주도형 기술 분야인 고온부품 소재분야에서 핵심·원천기술의 국산화를 실현할 것”이라며 “이를 통해 국가경쟁력을 제고하고 국가 에너지 정책을 뒷받침하기 위한 산·학·연·관 협력을 극대화하는 등 고온부품 허브 역할을 하는 기능성 나노구조재료 연구실로 육성해나갈 것”이라고 밝혔다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      강원 태백시는 지난 18일 대전 유성구에서 장석복 카이스트 교수와 서형선 전 ㈜KT&amp;G; 정선태백지점장에게 명예시민증을 수여했다고 19일 밝혔다. 이들은 지난해 12월 명예시민증 수여 대상자로 결정됐으나 그동안 코로나19 확산으로 수여하지 못했다.     ▲류태호(왼쪽 세 번째) 태백시장이 지난 18일 대전 유성구에서 장석복 카이스트 교수와 서형선 전 KT&amp;G; 정선태백지점장에게 명예시민증을 수여하고 있다. ⓒ태백시  장석복 카이스트 화학과 교수는 학창 시절을 태백에서 보낸 태백 출신으로 1979년 황지고등학교를 졸업했다. 현재 해당 과학분야에서 국제적 최정상급 연구자로 태백시의 자긍심을 높이고 있고 지역 학생을 위한 다양한 활동으로 시정 발전에 기여하고 있다.  장 교수는 “명예시민이 된 것을 자랑스럽게 생각한다”며 “태백지역의 어린이들에게 꿈과 희망을 주는 역할을 하고 싶다”고 강조했다.  서형선 전 ㈜KT&amp;G; 정선태백지점장은 2011년 3월부터 2019년 3월까지 KT&amp;G; 정선태백지점장으로 재임하면서 지역 소외계층을 위한 사회공헌 활동에 앞장섰다.  또한, 태백지역 기관·단체장들의 모임인 태수회 회원으로 활동하면서 시정 발전 및 지역 현안 해결에 노력하기도 했다.  시 관계자는 “명예시민증 제도는 각종 현안사항에 대한 자문과 지원에 필요한 인적 인프라를 구축하기 위한 것으로 지역 내 전출 기관장 등 각종 분야에서 시정 발전에 기여한 공로가 있는 인사까지 확대해 수여하고 있다”고 말했다.  한편, 태백시는 8월 현재까지 22명을 명예시민으로 선정했으며 이날 수여자까지 총 21명에게 명예시민증을 수여했다.  아직까지 수여하지 못한 명예시민은 제20대 국회 국방위원회 위원으로서 의정활동을 통해 태백시와 강원지역의 균형발전에 기여하고 있는 최재성 국회의원으로 일정 조율 후 수여 예정이다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲    KAIST 화학과 김상율 교수 연구팀 ⓒKAIST     KAIST 화학과 김상율 교수 연구팀이 유리와 같은 투명성과 열팽창계수를 가져 유기소재의 열팽창 제어에 응용 가능한 고분자를 합성하는데 성공했다.  고분자 물질을 합성할 때 고분자 사슬 간에 상호작용하는 힘을 도입하고 힘의 방향이 수직으로 교차하게 만들며, 사슬 간 거리를 적절히 조절하면 온도에 따른 팽창 및 수축을 억제할 수 있다. 김 교수 연구팀은 이러한 화학구조를 투명한 고분자 물질에서 구현했다.  투명하면서도 유연한 차세대 디스플레이 제조를 위해서는 유리 수준의 투명성과 열팽창계수를 가진 접을 수 있는 기판소재가 필요하지만 이러한 조건을 갖는 유연 고분자 소재는 알려진 바 없었다.  연구팀이 합성에 성공한 새로운 고성능 고분자 물질인 투명한 폴리아마이드이미드 필름은 열팽창정도가 4ppm/oC로 유리 수준으로 낮으면서도 유연하고, 아몰레드(AMOLED) 디스플레이 제조공정에 적용할 수 있는 내열성을 갖고 있다.  연구팀은 새로 합성된 투명 폴리아마이드이미드 필름 위에 이그조 박막 트랜지스터(IGZO TFT)소자를 제작해 필름을 반경 1mm까지 접어도 소자가 정상적으로 작동되는 것을 확인했다.  김 교수는 “이번 연구 결과는 그간 난제로 여겨졌던 무정형 고분자의 열팽창을 화학적 가교결합 없이 조절해 유리 정도 수준으로 낮추면서도 유연성을 확보하고 동시에 투명하게 만드는 방법을 제시한 흥미로운 연구결과이다”며 “다양한 유기소재의 열팽창을 제어하는 데 응용 가능할 것으로 기대된다”고 말했다.  이 연구성과는 국제 학술지 사이언스 어드밴시스(Science Advances) 10월 26일자 온라인 판에 게재됐다.  (논문명 : Poly(amide-imide) materials for transparent and flexible displays )        ▲ 고성능 고분자 물질인 투명한 폴리아마이드이미드 필름 ⓒKAIST    한편, 얇고 가벼운 평판디스플레이에 사용되는 반도체소자는 세라믹과 비슷한 열팽창계수를 갖고 있어 열팽창계수의 차이가 큰 고분자 필름 위에 반도체소자를 만들게 되면 작동 시 발생하는 열에 의한 팽창과 수축의 차이로 소자가 파괴되는 문제가 발생한다.  따라서 반도체소자와 기판의 열팽창계수를 일치시키는 것은 성공적인 디스플레이를 제조하는데 매우 중요하다.  무정형인 투명한 고분자 물질의 열팽창계수를 줄이는 방법으로 고분자 사슬들을 연결시켜 망상구조를 형성시키는 방법이 알려져 있지만 망상 구조를 갖는 고분자 물질은 유연성을 잃어버리고 필름으로 제조해도 유연하지 않게 된다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      창원시는 20일 공공연구기관의 기술을 이전받아 사업화를 추진하는 지역내 기업을 대상으로 신제품과 신사업 진출을 위한 R&amp;BD;(제품화․양산화)를 지원하는 창원강소특구 ‘기술이전사업화사업’이 공고됐다고 밝혔다.  기술이전사업화사업은 공공연구기관의 기술사업화 기업을 지원하는 사업으로 특구(연구개발특구 5개소, 강소특구 6개소) 내 공공연구기관*의 기술을 이전받아 사업화를 추진하는 창원시 기업이면 누구나 신청이 가능하다.     ⓒ 창원시   창원 강소특구 내에 입주한 기업은 특구 외에 위치한 공공연구기관의 기술을 이전받아 사업화를 추진하는 경우까지 신청이 가능하다. 기업별 지원 금액은 연간 최대 2억원 이내이며 총 사업비는 30억원이다.  연구개발특구진흥재단 사업관리시스템으로 신청서 등 구비서류를 오는 31일 오후 3시까지 제출해야 한다. 사업공고에 대한 자세한 사항은 과학기술정보통신부, 창원시, 한국전기연구원 홈페이지를 참조하면 된다.  창원 강소특구의 기술핵심기관인 한국전기연구원의 강소특구총괄실에서는 창원시의 기업들이 많은 혜택을 받을 수 있도록 지원신청 준비, 자격요건, 구비서류에 대한 전반적인 상담을 지원하고 있다.  한편 특구 내 공공연구기관은 한국전기연구원(창원), 경상대(진주), 인제대(김해), 충북대(청주), 포스텍, RIST(포항), 한양대 에리카(안산), KAIST, ADD, 기계연, ETRI(대전), GIST, 전남대, 한국광기술원(광주), DGIST, 경북대(대구), 부산대, 생기원 동남본부(부산), 전북대, 식품연, KIST 전북분원(전북) 등이다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      동해시(시장 심규언)는 한국도서관협회와 10월의 하늘 준비위원회가 공동주최하는 공모사업에 선정돼 오는 31일 오후2시 ‘10월의 하늘’강연회를 개최한다고 밝혔다. ‘10월의 하늘’ 강연회는 카이스트 정재승 교수의 제안으로 시작돼 11주년을 맞이한 과학강연 재능기부 행사로 올해는 전국의 24여개 도서관에서 강연을 진행한다.     ▲동해 발한도서관. ⓒ동해시   이번 강연회는 총2회로 1부는 과학작가(ESC) 소속의 박재용 강사가 ‘우리 모두 똥을 먹어요’라는 주제로 ‘똥을 먹는 동물들을 통한 생태계와 진화에 대한 이야기’를 갖게 된다. 또 2부는 세종 스마트시티 총괄계획단 소속의 조성행 박사의 ‘무서운 코로나, 우리 동네는 어떻게 되어야 할까?’라는 주제로 ‘안심하고 즐겁고 편안할 생활을 위해 어떻게 우리 동네를 바꾸어야 좋은지’에 대한 강연을 진행할 예정이다. 강연은 초등학생 3~6학년 학생들을 대상으로 진행되며, 수강을 희망하는 학생은 오는 13일 오전 10시부터 동해시립도서관 홈페이지를 통해 신청하면 된다. 특히 올해는 코로나19로 인해 ZOOM을 활용한 온라인 화상 강연으로 진행돼 ①PC(웹캠, 마이크 기능 이어폰), ②노트북, ③스마트폰 중 한가지 기기를 필수 지참해야 수강생 접수가 가능하다.  장순희 동해시평생교육센터 소장은 “과학이 쉽고 재미있는 분야라는 것을 청소년들이 경험하고 느끼며, 과학자와 소통하는 시간이 되기를 바란다”고 말했다.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      문재인 대통령이 8일 행정안전부 장관에 진영 더불어민주당 의원을, 중소벤처기업부 장관에 박영선 더불어민주당 의원을 내정했다. 집권 3년 차를 맞이한 문 대통령은 이날 국토교통부, 통일부, 문화체육관광부 등 7개 부처에 대한 중폭 개각을 단행했다.  과거 새누리당 출신인 진영 행정안전부 장관 내정자는 박근혜 정부에서 보건복지부 장관을 지내던 때 '소신 발언'을 해 물러났다. 홍준표 전 경남도지사가 '진주의료원 폐업' 방침을 밝혔을 때 공공의료 붕괴를 우려하며 반대 목소리를 냈고, 박근혜 전 대통령의 '기초연금과 국민연금 연계 지급' 방침에 반대해 장관직을 사퇴했다. 2016년 김종인 전 더불어민주당 비상대책위원장의 영입으로 서울 용산구에서 4선에 성공했다. 국회 안전행정위원회 위원장을 지낸 이력이 있다. 박영선 중소벤처기업부 장관 내정자는 재벌의 편법적인 지배 구조를 개선하는 내용의 공정거래법, 상법 개정안 등을 발의하며 '재벌 저격수'라고 불려왔다. 민주당에서 재벌개혁특별위원회 위원장을 맡기도 한 박영선 내정자는 "재벌 개혁이야말로 위기의 한국 경제를 살릴 수 있는 최선의 방안"이라고 주장해왔다. 대기업과 중소기업 상생 방안에 힘을 실을지 주목된다. 박 의원은 민주당 내에서 차기 서울시장 후보군으로 꾸준히 거론된다.김의겸 청와대 대변인은 이번 개각의 의미에 대해 "국민이 체감할 수 있는 성과를 내기 위해 능력이 검증된 인사를 발탁한다는 의미가 있다"고 말했다. 김의겸 대변인은 진영 내정자에 대해서는 "모두가 안전한 나라, 다 함께 잘사는 지역을 실현해 나갈 적임자"라고 평가했고, 박영선 내정자에 대해서는 "재벌 개혁, 중소·벤처기업 지원을 위한 의정 활동을 열정적으로 수행했다"는 발탁 이유를 밝혔다.    ▲ 진영 행정안전부 장관 내정자(왼쪽)와 박영선 중소벤처기업부 장관 내정자(오른쪽). ⓒ청와대   문화체육관광부 장관 대상에 올랐던 우상호 더불어민주당 의원은 이번에 입각 대상에서 빠졌다. 차기 총선을 앞두고 당에서의 쓰임새를 감안한 조치라는 게 민주당 안팎의 설명이다. 김의겸 대변인은 "당에서 필요한 사람이라는 요청이 있었다"며 "강기정 청와대 정무수석이 지난 7일 이해찬 더불어민주당 대표를 만난 자리에서 최종적으로 결정되지 않았나 싶다"고 말했다.  우 의원은 빠졌지만, 진영·박영선 의원 모두 '비문재인계'로 분류된다는 측면에서 청와대는 이번 인사를 '통합 인사', '탕평 인사'로 보고 있다. 중진 의원들을 장관으로 기용하는 것은 청와대로서는 인사청문회 부담을 덜고, 당에는 '인적 쇄신' 부담을 덜어준다는 측면에서도 서로 윈윈(win-win)이라는 분석도 나온다. 두 의원은 2020년 총선 불출마를 선언하고 입각을 받아들였다. 이에 대해 당 핵심 관계자는 "중진 의원들이 장관이 되면 당으로서는 '물갈이 부담'을 덜게 된다"고 말했다. 통일부 장관에는 김연철 통일연구원장이 내정됐다. 김연철 내정자는 노무현 정부 당시 대통령 직속 정책기획위원회 위원, 통일부 장관 정책보좌관 등을 지냈다. 해양수산부, 국토교통부, 문화체육부, 과학기술정보통신부 등 나머지 4개 부처 장관 내정자는 보수 관료나 교수 출신들이 채웠다. 국토교통부 장관에는 최정호 전 국토부 차관이, 문체부 장관에는 박양우 전 문화관광부 차관이 내정됐다. 과학기술정보통신부 장관에는 'LG전자-카이스트 6G 연구센터장'을 맡은 이력이 있는 조동호 카이스트 교수가 내정됐다. 해양수산부 장관에는 문성혁 세계해사대학 교수가 내정됐다. 그밖에도 문 대통령은 차관급 두 명에 대한 인사도 단행했다. 식품의약품안전처장에는 이의경 성균관대학교 제약산업학과 교수를, 대도시권광역교통위원회 위원장에는 최기주 아주대학교 교통시스템공학과 교수를 임명했다. 이번 개각으로 물러나는 김부겸 행정안전부 장관, 김영춘 해양수산부 장관, 김현미 국토교통부 장관, 도종환 문화체육부 장관, 유영민 과학기술정보통신부 장관, 홍종학 중소벤처기업부 장관 등은 2020년 총선 출마를 준비할 것으로 보인다. 당 출신은 아니지만, 문재인 정부 초대 통일부 장관으로 세 차례에 걸린 남북 정상회담을 이끌었던 조명균 현 통일부 장관도 2020년 경기도 의정부 지역 출마가 점쳐진다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲   KAIST 생명화학공학과 이상엽 특훈교수 ⓒKAIST    KAIST 생명화학공학과 이상엽 특훈교수가 세계경제포럼 글로벌미래위원회(Global Future Council) 중 생명공학(biotech) 위원회의 제2대 공동의장으로 재선임됐다.  이상엽 교수는 2016년부터 2년간 크리스퍼(CRISPR) 기술로 잘 알려진 MIT-하버드 브로드연구소의 펭 장(Feng Zhang) 교수와 함께 생명공학위원회 초대 공동의장을 역임했다.  올해 재구성된 글로벌미래위원회는 총 38개로 구성되고 그중 28개의 글로벌 및 지역 의제 위원회들과 10개의 4차산업혁명 위원회가 있다.  4차산업혁명 위원회 중 하나인 생명공학위원회 의장을 다시 맡게 된 이 교수는 미국 올라리스 테라퓨틱스(Olaris Therapeutics)사의 CEO인 엘리자베스 오데이(Elizabeth O’Day)를 포함한 14명의 위원과 함께 생명공학분야 주요 의제를 다룰 예정이다.  이상엽 교수는 “4차 산업혁명 시대의 핵심 떠오르는 기술들이 융합돼 급격히 발전하고 있는 헬스케어 분야에서 세계가 함께 고민하고 추진할 다양한 정책들을 도출하도록 노력하겠다”고 말했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      한동안 걷지 못했다. 메모장을 들춰보니 지난해 가을부터 걷지 않았다. 버나드 쇼의 묘비명이 떠올랐다. '우물쭈물하다가 내 이럴 줄 알았다.' 시간이 나기를, 마음에 여유가 생기기를 기다리다가 지는 나뭇잎과 솟아나는 새순을 차창을 통해 보고 말았다. 세 계절을 걷지 않았다는 것은 내가 나로 살지 못했다는 명백한 증거다. 나에게 걷기는 단순한 운동이 아니다. 습관, 아니 태도에 가깝다. 조금 거창하게 말해서 문명에 대응하는 나의 방식이랄까. 걷기는 유산소 운동이다. 그런데 산소가 근육이나 골격에만 필요한 것은 아니다. 정신에도 뼈와 살이 있을 것이다. 걷기는 정신에도 산소를 공급한다. 걷는 동안 우리의 정신은 녹색으로 변한다. '녹색의 마음'에 가까워진다. 녹색의 마음이라니? 한마디로 '다른 생각, 다른 삶'을 지향하는 상상력이다. 산업 문명의 폐해를 뛰어넘으려는 적극적 사유. 다시 말해 이성과 과학을 우선하는 근대성에 대한 저항이자, 도시적 삶에 대한 자발적 탈출이 녹색의 행동이다. 자본과 권력의 작동 방식인 힘의 논리에서 벗어나 지구 생태계의 한 구성원으로서 '생명 평화'의 가치를 추구하는 모든 노력이 녹색에 포함된다. 내가 걷기와 재회한 것은 그리 오래되지 않는다. 게다가 뒤늦었다. 십수 년 전, 40대로 접어들어서야 걷기를 다시 경험했다. 2001년 5월 '지리산 8백50리 도보 순례'에 참여하지 않았다면 나는 걷기로부터 영영 멀어졌을지도 모른다. 그해 5월 3일부터 18일까지 14박 15일, 나는 도보 순례단 단원이자 취재 기자 자격으로 지리산 외곽을 시계 방향으로 한 바퀴 돌았다. 남원 실상사에서 출발해 산청, 하동, 구례, 남원을 거쳐 다시 실상사에 도착했다. 5대 종단인 불교, 가톨릭, 개신교, 원불교, 천도교가 지리산에 모여 '생명 평화'를 구현하기 위한 다양한 행사를 기획했는데 도보 순례도 그 가운데 하나였다.  보름 동안 걸어 지리산을 한 바퀴 오전에는 함께 걷는 단원이었지만, 오후에는 기자로 돌아가야 했다. 내가 몸담은 매체의 인터넷 홈페이지에 도보순례 모든 과정을 '지상 중계'해야 했다. 날마다 저녁 기사를 올려야 한다는 중압감이 없지 않았지만, 오전에는 걷기에 집중했다. 마라톤이라면 모를까, 걷기만큼은 자신이 있다고 생각했다. 그런데 웬걸, 첫날부터 몸이 삐꺽거리기 시작했다. (산문집 &lt;바쁜 것이 게으른 것이다&gt;(호미 펴냄)에도 썼지만) 길이 나를 받아주질 않는 것이었다. 난감했다. 걷기가 여간 부자연스럽지 않았다. 돌아보니 중학교 졸업 뒤로 제대로 걷지를 않았다. 쉬지 않고 한 시간 넘게 걸어본 적이 없었다. 걸을 기회조차 없었다. 그럼에도 자전거 타기처럼, 걷기는 언제든 마음만 먹으면 가능하다고 여긴 것이 불찰이었다. 덜컥거리고 뒤뚱거리던 내 몸과 마음은 사흘째가 되어서야 자연스러워졌다. 걷기에 리듬이 생겼다. 걷기에 음악성이 부여되자 풍경과 나 사이에, 대자연과 나 사이에 장애물이 없어졌다. 외부 세계와 내가 실시간으로, 전면으로 직통(直通)했다. 그해 5월 초순, 산청에서 하동으로 넘어가는 고갯마루에서 나는 '자연인'이었다. 내 몸은 지리산 일대로 쏟아져 내리는 5월의 햇살 속으로, 섬진강 쪽에서 불어오는 오전의 푸진 바람 속으로 완벽하게 스며들었다. 지리산이 품고 있는 골짜기, 골짜기가 밀어 올린 산록, 강과 산기슭 사이 넓게 드리워진 논과 밭, 양지 녘에 옹기종기 들어선 오래된 마을, 마을과 마을을 이어주는 길이 다 내 안으로 들어왔다가 나갔다. 말 그대로 '텅 빈 충만'이었다. 무엇 하나 부족한 것이 없었다. 걷고 있다는 사실조차 의식하지 않게 되었다. 길 위를 떠가는 것 같았다. 내가 너무 행복했던 것일까. 섬진강을 거슬러 구례로 접어들 무렵, 운조루 앞에서 나도 모르게 중얼거렸다.  '내 여생에 이런 도보 순례를 또 할 수 있을까.'  그로부터 14년. 결론부터 말하자면 지리산 도보 순례와 같은 걷기는 없었다. 하루 종일 걸어본 적도 없다. 5년 전인가, 제주 올레 길을 걸을 기회가 있었는데, 불행하게도 그 전날 왼쪽 무릎에 탈이 나는 바람에 한나절도 걸을 수 없었다. 학생들과 함께 몇 번 문학 기행을 다녀오기도 했지만, 일정이 빠듯해 서너 시간 넘게 내쳐 걸을 기회가 없었다. 2년 전, 안 되겠다 싶어 걷기에 좋은 비싼 신발(트레킹화) 한 켤레를 장만하고 시간을 쪼개기로 결심했다. 시간을 낼 수 없다면, 시간이 나지 않는다면, 의도해서 시간을 쪼개는 수밖에 없다. 도시에서 걷기로 작정한 것이다. 내가 즐겨 걷는 코스는 두 군데다. 경희대에서 카이스트, 산림과학원(홍릉), 고대 앞을 지나 안암동 로터리까지. 마음이 내킬 때는 성북천을 거슬러 혜화동 로터리까지 걷는다. 안암동까지는 40분, 혜화동까지는 한 시간 반 정도 걸린다. 경희대에서 홍릉으로 넘어가는 길은 서울에서도 제법 알려진 은행나무길이고, 홍릉에서 고대 앞까지는 가는 길 또한 제법 운치가 있다. 정릉천을 건널 때는 고가도로가 볼썽사납지만, 노을이 지거나 초승달이 떠 있으면 걸음걸이가 더없이 가볍다. 내가 도시에 지지 않고 있다는, 내가 내 삶의 주인이라는 느낌이 든다.   ⓒDanny Perez   고가도로 교각에 '서민 주택'을 짓자 내가 살고 있는 동네에서도 걷기 좋은 길을 찾아냈다. 경기도 고양시 행신동 서정마을 아파트단지를 가로지르는 성사천 길이다. 마침 얼마 전 경의선과 중앙선이 연결되어 기차를 타고 출퇴근하는 경우가 잦아졌다. 아파트 사이를 지나 천변 길로 내려서면 바로 '자연'이다. 아직 키 큰 나무는 없지만, 풀들이 무성하다. 강매역 아래 물가에는 오리 떼가 살고 있어 번번이 발길을 멈추게 한다. 성사천은 강매역을 지나 자유로 아래 물길을 따라 곧장 한강 하류와 합류하는데 물이 불어나면 한강의 물고기들이 올라온다는 소리를 들은 적이 있다. 성사천 길에서 '모든 것은 연결되어 있다'는 녹색 사상의 핵심을 번번이 환기한다. 걸으면서 엉뚱한 생각을 자주 한다. 버스나 기차를 탈 때와는 전혀 다른 환경이기 때문일 것이다. 대중교통을 이용할 때는 '멍하니' 있을 수가 없다. 책이나 스마트폰에 눈이 간다. 하지만 걸을 때는 걸을 수밖에 없다. 그렇다고 나와 외부 세계가 분리되는 것은 아니다. 걸으면서 끊임없이 외부와 교감을 하게 된다. 걷기는 명상과 운동 중간쯤에 해당한다. 생각을 놓치지 않으면서 외부를 관찰할 수 있다. 때로는 생각과 외부가 만나 놀라운 의미를 빚어내기도 한다. 시(詩)의 메타포처럼 서로 무관한 것들이 연결돼 스파크를 일으킨다. 며칠 전 저녁, 정릉천 종암교 위에서 저 번쩍거림이 있었다. 지난해 여름에만 해도 노숙자들이 종암교 근처에서 숙식을 해결하는 모습을 자주 목격했다. 올봄에는 노숙자들이 보이지 않아 궁금하던 차였다. 북한산에서 흘러내려 와 청계천과 만나는 정릉천은 내부순환도로가 건설되면서 하천 중앙에 고가도로를 지지하는 교각들이 세워졌다. 이와 함께 개천 양쪽으로 보행로와 자전거 도로가 마련됐다. 둔치를 시민을 위한 공공재로 만든 것은, 만시지탄이지만 박수를 보내지 않을 수 없다. 그런데 여기서 '한술' 더 뜰 수는 없을까. 저 교각들 사이에 상판을 설치해 거기에다 서민을 위한 주거 공간을 만들자는 것이다. 교각 사이를 활용한다면 신혼부부를 포함한 젊은이를 위한 원룸, 독거노인을 위한 공동 시설, 서민층을 위한 임대 주택이 가능할 것이다. 상판을 설치하는 데 드는 비용이 재개발이나 재건축에 드는 비용보다 훨씬 저렴할 것이다. 고가도로가 있는 곳은 의외로 많다. 강변북로와 올림픽대로의 수많은 교각들도 얼마든지 창의적으로 '개발'할 수 있다. 고가도로가 없는 개천도 재발견할 수 있다. 가령 성북천이나 청계천 위에 상판을 올려 예술인을 위한 창작 공간을 마련한다면, 지역사회가 몰라보게 활성화될 수 있다. 내가 걷지 않았다면 이런 생각, 즉 도시 곳곳에 공유재를 확보하기 위한 '엉뚱한 상상'은 불가능했을 것이다.  도시의 인간화, 마음의 녹색화 지난 몇 년 사이, 내 관심은 도시 쪽으로 크게 기울고 있다. 여기저기 기회가 있을 때마다 써왔지만, 내가 도시를 떠날 수 없다는 판단이 갈수록 확고해지기 때문이다. 베이비 붐 세대의 은퇴가 시작됐다. 50∼60대의 노후 설계도 문제지만, 인구 폭발과 고령화 사회 또한 우리가 일찍이 경험해보지 못한 난제 가운데 난제다. 이 모든 문제가 도시 곳곳에서 동시에 발생하고 있다. 도시를 떠날 수 있다면 당장 떠나야 한다. 하지만 노후를 전원에서 보낼 수 있는 조건을 갖춘 사람, 즉 재산이 넉넉하거나 연금이 충분한 사람은 그리 많지 않다. 귀농이나 귀촌은 적극 시도해볼 만한 대안이지만, 결코 녹록지 않은 도전이다. 은퇴자와 고령자는 물론, 젊은 세대 대부분이 도시에서 살다가 도시에서 생을 마감해야 한다. 그렇다면 도시를 바꿔야 한다. 도시를 우리가 살 만한 환경으로 전환시켜야 한다. 도시에 인간의 체온을 불어넣는 첫걸음은, 우리가 도시에서 살다가 도시에서 죽어야 한다는 엄연한 사실을 받아들이고 이를 공유하는 것이다. 이 과정에서 우리는 도시를 다시 보게 될 것이다. 누가 도시를 이렇게 만들었는가, 도시의 주인은 과연 누구인가, 시민이 살기 좋은 도시는 어떻게 가능한가. 이와 같은 질문을 공론화해야 한다. 우리가 살아가고 있는 이 도시는 우리가 만든 것이 아니다. 도시(국가) 정책 입안자, 도시 계획 전문가, 부동산 소유자와 건설 업자의 이해관계가 뒤얽혀 지금 우리가 살고 있는 도시를 만들었다. 도로, 공원, 녹지, 광장 같은 공공 공간(시설)은 거의 대부분 '관제'였다. 경제 논리, 힘의 논리가 도시를 건설했다. 시민이 가만히 있는 한, 도시는 결코 달라지지 않을 것이다. 현재와 같은 체제, 현재 수준의 가치관이 지속된다면 도시는 머지않아 슬럼가로 전락할 것이다. 가진 자들은 다 빠져나가고 짐승으로 전락한 자들이 약육강식의 정글에서 아귀다툼을 벌이게 될 것이다. '도시의 인간화'는 우리 '마음의 녹색화'에 달려 있다. 마음의 녹색화는 '지금과 다른 삶은 얼마든지 가능하다'라는 상상력에서 싹튼다. 그런데 그런 상상력은 어떻게 가능한가. 우선 걸어보자. 타지 말고, 뛰지 말고 시간을 쪼개 걸어보자. 걸으면 보인다. 내가 보이고, 내 삶의 안팎이 보인다. 함께 걸으면 더 잘 보인다. 우리가 살고 있는 이 도시가 더 잘 보인다. 누가 '어떤 도시가 살기 좋은 도시인가'라고 묻는다면, 내 답변은 하나다. &lt;우리는 도시에서 행복한가&gt;(찰스 몽고메리 지음, 윤태경 옮김, 미디어윌 펴냄)의 한 대목을 빌어 이렇게 말할 것이다.'걷기 좋은 도시가 살기 좋은 도시다.' 걷기 좋은 도시는 공공재(공유재)가 많은 도시다. 걷기 좋은 도시는 안전하고 이웃이 있으며 좋은 장소가 있는 아름다운 도시다. 이런 도시에서 더 나은 미래를 위한 이야기가 만들어진다. 살기 좋은 도시를 만들기 위해, 우리가 먼저 나서야 한다. 도시에서 걸어야 한다.  월간 &lt;작은 것이 아름답다&gt;는 1996년 창간된 우리나라 최초 생태 환경 문화 월간지입니다. 자연과 더불어 살아가는 삶을 위한 이야기와 정보를 전합니다. 생태 감성을 깨우는 녹색 생활 문화 운동과 지구의 원시림을 지키는 재생 종이 운동을 일굽니다. 달마다 '작아의 날'을 정해 즐거운 변화를 만드는 환경 운동을 펼칩니다. 자연의 흐름을 담은 우리말 달이름과 우리말을 살려 쓰려 노력합니다. (☞바로 가기 : &lt;작은 것이 아름답다&gt;)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">             외부 산란층과 결합된 OLED 구조 모식도 및 나노입자 기반 산란층 제작 예와 이를 적용한 OLED 동작 사진 ⓒKAIST     KAIST 전기및전자공학부 유승협 교수 연구팀이 무기 LED에 상응하는 높은 효율의 유기발광다이오드(OLED)를 구현하는 데 성공했다.  OLED는 수많은 모바일 기기와 고품질 TV 등의 디스플레이 기술에 광원으로 활용되고 있는 소자로 두께가 얇고 유연 소자 제작이 가능하다는 장점을 갖고 있다.  그러나 고효율 OLED의 연구 결과들은 OLED가 갖는 면광원(面光源)의 장점을 해치는 반구형 렌즈가 쓰이거나 소자 내부에 빛을 추출하는 나노 구조가 도입돼 안정적인 동작을 방해하는 등의 문제로 상용화에 한계가 있었다.  연구팀은 산란 현상을 수학적으로 기술하는 이론을 OLED 발광 특성 예측 모델과 최초로 결합해 여러 구조를 가지는 수많은 소자들의 특성을 짧은 시간에 예측했고, 이를 기반으로 최대 효율을 갖는 최적 구조를 이론적으로 예측하는 데 성공했다.  연구진은 이론적으로 예측된 최적의 광 산란 필름을 실험적으로 구현하고 이를 고효율 유기 발광소재를 이용한 소자 구조에 접목해 56%의 외부 양자 효율 및 221lm/W의 전력 효율을 이끌어내는데 성공했다.  이는 큰 렌즈나 내부 광 추출구조 없이 구현된 OLED 단위 소자 효율로는 최고의 결과이다.  유승협 교수는 “다양한 OLED 광 추출 효율 향상 기술이 개발됐지만 실용화 가능성은 높지 않은 경우가 많았다. 이번 연구는 상용화 가능성에서 가장 의미가 큰 기술을 활용하면서 고효율 LED의 효율에 상응하는 OLED 구현 방법을 체계적으로 제시했다는데 의의가 있다”며 “낮은 전력소모가 특히 중요한 조명용 광원이나 웨어러블 기기의 센서용 광원에 OLED가 활용되는 데 기여할 것이다”고 말했다.  서울대 재료공학부 김장주 교수, 경상대 화학과 김윤희 교수 연구팀과의 협력을 통해 이뤄진 이번 연구는 ‘네이처 커뮤니케이션즈(Nature Communications)’ 8월 10일자 온라인 판에 게재됐다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      이낙연 국무총리는 2018년 8일 자로 강원순(63) 현 사행산업통합감독위원회 위원장 직무대행을 제5대 사행산업통합감독위원회 위원장으로 위촉했다.   강원순 신임 위원장은 조달청 정책홍보본부장, 재경부 국제조세센터 소장, 카이스트 정보과학기술대학 초빙교수, 한국연합복권 대표이사 등을 역임했다.   지난 2016년 제4기 사행산업통합감독위원회 위원으로 위촉되어 2018년 1월부터 사행산업통합감독위원회 위원장 직무대행을 맡아 왔다.     ▲강원순 사감위원장. ⓒ사감위     강원순 위원장은 재정‧금융 정책의 수립과 집행, 경제 및 사행산업 분야의 다양한 경력과 정책조정 능력을 겸비한 행정가로 사행산업의 건전 발전과 불법사행산업 근절을 위해 활발한 활동을 펼칠 것으로 기대된다.  신임 위원장의 임기는 전 위원장의 잔여임기인 2019년 12월 5일까지다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      인터넷의 개방 확대가 미래지향적이고 가치지향적이다얼마 전 방송통신위원회가 보안 접속(https) 또는 우회 접속 관련 차단 기능 고도화 정책을 발표하면서 해외 인터넷 사이트에 대한 접속 차단 기능을 고도화하고, 895건의 불법 해외사이트 차단하는 결정을 내렸다. 불법도박, 불법음란물에 대한 사회적인 피해와 부작용이 커지고 있는 상황에서 방통위는 법 위반 해외사업자에 대한 법 집행력 확보 및 이용자의 피해구제의 한계를 극복하기 위한 조치였다고 항변하고 있다. 하지만, 국민들은 'https' 차단 정책에 대한 반대 의견으로 청와대에 국민청원이 올렸고, 이에 대해 방송통신위원회 위원장은 정책 결정 과정에서 국민들이 공감할 수 있도록 소통하는 노력이 부족했다고 사과했지만, 아직도 인터넷 공간에서 논란은 가라 앉지 않고 있는 상황이다. 1450년경 구텐베르크 성서의 의미로 알 수 있듯이 사회는 기존 질서가 구축한 정보통제의 규제와 틀을 뚫어내는 고단한 투쟁을 통해서 발전해 올 수 있었다. 인터넷 정보는 곧 언론이고 여론이고, 심지어 집단적 지성이기도 한 세상이다. 지금은 모든 정보가 인터넷을 통해 유통되는 디지털전환(4차산업혁명)의 시대다. 스마트기술(ICBM etc)에 기반하여 산업, 행정 및 문화 등 사회 전체가 혁신으로 전환되는 시대다. 행정부처에서 인터넷을 언제든지 규제할 수 있다는 선례를 남겨서 너무 가슴 아프다. 다시는 이러한 시도가 없어야 할 것이다. 막는다고 기술적으로 완벽히 막을 수도 없고, 미래지향적이도 않고, 가치지향적이지도 않다. 인터넷 통제, 검열 사태로 번진 이유...국민감정 이해해야우리나라는 군사정권 시절에 보도통제를 통하여 세부지침까지 세워 어떠한 기사도 검열 전에는 보도될 수 없었던 시기가 있었다. 촛불혁명에 의해 박근혜 대통령의 탄핵이 결정되었던 시점인 2017년 3월에 기무사령부가 작성한 계엄령 발표문건에서 계엄 선포와 동시에 언론, 출판, 공연 전시물에 대한 사전검열과 포털·소셜미디어(SNS)를 차단하여 유언비어를 통제하는 내용이 추가된 것으로 알려지면서 국민들은 또다시 분노하였다.우리나라의 '촛불혁명'은 얼마 전 프랑스의 '노란 조끼' 시위와 종종 비교되곤 한다. 촛불혁명과 노란조끼 시위는 최고 권력자의 오만과 불통에서 출발하였던 점에서 비슷한 것 같지만, 질서유지와 비폭력에 의한 '촛불혁명'은 아마 세계사에 길이 남을만한 세계적 사건이라고 할 수 있다. 국민들은 IT기술을 적극적으로 활용하여 단순 시위에 그칠 수 있었던 촛불을 혁명으로 승화시켰기에 이번 사태에 대해서 더욱 배신감을 느꼈으리라 생각된다. 단순히 국민들은 문재인 정부에서 개인의 정보를 검열당한다고 생각하는 것이 아니라, 이러한 정책이 유지될 경우 차기 혹은 차차기 정권에서 마음만 먹으면 개인의 정보를 감찰하고, 정권에 적대적인 사이트를 폐쇄할 수 있을 길을 열어준 것에 대한 반대일 것이다. 국민의 믿음으로 탄생한 정권, 국민들과 인터넷의 자정 능력을 신뢰해야인터넷의 발전은 그동안의 간접민주주의 형태를 직접민주주의 형태로 변화시킬 가능성을 보여주며, 다양한 정보가 공유·확산되는데 기여하였다. 또한, 이러한 정보의 공유를 통해 새로운 민주주의 체제가 가능하다는 것을 보여줬던 것이 바로 촛불혁명이다.  이번 방통위 조치가 국민들과 우리나라의 대표적인 경제 분야인 IT 분야에 대해 잘못된 신호를 주는 것이 되어서는 안 될 것이다. 국민들이 자유스럽게 인터넷을 통해 정보를 생산, 공유할 수 있고, IT산업이 4차 산업혁명 시대에 한국 경제 성장의 뒷받침이 되도록 지켜줘야 할 것이다. 국민의 많은 지지 속에 탄생한 문재인 정부는 이제 다시 국민의 신뢰를 얻기 위해 국민의 높은 의식 수준과 인터넷의 자정 능력에 대해서 거꾸로 신뢰를 보여줘야 할 것이다.필자 이현웅 박사는 현재 문화체육관광부 산하 문화정보화 전담 기관인 한국문화정보원 원장을 맡고 있다. 한국개발연구원 세계도시정책연구소 부소장, 카이스트 테크노경영연구소 선임연구원 등을 지냈다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲어드밴스드 펑셔널 머티리얼즈(Advanced Functional Materials) 표지 ⓒKAIST       KAIST 생명화학공학과 김도현 교수 연구팀이 수력 공정의 전단력(剪斷力)과 혼합특성을 이용해 2차원 나노소재 분산용액을 대량생산할 수 있는 기술을 개발했다.  2차원 나노소재 분산용액은 전자, 에너지 저장 및 전환 소자 개발에 사용되는 용액기반 공정에 직접 적용 가능해 소자의 다양화와 성능 개선을 실현시키는 데 기여할 것으로 기대된다.  2차원 소재는 나노사이즈의 두께로 박리됐을 때 새롭고 우수한 물리, 화학적 특성이 나타나는 장점이 있으나 기존 박리기술들은 용량 증가에 따라 2차원 소재에 균일한 에너지를 주는 것이 어렵고 고비용과 많은 시간이 소요된다.  또 나노두께로 박리된 2차원 나노시트들은 표면에너지의 증가로 다시 원래 두께로 돌아가려는 성질이 있어 유기용매나 계면활성제 등의 사용이 필요해 농도 제어나 응용성에 한계가 있다.  연구팀은 최근 2년간의 연구를 통해 반응기 내 최적화된 전단력과 혼합효율이 2차원 소재의 박리에 가장 효율적임을 규명했다.  연구팀은 증가된 반응기 용량에서도 이를 균일하게 유지할 수 있는 유동 모델과 응용 분야에 유용한 분산제를 선택해 수용액의 물리적 박리를 통한 고농도 2차원 나노소재의 고속 대량 생산기술을 개발했다.  연구팀은 테일러-쿠에트 흐름 기반의 유동 반응기를 제작했다.  테일러-쿠에트 흐름은 반응기 용량의 증가에도 높은 전단응력과 효과적인 혼합 효과를 가져 균일한 사이즈로 2차원 나노소재가 박리될 수 있다는 장점을 갖는다.  연구팀은 2차원 나노소재를 소량으로도 수용액상 안정화 및 분산시킬 수 있는 이온성 액체를 동국대 한영규 교수팀의 제일원리 계산을 통해 분산제로 선정해 박리효율과 분산농도를 극대화했다.  연구팀은 개발한 분산용액의 성능을 확인하기 위해 막 여과 공정 (membrane filtration process)과 잉크젯 프린터의 잉크에 용액을 적용했다.  연구팀은 고속생산 된 그래핀 분산용액을 막 여과 공정에 적용해 유연하고 높은 전도성의 마이크로 전극 필름을 만들었고, 슈퍼캐패시터 소자의 전극으로 적용했을 때 안정적이고 고성능 용량을 보임을 확인했다.  연구팀은 고속생산 된 그래핀(graphene), 이황화 몰리브덴(MoS2), 붕화 질소(BN) 나노소재 분산용액을 잉크로 사용해 A4용지에 수 마이크로 두께의 나노소재 패턴을 만들었다. 그 중 그래핀 나노소재 패턴은 인쇄 후에도 추가적인 열처리 없이 기존의 전기적 성질을 잃지 않아 패턴 기반의 전기회로 역할을 하는 것을 확인했다.        ▲ 김도현 교수 연구팀 ⓒ KAIST    김 교수는 “연구팀의 수용액상 나노소재 고속, 대량 생산기술은 다양한 종류의 2차원 소재들도 쉽게 적용 가능하다”며 “전자, 바이오센서, 에너지 저장 전환 시스템의 고효율 및 저비용 생산 최적화가 가능할 것이다”고 말했다.  이번 연구 결과는 재료 분야 국제 학술지 ‘어드밴스드 펑셔널 머티리얼즈(Advanced Functional Materials)’ 8월 12일자에 온라인 게재됐고, 논문의 우수성을 인정받아 표지논문에 선정됐다. (논문명 : Hydraulic Power Manufacturing for Highly Scalable and Stable 2D Nanosheet Dispersions and Their Film Electrode Application)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲허태정 대전시장(오른쪽)과 박영선 중소벤처기업부 장관이 면담을 마치고 기념촬영을 하고 있다 ⓒ(대전시)      중소벤처기업부의 세종시 이전설과 관련, 허태정 대전시장이 지난달 30일 박영선 중소벤처기업부 장관을 만나 중기부의 대전 잔류를 강력히 요청했다.  허 시장은 이날 박 중기부 장관과 면담을 갖고 "대전에 있는 중기부가 최근 들어 신임 장관 취임시마다 세종시로 이전한다는 이야기가 있다"며 "반드시 대전에 남아야 한다"고 강조했다.  허 시장은 그 근거로 1998년 중소기업청이 정부대전청사로 이전해 2017년 7 월 중소벤처기업부로 승격된 이후 20여년간 대전과 함께 국가발전을 견인해 왔다는 점을 들었다.  허 시장은 특히 중기부의 세종시 이전이 수도권 과밀해소와 국가균형발을 위한 세종시 설치 목적상 비수도권간 공공기관 이전은 그 취지와도 맞지 않는다고 역설했다.  이외에도 그동안 대전․충남이 혁신도시에서 제외돼 공공기관 이전과 지역인재 채용에서 불이익을 받은 점, 대덕특구 등 과학 인프라와 연계된 정부출연연․연구소․벤처기업이 밀집된 대전의 장점 등을 감안할 때 대전이 중기부가 있어야할 최적지라고 주장했다  허 시장은 또 이 자리에서 대전시의 대표적 청년창업 지원사업인 ‘대전스타트업 파크’ 조성사업이 순조롭게 진행될 수 있도록 국비사업에 대한 관심과 지원을 당부했다.  허 시장은 대전이 40년 역사의 대덕특구를 중심으로 한 과학기술과 한국과학기술원(KAIST), 충남대 등 최고 수준의 우수인력을 보유한 혁신창업 생태계 조성의 최적지임을 강조하며 대전시의 바이오클러스터 육성정책에 발맞춰 바이오분야에 대한 규제자유특구로 지정해 줄것을 함께 요청했다.  허 시장은 이와함께 지난해 국회 예결위에서 설계비가 반영된 ‘원도심 소상공인 상생주차장’ 건설 사업에 대해서도 소상공인의 오랜 숙원사업임을 감안해 전폭적인 지원을 해 달라고 건의했다.  소상공인 상생주차장은 대전의 대표 시장인 중앙시장을 중심으로 인근 소상공인의 주차 불편을 해소할 수 있는 사업이다. 허 시장은 “신임 박영선 장관의 취임을 진심으로 축하드린다”며 “앞으로도 대전과 함께 성장해온 중소벤처기업부가 대전에 계속 남아 지역의 소상공인과 중소벤처기업이 잘 성장할 수 있는 토대를 마련해 달라”고 말했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      강원랜드는 30일 오전 11시 강원랜드호텔 대연회장에서 제19기 정기주주총회를 개최하고 2016년 재무제표 승인, 정관 일부 변경, 이사 선임, 그리고 감사위원회 위원 선임 등의 안건을 원안, 의결했다.  강원랜드는 2016년 매출액 1조6965억 원, 당기순이익 4545억 원 등의 내용이 포함된 제19기 재무제표 및 연결재무제표를 승인하고, 현금배당금도 주당 990원으로 확정했다.   또한 식음영업 경쟁력 강화와 신규 사업 추진을 위해 정관에 ‘주류 제조업 및 판매업’과‘카지노 게임기구 제조업 및 판매업’을 추가해 정관 일부를 변경했다.    ⓒ강원랜드     이사 선임과 관련해서는 신주호 정선군 부군수를 비상임이사에 선임하고, 최돈용 보령메디앙스(주) 경영기획실장과 한인구 KAIST 경영대학 교수를 사외이사에 선임했다.  감사위원은 이번에 새롭게 선임된 최돈용, 한인구 사외이사와 김상일 현 강원랜드 사외이사가 맡는다.  강원랜드 함승희 대표는 “올해는 경영환경의 불확실성 확대로 그 어느 때보다 철저한 준비가 필요하다”며 “준법·책임경영을 통해 경영 리스크를 안정적으로 관리하고 ‘모범적 공기업’위상을 정립하는데 매진할 것”이라고 밝혔다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      지식인 664명이 정부에 기후위기 적극 대응을 촉구하는 선언문을 발표했다. 정부가 현 상황이 '기후위기'임을 대내외에 선포하고 이에 적극 대응할 특별기구를 설치해야 한다고 이들은 밝혔다. 9일 원로 지식인과 연구자 등 664명이 발표한 '기후위기 선포를 촉구하는 지식인·연구자 선언문'에는 우희종 서울대 교수, 이정모 서울시립과학관 관장, 하종강 성공회대 교수, 박하순 민주노총 정책연구원, 조천호 전 국립기상과학원장 등 관련 분야 지식인과 손호철 전 서강대 교수, 조한혜정 연세대 명예교수, 강내희 지식순환협동조합 대안대학 학장 등 원로 지식인들이 참여했다. 이들은 세계적으로 이어지는 기후행동의 현 상황을 거론하며 "일상에서 기후변화의 위험을 체험할 수 있을 만큼 지구의 기후가 급변하고 있다"고 진단했다. 이어 "우리는 기후변화가 아닌 기후위기의 시대를 살고 있다"며 "기후위기는 부정할 수 없는 사실이자 외면할 수 없는 현실"이라고 강조했다. 이들은 기후위기가 초래한 "가뭄과 사막화, 토지 이용방식의 변화는 식량 생산의 감소를 야기할 것"이며 그로 인한 "식량 가격 상승은 가난한 지역과 계층에 식량 위기를 촉발할 수 있다"고 우려했다. 또 기후위기는 "물 공급과 사용에 지대한 영향을 미칠 것"이라고도 덧붙였다. 현 상황을 인류의 생존을 위협하는 총체적 위기로 규정했다. 이들은 이같은 위기로 인해 "올해 들어 영국, 아일랜드, 캐나다, 프랑스 등이 앞장서 기후위기 또는 기후비상사태를 선포"했고 "미국과 유럽의 주요 선거에서 기후변화가 주요 쟁점으로 부상하면서 그린 뉴딜과 같은 전향적 정책들이 제안되고 있다"고 평가했다. 그러나 한국은 "한참 뒤처져 있다"고 진단한 이들은 "문재인 정부가 탈핵·에너지전환으로 에너지 정책의 방향을 돌린 것은 환영할만한 일이지만, 기후위기 현실에 비춰보면 전환의 속도는 느리고 포괄 범위도 제한적"이라고 개탄했다. 한국은 문재인 정부 들어 2017년 43.1%이던 석탄발전 비중을 2030년 36.1%로 낮추고, 미세먼지 배출은 2030년까지 62%로, 온실가스는 배출전망치(BAU) 대비 26%를 감축키로 했다. 전문가들은 이에 대해 "문재인 정부의 탈핵·에너지전환 추진력이 약하다는 비판이 제기되고 있고, (특히) 온실가스 감축 정책은 전환의 의지 자체를 의심할 수준"이라며 "한국은 이산화탄소 배출량 세계 7위, 기후악당국가의 불명예를 안고 있다"고 비판했다. 이어 "기후변화 대책의 사각지대가 곳곳에 존재할 뿐만 아니라, 통합적인 기후위기 대응방안은 보이지 않는다"며 "어느 때보다 기후위기에 대한 정확한 인식, 기후변화 및 에너지전환 정책에 대한 통렬한 성찰이 필요한 상황"이라고 강조했다. 이들은 "기후위기 대응은 새로운 기술적 해결책을 도입하거나 새로운 성장동력을 찾는 정책으로 국한할 수 없으며, 핵발전의 유혹에 흔들려서는 더더욱 안 된다"며 "지속가능한 사회로의 전환을 위해 필요한 변화를 사회적으로 폭넓게 논의해야 한다"고 주장했다. 이어 "그 시점이 늦어질수록 우리가 배출할 수 있는 탄소 예산은 더 빠르게 줄어들고, 기후위기의 파국을 막을 수 있는 1.5~2℃ 상승 억제는 요원해질 것"이라며 "우리에게 주어진 시간은 몇 년 남지 않았다"고 경고했다. 이들은 오는 21일 전 지구적 기후 파업 일환으로 국내에서도 오후 3시 대학로에서 열릴 기후위기 비상행동을 적극 지지한다고 밝혔다. 이들은 이어 정부를 향해 구체적으로 △기후위기 비상선언을 실시하고 온실가스 배출 제로 계획을 수립하고 △기후정의 원칙에 입각해 기후변화 대응 정책을 포괄적으로 재검토하며 △신속한 탈핵·에너지전환을 추진할 수 있도록 국가 특별기구를 설치하고 관련 법과 제도를 정비할 것을 주문했다. 다음은 선언문 전문. 기후위기 선포를 촉구하는 지식인·연구자 선언지구의 미래를 위한 저항이 확산되고 있다. 지난 3월과 5월, 전세계 수백개의 도시에서 청소년들이 앞장 선 '기후를 위한 학교 파업'(School Strike for Climate)에 수십만명의 시민들이 동참했다. 화석연료 사용의 신속한 중단을 요구하며 점거 시위를 펼치는 멸종저항(Extinction Rebellion)과 토지의 종말(Ende Gelaende) 운동을 지지하는 목소리도 전세계로 퍼져가고 있다. 기후 위기에 대한 전면적인 대응을 촉구하는 시민사회의 요구는 '기후행동 정상회의'(Climate Action Summit)가 열리는 기간에 맞춰 펼쳐질 전지구적인 기후 파업에서 다시 한번 분출될 것이다.기후행동이 세계 각지에서 지지를 받는 까닭은 무엇보다 일상에서 기후변화의 위험을 체험할 수 있을 만큼 지구의 기후가 급변하고 있기 때문이다. 우리는 기후변화가 아닌 기후위기의 시대를 살고 있다. 그동안 경험할 수 없었던 폭염이 더 자주, 더 오랫동안, 더 많은 곳을 강타하고 있다. 예기치 못한 폭우, 폭설, 가뭄, 홍수, 한파 소식 또한 더 이상 낯설지 않다. 급변하는 기후로 인해 수십년 내 전세계의 주요 도시가 인간의 생존이 어려운 곳으로 변할 수 있다는 암울한 경고까지 나오고 있다. 기후위기는 부정할 수 없는 사실이자 외면할 수 없는 현실이다.나아가 기후위기가 다차원적인 위기를 촉발할 수 있다는 사실을 직시해야한다. 단적으로 기후변화로 인한 가뭄과 사막화, 토지 이용방식의 변화는 식량 생산의 감소를 야기할 수 있다. 그리고 식량 생산 감소로 인한 식량 가격의 상승은 가난한 지역과 계층의 식량위기를 촉발할 수 있다. 또한 기후위기와 식량위기는 물 공급과 사용에 지대한 영향을 미친다. 이처럼 기후위기는 에너지위기이자 식량위기, 나아가 물위기를 포함하는 총체적인 위기의 징후라는 사실을 직시해야 기후위기에 제대로 대응할 수 있다.다행히 최근 들어 기후위기에 적극적으로 대응하는 국가가 늘고 있다. 2019년 들어 영국, 아일랜드, 캐나다, 프랑스 등이 앞장서 기후위기 또는 기후비상사태를 선포했다. 지방정부로 내려오면, 세계 각지에서 수백 곳 이상의 지방정부가 기후위기 비상 선언에 동참하고 있다. 또한 미국과 유럽의 주요 선거에서 기후변화가 주요 쟁점으로 부상하면서, 그린 뉴딜(green new deal)과 같은 전향적인 정책들이 제안되고 있다. 국가적 차원에서 자원과 역량을 동원해서 2030-2050년 탄소 배출 제로, 신속한 재생가능에너지로의 전환, 2030-40년 내연기관 차량의 판매 중단과 같은 장기적인 전환 계획을 수립·실행하는 것이 시대적 과제로 부상하고 있다.하지만 안타깝게도 한국은 한참 뒤쳐져있다. 문재인 정부가 탈핵·에너지전환으로 에너지정책의 방향을 돌린 것은 환영할만한 일이지만, 기후위기의 현실에 비춰보면 전환의 속도는 느리고 포괄 범위도 제한적이다. 한국은 이산화탄소 배출량 세계 7위, 기후악당국가의 불명예를 안고 있으나 석탄화력발전에 대한 투자는 여전히 많고 폐쇄 계획은 더디다. 도전적인 '탄소 배출 제로' 목표가 필요한 상황이지만, 한국은 아직 국제적으로 매우 불충분한 것으로 평가받는 BAU 대비 2030년 온실가스 감축 목표에 머물러 있다. 문재인 정부의 탈핵·에너지전환의 추진력이 약하다는 비판이 제기되고 있지만, 온실가스 감축 정책은 전환의 의지 자체를 의심할 수준이다. 기후변화 대책의 사각지대가 곳곳에 존재할 뿐만 아니라 통합적인 기후위기 대응방안은 잘 보이지 않는다. 그 어느 때보다 기후위기에 대한 정확한 인식, 기후변화 및 에너지전환 정책에 대한 통렬한 성찰이 필요한 상황이다.기후위기 비상 선언과 장기적인 온실가스 배출 제로 계획의 조속한 수립은 기후위기를 헤쳐가기 위한 최소한의 조치다. 한 걸음 더 나아가려면, 기후위기 대응이 불평등을 심화시키거나 위험을 새로운 형태로 전가시키는 것을 막을 수 있도록 '기후정의'와 '정의로운 전환'을 기후위기 대응의 원칙으로 확립해야한다. 누구도 기후위기로부터 자유로울 수 없지만, 기후위기의 책임과 피해가 동등한 것은 아니다. 기후재난의 피해는 역설적으로 기후위기의 책임이 가장 적은, 가난한 지역과 취약한 계층에 집중되어 이들의 삶의 권리 자체를 위협하고 있다. 국내적으로 보면, 대기업의 온실가스 배출의 책임은 점점 더 느는 데 반해 폭염과 같은 기후재난은 야외 노동자나 주거 빈곤층과 같은 취약 계층에 집중되고 있다. 따라서 기후위기 대응 정책은 국제적 차원과 국내적 차원을 모두 고려해서 기후변화의 책임과 피해 간의 불일치를 교정하는 역할을 해야한다. 나아가 전환 과정에서 발생하는 피해나 비용이 특정 지역과 집단에게 전가되지 않도록 사회적인 지원책을 마련할 필요가 있다.기후정의의 문제는 기후위기가 복합적인 사회위기의 산물이라는 사실을 다시 한번 상기시킨다. 따라서 기후위기는 에너지원의 변화를 넘어서 에너지 다소비적인 산업구조의 변화, 사회적 불평등의 해소, 고용 및 복지 체계의 변화, 사회경제적 풀뿌리 민주주의 강화 등 사회 구조의 변화를 동반할 때 해결의 실마리를 찾을 수 있다. 다시 말해 기후위기 대응은 재생에너지로의 전환을 위한 대규모 투자, 녹색 일자리의 창출을 넘어서서 산업구조의 개편, 발전모델의 전환으로 나아가야한다. 기후위기 대응은 새로운 기술적 해결책을 도입하거나 새로운 성장동력을 찾는 정책으로 국한될 수 없으며 핵발전의 유혹에 흔들려서는 더더욱 안된다. 전지구적으로 '기후변화가 아닌 시스템 변화'(system change, not climate change)를 요구하는 목소리가 높아지고 있는 이유를 곱씹으며 지속가능한 사회로의 전환을 위해 필요한 변화를 사회적으로 폭넓게 논의해야한다. 그 시점이 늦어질수록 우리가 배출할 수 있는 탄소 예산(carbon budget)은 더 빠르게 줄어들고 기후위기의 파국을 막을 수 있는 1.5-2℃ 상승 억제는 요원해질 것이다. 우리에게 주어진 시간은 이제 몇 년이 채 남지 않았다.9월 21일, 전지구적 기후 파업의 일환으로 국내에서도 기후위기 비상행동이 전국 곳곳에서 개최된다. 우리는 기후 파업을 적극적으로 지지하며 기후행동 정상회의를 계기로 한국 정부가 기후위기 대응에 적극적으로 나설 것을 촉구한다. 기후위기를 해결하기 위해서는 기업과 개인을 아우르는 변화가 필요하지만, 정부가 변화를 이끄는 마중물 역할을 할 수 있다. 우리는 한국 정부가 국제적인 책임을 다하며 국내적으로 정의롭고 신속한 전환을 이끌기를 기대하면서, 전환의 출발점으로 다음의 세가지 사항을 요구한다.○ 정부는 기후위기 비상선언을 실시하고 온실가스 배출 제로 계획을 조속히 수립하라.○ 기후정의의 원칙에 입각하여 기후변화 대응 정책을 포괄적으로 재검토·강화하라.○ 신속한 탈핵·에너지전환을 추진할 수 있도록 국가 특별기구를 설치하고 관련 법·제도를 정비하라.2019. 9. 9.기후위기 비상 선포를 촉구하는 지식인·연구자 일동(가나다순)강길호(영남대학교), 강남식(농어촌청소년육성재단), 강남훈(한신대학교), 강내희(지순협대안대학), 강명구(서울대학교), 강명숙(배재대학교), 강미량(KAIST), 강복미((사)기후변화에너지대안센터), 강소연(서울대학교), 강수돌(고려대학교), 강순이(강원대학교), 강신준(동아대학교), 강영아(부산대학교), 강영택(부산대학교), 강왕구(한국항공우주연구원), 강운선(대구대학교), 강윤재(동국대학교), 강재구 (건양대학교), 강정숙(성균관대학교), 강지윤(연세대학교), 강천희(회사원), 강태경(고려대학교), 강학도((사)거제지심포럼), 강혜경(서강대학교), 강희경 (충북대학교), 경혜영(인천대학교), 고영주(한국화학연구원), 고원용(ESC), 고인환(워싱턴대학교), 고재현(한림대학교), 고재흥(경희대학교), 고철환(서울대학교), 구도완(환경사회연구소), 구모룡(한국해양대학교), 구본규(센텀고), 구재이(한국납세자권리연구소), 권승문(에너지기후정책연구소), 권오범(경상대학교), 권용은(안산대학교), 권혁범(대전대학교), 권현지(서울대학교), 권홍진(지구과학야외학습연구회), 금영범(현대모비스), 기현균(건국대병원), 김관욱(서울대학교), 김광호(한국철학사상연구회), 김귀옥(한성대학교), 김기택(경희대학교), 김기흥(POSTECH), 김나희(대한모유수유한의학회), 김남수(국토환경연구원), 김남영(서울대학교), 김누리(중앙대학교), 김대희(순천대학교), 김덕진(충남대학교), 김도균(한국환경정책평가연구원), 김동광(고려대학교), 김동규(민주시민교육원 나락한알), 김동진(KAIST), 김래영(ESC), 김레베카(성공회대학교), 김명수(서울과학기술대학교), 김명심(경희대학교), 김명하(안산대학교), 김명환(서울대학교), 김문정(동아대학교), 김민성(성공회대학교), 김민수(시민참여연구센터), 김민우(서울대학교), 김민정(성공회대학교), 김민정(강원대학교), 김민주(녹색교육센터), 김민호(제주대학교), 김민환(한신대학교), 김범준(성균관대학교), 김병두(코넬대학교), 김병수(성공회대학교), 김보현((협)아카이빙네트워크연구원), 김상민(문화사회연구소), 김상현(한양대학교), 김상화(부산국제어린이청소년영화제), 김선교(한국과학기술기획평가원), 김성균(서울대학교), 김성수(한국에너지기술평가원), 김성우(시민), 김성윤(문화사회연구소), 김세균(서울대학교), 김소영(한국예술종합학교), 김수상(대구경북작가회의), 김수용(대구대학교), 김신영(기독교환경교육센터), 김신재(서울미디어시티비엔날레), 김아람(역사문제연구소), 김어진(분노의 강사들), 김엘리(서강대학교), 김연민(울산대학교), 김영(재일조선인운동사연구회), 김영(인하대학교), 김영(부산대학교). 김영균(청주대학교), 김영민(경북대학교), 김영우(Duke University), 김왕배(연세대학교), 김용찬(순천대학교), 김용태(성균관대학교), 김용현(아주대헉교). 김운하(소설가), 김원석(성공회대학교), 김유수(RIKEN), 김유진(약국), 김윤성(녹색에너지전략연구소), 김윤영(한양대학교), 김은성(경희대학교), 김은영(경북대학교), 김은정(평택대학교), 김은주(이화여자대학교), 김은진(원광대학교), 김은형(태양의학교), 김은혜(부산대학교), 김의동(연구공동체 건강과대안), 김이삭(이화여자대학교), 김인선(부산대학교), 김일규(강원대학교), 김자경(제주대학교), 김장민(정치경제학연구소 프닉스), 김재원(경상대학교), 김재윤(세한대학교), 김정호(노동자 소모임), 김정환(성공회대학교), 김종미(영국 코벤트리 대학교), 김종미(가톨릭대학교), 김종빈(이화여자대학교), 김종철(녹색평론), 김주아(아주대학교), 김주연(연구공동체 건강과대안), 김주일(청주대학교), 김주철(무소속), 김준(동국대학교), 김준태(막스플랑크연구소), 김준혁(연세대학교), 김지연(고려대학교), 김지윤(기후변화청년단체 GEYK), 김지혜(서울대학교), 김지환(서울대학교), 김직수(사회공공연구원), 김진(화가), 김진균(한교조), 김진석(서울여자대학교), 김진숙(충북대학교), 김진해(경희대학교), 김진호(안동대학교), 김진화(상상교육포럼), 김찬휘(정치경제연구소 대안), 김창환(한국그린캠퍼스협의회), 김키미(환경서적전문 달빛서림), 김태우(경희대학교), 김태원(천주교 청주교구), 김택수(숲과나눔), 김평호(단국대학교), 김학재(서울대학교), 김한규(김앤장 법률사무소), 김현경(서울대학교), 김현구(서울시립대학교), 김현우(대우조선해양), 김현정(한국가톨릭심리상담학회), 김혜지(서울대학교), 김호(서울대학교), 김호연(한양대학교), 김화순(한신대학교), 김환석(국민대학교), 김환희(인간무늬연마소), 김희갑(해양환경공단), 김희경(한국환경교육학회), 김희원(KAIST), 김희철(작가), 나경채(정의당), 나희량(부경대학교), 남궁혜진(서울대학교), 남윤주(뉴욕주립 버팔로 대학), 남중섭(대구대학교), 노고운(한국외국어대학교), 노봉남(전남대학교), 노영기(조선대학교), 노진철(경북대학교), 도영경(서울대학교), 레마(서울대학교), 류건우(계명대학교), 류기석(연세대학교) 류주현(서울연구원), 류진춘(경북대학교), 류창욱(가천대학교), 류현(목포과학대학교), 류호찬(서울대학교), 문기덕(브란덴부르크공대), 문보경(인천연구원), 문수복(KAIST), 문윤형(서울불교대학원대학), 문현아(연구공동체 건강과대안), 문현종(Ch2ch), 문희수(서울대학교), 민경배(경희사이버대학교), 민경희(충북대학교), 민병기(충남대학교), 박강수(뉴스톱), 박거용(대학교육연구소), 박건(인하대학교), 박경내(성공회대학교), 박권일(서강대학교), 박기수(성균관대학교), 박길수(한국종교학회), 박덕희(Inpria Corp.), 박문수(한국뉴욕주립대학교),박민규(서울대학교), 박민선(숲과나눔), 박배균(서울대학교), 박범순(KAIST), 박병상(인천도시생태환경연구소), 박병섭(상지대학교), 박병철(개인), 박상덕(환경전공), 박상은(충북대학교), 박상필(부산연구원), 박선아(서울대학교), 박설호(한신대학교), 박성훈(순천대학교), 박세진(한국동물복지연구소), 박순성(동국대학교), 박순열(도시재생연구소), 박영균(건국대학교), 박용진(세종대학교), 박으뜸(충남대학교 ), 박이은실(아주작은페미니즘학교 탱자), 박재용(ESC), 박정연(에너지기후정책연구소), 박정연(성공회대학교), 박정희(전주기전대학교), 박종권(탈핵경남시민행동), 박종무(가톨릭대학교), 박종문(서울대학교), 박종식(부산대학교), 박주형(고려대학교), 박준규(한양대학교 ERICA), 박지산(녹색당), 박진서(한국과학기술정보연구원), 박진영(서울대학교), 박진희(동국대학교), 박찬종(서울과학기술대학교), 박찬종(국제배출권거래협회), 박철웅(목원대학교), 박철현(국민대학교), 박충환(경북대학교), 박태진(한림법학연구소), 박태현(강원대학교), 박하순(민주노총 정책연구원), 박현선(서강대학교), 박형국(고려대학교), 박형규(시민참여제도연구회), 박형욱(Nanyang Technological University), 박형준(글로벌정치경제연구소), 박혜경(인하대학교), 박희제(경희대학교), 반수연(King’s college london), 방금성(가톨릭대학교), 배수호(성균관대학교), 배은경(서울대학교), 백도명(서울대학교), 백선화(인간무늬연마소), 백성희(서울대학교 환경교육협동과정), 백승곤(AIE창의력학교), 백승종(한국기술교육대학교), 백승주(전남대학교), 백승한(가톨릭관동대학교), 백승흠(청주대학교), 백연재(호주국립대학교), 백영경(제주대학교), 백주련(평택대학교), 변동명(전남대학교), 변서현(POSTECH), 변홍철(도서출판 한티재), 변희영(서울대학교), 사토시(서울대학교), 서관모(충북대학교), 서나루(김상봉철학연구회 너도나라), 서동욱(고려대학교), 서동진(계원예술대학교), 서문규(청주대학교), 서보경(연세대학교), 서선영(연세대학교), 서안(한국상담심리학회), 서영표(제주대학교), 서형주(에코네트워크), 선재원(평택대학교), 성상민(서울과학기술대학교), 소윤미(서울대학교), 소재은(극지연구소), 손광락(경북대학교), 손문상(손목서가), 손정혁(희망제작소), 손준식(중앙대학교), 손혁상(경희대학교), 손호철(서강대학교), 손화철(한동대학교), 송광한(원광대학교), 송민령(KAIST), 송상용(한림대학교), 송성수(부산대학교), 송연옥(아오야마 가꾸인 대학), 송원규(농업농민정책연구소 녀름), 송위진(과학기술정책연구원), 송인재(성공회대학교), 송인한(연세대학교), 신경아(한림대학교), 신경준(환경교사모임), 신동애(일본 기타큐슈대학), 신동준(국민대학교), 신동화(숭실대학교), 신승철(생태적지혜연구소), 신승환(가톨릭대학교), 신익수(숭실대학교), 신지영(한국환경정책평가연구원), 신현방(런던정경대), 신현옥(한양대학교), 신현철(순천향대학교), 신희주(가톨릭대학교), 심광현(한국예술종합학교), 심상완(창원대학교), 안병진(경희대학교), 안보옥(가톨릭대학교), 안새롬(서울대학교), 안승택(경북대학교), 안자코 유카(리츠메이칸대학), 안현진(서울대학교), 안형준(과학기술정책연구원), 안효상(정치경제연구소 대안), 양승훈(경남대학교), 양재봉(한국교통장애인협회), 양진호(인문학교육연구소), 양창아(부산대학교), 양혜림(충남대학교), 엄윤설(ESC), 엄은희(한국공간환경학회), 엄지연(서울대학교), 여인혁(YMCA), 여화수(KAIST), 염민호(전남대학교), 오상현(경기도시장군수협의회), 오수길(고려사이버대학교), 오온욱(University of Colorado Denver), 오지은(희망제작소), 오지은(서울대학교), 오창호(한신대학교), 우석균(연구공동체 건강과대안), 우석영(환경철학회), 우희종(서울대학교), 원희연(부산대학교), 위대현(이화여자대학교), 위선희(KAIST), 유권종(중앙대학교), 유미라(인간무늬연마소), 유민석(서울시립대학교), 유병제(대구대학교), 유영초(풀빛문화연대), 유인식(IBK기업은행), 유자인(Georgia State University), 유정애(성균관대학교), 유정희(동국대학교), 유철수(경상대학교), 유택주(무소속), 유학수(선문대학교), 유한짐(구름집), 유현미(서울대학교), 육주원(경북대학교), 윤경원(서울대학교), 윤성복((사)한국사회갈등해소센터), 윤순진(서울대학교), 윤신영(동아사이언스), 윤아연(국립과천과학관), 윤여창(서울대학교), 윤지선(가톨릭대학교), 윤태웅(고려대학교), 은우근(광주대학교), 이강수(POSTECH), 이강옥(영남대학교), 이건민(정치경제연구소 대안), 이경자(정의당), 이관형(경기연구원), 이광석(서울과학기술대학교), 이광오(공공연구노조), 이권우(경희대학교), 이기연(ESC), 이나미(한서대학교), 이나영(중앙대학교), 이남섭(한일장신대학교), 이다은(이화여자대학교), 이다현(충남대학교), 이대한(노스웨스턴대학교), 이대흠(시인)이도흠(한양대학교), 이동진(경북대학교), 이명원(경희대학교), 이명주(명지대학교), 이명현(과학책방 갈다), 이무성(광주대학교), 이무열(서울예술대학교), 이문재(경희대학교), 이미정(예술가), 이병도(연구공동체 건강과대안), 이병천(강원대학교), 이상룡(부산대학교), 이상용(녹색당), 이상윤(연구공동체 건강과대안), 이상재(대전충남인권연대), 이상직(서울대학교), 이상헌(한신대학교),이상호(EBMUD), 이석기(University of Miami), 이성민(서울시), 이성우(한국생명공학연구원), 이성호(한국태양광발전학회), 이성훈(한국식품연구원), 이성훈(경희대학교), 이소영(전남대학교), 이소영(IGES), 이소주(사회적기업 ㈜보노보씨), 이소훈(경북대학교), 이승미(한양대학교 ERICA), 이승준(광운대학교), 이승지(LH토지주택연구원), 이시재(가톨릭대학교), 이안나(한국해양대학교), 이영주(부산대학교), 이영준(경희대학교), 이영희(가톨릭대학교), 이원영(수원대학교), 이원표(사회적경제연구원), 이유진(녹색전환연구소), 이은심(녹색번역의집시인), 이장규(서울대학교), 이재영(공주대학교), 이재정(제주그래피), 이재현(환경정치연구회), 이정규(노원우주학교), 이정림(대전시민사회연구소), 이정모(서울시립과학관), 이정미(한국세계자연기금), 이정배(현장아카데미), 이정아(한국고용정보원), 이정윤(한국보건사회연구원), 이정필(에너지기후정책연구소), 이종민(과학기술연합대학원대학교), 이주연(예술꼬뮤니티아터), 이주희(이화여자대학교), 이주희(호주국립대학교), 이준형(한양대학교), 이지용(건국대학교), 이지원(대림대학교), 이지은(수원시기후변화체험교육관), 이지현(IMBA Austria), 이진한(전국사무금융서비스노조), 이찬우(충남대학교), 이찬희(성균관대학교), 이창희(고려대학교), 이채민(충남여성정책개발원), 이충국(한국기후변화연구원), 이태주(한성대학교), 이한나(한국보건사회연구원), 이해진(충북대학교), 이향규(한양대학교), 이현정(국토환경연구원), 이혜영(기후변화체험교육관), 이훈상(연세대학교), 인태정(부산대학교), 임금희(이화여자대학교), 임성진(전주대학교), 임순광(비판사회학회), 임운택(계명대학교), 임장근(KIOST울릉도·독도해양연구기지), 임정선(서울사이버대학교), 임종진(경북대학교), 임지연(홍익대학교), 임춘성(목포대학교), 임태훈(대구경북과학기술원), 임현진(서울대학교), 임효현(한국교원대학교), 장동열(중앙대학교), 장미소(울산의대), 장미정(모두를위한환경교육연구소), 장미현(역사문제연구소), 장석준(글로벌정치경제연구소), 장성익(환경과생명연구소), 장세훈(동아대학교), 장영배(전국공공연구노동조합), 장영식(부산녹색당), 장유식(참여연대), 장임원(중앙대학교), 장진성(정산인터내셔널), 장화선(광주전남녹색연합), 장회익(경희대학교), 장희진(서울대학교), 전방욱(서울생명윤리포럼), 전병옥(성균관대학교), 전성원(계간황해문화), 전승희(Boston College), 전연희(더불어숲도서관), 전의찬(세종대학교), 전종윤(서울대학교), 전준하(KAIST), 전지용(조선대학교), 전진권(명지대학교), 전치형(KAIST), 정건화(한신대학교), 정경윤(성공회대학교), 정경훈(아주대학교), 정규성(서울대학교), 정규식(원광대학교), 정기석(경남과학기술대), 정기영(ESC), 정기철(과학기술정책연구원), 정미숙(서울대학교), 정미희(기후변화체험교육관), 정병호(한양대학교), 정보라(연세대학교), 정상용(숲과나눔), 정선기(충남대학교), 정성훈(연구공동체 건강과대안), 정수빈(서울대학교), 정연보(성공회대학교), 정영신(가톨릭대학교), 정용숙(중앙대학교), 정원선(자유연구자), 정인경(고려대학교), 정재원(경희대학교), 정준영(한국방송통신대학교), 정지욱(영화평론가), 정진규(솔라인베스트먼트), 정천채(한국환경산업기술원), 정태석(전북대학교), 정헌목(한국학중앙연구원), 정현용(DMZ생태연구소), 정현철(한양대학교), 정희정(세종대학교), 조공장(한국환경정책평가연구원), 조명아(충남대학교), 조문영(연세대학교), 조미성(모두를위한환경교육연구소), 조병준(참치과), 조성협(한국농어촌공사), 조성화(수원시기후변화체험교육관), 조세종(소셜경영연구소), 조수미(명지대학교), 조승래(청주대학교), 조승연(서울대학교), 조승현(한국방송통신대학교), 조영지(농업농민정책연구소 녀름), 조영호(안양대학교), 조윤석(십년후연구소), 조은영(대진초등학교), 조일동(한국문화인류학회), 조주은(녹색전환연구소), 조천호(ESC), 조태식(경북대학교), 조한혜정(연세대학교), 조혁진(한국노동연구원), 조현승(평택대학교), 조현철(서강대학교), 조효제(성공회대학교), 주기화(경희대학교), 주윤정(서울대학교), 지수걸(공주대학교), 지주형(경남대학교), 진보성(한국철학사상연구회), 진상현(경북대학교), 진주(농업농민정책연구소 녀름), 차유미(전북대학교), 채명주(한경대학교), 채민석(연구공동체 건강과대안), 채성준(대안정치경제학회), 채수환(홍익대학교), 채장수(경북대학교), 채정은(Newcastle University), 채형복(경북대학교), 천정환(성균관대학교), 천호성(전주교육대학교), 최갑수(연구자의집), 최경묵(고려대학교), 최경봉(원광대학교), 최규진(인하대학교), 최만원(조선대학교), 최무영(서울대학교), 최미경(아오리필름), 최민영(농업농민정책연구소 녀름), 최배근(건국대학교), 최보근(원진), 최선경(수원시기후변화체험교육관), 최수환(한국공학한림원), 최승연(목포대학교), 최연택(국가수리과학연구소), 최열(환경재단), 최원(단국대학교), 최원석(부산대학교), 최원형(불교생태콘텐츠연구소), 최유진(경남대학교), 최윤(고려대학교), 최윤주(중앙대학교), 최은희(수원시기후변화체험교육관), 최인철(경북대학교), 최일학(무소속), 최종두(한국산업기술시험원), 최종민(서울대학교), 최진우(환경생태연구재단), 최태룡(경상대학교), 최한성(대덕대학교), 최혁규(문화사회연구소), 최현(제주대학교), 최형섭(서울과학기술대학교), 최형식(스웨덴농업과학대학교(SLU)), 최혜랑(과학책 읽는 보통사람들), 최홍엽(조선대학교), 추정림(부산대학교), 하대청(광주과학기술원), 하상선((주)에코아이), 하종강(성공회대학교), 하태규(정치경제학연구소 프닉스), 한광희(국민대학교), 한길석(한국외국어대학교), 한문순(알트루사 여성상담소), 한상규(비판사회학회), 한상운(한국환경정책평가연구원), 한상진(울산대학교), 한영섭(내지갑연구소), 한웅구(수원시기후변화체험교육관), 한재각(에너지기후정책연구소), 한종택(한국직업능력개발원), 한주희(부산대학교), 한진이(서울대학교), 허문길(그린위생산업), 허상수(지속가능한사회연구소), 허석열(충북대학교), 현명주(서울대학교), 홍기웅((사)전국태양광발전협회), 홍기협(한국환경공단), 홍덕구(동국대학교), 홍덕화(충북대학교), 홍문숙(서울대학교), 홍선기(목포대학교), 홍성두(서울교육대학교), 홍성욱(회사원), 홍성욱(서울대학교), 홍성학(충북보건과학대학교), 홍용희(한국농어촌공사), 홍종혜(무소속), 홍지순(서강대학교), 홍지영(경희대학교), 홍찬숙(서울대학교), 황규관(한국작가회의), 황대권((사)생명평화마을), 황민수(한국전기공사협회), 황세운(경상대학교), 황연수(충북대학교), 황연수(동아대학교), 황지선(예술집단C), 황철민(세종대학교), 황호덕(성균관대학교), 황희선(서울대학교) (총 664명)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ‘새로운 변화와 기회, 신(新)나는 대한민국’을 주제로 열린 전경련 CEO하계포럼이 27일 강원도 평창 알펜시아 리조트에서 3박4일 일정으로 개막했다.  허창수 전경련 회장은 이날 개회사에서 “한국경제는 1970년대 중화학공업과 1990년대 IT·벤처 신화를 통해 눈부신 성장을 이뤄왔다”며 “하지만 최근 산업구조의 변화와 글로벌 경제의 불확실성으로 성장 잠재력이 하락했다”고 말했다.   ▲27일 허창수 전국경제인연합회 회장이 강원도 평창 알펜시아리조트에서 열린 ‘2016 전경련 CEO 하계포럼’에서 개회사를 하고 있다. ⓒ전경련     이어 “산업화에서 우리는 추격자였으나 정보화 혁명에서는 선도자가 된 경험이 있다”며 “4차 산업혁명에도 발 빠르게 대응한다면 재도약을 이룰 수 있을 것”이라고 강조했다.  또 “올해는 한국이 선진국 클럽이라는 OECD(경제협력개발기구)에 가입한지 20주년이 되는 해”라며 “이제는 우리 경제가 걸어온 길을 다시금 돌아보아야 할 때이고 아울러 다가올 미래에 대한 깊이 있는 고민도 필요한 시기”라고 지적했다. 그러면서 “2018년 동계올림픽이 개최되는 이곳 평창에서 불확실한 미래에 대한 준비와 현실성 있는 전략을 공유했으면 한다”고 말했다.  아울러 “이번 평창에서 개최되는 동계올림픽이 우리나라 발전의 새로운 도약의 기회가 되기를 염원한다”고 덧붙였다.  하계포럼 환영만찬에서는 최문순 강원도지사가 축사를, 강신호 동아쏘시오홀딩스 회장, 박희영 전경련 총동문회 회장이 건배사를 했다.  이번 포럼에는 유일호 경제부총리와 글로벌 기업 CEO 등이 연사로 참여해 4차 산업혁명에 대비하는 다양한 전략을 소개한다.  주요 연사는 일본 화낙의 이나바 요시하루 사장, GE코리아 강성욱 총괄대표, 한국화웨이 켈빈 딩 대표, 미국 UCLA 데니스 홍 교수, 카이스트 오준호 교수 등이다.    ▲27일 허창수 전국경제인연합회 회장이 강원도 평창 알펜시아리조트에서 열린 ‘2016 전경련 CEO 하계포럼’에서 개회사를 하고 있다. ⓒ전경련     현대기아차 연구개발본부장인 권문식 부회장과 셀트리온 서정진 회장, SK텔레콤 박명순 미래기술원장 등도 연사로 나선다.  유일호 부총리는 포럼 마지막 날인 30일 ‘대한민국, 위기인가 또 다른 도약의 기회인가’라는 주제로 강연한다.  전경련은 올해로 하계포럼 30회째를 맞아 그간 전경련과 하계포럼에 기여한 참석자 26명에게 30주년 감사패를 전달하는 시간도 가졌다.  전경련 CEO 하계포럼은 기업인간 최신 경영정보를 교환하는 전략 공유의 장이다. 이번 포럼에는 기업인 등 600여명이 참석했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ⓒ전주대      전북 전주대 LINC+사업단과 (사)벤처기업협회 전북지회가 공동주관하는 전북중소벤처리더스포럼 아카데미 최고경영자과정 제2기 수료식이 지난 26일, 전주대 리사이틀홀에서 열렸다.  지난 3월 입학한 50명의 기관 및 중소벤처기업 대표는 15주 동안 매주 화요일, 4차 산업혁명 시대를 선도하기 위한 역량강화교육 및 명사특강, 창조 경영교육, 디지털마케팅 교육 등 다양한 교육이 이뤄졌다.특히 노규성 한국생산성본부 회장, 이경상 카이스트 교수, 조풍연 한국ICT.SW 총연합회 회장 등 국내 최고 전문가가 강연자로 나서 급변하는 4차 산업혁명 시장의 시장 트렌드에 대한 명사특강이 이어지며 참석자들로부터 큰 호응을 얻었다.  한편 이날 수료식에서 원우회에서 4차 산업혁명 시대를 선도할 미래 인재 육성과 전주대 발전을 위해 발전기금 300만원을 전달했다.정춘호 원우회장은 "중소 벤처기업의 발전을 위한 전주대의 노력에 감사하며, 4차 산업혁명 시대를 선도할 우수 인재양성에 더욱 힘써 달라"고 말했다.  전주대 이호인 총장은 “지역경제발전의 한 축을 담당하고 있는 벤처기업과 상생하며, 지속적으로 4차 산업혁명 시대를 이끌어가는 지역대학이 되도록 더욱 노력 하겠다”고 말했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      GIST(지스트, 총장 문승현) 졸업생이 제1저자로 참여한 연구결과가 과학 분야 세계 최고 권위지인 Nature에 게재되었다.   GIST 신소재공학부 생체전자재료 연구실(Bio-Electronics Materials Laboratory, 지도교수 윤명한)에서 2016년에 박사학위를 받은 박성준 박사* 공동 연구팀은 초박형 유기 태양 전지를 유기 전기 화학 트랜지스터와 한 평면에 결합하고, 피부에 붙여 넣기 형식의 초박형 센서를 개발하여 ‘피부 부착형 심전도 측정 장치’를 제작하는데 성공했다.   피부에 붙일 수 있는 센서가 배터리 교환 등의 전원 문제에서 해방되어 장시간 안정적으로 생체 정보를 모니터링하고 유지할 수 있다면 건강관리를 지속적으로 실시 할 수 있는 무선 인터넷(IoT) 사회의 실질적 실현이 가능할 것으로 기대된다.     ▲ 광주과기원 신소재공학부 졸업생 박성준 박사 ⓒGIST    신축성 있는 얇은 유기 태양 전지는 저전압으로 구동 가능한 마이크로 센서와 연결하여 장시간 안정적으로 구동 가능하다.   최근 피부와 옷감에 밀착시켜 열적 안정성 및 물리적 변화에 강한 내구성을 갖는 유기태양 전지가 보고되면서 차세대 센서용 전원으로 주목을 받고 있다.  박성준 박사는 이화학연구소 및 동경대학교 연구팀과 공동연구를 통해 나노 스케일의 규칙적인 선상의 요철 패턴인 ‘나노 요철 구조’ 를 초박형 유기 기판 위에 형성하는데 성공하였다.   주기적인 나노 격자 구조가 빛의 굴절률을 조정하여 태양 전지 표면에서의 빛의 반사를 감소시키고 동시에 박막 내부에서의 광산란 증강과 금속 전극의 표면 플라즈몬 공명 효과를 일으킴으로써 효율적으로 입사광을 에너지 생성에 이용할 수 있게 되었다.   그 결과, 제작한 태양 전지의 에너지 변환 효율(태양 에너지를 전기로 변환하는 효율)은 현재까지 보고된 플렉서블 유기 태양 전지의 세계 최고 효율 10.5%를 달성함과 동시에 광 입사각 의존성도 크게 감소됐다.  박성준 박사는 “본 연구를 통해 전력 소비 및 인체에 미치는 영향을 걱정하지 않고 지속적으로 생체 정보를 취득하기 위한 요소 기술을 실현했다며, 취득한 생체 정보를 처리하는 회로 및 무선 전송 시스템과 통합함으로써 추후 차세대 자립 기반 센서 시스템의 기반 기술을 제공할 수 있을 것으로 기대한다”고 말했다.   이번 연구는 GIST 신소재공학부 생체전자재료 연구실(Bio-Electronics Materials Laboratory, 지도교수 윤명한)에서 박사학위를 받은 박성준 박사(現 삼성종합기술원, Staff Researcher), 허수원 박사(現 Postdoctoral Researcher, 이화학연구소), 이원령 박사(現 Postdoctoral Researcher, KAIST)가 제1공동저자로 연구를 주도하고 켄지로 후쿠다(Research Scientist, 이화학연구소), 케이슈케 타지마(Team leader, 이화학연구소) 타카오 소메야 교수(동경대)가 공동 교신저자 참여하였으며, 세계적 귄위의 과학저널인 네이처(Nature, 논문명: Self-powered ultra-flexible electronics via nano-grating-patterned organic photovoltaics)지에 2018년 9월 27일자 게재되었다.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           ▲조달청 대표 마크 ⓒ 조달청       조달청(청장 정무경)은 22일 서울 서초구 서울지방조달청에서 해외조달 청년 인재와 해외 진출 유망 기업을 연결해 주는 채용 상담회를 개최했다.  채용 상담회에는 해외조달 시장 전문 인력 양성과정’으로 수료한 청년 인재들이 참여했으며, 해외 진출 유망 기업들에 인턴·정규직으로 채용하기 위한 자리로 마련되었다.  올해 처음 실시한 ‘해외조달 시장 전문 인력양성 과정’은 조달청과 카이스트(KAIST) 글로벌 공공조달연구센터의 협업으로 이루어졌으며 외국어 특기 대학생·취업 준비생을 선발하여 국제입찰에 필요한 제안서 작성 등 전문 해외조달 실무를 교육하는 과정이다.  상담회에서 선발되는 기업 인턴·정규직 채용 예정자들은 3일 동안 중소기업 실무에 맞는 추가 심화교육을 받은 후 9월부터 근무할 예정이다..  이상윤 기획조정관은 “해외조달 전문교육을 받은 청년 인재들이 중소기업과 함께한다면 우수한 품질과 기술력을 가진 중소기업들이 해외조달 시장에서 좋은 성과를 내는 데 도움이 될 것”이라고 말했다.  한편, 상담회에 앞서 해외조달 시장 진출 중소기업을 대상으로 해외조달사업 전략 설명회를 갖고, 교육 수료생들이 작성한 기업 역량 분석 영문 발표회도 함께 진행하였다   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      GIST(지스트, 총장 김기선) Ertl 탄소비움연구센터 이재영 교수(지구‧환경공학부)와 한국과학기술원(KAIST) 화학과 김형준 교수 공동연구팀이 값싼 비귀금속 기반의 고효율 연료전지 실용촉매 개발에 성공했다.   이번 연구성과는 수소경제 구현을 위한 고성능 연료전지 개발에 있어 새로운 가능성을 제시한 것으로 평가되고 있다.  공기극 산소환원반응은 느린 반응 속도와 함께 높은 과전압이 요구돼 연료전지 효율 향상에 걸림돌이 돼왔다.   현재는 백금이 가장 적합한 촉매로서 평가받고 있으나 고가이면서 제한된 자원으로 수소전기차 가격경쟁력을 떨어트렸다.     ▲GIST지구환경공학부 이재영 교수 ⓒGIST   이때문에 가격 경쟁력이 높은 비귀금속 기반의 우수한 성능과 내구성을 보유한 촉매 제조 관련 연구가 주목받고 있다.  비귀금속 촉매 개발에서 가장 중요한 점은 산소환원반응 성능을 결정하는 변수를 찾고 이에 기반한 최적의 촉매를 설계하는 것이다.   또한 변수를 찾아내기 위해서는 전기화학적 실험과 최신계산이론에 근거한 뒷받침이 필요하다.  연구팀은 전기방사법을 통해 다양한 비귀금속(니켈, 코발트, 철, 은) 이 담지된 탄소나노섬유 촉매를 제조한 뒤, 이를 활용해 수용액 상에서 산소의 환원반응 성능을 비교했으며, 밀도범함수 이론에 기반해 제조된 촉매의 구조 및 일함수 등을 계산, 촉매 성능과 상관관계를 갖는 변수 발견을 시도했다.  그 결과 철기반의 탄노나노섬유가 최적의 일함수를 가지고, 산소환원반응에 대한 가장 높은 성능을 나타냈음을 확인했다.  또한, 연료전지의 수명을 증대시키기 위해 촉매의 내구성도 중요한 요인이다.    ▲KAIST 화학과 김형준 교수 ⓒGIST   공동연구팀은 철기반의 탄소나노섬유의 내구성을 극대화시키기 위해서 10%의 코발트를 포함시켜 우수한 가속내구성 평가결과를 확인했다.  GIST 이재영 교수 및 KAIST 김형준 교수는 “이번 연구는 활성이 있는 것으로 보고되고 있는 철기반 비귀금속 촉매의 내구성 문제를 실험과 계산으로 해결한 것이다. 알카라인 수소기반연료전지의 상용화를 앞당길 수 있을 것으로 기대된다”고 연구의 의의를 설명했다.   GIST 이재영 교수와 KAIST 김형준 교수가 주도하고 KAIST 하윤후 박사과정생(공동 1저자)과 GIST 강신우 석사과정생(공동 1저자)이 주도적으로 참여한 이번 연구는 한국연구재단이 지원하는 기후변화대응사업의 지원으로 수행됐으며, 물리화학 분야 세계적 학술지인 Journal of Physical Chemistry Letters 지난 22일자 온라인 판에 게재됐다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲2018년도 ‘KAIST 자랑스런 동문상’ 수상자 ⓒKAIST       KAIST 총동문회(회장 차기철)는 2018년도 KAIST 자랑스런 동문상 수상자로 서길수 영남대 총장과 김광수 하버드 의대 교수, 문영환 코아텍 대표이사, 전영현 삼성SDI 대표이사 등 4명을 선정했다.  김광수 하버드 의대 교수는 신경생물학 분야의 선구자적 연구를 통해 파킨슨병 치료제 연구 개발에 기여한 공로를 인정받아 수상자로 선정됐다.  문영환 코아텍 대표이사는 화학 공정에 필요한 환경 촉매·특수 가스 전문 업체 설립과 경쟁력 있는 제조 기술을 확보해 수입대체를 통한 국가 경쟁력을 높이고 환경 보전에 앞장선 공로를 수상의 영광을 안았다.  전영현 SDI 대표이사는 메모리 반도체 분야의 세계적인 기술 전문가로 생산성과 공정 기술 향상을 주도해 삼성전자를 전 세계 반도체 1위 기업으로 이끄는 등 국가 경쟁력을 높인 공로를 인정받았다.  서길수 영남대 총장은 우수한 연구 인력을 양성하는 교육자로 현장과 정책을 잇는 교육 혁신 행정가로 두각을 나타냈다.  한편 KAIST 자랑스런 동문상은 1992년 제정해 지금까지 27회에 걸쳐 99명의 수상자를 배출했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           ▲ DIBR 3D 영상 워터마킹 기법을 이용한 영상 예제 = (왼쪽부터 윗줄 원본 중앙영상, 깊이영상, 아랫줄 워터마크가 삽입된 중앙영상, 삽입된 워터마크 신호=가시성을 위해 10배 강화된 신호) ⓒKAIST      KAIST 전산학부 이흥규 교수 연구팀이 인공신경망을 이용해 워터마크를 영상에 삽입 및 검출하는 기술을 개발해 홈페이지를 통해 시범 운영하고 있다.  연구팀의 웹 서비스에서는 인공신경망 학습을 통한 새로운 공격에 대응하고 ▲인공신경망의 비선형적인 특성을 통해 높은 보안성을 가진 인공신경망 기반 2D 영상 워터마킹 기법 ▲다양한 시점 변환이 발생하더라도 영상 보호가 가능한 DIBR 3D 영상 워터마킹 기법 ▲워터마크 삽입으로 인한 시각피로도 상승을 최소화하는 S3D 영상 워터마킹 기법을 제공한다.  연구팀의 2D 영상 워터마킹 기법은 최초의 인공신경망 기반 워터마킹 기법으로 이미지에 가해질 수 있는 다양한 공격을 이용해 인공신경망을 학습함으로써 강인성을 획득한다.  동시에 인공신경망의 심층구조를 통해 워터마크 해킹 공격에 대한 높은 보안성을 획득함으로써 기존의 보안 취약점을 대폭 개선했다.  고부가가치를 가지는 3D 영상 보안을 위한 워터마킹 기법도 개발해 웹 서비스로 제공한다.  사용자는 2D 영상 또는 3D 영상을 웹 서비스에 업로드 해 워터마크를 삽입하고 추후 필요시 삽입한 워터마크를 검출함으로써 각종 분쟁 해결에 활용할 수 있다.  또한 이 기술은 압축 등의 공격을 가상으로 진행하는 시뮬레이션 툴과 워터마크 삽입 세기 조절, 그리고 워터마크 삽입으로 인한 영상품질 비교 등의 서비스를 함께 제공한다.  이번 연구는 기술 활용 모델에 따라 요구되는 다양한 견고성에 따라 유연하게 추가 수정이 가능하고 해킹에 견고하게 설계됨으로써 워터마킹 기술 유용성을 극대화했다.  연구팀은 개발된 기술은 다양한 공격 유형에 적응적으로 대응하며 상용 가능한 수준의 기술 신뢰도를 보인다고 밝혔다.        ▲강지현 문승원 지상근 박사과정 이흥규 교수 (왼쪽부터) ⓒ KAIST   이흥규 교수는 “영상 관련 각종 분쟁들이 저작권에 국한되던 종전의 범위를 넘어 최근 가짜 영상 유통에 따른 진위 판별, 인증, 무결성 검사, 유통 추적 등으로 관심 분야가 급속히 커지고 있다”며 “인공지능 기술을 활용해 기존 워터마킹 기법들의 기술적인 한계점을 해결할 수 있는 디지털 워터마킹 연구를 선도하겠다”고 말했다.  현재까지 개발된 기존 워터마킹 기술은 모두 공격 유형, 세기 등 특정 조건을 사전에 정하고 이를 만족시키도록 설계 및 구현돼 다양한 공격 유형이 존재하는 실제 환경에 사용하기에는 실용적 측면, 기술 확장성, 유용성 등에 한계가 있었다.  또한 워터마크 제거, 복사, 대체 등의 해킹 기술 발전으로 인해 기술 자체의 보안 취약성에도 문제가 있었다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   			&lt;프레시안&gt;과 사이언스북스, 카이스트(KAIST)가 특별한 강연을 엽니다. 카이스트에서 학생들로부터 최고의 강의로 찬사를 받는 명강사에게 직접 강의를 들을 수 있는 기회입니다. 이번 강의는 '몸의 과학, 미래의 의학'이라는 주제로 최근 전 세계적으로 큰 주목을 받고 있는 맞춤형 정밀 의학부터 인체의 면역 시스템까지 우리가 반드시 알아야 하는 최신 의학 연구 성과를 본격적으로 소개합니다. (☞신청 하기)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          2017 KAIST-포스텍(POSTECH) 학생대제전 ⓒKAIST       과학도들이 맞붙어 ‘사이언스 워(Science War)’라는 별칭으로도 불리는 ‘KAIST-포스텍(POSTECH) 학생대제전’이 14일~15일 포스텍에서 개최된다.  2002년부터 시작된 이 대회는 KAIST(총장 신성철)와 포스텍(총장 김도연) 학생들이 친목을 도모하고 개인의 소질과 능력을 발산하는 축제의 장으로 이어왔다.  이공계 두뇌들이 참가하는 행사답게 해킹·인공지능(AI)·과학퀴즈 등 3개의 과학경기 종목과 야구, 축구, 농구 등의 구기 종목에 e-Sports(League of Legends)를 포함한 4개의 운동경기를 합쳐 총 7개 종목에서 대결을 펼친다. 또 번외로 배드민턴 경기도 치러진다.  4개 종목 이상 승리한 대학이 종합우승을 차지하는 방식으로 매년 9월 대전과 포항을 번갈아 오가며 개최하는 학생대제전은 원정 대학의 명칭을 앞에 표기하는 원칙에 따라 올해는 ‘카·포전’으로 불린다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      아침 출근 준비에 바쁜 와중에 양치질하며 거울을 바라보는 것만으로 날씨나 중요한 뉴스, 유튜브 영상 등을 확인할 수 있다면 큰 도움이 될 것이다.        ▲ KAIST 전산학부 신인식 교수와 김효수 연구교수팀이 스마트폰 기반의 터치 사운드 위치파악 기술을 개발했다 ⓒKAIST    KAIST 전산학부 신인식 교수와 김효수 연구교수팀이 이를 현실화하는 스마트폰 기반의 터치 사운드 위치파악 기술을 개발했다.  이 기술은 사람들이 항상 휴대하는 스마트폰, 태블릿 PC 등을 사용한 기술로, 언제 어디서나 책상 등 주변 사물들을 가상 키보드로 활용해 장문의 문자, 메일 등을 손쉽게 작성할 수 있고 체스와 같은 보드게임도 즐길 수 있다.  또 단순 디스플레이 기능만 제공하던 스마트 TV나 거울과 같은 스마트기기에 터치 입력 기능을 삽입해 좀 더 편리하고 효율적인 기기 활용을 할 수 있다.  연구팀이 개발한 시스템은 지난 11월4~7일 중국 선전에서 열린 모바일 및 센싱 분야의 최고 권위 국제학회 ACM SenSys에서 발표돼 호평을 받았으며, 우수성을 인정받아 ‘베스트 페이퍼 러너-업 어워드(best paper runner-up award)’를 수상했다.  연구팀은 사용자가 손톱 등으로 사물을 터치했을 때 발생하는 터치 충돌 소리가 고체 표면을 통해 전달되는 과정을 분석했다.  소리가 공기를 통해 전달될 때와는 달리 고체 표면에 전달될 때에는 주파수에 따라 다른 속도로 전달되는 분산(dispersion) 현상을 겪는다.  분산 현상으로 인해 주파수별로 소리 도달 시간 차이는 소리 전달 거리에 비례해 증가하며, 주변 소음이 변화해도 비례 관계는 변하지 않는다.        ▲거울을 터치스트린으로 사용하는 시험 ⓒKAIST    김효수 연구교수는 이러한 관찰에 기반해 고체 표면을 통해 전달된 터치 소리를 스마트폰에 녹음하고 간단한 조정 과정을 통해 주파수별 소리 도달 시간 차이와 소리 전달 거리의 관계를 파악했다.  이후 이 값을 이용해 사용자의 터치 입력 위치를 정확하게 계산하는 기술을 개발했다.  개발한 시스템은 약 17인치의 터치스크린에서 평균 0.4cm 이내의 측정 오차를 보였다.  특히 나무 책상, 유리 거울, 아크릴 보드 등 다양한 종류의 사물에서 주변 물체의 위치나 소음이 변하는 상황에서도 항상 1cm 이내의 측정 오차를 기록하는 정확성을 보였다.  특히 기존 기술이 터치 입력 위치파악에만 수백 초 소요되는 것과 달리 정확성과 편리한 사용을 위해 약 10초 이내의 간단한 조정을 통해 기술을 적용하는 데 성공했다.  신 교수는 “우리가 주위에서 흔히 볼 수 있는 거울, 책상, 벽 등의 표면을 마치 터치스크린처럼 사용할 수 있다면 재미있고 유용한 앱들이 많이 활성화될 것”이라며 “이 기술은 마이크로폰 3~4개 설치만으로도 터치 입력을 가능하게 하는 새로운 터치 인터페이스 기술”이라고 설명했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      문화체육관광부(장관 박양우)와 한국콘텐츠진흥원(원장 김영준, 이하 콘진원)은 ‘2020 콘텐츠인사이트’를 온라인 컨퍼런스로 전환해 오는 21일부터 23일까지 총 3일간 진행한다. 올해 ‘콘텐츠인사이트’는 코로나19로 새로운 전환을 맞고 있는 콘텐츠산업에 주목해 기술, 소비, 사회의 ‘변화’를 주제로 개최된다. 콘텐츠산업계를 주도하는 각 분야 국내외 연사들이 한 자리에 모여 콘텐츠의 현재와 미래를 살피고, 콘텐츠의 지속가능한 성장을 위한 인사이트를 공유할 예정이다.    ▲2020 콘텐츠인사이트 포스터 ⓒ한국콘텐츠진흥원   첫날 21일 진행되는 1일차 세션에서는 ‘기술의 변화 - 더 가까워지는 실감콘텐츠’를 주제로 5G 기술 상용화로 각광받는 실감콘텐츠 비즈니스의 현재와 미래에 대해 논한다. ▲우운택 교수(카이스트)와 ▲이진하 최고제품책임자(스페이셜)가 실감콘텐츠에 대한 기조연설과 강연을 펼치고, ▲조익환 상무(SKT) ▲신영근 팀장 (LGU+) ▲이영호 팀장(KT) 등 통신3사 관계자가 김종민 XR 큐레이터와 함께 대담을 진행한다. 2일차는 ‘소비의 변화 – 세계관과 캐릭터 확장’을 주제로 콘텐츠 세계관을 구축하는 트랜스미디어 전략과 캐릭터의 재해석을 다룬다. 전 DC코믹스 부사장 및 공동발행인 ▲댄 디디오(Dan Didio)와 영화 &lt;조커&gt;, &lt;다크 나이트&gt; 시리즈 제작 프로듀서로 잘 알려진 ▲마이클 우스랜(Michael E. Uslan)이 해외연사로 참여해 각각 DC유니버스의 확장 전략과 히어로물의 시점 다변화에 대해 강연을 펼친다. 국내 연사로는 영화 &lt;신과함께&gt;, &lt;광해&gt; 제작자인 ▲원동연 대표, 영화 &lt;강철비&gt;, &lt;변호인&gt; 연출자인 ▲양우석 영화감독이 민용준 저널리스트와 함께 ‘미디어 경계를 넘어 확장하는 세계관 속 입체적 캐릭터의 탄생’에 대해 이야기할 예정이다. 마지막 3일차에는 ‘사회의 변화 - 다양성 콘텐츠’를 주제로 젠더 및 에이지즘(Ageism, 연령차별주의) 등 다양성을 확보하기 위한 콘텐츠업계의 여러 시도를 살펴본다. 전 넷플릭스 다양성 총괄 책임자 ▲미셸 킹(Michelle King)의 강연에 이어 방영과 동시에 화제를 모으고 있는 드라마 &lt;보건교사 안은영&gt;의 원작자이자 집필에 참여한 ▲정세랑 작가, 국내 최초 여성 스탠드업 코미디쇼 &lt;박나래의 농염주의보&gt;를 연출한 ▲김주형 PD와 영화 &lt;69세&gt;로 올해 가장 주목받는 여성 감독 중 한명인 ▲임선애 감독이 씨네21 김혜리 기자와 함께 다양성 콘텐츠에 대한 강연과 대담을 진행한다. 또한, 올해 ‘콘텐츠인사이트’는 심화 워크숍을 신설해 참가자에게 콘텐츠산업계 전문가 4인의 세미강연을 포함한 1:1 밀착 멘토링 및 네트워킹 기회를 제공한다. 심화 워크숍은 ‘유통의 변화 – 슈퍼IP의 개발과 확장’을 주제로 진행되며, 참가자는 총 20명 내외로 오는 16일 자정까지 신청 받는다. 이번 ‘2020 콘텐츠인사이트’는 코로나19 확산 방지를 위해 비대면 온라인 방식으로 진행되며, 오는 21일~23일 오후 2시부터 콘진원 공식 유튜브를 통해 생중계될 예정이다. 콘텐츠 분야 현업인이라면 누구나 무료로 참여할 수 있으며, 보다 자세한 내용과 신청방법은 2020 콘텐츠인사이트 누리집을 통해 확인할 수 있다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      새누리당 유승민 전 원내대표가 국내 언론사 정치부 기자 250명이 선정한 올해의 '백봉 신사상' 대상을 수상했다. 정직성, 정치적 리더십, 사회·국민에 대한 헌신, 의회민주주의 실천 등이 이 상 수상자를 선정하기 위한 설문 문항의 주요 덕목으로 꼽힌다. 유 전 원내대표는 8일 오전 '백봉 라용군 선생 기념사업회'가 국회에서 개최한 제 17회 백봉신사상 시상식에 참석해 대상 메달을 받고 간략한 수상 소감을 밝혔다. 그는 "저는 평소 아무리 욕을 먹어도 정치가 제일 중요하다는 신념을 갖고 정치를 해왔다"면서 "욕을 아무리 먹어도 제일 중요한 정치를 똑바로 할 수 있도록 매진하겠다"고 밝혔다. 유 전 원내대표는 "(1997년) IMF 경제 위기를 경험한 직후 경제학도로서의 자리를 버리고 정치에 뛰어들었다"면서 "직접 정치를 해 우리 국민들이 먹고 사는 문제를 해결하는데 기여해보겠다는 꿈을 가졌다"고도 말했다. 이어 그는 "그런데 지금 국민은 꿈과 희망이 없다고 좌절하고 있다"면서 "저성장과 양극화를 극복하는 것이 우리가 반드시 해야 할 시대적 과제이고, 성숙한 민주주의를 만드는 일도 정치인들의 시대적 책무"라고 했다. 유 전 원내대표는 시상식이 끝난 후 기자들을 만나서는 "갑자기 원내대표 선거를 해서 5개월간 했고 (올 한해 동안) 일들이 많았다"면서 "대상을 예상하지 못했는데 언론인들이 뽑아줘 큰 상을 받게 됐다"고 감사의 뜻을 밝히기도 했다. 유 전 원내대표 외에도 정의화 국회의장·새누리당 김무성 대표·새누리당 조해진 의원·새정치민주연합 문재인 대표·안철수 전 공동대표·이석현 국회부의장·이종걸 원내대표·우윤근 의원·박수현 의원·정의당 심상정 대표도 '백봉 신사상'을 받았다. 이종걸 원내대표는 "정 의장은 국회법 (파동) 때 저와 유승민 전 원내대표를 수차례 만나 유승민 보호에 온 몸을 던졌다"면서 "김 대표나 이 국회부의장도 유승민 지키기에 나섰다. 유승민 전 원내대표의 측근들이 다 이 상을 수상한 것 같다"고 농담을 던졌다. 실제로 이번 수상자 명단에는 유승민 전 원내대표의 자진 사퇴 몰이에 나섰던 친박계 의원들은 한 명도 포함되지 않았다. 한편, 기념사업회 회장이자 시상자인 정 의장은 '시상자가 수상을 하는 것은 맞지 않다'며 상을 고사했으나 주최측의 거듭된 요청과 언론인들의 평가를 존중한다는 차원에서 상을 받기로 결정했다고 기념사업회 측은 밝혔다. 백봉신사상은 매년 백봉라용균선생기념사업회가 국내 언론사 정치부 기자들 설문조사를 통해 선정하고 있다. 올해 수상자 선정은 지난달 9일부터 20일까지 조사에 참여한 기자 250명의 설문조사 응답 결과를 한국과학기술원(KAIST) 정연승 교수에게 통계 의뢰해 결정됐다. 설문에 응답한 기자들은 '신사 의원'의 가장 중요한 덕복으로 정직성(32.0%), 정치적 리더십(18.4%), 사회·국민에 대한 헌신(17.2%), 의회민주주의 실천(14.0%), 소통 능력(12.8%) 등이 중요하다는 의견을 보였다고 기념사업회 측은 밝혔다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲    신성철 KAIST 총장이 4일 해명 기자회견을 하고있다 ⓒ프레시안(육심무 기자)    신성철 KAIST 총장은 4일 “양심에 부끄럽고 어긋나는 일을 하지 않았다”며 과학기술정통부에서 제기한 제자 편법 채용과 국가연구비 횡령 혐의 등을 전면 부인했다.  과학기술정보통신부로 부터 국가 연구비를 횡령한 혐의로 고발과 아울러 직무정지 요청이 통보된 신성철 총장은 이날 기자회견을 자청해 대구경북과학기술원과 로렌스 버클리연구소와의 이면 계약을 비롯해 국가 연구비 횡령 및 업무상 배임 등 각종 의혹에 대해 해명했다.  신 총장은 “세계적 기초연구소인 로렌스 버클리 연구소와 무명의 신생대학인 대구경북과학기술원이 협약을 맺고, 한국의 연구자들에게 공동연구 길을 터준 것을 자랑스럽게 생각해 왔는데 상상할 수도 없는 의혹이 전개되는 상황에 참담한 마음을 금할 길이 없다”며 "제기된 의혹들은 모두 사실이 아니다"고 밝혔다.  신 총장은 A박사의 채용비리 의혹에 대해 “국내 박사로는 매우 드물게 버클리 연구소의 포스닥으로 시작해 비정규직 연구원을 거쳐 정규직 연구원이 된, 여성박사로는 거의 최초의 성공스토리라고 생각한다”면서 “현재 버클리연구소 빔라인 책임자로 우리나라 학자들의 실험을 도와주고 교육도 시키고, 교량적인 역할을 하고 있는 공로자”라고 설명했다.  또 “적법한 절차를 거쳐 채용됐고 급여 결정도 규정에 따른 것”이라며 “절반이 넘는 돈이 A박사의 인건비로 지급됐다는 것은 말도 안된다”고 지적했다.  버클리연구소에 대한 현금 지원에 대해서는 “빔 타임의 독자적 사용권 요청에 의해 운영비의 일부를 보낸 것이며, 우수한 시설을 저렴하게 독자적으로 연구에 이용할 수 있게 한 것으로, 조금도 잘못됐다고 생각 안하며 다시 결정하래도 다시 지원할 것”이라고 강조했다.  신 총장은 “지난 30여년간 치열하게 일하면서 공직자로서 자신을 철저히 관리하며 양심에 부끄러움이 없이 살아왔다”면서 “이번 건으로 인하여 밤세워 연구에 매진하는 젊은 연구자들의 사기가 꺽이는 일이 없기를 바란다”고 말했다.        ▲신성철 카이스트 총장 ⓒ프레시안(육심무 기자)    한편 과기부는 지난 30일 신성철 총장과 관계자 등 4명을 업무상 횡령 등의 혐의로 검찰에 고발하고, KAIST에 총장의 직무정지를 요청하는 공문을 보낸 바 있다.  신 총장은 대구경북과학기술원 총장으로 재임하던 2013년 제자인 미국 로렌스버클리 연구소 계약직 A씨를 정식절차를 거치지 않고 겸직 교수로 채용하고, 3년간 연구에 참여하지 않았는데도 1억 4000만 원을 급료로 지급하도록 지시한 혐의를 받고 있다.  또 연구 장비에 대한 사용료 명목으로 A씨가 근무하는 버클리 연구소에 2014년부터 올해까지 22억 원을 보내 이 돈의 절반가량을 A씨의 인건비로 사용토록 했다는 의혹을 받고 있는 것으로 알려졌다.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      한국사회책임네트워크(KSRN·대표 김영호)는 2015년 기업의 사회적 책임(CSR)과 관련된 '올해의 7대 뉴스'를 선정했다. 참여 단체의 책임자와 전문가로 구성된 집행위원회(위원장 안치용 2.1지속가능연구소장)가 집담회를 통해서 '사회책임 생태계'에 기여한 좋은 소식(Good News)과 부정적 영향을 끼친 나쁜 소식(Bad News)을 7개씩 선별했다. 선정대상은 CSR 관련 소식을 중심으로 하되 정부와 국회의 동향과 국내에서 반향이 컸던 해외소식을 일부 포함했다.   Good News TOP 7  "국민연금 SRI 걸음마…한국사회책임네트워크 출범"  ① 국민연금, 투자시 ESG 고려 및 현황 공시…국내 최대 투자자의 'SRI 걸음마'  국민연금이 올해부터 투자결정에서 기업의 환경·사회·지배구조(ESG, environment, social, governance) 등 사회적 책임을 고려할 수 있고, 이에 따른 기금관리와 운용현황을 공시하게 되면서 국내 최대 투자자인 국민연금이 기업의 사회적 책임(CSR)을 촉진하고 독려하는 걸음마를 시작했다. 국민연금의 ESG 고려 투자는 세계 연기금에서 주목받는 규모로 커진 국민연금 기금이 덩치에 맞게 지구적 차원에서 CSR을 제고하는 데 기여할 수 있는 '투자원칙'을 수립하고, 연결되는 '기업 평가기준'을 개발하는 시발점으로 평가할 수 있다. 자본시장에서 일어난 '제도권'의 변화는 대한민국을 지속가능사회로 발전시키는 데 기여할 전망이다. 하지만 CSR 관련 법규의 원활한 입법이 지연되고, 국민연금이 삼성물산-제일모직 합병, 홈플러스 매각 등에서 CSR을 제고하는 방향으로 기업관여를 하지 못했다는 비판도 거셌다.   ② 김영란법 입법 … 잃어버린 '반쪽'(공직자 이해충돌 방지)은 되찾아야  '부정청탁 및 금품 등 수수의 금지에 관한 법률' 제정은 정계, 관계, 재계, 학계, 문화예술계를 불문하고 관행처럼 되풀이되는 부정청탁과 금품·향응 수수에 일대 경종을 울렸다. 앞으로 기업(인)과 공직자 사이에서 인허가·면허·평가·판정·재판·조정 등에서의 처리위반, 과태료 등에 대한 감경·면제, 채용·승진·계약체결·보조금·장려금의 개입, 공공기관 수상·포상의 관여, 직무상 비밀누설, 일감·용역 몰아주기 등과 이에 대한 행위를 '알선'하는 것까지 '부정청탁'으로 처벌받는다. 이 법은 2016년 9월부터 시행되는데, 그동안 정관계와 재계, 언론계 등이 사회적 책임을 우회·회피하기 위해 다양한 방식으로 '짬짜미'를 해 왔던 부패의 사슬을 끊는 역사적 입법으로 평가된다. 하지만 김영란 국민권익위원장이 제안한 원안에서 '공직자이해충돌방지' 규정이 누락돼 '반토막 김영란법'이라는 비판과 함께 국회가 약속대로 온전한 입법을 마무리해야 한다는 요구가 높다.   ③ 제21차 파리 기후변화 당사국 총회(COP21) 합의 도출 프랑스 파리에서 세계 196개국 대표들이 모여 온실가스 감축에 합의했다. 1997년 교토의정서 이후 18년 만에 역사적 진척이 이뤄졌다. 주요내용은 산업화(1750년) 이전 대비 지구 평균온도 상승폭을 섭씨 2°C 이하로 제한하고, 더 나아가 상승폭을 1.5°C 이내로 제한하기로 노력한다는 것이다. 또한 2018년부터 5년마다 모든 국가의 온실가스 감축 이행여부를 점검하고, 2020년부터 선진국은 매년 최소 1천억 달러(약 118조원)를 개도국 온실가스 저감에 보조하도록 했다. 온실가스 감축시점을 앞당기고 속도를 강화해서 2050년 이후 온실가스 배출량과 지구의 온실가스 흡수능력 사이에 균형을 유지하도록 하는 데에도 합의했다. 각국의 온실가스 자발적 감축목표(INDC) 제출은 의무이지만, 이행을 강제할 법적 규제는 불비하다. 각국이 진정성 있는 감축목표를 제시하고 실효성 있는 정책을 개발하는 것과 세계의 시민들이 감시를 강화하는 것이 과제로 남았다.  ④ 사회적 책임 장려 위한 '조달법 개정안' 국회 상임위 통과 정부의 조달업무에서 사회책임을 고려할 법적 근거가 마련됐다. 정부의 수다한 조달절차에서 환경, 인권, 노동, 고용, 공정거래, 소비자보호 등 사회적·환경적 가치를 반영할 수 있다는 내용이 법규로서 명시된 것이다. 국회 상임위원회를 통과한 '조달법 개정안'(홍일표 의원 대표발의)은 '사회적 책임 공공조달'의 법적 근거를 마련했다는 측면에서 의의를 갖는다. 본회의 통과가 확실시되는 이 개정안은 '효율성'만을 명시했던 제1조 조달사업의 목적에 '공공성 고려'라는 내용을 삽입함으로써 조달 사업에서 사회적 책임 원칙을 강화했다. 우리나라의 공공조달 시장은 연간 120조원에 달하며, 수많은 기업들이 이 조달시장에 참여하고 있다. 이 개정안이 본회의를 통과하면 정부나 공공영역의 조달을 통해 기업의 사회적 책임(CSR)이 촉진될 또 하나의 법적인 근거가 마련되는 셈이다. 국민연금의 ESG고려는 자본시장에서, 공공조달은 조달시장에서 각각 새로운 변화를 일으켜 시장과 사회 전반에 CSR을 확산시키는 계기가 될 전망이다. 특히 공공조달은 중소기업의 CSR 확산에 영향을 미칠 것으로 점쳐진다.  ⑤ 한국거래소 'ESG 중심' 사회책임지수 발표 한국거래소가 사회책임투자(SRI) 활성화와 기업지배구조 개선을 위해 12월 21일부터 환경, 사회책임, 지배구조(ESG)를 중심으로 한 사회책임지수를 발표하고 있다. 새로 개발된 지수는 ESG 통합점수가 높은 상위 150개 종목으로 구성된 'ESG Leaders 150', 지배구조(G) 점수가 높거나 과거보다 많이 상승한 100개 종목으로 구성된 'Governance Leaders 100', 환경(E) 점수가 높거나 과거보다 많이 상승한 100개 종목으로 구성된 'Eco Leaders 100' 등 세 가지 종목으로 이뤄졌다. 한국거래소가 함께 발표한 자료에 따르면 ESG 우수기업의 대부분이 주가상승률에서 평균상승률보다 훨씬 높은 수준을 나타냈다. 한국거래소가 사회책임지수에 근거한 종목을 발표함으로써 앞으로 착한 기업을 대상으로 한 '투자 바구니'를 더욱 풍성하게 하고, 증권시장과 사회 전반에서 기업의 사회적 책임(CSR)에 대한 인식을 제고하는 데 기여할 것으로 기대된다.   ⑥ SNS가 'CSR의 감시자'로 부상 … '사회책임 생태계' 활력 불어넣어 SNS시대에 부정부패와 비리를 은폐하는 것은 어려워졌다. 지속가능 경영지수, 윤리경영지수를 산출하는 데서 '사회적 평판'의 중요성이 더욱 커진 한해였다. 지난해 남양분유 '갑질' 사건, 대한항공 회항사건 등에 이어 올해도 최근 몽고식품 회장의 운전사 폭행사건까지 기업과 기업주들의 무책임한 행태에 대해 SNS의 감시와 비판이 활발하게 작동했다. 기업들은 업무외적 영역까지 시장의 평가와 반응에 노출됨으로써 다양한 경로로 사회적 책임 압박을 받고 있다. 기업에 대한 각종 평가에서도 SNS를 통해 네거티브 스크리닝(Negative Screening)이 이뤄짐에 따라 기업의 반칙, 기업주들의 갑질과 폭력, 시장질서 위반 등은 적나라하게 검증되고 있다. SNS의 반응은 언론보도에도 큰 영향을 미쳐 기업은 스스로의 부패와 비리 등 커다란 사회적 해악을 기부와 나눔 등 단지 사회적 선행만으로 가릴 수 없게 됐다. SNS는 사회책임 생태계에 활력을 불어 넣고 있다.   ⑦ 한국사회책임네트워크 출범 … CSR 공론화·정책화 노력 한국사회책임투자포럼, 기업책임시민센터, 2.1지속가능연구소, 소비자와 함께, 푸른아시아, CSR서울이니셔티브, 생생협동조합, 한국녹색도시협회, 지속가능사회를 위한 젊은 기업가들(YeSS), 토마토CSR연구소, 지속가능청년협동조합 바람, ISO26000 전문가포럼 등 12개 단체와 관련 전문가들이 '한국사회책임네트워크'(KSRN)를 결성했다. 대표로는 김영호 한국사회책임포럼 이사장(전 산자부장관), 고문으로 안병훈 KAIST 명예교수, 윤증현 전 기재부장관, 이계안 2.1지속가능연구소 이사장(전 현대자동차 CEO), 인명진 한국녹색도시협회 명예이사장 등이 참여했다. KSRN은 앞으로 사회책임기본법 제정, ESG 관련 공시 확대 등 기업의 사회적 책임(CSR)을 제고하기 위한 정책청원을 전개하고, 사회책임 생태계를 활성화하는 데서 국회와 정부의 역할을 높이는 감시자 역할을 강화할 방침이다. 새해에도 CSR 공론화를 위한 다양한 학술·교육·평가·홍보 등을 주관·후원·참여할 계획이다.     ⓒ한국사회책임네트워크     Bad News TOP 7 "삼성 '그룹내 합병' 주주가치 훼손…롯데·두산 등 CSR 망각"  ① 삼성생명-제일모직 합병 … 주주가치 훼손, 국민연금의 배임적 행태 삼성생명-제일모직 합병과정에서 보여준 삼성그룹의 행태는 재벌3세 경영승계에 대한 논란은 접어두고서라도, 기본적으로 주주가치 존중과 기업의 사회적 책임(CSR) 측면에서 상당히 거리가 멀었다는 비판을 받았다. 국민연금은 최대 기관투자자이자 공적 기금으로서 정당한 기업관여에 역행하는 의사결정으로 공공기관 및 공적 연기금에 대한 사회적 책무를 다하지 못했다는 지적을 받았다. 또한 삼성그룹의 엘리엇매니지먼트에 대한 대응과정에서 '경제애국주의' 논란을 초래했는데, 이러한 대응방식은 글로벌 대기업의 경영 트렌드와는 상이한 것으로 앞으로는 국내에서도 더 이상 지속되기 어려울 것으로 전망된다. 삼성그룹이 재계에서 차지하는 비중에 비추어 합병 직후 제시한 기업지배구조 개선, 주주권익 보호를 위한 거버넌스 위원회, 기업의 사회적 책임을 이행하기 위한 CSR위원회 등은 시민사회가 그 이행여부와 활동과정을 감시해야 할 중요한 약속들이다.   ② 롯데그룹 '후진적' 기업지배구조와 경영권 분쟁 롯데그룹 삼부자의 경영권 분쟁은 국민의 눈살을 찌푸리게 했다. 국적을 둘러싼 정체성 논란과 4백개가 넘는 순환출자 고리는 국내 재벌순위 5위그룹의 후진적 기업지배구조, 투명하지 못한 기업경영의 속살을 적나라하게 드러냈다. 2013년 기준 1% 이하 지분소유까지 포함한 롯데그룹의 순환출자 고리는 9만5천여개에 달했다는 점이 재조명됐고, 정체불명의 광윤사와 L투자회사는 투명하지 못한 가족경영에 대한 비판여론을 부채질했다. 삼성물산-제일모직 합병논란과 롯데 경영권 분쟁은 그동안 'CSR 불모지'로 여겼던 '기업의 지배구조'에 대한 사회적 각성을 촉발했고, 주력업종이 유통계열인 롯데그룹에 대한 소상공인단체, 소비자단체의 불매운동은 'CSR 무풍지대'였던 대기업 상품에 대해서도 시장의 반응과 사회적 압력이 실질적으로 이뤄지는 시대에 접어들었다는 점을 시사했다. 롯데호텔 임시직원 해고와 관련된 소송과정이 불거지면서 노동인권에 대한 롯데그룹의 안이한 자세도 여론의 질타를 받았다.   ③ 폭스바겐 '배기가스 조작' … 뿌리는 '후진적' 기업지배구조  독일 자동차산업의 대명사인 '폭스바겐'이 배기가스 조작으로 세계적 물의를 빚었다. 환경기준을 통과하기 위해 프로그램을 조작해서 기준치 대비 최대 40배나 속여서 발표한 사실이 드러나면서 올해 세계 경제계의 뜨거운 뉴스가 됐다. 피해를 입은 국내 소비자도 개선과 보상을 요구했으나, 폭스바겐 한국지사가 소극적인 자세로 일관해 논란을 빚었다. 폭스바겐이 저지른 비윤리적 행위의 뿌리는 기업지배구조에서 기인한다는 시각도 있다. 유서 깊은 글로벌 대기업이라고 보기 힘든 '복잡한 기업지배구조'에서 경영의 난맥상이 유래했다는 것이다. 폭스바겐의 배기가스 조작사건은 ESG(환경 사회 지배구조)로 집약되는 기업의 사회적 책임(CSR)에서 글로벌기업이라고 해도 중소기업보다 못한 행태를 보일 수 있다는 점을 확인시켰다. 폭스바겐의 추락은 대기업이나 중소기업이나 CSR을 다하는 데에는 왕도가 따로 없다는 값비싼 교훈을 남겼다.   ④ 두산그룹 '신입사원 명예퇴직' 논란 … 최악의 '기업 PR' 두산그룹의 주력계열사인 두산인프라코어가 경영난을 이유로 20대 신입사원까지 명예퇴직 대상에 포함시켜 사내는 물론이고 각계의 거센 질타를 받았다. 창업 110년, 재계 서열 12위의 두산그룹은 그동안 '지구의 가치를 높이는 기업', '사람이 미래다' 등을 캐치프레이즈로 내세우며 윤리적 경영과 기업의 사회적 책임(CSR)을 주창해 왔다. 더구나 기업총수인 박용만 회장은 대한상공회의소 회장을 맡고 있어 정부의 청년취업 대책에서 중요한 파트너인데 신입사원 명예퇴직이라는 의아한 의사결정이 이뤄지는데 아무런 책임도 없다고 보기는 힘들다. 이 사건은 국내 재벌기업의 의사결정 과정에 대해서도 의구심을 불러 일으켰다. 또한 두산그룹의 '20대 신입사원 명예퇴직' 논란은 수백억에 달하는 프로야구 지원이나 막대한 기업 이미지광고를 공허하게 만들었다는 점에서 2015년 '최악의 기업PR'이라는 빈축을 면하기 어렵다. 이미지 추락은 순간임을 보여준 사건이었다.   ⑤ 대우조선해양 분식회계·산업은행 모럴해저드 … 주인 없는 거대기업들 '경고음' 기업회계의 투명성은 기업의 사회적 책임(CSR)을 거론할 필요 없이 기본 중에 기본에 속하는 요소임에도 불구하고 밖으로 수많은 사회공헌활동을 전개한 대기업들이 여전히 '의혹의 시선'을 가장 많이 받는 문제이기도 하다. 올해는 이른바 '주인 없는 대기업' 포스코·대우조선해양 등에서 드러난 비자금 등 불법비리와 분식회계 논란이 불거졌고, 해외자원 개발을 위한 '성공불융자'에서도 특정기업에 대한 특혜의혹이 제기됐다. 또한 부실기업을 관리해야 할 정책금융기관인 산업은행이 도리어 '낙하산 논란'에 휘말렸다. 국가정책금융기관의 엄중한 책임성에 비추어 이러한 도덕적 해이는 '사회책임 생태계'에도 악영향을 미치는 커다란 감점 요인이다. 한국사회가 CSR을 세계적 표준에 맞게 개선하려면 대기업과 공공기관, 공기업의 관계에서 드러난 '부패의 사슬'을 끊어야 한다는 점을 다시 한번 환기시켜 주었다.   ⑥ 메르스사태 키운 삼성서울병원 '비밀주의' … 의료기관의 사회적 책임 망각  메르스(중동호흡기증후군) 사태는 근본적으로 국가방역시스템과 보건의료전달체계 등 구조적 원인이 있지만, 삼성서울병원의 비밀주의는 보건복지부의 안이한 상황인식과 맞물려 사태를 눈덩이처럼 키우는 화근이 됐다. 삼성서울병원의 대응과정은 재벌그룹 의료기관이 국가적 긴급사태에 대처하고 사회적으로 소통하는 자세가 어떤 수준인가를 적나라하게 드러냈다는 평가를 받았다. 의료기관은 법적으로 비영리기관이지만 기업의 사회적 책임(CSR)의 범주에서 자유로울 수 없다. 이른바 빅5(삼성서울병원 서울아산병원 서울대병원 연세대병원 가톨릭대병원)를 비롯한 대형병원의 경쟁이 가열될수록 이들이 과거 재벌의 성장과정을 답습할 것이란 사회적 우려가 현실화했다는 평가를 받는다. 메르스사태는 보건의료분야가 갖는 공공성에 비추어 대형병원이 윤리경영과 CSR의 원칙과 표준을 확립하고 실천하는 것이 시급하다는 점을 일깨워 줬다.   ⑦ 사회적 책임 촉진 위한 일부 법안 국회 '표류' 중 사회책임투자(SRI)나 공공조달에서 사회책임 입법 활동이 상당한 성과를 보이고 있는 반면 CSR 촉진에 매우 중요하지만 아직 상임위도 통과하지 못하고 국회에서 표류중인 법안도 있다. '자본시장법 개정안'이 대표적이다. 홍일표 의원과 이언주 의원이 각각 대표발의한 이 법안은 상장기업들이 의무적으로 내는 사업보고서에 환경, 인권, 노동, 공정거래 관행, 소비자 보호, 지역사회 공헌 등 기업의 사회적 책임(CSR)과 관련한 사항을 의무적으로 공시하도록 하는 내용을 골자로 하고 있다. 이 법안은 사회책임투자자가 매우 중요하게 여기는 법안이기도 하다. 그러나 이 두 개의 법안은 여전히 해당 상임위조차 통과하지 못하고 있는 실정이다. 반면 유럽연합(EU)에서는 이와 관련한 법안이 2014년 4월 유럽의회를 통과한 상태다. 또 국가를 당사자로 하는 계약에서 역시 CSR 요소를 고려할 수 있도록 하는 '국가계약법 개정안'도 역시 소관 상임위에서 여전히 계류 중이다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      카이스트 홈페이지      사회 전반으로 미투(#Metoo) 운동이 확산하는 가운데 카이스트(KAIST) 여성 대학원생들이 일부 교수 및 동료에 의해 ‘성희롱·성추행’을 당했다는 주장이 제기 돼 적잖은 파장이 예상된다.  이는 카이스트 대학원 총학생회가 최근 홈페이지에 공개한 ‘2017 연구환경실태조사’의 설문 항목 중 ‘학내 인권침해’에 대한 응답에서 밝혀졌다.  특히, 2016년 조사에 비해 피해여성이 더 증가한 것으로 밝혀져 이공계 국가주역들을 배출하는 주요 기관이 ‘미투 사각지대’에 놓인 상황에서 대책마련이 시급하다는 지적이다.  8일 카이스트 대학원 총학에 따르면, 이번 설문은 구글 문서도구 양식을 이용해 인터넷으로 진행됐으며 지난해 12월21일부터 올해 1월10일까지 응답자 1913명(총 5755명 중 33.24%)을 대상으로 결과가 작성됐다. 전체 응답자 중 여성은 429명이었다.  이들 여성 중 학내에서의 ‘성희롱·성추행’ 경험자는 58명(13.5%)으로 확인됐다. 이는 지난해 파악된 54명보다 4명이 증가한 수치다.  이 뿐 아니라, 다른 여성 대학원생이 ‘성희롱·성추행’을 당하는 것을 목격한 여성이 59명(13.75%)으로 조사돼 드러나지 않은 피해자가 더 있을 것으로 보인다.   2016년의 경우도 2017년과 같은 숫자인 59명의 여성이 다른 여성 대학원생의 ‘성희롱·성추행’ 피해를 목격했다고 답해 여성 대학원생에 대한 학교 내 추행이 줄지 않는 것으로 파악됐다.  특히 해당 여성 대학원생들에게 피해를 입힌 주체의 다수가 일부 교수, 연구실 동료 등인 것으로 나타났으며, 피해여성 중 일부는 중복으로 피해를 입은 것으로 답했다.  2017년의 경우, 피해자들이 답한 가해 주체(중복)를 살펴보면, 16%가 지도교수, 18%가 지도교수 외 다른 교수, 49%가 연구실 동료, 18%가 연구실 외 다른 학생 등이다. 피해자들에 대한 가해 주체 중 교수가 34%에 달했다.  이는 2016년 설문에서 드러난 일부 교수들의 가해율 보다 크게 증가한 것으로, 당시 조사에서는 지도교수를 포함한 다른 교수에 의한 가해율이 18% 정도였다.  이들의 가해로 해당 여성 대학원생들은 우울증을 겪거나, 술·담배 등에 의존해야 했으며, 연구수행에 지장을 받은 것으로 드러났다. 호흡 곤란 등 신체상 일시적 장애를 겪기도 했다.  피해 여성 대학원생들은 ‘성희롱·성추행’ 피해를 극복하기 위해 대부분 가족, 친구, 지인 등에게 토로하거나 묵인하며 대응하지 못한 것으로 파악됐다. 일부의 경우, 당사자와 개인적인 해결을 시도하거나, 교내·외 상담·민원기관에 상담을 신청한 것으로 확인됐다.  대학생 자녀를 둔 한 학부모(대전시 유성구)는 “학생들의 경우, 지도교수가 자신의 학위취득에 결정적인 권한을 쥐고 있어 ‘미투’를 선언하기는 쉽지 않을 것”이라며 “절대적으로 약자인 학생들을 위해서는 대학 자체 뿐 아니라, 상위 관계기관, 정부 등이 나서서 대책을 마련해야 한다”며 분통을 터뜨렸다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      헌정 사상 처음으로 파면된 박근혜 전 대통령이 그동안 받은 명예박사학위의 취소 여부에 관심이 쏠린다. 15일 주요 대학 등에 따르면 박 전 대통령은 한국과학기술원(2008년), 부경대(2008년), 서강대(2010년)에서 각각 명예박사학위를 받았다. 지난해 11월 국정농단 사태가 불거진 이후 재학생을 중심으로 학위 취소 요구가 있었지만 해당 대학은 미온적인 입장이다. 박 전 대통령은 2008년 11월 21일 한나라당 전 대표 자격으로 부산 부경대를 방문해 명예정치학박사 학위를 받았다.학위 수여 당시에는 대학 입장에서 상징적 의미가 컸지만, 탄핵 파문으로 상황이 달라졌다. 지난해 12월 박 전 대통령의 학위 수여를 기념해 대학본부 앞에 기념수와 함께 설치된 기념비석에 붉은색 스프레이 페인트가 칠해진 게 확인돼 철거되는 일이 발생했다.부경대 학칙을 보면 명예박사학위를 받은 사람이 그 명예를 손상한 경우에 관련 위원회 심의를 거쳐 학위 수여를 취소할 수 있다고 돼 있다. 대학 관계자는 "지난해 연말에 박 전 대통령의 명예박사학위를 취소할 수 있는지를 알아보려고 학칙을 확인한 적이 있다"며 "아직 내부적으로 정해진 지침은 없다"고 말했다.박 전 대통령의 모교인 서강대에서는 지난해 11월 학부와 대학원 학생들이 학교 측에 박 전 대통령의 명예정치학박사 학위 취소를 요구했다.서강대 전자공학 1970학번인 박 전 대통령은 2010년 4월 17일 개교 50주년 기념식에서 한나라당 전 대표 자격으로 명예정치학박사 학위를 받았다.서강대 학부·대학원 총학생회와 정치외교학과 운영위원회 등 27개 학생회·모임은 지난해 선언문에서 "법과 제도를 부정하고 민주주의를 위협한 박 대통령에게 '서강'의 이름으로 명예를 논할 수 없고 서강대 정치학 명예박사 학위를 인정할 수 없다"고 주장했다. 부경대와 마찬가지로 서강대 학칙에도 '학위를 받은 후 그 명예를 손상할 경우 총장이 학위를 취소할 수 있다"고 돼 있다.대학 관계자는 "관련 학칙은 있으나 현재까지 박 전 대통령의 명예박사학위 취소를 검토한 바는 없다"고 설명했다.박 전 대통령은 2008년 2월 29일 한국과학기술원(KAIST) 졸업식에서 명예이학박사 학위를 받았다. KAIST 설립 이후 첫 여성 명예박사 학위였다. 지난해 11월 카이스트 학생들은 '박근혜 KAIST 명예박사 철회촉구대회'를 열었다. 학교 관계자는 "명예박사학위 수여에 대한 학칙은 있으나 해당 학위의 박탈에 대한 학칙은 없다"고 설명했다. 박 전 대통령은 국내 3개 대학 외에 국외에서 대만 중국문화대 명예문학박사(1987년), 독일 드레스덴공대 명예법학박사(2014년), 프랑스 파리6대학 명예이학박사(2016년) 학위를 받았다. 부산대 정치외교학과 김진영 교수는 "소정의 학업을 완수하고 받는 박사학위와 대학본부의 자체 판단으로 수여하는 명예박사학위는 본질적으로 다르지만, 재학생이나 동문 입장에서 명예롭지 못한 사람이 같은 대학의 명예학위를 갖고 있다면 싫을 것"이라고 말했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      강정민 원자력안전위원회 위원장이 국정감사 당일인 29일 돌연 사퇴해 야당은 물론 여당 의원들까지 무책임한 대응이라며 목소리를 높였다.   올해 1월 취임한 강 위원장은, 카이스트 초빙교수 시절인 2015년 원자력연구원 사업에 참여했다는 의혹이 지난 12일 국정감사에서 불거지면서 결격사유라는 지적을 받았다. '원자력안전위원회 설치 및 운영에 관한 법률'에 따르면, 최근 3년 이내 핵발전 및 핵에너지 관련 사업에 관여한 적이 있는 자는 위원 결격사유에 해당한다. 이런 경우 설사 위원으로 임명됐더라도 퇴직해야 한다.   강 위원장은 이날 오전 인사혁신처에 사직서를 냈고, 그의 사직서는 바로 수리된 것으로 전해졌다. 강 위원장은 국정감사장에서 "결격사유가 있으면 책임지겠다"며 "결격 여부는 감사원에서 감사를 받겠다"고 말했고, 지난 26일 실제로 감사원에 스스로 감사를 청구했었다.   여야는 한 마디로 황당하다는 반응이다. 원안위를 관할하는 국회 과학기술정보통신방송위원회 한국당 간사인 정용기 의원은 "위원장이 국감을 회피하기 위해 사직서를 내고 이 자리에 안 나왔다"고 비판했다. 과방위 바른미래당 간사인 신용현 의원도 "국감 날 사직서를 제출한 것은 초유의 사태"라며 "(12일 국감장에서의) 위증 말고도 그 무책임함에 대해 책임을 져야 한다"고 했다.   여당인 더불어민주당에서도 비판이 나왔다. 민주당 과방위원인 이철희 의원은 "사퇴하려고 했다면 문제제기 당일(12일) 국감 이후 바로 했어야 했고, 아니면 오늘 국감장에 와서 소회를 밝히고 사퇴 이유를 밝히는 게 도리"라며 "국회를 무시하는 것"이라고 지적했다. 민주당 소속인 노웅래 과방위원장도 "강 위원장이 연구에 참여하지도 않고 연구비를 탔다는 것 (아니냐)"며 "관행을 시정하는 계기로 삼아야 한다"고 언급했다.     ▲강정민 원자력안전위원장이 지난 12일 국회 국정감사에서 선서하고 있다. ⓒ연합뉴스     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ▲.ⓒ김상협 제주연구원장 후보자     제주연구원 임원추천위원회는 제11대 제주연구원장 후보자로 김상협 한국과학기술원(KAIST) 글로벌전략연구소 지속발전센터장(57)을 선정하고 제주도지사에게 추천했다고 24일 밝혔다. 임원추천위원회는 지난 23일 제주연구원 회의실에서 원장 공개모집에 응모한 지원자 2명을 대상으로 심사를 진행한 결과 김상협 한국과학기술원 지속발전센터장을 원장 적격자로 선정 의결했다. 김 후보자는 서울대학교 외교학과를 졸업한뒤 매일경제신문 · SBS 기자를 거쳐 청와대 미래비전비서관(1급) · 녹색성장기획관(차관급), 한국과학기술원 경영공학부 초빙교수를 지냈으며 현재 한국과학기술원 글로벌전략연구소 지속발전센터장으로 재직중이다. 제주도는 추천된 김 후보자를 대상으로 결격사유 조회를 거쳐 제주도의회에 인사청문회를 요청하게 된다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      이세돌 9단이 달라졌다. "대충 뒀는데 이겼다"라던 거만한 천재는 이제 없다. 자신을 꺾은 알파고 개발자에 대해 "존경한다"고 했다. 이창호, 조훈현에 대해서도 "존경하지는 않는다"라고 했던 그였다. 후배 기사(棋士)들의 조언에도 귀를 열었다. 바둑의 발상지인 중국에 가서도 "중국 기보(棋譜, 바둑 둔 기록)를 연구해 본 적 없다"라던 그였다.   불과 일주일만에 있었던 변화다. 흘러넘치는 천재성을 감당 못해 휘청거리던 청년으로만 그를 기억하던 이들에겐, 그게 더 충격적이다. 인간 천재가 기계 앞에서 겸손해졌다. 이세돌은 기계 덕분에 어른이 됐다. 천재와 창의력에 대한 환상이 깨졌다 컴퓨터가 초보적인 추론 능력을 갖게 된 게 십년 전이다. 단순한 계산기, 정보 저장소 역할에서 벗어났다는 뜻이다. 이제는 컴퓨터가 '생각'을 한다. 그러니까 인간 전문가의 역할을 컴퓨터가 대신하는 게 놀라운 일은 아니다. 법관, 엔지니어, 의사, 회계사 등의 역할 가운데 일부를 컴퓨터가 곧 대체하리라는 전망 앞에서도 그러려니 했다.   하지만 컴퓨터가 인간 천재를 넘어선 장면에선 무척 놀랐다. 인간 전문가는 교육과 훈련으로 길러낼 수 있다. 컴퓨터가 그 과정을 따라하는 건 쉽게 상상할 수 있다. 하지만 인간 천재가 어떻게 태어나는지, 우리는 모른다. 그런데 벌써 컴퓨터가 인간 천재를 꺾었다. 그 다음에는 무슨 일이 있을까. 두렵고 궁금하다.   15일 마지막 대국을 마친 뒤, 이세돌이 기자들을 만났다. 그는 "이번 대국으로 인간의 창의력이라든지 바둑 격언에 대해 의문이 들었다"라고 했다.   지난 일주일 동안 이세돌은 인간보다 더 창의적인 바둑을 두는 기계와 싸워야 했다. 창의력이 인간의 전유물이라거나, 바둑 격언에 수천 년 동안 쌓인 지혜가 응축돼 있다는 통념에 대해 당연히 의문이 들었을 게다.  '통념'이라는 모래주머니 없이 뛴다면? 기계가 인간보다 더 창의적인 건, 사실 자연스런 일이다. 창의성이란 기존 통념에서 벗어난 자유로운 발상에서 나온다. 그런데 기계는 통념 자체가 없다. 그저 목표를 향한 가장 빠른 길을 찾아낼 뿐이다. 관습이나 편견으로부터 완전히 자유롭다. 결과만 보면, 인간보다 더 자유로운 발상을 하는 것 같다.   인간이 내놓은 자유로운 발상, 창의성은 낡은 고정 관념과 싸우면서 확보한 전리품이다. 그러므로 인간과 기계를 같은 기준으로 비교하면 안 된다. '통념'이라는 모래주머니를 달고 뛰는 경우와 그렇지 않은 경우, 결과는 뻔하다.  하지만 우리는 어차피 결과만 본다. 창의적 발상에 이르는 과정에서 기존 통념과 얼마나 치열한 투쟁을 했는지에 관심을 갖는 이는 없다. 컴퓨터 살 때, 반도체 공장에서 죽어나간 젊은 여성 노동자를 기억하는 이가 없는 것처럼. 따라서 기계가 창의성으로 인간을 압도한다면, 그걸 막을 길은 당분간 없을 게다.  허사비스 "범용 목적 학습 기계 개발이 최종 목표" 물론 기계가 지닌 창의성을 과대평가할 필요는 없다. 인간 지능은 범용성이 있다. 수학을 잘 하는 사람은 외국어도 빨리 배운다. 바둑 천재는 체스도 쉽게 익힌다. 그러나 인공적으로 구현한 지능은 아직 범용성이 없다. 바둑으로 이세돌을 꺾은 알파고가 체스를 둘 수는 없다. 아기 수준의 추론 능력을 지닌 기계가 어른 천재를 꺾을 수 있었던 건, 사실 인간 엔지니어들의 공이었다. 유치한 추론 능력을 이리저리 조립해서, 고도의 사고력을 구현했다. 그건 아직까지는 인간의 역할이다.   알파고를 개발한 구글 딥마인드의 공동창업자 겸 최고경영자(CEO)인 데미스 허사비스 역시 이런 한계를 잘 안다. 그걸 깨는 게 그의 꿈이다. 그는 지난 11일 카이스트를 방문해서 "범용 목적을 가진 학습 기계를 개발하는 것이 최종 목표"라고 말했다. 그 목표가 달성되면, 인간 지능과 인공지능을 구별 짓던 중요한 경계 하나가 무너진다. 인공지능 연구자들은 인공지능이 인간처럼 범용성을 갖추는 날은 아직 까마득하다고 말한다. 인간 지능의 비밀조차 제대로 밝혀지지 않았기 때문이다. 하지만 기계가 추론 능력을 갖추고, 그걸 활용하는 속도는 전문가들의 예상보다 훨씬 빨랐다. 마찬가지로 "범용 목적을 가진 학습 기계 개발" 역시 예상보다 빠를 수 있다. 물론, 가능성일 뿐이다.  "컴퓨터에게 지시 받는 인간 박사…우리는 기계를 섬겨야 하나" 어찌됐건, 인간의 정신 활동이 빠르게 기계로 대체되리라는 점은 분명하다. 인간 고유의 창의적 영역이라던 작곡 역시 기계로 넘어갔다. 미국 예일대학교 연구진은 '쿨리타'라는 인공지능 소프트웨어를 만들었다. 기계가 스스로 작곡을 한다. 예일대 연구진은 인간이 만든 음악과 인공지능이 작곡한 음악을 사람들에게 각각 들려주는 실험을 했다. 대부분은 구별하지 못했다. 이밖에도 다양한 인공지능 작곡 소프트웨어가 나왔다. 인공지능이 만든 음악을 유튜브에서도 쉽게 찾을 수 있는데, 평범한 청취자는 인간이 만든 곡과 구별할 수 없다.   다들 그래서 불안해한다. 그저 일자리 걱정이 아니다. 우리는 정신을 육체보다 높이 두는 문화에 익숙하다. 지식과 지능의 서열로 사회적 위계를 정한다. 책에 있는 내용을 잘 습득해서 시험을 잘 치는 능력이냐, 아니면 창의적인 발상을 하는 능력이냐 등 강조점의 차이만 있었다. 하지만 둘 다 지식과 지능의 어느 측면에 불과하다. 큰 틀에선 마찬가지다.  그런데 정신, 지식, 지능의 자리에 인간 대신 기계가 들어섰다. 그럼 이제 우리는 기계를 섬겨야 하나, 라는 불안이다.   실제로 많은 누리꾼이 이세돌의 맞은편에서 바둑돌을 놓은 아자 황 박사를 동정했다. 아자 황 박사의 역할은 알파고의 지시대로 바둑 판 위에 돌을 놓는 거였다. 그 역시 공학박사이고, 아마추어 바둑 5단이다. 하지만 그는 알파고의 지시 내용을 이해도 하지 못한 채 무조건 따라야 했다. 누리꾼들은 아자 황 박사가 인류의 미래 모습이라며 걱정스러워 했다.  언제까지 두뇌의 서열로 사회적 위계 정해야 하나 그게 꼭 걱정할 일일까. 이런 불안은 정신, 지식, 지능의 가치를 너무 높게 치는 문화와 맞물려 있다. 언제까지 그래야 하나. 육체와 감성은 언제까지 정신과 두뇌의 노예로만 지내야 하나.   이세돌이 첫 번째 대국에서 알파고에게 진 뒤, 박재동 화백이 쓴 글이 화제가 됐다. 그 역시 바둑 팬이다. 그는 처음에는 이세돌을 응원했지만, 마음을 돌려먹었다고 했다. 이젠 알파고를 응원한다는 게다. 인공지능의 발전이 인간의 일자리를 줄일 수 있다는 걸 그 역시 잘 안다. 돈과 권력을 지닌 이들이 인공지능을 더 잘 이용하리라는 점 역시 알고 있다. 그럼에도 그는 알파고를 응원했다. 박 화백의 글 가운데 일부를 옮긴다.   "그런데 왜 나는 알파고가 이기기를, 그것도 간절히 바라는 것인가!  그것은 이제 지금 같은 국영수의 시대를 끝내기 때문이다. 머리 좋고 똑똑한 사람이 지배하는 시대가 끝나기 때문이다. 마치 옛날에 힘이 좋은 자가 무리를 지배하던 시대가 활 잘쏘는 자에게 밀려 지나가고, 그 다음은 무사의 시대가 시험을 통과한 관료의 시대로 교체되어 간 역사로 보는 것처럼 이제 똑똑하고 머리 좋은 사람의 시대가 지나가고 있는 것이다.  지금 학교에서 하는 많은 시험용 공부는 알파고가 맡게 될 것이다. 그뿐 아니라 수없이 많은 직업이 알파고가 대신하게 될 것이다. 좋은 일만 있지는 않을 것이다. 많은 실업이 기다리고 있을 것이다.  그러나 이제 알파고가 할 수 없는 일은 무엇인가를 생각하게 될 것이다. 더욱더 인간적인 일이 무엇인가를 생각하게 될 것이다. 그것 자체로 중요한 것이다.  (…) 그러나 세계의 대세가 똑똑한 지배자의 쾌감보다는 사람의 의미, 사람의 기쁨, 진정한 즐거움. 그런 것들이 화두가 되는 새 시대에 대한 희망 때문이다." 인간보다 똑똑한 기계 나와도, 기계에게 복종할 마음 품지 않을 세상 기자도 비슷한 생각이다. 생각하는 기계가 우리를 지배할까 두렵나. 그렇다면, 범용 인공지능이 나오기 전에 우리 사회 질서를 바꾸면 된다. 정신, 지식, 지능으로 사람을 평가하고 줄 세우는 관행을 깨면 된다. 그 뒤엔 인간보다 똑똑한 기계가 나온다한들, 아무도 기계에게 복종할 마음을 품지 않을 게다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      제주국제자유도시개발센터(이사장 문대림, JDC)는 지난 14일 제주혁신성장센터 코워킹 스페이스인 J-CUBE에서 네트워킹 데이를 개최했다. 이번 ‘네트워킹 데이’는 코로나19 사태로 인해 올해 처음으로 개최되는 네트워킹 행사로 제주혁신성장센터 내 4개 특화 사업 분야(ICT 융합창업허브 친환경 스마트자동차연구센터 낭그늘 J-Cube)간의 소통과 교류 활성화를 위해 마련됐다.    ▲JDC는 지난 14일 제주혁신성장센터 코워킹 스페이스인 J-CUBE에서 네트워킹 데이를 개최했다.ⓒ제주국제자유도시개발센터   JDC와 사업 위탁운영사(▲KAIST 친환경스마트자동차연구센터 ▲(주)한예종 기술지주, ▲(주)MYSC, ▲(재)홍합밸리) 소속 참석자들은 오찬에 참석해 각종 지원 사업 안내와 함께 향후 운영방안 및 입주기업들의 협업을 이끌어낼 수 있는 프로그램에 대한 아이디어를 자유롭게 제안하는 시간을 가졌다. 더불어 JDC는 최근 주관기관으로 선정된 중소벤처기업부의 ‘메이커스페이스 구축 운영’ 사업 계획을 공유하고 운영사들과 교육 및 입주기업 지원 방안에 대해 논의했다. ‘네트워킹 데이’는 이번 행사를 시작으로 매월 1회씩 사전 신청을 받아 개최될 예정이다. 다양한 사업을 영위하고 있는 입주기업들 간 소통을 통해 협업과 교류의 활성화가 기대된다. 성낙창 JDC 산업육성팀장은 “네트워킹 데이를 계기로 제주혁신성장센터 내에서 성장하고 기업들이 서로 교류가 활발하게 이뤄지길 기대한다”며 “나아가 ‘혁신성장 멤버십’이 구축돼 혁신성장센터 출신 입주기업들이 성장해 후배 창업기업들을 이끌어주는 선순환 구조를 구축 하겠다”고 말했다.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲왼쪽부터 정현정 교수 최경아 연구교수 김태수 박사과정 석현정 교수 ⓒKAIST        숙면을 방해하는 푸른 빛이 직장인과 학생들의 고민인 아침 '잠을 깨우고 생체리듬을 유지하는데 효과적인 것으로 밝혀졌다.  KAIST 산업디자인학과 석현정 교수와 최경아 연구교수는 높은 색의 온도를 갖는 청백색(blue-enriched white)의 푸른 빛이 아침잠을 깨우는 데 효과적이라는 것을 입증했다.  이번 연구는 산업디자인학과 소속 교수와 연구원이 참여해 순수과학 분야 저널에 논문을 게재한 디자인학과 자연과학의 융합 연구 표본으로 평가된다.  기존 대부분의 연구에서는 푸른 빛을 저녁이나 늦은 오후에 접하면 멜라토닌 분비가 억제돼 숙면을 방해한다는 사실을 규명하는 것에만 주력했다. 그러나 석 교수 연구팀은 푸른 빛이 저녁에는 숙면에 방해될 수 있지만 오전에 쬐는 청백색의 빛은 인체를 잠에서 깨워 생체리듬을 조절하는 데 긍정적인 영향을 미친다는 사실을 밝혀냈다.  연구팀은 KAIST 학생 15명을 대상으로 호르몬과 타액 변화 등의 생리적 지표와 설문조사를 통한 주관적 지표를 동시에 관찰한 결과 빛의 색 변화에 따라 감성 등을 나타낸 주관적 지표와 멜라토닌 분비에 변화가 일어남을 확인했다.  종전 학습 환경의 조명이 학생들의 학습 활동에 미치는 영향을 밝힌 최경아 연구교수는 이번 연구를 통해 조명의 빛깔이 사람에게 미치는 영향을 하루 주기와 접목해 더욱 심화된 결과를 얻었다.  석현정 교수는 “처음에는 단순히 조명을 다양하게 바꿔가며 구성원들을 편하게 쉬게 해주려는 의도에서 시작해, 호텔이나 레스토랑, 모닥불 등의 조명에서는 편안해지고 흰색 조명에서는 긴장감이 발생하는 이유를 명쾌하게 밝히고자 했다”며 “과학적 근거와 고도화를 통해 신뢰성이 있는 데이터를 수집했고 많은 사람이 혜택을 볼 수 있는 결과를 얻었다”고 말했다.  또 “학문마다 중요시하는 관점이 달라 디자인학자로서 자연과학의 기준을 통과하기가 쉽지 않지만, 꼼꼼히 설계하고 유의미한 데이터를 축적하는 데 노력을 기울여 좋은 결과가 나온 것 같다”며 “인간 중심의 조명이 우리 일상생활에 성공적으로 적용될 기회는 무궁무진하다”고 말했다.  최경아 연구교수는 “이와 같은 조명 시스템의 진화가 실내 건축물뿐 아니라 자동차 내부와 지하주차장 세탁기, 냉장고 등 각종 전자기기에도 적용될 수 있다”면서 “스마트 조명 시스템을 달력, 출장 앱과 연동한다면 자동 학습을 통해 인간의 생체리듬과 권장 수면시간 및 기상 시간에 맞춰 조명의 색과 세기를 조절할 수도 있을 것”으로 전망했다.  또 “빛을 단순히 공간을 밝히는 용도를 넘어 사용자의 경험을 한층 더 풍요롭게 하는 중요한 도구로 인식하는 데서 시작된 연구”라며 “학문 간 경계를 허물고 우리 연구를 읽어주는 독자의 스펙트럼이 확대된다는 데 의의가 있다”고 말했다.  이번 연구는 국제 학술지 ‘사이언티픽 리포트(Scientific Reports)’ 1월23일 자에 ‘Awakening effects of blue-enriched morning light exposure on university students’ physiological and subjective responses‘라는 제목으로 게재됐다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      과학기술 윤리에 관한 대중적 관심을 가장 높인 사건은 황우석 사건일 것이다. 이 사건에서 인간복제, 난자 기증 매매 등과 연관된 생명 윤리와 연구 윤리는 물론 취재 윤리까지 다루어졌다. 과학기술 윤리는 일상생활 윤리와는 다르게, 과학기술의 급속한 발전에 따라 답하기 어려운 문제를 갑자기 제기하곤 한다. 유전자 조작 기술과 관련된 생명의학 윤리, 인간을 대체하고 있는 인공지능 윤리, 인터넷 공간에서 일어나는 일들에 관한 사이버 윤리는 지난 세기에는 상상 속 문제였지만 지금은 당면한 문제이다. 새로운 과학기술 분야들이 매우 다양하게 나타남에 따라 과학기술 윤리 문제는 지속적으로 발생할 것이다. 이 글에서는 다양한 과학기술 윤리 문제들을 간략히 살펴보고, 최근 한국에서 일어난 일들을 통해 과학기술 윤리를 어떻게 만들어 나갈지 생각해보고자 한다. (필자)과학기술 발전과 함께 나타나는 윤리 문제들미토콘드리아 유전자의 결함으로 인한 질병을 치료하는 방법으로 난자의 미토콘드리아를 다른 사람의 미토콘드리아로 바꾸는 기술이 개발되고 있으며, 이 방법을 적용하여 정자, 난자, 미토콘드리아의 유전자를 각기 다른 사람으로부터 받은 아기가 이미 태어났다. 이 기술의 허용할지, (미국은 허용하고 있지 않다) 허용한다면 미토콘드리아를 제공한 사람을 부모로 인정할지, 부모로 인정한다면 부모로서 권리와 의무를 어떻게 규정할지는 사회적 합의에 이르기 쉽지 않은 문제이다. 근년에 들어 크리스퍼(CRISPR)라고 부르는 획기적인 유전자 편집 기술이 – 비용, 속도, 용이함 면에서 기존 기술에 비해 엄청나게 뛰어난 기술이 눈부시게 발전하고 있다. 유전자 관련 기술을 인간에 적용하는 데 아무런 제약이 없다시피 한 중국을 중심으로 이 기술을 이용한 인간 유전자 연구가 활발하게 진행되고 있다. 이 기술을 적용하면 유전자가 변형되어 GMO가 만들어지지만 세련된 편집으로 인해 편집 여부를 알기도 쉽지 않다. 보도에 의하면, 2018년 1월까지 중국에서 86명이 크리스퍼를 이용하여 유전자 편집을 하였다고 한다. 지금과 같이 규제가 없다면 머지않아 중국에서는 오늘날 성형수술이 일상화되어 있는 것처럼 유전자 편집이 보편화될 것이다. 지금은 중국인들이 한국에 의료관광을 오고 있지만 한국인들이 유전자 편집을 위해 중국으로 의료관광을 갈 날이 오지 않으리라 장담하기 어렵다. 한국에서는 생명윤리법을 통해 국내에서 행하는 인간 유전자 관련 연구와 치료를 엄격하게 규제하고 있지만 국외에서 유전자 편집이 일상화된다면 생명윤리법을 어떻게 개정해야 할지 가늠하기 어렵다. 현대 인공지능 분야의 창시자 중 한 사람으로 평가받는 바이젠바움(Joseph Weizembaum, 1923-2008)은 이미 1976년 고객 서비스 상담원, 임상의, 노인 돌보미, 군인, 판사, 경찰관 같이 존중과 돌봄이 요구되는 일에 종사하는 사람을 대신하는 데 인공지능이 사용되어서는 안 된다고 주장하였다. 이 중 몇몇 직종에는 인공지능이 도입되고 있으며, 아마도 모든 직종을 인공지능으로 대체하려 할 것이다. 지금은 인공지능의 신기함에 들떠있지만 조만간 인간의 존엄성과 관련된 문제들을 실감하게 될 것이다. 페북 데이터가 미국 대선에서 악용된 것은 댓글을 통한 여론 조작과는 또 다른 차원의 빅데이터가 가지고 있는 윤리 문제를 보여준다. 수 년 전만 하더라도 개와 고양이를 구별하는 방법에 대해 고민하던 인공지능 연구자들은 알파고끼리의 대국을 통해 고도화된 인공지능이 인간을 넘어설 수 있다는 것을 보여주고 알파고를 바둑계에서 은퇴시키기에 이르렀다. 이런 빅데이터를 활용한 인공지능이 야기할 문제들을 예측하고 그에 관한 윤리 규정을 미리 만드는 것은 불가능하다고 해도 과언이 아니다. 이외에도 과학기술 윤리와 관련된 문제들은 많다.최근 한국의 과학기술 윤리와 관련된 몇 가지 소식을 언론에서 접할 수 있었는데, 그 중 두 사건을 중심으로 과학기술 윤리를 살펴보고자 한다.KAIST 인공지능 연구지난 4월 뉴욕 타임즈 등 유수의 언론은 30개국 50명이 넘는 인공지능 연구자들이 KAIST와의 인공지능 관련 협력을 거부하는 서한에 서명하였다고 보도하였다. 그 직후 가디언은 서명을 주도한 호주의 인공지능 연구자 월쉬(Toby Walsh) 교수의 기고문을 실었는데, 그 내용을 요약하면 다음과 같다.자율자동차는 보행자를 확인, 추적하고 피할 수 있는 알고리즘을 사용하고 있는데, 이는 전투원을 확인 추적 겨냥하는 알고리즘으로 쉽게 변형될 수 있다. 이는 자율무기가 조만간 실현될 수 있음을 의미한다. 다시 말하면 인간의 생사를 결정하는 일에서 인간을 완전히 배제하는 인공지능을 탑재한 무기가 나타날 수 있다. 이는 도덕적으로 받아들일 수 없는 일이지만 자율무기의 조짐은 이미 볼 수 있다. 드론을 이용한 무기는 이라크 아프가니스탄 등에서 널리 사용되고 있는데, 현재는 그것을 조종하는 군인이 사람의 생사를 결정하지만, 즉 반(半)자율무기이지만 군인을 인공지능으로 대체하면 자율무기가 된다. 이는 화약, 핵무기에 이은 무기 진화의 3차 혁명이다. 우리는 자율무기에 장착된 인공지능이 국제인도법(國際人道法)를 준수하도록 할 방법을 알지 못한다. 자율무기는 화학무기처럼 아주 적은 비용으로 대량살상 무기가 될 가능성이 열려있는 무기이다. 게다가 자율무기는 컴퓨터 바이러스처럼 누가 만들었는지도 알기 어렵다. 이런 특성으로 인해 자율무기는 현재의 불안한 국제질서를 더욱 불안하게 만들 것이다. KAIST가 한화시스템(Hanwha Systems)과 협력하여 자율무기, 예컨대 무인잠수함 개발 경쟁에 뛰어들 것이라고 코리아 타임즈가 보도하였다. 한화는 유엔 협약에 반하는 집속탄을 만들고 있기 때문에 10년 전 노르웨이의 미래 펀드는 한화를 윤리적 블랙리스트에 넣었다. (이런 상황에서 인공지능 전문가들이 KAIST와의 협력을 거부하는 요구에 서명하였다.) KAIST 총장은 이 거부 움직임에 빠르게 반응하여, KAIST는 자율무기를 개발하지 않을 것이며 더 나아가 유의미한 인간의 제어가 항상 유지되도록 하겠다고 확인하였다. 이는 하룻밤 사이에 이룬 성과이다.이와 관련된 보도에 따르면, 한국은 비무장지대에서 보초로봇을 사용하고 있다. 현재 이 로봇은 카메라로 연결되어 군인이 조작하고 있지만 자율모드로 전환할 수 있는 기관총을 장착하고 있다. 이렇게 한국도 자율무기 제작 능력을 가지고 있으며, 관련 기술들의 발전 속도와 세계 각국 국방 관계자들의 관심으로 보아 자율무기에 대한 실질적인 통제는 사실상 불가능해 보인다. 무기 사용에 의미 있는 인간 통제가 있어야 한다는, 스스로 판단하고 작동하는 인공지능이 탑재된 터미네이터 같은 살생 무기가 허용되어서는 안 된다는 인공지능 연구자들의 윤리는 21세기에 보편적으로 지켜지기에는 너무 오래된 것이라는 느낌까지 갖게 된다.미성년 자녀 논문 공저자 지난 4월 교육부 보도 자료에 따르면, 교육부는 미성년 자녀의 논문 공저자 등록 실태를 조사하였는데, 2007년 이후 10년 동안 미성년 자녀가 공저자로 등록된 논문이 138건이었다. 미성년자가 논문 저자가 되는 것은 허용되지만 연구에 기여하지 않은 사람이 저자가 되는 것은 연구부정행위(부당저자)에 해당한다. 교육부는 이들 논문에 대해 부당저자 여부를 검증토록 하고, 부당저자 사안에 대해서는 징계, 사업비 환수와 더불어 대입 활용여부를 조사하여 입학취소 등 필요한 조치를 할 것이라고 한다. 2007년 당시 과학기술부는 황우석 사건을 계기로 ‘연구윤리 확보를 위한 지침’을 만들었다. 이 지침은 연구 진실성을 담보하고 연구부정행위를 방지하는 데 목적을 두고 있으며, 위조, 변조, 부당저자 표시 등을 연구부정행위로 규정하고 있다. 2015년 교육부는 이 지침을 보다 구체화하는 방향으로 개정하였는데, 미성년 저자와 관련되어 또다시 개정할 모양이다. 교육부 보도 자료의 검증 대상 논문들에 대한 자세한 정보가 공개되지 않아 단언할 수는 없지만 요즘 시행되고 있는 여러 가지 R&amp;E;(Research &amp; Education) 프로그램들의 성과가 – 주로 영재고, 과학고 학생들이 참여하는 이공계 연구-교육 프로그램들의 성과가 논문으로 발표되고 있는 상황에 비추어보면 검증 대상 논문의 상당수가 과학기술 논문일 것으로 추측된다.(보도에 따르면 일부 검증대상 논문의 주저자는 과학기술 분야 교수들이다.)검증대상 논문 중 일부라도 부당저자 경우에 해당하고 미성년 자녀의 대학입시에 활용되었다면 그 파문은 상당할 것이다. 대학입시는 한국 사회에서 가장 민감한 사회 문제 중 하나이며, 사교육으로 인한 대학입시에서의 불공정, 학벌로 인한 사회적 양극화 등에 비춰볼 때 미성년 자녀 부당저자는 채용비리보다 더 심각한 문제로 부각될 것이다. 사실 자식에 대한 부모의 마음은 동서양이 다르지 않다. 미국에서 부모들의 학력 수준이 가장 높은 지역 중 하나인 실리콘벨리에서도 고학력 부모들이 자녀의 학습활동에 관여하는 일은 흔하다. 한국과 마찬가지로 미국의 대학입시에서도 다양한 학생활동 기록을 반영하지만 논문은 공정하지 않게 처리될 수 있기 때문에 별로 고려하지 않는다고 한다. 한국의 대학입시에서 논문을 성과로 반영하는 것은 이미 기울어진 운동장을 기정사실화하는 것이다. 사교육 과열을 방지하기 위해 각종 경시대회 성적을 생활기록부는 물론 자기소개서에도 쓰지 못하게 하는 상황에서 다양한 활동의 범주를 넘어 선행학습의 ‘최고 단계’라도 해도 과언이 아닌 논문을 대입 평가에 포함시키는 것은 과해 보인다. 대학에서는 R&amp;E; 경험을 입시에 반영하기보다 그런 경험을 가진 학생들을 위한 프로그램을 입학 후에 실시하는 것이 바람직하다.과학기술 윤리 – 어떻게 만들 것인가? 그 기원을 기억하기 어려울 정도로 오랜 시간에 걸쳐 정립되는 생활 윤리와 달리 과학기술 윤리 문제는 과학기술의 심한 경쟁과 발전 속도에 대응하기 위해 그 대책이 긴급하게 요구되는 경향을 보인다. 또한 윤리위원회 같은 기구를 통하든 묵시적이든 대책이 세워진 후에는 과학기술의 전문성으로 인해 그것이 잘 지켜지는지 검증하기 쉽지 않다. 일반적으로 과학기술은 그 내용 면에서 다른 분야보다 엄밀하기 때문에 과학기술자들은 과학기술 윤리 문제를 내부적으로 잘 정리하고 준수하여 다른 분야 사람들에게 모범의 예가 될 것으로 예상할 수도 있다. 그러나 앞에서 언급한 여러 예에서 볼 수 있듯이 과학기술 윤리 문제는 엄밀하게 재단하기 쉽지 않다. 오히려 과학기술자들은 인문 사회과학 분야 종사자들보다 분야 외적 사회활동이 적기 때문에, 또 자신이 관련되어 있는 과학기술의 사회적 의미에 큰 관심을 두지 않기 때문에 복잡 미묘한 윤리 문제를 다루는 데 더 서투르다. 과학기술자들이 정규과정에서 심도 있는 윤리 교육을 받는 일은 드물며, 보통은 과학기술 활동, 즉 과학기술자들 사이의 교류를 통해 윤리를 체득한다. 다시 말하면 과학기술자의 윤리 개념은 체계적인 교육보다 개인적인 경험에 좌우된다고 해도 과언이 아니다. 부적절한 연구비 관리 등 비윤리적인 행태는 그 연구자의 교육 연구 과정에서 경험을 통해 형성된 윤리 의식에 따른 결과라고 보는 것이 타당하다. 근래에 들어 과학기술자들을 대상으로 연구부정 연구비관리 규정 등에 관한 교육을 하기도 하지만 사회적으로 미묘한 문제를 다룰 수 있는 능력을 갖추기 위한 체계적인 노력은 크게 미흡하다. 간단히 말하면 한국 과학기술계가 최근 나타나고 있는 복잡한 과학기술 윤리 문제에 대한 답을 제시할 수 있는 능력을 갖추고 있다고 말하기 힘들다. 그러나 이는 한국 과학기술계만의 문제는 아니며, 과학기술 선진국들도 사정이 크게 다르지 않다. 과학기술 못지않게 사회적 변화 역시 예전에 비해 매우 빠르게 일어나고 있기 때문에 과학기술계 내부에서 사회적 변화에 부응하는 과학기술 윤리를 정립하기는 어렵다. 과학기술 윤리 공론화위원회과학기술 윤리 문제에 대한 답을 사회적 합의를 통해 제시하는 방식을 생각해볼 수 있다. 2017년 원자력 발전소 문제에 대한 합의를 이끌어낸 신고리 5·6호기 공론화위원회는 참고할만한 방식이다. 과학기술 내용은 투표와 같은 합의에 의해 결정할 수 없지만 - 과학지식 자체가 과학자사회의 합의에 의한 결정이며, 그 과정이 매우 합리적이라고 인식하기도 하지만, 과학기술의 사회적 이용에 관한 내용은 신고리 공론화위원회처럼 사회적 합의로 정해야 한다. 과학기술 관련 문제에 대한 사회적 합의는 선진국에서도 어려운 문제이지만 그 예는 비교적 쉽게 찾아볼 수 있다. 사회적 합의에 장애가 되는 것은 과학기술 지식에 대한 일반인들의 접근이 쉽지 않으며, 따라서 일반인들이 합의 과정에 참여하는 데 많은 시간과 노력이 필요하다는 점이다. 사실 새로운 과학기술은 해당 분야에 종사하지 않는 과학기술자에게도 낯설다. 직접적인 이해관계가 없는 과학기술 윤리 문제를 해결하는 데 자발적으로 참여할 일반인은 거의 없기 때문에 과학기술과 관련된 시민운동이 비교적 활발한 서구에서도 전문성을 극복하고 과학기술의 민주주의를 이루는 일은 쉽지 않다. 과학기술 윤리 공론화위원회 같은 사회적 합의 방식이 제대로 작동하기 위해서는 민주사회는 아이디어 원칙 도덕에 대한 경쟁에서 독점이 생기지 않도록 계속 경계해야 한다는 기본적인 원칙을 항상 염두에 두어야 한다. 이를 위해서는 과학기술자가 아닌 사람들이 과학기술의 사용에 미치는 영향력을 높일 수 있는 방안을 생각하고 실천해야 한다. 과학기술 분야는 내부적으로 비교적 자율적이며, 외부압력으로부터 보호받아야 한다는 통념을 넘어설 수 있는 사회적 분위기가 만들어져야 한다. 과학기술자계는 일반인들이 이해할 수 있는 언어로 된 과학기술지식을 준비하여 그에 대한 인식론적 실천을 할 수 있는 일반대중 활동가를 기르는 데 노력해야 할 것이다. 과학기술 윤리 문제는 과학기술이 사회에 기여하고 있음을 보일 수 있는 또 다른 기회이기도 하다. 과학기술정책은 전통적으로 ‘민주적’으로 결정되지 않는 경향이 있는데 - 정치 경제적 요인이 강하게 작용하여 과학기술자나 일반시민보다 관료, 기업, 군의 요구에 따라 결정되는데, 과학기술 윤리와 관련된 사회적 합의 방식과 관련된 제도와 인적 자원은 보다 민주적인 과학기술 정책을 수립하는 데 도움을 줄 것이다. 어떤 분야든 아마추어의 수준이 높아지면 프로의 수준은 덩달아 높아지듯이 이런 제도적 인적 인프라는 과학기술의 발전에 크게 기여할 것이다.윤리와 법 윤리 문제가 그저 윤리 차원에 머무른다면, 또 그를 어겨 이득을 취할 수 있다면 윤리는 제대로 지켜지기 어렵다. 윤리가 실천되기 위해서는 법적 뒷받침이 필요하다. ‘갑질’이 반복되는 것에서 알 수 있듯이 윤리 문제를 그저 ‘국민정서’에만 맡겨놓는다면 일시적인 여론의 질타를 받는 것 외에 별다른 진척이 없을 것이다. 일반적으로 윤리적 판단과 법적 판단에는 차이가 있다. 미성년 자녀 공저자가 부당저자로 판단되고 – 이를 판단하는 일은 꽤나 미묘한 문제이지만 – 그 결과 자녀의 대학입학 취소 같은 제재를 받는다면, 이는 분명 법적 다툼으로 옮겨갈 것이다. 이 경우 국민폄하 발언으로 파면되었던 교육부 기획관에 대한 처벌이 과하였다는 법원의 판단에서 볼 수 있듯이 정서에 따른 제재가 법원의 판단과 다를 수 있다. 한편으로 지난 4월 일어난 삼성증권 전산 사고에서 볼 수 있듯이 한국 사회의 윤리 수준이 예전보다 못하다는 생각도 든다. 자본의 입장에 반하거나 기득권의 후퇴를 요구하는 제도화에는 강한 저항이 있기 때문에 실효성 있는 법적 제도화는 꽤나 어려울 것이다. 과학기술 윤리에 대한 수긍할만한 제도화를 위해서는 그를 강력하게 뒷받침할 수 있는 많은 과학기술 외부인들이 참여할 수 있는 여건과 그를 위한 과학기술계의 노력이 절실하다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      고흥군에서 어린이들에게 우주과학에 대한 꿈과 도전을 키워 줄 특별한 과학행사가 열린다.   고흥군은 오는 25일 '10월에 만나는 특별한 과학행사'로 ▲과학 놀이터와 ▲과학자 특강을 준비했다고 19일 밝혔다.     ⓒ고흥군    이날 고흥문화회관에서 오전 10시 30분부터 풍선 로켓 발사, 주사기 공포탄을 만들며 과학 원리를 체험할 수 있는 과학놀이터가 열리고, 2시부터 우주과학관에서는 과학자 특강이 열려 카이스트 인공위성연구소 박홍영 박사, 서정기 박사가 인공위성과 천문과학 분야에 대한 이야기를 들려주고 과학관 체험도 함께 한다.  고흥군 관계자는 "애초 시험발사체 발사 성공을 기원하는 기념행사를 준비했으나, 발사가 연기되어 발사 성공기원 이벤트는 취소되었으나, 과학 행사만큼은 지역 내 과학문화를 확산하고 어린이, 청소년들에게 의미 있는 시간을 마련해주고자 특별히 추진하게 되었다."며 참여를 부탁했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      부산에서 처음으로 초·중·고교 학생들을 위한 대규모 진로진학박람회가 열린다.5일 부산시교육청에 따르면 오는 9~10일 부산 벡스코에서 '2016 부산진로진학박람회'가 개최된다. 이번 진로진학박람회는 미래의 직업정보를 탐색·체험할 수 있는 '진로관'과, 2017 수시모집에 대비한 실질적인 대입 정보 안내와 맞춤형 진학 상담을 하는 '진학관'으로 나뉘어 진행된다.진로관은 부산지역 지방자치단체, 공공기관, 공기업, 구(군)진로교육지원센터, 진로체험협력기관 등 48개 기관이 참여해 진로교육지원센터관, 미래직업정보관, 직업체험관, 진로교육관 등 총 4개의 주제관에서 다양한 진로체험 프로그램으로 운영된다.특히 진로체험기관의 체험·전시 관련 프로그램은 중학교 자유학기제의 진로체험활동을 이해하고 준비하는 데 도움을 주고자 마련했다. 또 진료교육관에서는 고교생뿐만 아니라 초·중학생도 참여해 진로교육동아리 우수학교 10곳의 진로 교육자료와 우수 실천사례를 안내받을 수 있도록 했다.진학관에서는 서울대, 고려대, 연세대, KAIST, 부산대 등 전국 55개 대학이 참여한 가운데 대학정보관, 대면상담관, 학과체험관, 입시설명회관, 모의면접관, 학생부종합관, 자기소개서관, 진로진학특강관 등 총 8개 주제관에서 다양한 진학정보를 제공한다. 또한 진학상담 교사들을 대상으로 학생부종합전형 관련 프로그램도 운영된다. 서울대·연세대·성균관대·부산대 입학사정관들이 교사를 상대로 학생부종합전형 비중 증가에 따른 입시 대응전략을 안내할 예정이다.이 외에도 진학 관련 개별상담이 이뤄지는 대학정보관, 대면상담관, 모의 면접관 등의 프로그램에 참가하는 학생들은 학교생활기록부, 학력평가성적표, 자기소개서 작성본 등을 가져오면 실질적이고 도움되는 조언을 얻을 수 있다.김혁규 부산시교육청 중등교육과장은 "진로진학박람회에 대한 학생, 학부모, 시민들의 기대감이 커지고 있다"며 "이번 박람회를 통해 우리 학생들의 진로 탐색, 설계 능력 향상과 진학에 있어 효과적인 대입대비 여건을 조성하는 계기가 되길 바란다"고 말했다.한편 개막 행사는 오는 9일 오전 9시 50분 현악 6중주단 교문학생오케스트라의 공연으로 시작하며, 이 자리에는 김석준 부산시교육감, 서병수 부산시장, 백종헌 부산시의회 의장 등 주요 인사들이 참석할 예정이다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲논문이 실린 국제학술지 표지 ⓒKAIST       KAIST 생명화학공학과 이진우 교수 연구팀이 서로 다른 크기의 기공을 갖는 구조의 무기소재 합성을 통한 황 담지체를 개발해 리튬-황 이차전지의 성능을 높였다.  연구팀은 다차원 상분리 현상을 동시에 유도해 각기 다른 두 종류 크기의 기공을 갖는 티타늄질화물을 합성했다.  이를 황 담지체로 활용해 우수한 수명 안정성과 속도를 갖는 리튬-황 이차전지를 개발했다.  리튬-황 이차전지는 이론적으로 기존 리튬 이온 이차전지보다 약 7배 이상 높은 에너지 밀도 특성을 보인다.        ▲다공성 티타늄질화물 전자현미경 사진 ⓒKAIST    또 황의 저렴한 가격은 전지 생산 단가를 급격히 낮춰줄 수 있을 것으로 기대된다.  그러나 리튬-황 이차전지 양극에서는 황의 낮은 전기 전도도와 황이 충·방전 과정에서 전극으로부터 새어나가는 현상이 있다.  연구팀은 문제 해결을 위해 50나노미터 이상 크기의 매크로 기공과 50나노미터 이하의 메조 기공을 동시에 지닌 계층형 다공성 구조의 티타늄질화물 기반의 황 담지체를 개발했다.  티타늄질화물은 황과의 화학적 작용력이 매우 강하고 전기 전도도가 높아 충·방전 과정에서 황이 전극으로부터 빠져나가는 것을 막아주고 황의 전기화학적 산화, 환원 반응을 빠르게 해준다.  연구팀은 매크로 기공과 메조 기공의 구조적 시너지 효과로 인해 많은 양의 황을 안정적으로 담으면서도 높은 수명 안정성 및 속도 특성을 보임을 확인했다.        ▲ 이진우 교수(왼쪽)가 연구원과 실험을 진행하고 있다 ⓒKAIST    이 교수는 “리튬-황 이차전지는 여전히 해결해야 할 문제점이 많아 이를 해결하기 위한 연구는 지속적으로 이뤄져야 한다”며 “이번 연구를 통해 안정적인 수명을 지닌 양극 소재 개발의 독보적인 기술을 확보했다”고 말했다.  이번 연구는 재료 분야 국제 학술지 ‘어드밴스드 머티리얼즈(Advanced Materials)’ 1월15일자 표지논문에 게재됐다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      강원 태백시는 오는 26일 오후 2시 태백산소드림도서관 다목적실에서 청소년 대상 ‘과학자들의 작은 도시 강연회’를 개최한다고 밝혔다.   이번 강연회는 10월의 하늘 준비위원회와 한국도서관협회가 공동 주최하는 ‘10월의 하늘 프로젝트’ 공모사업 선정에 따라 추진된다.   10년 전 카이스트 정재승 교수의 제안으로 시작된 ‘10월의 하늘’은 전국 중소도시 도서관에서 해당 지역 청소년들을 대상으로 개최되는 도서관 과학 강연 행사이며 기획에서 준비, 당일 강연 및 행사 진행에 이르는 전 과정이 재능기부로 진행된다.     ▲태백산소드림도서관. ⓒ태백시     초등학교 5학년 이상 학생들과 중·고등학생 등 40명을 대상으로 진행되는 이번 강연회에는 과학자인 카이스트 김진은 씨가 강연자로 나서 뇌의 신비와 젊은 과학도들의 이야기를 들려줄 예정이다.   산소드림도서관 관계자는 “이번 강연회가 과학이 어렵고 재미없는 것이라 생각하는 청소년들에게 과학의 즐거움을 발견하는 계기가 되기를 바란다”고 말했다.   한편, 올해로 10주년을 맞는 ‘10월의 하늘’ 행사는 오는 26일 오후 2시 전국 100개 도서관에서 일제히 개최된다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      강원랜드(대표 문태곤)는 지난 24일 강원랜드 컨벤션호텔에서 참가 학생 36명과 인솔교사 등이 참여한 가운데 ‘2018 하이원 선상학교’ 오리엔테이션을 개최했다.  이날 오리엔테이션에서는 하이원 선상학교 프로그램에 대한 전반적인 소개를 시작으로 선내 생활 및 안전수칙에 대한 안내, 조 편성 등이 진행됐다.  또한 단체빙고, 스피드퀴즈, 골든벨과 같은 레크레이션 활동을 통해 참가자들이 친분을 쌓을 수 있는 시간도 마련됐다.    ▲지난 24일 열린 2018 하이원 산상학교 오리엔테이션. ⓒ강원랜드     오리엔테이션에 참가한 36명의 학생들은 공모를 통해 선발됐으며, 내달 11일부터 18일까지 7박8일 일정의 하이원 선상학교에 참여하게 된다.  참가 학생들은 카이스트 정재승 교수, 사진작가 조세현, 방송인 노홍철, 소설가 은희경 등 각계 명사들의 강연에도 참여하고 부산항, 러시아 블라디보스토크, 일본 후쿠오카, 일본 가나자와 등에서 역사‧문화 탐방 프로그램을 수행하게 된다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲27일 제57회 세종시의회 임시회 본회의에서 상병헌 세종시의원이 세종시 자족기능 필수요건인 대학 캠퍼스 유치를 촉구하고 있다. ⓒ세종시의회       상병헌 세종시의원은 27일 제57회 세종시의회 임시회 본회의에서 “세종시의 자족기능 확보를 위해 대학 캠퍼스 유치를 촉구한다”고 밝혔다.  상 의원은 5분 발언을 통해 “세종시는 2012~2018년 국내·외 17개 대학과 23건의 입주협약을 체결했다”며 “이중 현재까지 입주를 확정지은 대학은 카이스트 융합의과학원, 충남대 의대, 아일랜드의 트리니티대, 이탈리아의 산타체칠리아 음악원 등 4곳에 불과하다”고 지적했다.  이어 “최근 입주를 확정지은 산타체칠리아 음악원과 트리니티 대학도 설립시기가 지연되고 있고 나머지 13개 대학들도 입주여부가 불투명하다”고 말했다.  그러면서 “지지부진한 대학유치 상황을 타결하기 위해 세종시와 행복청, 교육부, 국무조정실 등으로 구성된 ‘대학유치추진단’을 조직해 협조체계를 구축해야 한다”고 제안했다.  상 의원은 특히 종합대학 단독 캠퍼스 유치를 강조했다.  그는 “현재 세종시 집현리 4-2생활권 중 종합대학을 유치할 수 있는 부지는 100만㎡”라며 “이곳에 의료복합형대학캠퍼스를 유치해야한다”고 주장했다.  이를 위한 선결과제로 학부와 대학원의 순수정원을 확보해야 하고 LH의 토지공급 단가를 적정하게 낮춰야한다고 말했다. 입주대학 교직원에 대한 정주여선 인센티브도 제시했다.  국립보건의료대, 한국예술종합학교 등 특성화된 대학들을 유치할 것도 제안했다.  상 의원은 “한예종 서울 석관동 캠퍼스 이전 계획이 있어 이미 고양시, 인천, 서울 송파구 등 지자체들이 2016년부터 유치경쟁에 나서고 있다”며 “세종시도 검토할 필요가 있다”고 밝혔다.  더불어 “한전공대설립사례에서 보듯 세종시에 대학설립여부 핵심은 교육부의 정원인가에 달려 있다. 학부와 대학원에 적어도 2000명 선의 정원이 인가돼야 유수의 대학들이 관심을 보일 것”이라며 “국회 세종의사당 건립, 대통령 세종 집무실 설치 등 현안과 함께 대학유치가 실현될 수 있도록 노력해 달라”고 요청했다.    ▲27일 세종시의회에서 열린 ‘제57회 임시회 본회의’에서 상병헌 세종시의원이 5분 발언을 통해 “세종시의 자족기능 확보를 위해 대학 캠퍼스 유치를 촉구한다”고 밝히고 있다. ⓒ프레시안(김수미)     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      제21대 국회의원 선거에 출마한 前 청와대 춘추관장 최상화 예비후보(자유한국당) 는 22일 보도자료를 통해 대표 공약을 발표했다.  최 예비후보는 출마 전부터 사천읍에 있는 지역발전연구소를 운영하면서 지역민심을 훑어가며 지역 경제 활성화 위해 고심해왔다고 밝혔다.  또한 국회와 정부, 남동발전에 있으면서 지자체 관계자들과 현안사업에 대한 고민에 대한 결과로 케이블카 유치, 체육시설 유치, 버스터미널 이전사업, 남일대 해수욕장 정비사업, 재래시장 개선사업, 수해지역 숙원사업, 의료시설 등이 성과라고 말했다.  최 예비후보는 사천·남해·하동은 인근도시의 장점과 인프라를 잘 활용하고 산과 강, 섬과 바다가 어우러진 천혜의 자연환경을 가지고 있고 고속도로, 항만, 공항을 갖춘 육해공 사통팔달의 교통요지라고 강조했다. 그는 이를 토대로한 지역 경제 발전 방안을 마련했다.        먼저 사천·남해·하동 통합 공약으로는 산업 부분 ▲하동·남해·사천 지역 언론이 출자 참여하고 투자은행이 출자하는 공중파 방송국 설립 ▲신호 없는 거리 조성(지하도로 및 회전로타리 등) ▲도심내 고압선 철탑 지중화 사업 각 시군구 관내 하천, 저수지 등 복개화 및 친환경 조성 사업 ▲사천·남해 진양호(남강댐)하류 피해 상습지역 보상 및 대책 특별법 제정 ▲경남, 전남 해상경계 중간 수역 획정 추진을 내걸었다.  관광 부분은 사천강, 섬진강 관광휴양단지 건설 투자 유치 ▲금오산 ~ 비토산 ~ 각산 구간 해상 케이블카 18킬로미터 투자유치 ▲사천, 남해, 하동을 순환하는 친환경 관광 시티버스 운영 ▲하동·남해·사천에 해양 휴양 관광도시지역에 크루즈 선박 부두 및 요트 마리나 건설 투자 유치 ▲사천강, 섬진강 관광휴양단지 건설 투자 유치 ▲목공예 종합 전수관 등을 공약했다.농업, 축업, 어업 부분에서는 ▲전통시장 개선사업 일환으로 쉼터,주차장 및 편의시설 확충 및 청년창업 연계를 통한 전통 시장 활성화 방안 마련 ▲태양에너지 복합 스마트 팜 빌딩형 농장, 어장, 축사 기술 자본 유치 ▲첨단기술과 자본을 가진 기업과 지역 농·어·축산민과 전략적 제휴 추진, 첨단기술기업 자본과 기술 투자 하고 농,어,축산민이 생산한 상품을 수매해 단일 브랜드로 판매 ▲농촌 고령자를 위한 농지위탁 경영제도 도입을 약속했다.  복지 부분은 ▲사천시, 하동군, 남해군 각 시군에 2000실 내외 규모, 메디컬 국제병원호텔 설립 ▲메디컬 국제호텔병원에 지역 주민 의료비 30%할인 지원 협약 ▲메디컬 국제호텔병원에 지역 최저 계층 주민 무료치료지원 협약 ▲시, 군유지를 활용한 영구임대주택 3000 세대 공급 ▲농어촌 낙후지역 주민을 위한 찾아가는 의료 서비스 셔틀 버스 도입 ▲시, 군 소유 산지를 활용한 시, 군민 무료 수목장 조성 ▲1~2인 가구 임대주택, 신혼부부 행복주택, 노인복지타운 등 대상별 편의증진을 위한 주거 공급 확대 및 사회인프라 확충 ▲퇴직자, 귀촌인 등 전원주택 마을 조성 ▲대규모 종합 도서관 건립(우주항공도서관, 보물섬도서관, 섬진강도서관) ▲해양 치유 복합단지 조성사업을 내세웠다.  사천시 공약으로 먼저 산업 부분은 ▲자기부상 열차 클러스트 산업도시 건설(투자비 약 8조 3천억/고용창출 일 1만명/년 365만명 계획도시인구 약 30만 ▲항공우주 부품·소재산업 연구센터 유치 ▲삼천포항(제주도 항로 개통, 크루즈 항구)인근 접경지역 활성화 방안 마련 ▲중국국제노선 및 국내노선 확충을 통한 사천공항 활성화 방안 마련 ▲늑도-신도-두응도-마도-저도 연결교 건설 ▲사천 케이블카 연계 사업 리조트, 유스호스텔 유치 ▲사천 서부권 테크노파크유치 ▲구룡저수지 등 관내저수지 둘레길 및 공원 사업 추진 ▲사천강(사주리~정동)주변 환경 및 관개 개선 사업 추진 ▲항공MRO산단 등 주변지역 가구세대 이주 지원 ▲제2사천대교(항공산업대교) 추진 ▲곤양~곤명간 국지도58호선 도로개량 사업 추진 ▲삼천포 터미널 이전 및 현대화 추진이다.  관광산업 부분은 ▲사천만(남일대-실안-광포만-남양-용현-선진-사남-정동-사천읍-서포권-곤양-곤명)을 잇는 사천12선비길(역사·문화 체험 해안둘레길, 자전거 종주길) 조성 ▲남일대 일원 세계조각대회 유치를 통한 세계조각공원 조성 ▲사천종합역사박물관 설립 ▲해양 생물 체험관 조성 ▲항일독립운동 기념비 추가 설립 ▲무지갯빛 생태탐방로 추진(실안~대방~늑도)을 공약했다.  복지,교육 부분은 ▲KAIST에 위탁 운영하는 영재 유치원, 초등학교, 고등학교 유치 ▲KAIST에 위탁 운영 하는 풍력, 자기부상열차, 항공우주, 기계공학 특성화 대학교 유치▶ 항공 특성화 고등학교를 설립해 교육인프라를 구축 ▲사천읍 관내 지역응급센터 구축하겠다. 하동 공약으로 산업 부분은 ▲갈사만 풍력크러스트 산업도시 건설 투자유치 (투자비 약 12조 5천억/고용창출 일 1.5만명/년 500만명 계획도시인구 약 25만명) ▲갈사만 대송산업단지, 두우레저단지 산업 역할 강화 마련 ▲갈사산단 원유, LNG 허브터미널 조기화 추진 ▲국도2호선 하동구간 4차선화 추진 ▲경전선 진주-광양 구간 전철화 사업 조기화 추진▲ 섬진강 환경친화적 복개화 사업 추진 ▲산업활성화를 위한 국도, 지방도 신설 및 확장공사 추진(하동IC -&gt; 산청, 단성 IC 연결 산업도로 개설, 하동 악양 동-서 연결 생활도로 개설) ▲하동 내 주요구간 택시 승강장 설치를 약속했다.  농어업 부분은 ▲하동 다인박물관 건립 추진 ▲수출형 농업상품에 대한 지원 및 대책 마련하고 관광산업 부분은 ▲청학동 관광지 정비사업 추진 ▲최치원 기념관 유치사업 추진 ▲알프스하동 프로젝트 일환 친환경 산악궤도 열차 조기화 추진 ▲이병주 문학제 및 토지 문학제 규모 확대로 세계문학제로서의 면모 확립 ▲섬진강 재첩축제, 섬진강 뱃길 복원 및 수상레저 기반 조성을 위한 안정적 지원 방안 확립 ▲하동읍 너뱅이들 경전선 직선구간 제방 관광 명소화 ▲전통문화 체험형 최참판댁 조성사업 지원 ▲남해바다, 섬진강, 지리산구간 철인 3종 경기 국제대회 유치와 교육복지 부분은 ▲하동 국제학교 유치하겠다고 했다.  남해 공약으로는 먼저 산업 부분은 ▲남해읍 도시재생 뉴딜사업 활성화 방안 마련 ▲해경 관할구역 지역별 추진 ▲IGCC 신재생에너지산단 조기 착공 추진 ▲서상지구 전원주택지 개발 ▲남해 전통시장內 수산관광 시장 리모델링 ▲상주, 미조, 독일마을 관광특구 지정 ▲화방사 주변, 고려대장경 및 이순신 순국 관련사업 개발 ▲국도 3호선 조기착공 추진 ▲국도 19호선 이동~미조 추진 ▲남해∼여수 한려해저터널 조기 착공 추진과 농어업 및 복지 부분은 ▲지역 폐교를 활용한 지역 주민 평생 교육 시스템 구축 ▲수출형 농업상품에 대한 지원 및 대책 마련을 내걸었다.  관광 부분은 ▲해양 휴양형 레포트 단지 및 신(新)해양 레저 기반 마련 ▲5개 지구 어촌 뉴딜300 활성화 방안 마련 ▲남해 금산~상주 케이블카 설치사업 추진 ▲남해군 외식문화 단지 조성 ▲남해 고사리 산업기반 시설 확충 ▲고려대장경 판각지 복원 및 성역화 산업 추진 ▲금산 보리암 불교문화축전 활성화 방안 마련 ▲금산 선원전 정자각 건립 추진 ▲‘김만중 프로젝트’ 추진 ▲남해군 문화예술회관 건립 ▲미조 다이어트 보물섬 조성 ▲상주 농촌테마공원 조성하겠다고 밝혔다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      울산과학기술원(UNIST 이하 '울산과기원')에 교수가 없다는 투의 제목을 보고 독자들은 대체 무슨 소리인가 싶을 것이다. 그러나 울산과기원의 정관에 따르면 이 대학에는 오로지 임원과 직원만 있으니, 정관 제5장 '직원'의 첫 조항인 제29조(직원의 정의)는 "이 정관에서 사용하는 직원이라 함은 울산과학기술원법에서 언급하는 임원을 제외한 울산과기원 소속 모든 교직원을 말한다." 즉 교원은 별도의 규정 없이 직원에 포함된다. 제30조(직원의 임면) 1항은 "교원 및 연구원 등 직원은 울산과기원 인사규정에 따라 총장이 임명한다"로 되어 있으니 더욱 심각하다. 법과 정관에 교원인사위원회 설치가 빠져 있으니 교원 인사의 공정성과 객관성, 교육과 연구의 자유와 자율성을 보장받지 못할 가능성이 농후하다. 이런 내용은 똑같이 과학기술정보통신부(이하 '과기부') 산하 대학인 한국과기원(KAIST), 광주과기원(GIST), 대구경북과기원(DGIST)의 정관과도 적지 않은 차이가 난다. 이들 기관 중에서 울산과기원이 막내 격이니 갈수록 개악된 꼴이다. 과거 한국과기원 등에서 심심찮게 문제가 되었지만, 이런 제도로는 이사회를 등에 업은 총장의 전횡을 막기 어렵다. 다행히 작년 12월에 울산과학기술원법이 개정(올 6월 25일 시행 예정)되어 교원인사위원회, 평의원회 등이 새로이 포함되었고, 이에 맞춰 변경될 정관은 과거보다 훨씬 나아질 전망이지만 아직 갈 길이 멀다. 허술한 법과 정관에 따르는 문제는 한두 가지가 아니다. 그러나 가장 개선이 시급한 중대 사안은 조직을 이끌 총장을 뽑는 제도에 교수의 목소리가 전혀 반영될 수 없다는 점이다. 바람직한 총장 선출 방식을 둘러싸고 다양한 입장이 있을 수 있지만, 시대의 대세는 교원뿐만 아니라 직원과 학생의 목소리까지도 수용하는 개방적이고 투명한 선출 제도이다. 4대 과기원 법에 모두 새로이 들어간 평의원회 구성 규정이 바로 그러하지 않던가. 울산과기원법 16조2의 2항에 따르면, 평의원회는 교원, 직원, 학생 등 각각의 구성단위를 대표하는 11명 이상의 평의원으로 구성하되 "어느 하나의 구성단위에 속하는 평의원의 수가 전체 평의원 정수의 2분의 1을 초과해서는 아니 된다"고 규정하고 있다. 하지만 울산과기원을 포함한 4대 과기원의 총장 선출 규정은 여전히 지나치게 폐쇄적이어서 시대의 흐름과 동떨어져 있다.그런데 더 따지고 들면 울산과기원을 포함한 4대 과기원은 과연 대학인지 아닌지 모호한 법적 지위를 가지고 있다. 이 문제를 따지려면 내가 재직하는 서울대학교의 법적 지위를 둘러싼 논란을 살펴보는 것이 지름길이다. 2010년 12월 이명박 정권이 '국립대학법인 서울대학교 설립‧운영에 관한 법률'을 국회에서 날치기 통과시켜 서울대가 국립대학에서 국립대학법인으로 바뀐 이후 여러 가지 법적 문제가 발생했지만, 그중에서도 내가 가장 이해하기 어려웠던 일은 기획재정부(이하 '기재부')가 서울대를 공공기관으로 지정하려는 움직임이었다. 법인화 이후 바뀐 허술한 총장 간선제로 뽑힌 성낙인 전 총장은 취임 1년을 맞아 전체 구성원에게 보낸 이메일(｢존경하는 서울대 가족 여러분께 올립니다｣ 2015년 7월 27일)에서 서울대가 "다른 국립대학들과는 달리 외로운 처지"라면서 "심지어 서울대학교는 엄연한 교육기관임에도 불구하고 국가 공공기관으로 지정하려는 움직임마저 있는데, 이것은 학문의 자유를 심각하게 저해할 수 있는 부당한 시도"라고 푸념했다.과연 '공공기관'은 무엇이며, 서울대를 공공기관으로 지정할 수 있는 법률적 근거는 무엇인지? 왜 공공기관이 되면 학문의 자유가 저해되는지? 나로서는 쉽게 풀리지 않는 의문들이었지만, 교육부 아닌 과기부 산하 대학들의 법적 지위를 살펴보면 실마리를 찾을 수 있다. 나는 한국과기원, 광주과기원, 대구경북과기원, 울산과기원이 소관 부처만 과기부냐 교육부냐의 차이가 있지 모두 서울대와 동일한 법적 위상을 가진 고등교육기관이라고 막연히 생각해왔다. 그러나 이는 사실이 아니었다. 이들 4대 과기원의 운영과 정부 지원을 규율하는 가장 상위의 법은 '과학기술기본법'이겠지만, 직접적으로는 '특정연구기관 육성법'이 이들 과기원에 대한 정부 지원과 감독의 근거 법률이다. 이 법 시행령 제3조(연구기관의 지정)는 4대 과기원을 포함하여 한국원자력안전기술원, 한국원자력의학원, 한국연구재단, 한국과학기술기획평가원, 한국과학창의재단, 기초과학연구원 등 총 15개 기관을 명시하고 있다. 이중에는 누가 봐도 고등교육기관, 즉 대학이 아닌 조직들이 많으니 여기서부터 4대 과기원이 특정연구기관인지, 아니면 연구와 교육을 겸하는 고등교육기관인지가 헛갈리기 시작한다. 동시에 4대 과기원은 '공공기관의 운영에 관한 법률'에 따라 공공기관으로 지정되어 있다. 이 법에 따라 과기원들은 시장형 공기업, 준시장형 공기업, 기금관리형 준정부기관, 위탁집행형 준정부기관, 기타 공공기관의 다섯 범주 중에서 마지막의 '기타 공공기관'으로 분류된다. 기재부 보도자료에 따르면 2018년 1월 기준으로 총 338개 기관이 공공기관으로 지정되어 있고, 인문사회과학 분야에서 기타 공공기관에 속하는 유사 기관으로 동북아역사재단, 한국고전번역원, 한국학중앙연구원 등이 있다. 김병섭 교수(서울대 행정학)는 ｢국립대학법인 서울대학교의 조직적 성격｣(서울대 평의원회 온라인 뉴스레터 제5호. 2017년 8월 15일)에서 서울대를 공공기관으로 지정하려는 기재부의 입장이 교육기관과 행정기관의 차이를 무시하는 오류로서 헌법 제31조 4항("교육의 자주성‧전문성‧정치적 중립성 및 대학의 자율성은 법률이 정하는 바에 의하여 보장된다")의 정신과 어긋나는 동시에 고등교육법 제11조의2(평가 등)에서 자체평가 규정을 둔 취지와도 충돌한다고 본다. 실제 '공공기관의 운영에 관한 법률'은 제1조에서 공공기관의 "자율경영 및 책임경영체제의 확립에 관하여 필요한 사항을 정하여 경영을 합리화하고 운영의 투명성을 제고함으로써 공공기관의 대국민 서비스 증진에 기여함을 목적"으로 하고 있으니 대학이라는 고등교육기관과는 어울리지 않는다. 김 교수는 동법 제4조 2항에서 '방송법'에 따른 한국방송공사와 '한국교육방송공사법'에 따른 한국교육방송공사를 (언론의 자율성과 특수성을 감안하여) 공공기관 지정의 예외로 명시한 것과 동일한 차원에서 서울대를 기타 공공기관에서 제외해야 한다고 결론짓는다. 그렇다면 4대 과기원 역시 연구와 교육을 주 임무로 하는 고등교육기관이므로 서울대와 하등 다를 바가 없으니 똑같이 공공기관 지정에서 자유로워야 한다고 보는 것이 옳다. 일반적으로 시민들이 대학으로 인식하고 있음에도 불구하고 과기원이 공공기관으로 지정되어 운영되는 역사적 연원은 무엇일까? 과기원의 복잡한 발전과정에 대한 역사적 분석은 내 능력을 멀리 벗어나지만, 적어도 우리 정부가 4대 과기원을 차례로 설치하여 운영하는 과정에서 압축성장 시대 특유의 관 주도적 법과 제도, 즉 경제성장에 유용한 과학기술을 발전시키고 해당 분야의 인력을 신속하게 양성하는 일사불란한 정책과 제도에 집중해왔다는 점만큼은 틀림없다. 그러나 추격형 발전모델의 시대에 상명하복의 빠른 결정과 일사불란한 실행이 효율적이었다면, 탈추격형의 발전모델을 창안해야 할 오늘에는 더 이상 그러한 제도가 유효할 수 없다. 빅데이터와 인공지능의 시대, 생명과학과 나노기술의 시대에는 한층 수평적이고 자율적인 소통의 문화와 제도가 있어야만 창의적인 과학적 발견과 기술 개발이 가능하다는 것은 상식이다. 더구나 본격적인 융복합학문의 시대에는 자연과학과 공학이 인문사회과학과 하나가 되어 탐구해야 할 주제와 쟁점들이 많으며, 분초를 다투는 과학기술의 눈부신 발전은 그만큼 인류에게 기회뿐만 아니라 심각한 위험을 가져다주기 때문에 시민의 관점에서 과학기술 분야 연구의 내용과 성격을 투명하게 감시할 필요성도 더욱 커지고 있다. 문과와 이과를 분리한 고등학교 교육과정 극복을 위한 노력이 본격화되는 시대에 과학기술에 특화된 과기원을 일반 대학과 분리하여 그 법적 지위를 이처럼 모호하게 두는 것이 과연 시대의 변화에 맞는 것일까.  내일의 과학 인재를 길러내는 4대 과기원을 기타 공공기관으로 지정하여 정부의 직접적 통제 아래 두려는 구태의연한 발상은 새 시대의 도전에 무력할 수밖에 없다. 이미 서울대를 공공기관으로 지정하려는 시도에서 그런 문제는 심각하게 드러났다. 그처럼 낡아빠진 제도와 관행을 고집한다면, 지금까지 우리가 겪은 과학기술 분야의 심각한 부정과 폐해가 더욱 심해질 것이다. 한국 대학은 2005년의 황우석 교수 사건 이래 연구윤리를 강화해왔지만, 한반도대운하/4대강 사업, 가습기 살균제, 라돈 침대 등 그 피해 범위를 제대로 조사하기도 어려울 정도의 심각한 피해를 시민들이 직접 당하는 일마저 겪어야 했다. 이런 불행한 일들은 과학기술 분야의 고등교육기관에 채워진 낡은 족쇄, 즉 시대에 뒤진 제도와 관료적인 통제, 경직된 조직문화와 무관할 수 없다. 비단 교육부와 과기부 산하의 대학뿐만 아니라 고용노동부 등 다른 중앙부처 산하의 대학들까지 포함하여 고등교육, 고등직업교육에 대한 큰 그림을 정비하는 사회적 공론화가 절실하다. 이에 앞서 교원의 법적 지위와 자율성 보장을 훼손하는 울산과기원 정관은 당장 전면적으로 고쳐야 한다. 뿐만 아니라 다른 과기원을 규율하는 법률과 정관 역시 전면적으로 검토하여 더 나은 대학 거버넌스를 만들어야 한다. 앞서도 지적했지만, 당장 가장 중대한 문제이자 당사자들에게는 초미의 관심사로서 울산과기원을 포함한 4대 과기원의 총장 선출 제도를 개선해야 한다. 교육부 산하 대학들의 총장 선출 제도 역시 큰 문제를 안고 있지만, 진정한 과학기술의 성취는 민주적이고 투명한 연구조직에서만 나올 수 있다. 최근의 언론 보도에 따르면, 올해 들어 한국과기원 등 69개 연구기관이 기타 공공기관 내의 '연구목적기관'으로 지정되면서 약간의 개선이 이루어지고 있을 만큼 정부와 국회도 문제를 어느 정도 인식하고 있다. 4대 과기원의 운영체제를 일신하는 일은 우리 사회에서 진행되는 촛불혁명의 또다른 큰 진전이 될 것이다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      바른미래당, 민주평화당, 정의당 등 야 3당이 '연동형 비례대표제' 도입을 위한 무기한 농성에 들어간 상황에서 더불어민주당, 자유한국당이 예산안 처리를 잠정 합의해 비판의 목소리가 높아지고 있다. 두 거대 양당이 군소 야당을 '패싱'한 셈이다. 심지어 국회 제 3의 교섭단체(바른미래당)마저 예산안 합의 과정에서 소외시킨 것은 헌정 사상 그 유례를 찾기 드문 일이다. 선거구제 개편이 협상 테이블에 올랐음에도 이를 건너 뛴 것 역시, 선거 제도 개혁을 바라지 않는 거대 양당의 속내가 드러난 것이라는 비판이 제기되고 있다. 개혁 성향의 학자 189명은 6일 '비례성이 보장되는 선거제도 도입을 촉구하는 교수․연구자 일동'으로 긴급 성명을 내고 선거제도 개혁을 외면한 더불어민주당과 자유한국당의 '야합'을 거세게 비판했다. 이들 학자들은 "항간에는 야3당이 선거제도 개혁과 예산안 처리를 연계시키자 민주당은 현 선거제도의 고수에 뜻을 같이하는 자유한국당과의 거래를 통하여 예산안 통과를 획책하고 있다는 흉흉한 소문까지 나돌고 있다. 이른바 '반개혁연대' 혹은 '적폐연대'를 도모하고 있다는 것"이라며 "민주당은 여론이 이토록 민감하게 반응하고 있다는 사실에 유의하여 개혁 전선에 더욱 신중하게 임해야 할 것"이라고 경고했다. 189명의 학자들은 "우리는 연동형 비례대표제를 도입해야 한다는 야3당의 주장에 전적으로 동의한다"며 "거제도의 개혁은 그 어떤 국정과제보다도 시급하고 중요한 것이라고 아니할 수 없다. 오죽하면 예산안 처리와 연계할 생각까지 했겠는가"라고 했다. 이들은 "다시 한 번 돌아보자. 우리 국민의 대다수를 차지하는 비정규직 노동자, 소상공인, 청년 등의 사회경제적 약자들은 하루하루를 살아내기가 어려워 불안과 공포 속에 허덕이고 있는데, 막상 국회 안엔 그들을 대표하는 정당과 정치인이 별로 없다. 시민이 주인이라고 하는 민주 국가의 대다수 주인이 정치적 대리인 없이 방치돼 있다는 것인데, 이게 어떻게 대의제 민주주의란 말인가"라고 선거구제 개혁을 외면한 두 거대 양당을 비판했다. 이들은 이어 "연동형 비례대표제와 같이 약자를 포함한 주요 사회경제 집단의 정치적 대표성을 두루 보장해줄 수 있는 '좋은 선거제도'의 도입이 필요하다"라고 주장하며 "그래야 목전까지 다가온 사회 해체의 위기를 극복할 수 있다. 포용국가, 복지국가의 건설은 그런 다음에야 가능한 일이다"라고 주장했다. 이들은 "이제 시간이 별로 없다. 무엇보다 민주당의 결단이 필요하다"라며 "비례성 높은 선거제도의 도입은 2012년과 2017년 대선, 그리고 2016년 총선 때의 민주당 공약이지 않았던가. 2015년엔 당시 문재인 당 대표의 주도로 '권역별 (소선거구-비례대표) 연동제' 도입이 공식 당론으로 채택되기도 했다. 민주당은 야당시절의 그 충정을 회복해야 한다"고 지적했다. 이들은 첫째 "제 정당은 정기국회 종료 전 정당 득표율과 의석 배분율 간의 비례성이 보장되는 선거제도 도입에 합의할 것", 둘째 "민주당도 야3당이 기 결성한 '선거제도 개혁 연대'에 동참, 개혁의 맏형 역할을 수행하고 자유한국당의 협조를 견인할 것", 셋째 "민주당은 선거제도 개혁 연대를 계기로 협치가 제대로 작동케 하라", 넷째, 대통령은 5당 대표와의 담판회동을 개최하라"는 요구 사항을 내놓았다. 해당 성명은 12월 5일 정오부터 6일 오후 5시까지 서명을 받았고, 서명에 동참한 189명 학자들 명단은 다음과 같다. 서명자 명단 (189명 : 2018년 12월 6일 오후 5시 현재)강남훈(한신대), 강내희(지식순환협동조합 대안대학), 강봉수(제주대), 강사윤(제주대), 강수돌(고려대), 강신성(한남대), 강원택(서울대), 고부응(중앙대), 고세훈(고려대), 고영철(제주대), 고철환(서울대), 구춘권(영남대), 권순미(고용노동연수원), 김교빈(호서대), 김귀옥(한성대), 김규완(고려대), 김규종(경북대), 김남석(경남대), 김누리(중앙대), 김대영(제주대), 김동춘(성공회대), 김레베카(성공회대), 김맹하(제주대), 김명환(서울대), 김민정(서울시립대), 김병기(대한독립운동총사 편찬위원회), 김상균(성균관대), 김상현(한양대), 김서중(성공회대), 김선일(경희대), 김성재(조선대), 김세균(서울대), 김신동(한림대), 김양희(대구대), 김연태(고려대), 김영균(청주대), 김영순(서울과기대), 김용복(경남대), 김용일(한국해양대), 김용진(서강대), 김유선(한국노동사회연구소), 김유찬(홍익대), 김윤상(경북대), 김윤철(경희대), 김윤태(고려대), 김은주(한국여성정치연구소), 김일규(강원대), 김정희(제주대), 김재석(경북대), 김종해(가톨릭대), 김준(동국대), 김진균(성균관대), 김진석(서울여대), 김진해(경희대), 김태일(영남대), 김헌태(한림국제대학원대), 김형철(성공회대), 김호균(명지대), 남기업(토지+자유연구소), 남중섭(대구대), 류동영(목포대), 문진영(서강대), 박경태(성공회대), 박기수(성균관대), 박명림(연세대), 박진희(동국대), 박배균(서울대), 박동천(전북대), 박순성(동국대), 박승호(성공회대), 박주원(영남대), 박지현(인제대), 박진도(충남대), 박창근(가톨릭관동대), 박태순(바른미래연구원), 박형준(글로벌정치경제연구소), 박혜숙(제주한라대), 배병인(국민대), 배재국(한국해양대), 백승흠(청주대), 백영경(방통대), 백종만(전북대), 서복경(서강대), 서영표(제주대), 선대인(선대인경제연구소), 선재원(평택대), 선학태(전남대), 손열(연세대), 손준식(중앙대), 손호철(서강대), 송원근(경남과기대), 송주명(한신대), 송태수(고용노동연구원), 신광영(중앙대), 신동면(경희대), 신승환(가톨릭대), 신용인(제주대), 신호창(서강대), 심광현(한예종), 심규호(제주국제대), 안용흔(대구가톨릭대), 양길현(제주대), 양재원(가톨릭대), 양해림(충남대), 염민호(전남대), 오세곤(순천향대), 오현철(전북대), 우석훈(성공회대), 우희종(서울대), 원효식(대구대), 위대현(이화여대), 유병제(대구대), 유성진(이화여대), 유세종(한신대), 유종성(가천대), 윤병선(건국대), 윤용만(인천대), 윤원일(수원여대), 윤찬영(전주대), 윤홍식(인하대), 은민수(고려대), 이계수(건국대), 이금숙(성신여대), 이덕일(한가람역사문화연구소), 이대근(북한대학원대), 이도흠(한양대), 이병천(강원대), 이병한(원광대), 이삼열(숭실대), 이성헌(서울대), 이병훈(중앙대), 이봉수(세명대), 이상이(제주대), 이영제(한국정치연구회), 이원영(수원대), 이재민(제주한라대), 이종오(명지대), 이주하(동국대), 이창곤(한겨레경제사회연구원), 이태수(꽃동네대), 임강택(통일연구원), 임순광(한국비정규교수노동조합), 임운택(계명대), 임재홍(방통대), 임종대(한신대), 임춘성(목포대), 장동표(부산대), 장용창(숙의민주주의환경연구소), 장평우(청주대), 전강수(대구가톨릭대), 전재호(서강대), 전형수(대구대), 정기석(마을연구소), 정민(제주한라대), 정병기(영남대), 정슬기(중앙대), 정승필(경상대), 정원호(한국노동사회연구소), 정인환(협성대), 정재원(국민대), 조돈문(가톨릭대), 조문영(연세대), 조성대(한신대), 조승래(청주대), 조애리(카이스트대), 조영배(제주대), 조영재(명지대), 조현철(서강대), 진영종(성공회대), 천세철(건국대), 천정환(성균관대), 최갑수(서울대), 최무영(서울대), 최배근(건국대), 최상명(우석대), 최승제(경상대), 최영찬(서울대), 최유진(경남대), 최태욱(한림국제대학원대), 최현(제주대), 하선규(홍익대), 한성일(건국대), 허상수(지속가능한사회연구소), 홍경준(성균관대), 홍남선(목포대), 홍성학(충북보건과학대), 홍윤기(동국대), 홍진곤(건국대), 한상희(건국대)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      나주시(시장 강인규)는 급변하는 대학 입시제도와 관련해 신속한 정보 제공 및 올바른 학습 습관 형성을 위해 관내 초·중·고 학생, 학부모를 대상으로 맞춤형 진학·진로 지도에 나선다.   먼저 대학 입학을 목전에 둔 고교생을 대상으로 ‘찾아가는 입시설명회’와 ‘진로컨설팅’을 운영한다.      ▲나주시(시장 강인규)는 급변하는 대학 입시제도와 관련해 신속한 정보 제공 및 올바른 학습 습관 형성을 위해 관내 초·중·고 학생, 학부모를 대상으로 맞춤형 진학·진로 지도에 나선다.    시는 맹준희 카이스트 융합교육센터소장과 성기민 월드클래스 진료교육연구소장을 초청해 지난 22일 금성고에서 ‘변화하는 대학의 이해’와 ‘지역 맞춤형 합리적 진학방향’ 주제로 학생과 학부모 100여명이 참석한 가운데 입시설명회를 가진데 이어 오는 28일 봉황고에서 관련 설명회를 개최할 예정이다.   ‘진로컨설팅’은 각교 학교장 추천을 받은 학생 165명을 대상으로 진행된다. 4월부터 12월까지 수시전형에 비중을 두고 학생수준별 ‘1:1맞춤형반’, ‘학교별 방문반’, ‘심화반’을 각각 구성, 전국 우수대학 뿐만 아니라 개인별 특기 적성에 맞는 입시정보와 전략을 지도할 계획이다.  중학생을 대상으로는 진로체험 공모사업을 학교별로 신청 받는다.   이 사업은 자유학년제 시행에 따른 다양한 진로 체험 기회를 제공하고자 마련됐으며, 나주교육진흥재단에서 3월 말까지 관내 중학교에 희망 신청을 받아, 학교당 3~10백만 원을 지원할 계획이다.   또 관내 초등학생 5~6학년을 대상으로는 ‘공부습관 프로젝트’를 계획했다.   학생들의 올바른 학습 습관 형성과 꿈과 목표를 설정하는 과정을 통해 공부에 대한 동기와 흥미를 부여하기 위해 마련된 이 프로젝트는 내달 5일까지 교육진흥재단에 신청을 받아 오는 4월 11일부터 5월 2일까지 매주 수요일 나주종합스포츠파크에서 총 4회 8차시 과정으로 운영할 계획이다.   특히, 초등학생 자녀를 둔 학부모들의 지도 고민 해소를 위해 시는 혁신도시 공익활동지원센터 회의실에서 ‘행복한 자녀를 위한 코칭 맘 스쿨’을 진행 중에 있다.   지난 3월 6일부터 7월 31일까지 매주 화요일에 걸쳐 진행되는 코칭 맘 스쿨은 자녀 성장에 맞춘 지식과 정보를 제공하는 과정으로 이수 시 자기주도학습 코칭지도사 2급 자격 취득의 기회도 주어진다.  나주시는 이 밖에도 9월 초, ‘꿈길 찾아 떠나는 진로콘서트’를 종합스포츠파크 다목적체육관에서 초·중학생 3,000여명을 대상으로 진행한다.   올해 3회째를 맞은 진로콘서트는 △진로 탐색관, △진로 설계관, △진로멘토 상담관, △테마 별 진로직업체험관, △관내 고교 및 대학 홍보관, △진로직업정보 갤러리관 등 총 60개 부스를 운영, 학생들을 위한 폭넓은 진로·진학 정보를 제공할 방침이다.   강인규 나주시장은 “우리 지역 맞춤형 교육프로그램 확대와 학부모 역량 강화 등을 통해 나주를 으뜸 교육도시로 발돋움 시킬 것”이라며, “우리 지역 학생들이 올바른 진학정보와 다양한 체험을 통해 미래 진로 선택에 큰 도움이 되길 바란다”고 말했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      고흥군은 9일 고흥 항공센터 일원에서 '2018 캔위성 체험·경연대회'가 성황리에 개최했다고 밝혔다.  올해로 7회째를 맞이한 대회는 전국 청소년에게 위성에 대한 이해를 증진하고, 우주분야 저변확대 및 대중화를 실현하고자 과학기술정보통신부가 주최하고, KAIST 인공위성연구소가 주관하며 한국항공우주연구원과 고흥군의 후원으로 열렸다.     ▲9일 고흥 항공센터 일원에서 '2018 캔위성 체험·경연대회'가 성황리에 개최했다. ⓒ고흥군    캔모양의 소형 모사위성을 과학로켓으로 쏘아 올려 자유낙하 중 대기과학정보, 영상, 기후변화 등의 특정임무를 수행·평가하고, 수상자에게는 과학기술정보통신부 장관상을 비롯한 상장과 시상금, 그리고 해외 우주관련 시설 견학의 기회도 제공한다.  무더위 속에서도 고등부(슬기부) 10개팀과 대학부(창작부) 10개팀 등 100여명이 참가하여 열띤 경연을 펼쳤으며, 경연 결과 부문별로 5개팀씩 총 10개팀이 수상의 영예를 가졌다.   고흥군 김기홍 부군수는 환영사를 통해 "학생들 모두 뜨거운 열정과 에너지를 바탕으로 대한민국 우주항공산업을 이끌어 줄 것을 기대한다"며 "캔위성대회가 우주산업 발전의 든든한 디딤돌인 동시에 우주항공 중심도시 고흥군의 위상을 각인시키는 계기가 되길 기원한다"고 밝혔다.  한편 고흥군은 우주핵심기술 개발과 핵심부품 국산화 등 우주산업 경쟁력 제고를 위해 과학로켓을 개발 및 운용하는 '과학로켓센터 건립사업'을 2022년까지 추진할 계획이다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      가습기 살균제는 실은 가습기 살균제가 아니었다. 가습기 살균제 노릇을 제대로 하려면 물통에 넣은 살균제가 외부로 오랫동안 빠져나가지 않고 상당 시간 그대로 머물러 있어야 한다. 그래야 가습기 내부의 세균이 살균된다. 하지만 가습기 살균제 제조, 판매 기업은 한결같이 가습기 물에 넣어 희석하고 나서, 이를 초음파 진동 또는 가열 방식으로 공기 중으로 바로 내뿜는 방식을 채택했다.  이는 농약 분무기에 살균 성분의 농약을 넣고 들판이 아닌 방안에서 마구 뿌리는 격이다. 한마디로 가습기 살균제는 가습기 내부를 살균하는 것이 아니라 살균 성분이 포함된 미세 수중기가 공기 중으로 뿜어져 나와 공기 중 떠다니는 미생물과 만나 이들을 죽이는 실내 공기 살균제였다.  최초의 가습기 살균제는 1994년 유공이 개발해 시판했다. 유공은 당시 신제품을 내놓으면서 시판 직전 보도 자료를 언론사에 뿌렸다. 이는 신문 기사에 그대로 반영됐다. 당시 언론사들은 유공이 배포한 보도 자료를 가지고 그대로 기사화했다. &lt;매일경제&gt; &lt;중앙일보&gt; 등 여러 신문이 이를 다루었다.  &lt;매일경제&gt; 1994년 11월 16일자는 "유공(대표 조규향) 바이오텍 사업팀(팀장 노승권)이 1년 동안 18억 원을 투자해 가습기의 물에 첨가하면 각종 질병을 일으키는 세균을 완전 살균해주는" 가습기 메이트를 개발했다고 보도하며 "인체 무해"를 제목으로 뽑아 강조했다. 이 신문은 또 "유공 부설 대덕연구소에서 이 살균제를 콜레라균과 포도상구균 등과 내부의 물때를 형성하는 물때균이 들어있는 물에 0.5% 농도로 첨가, 살균력을 실험한 결과 약 3시간 경과 시 99% 정도를, 만 하루가 지났을 때는 100%의 살균력을 나타냈다"고 덧붙였다. 이어 "'가습기 메이트'란 제품명으로 판매될 이 살균제의 효력은 약 15일 이상 지속되며 독성 시험 결과 인체에 전혀 해가 없는 것으로 조사됐다"고 전했다.  &lt;중앙일보&gt;는 같은 날 이런 내용과 함께 "선진국에도 (가습기) 물때를 제거하는 제품은 있으나 살균용 제품은 없는 점에 착안, 내년 중 북미 지역에 수출키로 했다"라고 보도했다. 유공은 국내 최초일 뿐 아니라 '세계 최초' 가습기 살균제 출시를 강조했다.가습기 살균제 사건의 진실① '악마의 변호사' 김앤장, 이렇게 움직였다② 나는 악마와 거래한 '청부 과학자'입니다!③ 가습기 연쇄 살인범, 환경부 탓에 놓칠 뻔!④ 가습기 살균제, SK 책임은 없나⑤ 가습기 연쇄 살인, 일본에서 일어났다면…⑥ 가습기 연쇄 살인, 왜 한국만 당했나?⑦ 의사들은 왜 가습기 연쇄 살인을 못 막았나?⑧ 옥시와 합의를 권한 판사는 누구인가? ⑨ 가습기 살균제, 산자부가 웃는 이유는?⑩ 또 기레기, "홍수종은 '가습기 의인' 아니다!"⑪ 폐를 들어낸 국가 대표 배구 선수, 보상은 '0원'⑫ 검찰, 김앤장-SK-이마트를 살렸다⑬ &lt;조선일보&gt;, 누구 욕할 처지인가?⑭ 검찰, 왜 산자부와 환경부는 봐 주나?⑮ 여배우 불륜 스캔들과 가습기 살균제 유공(SK케미칼)의 무모한 용기, 수백 명을 죽음으로 몰아  미국은 살균제 성분을 가습기 물에 집어넣는다는 것은 매우 위험한 일로 상상조차 할 수 없는 것으로 보았기 때문에 그런 제품을 만드는 것 자체를 꿈도 꾸지 않은 반면, 대한민국 기업은 어처구니없는 살인 제품을 만들고선 너무나 용감하게 국내 최초, 세계 최초를 강조했다. 그리고 그 무모한 용기는 세계 최초로 살균제가 수백 명의 사람을 죽이는 재앙을 불러왔다.  당시 유공은 독성 시험을 했다고 분명 밝혔다. 이는 완벽한 거짓임이 분명하다. 화학 물질은 거짓말을 하지 않는다. 유공이 당시 가습기 살균제 성분으로 사용한 화학 물질은 CMIT/MIT로 최근 알려졌다. 이 성분의 가습기 살균제 사용으로 현재까지만 해도 사망 1명을 포함해 모두 3명이 중증 피해를 입었다고 정부가 공식 등급 판정했다.  이 성분은 미국에서 유독 농약 성분으로 등록돼 있다. 유럽연합(EU)의 소비자안전과학위원회 자료를 보면 실험 생쥐, 실험 쥐. 토끼, 기니피그 등을 대상으로 독성 시험을 한 결과 흡입의 경우 소량으로도 죽을 수 있고 피부, 안구 등에 다양한 독성을 보이는 것으로 나타났다.  1994년 독성 시험 결과 안전 발표, 실은 거짓말일 가능성 높아  선진국의 이런 독성 시험 자료로 미루어 1994년 유공이 가습기 메이트란 살균제를 시판하면서 독성 시험을 제대로 하지 않고 무해하다고 거짓말을 했거나 아니면 엉터리 독성 시험을 하고선 마치 독성 시험을 제대로 한 것처럼 속였을 가능성 둘 중 하나임이 분명해졌다. 이는 검찰 수사로 반드시 밝혀내야 할 부분이다. 국회 청문회 과정에서도 철저한 심문이 필요하다.  유공은 콜레라균에 대한 살균력 테스트도 하였다고 했다. 콜레라는 당시 전파력이 강한 1군 전염병을 일으키는 치명적 병원균이었다. 만약 콜레라 환자가 한 명이라도 생기면 방역 당국은 즉각 비상사태에 들어간다. 집단 발병 가능성이 매우 높은 수인성 전염병균이기 때문이다. 콜레라균은 민간 연구소가 그렇게 쉽게 배양 및 실험할 수 있는 세균이 아니다. 콜레라균에 대해 어떻게 살균력 실험을 했다는 것인지 앞으로 철저하게 규명돼야 한다.  1994년 유공이 가습기 살균제를 최초 개발했다는 이야기를 듣고 왜 석유 에너지 기업이 이런 가정용 화학 제품까지 손을 댔을까 하는 의문이 들었다. 1973년 제1차 석유 파동 이후 유공은 해외 유전 탐사에 도전했으나 별 소득이 없어 포기를 하고 만다. 그래서 1980년 석유 에너지 부문은 선경(현 SK)으로 경영권을 넘기게 된다. 유공은 주력 사업을 에너지와 석유 화학 분야로 크게 갈래를 지우고 특히 정밀 화학 사업에 힘을 쏟게 된다.  이 때 구조 조정 대상자들이 많았다고 한다. 이들을 모두 내쫓을 수 없어 각자도생을 꾀하도록 했다. 화학, 생물 전공자로 이루어진 생물공학연구팀이 연구소 설립과 함께 1985년 만들어졌다. 이 시기에 서울대학교 미생물학과를 나온 뒤 한국과학기술원(KAIST)에서 석사 학위를 갓 취득한 노승권 씨가 연구소에 선임연구원으로 합류한다. 이들은 당시 조직에서 잘리지 않고 살아남기 위해 별의별 사업 아이디어를 짜냈다고 한다.  생물공학연구팀은 석유를 장기간 보관할 때 곰팡이에 오염되면 석유의 품질이 나빠지는 문제를 해결하기 위해 항진균제 개발 연구를 1988년 시작했다. 첫 결실은 1990년 해조류에서 곰팡이 제거 물질을 추출해 1993년 '팡이제로'란 상품명으로 내놓는 성과로 나타났다. 이에 자신감을 얻은 노승권 팀은 1994년 가습기 메이트 가습기용 살균제 개발이라는 두 번째 성과물을 내놓는다.  그 성과는 17년의 세월이 지나 비극의 씨앗으로 바뀌었다. 가습기 살균제에 살균제 한 방울을 떨어트리면 '물 때 걱정 끝', '청소 끝'이란 생각은 무척 매력적이다. 하지만 세균을 모두 죽일 정도의 강한 살균력이라면 당연히 이것이 공기 중으로 나왔을 때는 사람에게 위험할 수도 있다는 생각을 전문가라면 당연히 해보았을 것이다. 유공의 당시 노승권 팀장은 왜 그런 것에까지는 생각이 미치지 못했을까.   ▲ 가습기 살균제 세계 최초 개발을 보도한 &lt;매일경제&gt; 1994년 11월 16일자. ⓒnewslibrary.naver.com     최초 개발 당시 시판 반대 목소리도 있었으나 묵살 당해  실은 당시 가습기 살균제 제품을 출시하기 전에 내부에서 일부 반대가 있었던 것으로 전해진다. 안전성 문제를 확실하게 해결하지 않은 상태에서 서둘러 시판했을 때의 위험과 아직 가습기 사용이 보편화되지 않아 사업성이 낮을 수 있다는 염려 때문이었다는 것이다.  유공이 1993년 '팡이제로'를 시장에 내놓자 몇 달 뒤 LG화학도 경쟁 상품으로 '곰팡이 아웃'을 내놓는다. 유공 쪽이 이를 보고 혹 LG화학이 자신보다 먼저 가습기 살균제 제품을 내놓을지도 모른다는 우려 때문에 충분한 독성 시험을 하지 않고 제품 출시를 서둘렀을 가능성이 있다.  유공은 1993년 '소비자용 살균 조성물'에 대한 특허를 신청(등록은 1996년에 이루어짐)했다. 여기에는 CMIT/MIT 계열의 이소티아졸리논 성분 등 외국의 기존 살균제를 에어로졸이나 스프레이 형태의 소비자용 제품으로 만드는 것이 포함돼 있다. 매우 위험한 특허라 할 수 있다.  가습기용 물에 타서 사용하는 가습기 살균제란 아이디어를 유공이 1994년 내놓지 않았다면 지금까지도 이런 제품이 선진국에서처럼 시장에 나오지 않았을 수도 있다. 혹 나왔다 하더라도 그 시기가 많이 늦어졌을지도 모른다. 하지만 첫 제품이 나오니 고삐 풀린 망아지처럼 가습기 살균제는 여기저기서 마구 내놓았다.  CMIT/MIT 성분을 특허 때문에 쓸 수 없게 된 다른 기업들은 폴리헥사메틸렌구아니딘(PHMG)과 염화올리고에톡시에틸구아니딘(PGH)이란 전혀 다른, 더 강력한 살균력을 지닌 유독 성분을 넣은 가습기 살균제를 개발해 팔기 시작했다. 비극이 재앙 수준으로 가는 일등공신 노릇을 '악마의 특허'가 한 것이다.  유공에서 최초의 가습기 살균제를 개발한 주역인 노승권 팀장은 지금 어디서 무엇을 하고 있을까? 그의 이름은 1994년 '유공, 세계 최초 가습기 살균제 개발'을 보도한 당시 신문 기사와 &lt;가습기 살균제 건강피해 사건 백서&gt;에 이미 나와 있다. 하지만 그 뒤 그가 어떤 일을 해왔고 최근에는 무엇을 하는지는 언론에 거의 소개되지 않았다.  바이오 벤처 사업가로 변신, 최근 언론 활동 활발  인터넷에서 노승권이란 이름을 치면 그가 1996년 유공을 나와 1997년 바이오 벤처 기업 '유진사이언스'를 창업한 뒤 지금은 메타사이언스 대표를 맡고 있다는 사실을 알 수 있다. 영국 더럼 대학교에서 박사 학위를 받았으며 한국생물공학회 부회장, &lt;미생물과 산업&gt; 편집간사, 한국바이오벤처협회 이사 등을 지내는 등 학술 활동과 기업 경영을 활발하게 병행하고 있다.  2012년부터는 네이버 블로그 '출장 발명가의 행복이야기'를 운영하며 재미있는 생물학, 맛과 음식의 과학, 건강 정보 등에 대한 글을 실으며 동시에 &lt;스포츠경향&gt;에는 '출장 발명가 노승권의 알면 힘이 되는 생물학'이라는 칼럼을 맡아 매주 연재하고 있다.  관심을 끄는 것은 가습기 살균제 사건이 지난 4월부터 우리 사회에 엄청난 지진을 일으켰고 그 여진이 남아 있는 가운데 지난 15일자 &lt;스포츠경향&gt; 연재 코너에 '세균과 친해져야 하는 두 가지 새로운 이유'란 제목으로 다음과 같은 내용의 칼럼을 실었다는 사실이다.  "지금까지 부정적 이미지로만 인식돼 왔던 세균은 사실 정신 건강 회복, 기억력 유지, 면역기능 향상 등에 긍정적 모습으로 우리 몸 곳곳에 존재하고 있습니다. 가까운 장래에 이러한 세균을 이용해 스트레스 회복 탄력성을 높이고 기억력 감퇴 같은 퇴행성 질환을 치료하는 시대가 열리리라 기대해 봅니다.  세균이라는 단어는 우리 머리에 '감염' '위험' '죽음' 같은 부정적 모습을 떠오르게 합니다. 그러나 세균과 인간은 오랜 세월 동안 여러 영향을 서로 주고받으며 공생하고 있습니다. 예를 들어 우리 몸의 장에 살고 있는 장내 세균은 음식물의 소화, 흡수를 돕고 식욕 조절에 영향을 줄 뿐 아니라 면역 기능에도 관여합니다. 그런데 최근 세균이 정신 건강과 기억력 유지에도 관련이 있다는 연구 결과가 속속 발표되고 있습니다. 이런 영향을 주는 미생물에는 장내세균뿐 아니라 환경 미생물도 포함된다고 합니다."  감염, 위험, 죽음 등의 부정적 모습을 소비자들이 떠올리게 만들어 세균은 깡그리 죽여야 한다며 가습기 살균제를 개발, 판매한 주역이 이제 와서는 이보다는 세균의 긍정적 모습을 바로 바라보아야 한다고 강조하고 있다. '병 주고 약주는 격'의 글이다.  그가 과거의 판단이 잘못된 것임을 깨우치고 피해자와 그 가족에게 사과할 마음이 조금이라도 있다면 국회 청문회에 출석해, 아니 지금 당장이라도 언론과 피해자 및 가족 앞에 나서서 당시 유공에서 독성 시험을 제대로 했는지, CMIT/MIT의 유해성에 대해서는 어느 정도 알고 있었는지 등에 대해 진솔하게 증언해 주기를 기대한다.  그의 정직한 증언을 토대로 해 유공의 가습기 살균제 사업을 고스란히 인수한 SK케미칼에 대한 추궁과 사법 처리가 이루어져야 한다.안종주 박사는 &lt;한겨레&gt; 보건복지 전문기자를 지냈으며, 서울대학교 보건대학원에서 박사 학위를 받았다. 2008년부터 &lt;프레시안&gt;에 '안종주의 위험 사회' '안종주의 건강 사회' '안종주의 위험과 소통' 연재 칼럼을 써왔다. 가습기 살균제 사건이 터진 2011년부터 피해자 실태와 사건의 원인 등에 대한 수십 편의 글을 6년째 기고해왔다.  보건복지부 질병관리본부의 &lt;가습기 살균제 피해 사건 백서&gt; 총괄편집인을 맡았으며 석면, 가습기 살균제, 메르스 등 우리 사회에서 벌어지는 각종 보건 및 환경 보건 위험에 관해 다양한 매체를 통해 시민들과 소통하며 대학에서 강의를 하고 있다. 저서로 &lt;석면, 침묵의 살인자&gt; &lt;위험 증폭 사회&gt; 등 다수가 있다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      바야흐로 '입말'의 시대입니다. 신문, 잡지, 책에 대한 관심은 줄어든 반면 다양한 채널을 통해서 접하는 강연, 인터뷰, 대담, 좌담 등이 사람의 교양을 채워주는 새로운 수단으로 각광을 받고 있습니다. 자연스럽게 이런 입말을 '글'로 옮겨서 매체에 싣거나 아예 책으로 펴내는 일도 다반사고요.  시사 문제나 문학, 역사, 철학 등에서 시작한 이런 움직임에 최근 과학이 동참했습니다. 아직은 소수긴 하지만, 이제 텔레비전에서 과학자의 강연이나 대화를 직접 듣는 일이 낯설지 않습니다. 자랑을 하자면, &lt;프레시안&gt;도 이런 움직임에 일찌감치 동참했습니다. 2011년 11월 4일부터 2014년 2월 6일까지 총 열다섯 번에 걸쳐서 진행된 '과학 수다'를 기억하시죠?  이 연재는 진행되는 내내 적지 않은 반향을 불러일으켰습니다. 많은 독자는 친절함과 유쾌함을 내세우며 과학자들이 과학계의 가장 뜨거운 쟁점을 놓고서 수다 떠는 모습에 뜨거운 관심을 보였죠. 바로 이 과학 수다가 &lt;과학 수다&gt;(사이언스북스 펴냄) 2권으로 다시 정리되어 나왔습니다. (☞관련 기사 : "아뿔싸! 이런 경이로운 수다를 놓칠 뻔했다")  &lt;과학 콘서트&gt;(어크로스 펴냄), &lt;뇌과학자는 영화에서 인간을 본다&gt;(어크로스 펴냄) 등의 베스트셀러 저자 정재승 박사(KAIST 교수)가 과학 수다의 세 호스트 천문학자 이명현 박사, 물리학자 김상욱 박사(부산대학교 교수), 강양구 기자를 만났습니다. 이 자리에서 과학 수다를 중심으로 입말로 과학을 향유하는 과학 문화의 새로운 흐름을 점검해 보았습니다.  과학자들의 수다에는 어떤 특별한 게 있을까요? 양자 역학이나 상대성 이론으로 수다를 떠는 게 가능할까요? 강연이나 대화를 그대로 지면에 옮겨서 전달하는 방식이 최선일까요? &lt;마이 리틀 텔레비전&gt;에 과학자가 나와서 수다를 떠는 모습은 상상이 가나요? 과학자라면 누구나 자기 역량의 일부를 대중과의 소통에 할당해야 할까요?  과학 문화의 현주소를 진단하는 유쾌한 수다로 여러분을 초대합니다. 이 수다는 7월 14일 오전 강남구 신사동의 한 카페에서 한 시간가량 진행되었습니다. 진행은 정재승 박사가, 정리는 강양구 기자가 맡았습니다.   ⓒ프레시안(손문상)    왜 과학 수다인가?  정재승 : 먼저 &lt;과학 수다&gt; 출간을 축하합니다. 이 책 덕분에 참 만나기 힘든 분들과 이렇게 '수다'를 떨 수 있어서 기쁩니다. 이 자리에서는 &lt;과학 수다&gt; 얘기를 하면서 입말 형태로 과학을 이야기하는 최근의 흐름이 어떤 의미를 갖는지 짚어보고자 합니다. 그 과정에서 자연스럽게 지금 과학 문화의 현주소도 점검할 수 있을 것 같고요.  먼저 &lt;과학 수다&gt; 얘기를 해보죠. 이게 책으로 묶이기 전에 &lt;프레시안&gt;과 아시아태평양이론물리센터(APCTP)가 펴내는 &lt;크로스로드&gt;에 연재가 됐었죠?  김상욱 : 사실 저는 기획 단계에서 '과학 수다'에 참여하지는 않았어요. 그래서 처음에는 걱정을 했던 것도 사실입니다. 수다라는 단어가 주는 느낌이 편안함이잖아요? 그런데 과연 이 수다에 참여하는 이들 사이에 오간 과학 이야기가 독자에게도 편안하게 다가갈까, 이런 걱정을 했었죠. 그러니까 수다에 참여하는 과학자 우리끼리만 재미있지 않을까, 이런 식으로요.  정재승 : 보통 과학자의 수다는 우리끼리만 재밌잖아요. (웃음)  김상욱 : 그러니까요. 그런데 일단 고정 멤버 가운데 기자가 한 명 있다 보니, 보통 사람의 시각에서 던질 법한 적절한 질문도 해줬고요. 여기에 저나 이명현 선생님 같은 과학자들이 함께 수다를 떨다 보니, (보통 사람이 아닌) 과학자가 할 수 있는 질문과 그에 대한 해당 과학자의 답변이 어우러져서 생각보다 결과가 잘 나온 것 같습니다.  그리고 무엇보다 중요한 건 과학 수다가 진행되는 내내 제가 굉장히 재미있었어요. 다음 과학 수다가 기다려질 정도로요. (웃음)     ▲ 정재승 KAIST 교수. ⓒ프레시안(손문상)   정재승 : 저자들이 즐기면서 이 책을 쓸 수 있었네요.  김상욱 : 그럼요! 얼마나 재미있었는지 우리끼리 만날 때마다 틈만 나면 '시즌 2'는 언제 시작하느냐고 얘기합니다. 손님으로 초대받은 과학자도 즐겁고 편안한 자리였다고 입을 모아서 얘기하는 걸 보면 우리만 재미있었던 것도 아닌 것 같아요. 그러니 수다에 참여한 이들은 모두 편안하고, 행복하고, 즐거운 시간을 보낸 셈이죠. 이제 독자만 좋아하면 되는데…. (웃음)  정재승 : 애초 과학 수다를 기획한 이명현 선생님은 어땠나요?  이명현 : 과학 수다도 역시 수다니까, 결국은 사람들이 모여서 얘기를 나누는 거잖아요. 그런데 바로 그런 대화를 나누는 행위 자체가 상당히 좋았던 것 같아요. 물론 이전에도 과학자가 강연을 하는 일은 많이 있었죠. 하지만 그렇게 강연을 할 때는 연사나 청중이나 모두 부담을 갖잖아요.  그런데 일단 이 수다는 여러 가지 면에서 자유로우니까, 말하는 사람이나 듣는 사람이나 훨씬 더 편안한 분위기에서 대화를 나눌 수 있었어요. 특히 이런 형식 덕분에 대중 강연 같은 자리에서 좀처럼 만나기 힘든 과학자들의 목소리를 들을 수 있었던 게 굉장히 좋았습니다. 그러니까 과학 수다가 대중과 과학자가 소통하는 또 다른 채널이 된 셈이죠.  또 다른 하나는 친절함입니다. 가끔씩 과학 강연을 다니다 보면, '초등학생도 이해할 수 있도록' 쉽게 얘기해 달라는 부탁을 받곤 합니다. 그런데 이런 부탁은 굉장히 폭력적이죠. 예를 들어, 어떤 학자가 평생에 걸쳐서 고민하고 또 그 성과를 모은 책을 단 몇 자로 정리해서 요약해 달라는 건 얼마나 폭력적이에요?  그런 면에서도 수다라는 형식이 돋보였어요. 굉장히 편안한 분위기에서, 충분한 시간을 가지고 과학자가 자기 얘기를 '친절하게' 설명할 수 있도록 유도했거든요. 때로는 집요하다 싶을 정도로 끊임없이 이런저런 각도에서 질문도 던졌던 것 같아요. 이번 기회에 그런 질문에 싫은 기색 없이 답변해 준 과학자 여러분께 다시 한 번 감사의 말씀을 전하고 싶습니다.  강양구 : 저도 슬쩍 끼어도 될까요? 제가 과학 수다를 진행하면서 가장 큰 소득이라고 여기는 건 국내 과학자에 대한 편견을 깬 것이에요. 우선 학문의 성취 면에서 우리나라 과학자들이 더 이상 세계 과학계의 변방이 아니라 스스로 의제를 만들고자 노력하는 수준에 올라섰다는 걸 확인했습니다.  더구나 그분들은 과학과 사회의 관계나 과학 문화에 대한 고민의 깊이에서도 내로라하는 외국 석학과 비교해도 절대 뒤지지 않더군요. 그런데 과학에 관심이 있는 시민, 학생, 독자 등은 여전히 외국 과학자가 쓴 책이나 강연 같은 데만 기웃대거든요. 저도 반성을 많이 했습니다. 앞으로 국내 과학자의 목소리를 시민에게 알리는 데 좀 더 신경을 써야겠다고.  개인적으로 좀 더 욕심을 부리자면, 국내 과학자의 목소리를 외국에 알릴 수 있는 방법도 좀 더 적극적으로 고민해보고 싶습니다. 이젠 문학 작품뿐만 아니라 우리나라 과학자의 글이나 말도 외국으로 소개해야 한다는 생각이 들어요. 이제 책으로 나온 &lt;과학 수다&gt;가 그 첫걸음이라는 생각이 들고요. 이 책을 번역해서 외국에 소개하는 것까지…. (웃음)  정재승 : 듣고 보니, 전반적으로 저자들은 만족도가 높네요.  이명현 : 그렇습니다. 스스로 만족도가 높은 기획과 저서였어요.   ▲ 김상욱 부산대학교 교수. ⓒ프레시안(손문상)    '말'과 '글'은 다르다  정재승 : 그럼, 여기서 딴죽을 좀 걸어보죠. (웃음) 이 책이 제목대로 수다의 정신에는 충실했습니까? '수다'의 사전적인 의미가 "쓸데없이 말수가 많음. 혹은 그런 말"(국립국어원 &lt;표준국어대사전&gt;)이잖아요. 그러니까, 우리가 수다라고 이름 붙인 어떤 대화는 애초 의도했던 방향과는 다른 쪽으로 튀기도 하고, 그러다 정말 잡담이 되기도 하잖아요.  그러니 수다라고 하는 형식과 특정한 과학 분야의 지식을 대중에게 알려야겠다는 목적이 과연 어울릴 수 있을지 의문이 듭니다. 오히려 뚜렷한 목적의식 없이 여러 화제를 놓고서 대화가 오가며, 생각을 공유하는 게 진정한 의미의 수다죠. 때로는 이런 수다를 엿 듣는 사람이 즐거움과 깨달음을 얻을 수도 있고요. 과학 수다가 과연 그랬나요?  이명현 : 일단 여러 차례 과학 수다를 진행하면서 비공개를 원칙으로 했어요. 청중을 모시고 수다를 떨기 시작하면, 시간 같은 정해진 형식이 있어야 하고, 할 수 있는 말에 제약도 있고. 결정적으로 청중의 반응을 의식하다 보면 대화의 밀도가 떨어질 거라는 걱정이 들더군요. &lt;과학 수다&gt;에 실리지는 않았습니다만, 카오스 이론을 가지고 한 수다가 실제로 그랬고요.  그런데 오히려 이렇게 비공개로 했기 때문에 방금 지적한 그런 수다의 정신은 살릴 수 있었습니다. 함께 나눌 주제 정도는 공유하고, 각자가 나름대로 자료 조사도 하긴 했습니다만, 결과적으로 현장에서는 말 그대로 수다를 떨었거든요. 다만 그 수다를 독자에게 전할 때는 약간의 타협이 필요했습니다. 여기서부터는 강 기자가. (웃음)  강양구 : 정말로 수다였죠. 이 과학 수다가 되게 특별했던 게 뭐냐면 짧게는 3시간, 길게는 5시간 정도씩 어떤 한 주제를 가지고 얘기를 하면서 과학자의 여러 고민을 들을 수 있었던 거예요. 거기에는 해당 주제와 관련된 자신이 진행하는 연구에 대한 소개는 물론이고, 현장에서 느끼는 우리나라 과학기술 정책에 대한 불만 같은 것도 있었죠.  과학자가 강의실에서 학생과 소통할 때의 어려움, 대중과 소통해야 할 때 느끼는 당혹감, 더 나아가 자기가 생각하는 과학 문화의 모습 같은 내용도 포함돼 있었고요. 물론 때로는 다른 선배, 후배, 동료 과학자에 대한 뒷담화도 있었고요. 심지어 최근에 읽은 책 얘기까지요. 이런 수다를 통해서 그 과학자를 깊이 이해하는 소중한 기회를 가졌던 셈이죠.  수다라는 형식이 아니었으면 이런 경험을 어떻게 할 수 있었겠어요? 그런데 막상 이 수다를 정리해서 독자한테 소개할 때는 그걸 그대로 실을 수는 없었습니다. 그래서 어쩔 수 없이 눈물을 머금고 '편집'이라는 과정을 거칠 수밖에 없었는데요. 이 편집 과정에서도 최대한 그날 수다를 꿰뚫는 핵심을 전달하고자 노력했습니다. 어느 정도는 성공했다고 자부합니다. (웃음)  정재승 : 계속 딴죽을 걸어보면, 수다라는 게 같이 참여하는 사람들은 재미있는데 정작 한 발짝 떨어져서 엿보는 사람 입장에서도 재미있으리라는 보장은 없거든요. 더구나 편집의 과정까지 한 번 거친 다음에 '기사' 형식으로 나가는 것이면 더욱더 그렇죠. 일단 &lt;프레시안&gt;과 &lt;크로스로드&gt;에 연재될 때의 반응은 어땠나요?  강양구 : 인터넷 공간에서 유통되는 콘텐츠에 대한 독자 반응을 체크하는 지표가 있어요. 하나는 얼마나 많이 봤나? 과학 콘텐츠였는데도 상당히 많이 봤어요. 다른 하나는 얼마나 사회 연결망 서비스(SNS)를 통해서 확산되었느냐? SNS에서도 화제가 된 콘텐츠가 많이 있죠. 예를 들어, 1권에 실린 근지구 천체 편('슈퍼 영웅보다 힘센 과학 이야기')이 그랬죠.  기왕 얘기가 나왔으니 여기서 꼭 강조하고 싶은 얘기가 있어요. '말'과 '글'은 굉장히 다르다는 사실을 어쩔 수 없이 인정해야 한다는 겁니다. 요즘 많은 출판사들이 강연이나 대화를 그대로 녹취해서 최소한의 검토만 거친 다음에 책으로 묶어서 내곤 합니다. 개인적으로 이런 모습이 걱정스럽습니다.  왜냐하면, 말로 이뤄지는 강연이나 대화는 그 현장의 맥락에 기반을 둔 고유한 소통입니다. 이걸 그대로 녹취만 해서 책으로 묶는 방식은 저자 입장에서 보면 맥락이 거세된 불만족스러운 콘텐츠일 가능성이 큽니다. 당연히 독자 입장에서도 최상의 콘텐츠가 아닐 가능성이 크죠. 그러니 이런 게으른 방식은 정말로 출판사에서 자제해줬으면 좋겠어요.  여기 책으로 나온 &lt;과학 수다&gt;도 겉보기는 그렇게 만든 것 같죠? 그런데 그런 식과는 100% 달랐습니다. 애초 현장의 수다는 글을 위한 재료였을 뿐이에요. 전문 속기사가 만든 완벽한 녹취록을 수차례 검토하면서, 마치 감독이 수많은 촬영 장면을 가지고 영화를 만들 듯이 대화를 재구성했어요. 그 과정에서 추가 자료 검토, 추가 인터뷰도 진행했죠.  결정적으로 현장의 분위기를 살리려고 노력하면서 모든 대화를 다시 제가 '글'로 썼습니다. 그렇게 나온 초고를 여기 있는 두 분 선생님과 손님으로 모신 과학자들과 같이 검토하면서 다시 한 번 오류를 잡고, 필요하면 가감도 했죠. 그러니까 아예 처음부터 해당 과학자에게 원고를 의뢰하는 것보다 시간도 자원도 훨씬 많이 드는 힘든 작업이었습니다.  아무튼 이런 노력이 통했는지 다행히 연재할 때도 반응이 좋았어요. 그래서 이걸 그냥 두지 말고 좀 더 지속성이 있는 책으로 만들어서 많은 독자를 만나도록 하자는 기획으로 이어질 수 있었죠. 반응이 신통치 않았으면 사이언스북스 같은 출판사에서 관심이나 뒀겠습니까? 그런데 이건 너무 '기-승-전-&lt;과학 수다&gt; 예찬'으로 가는 것 아닌가요? (웃음)   ▲ 이명현 박사. ⓒ프레시안(손문상)    양자 역학으로 수다 떠는 게 가능한가?  정재승 : 굉장히 훈훈한 자화자찬 분위기가 계속 이어지고 있는데요. 분위기 좀 바꿔 보죠. (웃음) 김상욱 교수님께 묻겠습니다. 물리학자가 양자역학을 수식 없이 말로만 상대방에게 설명해서 이해를 시키고, 심지어 그걸 즐기는 수준의 수다를 할 수 있나요? 그게 가능하긴 합니까?  김상욱 : 힘듭니다. 아주 힘든 일이죠.  정재승 : 그럼, 이제 이런 질문을 해볼 수 있겠네요. 수다로 과학을 이야기하는데 어떤 한계는 없었나요?  김상욱 : 당연히 한계가 있지요. 그런데 어떤 형태로 전달하든 과학자가 알고 있는 그 상태를 상대방에게 그대로 전달하는 건 불가능합니다. 그런 점에서 그건 수다의 한계라기보다는 과학을 소재로 소통할 때의 근원적인 문제라고 할 수 있죠. 과학자들이 수식을 선호하는 것도 바로 그런 문제 때문이라는 생각도 들고요.  그런 한계를 염두에 두고서 이번 과학 수다의 또 다른 의미를 한 번 짚어보고 싶습니다. 이번에 참여한 과학자와 수다를 떨면서 한 가지 흥미로운 사실을 발견했어요. 그러니까 초대를 받은 과학자가 기자나 대중이 아니라 다른 과학자와 대화를 나눈다는 게 상당히 다른 분위기를 낳았던 것 같아요.  사실 물리학자끼리 얘기를 하면서 자신의 연구 성과를 과장해서 말하긴 어렵잖아요? 이번 과학 수다에서도 그랬습니다. 비록 같은 분야는 아니지만, 대화를 나누는 상대가 과학자라는 이유만으로도 과학자들이 가공하지 않은 좀 더 솔직한 이야기들을 털어놓았던 것 같아요. 그리고 이런 이야기가 그 과학자의 연구나 고민을 좀 더 깊이 이해하는데 도움이 됐고요.  정재승 : 예를 들자면?  김상욱 : 그러니까 언론을 통해서 '장밋빛 미래'만 조명될 가능성이 큰 연구가 있습니다. 그런데 이번 수다를 통해서 과학자가 그 실상을 얘기한 적도 있었습니다. 해당 과학자의 처지를 염두에 두고 기사나 책으로 다 공개 못한 부분도 있었던 것으로 알고 있습니다만…. 이렇게 수다에 과학자가 참여한다는 것만으로도 이야기의 질이 굉장히 높았다고 생각합니다.  정재승 : 이명현 선생님은 어떻습니까? 수다라는 형식 때문에 얘기가 더 진지하게 흘러가는 데 제동이 걸리거나, 혹은 벽 같은 걸 느낀 적은 없나요?  이명현 : 검열은 어차피 강양구 기자가 하니까. (웃음) 앞에서도 잠깐 얘기가 나왔지만, 사실 이 부분이 굉장히 중요한 장치였던 것 같습니다. 현장에서 손님으로 초대받은 과학자나 우리나 정말 아무런 제약 없이 얘기를 했거든요. 때로는 현장에 일반인이 있었으면 도저히 이해하지 못할 얘기도 오갔던 것도 같고요. 어떤 때는 거의 강의를 듣는 시간이 되기도 했어요.  김상욱 : &lt;과학 수다&gt; 2권에 실린 투명 망토 편('해리 포터도 몰랐던 투명 망토의 비밀')이 그랬죠. 박규환 교수님이 거의 강의를 하셨죠.  강양구 : 그런데 강의를 들으면서도 너무나 즐거웠었죠. (웃음)  이명현 : 그랬죠. 그러니까 강 기자가 일종의 안전판이 되었던 것 같아요. 어차피 강 기자가 다시 정리를 할 거니까, 막상 현장에서는 정말로 자유롭게 여러 가지 얘기를 할 수 있었던 겁니다. 김상욱 교수도 방금 언급했습니다만, 과학자만이 던질 수 있는 질문과 그에 대한 답변이 오간 것도 그런 자유로운 분위기 덕분이기도 했고요.  예를 들어, 저는 생명과학자는 아니지만 우주를 연구하는 과학자로서 생명 현상에 대해서 질문이나 의견을 가질 수 있지요. 아무래도 그런 질문이나 의견은 과학을 전공하지 않은 일반인에게는 나오기가 어려운 것이겠죠. 그런 질문과 답변이 어우러지면서 과학 수다가 내용 면에서 좀 더 달라질 수 있었던 것이죠.  물론 개인적으로 고민이 되는 부분이 없진 않았어요. 예를 들어, 과학 이론을 설명하다 보면 수학을 빌려서 논리 전개를 할 수밖에 없는 대목이 있습니다. 그런데 수식을 가능한 한 피하려다 보니, 이런 대목은 비유를 하는 식으로 넘어가거든요. 이번 과학 수다도 최소한 독자를 만나는 단계로 정리를 할 때는 그런 장치를 넣을 수밖에 없었고요.  그건 어떤 과학자에게는 굉장히 답답한 일일 것 같아요. 그래서 &lt;이종필의 아주 특별한 상대성 이론 강의&gt;(동아시아 펴냄) 같은 책도 나왔겠죠. 이 책은 사실 상대성 이론을 강의하기 위한 교과서거든요. 그러니 &lt;과학 수다&gt;는 그것만으로 충분한 과학 책이라기보다는, 좀 더 전문적인 과학 지식을 쌓고자 하는 독자에게 징검다리 역할을 하는 책일 수도 있겠습니다.     ▲ 강양구 기자. ⓒ프레시안(손문상)   강양구 : 이 대목에서는 저도 얘기를 좀 덧붙일게요. 이종필 박사는 과학 수다의 여러 편에 단골손님으로 등장하셨던 과학자인데요. 이 박사 같은 과학자로서는 일반인에게 상대성 이론을 수학을 동원해서라도 좀 더 정확하게 전달하고 싶은 욕심이 있을 수 있다고 생각합니다. &lt;이종필의 아주 특별한 상대성 이론 강의&gt;는 그 결과물이고요.  이명현 : 굉장히 계몽적인 욕심이죠. (웃음)  강양구 : 그런데 저는 이런 의문이 들어요. 정말로 보통 사람에게 상대성 이론의 장방정식을 풀 정도의 과학 지식이 필요할까요? 저는 그럴 필요가 없다고 생각합니다. 오히려 지금 대중에게 필요한 것은 현대 과학 트렌드가 어떤 방향으로 진행 중에 있는지 조망하고, 또 그런 과학이 사회와 어떤 관계를 맺고 있는지 세심하게 따질 수 있는 능력이죠.  이 정도로 과학-기술-사회 간의 주의를 환기하는 정도만 되어도 저는 과학 교양으로서 충분하다고 생각합니다. 그리고 단순히 과학 지식만 많이 아는 사람보다는 이렇게 과학과 그것과 관계를 맺는 여러 가지 것들을 종합적으로 볼 수 있는 사람이 늘어날수록 합리적인 사고에 바탕을 둔 과학 문화도 확산될 수 있다고 생각하고요.  그러니까 &lt;과학 수다&gt;처럼 넓고 얕게 보는 (사실 내용만 보면 꼭 그렇지도 않습니다만) 책이야말로 과학 문화가 넓고 깊어지는 데 도움이 된다고 생각합니다. 이것 참, 또 기-승-전-과학 수다 예찬이 되었네요. (웃음) 하지만 &lt;과학 수다&gt;를 진짜로 읽어보면, 이게 무슨 얘기인지 독자들이 알 거라고 확신합니다.  정재승 : 상대성 이론과 같은 과학 이론을 수식으로 제대로 한 번 공부하고 싶어 하는 독자도 분명히 있을 테니까, 그런 독자를 위해서는 이종필 박사의 책도 그 자체로 소중한 작업이죠. 다양성의 측면에서는 &lt;과학 수다&gt; 같은 책도 또 &lt;이종필의 아주 특별한 상대성 이론 강의&gt; 같은 책도 많이 나올수록 좋겠죠.  강양구 : 당연하죠. &lt;이종필의 아주 특별한 상대성 이론 강의&gt;는 이종필 박사가 오래전부터 절치부심 준비하던 책인데, 다행히 독자의 반응도 좋은 것 같아서 기쁩니다.  정재승 : 다음 얘기로 넘어가기 전에 이 얘기만 좀 더해 보죠. 처음에 제가 막연히 과학 수다와 같은 콘셉트를 생각할 때, 전제 조건 가운데 하나는 참여하는 이들 사이의 동등성이었거든요. 수다는 아무래도 눈높이가 같은 사람들끼리 해야 즐겁잖아요. 그래야 그런 수다에서 끊임없이 새로운 시각도 나오고, 과학자만의 유머 같은 독특한 문화 코드도 드러나고.  그런데 이번의 과학 수다는 지금 주목받는 주제를 하나 정하고, 그 분야의 전문가를 초대해서 진행하는 식이었습니다. 아무래도 주로 말하는 사람이 따로 있고, 듣는 사람이 있는 식이어서 수다의 힘이 100% 발휘되기는 어려웠을 것도 같습니다. 만약에 시즌 2를 하게 되면 이런 점도 좀 보완되면 좋겠어요.  강양구 : 똑같은 과학자라고 하더라도 특정 분야를 놓고서는 전문성에 차이가 날 수밖에 없으니, 그런 점을 어떻게 보완할지도 고민해야 할 부분이죠. &lt;과학 수다&gt; 1권에 실린 핵에너지 편('핵발전소 없는 여름을 꿈꾼다')이 대안적인 모습이었죠. 그 때 수다를 떨었던 윤태웅 교수, 이종필 박사, 이명현 선생님 모두 좁은 의미의 핵 발전 전문가는 아니었습니다.  그러니까 그 수다는 핵에너지나 핵발전소를 놓고서 과학자 셋이 모여서 수다를 떨 수 있는 한 본보기를 독자에게 보여줬던 것 같습니다. 과학자는 아니지만 그 분야를 오랫동안 취재했던 기자로서 저도 몇 마디 보탰고요. 앞으로 시즌 2에서는 그런 종류의 기획을 많이 해보면 좋겠다고 생각합니다.  이명현 : 그런데 사실 수다라는 것도 다양한 형식이 있을 수 있잖아요. 아까도 잠시 언급했지만, 투명 망토 편의 경우에는 박규환 교수가 거의 강의를 했어요. 얼핏 보면 오랜만에 광학 수업을 듣는 분위기였습니다. 그런데 그렇다고 현장의 분위기가 수다스럽지 않았느냐, 전혀 그렇지 않았거든요.  질문과 답변 그리고 주제와 어찌 보면 동 떨어진 얘기까지 겹치면서 정말로 수다스럽고 즐거운 분위기였어요. 그러니까, 해보기 전에 수다의 꼴을 미리 정해 놓는 것도 큰 의미는 없어 보여요. 셋 이상이 일단 모이면, 또 마음을 조금만 열면 다양한 형식의 즐거운 수다가 가능하다는 것도 과학 수다를 진행하면서 새삼 깨달은 점입니다.   ⓒ프레시안(손문상)    &lt;마이 리틀 텔레비전&gt;에 과학자가 나온다면…  정재승 : 세 분이 굉장히 즐기면서 과학 수다를 진행해 왔고, 또 수다에 초대 받은 동료 과학자에게도 긍정적인 반응을 이끌었던 것 같습니다. 일단 &lt;과학 수다&gt;로 묶여진 내용도 굉장히 알차고요. 앞으로 이런 과학 수다라는 형태가 여기저기서 벌어지면서 과학을 소통하는 중요한 방식으로, 하나의 장르로 자리 잡을 수 있을까요?  김상욱 : 지금은 일단 실험 단계인 것 같습니다.  정재승 : 미디어 환경이 바뀌고 또 사람들이 과학을 받아들이는 문화가 변하면서 일단은 입말로 일반인이 과학을 즐길 수 있는 다양한 시도가 앞으로도 계속될 것 같습니다. 예전에는 사람들이 국내 과학자가 아닌 외국 과학자의 번역서를 통해서 과학을 받아들였다가, 국내 과학자가 쓴 우리 말 맛이 나는 책을 읽기 시작했죠. 이제는 과학자의 강연을 직접 찾아 듣고요.  과학 수다도 이런 변화의 연장선상에 있는 것으로 봐야하지 않을까요?  이명현 : 개인적인 욕심 같아선 조금 더 나갔으면 좋겠어요. 오프라인 강연도 그렇고, 온라인의 팟캐스트도 그렇고 어느 정도는 일방적이잖아요? 사실 과학 수다가 그걸 보완하고자 마련된 시도이긴 하지만. 더 욕심을 부리자면, SNS 등을 통해서 실시간으로 사람들과 소통하면서 과학 문화를 같이 향유하는 것도 가능하지 않을까요?  정재승 : 조금 있으면 &lt;마이 리틀 텔레비전&gt; 같은 프로그램에 이명현 선생님이 나오셔서 우리는 말풍선을 달고 그러겠군요. (웃음)  이명현 : 그것도 재밌겠고요. (웃음) 사실 제가 원하는 모습은 과학 문화를 향유하는 작은 공간이 좀 더 많아졌으면 하는 거예요. 그러니까 과학자와 보통 시민이 일상적으로 만나서 서로 궁금한 것도 물어보고, 때로는 과학 외의 주제를 놓고도 자유롭게 의견을 나누는 그런 자리 말이죠.  아, 영국에는 이런 행사가 있어요. 술집 테이블 이곳저곳에 과학자가 한 명씩 앉아 있습니다. 저쪽에는 양자역학을 전공한 과학자, 이쪽에는 뇌과학자…. 그럼 시민들이 들어와서 맥주 한 잔씩 들고 자기가 대화를 나누고 싶은 과학자를 찾아다니는 거예요. 그렇게 얘기하다 자리를 옮기기도 하고요. 근처 학교에서도 학생, 시민을 위한 이런 만남의 자리가 따로 마련되고요.  정재승 : 그러니까, 과학을 문화로 즐기는 형식 자체가 다양해지고, 또 일상 안으로 들어오면 좋겠다는 얘기죠? 꼭 지식 공유만 목적으로 하는 자리가 아니라요. 전적으로 공감합니다. 그런데 과학 수다를 비롯해서 이런 시도가 좀 더 활성화되려면 과학자 여럿이 이런 시도에 동참하는 분위기가 과학계에 확산되어야 합니다.     ⓒ프레시안(손문상)   김상욱 : 글쎄요. 저로서는 이런 과학 수다 같은 경험이 아주 즐겁습니다. 그런데 과학자 가운데는 이런 경험이 새롭고 때로는 즐겁기도 하지만, 우선순위에서 밀리는 경우가 많을 것 같아요. 몇 가지 이유가 있겠죠. 모두가 그런 건 아니지만, 상당수 과학자는 기본적으로 하고 싶은 것만 하는 성향이 있습니다.  또 어떤 과학자는 동료나 대중과 소통하는 것이 싫어서라기보다는, 자기 연구보다 덜 재밌기 때문에 선뜻 나서지 않기도 할 거예요. 그러니까 많은 과학자는 이렇게 생각한단 말이에요. '이렇게 재미있는 연구를 놔두고 왜 저런 데 시간을 허비하나!' 과학자의 이런 특성을 염두에 두면 모든 과학자가 소통에 적극적으로 나서길 바라는 건 너무 비현실적인 바람 같아요.  더구나 과학자 가운데는 말하기나 글쓰기 같은 소통에 필요한 능력이 부족한 사람도 있거든요. 모든 과학자가 다 말도 잘하고, 글도 잘 쓸 수는 없으니까요. 그러니까 소통 능력이 있어도 굳이 그런 데 마음이 동하지 않는 과학자도 있고, 또 그런 소통 능력 자체가 부족한 과학자도 있다는 현실을 인정해야 할 것 같습니다.  그런 현실을 고려하면, 그런 과학자를 한두 번쯤 다른 과학자나 대중과 연결시킬 수 있는 커뮤니케이터가 훨씬 더 중요할지 몰라요.  정재승 : 미국 같은 경우에는 과학자들이 시민의 세금으로 연구를 하니까 자신의 역량 가운데 한 5% 정도는 시민과 소통하는 데에 할애해야 한다는 원칙이 있습니다. 김상욱 교수님은 그런 원칙은 우리나라의 사정과는 맞지 않다고 생각하는 것 같군요. 차라리 능력 있는 커뮤니케이터를 육성하는 게 현실적이라는 거죠?  김상욱 : 네, 너무 이상적인 접근이라고 생각해요. 왜냐하면, 아까 얘기했던 여러 가지 이유 때문에 그런 소통의 의미조차 찾지 못하는 과학자가 현실에는 많으니까요.  이명현 : 두 분 말씀을 듣고 보니, 과학 수다가 그런 가교 역할을 할 수도 있겠다는 생각이 듭니다.  강양구 : 맞습니다. 김상욱 교수님도 언급했지만, 과학자 가운데는 글쓰기에만 능한 사람도 있고 말하기에만 능한 사람도 있고 심지어 둘 다 미숙한 이들도 있잖아요. 또 자신의 성과나 고민을 소통하는 데 특별한 필요성을 느끼지 못하는 이들도 많고요. 그러니까 그런 분에게 맞춤한 다양한 소통 채널을 제공할 수 있어야 하고, 과학 수다가 그 하나가 될 수 있겠죠.  정재승 : 지금까지 얘기를 듣고 보니 과학 수다 시즌 2가 너무나 기대되는데요. 혹시 지금 기획 중인 시즌 2의 내용을 살짝 공개할 수 있을까요?  강양구 : 이건 영업 비밀인데요. (웃음) 하나는 요즘 빅 히스토리에 관심이 있는 분들이 많잖아요? 그래서 빅 히스토리의 중요한 장면을 여섯 장면 혹은 열 장면 정도를 뽑아낸 다음에 그 장면에 대해서 정확하고 재미있는 이야기를 해줄 수 있는 국내의 과학자 한두 분을 모신 다음에 빅히스토리 과학 수다를 해보는 기획을 추진 중입니다.  정재승 : 와, 재밌겠네요.  강양구 : 여기까지만 할게요. 또 다른 준비 중인 과학 수다가 하나 더 있는데, 그건 나중에 공개하겠습니다. (웃음)  정재승 : 이거 궁금하게 만드는군요. 그나저나 형식에 변화를 살짝 주는 것도 좋을 것 같습니다. 예를 들어, 맥주를 마시면서 한다든가, 이런 식으로요. 알코올이 살짝 곁들여지는 것만으로도 수다의 분위기가 훨씬 더 편해질 것 같거든요.  강양구 : 시즌 2에서는 알코올과 함께 정재승 교수님도 꼭 한 번 모시고 싶습니다. 커뮤니케이터 정재승이 아니라 사이언티스트 정재승을…. (웃음)  정재승 : 일단 시즌 1에서 안 불러줬기 때문에 이미 삐친 상태인데요. (웃음)  이명현 : 아니에요. 일부러 두 명을 아껴둔 겁니다. 정재승과 장대익(서울대학교 교수). 비장의 카드로!  정재승 : 그렇게까지 말씀을 하시니 제 매니저와 상의해 보겠습니다. (웃음) 이렇게 말씀을 듣다 보니 지금 책으로 묶인 &lt;과학 수다&gt;가 어떤 모습일지 궁금해 하는 독자가 많이 늘었을 것 같습니다. 이참에 &lt;과학 수다&gt;를 함께 읽고 또 더 멋진 시즌 2를 기대해 보죠. 여기 계신 세 분도 과학 수다를 통해서 더 많은 사람이 과학을 즐길 수 있도록 더 애써주시면 좋겠습니다.   ⓒ프레시안(손문상)           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          나노바이오센서·칩 기술상용화 지원센터 개소식ⓒ대전시       대전시 유성구 카이스트 내 나노종합기술원(원장 이재영)에 들어선 나노바이오센서·칩 기술상용화 지원센터가 7일 개소식을 갖고 운영에 들어갔다.  나노바이오센서·칩 기술상용화 지원센터는 유전자 진단을 위한 나노바이오센서·칩 혁신기술 개발 및 기술상용화를 위한 핵심인프라 를 구축하고, 대전시에 소재한 분자진단기반 바이오센서기업의 시제품제작, 분석·성능평가, 시험·인증, 기술고도화 등 기업성장 지원 역할을 수행한다.  나노바이오센서·칩 기술상용화 지원센터는 대전시 유전자의약산업 특화육성 계획의 일환으로 추진되는 ‘모듈형 나노바이오칩 플랫폼 구축사업’의 실행을 위해 건립됐다.  여기에는 2022년까지 과학기술정보통신부 나노·소재기술개발지원사업 공모선정으로 확보한 75억 원(국비 50억 원, 시비 20억 원, 민간 5억 원)의 사업비가 투입된다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      탄소 없는 섬(이하 CFI)실현을 위한 제주그린빅뱅포럼(공동위원장 : 김상협 KAIST교수, 김수종 국제녹색섬포럼 이사장)이 2일 제주도청 백록홀에서 개최됐다.이번 ‘2019 제3차 제주그린빅뱅포럼’은 제주그린빅뱅포럼 위원 등 20명이 참가한 가운데 CFI 기본조례안, CFI 추진을 위한 조직 강화 방안, CFI 주민참여 거버넌스 구축 등에 구체적인 실행 방안 등에 대해 이날 오후 4시부터 6시까지 이에 대한 심도있는 논의가 이뤄졌다.   탄소 없는 섬 실현을 위한 제주그린빅뱅포럼이 23일 제주도청 백록홀에서 개최됐다. ⓒ제주특별자치도   이에 앞서 지난 8월 27일 열린회의에서 ▲ 포럼 주기적 개최 ▲ CFI 도민참여형 거번넌스 구축 ▲ CFI 위상 확보를 위해 조직․재정 확보 ▲ CFI 기본조례 설계 및 입법 조치 필요성 등을 논의했고 이번 제3차 포럼을 위해서 지난 15일 제주그린빅뱅포럼추진 워킹그룹 회의를 개최해 포럼 논의 주제를 확정한 바 있다.원지사는“부서간 협력을 통해 도의회, 도민사회, 언론이 참여하고 공감할 수 있도록 해야 한다”며 “CFI 실행력 기반 구축 방안과 그에 따른 이슈로 제기한 사항 등을 부서간 협력하여 강화해 나가겠다”고 말했다.이어 “미래 세대를 위한 논의들을 통해 제주와 대한민국을 연결시키는 구체적인 기획을 논의해 달라”며 “실행계획이 마련되면 제주도는 지원을 아끼지 않겠다”고 말했다.한편 제주도 저탄소 정책과 관계자는 다음달 26일경 4차 포럼를 개최할 예정이라며 여기에서 확정된 사업안에 대해 내년도 사업계획에 반영할 예정이라고 밝혔다.관계자는 외부로 부터의 전기송전 시설을 제외하면 제주도의 에너지 자립도가 30% 정도에 그치고 있어 이에 대한 도민들의 인식이 무엇보다 필요한 시기라며 신재생에너지인 풍력, 태양광 시설과 ESS등 에너지관련 기반시설 구축이 우선되야 한다고 말했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      필자가 3월 4일자 &lt;프레시안&gt;에 기고했던 칼럼(☞바로 가기 : "핵폐기물, 답이 없다")에 대해 카이스트 원자력 및 양자공학과의 윤종일 교수가 &lt;주간조선&gt; 4월 1일자 기고(☞바로 가기 : "[지상논쟁] 사용후핵연료 처리 답이 없는 게 아니라 의지가 없는 것!")를 통해 진지한 비판을 해주었다. 지상을 통한 논쟁 제안에 기꺼이 화답하고자, 그리고 윤종일 교수의 오해 또는 나와의 중요한 의견 차이를 확인할 필요성에서 &lt;프레시안&gt;의 지면을 다시 빌고자 한다.   우선 윤종일 교수는 내가 "과학적 근거가 매우 희박한 비전문가의 말을 인용"하면서 "마치 사용후핵연료 문제 해결에 답이 없기를 희망하는 것처럼 느껴진다"고 썼다. 이런 지적은 절반은 틀리고 절반은 맞을 것 같다. 과학을 모르는 비전문가란 다카기 진자부로 선생은 아닐 테고 아마도 프랑스의 다큐멘터리 감독을 지칭하는 것으로 보인다. 그런데 그가 핵물리학 전공자가 아닐 공산이 크므로 전문가가 아니라고 할 수는 있어도, 사용후핵연료를 다루는 작품을 짜임새 있게 만들 수 있을 만큼 핵발전에 대한 종합적 지식을 갖추었으므로 비전문가라고 매도할 것은 아니라고 본다. 오히려, 자신의 전공 영역 외의 분야에 대해서는(심지어 핵발전과 방사능 관련 주제에 대해서도) 깊은 지식이나 현장 경험이 없는 핵공학자들이 많이 있다. 또한, 사용후핵연료 처리 문제가 핵물리학과 공학의 시각에서만 해결될 수 있는 게 아니라는 것을 다큐멘터리 "영원한 봉인"은 일깨워주고 있고, 나는 인류사적 시간을 초월하는 문제에 대한 역사철학적 관점과 감성을 핵발전을 찬성하는 이들도 조금쯤은 공유했으면 하는 바램을 갖는다는 것을 인정한다. 또한, 나는 사용후핵연료 문제에 답이 없기를 희망하는 것이 아니라 현재로서는 해결 방법을 찾기 어려운 문제라는 나의 판단에 가급적 많은 사람들이 동의하기를 희망한다는 것도 밝힌다.   하지만 윤 교수가 전문적인 식견을 바탕으로 반론을 제기한 것을 나는 기쁘게 읽었고 얼마간 배움을 얻었다. 적어도 윤 교수의 설명은 사용후핵연료를 재처리하여 핵 사이클이 완성되면 폐기물 문제가 해결된다고 주장하는 적잖은 찬핵 논자들이나, 사용후핵연료는 처음 300년간 대부분의 방사능이 소멸되어 손으로 만질 수준이 된다고 주장하는 정범진 교수의 말과는 차원이 다르다. 윤 교수는 플루토늄을 포함하는 사용후핵연료 처리는 생명체가 접근할 수 없는 외진 곳을 찾아서 몇 번의 반감기가 지나는 충분한 시간 동안 격리하는 방법밖에 없다는 중요한 전제에서 출발하기 때문이다.   윤 교수는 사용후핵연료의 처분이 공학적으로 충분히 가능하다는 점을 두 가지 논거를 가지고 설명한다. 하나는 사용후핵연료의 위해도는 방사능 총량이 아니라 방사성 핵종의 지하수 용해도에 좌우된다는 것이다. 다른 하나는 사용후핵연료를 둘러싸는 구리로 된 2차 방벽과 완충재의 3차 방벽 그리고 4차 방벽의 역할을 하는 천연암반 덕분에 유출과 용해를 차단할 수 있다는 것이다. 때문에 그에 따르면 설령 방사성핵종이 녹더라도 지하수를 통해 1미터 정도를 이동하는 데만 수십만 년 이상의 시간이 걸리고 방사능 유출률은 급격히 떨어지게 된다. 그리고 아프리카 가봉 오클로의 천연암반 사례를 통해 자연 상태에서도 이러한 현상이 발견된다는 것을 일러준다. 자연이 스스로 행하는 방사능 차단을 인간이 첨단과학으로 건설하는 더 깊고 견고한 시설이 하지 못할 이유가 없다는 것이다. 그래서 윤 교수는 "예기치 않은 변화조차도 고려하는 게 과학"이며 대중의 막연한 불안감을 이용하여 근거 없는 공포감을 조성하고 전문가들의 과학적 의견보다 비전문가들의 확증편향적 주장을 더 신뢰해서는 안 된다고 조언한다.   그런데 윤 교수가 오해한 것 중 하나는 내가 사용후핵연료 처분장이 미래의 예기치 않은 변화를 감당할 수 있으리란 보장이 없다고 한 것은 그저 심지층 처분시설의 물리적인 건전성과 안전성 유지의 문제를 말한 게 아니라는 점이다. 처분시설 관리를 책임져야 할 국가와 정부가 앞으로 십만년이 아니라 수백년 사이에 전쟁이나 정변 같은 위기 상황에 처해도 사용후핵연료를 안전하게 지킬 수 있을 것인가, 적절한 예산과 기술력이 지속적으로 투입되지 않아도 지진이나 기후격변뿐 아니라 도난이나 인위적 도용을 막을 수 있을 것인가를 묻는 것이다. 극단적인 가정이라고 치부할지 모르겠지만, 예기치 않은 변화조차도 과학기술은 대비해야 하고 10만년 동안 견딜 네 겹에 걸친 방벽을 염두에 두어야 한다고 한 것은 윤 교수다.   윤 교수의 말대로 사용후핵연료를 이대로 방치할 수는 없고, 이를 안전하게 관리할 수 있도록 공학적인 고민과 사회적 합의를 위해 노력해야 한다. 그래서 윤 교수에게 몇 가지 질문을 돌려드린다. 나는 사용후핵연료가 공학 이론적으로 격리 처분될 수 있고 충분한 안전성을 보장할 수 있다는 그의 설명에 상당히 동의할 수 있다. 과거 방폐장 갈등이 한창일 때 서울대 원자핵공학과 교수들이 관악산 암반에 처분장을 둘 수 있다고 제안한 것의 진정성까지도 어느 정도 신뢰한다. 그러나 그것이 지금 한국의 사용후핵연료 처분 방식 결정에 대체 무슨 도움이 되는가?  윤 교수의 설명과 같이 4차 방벽까지 갖춘 부지는 어디에 있는가? 그것은 한국에서 매년 750톤 이상 새로 발생하는 사용후핵연료를 능히 담을 수 있는 크기인가? 또 관악산이 아니라 어느 벽촌 산간이나 외진 어촌이라 하더라도, 이제까지 누적된 것들 말고도 매년 그만큼의 양을 엄청난 부피와 무게의 금속제 보관용기에 담아 처분장으로 옮기는 게 가능할까? 공학적으로 가능하다 하더라도 사회적인 반발과 갈등을 감당할 수 있을까? 그리고 빠질 수 없는 질문, 설계와 시공 뿐 아니라 이송과 관리에 얼마나 돈이 들고 그 돈은 누가 어떻게 부담할까? 왜 그 계산은 아무도 내놓지 않는가? 공학의 영역이 아니어서 인가?  나는 찬핵 진영이 '블랙아웃'과 '전기료 폭탄'이라는 괴담에 의지하지 않기를 바라는 만큼, 핵발전에 반대하는 이들도 비과학적인 괴담에 사로잡히기를 바라지 않는다. 때문에 사용후핵연료 처분 문제가 괴담이 아니기 위해서라면 처분과 관련한 공학적, 사회적, 경제적인 여러 측면들을 투명하게 논의해야 한다고 말하고 싶은 것이다. 나 역시 사용후핵연료 처분이 너무 큰 걱정이지만 윤 교수는 사용후핵연료 처리의 답을 찾을 "의지가 없으니 길이 보이지 않는 것"이라고 질타한다.   의지 박약의 문제일까? 로키마운틴 연구소의 에머리 로빈스는 지금부터 한참 전인 1976년에 &lt;에너지 전략: 선택되지 않은 길(Energy Strategy: The Road Not Taken?)&gt;이라는 저술에서 화석에너지와 핵에너지 중심의 '경성 에너지'와는 다른 재생가능에너지와 효율 중심의 '연성 에너지'의 경로가 가능하고 또 필요하다고 말했다. 40여 년 전과 비교하면 로빈스의 생각들은 많은 부분 상식이 되었고, 그의 글 제목대로 나는 다른 에너지의 길을 찾을 의지를 요청하고 싶다. 그러나 그 길은 더 이상 사용후핵연료 발생을 늘려서는 더욱 요원해진다는 판단을 공유하는 데에서 시작될 것이다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      원희룡 제주도지사가 도내 스타트업 기업들이 모인 자리에서 지원 노력에도 불구하고 제도적‧법률적 한계가 있다며 정치권과 행정이 더 많은 논의를 벌여 기업인들이 외롭지 않도록 해나가겠다고 약속했다.원희룡 지사는 19일 오후 열린 제주스타트업 커넥트 2019의 일환으로 개최된 토크 콘서트, 앞으로 10년, 제주는 무엇을 해야 하나에서 이같이 밝혔다.   원희룡 제주도지사가 19일 도내 스타트업 기업들과 토크 콘서트를 진행했다. ⓒ제주특별자치도   제주스타트업 커넥트 2019는 도내 유수 스타트업 기업들과 제주더큰내일센터, 스타트업협회 등 7개 지원단체가 모여 다가올 10년을 논의하기 위해 마련됐다.토크콘서트는 원희룡 도지사와 제주테크노파크 태성길 원장, 제주더큰내일센터 김종현 센터장, 제주창조경제혁신센터 전정환 센터장, 제주스타트업협회 남성준 회장, 코리아스타트업포럼 최성진 대표가 참여했다.원희룡 지사는 “올해 도정의 미래산업 육성정책 중 가장 잘한 일이 공약사항이었던 청년인재육성기관 더큰내일센터출범”이라며 “선발된 인재들이 취업・창업 등 이곳에서 실제 2년 동안 어떤 결실을 거둘지 관심 있게 지켜보고 있다”고 말했다.이어 “이미 카이스트 창업 스쿨, 제주투자를 희망하는 수도권 및 일본・중국 기업들이 큰 관심을 가지고 있다”며 “기업들과 실질적인 협의를 통해 교육과정이 끝나기 전에 인재들과 연결되고 맞물려 돌아가서 성과를 낼 수 있길 바란다”고 밝혔다.원희룡 지사는 “도내 스타트업 기업들 지원을 위해 노력하고 있지만 국가의 제도적 법률적으로 제한으로 한계가 있어 안타깝고 미안하게 생각한다”며 “여야를 통틀어 개방적이고 혁신적인 분들과 더 많은 논의를 통해 정치권과 행정에서 열심히 하는 기업인들이 외롭지 않도록 해나가겠다”고 약속했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲지난해 10월 열린 KAIST 발전후원의 밤 행사에 송지나 작가 및 드라마 카이스트 출연진과 함께 참석해 축사 중인 배우 이민우 ⓒ KAIST       지난 1999년 1월부터 2000년 10월까지 SBS 드라마 ‘카이스트’에 전기과 학생으로 출연했던 탤런트 이민우씨가 KAIST 홍보대사로 위촉됐다.  이민우씨는 “드라마 카이스트는 가장 애착이 가는 작품 중 하나이자 많은 팬들이 아직도 기억해주는 작품”이라며 “저에게는 각별한 의미를 가진 KAIST의 홍보대사를 맡게 돼 영광이며 나날이 새롭게 발전해나가는 KAIST를 널리 알릴 수 있도록 최선을 다하겠다”라고 소감을 밝혔다.  이씨는 앞으로 KAIST 홍보대사로서 대내외 주요행사 참석과 강연 및 세미나 등에 참여할 예정이다.        ▲탤런트 이민우 ⓒ KAIST    신성철 KAIST 총장은 “글로벌 가치창출로 세계를 선도하며 포용적 성장을 실천하고 있는 KAIST의 위상과 가치를 전파하는 중요한 역할을 부탁한다”고 당부했다.  한편 배우 이민우씨의 KAIST 홍보대사 위촉식은 19일 롯데호텔 서울에서 열리는 KAIST 총동문회 신년교례회 행사에서 진행된다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           에어 스캐폴딩(air scaffolding) 시연 ⓒ KAIST        KAIST 산업디자인학과 배석형 교수 연구팀이 디자인 과정에서 발생하는 반복적인 작업을 획기적으로 단축시킬 수 있는 3D 스케칭 기술 에어 스캐폴딩(air scaffolding)을 개발했다.  이 기술은 지난 4월 캐나다 몬트리올에서 열린 ‘미 컴퓨터협회 인간-컴퓨터 상호작용 학회(ACM CHI 2018)’에서 전체 2500여 편의 논문 중 상위 1퍼센트에게만 주어지는 최우수 논문상을 수상했다. 현재 평면 그림을 입체 형상으로 변환하는 경우 입체 형상을 카메라로 찍거나 그림으로 표현하면 깊이 정보의 손실이 발생했고 반대로 평면 그림이나 사진으로부터 입체 형상을 만들 때는 존재하지 않는 정보가 추가적으로 필요한 것으로 알려졌다. 특히 직접 그린 부정확한 그림에서 의도에 부합하는 입체 형상을 유추하는 것은 매우 어려웠다.  3D 스케칭 기술은 이러한 어려움을 극복하기 위해 활발히 연구된 기술로 가상의 3차원 공간 안에 스케치한 그림을 돌려보거나 앞뒤로 이동하며 평면 그림에서 얻을 수 없던 입체 형상 정보를 채울 수 있게 됐다. 이에 따라 복잡한 3D 캐드 모델링 소프트웨어를 사용하지 않아도 펜과 종이를 사용하듯 입체 형상을 곧바로 그릴 수 있었다.  그러나 가상현실 기술의 대중화와 더불어 주목받고 있는 기존의 공중 3D 스케칭 기술은 전체 스케칭 과정을 공중에서의 부정확한 손 움직임에 의존하기 때문에 정교한 결과물을 생성하지 못하고 장시간 사용 시 피로를 유발한다는 단점이 있었다.  배 교수 연구팀은 기존 기술의 단점을 보완해 2016년 ‘스케칭위드핸즈(SketchingWithHands)’라는 3D 스케칭 기술을 개발한 바 있다.  공중의 손 자세 정보와 태블릿 상 펜 드로잉 기법을 결합한 것으로, 적외선 손 추적 센서로 손 모양을 캡처한 뒤 그 손 정보를 3D 캔버스 안에 넣어 정보를 토대로 스케치를 할 수 있는 기술이다.  연구팀은 2018년 이 기술을 발전시켜 ‘에어 스캐폴딩(air scaffolding)’을 개발했다.  이전 버전이 손 정보 기반 기술이기 때문에 손으로 쥐는 제품에 국한됐다면 에어 스캐폴딩 기술은 손의 움직임 정보까지 함께 활용함으로써 한 손에 쥐기 힘든 더 큰 규모의 제품에도 적용할 수 있다.        손 추적 센서가 측정한 손 관절의 3D 이동 경로 ⓒ KAIST  예를 들어 디자이너가 인라인 스케이트 제품을 디자인하는 경우, 상상 속의 스케이트를 쓰다듬듯이 공중에서 손을 움직여 대략적 크기와 비율을 나타내면 적외선 손 추적 센서가 측정한 손 관절의 3D 이동 경로로부터 입체 그물망 형태의 밑그림(scaffolding)이 실시간으로 추출할 수 있게 돼 정확한 크기와 비율의 인라인 스케이트의 입체적 형상 디자인을 완성할 수 있다.  이 프로그램을 통해 대략적인 정보는 손으로 신속하게 입력한 뒤 세밀한 부분은 태블릿에 펜으로 채워 넣음으로써 상호 보완적인 디자인 작업이 가능해진다. 컴퓨터 소프트웨어를 아이디어 개발 과정에서부터 사용함으로써 종이에 그린 아이디어를 모델링 소프트웨어에서 다시 만들어내는 번거로운 과정을 없앤 것이다.  연구팀의 기술은 디자인 실무에 3D 스케칭의 적용 가능성을 높였을 뿐 아니라, 모두가 일상에서 손쉽게 입체적으로 아이디어를 표현하고 공유할 수 있는 기반을 제공했다. 더 나아가 3D 프린팅 등 스마트 생산 기술과 연계돼 빠르고 유연한 제조 혁신에 기여할 수 있을 것으로 기대된다. 배석형 교수는 “진보한 컴퓨터 기술을 활용해 다양한 분야의 창의적인 활동을 돕기 위한 시도들이 이뤄지고 있다”며 “앞으로도 디자이너에 대한 깊은 이해를 바탕으로 첨단 기술을 적용해 디자인 프로세스 혁신에 주도적 역할을 해 나갈 것”이라고 말했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      전북대학교 총장 내정자 김동원 교수ⓒ프레시안 자료      전북대학교 김동원 교수(60·산업정보시스템공학과)가 오는 25일께 문재인 대통령으로부터 전북대학교 총장 임명장을 받을 것으로 알려졌다.  22일 전북대 홍보실 관계자에 따르면 이날 교육부가 김동원 교수에게 빠르면 25일, 늦을 경우 28일께 문재인 대통령으로부터 임명장 수여식이 있을 것이라는 통보를 한 것으로 안다고 밝혔다.  이에 따라 그동안 총장 임용을 둘러싼 인사검증 논란 등은 1차 마무리될 전망이다.  김 교수는 지난해 10월 29일 실시된 전북대 총장 선거에서 1순위 총장 임용후보로 추천됐다. 임기는 4년이다.  국립대 총장은 교육부의 교육공무원 인사위원회 심의-인사혁신처 후보자 제청-국무회의 심의·의결-대통령 재가 절차를 밟아 임용된다. 김 교수는 지난해 10월 30일 기자회견에서 “전국에 300여개 월드클래스기업 있다. 우리 지역에도 최소 10여개 가 있어야 한다. 그러나 단 한 곳도 없다”고 전제하고 “대학의 역할은 지역 인재 키우는 것이다”며 “이제 막 졸업장을 딴 성인 신입생이 아니라 20~30대에 크게 성장할 수 있도록 돕겠다”고 약속한 바 있다.  한편 김동원 교수는 1982년 서울대학교 산업공학과를 졸업했으며, 이후 카이스트 석사를 거쳐 호카이도대학교에서 생산공학 박사학위를 받았다.  지난 2011년, 전북대학교 공과대학장이었던 시절에 정부지원사업 없이 대학 자체예산으로 전북 내 고등학생을 대상으로 창의기술아카데미 캠프를 운영해왔다.  이를 성과로 한국산업기술진흥원의 공모사업에 응시해 전북대 청소년 창의기술인재센터 설립과 운영여건을 마련, 전북 청소년들의 이공계 인재 육성에 기여했다는 평가다.  1988년 4월부터 현재까지 전북대학교 교수로 재직했으며, 공과대학장과 산학협력단장을 지냈다.  현재 전북대 공학교육혁신거점센터장, 전북대 청소년창의기술인재센터장, 교육부 인정기관심의위원장 등의 역할을 맡고 있다.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 금속-리간드 협동성을 이용한 이소시아네이트 합성의 모식도 ⓒ한국연구재단       KAIST 이윤호 교수 연구팀이 독성가스인 포스겐을 사용하지 않고 폴리우레탄의 전구체 이소시아네이트를 합성하는 새로운 촉매법을 개발했다.  폴리우레탄은 플라스틱의 일종으로 합성섬유, 페인트 등 산업적 활용 범위가 넓어 폴리우레탄의 전구체로 쓰이는 이소시아네이트의 소비량도 많다.  그러나 이를 생산하기 위한 기존 산업공정에서 독성가스인 포스겐을 활용하기 때문에 그 유해성이 문제가 되고있다.  연구팀은 금속-리간드(착물에서 중심원자를 둘러싸 결합되어 있는 이온 또는 분자의 총칭) 협동성을 발견하고, 이를 이용해 포스겐 사용을 대체할 수 있는 이소시아네이트 합성법을 보고했다.  금속-리간드 협동성은 3개의 인 원자로 구성된 PPP 리간드가 금속 물질의 화학반응에 직접 참여하는 것이다.  연구팀은 이를 적용해 금속인 니켈과 리간드인 아마이드를 반응시켰다. 여기에 일산화탄소 반응을 더하면 이소시아네이트가 형성된다.  금속-리간드 협동성에서 금속의 산화 상태가 변화함에 따라 인 화합물 기반의 라디칼(짝지어지지 않은 하나의 전자) 홀전자자 형성되고, 이들이 P-P 결합을 형성한다.  이렇게 형성된 이종핵 금속 착물은 결합력이 약한 것이 특징이다.  균일 분해되어 또 다른 라디칼 종을 형성하는데, 이를 촉매로 이용하면 다양한 화학종의 결합 활성 및 절단이 가능하다.        ▲ 이윤호 교수 ⓒ한국연구재단   이윤호 교수는 “우리 연구실에서 규명한 금속-리간드 협동성을 활용해, 저온‧저압 조건에서 이소시아네이트를 합성할 수 있는 새로운 촉매법을 개발했다”며 ”추후 이소시아네이트 기반 산업 및 일산화탄소 기반의 반응 공정 및 촉매 개발에 적용할 수 있을 것으로 기대된다“고 설명했다.  이 연구는 화학분야 국제학술지 앙게반테 케미(Angewandte Chemie) 9월 7일자 논문으로 게재됐다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      문재인 대통령이 29일 원자력안전위원회 위원장, 국민권익위원회 부위원장 등 차관급 인사를 단행했다. 새 원자력안전위원회 위원장으로는 강정민 미국 천연자원보호위원회(NRCD) 선임연구위원이 임명됐다. 경남 김해 출신인 강정민 위원장은 서울대학교에서 원자핵공학과 석사를 마치고 일본 동경대학교에서 시스템양자공학 박사를 받았다. 한국원자력연구원 연구원, 미국 존스홉킨스대학교 국제대학원(SAIS) 객원연구원, 한국과학기술원(KAIST) 원자력 및 양자공학과 초빙 교수 등을 역임했으며, 신고리 5·6호기 공론화위원회에 건설 재개 반대 전문가로 참여했다. 국민권익위원회 부위원장으로는 권태성 현 국민권익위원회 기획조정실장이 승진 임명됐다. 부산 출신인 권태성 부위원장은 고려대학교 행정학과를 졸업해 행정고시 29회를 합격한 관료다. 권태성 부위원장은 국민권익위원회 상임위원, 국무조정실 정부업무평가실장, 국무조정실 새만금사업추진기획단장 등을 지냈다. 원자력안전위원회는 원전 정책을 다루는 컨트롤타워다. 김용환 전 위원장은 임기를 절반 가량 남겨두고 최근 사직서를 제출했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      2015년은 6.15공동선언 발표 15주년이 되는 해입니다. 2000년의 한반도는 남과 북 사이에 화해와 교류협력, 평화의 기운이 넘쳐났으며 통일논의가 활발했습니다. 그러나 이명박·박근혜 정권 이후 남북 당국과 민간 교류는 대부분 단절됐고 남북관계 개선의 기미는 보이지 않고 있습니다.   분단 70년, 광복 70년, 6.15공동선언 발표 15주년을 맞이하는 올해 다시금 남북관계 발전과 평화, 나아가 통일을 모색하기 위해 '평화통일시민행동'에서 '평화통일시민강좌'를 마련했습니다. 언론 협동조합 &lt;프레시안&gt;은 모두 6회에 걸쳐 진행되는 이번 강연의 주요 내용을 소개합니다.   마지막 순서로 지난 11일 경기도 파주에 위치한 임진각 내 경기평화센터에서 '개성공단의 미래'를 주제로 김진향 전 개성공단관리위원회 기업지원부장 (현 카이스트 미래전략대학원 연구교수)의 강연이 열렸습니다.   김 교수는 개성공단이 북한에 돈을 '퍼주는'사업이 결코 아니라고 목소리를 높였습니다. 그는 "1년에 북측에 들어가는 금액이 임금과 세금을 합쳐 900억 원 정도입니다. 우리 기업들은 공단에서 이 정도의 비용을 지불하고 최소 15배, 30배 남는 장사를 합니다. 이것이 정말 퍼주기입니까"라고 반문했습니다.   그는 개성공단이 작은 평화와 통일을 만들어가는 공간이라고 강조했습니다. 김 교수는 "(남북이) 추구하는 가치, 진선미의 기준, 말투, 사고방식을 배워갑니다. 상대방을 알면 이해하게 됩니다. 그리고 알아가는 과정이 상호존중의 과정입니다. 개성에서 작은 통일이 이루어지고 축적돼 갑니다"라면서 "이런 과정이 통일과 평화를 이루어 가는 것이라고 생각합니다"라고 밝혔습니다. 다음은 이날 강연의 주요 내용입니다.&lt;평화통일시민강좌&gt; ① 남북 정상회담, 6.15와 8.15에 달렸다 (정창현 국민대학교 겸임교수)② 미일 vs. 중러, 고래 틈에 낀 한국 생존법은? (남문희 &lt;시사인&gt; 한반도 전문기자)③ "이승만 살인미수는 안 죽여도, '통일'만 말하면…" (한홍구 성공회대학교 교수)④ "러닝머신 같은 남북관계, 안 뛰면 넘어져" (김연철 인제대학교 교수)⑤ "박근혜 대북정책, 쓰나미 오는데 조개 줍는 격" (정세현 전 통일부 장관)  개성공단을 보면 통일이 보인다  통일은 화해협력, 남북연합, 완전통일의 3단계가 있습니다. 남북이 서로를 존중하며 이루어 나가는 통일은 돈도 별로 들지 않습니다. 하지만 흡수통일은 다릅니다. 그런데 문제는 흡수통일로 인해 '통일비용'이 들 것이라는 전망은 기만이고 허구입니다. 실제 흡수통일은 일어나지 않을뿐만 아니라 가능하지도, 가능해서도 안되는 것이기 때문입니다.   흡수통일의 가정이 성립되려면 북한이 무너질 수 있어야 합니다. 일단 무너진다고 칩시다. 북측이 붕괴한다고 하면 북측 주민 2480만 명 중 10%만 남한에 내려와도 248만 명입니다. 이 사람들을 우리가 받아야 하는데, 대한민국 경제가 248만 명을 책임질 수 있습니까?  다시 전제를 생각해 봅시다. 북한 정권이 무너질 것이라고 믿는 것은 '이데올로기', 즉 이념입니다. 왜 6.15 남북공동선언과 10.4 남북정상선언이 이행되던 시절에는 북한 붕괴에 대해 언급이 없다가 이명박 정부 들어서 다시 북한 붕괴론이 나오겠습니까? 그 사이에 무슨 큰일이 일어난 것인가요? 우리의 정권교체에 따라서 북한 정권은 붕괴할 수도 있고 아닐 수도 있나요?    ▲ 김진향 전 개성공단관리위원회 기업지원부장 (현 카이스트 미래전략대학원 연구교수) ⓒ평화통일시민행동    평화의 오랜 제도와 과정이 결국 통일입니다. 평화는 너무나 간단합니다. 상호존중하면 됩니다. 남과 북의 역사적인 4대 합의가 있습니다. 1972년 7.4 남북공동성명, 1991년 남북기본합의서, 2000년 6.15 공동선언과 2007년 10.4 선언입니다. 이 합의들을 관통하는 하나의 정신은 '상호존중'입니다. "서로가 서로의 체제를 강요하지 않는다, 너희는 그렇게 살아라, 우리는 이렇게 살겠다, 다만 욕하지 말자, 싸우지 말자, 적대하지 말자" 입니다. 어렵습니까? 우리 사회 속에서 불교와 기독교와 가톨릭 모든 종교들이 공존할 수 있는 것처럼 남과 북이 공존할 수 있습니다.  적대가 적대를 낳고 대립이 대립을 낳습니다. 호혜와 평화가 호혜와 평화를 낳습니다. 상호존중의 과정이 없는 통일 대박은 재앙입니다. 6.15공동선언 2항은 '남과 북은 나라의 통일을 위한 남측의 연합제안과 북측의 낮은 단계의 연방제안이 서로 공통성이 있다고 인정하고 앞으로 이 방향에서 통일을 지향'하기로 한 남북의 합의 사안을 담았습니다. 북한은 남과 북의 낮은 단계의 연방을 최종적으로 하고 완전통일은 후대에 맡기자고 했습니다. 국가 지침으로 삼았습니다. 학자의 입장에서, 많은 협상을 했던 실무자의 입장에서 생각을 해보면 맞습니다.   북한이 적화야욕으로 호시탐탐 남측을 노리고 군사적 충돌을 계속 일으킨다구요? 그들과 매일 같이 협상하고 토론하는 학자의 입장에서 그것이 아니었다는 것을 체험적으로 확인하게 되었습니다. 미안한 감정이 들었습니다. '내가 이들을 적대했구나, 분단체제 70년간 우리는 아무것도 모르고 맹목적으로 비난하고 맹목적으로 적대 했구나'라는 마음이 들었습니다.   MB "개성공단에서 새로운 것은 아무것도 하지 마라"  개성공단에 들어간 기업들은 돈을 참 많이 법니다. 현재 개성공단 부지가 100만 평입니다. 2000년에 합의하고 2003년에 첫 삽을 떴습니다. 합의대로라면 2012년 기점으로 2000만 평 부지에 2000개 기업이 있는 50만 명의 대도시, 연 500억 달러의 생산량이 예상됐습니다. 또 해주, 남포를 비롯해 6~7개 도시에 개성공단 같은 시스템이 돌아가고 있어야 했습니다. 만약 이것이 현실화됐다면 남북 간 실질적인 경제공동체가 만들어지고 경제 분야에서의 상호 공존성이 엄청나게 높았을 것입니다.   그런데 현재 2000만 평 중에 100만 평 정도만 개발돼있고 이마저도 공장이 들어선 지역은 38.7%에 불과합니다. 나머지 대지는 방치되고 있습니다.   언제부터일까요? 이명박 정부가 들어선 2008년 2월부터 입니다. 5.24조치 때문에 중단된 것이 아니라 정부 정책적으로 이미 2008년 2월부터 추가 신규투자를 다 막았습니다. 제가 당시에 개성공단관리위원회 기업지원부장으로 있었는데요, 대북협상 과정에서 지침이 내려옵니다. 기업들은 눈앞에 돈이 보이니 공장을 더 짓게 해달라고 요구하는데 허가를 안해줍니다.   이명박 정부 시절 용역을 줬습니다. 개성공단이 문 닫았을 경우 발생할 수 있는 정치, 사회, 경제적 측면의 파장에 대해서 연구를 했습니다. 결론은 '감당할 수 없다'였습니다. 그래서 어떠한 새로운 시도도 하지 않고 기존에 하던 것만 유지하는 상황이 됐습니다. 지금의 개성공단 상황은 매우 비정상적으로 돌아가고 있습니다.   현재 개성공단은 124개 기업이 들어가 있고 800명의 남측 노동자와 5만 3000명의 북측 노동자가 함께 일하고 있습니다. 1년에 북측에 들어가는 전체 금액이 임금과 세금을 합쳐 900억 원 정도입니다. 1억 달러가 안 됩니다. 개성공단 가지고 퍼주기, '달러박스' 라고 이야기 하는데 우리는 최소한 15배, 30배 남는 장사를 합니다. 이런 것은 왜 보도 안 합니까? 정말 퍼주기이고 달러박스입니까? 국민들은 제대로 알아야 합니다.   남북관계는 평화, 안보, 생존의 영역이기 때문에 제대로 이야기해야 합니다. 북한은 찌질하지 않다, 만만치 않다고 이야기해야 국민들이 제대로 판달 할 거 아닙니까. 그 제대로 된 판단을 다 가려버리면 누가 감당할 겁니까? 특히나 군사적 문제는 중요합니다. 감당이 안 됩니다. 총체적 무지입니다. 북한에 대해 잘 모르는 '북맹'이 너무 많습니다. 정부 당국자들조차 잘 모릅니다. 그들은 북한이 예측할 수 없다고 합니다. 모르기 때문에 예측할 수 없는 것입니다. 알면 보입니다.   매일 매일 작은 통일이 이루어지는 개성공단  개성공단의 남측 주재원이 많을 때는 2500명이었지만, 지금은 800명 정도입니다. 어떻게 그들이 매일 매일 상호 오해와 갈등을 넘어 하나가 되어 가는지 설명하겠습니다.   현재 북측 근로자들은 연장, 야근, 특근 전부 해서 월평균 15만 원을 받습니다. 최초 2003년에는 50불, 우리 돈으로 5만 원에서 시작해서 연장, 야근, 특근 다하면 6만 원이었습니다. 5% 상한선이 있어서 10년 후에는 많이 쳐서 15만 원 받습니다.    개성공단 내 북측 노동자들 ⓒ개성 공동취재단    그런데 북·중 국경 지역의 중국 공단에서 일하는 북측근로자는 300~400불, 우리 돈으로 약 35~45만 원 받습니다. 우리에게 중동 특수가 있는 것처럼 북한도 중국에 인력을 많이 내보냅니다. 많이 받는 사람은 1000달러, 약 115만 원 까지도 받습니다.   그럼 이때 떠오르는 의문, 북한은 왜 남한과 함께 개성공단을 만들었을까요? 우리는 경제주의적인 관점에서 돈을 벌려고 개성공단을 합니다. 평화에 복무하고 호혜적인 경제프로젝트, 평화프로젝트라는 것은 부차적인 이유입니다. 하지만 북측은 첫 번째도 두 번째도 세 번째도 평화라고 이야기합니다. 개성공단 땅의 일개 보병사단, 포병사단을 송악선 북쪽으로 올리면서까지 개성공단을 했기 때문입니다. 입장을 바꿔서 생각해 봅시다. 우리가 고양에 있는 1사단을 삼각산 쪽으로 보내고 남북공단을 만들 수 있습니까? 말이 안됩니다.   초기 임금 산정 과정 당시 저는 청와대에서 그 협상을 진두지휘했습니다. 북측은 300달러, 우리는 200달러를 제시했습니다. 그런데 김정일 국방위원장으로부터 50달러에서 시작하자는 통지가 왔습니다. 그들이 정말 돈이 필요했으면 이랬을까요? 이 모든 사실들은 그들에게는 돈이 중요한 것이 아니라 평화가 중요함을 이야기 합니다.   북측 근로자에게 왜 일하느냐고 물어봅니다. 우리의 기준에서 보면 직장에서 일을 한다는 것은 임금을 받고 가족의 생계를 책임지는 것입니다. 북측은 임금의 개념이 없고 생활비라는 개념이 있습니다. 북측에서는 노동을 우리의 기준인 임금으로 보지 않습니다. 사회주의 경제 질서에서는 노동의 개념을 돈으로 환산하지 않습니다. 다를 뿐입니다. 기업에서 일해서 생활비를 받아가는 것이 아닙니다. 국가가 주는 것입니다. 왜? 국가가 자기를 파견시켰기 때문입니다. 고용과 피고용의 개념이 없습니다. 사장이 나를 고용한 것이 아니라 나는 국가적 조치에 의해서 당이 나에게 준 '분공'이라 생각합니다. 우리에게는 생소한 개념입니다.   개성공단에 들어갔을 때 처음 겪는 갈등이 이런 것입니다. 남측의 사장이 일을 시키면 북측의 근로자들은 고용과 피고용의 개념이 없기 때문에 황당하게 쳐다봅니다. 우리에겐 사장님의 말이 맞죠. 전 세계 상식입니다. 내가 고용을 했고 내가 임금을 주지 않습니까. 하지만 그 사람들은 국가적 조치에 의해서 온 것일 뿐입니다. 우리와 다릅니다.   이런 과정을 통해 서로 배우게 됩니다. 이 배움이 모든 오해를 풀게 합니다. 그것이 통일의 과정입니다. 사소하게 고용과 피고용의 개념을 이야기했지만 서로가 추구하는 가치, 진선미의 기준, 말투, 사고방식을 배워갑니다. 상대방을 알면 이해하게 됩니다. 그리고 알아가는 과정이 상호존중의 과정입니다. 개성에서 작은 통일이 이루어지고 축적돼 갑니다. 개성에서 우리 기업들이 정착되어 가는 과정을 보면 이것이야말로 서로 알아가면서 통일과 평화를 이루어 가는 것이라는 생각이 듭니다.   ▲ 개성공단 전경 ⓒ개성 공동취재단    그런데 개성공단에 투자하는 사장님들이 왜 2013년에 6개월 동안 잠정중단 됐음에도 불구하고 단 한 개 기업도 빠져나가지 않았을까요? 왜 전국을 돌면서, 도보 행진 하면서 개성공단 정상화를 이야기했을까요? 투자하는 사장님들이 저한테 이렇게 이야기합니다.   "김박사, 개성에서 돈 못 벌면 기업도 아니야"  공단 가동이 중단됐던 6개월 동안 사장님들은 동남아 지역을 돌면서 혹시 개성공단을 대신할 곳이 있을지 찾아봤습니다. 다 돌아보고 나서 한결같이 이야기합니다. 전 세계 어디에도 개성공단 만한 경쟁력을 가진 곳이 없다고. 개성공단이 안되면 이미 그들은 그 어디에서도 사업을 할 수 없다는 것을 압니다. 그것이 남과 북의 경협입니다. 상호존중만 하면 대박입니다. 상상할 수 없는 대박입니다.   그런데 지금의 남북관계를 보면 참 마음이 아픕니다. 기존에 계획했던 경협마저 제대로 하지 못하는 현 상황은 민족사의 관점에서 봤을 때 후대들에게, 미래 세대들에게 죄짓는 것입니다. 지난해 러시아가 10년간 250억 달러를 투자해서 북측 철도 3700km를 현대화하는 양해각서(MOU)를 체결했습니다. 그 사업은 2007년 10.4선언 당시 부속합의에서 우리가 하기로 되어 있던 사업이었습니다. 러시아는 지하자원을 가져오고 그 후속으로 러시아가 발전소를 짓기로 했습니다. 이 모든 것이 원래 우리가 하려고 했던 것들입니다.  남북이 함께할 수 있는 철도, 도로, 항만 등 엄청난 사회간접자본(SOC)사업들이 있습니다. 중동 특수의 수백 배, 수천 배가 북측에 있습니다. 왜 대한민국 기업들이 5.24조치 해제하고 북한에 올려달라고 하겠습니까. 남과 북이 완벽하게 윈-윈할 수 있기 때문입니다. 우리는 제2의 한강의 기적을 만들고 북측은 대동강의 기적을 만들 수 있기 때문입니다.   개성공단의 부침과 정상화  2008년 2월 국방부 장관은 '북한은 주적이다'라고 선언했습니다. 10.4선언의 잉크도 채 마르지 않았을 때입니다. 김하중 통일부 장관이 2008년 3월 "북핵 문제 해결 없이 개성공단의 확대는 불가하다, 개성공단의 중단까지 염두에 두고 있다"라고 밝혔습니다.   그때부터 저는 죽어났습니다. 개성공단에서 대북협상을 하고 있었는데요. 북측 파트너가 매일 통지문 가지고 저한테 흔들어댑니다. 어떻게 할 거냐고. 10.4선언, 부속합의들, 기숙사 건설, 탁아소 건설, 철도, 도로 연결 다 하기로 했는데 우리가 다 거부했기 때문입니다. 어떻게 할 거냐고 재촉하는 북측 관계자에게 저는 기다려 보라고만 이야기했습니다. 심지어는 차라리 저를 추방시켜 달라고 이야기도 했습니다.  "김진향 선생 어디 있어. 어떻게 할 거야" "제발 날 좀 두 달만 쉬게 보내줘. 내가 빚쟁이도 아니고. 나 이거 접수 못 해. 접수하지 말라 했어"  2009년과 2010년, 남북 당국 간 개성공단 실무회담을 6번 했습니다. 그런데 10시간 동안 있으면서 10분 남북 연락관 접촉하고 9시간 50분 동안 만나지도 않았습니다. 개성공단은 '미운오리새끼'이고 '꿔다놓은 보릿자루'였습니다. "내버려둬라, 새로운 것은 아무것도 하지 마라"가 지침이었습니다. 저는 그때 우리 스스로 할 수 있는 것이 없다고 생각했습니다. 그래서 2011년까지 그 상황을 보고 나오게 됐습니다.    ▲ 파주 도라산 전망대에서 개성공단에 대해 설명하고 있는 김진향 교수 ⓒ평화통일시민행동    개성공업지구는 조선민주주의인민공화국의 법에 따라 관리·운영되는 국제적인 공업지역입니다. 남북이 정상적인 관계였을 때에는 북측의 주권법에 따라 운영되는 주권 지역이었지만 남측과 충분히 협의했습니다. 하지만 남북관계가 적대적으로 되는 순간 그렇게 안 됩니다. 공단 안에서 적대 행위가 발생합니다.   심지어 스파이 행위가 발생한 적이 있습니다. 한 남측 직원이 북측 여직원을 데리고 나오려고 작업했다가 적발된 겁니다. 북측은 당시 이 직원을 116일 동안 억류했다가 풀어줬습니다. 이후 국정원이 기무사와 조사를 진행 했는데 실제로 그 직원은 북측 여직원을 빼 오려고 시도했다고 합니다. 이런 일이 발생하다 보니 북측은 남측 인원 2500명 중에 최소 생산 인원만 남겨두고 공단에서 나가라고 했습니다. 그래서 남측 체류 인원이 800명으로 줄어들었습니다.   왜 남북의 공단이 적대와 대립의 상징이 됐을까요? 처음에 공단을 만들 때와는 상황이 많이 바뀌었습니다. 북측은 변화된 조건에 맞게 개성공단의 법과 제도를 바꾸겠다고 계속 요구했습니다. 하지만 남측은 계속 이를 무시했습니다. 북측은 계속 던집니다. 남측은 계속 회피하고 북측은 일방적으로 발표합니다. 남측은 일방적으로 발표했으니 인정할 수 없다고 합니다. 이것이 변해버린 개성공단이었습니다.   언론이 보도합니까? 안 합니다. 아무도 몰라요. 공단은 그렇게 비정상화 되었습니다. 지난 12월 임금 관련해서 북측은 북측 최고인민회의 상임위 정령으로 법을 바꿨습니다. 남북이 같이 운영하던 개성공단이 법적, 제도적으로 북측의 공단이 돼버렸습니다. 북측이 남측의 기업들과 사업을 하는 모양이 돼버린 겁니다.   미래가 불안정하면 공단의 생산도 불안정해집니다. 남북 당국 간 관계에서 불신과 대립이 심해지면 안에서 일하는 남북근로자들 관계 역시 참 서먹해집니다. 말을 안하려고 합니다. 서로 눈치 봅니다. 예전에는 같은 사무실에서 같이 떠들고 이야기하고 술도 마셨는데 그 모든 것이 2008년 2월 이후로 끊겼습니다. 우리도 그들도 그저 물건을 찍어내고만 있습니다. 이것은 정상이 아닙니다. 공단의 진정한 '정상화'가 시급히 필요합니다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      분산도 100% 로듐 앙상블 촉매를 이용한 자동차 배기가스 정화 반응 개념도       자동차 배기가스를 정화하는데 있어 시중의 디젤 산화 촉매에 비해 50도 낮은 온도에서 100%의 전환율을 달성하는 분산도 100%의 로듐 앙상블 촉매가 개발됐다.  KAIST는 생명화학공학과 이현주 교수가 포항공대 한정우 교수와의 공동 연구를 통해 자동차 배기가스 정화에 사용할 수 있는 분산도 100%의 로듐 앙상블 촉매를 개발했다고 23일 발표했다. 프로필렌(C3H6)과 프로판(C3H8) 등의 탄화수소는 대표적인 자동차 배기가스 오염물질로 반드시 촉매 산화 반응을 통해 이산화탄소(CO2)와 물(H2O)로 전환한 뒤 배출해야 하는데, 탄소-탄소, 탄소-수소 결합을 깨뜨려야만 탄화수소 산화반응이 진행되기 때문에 촉매 반응을 위해서는 금속 앙상블 자리를 확보하는 것이 필수적이다. 연구팀은 이러한 문제를 해결하기 위해 100%의 분산도를 갖는 로듐 앙상블 촉매를 개발해 자동차 배기가스 정화반응에 적용했다. 100%의 분산도를 갖는다는 것은 모든 금속 원자가 표면에 드러나 있기 때문에 모든 원자가 반응에 참여할 수 있다는 의미이다. 결과적으로 일산화탄소(CO), 일산화질소(NO), 프로필렌, 프로판 산화 반응에서 모두 우수한 저온 촉매 성능을 보였고, 이는 탄화수소 산화 반응 성능이 없는 단일원자 촉매나 낮은 금속 분산도로 인해 저온 촉매 성능이 떨어지는 나노입자 촉매의 단점을 보완한 것이다.  연구팀이 개발한 분산도 100%의 로듐 앙상블 촉매는 상용화된 디젤 산화 촉매(DOC, diesel oxidation catalysts)보다 높은 활성과 내구성을 가져 실제 자동차 배기가스 정화에 적용 가능할 것으로 기대된다.   정호진 박사과정과 이현주 교수     이현주 교수는 “이번에 개발한 촉매는 기존의 단일원자, 나노입자 촉매와는 다른 새로운 금속 촉매 개념으로 학술적으로 기여하는 바가 크다”며 “자동차 배기가스 정화 촉매 분야에도 산업적으로 적용 가능해 가치가 큰 연구”라고 말했다.  정호진 박사과정이 1저자로 참여한 이번 연구 결과는 화학 분야 국제 학술지 ‘미국 화학회지(JACS, Journal of the American Chemical Society)’ 7월 5일자 온라인 판에 게재됐다. (논문명 : Fully Dispersed Rh Ensemble Catalyst to Enhance Low-Temperature Activity, 저온 활성 향상을 위한 완전히 분산된 로듐 앙상블 촉매)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      치과의료 분야의 취업과 실무능력 향상을 위한 전문양성원이 부산에 들어선다.  부산시는 오는 26일 해운대구 우동 센텀산업단지(디오)에 디지털치의학 전문인력 양성을 위한 '부산디지털치의학 인재양성원'이 개원한다고 밝혔다.   부산시와 치과의료기기업체는 지난해 7월 산학협력 간담회를 개최해 디지털치의학 인재양성사업을 추진하기로 합의하고 올해 3월 재단법인 부산디지털치의학 인재양성원을 설립했다.  부산디지털치의학 인재양성원은 부산대, 동의대, 부산가톨릭대와 부산시 치과의사회, 치과위생사회, 치과기공사회 및 의료기기업체가 참여하는 운영위원회(위원11명, 위원장 한상욱 부산시치과의사회 부회장)를 구성하고 강사진 선발, 교육프로그램 개발 및 디지털장비 선정 등 디지털치의학을 보급하기 위한 사업을 진행해 왔다.  인재양성원에서는 4차산업혁명의 영향으로 급속히 변화하는 디지털환경에 대처하기 위해 3D 구강스캐너, CAD-CAM 소프트웨어, 임플란트 임상 등의 과정을 개설하고 치과의사, 치과기공사, 치과위생사 등 실무인력과 대학생을 대상으로 하는 디지털 교육을 시행한다.  ㈜디오, 오스템 임플란트, ㈜디디에스 등 치과관련 국내 대표기업이 참여해 디지털기기 보급사업을 확대하고 디지털 교육효과를 더욱 높일 예정이다.  부산시는 인재양성원 개원을 통해 디지털 치과진료 수준 향상 및 의료기기 산업 경쟁력 강화에 큰 효과가 있을 것으로 기대하고 있으며 올해 5월 전국 최초로 치의학산업 육성 및 지원 조례를 제정해 치의학산업 육성을 통한 지역경제 활성화 및 청년 일자리 창출에 박차를 가하고 있다.   또한 부산시는 한국과학기술원(KAIST)과 손잡고 이르면 하반기에 '부산-KAIST 치의학기술연구센터'를 설립하고 KAIST의 우수한 연구 인력과 부산시의 풍부한 치의학산업 관련 인프라를 바탕으로 치의학산업 기술의 발전과 기업 성장 동력을 지원할 계획이다.   두 기관은 이를 위해 지난 4월 부산테크노파크 관계자와 카이스트 교수, 관련 전문가 등으로 ICT융합 치의학기술연구 플랫폼 구축을 위한 기획위원회를 구성해 세부실행계획을 세우고 있으며 이를 토대로 현재 추진 중인 디지털치의학 상용화 기술지원사업 및 해외마케팅 지원사업 등을 더욱 내실화하고 관련 사업을 적극 추진할 예정이다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      자유한국당 국회의원 선거구 조직위원장 선발을 위한 사흘간의 공개오디션이 지난 12일 끝났다.  공개오디션이 실시된 15곳의 지원자 36명 가운데 전·현직 의원은 8명이었지만, 최종 선발된 이는 조해진(경남 밀양·의령·함안·창녕)·류성걸(대구 동갑) 전 의원 등 2명뿐이었다.  3선 의원 출신의 권영세(서울 용산구) 전 주중대사, 비례대표 의원이자 원내대변인인 김순례(경기 성남 분당을) 의원 등은 탈락했다.  대신 여성과 청년의 약진이 두드러졌다.  서울 강남을, 서울 송파병, 부산 사하갑 등 9곳에서 여성 또는 정치신인이라고 할 수 있는 30·40대가 오디션을 통과, 조직위원장에 선정됐다.  한국당은 공개오디션 마지막 날인 이날 영등포 당사에서 경기 성남 분당을, 강원 원주, 충남 당진, 경남 밀양·의령·함안·창녕, 경북 고령·성주·칠곡 등 5곳의 조직위원장을 선발했다.  성남 분당을에서 민주평화통일자문회의 강남구협의회 청년위원장을 지낸 40대 초반의 김민수(41)씨가 김순례 의원을 꺾는 이변을 연출했다.  강원 원주을 공개오디션에서는 IT 벤처기업인 ㈜스쿱미디어 부사장(COO) 김대현(42)씨와 산업통상자원부에 몸담았다가 19대 국회의원을 지낸 이강후(66) 전 의원이 맞붙었다.  김대현씨는 89점을 얻어 43점을 받은 이 전 의원을 누르고 조직위원장에 선발됐다.  충남 당진에서는 충남지방경찰청장 출신의 정용선(55)씨가 19대 국회의원을 지낸 김동완 전 의원을 꺾었다.  경남 밀양·의령·함안·창녕에서는 조해진 전 의원이 박상웅 전 한국당 부대변인과 신도철 숙명여대 교수를 누르고 선발됐다.  재선 의원 출신인 조해진 전 의원은 19대 국회 때 원내수석부대표를 지냈으며 비박(비박근혜)계로 분류된다.  경북 고령·성주·칠곡에서는 경북 성주군수를 지낸 김항곤(68)씨가 19대 국회의원을 지낸 홍지만 전 의원과 이영식 대경경제성장포럼 대표를 물리치고 조직위원장이 됐다.  김병준 비상대책위원장은 페이스북에서 이번 공개오디션에 대해 "한국당이 다시 살아나고 있음을 느낄 수 있었고, 무엇보다 젊은 세대가 보여준 실력과 가능성에서 희망을 봤다"며 "한국당이 젊은 정당, 대안 야당, 수권정당, 스마트하고 투쟁력 있는 정당으로 변하고 있다고 비대위원장으로서 자신 있게 말씀드릴 수 있다"고 밝혔다.  조강특위는 공모를 통해 새로 인선할 선거구 총 79곳 가운데 10∼12일 공개오디션으로 뽑은 15곳을 제외한 64곳의 조직위원장을 13일까지 인선할 예정이다.  비대위는 오는 14일 조강특위의 조직위원장 인선안을 의결할 방침이다.앞서 이틀째인 11일에도 30·40대와 여성의 약진이 이어졌다.   서울 양천을에서는 40대 변호사 출신 손영택(47)씨가 16대 국회의원을 지낸 오경훈(55) 전 의원을 눌렀고, 서울 강남병에서는 여성으로 이명박정부 시절 청와대 여성가족비서관을 지낸 이재인(60)씨가 김완영(44) 전 국회의장실 정무비서관을 꺾고 선발됐다.  울산 울주에서는 울산지방경철청장을 지낸 서범수(56) 전 경찰대학장이 카이스트 출신의 청년 창업가 장능인(30)씨와 김두겸(61) 전 울산 남구청장을 누르고 조직위원장에 올랐다.  대구 동갑에서는 기획재정부 2차관과 19대 국회의원을 지낸 류성걸(62) 전 의원이, 경북 경산에서는 박근혜정부 당시 청와대 홍보수석을 지낸 윤두현(58) 전 수석이 각각 뽑혔다.  특히 대구 동갑의 류성걸 전 의원과 경북 경산의 윤두현 전 수석은 지난 2016년 20대 총선 당시 계파 간 첨예한 공천 갈등 속에 낙천 또는 경선 패배의 아픔을 겪은 바 있다.  그동안 바른미래당에 몸담아오다 지난달 한국당에 복당한 '비박' 류성걸 전 의원은 20대 총선 당시 대구 동갑에서 '진박'(진정한 친박근혜)인 정종섭 후보에 밀려 낙천 후 무소속으로 출마했으나 결국 낙선했다.  윤두현 전 수석은 박근혜정부 청와대에 몸담은 친박계로, 20대 총선에서 '유승민 사단'으로 분류됐던 김상훈 의원과 대구 서구 공천을 위한 경선에서 맞붙어 고배를 마셨다.  지난 총선에서 계파 갈등으로 공천에서 탈락한 인사들이 재도전의 발판을 마련한 모양새다.  공개오디션 첫날인 10일에도 당의 전통 텃밭으로 통했던 서울 강남을 지역에서 30대 초반 정치신인인 정원석(31)씨가 이수원 전 국회의장 비서실장, 이지현 전 서울시의원을 꺾는 돌풍을 일으켰다.  서울 송파병에서도 김성용(33) 전 새누리당(한국당의 전신) 중앙미래세대위원장이 김범수 ㈔세이브NK(북한인권 통일준비 NGO·46) 대표를 눌렀다.  서울 용산구에서는 황춘자 전 서울메트로 경영기획본부장이 3선 의원 출신인 '역전노장' 권영세 전 주중대사를 이겼다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          돼지 복강에 삽입된 유연 내시경 수술로봇을 이용해 담낭을 절개하는 임상실험 ⓒKAIST       KAIST 기계공학과 미래의료로봇연구단(소장 권동수 교수)이 개발한 유연 원격 내시경수술로봇 ‘케이-플렉스(K-FLEX)’가 살아있는 동물의 담낭을 절개하는 수술에 성공했다.  연구팀은 지난 7월 17일 돼지 복강에 삽입된 유연 내시경 수술로봇을 이용해 담낭을 절개하는 임상실험을 진행했다.  복강 내 로봇의 정밀 제어기술과 소형관절 설계기술이 핵심 기반기술이다.  연구팀의 케이-플렉스 로봇은 입이나 항문, 요도 등 우리 몸에 존재하는 통로를 따라 뱀처럼 유연하게 삽입돼 몸속을 자유롭게 관찰하다 이상이 있는 경우 손가락처럼 생긴 초소형 로봇 팔이 나와 수술을 진행한다.  기존의 상용화된 수술 로봇은 곧은 수술도구를 이용하고 복부에 3~4개의 구멍을 내야 하는 문제점이 있는 반면 연구팀의 기술은 외부절개 없이 내부절개만으로 수술이 가능해 출혈량, 세균 감염, 합병증 등의 위험을 줄일 수 있다.  연구팀은 초소형 로봇 팔이 낼 수 있는 힘을 두 배 이상 끌어올리는 동시에 크기도 절반으로 축소해 유연성과 소형화 문제를 해소하는 소형 관절 기술을 개발했다.  연구팀은 돼지 배의 표면에 만든 절개 부위에 다양한 방향과 각도로 휘어지는 유연 내시경 수술로봇을 삽입하고 병변이 위치한 간과 담낭으로 로봇을 접근시켰다.  이후 내시경의 채널을 통과한 직경 3.7mm의 소형 수술도구가 간을 젖히며 수술을 위한 시야 확보를 한 뒤 다른 채널을 통과한 전기 소작기를 이용해 간과 담낭 사이를 절제했다.         케이-플렉스(K-FLEX) 장치 ⓒKAIST   모든 수술 과정은 연구팀이 내시경의 앞부분에 설치한 카메라를 통해 송출된 돼지 신체 내부를 모니터링하며 원격 조종 장치를 통해 진행됐다.  연구팀은 이 기술을 통해 지난 6월 29일 영국 런던 임페리얼 컬리지에서 열린 ‘서지컬 로봇 챌린지 2018(Surgical Robot Challenge 2018)’에서 수술로봇 강국들을 제치고 ‘베스트 어플리케이션 어워드’와 ‘오버롤 위너’상을 동시에 수상하기도 했다.  권동수 교수는 “이번 실험의 의미는 국내 최초로 유연한 내시경로봇을 살아있는 동물의 복강 내에서 이동시켜 병변에 접근시키고 수술을 진행함으로써 임상 적용의 가능성을 확인했다는 의미를 갖는다”고 말했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      문재인 대통령 아들 문준용 씨 관련 '증언 조작' 사건에 대해 국민의당 자체 진상조사단이 예상대로 "당원 이유미 씨의 단독 범행"이라는 조사 결과를 내놨다. 박지원 당시 당 대표나 안철수 대선후보 등은 사전에 조작 사실은 물론, 회견 자체에 대해 몰랐다는 것이다. 다만 박지원 전 대표가 사건 관련자인 이준서 전 최고위원과 통화한 정황이 추가로 나왔으나, 박 전 대표는 "기억이 없다"고 했다고 한다.   또 국민의당이 조작된 제보를 곧이듣고 제대로 된 검증을 하지 않았다는 부분에 대해서는 "검증 최소 요건은 갖췄다"면서도 "추가 검증 과정을 거치지 못해 아쉬움이 남는다"고 일부 과실을 인정했지만, 조작 사실을 대선 이전에 사전 인지한 것은 아니라고 했다. 만약 검찰 조사에서 당 조사 결과와 다른 결과가 나올 경우 국민의당의 신뢰도는 더 추락할 것으로 보인다.   "안철수·박지원이 관여·인지했다는 어떤 증거도 없어"  국민의당 진상조사단장인 김관영 의원은 3일 오전 국회 당 대표실에서 기자회견을 열고 "증거조작과 관련해 당의 직접 개입이 있었는지 여부에 대한 종합적 결론은 이유미 씨의 단독 범행(이라는 것)"이라며 "박지원 전 대표나 안철수 전 대표가 이 사건에 관여·인지했거나, 조작된 사실을 인지했다고 보일 만한 어떤 증거나 진술도 발견하지 못했다"고 밝혔다.   김관영 단장은 "국민의당이 검증에 실패한 것은 부정할 수 없는 사실이지만, 조직적으로 없는 증거를 조작할 만큼 미숙한 정당이거나 파렴치한 정당은 아니다"라고 강조하며 이같이 말했다.   김 단장은 "진상조사단에서는 박 전 대표와 이준서 간, 안 전 대표와 이준서 간의 관계가 사건을 공모할 만큼 자주 연락하거나 친분이 높다고 보기 어렵다는 판단을 내렸다"며 "그 외에, 대선캠프 보고 라인에 있었던 장병완 총괄선대본부장 역시 지역 유세에 집중하고 있어 기자회견 전 해당 내용에 보고받은 바 없는 것으로 조사됐다"고 했다.   김 단장은 사건 경위에 대해 "이준서 전 최고위원은 4월 말경 이유미에게 파슨스 스쿨(출신) 지인이 있다는 말을 듣고 문준용 씨에 대한 정보 수집을 요구했다"며 "이유미는 '파슨스 출신 김○○ 씨에게 들었다'며 여러 얘기를 전했고, 이준서는 제보 내용에 신빙성이 있다는 판단 하에 해당 내용에 대한 추가 물증 자료를 요청했다. 이에 이유미는 최초로 카카오톡 단체 대화 메시지 화면을 조작해 제공했고, 뒤이어 음성녹음 파일까지 남동생을 동원해 조작해서 이준서에 제공했다"고 밝혔다.   김 단장은 이 과정에서 이준서 전 최고위원이 조작을 지시했는지에 대해 "6월 25일 저녁 (이준서·이유미와 이용주·김성호·김인원 간의) 5자 회동 참석자들에 따르면, 이유미는 '이준서의 거듭된 자료 요구 압박에 못이겨 증거를 조작했다'고 진술했으나 '이준서가 이유미에게 명시적 혹은 은유적으로라도 조작을 지시한 적 있나'라는 질문에 '그런 부분은 없다'고 이유미가 답한 바 있다"고 했다.   기자회견 전 해당 의혹 내용이 당 지도부에 보고됐는지에 대해 김 단장은 "이준서는 해당 제보를 입수한 5월 1일경 관련 내용을 언론사 3개사 기자와 박지원 당시 대표에게 알렸다"며 "(그러나) 박 전 대표는 이준서의 제보 내용을 구체적으로 보고받은 바 없다고 진술했다"고 했다. 그는 "다만 이준서에 대한 추가 조사를 통해 당시 박지원 대표와 한 차례 통화한 내용이 밝혀졌다"며 "(이 통화 내용은) 구체적 제보 내용을 의논한 게 아니라 '바이버로 자료를 보냈으니 확인해 보라'는 내용의 간단한 통화 내용이었음을 확인했다"고 했다.   박 전 대표는 이에 대해 "기억에 없다"는 입장이다. 박 전 대표는 "발신 내역에는 (이 전 최고위원과의 통화 기록이) 없고, 정확한 것은 이 전 최고위원의 발신 내역을 확인해야 한다"는 입장을 보좌관을 통해 밝혔다. 수신과 발신 내역이 모두 표시되는 휴대전화의 '최근 통화 기록'의 경우에는, 이미 두 달 전의 일이어서 박 전 대표의 전화기에는 5월 1일의 내용이 표시되지 않는 상태라고 김 단장은 전했다.   김 단장은 또 "안철수 전 대표에게 당 내에서 이 건에 관해 보고한 적은 없는 것으로 진술되고 있다"며 "이준서나 이유미 등이 안 전 대표에게 이번 사건에 대해 5일(기자회견) 이전에 문자 메시지 등으로 내용을 전송한 것이 없다는 것을 안 전 대표의 휴대전화 기록 등으로 확인했다"고 밝혔다.   이 전 최고위원이 5월 3일 조작된 음성파일을 입수한 후, 박지원·안철수 전 대표는 아니라도 당 내의 누군가와 상의했을 수 있다는 부분에 대해 김 단장은 "이준서에 의하면 5월 1일 처음으로 캡처 화면을 받고 3개 언론사 기자와 박지원 전 대표에게 보냈으나, (해당 3개 언론사의) 기자들이 '이것으로는 부족하다. 진술을 바꿀 수도 있으니 (제보자의) 연락처를 주면 직접 통화하겠다'고 해서 이 내용을 이유미에게 전했고, 이유미가 '파슨스 스쿨을 졸업하고 대기업에 댜니는데 자꾸 전화가 오면 회사를 다니기 어렵다'고 해서 (이준서가 다시 이유미에게) '녹취를 다시 제공할 수 있느냐', '기자와 상의한 결과 녹취 정도면 상의해볼 수 있다'고 했다"면서 "5월 4일 이용주 의원실에서 당 공명선거추진단 간부들과 만나기 전까지는 기자들과만 (제보 내용에 대해) 상의했다"고 말했다.  검증 과정 및 대선 후 후속조치는?  국민의당이 조작된 음성파일 등에 대한 검증을 소홀히 했을 가능성도 진상조사 대상이었다. 김 단장은 이에 대해 "국민의당 공명선거추진단은 이준서가 제공한 문준용 관련 카카오톡 메시지와 (음성)녹취록 등을 5월 4일 오후 2시와 8시경 이용주 의원 사무실에서 만나 확인하고 검증 절차에 들어갔다"며 "김인원 부단장의 진술에 따르면, 이유미가 제공한 카카오톡 대화방(화면)에 등장하는 김모 씨와 박모 씨가 실제로 파슨스 스쿨 동문이라는 것을 확인했고, 녹취록에서 나온 이야기가 실제로 유학 생활을 하지 않고서는 알 수 없는 내용인 점은 물론 전달자가 이준서 당시 최고위원이었다는 점에서 제보자 신뢰도에 대해 신뢰할 수밖에 없었다고 (김 부단장이) 진술하고 있다"고 전했다.   김 단장은 "제보 신뢰도를 확인하기 위해 추가적 검증 절차를 진행했고, (김모와 박모 씨) 두 사람의 인적사항과 연락처를 확보하기 위해 이준서에게 지속적으로 관련 정보를 요구했지만 이준서는 제보자 보호의 중요성과 신변 보호 필요성을 언급하며 제출을 미뤘다"며 "제보자에 대한 최소한의 확인을 해야 한다는 (공명선거추진단의) 거듭된 요구에 김모 씨의 이메일 주소를 제공했고, 제공된 주소를 기자단 대표를 통해 이메일 인터뷰까지 제공하겠다고 밝혔기 때문에 '그 정도면 신원 확인이 충분하다'고 판단해 회견을 진행했다"고 밝혔다.   김 단장은 "비록 검증과정에서 최소 요건은 갖췄다고 볼 수 있지만, 제보자 김모 씨와 문준용 씨의 파슨스 스쿨 입학 시기 등 추가적 검증 과정을 거치지 못한 점이 아쉬움으로 남는다"며 "이런 점에서 부실 검증과 관련해서는 당이 보다 확실한 후속 조치를 진행해야 한다고 판단했다"고 발표했다. 즉 검증이 충분하지 못했다는 점은 일부 인정한 것이다.   김 단장은 "충분히 검증을 못한 채 보도가 된 것은 입이 백 개, 천 개라도 할 말이 없는 잘못"이라며 "증거를 조작하려고 마음먹은 사람이 만들어낸 상황에 당의 검증 시스템은 조작을 걸러내지 못하고 무력했다"고 지적했다.   이후 이 증거가 조작된 것이라는 것을 국민의당에 최초로 인지한 시점은 김 단장에 따르면 6월 24일이다. 김 단장은 "이유미는 6월 20일경, 지난 5월 5일 기자회견 이후 있었던 고소·고발 사건에 대한 검찰 조사가 실제로 진행되고 본인에까지 6월 26일에 출석하라는 요구가 오자 자신의 증거 조작이 드러날 것을 두려워한 상황에서 6월 24일 조성은 전 국민의당 비대위원과 이용주 의원에게 털어놓았다"며 "이용주 의원은 24일 최초의 자백을 들은 후 다음날인 25일 밤늦게 공명선거추진단의 김성호·김인원 부단장과 이준서, 이유미 등과의 5자 회동을 통해 증거 조작 사건에 대한 구체적 경위와 상황을 확인했다"고 밝혔다.   따라서 6월 24일 있었던 안철수 전 대표와 이준서 전 최고위원 간의 면담은, 양자 모두 '조작' 사실을 인지하지 못한 속에서 이뤄졌다는 게 국민의당의 조사 결과다. 김 단장은 "6월 24일 이준서와 안 전 대표 간의 5분 면담에서도 이준서는 '대선 시기 고소·고발된 건에 대해 검찰 수사가 진행되고 있는데 당의 관심이 너무 없어서 서운하다'는 취지의 얘기를 했을 뿐, 이유미의 구명이나 고소와 관련해 직접 언급한 게 없음을 안 전 대표와 이준서에게 공통적으로 확인했다"고 밝혔다.   김 단장은 "다만, 이준서는 '안 전 대표와의 면담에서 이유미의 고소 취하 얘기를 했다는 취지의 거짓말을 이유미에게 했다'고 진술했다"며 그 이유에 대해서는 "이유미가 (자신에 대한) 고소 취하에 관심이 많았고 불안해 해서 이유미를 안심시킬 취지로 '안철수를 만나 얘기했다'고 이유미에게 거짓말을 했노라 (이준서가) 진술했다"고 설명했다.   때문에 이유미 씨가 안 전 대표에게 보낸 문자 메시지는, 안 전 대표가 조작은 물론 이준서 전 최고위원으로부터 이 씨 관련 언급을 전혀 듣지 못한 상태에서 안 전 대표에게 발송된 것이라고 김 단장은 설명했다. 김 단장은 "이유미가 6월 25일 안 전 대표에 보낸 문자메시지는 오전 7시 3분에 발송됐고, 안 전 대표가 이용주 의원으로부터 관련 내용을 유선으로 전해들은 시각은 오전 9시 7분경"이라며 "이유미는 최근 1년 동안 총선 무렵인 지난해 3월과 이번 등 3차례 일방적으로 안 전 대표에게 문자를 보냈으나 안 전 대표는 답하지 않았다"고 했다.   이 씨가 안 전 대표에게 보낸 문자메시지는 "여수갑 공천 태풍 상황을 좌시하시면 안 된다"는 등 총선 공천에 대한 항의 1건(2016년 3월 21일), 안 전 대표의 카이스트 방문 관련 카이스트 교수들과의 만남 요청 1건(2017년 2월 15일) 등이었고, 지난달 25일에 이번 사건과 관련해서 "이유미입니다. 어제 이준서와 면담을 했다고 들었는데 제발 고소 일괄 취하를 부탁드린다. 이번 일로 구속까지 된다고 하니 죽고 싶다. 절박한 마음으로 부탁드린다"는 내용의 문자를 보냈으나 안 전 대표는 "이용주 의원의 전화를 받고서야 (메시지의) 의미를 알게 됐지만 별도 답장할 필요성을 못 느꼈다"고 김 단장에게 진술한 것으로 전해졌다.   안철수, 3일에도 입장 표명 없어  한편 안 전 대표는 검찰이나 당 진상조사단의 조사를 통해 사실관계가 어느 정도 확정된 이후에 입장 표명을 할 것으로 알려져, 진상조사단 발표가 있었던 이날 입장을 낼지 관심이 모였으나 이날 중에는 입장 발표 계획이 없는 것으로 전해졌다.   김 단장에 따르면, 안 전 대표는 당 자체 진상조사를 위해 김 단장과 전날 만난 자리에서 "대단히 엄중하게 생각하고 있다. 국민과 당에 죄송한 일이 발생했다. 검찰에서 철저하게 진상이 밝혀져서 하나도 남김 없이 밝혀졌으면 한다"고 말했다고 한다.   이에 따라 안 전 대표의 직접 입장 표명은 검찰이 이날 이준서·김성호·김인원 등 사건 주요 관련자들에 대한 조사를 진행한 이후가 될 것으로 보인다.   당 자체 진상 조사는 이날 김 단장의 공식 발표를 끝으로 마무리된 상태다. 김 단장은 안 전 대표와 박 전 대표 등 총 13명의 관련자에 대해 대면 및 전화 조사를 진행했다며, 이유미 씨에 대한 구치소 접견은 "또다른 오해를 불러일으킬 가능성" 때문에 추진하지 않기로 했다고 밝혔다. 이제 국민의당의 자체 조사 결과가 검찰에 의해 뒤집힐지 여부가 초미의 관심사가 된 상태다.   이 전 최고위원은 이날 검찰에 출석하기 전 기자들에게 "조작을 지시한 적 없다. 윗선에서 지시한 것 없다"며 "저도 조작 사실을 몰랐고, 그에 따른 어떠한 압력도 가하지 않았다"고 말했다. 김성호 전 수석부단장도 검찰 청사 앞에서 "이준서·이유미 자체를 모른다. 모르는 사람과 무슨 조작을 하겠나"라며 "공명선거추진단 내에서는 최선의 검증을 하기 위해 최대의 노력을 다했다"고 말한 것으로 전해졌다.  김인원 전 부단장도 이날 오후 검찰에 출석하면서 "미리 (조작) 사실을 알았다면 발표를 했겠느냐"며 "당연히 사실로 알았고, 지금도 이 사실이 믿기지 않는다"고 했다. 김 부단장은 "결과적으로 부실했지만 (검증에) 최선을 다했다"며 "사실이 아닌 것이 발표돼 드릴 말씀이 없다. 송구스럽다"고 했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      2015년 6월 23일, 한국 프로야구 삼성과 롯데의 경기가 끝난 후 올라온 기사를 그대로 소개한다.삼성 12:4 롯데롯데는 23일 열린 2015 프로야구 삼성과의 홈경기에서 4-12점으로 크게 패하며 홈 팬들을 실망시켰다. 롯데는 이상화를 선발로 등판시켰고 삼성은 차우찬이 나섰다. 삼성은 최형우가 맹활약을 펼쳤다. 최형우는 1회 초 0아웃에 맞이한 타석에서 2점을 뽑아내며 삼성의 8점차 승리를 이끈 일등공신이 됐다. 롯데는 김현우를 끝까지 공략하지 못하며 안방에서 삼성에 8점차 승리를 내주었다.이 기사는 서울대 언론정보학과 이준환 교수 연구 팀이 개발한 기사 작성 로봇이 썼다. 작성된 기사는 곧바로 프로야구 뉴스로봇(k_baseball_bot)이 자동으로 트위터와 페이스북에 공유했다. 기사 작성부터 발행까지, 사람의 손이 단 하나도 들어가지 않았다.그런데, 어색하긴 한가? 일부 '손보면 좋을' 부분이 있을 뿐이다. 세상에. 로봇이 '일등공신'이니, '맹활약'이니 한다. 로봇이 기사를 쓴다는 이야기는 들었지만, 기껏해야 석 줄짜리 단순 기사이리라 생각했다. 알고 보니 워드스미스(Wordsmith)라는 기사 로봇은 2013년 한 해 동안 300만 건의 기사를 작성했단다. 관련 직종 근무자로서 이건 아니다 싶다. 내 일자리가 진짜 위협받게 생겼다.로봇의 위협에 직면한 일자리가 한둘이 아니란다. 약사의 영역이던 처방전 조제는 이미 로봇이 더 잘한다. 실수가 제로에 가깝다. 변호사의 몸값도 떨어질지 모르겠다. 판례 자료 조사를 로봇에 맡긴 회사는 기존보다 훨씬 싼 값에 법률 서비스를 제공한단다. 한 예측 결과에 따르면 법을 집행하는 판사의 자리마저 로봇에게 위협받고 있단다. 빅 데이터의 시대, 정보 기술의 시대가 뭔가 했더니 우리 일자리를 뺏는 시대였다. 로봇이 단순 노무는 물론, 서비스 영역, 창조의 영역에까지 침투하고 있다. (이 망할 로봇아!)이러다 인간의 노동 영역은 예술·정치 분야 정도로 협소해질지도 모르겠다. 아니, 이미 미국 리싱크로보틱스의 로봇 백스터가 유튜브 영상을 보고 파스타를 따라 만들었다. 소프트뱅크가 공개한 페퍼는 현재 일본 네스카페 매장에서 서비스직으로 일한다. 수줍어할 줄도 안다. 2050년이면 로봇과의 섹스가 일상화되리라는 전망까지 나온다. 이미 올해 영국에서는 섹스 로봇 금지 캠페인이 시작됐다. 영화 &lt;저지 드레드&gt;나 &lt;그녀&gt;, &lt;아이, 로봇&gt;의 얘기가 아니다. 벌써 우리의 일상에 로봇의 마수가 뻗쳤다! 제2의 러다이트 운동이라도 벌여야 하나.공학을 전공하지 않은 이라도 누구나 과학을 공상한다. 영화 &lt;터미네이터&gt;에서 본 미래가 실재하지 않을까 염려하기도 하고, &lt;바이센테니얼 맨&gt;의 감성을 느낄 날이 다가오리라 짐작하기도 한다. (어쩌면 &lt;이디오크러시&gt;에 나온, 인류 전부가 바보가 된 미래가 올 지도 모르지. &lt;매드 맥스&gt;가 그리는 황폐한 시대를 맞이할 수도 있고,) 상상은 언제나 재미있는 법이니까.   ▲ 지난해부터 네스카페 매장에서 서빙을 시작한 로봇 페퍼가 가증스러운 표정으로 사람을 바라보고 있다. ⓒwikipedia.org   &lt;로봇 시대, 인간의 일&gt;(구본권 지음, 어크로스 펴냄)은 상상의 영역이 어디까지 현실화되었는지를 이야기한다. &lt;한겨레&gt; 기자이자 사람과디지털연구소 소장인 저자가 지난해 낸 &lt;당신을 공유하시겠습니까?&gt;(어크로스 펴냄)에 이어 두 번째로 과학에 대한 인문학적 사유를 담았다.책에는 다양한 로봇이 소개된다. 카이스트의 휴보처럼 우리가 흔히 아는 안드로이드 형 로봇만이 나오지 않는다. 무인 자동차를 움직이는 로봇, 번역하는 로봇, 검색 엔진 로봇, 기사 쓰는 로봇 등이 다채롭게 이야기된다. 모두 현재 우리와 함께 일상을 살아가는 (나쁜) 놈들이다. 앞서 소개한 로봇이 쓴 기사도 이 책에 인용된 사례다.책이 뛰어난 점은, 이 과학의 세계를 인문학적 사유로 훑어간다는 데 있다. 무인 자동차 시대를 이야기하며 "사람의 운전은 너무 위험해서 금지될 것"이라는 미래 전망과 함께, 사고 발생에 대비해 로봇에게 어떤 알고리즘을 프로그래밍할 것이냐는 철학적 질문을 던진다. 무인 자동차가 직진하면 한 살 어린아이를 치고, 꺾으면 다섯 명의 어른을 치는 상황이 올 때 이 자동차는 어떤 선택을 하도록 우리가 프로그래밍해야 하느냐는 이야기다.이처럼 이 책은 현대 과학이 우리와 살아가기 위해 필요한 인문학적 고민을 다방면에의 고증과 자료를 바탕으로 독자에게 제시한다. 자동 번역 프로그래밍으로 언어 장벽이 사라지는 시대에 외국어를 배운다는 점은 무엇이냐는 질문에 대해 책은 문화를 꺼낸다. 지식이 공유되는 사회를 이야기하며 사회학적 고찰을 담기도 한다. 철학, 인류학, 경제학, 인문학, 심리학적인 사유를 로봇이라는 주제에 녹여냈다. 로봇 이야기에 아널드 토인비의 말씀이 딸려 나오고, 아리스토텔레스의 고민이 묻어난다.책에 실리는 로봇 기술의 현재를 보면, 무서움마저 든다. 구글이 개발한 무인 자동차는 160만 킬로미터를 무사고로 달렸다. 이미 로봇은 사람의 감정까지 추측할 수 있다. 마이크로소프트 리서치의 감정 추정 알고리즘은 사람의 감정을 93% 정확도로 예측한다. 이성의 영역이야 그렇다손 치더라도, 사람의 감정마저 알아차린다니! 이러다 사람보다 로봇과 대화하는 게 더 편할지도 모르겠다.덕분에 과학이라고는 공상과학 영화나 소설밖에 모르는 (나 같은) 이라도 이 책을 통해 진지한 사유의 시간을 가질 수 있다. 책은 모든 장마다 이런 물음을 배치해뒀다. 반려견 형태인 반려 로봇을 발로 차는 건 괜찮을까? 로봇과 정말 사랑에 빠져버린다면 어떡하나? 로봇이 우리의 일자리를 다 대체해버린다면, 우리는 대체 뭘 해야 하나?   ▲ &lt;로봇 시대, 인간의 일&gt;(구본권 지음, 어크로스 펴냄). ⓒ어크로스   로봇이 우리의 미래를 크게 바꾸리라는 점은 의심의 여지가 없다. 무인 자동차가 다니는 미래를 소개하는 대목을 생각해 보자. 정말 무인 자동차가 상용화된다면? 도로 정체가 지금보다 훨씬 줄어들 것이다. 교통사고는 극적으로 감소할 것이고, 무엇보다 우리는 모두가 차 안에서 다른 짓을 할 것이다. 대리운전이 사라질 것이고, 장애인의 이동권이 극적으로 보장될 것이다. 그러나, 운전이 취미인 사람은 과연 드라이브를 포기할 수 있을까?과학은 미래를 만든다. 그러나 이를 현실화하기 위해서는 인문학적 고민과 사회학적 탐구의 결과가 반영되어야 한다. 이 책은 이처럼 우리가 미처 생각지 못했을 법한 진지한 물음에 최대한 성실하게 답한다. 읽는 즐거움을 준다는 점에서 뛰어나고, 현대 로봇 기술이 어디까지 왔는지 짚고 넘어가는 계기를 준다는 점에서도 훌륭하며, 무엇보다 상상의 나래를 마음껏 펼칠 계기를 만들어준다는 점에서 탁월하다.책에 소개된 미국 기술철학자 랭던 위너의 말 대로 "세계 지도에 테크노폴리스라는 국가가 나오지는 않지만 우리는 그 국가의 시민이고, 좋든 싫든 우리 자신이 인간 역사의 새로운 질서에 속하게 되었다는 것을 인정해야 한다." 이미 로봇과의 공존은 현실이다. 이 시대에 우리는 무엇을, 어떻게 대비해야 할까. 아아, 과학자가 숫자를 휘갈긴 칠판 사진(그러니까 아인슈타인의 사진 같은 것)만 봐도 머리가 아파지는 나로서는 그저 두려울 따름이지만, 어찌되었든 기술 세계의 시민으로서 이 책에 나온 멀지 않은 미래에 내가 취할 입장은 미리 정리해두는 게 좋겠다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ⓒ포스텍      POSTECH(포항공과대학교, 총장 김무환)이 로이터통신이 평가한 ‘2019 세계에서 가장 혁신적인 100대 대학’ 순위에서 세계 12위에 올랐다. 아시아 소재 대학 중 가장 높은 순위다.  로이터는 세계적인 정보서비스 회사 클래리베이트 애널리틱스(Clarivate Analytics)와 함께 학술논문과 영향력, 특허출원 수, 논문 인용도 등을 척도로 매년 ‘혁신적인 대학’ 순위를 발표하고 있다.  POSTECH은 이 평가에서 미국 캘리포니아대 시스템(University of California System, 13위)과 존스홉킨스대(15위), 캘리포니아공대(16위)를 제치고 12위에 올랐다.  아시아에서는 1위로, 일본 도쿄대(26위), 서울대(29위), KAIST(34위), 중국 칭화대(41위)가 그 뒤를 이었다.  로이터는 POSTECH을 “한국의 철강기업 포스코가 1986년 세운 대학으로, 산업체와 특별한 협력 관계(unique ties)를 맺고 있는 연구중심대학”이라고 밝혔다.  또 2019년 발표된 인공각막을 3D프린터로 제작할 수 있는 ‘바이오잉크’ 기술(기계 조동우 교수·창의IT 장진아 교수)과 2018년 홍합접착 단백질을 이용한 줄기세포 전달체 기술(화공 차형준 교수)을 대표적인 혁신 기술로 소개했다.  지난 2012년부터 2017년까지 POSTECH은 총 349개의 특허를 출원, 79.7%라는 높은 등록률을 보였다.  특허 출원 시 논문이 얼마나 많이 인용됐는지를 놓고 평가하는 ‘기술사업화 영향력 점수(Commercial Impact Score)’에서는 평균(40.5)보다 높은 48.8점을 얻었다.  한편 이 평가에서는 미국 스탠포드대가 5년 연속으로 1위를 차지했으며, 2위와 3위도 다름없이 매사추세츠공대(MIT), 하버드 대학이 올랐다.  우리나라에서는 POSTECH을 포함 총 6개 대학(서울대, KAIST, 성균관대(45위), 한양대(72위), 연세대(76위))이 100위 안에 이름을 올렸다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      국내 유일 공공 종합시험인증기관인 한국산업기술시험원(이하 KTL, 원장 정동희)과 국내 최초로 인공위성을 개발한 KAIST 인공위성연구소(이하 SaTReC, 소장 권세진)은 지난 24일 KAIST에서 우주분야 시험기술 연구 및 실증을 위한 업무협약을 체결했다고 밝혔다. 이번 협약으로 양 기관은, 국가 우주R&amp;D;사업으로 개발된 우주제품의 정확한 검증을 위한 ▲우주분야 시험평가 업무협력 ▲기술 및 인력교류를 통한 상호역량 증진 ▲ 우주분야 시험기술 해외협력 기반조성을 위한 상호협력 ▲우주분야 국가사업 공동 추진 및 연구과제 발굴 등을 추진한다. 과학기술정보통신부의 우주개발 프로그램에 따른 부품시험자원 확보를 위하여 지난 13일 ‘우주부품시험센터’착공을 시작으로 선진국 수준의 우주부품 전용시험시설을 구축중인 KTL과, 1992년 국내 최초 인공위성 우리별 1호를 개발한 우주전문연구기관으로 위성 표준화·모듈화 기술을 적용한 ‘차세대 소형위성 1호’ 개발사업의 주관연구기관인 SaTReC의 협약을 통하여 앞으로 국내 우주분야 관련기업들은 우주R&amp;D;제품 성능검증을 위한 시험기술 서비스를 더욱 원활히 제공받을 수 있게 된다.         ⓒ한국산업기술시험원    KTL 정동희 원장은 "SaTReC과의 협약을 통하여 민간 주도 우주산업 생태계 조성의 국가정책에 적극 부응할 것″이며 "국내 우주부품 중소․벤처기업의 기술개발과 국산화를 적극 지원하여 국가 우주산업 경쟁력 강화에 기여할 것″이라고 밝혔다. SaTReC 권세진 소장은 "KTL이 추진하는 ‘우주부품시험센터’ 구축과 활용 극대화를 위해 정보공유, 인력교류 및 공동연구 등의 상호협력에 적극 협력할 것″이며, "우주부품 시험평가서비스 활성화와 국내 산학연의 우주개발 혁신에 기여할 것″이라고 밝혔다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      장제원 자유한국당 수석대변인이 "사회주의 국가로 만들려는 것이 문재인 정부가 하려는 것이 아닌가 하는 의구심이 있다"고 말했다. 그는 2일 자유한국당 최고위원회 회의에서 국회 개헌특위 자문위원회가 마련한 개헌안 관련 언론 보도를 인용하며 이같이 주장했다. 장 대변인은 "(개헌안에) 자유시장 경제는 없어지고 사회적 경제가 자리를 잡았다. 평화통일이 없어지고 민주통일이 자리잡았다. 기업의 자유를 옥죄는 노동이사제, 비정규직 철폐가 들어갔다"며 "자유한국당은 이런 사회주의 헌법 개정, 문재인 개헌을 막아내고 자유민주주의 헌법 개정, 국민 개헌을 끝까지 관철시킬 것"이라고 말했다.자문위는 헌법안에 '국가는 중소기업과 소상공인을 보호·육성하고, 사회적 경제의 발전을 위하여 노력하여야 한다'는 등의 규정을 포함한 것으로 알려졌다. 그간 장 대변인은 '사회적 경제'와 '사회주의' 개념을 혼동하고 있다는 지적을 받아왔다. 사회적 경제가 시장경제와 배치되는 개념이 아니라는 비판을 이를 의식한 듯 그는 이날 "자유시장 경제의 보완 가치인 사회적 경제의 이념이 그 빈자리를 메우고 있다"고 말했다. 그럼에도 사회적 경제 등이 포함된 개헌을 뭉뚱그려 '사회주의 개헌'이라고 명토박은 것이다.장 대변인의 규정과 달리 유럽위원회(EC)에서는 사회적 경제를 다음과 같이 정의한다. "사회적 경제는 협동조합, 상호 사회단체, 비영리 단체, 사회 기업을 포함하며 유럽 시장에서 광범위한 제품과 서비스를 제공하고 있다. 사회적 기업은 사회적 혁신을 위한 엔진이다." 예를 들어, 스페인의 명문구단 FC바르셀로나는 사회적 경제의 일환인 협동조합이다. 재계 3위인 SK그룹도 사회적 기업가 MBA과정을 KAIST 경영대학원에서 운영하고 있다. 무엇보다 사회적 경제는 이명박-박근혜 정부 시절, 자유한국당의 전신인 새누리당도 지지했던 개념이다. 사회적 경제 기본법은 지난 2014년 새누리당에서 당론으로 채택하고 67명이 공동발의에 참여한 법안이다. 공동발의한 의원으로는 현 자유한국당 정책위의장을 맡은 함진규 의원도 있었다. 사회적기업육성법은 노무현 대통령 재임시절 여야 합의로 통과됐고, 이명박 대통령은 사회적 기업을 국정과제로 채택했다. 사회적 경제에서 한 축을 담당하는 협동조합기본법은 이명박 대통령 재임 시절 새누리당이 다수당이던 국회가 통과시키기도 했다. 당시 사회적 경제 기본법안을 대표 발의한 바른정당 유승민 대표는 "사회적 경제'는 '사회주의 경제'가 아니다"며 "사회적 경제는 정부의 세금 투입이 늘어나야만 복지가 확대되고, 양극화를 해결할 수 있다는 일부 좌파들의 주장과도 다르다"고 밝힌 적이 있다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      강원대학교(총장 김헌영)가 세계 대학 순위 평가 중 하나인 2017 라이덴 랭킹 자연과학·공학 분야에서 국내 대학 중 4위를 차지했다.   강원대는 자연과학·공학 분야에서 이화여대, KAIST, 포항공대에 이어 4번째로 서울대(5위), 고려대(6위), GIST(7위)가 그 뒤를 이었다.     ▲강원대학교 춘천캠퍼스 대학본부. ⓒ강원대     종합순위에서도 국내에서 16위, 거점국립대 중에서는 3위를 차지했다.   라이덴 랭킹은 네덜란드 라이덴 대학이 발표하는 세계대학 랭킹으로 논문의 수와 논문 인용도를 평가 지표로 사용하고 있어 논문의 질이 우수한 대학이 높은 점수를 받게 돼 있다. 대학의 연구력 수준을 가늠할 수 있다는 평가를 받는다.   올해 평가는 1천편 이상의 논문을 발표한 전 세계 902개 대학을 대상으로 했다.   라이덴 랭킹은 종합순위 외에 ▲생물의학·보건학(Biomedical &amp; Health sciences) ▲생명과학·지구과학(LIfe &amp; Earth sciences) ▲수학컴퓨터공학(Mathematics &amp; Computer science) ▲자연과학·공학(Physical sciences &amp; Engineering) ▲사회과학·인문학(Social sciences &amp; Humanities) 등 6개 분야에서 각각 순위를 발표하고 있다.   김헌영 총장은 21일 “최근 우리대학에서 여러 국책 연구과제 수주도 확대되고 있는 것처럼 강원대학교의 연구 경쟁력이 다시한 번 입증된 것”이라면서 “연구환경 개선을 위한 투자 확대와 보다 효율적인 연구 지원 시스템을 구축해 보다 양질의 논문이 배출될 수 있도록 하겠다”고 밝혔다.   한편 이번 평가 종합 순위에서는 미국 록펠러 대학이 1위를, MIT공대, 스탠퍼드대, 하버드대가 그 뒤를 이었다.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">             대전비엔날레 2018 바이오 전시회를 관람하는 김정숙 여사 ⓒ대전시립미술관     문재인 대통령과 휴가를 보내고 있는 김정숙 여사가 지난 2일 대전시립미술관을 찾아 대전비엔날레 2018 바이오 전시회를 관람했다.  대전시립미술관은 3일 김정숙 여사가 휴가 중 대전시립미술관을 깜짝 방문해 미술관을 찾은 시민들과 함께 작품을 감상하였다고 밝혔다.  김정숙 여사는 한 시간 가량 생명공학기술을 기반으로 예술적 상상력이 더해진 바이오아트 작품 26여점을 관람하였으며 이 자리에서 “과학과 예술적 상상력이 결합된 바이오아트 작품들이 매우 흥미롭고 한편으로는 많은 생각을 하게 된다”고 말했다.  대전비엔날레 2018 바이오는 10월 24일 까지 대전시립미술관, 창작센터, DMA아트센터, KAIST비전관, 한국화학연구원 디딤돌 플라자 SPACE C#, 기초과학연구원 과학문화센터 전시관 등 과학과 예술의 융합을 추구하는 대전의 다양한 장소에서 선보인다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 대전시의회는 17일 문송천 카이스트 명예교수를 초청해 ‘사물인터넷시대의 블록체인’이란 주제로 연찬회를 개최했다 ⓒ대전시의회       대전시의회(의장 김종천)는 17일 제241회 임시회 개회식을 갖고 2019년도 첫 임시회를 열었다.  이번 임시회에서는 의원 발의 조례안 7건을 포함해 조례안 16건,동의안 5건, 건의안 2건, 보고 7건 등 모두 33건의 안건을 처리할 예정이다.  이날 제1차 본회의에서는 시와 교육청의 금년도 주요업무 보고를 청취하고, 홍종원 의원이 대표 발의한 ‘대전 중부소방서 설치 촉구 건의안’, 이광복 의원이 대표 발의한 ‘대전 도시철도 2호선 예타 면제 대상사업 선정 촉구 건의안’을 의결하고 중앙부처 및 국회 등에 건의하기로 했다.  또 홍종원 의원은 ‘통학 사각지대 학생들을 위한 통학여건 개선’을, 박혜련 의원은 ‘본격 개막된 2019 대전방문의 해, 붐업을 위한 제언’을, 채계순 의원은 ‘3.1만세운동 100주년, 민족정기 세우는 대전건설 제안’을, 민태권 의원은 ‘조정교부금 산정방식 변경을 통한 재정 형평화 모색방안’을, 문성원 의원은 ‘신탄진휴게소 하이패스 IC신설’을 촉구했다.  대전시의회는 이날 임시회 산회 후 대회의실에서 카이스트 명예교수인 문송천 전산학 박사를 초청해 ‘사물인터넷시대의 블록체인’이란 주제로 전체의원 연찬회를 개최했다.  이날 강의는 블록체인 등 4차 산업혁명 기술기반 인식강화에 대한 필요성과 국내외 동향, 타 지자체 동향, 그에 따른 의회 대응 전략방안 등에 대하여 다양한 정보를 공유하고 이해를 넓히고자 마련됐다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ⓒ경북도      세계 최대 규모의 가전․전자박람회인 ‘CES(Consumer Electronics Show) 2019’ 참관 차 미국을 방문 중인 이철우 경상북도지사가 실리콘밸리로 이동해 글로벌 의료기기 기업인 지멘스 헬시니어스(Siemens Healthneers), 반도체 장비기업 램 리서치(Lam Research), 소프트웨어 전문 기업 GE Digital사 임원을 면담하는 등 투자유치활동을 이어갔다.  경북도와 지멘스헬스니어스는 10일(현지시간) 오전 미국 실리콘밸리에 소재한 지멘스 헬시니어스의 초음파 진단기 사업본부에서 경북도내 투자확대를 위한 MOU를 체결했다.   이철우 도지사는 이날 초음파 사업본부의 톰슨(Mr. Bob Thompson) 대표, 펑크(Mr. Sebastian Funk) 재무담당 임원을 면담하고 초음파 진단기기분야에서 상호협력을 통한 투자 및 연구, 개발을 진행하는 양해각서에 서명하고 포항에서 트랜스듀서, 카테타를 생산중인 지멘스 헬시니어스의 지속적인 발전을 위해 적극 지원하기로 했다.  지멘스 헬시니어스는 전 세계의 의료 서비스 제공자들이 정밀 의료를 확대하고 진료 방식을 전환하며, 환자 경험을 향상하고 의료 서비스를 디지털화하는 방향으로 가치를 향상 시킬 수 있도록 지원하고 있다.  의료 기술의 선두주자인 지멘스 헬시니어스는 진단과 치료 이미징, 진단검사 의학분야와 분자진단 분야의 핵심 제품 및 서비스 포트폴리오를 끊임없이 혁신해 나가고 있으며, 디지털 의료서비스와 엔터프라이즈 서비스도 적극적으로 개발해 나가고 있다. 지멘스 헬시니어스는 2018년 9월 30일부로 마감된 2018년도 회계연도에 134억 유로화의 매출과 23억 유로화의 순이익을 기록했으며, 전 세계에 약 5만여 명의 직원을 두고 있다.  지멘스헬시니어스 초음파기기 사업부는 포항 및 분당에 연구소를 두고 포항, 경주, 성남에 생산 사업장을 운영하고 있으며 국내 유수의 의료기관과 POSTECH, KAIST 등 국내 대학과 협력해 최신 기술을 연구 개발하고 있다.   포항테크노파크에서는 트랜스듀서, 카테타(허벅지절제후 정맥을 통해 심장까지 볼 수 있는 삽입형 튜브) 등 초음파 진단 장비를 생산하고 있다.  이 자리에서 이철우 경상북도지사는 지멘스 헬시니어스의 경북도 투자에 감사의 뜻을 전달하고 “헬스케어분야의 글로벌 시장을 선도하고 있는 지멘스 헬시니어스가 개발 중인 의료기기야말로 경북도가 역점을 두고 발전시켜야 할 산업”이라고 강조하고 아낌없는 지원을 약속했다.     ⓒ경북도   이 지사는 이어 글로벌 반도체 장비기업인 Lam Research사 본사를 방문해 메이클(Mr. Scott Meikle) 글로벌 고객운영 부회장을 면담하는 자리에서 구미를 중심으로 한 경북도의 반도체 장비산업 생태계와 제조기업 현황을 소개하고 램 리서치와 경북소재 기업과의 비즈니스 협력 및 반도체장비 공동개발 방안을 설명하고 향후 경북도에 투자해 줄 것을 적극 요청했다.   세계 3대 반도체 장비기업인 램 리서치는 1980년 실리콘밸리에서 창업해 1989년 한국법인을 설립한 이래 지속적인 발전을 거듭해 오고 있으며, 한국에서의 매출이 글로벌 매출액의 약 30%를 차지하고 있고 전 세계 16개국에서 약 1만 2천명이 근무하고 있다.  또한, 이철우 도지사는 항공, 헬스케어, 광업, 오일, 가스, 발전 분야의 글로벌 기업인 GE(General Electric)의 자회사이며 소프트웨어 개발 및 관련서비스를 기반으로 ‘제조업의 디지털 트랜스포메이션’을 지원하는 기업인 GE Digital 본사를 방문했다.  GE Digital은 디지털 트윈(Digital Twin)을 선구적으로 도입한 기업으로 디지털 공장 가동에 필요한 소프트웨어 플랫폼인 ‘프레딕스(Predix)’를 글로벌 시장에서 판매하고 있다.  이철우 도지사는 GE Digital의 캐린 어셔(Caryn Usher) 센터 운영 총괄과의 면담에서 발전소, 병원, 자동차부품, 물류 등의 산업분야에서 발생하는 대규모 데이터를 수집하고 분석해, 기업들이 현실에서 최적화된 현장을 만들 수 있도록 하는 시스템 구축에 대해 의견을 교환하고 이들 시스템을 경북 도내 제조 및 의료 현장에 적용할 수 있는지에 대해 논의했다. 이철우 경상북도지사는 “지멘스 헬시니어스 등 글로벌 기업과의 면담을 통하여 4차 산업혁명을 선도하고 있는 이들 기업들의 경북도내 투자유치 가능성을 모색하고 도내 기업, 대학, 연구기관들이 이들 기업과 협업할 수 있는 여건을 조성하는 계기를 마련했다”고 밝혔다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      대학가를 중심으로 '최순실 게이트'를 비판하는 시국선언이 연이어 개최되는 가운데, 주말을 맞아 박근혜 정부를 비판하는 대규모 시위가 열릴 예정이다. 각계의 시국선언과 기자회견도 잇따른다. 28일 민중총궐기 투쟁본부는 서울 정동 민주노총 사무실에서 '민중총궐기 투쟁 선포' 기자회견을 열고, 앞으로 활동 목표와 일정 등을 밝힌다. 투쟁본부는 이미 28일 서울 종로구 영풍문고 앞에서 '2016 서울 민중대회'를 열기로 했다. 최순실 게이트 보도 후 첫 주말인 오는 29일(토)에는 서울 청계광장에서 대규모 촛불집회를 열 예정이다. 이번 사태가 워낙 여론의 관심을 모으는 터라, 촛불집회 참석 인원은 투쟁본부 예상인 2000명을 훌쩍 넘어설 가능성도 엿보인다. 당초 투쟁본부는 다음달 12일 민중총궐기 대회만을 예정해 둔 상태였다. 이 행사는 세월호 사태와 백남기 농민 사망 사건에 관한 정부 책임을 묻는 자리가 될 가능성이 컸다. 하지만 최순실 게이트의 폭발력이 워낙 커, 앞으로 투쟁본부의 방침은 박근혜 대통령을 직접 겨냥하는 것으로 바뀔 가능성이 크다. 지난 26일부터 연이어 열리는 대학가의 시국선언 역시 계속될 전망이다. 이날(28일) 오후 12시 연세대 총학생회는 신촌캠퍼스 학생회관 앞에서 시국선언문을 발표했다. 연세대 총학은 "대통령은 국민으로부터 부여받은 권력을 독단으로 개인에게 부여했"다며 "초유의 국기문란·국정농단 사태로 대한민국의 민주주의는 붕괴했고 현 정권은 정당성을 잃었다"고 지적했다. 연세대 총학은 ▲ 철저한 진상 규명 ▲ 법에 따른 처벌 ▲ 이번 사태의 과정과 결과 공개를 박근혜 정부에 요구했다. 홍익대 총학생회는 이날 오후 1시 정문 앞에서 시국선언문을 낭독했다. 홍익대 총학은 "최순실의 국정 논단, 국기문란에 대해 대통령이 책임지고 사죄할 것과 밝혀지지 않은 의혹을 특검을 수용해 명확히 할 것"을 촉구했다. 홍익대 총학은 특히 최순실의 딸인 정유라 씨의 입학 특례 의혹과 관련해 "미래를 위해 성실하게 노력해온 대학생에게 심한 허탈함을 안겨주었다"며 박근혜 대통령에게 "진정성 있는 사과와 함께 본인이 관련된 사실을 털어놓음으로써 국민 앞에 책임지는 모습을 보여야 한다"고 촉구했다. 충남대 총학생회는 "헌법 위에 세운 대한민국 정부를 수렴청정한 최순실 사태에 국민은 통탄을 금치 못한다"며 "대한민국 국민이자 청년으로서 우리나라의 권력이 최순실로부터 나오는 이 시국을 더 이상 좌시하질 않을 것"이라고 발표했다.동국대 총학생회와 서울대 총학생회, 서울대 로스쿨 학생회, 서울교대 총학생회, 한국외대 학생들도 이날 박근혜 정권을 강경하게 비판하는 시국선언을 발표했다. 대학가 시국선언은 지난 26일 이화여대, 경희대, 부산대 등을 시작으로 연달아 진행 중이다. 27일에는 상명대, 성균관대, 숙명여대, 제주대, 조선대, 카이스트, 한남대, 한양대 등에서 시국선언이 열렸다. 대학가 시국선언 현황을 알리는 '전국 대학생 시국선언 지도'도 등장했다. 대학 단체인 '청년하다'는 28일 단체 페이스북 페이지에 각 대학 시국선언 현황을 구글 지도로 보여주는 시국선언 지도를 만들어 공개했다. (☞시국선언 지도 페이스북 주소 바로 가기)   ▲ 숙명여대 학생들이 지난 27일 서울 용산구 숙명여대에서 최순실 게이트와 관련한 시국선언을 하고 있다. ⓒ연합뉴스   대학가에서 시작된 시국선언은 국내외 여러 단체로 옮겨가고 있다. 그간 억눌렸던 민심이 최순실 게이트를 기점으로 폭발하는 양상이다. '박근혜 대통령의 하야를 촉구하는 50개국 재외동포 일동'은 이날 시국선언문을 인터넷에 공개해 박근혜 대통령의 하야를 촉구했다. 이들은 "대통령이라는 사람이 개인의 꼭두각시 놀음에 빠졌다는 사실이 만천하에 공개됐다"며 "해외에서 창피해서 낯을 들 수 없다"고 한탄했다. 이어 이번 사태를 "국민을 우롱하고 기만한 것은 물론 국가를 혼돈의 구렁텅이로 빠트린 중대 범죄이자 국가의 수치"로 규정하고 "박근혜 대통령을 포함해 이번 국정농단 사건에 관계된 모든 공직자는 자리에서 물러나 법과 국민의 엄중한 심판을 받아야만 한다"고 강조했다.특히 최순실 씨가 잠적한 곳으로 알려진 독일의 한인 사회에서는 현지에서 박근혜 대통령 탄핵을 요구하는 집회 개최가 논의 중인 것으로 알려졌다. 하지만 이날 &lt;경남도민일보&gt;에 따르면, 최순실은 이미 벨기에로 도피한 것으로 추정된다. 대학 교수를 중심으로 하는 지식인 119 선언은 28일 광화문광장 세종대왕 동상 앞에서 박근혜 대통령이 하야하고, 거국중립내각을 수립할 것을 요구하는 시국선언문을 발표했다. 이들은 "4.19 거리에 선 지식인들이 학생들의 피에 보답하기 위해 외쳤듯 탄핵이 아니라 하야"를 요구한다며 "오늘 당장 대통령이 모든 통치행위에서 손을 떼고 자숙할 것을 엄중하게 요구한다"고 밝혔다. 이번 선언에는 유종일 한국개발연구원(KDI) 국제정책대학원 교수와 최영찬 서울대 교수, 양성호 건국대 명예교수, 김용진 서강대 교수, 고기영 한신대 교수, 박창근 가톨릭관동대 교수, 김원재 인천대 교수, 박동천 전북대 교수, 정세은 충남대 교수, 선대인 선대인경제연구소장, 서해성 작가 등이 참석했다. 오는 31일에는 언론인들이 시국선언에 가세한다. 지난 27일 언론단체 대표자들은 비상시국 간담회를 열어 '언론단체 비상시국대책회의'를 결성, 오는 31일 오전 11시 광화문 광장에서 기자회견을 연다. 이번 회의에는 전국언론노동조합과 한국기자협회, 한국PD연합회, 방송기술인연합회 등 현업 언론단체와 동아투위, 80년해직언론인협의회 등 원로 언론인 단체, 민주언론시민연합과 언론개혁시민연대 등 언론시민단체가 참여한다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      한국농수산식품유통공사(aT, 사장 이병호)는 지난 30일에 ‘포스트 코로나 시대를 준비하고, 농정 틀 전환 실행을 위한 변화와 도전’을 주제로 한 혁신토론회를 온라인 화상회의로 개최했다.  공사 사업관련 고객, 농업인단체, 정부 관계자 및 aT 임직원 등 약 200여 명이 일사불란한 화상회의를 통해 뉴노멀 시대에 발맞춰 비대면 서비스와 무인화 등 4차 산업혁명의 혁신기술을 공사주요사업에 적용하는 방안과 농정 틀 전환에 따른 공사의 역할과 기능강화에 대해 심도있게 논의했다.    ▲aT 혁신토론회 화상회의에서 발언 중인 이병호 사장 ⓒaT    이번 토론회는 KAIST 이경상 교수의 ‘새로운 미래의 준비’란 특강을 시작으로, 수급·유통·수출·식품 분야의 aT 핵심과제 발표와 aT에 대한 고객대표 발언, 6개 분과토론과 종합토론 순으로 진행되었다.  특히 ▲농산물 온라인경매 등 언택트 유통채널 확대 ▲포스트 코로나 시대 K-Food 수출확대 전략 ▲국제 위기상황에 대응한 안정적인 식량공급체계 구축 ▲푸드플랜, 공공급식 등을 통한 안전·안심 먹거리 제공 등 aT가 중점적으로 수행해 나가고 있는 사업에 대한 토론자들의 활발한 토론이 이어졌다.  aT는 이번 혁신토론회에서 논의된 내용을 보다 세밀하게 검토 한 후 관련부서와의 의견조율을 거쳐 향후 중장기 경영목표와 미래혁신과제, 제도개선 등에 적극 반영해 나갈 계획이다.   aT 이병호 사장은 “온라인 화상회의 방식으로 개최한 이번 토론회는 다가오는 뉴노멀 시대의 변화를 보여주는 작은 사례로, 앞으로 뉴노멀 시대 우리 사회는 더욱 크고 다양한 변화를 경험할 것이다. 지속가능한 농업의 가치를 지키고 공공기관으로써의 사회적 책무를 다하기 위해 aT의 미래방향성과 조직 내 변화와 혁신을 지속해 나가겠다”고 말했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      "박근혜 대통령이 김무성 새누리당 대표 체제를 무너뜨리기로 마음먹은 것 같다."   2선 국회의원이자 보건복지부 장관을 지낸 유시민 작가의 말이 신호탄이 됐다. '친박계, 김무성 흔들기 본격화' '유승민 다음은 김무성?' '유시민 예언, 실현될까' 등 방송과 신문은 '김무성 마약 사위' 사건을 둘러싼 집권여당의 파벌 싸움을 대대적으로 보도했다. 급기야 친박 핵심이자 박근혜 대통령 정무특보인 윤상현 새누리당 의원은 '김무성 대선후보 불가론'까지 언급했다.   팟캐스트 &lt;노유진의 정치카페&gt;가 방송된 지 하루 만의 일이다. 유 작가의 한 마디가 &lt;프레시안&gt;을 통해 알려진 뒤, 24시간이 안 돼 벌어진 상황이다.(☞바로 가기 : 유시민 "박근혜, 김무성 무너뜨리기 마음먹은 듯")   청취자들도 크게 호응했다. &lt;노유진의 정치카페&gt; '순수한 안철수, 위기의 김무성' 편은 지난 15일부터 18일까지 나흘 연속 팟캐스트 포털사이트 '팟빵'에서 1위를 차지했다. 덩달아 &lt;노유진의 정치카페&gt;를 제작하는 정의당의 인기도 올라갔다. "유시민·노회찬·심상정 이들이 참 정치인이다"라는 칭찬부터 "정의당에 가입하고 싶다"는 적극적인 움직임까지, &lt;노유진의 정치카페&gt;는 현재 가장 '존재감 쩌는' 방송이다.    ▲ 팟캐스트 &lt;노유진의 정치카페&gt; 녹음 현장. ⓒ프레시안(이명선)   이쯤 되면, 궁금해진다. 분명히 배후가 있을 텐데, 세 사람을 한 자리에 모은 이가 누구일까? 또 매주 방송을 기획하고, 제작하는 이는 누구일까?   놀라지 마시라. 인기 팟캐스트 &lt;노유진의 정치카페&gt;의 배후는 프레시안 협동조합 조합원인 백정현 피디다. 백 피디는 정의당 뉴미디어실 실장으로, 지난해 5월부터 &lt;노유진의 정치카페&gt;를 총괄하고 있다. 이실직고하면, 유 작가와 노 전 대표 모두 프레시안 협동조합 조합원이다. 계기는? '정의당'을 알리기 위해서…  6.4 지방선거를 앞두고 '어떻게 하면 정의당을 알릴 수 있을까?'를 고민했다. 당시 정의당 지지율은 1~2퍼센트(%)였다(현재는 4%대로 올라왔다). 선거는 초시계처럼 다가오는데, 대중에게 파급력을 줄 수 있는 뭔가를 해야 하는데, 답답했다. 여러 아이디어 중 노회찬·유시민·진중권 세 사람의 토크쇼가 있었다. 대중 영향력이 있는 사람들인 만큼 한 번을 하더라도 제대로 준비해서 팟캐스트로 방송하는 게 나을 것 같았다. 세 사람에게 '한 번 해보자'라고 했지만, 기획자 입장에서는 '한 번으로 끝나지 않을 것'이라는 예감이 있었다.  '이빨이 맞았을 때'는? 하다 보니 자연스럽게…  사실 처음에는 걱정이 많았다. 하지만, 석 달여가 지났을까? 세 사람의 '케미(chemi)'가 자연스럽게 발산됐다. 진 교수는 사회자로, 청취자의 입장에서 사안을 살핀다. 유 작가는 '타임라인'이라는 코너를 운영할 만큼 튀는 시선을 자랑한다. 노 전 대표는 두 사람 사이에서 균형을 잡으면서도 사안을 촌철살인(寸鐵殺人) 한 마디로 정리한다. 리허설을 따로 하지 않는다. 제 나름대로의 트랙을 만들어 놓으면, 세 사람이 각자 그 위를 달린다.   진정한 배후가 따로 있다? 대통령이 열 받게 했다!   진 교수나 노 전 대표는 정의당과 관계된 일이라면, 언제든 오케이(Okay)하는 사람들이라 걱정하지 않았다. 단, 유 작가의 참여 여부가 문제였다. 유 작가를 찾아간 날이 박근혜 대통령이 세월호 참사와 관련한 대국민담화를 발표했던 지난해 5월 19일이었다. 몹시 흥분해 있었다. 유 작가가 단박에 '열 받아서 안 되겠다'며 '뭐든지 하자'고 하더라.   추천 에피소드는? '인공지능' 김대식 박사 편!     ▲ &lt;노유진의 정치카페&gt; 피디인 백정현 조합원. ⓒ프레시안(이명선)   2015년 신년특집으로, &lt;빅퀘스천&gt;(동아시아 출판사 펴냄)을 쓴 김대식 카이스트대학 교수를 초청했다. 스티븐 호킹 박사 등이 지난해 말 '인공지능(AI)이 인류의 멸망을 가지고 올지도 모른다'고 예언한데서 착안했다. 나름대로 모험적인 섭외였는데, 반응이 폭발적이었다. AI에 대한 논란을 '노유진'과 김 박사가 미래(SF)가 아닌 현실(FACT)의 문제로 다뤘다. AI는 머지않아 노동시장을 위협하고 사람과 사람의 관계를 단절시킬 것이라며, 정치권이 고민해야 할 문제라고 강조했다. 9월 8일 자 '세계 화폐전쟁, 그리고 화폐개혁' 편도 마찬가지다. 중국 주식시장의 붕괴와 위안화 평가 절하 문제를 정치적 맥락으로 짚었다.  기획자의 능력이 돋보인다. '국보급 존재' 세 사람 덕!  팟캐스트는 수다를 떨 듯 이야기하는 형태다. 일상의 얘기인 친구나 상사 뒷담화 등은 얼마든지 가능하지만, 인공지능·주식·세계 경제 등을 수다로 녹여내기란 정말 어렵다. 전문 영역을 수다의 영역으로 용해해 내는 것은 '노유진', 이 세 사람을 따라올 사람이 있을까? 기획자가 하고 싶다고 해서 되는 게 아니다. 국보급인 세 사람 덕이다. 청취자들이 &lt;노유진의 정치카페&gt;를 '내가 기다렸던 얘기를 해주는 방송'으로 기억해줬으면 좋겠다.   &lt;옥천신문&gt; 편집장일 때와 비교한다면? 지금이 좋다!  펜 기자일 때보다 창의적인 활동(기획·편집 등)이 가능하다. 개인적으로 굉장히 만족한다. 언론인에서 정당인이 되면서 생경했던 것도 사실이지만, &lt;노유진의 정치카페&gt;를 하면서 사람들이 듣고 싶어 하는 이야기와 내가 하고 싶어 하는 이야기 사이에서 접점을 찾은 것 같다. 2012년 대선 당시 문재인 캠프에서 'TV토론팀' 실무를 맡았다. 그러면서 지도자의 역할에 대해 고민했다. 시대의 흐름을 읽고 대중을 설득하는 능력, 그 능력은 자신의 삶에서 나오는 것이더라. '새정치민주연합과 정의당 중 대중 설득력을 가진 정당이 어딘가?'라고 묻는다면, '정의당'이라고 답할 것이다.   매체와 정당, 목적은 하나? '공감'이 핵심이다!   매체와 정당은 기본적으로 독자와 대중에게 '공감'을 이끌어 내야 한다. 우리 기사와 정책에 사람들이 얼마나 공감하느냐가 가장 중요하다. 공감하는 사람이 많아지면, 프레시안의 경우에는 조합원이 될 것이고 정의당은 가입하는 당원이 늘어날 것이다. &lt;노유진의 정치카페&gt;를 듣고 입당한 사람들이 실제로 많다. 특히 정당가입 추천인란에 '노유진'이라고 쓰는 사람이 많다.  &lt;프레시안&gt;을 평가한다면? 조합비 값 톡톡히 치르고 있다!  '주빌리 은행' 제윤경 대표를 인터뷰한 9월 15일 자 '2015년 추노(推奴) 이야기'는 &lt;프레시안&gt; 기사를 보고 기획했다. 인터뷰를 너무 잘했더라.(☞바로 가기 : "떳떳하게 말하자. 빚 못 갚겠다!") &lt;프레시안&gt;은 기자 자체가 콘텐츠라고 생각한다. 정치 외에 인문사회 분야의 다양한 주제를 인터뷰나 서평, 연재 등으로 녹여내고 있다. &lt;노유진의 정치카페&gt;를 기획하며 &lt;프레시안&gt; 기사를 많이 참고한다. 깊이 있는 기사가 1차 형태라면, '노유진'이 결합한 수다 형태로 2차 가공을 하는 셈이다. 그런 면에서 조합원으로 조합비 값을 톡톡히 치르고 있다. '노유진'이 말하는 &lt;노유진의 정치카페&gt; 배후는 '약오름'?  노회찬 : &lt;노유진의 정치카페&gt; 최대 무기는 백정현 피디 아니야?  유시민 : 무슨 소리! 내가 합류하면서 &lt;노유진의 정치카페&gt;가 뜬 거지.  진중권 : 노회찬 전 대표와 유시민 작가가 &lt;저공비행&gt;이라는 이름으로 팟캐스트를 한 적이 있다. 그런데 안 떴다. 내가 합류하면서 떴지. 원래 한 번으로 끝날 거였는데, 반응이 워낙 좋아서….  유시민 : 6.4 지방선거 끝나면 안 하려고 했는데, 선거 끝났다고 방송을 바로 끝내면 뭐라고 할까 봐. 진중권 : 또 '선거 끝났다고 방송 그만 하는 것 아냐?'라는 글이 올라왔다. 유시민 : 그래서 우리가 약 올라서 '이대로 끝내면 안 된다. 조금 더 하자'라고 했다가 오늘까지 왔다. 하다 보니까 반응도, 내용도 엄청 좋아졌다. 지금은 언론 역할까지 한다.  진중권 : 다른 데 인터뷰할 이유도, 글 쓸 이유도 없다. 지난 '화폐개혁' 방송 다운로드가 200만 건 넘었다고 들었다. 노회찬 : 지금까지 전체 누적 다운로드만 8000만이라며? 유시민 : 11월 하순이면 다운로드 1억은 되겠네. 12월 초까지 10번 정도만 더 방송하면….  진중권 : 그 정도쯤이야.  노회찬 : 1억 다운로드되면, &lt;노유진의 정치카페&gt; 중국 진출하는 건가?   ▲ 왼쪽부터 진중권 교수, 노회찬 전 대표, 유시민 작가. ⓒ백정현     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      보좌진 월급을 빼돌려 불법 정치자금으로 사용하고 후원금을 불법 수수한 혐의로 재판에 넘겨진 자유한국당 이군현(66, 경남 통영·고성) 의원이 징역형 집행유예를 확정받아 의원직을 상실했다.  대법원 2부(주심 조재연 대법관)는 27일 정치자금법 위반 혐의로 기소된 이 의원의 상고심에서 정치자금 불법 수수에 대해 징역 1년 6개월에 집행유예 3년을 선고한 원심판결을 확정했다.  회계보고 누락에 대해서도 징역 6개월에 집행유예 3년을 선고한 원심판결을 확정했다.  공직선거법에 따르면 정치자금법 위반 혐의로 벌금 100만 원 이상의 형이 확정되면 국회의원 당선이 무효가 된다.  이 의원은 19대 의원 시절인 2011년 7월~2015년 12월 보좌진 급여 중 2억4600만 원을 돌려받아 국회에 등록되지 않은 다른 직원의 급여와 지역구 사무실 운영비 등에 쓴 혐의로 2016년 8월 재판에 넘겨졌다.  선거관리위원회에 정식으로 신고하지 않은 예금 계좌에서 사용한 정치자금의 수입·지출 보고를 누락하고, 고등학교 동문인 사업가 허모 씨에게서 2011년 5월 1천500만원을 격려금 명목으로 수수한 혐의도 받았다.  1·2심은 "다시는 이런 일이 벌어지지 않게 하려면 의원직을 박탈할 수 있는 형의 선고가 불가피하다"며 정치자금 불법 수수 혐의에 징역 1년 6개월에 집행유예 3년, 회계보고 누락 혐의에 대해선 징역 6개월에 집행유예 3년을 선고했다.  대법원이 하급심이 선고한 형을 그대로 확정함에 따라 이 의원은 의원직을 상실하게 됐다.  교육 전문가 출신인 이 의원은 한국과학기술원(KAIST) 인문사회과학부 교수, 중앙대 교육대학원 교수를 지내다 2014년 17대 총선 때 한나라당 비례대표로 국회에 입성했다.  이후 18~20대 총선 때 고향인 통영·고성에서 잇따라 당선된 4선 의원이다. 20대 총선에선 경쟁 후보가 없어 전국에서 유일하게 무투표로 당선됐다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      마산대학교는 29일 미래관 1층에서 이군현 전 KAIST 교수 초청 특강을 가졌다.  이번 특강은 2019학년도 혁신지원사업 역량기반 교육과정의 일환으로 열렸다.    ⓒ마산대학교    이날 이군현 강사는 ‘제4차 산업혁명시대(미래교육의 방향)’ 이란 주제의 특강을 펼쳤다.  이 강사는 “제4차 산업혁명시대는 IT 와 전자기술 등 디지털 혁명에 기반하여 물리적 · 디지털 공간과 생물공학 공간의 경계가 희석되는 기술융합의 시대를 의미한다"라고 전제했다.  그러면서 "이 시대의 교육 방향은 창의성, 유연성, 소통능력, 협업능력, 도전정신, 인성을 키우는 쪽으로 나아갈 것”이라고 내다봤다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      김동원 전북대 총장 임용 1순위 후보자가 선출된 후 지지해준 교직원과 학생들에게 답례하고 있다. /프레시안(=이태영 기자)      전북대학교 제18대 총장 임용 후보자 1순위에 김동원(59) 교수가 선출됐다.   전북대 총장선거관리위원회는 29일 총장임용선거 3차까지 가는 투표에서 56.84%를 얻어 41.10%를 득표한 이남호 후보를 이기고 1순위 임용후보자에 선출됐다고 밝혔다.   1순위 임용내정자로 오른 김동원 후보는 “믿고 선택해줘 진심으로 감사하다”며 “대학 내 적폐청산을 수행하고 분권형 단임제 정착시키겠다”고 소감을 말했다.  김동원 후보는 선거기간 동안 ‘분권, 공감, 융합’을 기치로 ‘분권형 단임제’와 ‘대학내 적폐청산’을 주장해왔다.   김 후보는 공약을 통해 “국립대학에서 총장 연임제가 지속되는 경우 각종 폐단이 반복될 가능성이 높다”면서 “총장 연임제를 종식시키고 4년간 대학운영에 전념하도록 단임제를 총장 선출규정으로 개정 하겠다”고 강조했다.   특히 “효과적인 분권을 위해 학칙이나 규정의 제(개)정을 통해 권한을 분산시키고, 견제와 균형을 바탕으로 대학운영체제를 구축 하겠다”는 의지를 보였다.    김동원 전북대 총장 임용 1순위 후보가 6명의 출마후보자들과 함께 손을 들어 전북대 발전을 함께 할 것을 다짐하고 있다. /프레시안(=이태영 기자)    또한 “본부 보직자와 부속기관장 등의 추천 임명제 실시 등 일반교수들의 대학행정 참여 기회를 넓히겠다”며 “단과대학의 자율성 강화를 위해 학장 선출방식도 단과대 구성원이 선출하고, 총장이 추인하는 형태로 과감히 바꾸겠다”고 밝혔다. 김동원 전북대 총장 임용 1순위 후보는 서울대학교와 카이스트를 졸업한 뒤, 일본 훗카이도 대학에서 공학박사 학위를 받았다. 전북대학교 교수 임용 후 산학협력단장, 공과대학 학장을 역임했으며, 현재 공과교육혁신거점센터장과 공과대학 산업정보시스템공학과 교수로 재직 중이다.  주요 연구분야는 CAD/CAM/PLM, 지능생산시스템, 반도체 생산 및 일정계획, 기술경영 및 연구관리 등이다.  한편 선거결과에 따라 앞으로 전북대 총장임용후보자추천위원회는 대학 연구 윤리 검증 절차를 거친 후 김동원 교수와 이남호 교수를 각각 1순위와 2순위 후보자로 교육부에 추천하게 된다.  교육부는 추천된 후보자에 대한 교육공무원 인사위원회 심의를 거쳐, 대통령에게 임명을 제청하고 국무회의 심의를 거쳐 대통령이 후보자를 총장에 임명한다.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      최원호 박상후 교수       KAIST 원자력및양자공학과 최원호 교수 연구팀이 약하게 이온화된 플라즈마(weakly ionized plasma)에서 전자가 가열되는 구조와 제어 원리를 규명하는데 성공했다. 이 연구에서는 대기압과 그보다 낮은 압력에서 발생한 플라즈마에서 자유 전자가 에너지를 얻는 기본 원리를 밝히고, 플라즈마의 반응성 및 활용성 개선에 기반이 되는 전자 가열의 제어 방법에 대한 근본 원리를 제공했다.  대기압 조건에서는 자유 전자와 중성기체의 충돌이 빈번하기 때문에 이온화된 플라즈마 내 자유 전자의 밀도와 온도를 측정하는 데에는 한계가 있어 자유 전자의 가열 구조 및 원리를 실험적으로 규명할 수 없었다.   또한 전자 가열의 제어 방법 및 주요 요인에 대한 정보가 부족해 플라즈마의 반응성과 활용성 개선이 제한적이었다.  연구팀은 이를 해결하고자 전자-중성입자 제동복사(electron-neutral bremsstrahlung)를 기반으로 하는 전자 진단 기술을 이용해 플라즈마 내 자유 전자의 밀도, 온도를 정확히 진단하고 이를 2차원으로 영상화하는 기술을 개발했고, 본 실험에서 대기압 플라즈마에서 수 나노초(10억분의 1초) 단위로 자유 전자의 온도(에너지)를 측정하여, 전자가 에너지를 얻는 가열 과정의 시공간적 분포 및 근본 원리를 밝히는 데 성공했다.  0.25~1기압 압력구간에서의 전자 온도의 시공간적 분포의 변화를 실험으로는 최초로 확인한 사례로 대기압과 대기압보다 낮은 압력에서 전자가 에너지를 얻는 가열의 기본 메커니즘을 규명했다. 이 연구는 자유 전자와 중성입자의 충돌이 매우 빈번한 조건에서 발생하는 플라즈마에서의 전자 가열 원리를 학문적으로 이해하는 데 유용한 기반이 되고, 이를 통해 경제적, 산업적 활용 가능한 대기압 플라즈마 발생원을 개발하고 다양하게 활용하는데 큰 역할을 할 것으로 기대된다.    단일 및 이중 주파수로 구동하는 플라즈마에서 측정된 514.5 nm 파장의 제동복사 및 전자 온도의 시공간적 변화. 이중 주파수를 통한 전자 가열이 선택적으로 억제(suppression)되는 것을 확인할 수 있다.     물질의 세 가지 상태인 고체, 액체, 기체와 더불어 ‘물질의 네 번째 상태’라 불리는 플라즈마는 표준 온도 및 압력(25 ℃, 1 기압)의 상태에서는 자연적으로 존재하지 않으나 인위적으로 기체에 에너지를 가하면 플라즈마 상태가 된다.  최 교수는 “이 연구 결과는 자유 전자와 중성입자의 충돌이 매우 빈번한 조건에서 발생하는 플라즈마에서의 전자 가열 원리를 학문적으로 이해하는 데 유용할 것”이라며 “이를 통해 경제적, 산업적 활용 가능한 대기압 플라즈마 발생원을 개발하고 다양하게 활용하는데 큰 역할을 하길 기대한다”고 말했다. 박상후 연구교수가 1저자로 참여한 이번 연구는 국제 학술지 ‘사이언티픽 리포트(Scientific Reports)’ 5월14일자와 7월5일자 온라인 판에 Electron information in single- and dual-frequency capacitive discharges at atmospheric pressure, 단일 및 이중 주파수 대기압 플라즈마의 전자 정보 / Electron heating in rf capacitive discharges at atmospheric-to-subatmospheric pressures, 대기압과 대기압보다 낮은 압력에서 라디오 주파수 플라즈마 내의 전자 가열이라는 제목으로 연달아 게재됐다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      K-water가 지난 13일 중소기업지원제도 통합과제 공모에 대해 설명회를 열고 있다.      K-water가 물산업 중소기업 지원에 두 팔을 걷었다.  K-water는 오는 24일까지 ‘2018년 상반기 물산업 중소기업 기술개발 지원제도’에 참여할 중소기업을 모집한다고 밝혔다.  공모분야는 모두 4개로, ‘성과공유제’ ‘민관공동투자 기술개발사업’ ‘구매조건부 신제품 개발사업’ ‘물산업 기자재 공급자 등록제’다.   ‘성과공유제’는 K-water와 중소기업이 공동과제를 수행해 기자재의 원가절감이나 성능 및 품질향상 성과를 도출한 경우, 해당 기업과 2년간 수의계약을 체결해 개발제품의 판로를 지원하는 제도다.   또 ‘민관공동투자사업’과 ‘구매조건부 신제품개발사업’은 중소기업이 K-water의 필요기술을 개발하고, K-water와 중소벤처기업부가 함께 개발비 일부를 지원하는 사업이다.  지원금 규모와 기관별 부담비율은 사업별로 다르며, 최종 과제 심사와 선정은 중소벤처기업부에서 한다. 선정기업에 K-water의 댐·수도 사업장을 활용해 제품성능을 시험할 기회도 부여한다.  ‘물산업기자재등록제’는 K-water에 기자재를 제조·납품하는 중소기업을 대상으로 공급안정성, 기술능력 등을 평가해 우수기업에 ‘K-water 3년간 입찰 참가자격’을 부여하는 제도다.   공모 자격요건과 필요서류 등은 K-water 마중물센터 홈페이지(https://www.kwater.or.kr/mjmool)에서 확인할 수 있으며, 관련 문의는 K-water 물산업플랫폼센터(042-629-2530)로 하면 된다.   K-water는 이번 공모를 통해 중소기업의 기술경쟁력 제고는 물론, 매출확대와 신규 일자리 창출까지 가능할 것으로 기대하고 있다.   K-water는 지난해에도 다양한 중소기업 지원제도를 통해 총 861억 원의 물산업 중소기업 매출과 921개의 신규 일자리 창출에 기여했다.  K-water 이학수 사장은 “국내 물산업 육성을 위해서는 민간과 공공부문이 힘을 모아야 한다. 우수한 중소기업이 물산업 주역으로 성장할 수 있도록 K-water가 적극 지원하겠다. 관심 있는 기업의 적극적인 참여를 바란다”고 말했다.   한편, 지난 13일에는 K-water 본사에서 이번 공모 정보를 전달하는 설명회가 열렸다.   이날 설명회에는 물산업 중소기업 외 카이스트(KAIST) 등 기술개발 협력기관도 참여해 ‘스마트물관리’ 등 4차 산업혁명에 대비한 물산업 트렌드와 최신기술을 중소기업과 공유했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      우리는 초연결 사회에 살고 있습니다.우리는 인터넷을 통해서 스마트폰으로 또 페이스북, 카카오톡 등의 플랫폼으로 모두가 모두와 연결되어 있습니다. 이런 초연결 사회에서 우리의 개인 정보 역시 곳곳으로 새 나가고 있습니다. 구글, 페이스북, 카카오 또 유통 업체, 금융 업체 등은 우리의 모든 정보를 데이터로 수집합니다. 이 정보를 기반으로 기업이 빅 데이터 마케팅을 한다는 건 이제 상식이 되었죠.찜찜하지 않으세요? 돈벌이를 최고의 목적으로 삼는 사기업이 어쩌면 은밀한 정보까지 '나'를 속속들이 알고 있다는 사실이요. 만약 이 회사의 데이터 센터가 나쁜 목적을 가진 집단에게 뚫리면 어떻게 될까요? 갑자기 국가 기관이 이 회사가 보유한 나의 개인 정보를 마음대로 열람한다면 어떻게 될까요?&lt;프레시안&gt;과 &lt;시사통&gt;이 함께 만드는 '독서통'은 31일 보안 전문가가 쓴 섬뜩한 책 &lt;당신은 데이터의 주인이 아니다&gt;(브루스 슈나이어 지음, 이현주 옮김, 반비 펴냄)를 다뤘습니다. 빅 데이터 전문가인 이효석 박사(&lt;뉴스페퍼민트&gt; 대표)와 함께 정보화 시대, 우리의 정보를 누가 통제하는지에 관해 이야기했습니다.   ▲ 이효석 박사(&lt;뉴스페퍼민트&gt; 대표). ⓒ프레시안(이대희)   내 정보, 누군가 지켜본다김종배 : 오늘 소개할 책을 소개해 주세요.강양구 : 지난 독서통에서 &lt;리틀 브라더&gt;(코리 닥터로우 지음, 최세진 옮김, 아작 펴냄)와 &lt;댓글부대&gt;(장강명 지음, 은행나무 펴냄)를 소개한 적이 있지요? 오늘 소개한 책도 이 책들의 연장선상에 있습니다. 브루스 슈나이어의 &lt;당신은 데이터의 주인이 아니다&gt;를 오늘 함께 읽어보겠습니다.(☞관련 기사 : "국정원 뒷문은 테러리스트도 좋아합니다", '일베' 하고, '술집' 나가는 20대, 돈만 주면 OK?)김종배 : 저자 소개도 잠깐 해주시죠?강양구 : 글쓴이 브루스 슈나이어가 경력이 독특합니다. 보안 업계에서는 세계 최고의 보안 전문가로 꼽힙니다. &lt;이코노미스트&gt;가 "보안 구루"로 칭하기도 했습니다. 2013년에 에드워드 스노든이 미국 국가안보국(NSA) 기밀문서를 폭로했잖아요? 그 때 스노든이 폭로한 문서를 분석해서 &lt;가디언&gt;의 특종 보도에 도움을 준 전문가도 바로 슈나이어입니다.김종배 : 오늘 이 자리에는 저자를 대신해 특별한 전문가도 한 분 모셨죠?강양구 : 굉장히 다재다능한 분입니다. 2012년에 창간한 매체 &lt;뉴스페퍼민트&gt;가 있어요. 좋은 외신 기사를 골라 발췌 번역해 매일 소개하는 매체입니다. 이 매체를 직접 만들고, 현재도 대표로 재직 중인 이효석 박사를 이 자리에 모셨습니다. 이 박사는 &lt;뉴스페퍼민트&gt; 운영과 병행해서 스타트업에서 빅 데이터 전문가로도 활동하고 있습니다.한국과학기술원(KAIST)에서 물리학 박사 학위를 받고 나서, 이동 통신 기술인 LTE(Long Term Evolution) 표준화에 참여하기도 했습니다.김종배 : 어서 오십시오.이효석 : 안녕하세요. 반갑습니다.강양구 : 미국에 계신다고 들었는데요?이효석 : 작년(2015년) 8월에 한국에 들어왔습니다. 미국 하버드 대학교에서 8년간 연구원으로 일했습니다. 사물 인터넷(IoT) 등 데이터 과학을 본격적으로 연구했어요. 지금은 의료 관련 스타트업에서 빅 데이터를 연구하고 있습니다. 이렇게 재미있는 자리에 불러주셔서 고맙습니다.김종배 : 요즘 들어서 개인 정보 이슈가 자주 논란이 됩니다. 툭하면 금융 기관이나 신용 카드 회사에서 고객 정보가 유출되는 사고가 있습니다. 또 국가정보원이나 경찰 같은 국가 권력이 시민의 사생활을 감시하는 일도 여러 차례 이슈가 되었고요. 그런데 여기서 이해할 수 없는 부분이 있어요.똑같은 개인 정보 이슈인데, 어떤 뉴스는 사회적으로 큰 파장을 일으킵니다. 많은 시민이 분노하죠. 예를 들어, 국가 권력의 사생활 감시가 그렇죠. 반면에 어떤 뉴스는 그 심각성에 비해서 파장이 적을 뿐만 아니라, 시민 역시 둔감한 것 같습니다. 수시로 일어나는 개인 정보 유출 사건이 그렇습니다. 이 차이는 도대체 어디서 비롯된 걸까요?이효석 : 개인 정보 유출 사건이 실제로 자기 삶에 어떤 영향을 미칠지 모를 경우에 사람들은 무덤덤하기 마련입니다. 특히 처지에 따라서 개인 정보의 가치를 다르게 평가하는 것 같습니다. 기업은 수백만 명의 정보를 가지고 있으니 그것이 지닌 엄청난 상업적 가치를 알죠. 하지만 개인 한 사람 한 사람은 자신의 정보가 얼마나 큰 가치를 지녔는지 알기가 쉽지 않아요.더구나 개인 입장에서는 '내 정보를 기업에 내줌으로써 약간의 손해를 보지만, 그보다 훨씬 큰 이득을 얻는다'고 생각할 수도 있습니다. 구글 이용자는 따로 비용을 지불하지 않고 이메일을 사용하고, 어디서나 접근 가능한 저장 공간(구글 드라이브)을 사용할 수 있습니다. 페이스북 이용자도 비용 지불 없이 친구의 소식을 쉽게 접할 수 있죠.반면 개인 정보 이슈가 정치적인 문제로 떠오르는 경우가 있습니다. 앞에서 지적했듯이, 이 경우에는 파장이 큽니다. 그 이유를 딱 한 가지로 잘라서 설명하기는 쉽지 않죠. 일단 생각해 볼 수 있는 것은 정치적 이해관계에 따라서 정부-여당을 비판하는 수단으로 개인 정보 이슈에 접근하는 사람이 있겠죠.김종배 : 카카오의 검찰-경찰 감시 논란이 한창이었을 때 '사이버 망명'이 큰 호응을 얻은 건 어떻게 봐야 하나요? 정치적 이해관계에 따른 것이라고 하기엔 100만 명은 많은 숫자죠.이효석 : 저도 텔레그램 망명자 가운데 하나입니다. (웃음) 숨길 게 없이 떳떳하면 왜 개인 정보에 그렇게 신경을 쓰느냐고 묻는 분들이 있습니다. 이에 대해서는 예전 독서통에서 개인 정보 이슈를 다룰 때 정확하게 답한 것 같아요. 화장실에서 볼 일 보는 걸 남에게 공개하고 싶은 사람은 아무도 없죠. 하지만 그게 숨겨야 할 부끄러운 일도 아닙니다.사이버 망명에 동참한 시민도 마찬가지 심정 아닐까요? 특별히 숨길 게 있어서가 아닙니다. 나와 친구가 나눈 사적인 대화가 감시당할 수 있다는 사실을 참을 수 없다고 느낀 거죠.김종배 : 비단 카카오톡뿐만 아니라, 우리가 일상적으로 스마트폰이나 컴퓨터로 인터넷을 쓰면서 행한 온갖 활동이 다 기록으로 남아서 어딘가에 저장되고 있다면서요?강양구 : 아마 &lt;당신은 데이터의 주인이 아니다&gt;를 읽는다면, 많은 독자가 깜짝 놀라리라고 생각합니다. 우리가 일상적으로 사용하는 구글, 페이스북, 인스타그램 등을 통해서 내 개인 정보가 얼마나 많이 기업으로 넘어가고 있는지 실감하실 수 있을 거예요. 명백한 증거가 오스트리아 한 페이스북 이용자의 사례입니다.2011년 이 이용자는 페이스북을 상대로 그들이 가진 자신에 관한 모든 데이터를 돌려달라고 요구했어요. 사실 이용자의 당연한 권리죠. 그런데 페이스북이 이를 거부했습니다. 결국, 2년에 걸친 법정 공방 끝에 페이스북은 1200쪽의 PDF 파일이 든 CD를 이 이용자에게 보냈습니다.그의 친구 목록, 뉴스피드에 올라온 기사, 그가 클릭한 적 있는 모든 사진과 페이지, 심지어 그가 본 모든 광고 데이터까지 저장되어 있었습니다. 페이스북이 이 방대한 자료를 그냥 갖고 있었을 리 없죠. 분명히 돈벌이 수단으로 어딘가에 활용했겠죠. 예를 들어, 가장 손쉬운 활용 방법은 친구 추천입니다.우리는 페이스북의 친구 추천 기능에 환호하죠. 그런데 사실 페이스북이 나의 개인 정보를 (동의도 없이) 자신의 가입자 수를 늘리는 데 활용하는 겁니다. 또 페이스북을 이용하다 보면, 자신에게 맞춤한 광고가 뜨는 경우가 있습니다. 여행을 준비 중인데 숙박 예약 사이트의 광고가 뜨죠. 역시 페이스북이 나의 개인 정보를 활용해서 내놓은 표적 광고입니다.이효석 : 책에서 저자는 과거에는 모든 이메일을 각각 분류하고 저장했는데, 2006년을 기점으로 일단 모두 저장하고 필요할 때마다 검색하는 방식으로 바꾸었다고 고백합니다. 사실 저도 비슷한 시기에 그런 변화를 겪었어요. 왜냐하면 매일매일 처리해야 하는 이메일의 양이 너무 많아져서 어쩔 수 없었기 때문이죠.페이스북, 구글, 아마존 같은 기업도 마찬가지입니다. 수집한 개인 정보를 무조건 다 저장한 다음, 나중에 필요할 때 꺼내 쓰는 게 비용이 적게 드는 시대가 된 거죠. 그러니 이런 기업은 가능한 한 모든 정보를 무조건 저장합니다. 기업은 기본적으로 '고객의 개인 정보는 내 것'이라고 생각합니다.이런 상황에서 인터넷 공간에서 개인의 '잊혀질 권리'를 행사하기가 현실적으로 어려울 수밖에 없어요. 유럽은 개인 편이지만, 미국은 기업 편을 드는 추세입니다.모든 걸 다 아는 전능김종배 : 책을 읽어 보면 '데이터' 개념과 '메타 데이터' 개념을 분리합니다. 일단 두 개념을 설명해주시죠.이효석 : 전화 통화로 설명하죠. A와 B가 언제 얼마나 오랫동안 통화했는지를 기록한 정보가 메타 데이터입니다. 그리고 실제로 그 통화 내용을 누군가가 도청했다면, 그것은 데이터죠. 강양구 : 이 책을 읽고서 부끄러웠어요. 에드워드 스노든이 NSA의 기밀문서를 폭로했을 때, NSA는 이렇게 반론을 폈어요. 우리는 미국 시민의 모든 데이터를 수집한 게 아니라 메타 데이터만 수집했을 뿐이라고요. 그러니까, 테러리스트와 통화한 적이 없는 대다수 보통 사람은 메타 데이터를 수집한 사실에 걱정할 필요가 없다는 거였죠.반론을 들으면서 저도 솔깃했습니다. 그런데 이 책을 읽고 나서야 메타 데이터가 치명적인 개인 정보라는 사실을 깨달았어요. 이효석 : 맞습니다. 한 사람의 메타 데이터만으로도 그 사람의 행적, 친소 관계, 특정 인물과의 연결고리를 추적할 수 있습니다.강양구 : 스탠포드 대학교 연구 팀이 수개월간 자원자 500명의 전화 메타 데이터를 확보해서, 그 메타 데이터로부터 자원자의 개인별 특징을 추론했어요. 그 결과는 정말로 섬뜩했습니다.참가자 C는 대형 병원의 심장병 전문의와 오랫동안 이야기를 나눴고, 약국에서 걸려온 전화를 받았습니다. 또 심부정맥 모니터링 장비 회사의 고객 센터와 간단히 통화했습니다. 아시겠죠? C는 심장마비가 온 적이 있습니다. 참가자 D는 3주 동안 집수리 용품 매장과 자물쇠 수리인, 수경 재배 식물 판매업자, 마약 복용 물품을 판매하는 가게에 전화를 걸었죠.D는 뭘 하는 사람이었을까요? 집에서 마리화나를 재배하는 사람이었습니다. 참가자 E는 어느 날 이른 아침에 언니와 오랫동안 통화했어요. 이틀 뒤에 그녀는 동네의 가족계획을 위한 사무소에 연달아 전화를 걸었고, 2주 뒤에 다시 짧게 통화했습니다. 짐작이 가시죠. 맞아요. E는 낙태했어요.그러니까 구체적인 통화 내용(데이터)을 모르더라도, 메타 데이터만으로도 한 사람의 신상을 충분히 재구성할 수 있는 거죠.김종배 : 특히 의료 데이터가 유출된다면 개인에게 정말 치명적일 겁니다. 당장 지난해(2015년) 국민건강보험공단이 무려 110만 건의 개인 정보를 검찰과 경찰에 넘겼다는 뉴스가 떠오릅니다. 이런 식으로 개인의 동의 없이 마구 의료 정보가 넘어가도 되는 겁니까?이효석 : 의료 데이터는 특별합니다. 보통 의약업체가 신약 하나를 개발하는 데 보통 수조 원의 돈을 들여서 여러 차례에 걸쳐 임상시험을 한 후 시중에 내놓죠. 만약 의료 데이터를 활용할 수 있다면 이런 비용을 크게 절약할 수 있습니다. 그러니까 의료 데이터는 공적 활용을 위해서 필요한 대목이 있습니다. 미국에는 '히파(HIPPA, Health Insurance Portability and Accountability Act)'라는 개인병원기록보호법이 있습니다. 개인 식별이 가능한 정보와 그렇지 않은 의료 정보를 철저히 구별해서, 후자만 공공을 위해 활용하도록 강제하는 법입니다. 이런 법이 있을 정도로 개인의 사회생활에 큰 지장을 줄 수 있는 의료 개인 정보는 조심해서 다뤄야 합니다.김종배 : 물론 빅 데이터를 여러 가지로 활용한다면 순기능을 얻을 수 있다고 봅니다. 하지만 선을 넘는 게 문제인데요. 기업이나 국가는 항상 선을 넘으려 하죠.이효석 : 이 책이 아주 중요하게 다루는 주제입니다. 특히 저자는 '대량 감시'를 일관되게 반대하죠. 특정 인물이 위협 요소가 있다면 법 집행 기관에 영장을 발부받은 후 그 사람을 감시해야 합니다. 무차별적으로 모든 사람을 감시해 개인 정보를 수집하고, 그 빅 데이터를 토대로 감시하는 건 효과도 없고 여러 가지 부작용만 낳죠.김종배 : 책을 읽고 나서 가장 심각한 문제라고 여겼던 부분이 바로 NSA 같은 정부 기관이 민간 업체가 보유한 이용자 개인 정보를 언제라도 들여다볼 수 있다는 사실이었어요. 저자는 "징발됐다"라고 표현하더군요. 아주 적절한 표현이라고 봅니다. 국가와 기업의 감시가 결합할 때, 끔찍한 재앙이 일어날 수 있죠.강양구 : 한국도 마찬가지입니다. 앞서 우리가 정치와 관련한 개인 정보 유출에는 민감하고, 기업 관련 개인 정보 유출에는 둔감하다는 얘기를 했어요. 그런데 사실은 우리가 둔감한 부분, 그러니까 기업에 민감한 데이터가 많이 모여 있습니다. 그리고 국가 권력이 그걸 활용하려고 마음만 먹는다면 정부와 기업 간의 긴밀한 협력으로 언제든지 가능하죠.결국, 우리의 정보가 평소에는 기업의 돈벌이 수단으로 활용되고 결정적인 순간에는 국가 권력의 대국민 감시에 징발될 가능성이 있어요. 무섭지 않습니까?   ▲ 에드워드 스노든 전 미 중앙정보국(CIA) 직원은 NSA의 무차별 개인 정보 수집 활동을 폭로했다. ⓒNBC   언제나 활짝 열린 우리 집 뒷마당?김종배 : 이 대목에서 우리가 놓쳐서는 안 되는 개념이 '백 도어(back door)'입니다. 이 개념이 무엇인지부터 설명해주세요.이효석 : 시스템 보안을 무력화해서 시스템 내부로 들어갈 수 있는 방법을 통칭합니다. 사실 보안이 완벽한 시스템을 만드는 것은 불가능합니다. 어떤 시스템이든 허점이 있을 수밖에 없어요. 그래서 백 도어를 발견할 때마다 기업은 이를 고치려고 노력하죠. 그런데 이런 경우가 있습니다.예를 들어, NSA가 특정 기업 시스템의 백 도어를 발견했어요. 정상적인 상황이라면 그 기업에 즉시 알려서 백 도어를 막으라고 조언하는 게 정부의 역할이죠. 그런데 NSA는 그렇게 조언하기는커녕 그 백 도어의 존재 자체를 비밀로 붙입니다. 왜냐하면, 자기들이 필요할 때 그 백 도어를 이용하기 위해서죠.NSA만 백 도어의 존재를 알고 있으란 법은 없죠. 테러리스트 같은 나쁜 의도를 가진 집단도 백 도어의 존재를 알아챌 수 있습니다. 그들이 백 도어를 활용할 수 있죠.김종배 : 백 도어가 열려 있다면, 수사 기관은 영장을 받은 후 특정 개인을 조사해야한다는 법적 상식이 무력화될 수 있잖아요? 필요하다면 언제든 뒷문으로 들어가 개인 정보를 볼 수 있으니까요. 책에 소개된 이메일 회사 라바비트(Lavavit)가 폐업을 결정한 사례를 보면서 정말 국가와 기업이 결합한 개인 정보 침해의 심각성을 느꼈습니다.강양구 : 라바비트는 웬만한 대기업 이메일 서비스보다 보안성이 더 뛰어난 이메일 서비스 제공 업체였습니다. 에드워드 스노든이 바로 이용자 중 한 명이었죠. 스노든이 2013년 홍콩으로 도망친 후, 정부가 모든 라바비트 이용자 정보를 보호하는 암호화 마스터키를 넘기고, 이들이 정부에 감시당할 수 있음을 알리지 마라는 요청을 라바비트 측에 했죠.백 도어를 요구한 겁니다. 라바비트는 정부와 맞서 법정 소송까지 갔습니다만, 소송에서 지고 나서 결국 문을 닫는 결정을 내렸습니다.김종배 : 고객 정보 보호를 위해 이런 결정을 내릴 수 있는 사업가가 몇 명이나 되겠습니까?이효석 : 일전에 애플이 총격 사건 용의자의 아이폰 보안을 해제해 달라는 미국 정부의 요구를 거절한 일이 있습니다. 그러니까 미국 정부가 애플한테 아이폰의 백 도어를 알려 달라, 혹은 백 도어를 만들어라, 이렇게 요구한 거죠. 뒤이어 애플은 미국 정부가 (프라이버시를 침해하려는) 전례 없는 요구를 기업에 한다는 장문의 메시지를 고객에게 보내 화제가 되었죠.보통 정부와 기업이 싸울 때 사람들은 정부 편을 들기 마련입니다. 그런데 이 사건에서 대부분의 시민은 애플 편을 들었습니다. 다수의 시민도 백 도어의 문제점을 알아챈 겁니다.강양구 : 애플의 의도가 이용자의 개인 정보를 보호하겠다는 순수한 건 아니었겠죠. 소비자로 하여금 '애플은 안전하다'고 인식하게끔 정부와의 충돌을 마케팅 수단으로 활용한 거죠.김종배 : 여태까지 우리가 많은 이야기를 했는데요. 기업의 개인 정보 수집이 낳는 문제점을 어느 정도 실감하셨을 거예요.강양구 : 요즘 여러분이 자신의 일상을 기록한 사진을 인스타그램 같은 곳에 올립니다. 그런데 인스타그램 사진이 끔찍한 결과를 낳을 수도 있어요. 그런 사진이 특정 시점에 특정 공간에 있었다는 식별 정보로 활용될 수 있거든요. 예를 들어, 반정부 시위 때 찍은 사진이 인스타그램에 올라간다고 생각해 보세요.이효석 : 그러고 보니, 제가 미국에 있을 때 티베트 독립을 지지하는 집회에 참여한 적 있습니다. 혹시 당시 제가 찍힌 사진이 있다면, 중국을 방문할 때 문제가 될 수 있겠죠. (웃음)   ▲ 소셜 미디어는 네트워크를 타고 만인을 감시한다. 우리의 소중한 개인 정보 데이터는 바로 나를 감시하는 도구다. ⓒpixabay.com   내 프라이버시는 어디까지 희생해야 하나김종배 : 오늘 우리는 당장의 편리를 위해서 개인 정보 침해를 용납할 때, 어떤 치명적인 결과를 낳을 수 있는지를 살펴보았습니다. 그런데 제 생각은 여기서 멈춘 상태예요. 대안에 관해 할 말이 없습니다. 우리가 스마트폰을 안 쓰고, 이메일을 안 쓰긴 어려우니까요.강양구 : 가장 답답한 부분입니다. 개인 정보 보호에 관한 이야기가 많이 나옵니다만, 변화를 체감할 수 없어요. 그 이유는 많은 사람이 막연한 불안함에 대처하고자 구체적으로 무엇을 할지 알지 못한다는 데 있습니다. 그 와중에 기업은 기업대로, 국가 권력은 권력대로 개인 정보를 수집하고 감시할 능력을 키우고 있고요.김종배 : 앞서 거론된 라바비트는 아주 양심적인 업체입니다. 분명 극히 예외적 사례라고 생각됩니다. 실제로 기업이 고객의 개인 정보를 보호하기 위해 얼마나 고민하고 있습니까?이효석 : 기업 입장에서는 법이 아주 중요합니다. 저자는 "모든 기업이 이익을 극대화하기 위해 노력하지만, 시민이나 정부가 방향을 잘 정하면 그 범위 안에서 노력한다"고 언급하죠. 기업이 얼마나 고객의 정보를 보호해야하는지에 관한 법적 가이드라인이 마련된다면, 기업은 결국 그 테두리 안에서 움직이는 경향이 있다는 겁니다.강양구 : 그런 점에서, 저자가 제안한 '정보 보호 수탁자' 개념도 대안이 될 수 있지 않을까요?이효석 : 맞습니다. 의사, 변호사, 회계사는 고객의 이익을 반드시 우선시해야 하는 의무를 가지고 있습니다. 정보 보호 수탁자는 고객의 정보를 오직 고객의 이익을 위해서만 사용한다는 개념이죠. 구글이나 페이스북은 고객의 개인 정보를 많이 갖고 있지만, 고객의 이익이 아니라 자신의 이익을 위해서 사용합니다.하지만 신생 IT 업체가 고객 정보를 오직 고객의 이익을 위해서만 활용하겠다고 약속한다면, 즉 정보 보호 수탁자로서의 의무를 최우선에 놓고서 기업을 경영하겠다고 한다면, 많은 고객이 그런 업체의 서비스를 신뢰하고 선택하지 않을까요? 또 정부도 정보 보호 수탁자로서의 의무를 선언한 기업에 세제 혜택, 법적 혜택을 주는 인센티브를 고려할 수도 있겠죠.김종배 : 정보 보호 수탁자 개념처럼 기업이 고객의 개인 정보를 중요하게 취급할 수 있도록 하려면 법이 제정되어야 합니다. 결국 모든 문제는 정치로 수렴되는군요. 국회가 어떤 법을 만드느냐에 따라서 기업의 운신의 폭이 조정이 될 테니까요. 그런 점에서 테러 방지법의 경우는 정부-기업이 결합한 감시의 가능성만 더 키웠죠.내 정보를 지키는 방법은?강양구 : 개인이 취할 수 있는 대응에는 뭐가 있을까요?이효석 : 저자가 몇 가지를 언급했습니다.우선 감시를 차단하는 프로그램을 사용하는 방법이 있습니다. 프라이버시 강화 기술(privacy enhancing technologies, PET)이라고 하는데요. 라이트빔(lightbeam), 프라이버시 배저(privacy badger), 디스커넥트(disconnect), 고스터리(ghostery), 플래시블럭(flash block) 등의 플러그인이 대표적입니다.또 인터넷 익스플로러 대신 암호화된 웹브라우저 토르(tor)를 사용하는 것도 좋은 방법입니다.강양구 : 저도 토르를 사용하고 있습니다. 익스플로러나 크롬에 비해서 약간 느리지만, 일상적인 웹 서핑에는 전혀 문제가 없습니다.재미있는 사례가 하나 생각납니다. 2013년 하버드 대학교 폭탄 위협 사건 때 범인이 추적을 피하고자 토르를 사용했어요. 그런데 그가 기숙사에서 토르를 사용한 유일한 사람이었기 때문에 걸렸다는 말이 있습니다. 자신의 흔적을 감추기 위해서 토르를 사용했는데, 정작 그런 사용 패턴 때문에 자신이 더 부각되는 역설은 어떻게 생각하십니까?이효석 : 좀 더 많은 사람이 토르처럼 보안이 강화된 프로그램을 사용한다면 그런 일이 생기지 않겠죠.김종배 : 특히 기자와 같이 정보를 취급하는 일을 한다면 토르 같은 보안이 강한 브라우저를 사용할 필요가 있습니다. 예를 들어, 내가 지금 터뜨리면 어마어마한 파장을 일으킬 권력형 비리를 추적 취재 중이라고 합시다. 일반 브라우저를 사용하는 도중 누군가 내 검색 과정을 다 지켜본다면 얼마나 어처구니없는 상황입니까? 그나저나 다른 건 또 없습니까?강양구 : 이 책의 저자가 추천한 방법이 있습니다. 가끔은 스마트폰을 집에 두고 다녀라. 마트에서 자기 회원 카드로 상품을 사지 말고 친구 카드로 구매하라. 신용 카드 대신 현금을 사용하라. (웃음)이효석 : 농담 같지만 전혀 의미 없는 실천은 아니에요. 사실 가끔 한 번씩만 스마트폰을 집에 두고 다녀도 감시 시스템을 교란할 수 있기 때문에 추적이 어려운 사람이 될 수 있습니다. 신용 카드 사용을 줄이는 것도 마찬가지고요. 작은 교란 행위로도 정부, 기업의 감시로부터 자신을 지킬 수도 있습니다.강양구 : 또 있습니다. 페이스북에서 가끔은 자신과 전혀 무관한 사람을 검색하라. 시스템을 교란하는 장난을 쳐 보라는 거죠. 한 번 해보세요. 페이스북에서 자신과 전혀 상관없는 특정인을 몇 번 검색하면, 친한 사람 혹은 당신이 알 수 있는 인물로 등록이 되거든요. 페이스북의 친구 추천 시스템을 교란하는 거죠.김종배 : 저자는 프라이버시권을 내 정보를 컨트롤할 수 있는 권리라고 정의하더군요. 내 정보의 통제권을 내가 갖는 것. 다른 한편으로 보자면, 지금의 감시 사회에서는 내 정보 통제권을 내가 갖기도 어렵다는 겁니다. 오늘 우리가 나눈 이야기를 한 마디로 정리하자면 이 얘기가 아닌가 싶습니다.나는 나를 숨길 권리를 갖고 있다강양구 : 이 대목에서 저자는 아주 중요한 화두를 하나 던집니다. 우리가 부모님에게 보여드리는 내 모습이 다르고, 친구에게 보여주는 내 모습도 다르죠. 심지어 사랑하는 사람에게 보여주고 싶은 내 모습도 따로 있습니다. 그런데 내가 보여주길 원하지 않는 내 모습을 예상치 못한 상황에서 예상치 못한 상대에게 어쩔 수 없이 보여주게 된다면 어떨까요?정말로 빅 데이터 사회에서는 나의 정체성을 내가 결정하기가 어렵습니다.이효석 : 통제력을 갖는다는 것 자체가 굉장히 어렵죠. 페이스북 대표인 마크 저커버그가 "모든 사람의 정체성은 하나"라고 말한 적 있습니다. 하지만 이 얘기는 저자의 지적대로 순진하죠. 내가 연인과 나누는 얘기, 파티에서 친구들과 나누는 얘기, 직장에서 하는 얘기는 전부 다르거든요.   ▲ &lt;당신은 데이터의 주인이 아니다&gt;(브루스 슈나이어 지음, 이현주 옮김, 반비 펴냄). ⓒ반비   그런데 이런 사실을 무시하고 나의 모든 정보가 노출된 환경에서 내가 스스로를 통제하기란 결코 쉽지 않습니다. 맨체스터 유나이티드의 감독이었던 알렉스 퍼거슨 경이 남긴 유명한 말씀도 있지 않습니까? "트위터는 인생 낭비"라고요. (웃음) 당장 힐러리 클린턴처럼 노회한 정치인도 공적, 사적인 구별을 잘 하지 못해 정치적 곤경에 처하지 않았습니까?강양구 : 이 책에서 브루스 슈나이어가 제기한 여러 문제가 사회적 합의를 거쳐 잘 해결되리라고 생각하십니까? 아니면 디스토피아적 소설에 나오는 것처럼 감시 사회로 넘어갈 것 같습니까? 이효석 : 저는 물론 전자를 희망합니다. 전자처럼 되기 위해 사회적 노력이 필요할 테고요. 하지만 아직은 ‘이렇게 될 것’이라고 답하긴 어려운 상황 같습니다.김종배 : 오늘 이효석 박사를 모시고 브루스 슈나이어의 &lt;당신은 데이터의 주인이 아니다&gt;에 관해 이야기 나눴습니다. 개인 정보 보안이 왜 중요한지, 모두가 연결되는 사회에서 개인 정보가 얼마나 쉽게 뚫리고, 얼마나 무서운 방향으로 이용당할 수 있는지 알아보는 시간이었습니다. 나와 주신 이효석 대표께 감사 말씀 드립니다. 이효석 : 즐거운 시간이었습니다. 감사합니다.앞으로 서강대학교 철학과 박사 과정에 재학 중인 이솔 씨가 독서통에서 소개된 책을 이해하는 데 필요한 핵심 개념을 설명합니다. 브루스 슈나이어의 &lt;당신은 데이터의 주인이 아니다&gt;와 관련해 이솔 씨가 설명하는 핵심 개념은 '파놉티콘(Panopticon)'과 '시놉티콘(Synopticon)'입니다.파놉티콘파놉티콘은 1791년 제러미 벤담(Jeremy Bentham)이 처음으로 고안한 개념입니다. '모두'를 뜻하는 '판(pan)'과 '본다'는 뜻의 '옵티콘(opticon)'이 합성된 말로, '모두를 다 본다'는 뜻입니다.벤담이 고안한 이 파놉티콘은 원래 죄수를 감시할 목적으로 설계된 특별한 형태의 감옥을 가리키는 표현이었습니다. 이 감옥은 죄수의 입장에서 감시자의 시선을 파악할 수 없도록, 그래서 끊임없이 감시되는 상태를 만들어내도록 설계되었습니다. 결과적으로 파놉티콘은 죄수들로 하여금 규율과 감시를 내면화해 스스로를 감시하게 하는 효과를 낳습니다.시놉티콘소수가 다수를 감시하는 파놉티콘이 근대 사회의 감시 원리였다면, 노르웨이 범죄학자 토마스 매티슨(Thomas Mathiesen)은 정보 기술의 발전에 의해 파놉티콘의 일방적 감시가 바뀌어 가고 있다고 지적합니다. 정보 기술의 발전으로 언론과 통신이 발달하면서 기존 소수의 감시자와 다수의 피감시자 간의 경계가 사라지고 모두가 함께(syn) 서로를 감시하는 상황이 조성되었다는 것이죠. 매티슨은 이를 시놉티콘(Synopticon)이라 명명했습니다.파놉티콘이 소수가 다수를 감시하는 체제를 의미했다면, 이제 다수가 소수의 권력자를 감시하는 체제로 변화했다는 점에서 시놉티콘은 역파놉티콘(Reverse panopticon)이라고도 불립니다. 역파놉티콘이란 파놉티콘의 반대되는 개념으로 감시받던 피감시자들이 역으로 감시자들을 감시하는 상황을 의미합니다.이렇듯 시놉티콘이 역파놉티콘을 의미한다는 점에서, 시놉티콘에는 디지털 시대로의 발전을 통해 이제는 권력에 대한 견제, 곧 감시가 시민으로부터 이루어지는 역감시가 이루어지게 되었다는 낙관적인 전망이 함축되어 있습니다. 즉, 과거처럼 소수만이 권력과 언론을 독점하고 다수의 일반 시민을 통제하는 체제가 아니라, 일반 시민 역시 자신을 감시하는 권력자를 감시하고 통제한다는 점에서 수평적인 권력 관계가 형성되리라는 기대감이 깔려 있죠.하지만 이러한 낙관론에 대한 비판의 목소리도 적지 않습니다. 이에 대해서는 크게 두 종류의 비판이 제기됩니다.첫째, 우리 사회가 모든 곳에서 서로를 감시하고 감시당하는 국면으로 접어들게 되면서, 파놉티콘에 갇힌 죄수가 자신이 감시당하는지 아닌지 몰랐던 것처럼 정보 파놉티콘의 네트워크에 노출된 사람은 자신의 행동이 다른 이에 의해 열람될지 확신할 수 없기 때문에, 자신의 행동을 늘 의식적으로 통제하게 되었다는 겁니다. 파놉티콘 모형에서 중앙 감시탑의 역할이 정보화 사회 네트워크의 그물망으로 분산됨에 따라서 오히려 더 극단적으로 광범위하고 내밀한 감시가 이루어진다는 거죠.둘째, 시놉티콘에 관한 낙관주의가 현존하는 권력의 비대칭성을 간과하고 있다는 사실도 지적됩니다. 정보화 사회로 진입하면서 소수의 감시자와 다수의 피감시자 간의 경계가 사라지고 모두가 함께(syn) 서로를 감시하는 상황이 조성되었다고 하더라도, 여전히 데이터를 수집하고 소유하는 주체가 우리는 아니라는 거죠.이러한 문제를 거론하는 입장에서는 특히 (오늘 독서통에서 중요하게 살펴봤듯이) 감시 시스템이 국가를 넘어 시장의 영역에 도입되고 있다는 점을 지적합니다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 박범계의원과 조병용신한금융회장, 허태정 대전시장(좌로부터)이 투자협약 체결을 한 후 기념 촬영을 하고있다 ⓒ 대전시      대전시는 20일 중회의실에서 허태정 대전시장과 조용병 신한금융그룹 회장, 박범계 국회의원 등이 참석한가운데 신한금융그룹과 대전 스타트업파크 투자협약을 체결했다.  이에 따라 신한금융그룹은 대전 유성구 일원에 조성 중인 대전스타트업 파크에 총 1000억 원을 투자하기로 했다. 이번 투자는 단순한 금융지원을 넘어 신한금융그룹이 대전 스타트업파크의 성공을 위한 한 축을 담당한다는 점에서 남다른 의미를 갖고 있다.  신한금융그룹은 1000억 원을 들여 스타트업과 지원기관의 활동 공간 조성, 스타트업들을 위한 투자 전용펀드 조성·운영 등에 나설 예정이다.  대전 스타트업파크는 카이스트, 충남대학교 등 대학과 대덕특구 출연연구소의 우수한 인적자원, 연구 인프라 및 원천기술이 집적된 창업생태계 조성 최적지로 미국의 실리콘밸리와 같은 세계적인 스타트업 타운을 모델로 조성된다.  대전시는 지난 상반기 중앙정부의 스타트업 파크 공모사업에는 선정되지 못했지만, 사업의 중요성과 필요성을 감안해 국비 지원 여부와 관계없이 대전 스타트업 파크 조성 사업을 추진하고 있다.  허태정 대전시장은 “이번 협약은 대전 스타트업 파크가 대전의 미래를 이끌어갈 핵심 사업이자 대한민국 경제를 도약시킬 가능성에 대한 투자”라며 “앞으로 카이스트 등 모든 협력기관과 합심해 대한민국의 혁신형 창업 모델의 성공사례를 반드시 우리 대전에서 이루어내겠다"라고 말했다  한편, 대전시와 신한금융그룹은 이번 투자협약을 준비하며 구체적인 사업내용과 일정에 대해서도 협의를 마쳤으며, 협약 이후 스타트업 지원에 대한 보다 구체적인 사업 계획을 마련할 계획이다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      고등학생이었을 때, 이과생은 대학 입시에서 물리, 화학, 생물, 지구과학 가운데 두 과목을 선택했다. 물리와 화학 가운데 반드시 한 과목을 포함해야했다. 대개의 학생들은 물리-지구과학이나 화학-생물의 조합으로 정했다. 나는 특이하게도 물리-화학을 선택했는데, 당시 카이스트 입시는 물리, 화학, 생물을 모두 필수로 했기 때문이다. 아무튼 당시 학생들은 생물을 물리의 반대말쯤으로 여겼다. 시험에서 물리는 원리를 적용해서 푸는 과목이고, 생물은 그냥 무작정 암기하는 과목이라고 생각했기 때문이다.  이런 선입견은 물리를 좋아하는 학생들이 생물학을 멀리하게 만들었다. 실제 내가 대학에 다니던 시절, 물리학과 학생들은 생물학을 이류 과학쯤으로 생각하는 분위기도 있었다. 당시 물리학과가 최고의 상한가를 치던 때란 것도 이런 경향에 일조했으리라. 하지만 내가 졸업할 즈음엔 생물학의 세상이 도래해 있었다.  내가 생물학에 흥미를 가지게 된 것은 당시 전파과학사에서 나온 &lt;양자생물학&gt;이란 책을 알게 되면서다. '광합성'이 그냥 화학식들의 연쇄 변환 과정을 외우는 것에 불과하다고 생각했는데, 그게 아니었던 것이다. 전자가 광합성 단백질 위를 뛰어 다니며 에너지를 만들어내는 모습을 상상하는 것만으로 가슴이 뛰었다. 이전에 생물학을 제대로 몰랐던 것이다.     ▲ &lt;생명의 도약&gt;(닉 레인 지음, 김정은 옮김, 글항아리 펴냄). ⓒ글항아리   오늘 소개할 닉 레인의 &lt;생명의 도약&gt;(김정은 옮김, 글항아리 펴냄) 같은 책을 내가 학창시절 읽었다면 생물학을 보는 시각이 많이 달라졌을 거다. 닉 레인은 생명과학 분야의 브라이언 그린, 리처드 도킨스라 할 만하다. 아주 쉽다고는 할 수 없지만, 깊이나 명료함에 있어 이 분야에서 최고다. 나는 그의 전작 &lt;미토콘드리아&gt;(김정은 옮김, 뿌리와이파리 펴냄)를 읽고 단박에 팬이 되었다. &lt;미토콘드리아&gt;는 깊이 있는 내용이 많아 좀 어렵다는 느낌이 들었지만, &lt;생명의 도약&gt;은 다루는 주제가 방대해서 그런지 전작에 비하면 오히려 술술 읽히는듯하다.  이 책은 생명 진화의 역사에서 가장 중요한 10개의 발명을 다룬다. 하나하나 독립적으로 쓰여 있어 관심 있는 것부터 읽어도 무방하다. 물론 시간 순으로 제시되어 있으니 순서대로 읽는 것을 추천한다. 인간의 역사에서 가장 중요한 발명품 10개를 고르라면 사람마다 다르겠지만, 바퀴, 문자, 증기기관, 트랜지스터 등을 고를 수 있을 거다. 닉 레인은 생명의 역사에서 가장 중요한 것으로 생명의 기원, DNA, 광합성, 진핵세포, 성(性), 운동, 시각, 온혈성, 의식, 죽음의 열 가지를 선택했다.  첫 번째 주제는 '생명의 기원'. "최초의 생명은 어떻게 생겼을까?" 모두가 궁금해 하지만 잘 다루지 않는 질문이다. 우주론의 "빅뱅 이전에 무엇이 있었는가?" 만큼이나 중요하고 어렵다. 현대 과학이 자신 있게 모른다고 답하는 문제이기도 하다. 저자는 '열수분출공'에서 최초의 생명이 탄생했다는 가설을 설명한다. 열수분출공은 심해에서 땅 속의 뜨거운 물질을 뿜어내는 굴뚝 모양의 구조물을 말한다. 이 일대는 온도가 수백 도에 달하고, 양잿물이나 다름없는 강한 알칼리성을 띄고 있다. 인간은 1초도 버틸 수 없는 환경이다. 하지만 놀랍게도 여기에 수많은 생명체가 살고 있다.  이런 지옥 같은 환경이 어떻게 생명 탄생의 부화장이 되었을까? 이걸 이해하려면 생명과학의 핵심 원리들을 알고 있어야한다. 열수분출공에서는 기체가 부글거리며 올라오는데 수소다. 뿐만 아니라 여기서 '아세틸티오에스테르'라는 물질이 생산된다. 생물학 지식이 있는 사람은 여기서 무릎을 치겠지만, 나도 눈을 껌벅 거리기만 했으니 너무 걱정은 마시라.  지구상 생명체는 물질대사의 핵심적인 화학 반응이 동일하다. 바로 고등학교 생물 시간에 배웠던 시트르산 회로다. 원형으로 꼬리를 물고 늘어선 수많은 화합물들의 이름을 외우던 기억이 날 거다. 안타깝지만 나는 다 잊어버렸다. 보통 시트르산 회로는 유기 분자를 소비하여 수소와 이산화탄소가 생성된다. 당신 몸의 세포가 지금 이 순간에도 하고 있는 일이다.  아마도 열수분출공에서는 시트르산 회로의 역전이 일어나는 것 같다. 그렇다면 주위에 널린 여러 분자들로부터 생명에 필요한 유기분자들을 만들어 낼 수 있다. 실제 열수분출공 근처 사는 세균에서 이런 역전이 흔히 관측된다고 한다. 여전히 많은 부분이 가설로 점철되어 있지만, 최초의 생명체를 추적하는 최신 이론의 윤곽이나 방법을 맛볼 수 있는 소중한 기회가 아닐 수 없다.  두 번째 이야기는 'DNA'. 생물학에 조금이라도 관심이 있는 사람이라면 DNA에 대한 기초 지식은 가지고 있을 거다. 나 같은 물리학자도 DNA에서 RNA를 통해 단백질로 이어지는 생물학의 중심 원리쯤은 알고 있다. RNA를 이루는 3개의 염기가 하나의 아미노산을 지정하며, 아미노산이 모이면 단백질이 되고, 단백질이 우리 몸의 모든 화학반응을 제어한다는 사실도 알고 있다. 이 책에서 알게 된 새로운 사실은 코돈이라 불리는 3개의 염기 순서에 의미가 있다는 거다.  염기에는 A, C, G, U 네 종류가 있다. 여기서 세 개를 골라 나열하여 만들어지는 가능한 코돈의 수는 4×4×4=64가지다. 이것으로 지정해야 하는 아미노산은 모두 20개니까, 하나의 아미노산에 여러 개의 코돈이 중복하여 대응된다. 놀랍게도 코돈 속에는 아미노산과 관련한 생명의 역사가 숨어있다.  예를 들어, 코돈의 첫 번째 염기는 전구(前驅) 물질과 관련 있다. 세포에서는 아미노산이 몇 가지 전구물질에서 시작하여 일련의 생화학적 단계를 통해 아미노산들이 만들어진다. 그런데, 같은 전구물질에서 만들어지는 아미노산들을 지정하는 코돈의 첫 번째 문자가 같다. 예를 들어 피루부산이라는 전구물질에서 만들어지는 아미노산은 모두 U로 시작하는 식이다.  두 번째 문자는 아미노산이 물에 녹는지 녹지 않는지와 연관된다. 이것은 단백질의 3차원 구조와 관련한 중요한 정보다. 끝으로 코돈의 세 번째 염기는 주로 중복된다. 세 번째 염기를 바꾸어도 아미노산이 바뀌지 않는 경우가 많다는 거다. 예를 들어, 'GC'로 시작하는 코돈의 경우 세 번째 염기와 상관없이 모두 '알라닌'이라는 아미노산을 지정한다. 최초의 생명체가 2개의 염기로 된 코돈을 쓰다가 나중에 3개의 염기를 쓰는 쪽으로 진화했을까? 사실 복잡한 아미노산 5개를 제외한 15개의 아미노산에 종결코돈을 더한 16개라는 숫자는 두 개의 염기만으로 지정할 수 있다. 정말 흥미롭다!  세 번째 이야기는 '광합성'. 닉 레인이 설명하는 광합성의 개념은 정말 단순하다. 그의 말을 옮겨 보자.  "이산화탄소에 전자 몇 개를 첨가하고 전하의 균형을 위해서 양성자 몇 개를 함께 넣어주면, 갑자기 당(糖)이 만들어진다."  우리에게 친숙한 식물은 물에서 전자를 얻는다. 물론 물이 순순히 전자를 내놓을 리 없으니 태양에서 내리쬐는 자외선이 필요하다. 그러면 폐기물로 산소가 발생한다.  지구상에 시아노박테리아가 광합성을 시작한 이래 지구의 산소 농도는 증가해왔다. 산소는 반응성이 강하여 위험한 물질로 산소에 적응하지 못한 생물은 대부분 사라졌다. 하지만 산소를 사용하면 많은 에너지를 얻을 수 있다. 지금과 같이 (박테리아에 비해) 거대한 생물이 생길 수 있었던 것도 산소 호흡이 가능했기 때문이다. 닉 레인이 풀어내는 광합성의 생화학 이야기를 읽다보면 본격적으로 생물학을 공부하고 싶어질 정도다. 지금까지 생명의 도약 10가지 가운데 3가지의 맛만 보았다. 나머지 7가지가 궁금해질 거다.  물리학은 보편적 이치를 찾지만, 생물학은 다양성을 탐구한다고 한다. 생명에 다양성이 생기는 이유는 진화 때문이다. 진화는 그냥 무작위적인 적응이다. 그렇다면 생명에는 보편성이 없는 걸까? 그렇지 않다. 생명의 보편성은 모든 것이 최초 하나의 생명체에서 진화했다는 사실에 근거한다. 진화의 고비에서 문턱을 넘은 첫 번째 생명체가 있었기에 이후의 생명들은 그 생명체의 특성을 공유한다. 이처럼 진화는 다양성과 함께 보편성도 만든다. 생명 현상에 들어있는 보편성의 비밀을 알고 싶은 사람에게 이 책을 추천하는 바이다. 물리학자들도 예외는 아니다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ⓒ한수원      한국수력원자력(사장 정재훈, 이하 한수원)이 24일 경주화백컨벤션센터에서 ‘2019 산학연 통합 사업화 유망기술 설명회’를 개최했다.  올해로 4회째 개최한 설명회는 한수원과 한국원자력연구원 등이 보유한 각종 기술을 중소기업에 소개하는 자리다. 이후 관심 있는 기업들이 기술이전을 받을 수 있도록 지원한다.  행사는 한수원이 주관하고, 한국원자력연구원, 기술보증기금, 한국원자력산업회의, KAIST, 경희대, 해오름동맹 3개 대학(UNIST, 동국대, 울산대)이 공동주최했다.  정재훈 한수원 사장과 이영석 경주부시장, 임채영 한국원자력연구원 본부장을 비롯한 100여개의 중소기업들이 참석했다.  정재훈 사장은 “다양한 중소기업 지원활동 중 기술이전은 수익과 일자리, 두 가지 성과를 동시에 창출하는 의미가 큰 사업”이라며, “앞으로도 중소기업에 실질적으로 도움이 되는 사업들을 확대해 원전산업생태계 유지와 활성화를 위해 노력할 것”이라고 말했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      강원 횡성 송호대학교 제11대 정창덕 총장이 선임됐다.  송호대는 지난 6월 29일 이사회(이사장 최금순)를 열어 안양대학교 정창덕 총장을 송호대 제11대 총장에 선임했다고 31일 밝혔다.    ▲정창덕 송호대 총장.     정 신임 총장은 8월 1일 취임한다.   송호대는 관계자는 “정창덕 신임총장은 교육, 연구, 행정 등의 다양한 경험을 통한 혁신적인 사고와 훌륭한 인격을 겸비하여 송호대학 발전에 적임자로 사료된다”고 선임배경을 설명했다.  정 총장은 전북 임실 출신으로 단국대 전기공학과를 나와 연세대에서 산업경제 석사를 받은 뒤 카이스트에서 경영정보 박사학위를 취득했다.   미국 인디애나대와 UCLA에서 연구와 강의를 했고, 일본 도쿄교육대학원 대학 객원교수를 거쳐 중국 하얼빈대 석좌교수, 고려대 컴퓨터정보학과 교수, 산업자원부와 정보통신부 국가전략회의 위원, 청와대 정책기획 자문위원 등을 역임했다.   산업자원부 장관상, 미국 ABB 소프트웨어 상과 대통령상 등을 수상한바 있으며, 현재 (사)한국유비쿼터스학회장 및 (사)미래창조협회장 등을 맡고 있다.  한편 정 총장의 임기는 2017년 8월 1일부터 2019년 7월 31일까지 2년이다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ X-선 근접 암치료장비 ⓒKAIST       KAIST 원자력 및 양자공학과 조성오 교수 연구팀이 탄소나노튜브를 이용해 손가락보다 작은 진공 밀봉형 초소형 X-선 튜브와 X-선 근접 암치료장비(brachytherapy device)를 개발해 암 치료와 의료용 영상장치, 첨단 산업용 X-선 장비 등에 활용될 것으로 기대된다. 환경오염으로 파괴된 지구의 오존층으로 인한 자외선 양의 증가로 피부암 발병률이 높아지고 있다.이로 인해 세계적으로 매년 약 300만 명의 환자가 발생한다. 이러한 피부암 치료에 방사선을 이용하면 미용적 손실없이 수 분 내에 암을 치료할 수 있고, 고령이나 타 질환으로 인해 수술을 하기 어려운 경우에도 쉽게 적용할 수 있다.  조 교수 연구팀은 강남세브란스 이익재 교수 연구팀과 공동으로 개발한 X-선 근접 암치료장비를 이용해 피부암 및 켈로이드에 대한 세포 및 동물실험을 수행했다.이를 통해 개발한 장비가 기존의 방사선 원격 치료장비인 선형가속기(LINAC)와 동등한 치료 효과를 가진다는 것을 확인했다. 현재 병원에서 주로 사용하고 있는 선형가속기는 방사선 치료 장비로 고가와 넓은 공간 차지, 대형 차폐시설 필요는 물론 가동시 발생하는 방사선 에너지가 높아 치료 부위 외의 정상 세포도 훼손할 수 있는 문제점을 안고 있다.        ▲초소형 X-선 튜브 ⓒKAIST   이번에 공동 연구팀이 개발한 X-선 근접 암치료장비는 선형가속기에 비해 10분의 1 이하의 가격이고, 국부적 치료가 가능해 정상 세포의 손상을 최소화할 수 있으며 크기도 작아 이동 및 방사선 차폐에 편리한 장점을 갖고 있다. 또한 인체에 삽입할 수 있어 피부암과 켈로이드 등 인체 표면의 질환 치료 외에도 유방암, 자궁암, 직장암 등과 같은 다양한 암을 치료에 이용할 수 있는 특성을 갖고 있다. 특히 X-선 튜브를 더 소형화하면 내시경에 장착해 위암, 식도암, 대장암, 췌장암 등을 치료할 수도 있다.        ▲ 조성오 교수 ⓒKAIST   조 교수 팀이 개발한 초소형 X-선 튜브는 암 치료 외에 의료용 영상장치, 3D 반도체 비파괴검사, X-선 물질 분석장치, X-선 리소그래피, 나노 측정 장비 등 첨단 의료 및 산업용 장비 개발에도 활용할 수 있다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      경남도과학교육원(원장 김동환)은 오는 21일 오후 2시30분 1층 대강당에서 제50회 과학의 날 기념식을 갖는다.   이번 기념식은 과학기술교육의 중요성을 강조하고 우수 과학 어린이들과 우수 과학 교사의 사기를 진작하기 위해 마련했다.  기념식에는 경남교육청 김원찬 부교육감을 비롯해 지역교육청 교육장, 학교장, 학부모, 경남과학사랑어머니회, 2017. 과학동아리 활동 지원 대상팀 지도교사, 경남과학전람회 작품 제작 컨설팅 희망 교사 등 200여명이 참석한다.   ▲경남과학교육원 전경.    우수 과학 어린이와 우수과학 교사들에 대한 미래창조과학부장관 상장 및 표창장 전수, 초청 특강, 과학동아리 활동 지도 방법 특강, 경남전람회 작품 제작 컨설팅 등을 실시할 계획이다.  이날 기념식에서 과학기술 유공 교사는 하청초등학교 고두철 교사 외 19명으로 시·군교육지원청별로 엄정한 심사를 거쳐 추천된 창의적인 과학기술교육에 앞장서고 과학문화 확산에 공헌하며 주위의 신망이 두터운 모범적인 교사들이다.  우수과학 어린이는 도내 초등학교에서 학교장 추천을 받아 선정된 학생으로 총 495명이며 이 가운데 가고파초등학교 이동건 학생 외 시·군교육지원청별 대표학생 17명이 기념식에 참가해 수상한다.  초청 특강 연사인 KAIST 배석형 교수는 ‘미래 사회가 요구하는 창의적 융합 인재의 특성과 덕목’이라는 주제 강연을 갖는다.  배 교수는 “4차 산업혁명 시대가 요구하는 미래 인재는 새로운 역할과 환경에 적응할 수 있는 유연성과 다학제적 학습 능력을 갖추고 인공지능이 대체하지 못하는 창의성 및 감성 등 인간 고유의 뛰어난 능력을 발휘할 수 있는 사람”이라며 “이러한 인재를 어떻게 키울 것인가에 대한 고민이 필요하다”는 내용을 강의할 예정이다.  한편 경남과학교육원은 4월 과학의 달을 맞아 ‘세상을 바꾸는 상상! 상상을 실현하는 과학기술·ICT!’ 라는 주제로 전국적으로 과학기술 중요성을 강조하기 위한 다채로운 행사를 마련하고 있다.   경남도교육청 김원찬 부교육감은 기념사에서 “4차 산업 혁명 시대를 맞아 미래 인재가 갖추어야 할 가장 중요한 역량은 창조력이다. 창조력의 발현을 위해서는 융합지식과 창의력, 동료들과의 협업과 의사소통능력이 중요하다”며 과학교육의 중요성을 당부할 예정이다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      김동원 전북대학교 총장ⓒ전북대학교      김동원 제18대 전북대학교 총장이 28일, 4년간의 공식 업무를 시작했다.  지난 22일 국무회의에서 총장 임명안이 심의·의결된 김 신임 총장은 28일자로 공식 대통령 임명을 받았다.  김 총장은 이날 내부 업무보고 등을 받고 향후 공고한 협력체계 구축을 논의하는 일정으로 임기 첫날을 시작했다.  이어 김 총장은 조직개편을 통해 차기 집행부를 꾸리고, 추후 취임식을 통해 전북대 경영의 세부 밑그림을 제시할 계획이다.  분권과 공감, 융합을 대학 운영의 키워드로 제시한 김 총장은 “대학 조직은 대규모 심포니 오케스트라를 닮아 있다.  김 총장은 "구성원들을 배려하고, 창의적인 영감을 불어넣을 대형 오케스트라의 명지휘자 총장이 되겠다”고 밝혔다.  한편 김동원 총장은 서울대 산업공학과를 졸업하고 카이스트에서 석사, 일본 북해도대학에서 박사학위를 받았다. 1988년부터 전북대 산업공학과 교수로 재직하며 공과대학장과 산업기술대학원장, 환경대학원장, 공학교육혁신거점센터장 등을 지냈다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ⓒ전주대      전북 전주대학교는 박상업 교수가 한국물리학회 ‘계원물리학상’을 수상했다고 20일 밝혔다.  계원물리학상은 한국물리학회가 발간하는 ‘새물리’지에 다수의 우수논문을 발표하는 등 한국 물리학 활성화와 물리학 용어 발전에 기여한 학자에게 수여된다.   박 교수는 KAIST에서 물리학 석·박사 학위를 취득하고 1989년부터 전주대에 재직 중이다. 박 교수는 과학서 ‘과학과 인문 at eyes’ 출판, 한국물리학회 학술지 등에 다수의 논문을 게재하며 한국 물리학 발전과 연구에 기여하고 있다.   특히, 박 교수는 물리학의 영역을 인문학과 한국어로 확장하며 한국적 물리학 발전에 기여해왔다. 논문 ‘훈민정음의 원형 자음과 원형 모음의 과학적 원리(2016)’와 ‘진동수 격자 이론과 훈민정음 모음도(2017)’를 통해서 자연 현상과 간단한 물리법칙을 언어(language)로 표현한 ‘훈민정음’의 원리와 과학성을 재분석하여 물리학과 언어학의 호환성을 검증했다.   또, ‘1일 주가 흐름의 위상 분석과 투자 패턴(2017)’을 통해 하루 동안 주가 흐름의 경제 빅데이터를 물리학적으로 연구하여 새로운 주가 분석 기법과 경제 예측 모델을 개발 중에 있다.   전주대 박상업 교수는 “기존 학문을 수용하고 변형하는 수동적 학문 태도가 아닌 학문을 가꾸고 경작하는 학문에 대한 주도적 태도가 중요하다고 생각한다”며 “이런 주도적 태도의 중심에는 한국 문화와 한국어가 있기 때문에 한국어를 중심으로 하는 한국적 물리학 발전을 위해 연구를 계속하겠다”고 말했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      강원랜드(대표 문태곤)가 지원하는 ‘2018 하이원 선상학교’프로그램 참가 학생들이 12일 부산에서 출항식을 갖고 6박 7일 일정으로 해외 탐방에 나선다.  이번 선상학교 참가 학생들은 폐광지역 4개 시군 고등학교 1, 2학년 재학생 중 예술, 과학, 문학, 역사, 환경 분야 등에서 재능 및 특기를 보유한 학생들로 공모를 통해 지난달 20일 최종 36명이 선발됐다   이들은 11일 부산 감천문화마을을 답사하고 사전 캠프에 참여하는 등 국내 일정을 마무리하고, 4월 12일부터 18일까지 6박 7일 간의 일정으로 러시아 블라디보스토크, 일본 가나자와 ‧ 후쿠오카 등을 방문해 기항지 탐방 활동을 펼치게 된다.     ▲하이원 선상학교에 참여하는 학생들이 11일 부산 감천문화마을을 답사한 뒤 기념촬영하고 있다.ⓒ강원랜드     특히 오는 14일에는 항일운동의 흔적과 고려인 강제 이주의 아픈 역사를 간직한 러시아 블라디보스토크를 방문해 역사문화 탐방 활동에 참여하는 등 대한민국 현대사를 되돌아 볼 수 있는 소중한 기회를 가질 예정이다.   또한 카이스트 정재승 교수, 방송인 노홍철, 여성 리더십 전문가인 퍼블리시스원의 조유미 대표, 사진작가 조세현, 소설가 은희경 등 평소에 만나보기 힘든 명사들로부터 꿈을 이루는 방법에 대한 강의도 듣고, 코칭도 받을 수 있는 프로그램에 참가한다.   김창완 사회공헌실장은 “하이원 선상학교는 폐광지역 창의인재 육성을 위해 마련한 프로그램”이라며 “‘배’라는 한정된 공간에서 이뤄지는 다양한 전문가들과의 교류, 스스로 기획하는 해외 문화 탐방활동, 각기 다른 문화와 재능을 가진 친구과의 사귐 등을 통해 긍정적인 자극을 받으며 꿈을 향해 도전하는 인재로 성장하길 바란다”고 말했다.   한편 올해로 여섯 번째를 맞이하는‘하이원 선상학교’는 5만 7000톤급 크루즈인‘그린보트’를 타고 아시아 각국을 체험하는 프로그램으로, 강원랜드는 2013년부터 2017년까지 폐광지역 청소년 197명에게‘하이원 선상학교’프로그램 참가를 지원해왔다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲ 포스트이보가 알칼로이드의 합성전략 모식도 ⓒKAIST       KAIST 화학과 한순규 교수 연구팀이 마약중독 치료제와 항암제 후보물질로 쓰일 수 있는 천연물을 인공적으로 합성하는 데 성공했다.  연구팀은 시중에서 구할 수 있는 카타란틴(catharanthine)을 원료로 해 산화와 재배열을 통해 마약중독 치료제 및 항암제 후보물질 생산의 원천기술로 활용될 7종의 이보가 및 포스트이보가 천연물을 합성했다.  이보가 알칼로이드가 생 합성적으로 변형된 천연물 중 빈블라스틴(vinblastine)은 현재 항암제로 쓰이고 있다.  천연물 전합성(全合成)은 간단한 시작물질로부터 다단계의 화학반응을 통해 원하는 천연물을 합성하는 학문 분야이다.  그러나 이 다단계 화학반응을 거치는 과정에서 합성효율이 낮아지는 한계가 있다.  연구팀은 이보가 알칼로이드 천연물인 카타란틴이 미 식품의약국(FDA) 승인 항암제인 나벨빈(Navelbine®)의 공업원료로 쓰여 시중에서 쉽게 구할 수 있다는 점에 착안했다.  산화와 재배열을 통해 카타란틴의 구조를 변형시켜 고부가가치의 포스트이보가 천연물을 효율적으로 합성했다.  연구팀은 이번 연구에서 이보가 알칼로이드에서 자연적으로 파생되면서 분자적 재배열을 이룬 천연물군을 ‘포스트이보가’ 알칼로이드라고 이름 지었다.  그리고 다양한 효소의 작용을 통해 식물 내에서 이뤄지는 이보가 골격의 분자적 재배열을 화학적으로 구현하는 데 성공했다.  합성에 성공한 포스트이보가 알칼로이드는 타버틴진(tabertinggine), 보아틴진(voatinggine), 디피닌(dippinine) B로, 이 중 보아틴진과 디피닌 B는 최초의 합성이다.  특히 디피닌 천연물군은 30년 이상 학계의 관심을 받아왔음에도 정복하지 못한 난공불락의 천연물로 여겨졌는데 이번에 최초로 합성에 성공했다.  한순규 교수는 “이번 연구는 포스트이보가 알칼로이드 합성에 새로운 패러다임을 부여한 연구”라며 “본 연구를 통해 다양한 항암제 및 마약중독 치료제 후보물질을 합성할 수 있는 원천기술을 확보했다는 데 의의가 있다”고 말했다.  이번 연구는 화학 분야 국제 학술지이자 셀자매지인 ‘켐(Chem)’ 11월 15일 자에 ‘생합성 가설에 기반한 이보가 알칼로이드의 단위체 포스트이보가 알칼로이드로의 변환’이라는 제목으로 실렸다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ⓒ전북대      전북대학교 컴퓨터공학부 자율로봇연구실(지도교수 이말례) 학생들이 세계 최초로 열린 ‘AI 월드컵 2017(AIWC 2017)’에서 영광의 우승컵을 들어올렸다.  한국과학기술원(KAIST) 주최로 지난 1일 대전에서 진행된 이 대회는 AI 축구와 AI 경기해설, AI 기자 등 총 3개 종목으로 구성됐다. 지난 11월 초까지 참가 접수한 국내 대학과 연구기관, 기업 등에서 총 26개 팀이 참가했다.  이 대회에서 전북대 ‘AR Lab’ 팀은 AI 축구 우승을 차지, 트로피 및 부상 1000만 원을 수상했다.  가상공간에서 진행되는 AI 축구는 AI 기술로 축구하는 방법을 학습한 5명의 선수들이 한 팀을 이루어 상대팀 골대에 골을 넣는 축구 경기다.  전북대 학생들은 물리 엔진이 적용된 시뮬레이터 ‘webots’로 물리법칙을 구현, 양 바퀴에 속도를 줌으로써 각각 5개의 로봇(differential wheeled robots)을 제어했다.  AR Lab 채홍석 팀장은 “학습할 때 선수 개개인이 아니라 선수를 총괄하는 한 명의 감독이 있다고 생각하고 감독을 학습시켰다”며, “특정 전략을 주입하는 게 아니라 어떤 시점에 공격하고 방어할지 AI 선수에게 선택권을 줬다”고 말했다.  한편, 전북대 자율로봇연구실은 지도교수 1명, 박사후과정생 1명, 박사과정생 7명, 석사과정생 8명 등으로 구성, 2003년 설립 이후 SCI급 국제논문을 100여 편 등재했다. 특히 공학이론과 딥러닝 시뮬레이션 등 광범위한 연구 방법을 통해 인공지능 및 로봇에 관한 다양한 연구(Person Following Robot, Dancing Robot for Autistic child 등)를 수행해 왔다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           김준 교수와 김용준 박사과정 ⓒKAIST       KAIST 의과학대학원 김준 교수와 연세대 생명공학과 권호정 교수가 공동 연구를 통해 난치성 유전질환인 섬모병증의 치료제 후보를 개발해 섬모병증 치료제 개발을 위한 기반이 될 것으로 기대된다.  섬모는 세포의 운동성, 감각 수용 등에 관여하는 세포소기관이다. 인체의 대부분의 세포에 일시적 혹은 영구적으로 존재하는 비운동성 섬모는 세포간 신호전달에서 중요한 역할을 담당한다.  비운동성 섬모의 형성에 필수적인 유전자의 돌연변이는 주버트 증후군, 콩팥황페증 등을 포함하는 섬모병증(ciliopathy)을 유발한다.  섬모병증 돌연변이는 망막의 광수용체 세포의 구조물인 연결섬모의 이상을 초래할 수 있기 때문에 망막퇴행도 섬모병증 환자에서 흔히 나타나는 증상의 하나이다.  희귀유전질환인 섬모병증에 대한 치료제는 아직 개발된 바가 없다.  연구팀은 문제 해결을 위해 섬모병증 원인의 하나인 CEP290 유전자 돌연변이를 유전자 편집기법으로 모사한 세포를 구축한 뒤 화합물 라이브러리 스크리닝 기법을 통해 섬모병증에서 나타나는 섬모형성 부진 현상을 극복할 수 있는 천연 저분자 화합물을 발굴했다.  발굴된 후보물질은 CEP290 유전자를 유전자 편집으로 제거한 세포주에서 나타나는 섬모형성 부진을 현저하게 개선했다.  또한 CEP290 돌연변이를 지닌 생쥐에서 나타나는 망막퇴행을 유의미하게 지연시키는 효과를 보였다.  발굴된 화합물은 CEP290 단백질과 복합체를 이뤄 섬모형성과 기능에 관여하는 단백질(NPHP5)에 작용하는 것으로 밝혀졌다.  CEP290 단백질이 유전자 돌연변이로 인해 만들어지지 않는 경우 NPHP5 단백질도 정상적으로 작용하지 못하는데 이 화합물은 NPHP5의 기능을 정상화시켜 복합체가 담당하던 기능의 일부를 회복함을 확인했다.  연구팀은 발굴한 화합물을 섬모병증 증상을 갖는 동물 모델에 주입했고 망막 퇴행 현상을 지연시키는 효과를 입증했다.  1저자인 김용준 박사과정은 “이번 연구는 기능손실 유전자 돌연변이로 인해 발생하는 유전질환도 저분자 화합물 약물로 치료가 가능함을 규명했다는 의미를 갖는다”고 말했다.  이번 연구는 의, 과학 분야 국제 학술지 ‘저널 오브 클리니컬 인베스티게이션(Journal of Clinical Investigation)’ 7월 23일자 온라인 판에 게재됐다.(논문명 Eupatilin rescues ciliary transition zone defects to ameliorate ciliopathy-related phenotypes) 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      한림대학교가 영국의 대학평가기관 QS(Quacquarelli Symonds)가 실시한 ‘2017/2018 설립 50주년 미만 세계대학평가’에서 국내 6위(세계 101-150위권)에 이름을 올렸다.   이번 평가에서 한국 대학은 한림대를 포함한 KAIST, POSTECH, GIST, 울산대, 아주대 등 6개 대학이 순위에 들었다. 세계 1위는 싱가포르 난양공대가 차지했다.     ▲한림대 캠퍼스 전경. ⓒ한림대     2012년부터 발표하기 시작한 QS 설립 50주년 미만 대학 순위는 ‘QS 세계대학순위’를 기반으로 매겨진다. 설립 50주년을 넘지 않은 대학만을 대상으로 하며 상위 150개 대학을 발표한다.   평가는 ▲학계 평판도(40%) ▲교수당 학생 수(20%) ▲논문당 피인용 수(20%) ▲졸업생 평판도(10%) ▲외국인교수 비율(5%) ▲외국인 학생 비율(5%) 등 6가지 지표를 통해 이뤄진다.   한림대는 최근 대학의 새로운 비전을 바탕으로 복수전공 필수화와 융합인재학부 신설, 융합전공 교육기회 확대, 글로벌 융합대학 설립을 추진하며 국제 사회에서 필요로 하는 핵심 인재 육성을 위한 변화를 이어가고 있다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ⓒ전북연구개발특구본부      연구개발특구진흥재단 전북연구개발특구본부는 5일 아름다운컨벤션에서 '글로벌 기술사업화 및 기술의 해외시장진출 지원' 주제로 '전북특구육성자문단 1차 포럼'을 개최했다.  이번 포럼은 글로벌 사업화와 전북기업이 나아갈 방향에 대해 논의, 전북특구 육성자문단 및 산․학․연․관 등 75개 기관에서 130여명이 참석했다.  기조연설은 전 미래창조과학부 장관 최문기(KAIST 명예교수)가 '글로벌 기술사업화 및 기술의 해외시장진출 지원'이라는 주제로 발표했다.  발표에서 KAIST는 글로벌 기술사업화를 위해 먼저 해외 기술 수요를 조사하고, 수요기술에 대해 국내 기술자원을 발굴해 해외로 기술 이전 및 해외 기업과 공동으로 기술을 개발하는 등 기술사업화를 추진하고 있다고 말했다.  주요사례로 코스타리카 전력통신공사(ICE)에서 국내의 스마트 그리드 기술 이전을 요청, KAIST․ETRI․한전․포스코ICT 등 4개 기관의 협력을 통해 코스타리카에 “스마트 에너지 프로젝트*”를 추진하고 있는 사례를 소개했다.  기조연설에 이어 KAIST 송락경 교수의 KAIST 기업지원 사례 발표가 진행됐다.  KAIST에서는 현지 글로벌 전문네트워크에 의한 글로벌 시장기회를 분석하고, 글로벌 현지에서의 잠재고객 접촉 실습을 통한 시장기회를 직접 검증할 수 있는 '글로벌 역량강화 현지 실전 프로그램' 등을 통해 글로벌 시장에 진출한 기업들의 사례를 소개했다.  기조연설 및 사례발표에 이어 글로벌 기술사업화와 전북기업이 나아갈 방향에 대해 패널토론이 진행됐다.  안계혁 전주대학교 산학협력단 부단장은 "전북지역 기업의 기술혁신 역량은 타지역에 비해 상대적으로 낮은 수준으로 전북기업의 기술사업화를 위해 기업․대학․출연연 등 산학연이 협력할 수 있는 지역기술협력 플랫폼 구축이 시급하다"고 주장했다.  김영준 한국무역협회 전북지역본부 본부장은 "중소기업이 독자적으로 해외시장에 진출하기에는 시간과 비용이 많이 들어 우선 국내의 무역진흥기관이나 시장조사기관 등을 통해 시장조사가 필요하다"며 "무엇보다 글로벌 시장에 대한 성공적인 진출을 위해서는 2~3년 동안의 체계적이고 지속적인 현지 소비자에 대한 접근을 통한 시장수요 창출이 필요하다"고 강조했다.  서준석 전북특구본부 본부장은 “우리나라 기술수출의 대부분은 대기업이 차지하고 있지만, 유망한 공공기술을 이전 받았거나 차별화된 자체 기술을 보유한 전북지역 중소기업들도 개발도상국을 대상으로 기술 수출 가능성이 높은 것으로 판단된다"며 "전북특구본부에서 추진하고 있는 글로벌 진출 지원 사업 등을 통해 전북특구 내 중소기업의 해외시장 진출을 적극 지원하겠다”고 말했다. 							 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲스몰지 논문 관련 그림 ⓒKAIST       달걀 속 살충제 성분인 피프로닐 술폰(Fipronil sulfone)을 시료 전처리 없이 검출할 수 있게 됐다.  KAIST 생명화학공학과 김신현 교수 연구팀과 재료연구소 김동호 박사 공동 연구팀이 생체 시료에 들어있는 미량의 분자를 직접 검출할 수 있는 센서를 개발해 다양한 종류의 살충제 성분을 검출하는데 성공했다.  특히 국내 및 유럽에서 문제가 됐던 달걀 속 살충제 성분인 피프로닐 술폰(Fipronil sulfone)을 시료 전처리 없이 검출할 수 있음을 증명했다.  연구팀의 센서는 전하를 띠는 하이드로젤 미세입자 내부에 금 나노입자 응집체를 캡슐화한 형태로 생체 시료 내에 존재하는 분자를 직접 분석해야 하는 광범위한 분야에 적용 가능할 것으로 기대된다.  분자가 레이저에 노출되면 ‘분자 지문’이라고 불리는 고유의 라만(Raman) 신호를 보인다. 하지만 일반적으로 라만 신호의 세기는 매우 낮아 실질적인 분자 감지에 사용이 어렵다.  연구팀은 금속 나노구조의 표면에서 발생하는 표면 플라즈몬 공명 현상이 강한 세기의 기장을 형성하는 점을 이용해 라만신호를 현저히 증가시켰다. 이를 표면증강라만산란 현상이라고 한다.  이 표면증강라만산란 현상에 의해 금속 나노구조 표면에 존재하는 분자의 라만신호는 크게 증가시킬 수 있지만 이를 일반적인 생체 시료에 직접 적용하는 것은 어렵다.  생체 시료에 존재하는 다양한 크기의 단백질들이 금속 표면에 비가역적으로 흡착해 실제 분석이 필요한 분자의 접근을 막기 때문이다.  일반적으로 사용되는 생체 시료 분석법은 대형 장비를 이용한 시료 전처리 과정이 필수지만 이로 인해 시료의 신속한 현장 분석이 어려워 시간과 비용을 증가시킨다.  연구팀은 시료의 정제 과정 없이 분자를 직접 검출하기 위해 하이드로젤에 주목했다.  하이드로젤은 친수성(親水性) 나노 그물 구조를 이루고 있어 단백질처럼 크기가 큰 분자는 배제하고 작은 크기의 분자만을 내부로 확산시킨다.  또한 하이드로젤이 전하를 띠는 경우 반대 전하를 띠고 있는 분자를 선택적으로 흡착시켜 농축할 수 있다.  연구팀은 이러한 원리를 센서 구현에 적용시키기 위해 미세유체기술을 이용했다.  이를 통해 금 나노입자 응집체를 형성하는 동시에 전하를 띠는 하이드로젤 미세입자 안에 캡슐화 하는데 성공했다.  하이드로젤 미세 입자는 생체 시료에 도입돼 단백질로부터 금 나노입자 응집체를 보호하고, 동시에 반대 전하를 띠는 표적 분자를 응집체 표면에 선택적으로 농축시킨다. 이를 통해 표적 분자의 라만 신호는 단백질의 방해 없이 증대되며 시료의 전처리 과정 없이 빠르고 정확한 분자 검출이 가능해진다.        ▲김신현 교수와 김동호 박사과정 ⓒKAIST    김신현 교수는 “새롭게 개발한 라만 센서는 식품 내 살충제 성분 검출 뿐 아니라 혈액과 소변, 땀 등 인체 속 시료에 들어있는 약물, 마약 성분 등 다양한 바이오마커의 직접 검출에도 사용 가능하다”고 말했다.  김동호 박사는 “시료 전처리가 필요없기 때문에 현장에서 시료의 직접 분석이 가능해 시간과 비용의 혁신적 절감이 가능해질 것이다”고 말했다.  이번 연구는 나노분야의 국제 학술지 ‘스몰(Small)’ 10월4일자에 SERS-Active Charged Microgels for Size- and Charge-Selective Molecular Analysis of Complex Biological Samples.(생체 시료의 분자 크기 및 전하 선택적 분석을 위한 표면증강라만산란용 마이크로젤)이라는 제목의 내부표지 논문으로 게재됐다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲콤부차 스타트업 ‘부루구루’를 창업한 KAIST MBA 출신 동문들. 왼쪽부터 김형진 고객경험총괄이사, 박상재 대표, 박훈 CTO, 추현진 전략이사 ⓒ KAIST       2014년 KAIST 한 학생이 방에서 맥주를 빚던 중에 차단기가 경영대 기숙사가 정전된 적이 있었다.  그 일로 기숙사에서 쫓겨날 뻔했던 박상재 학생은 국내·외 손꼽히는 양조대회에서 우승을 차지한 뒤 맥주회사 공동 창업자를 거쳐 지난해 12월 KAIST MBA 출신 동문들과 유기농 발효음료 스타트업인 ‘부루구루’를 창업했다.  박 씨가 창업한 스타트업‘부루구루’에는 현재 박훈(29·테크노 MBA 재학 중), 추현진(40·테크노 MBA 2015년 졸업), 김형진(31·경영공학부 박사 2018년 졸업) 씨 등이 참여 중이다.  이들이 주목한 아이템은 ‘콤부차(Kombucha)’로 녹차나 홍차를 우린 물에 여러 미생물로 구성된 공생체(SCOBY)를 넣어 발효한 음료다.  고대 중국 만주일대에서 유래한 음료로 현대그룹 창업주인 고 정주영 회장, 로널드 레이건 전 미국 대통령이 즐겨 마셨으며 최근에는 미란다 커, 레이디 가가, 아만다 사이프리드 등 할리우드 스타들의 기호식품으로 유명세를 탔다.  지난해 전 세계 콤부차 시장은 1조 3000억 원 규모로 전년 대비 37.4% 성장했다.  부루구루는 음료 시장의 변화와 잠재력을 발견한 국내 엑셀러레이터 퓨처플레이와 미국 실리콘밸리 기반의 스파크랩벤처스로부터 총 7억 원의 초기 투자를 받았다.  콤부차는 맥주와 공정 방식이 거의 비슷하기 때문에 양조 전문가인 박상재 대표가 전반적인 경영과 함께 제품 개발에 주력한다.  수제 맥주를 개발할 때처럼 설비 하나하나를 직접 제작해 창업 6개월 만에 종균 배양 용기에 관련한 특허 출원을 완료했다.  박상재 대표는 지난 5월 모교에 총 1억 원의 창업 장학금을 기탁했다.  박상재 대표는“외국에서는 경영학 석사(MBA) 출신의 20%~30%가 창업을 하지만 우리나라에서는 MBA 출신의 창업가를 좀처럼 찾아보기 힘들다”며 “부루구루의 성공을 통해 국내 MBA 창업의 좋은 선례를 남기고 싶다”고 밝혔다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      국립 경상대학교는 오는 25일 오후 2시부터 6시까지 BNIT R&amp;D;센터 2층 대회의실에서 ‘대입전형 표준화 및 발전방안 심포지엄’을 개최한다고 밝혔다.  경상대 입학본부는 2019학년도 대학입학전형 기본계획 수립을 위해 수도권 및 영호남 권역 주요 대학 간 정보공유 기회의 장을 마련하기 위해 이번 심포지엄을 개최한다고 말했다. 또한 향후 입학전형 계획의 안내를 통해 고교교사의 진학지도 및 상담 역량을 높일 것으로 기대한다고 밝혔다.  이번 행사에는 전국의 진로진학 담당 핵심교사 150여 명과 경상대를 비롯해 서울대·카이스트·한국교원대·경북대 등 11개 대학의 입학전문가 15명이 패널로 참가한다.     ▲ 경상대학교 전경. ⓒ경상대    이날 행사는 경상대 김대군 입학본부장의 개회사를 시작으로 ‘2017학년도 학생부종합전형 운영 사례와 2019학년도 대입전형 방향’을 주제로 수도권에서는 숭실대·카이스트·서울시립대·한국교원대·서울대 순서로 발표 및 질의응답이 진행되고, 영남권역에서는 경상대·경북대·부산대·부경대·동아대·진주교대 순으로 발표 및 토의가 진행된다.   경상대 입학본부는 수도권 및 영남권역 대학 간 정보 공유로 2019학년도 대학입학전형 기본계획 수립을 위한 구체적 토대를 마련하는 시간이 될 것이라고 기대했다.   또한 이 자리를 통해 대학입학전형의 전형요소 표준화를 위해 한걸음 다가감으로써 입시를 대비하는 수험생과 학부모들의 혼란을 방지하고 사교육 컨설팅비 감소에 기여코자 한다고 말했다.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      국립 경상대학교(GNU) 총장임용추천위원회는 19일 실시된 제11대 총장임용후보자 선거에서 권순기 교수가 1순위 총장임용후보자로 선출됐다고 발표했다.  직선제로 실시된 이번 선거에는 권순기 교수(공과대학 나노·신소재공학부)와 권진회 교수(공과대학 기계항공정보융합공학부)가 출마해 양자 대결 구도로 전개됐다.   19일 오전 10시부터 오후 1시까지 실시된 온라인 투표 결과, 기호 2번 권순기 교수가 50.85%의 득표율로 1순위 총장임용후보자로 선출되었다. 경상대학교 총추위는 이날 오후 박물관 1층 대강당에서 1순위 후보자로 선출된 권순기 교수에게 당선증과 꽃다발을 증정했다.     ▲제11대 총장임용후보자 선거에서 권순기 교수가 1순위 총장임용후보자로 선출됐다.ⓒ경상대    권 교수는 “다시 한번 저를 선택해 주신 경상대학교 가족 여러분께 깊이 감사드리며 오직 대학발전으로 보답하겠다.”라고 말하고 “여러분의 선택을 무거운 책임감으로 받아들이겠다”라고 말했다.   또한 “저와 훌륭한 경쟁을 펼쳐주신 권진회 교수님께 위로와 감사의 말씀을 드린다”면서 “품위 있게 경쟁해주신 권 교수님의 인품에 존경과 감사를 드리며 교수님이 제시한 비전과 정책을 4년간의 대학 운영에 반드시 참고하겠다”라고 강조했다.이어 “지역에 인재가 머물게 하고 그 인재를 보고 기업이 찾아오게 하는 선순환 구조를 만들기 위해서는 거점 국립대의 획기적인 발전이 필요하다. 총장으로 취임하면 국립대 연합체제 구축을 실현하기 위해 적극 나설 것이다"고 밝혔다.그러면서 "전국에 서울대 수준의 대학이 골고루 있어서 지역을 살리고 세계와 경쟁하는 명문대학 연합체제를 만들겠다. 원칙있는 통합, 시너지가 확실한 통합을 위해 끊임없이 소통하고 재정을 확보하겠다”라고 강조했다.  권 교수는 한국과학기술원(KAIST)에서 박사학위를 받았으며, 경상대학교 제9대 총장, 산업통상자원부 소재부품전략위원회 위원장, 경상대-삼성디스플레이 OLED연구센터장 등을 역임했다. 주요 선거 공약으로는 ▲우수 인재를 양성하는 글로컬대학(G) ▲지역 혁신 플랫폼을 견인하는 거점대학(N) ▲원칙과 소통이 살아 있는 통합대학(U) ▲정부 정책 변화를 주도하는 선도대학 등을 제시했다.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       빈센트 두사스테 ⓒKAIST       빈센트 두사스테(Vincent Dusastre) 네이처 머티리얼스(Nature Materials)지 편집장과 미국 MIT·스탠포드대학 신소재 및 화학과 교수 등 관련 분야의 세계적인 석학 9명이 KAIST에 모인다.  8월 7일 대전에서 열릴 ‘2018 KAIST 재료 생명화학공학 국제 워크숍’에는 세계적인 석학들과 신소재·화학공학·생명공학 분야 전문가 500여 명이 참석해 미래 선도 기술에 대한 최신 트렌드와 학제 간 협력 강화 등을 논의할 예정이다. ‘유망 소재분야의 빅 아이디어들’이란 주제로 열리는 이번 국제 워크숍에서 빈센트 두사스테(Vincent Dusastre) 박사는 ‘에너지 소재의 연구동향 및 미래’를 주제로, 미국 화학회가 발행하는 나노분야의 대표적 학술지인 나노학술지(ACS Nano) 편집장인 폴 웨이즈(Paul S. Weiss) UCLA 교수는 ‘나노과학과 나노기술의 미래’를 주제로 각각 발표에 나선다.   또 재료화학 학회지(Chemistry of Materials) 편집장인 질리안 뷰리악(Jillian M. Buriak) 알버타대 교수는 ‘유기 태양전지용 기계학습과 간이 예측모델의 최적화를 위한 응용’을 주제로, 악타 머티리얼리아(Acta Materialia)지 편집장인 크리스토퍼 슈(Christopher A. Schuh) MIT 교수는 ‘결정립계(grain boundary) 분리를 통한 나노구조 금속의 3차원 인쇄기술’을 주제로 발표를 진행한다.   이와 함께 매크로몰리큘스(Macromolecules) 부편집장인 티모시 스와거(Timothy M. Swager) MIT 교수는 ‘화학반응 및 촉매를 이용한 나노-전자 센서’를 주제로, 또 제프리 그로스만(Jeffrey C. Grossman) MIT 교수와 제난 바오(Zhenan Bao) 스탠포드대 교수는 ‘원자크기의 재료설계 기술’과 ‘생체 피부모방 고분자 전자재료 및 디바이스’를 주제로 발표 및 토론에 참여할 예정이다.   국내 전문가로는 바이오테크놀리지 저널(Biotechnology Journal) 및 메타볼릭 엔지니어링(Metabolic Engineering)의 편집장인 이상엽 KAIST 교수와 에너지 스토리지 머티리얼스(Energy Storage Materials)지 부편집장인 김상욱 KAIST 교수가 발표자로 나선다.   이번 국제 워크숍은 △차세대 기능성 나노구조체 △환경 및 산업용 화학생명공학 소재 △미래 에너지 소재 기술 등 모두 3개 세션으로 나눠 진행되며, 신소재 및 생명화공 분야 세계적인 석학들의 강연 외에 미래 선도 기술에 대한 최신 트렌드 소개도 진행된다.      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ▲이노시톨 대사효소(IPMK) 제거된 생쥐의 공포기억 소거 증진 : 유전자 녹아웃 기술을 이용하여 생쥐의 흥분성 신경세포 특이적으로 이노시톨 대사효소(IPMK)를 제거했고(그림 위), 그 결과 소리 및 전기자극으로 학습된 공포기억이 소거되는 능력이 현저하게 향상됐다(그림 아래) ⓒ한국연구재단       KAIST 김세윤 교수 연구팀이 공포기억에 악해지도록 뇌를 조절하는 효소를 발견했다.  연구팀은 존스 홉킨스 의대, 뉴욕대, 컬럼비아 의대와의 국제 공동 연구를 통해 뇌의 흥분성 신경세포에서 이노시톨 대사효소를 제거함으로써 공포기억의 소거 현상이 조절되는 것을 규명했다.  현대 신경생물학의 핵심주제인 ‘기억은 어떻게 만들어지고 지워지는지’에 대한 연구는 현대 신경생물학의 핵심주제이다.  연구팀은 뇌의 흥분성 신경세포에 발현되는 이노시톨 대사효소가 공포기억의 소거 조절에서 핵심 역할을 담당한다는 것을 밝혔다.  생쥐에게 강한 소리자극과 전기자극을 동기화하면 매우 강력하게 공포기억이 학습된다.  이후 전기자극 없이 소리자극만 반복적으로 제시되면 공포기억에 대한 반응이 서서히 줄어드는데, 이를 ‘공포기억의 소거(extinction of fear memory)’라고 한다.  공포기억의 소거는 단순한 기억 소멸보다는 공포자극에 동기화된 기억을 억제하는 또 다른 학습으로 받아들여진다.  생쥐의 흥분성 신경세포에서만 특이적으로 이노시톨 대사효소를 제거하자, 공포기억의 소거 반응이 촉진됐다.  특히 이 효소가 제거된 생쥐의 편도체에서는 공포기억의 소거 반응을 전달하는 신호전달계의 활성화에 동반됨을 확인했다.  이노시톨 대사효소는 음식으로 섭취되거나 생체 내에서 합성된 포도당 유사물질인 이노시톨을 인산화해주는 효소이다.  이번 연구를 통해 이노시톨 대사가 기존에 알려진 세포의 성장, 신진대사 뿐 아니라 뇌기능 조절에서도 중요한 기능을 한다는 점을 알 수 있었다.        ▲ 김세윤 교수 ⓒ한국연구재단    김세윤 교수는 “각종 트라우마 및 극심한 스트레스등에 의하여 후천적으로 획득된 공포기억은 심할 경우 외상후 스트레스 장애 및 공포증과 같은 현대 사회의 심각한 정신 질환들을 유발한다“면서 ”이에 공포기억의 소거현상에 대한 기초적인 뇌과학 지식의 이해와 더불어 치료 타겟을 확립하는 데에 기여할 것으로 기대된다“고 설명했다.  이 연구 성과는 세계적 학술지 ‘PNAS’에 1월28일자 논문으로 게재됐다. 							 </t>
   </si>
 </sst>
 </file>
